--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup Harshal\Harshal\Harsh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\First Global\Work\Daily Report Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3007,25 +3007,30 @@
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3134,7 +3139,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3152,9 +3157,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -3466,39 +3468,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U403"/>
+  <dimension ref="A1:T401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B386" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="3" customWidth="1"/>
     <col min="10" max="12" width="17" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="3" customWidth="1"/>
-    <col min="14" max="15" width="16.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="16.5546875" style="3" customWidth="1"/>
     <col min="16" max="16" width="16" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="3" customWidth="1"/>
     <col min="20" max="20" width="10" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="13.8">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="2" spans="1:20" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>201.19000244140599</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:20" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>95.639999389648395</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:20" s="4" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>149.13000488281199</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:20" s="4" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>603.57000732421898</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:20" s="4" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>231.35000610351599</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:20" s="4" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>110.110000610352</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:20" s="4" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:20" s="4" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>69.730003356933594</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="10" spans="1:20" s="4" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>235.919998168945</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="11" spans="1:20" s="4" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>67.720001220703097</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="12" spans="1:20" s="4" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>178.05000305175801</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="13" spans="1:20" s="4" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>32.810001373291001</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="14" spans="1:20" s="4" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>13.212969779968301</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="15" spans="1:20" s="4" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>59.450000762939503</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="16" spans="1:20" s="4" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>157.99000549316401</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="17" spans="1:20" s="4" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>53.419998168945298</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="18" spans="1:20" s="4" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>9.0933704376220703</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="19" spans="1:20" s="4" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>262.22000122070301</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="20" spans="1:20" s="4" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>122.01999664306599</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="21" spans="1:20" s="4" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>100.919998168945</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="22" spans="1:20" s="4" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>88</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>28.440000534057599</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="23" spans="1:20" s="4" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>141.80000305175801</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="24" spans="1:20" s="4" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>29.4899997711182</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="25" spans="1:20" s="4" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>28.649999618530298</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="26" spans="1:20" s="4" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>98</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>132.69999694824199</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="27" spans="1:20" s="4" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>101</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>12.5761566162109</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="28" spans="1:20" s="4" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>107</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>38.099998474121101</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="29" spans="1:20" s="4" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>109</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>42.340000152587898</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="30" spans="1:20" s="4" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>112</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>20.829999923706101</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="31" spans="1:20" s="4" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>115</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>67.190002441406193</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="32" spans="1:20" s="4" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>2.2615401744842498</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="33" spans="1:20" s="4" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>15.8400001525879</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="34" spans="1:20" s="4" customFormat="1">
       <c r="A34" s="5" t="s">
         <v>125</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>59.099998474121101</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="35" spans="1:20" s="4" customFormat="1">
       <c r="A35" s="5" t="s">
         <v>128</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>79.352310180664105</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="36" spans="1:20" s="4" customFormat="1">
       <c r="A36" s="5" t="s">
         <v>132</v>
       </c>
@@ -5722,7 +5723,7 @@
         <v>32.919998168945298</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="37" spans="1:20" s="4" customFormat="1">
       <c r="A37" s="5" t="s">
         <v>134</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>138.89051818847699</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="38" spans="1:20" s="4" customFormat="1">
       <c r="A38" s="5" t="s">
         <v>136</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>42.889999389648402</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="39" spans="1:20" s="4" customFormat="1">
       <c r="A39" s="5" t="s">
         <v>139</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>1.5724446773529099</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="40" spans="1:20" s="4" customFormat="1">
       <c r="A40" s="5" t="s">
         <v>145</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>3.6711299419403098</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="41" spans="1:20" s="4" customFormat="1">
       <c r="A41" s="5" t="s">
         <v>147</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>6123.01708984375</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="42" spans="1:20" s="4" customFormat="1">
       <c r="A42" s="5" t="s">
         <v>151</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>100.43000030517599</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="43" spans="1:20" s="4" customFormat="1">
       <c r="A43" s="5" t="s">
         <v>154</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>34.919998168945298</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="44" spans="1:20" s="4" customFormat="1">
       <c r="A44" s="5" t="s">
         <v>157</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>56.279998779296903</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="45" spans="1:20" s="4" customFormat="1">
       <c r="A45" s="5" t="s">
         <v>159</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>29.399999618530298</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="46" spans="1:20" s="4" customFormat="1">
       <c r="A46" s="5" t="s">
         <v>161</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>91.910003662109403</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="47" spans="1:20" s="4" customFormat="1">
       <c r="A47" s="5" t="s">
         <v>163</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>2.20142269134521</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="48" spans="1:20" s="4" customFormat="1">
       <c r="A48" s="5" t="s">
         <v>165</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>37.639999389648402</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="49" spans="1:20" s="4" customFormat="1">
       <c r="A49" s="5" t="s">
         <v>167</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>32.110000610351598</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="50" spans="1:20" s="4" customFormat="1">
       <c r="A50" s="5" t="s">
         <v>169</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>37.159999847412102</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="51" spans="1:20" s="4" customFormat="1">
       <c r="A51" s="5" t="s">
         <v>172</v>
       </c>
@@ -6644,7 +6645,7 @@
         <v>34.049999237060497</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="52" spans="1:20" s="4" customFormat="1">
       <c r="A52" s="5" t="s">
         <v>174</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>44.459999084472699</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="53" spans="1:20" s="4" customFormat="1">
       <c r="A53" s="5" t="s">
         <v>177</v>
       </c>
@@ -6766,7 +6767,7 @@
         <v>6197.2353515625</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="54" spans="1:20" s="4" customFormat="1">
       <c r="A54" s="5" t="s">
         <v>179</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>3.5549552440643302</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="55" spans="1:20" s="4" customFormat="1">
       <c r="A55" s="5" t="s">
         <v>181</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>86.536712646484403</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="56" spans="1:20" s="4" customFormat="1">
       <c r="A56" s="5" t="s">
         <v>183</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>18.629999160766602</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="57" spans="1:20" s="4" customFormat="1">
       <c r="A57" s="5" t="s">
         <v>186</v>
       </c>
@@ -7012,7 +7013,7 @@
         <v>103.68000030517599</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="58" spans="1:20" s="4" customFormat="1">
       <c r="A58" s="5" t="s">
         <v>188</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>7.14089012145996</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="59" spans="1:20" s="4" customFormat="1">
       <c r="A59" s="5" t="s">
         <v>190</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>64.260002136230497</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="60" spans="1:20" s="4" customFormat="1">
       <c r="A60" s="5" t="s">
         <v>193</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>2931.62622070312</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="61" spans="1:20" s="4" customFormat="1">
       <c r="A61" s="5" t="s">
         <v>195</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>42.299999237060497</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="62" spans="1:20" s="4" customFormat="1">
       <c r="A62" s="5" t="s">
         <v>197</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="63" spans="1:20" s="4" customFormat="1">
       <c r="A63" s="5" t="s">
         <v>200</v>
       </c>
@@ -7382,7 +7383,7 @@
         <v>10.3440093994141</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="64" spans="1:20" s="4" customFormat="1">
       <c r="A64" s="5" t="s">
         <v>204</v>
       </c>
@@ -7444,7 +7445,7 @@
         <v>24.815586090087901</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="65" spans="1:20" s="4" customFormat="1">
       <c r="A65" s="5" t="s">
         <v>207</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>1533.53747558594</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="66" spans="1:20" s="4" customFormat="1">
       <c r="A66" s="5" t="s">
         <v>210</v>
       </c>
@@ -7566,7 +7567,7 @@
         <v>9.7676858901977504</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="67" spans="1:20" s="4" customFormat="1">
       <c r="A67" s="5" t="s">
         <v>213</v>
       </c>
@@ -7628,7 +7629,7 @@
         <v>1.8433101177215601</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="68" spans="1:20" s="4" customFormat="1">
       <c r="A68" s="5" t="s">
         <v>216</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>35.409999847412102</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="69" spans="1:20" s="4" customFormat="1">
       <c r="A69" s="5" t="s">
         <v>218</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>40.806640625</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="70" spans="1:20" s="4" customFormat="1">
       <c r="A70" s="5" t="s">
         <v>220</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>3.5472099781036399</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="71" spans="1:20" s="4" customFormat="1">
       <c r="A71" s="5" t="s">
         <v>222</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>962.98358154296898</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="72" spans="1:20" s="4" customFormat="1">
       <c r="A72" s="5" t="s">
         <v>224</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>1540.95922851562</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="73" spans="1:20" s="4" customFormat="1">
       <c r="A73" s="5" t="s">
         <v>226</v>
       </c>
@@ -7996,7 +7997,7 @@
         <v>7.1652898788452104</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="74" spans="1:20" s="4" customFormat="1">
       <c r="A74" s="5" t="s">
         <v>229</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>81.669998168945298</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="75" spans="1:20" s="4" customFormat="1">
       <c r="A75" s="5" t="s">
         <v>232</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>41.389999389648402</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="76" spans="1:20" s="4" customFormat="1">
       <c r="A76" s="5" t="s">
         <v>234</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>46.590000152587898</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="77" spans="1:20" s="4" customFormat="1">
       <c r="A77" s="5" t="s">
         <v>236</v>
       </c>
@@ -8236,7 +8237,7 @@
         <v>33.223381042480497</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="78" spans="1:20" s="4" customFormat="1">
       <c r="A78" s="5" t="s">
         <v>240</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>19.7700004577637</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="79" spans="1:20" s="4" customFormat="1">
       <c r="A79" s="5" t="s">
         <v>242</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>1.30503249168396</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="80" spans="1:20" s="4" customFormat="1">
       <c r="A80" s="5" t="s">
         <v>245</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>32.689998626708999</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="81" spans="1:20" s="4" customFormat="1">
       <c r="A81" s="5" t="s">
         <v>247</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>26.350000381469702</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="82" spans="1:20" s="4" customFormat="1">
       <c r="A82" s="5" t="s">
         <v>250</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>40.990001678466797</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="83" spans="1:20" s="4" customFormat="1">
       <c r="A83" s="5" t="s">
         <v>252</v>
       </c>
@@ -8608,7 +8609,7 @@
         <v>1.3777611255645701</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="84" spans="1:20" s="4" customFormat="1">
       <c r="A84" s="5" t="s">
         <v>254</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>2559.60668945312</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="85" spans="1:20" s="4" customFormat="1">
       <c r="A85" s="5" t="s">
         <v>256</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>74.062950134277301</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="86" spans="1:20" s="4" customFormat="1">
       <c r="A86" s="5" t="s">
         <v>258</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>13.7847595214844</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="87" spans="1:20" s="4" customFormat="1">
       <c r="A87" s="5" t="s">
         <v>260</v>
       </c>
@@ -8850,7 +8851,7 @@
         <v>42.400001525878899</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="88" spans="1:20" s="4" customFormat="1">
       <c r="A88" s="5" t="s">
         <v>263</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>109.290000915527</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="89" spans="1:20" s="4" customFormat="1">
       <c r="A89" s="5" t="s">
         <v>265</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>132.47000122070301</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="90" spans="1:20" s="4" customFormat="1">
       <c r="A90" s="5" t="s">
         <v>267</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>46.784641265869098</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="91" spans="1:20" s="4" customFormat="1">
       <c r="A91" s="5" t="s">
         <v>270</v>
       </c>
@@ -9098,7 +9099,7 @@
         <v>34.7299995422363</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="92" spans="1:20" s="4" customFormat="1">
       <c r="A92" s="5" t="s">
         <v>273</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>21.149999618530298</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="93" spans="1:20" s="4" customFormat="1">
       <c r="A93" s="5" t="s">
         <v>275</v>
       </c>
@@ -9218,7 +9219,7 @@
         <v>31.579999923706101</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="94" spans="1:20" s="4" customFormat="1">
       <c r="A94" s="5" t="s">
         <v>277</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>71.419998168945298</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="95" spans="1:20" s="4" customFormat="1">
       <c r="A95" s="5" t="s">
         <v>279</v>
       </c>
@@ -9342,7 +9343,7 @@
         <v>9.9550199508666992</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="96" spans="1:20" s="4" customFormat="1">
       <c r="A96" s="5" t="s">
         <v>283</v>
       </c>
@@ -9404,7 +9405,7 @@
         <v>1.50505423545837</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="97" spans="1:20" s="4" customFormat="1">
       <c r="A97" s="5" t="s">
         <v>286</v>
       </c>
@@ -9466,7 +9467,7 @@
         <v>10.5247344970703</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="98" spans="1:20" s="4" customFormat="1">
       <c r="A98" s="5" t="s">
         <v>289</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>41.369998931884801</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="99" spans="1:20" s="4" customFormat="1">
       <c r="A99" s="5" t="s">
         <v>291</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>12.6532230377197</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="100" spans="1:20" s="4" customFormat="1">
       <c r="A100" s="5" t="s">
         <v>293</v>
       </c>
@@ -9650,7 +9651,7 @@
         <v>1720.93884277344</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="101" spans="1:20" s="4" customFormat="1">
       <c r="A101" s="5" t="s">
         <v>295</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>1.95432412624359</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="102" spans="1:20" s="4" customFormat="1">
       <c r="A102" s="5" t="s">
         <v>298</v>
       </c>
@@ -9774,7 +9775,7 @@
         <v>1.1659406423568699</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="103" spans="1:20" s="4" customFormat="1">
       <c r="A103" s="5" t="s">
         <v>303</v>
       </c>
@@ -9836,7 +9837,7 @@
         <v>32.319999694824197</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="104" spans="1:20" s="4" customFormat="1">
       <c r="A104" s="5" t="s">
         <v>305</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>182.16000366210901</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="105" spans="1:20" s="4" customFormat="1">
       <c r="A105" s="5" t="s">
         <v>307</v>
       </c>
@@ -9956,7 +9957,7 @@
         <v>79.129997253417997</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="106" spans="1:20" s="4" customFormat="1">
       <c r="A106" s="5" t="s">
         <v>309</v>
       </c>
@@ -10018,7 +10019,7 @@
         <v>41.830001831054702</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="107" spans="1:20" s="4" customFormat="1">
       <c r="A107" s="5" t="s">
         <v>311</v>
       </c>
@@ -10080,7 +10081,7 @@
         <v>9.2940006256103498</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="108" spans="1:20" s="4" customFormat="1">
       <c r="A108" s="5" t="s">
         <v>313</v>
       </c>
@@ -10142,7 +10143,7 @@
         <v>32.200000762939503</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="109" spans="1:20" s="4" customFormat="1">
       <c r="A109" s="5" t="s">
         <v>316</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>4.52950143814087</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="110" spans="1:20" s="4" customFormat="1">
       <c r="A110" s="5" t="s">
         <v>321</v>
       </c>
@@ -10264,7 +10265,7 @@
         <v>2.48543405532837</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="111" spans="1:20" s="4" customFormat="1">
       <c r="A111" s="5" t="s">
         <v>324</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>1364.69055175781</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="112" spans="1:20" s="4" customFormat="1">
       <c r="A112" s="5" t="s">
         <v>326</v>
       </c>
@@ -10386,7 +10387,7 @@
         <v>32.083827972412102</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="113" spans="1:20" s="4" customFormat="1">
       <c r="A113" s="5" t="s">
         <v>328</v>
       </c>
@@ -10448,7 +10449,7 @@
         <v>147.52619934082</v>
       </c>
     </row>
-    <row r="114" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="114" spans="1:20" s="4" customFormat="1">
       <c r="A114" s="5" t="s">
         <v>331</v>
       </c>
@@ -10510,7 +10511,7 @@
         <v>29.040000915527301</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="115" spans="1:20" s="4" customFormat="1">
       <c r="A115" s="5" t="s">
         <v>333</v>
       </c>
@@ -10572,7 +10573,7 @@
         <v>63.060001373291001</v>
       </c>
     </row>
-    <row r="116" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="116" spans="1:20" s="4" customFormat="1">
       <c r="A116" s="5" t="s">
         <v>336</v>
       </c>
@@ -10632,7 +10633,7 @@
         <v>2880.60107421875</v>
       </c>
     </row>
-    <row r="117" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="117" spans="1:20" s="4" customFormat="1">
       <c r="A117" s="5" t="s">
         <v>338</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>143.53999328613301</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="118" spans="1:20" s="4" customFormat="1">
       <c r="A118" s="5" t="s">
         <v>340</v>
       </c>
@@ -10756,7 +10757,7 @@
         <v>25.860000610351602</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="119" spans="1:20" s="4" customFormat="1">
       <c r="A119" s="5" t="s">
         <v>343</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>118.140899658203</v>
       </c>
     </row>
-    <row r="120" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="120" spans="1:20" s="4" customFormat="1">
       <c r="A120" s="5" t="s">
         <v>346</v>
       </c>
@@ -10880,7 +10881,7 @@
         <v>37.700000762939503</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="121" spans="1:20" s="4" customFormat="1">
       <c r="A121" s="5" t="s">
         <v>348</v>
       </c>
@@ -10942,7 +10943,7 @@
         <v>68.620002746582003</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="122" spans="1:20" s="4" customFormat="1">
       <c r="A122" s="5" t="s">
         <v>350</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>54.340000152587898</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="123" spans="1:20" s="4" customFormat="1">
       <c r="A123" s="5" t="s">
         <v>352</v>
       </c>
@@ -11066,7 +11067,7 @@
         <v>57.119998931884801</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="124" spans="1:20" s="4" customFormat="1">
       <c r="A124" s="5" t="s">
         <v>354</v>
       </c>
@@ -11128,7 +11129,7 @@
         <v>17.579999923706101</v>
       </c>
     </row>
-    <row r="125" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="125" spans="1:20" s="4" customFormat="1">
       <c r="A125" s="5" t="s">
         <v>356</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>17.129999160766602</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="126" spans="1:20" s="4" customFormat="1">
       <c r="A126" s="5" t="s">
         <v>358</v>
       </c>
@@ -11252,7 +11253,7 @@
         <v>20.561487197876001</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="127" spans="1:20" s="4" customFormat="1">
       <c r="A127" s="5" t="s">
         <v>360</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>57.643337249755902</v>
       </c>
     </row>
-    <row r="128" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="128" spans="1:20" s="4" customFormat="1">
       <c r="A128" s="5" t="s">
         <v>362</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>3683.08740234375</v>
       </c>
     </row>
-    <row r="129" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="129" spans="1:20" s="4" customFormat="1">
       <c r="A129" s="5" t="s">
         <v>364</v>
       </c>
@@ -11432,7 +11433,7 @@
         <v>44.470001220703097</v>
       </c>
     </row>
-    <row r="130" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="130" spans="1:20" s="4" customFormat="1">
       <c r="A130" s="5" t="s">
         <v>366</v>
       </c>
@@ -11492,7 +11493,7 @@
         <v>1694.03466796875</v>
       </c>
     </row>
-    <row r="131" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="131" spans="1:20" s="4" customFormat="1">
       <c r="A131" s="5" t="s">
         <v>368</v>
       </c>
@@ -11550,7 +11551,7 @@
         <v>9.0575618743896502</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="132" spans="1:20" s="4" customFormat="1">
       <c r="A132" s="5" t="s">
         <v>371</v>
       </c>
@@ -11612,7 +11613,7 @@
         <v>50.650001525878899</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="133" spans="1:20" s="4" customFormat="1">
       <c r="A133" s="5" t="s">
         <v>373</v>
       </c>
@@ -11672,7 +11673,7 @@
         <v>28.530000686645501</v>
       </c>
     </row>
-    <row r="134" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="134" spans="1:20" s="4" customFormat="1">
       <c r="A134" s="5" t="s">
         <v>377</v>
       </c>
@@ -11734,7 +11735,7 @@
         <v>1.0033695697784399</v>
       </c>
     </row>
-    <row r="135" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="135" spans="1:20" s="4" customFormat="1">
       <c r="A135" s="5" t="s">
         <v>380</v>
       </c>
@@ -11794,7 +11795,7 @@
         <v>4388.162109375</v>
       </c>
     </row>
-    <row r="136" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="136" spans="1:20" s="4" customFormat="1">
       <c r="A136" s="5" t="s">
         <v>382</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>6837.369140625</v>
       </c>
     </row>
-    <row r="137" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="137" spans="1:20" s="4" customFormat="1">
       <c r="A137" s="5" t="s">
         <v>384</v>
       </c>
@@ -11914,7 +11915,7 @@
         <v>783.93170166015602</v>
       </c>
     </row>
-    <row r="138" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="138" spans="1:20" s="4" customFormat="1">
       <c r="A138" s="5" t="s">
         <v>386</v>
       </c>
@@ -11976,7 +11977,7 @@
         <v>0.56841617822647095</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="139" spans="1:20" s="4" customFormat="1">
       <c r="A139" s="5" t="s">
         <v>389</v>
       </c>
@@ -12038,7 +12039,7 @@
         <v>26.030000686645501</v>
       </c>
     </row>
-    <row r="140" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="140" spans="1:20" s="4" customFormat="1">
       <c r="A140" s="5" t="s">
         <v>392</v>
       </c>
@@ -12100,7 +12101,7 @@
         <v>2.0217146873474099</v>
       </c>
     </row>
-    <row r="141" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="141" spans="1:20" s="4" customFormat="1">
       <c r="A141" s="5" t="s">
         <v>394</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>11.277184486389199</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="142" spans="1:20" s="4" customFormat="1">
       <c r="A142" s="5" t="s">
         <v>397</v>
       </c>
@@ -12220,7 +12221,7 @@
         <v>13.9700002670288</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="143" spans="1:20" s="4" customFormat="1">
       <c r="A143" s="5" t="s">
         <v>399</v>
       </c>
@@ -12282,7 +12283,7 @@
         <v>70.120002746582003</v>
       </c>
     </row>
-    <row r="144" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="144" spans="1:20" s="4" customFormat="1">
       <c r="A144" s="5" t="s">
         <v>401</v>
       </c>
@@ -12344,7 +12345,7 @@
         <v>1.8644702434539799</v>
       </c>
     </row>
-    <row r="145" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="145" spans="1:20" s="4" customFormat="1">
       <c r="A145" s="5" t="s">
         <v>405</v>
       </c>
@@ -12406,7 +12407,7 @@
         <v>1.1156870126724201</v>
       </c>
     </row>
-    <row r="146" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="146" spans="1:20" s="4" customFormat="1">
       <c r="A146" s="5" t="s">
         <v>407</v>
       </c>
@@ -12464,7 +12465,7 @@
         <v>21.459999084472699</v>
       </c>
     </row>
-    <row r="147" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="147" spans="1:20" s="4" customFormat="1">
       <c r="A147" s="5" t="s">
         <v>409</v>
       </c>
@@ -12526,7 +12527,7 @@
         <v>0.92214190959930398</v>
       </c>
     </row>
-    <row r="148" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="148" spans="1:20" s="4" customFormat="1">
       <c r="A148" s="5" t="s">
         <v>414</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>0.861100673675537</v>
       </c>
     </row>
-    <row r="149" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="149" spans="1:20" s="4" customFormat="1">
       <c r="A149" s="5" t="s">
         <v>416</v>
       </c>
@@ -12650,7 +12651,7 @@
         <v>22.7299995422363</v>
       </c>
     </row>
-    <row r="150" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="150" spans="1:20" s="4" customFormat="1">
       <c r="A150" s="5" t="s">
         <v>418</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>16.731630325317401</v>
       </c>
     </row>
-    <row r="151" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="151" spans="1:20" s="4" customFormat="1">
       <c r="A151" s="5" t="s">
         <v>422</v>
       </c>
@@ -12774,7 +12775,7 @@
         <v>10.6300001144409</v>
       </c>
     </row>
-    <row r="152" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="152" spans="1:20" s="4" customFormat="1">
       <c r="A152" s="5" t="s">
         <v>424</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>5.8099999427795401</v>
       </c>
     </row>
-    <row r="153" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="153" spans="1:20" s="4" customFormat="1">
       <c r="A153" s="5" t="s">
         <v>426</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>26.110000610351602</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="154" spans="1:20" s="4" customFormat="1">
       <c r="A154" s="5" t="s">
         <v>428</v>
       </c>
@@ -12954,7 +12955,7 @@
         <v>6670.37744140625</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="155" spans="1:20" s="4" customFormat="1">
       <c r="A155" s="5" t="s">
         <v>430</v>
       </c>
@@ -13016,7 +13017,7 @@
         <v>12.9537363052368</v>
       </c>
     </row>
-    <row r="156" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="156" spans="1:20" s="4" customFormat="1">
       <c r="A156" s="5" t="s">
         <v>432</v>
       </c>
@@ -13078,7 +13079,7 @@
         <v>12.384341239929199</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="157" spans="1:20" s="4" customFormat="1">
       <c r="A157" s="5" t="s">
         <v>434</v>
       </c>
@@ -13140,7 +13141,7 @@
         <v>1.0582239627838099</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="158" spans="1:20" s="4" customFormat="1">
       <c r="A158" s="5" t="s">
         <v>437</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>2.11087846755981</v>
       </c>
     </row>
-    <row r="159" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="159" spans="1:20" s="4" customFormat="1">
       <c r="A159" s="5" t="s">
         <v>439</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>15.608803749084499</v>
       </c>
     </row>
-    <row r="160" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="160" spans="1:20" s="4" customFormat="1">
       <c r="A160" s="5" t="s">
         <v>441</v>
       </c>
@@ -13322,7 +13323,7 @@
         <v>12.2200002670288</v>
       </c>
     </row>
-    <row r="161" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="161" spans="1:20" s="4" customFormat="1">
       <c r="A161" s="5" t="s">
         <v>443</v>
       </c>
@@ -13382,7 +13383,7 @@
         <v>5399.3876953125</v>
       </c>
     </row>
-    <row r="162" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="162" spans="1:20" s="4" customFormat="1">
       <c r="A162" s="5" t="s">
         <v>445</v>
       </c>
@@ -13444,7 +13445,7 @@
         <v>2.9853055477142298</v>
       </c>
     </row>
-    <row r="163" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="163" spans="1:20" s="4" customFormat="1">
       <c r="A163" s="5" t="s">
         <v>447</v>
       </c>
@@ -13506,7 +13507,7 @@
         <v>13.039999961853001</v>
       </c>
     </row>
-    <row r="164" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="164" spans="1:20" s="4" customFormat="1">
       <c r="A164" s="5" t="s">
         <v>449</v>
       </c>
@@ -13562,7 +13563,7 @@
         <v>18.2399997711182</v>
       </c>
     </row>
-    <row r="165" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="165" spans="1:20" s="4" customFormat="1">
       <c r="A165" s="5" t="s">
         <v>451</v>
       </c>
@@ -13624,7 +13625,7 @@
         <v>10.7399997711182</v>
       </c>
     </row>
-    <row r="166" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="166" spans="1:20" s="4" customFormat="1">
       <c r="A166" s="5" t="s">
         <v>453</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>585.39752197265602</v>
       </c>
     </row>
-    <row r="167" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="167" spans="1:20" s="4" customFormat="1">
       <c r="A167" s="5" t="s">
         <v>455</v>
       </c>
@@ -13746,7 +13747,7 @@
         <v>15.2399997711182</v>
       </c>
     </row>
-    <row r="168" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="168" spans="1:20" s="4" customFormat="1">
       <c r="A168" s="5" t="s">
         <v>457</v>
       </c>
@@ -13806,7 +13807,7 @@
         <v>1342.42504882812</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="169" spans="1:20" s="4" customFormat="1">
       <c r="A169" s="5" t="s">
         <v>459</v>
       </c>
@@ -13866,7 +13867,7 @@
         <v>2820.298828125</v>
       </c>
     </row>
-    <row r="170" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="170" spans="1:20" s="4" customFormat="1">
       <c r="A170" s="5" t="s">
         <v>461</v>
       </c>
@@ -13926,7 +13927,7 @@
         <v>4657.20361328125</v>
       </c>
     </row>
-    <row r="171" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="171" spans="1:20" s="4" customFormat="1">
       <c r="A171" s="5" t="s">
         <v>463</v>
       </c>
@@ -13986,7 +13987,7 @@
         <v>22.559999465942401</v>
       </c>
     </row>
-    <row r="172" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="172" spans="1:20" s="4" customFormat="1">
       <c r="A172" s="5" t="s">
         <v>465</v>
       </c>
@@ -14046,7 +14047,7 @@
         <v>1337.78637695312</v>
       </c>
     </row>
-    <row r="173" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="173" spans="1:20" s="4" customFormat="1">
       <c r="A173" s="5" t="s">
         <v>467</v>
       </c>
@@ -14108,7 +14109,7 @@
         <v>0.71883189678192105</v>
       </c>
     </row>
-    <row r="174" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="174" spans="1:20" s="4" customFormat="1">
       <c r="A174" s="5" t="s">
         <v>469</v>
       </c>
@@ -14166,7 +14167,7 @@
         <v>4.16548776626587</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="175" spans="1:20" s="4" customFormat="1">
       <c r="A175" s="5" t="s">
         <v>471</v>
       </c>
@@ -14228,7 +14229,7 @@
         <v>9.6688261032104492</v>
       </c>
     </row>
-    <row r="176" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="176" spans="1:20" s="4" customFormat="1">
       <c r="A176" s="5" t="s">
         <v>474</v>
       </c>
@@ -14290,7 +14291,7 @@
         <v>11.039999961853001</v>
       </c>
     </row>
-    <row r="177" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="177" spans="1:20" s="4" customFormat="1">
       <c r="A177" s="5" t="s">
         <v>476</v>
       </c>
@@ -14352,7 +14353,7 @@
         <v>0.75627106428146396</v>
       </c>
     </row>
-    <row r="178" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="178" spans="1:20" s="4" customFormat="1">
       <c r="A178" s="5" t="s">
         <v>478</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>1427.77624511719</v>
       </c>
     </row>
-    <row r="179" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="179" spans="1:20" s="4" customFormat="1">
       <c r="A179" s="5" t="s">
         <v>480</v>
       </c>
@@ -14474,7 +14475,7 @@
         <v>382.22470092773398</v>
       </c>
     </row>
-    <row r="180" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="180" spans="1:20" s="4" customFormat="1">
       <c r="A180" s="5" t="s">
         <v>483</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>4402.078125</v>
       </c>
     </row>
-    <row r="181" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="181" spans="1:20" s="4" customFormat="1">
       <c r="A181" s="5" t="s">
         <v>485</v>
       </c>
@@ -14596,7 +14597,7 @@
         <v>10.6866703033447</v>
       </c>
     </row>
-    <row r="182" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="182" spans="1:20" s="4" customFormat="1">
       <c r="A182" s="5" t="s">
         <v>487</v>
       </c>
@@ -14654,7 +14655,7 @@
         <v>19.159999847412099</v>
       </c>
     </row>
-    <row r="183" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="183" spans="1:20" s="4" customFormat="1">
       <c r="A183" s="5" t="s">
         <v>489</v>
       </c>
@@ -14716,7 +14717,7 @@
         <v>17.4799995422363</v>
       </c>
     </row>
-    <row r="184" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="184" spans="1:20" s="4" customFormat="1">
       <c r="A184" s="5" t="s">
         <v>491</v>
       </c>
@@ -14778,7 +14779,7 @@
         <v>12.6599998474121</v>
       </c>
     </row>
-    <row r="185" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="185" spans="1:20" s="4" customFormat="1">
       <c r="A185" s="5" t="s">
         <v>494</v>
       </c>
@@ -14840,7 +14841,7 @@
         <v>1.5688275098800699</v>
       </c>
     </row>
-    <row r="186" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="186" spans="1:20" s="4" customFormat="1">
       <c r="A186" s="5" t="s">
         <v>499</v>
       </c>
@@ -14902,7 +14903,7 @@
         <v>22.7299995422363</v>
       </c>
     </row>
-    <row r="187" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="187" spans="1:20" s="4" customFormat="1">
       <c r="A187" s="5" t="s">
         <v>501</v>
       </c>
@@ -14964,7 +14965,7 @@
         <v>9.5500001907348597</v>
       </c>
     </row>
-    <row r="188" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="188" spans="1:20" s="4" customFormat="1">
       <c r="A188" s="5" t="s">
         <v>503</v>
       </c>
@@ -15024,7 +15025,7 @@
         <v>2.5021426677703902</v>
       </c>
     </row>
-    <row r="189" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="189" spans="1:20" s="4" customFormat="1">
       <c r="A189" s="5" t="s">
         <v>505</v>
       </c>
@@ -15086,7 +15087,7 @@
         <v>13.7299995422363</v>
       </c>
     </row>
-    <row r="190" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="190" spans="1:20" s="4" customFormat="1">
       <c r="A190" s="5" t="s">
         <v>508</v>
       </c>
@@ -15148,7 +15149,7 @@
         <v>3.65563988685608</v>
       </c>
     </row>
-    <row r="191" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="191" spans="1:20" s="4" customFormat="1">
       <c r="A191" s="5" t="s">
         <v>510</v>
       </c>
@@ -15210,7 +15211,7 @@
         <v>26.620000839233398</v>
       </c>
     </row>
-    <row r="192" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="192" spans="1:20" s="4" customFormat="1">
       <c r="A192" s="5" t="s">
         <v>512</v>
       </c>
@@ -15268,7 +15269,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="193" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="193" spans="1:20" s="4" customFormat="1">
       <c r="A193" s="5" t="s">
         <v>514</v>
       </c>
@@ -15328,7 +15329,7 @@
         <v>1566.93566894531</v>
       </c>
     </row>
-    <row r="194" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="194" spans="1:20" s="4" customFormat="1">
       <c r="A194" s="5" t="s">
         <v>516</v>
       </c>
@@ -15390,7 +15391,7 @@
         <v>33.819999694824197</v>
       </c>
     </row>
-    <row r="195" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="195" spans="1:20" s="4" customFormat="1">
       <c r="A195" s="5" t="s">
         <v>519</v>
       </c>
@@ -15450,7 +15451,7 @@
         <v>961.12811279296898</v>
       </c>
     </row>
-    <row r="196" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="196" spans="1:20" s="4" customFormat="1">
       <c r="A196" s="5" t="s">
         <v>521</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>2936.26489257812</v>
       </c>
     </row>
-    <row r="197" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="197" spans="1:20" s="4" customFormat="1">
       <c r="A197" s="5" t="s">
         <v>523</v>
       </c>
@@ -15572,7 +15573,7 @@
         <v>12.0100002288818</v>
       </c>
     </row>
-    <row r="198" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="198" spans="1:20" s="4" customFormat="1">
       <c r="A198" s="5" t="s">
         <v>526</v>
       </c>
@@ -15630,7 +15631,7 @@
         <v>11.550000190734901</v>
       </c>
     </row>
-    <row r="199" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="199" spans="1:20" s="4" customFormat="1">
       <c r="A199" s="5" t="s">
         <v>528</v>
       </c>
@@ -15692,7 +15693,7 @@
         <v>11.062618255615201</v>
       </c>
     </row>
-    <row r="200" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="200" spans="1:20" s="4" customFormat="1">
       <c r="A200" s="5" t="s">
         <v>531</v>
       </c>
@@ -15754,7 +15755,7 @@
         <v>23.190000534057599</v>
       </c>
     </row>
-    <row r="201" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="201" spans="1:20" s="4" customFormat="1">
       <c r="A201" s="5" t="s">
         <v>534</v>
       </c>
@@ -15816,7 +15817,7 @@
         <v>10.20166015625</v>
       </c>
     </row>
-    <row r="202" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="202" spans="1:20" s="4" customFormat="1">
       <c r="A202" s="5" t="s">
         <v>536</v>
       </c>
@@ -15878,7 +15879,7 @@
         <v>16.690000534057599</v>
       </c>
     </row>
-    <row r="203" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="203" spans="1:20" s="4" customFormat="1">
       <c r="A203" s="5" t="s">
         <v>538</v>
       </c>
@@ -15940,7 +15941,7 @@
         <v>2.5403599739074698</v>
       </c>
     </row>
-    <row r="204" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="204" spans="1:20" s="4" customFormat="1">
       <c r="A204" s="5" t="s">
         <v>539</v>
       </c>
@@ -16002,7 +16003,7 @@
         <v>1.8123300075530999</v>
       </c>
     </row>
-    <row r="205" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="205" spans="1:20" s="4" customFormat="1">
       <c r="A205" s="5" t="s">
         <v>541</v>
       </c>
@@ -16064,7 +16065,7 @@
         <v>9.9090547561645508</v>
       </c>
     </row>
-    <row r="206" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="206" spans="1:20" s="4" customFormat="1">
       <c r="A206" s="5" t="s">
         <v>543</v>
       </c>
@@ -16126,7 +16127,7 @@
         <v>11.9019374847412</v>
       </c>
     </row>
-    <row r="207" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="207" spans="1:20" s="4" customFormat="1">
       <c r="A207" s="5" t="s">
         <v>545</v>
       </c>
@@ -16188,7 +16189,7 @@
         <v>2.9818248748779301</v>
       </c>
     </row>
-    <row r="208" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="208" spans="1:20" s="4" customFormat="1">
       <c r="A208" s="5" t="s">
         <v>547</v>
       </c>
@@ -16250,7 +16251,7 @@
         <v>16.090000152587901</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="209" spans="1:20" s="4" customFormat="1">
       <c r="A209" s="5" t="s">
         <v>549</v>
       </c>
@@ -16310,7 +16311,7 @@
         <v>1412.93249511719</v>
       </c>
     </row>
-    <row r="210" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="210" spans="1:20" s="4" customFormat="1">
       <c r="A210" s="5" t="s">
         <v>551</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>3.0625236034393302</v>
       </c>
     </row>
-    <row r="211" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="211" spans="1:20" s="4" customFormat="1">
       <c r="A211" s="5" t="s">
         <v>553</v>
       </c>
@@ -16434,7 +16435,7 @@
         <v>0.92931532859802202</v>
       </c>
     </row>
-    <row r="212" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="212" spans="1:20" s="4" customFormat="1">
       <c r="A212" s="5" t="s">
         <v>555</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>10.90549659729</v>
       </c>
     </row>
-    <row r="213" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="213" spans="1:20" s="4" customFormat="1">
       <c r="A213" s="5" t="s">
         <v>557</v>
       </c>
@@ -16558,7 +16559,7 @@
         <v>0.44779583811759899</v>
       </c>
     </row>
-    <row r="214" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="214" spans="1:20" s="4" customFormat="1">
       <c r="A214" s="5" t="s">
         <v>560</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>1.2240233421325699</v>
       </c>
     </row>
-    <row r="215" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="215" spans="1:20" s="4" customFormat="1">
       <c r="A215" s="5" t="s">
         <v>563</v>
       </c>
@@ -16682,7 +16683,7 @@
         <v>21.200000762939499</v>
       </c>
     </row>
-    <row r="216" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="216" spans="1:20" s="4" customFormat="1">
       <c r="A216" s="5" t="s">
         <v>565</v>
       </c>
@@ -16742,7 +16743,7 @@
         <v>1331.29235839844</v>
       </c>
     </row>
-    <row r="217" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="217" spans="1:20" s="4" customFormat="1">
       <c r="A217" s="5" t="s">
         <v>567</v>
       </c>
@@ -16802,7 +16803,7 @@
         <v>1758.97583007812</v>
       </c>
     </row>
-    <row r="218" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="218" spans="1:20" s="4" customFormat="1">
       <c r="A218" s="5" t="s">
         <v>569</v>
       </c>
@@ -16864,7 +16865,7 @@
         <v>17.5100002288818</v>
       </c>
     </row>
-    <row r="219" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="219" spans="1:20" s="4" customFormat="1">
       <c r="A219" s="5" t="s">
         <v>571</v>
       </c>
@@ -16926,7 +16927,7 @@
         <v>108.665641784668</v>
       </c>
     </row>
-    <row r="220" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="220" spans="1:20" s="4" customFormat="1">
       <c r="A220" s="5" t="s">
         <v>574</v>
       </c>
@@ -16988,7 +16989,7 @@
         <v>2.0295650959014901</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="221" spans="1:20" s="4" customFormat="1">
       <c r="A221" s="5" t="s">
         <v>577</v>
       </c>
@@ -17048,7 +17049,7 @@
         <v>1264.49572753906</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="222" spans="1:20" s="4" customFormat="1">
       <c r="A222" s="5" t="s">
         <v>579</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>2.0988950729370099</v>
       </c>
     </row>
-    <row r="223" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="223" spans="1:20" s="4" customFormat="1">
       <c r="A223" s="5" t="s">
         <v>581</v>
       </c>
@@ -17172,7 +17173,7 @@
         <v>19.5200004577637</v>
       </c>
     </row>
-    <row r="224" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="224" spans="1:20" s="4" customFormat="1">
       <c r="A224" s="5" t="s">
         <v>583</v>
       </c>
@@ -17234,7 +17235,7 @@
         <v>14.430000305175801</v>
       </c>
     </row>
-    <row r="225" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="225" spans="1:20" s="4" customFormat="1">
       <c r="A225" s="5" t="s">
         <v>585</v>
       </c>
@@ -17296,7 +17297,7 @@
         <v>0.50525879859924305</v>
       </c>
     </row>
-    <row r="226" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="226" spans="1:20" s="4" customFormat="1">
       <c r="A226" s="5" t="s">
         <v>589</v>
       </c>
@@ -17358,7 +17359,7 @@
         <v>17.149999618530298</v>
       </c>
     </row>
-    <row r="227" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="227" spans="1:20" s="4" customFormat="1">
       <c r="A227" s="5" t="s">
         <v>591</v>
       </c>
@@ -17420,7 +17421,7 @@
         <v>18.190000534057599</v>
       </c>
     </row>
-    <row r="228" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="228" spans="1:20" s="4" customFormat="1">
       <c r="A228" s="5" t="s">
         <v>593</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>19.559999465942401</v>
       </c>
     </row>
-    <row r="229" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="229" spans="1:20" s="4" customFormat="1">
       <c r="A229" s="5" t="s">
         <v>595</v>
       </c>
@@ -17544,7 +17545,7 @@
         <v>41.389999389648402</v>
       </c>
     </row>
-    <row r="230" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="230" spans="1:20" s="4" customFormat="1">
       <c r="A230" s="5" t="s">
         <v>597</v>
       </c>
@@ -17606,7 +17607,7 @@
         <v>2.8501601219177299</v>
       </c>
     </row>
-    <row r="231" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="231" spans="1:20" s="4" customFormat="1">
       <c r="A231" s="5" t="s">
         <v>599</v>
       </c>
@@ -17666,7 +17667,7 @@
         <v>1666.20275878906</v>
       </c>
     </row>
-    <row r="232" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="232" spans="1:20" s="4" customFormat="1">
       <c r="A232" s="5" t="s">
         <v>601</v>
       </c>
@@ -17726,7 +17727,7 @@
         <v>3590.314453125</v>
       </c>
     </row>
-    <row r="233" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="233" spans="1:20" s="4" customFormat="1">
       <c r="A233" s="5" t="s">
         <v>603</v>
       </c>
@@ -17788,7 +17789,7 @@
         <v>0.61572754383087203</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="234" spans="1:20" s="4" customFormat="1">
       <c r="A234" s="5" t="s">
         <v>605</v>
       </c>
@@ -17850,7 +17851,7 @@
         <v>0.621526479721069</v>
       </c>
     </row>
-    <row r="235" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="235" spans="1:20" s="4" customFormat="1">
       <c r="A235" s="5" t="s">
         <v>609</v>
       </c>
@@ -17912,7 +17913,7 @@
         <v>4.8733997344970703</v>
       </c>
     </row>
-    <row r="236" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="236" spans="1:20" s="4" customFormat="1">
       <c r="A236" s="5" t="s">
         <v>611</v>
       </c>
@@ -17974,7 +17975,7 @@
         <v>11.024120330810501</v>
       </c>
     </row>
-    <row r="237" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="237" spans="1:20" s="4" customFormat="1">
       <c r="A237" s="5" t="s">
         <v>613</v>
       </c>
@@ -18036,7 +18037,7 @@
         <v>1.0108573436737101</v>
       </c>
     </row>
-    <row r="238" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="238" spans="1:20" s="4" customFormat="1">
       <c r="A238" s="5" t="s">
         <v>615</v>
       </c>
@@ -18096,7 +18097,7 @@
         <v>0.26459184288978599</v>
       </c>
     </row>
-    <row r="239" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="239" spans="1:20" s="4" customFormat="1">
       <c r="A239" s="5" t="s">
         <v>618</v>
       </c>
@@ -18158,7 +18159,7 @@
         <v>29.584815979003899</v>
       </c>
     </row>
-    <row r="240" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="240" spans="1:20" s="4" customFormat="1">
       <c r="A240" s="5" t="s">
         <v>620</v>
       </c>
@@ -18220,7 +18221,7 @@
         <v>1.13965404033661</v>
       </c>
     </row>
-    <row r="241" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="241" spans="1:20" s="4" customFormat="1">
       <c r="A241" s="5" t="s">
         <v>623</v>
       </c>
@@ -18282,7 +18283,7 @@
         <v>1.45218753814697</v>
       </c>
     </row>
-    <row r="242" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="242" spans="1:20" s="4" customFormat="1">
       <c r="A242" s="5" t="s">
         <v>624</v>
       </c>
@@ -18344,7 +18345,7 @@
         <v>14.2190589904785</v>
       </c>
     </row>
-    <row r="243" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="243" spans="1:20" s="4" customFormat="1">
       <c r="A243" s="5" t="s">
         <v>626</v>
       </c>
@@ -18406,7 +18407,7 @@
         <v>14.180000305175801</v>
       </c>
     </row>
-    <row r="244" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="244" spans="1:20" s="4" customFormat="1">
       <c r="A244" s="5" t="s">
         <v>628</v>
       </c>
@@ -18468,7 +18469,7 @@
         <v>279.67999267578102</v>
       </c>
     </row>
-    <row r="245" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="245" spans="1:20" s="4" customFormat="1">
       <c r="A245" s="5" t="s">
         <v>630</v>
       </c>
@@ -18528,7 +18529,7 @@
         <v>161.51776123046901</v>
       </c>
     </row>
-    <row r="246" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="246" spans="1:20" s="4" customFormat="1">
       <c r="A246" s="5" t="s">
         <v>632</v>
       </c>
@@ -18590,7 +18591,7 @@
         <v>1.82781994342804</v>
       </c>
     </row>
-    <row r="247" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="247" spans="1:20" s="4" customFormat="1">
       <c r="A247" s="5" t="s">
         <v>634</v>
       </c>
@@ -18652,7 +18653,7 @@
         <v>21.920000076293899</v>
       </c>
     </row>
-    <row r="248" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="248" spans="1:20" s="4" customFormat="1">
       <c r="A248" s="5" t="s">
         <v>636</v>
       </c>
@@ -18714,7 +18715,7 @@
         <v>15.210000038146999</v>
       </c>
     </row>
-    <row r="249" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="249" spans="1:20" s="4" customFormat="1">
       <c r="A249" s="5" t="s">
         <v>638</v>
       </c>
@@ -18774,7 +18775,7 @@
         <v>1372.11242675781</v>
       </c>
     </row>
-    <row r="250" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="250" spans="1:20" s="4" customFormat="1">
       <c r="A250" s="5" t="s">
         <v>640</v>
       </c>
@@ -18836,7 +18837,7 @@
         <v>7.3863186836242702</v>
       </c>
     </row>
-    <row r="251" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="251" spans="1:20" s="4" customFormat="1">
       <c r="A251" s="5" t="s">
         <v>642</v>
       </c>
@@ -18896,7 +18897,7 @@
         <v>3845.44018554688</v>
       </c>
     </row>
-    <row r="252" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="252" spans="1:20" s="4" customFormat="1">
       <c r="A252" s="5" t="s">
         <v>644</v>
       </c>
@@ -18958,7 +18959,7 @@
         <v>0.52173900604248002</v>
       </c>
     </row>
-    <row r="253" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="253" spans="1:20" s="4" customFormat="1">
       <c r="A253" s="5" t="s">
         <v>646</v>
       </c>
@@ -19016,7 +19017,7 @@
         <v>14.460000038146999</v>
       </c>
     </row>
-    <row r="254" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="254" spans="1:20" s="4" customFormat="1">
       <c r="A254" s="5" t="s">
         <v>648</v>
       </c>
@@ -19078,7 +19079,7 @@
         <v>0.84392100572586104</v>
       </c>
     </row>
-    <row r="255" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="255" spans="1:20" s="4" customFormat="1">
       <c r="A255" s="5" t="s">
         <v>650</v>
       </c>
@@ -19138,7 +19139,7 @@
         <v>2451.98999023438</v>
       </c>
     </row>
-    <row r="256" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="256" spans="1:20" s="4" customFormat="1">
       <c r="A256" s="5" t="s">
         <v>652</v>
       </c>
@@ -19200,7 +19201,7 @@
         <v>16.909999847412099</v>
       </c>
     </row>
-    <row r="257" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="257" spans="1:20" s="4" customFormat="1">
       <c r="A257" s="5" t="s">
         <v>654</v>
       </c>
@@ -19262,7 +19263,7 @@
         <v>26.090000152587901</v>
       </c>
     </row>
-    <row r="258" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="258" spans="1:20" s="4" customFormat="1">
       <c r="A258" s="5" t="s">
         <v>656</v>
       </c>
@@ -19324,7 +19325,7 @@
         <v>0.910353124141693</v>
       </c>
     </row>
-    <row r="259" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="259" spans="1:20" s="4" customFormat="1">
       <c r="A259" s="5" t="s">
         <v>659</v>
       </c>
@@ -19386,7 +19387,7 @@
         <v>2.33898997306824</v>
       </c>
     </row>
-    <row r="260" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="260" spans="1:20" s="4" customFormat="1">
       <c r="A260" s="5" t="s">
         <v>661</v>
       </c>
@@ -19448,7 +19449,7 @@
         <v>28.430000305175799</v>
       </c>
     </row>
-    <row r="261" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="261" spans="1:20" s="4" customFormat="1">
       <c r="A261" s="5" t="s">
         <v>663</v>
       </c>
@@ -19510,7 +19511,7 @@
         <v>0.97746473550796498</v>
       </c>
     </row>
-    <row r="262" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="262" spans="1:20" s="4" customFormat="1">
       <c r="A262" s="5" t="s">
         <v>665</v>
       </c>
@@ -19572,7 +19573,7 @@
         <v>2.2228150367736799</v>
       </c>
     </row>
-    <row r="263" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="263" spans="1:20" s="4" customFormat="1">
       <c r="A263" s="5" t="s">
         <v>668</v>
       </c>
@@ -19634,7 +19635,7 @@
         <v>3.8647549152374299</v>
       </c>
     </row>
-    <row r="264" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="264" spans="1:20" s="4" customFormat="1">
       <c r="A264" s="5" t="s">
         <v>670</v>
       </c>
@@ -19694,7 +19695,7 @@
         <v>816.40228271484398</v>
       </c>
     </row>
-    <row r="265" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="265" spans="1:20" s="4" customFormat="1">
       <c r="A265" s="5" t="s">
         <v>672</v>
       </c>
@@ -19756,7 +19757,7 @@
         <v>8.8414392471313494</v>
       </c>
     </row>
-    <row r="266" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="266" spans="1:20" s="4" customFormat="1">
       <c r="A266" s="5" t="s">
         <v>674</v>
       </c>
@@ -19816,7 +19817,7 @@
         <v>1547.45336914062</v>
       </c>
     </row>
-    <row r="267" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="267" spans="1:20" s="4" customFormat="1">
       <c r="A267" s="5" t="s">
         <v>676</v>
       </c>
@@ -19878,7 +19879,7 @@
         <v>17.159999847412099</v>
       </c>
     </row>
-    <row r="268" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="268" spans="1:20" s="4" customFormat="1">
       <c r="A268" s="5" t="s">
         <v>679</v>
       </c>
@@ -19940,7 +19941,7 @@
         <v>0.32451057434081998</v>
       </c>
     </row>
-    <row r="269" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="269" spans="1:20" s="4" customFormat="1">
       <c r="A269" s="5" t="s">
         <v>684</v>
       </c>
@@ -20002,7 +20003,7 @@
         <v>3.0487005710601802</v>
       </c>
     </row>
-    <row r="270" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="270" spans="1:20" s="4" customFormat="1">
       <c r="A270" s="5" t="s">
         <v>687</v>
       </c>
@@ -20062,7 +20063,7 @@
         <v>5380.8330078125</v>
       </c>
     </row>
-    <row r="271" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="271" spans="1:20" s="4" customFormat="1">
       <c r="A271" s="5" t="s">
         <v>689</v>
       </c>
@@ -20122,7 +20123,7 @@
         <v>56.0119819641113</v>
       </c>
     </row>
-    <row r="272" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="272" spans="1:20" s="4" customFormat="1">
       <c r="A272" s="5" t="s">
         <v>691</v>
       </c>
@@ -20184,7 +20185,7 @@
         <v>41.379299163818402</v>
       </c>
     </row>
-    <row r="273" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="273" spans="1:20" s="4" customFormat="1">
       <c r="A273" s="5" t="s">
         <v>693</v>
       </c>
@@ -20242,7 +20243,7 @@
         <v>10.2799997329712</v>
       </c>
     </row>
-    <row r="274" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="274" spans="1:20" s="4" customFormat="1">
       <c r="A274" s="5" t="s">
         <v>695</v>
       </c>
@@ -20304,7 +20305,7 @@
         <v>1.4601633548736599</v>
       </c>
     </row>
-    <row r="275" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="275" spans="1:20" s="4" customFormat="1">
       <c r="A275" s="5" t="s">
         <v>698</v>
       </c>
@@ -20366,7 +20367,7 @@
         <v>0.90602773427963301</v>
       </c>
     </row>
-    <row r="276" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="276" spans="1:20" s="4" customFormat="1">
       <c r="A276" s="5" t="s">
         <v>700</v>
       </c>
@@ -20428,7 +20429,7 @@
         <v>0.69499999284744296</v>
       </c>
     </row>
-    <row r="277" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="277" spans="1:20" s="4" customFormat="1">
       <c r="A277" s="5" t="s">
         <v>702</v>
       </c>
@@ -20490,7 +20491,7 @@
         <v>4.5900001525878897</v>
       </c>
     </row>
-    <row r="278" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="278" spans="1:20" s="4" customFormat="1">
       <c r="A278" s="5" t="s">
         <v>704</v>
       </c>
@@ -20548,7 +20549,7 @@
         <v>21.829080581665</v>
       </c>
     </row>
-    <row r="279" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="279" spans="1:20" s="4" customFormat="1">
       <c r="A279" s="5" t="s">
         <v>707</v>
       </c>
@@ -20610,7 +20611,7 @@
         <v>1.8045849800109901</v>
       </c>
     </row>
-    <row r="280" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="280" spans="1:20" s="4" customFormat="1">
       <c r="A280" s="5" t="s">
         <v>709</v>
       </c>
@@ -20672,7 +20673,7 @@
         <v>44.900001525878899</v>
       </c>
     </row>
-    <row r="281" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="281" spans="1:20" s="4" customFormat="1">
       <c r="A281" s="5" t="s">
         <v>711</v>
       </c>
@@ -20734,7 +20735,7 @@
         <v>41.790000915527301</v>
       </c>
     </row>
-    <row r="282" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="282" spans="1:20" s="4" customFormat="1">
       <c r="A282" s="5" t="s">
         <v>713</v>
       </c>
@@ -20794,7 +20795,7 @@
         <v>1090.08251953125</v>
       </c>
     </row>
-    <row r="283" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="283" spans="1:20" s="4" customFormat="1">
       <c r="A283" s="5" t="s">
         <v>715</v>
       </c>
@@ -20854,7 +20855,7 @@
         <v>9.6999998092651403</v>
       </c>
     </row>
-    <row r="284" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="284" spans="1:20" s="4" customFormat="1">
       <c r="A284" s="5" t="s">
         <v>717</v>
       </c>
@@ -20916,7 +20917,7 @@
         <v>12.9899997711182</v>
       </c>
     </row>
-    <row r="285" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="285" spans="1:20" s="4" customFormat="1">
       <c r="A285" s="5" t="s">
         <v>719</v>
       </c>
@@ -20978,7 +20979,7 @@
         <v>11.0464744567871</v>
       </c>
     </row>
-    <row r="286" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="286" spans="1:20" s="4" customFormat="1">
       <c r="A286" s="5" t="s">
         <v>721</v>
       </c>
@@ -21040,7 +21041,7 @@
         <v>0.280793696641922</v>
       </c>
     </row>
-    <row r="287" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="287" spans="1:20" s="4" customFormat="1">
       <c r="A287" s="5" t="s">
         <v>723</v>
       </c>
@@ -21102,7 +21103,7 @@
         <v>1.89745080471039</v>
       </c>
     </row>
-    <row r="288" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="288" spans="1:20" s="4" customFormat="1">
       <c r="A288" s="5" t="s">
         <v>727</v>
       </c>
@@ -21164,7 +21165,7 @@
         <v>1.48986804485321</v>
       </c>
     </row>
-    <row r="289" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="289" spans="1:20" s="4" customFormat="1">
       <c r="A289" s="5" t="s">
         <v>729</v>
       </c>
@@ -21226,7 +21227,7 @@
         <v>2.13315677642822</v>
       </c>
     </row>
-    <row r="290" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="290" spans="1:20" s="4" customFormat="1">
       <c r="A290" s="5" t="s">
         <v>731</v>
       </c>
@@ -21286,7 +21287,7 @@
         <v>1363.76281738281</v>
       </c>
     </row>
-    <row r="291" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="291" spans="1:20" s="4" customFormat="1">
       <c r="A291" s="5" t="s">
         <v>733</v>
       </c>
@@ -21348,7 +21349,7 @@
         <v>1.5010071992874101</v>
       </c>
     </row>
-    <row r="292" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="292" spans="1:20" s="4" customFormat="1">
       <c r="A292" s="5" t="s">
         <v>735</v>
       </c>
@@ -21410,7 +21411,7 @@
         <v>70.870002746582003</v>
       </c>
     </row>
-    <row r="293" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="293" spans="1:20" s="4" customFormat="1">
       <c r="A293" s="5" t="s">
         <v>737</v>
       </c>
@@ -21472,7 +21473,7 @@
         <v>7.6399998664856001</v>
       </c>
     </row>
-    <row r="294" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="294" spans="1:20" s="4" customFormat="1">
       <c r="A294" s="5" t="s">
         <v>739</v>
       </c>
@@ -21534,7 +21535,7 @@
         <v>11.439999580383301</v>
       </c>
     </row>
-    <row r="295" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="295" spans="1:20" s="4" customFormat="1">
       <c r="A295" s="5" t="s">
         <v>742</v>
       </c>
@@ -21596,7 +21597,7 @@
         <v>1.7544239759445199</v>
       </c>
     </row>
-    <row r="296" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="296" spans="1:20" s="4" customFormat="1">
       <c r="A296" s="5" t="s">
         <v>744</v>
       </c>
@@ -21658,7 +21659,7 @@
         <v>1.1930776834487899</v>
       </c>
     </row>
-    <row r="297" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="297" spans="1:20" s="4" customFormat="1">
       <c r="A297" s="5" t="s">
         <v>746</v>
       </c>
@@ -21720,7 +21721,7 @@
         <v>1.36731600761414</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="298" spans="1:20" s="4" customFormat="1">
       <c r="A298" s="5" t="s">
         <v>748</v>
       </c>
@@ -21782,7 +21783,7 @@
         <v>16.053775787353501</v>
       </c>
     </row>
-    <row r="299" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="299" spans="1:20" s="4" customFormat="1">
       <c r="A299" s="5" t="s">
         <v>750</v>
       </c>
@@ -21844,7 +21845,7 @@
         <v>37.380001068115199</v>
       </c>
     </row>
-    <row r="300" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="300" spans="1:20" s="4" customFormat="1">
       <c r="A300" s="5" t="s">
         <v>752</v>
       </c>
@@ -21906,7 +21907,7 @@
         <v>64.209999084472699</v>
       </c>
     </row>
-    <row r="301" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="301" spans="1:20" s="4" customFormat="1">
       <c r="A301" s="5" t="s">
         <v>754</v>
       </c>
@@ -21966,7 +21967,7 @@
         <v>15.096876144409199</v>
       </c>
     </row>
-    <row r="302" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="302" spans="1:20" s="4" customFormat="1">
       <c r="A302" s="5" t="s">
         <v>756</v>
       </c>
@@ -22028,7 +22029,7 @@
         <v>10.5187387466431</v>
       </c>
     </row>
-    <row r="303" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="303" spans="1:20" s="4" customFormat="1">
       <c r="A303" s="5" t="s">
         <v>759</v>
       </c>
@@ -22088,7 +22089,7 @@
         <v>0.79500001668930098</v>
       </c>
     </row>
-    <row r="304" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="304" spans="1:20" s="4" customFormat="1">
       <c r="A304" s="5" t="s">
         <v>761</v>
       </c>
@@ -22150,7 +22151,7 @@
         <v>2.4629101753234899</v>
       </c>
     </row>
-    <row r="305" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="305" spans="1:20" s="4" customFormat="1">
       <c r="A305" s="5" t="s">
         <v>764</v>
       </c>
@@ -22212,7 +22213,7 @@
         <v>2.3157551288604701</v>
       </c>
     </row>
-    <row r="306" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="306" spans="1:20" s="4" customFormat="1">
       <c r="A306" s="5" t="s">
         <v>767</v>
       </c>
@@ -22272,7 +22273,7 @@
         <v>487.98590087890602</v>
       </c>
     </row>
-    <row r="307" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="307" spans="1:20" s="4" customFormat="1">
       <c r="A307" s="5" t="s">
         <v>769</v>
       </c>
@@ -22334,7 +22335,7 @@
         <v>4.5611066818237296</v>
       </c>
     </row>
-    <row r="308" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="308" spans="1:20" s="4" customFormat="1">
       <c r="A308" s="5" t="s">
         <v>774</v>
       </c>
@@ -22392,7 +22393,7 @@
         <v>20.459999084472699</v>
       </c>
     </row>
-    <row r="309" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="309" spans="1:20" s="4" customFormat="1">
       <c r="A309" s="5" t="s">
         <v>776</v>
       </c>
@@ -22454,7 +22455,7 @@
         <v>1.5335100889205899</v>
       </c>
     </row>
-    <row r="310" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="310" spans="1:20" s="4" customFormat="1">
       <c r="A310" s="5" t="s">
         <v>778</v>
       </c>
@@ -22514,7 +22515,7 @@
         <v>0.65144139528274503</v>
       </c>
     </row>
-    <row r="311" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="311" spans="1:20" s="4" customFormat="1">
       <c r="A311" s="5" t="s">
         <v>780</v>
       </c>
@@ -22574,7 +22575,7 @@
         <v>15.1171169281006</v>
       </c>
     </row>
-    <row r="312" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="312" spans="1:20" s="4" customFormat="1">
       <c r="A312" s="5" t="s">
         <v>783</v>
       </c>
@@ -22636,7 +22637,7 @@
         <v>0.97885721921920799</v>
       </c>
     </row>
-    <row r="313" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="313" spans="1:20" s="4" customFormat="1">
       <c r="A313" s="5" t="s">
         <v>787</v>
       </c>
@@ -22698,7 +22699,7 @@
         <v>1.24436759948731</v>
       </c>
     </row>
-    <row r="314" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="314" spans="1:20" s="4" customFormat="1">
       <c r="A314" s="5" t="s">
         <v>790</v>
       </c>
@@ -22756,7 +22757,7 @@
         <v>4.3397479057312003</v>
       </c>
     </row>
-    <row r="315" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="315" spans="1:20" s="4" customFormat="1">
       <c r="A315" s="5" t="s">
         <v>794</v>
       </c>
@@ -22818,7 +22819,7 @@
         <v>17.799999237060501</v>
       </c>
     </row>
-    <row r="316" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="316" spans="1:20" s="4" customFormat="1">
       <c r="A316" s="5" t="s">
         <v>796</v>
       </c>
@@ -22876,7 +22877,7 @@
         <v>1224.60339355469</v>
       </c>
     </row>
-    <row r="317" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="317" spans="1:20" s="4" customFormat="1">
       <c r="A317" s="5" t="s">
         <v>798</v>
       </c>
@@ -22926,7 +22927,7 @@
         <v>5.1669983863830602</v>
       </c>
     </row>
-    <row r="318" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="318" spans="1:20" s="4" customFormat="1">
       <c r="A318" s="5" t="s">
         <v>800</v>
       </c>
@@ -22988,7 +22989,7 @@
         <v>1.7265759706497199</v>
       </c>
     </row>
-    <row r="319" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="319" spans="1:20" s="4" customFormat="1">
       <c r="A319" s="5" t="s">
         <v>802</v>
       </c>
@@ -23046,7 +23047,7 @@
         <v>1197.69921875</v>
       </c>
     </row>
-    <row r="320" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="320" spans="1:20" s="4" customFormat="1">
       <c r="A320" s="5" t="s">
         <v>804</v>
       </c>
@@ -23106,7 +23107,7 @@
         <v>4.7699999809265101</v>
       </c>
     </row>
-    <row r="321" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="321" spans="1:20" s="4" customFormat="1">
       <c r="A321" s="5" t="s">
         <v>807</v>
       </c>
@@ -23166,7 +23167,7 @@
         <v>1410.1494140625</v>
       </c>
     </row>
-    <row r="322" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="322" spans="1:20" s="4" customFormat="1">
       <c r="A322" s="5" t="s">
         <v>809</v>
       </c>
@@ -23228,7 +23229,7 @@
         <v>19.610000610351602</v>
       </c>
     </row>
-    <row r="323" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="323" spans="1:20" s="4" customFormat="1">
       <c r="A323" s="5" t="s">
         <v>811</v>
       </c>
@@ -23290,7 +23291,7 @@
         <v>17.067461013793899</v>
       </c>
     </row>
-    <row r="324" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="324" spans="1:20" s="4" customFormat="1">
       <c r="A324" s="5" t="s">
         <v>814</v>
       </c>
@@ -23350,7 +23351,7 @@
         <v>411.44818115234398</v>
       </c>
     </row>
-    <row r="325" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="325" spans="1:20" s="4" customFormat="1">
       <c r="A325" s="5" t="s">
         <v>816</v>
       </c>
@@ -23410,7 +23411,7 @@
         <v>0.58030700683593806</v>
       </c>
     </row>
-    <row r="326" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="326" spans="1:20" s="4" customFormat="1">
       <c r="A326" s="5" t="s">
         <v>818</v>
       </c>
@@ -23472,7 +23473,7 @@
         <v>0.53163605928420998</v>
       </c>
     </row>
-    <row r="327" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="327" spans="1:20" s="4" customFormat="1">
       <c r="A327" s="5" t="s">
         <v>820</v>
       </c>
@@ -23532,7 +23533,7 @@
         <v>17.2399997711182</v>
       </c>
     </row>
-    <row r="328" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="328" spans="1:20" s="4" customFormat="1">
       <c r="A328" s="5" t="s">
         <v>822</v>
       </c>
@@ -23594,7 +23595,7 @@
         <v>13.680000305175801</v>
       </c>
     </row>
-    <row r="329" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="329" spans="1:20" s="4" customFormat="1">
       <c r="A329" s="5" t="s">
         <v>824</v>
       </c>
@@ -23652,7 +23653,7 @@
         <v>13.7799997329712</v>
       </c>
     </row>
-    <row r="330" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="330" spans="1:20" s="4" customFormat="1">
       <c r="A330" s="5" t="s">
         <v>826</v>
       </c>
@@ -23712,7 +23713,7 @@
         <v>1035.34655761719</v>
       </c>
     </row>
-    <row r="331" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="331" spans="1:20" s="4" customFormat="1">
       <c r="A331" s="5" t="s">
         <v>828</v>
       </c>
@@ -23774,7 +23775,7 @@
         <v>1.2044260501861599</v>
       </c>
     </row>
-    <row r="332" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="332" spans="1:20" s="4" customFormat="1">
       <c r="A332" s="5" t="s">
         <v>830</v>
       </c>
@@ -23836,7 +23837,7 @@
         <v>1.71822166442871</v>
       </c>
     </row>
-    <row r="333" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="333" spans="1:20" s="4" customFormat="1">
       <c r="A333" s="5" t="s">
         <v>833</v>
       </c>
@@ -23898,7 +23899,7 @@
         <v>16.809999465942401</v>
       </c>
     </row>
-    <row r="334" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="334" spans="1:20" s="4" customFormat="1">
       <c r="A334" s="5" t="s">
         <v>835</v>
       </c>
@@ -23960,7 +23961,7 @@
         <v>0.68000000715255704</v>
       </c>
     </row>
-    <row r="335" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="335" spans="1:20" s="4" customFormat="1">
       <c r="A335" s="5" t="s">
         <v>837</v>
       </c>
@@ -24022,7 +24023,7 @@
         <v>0.44597756862640398</v>
       </c>
     </row>
-    <row r="336" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="336" spans="1:20" s="4" customFormat="1">
       <c r="A336" s="5" t="s">
         <v>842</v>
       </c>
@@ -24082,7 +24083,7 @@
         <v>2619.9091796875</v>
       </c>
     </row>
-    <row r="337" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="337" spans="1:20" s="4" customFormat="1">
       <c r="A337" s="5" t="s">
         <v>844</v>
       </c>
@@ -24142,7 +24143,7 @@
         <v>1232.02526855469</v>
       </c>
     </row>
-    <row r="338" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="338" spans="1:20" s="4" customFormat="1">
       <c r="A338" s="5" t="s">
         <v>846</v>
       </c>
@@ -24204,7 +24205,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="339" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="339" spans="1:20" s="4" customFormat="1">
       <c r="A339" s="5" t="s">
         <v>848</v>
       </c>
@@ -24266,7 +24267,7 @@
         <v>1.2044260501861599</v>
       </c>
     </row>
-    <row r="340" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="340" spans="1:20" s="4" customFormat="1">
       <c r="A340" s="5" t="s">
         <v>850</v>
       </c>
@@ -24328,7 +24329,7 @@
         <v>1.91894578933716</v>
       </c>
     </row>
-    <row r="341" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="341" spans="1:20" s="4" customFormat="1">
       <c r="A341" s="5" t="s">
         <v>853</v>
       </c>
@@ -24388,7 +24389,7 @@
         <v>1.8268743753433201</v>
       </c>
     </row>
-    <row r="342" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="342" spans="1:20" s="4" customFormat="1">
       <c r="A342" s="5" t="s">
         <v>856</v>
       </c>
@@ -24446,7 +24447,7 @@
         <v>0.62097704410553001</v>
       </c>
     </row>
-    <row r="343" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="343" spans="1:20" s="4" customFormat="1">
       <c r="A343" s="5" t="s">
         <v>858</v>
       </c>
@@ -24508,7 +24509,7 @@
         <v>6.3099999427795401</v>
       </c>
     </row>
-    <row r="344" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="344" spans="1:20" s="4" customFormat="1">
       <c r="A344" s="5" t="s">
         <v>860</v>
       </c>
@@ -24570,7 +24571,7 @@
         <v>10.1599998474121</v>
       </c>
     </row>
-    <row r="345" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="345" spans="1:20" s="4" customFormat="1">
       <c r="A345" s="5" t="s">
         <v>862</v>
       </c>
@@ -24628,7 +24629,7 @@
         <v>17.840000152587901</v>
       </c>
     </row>
-    <row r="346" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="346" spans="1:20" s="4" customFormat="1">
       <c r="A346" s="5" t="s">
         <v>865</v>
       </c>
@@ -24688,7 +24689,7 @@
         <v>1990.908203125</v>
       </c>
     </row>
-    <row r="347" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="347" spans="1:20" s="4" customFormat="1">
       <c r="A347" s="5" t="s">
         <v>867</v>
       </c>
@@ -24748,7 +24749,7 @@
         <v>0.52983862161636397</v>
       </c>
     </row>
-    <row r="348" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="348" spans="1:20" s="4" customFormat="1">
       <c r="A348" s="5" t="s">
         <v>869</v>
       </c>
@@ -24810,7 +24811,7 @@
         <v>18.459999084472699</v>
       </c>
     </row>
-    <row r="349" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="349" spans="1:20" s="4" customFormat="1">
       <c r="A349" s="5" t="s">
         <v>871</v>
       </c>
@@ -24866,7 +24867,7 @@
         <v>8.5900001525878906</v>
       </c>
     </row>
-    <row r="350" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="350" spans="1:20" s="4" customFormat="1">
       <c r="A350" s="5" t="s">
         <v>873</v>
       </c>
@@ -24924,7 +24925,7 @@
         <v>0.478085517883301</v>
       </c>
     </row>
-    <row r="351" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="351" spans="1:20" s="4" customFormat="1">
       <c r="A351" s="5" t="s">
         <v>875</v>
       </c>
@@ -24986,7 +24987,7 @@
         <v>10.689999580383301</v>
       </c>
     </row>
-    <row r="352" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="352" spans="1:20" s="4" customFormat="1">
       <c r="A352" s="5" t="s">
         <v>877</v>
       </c>
@@ -25044,7 +25045,7 @@
         <v>4.3058457374572798</v>
       </c>
     </row>
-    <row r="353" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="353" spans="1:20" s="4" customFormat="1">
       <c r="A353" s="5" t="s">
         <v>880</v>
       </c>
@@ -25106,7 +25107,7 @@
         <v>11.8703050613403</v>
       </c>
     </row>
-    <row r="354" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="354" spans="1:20" s="4" customFormat="1">
       <c r="A354" s="5" t="s">
         <v>882</v>
       </c>
@@ -25168,7 +25169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="355" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="355" spans="1:20" s="4" customFormat="1">
       <c r="A355" s="5" t="s">
         <v>884</v>
       </c>
@@ -25230,7 +25231,7 @@
         <v>9.1199998855590803</v>
       </c>
     </row>
-    <row r="356" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="356" spans="1:20" s="4" customFormat="1">
       <c r="A356" s="5" t="s">
         <v>886</v>
       </c>
@@ -25288,7 +25289,7 @@
         <v>986.17681884765602</v>
       </c>
     </row>
-    <row r="357" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="357" spans="1:20" s="4" customFormat="1">
       <c r="A357" s="5" t="s">
         <v>888</v>
       </c>
@@ -25350,7 +25351,7 @@
         <v>16.139999389648398</v>
       </c>
     </row>
-    <row r="358" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="358" spans="1:20" s="4" customFormat="1">
       <c r="A358" s="5" t="s">
         <v>890</v>
       </c>
@@ -25412,7 +25413,7 @@
         <v>9.1735868453979492</v>
       </c>
     </row>
-    <row r="359" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="359" spans="1:20" s="4" customFormat="1">
       <c r="A359" s="5" t="s">
         <v>892</v>
       </c>
@@ -25474,7 +25475,7 @@
         <v>5.0929222106933603</v>
       </c>
     </row>
-    <row r="360" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="360" spans="1:20" s="4" customFormat="1">
       <c r="A360" s="5" t="s">
         <v>894</v>
       </c>
@@ -25534,7 +25535,7 @@
         <v>3.5478875637054399</v>
       </c>
     </row>
-    <row r="361" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="361" spans="1:20" s="4" customFormat="1">
       <c r="A361" s="5" t="s">
         <v>896</v>
       </c>
@@ -25592,7 +25593,7 @@
         <v>1.4230327606201201</v>
       </c>
     </row>
-    <row r="362" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="362" spans="1:20" s="4" customFormat="1">
       <c r="A362" s="5" t="s">
         <v>898</v>
       </c>
@@ -25652,7 +25653,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="363" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="363" spans="1:20" s="4" customFormat="1">
       <c r="A363" s="5" t="s">
         <v>900</v>
       </c>
@@ -25710,7 +25711,7 @@
         <v>10.7799997329712</v>
       </c>
     </row>
-    <row r="364" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="364" spans="1:20" s="4" customFormat="1">
       <c r="A364" s="5" t="s">
         <v>902</v>
       </c>
@@ -25772,7 +25773,7 @@
         <v>0.79386252164840698</v>
       </c>
     </row>
-    <row r="365" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="365" spans="1:20" s="4" customFormat="1">
       <c r="A365" s="5" t="s">
         <v>904</v>
       </c>
@@ -25834,7 +25835,7 @@
         <v>0.440693348646164</v>
       </c>
     </row>
-    <row r="366" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="366" spans="1:20" s="4" customFormat="1">
       <c r="A366" s="5" t="s">
         <v>907</v>
       </c>
@@ -25896,7 +25897,7 @@
         <v>9.5299997329711896</v>
       </c>
     </row>
-    <row r="367" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="367" spans="1:20" s="4" customFormat="1">
       <c r="A367" s="5" t="s">
         <v>909</v>
       </c>
@@ -25958,7 +25959,7 @@
         <v>8.5330171585083008</v>
       </c>
     </row>
-    <row r="368" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="368" spans="1:20" s="4" customFormat="1">
       <c r="A368" s="5" t="s">
         <v>911</v>
       </c>
@@ -26018,7 +26019,7 @@
         <v>1138.32446289062</v>
       </c>
     </row>
-    <row r="369" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="369" spans="1:20" s="4" customFormat="1">
       <c r="A369" s="5" t="s">
         <v>913</v>
       </c>
@@ -26080,7 +26081,7 @@
         <v>12.1099996566772</v>
       </c>
     </row>
-    <row r="370" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="370" spans="1:20" s="4" customFormat="1">
       <c r="A370" s="5" t="s">
         <v>915</v>
       </c>
@@ -26138,7 +26139,7 @@
         <v>1014.00872802734</v>
       </c>
     </row>
-    <row r="371" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="371" spans="1:20" s="4" customFormat="1">
       <c r="A371" s="5" t="s">
         <v>917</v>
       </c>
@@ -26200,7 +26201,7 @@
         <v>0.54370808601379395</v>
       </c>
     </row>
-    <row r="372" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="372" spans="1:20" s="4" customFormat="1">
       <c r="A372" s="5" t="s">
         <v>920</v>
       </c>
@@ -26260,7 +26261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="373" spans="1:20" s="4" customFormat="1">
       <c r="A373" s="5" t="s">
         <v>922</v>
       </c>
@@ -26318,7 +26319,7 @@
         <v>1168.01184082031</v>
       </c>
     </row>
-    <row r="374" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="374" spans="1:20" s="4" customFormat="1">
       <c r="A374" s="5" t="s">
         <v>924</v>
       </c>
@@ -26380,7 +26381,7 @@
         <v>55.069999694824197</v>
       </c>
     </row>
-    <row r="375" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="375" spans="1:20" s="4" customFormat="1">
       <c r="A375" s="5" t="s">
         <v>926</v>
       </c>
@@ -26440,7 +26441,7 @@
         <v>0.82663393020629905</v>
       </c>
     </row>
-    <row r="376" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="376" spans="1:20" s="4" customFormat="1">
       <c r="A376" s="5" t="s">
         <v>929</v>
       </c>
@@ -26502,7 +26503,7 @@
         <v>7.99257469177246</v>
       </c>
     </row>
-    <row r="377" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="377" spans="1:20" s="4" customFormat="1">
       <c r="A377" s="5" t="s">
         <v>931</v>
       </c>
@@ -26560,7 +26561,7 @@
         <v>0.303143620491028</v>
       </c>
     </row>
-    <row r="378" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="378" spans="1:20" s="4" customFormat="1">
       <c r="A378" s="5" t="s">
         <v>933</v>
       </c>
@@ -26618,7 +26619,7 @@
         <v>6.5599999427795401</v>
       </c>
     </row>
-    <row r="379" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="379" spans="1:20" s="4" customFormat="1">
       <c r="A379" s="5" t="s">
         <v>935</v>
       </c>
@@ -26678,7 +26679,7 @@
         <v>16.909999847412099</v>
       </c>
     </row>
-    <row r="380" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="380" spans="1:20" s="4" customFormat="1">
       <c r="A380" s="5" t="s">
         <v>937</v>
       </c>
@@ -26740,7 +26741,7 @@
         <v>10.800000190734901</v>
       </c>
     </row>
-    <row r="381" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="381" spans="1:20" s="4" customFormat="1">
       <c r="A381" s="5" t="s">
         <v>939</v>
       </c>
@@ -26802,7 +26803,7 @@
         <v>3.91459059715271</v>
       </c>
     </row>
-    <row r="382" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="382" spans="1:20" s="4" customFormat="1">
       <c r="A382" s="5" t="s">
         <v>941</v>
       </c>
@@ -26860,7 +26861,7 @@
         <v>0.31516250967979398</v>
       </c>
     </row>
-    <row r="383" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="383" spans="1:20" s="4" customFormat="1">
       <c r="A383" s="5" t="s">
         <v>944</v>
       </c>
@@ -26922,7 +26923,7 @@
         <v>0.157244473695755</v>
       </c>
     </row>
-    <row r="384" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="384" spans="1:20" s="4" customFormat="1">
       <c r="A384" s="5" t="s">
         <v>946</v>
       </c>
@@ -26984,7 +26985,7 @@
         <v>3.3531038761138898</v>
       </c>
     </row>
-    <row r="385" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="385" spans="1:20" s="4" customFormat="1">
       <c r="A385" s="5" t="s">
         <v>948</v>
       </c>
@@ -27046,7 +27047,7 @@
         <v>3.4641170501709002</v>
       </c>
     </row>
-    <row r="386" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="386" spans="1:20" s="4" customFormat="1">
       <c r="A386" s="5" t="s">
         <v>951</v>
       </c>
@@ -27106,7 +27107,7 @@
         <v>988.96002197265602</v>
       </c>
     </row>
-    <row r="387" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="387" spans="1:20" s="4" customFormat="1">
       <c r="A387" s="5" t="s">
         <v>953</v>
       </c>
@@ -27166,7 +27167,7 @@
         <v>0.46606659889221203</v>
       </c>
     </row>
-    <row r="388" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="388" spans="1:20" s="4" customFormat="1">
       <c r="A388" s="5" t="s">
         <v>956</v>
       </c>
@@ -27228,7 +27229,7 @@
         <v>15.289999961853001</v>
       </c>
     </row>
-    <row r="389" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="389" spans="1:20" s="4" customFormat="1">
       <c r="A389" s="5" t="s">
         <v>959</v>
       </c>
@@ -27286,7 +27287,7 @@
         <v>2.6700000762939502</v>
       </c>
     </row>
-    <row r="390" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="390" spans="1:20" s="4" customFormat="1">
       <c r="A390" s="5" t="s">
         <v>961</v>
       </c>
@@ -27344,7 +27345,7 @@
         <v>0.33252316713333102</v>
       </c>
     </row>
-    <row r="391" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="391" spans="1:20" s="4" customFormat="1">
       <c r="A391" s="5" t="s">
         <v>963</v>
       </c>
@@ -27402,7 +27403,7 @@
         <v>0.59426826238632202</v>
       </c>
     </row>
-    <row r="392" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="392" spans="1:20" s="4" customFormat="1">
       <c r="A392" s="5" t="s">
         <v>965</v>
       </c>
@@ -27462,7 +27463,7 @@
         <v>795.064453125</v>
       </c>
     </row>
-    <row r="393" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="393" spans="1:20" s="4" customFormat="1">
       <c r="A393" s="5" t="s">
         <v>967</v>
       </c>
@@ -27522,7 +27523,7 @@
         <v>0.72914719581604004</v>
       </c>
     </row>
-    <row r="394" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="394" spans="1:20" s="4" customFormat="1">
       <c r="A394" s="5" t="s">
         <v>970</v>
       </c>
@@ -27582,7 +27583,7 @@
         <v>716.20745849609398</v>
       </c>
     </row>
-    <row r="395" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="395" spans="1:20" s="4" customFormat="1">
       <c r="A395" s="5" t="s">
         <v>972</v>
       </c>
@@ -27640,7 +27641,7 @@
         <v>1.6900000572204601</v>
       </c>
     </row>
-    <row r="396" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="396" spans="1:20" s="4" customFormat="1">
       <c r="A396" s="5" t="s">
         <v>974</v>
       </c>
@@ -27698,7 +27699,7 @@
         <v>1.8766326904296899</v>
       </c>
     </row>
-    <row r="397" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="397" spans="1:20" s="4" customFormat="1">
       <c r="A397" s="5" t="s">
         <v>978</v>
       </c>
@@ -27756,7 +27757,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="398" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="398" spans="1:20" s="4" customFormat="1">
       <c r="A398" s="5" t="s">
         <v>980</v>
       </c>
@@ -27816,7 +27817,7 @@
         <v>18.049999237060501</v>
       </c>
     </row>
-    <row r="399" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="399" spans="1:20" s="4" customFormat="1">
       <c r="A399" s="5" t="s">
         <v>982</v>
       </c>
@@ -27874,7 +27875,7 @@
         <v>2.5099999904632599</v>
       </c>
     </row>
-    <row r="400" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="400" spans="1:20" s="4" customFormat="1">
       <c r="A400" s="5" t="s">
         <v>984</v>
       </c>
@@ -27934,7 +27935,7 @@
         <v>0.53016746044158902</v>
       </c>
     </row>
-    <row r="401" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="401" spans="1:20" s="4" customFormat="1">
       <c r="A401" s="5" t="s">
         <v>987</v>
       </c>
@@ -27996,33 +27997,7 @@
         <v>7.6599998474121103</v>
       </c>
     </row>
-    <row r="403" spans="1:21">
-      <c r="A403" s="8"/>
-      <c r="B403" s="8"/>
-      <c r="C403" s="8"/>
-      <c r="D403" s="8"/>
-      <c r="E403" s="8"/>
-      <c r="F403" s="8"/>
-      <c r="G403" s="8"/>
-      <c r="H403" s="8"/>
-      <c r="I403" s="8"/>
-      <c r="J403" s="8"/>
-      <c r="K403" s="8"/>
-      <c r="L403" s="8"/>
-      <c r="M403" s="8"/>
-      <c r="N403" s="8"/>
-      <c r="O403" s="8"/>
-      <c r="P403" s="8"/>
-      <c r="Q403" s="8"/>
-      <c r="R403" s="8"/>
-      <c r="S403" s="8"/>
-      <c r="T403" s="8"/>
-      <c r="U403" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A403:U403"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ashutosh_WFH_Data\Global Market Update\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\First Global\Work\Daily Report Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="974">
   <si>
     <t>USD</t>
   </si>
@@ -2941,9 +2941,6 @@
   </si>
   <si>
     <t>AL MASHAAR REIT</t>
-  </si>
-  <si>
-    <t>The BLOOMBERG PROFESSIONAL service, BLOOMBERG Data and BLOOMBERG Order Management Systems (the "Services") are owned and distributed locally by Bloomberg Finance L.P. ("BFLP") and its subsidiaries in all jurisdictions other than Argentina, Bermuda, China, India, Japan and Korea (the "BLP Countries"). BFLP is a wholly-owned subsidiary of Bloomberg L.P. ("BLP"). BLP provides BFLP with all global marketing and operational support and service for the Services and distributes the Services either directly or through a non-BFLP subsidiary in the BLP Countries. The Services include electronic trading and order-routing services, which are available only to sophisticated institutional investors and only where necessary legal clearances have been obtained. BFLP, BLP and their affiliates do not provide investment advice or guarantee the accuracy of prices or information in the Services. Nothing on the Services shall constitute an offering of financial instruments by BFLP, BLP or their affiliates. BLOOMBERG, BLOOMBERG PROFESSIONAL, BLOOMBERG MARKET, BLOOMBERG NEWS, BLOOMBERG ANYWHERE, BLOOMBERG TRADEBOOK, BLOOMBERG BONDTRADER, BLOOMBERG TELEVISION, BLOOMBERG RADIO, BLOOMBERG PRESS and BLOOMBERG.COM are trademarks and service marks of BFLP, a Delaware limited partnership, or its subsidiaries.</t>
   </si>
 </sst>
 </file>
@@ -3092,7 +3089,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3110,9 +3107,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -3424,34 +3418,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U404"/>
+  <dimension ref="A1:T402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="3" customWidth="1"/>
     <col min="10" max="12" width="17" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="3" customWidth="1"/>
-    <col min="14" max="15" width="16.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="16.5546875" style="3" customWidth="1"/>
     <col min="16" max="16" width="16" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="3" customWidth="1"/>
     <col min="20" max="20" width="10" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="13.8">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -3513,7 +3506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="2" spans="1:20" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -3575,7 +3568,7 @@
         <v>248.53999328613301</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:20" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -3637,7 +3630,7 @@
         <v>112.25</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:20" s="4" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -3699,7 +3692,7 @@
         <v>180.72000122070301</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:20" s="4" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -3761,7 +3754,7 @@
         <v>717.28997802734398</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:20" s="4" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -3823,7 +3816,7 @@
         <v>270.38000488281199</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:20" s="4" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -3885,7 +3878,7 @@
         <v>147.75999450683599</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:20" s="4" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -3947,7 +3940,7 @@
         <v>116.55999755859401</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:20" s="4" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -4009,7 +4002,7 @@
         <v>74.879997253417997</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="10" spans="1:20" s="4" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -4071,7 +4064,7 @@
         <v>288.08999633789102</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="11" spans="1:20" s="4" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -4133,7 +4126,7 @@
         <v>38.880001068115199</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="12" spans="1:20" s="4" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -4195,7 +4188,7 @@
         <v>14.6684865951538</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="13" spans="1:20" s="4" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
@@ -4257,7 +4250,7 @@
         <v>73.029998779296903</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="14" spans="1:20" s="4" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -4319,7 +4312,7 @@
         <v>190.36000061035199</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="15" spans="1:20" s="4" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -4381,7 +4374,7 @@
         <v>176.580001831055</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="16" spans="1:20" s="4" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -4443,7 +4436,7 @@
         <v>67.339996337890597</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="17" spans="1:20" s="4" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -4503,7 +4496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="18" spans="1:20" s="4" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -4565,7 +4558,7 @@
         <v>54.799999237060497</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="19" spans="1:20" s="4" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
@@ -4627,7 +4620,7 @@
         <v>9.5675916671752894</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="20" spans="1:20" s="4" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -4689,7 +4682,7 @@
         <v>143.92999267578099</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="21" spans="1:20" s="4" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -4751,7 +4744,7 @@
         <v>29.870000839233398</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="22" spans="1:20" s="4" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>88</v>
       </c>
@@ -4813,7 +4806,7 @@
         <v>33.630001068115199</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="23" spans="1:20" s="4" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -4875,7 +4868,7 @@
         <v>290.57000732421898</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="24" spans="1:20" s="4" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -4937,7 +4930,7 @@
         <v>33.349998474121101</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="25" spans="1:20" s="4" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
@@ -4999,7 +4992,7 @@
         <v>159.02000427246099</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="26" spans="1:20" s="4" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>97</v>
       </c>
@@ -5061,7 +5054,7 @@
         <v>151.82000732421901</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="27" spans="1:20" s="4" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
@@ -5123,7 +5116,7 @@
         <v>44.830001831054702</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="28" spans="1:20" s="4" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
@@ -5185,7 +5178,7 @@
         <v>13.8265590667725</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="29" spans="1:20" s="4" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>108</v>
       </c>
@@ -5247,7 +5240,7 @@
         <v>106.15000152587901</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="30" spans="1:20" s="4" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>110</v>
       </c>
@@ -5309,7 +5302,7 @@
         <v>45.130001068115199</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="31" spans="1:20" s="4" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>112</v>
       </c>
@@ -5371,7 +5364,7 @@
         <v>22.2399997711182</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="32" spans="1:20" s="4" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>114</v>
       </c>
@@ -5433,7 +5426,7 @@
         <v>73.120002746582003</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="33" spans="1:20" s="4" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>117</v>
       </c>
@@ -5491,7 +5484,7 @@
         <v>17.399999618530298</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="34" spans="1:20" s="4" customFormat="1">
       <c r="A34" s="5" t="s">
         <v>122</v>
       </c>
@@ -5553,7 +5546,7 @@
         <v>35.150001525878899</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="35" spans="1:20" s="4" customFormat="1">
       <c r="A35" s="5" t="s">
         <v>124</v>
       </c>
@@ -5615,7 +5608,7 @@
         <v>67.830001831054702</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="36" spans="1:20" s="4" customFormat="1">
       <c r="A36" s="5" t="s">
         <v>126</v>
       </c>
@@ -5673,7 +5666,7 @@
         <v>85.168853759765597</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="37" spans="1:20" s="4" customFormat="1">
       <c r="A37" s="5" t="s">
         <v>130</v>
       </c>
@@ -5735,7 +5728,7 @@
         <v>117.120002746582</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="38" spans="1:20" s="4" customFormat="1">
       <c r="A38" s="5" t="s">
         <v>133</v>
       </c>
@@ -5791,7 +5784,7 @@
         <v>4.1344809532165501</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="39" spans="1:20" s="4" customFormat="1">
       <c r="A39" s="5" t="s">
         <v>135</v>
       </c>
@@ -5853,7 +5846,7 @@
         <v>148.06739807128901</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="40" spans="1:20" s="4" customFormat="1">
       <c r="A40" s="5" t="s">
         <v>138</v>
       </c>
@@ -5915,7 +5908,7 @@
         <v>2.1564459800720202</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="41" spans="1:20" s="4" customFormat="1">
       <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
@@ -5977,7 +5970,7 @@
         <v>38.4799995422363</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="42" spans="1:20" s="4" customFormat="1">
       <c r="A42" s="5" t="s">
         <v>143</v>
       </c>
@@ -6039,7 +6032,7 @@
         <v>35.299999237060497</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="43" spans="1:20" s="4" customFormat="1">
       <c r="A43" s="5" t="s">
         <v>145</v>
       </c>
@@ -6101,7 +6094,7 @@
         <v>1.6537623405456501</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="44" spans="1:20" s="4" customFormat="1">
       <c r="A44" s="5" t="s">
         <v>151</v>
       </c>
@@ -6161,7 +6154,7 @@
         <v>6413.10400390625</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="45" spans="1:20" s="4" customFormat="1">
       <c r="A45" s="5" t="s">
         <v>155</v>
       </c>
@@ -6223,7 +6216,7 @@
         <v>44.810001373291001</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="46" spans="1:20" s="4" customFormat="1">
       <c r="A46" s="5" t="s">
         <v>158</v>
       </c>
@@ -6285,7 +6278,7 @@
         <v>59.759998321533203</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="47" spans="1:20" s="4" customFormat="1">
       <c r="A47" s="5" t="s">
         <v>160</v>
       </c>
@@ -6347,7 +6340,7 @@
         <v>38.700000762939503</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="48" spans="1:20" s="4" customFormat="1">
       <c r="A48" s="5" t="s">
         <v>162</v>
       </c>
@@ -6409,7 +6402,7 @@
         <v>95.839996337890597</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="49" spans="1:20" s="4" customFormat="1">
       <c r="A49" s="5" t="s">
         <v>164</v>
       </c>
@@ -6471,7 +6464,7 @@
         <v>2.33030128479004</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="50" spans="1:20" s="4" customFormat="1">
       <c r="A50" s="5" t="s">
         <v>166</v>
       </c>
@@ -6533,7 +6526,7 @@
         <v>35.099998474121101</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="51" spans="1:20" s="4" customFormat="1">
       <c r="A51" s="5" t="s">
         <v>168</v>
       </c>
@@ -6595,7 +6588,7 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="52" spans="1:20" s="4" customFormat="1">
       <c r="A52" s="5" t="s">
         <v>170</v>
       </c>
@@ -6657,7 +6650,7 @@
         <v>94.089012145996094</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="53" spans="1:20" s="4" customFormat="1">
       <c r="A53" s="5" t="s">
         <v>173</v>
       </c>
@@ -6719,7 +6712,7 @@
         <v>73.639999389648395</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="54" spans="1:20" s="4" customFormat="1">
       <c r="A54" s="5" t="s">
         <v>175</v>
       </c>
@@ -6781,7 +6774,7 @@
         <v>37.290000915527301</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="55" spans="1:20" s="4" customFormat="1">
       <c r="A55" s="5" t="s">
         <v>178</v>
       </c>
@@ -6843,7 +6836,7 @@
         <v>45.470001220703097</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="56" spans="1:20" s="4" customFormat="1">
       <c r="A56" s="5" t="s">
         <v>181</v>
       </c>
@@ -6903,7 +6896,7 @@
         <v>6200.25927734375</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="57" spans="1:20" s="4" customFormat="1">
       <c r="A57" s="5" t="s">
         <v>183</v>
       </c>
@@ -6965,7 +6958,7 @@
         <v>3.5837337970733598</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="58" spans="1:20" s="4" customFormat="1">
       <c r="A58" s="5" t="s">
         <v>185</v>
       </c>
@@ -7027,7 +7020,7 @@
         <v>19.870000839233398</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="59" spans="1:20" s="4" customFormat="1">
       <c r="A59" s="5" t="s">
         <v>188</v>
       </c>
@@ -7089,7 +7082,7 @@
         <v>7.9198966026306197</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="60" spans="1:20" s="4" customFormat="1">
       <c r="A60" s="5" t="s">
         <v>190</v>
       </c>
@@ -7151,7 +7144,7 @@
         <v>107.050003051758</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="61" spans="1:20" s="4" customFormat="1">
       <c r="A61" s="5" t="s">
         <v>192</v>
       </c>
@@ -7211,7 +7204,7 @@
         <v>3211.17895507812</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="62" spans="1:20" s="4" customFormat="1">
       <c r="A62" s="5" t="s">
         <v>194</v>
       </c>
@@ -7273,7 +7266,7 @@
         <v>11.3221092224121</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="63" spans="1:20" s="4" customFormat="1">
       <c r="A63" s="5" t="s">
         <v>199</v>
       </c>
@@ -7335,7 +7328,7 @@
         <v>41.049999237060497</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="64" spans="1:20" s="4" customFormat="1">
       <c r="A64" s="5" t="s">
         <v>201</v>
       </c>
@@ -7397,7 +7390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="65" spans="1:20" s="4" customFormat="1">
       <c r="A65" s="5" t="s">
         <v>203</v>
       </c>
@@ -7455,7 +7448,7 @@
         <v>26.3872966766357</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="66" spans="1:20" s="4" customFormat="1">
       <c r="A66" s="5" t="s">
         <v>206</v>
       </c>
@@ -7517,7 +7510,7 @@
         <v>67.980003356933594</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="67" spans="1:20" s="4" customFormat="1">
       <c r="A67" s="5" t="s">
         <v>208</v>
       </c>
@@ -7579,7 +7572,7 @@
         <v>1.9780348539352399</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="68" spans="1:20" s="4" customFormat="1">
       <c r="A68" s="5" t="s">
         <v>211</v>
       </c>
@@ -7641,7 +7634,7 @@
         <v>44.546398162841797</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="69" spans="1:20" s="4" customFormat="1">
       <c r="A69" s="5" t="s">
         <v>213</v>
       </c>
@@ -7703,7 +7696,7 @@
         <v>10.1370525360107</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="70" spans="1:20" s="4" customFormat="1">
       <c r="A70" s="5" t="s">
         <v>216</v>
       </c>
@@ -7763,7 +7756,7 @@
         <v>1578.75256347656</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="71" spans="1:20" s="4" customFormat="1">
       <c r="A71" s="5" t="s">
         <v>218</v>
       </c>
@@ -7823,7 +7816,7 @@
         <v>1670.36828613281</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="72" spans="1:20" s="4" customFormat="1">
       <c r="A72" s="5" t="s">
         <v>221</v>
       </c>
@@ -7885,7 +7878,7 @@
         <v>55.25</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="73" spans="1:20" s="4" customFormat="1">
       <c r="A73" s="5" t="s">
         <v>223</v>
       </c>
@@ -7947,7 +7940,7 @@
         <v>3.6147618293762198</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="74" spans="1:20" s="4" customFormat="1">
       <c r="A74" s="5" t="s">
         <v>225</v>
       </c>
@@ -8009,7 +8002,7 @@
         <v>93.290000915527301</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="75" spans="1:20" s="4" customFormat="1">
       <c r="A75" s="5" t="s">
         <v>228</v>
       </c>
@@ -8069,7 +8062,7 @@
         <v>997.59393310546898</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="76" spans="1:20" s="4" customFormat="1">
       <c r="A76" s="5" t="s">
         <v>230</v>
       </c>
@@ -8131,7 +8124,7 @@
         <v>7.2923007011413601</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="77" spans="1:20" s="4" customFormat="1">
       <c r="A77" s="5" t="s">
         <v>233</v>
       </c>
@@ -8187,7 +8180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="78" spans="1:20" s="4" customFormat="1">
       <c r="A78" s="5" t="s">
         <v>235</v>
       </c>
@@ -8249,7 +8242,7 @@
         <v>35.6565551757812</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="79" spans="1:20" s="4" customFormat="1">
       <c r="A79" s="5" t="s">
         <v>239</v>
       </c>
@@ -8311,7 +8304,7 @@
         <v>1.48838603496552</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="80" spans="1:20" s="4" customFormat="1">
       <c r="A80" s="5" t="s">
         <v>242</v>
       </c>
@@ -8373,7 +8366,7 @@
         <v>21.219999313354499</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="81" spans="1:20" s="4" customFormat="1">
       <c r="A81" s="5" t="s">
         <v>244</v>
       </c>
@@ -8435,7 +8428,7 @@
         <v>15.8041801452637</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="82" spans="1:20" s="4" customFormat="1">
       <c r="A82" s="5" t="s">
         <v>246</v>
       </c>
@@ -8497,7 +8490,7 @@
         <v>48.930000305175803</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="83" spans="1:20" s="4" customFormat="1">
       <c r="A83" s="5" t="s">
         <v>249</v>
       </c>
@@ -8559,7 +8552,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="84" spans="1:20" s="4" customFormat="1">
       <c r="A84" s="5" t="s">
         <v>252</v>
       </c>
@@ -8621,7 +8614,7 @@
         <v>125.68000030517599</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="85" spans="1:20" s="4" customFormat="1">
       <c r="A85" s="5" t="s">
         <v>254</v>
       </c>
@@ -8683,7 +8676,7 @@
         <v>153.36000061035199</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="86" spans="1:20" s="4" customFormat="1">
       <c r="A86" s="5" t="s">
         <v>256</v>
       </c>
@@ -8745,7 +8738,7 @@
         <v>44.299999237060497</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="87" spans="1:20" s="4" customFormat="1">
       <c r="A87" s="5" t="s">
         <v>258</v>
       </c>
@@ -8805,7 +8798,7 @@
         <v>2747.54760742188</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="88" spans="1:20" s="4" customFormat="1">
       <c r="A88" s="5" t="s">
         <v>260</v>
       </c>
@@ -8865,7 +8858,7 @@
         <v>79.751747131347699</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="89" spans="1:20" s="4" customFormat="1">
       <c r="A89" s="5" t="s">
         <v>262</v>
       </c>
@@ -8927,7 +8920,7 @@
         <v>35.549999237060497</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="90" spans="1:20" s="4" customFormat="1">
       <c r="A90" s="5" t="s">
         <v>264</v>
       </c>
@@ -8989,7 +8982,7 @@
         <v>1.2682694196701001</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="91" spans="1:20" s="4" customFormat="1">
       <c r="A91" s="5" t="s">
         <v>267</v>
       </c>
@@ -9051,7 +9044,7 @@
         <v>32.630001068115199</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="92" spans="1:20" s="4" customFormat="1">
       <c r="A92" s="5" t="s">
         <v>269</v>
       </c>
@@ -9113,7 +9106,7 @@
         <v>36.040000915527301</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="93" spans="1:20" s="4" customFormat="1">
       <c r="A93" s="5" t="s">
         <v>271</v>
       </c>
@@ -9175,7 +9168,7 @@
         <v>47.412540435791001</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="94" spans="1:20" s="4" customFormat="1">
       <c r="A94" s="5" t="s">
         <v>274</v>
       </c>
@@ -9237,7 +9230,7 @@
         <v>1.5936254262924201</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="95" spans="1:20" s="4" customFormat="1">
       <c r="A95" s="5" t="s">
         <v>277</v>
       </c>
@@ -9297,7 +9290,7 @@
         <v>11.031622886657701</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="96" spans="1:20" s="4" customFormat="1">
       <c r="A96" s="5" t="s">
         <v>280</v>
       </c>
@@ -9359,7 +9352,7 @@
         <v>16.133407592773398</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="97" spans="1:20" s="4" customFormat="1">
       <c r="A97" s="5" t="s">
         <v>283</v>
       </c>
@@ -9421,7 +9414,7 @@
         <v>44.529998779296903</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="98" spans="1:20" s="4" customFormat="1">
       <c r="A98" s="5" t="s">
         <v>285</v>
       </c>
@@ -9483,7 +9476,7 @@
         <v>36.849998474121101</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="99" spans="1:20" s="4" customFormat="1">
       <c r="A99" s="5" t="s">
         <v>287</v>
       </c>
@@ -9545,7 +9538,7 @@
         <v>9.99755954742432</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="100" spans="1:20" s="4" customFormat="1">
       <c r="A100" s="5" t="s">
         <v>290</v>
       </c>
@@ -9603,7 +9596,7 @@
         <v>21.149999618530298</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="101" spans="1:20" s="4" customFormat="1">
       <c r="A101" s="5" t="s">
         <v>292</v>
       </c>
@@ -9665,7 +9658,7 @@
         <v>71.559997558593807</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="102" spans="1:20" s="4" customFormat="1">
       <c r="A102" s="5" t="s">
         <v>294</v>
       </c>
@@ -9725,7 +9718,7 @@
         <v>1810.10546875</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="103" spans="1:20" s="4" customFormat="1">
       <c r="A103" s="5" t="s">
         <v>296</v>
       </c>
@@ -9787,7 +9780,7 @@
         <v>1.23289811611175</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="104" spans="1:20" s="4" customFormat="1">
       <c r="A104" s="5" t="s">
         <v>301</v>
       </c>
@@ -9849,7 +9842,7 @@
         <v>2.1047883033752401</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="105" spans="1:20" s="4" customFormat="1">
       <c r="A105" s="5" t="s">
         <v>304</v>
       </c>
@@ -9911,7 +9904,7 @@
         <v>10.572791099548301</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="106" spans="1:20" s="4" customFormat="1">
       <c r="A106" s="5" t="s">
         <v>306</v>
       </c>
@@ -9973,7 +9966,7 @@
         <v>154.206787109375</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="107" spans="1:20" s="4" customFormat="1">
       <c r="A107" s="5" t="s">
         <v>309</v>
       </c>
@@ -10035,7 +10028,7 @@
         <v>2.6769204139709499</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="108" spans="1:20" s="4" customFormat="1">
       <c r="A108" s="5" t="s">
         <v>312</v>
       </c>
@@ -10095,7 +10088,7 @@
         <v>1463.07604980469</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="109" spans="1:20" s="4" customFormat="1">
       <c r="A109" s="5" t="s">
         <v>314</v>
       </c>
@@ -10157,7 +10150,7 @@
         <v>43.310001373291001</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="110" spans="1:20" s="4" customFormat="1">
       <c r="A110" s="5" t="s">
         <v>316</v>
       </c>
@@ -10219,7 +10212,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="111" spans="1:20" s="4" customFormat="1">
       <c r="A111" s="5" t="s">
         <v>319</v>
       </c>
@@ -10281,7 +10274,7 @@
         <v>31.649999618530298</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="112" spans="1:20" s="4" customFormat="1">
       <c r="A112" s="5" t="s">
         <v>321</v>
       </c>
@@ -10341,7 +10334,7 @@
         <v>3206.55200195312</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="113" spans="1:20" s="4" customFormat="1">
       <c r="A113" s="5" t="s">
         <v>323</v>
       </c>
@@ -10403,7 +10396,7 @@
         <v>180.80000305175801</v>
       </c>
     </row>
-    <row r="114" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="114" spans="1:20" s="4" customFormat="1">
       <c r="A114" s="5" t="s">
         <v>325</v>
       </c>
@@ -10465,7 +10458,7 @@
         <v>160.75</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="115" spans="1:20" s="4" customFormat="1">
       <c r="A115" s="5" t="s">
         <v>327</v>
       </c>
@@ -10527,7 +10520,7 @@
         <v>68.860000610351605</v>
       </c>
     </row>
-    <row r="116" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="116" spans="1:20" s="4" customFormat="1">
       <c r="A116" s="5" t="s">
         <v>329</v>
       </c>
@@ -10585,7 +10578,7 @@
         <v>78.190002441406193</v>
       </c>
     </row>
-    <row r="117" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="117" spans="1:20" s="4" customFormat="1">
       <c r="A117" s="5" t="s">
         <v>331</v>
       </c>
@@ -10647,7 +10640,7 @@
         <v>33.495571136474602</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="118" spans="1:20" s="4" customFormat="1">
       <c r="A118" s="5" t="s">
         <v>333</v>
       </c>
@@ -10709,7 +10702,7 @@
         <v>32.360000610351598</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="119" spans="1:20" s="4" customFormat="1">
       <c r="A119" s="5" t="s">
         <v>336</v>
       </c>
@@ -10771,7 +10764,7 @@
         <v>65.760002136230497</v>
       </c>
     </row>
-    <row r="120" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="120" spans="1:20" s="4" customFormat="1">
       <c r="A120" s="5" t="s">
         <v>338</v>
       </c>
@@ -10833,7 +10826,7 @@
         <v>62.310001373291001</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="121" spans="1:20" s="4" customFormat="1">
       <c r="A121" s="5" t="s">
         <v>340</v>
       </c>
@@ -10895,7 +10888,7 @@
         <v>27.7600002288818</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="122" spans="1:20" s="4" customFormat="1">
       <c r="A122" s="5" t="s">
         <v>343</v>
       </c>
@@ -10957,7 +10950,7 @@
         <v>61.619998931884801</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="123" spans="1:20" s="4" customFormat="1">
       <c r="A123" s="5" t="s">
         <v>345</v>
       </c>
@@ -11019,7 +11012,7 @@
         <v>123.509880065918</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="124" spans="1:20" s="4" customFormat="1">
       <c r="A124" s="5" t="s">
         <v>348</v>
       </c>
@@ -11081,7 +11074,7 @@
         <v>18.579999923706101</v>
       </c>
     </row>
-    <row r="125" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="125" spans="1:20" s="4" customFormat="1">
       <c r="A125" s="5" t="s">
         <v>350</v>
       </c>
@@ -11143,7 +11136,7 @@
         <v>30.579999923706101</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="126" spans="1:20" s="4" customFormat="1">
       <c r="A126" s="5" t="s">
         <v>353</v>
       </c>
@@ -11203,7 +11196,7 @@
         <v>4.06833791732788</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="127" spans="1:20" s="4" customFormat="1">
       <c r="A127" s="5" t="s">
         <v>358</v>
       </c>
@@ -11265,7 +11258,7 @@
         <v>62.1080322265625</v>
       </c>
     </row>
-    <row r="128" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="128" spans="1:20" s="4" customFormat="1">
       <c r="A128" s="5" t="s">
         <v>360</v>
       </c>
@@ -11325,7 +11318,7 @@
         <v>3988.52490234375</v>
       </c>
     </row>
-    <row r="129" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="129" spans="1:20" s="4" customFormat="1">
       <c r="A129" s="5" t="s">
         <v>362</v>
       </c>
@@ -11387,7 +11380,7 @@
         <v>22.2452716827393</v>
       </c>
     </row>
-    <row r="130" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="130" spans="1:20" s="4" customFormat="1">
       <c r="A130" s="5" t="s">
         <v>364</v>
       </c>
@@ -11449,7 +11442,7 @@
         <v>1.10501396656036</v>
       </c>
     </row>
-    <row r="131" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="131" spans="1:20" s="4" customFormat="1">
       <c r="A131" s="5" t="s">
         <v>367</v>
       </c>
@@ -11509,7 +11502,7 @@
         <v>1830.46459960938</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="132" spans="1:20" s="4" customFormat="1">
       <c r="A132" s="5" t="s">
         <v>369</v>
       </c>
@@ -11571,7 +11564,7 @@
         <v>17.7600002288818</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="133" spans="1:20" s="4" customFormat="1">
       <c r="A133" s="5" t="s">
         <v>371</v>
       </c>
@@ -11633,7 +11626,7 @@
         <v>0.62067013978958097</v>
       </c>
     </row>
-    <row r="134" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="134" spans="1:20" s="4" customFormat="1">
       <c r="A134" s="5" t="s">
         <v>373</v>
       </c>
@@ -11695,7 +11688,7 @@
         <v>68.389999389648395</v>
       </c>
     </row>
-    <row r="135" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="135" spans="1:20" s="4" customFormat="1">
       <c r="A135" s="5" t="s">
         <v>375</v>
       </c>
@@ -11755,7 +11748,7 @@
         <v>851.37884521484398</v>
       </c>
     </row>
-    <row r="136" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="136" spans="1:20" s="4" customFormat="1">
       <c r="A136" s="5" t="s">
         <v>377</v>
       </c>
@@ -11815,7 +11808,7 @@
         <v>7366.27783203125</v>
       </c>
     </row>
-    <row r="137" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="137" spans="1:20" s="4" customFormat="1">
       <c r="A137" s="5" t="s">
         <v>379</v>
       </c>
@@ -11873,7 +11866,7 @@
         <v>47.720001220703097</v>
       </c>
     </row>
-    <row r="138" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="138" spans="1:20" s="4" customFormat="1">
       <c r="A138" s="5" t="s">
         <v>381</v>
       </c>
@@ -11933,7 +11926,7 @@
         <v>4539.14501953125</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="139" spans="1:20" s="4" customFormat="1">
       <c r="A139" s="5" t="s">
         <v>383</v>
       </c>
@@ -11993,7 +11986,7 @@
         <v>28.590000152587901</v>
       </c>
     </row>
-    <row r="140" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="140" spans="1:20" s="4" customFormat="1">
       <c r="A140" s="5" t="s">
         <v>387</v>
       </c>
@@ -12051,7 +12044,7 @@
         <v>8.96502590179443</v>
       </c>
     </row>
-    <row r="141" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="141" spans="1:20" s="4" customFormat="1">
       <c r="A141" s="5" t="s">
         <v>389</v>
       </c>
@@ -12111,7 +12104,7 @@
         <v>197.66395568847699</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="142" spans="1:20" s="4" customFormat="1">
       <c r="A142" s="5" t="s">
         <v>391</v>
       </c>
@@ -12173,7 +12166,7 @@
         <v>11.840740203857401</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="143" spans="1:20" s="4" customFormat="1">
       <c r="A143" s="5" t="s">
         <v>394</v>
       </c>
@@ -12235,7 +12228,7 @@
         <v>15.0100002288818</v>
       </c>
     </row>
-    <row r="144" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="144" spans="1:20" s="4" customFormat="1">
       <c r="A144" s="5" t="s">
         <v>396</v>
       </c>
@@ -12297,7 +12290,7 @@
         <v>73.269996643066406</v>
       </c>
     </row>
-    <row r="145" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="145" spans="1:20" s="4" customFormat="1">
       <c r="A145" s="5" t="s">
         <v>398</v>
       </c>
@@ -12355,7 +12348,7 @@
         <v>22.940000534057599</v>
       </c>
     </row>
-    <row r="146" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="146" spans="1:20" s="4" customFormat="1">
       <c r="A146" s="5" t="s">
         <v>400</v>
       </c>
@@ -12417,7 +12410,7 @@
         <v>1.17266774177551</v>
       </c>
     </row>
-    <row r="147" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="147" spans="1:20" s="4" customFormat="1">
       <c r="A147" s="5" t="s">
         <v>402</v>
       </c>
@@ -12479,7 +12472,7 @@
         <v>2.0296173095703098</v>
       </c>
     </row>
-    <row r="148" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="148" spans="1:20" s="4" customFormat="1">
       <c r="A148" s="5" t="s">
         <v>404</v>
       </c>
@@ -12541,7 +12534,7 @@
         <v>0.90205222368240401</v>
       </c>
     </row>
-    <row r="149" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="149" spans="1:20" s="4" customFormat="1">
       <c r="A149" s="5" t="s">
         <v>406</v>
       </c>
@@ -12599,7 +12592,7 @@
         <v>6.8400001525878897</v>
       </c>
     </row>
-    <row r="150" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="150" spans="1:20" s="4" customFormat="1">
       <c r="A150" s="5" t="s">
         <v>408</v>
       </c>
@@ -12661,7 +12654,7 @@
         <v>0.94692581892013505</v>
       </c>
     </row>
-    <row r="151" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="151" spans="1:20" s="4" customFormat="1">
       <c r="A151" s="5" t="s">
         <v>412</v>
       </c>
@@ -12723,7 +12716,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="152" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="152" spans="1:20" s="4" customFormat="1">
       <c r="A152" s="5" t="s">
         <v>414</v>
       </c>
@@ -12785,7 +12778,7 @@
         <v>24.399999618530298</v>
       </c>
     </row>
-    <row r="153" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="153" spans="1:20" s="4" customFormat="1">
       <c r="A153" s="5" t="s">
         <v>416</v>
       </c>
@@ -12845,7 +12838,7 @@
         <v>7477.32763671875</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="154" spans="1:20" s="4" customFormat="1">
       <c r="A154" s="5" t="s">
         <v>418</v>
       </c>
@@ -12907,7 +12900,7 @@
         <v>1.8567240238189699</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="155" spans="1:20" s="4" customFormat="1">
       <c r="A155" s="5" t="s">
         <v>421</v>
       </c>
@@ -12969,7 +12962,7 @@
         <v>17.467138290405298</v>
       </c>
     </row>
-    <row r="156" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="156" spans="1:20" s="4" customFormat="1">
       <c r="A156" s="5" t="s">
         <v>425</v>
       </c>
@@ -13031,7 +13024,7 @@
         <v>27.790000915527301</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="157" spans="1:20" s="4" customFormat="1">
       <c r="A157" s="5" t="s">
         <v>427</v>
       </c>
@@ -13093,7 +13086,7 @@
         <v>13.843453407287599</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="158" spans="1:20" s="4" customFormat="1">
       <c r="A158" s="5" t="s">
         <v>429</v>
       </c>
@@ -13153,7 +13146,7 @@
         <v>6033.68505859375</v>
       </c>
     </row>
-    <row r="159" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="159" spans="1:20" s="4" customFormat="1">
       <c r="A159" s="5" t="s">
         <v>431</v>
       </c>
@@ -13215,7 +13208,7 @@
         <v>13.149285316467299</v>
       </c>
     </row>
-    <row r="160" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="160" spans="1:20" s="4" customFormat="1">
       <c r="A160" s="5" t="s">
         <v>433</v>
       </c>
@@ -13277,7 +13270,7 @@
         <v>14.050000190734901</v>
       </c>
     </row>
-    <row r="161" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="161" spans="1:20" s="4" customFormat="1">
       <c r="A161" s="5" t="s">
         <v>435</v>
       </c>
@@ -13337,7 +13330,7 @@
         <v>24.879999160766602</v>
       </c>
     </row>
-    <row r="162" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="162" spans="1:20" s="4" customFormat="1">
       <c r="A162" s="5" t="s">
         <v>437</v>
       </c>
@@ -13399,7 +13392,7 @@
         <v>16.811172485351602</v>
       </c>
     </row>
-    <row r="163" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="163" spans="1:20" s="4" customFormat="1">
       <c r="A163" s="5" t="s">
         <v>440</v>
       </c>
@@ -13461,7 +13454,7 @@
         <v>3.1132836341857901</v>
       </c>
     </row>
-    <row r="164" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="164" spans="1:20" s="4" customFormat="1">
       <c r="A164" s="5" t="s">
         <v>442</v>
       </c>
@@ -13523,7 +13516,7 @@
         <v>2.1146831512451199</v>
       </c>
     </row>
-    <row r="165" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="165" spans="1:20" s="4" customFormat="1">
       <c r="A165" s="5" t="s">
         <v>444</v>
       </c>
@@ -13581,7 +13574,7 @@
         <v>19.309999465942401</v>
       </c>
     </row>
-    <row r="166" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="166" spans="1:20" s="4" customFormat="1">
       <c r="A166" s="5" t="s">
         <v>446</v>
       </c>
@@ -13643,7 +13636,7 @@
         <v>1.0447541475296001</v>
       </c>
     </row>
-    <row r="167" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="167" spans="1:20" s="4" customFormat="1">
       <c r="A167" s="5" t="s">
         <v>448</v>
       </c>
@@ -13705,7 +13698,7 @@
         <v>0.81184697151184104</v>
       </c>
     </row>
-    <row r="168" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="168" spans="1:20" s="4" customFormat="1">
       <c r="A168" s="5" t="s">
         <v>450</v>
       </c>
@@ -13765,7 +13758,7 @@
         <v>1449.19494628906</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="169" spans="1:20" s="4" customFormat="1">
       <c r="A169" s="5" t="s">
         <v>452</v>
       </c>
@@ -13825,7 +13818,7 @@
         <v>5108.27294921875</v>
       </c>
     </row>
-    <row r="170" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="170" spans="1:20" s="4" customFormat="1">
       <c r="A170" s="5" t="s">
         <v>454</v>
       </c>
@@ -13883,7 +13876,7 @@
         <v>12.4799995422363</v>
       </c>
     </row>
-    <row r="171" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="171" spans="1:20" s="4" customFormat="1">
       <c r="A171" s="5" t="s">
         <v>456</v>
       </c>
@@ -13943,7 +13936,7 @@
         <v>2938.18237304688</v>
       </c>
     </row>
-    <row r="172" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="172" spans="1:20" s="4" customFormat="1">
       <c r="A172" s="5" t="s">
         <v>458</v>
       </c>
@@ -14003,7 +13996,7 @@
         <v>1606.51489257812</v>
       </c>
     </row>
-    <row r="173" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="173" spans="1:20" s="4" customFormat="1">
       <c r="A173" s="5" t="s">
         <v>460</v>
       </c>
@@ -14063,7 +14056,7 @@
         <v>1389.96850585938</v>
       </c>
     </row>
-    <row r="174" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="174" spans="1:20" s="4" customFormat="1">
       <c r="A174" s="5" t="s">
         <v>462</v>
       </c>
@@ -14125,7 +14118,7 @@
         <v>15.6300001144409</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="175" spans="1:20" s="4" customFormat="1">
       <c r="A175" s="5" t="s">
         <v>464</v>
       </c>
@@ -14187,7 +14180,7 @@
         <v>10.7700004577637</v>
       </c>
     </row>
-    <row r="176" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="176" spans="1:20" s="4" customFormat="1">
       <c r="A176" s="5" t="s">
         <v>466</v>
       </c>
@@ -14247,7 +14240,7 @@
         <v>572.82989501953102</v>
       </c>
     </row>
-    <row r="177" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="177" spans="1:20" s="4" customFormat="1">
       <c r="A177" s="5" t="s">
         <v>468</v>
       </c>
@@ -14309,7 +14302,7 @@
         <v>9.7971925735473597</v>
       </c>
     </row>
-    <row r="178" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="178" spans="1:20" s="4" customFormat="1">
       <c r="A178" s="5" t="s">
         <v>471</v>
       </c>
@@ -14371,7 +14364,7 @@
         <v>0.79681271314621005</v>
       </c>
     </row>
-    <row r="179" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="179" spans="1:20" s="4" customFormat="1">
       <c r="A179" s="5" t="s">
         <v>473</v>
       </c>
@@ -14433,7 +14426,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="180" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="180" spans="1:20" s="4" customFormat="1">
       <c r="A180" s="5" t="s">
         <v>475</v>
       </c>
@@ -14495,7 +14488,7 @@
         <v>11.6363515853882</v>
       </c>
     </row>
-    <row r="181" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="181" spans="1:20" s="4" customFormat="1">
       <c r="A181" s="5" t="s">
         <v>477</v>
       </c>
@@ -14557,7 +14550,7 @@
         <v>17.118036270141602</v>
       </c>
     </row>
-    <row r="182" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="182" spans="1:20" s="4" customFormat="1">
       <c r="A182" s="5" t="s">
         <v>480</v>
       </c>
@@ -14619,7 +14612,7 @@
         <v>12.670000076293899</v>
       </c>
     </row>
-    <row r="183" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="183" spans="1:20" s="4" customFormat="1">
       <c r="A183" s="5" t="s">
         <v>483</v>
       </c>
@@ -14677,7 +14670,7 @@
         <v>3.9513247013092001</v>
       </c>
     </row>
-    <row r="184" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="184" spans="1:20" s="4" customFormat="1">
       <c r="A184" s="5" t="s">
         <v>485</v>
       </c>
@@ -14739,7 +14732,7 @@
         <v>10.6599998474121</v>
       </c>
     </row>
-    <row r="185" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="185" spans="1:20" s="4" customFormat="1">
       <c r="A185" s="5" t="s">
         <v>487</v>
       </c>
@@ -14801,7 +14794,7 @@
         <v>23.809999465942401</v>
       </c>
     </row>
-    <row r="186" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="186" spans="1:20" s="4" customFormat="1">
       <c r="A186" s="5" t="s">
         <v>489</v>
       </c>
@@ -14863,7 +14856,7 @@
         <v>1.6287249326705899</v>
       </c>
     </row>
-    <row r="187" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="187" spans="1:20" s="4" customFormat="1">
       <c r="A187" s="5" t="s">
         <v>494</v>
       </c>
@@ -14925,7 +14918,7 @@
         <v>369.70202636718801</v>
       </c>
     </row>
-    <row r="188" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="188" spans="1:20" s="4" customFormat="1">
       <c r="A188" s="5" t="s">
         <v>497</v>
       </c>
@@ -14987,7 +14980,7 @@
         <v>13.2600002288818</v>
       </c>
     </row>
-    <row r="189" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="189" spans="1:20" s="4" customFormat="1">
       <c r="A189" s="5" t="s">
         <v>500</v>
       </c>
@@ -15049,7 +15042,7 @@
         <v>18.2600002288818</v>
       </c>
     </row>
-    <row r="190" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="190" spans="1:20" s="4" customFormat="1">
       <c r="A190" s="5" t="s">
         <v>502</v>
       </c>
@@ -15109,7 +15102,7 @@
         <v>4377.19775390625</v>
       </c>
     </row>
-    <row r="191" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="191" spans="1:20" s="4" customFormat="1">
       <c r="A191" s="5" t="s">
         <v>504</v>
       </c>
@@ -15169,7 +15162,7 @@
         <v>1034.6103515625</v>
       </c>
     </row>
-    <row r="192" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="192" spans="1:20" s="4" customFormat="1">
       <c r="A192" s="5" t="s">
         <v>506</v>
       </c>
@@ -15229,7 +15222,7 @@
         <v>3151.02709960938</v>
       </c>
     </row>
-    <row r="193" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="193" spans="1:20" s="4" customFormat="1">
       <c r="A193" s="5" t="s">
         <v>508</v>
       </c>
@@ -15291,7 +15284,7 @@
         <v>28.629999160766602</v>
       </c>
     </row>
-    <row r="194" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="194" spans="1:20" s="4" customFormat="1">
       <c r="A194" s="5" t="s">
         <v>510</v>
       </c>
@@ -15353,7 +15346,7 @@
         <v>2.80803370475769</v>
       </c>
     </row>
-    <row r="195" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="195" spans="1:20" s="4" customFormat="1">
       <c r="A195" s="5" t="s">
         <v>511</v>
       </c>
@@ -15415,7 +15408,7 @@
         <v>3.7854158878326398</v>
       </c>
     </row>
-    <row r="196" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="196" spans="1:20" s="4" customFormat="1">
       <c r="A196" s="5" t="s">
         <v>513</v>
       </c>
@@ -15477,7 +15470,7 @@
         <v>2.0013058185577401</v>
       </c>
     </row>
-    <row r="197" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="197" spans="1:20" s="4" customFormat="1">
       <c r="A197" s="5" t="s">
         <v>516</v>
       </c>
@@ -15539,7 +15532,7 @@
         <v>18.690000534057599</v>
       </c>
     </row>
-    <row r="198" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="198" spans="1:20" s="4" customFormat="1">
       <c r="A198" s="5" t="s">
         <v>518</v>
       </c>
@@ -15597,7 +15590,7 @@
         <v>2.53566193580627</v>
       </c>
     </row>
-    <row r="199" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="199" spans="1:20" s="4" customFormat="1">
       <c r="A199" s="5" t="s">
         <v>520</v>
       </c>
@@ -15659,7 +15652,7 @@
         <v>0.53146797418594405</v>
       </c>
     </row>
-    <row r="200" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="200" spans="1:20" s="4" customFormat="1">
       <c r="A200" s="5" t="s">
         <v>523</v>
       </c>
@@ -15719,7 +15712,7 @@
         <v>1588.93212890625</v>
       </c>
     </row>
-    <row r="201" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="201" spans="1:20" s="4" customFormat="1">
       <c r="A201" s="5" t="s">
         <v>525</v>
       </c>
@@ -15777,7 +15770,7 @@
         <v>18.5200004577637</v>
       </c>
     </row>
-    <row r="202" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="202" spans="1:20" s="4" customFormat="1">
       <c r="A202" s="5" t="s">
         <v>527</v>
       </c>
@@ -15835,7 +15828,7 @@
         <v>9.8000001907348597</v>
       </c>
     </row>
-    <row r="203" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="203" spans="1:20" s="4" customFormat="1">
       <c r="A203" s="5" t="s">
         <v>529</v>
       </c>
@@ -15897,7 +15890,7 @@
         <v>11.650338172912599</v>
       </c>
     </row>
-    <row r="204" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="204" spans="1:20" s="4" customFormat="1">
       <c r="A204" s="5" t="s">
         <v>532</v>
       </c>
@@ -15959,7 +15952,7 @@
         <v>17.950000762939499</v>
       </c>
     </row>
-    <row r="205" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="205" spans="1:20" s="4" customFormat="1">
       <c r="A205" s="5" t="s">
         <v>534</v>
       </c>
@@ -16021,7 +16014,7 @@
         <v>10.8752889633179</v>
       </c>
     </row>
-    <row r="206" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="206" spans="1:20" s="4" customFormat="1">
       <c r="A206" s="5" t="s">
         <v>536</v>
       </c>
@@ -16083,7 +16076,7 @@
         <v>17.344999313354499</v>
       </c>
     </row>
-    <row r="207" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="207" spans="1:20" s="4" customFormat="1">
       <c r="A207" s="5" t="s">
         <v>538</v>
       </c>
@@ -16145,7 +16138,7 @@
         <v>12.3999996185303</v>
       </c>
     </row>
-    <row r="208" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="208" spans="1:20" s="4" customFormat="1">
       <c r="A208" s="5" t="s">
         <v>541</v>
       </c>
@@ -16207,7 +16200,7 @@
         <v>33.639999389648402</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="209" spans="1:20" s="4" customFormat="1">
       <c r="A209" s="5" t="s">
         <v>544</v>
       </c>
@@ -16269,7 +16262,7 @@
         <v>3.14934182167053</v>
       </c>
     </row>
-    <row r="210" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="210" spans="1:20" s="4" customFormat="1">
       <c r="A210" s="5" t="s">
         <v>546</v>
       </c>
@@ -16329,7 +16322,7 @@
         <v>2029.42810058594</v>
       </c>
     </row>
-    <row r="211" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="211" spans="1:20" s="4" customFormat="1">
       <c r="A211" s="5" t="s">
         <v>548</v>
       </c>
@@ -16391,7 +16384,7 @@
         <v>12.758317947387701</v>
       </c>
     </row>
-    <row r="212" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="212" spans="1:20" s="4" customFormat="1">
       <c r="A212" s="5" t="s">
         <v>550</v>
       </c>
@@ -16451,7 +16444,7 @@
         <v>1534.33276367188</v>
       </c>
     </row>
-    <row r="213" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="213" spans="1:20" s="4" customFormat="1">
       <c r="A213" s="5" t="s">
         <v>552</v>
       </c>
@@ -16513,7 +16506,7 @@
         <v>12.183835029602101</v>
       </c>
     </row>
-    <row r="214" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="214" spans="1:20" s="4" customFormat="1">
       <c r="A214" s="5" t="s">
         <v>554</v>
       </c>
@@ -16575,7 +16568,7 @@
         <v>10.3486795425415</v>
       </c>
     </row>
-    <row r="215" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="215" spans="1:20" s="4" customFormat="1">
       <c r="A215" s="5" t="s">
         <v>556</v>
       </c>
@@ -16637,7 +16630,7 @@
         <v>1.0237193107605</v>
       </c>
     </row>
-    <row r="216" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="216" spans="1:20" s="4" customFormat="1">
       <c r="A216" s="5" t="s">
         <v>558</v>
       </c>
@@ -16699,7 +16692,7 @@
         <v>1.3207099437713601</v>
       </c>
     </row>
-    <row r="217" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="217" spans="1:20" s="4" customFormat="1">
       <c r="A217" s="5" t="s">
         <v>561</v>
       </c>
@@ -16757,7 +16750,7 @@
         <v>11.3800001144409</v>
       </c>
     </row>
-    <row r="218" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="218" spans="1:20" s="4" customFormat="1">
       <c r="A218" s="5" t="s">
         <v>563</v>
       </c>
@@ -16819,7 +16812,7 @@
         <v>8.82385349273682</v>
       </c>
     </row>
-    <row r="219" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="219" spans="1:20" s="4" customFormat="1">
       <c r="A219" s="5" t="s">
         <v>566</v>
       </c>
@@ -16881,7 +16874,7 @@
         <v>22.950000762939499</v>
       </c>
     </row>
-    <row r="220" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="220" spans="1:20" s="4" customFormat="1">
       <c r="A220" s="5" t="s">
         <v>569</v>
       </c>
@@ -16941,7 +16934,7 @@
         <v>1431.61206054688</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="221" spans="1:20" s="4" customFormat="1">
       <c r="A221" s="5" t="s">
         <v>571</v>
       </c>
@@ -17001,7 +16994,7 @@
         <v>1394.59558105469</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="222" spans="1:20" s="4" customFormat="1">
       <c r="A222" s="5" t="s">
         <v>573</v>
       </c>
@@ -17063,7 +17056,7 @@
         <v>3.0820114612579399</v>
       </c>
     </row>
-    <row r="223" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="223" spans="1:20" s="4" customFormat="1">
       <c r="A223" s="5" t="s">
         <v>575</v>
       </c>
@@ -17125,7 +17118,7 @@
         <v>0.66902202367782604</v>
       </c>
     </row>
-    <row r="224" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="224" spans="1:20" s="4" customFormat="1">
       <c r="A224" s="5" t="s">
         <v>577</v>
       </c>
@@ -17187,7 +17180,7 @@
         <v>2.2495300769805899</v>
       </c>
     </row>
-    <row r="225" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="225" spans="1:20" s="4" customFormat="1">
       <c r="A225" s="5" t="s">
         <v>579</v>
       </c>
@@ -17249,7 +17242,7 @@
         <v>0.69037294387817405</v>
       </c>
     </row>
-    <row r="226" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="226" spans="1:20" s="4" customFormat="1">
       <c r="A226" s="5" t="s">
         <v>581</v>
       </c>
@@ -17311,7 +17304,7 @@
         <v>21.469999313354499</v>
       </c>
     </row>
-    <row r="227" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="227" spans="1:20" s="4" customFormat="1">
       <c r="A227" s="5" t="s">
         <v>583</v>
       </c>
@@ -17373,7 +17366,7 @@
         <v>18.170000076293899</v>
       </c>
     </row>
-    <row r="228" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="228" spans="1:20" s="4" customFormat="1">
       <c r="A228" s="5" t="s">
         <v>585</v>
       </c>
@@ -17433,7 +17426,7 @@
         <v>3993.15185546875</v>
       </c>
     </row>
-    <row r="229" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="229" spans="1:20" s="4" customFormat="1">
       <c r="A229" s="5" t="s">
         <v>587</v>
       </c>
@@ -17495,7 +17488,7 @@
         <v>12.3673505783081</v>
       </c>
     </row>
-    <row r="230" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="230" spans="1:20" s="4" customFormat="1">
       <c r="A230" s="5" t="s">
         <v>589</v>
       </c>
@@ -17557,7 +17550,7 @@
         <v>20.340000152587901</v>
       </c>
     </row>
-    <row r="231" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="231" spans="1:20" s="4" customFormat="1">
       <c r="A231" s="5" t="s">
         <v>591</v>
       </c>
@@ -17619,7 +17612,7 @@
         <v>18.7700004577637</v>
       </c>
     </row>
-    <row r="232" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="232" spans="1:20" s="4" customFormat="1">
       <c r="A232" s="5" t="s">
         <v>593</v>
       </c>
@@ -17679,7 +17672,7 @@
         <v>106.53630065918</v>
       </c>
     </row>
-    <row r="233" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="233" spans="1:20" s="4" customFormat="1">
       <c r="A233" s="5" t="s">
         <v>596</v>
       </c>
@@ -17741,7 +17734,7 @@
         <v>16.940000534057599</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="234" spans="1:20" s="4" customFormat="1">
       <c r="A234" s="5" t="s">
         <v>598</v>
       </c>
@@ -17803,7 +17796,7 @@
         <v>2.96317386627197</v>
       </c>
     </row>
-    <row r="235" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="235" spans="1:20" s="4" customFormat="1">
       <c r="A235" s="5" t="s">
         <v>600</v>
       </c>
@@ -17865,7 +17858,7 @@
         <v>43.450000762939503</v>
       </c>
     </row>
-    <row r="236" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="236" spans="1:20" s="4" customFormat="1">
       <c r="A236" s="5" t="s">
         <v>602</v>
       </c>
@@ -17927,7 +17920,7 @@
         <v>5.2377567291259801</v>
       </c>
     </row>
-    <row r="237" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="237" spans="1:20" s="4" customFormat="1">
       <c r="A237" s="5" t="s">
         <v>604</v>
       </c>
@@ -17989,7 +17982,7 @@
         <v>1.6522409915924099</v>
       </c>
     </row>
-    <row r="238" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="238" spans="1:20" s="4" customFormat="1">
       <c r="A238" s="5" t="s">
         <v>605</v>
       </c>
@@ -18051,7 +18044,7 @@
         <v>0.50735276937484697</v>
       </c>
     </row>
-    <row r="239" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="239" spans="1:20" s="4" customFormat="1">
       <c r="A239" s="5" t="s">
         <v>609</v>
       </c>
@@ -18113,7 +18106,7 @@
         <v>19.780000686645501</v>
       </c>
     </row>
-    <row r="240" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="240" spans="1:20" s="4" customFormat="1">
       <c r="A240" s="5" t="s">
         <v>611</v>
       </c>
@@ -18173,7 +18166,7 @@
         <v>190.72737121582</v>
       </c>
     </row>
-    <row r="241" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="241" spans="1:20" s="4" customFormat="1">
       <c r="A241" s="5" t="s">
         <v>613</v>
       </c>
@@ -18235,7 +18228,7 @@
         <v>16.379999160766602</v>
       </c>
     </row>
-    <row r="242" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="242" spans="1:20" s="4" customFormat="1">
       <c r="A242" s="5" t="s">
         <v>615</v>
       </c>
@@ -18293,7 +18286,7 @@
         <v>0.28709611296653698</v>
       </c>
     </row>
-    <row r="243" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="243" spans="1:20" s="4" customFormat="1">
       <c r="A243" s="5" t="s">
         <v>617</v>
       </c>
@@ -18353,7 +18346,7 @@
         <v>1689.80200195312</v>
       </c>
     </row>
-    <row r="244" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="244" spans="1:20" s="4" customFormat="1">
       <c r="A244" s="5" t="s">
         <v>619</v>
       </c>
@@ -18413,7 +18406,7 @@
         <v>4145.8447265625</v>
       </c>
     </row>
-    <row r="245" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="245" spans="1:20" s="4" customFormat="1">
       <c r="A245" s="5" t="s">
         <v>621</v>
       </c>
@@ -18475,7 +18468,7 @@
         <v>24.795000076293899</v>
       </c>
     </row>
-    <row r="246" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="246" spans="1:20" s="4" customFormat="1">
       <c r="A246" s="5" t="s">
         <v>623</v>
       </c>
@@ -18537,7 +18530,7 @@
         <v>0.571805000305176</v>
       </c>
     </row>
-    <row r="247" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="247" spans="1:20" s="4" customFormat="1">
       <c r="A247" s="5" t="s">
         <v>626</v>
       </c>
@@ -18599,7 +18592,7 @@
         <v>15.231788635253899</v>
       </c>
     </row>
-    <row r="248" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="248" spans="1:20" s="4" customFormat="1">
       <c r="A248" s="5" t="s">
         <v>628</v>
       </c>
@@ -18661,7 +18654,7 @@
         <v>1.0298428535461399</v>
       </c>
     </row>
-    <row r="249" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="249" spans="1:20" s="4" customFormat="1">
       <c r="A249" s="5" t="s">
         <v>630</v>
       </c>
@@ -18723,7 +18716,7 @@
         <v>1.18028748035431</v>
       </c>
     </row>
-    <row r="250" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="250" spans="1:20" s="4" customFormat="1">
       <c r="A250" s="5" t="s">
         <v>633</v>
       </c>
@@ -18785,7 +18778,7 @@
         <v>1.9392498731613199</v>
       </c>
     </row>
-    <row r="251" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="251" spans="1:20" s="4" customFormat="1">
       <c r="A251" s="5" t="s">
         <v>635</v>
       </c>
@@ -18847,7 +18840,7 @@
         <v>16.360000610351602</v>
       </c>
     </row>
-    <row r="252" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="252" spans="1:20" s="4" customFormat="1">
       <c r="A252" s="5" t="s">
         <v>637</v>
       </c>
@@ -18909,7 +18902,7 @@
         <v>29.123115539550799</v>
       </c>
     </row>
-    <row r="253" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="253" spans="1:20" s="4" customFormat="1">
       <c r="A253" s="5" t="s">
         <v>639</v>
       </c>
@@ -18971,7 +18964,7 @@
         <v>2.6994359493255602</v>
       </c>
     </row>
-    <row r="254" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="254" spans="1:20" s="4" customFormat="1">
       <c r="A254" s="5" t="s">
         <v>641</v>
       </c>
@@ -19029,7 +19022,7 @@
         <v>16.149999618530298</v>
       </c>
     </row>
-    <row r="255" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="255" spans="1:20" s="4" customFormat="1">
       <c r="A255" s="5" t="s">
         <v>643</v>
       </c>
@@ -19089,7 +19082,7 @@
         <v>1466.77770996094</v>
       </c>
     </row>
-    <row r="256" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="256" spans="1:20" s="4" customFormat="1">
       <c r="A256" s="5" t="s">
         <v>645</v>
       </c>
@@ -19151,7 +19144,7 @@
         <v>283.14999389648398</v>
       </c>
     </row>
-    <row r="257" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="257" spans="1:20" s="4" customFormat="1">
       <c r="A257" s="5" t="s">
         <v>647</v>
       </c>
@@ -19211,7 +19204,7 @@
         <v>1.0030815601348899</v>
       </c>
     </row>
-    <row r="258" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="258" spans="1:20" s="4" customFormat="1">
       <c r="A258" s="5" t="s">
         <v>649</v>
       </c>
@@ -19271,7 +19264,7 @@
         <v>55.615562438964801</v>
       </c>
     </row>
-    <row r="259" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="259" spans="1:20" s="4" customFormat="1">
       <c r="A259" s="5" t="s">
         <v>651</v>
       </c>
@@ -19333,7 +19326,7 @@
         <v>7.68371486663818</v>
       </c>
     </row>
-    <row r="260" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="260" spans="1:20" s="4" customFormat="1">
       <c r="A260" s="5" t="s">
         <v>653</v>
       </c>
@@ -19395,7 +19388,7 @@
         <v>0.88969999551773105</v>
       </c>
     </row>
-    <row r="261" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="261" spans="1:20" s="4" customFormat="1">
       <c r="A261" s="5" t="s">
         <v>656</v>
       </c>
@@ -19457,7 +19450,7 @@
         <v>1.0629359483718901</v>
       </c>
     </row>
-    <row r="262" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="262" spans="1:20" s="4" customFormat="1">
       <c r="A262" s="5" t="s">
         <v>658</v>
       </c>
@@ -19519,7 +19512,7 @@
         <v>28.530000686645501</v>
       </c>
     </row>
-    <row r="263" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="263" spans="1:20" s="4" customFormat="1">
       <c r="A263" s="5" t="s">
         <v>660</v>
       </c>
@@ -19579,7 +19572,7 @@
         <v>2557.83813476562</v>
       </c>
     </row>
-    <row r="264" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="264" spans="1:20" s="4" customFormat="1">
       <c r="A264" s="5" t="s">
         <v>662</v>
       </c>
@@ -19639,7 +19632,7 @@
         <v>905.97814941406205</v>
       </c>
     </row>
-    <row r="265" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="265" spans="1:20" s="4" customFormat="1">
       <c r="A265" s="5" t="s">
         <v>664</v>
       </c>
@@ -19701,7 +19694,7 @@
         <v>18.180000305175799</v>
       </c>
     </row>
-    <row r="266" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="266" spans="1:20" s="4" customFormat="1">
       <c r="A266" s="5" t="s">
         <v>666</v>
       </c>
@@ -19763,7 +19756,7 @@
         <v>4.0956959724426296</v>
       </c>
     </row>
-    <row r="267" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="267" spans="1:20" s="4" customFormat="1">
       <c r="A267" s="5" t="s">
         <v>668</v>
       </c>
@@ -19825,7 +19818,7 @@
         <v>30.409999847412099</v>
       </c>
     </row>
-    <row r="268" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="268" spans="1:20" s="4" customFormat="1">
       <c r="A268" s="5" t="s">
         <v>670</v>
       </c>
@@ -19885,7 +19878,7 @@
         <v>1658.33801269531</v>
       </c>
     </row>
-    <row r="269" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="269" spans="1:20" s="4" customFormat="1">
       <c r="A269" s="5" t="s">
         <v>672</v>
       </c>
@@ -19947,7 +19940,7 @@
         <v>3.2865135669708301</v>
       </c>
     </row>
-    <row r="270" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="270" spans="1:20" s="4" customFormat="1">
       <c r="A270" s="5" t="s">
         <v>674</v>
       </c>
@@ -20007,7 +20000,7 @@
         <v>5941.14404296875</v>
       </c>
     </row>
-    <row r="271" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="271" spans="1:20" s="4" customFormat="1">
       <c r="A271" s="5" t="s">
         <v>676</v>
       </c>
@@ -20069,7 +20062,7 @@
         <v>2.1331748962402299</v>
       </c>
     </row>
-    <row r="272" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="272" spans="1:20" s="4" customFormat="1">
       <c r="A272" s="5" t="s">
         <v>678</v>
       </c>
@@ -20131,7 +20124,7 @@
         <v>17.670000076293899</v>
       </c>
     </row>
-    <row r="273" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="273" spans="1:20" s="4" customFormat="1">
       <c r="A273" s="5" t="s">
         <v>681</v>
       </c>
@@ -20193,7 +20186,7 @@
         <v>1.5664319992065401</v>
       </c>
     </row>
-    <row r="274" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="274" spans="1:20" s="4" customFormat="1">
       <c r="A274" s="5" t="s">
         <v>683</v>
       </c>
@@ -20255,7 +20248,7 @@
         <v>2.1874737739563002</v>
       </c>
     </row>
-    <row r="275" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="275" spans="1:20" s="4" customFormat="1">
       <c r="A275" s="5" t="s">
         <v>685</v>
       </c>
@@ -20317,7 +20310,7 @@
         <v>24.846431732177699</v>
       </c>
     </row>
-    <row r="276" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="276" spans="1:20" s="4" customFormat="1">
       <c r="A276" s="5" t="s">
         <v>689</v>
       </c>
@@ -20379,7 +20372,7 @@
         <v>49.169998168945298</v>
       </c>
     </row>
-    <row r="277" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="277" spans="1:20" s="4" customFormat="1">
       <c r="A277" s="5" t="s">
         <v>691</v>
       </c>
@@ -20441,7 +20434,7 @@
         <v>42.855278015136697</v>
       </c>
     </row>
-    <row r="278" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="278" spans="1:20" s="4" customFormat="1">
       <c r="A278" s="5" t="s">
         <v>693</v>
       </c>
@@ -20503,7 +20496,7 @@
         <v>1.5160156488418599</v>
       </c>
     </row>
-    <row r="279" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="279" spans="1:20" s="4" customFormat="1">
       <c r="A279" s="5" t="s">
         <v>696</v>
       </c>
@@ -20565,7 +20558,7 @@
         <v>49.599998474121101</v>
       </c>
     </row>
-    <row r="280" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="280" spans="1:20" s="4" customFormat="1">
       <c r="A280" s="5" t="s">
         <v>698</v>
       </c>
@@ -20627,7 +20620,7 @@
         <v>0.74500000476837203</v>
       </c>
     </row>
-    <row r="281" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="281" spans="1:20" s="4" customFormat="1">
       <c r="A281" s="5" t="s">
         <v>700</v>
       </c>
@@ -20689,7 +20682,7 @@
         <v>0.96218895912170399</v>
       </c>
     </row>
-    <row r="282" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="282" spans="1:20" s="4" customFormat="1">
       <c r="A282" s="5" t="s">
         <v>702</v>
       </c>
@@ -20751,7 +20744,7 @@
         <v>12.7241659164429</v>
       </c>
     </row>
-    <row r="283" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="283" spans="1:20" s="4" customFormat="1">
       <c r="A283" s="5" t="s">
         <v>704</v>
       </c>
@@ -20811,7 +20804,7 @@
         <v>4.80635643005371</v>
       </c>
     </row>
-    <row r="284" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="284" spans="1:20" s="4" customFormat="1">
       <c r="A284" s="5" t="s">
         <v>708</v>
       </c>
@@ -20873,7 +20866,7 @@
         <v>8.5613975524902308</v>
       </c>
     </row>
-    <row r="285" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="285" spans="1:20" s="4" customFormat="1">
       <c r="A285" s="5" t="s">
         <v>710</v>
       </c>
@@ -20935,7 +20928,7 @@
         <v>2.53426313400269</v>
       </c>
     </row>
-    <row r="286" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="286" spans="1:20" s="4" customFormat="1">
       <c r="A286" s="5" t="s">
         <v>712</v>
       </c>
@@ -20997,7 +20990,7 @@
         <v>1.84894919395447</v>
       </c>
     </row>
-    <row r="287" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="287" spans="1:20" s="4" customFormat="1">
       <c r="A287" s="5" t="s">
         <v>714</v>
       </c>
@@ -21057,7 +21050,7 @@
         <v>1188.22875976562</v>
       </c>
     </row>
-    <row r="288" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="288" spans="1:20" s="4" customFormat="1">
       <c r="A288" s="5" t="s">
         <v>716</v>
       </c>
@@ -21119,7 +21112,7 @@
         <v>4.6199998855590803</v>
       </c>
     </row>
-    <row r="289" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="289" spans="1:20" s="4" customFormat="1">
       <c r="A289" s="5" t="s">
         <v>718</v>
       </c>
@@ -21181,7 +21174,7 @@
         <v>0.30444261431693997</v>
       </c>
     </row>
-    <row r="290" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="290" spans="1:20" s="4" customFormat="1">
       <c r="A290" s="5" t="s">
         <v>720</v>
       </c>
@@ -21243,7 +21236,7 @@
         <v>13.5200004577637</v>
       </c>
     </row>
-    <row r="291" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="291" spans="1:20" s="4" customFormat="1">
       <c r="A291" s="5" t="s">
         <v>722</v>
       </c>
@@ -21303,7 +21296,7 @@
         <v>3.6845748424529998</v>
       </c>
     </row>
-    <row r="292" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="292" spans="1:20" s="4" customFormat="1">
       <c r="A292" s="5" t="s">
         <v>724</v>
       </c>
@@ -21361,7 +21354,7 @@
         <v>9.7899999618530291</v>
       </c>
     </row>
-    <row r="293" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="293" spans="1:20" s="4" customFormat="1">
       <c r="A293" s="5" t="s">
         <v>726</v>
       </c>
@@ -21421,7 +21414,7 @@
         <v>9.5799999237060494</v>
       </c>
     </row>
-    <row r="294" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="294" spans="1:20" s="4" customFormat="1">
       <c r="A294" s="5" t="s">
         <v>728</v>
       </c>
@@ -21483,7 +21476,7 @@
         <v>1.97423195838928</v>
       </c>
     </row>
-    <row r="295" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="295" spans="1:20" s="4" customFormat="1">
       <c r="A295" s="5" t="s">
         <v>732</v>
       </c>
@@ -21543,7 +21536,7 @@
         <v>17.410037994384801</v>
       </c>
     </row>
-    <row r="296" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="296" spans="1:20" s="4" customFormat="1">
       <c r="A296" s="5" t="s">
         <v>734</v>
       </c>
@@ -21605,7 +21598,7 @@
         <v>12.0900001525879</v>
       </c>
     </row>
-    <row r="297" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="297" spans="1:20" s="4" customFormat="1">
       <c r="A297" s="5" t="s">
         <v>736</v>
       </c>
@@ -21667,7 +21660,7 @@
         <v>1.57762086391449</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="298" spans="1:20" s="4" customFormat="1">
       <c r="A298" s="5" t="s">
         <v>738</v>
       </c>
@@ -21727,7 +21720,7 @@
         <v>1405.70056152344</v>
       </c>
     </row>
-    <row r="299" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="299" spans="1:20" s="4" customFormat="1">
       <c r="A299" s="5" t="s">
         <v>740</v>
       </c>
@@ -21789,7 +21782,7 @@
         <v>68.559997558593807</v>
       </c>
     </row>
-    <row r="300" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="300" spans="1:20" s="4" customFormat="1">
       <c r="A300" s="5" t="s">
         <v>742</v>
       </c>
@@ -21837,7 +21830,7 @@
         <v>3.1609530448913601</v>
       </c>
     </row>
-    <row r="301" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="301" spans="1:20" s="4" customFormat="1">
       <c r="A301" s="5" t="s">
         <v>744</v>
       </c>
@@ -21897,7 +21890,7 @@
         <v>6.3699998855590803</v>
       </c>
     </row>
-    <row r="302" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="302" spans="1:20" s="4" customFormat="1">
       <c r="A302" s="5" t="s">
         <v>747</v>
       </c>
@@ -21959,7 +21952,7 @@
         <v>40.819999694824197</v>
       </c>
     </row>
-    <row r="303" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="303" spans="1:20" s="4" customFormat="1">
       <c r="A303" s="5" t="s">
         <v>749</v>
       </c>
@@ -22021,7 +22014,7 @@
         <v>16.9233207702637</v>
       </c>
     </row>
-    <row r="304" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="304" spans="1:20" s="4" customFormat="1">
       <c r="A304" s="5" t="s">
         <v>751</v>
       </c>
@@ -22083,7 +22076,7 @@
         <v>1.40363085269928</v>
       </c>
     </row>
-    <row r="305" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="305" spans="1:20" s="4" customFormat="1">
       <c r="A305" s="5" t="s">
         <v>754</v>
       </c>
@@ -22145,7 +22138,7 @@
         <v>5.1574525833129901</v>
       </c>
     </row>
-    <row r="306" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="306" spans="1:20" s="4" customFormat="1">
       <c r="A306" s="5" t="s">
         <v>758</v>
       </c>
@@ -22207,7 +22200,7 @@
         <v>1.18798291683197</v>
       </c>
     </row>
-    <row r="307" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="307" spans="1:20" s="4" customFormat="1">
       <c r="A307" s="5" t="s">
         <v>760</v>
       </c>
@@ -22269,7 +22262,7 @@
         <v>11.255530357360801</v>
       </c>
     </row>
-    <row r="308" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="308" spans="1:20" s="4" customFormat="1">
       <c r="A308" s="5" t="s">
         <v>763</v>
       </c>
@@ -22331,7 +22324,7 @@
         <v>69.610000610351605</v>
       </c>
     </row>
-    <row r="309" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="309" spans="1:20" s="4" customFormat="1">
       <c r="A309" s="5" t="s">
         <v>765</v>
       </c>
@@ -22393,7 +22386,7 @@
         <v>2.4822399616241499</v>
       </c>
     </row>
-    <row r="310" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="310" spans="1:20" s="4" customFormat="1">
       <c r="A310" s="5" t="s">
         <v>767</v>
       </c>
@@ -22455,7 +22448,7 @@
         <v>2.5442957878112802</v>
       </c>
     </row>
-    <row r="311" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="311" spans="1:20" s="4" customFormat="1">
       <c r="A311" s="5" t="s">
         <v>770</v>
       </c>
@@ -22517,7 +22510,7 @@
         <v>0.229811206459999</v>
       </c>
     </row>
-    <row r="312" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="312" spans="1:20" s="4" customFormat="1">
       <c r="A312" s="5" t="s">
         <v>774</v>
       </c>
@@ -22579,7 +22572,7 @@
         <v>14.2200002670288</v>
       </c>
     </row>
-    <row r="313" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="313" spans="1:20" s="4" customFormat="1">
       <c r="A313" s="5" t="s">
         <v>776</v>
       </c>
@@ -22641,7 +22634,7 @@
         <v>1.0853135585784901</v>
       </c>
     </row>
-    <row r="314" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="314" spans="1:20" s="4" customFormat="1">
       <c r="A314" s="5" t="s">
         <v>780</v>
       </c>
@@ -22701,7 +22694,7 @@
         <v>515.45440673828102</v>
       </c>
     </row>
-    <row r="315" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="315" spans="1:20" s="4" customFormat="1">
       <c r="A315" s="5" t="s">
         <v>782</v>
       </c>
@@ -22763,7 +22756,7 @@
         <v>20.120000839233398</v>
       </c>
     </row>
-    <row r="316" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="316" spans="1:20" s="4" customFormat="1">
       <c r="A316" s="5" t="s">
         <v>784</v>
       </c>
@@ -22825,7 +22818,7 @@
         <v>1.6444838047027599</v>
       </c>
     </row>
-    <row r="317" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="317" spans="1:20" s="4" customFormat="1">
       <c r="A317" s="5" t="s">
         <v>786</v>
       </c>
@@ -22885,7 +22878,7 @@
         <v>1662.03955078125</v>
       </c>
     </row>
-    <row r="318" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="318" spans="1:20" s="4" customFormat="1">
       <c r="A318" s="5" t="s">
         <v>788</v>
       </c>
@@ -22947,7 +22940,7 @@
         <v>0.68405622243881203</v>
       </c>
     </row>
-    <row r="319" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="319" spans="1:20" s="4" customFormat="1">
       <c r="A319" s="5" t="s">
         <v>790</v>
       </c>
@@ -23005,7 +22998,7 @@
         <v>1343.69799804688</v>
       </c>
     </row>
-    <row r="320" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="320" spans="1:20" s="4" customFormat="1">
       <c r="A320" s="5" t="s">
         <v>792</v>
       </c>
@@ -23063,7 +23056,7 @@
         <v>20.7700004577637</v>
       </c>
     </row>
-    <row r="321" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="321" spans="1:20" s="4" customFormat="1">
       <c r="A321" s="5" t="s">
         <v>794</v>
       </c>
@@ -23115,7 +23108,7 @@
         <v>5.6313281059265101</v>
       </c>
     </row>
-    <row r="322" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="322" spans="1:20" s="4" customFormat="1">
       <c r="A322" s="5" t="s">
         <v>796</v>
       </c>
@@ -23177,7 +23170,7 @@
         <v>0.55626553297042802</v>
       </c>
     </row>
-    <row r="323" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="323" spans="1:20" s="4" customFormat="1">
       <c r="A323" s="5" t="s">
         <v>799</v>
       </c>
@@ -23239,7 +23232,7 @@
         <v>1.8769211769103999</v>
       </c>
     </row>
-    <row r="324" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="324" spans="1:20" s="4" customFormat="1">
       <c r="A324" s="5" t="s">
         <v>801</v>
       </c>
@@ -23299,7 +23292,7 @@
         <v>467.33297729492199</v>
       </c>
     </row>
-    <row r="325" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="325" spans="1:20" s="4" customFormat="1">
       <c r="A325" s="5" t="s">
         <v>803</v>
       </c>
@@ -23357,7 +23350,7 @@
         <v>4.6449489593505904</v>
       </c>
     </row>
-    <row r="326" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="326" spans="1:20" s="4" customFormat="1">
       <c r="A326" s="5" t="s">
         <v>805</v>
       </c>
@@ -23415,7 +23408,7 @@
         <v>1277.06823730469</v>
       </c>
     </row>
-    <row r="327" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="327" spans="1:20" s="4" customFormat="1">
       <c r="A327" s="5" t="s">
         <v>807</v>
       </c>
@@ -23477,7 +23470,7 @@
         <v>20.610000610351602</v>
       </c>
     </row>
-    <row r="328" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="328" spans="1:20" s="4" customFormat="1">
       <c r="A328" s="5" t="s">
         <v>809</v>
       </c>
@@ -23535,7 +23528,7 @@
         <v>1.2167819738388099</v>
       </c>
     </row>
-    <row r="329" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="329" spans="1:20" s="4" customFormat="1">
       <c r="A329" s="5" t="s">
         <v>811</v>
       </c>
@@ -23593,7 +23586,7 @@
         <v>17.969999313354499</v>
       </c>
     </row>
-    <row r="330" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="330" spans="1:20" s="4" customFormat="1">
       <c r="A330" s="5" t="s">
         <v>813</v>
       </c>
@@ -23655,7 +23648,7 @@
         <v>18.056999206543001</v>
       </c>
     </row>
-    <row r="331" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="331" spans="1:20" s="4" customFormat="1">
       <c r="A331" s="5" t="s">
         <v>816</v>
       </c>
@@ -23713,7 +23706,7 @@
         <v>5.8000001907348597</v>
       </c>
     </row>
-    <row r="332" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="332" spans="1:20" s="4" customFormat="1">
       <c r="A332" s="5" t="s">
         <v>818</v>
       </c>
@@ -23773,7 +23766,7 @@
         <v>0.60136812925338701</v>
       </c>
     </row>
-    <row r="333" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="333" spans="1:20" s="4" customFormat="1">
       <c r="A333" s="5" t="s">
         <v>820</v>
       </c>
@@ -23835,7 +23828,7 @@
         <v>1.2727259397506701</v>
       </c>
     </row>
-    <row r="334" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="334" spans="1:20" s="4" customFormat="1">
       <c r="A334" s="5" t="s">
         <v>822</v>
       </c>
@@ -23897,7 +23890,7 @@
         <v>18.040000915527301</v>
       </c>
     </row>
-    <row r="335" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="335" spans="1:20" s="4" customFormat="1">
       <c r="A335" s="5" t="s">
         <v>824</v>
       </c>
@@ -23957,7 +23950,7 @@
         <v>2836.38720703125</v>
       </c>
     </row>
-    <row r="336" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="336" spans="1:20" s="4" customFormat="1">
       <c r="A336" s="5" t="s">
         <v>826</v>
       </c>
@@ -24019,7 +24012,7 @@
         <v>4.2607650756835902</v>
       </c>
     </row>
-    <row r="337" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="337" spans="1:20" s="4" customFormat="1">
       <c r="A337" s="5" t="s">
         <v>831</v>
       </c>
@@ -24079,7 +24072,7 @@
         <v>0.68860954046249401</v>
       </c>
     </row>
-    <row r="338" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="338" spans="1:20" s="4" customFormat="1">
       <c r="A338" s="5" t="s">
         <v>833</v>
       </c>
@@ -24141,7 +24134,7 @@
         <v>1.3146840333938601</v>
       </c>
     </row>
-    <row r="339" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="339" spans="1:20" s="4" customFormat="1">
       <c r="A339" s="5" t="s">
         <v>835</v>
       </c>
@@ -24203,7 +24196,7 @@
         <v>1.69230604171753</v>
       </c>
     </row>
-    <row r="340" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="340" spans="1:20" s="4" customFormat="1">
       <c r="A340" s="5" t="s">
         <v>838</v>
       </c>
@@ -24261,7 +24254,7 @@
         <v>13.310000419616699</v>
       </c>
     </row>
-    <row r="341" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="341" spans="1:20" s="4" customFormat="1">
       <c r="A341" s="5" t="s">
         <v>840</v>
       </c>
@@ -24321,7 +24314,7 @@
         <v>1246.52966308594</v>
       </c>
     </row>
-    <row r="342" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="342" spans="1:20" s="4" customFormat="1">
       <c r="A342" s="5" t="s">
         <v>842</v>
       </c>
@@ -24381,7 +24374,7 @@
         <v>2.07004022598267</v>
       </c>
     </row>
-    <row r="343" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="343" spans="1:20" s="4" customFormat="1">
       <c r="A343" s="5" t="s">
         <v>844</v>
       </c>
@@ -24441,7 +24434,7 @@
         <v>11.737668991088899</v>
       </c>
     </row>
-    <row r="344" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="344" spans="1:20" s="4" customFormat="1">
       <c r="A344" s="5" t="s">
         <v>847</v>
       </c>
@@ -24503,7 +24496,7 @@
         <v>5.5300002098083496</v>
       </c>
     </row>
-    <row r="345" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="345" spans="1:20" s="4" customFormat="1">
       <c r="A345" s="5" t="s">
         <v>849</v>
       </c>
@@ -24565,7 +24558,7 @@
         <v>1.46013844013214</v>
       </c>
     </row>
-    <row r="346" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="346" spans="1:20" s="4" customFormat="1">
       <c r="A346" s="5" t="s">
         <v>851</v>
       </c>
@@ -24627,7 +24620,7 @@
         <v>21.030000686645501</v>
       </c>
     </row>
-    <row r="347" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="347" spans="1:20" s="4" customFormat="1">
       <c r="A347" s="5" t="s">
         <v>853</v>
       </c>
@@ -24687,7 +24680,7 @@
         <v>1.85331618785858</v>
       </c>
     </row>
-    <row r="348" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="348" spans="1:20" s="4" customFormat="1">
       <c r="A348" s="5" t="s">
         <v>856</v>
       </c>
@@ -24743,7 +24736,7 @@
         <v>9.4899997711181605</v>
       </c>
     </row>
-    <row r="349" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="349" spans="1:20" s="4" customFormat="1">
       <c r="A349" s="5" t="s">
         <v>858</v>
       </c>
@@ -24805,7 +24798,7 @@
         <v>6.5999999046325701</v>
       </c>
     </row>
-    <row r="350" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="350" spans="1:20" s="4" customFormat="1">
       <c r="A350" s="5" t="s">
         <v>860</v>
       </c>
@@ -24867,7 +24860,7 @@
         <v>11.0900001525879</v>
       </c>
     </row>
-    <row r="351" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="351" spans="1:20" s="4" customFormat="1">
       <c r="A351" s="5" t="s">
         <v>862</v>
       </c>
@@ -24929,7 +24922,7 @@
         <v>4.2772984504699698</v>
       </c>
     </row>
-    <row r="352" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="352" spans="1:20" s="4" customFormat="1">
       <c r="A352" s="5" t="s">
         <v>865</v>
       </c>
@@ -24989,7 +24982,7 @@
         <v>2085.87817382812</v>
       </c>
     </row>
-    <row r="353" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="353" spans="1:20" s="4" customFormat="1">
       <c r="A353" s="5" t="s">
         <v>867</v>
       </c>
@@ -25047,7 +25040,7 @@
         <v>4.7790861129760698</v>
       </c>
     </row>
-    <row r="354" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="354" spans="1:20" s="4" customFormat="1">
       <c r="A354" s="5" t="s">
         <v>870</v>
       </c>
@@ -25109,7 +25102,7 @@
         <v>10.430000305175801</v>
       </c>
     </row>
-    <row r="355" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="355" spans="1:20" s="4" customFormat="1">
       <c r="A355" s="5" t="s">
         <v>872</v>
       </c>
@@ -25171,7 +25164,7 @@
         <v>24.319999694824201</v>
       </c>
     </row>
-    <row r="356" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="356" spans="1:20" s="4" customFormat="1">
       <c r="A356" s="5" t="s">
         <v>874</v>
       </c>
@@ -25233,7 +25226,7 @@
         <v>17.620000839233398</v>
       </c>
     </row>
-    <row r="357" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="357" spans="1:20" s="4" customFormat="1">
       <c r="A357" s="5" t="s">
         <v>876</v>
       </c>
@@ -25295,7 +25288,7 @@
         <v>2.3038289546966499</v>
       </c>
     </row>
-    <row r="358" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="358" spans="1:20" s="4" customFormat="1">
       <c r="A358" s="5" t="s">
         <v>878</v>
       </c>
@@ -25353,7 +25346,7 @@
         <v>1079.95556640625</v>
       </c>
     </row>
-    <row r="359" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="359" spans="1:20" s="4" customFormat="1">
       <c r="A359" s="5" t="s">
         <v>880</v>
       </c>
@@ -25415,7 +25408,7 @@
         <v>5.5852551460266104</v>
       </c>
     </row>
-    <row r="360" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="360" spans="1:20" s="4" customFormat="1">
       <c r="A360" s="5" t="s">
         <v>882</v>
       </c>
@@ -25477,7 +25470,7 @@
         <v>11.069999694824199</v>
       </c>
     </row>
-    <row r="361" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="361" spans="1:20" s="4" customFormat="1">
       <c r="A361" s="5" t="s">
         <v>884</v>
       </c>
@@ -25539,7 +25532,7 @@
         <v>9.6864280700683594</v>
       </c>
     </row>
-    <row r="362" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="362" spans="1:20" s="4" customFormat="1">
       <c r="A362" s="5" t="s">
         <v>886</v>
       </c>
@@ -25597,7 +25590,7 @@
         <v>0.53622615337371804</v>
       </c>
     </row>
-    <row r="363" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="363" spans="1:20" s="4" customFormat="1">
       <c r="A363" s="5" t="s">
         <v>888</v>
       </c>
@@ -25657,7 +25650,7 @@
         <v>59.909999847412102</v>
       </c>
     </row>
-    <row r="364" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="364" spans="1:20" s="4" customFormat="1">
       <c r="A364" s="5" t="s">
         <v>890</v>
       </c>
@@ -25719,7 +25712,7 @@
         <v>0.83387750387191795</v>
       </c>
     </row>
-    <row r="365" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="365" spans="1:20" s="4" customFormat="1">
       <c r="A365" s="5" t="s">
         <v>892</v>
       </c>
@@ -25779,7 +25772,7 @@
         <v>1288.17321777344</v>
       </c>
     </row>
-    <row r="366" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="366" spans="1:20" s="4" customFormat="1">
       <c r="A366" s="5" t="s">
         <v>894</v>
       </c>
@@ -25839,7 +25832,7 @@
         <v>2.7036395072936998</v>
       </c>
     </row>
-    <row r="367" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="367" spans="1:20" s="4" customFormat="1">
       <c r="A367" s="5" t="s">
         <v>896</v>
       </c>
@@ -25897,7 +25890,7 @@
         <v>0.43738260865211498</v>
       </c>
     </row>
-    <row r="368" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="368" spans="1:20" s="4" customFormat="1">
       <c r="A368" s="5" t="s">
         <v>898</v>
       </c>
@@ -25955,7 +25948,7 @@
         <v>10.670000076293899</v>
       </c>
     </row>
-    <row r="369" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="369" spans="1:20" s="4" customFormat="1">
       <c r="A369" s="5" t="s">
         <v>900</v>
       </c>
@@ -26017,7 +26010,7 @@
         <v>9.6899995803833008</v>
       </c>
     </row>
-    <row r="370" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="370" spans="1:20" s="4" customFormat="1">
       <c r="A370" s="5" t="s">
         <v>902</v>
       </c>
@@ -26079,7 +26072,7 @@
         <v>13.2600002288818</v>
       </c>
     </row>
-    <row r="371" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="371" spans="1:20" s="4" customFormat="1">
       <c r="A371" s="5" t="s">
         <v>904</v>
       </c>
@@ -26141,7 +26134,7 @@
         <v>2.35435271263123</v>
       </c>
     </row>
-    <row r="372" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="372" spans="1:20" s="4" customFormat="1">
       <c r="A372" s="5" t="s">
         <v>907</v>
       </c>
@@ -26199,7 +26192,7 @@
         <v>1106.79248046875</v>
       </c>
     </row>
-    <row r="373" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="373" spans="1:20" s="4" customFormat="1">
       <c r="A373" s="5" t="s">
         <v>909</v>
       </c>
@@ -26259,7 +26252,7 @@
         <v>18.610000610351602</v>
       </c>
     </row>
-    <row r="374" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="374" spans="1:20" s="4" customFormat="1">
       <c r="A374" s="5" t="s">
         <v>912</v>
       </c>
@@ -26321,7 +26314,7 @@
         <v>0.39660966396331798</v>
       </c>
     </row>
-    <row r="375" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="375" spans="1:20" s="4" customFormat="1">
       <c r="A375" s="5" t="s">
         <v>914</v>
       </c>
@@ -26383,7 +26376,7 @@
         <v>3.1622450351715101</v>
       </c>
     </row>
-    <row r="376" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="376" spans="1:20" s="4" customFormat="1">
       <c r="A376" s="5" t="s">
         <v>916</v>
       </c>
@@ -26445,7 +26438,7 @@
         <v>53.130001068115199</v>
       </c>
     </row>
-    <row r="377" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="377" spans="1:20" s="4" customFormat="1">
       <c r="A377" s="5" t="s">
         <v>918</v>
       </c>
@@ -26507,7 +26500,7 @@
         <v>17.700000762939499</v>
       </c>
     </row>
-    <row r="378" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="378" spans="1:20" s="4" customFormat="1">
       <c r="A378" s="5" t="s">
         <v>920</v>
       </c>
@@ -26567,7 +26560,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="379" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="379" spans="1:20" s="4" customFormat="1">
       <c r="A379" s="5" t="s">
         <v>922</v>
       </c>
@@ -26629,7 +26622,7 @@
         <v>0.56923019886016801</v>
       </c>
     </row>
-    <row r="380" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="380" spans="1:20" s="4" customFormat="1">
       <c r="A380" s="5" t="s">
         <v>924</v>
       </c>
@@ -26687,7 +26680,7 @@
         <v>0.51769298315048196</v>
       </c>
     </row>
-    <row r="381" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="381" spans="1:20" s="4" customFormat="1">
       <c r="A381" s="5" t="s">
         <v>926</v>
       </c>
@@ -26745,7 +26738,7 @@
         <v>2.0317289829254199</v>
       </c>
     </row>
-    <row r="382" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="382" spans="1:20" s="4" customFormat="1">
       <c r="A382" s="5" t="s">
         <v>928</v>
       </c>
@@ -26805,7 +26798,7 @@
         <v>1068.8505859375</v>
       </c>
     </row>
-    <row r="383" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="383" spans="1:20" s="4" customFormat="1">
       <c r="A383" s="5" t="s">
         <v>930</v>
       </c>
@@ -26863,7 +26856,7 @@
         <v>5.7300000190734899</v>
       </c>
     </row>
-    <row r="384" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="384" spans="1:20" s="4" customFormat="1">
       <c r="A384" s="5" t="s">
         <v>932</v>
       </c>
@@ -26921,7 +26914,7 @@
         <v>0.227340131998062</v>
       </c>
     </row>
-    <row r="385" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="385" spans="1:20" s="4" customFormat="1">
       <c r="A385" s="5" t="s">
         <v>934</v>
       </c>
@@ -26983,7 +26976,7 @@
         <v>9.5100002288818395</v>
       </c>
     </row>
-    <row r="386" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="386" spans="1:20" s="4" customFormat="1">
       <c r="A386" s="5" t="s">
         <v>936</v>
       </c>
@@ -27043,7 +27036,7 @@
         <v>0.57699912786483798</v>
       </c>
     </row>
-    <row r="387" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="387" spans="1:20" s="4" customFormat="1">
       <c r="A387" s="5" t="s">
         <v>939</v>
       </c>
@@ -27105,7 +27098,7 @@
         <v>3.2314691543579102</v>
       </c>
     </row>
-    <row r="388" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="388" spans="1:20" s="4" customFormat="1">
       <c r="A388" s="5" t="s">
         <v>941</v>
       </c>
@@ -27163,7 +27156,7 @@
         <v>2.21000003814697</v>
       </c>
     </row>
-    <row r="389" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="389" spans="1:20" s="4" customFormat="1">
       <c r="A389" s="5" t="s">
         <v>943</v>
       </c>
@@ -27225,7 +27218,7 @@
         <v>3.8928143978118901</v>
       </c>
     </row>
-    <row r="390" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="390" spans="1:20" s="4" customFormat="1">
       <c r="A390" s="5" t="s">
         <v>946</v>
       </c>
@@ -27285,7 +27278,7 @@
         <v>777.345947265625</v>
       </c>
     </row>
-    <row r="391" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="391" spans="1:20" s="4" customFormat="1">
       <c r="A391" s="5" t="s">
         <v>948</v>
       </c>
@@ -27347,7 +27340,7 @@
         <v>2.8516359329223602</v>
       </c>
     </row>
-    <row r="392" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="392" spans="1:20" s="4" customFormat="1">
       <c r="A392" s="5" t="s">
         <v>950</v>
       </c>
@@ -27405,7 +27398,7 @@
         <v>0.223633483052254</v>
       </c>
     </row>
-    <row r="393" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="393" spans="1:20" s="4" customFormat="1">
       <c r="A393" s="5" t="s">
         <v>952</v>
       </c>
@@ -27465,7 +27458,7 @@
         <v>0.35707226395607</v>
       </c>
     </row>
-    <row r="394" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="394" spans="1:20" s="4" customFormat="1">
       <c r="A394" s="5" t="s">
         <v>955</v>
       </c>
@@ -27523,7 +27516,7 @@
         <v>43.090000152587898</v>
       </c>
     </row>
-    <row r="395" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="395" spans="1:20" s="4" customFormat="1">
       <c r="A395" s="5" t="s">
         <v>957</v>
       </c>
@@ -27581,7 +27574,7 @@
         <v>1.9917343854904199</v>
       </c>
     </row>
-    <row r="396" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="396" spans="1:20" s="4" customFormat="1">
       <c r="A396" s="5" t="s">
         <v>959</v>
       </c>
@@ -27639,7 +27632,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="397" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="397" spans="1:20" s="4" customFormat="1">
       <c r="A397" s="5" t="s">
         <v>961</v>
       </c>
@@ -27697,7 +27690,7 @@
         <v>0.229811206459999</v>
       </c>
     </row>
-    <row r="398" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="398" spans="1:20" s="4" customFormat="1">
       <c r="A398" s="5" t="s">
         <v>963</v>
       </c>
@@ -27757,7 +27750,7 @@
         <v>2.2850286960601802</v>
       </c>
     </row>
-    <row r="399" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="399" spans="1:20" s="4" customFormat="1">
       <c r="A399" s="5" t="s">
         <v>965</v>
       </c>
@@ -27817,7 +27810,7 @@
         <v>2.0637247562408501</v>
       </c>
     </row>
-    <row r="400" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="400" spans="1:20" s="4" customFormat="1">
       <c r="A400" s="5" t="s">
         <v>967</v>
       </c>
@@ -27877,7 +27870,7 @@
         <v>18.120000839233398</v>
       </c>
     </row>
-    <row r="401" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="401" spans="1:20" s="4" customFormat="1">
       <c r="A401" s="5" t="s">
         <v>969</v>
       </c>
@@ -27937,7 +27930,7 @@
         <v>0.54487496614456199</v>
       </c>
     </row>
-    <row r="402" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="402" spans="1:20" s="4" customFormat="1">
       <c r="A402" s="5" t="s">
         <v>972</v>
       </c>
@@ -27997,35 +27990,7 @@
         <v>2.1437141895294198</v>
       </c>
     </row>
-    <row r="404" spans="1:21" ht="30" customHeight="1">
-      <c r="A404" s="8" t="s">
-        <v>974</v>
-      </c>
-      <c r="B404" s="8"/>
-      <c r="C404" s="8"/>
-      <c r="D404" s="8"/>
-      <c r="E404" s="8"/>
-      <c r="F404" s="8"/>
-      <c r="G404" s="8"/>
-      <c r="H404" s="8"/>
-      <c r="I404" s="8"/>
-      <c r="J404" s="8"/>
-      <c r="K404" s="8"/>
-      <c r="L404" s="8"/>
-      <c r="M404" s="8"/>
-      <c r="N404" s="8"/>
-      <c r="O404" s="8"/>
-      <c r="P404" s="8"/>
-      <c r="Q404" s="8"/>
-      <c r="R404" s="8"/>
-      <c r="S404" s="8"/>
-      <c r="T404" s="8"/>
-      <c r="U404" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A404:U404"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\21.03.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\22.03.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="223">
   <si>
     <t>USD</t>
   </si>
@@ -126,6 +126,21 @@
     <t>MIRVAC GROUP</t>
   </si>
   <si>
+    <t>LAND LN Equity</t>
+  </si>
+  <si>
+    <t>LAND SECURITIES</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>04/06/2023</t>
+  </si>
+  <si>
+    <t>GBp</t>
+  </si>
+  <si>
     <t>GPT AU Equity</t>
   </si>
   <si>
@@ -135,21 +150,6 @@
     <t>Final</t>
   </si>
   <si>
-    <t>LAND LN Equity</t>
-  </si>
-  <si>
-    <t>LAND SECURITIES</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>04/06/2023</t>
-  </si>
-  <si>
-    <t>GBp</t>
-  </si>
-  <si>
     <t>3462 JP Equity</t>
   </si>
   <si>
@@ -159,33 +159,36 @@
     <t>Japan</t>
   </si>
   <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>FUNO11 MM Equity</t>
+  </si>
+  <si>
+    <t>TRUST FIBRA UNO</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>03/15/2023</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>8984 JP Equity</t>
+  </si>
+  <si>
+    <t>DAIWA HOUSE REIT</t>
+  </si>
+  <si>
     <t>Return of Capital</t>
   </si>
   <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>FUNO11 MM Equity</t>
-  </si>
-  <si>
-    <t>TRUST FIBRA UNO</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>03/15/2023</t>
-  </si>
-  <si>
-    <t>MXN</t>
-  </si>
-  <si>
-    <t>8984 JP Equity</t>
-  </si>
-  <si>
-    <t>DAIWA HOUSE REIT</t>
-  </si>
-  <si>
     <t>BLND LN Equity</t>
   </si>
   <si>
@@ -330,195 +333,204 @@
     <t>ABACUS PROPERTY</t>
   </si>
   <si>
+    <t>8956 JP Equity</t>
+  </si>
+  <si>
+    <t>NTT UD REIT INVE</t>
+  </si>
+  <si>
+    <t>RDF SJ Equity</t>
+  </si>
+  <si>
+    <t>REDEFINE PROPERT</t>
+  </si>
+  <si>
+    <t>11/28/2022</t>
+  </si>
+  <si>
+    <t>8957 JP Equity</t>
+  </si>
+  <si>
+    <t>TOKYU REIT INC</t>
+  </si>
+  <si>
+    <t>ALEX US Equity</t>
+  </si>
+  <si>
+    <t>ALEXANDER &amp; BALD</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
+    <t>GNL US Equity</t>
+  </si>
+  <si>
+    <t>GLOBAL NET LEASE</t>
+  </si>
+  <si>
+    <t>01/17/2023</t>
+  </si>
+  <si>
+    <t>8966 JP Equity</t>
+  </si>
+  <si>
+    <t>HEIWA REAL ESTAT</t>
+  </si>
+  <si>
+    <t>405 HK Equity</t>
+  </si>
+  <si>
+    <t>YUEXIU REIT</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>05/25/2023</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>ZRGYO TI Equity</t>
+  </si>
+  <si>
+    <t>ZIRAAT GAYRIMENK</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>06/30/2022</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>AAT US Equity</t>
+  </si>
+  <si>
+    <t>AMERICAN ASSETS</t>
+  </si>
+  <si>
+    <t>03/23/2023</t>
+  </si>
+  <si>
+    <t>3296 JP Equity</t>
+  </si>
+  <si>
+    <t>NIPPON REIT INVE</t>
+  </si>
+  <si>
+    <t>AHH US Equity</t>
+  </si>
+  <si>
+    <t>ARMADA HOFFLER P</t>
+  </si>
+  <si>
+    <t>ESRT US Equity</t>
+  </si>
+  <si>
+    <t>EMPIRE STATE REA</t>
+  </si>
+  <si>
+    <t>03/31/2023</t>
+  </si>
+  <si>
+    <t>RIT1 IT Equity</t>
+  </si>
+  <si>
+    <t>REIT 1 LTD</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ILs</t>
+  </si>
+  <si>
+    <t>CNI AU Equity</t>
+  </si>
+  <si>
+    <t>CENTURIA CAPITAL</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>UKCM LN Equity</t>
+  </si>
+  <si>
+    <t>UK COMMERCIAL PR</t>
+  </si>
+  <si>
+    <t>TRGYO TI Equity</t>
+  </si>
+  <si>
+    <t>TORUNLAR GAYRIME</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>3468 JP Equity</t>
+  </si>
+  <si>
+    <t>STAR ASIA INVEST</t>
+  </si>
+  <si>
+    <t>01003T TT Equity</t>
+  </si>
+  <si>
+    <t>SHIN KONG NO 1</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>04/20/2023</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>BCPT LN Equity</t>
+  </si>
+  <si>
+    <t>BAL COMM PROP TR</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>8977 JP Equity</t>
+  </si>
+  <si>
+    <t>HANKYU HANSHIN R</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>8956 JP Equity</t>
-  </si>
-  <si>
-    <t>NTT UD REIT INVE</t>
-  </si>
-  <si>
-    <t>RDF SJ Equity</t>
-  </si>
-  <si>
-    <t>REDEFINE PROPERT</t>
-  </si>
-  <si>
-    <t>11/28/2022</t>
-  </si>
-  <si>
-    <t>8957 JP Equity</t>
-  </si>
-  <si>
-    <t>TOKYU REIT INC</t>
-  </si>
-  <si>
-    <t>ALEX US Equity</t>
-  </si>
-  <si>
-    <t>ALEXANDER &amp; BALD</t>
-  </si>
-  <si>
-    <t>04/04/2023</t>
-  </si>
-  <si>
-    <t>GNL US Equity</t>
-  </si>
-  <si>
-    <t>GLOBAL NET LEASE</t>
-  </si>
-  <si>
-    <t>01/17/2023</t>
-  </si>
-  <si>
-    <t>8966 JP Equity</t>
-  </si>
-  <si>
-    <t>HEIWA REAL ESTAT</t>
-  </si>
-  <si>
-    <t>405 HK Equity</t>
-  </si>
-  <si>
-    <t>YUEXIU REIT</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>05/25/2023</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>ZRGYO TI Equity</t>
-  </si>
-  <si>
-    <t>ZIRAAT GAYRIMENK</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>06/30/2022</t>
-  </si>
-  <si>
-    <t>TRY</t>
-  </si>
-  <si>
-    <t>AAT US Equity</t>
-  </si>
-  <si>
-    <t>AMERICAN ASSETS</t>
-  </si>
-  <si>
-    <t>03/23/2023</t>
-  </si>
-  <si>
-    <t>3296 JP Equity</t>
-  </si>
-  <si>
-    <t>NIPPON REIT INVE</t>
-  </si>
-  <si>
-    <t>AHH US Equity</t>
-  </si>
-  <si>
-    <t>ARMADA HOFFLER P</t>
-  </si>
-  <si>
-    <t>ESRT US Equity</t>
-  </si>
-  <si>
-    <t>EMPIRE STATE REA</t>
-  </si>
-  <si>
-    <t>03/31/2023</t>
-  </si>
-  <si>
-    <t>TRGYO TI Equity</t>
-  </si>
-  <si>
-    <t>TORUNLAR GAYRIME</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>CNI AU Equity</t>
-  </si>
-  <si>
-    <t>CENTURIA CAPITAL</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
-    <t>RIT1 IT Equity</t>
-  </si>
-  <si>
-    <t>REIT 1 LTD</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>ILs</t>
-  </si>
-  <si>
-    <t>UKCM LN Equity</t>
-  </si>
-  <si>
-    <t>UK COMMERCIAL PR</t>
-  </si>
-  <si>
-    <t>3468 JP Equity</t>
-  </si>
-  <si>
-    <t>STAR ASIA INVEST</t>
-  </si>
-  <si>
-    <t>01003T TT Equity</t>
-  </si>
-  <si>
-    <t>SHIN KONG NO 1</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>04/20/2023</t>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
-    <t>8977 JP Equity</t>
-  </si>
-  <si>
-    <t>HANKYU HANSHIN R</t>
-  </si>
-  <si>
-    <t>BCPT LN Equity</t>
-  </si>
-  <si>
-    <t>BAL COMM PROP TR</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
     <t>AX-U CN Equity</t>
   </si>
   <si>
     <t>ARTIS REAL ESTAT</t>
   </si>
   <si>
+    <t>STAR US Equity</t>
+  </si>
+  <si>
+    <t>ISTAR INC</t>
+  </si>
+  <si>
+    <t>09/15/2022</t>
+  </si>
+  <si>
     <t>ARG NZ Equity</t>
   </si>
   <si>
@@ -534,15 +546,6 @@
     <t>NZD</t>
   </si>
   <si>
-    <t>STAR US Equity</t>
-  </si>
-  <si>
-    <t>ISTAR INC</t>
-  </si>
-  <si>
-    <t>09/15/2022</t>
-  </si>
-  <si>
     <t>DGGYO TI Equity</t>
   </si>
   <si>
@@ -552,6 +555,12 @@
     <t>Omitted</t>
   </si>
   <si>
+    <t>GOOD US Equity</t>
+  </si>
+  <si>
+    <t>GLADSTONE COMMER</t>
+  </si>
+  <si>
     <t>OZKGY TI Equity</t>
   </si>
   <si>
@@ -573,10 +582,13 @@
     <t>ONE LIBERTY PROP</t>
   </si>
   <si>
-    <t>GOOD US Equity</t>
-  </si>
-  <si>
-    <t>GLADSTONE COMMER</t>
+    <t>SLARL IT Equity</t>
+  </si>
+  <si>
+    <t>SELLA CAPITAL RE</t>
+  </si>
+  <si>
+    <t>03/21/2023</t>
   </si>
   <si>
     <t>SRVGY TI Equity</t>
@@ -594,15 +606,6 @@
     <t>TAKARA LEBEN REA</t>
   </si>
   <si>
-    <t>SLARL IT Equity</t>
-  </si>
-  <si>
-    <t>SELLA CAPITAL RE</t>
-  </si>
-  <si>
-    <t>03/21/2023</t>
-  </si>
-  <si>
     <t>NXDT US Equity</t>
   </si>
   <si>
@@ -621,6 +624,15 @@
     <t>PASIFIK GAYRIMEN</t>
   </si>
   <si>
+    <t>MNRT IT Equity</t>
+  </si>
+  <si>
+    <t>MENIVIM</t>
+  </si>
+  <si>
+    <t>04/03/2023</t>
+  </si>
+  <si>
     <t>2971 JP Equity</t>
   </si>
   <si>
@@ -670,15 +682,6 @@
   </si>
   <si>
     <t>PEKER GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>NUGYO TI Equity</t>
-  </si>
-  <si>
-    <t>NUROL GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>05/22/2009</t>
   </si>
   <si>
     <t>KGYO TI Equity</t>
@@ -1162,10 +1165,10 @@
   <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1261,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>16354796544</v>
+        <v>16618073088</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1270,34 +1273,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>75694728</v>
+        <v>73159392</v>
       </c>
       <c r="G2" s="5">
-        <v>5.4093790054321289</v>
+        <v>5.4879779815673828</v>
       </c>
       <c r="H2" s="5">
-        <v>1.6097874764154469</v>
+        <v>-1.4321988098338181</v>
       </c>
       <c r="I2" s="5">
-        <v>-0.71725139809828409</v>
+        <v>-2.0529028356268131</v>
       </c>
       <c r="J2" s="5">
-        <v>-5.9930880031066618</v>
+        <v>-5.836057523364846</v>
       </c>
       <c r="K2" s="5">
-        <v>1.756847759605606</v>
+        <v>-0.92337344619754003</v>
       </c>
       <c r="L2" s="5">
-        <v>-1.295107992318234</v>
+        <v>-0.72987888297474401</v>
       </c>
       <c r="M2" s="5">
-        <v>0.95969287953454607</v>
+        <v>-0.48625064029802506</v>
       </c>
       <c r="N2" s="5">
-        <v>4.1201830382537894</v>
+        <v>2.5904997697782983</v>
       </c>
       <c r="O2" s="5">
-        <v>90.075286059548617</v>
+        <v>87.353030074815535</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1312,7 +1315,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>78.900001525878906</v>
+        <v>77.769996643066406</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1323,7 +1326,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6113374720</v>
+        <v>6132894720</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1332,34 +1335,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>29260996</v>
+        <v>28288218</v>
       </c>
       <c r="G3" s="5">
-        <v>6.9109950065612793</v>
+        <v>6.8482489585876465</v>
       </c>
       <c r="H3" s="5">
-        <v>-2.185276704620231</v>
+        <v>-0.10005361191700601</v>
       </c>
       <c r="I3" s="5">
-        <v>3.8929549966776111</v>
+        <v>1.8771586576332271</v>
       </c>
       <c r="J3" s="5">
-        <v>-4.5979123350879059</v>
+        <v>-0.70876920348992301</v>
       </c>
       <c r="K3" s="5">
-        <v>8.9074078604385107</v>
+        <v>5.3122559338409481</v>
       </c>
       <c r="L3" s="5">
-        <v>15.003420644874055</v>
+        <v>19.075241782628805</v>
       </c>
       <c r="M3" s="5">
-        <v>3.6446019187617469</v>
+        <v>3.540901750985026</v>
       </c>
       <c r="N3" s="5">
-        <v>-12.198033347495985</v>
+        <v>-11.864040463794634</v>
       </c>
       <c r="O3" s="5">
-        <v>146.59471403739198</v>
+        <v>146.34798711920115</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1374,7 +1377,7 @@
         <v>3.3020850141715812</v>
       </c>
       <c r="T3" s="5">
-        <v>2.56551194190979</v>
+        <v>2.562944889068604</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1385,7 +1388,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5581593088</v>
+        <v>5555783168</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
@@ -1394,34 +1397,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>27507476</v>
+        <v>24812570</v>
       </c>
       <c r="G4" s="5">
-        <v>4.8699765205383301</v>
+        <v>4.8470587730407715</v>
       </c>
       <c r="H4" s="5">
-        <v>-2.198321663690439</v>
+        <v>-0.87849402950660505</v>
       </c>
       <c r="I4" s="5">
-        <v>-3.046658685532766</v>
+        <v>-3.8839840499799272</v>
       </c>
       <c r="J4" s="5">
-        <v>-8.0775262933718608</v>
+        <v>-7.41765606153173</v>
       </c>
       <c r="K4" s="5">
-        <v>2.7730967960241548</v>
+        <v>-1.0266976795702429</v>
       </c>
       <c r="L4" s="5">
-        <v>3.7499595162419741</v>
+        <v>6.5465813374726345</v>
       </c>
       <c r="M4" s="5">
-        <v>-2.435285468552761</v>
+        <v>-3.2923856606166808</v>
       </c>
       <c r="N4" s="5">
-        <v>-20.348217670561407</v>
+        <v>-20.855804369917095</v>
       </c>
       <c r="O4" s="5">
-        <v>38.522384447884271</v>
+        <v>37.305473570979416</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1436,7 +1439,7 @@
         <v>1.9528599562626601</v>
       </c>
       <c r="T4" s="5">
-        <v>1.4170758724212651</v>
+        <v>1.4046269655227661</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1447,120 +1450,120 @@
         <v>36</v>
       </c>
       <c r="C5" s="5">
-        <v>5509231616</v>
+        <v>5552071680</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>22930516</v>
+        <v>13760768</v>
       </c>
       <c r="G5" s="5">
-        <v>5.8072013854980469</v>
+        <v>6.4558196067810059</v>
       </c>
       <c r="H5" s="5">
-        <v>-1.488160638055591</v>
+        <v>-0.39992513765873006</v>
       </c>
       <c r="I5" s="5">
-        <v>-4.9119563204028225</v>
+        <v>-2.5176157975129621</v>
       </c>
       <c r="J5" s="5">
-        <v>-8.8020222966445623</v>
+        <v>-8.9706483944356314</v>
       </c>
       <c r="K5" s="5">
-        <v>6.4648934546070347</v>
+        <v>1.5232337132620621</v>
       </c>
       <c r="L5" s="5">
-        <v>7.4989999287112363</v>
+        <v>13.394623847317533</v>
       </c>
       <c r="M5" s="5">
-        <v>0.60000189085520605</v>
+        <v>0.88870313750601904</v>
       </c>
       <c r="N5" s="5">
-        <v>-17.660963048544264</v>
+        <v>-21.25552147030718</v>
       </c>
       <c r="O5" s="5">
-        <v>77.83696526064152</v>
+        <v>19.799815547321799</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="S5" s="5">
-        <v>4.000457090394316</v>
+        <v>10.679378389371825</v>
       </c>
       <c r="T5" s="5">
-        <v>2.8811638355255131</v>
+        <v>7.4853200912475586</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5481482752</v>
+        <v>5496538624</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>13870353</v>
+        <v>22963372</v>
       </c>
       <c r="G6" s="5">
-        <v>6.4642510414123544</v>
+        <v>5.8207216262817383</v>
       </c>
       <c r="H6" s="5">
-        <v>2.4199195023580922</v>
+        <v>-0.64743627761119105</v>
       </c>
       <c r="I6" s="5">
-        <v>-8.4267245157654005E-2</v>
+        <v>-4.2479871417838586</v>
       </c>
       <c r="J6" s="5">
-        <v>-9.4357199717341356</v>
+        <v>-9.9413375927669083</v>
       </c>
       <c r="K6" s="5">
-        <v>3.3125381685458422</v>
+        <v>2.018550099498762</v>
       </c>
       <c r="L6" s="5">
-        <v>14.874151218368681</v>
+        <v>9.8775814429629563</v>
       </c>
       <c r="M6" s="5">
-        <v>1.293802516660558</v>
+        <v>-5.1319016663720005E-2</v>
       </c>
       <c r="N6" s="5">
-        <v>-21.46322300582262</v>
+        <v>-18.484057086388972</v>
       </c>
       <c r="O6" s="5">
-        <v>20.28084889785362</v>
+        <v>76.685584232541331</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="S6" s="5">
-        <v>10.679378389371825</v>
+        <v>4.000457090394316</v>
       </c>
       <c r="T6" s="5">
-        <v>7.515376091003418</v>
+        <v>2.862510204315186</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1571,7 +1574,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5253895168</v>
+        <v>5197605888</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1580,10 +1583,10 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>14276196</v>
+        <v>14123244</v>
       </c>
       <c r="G7" s="5">
-        <v>4.4640655517578134</v>
+        <v>4.6570839881896973</v>
       </c>
       <c r="H7" s="5">
         <v>-0.47558217462416702</v>
@@ -1601,7 +1604,7 @@
         <v>-3.1577027754412619</v>
       </c>
       <c r="M7" s="5">
-        <v>-8.8296811088159899</v>
+        <v>-9.4078002811135661</v>
       </c>
       <c r="N7" s="5">
         <v>-11.951505959822228</v>
@@ -1631,7 +1634,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>4788157440</v>
+        <v>4828104704</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1640,34 +1643,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>9289860</v>
+        <v>9367364</v>
       </c>
       <c r="G8" s="5">
-        <v>2.6417338848114009</v>
+        <v>2.6428570747375488</v>
       </c>
       <c r="H8" s="5">
-        <v>-3.9561229012916028</v>
+        <v>0.79144070020613611</v>
       </c>
       <c r="I8" s="5">
-        <v>-9.9947877295348153</v>
+        <v>-5.9794648322855304</v>
       </c>
       <c r="J8" s="5">
-        <v>-10.390418719510919</v>
+        <v>-9.9252368970329066</v>
       </c>
       <c r="K8" s="5">
-        <v>9.9435553678012933</v>
+        <v>7.5106934783829349</v>
       </c>
       <c r="L8" s="5">
-        <v>21.571950747635338</v>
+        <v>19.272173901558332</v>
       </c>
       <c r="M8" s="5">
-        <v>10.827666818625969</v>
+        <v>11.704802080917421</v>
       </c>
       <c r="N8" s="5">
-        <v>28.435194141511786</v>
+        <v>23.887915140574158</v>
       </c>
       <c r="O8" s="5">
-        <v>64.884575213476438</v>
+        <v>118.15048652984972</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1682,7 +1685,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.2471445798873901</v>
+        <v>1.259471535682678</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1693,7 +1696,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4720683008</v>
+        <v>4670107136</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1702,7 +1705,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>10404756</v>
+        <v>10293282</v>
       </c>
       <c r="G9" s="5">
         <v>4.1979012489318848</v>
@@ -1723,7 +1726,7 @@
         <v>-6.0363809172214733</v>
       </c>
       <c r="M9" s="5">
-        <v>-7.6713058304951343</v>
+        <v>-8.2567703643671599</v>
       </c>
       <c r="N9" s="5">
         <v>-21.445110543566827</v>
@@ -1732,7 +1735,7 @@
         <v>39.032430027274501</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
@@ -1747,137 +1750,137 @@
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4453964288</v>
+        <v>4529909248</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>13365207</v>
+        <v>13433066</v>
       </c>
       <c r="G10" s="5">
-        <v>5.8029017448425293</v>
+        <v>5.8159942626953134</v>
       </c>
       <c r="H10" s="5">
-        <v>2.841920207177528</v>
+        <v>-0.75375040857765807</v>
       </c>
       <c r="I10" s="5">
-        <v>-0.43156305918514704</v>
+        <v>-2.6728691906736213</v>
       </c>
       <c r="J10" s="5">
-        <v>-8.5898806706380615</v>
+        <v>-8.6349196880659669</v>
       </c>
       <c r="K10" s="5">
-        <v>5.3509419879970821</v>
+        <v>2.6021094386265098</v>
       </c>
       <c r="L10" s="5">
-        <v>12.848346143824951</v>
+        <v>11.162090781183952</v>
       </c>
       <c r="M10" s="5">
-        <v>2.6114734510390041</v>
+        <v>1.8380390506542501</v>
       </c>
       <c r="N10" s="5">
-        <v>-24.625027755501282</v>
+        <v>-24.280158031075526</v>
       </c>
       <c r="O10" s="5">
-        <v>29.383465060741344</v>
+        <v>28.40823666421408</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S10" s="5">
         <v>7.1818816476984253</v>
       </c>
       <c r="T10" s="5">
-        <v>4.9047460556030273</v>
+        <v>4.8677763938903809</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4086667264</v>
+        <v>4166441472</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>8018995</v>
+        <v>8313467.5</v>
       </c>
       <c r="G11" s="5">
-        <v>1.9672131538391111</v>
+        <v>1.985294103622437</v>
       </c>
       <c r="H11" s="5">
-        <v>1.887584977877355</v>
+        <v>-0.46688815575470805</v>
       </c>
       <c r="I11" s="5">
-        <v>-0.32592047376315303</v>
+        <v>-3.0956913903532719</v>
       </c>
       <c r="J11" s="5">
-        <v>-8.6491375380276398</v>
+        <v>-8.7109431112330942</v>
       </c>
       <c r="K11" s="5">
-        <v>-4.718005330648511</v>
+        <v>-6.4317524595400632</v>
       </c>
       <c r="L11" s="5">
-        <v>5.6732428653046405</v>
+        <v>6.9144638454711425</v>
       </c>
       <c r="M11" s="5">
-        <v>-6.1100408552773544</v>
+        <v>-6.5484019539670086</v>
       </c>
       <c r="N11" s="5">
-        <v>-12.16137008453334</v>
+        <v>-11.877151233183492</v>
       </c>
       <c r="O11" s="5">
-        <v>34.762410783278973</v>
+        <v>34.133221048922337</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S11" s="5">
         <v>12.193224623203276</v>
       </c>
       <c r="T11" s="5">
-        <v>8.8246259689331055</v>
+        <v>8.7834234237670898</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3734823936</v>
+        <v>3808628480</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1886,34 +1889,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>30773026</v>
+        <v>26555492</v>
       </c>
       <c r="G12" s="5">
-        <v>4.4408559799194336</v>
+        <v>4.5286126136779794</v>
       </c>
       <c r="H12" s="5">
-        <v>1.9761199017884312</v>
+        <v>-1.937826133894482</v>
       </c>
       <c r="I12" s="5">
-        <v>2.2286459997081121</v>
+        <v>-0.77613819551414209</v>
       </c>
       <c r="J12" s="5">
-        <v>-4.3259905689011831</v>
+        <v>-5.3390449728429541</v>
       </c>
       <c r="K12" s="5">
-        <v>9.1063356732200553</v>
+        <v>5.5219884637180083</v>
       </c>
       <c r="L12" s="5">
-        <v>14.07790609739803</v>
+        <v>13.912386536699062</v>
       </c>
       <c r="M12" s="5">
-        <v>5.5389909775986901</v>
+        <v>3.493828828986234</v>
       </c>
       <c r="N12" s="5">
-        <v>2.5509467193816531</v>
+        <v>2.7525017315086719</v>
       </c>
       <c r="O12" s="5">
-        <v>124.94368229740024</v>
+        <v>120.58466483529662</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1928,78 +1931,78 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.770000457763672</v>
+        <v>24.290000915527344</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3638327296</v>
+        <v>3653655040</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8244917.5</v>
+        <v>8398132</v>
       </c>
       <c r="G13" s="5">
-        <v>9.7303371429443359</v>
+        <v>9.7654495239257812</v>
       </c>
       <c r="H13" s="5">
-        <v>0.35777998747303902</v>
+        <v>8.6775156933339009E-2</v>
       </c>
       <c r="I13" s="5">
-        <v>-4.4560486531099013</v>
+        <v>-8.6147378659624287</v>
       </c>
       <c r="J13" s="5">
-        <v>4.334669597524976</v>
+        <v>4.9046800017237935</v>
       </c>
       <c r="K13" s="5">
-        <v>20.622896649849775</v>
+        <v>18.274862289534255</v>
       </c>
       <c r="L13" s="5">
-        <v>18.386627938863811</v>
+        <v>19.132388391011791</v>
       </c>
       <c r="M13" s="5">
-        <v>15.679836806792302</v>
+        <v>15.780218166721616</v>
       </c>
       <c r="N13" s="5">
-        <v>-15.231168214715041</v>
+        <v>-14.250721212479201</v>
       </c>
       <c r="O13" s="5">
-        <v>-24.055417729239203</v>
+        <v>-23.98951669879137</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S13" s="5">
         <v>68.2096266746521</v>
       </c>
       <c r="T13" s="5">
-        <v>47.686199188232422</v>
+        <v>47.727577209472656</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5">
-        <v>3554661120</v>
+        <v>3601349888</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -2008,34 +2011,34 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>16933448</v>
+        <v>17083462</v>
       </c>
       <c r="G14" s="5">
-        <v>3.694990873336792</v>
+        <v>3.6141729354858398</v>
       </c>
       <c r="H14" s="5">
-        <v>-4.6442740858859244</v>
+        <v>0.88995219892433808</v>
       </c>
       <c r="I14" s="5">
-        <v>-7.3846892611507347</v>
+        <v>-5.5382388946574217</v>
       </c>
       <c r="J14" s="5">
-        <v>-20.098691661934211</v>
+        <v>-18.525089822352705</v>
       </c>
       <c r="K14" s="5">
-        <v>-6.7628038498198215</v>
+        <v>-7.7248371328192178</v>
       </c>
       <c r="L14" s="5">
-        <v>-7.5085634365033016</v>
+        <v>-5.1763902853538601</v>
       </c>
       <c r="M14" s="5">
-        <v>-7.8407813888317301</v>
+        <v>-7.0206083962901404</v>
       </c>
       <c r="N14" s="5">
-        <v>-34.262141563824599</v>
+        <v>-33.265436668075246</v>
       </c>
       <c r="O14" s="5">
-        <v>96.502644205374381</v>
+        <v>98.251423808424576</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>30</v>
@@ -2050,18 +2053,18 @@
         <v>12.790835624888677</v>
       </c>
       <c r="T14" s="5">
-        <v>7.5286359786987305</v>
+        <v>7.595637321472168</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5">
-        <v>3294261504</v>
+        <v>3258967808</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -2070,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7861850.5</v>
+        <v>7777620.5</v>
       </c>
       <c r="G15" s="5">
         <v>4.5394549369812012</v>
@@ -2091,7 +2094,7 @@
         <v>-0.20364612633782</v>
       </c>
       <c r="M15" s="5">
-        <v>-7.872907131970841</v>
+        <v>-8.4570932939016288</v>
       </c>
       <c r="N15" s="5">
         <v>-0.80843621069114402</v>
@@ -2115,13 +2118,13 @@
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="5">
-        <v>3107418880</v>
+        <v>3157718784</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -2130,31 +2133,31 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>16536506</v>
+        <v>16932222</v>
       </c>
       <c r="G16" s="5">
-        <v>6.4896755218505859</v>
+        <v>6.5165882110595703</v>
       </c>
       <c r="H16" s="5">
-        <v>1.6187077507420211</v>
+        <v>-0.41298878479054701</v>
       </c>
       <c r="I16" s="5">
-        <v>1.9855590074764122</v>
+        <v>-0.47169768882414603</v>
       </c>
       <c r="J16" s="5">
-        <v>-7.7801875033791106</v>
+        <v>-5.698326701123257</v>
       </c>
       <c r="K16" s="5">
-        <v>4.7800489384081768</v>
+        <v>2.600921555340574</v>
       </c>
       <c r="L16" s="5">
-        <v>-5.9459187143414924</v>
+        <v>-4.6991599078304302</v>
       </c>
       <c r="M16" s="5">
-        <v>4.5650938942719321</v>
+        <v>4.1332517836828897</v>
       </c>
       <c r="N16" s="5">
-        <v>-17.199577774479437</v>
+        <v>-17.121809381812593</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="4" t="s">
@@ -2170,116 +2173,116 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T16" s="5">
-        <v>16.950000762939453</v>
+        <v>16.879999160766602</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5">
-        <v>3064508416</v>
+        <v>3064966912</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>10030496</v>
+        <v>10307221</v>
       </c>
       <c r="G17" s="5">
-        <v>5.5664339065551758</v>
+        <v>5.6056337356567383</v>
       </c>
       <c r="H17" s="5">
-        <v>-1.197288588136969</v>
+        <v>2.2427662016722003E-2</v>
       </c>
       <c r="I17" s="5">
-        <v>1.356479819673684</v>
+        <v>1.2437056209537061</v>
       </c>
       <c r="J17" s="5">
-        <v>1.9444967482841862</v>
+        <v>2.2269965410031789</v>
       </c>
       <c r="K17" s="5">
-        <v>6.1913674542624308</v>
+        <v>6.2466161415305255</v>
       </c>
       <c r="L17" s="5">
-        <v>-4.1791934581193573</v>
+        <v>-3.7771591377495533</v>
       </c>
       <c r="M17" s="5">
-        <v>4.4313634549296932</v>
+        <v>4.4547849681648266</v>
       </c>
       <c r="N17" s="5">
-        <v>-10.28808498439745</v>
+        <v>-10.148796683360306</v>
       </c>
       <c r="O17" s="5">
-        <v>53.150194133576136</v>
+        <v>53.184542141494397</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S17" s="5">
         <v>1.350664450152578</v>
       </c>
       <c r="T17" s="5">
-        <v>1.061206102371216</v>
+        <v>1.061444163322449</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A18" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5">
-        <v>2531401984</v>
+        <v>2495612160</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9750499</v>
+        <v>9413815</v>
       </c>
       <c r="G18" s="5">
         <v>4.8115477561950684</v>
       </c>
       <c r="H18" s="5">
-        <v>-0.71331166885050301</v>
+        <v>-0.38606904119165003</v>
       </c>
       <c r="I18" s="5">
-        <v>-2.3886788745936749</v>
+        <v>-3.1174376464524478</v>
       </c>
       <c r="J18" s="5">
-        <v>-6.4344897537180756</v>
+        <v>-5.6073024176948696</v>
       </c>
       <c r="K18" s="5">
-        <v>4.9933197728331269</v>
+        <v>2.985622332474569</v>
       </c>
       <c r="L18" s="5">
-        <v>5.4557709196329629</v>
+        <v>6.2881839973877529</v>
       </c>
       <c r="M18" s="5">
-        <v>2.6604304108591941</v>
+        <v>2.2640902714887718</v>
       </c>
       <c r="N18" s="5">
-        <v>-8.2505382812535171</v>
+        <v>-9.1752147889933582</v>
       </c>
       <c r="O18" s="5">
-        <v>118.14274367773008</v>
+        <v>117.30056207878432</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>25</v>
@@ -2288,33 +2291,33 @@
         <v>26</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S18" s="5">
         <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>9.1188297271728516</v>
+        <v>9.0836248397827148</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="5">
-        <v>2414011904</v>
+        <v>2351943680</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>9778326</v>
+        <v>9755308</v>
       </c>
       <c r="G19" s="5">
         <v>10.314465522766113</v>
@@ -2335,7 +2338,7 @@
         <v>-5.9354386636290002E-3</v>
       </c>
       <c r="M19" s="5">
-        <v>-19.464279741242031</v>
+        <v>-19.777659274847537</v>
       </c>
       <c r="N19" s="5">
         <v>-21.526485356296586</v>
@@ -2347,10 +2350,10 @@
         <v>30</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S19" s="5">
         <v>1.0297254546268939</v>
@@ -2361,13 +2364,13 @@
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A20" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="5">
-        <v>2292325120</v>
+        <v>2267765760</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -2376,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>5656736.5</v>
+        <v>5596131.5</v>
       </c>
       <c r="G20" s="5">
         <v>4.9008746147155762</v>
@@ -2397,7 +2400,7 @@
         <v>-9.4125303355511285</v>
       </c>
       <c r="M20" s="5">
-        <v>-8.4760293295983011</v>
+        <v>-9.0563910395591201</v>
       </c>
       <c r="N20" s="5">
         <v>-15.538408717399111</v>
@@ -2421,13 +2424,13 @@
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="5">
-        <v>2249548032</v>
+        <v>2225446912</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>45</v>
@@ -2436,7 +2439,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>6588481.5</v>
+        <v>6517894</v>
       </c>
       <c r="G21" s="5">
         <v>5.123967170715332</v>
@@ -2457,7 +2460,7 @@
         <v>-8.3590345525604075</v>
       </c>
       <c r="M21" s="5">
-        <v>-12.520530959545672</v>
+        <v>-13.075246121780227</v>
       </c>
       <c r="N21" s="5">
         <v>-14.347709919264295</v>
@@ -2481,75 +2484,75 @@
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A22" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="5">
-        <v>2079261696</v>
+        <v>2080761216</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>8367088.5</v>
+        <v>8032012.5</v>
       </c>
       <c r="G22" s="5">
-        <v>6.2688822746276864</v>
+        <v>6.2815341949462891</v>
       </c>
       <c r="H22" s="5">
-        <v>1.190681036369923</v>
+        <v>-0.73017939686510502</v>
       </c>
       <c r="I22" s="5">
-        <v>-0.73560167403733401</v>
+        <v>-2.9522664102633711</v>
       </c>
       <c r="J22" s="5">
-        <v>-13.195494232329551</v>
+        <v>-13.892202898046635</v>
       </c>
       <c r="K22" s="5">
-        <v>-9.5397570714174869</v>
+        <v>-11.229229067193502</v>
       </c>
       <c r="L22" s="5">
-        <v>-19.497667977480315</v>
+        <v>-21.073771782677465</v>
       </c>
       <c r="M22" s="5">
-        <v>-9.3645414244651661</v>
+        <v>-10.026342869237926</v>
       </c>
       <c r="N22" s="5">
-        <v>-31.572053345593453</v>
+        <v>-33.599711009673761</v>
       </c>
       <c r="O22" s="5">
-        <v>16.963486264521819</v>
+        <v>16.109442985963128</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S22" s="5">
         <v>1.9808639392</v>
       </c>
       <c r="T22" s="5">
-        <v>1.218212366104126</v>
+        <v>1.209317207336426</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" s="5">
-        <v>2064691456</v>
+        <v>2069616896</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2558,40 +2561,40 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5689798.5</v>
+        <v>5714207</v>
       </c>
       <c r="G23" s="5">
-        <v>6.5727696418762207</v>
+        <v>6.5192084312438965</v>
       </c>
       <c r="H23" s="5">
-        <v>-2.177048493915323</v>
+        <v>-0.18046150578590001</v>
       </c>
       <c r="I23" s="5">
-        <v>-2.1276595438570078</v>
+        <v>-2.0660399361646209</v>
       </c>
       <c r="J23" s="5">
-        <v>-9.8343623072062236</v>
+        <v>-8.7715134024427428</v>
       </c>
       <c r="K23" s="5">
-        <v>-1.096763001751544</v>
+        <v>-3.3545887810256692</v>
       </c>
       <c r="L23" s="5">
-        <v>2.7510683009255081</v>
+        <v>4.1823600532007399</v>
       </c>
       <c r="M23" s="5">
-        <v>-5.2899896052057809</v>
+        <v>-5.460904716094217</v>
       </c>
       <c r="N23" s="5">
-        <v>-22.871258276070794</v>
+        <v>-22.240604901888052</v>
       </c>
       <c r="O23" s="5">
-        <v>52.231644668950892</v>
+        <v>51.956925150698652</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>32</v>
@@ -2600,18 +2603,18 @@
         <v>4.1295041516920517</v>
       </c>
       <c r="T23" s="5">
-        <v>2.8610160350799561</v>
+        <v>2.8558530807495122</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A24" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="5">
-        <v>1586943232</v>
+        <v>1569941120</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -2620,7 +2623,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3865780.25</v>
+        <v>3824363.25</v>
       </c>
       <c r="G24" s="5">
         <v>4.8166089057922363</v>
@@ -2641,7 +2644,7 @@
         <v>-6.0317702632167292</v>
       </c>
       <c r="M24" s="5">
-        <v>-10.242781286852122</v>
+        <v>-10.811939864131103</v>
       </c>
       <c r="N24" s="5">
         <v>-14.181143272386054</v>
@@ -2665,13 +2668,13 @@
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A25" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5">
-        <v>1555899904</v>
+        <v>1543593856</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2680,34 +2683,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1610173.5</v>
+        <v>1625231.25</v>
       </c>
       <c r="G25" s="5">
-        <v>6.9407896995544434</v>
+        <v>6.9867548942565918</v>
       </c>
       <c r="H25" s="5">
-        <v>-1.50604858651433</v>
+        <v>-1.2056274036874481</v>
       </c>
       <c r="I25" s="5">
-        <v>-3.0558660644420001E-2</v>
+        <v>-1.2210146176202641</v>
       </c>
       <c r="J25" s="5">
-        <v>-9.9799996320055868</v>
+        <v>-9.6142537622464488</v>
       </c>
       <c r="K25" s="5">
-        <v>4.3941981076853764</v>
+        <v>0.24994972358716203</v>
       </c>
       <c r="L25" s="5">
-        <v>-7.6826092500181016</v>
+        <v>-6.0148220158781847</v>
       </c>
       <c r="M25" s="5">
-        <v>0.14201569319980401</v>
+        <v>-1.065323890602399</v>
       </c>
       <c r="N25" s="5">
-        <v>-33.938510967428982</v>
+        <v>-33.67785928922202</v>
       </c>
       <c r="O25" s="5">
-        <v>47.543737413960898</v>
+        <v>45.764909683273537</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2722,18 +2725,18 @@
         <v>3.362812957848845</v>
       </c>
       <c r="T25" s="5">
-        <v>2.0349478721618648</v>
+        <v>2.0104141235351558</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="5">
-        <v>1515743488</v>
+        <v>1526624512</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2742,47 +2745,49 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>2855144.25</v>
+        <v>2937753.75</v>
       </c>
       <c r="G26" s="5">
-        <v>7.1992111206054687</v>
+        <v>7.1428570747375488</v>
       </c>
       <c r="H26" s="5">
-        <v>-1.8210313855425819</v>
+        <v>0.29685868861706305</v>
       </c>
       <c r="I26" s="5">
-        <v>-4.6471417470059233</v>
+        <v>-4.7066479406177812</v>
       </c>
       <c r="J26" s="5">
-        <v>-13.148319002172581</v>
+        <v>-11.023815657934566</v>
       </c>
       <c r="K26" s="5">
-        <v>-0.108783358097919</v>
+        <v>-3.6502486072448548</v>
       </c>
       <c r="L26" s="5">
-        <v>-0.96144535389595109</v>
+        <v>-4.0268621177053002E-2</v>
       </c>
       <c r="M26" s="5">
-        <v>-5.2553446915413637</v>
+        <v>-4.9740869502579166</v>
       </c>
       <c r="N26" s="5">
-        <v>-26.718392026810001</v>
+        <v>-25.879460452486136</v>
       </c>
       <c r="O26" s="5">
-        <v>33.708609649390596</v>
+        <v>34.105535274563877</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q26" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R26" s="4" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="S26" s="5">
         <v>2.5733491470937611</v>
       </c>
       <c r="T26" s="5">
-        <v>1.6991479396820071</v>
+        <v>1.704192042350769</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2793,7 +2798,7 @@
         <v>105</v>
       </c>
       <c r="C27" s="5">
-        <v>1383248640</v>
+        <v>1368428928</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>45</v>
@@ -2802,7 +2807,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3095005.75</v>
+        <v>3061846.75</v>
       </c>
       <c r="G27" s="5">
         <v>4.7604327201843262</v>
@@ -2823,7 +2828,7 @@
         <v>-5.7890561442618509</v>
       </c>
       <c r="M27" s="5">
-        <v>-6.1977395549796874</v>
+        <v>-6.7925481048196961</v>
       </c>
       <c r="N27" s="5">
         <v>-19.685635115520526</v>
@@ -2853,16 +2858,16 @@
         <v>107</v>
       </c>
       <c r="C28" s="5">
-        <v>1371014016</v>
+        <v>1356914432</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3338721.75</v>
+        <v>3310276</v>
       </c>
       <c r="G28" s="5">
         <v>12.035549163818359</v>
@@ -2883,7 +2888,7 @@
         <v>-4.1071093966571386</v>
       </c>
       <c r="M28" s="5">
-        <v>-22.304889081293457</v>
+        <v>-22.607215273260238</v>
       </c>
       <c r="N28" s="5">
         <v>-26.935707374619223</v>
@@ -2892,13 +2897,13 @@
         <v>93.851551547095241</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>108</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S28" s="5">
         <v>0.32112818480585403</v>
@@ -2915,7 +2920,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="5">
-        <v>1330108672</v>
+        <v>1315858176</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>45</v>
@@ -2924,7 +2929,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>3240442.25</v>
+        <v>3205725</v>
       </c>
       <c r="G29" s="5">
         <v>3.8116590976715088</v>
@@ -2945,7 +2950,7 @@
         <v>0.48802744379437002</v>
       </c>
       <c r="M29" s="5">
-        <v>-12.696195596600123</v>
+        <v>-13.249796853609697</v>
       </c>
       <c r="N29" s="5">
         <v>-8.8163912457703049</v>
@@ -2975,7 +2980,7 @@
         <v>112</v>
       </c>
       <c r="C30" s="5">
-        <v>1282006016</v>
+        <v>1305961984</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>23</v>
@@ -2984,34 +2989,34 @@
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>5764164</v>
+        <v>5936073</v>
       </c>
       <c r="G30" s="5">
-        <v>4.891606330871582</v>
+        <v>4.8219180107116699</v>
       </c>
       <c r="H30" s="5">
-        <v>1.8686292557041679</v>
+        <v>1.445248650304332</v>
       </c>
       <c r="I30" s="5">
-        <v>2.023003778509191</v>
+        <v>1.451411926668533</v>
       </c>
       <c r="J30" s="5">
-        <v>-5.2984598152003182</v>
+        <v>-0.46173574983191501</v>
       </c>
       <c r="K30" s="5">
-        <v>-2.757590125833409</v>
+        <v>-1.8184948771619911</v>
       </c>
       <c r="L30" s="5">
-        <v>5.3598471244970858</v>
+        <v>8.684645421855631</v>
       </c>
       <c r="M30" s="5">
-        <v>-2.7703911310208111</v>
+        <v>-1.3651815211457201</v>
       </c>
       <c r="N30" s="5">
-        <v>-20.44615713820972</v>
+        <v>-18.122782248282434</v>
       </c>
       <c r="O30" s="5">
-        <v>124.18908918215514</v>
+        <v>127.42917896768979</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
@@ -3026,7 +3031,7 @@
         <v>23.909999847412109</v>
       </c>
       <c r="T30" s="5">
-        <v>17.989999771118164</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3037,7 +3042,7 @@
         <v>115</v>
       </c>
       <c r="C31" s="5">
-        <v>1273569152</v>
+        <v>1300555904</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>23</v>
@@ -3046,34 +3051,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>10401841</v>
+        <v>10696868</v>
       </c>
       <c r="G31" s="5">
-        <v>12.769353866577148</v>
+        <v>12.841092109680176</v>
       </c>
       <c r="H31" s="5">
-        <v>2.1189834189696999</v>
+        <v>-0.55865679422181203</v>
       </c>
       <c r="I31" s="5">
-        <v>-4.058198082822595</v>
+        <v>-6.1039969229451323</v>
       </c>
       <c r="J31" s="5">
-        <v>-13.227146142073565</v>
+        <v>-11.063527233493641</v>
       </c>
       <c r="K31" s="5">
-        <v>4.7371256939677003E-2</v>
+        <v>-1.125205568876086</v>
       </c>
       <c r="L31" s="5">
-        <v>3.4130584689036958</v>
+        <v>3.9583439590489271</v>
       </c>
       <c r="M31" s="5">
-        <v>2.5943243922168069</v>
+        <v>2.0211742285137109</v>
       </c>
       <c r="N31" s="5">
-        <v>-6.1463495127183299</v>
+        <v>-5.5432001406594207</v>
       </c>
       <c r="O31" s="5">
-        <v>39.696292183501861</v>
+        <v>38.915869355942775</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3088,7 +3093,7 @@
         <v>16.010000228881836</v>
       </c>
       <c r="T31" s="5">
-        <v>12.529999732971191</v>
+        <v>12.460000038146973</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3099,7 +3104,7 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1268153856</v>
+        <v>1254567168</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>45</v>
@@ -3108,7 +3113,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>2277272</v>
+        <v>2252874</v>
       </c>
       <c r="G32" s="5">
         <v>4.2196917533874512</v>
@@ -3129,7 +3134,7 @@
         <v>6.7053517508478544</v>
       </c>
       <c r="M32" s="5">
-        <v>-2.045635369275844</v>
+        <v>-2.6667727843027622</v>
       </c>
       <c r="N32" s="5">
         <v>0.97458711664975006</v>
@@ -3159,7 +3164,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1159482368</v>
+        <v>1146136960</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3168,37 +3173,37 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1494617.375</v>
+        <v>1529053.125</v>
       </c>
       <c r="G33" s="5">
-        <v>6.7639203071594238</v>
+        <v>6.7688140869140634</v>
       </c>
       <c r="H33" s="5">
-        <v>-0.95838481706733702</v>
+        <v>-1.092988294070685</v>
       </c>
       <c r="I33" s="5">
-        <v>-0.52229250791096005</v>
+        <v>1.104890657578528</v>
       </c>
       <c r="J33" s="5">
-        <v>-24.993105401058124</v>
+        <v>-24.520125060330468</v>
       </c>
       <c r="K33" s="5">
-        <v>0.34220688124606502</v>
+        <v>-1.679397702908636</v>
       </c>
       <c r="L33" s="5">
-        <v>-9.4453655935270326</v>
+        <v>-6.8856220642258492</v>
       </c>
       <c r="M33" s="5">
-        <v>-4.0599546370831856</v>
+        <v>-5.1085681022259744</v>
       </c>
       <c r="N33" s="5">
-        <v>-38.533488850179886</v>
+        <v>-39.915092401016715</v>
       </c>
       <c r="O33" s="5">
-        <v>-36.229655179776884</v>
+        <v>-36.926657583750433</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>122</v>
@@ -3210,7 +3215,7 @@
         <v>0.44271498196098902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.24225732684135401</v>
+        <v>0.23960947990417503</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3221,7 +3226,7 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1133158144</v>
+        <v>1114645632</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>126</v>
@@ -3230,31 +3235,31 @@
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>1453566.25</v>
+        <v>1308317.875</v>
       </c>
       <c r="G34" s="5">
-        <v>7.0170357823372012E-2</v>
+        <v>7.1920640766621011E-2</v>
       </c>
       <c r="H34" s="5">
-        <v>-1.5690717646022481</v>
+        <v>-2.484398148662859</v>
       </c>
       <c r="I34" s="5">
-        <v>-3.0415661366404501</v>
+        <v>-2.5004796658022803</v>
       </c>
       <c r="J34" s="5">
-        <v>-11.910560535445159</v>
+        <v>-18.252016912026335</v>
       </c>
       <c r="K34" s="5">
-        <v>-22.471642715812777</v>
+        <v>-23.032722905364089</v>
       </c>
       <c r="L34" s="5">
-        <v>-8.5788972360758997</v>
+        <v>-8.8554967451868194</v>
       </c>
       <c r="M34" s="5">
-        <v>-22.236857800100797</v>
+        <v>-24.16880386525715</v>
       </c>
       <c r="N34" s="5">
-        <v>36.455003718289028</v>
+        <v>27.400113133738046</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="4" t="s">
@@ -3270,7 +3275,7 @@
         <v>0.33632467559269802</v>
       </c>
       <c r="T34" s="5">
-        <v>0.23768956959247603</v>
+        <v>0.23178441822528803</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3281,7 +3286,7 @@
         <v>130</v>
       </c>
       <c r="C35" s="5">
-        <v>1056490304</v>
+        <v>1065598016</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>23</v>
@@ -3290,34 +3295,34 @@
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>18015554</v>
+        <v>18688410</v>
       </c>
       <c r="G35" s="5">
-        <v>7.5213680267333984</v>
+        <v>7.2647223472595215</v>
       </c>
       <c r="H35" s="5">
-        <v>0.86206679206204406</v>
+        <v>3.5327684682979088</v>
       </c>
       <c r="I35" s="5">
-        <v>-10.184245574346185</v>
+        <v>-4.1666616367386</v>
       </c>
       <c r="J35" s="5">
-        <v>-32.291256269011967</v>
+        <v>-27.643273157037651</v>
       </c>
       <c r="K35" s="5">
-        <v>-32.136437324002877</v>
+        <v>-30.138334167157655</v>
       </c>
       <c r="L35" s="5">
-        <v>-33.559714599880365</v>
+        <v>-29.894171347410214</v>
       </c>
       <c r="M35" s="5">
-        <v>-32.802266066176067</v>
+        <v>-30.42832571035121</v>
       </c>
       <c r="N35" s="5">
-        <v>-50.362632471900717</v>
+        <v>-47.548429389709746</v>
       </c>
       <c r="O35" s="5">
-        <v>-12.578496423950192</v>
+        <v>-9.4900971111035801</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
@@ -3332,7 +3337,7 @@
         <v>39.099998474121094</v>
       </c>
       <c r="T35" s="5">
-        <v>17.549999237060547</v>
+        <v>18.170000076293945</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3343,7 +3348,7 @@
         <v>133</v>
       </c>
       <c r="C36" s="5">
-        <v>1044872512</v>
+        <v>1033678016</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>45</v>
@@ -3352,7 +3357,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>3457657.5</v>
+        <v>3420613.25</v>
       </c>
       <c r="G36" s="5">
         <v>5.2577996253967294</v>
@@ -3373,7 +3378,7 @@
         <v>-11.282693820373979</v>
       </c>
       <c r="M36" s="5">
-        <v>-12.786833879747306</v>
+        <v>-13.339860391270975</v>
       </c>
       <c r="N36" s="5">
         <v>-22.064146012417709</v>
@@ -3403,7 +3408,7 @@
         <v>135</v>
       </c>
       <c r="C37" s="5">
-        <v>1018387008</v>
+        <v>1028985984</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3412,40 +3417,40 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>4538568.5</v>
+        <v>4605908</v>
       </c>
       <c r="G37" s="5">
-        <v>6.5236053466796884</v>
+        <v>6.4570941925048828</v>
       </c>
       <c r="H37" s="5">
-        <v>1.0407622579203579</v>
+        <v>1.03005015590325</v>
       </c>
       <c r="I37" s="5">
-        <v>-2.1008404034795758</v>
+        <v>-2.5662207607636933</v>
       </c>
       <c r="J37" s="5">
-        <v>-13.382901236139189</v>
+        <v>-9.4615349402794475</v>
       </c>
       <c r="K37" s="5">
-        <v>1.9160542912222582</v>
+        <v>3.2323566564859569</v>
       </c>
       <c r="L37" s="5">
-        <v>-1.5368140250783151</v>
+        <v>1.7193839179930892</v>
       </c>
       <c r="M37" s="5">
-        <v>1.3043445089589101</v>
+        <v>2.347830067510182</v>
       </c>
       <c r="N37" s="5">
-        <v>-16.760728327188357</v>
+        <v>-16.465841816596892</v>
       </c>
       <c r="O37" s="5">
-        <v>65.532921760930392</v>
+        <v>67.237993879600083</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>0</v>
@@ -3454,7 +3459,7 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T37" s="5">
-        <v>11.649999618530273</v>
+        <v>11.770000457763672</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3465,7 +3470,7 @@
         <v>137</v>
       </c>
       <c r="C38" s="5">
-        <v>979962240</v>
+        <v>1010687104</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>23</v>
@@ -3474,34 +3479,34 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>11730042</v>
+        <v>11698469</v>
       </c>
       <c r="G38" s="5">
-        <v>2.2400000095367432</v>
+        <v>2.140672922134399</v>
       </c>
       <c r="H38" s="5">
-        <v>3.1353145051897791</v>
+        <v>4.6399993896484304</v>
       </c>
       <c r="I38" s="5">
-        <v>-10.623131447112645</v>
+        <v>-0.75872821816594904</v>
       </c>
       <c r="J38" s="5">
-        <v>-19.959310369633098</v>
+        <v>-13.943264338189042</v>
       </c>
       <c r="K38" s="5">
-        <v>-8.2745364845113194</v>
+        <v>-4.713996246466035</v>
       </c>
       <c r="L38" s="5">
-        <v>-13.60156407324804</v>
+        <v>-7.8274070738771915</v>
       </c>
       <c r="M38" s="5">
-        <v>-6.7775333513986009</v>
+        <v>-2.4520114678882821</v>
       </c>
       <c r="N38" s="5">
-        <v>-35.300033556394339</v>
+        <v>-31.81387739420477</v>
       </c>
       <c r="O38" s="5">
-        <v>-17.493320787456856</v>
+        <v>-13.665011375575665</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>25</v>
@@ -3516,7 +3521,7 @@
         <v>10.055000305175781</v>
       </c>
       <c r="T38" s="5">
-        <v>6.25</v>
+        <v>6.5399999618530273</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3527,65 +3532,67 @@
         <v>140</v>
       </c>
       <c r="C39" s="5">
-        <v>849459008</v>
+        <v>869125504</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>3259857</v>
-      </c>
-      <c r="G39" s="5"/>
+        <v>1939350.125</v>
+      </c>
+      <c r="G39" s="5">
+        <v>4.8750762939453134</v>
+      </c>
       <c r="H39" s="5">
-        <v>-4.9960369984589086</v>
+        <v>0.45548326613855705</v>
       </c>
       <c r="I39" s="5">
-        <v>-9.9342665771684491</v>
+        <v>0.67793879241466704</v>
       </c>
       <c r="J39" s="5">
-        <v>-4.5933358079345288</v>
+        <v>4.9421533923569072</v>
       </c>
       <c r="K39" s="5">
-        <v>-17.47915172173844</v>
+        <v>-13.353011704285557</v>
       </c>
       <c r="L39" s="5">
-        <v>71.441566705680401</v>
+        <v>-19.743207577794998</v>
       </c>
       <c r="M39" s="5">
-        <v>-21.732316596458688</v>
+        <v>-9.3494637560141864</v>
       </c>
       <c r="N39" s="5">
-        <v>113.66344474461813</v>
+        <v>-30.308269751937122</v>
       </c>
       <c r="O39" s="5">
-        <v>198.94601498919559</v>
+        <v>10.452989272573966</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="S39" s="5">
-        <v>1.13709763756269</v>
+        <v>6.9999688890271594</v>
       </c>
       <c r="T39" s="5">
-        <v>0.80719798803329501</v>
+        <v>4.4929361343383789</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A40" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C40" s="5">
-        <v>847170432</v>
+        <v>853927040</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>29</v>
@@ -3594,40 +3601,40 @@
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>1928488.625</v>
+        <v>1911984.25</v>
       </c>
       <c r="G40" s="5">
-        <v>7.1632328033447266</v>
+        <v>7.0735526084899902</v>
       </c>
       <c r="H40" s="5">
-        <v>-1.440225957594965</v>
+        <v>0.37620734705747805</v>
       </c>
       <c r="I40" s="5">
-        <v>-1.855366805471359</v>
+        <v>0.38765488728771402</v>
       </c>
       <c r="J40" s="5">
-        <v>-16.803538061015832</v>
+        <v>-16.133933456504369</v>
       </c>
       <c r="K40" s="5">
-        <v>0.11137434382901801</v>
+        <v>-4.42456694717559</v>
       </c>
       <c r="L40" s="5">
-        <v>-8.1815334266242665</v>
+        <v>-6.9936739813909909</v>
       </c>
       <c r="M40" s="5">
-        <v>-8.7311295454423181</v>
+        <v>-8.3877693492159118</v>
       </c>
       <c r="N40" s="5">
-        <v>-47.679793542837714</v>
+        <v>-45.674990321562369</v>
       </c>
       <c r="O40" s="5">
-        <v>27.311661490233696</v>
+        <v>27.790617314420896</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R40" s="4" t="s">
         <v>32</v>
@@ -3636,129 +3643,127 @@
         <v>2.1937991371437611</v>
       </c>
       <c r="T40" s="5">
-        <v>1.0611280202865601</v>
+        <v>1.0651201009750371</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A41" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="5">
-        <v>834418624</v>
+        <v>824245632</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>1986471.125</v>
+        <v>1259817.25</v>
       </c>
       <c r="G41" s="5">
-        <v>4.8780488967895508</v>
+        <v>6.5686278343200684</v>
       </c>
       <c r="H41" s="5">
-        <v>4.8494873149637518</v>
+        <v>-2.2547511629679939</v>
       </c>
       <c r="I41" s="5">
-        <v>1.1403720347074711</v>
+        <v>-3.6864523044466631</v>
       </c>
       <c r="J41" s="5">
-        <v>-0.35315641594825303</v>
+        <v>-7.205453717717214</v>
       </c>
       <c r="K41" s="5">
-        <v>-12.825194771458648</v>
+        <v>-10.170691899272722</v>
       </c>
       <c r="L41" s="5">
-        <v>-21.289903602545522</v>
+        <v>-14.142408637423031</v>
       </c>
       <c r="M41" s="5">
-        <v>-9.7604896252166959</v>
+        <v>-10.539466945071219</v>
       </c>
       <c r="N41" s="5">
-        <v>-28.859160220416925</v>
+        <v>-37.020102328874515</v>
       </c>
       <c r="O41" s="5">
-        <v>9.9521755123598723</v>
+        <v>12.751191781389037</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q41" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R41" s="4" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="S41" s="5">
-        <v>6.9999688890271594</v>
+        <v>1.243469103672894</v>
       </c>
       <c r="T41" s="5">
-        <v>4.472564697265625</v>
+        <v>0.62235295772552501</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="5">
+        <v>806489728</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3191946.25</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5">
+        <v>-5.2033161240173001E-2</v>
+      </c>
+      <c r="I42" s="5">
+        <v>-5.3460292857388403</v>
+      </c>
+      <c r="J42" s="5">
+        <v>-10.135695559553049</v>
+      </c>
+      <c r="K42" s="5">
+        <v>-20.715683601359625</v>
+      </c>
+      <c r="L42" s="5">
+        <v>67.616833058962484</v>
+      </c>
+      <c r="M42" s="5">
+        <v>-21.77304174636301</v>
+      </c>
+      <c r="N42" s="5">
+        <v>96.726455831255279</v>
+      </c>
+      <c r="O42" s="5">
+        <v>198.79046392719522</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="5">
-        <v>818249792</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1260587.375</v>
-      </c>
-      <c r="G42" s="5">
-        <v>6.4547204971313477</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1.858722954739322</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1.1536641397078111</v>
-      </c>
-      <c r="J42" s="5">
-        <v>-5.3660206561910169</v>
-      </c>
-      <c r="K42" s="5">
-        <v>-6.7389857179702588</v>
-      </c>
-      <c r="L42" s="5">
-        <v>-11.35893284343843</v>
-      </c>
-      <c r="M42" s="5">
-        <v>-8.4758245343628964</v>
-      </c>
-      <c r="N42" s="5">
-        <v>-35.225592198952981</v>
-      </c>
-      <c r="O42" s="5">
-        <v>15.352094473027567</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="S42" s="5">
-        <v>1.243469103672894</v>
+        <v>1.13709763756269</v>
       </c>
       <c r="T42" s="5">
-        <v>0.63670921325683605</v>
+        <v>0.80677801370620705</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3769,7 +3774,7 @@
         <v>152</v>
       </c>
       <c r="C43" s="5">
-        <v>773834496</v>
+        <v>765543808</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>45</v>
@@ -3778,7 +3783,7 @@
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>2121042.75</v>
+        <v>2098318.5</v>
       </c>
       <c r="G43" s="5">
         <v>5.7310605049133301</v>
@@ -3799,7 +3804,7 @@
         <v>0.16048535793076202</v>
       </c>
       <c r="M43" s="5">
-        <v>-2.1648633956861012</v>
+        <v>-2.7852447750998821</v>
       </c>
       <c r="N43" s="5">
         <v>-14.48182241396646</v>
@@ -3829,7 +3834,7 @@
         <v>154</v>
       </c>
       <c r="C44" s="5">
-        <v>751977088</v>
+        <v>755778496</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>155</v>
@@ -3838,34 +3843,34 @@
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>4078418</v>
+        <v>4084731.75</v>
       </c>
       <c r="G44" s="5">
-        <v>1.0269007682800291</v>
+        <v>1.023377060890198</v>
       </c>
       <c r="H44" s="5">
-        <v>-0.53490331457413109</v>
+        <v>0.50552122338016803</v>
       </c>
       <c r="I44" s="5">
-        <v>-0.41420641295656402</v>
+        <v>-5.7577340422110008E-3</v>
       </c>
       <c r="J44" s="5">
-        <v>-1.352802610464876</v>
+        <v>-0.66804430737877907</v>
       </c>
       <c r="K44" s="5">
-        <v>0.15417672788644601</v>
+        <v>0.82648512487997206</v>
       </c>
       <c r="L44" s="5">
-        <v>4.1728861720264474</v>
+        <v>5.3219170228959278</v>
       </c>
       <c r="M44" s="5">
-        <v>0.39525853124822202</v>
+        <v>0.90277787039108004</v>
       </c>
       <c r="N44" s="5">
-        <v>-1.009121803412627</v>
+        <v>0.128225662029258</v>
       </c>
       <c r="O44" s="5">
-        <v>16.827127542618392</v>
+        <v>17.417713467011751</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>25</v>
@@ -3880,7 +3885,7 @@
         <v>0.72089303474705002</v>
       </c>
       <c r="T44" s="5">
-        <v>0.66546642780304011</v>
+        <v>0.66883051395416304</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3891,165 +3896,165 @@
         <v>159</v>
       </c>
       <c r="C45" s="5">
-        <v>721604032</v>
+        <v>715957952</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1402278.5</v>
+        <v>1673785.125</v>
       </c>
       <c r="G45" s="5">
-        <v>4.2615723609924316</v>
+        <v>5.8181819915771484</v>
       </c>
       <c r="H45" s="5">
-        <v>-0.89602266143947706</v>
+        <v>-1.721091578578515</v>
       </c>
       <c r="I45" s="5">
-        <v>-2.6836490637989212</v>
+        <v>-2.8864410838246419</v>
       </c>
       <c r="J45" s="5">
-        <v>-2.733960188067408</v>
+        <v>-0.34620296606732204</v>
       </c>
       <c r="K45" s="5">
-        <v>-7.9958988102378559</v>
+        <v>-4.0685147492395712</v>
       </c>
       <c r="L45" s="5">
-        <v>-5.0732607386907658</v>
+        <v>-1.340089476144624</v>
       </c>
       <c r="M45" s="5">
-        <v>-11.174462012634079</v>
+        <v>-4.6228879588716687</v>
       </c>
       <c r="N45" s="5">
-        <v>-12.530564333086414</v>
+        <v>-30.642512620164975</v>
       </c>
       <c r="O45" s="5">
-        <v>42.466945702837847</v>
+        <v>126.32525168469164</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="R45" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S45" s="5">
-        <v>1279.0224032586557</v>
+        <v>1.5543399132000002</v>
       </c>
       <c r="T45" s="5">
-        <v>1033.9588623046875</v>
+        <v>1.0067474842071531</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A46" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C46" s="5">
-        <v>717340288</v>
+        <v>713872960</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>1667555</v>
+        <v>1387254.75</v>
       </c>
       <c r="G46" s="5">
-        <v>5.7485032081604004</v>
+        <v>4.2615723609924316</v>
       </c>
       <c r="H46" s="5">
-        <v>0.9228887881502561</v>
+        <v>-0.89602266143947706</v>
       </c>
       <c r="I46" s="5">
-        <v>0.16978917161671903</v>
+        <v>-2.6836490637989212</v>
       </c>
       <c r="J46" s="5">
-        <v>2.9117495036798502</v>
+        <v>-2.733960188067408</v>
       </c>
       <c r="K46" s="5">
-        <v>-1.7581508280627429</v>
+        <v>-7.9958988102378559</v>
       </c>
       <c r="L46" s="5">
-        <v>0.96721946014581806</v>
+        <v>-5.0732607386907658</v>
       </c>
       <c r="M46" s="5">
-        <v>-2.9526135636857131</v>
+        <v>-11.737712718836313</v>
       </c>
       <c r="N46" s="5">
-        <v>-29.49210765848558</v>
+        <v>-12.530564333086414</v>
       </c>
       <c r="O46" s="5">
-        <v>130.28873165156193</v>
+        <v>42.466945702837847</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Q46" s="4"/>
       <c r="R46" s="4" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="S46" s="5">
-        <v>1.574337569161893</v>
+        <v>1279.0224032586557</v>
       </c>
       <c r="T46" s="5">
-        <v>1.0243779420852661</v>
+        <v>1033.9588623046875</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A47" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C47" s="5">
-        <v>665510720</v>
+        <v>663784832</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>7916991.5</v>
+        <v>7865253.5</v>
       </c>
       <c r="G47" s="5">
         <v>7.6238884925842294</v>
       </c>
       <c r="H47" s="5">
-        <v>0.44938759009554002</v>
+        <v>-0.38606904119165003</v>
       </c>
       <c r="I47" s="5">
-        <v>-3.2153869044668992</v>
+        <v>-4.7964081169124313</v>
       </c>
       <c r="J47" s="5">
-        <v>-18.743841191504785</v>
+        <v>-17.266612677962524</v>
       </c>
       <c r="K47" s="5">
-        <v>-9.4402108415935224</v>
+        <v>-11.116736324718168</v>
       </c>
       <c r="L47" s="5">
-        <v>-22.78539558364665</v>
+        <v>-21.937624652146393</v>
       </c>
       <c r="M47" s="5">
-        <v>-12.642597423148905</v>
+        <v>-12.979857309687281</v>
       </c>
       <c r="N47" s="5">
-        <v>-41.31434206582432</v>
+        <v>-41.596539751546402</v>
       </c>
       <c r="O47" s="5">
-        <v>59.846806810052591</v>
+        <v>59.229687775625564</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>25</v>
@@ -4058,148 +4063,148 @@
         <v>26</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S47" s="5">
         <v>11.008880893576956</v>
       </c>
       <c r="T47" s="5">
-        <v>5.7550272941589364</v>
+        <v>5.7328085899353027</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A48" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C48" s="5">
-        <v>586474880</v>
+        <v>631297920</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>1850622</v>
+        <v>11059702</v>
       </c>
       <c r="G48" s="5">
-        <v>5.9417037963867188</v>
+        <v>6.8681316375732422</v>
       </c>
       <c r="H48" s="5">
-        <v>-3.4894863077076681</v>
+        <v>0.13755473050993702</v>
       </c>
       <c r="I48" s="5">
-        <v>-2.3006874726315241</v>
+        <v>6.9016192507774798</v>
       </c>
       <c r="J48" s="5">
-        <v>-0.91295466457194108</v>
+        <v>-4.7120374734096142</v>
       </c>
       <c r="K48" s="5">
-        <v>-6.5534793592650136</v>
+        <v>-5.5771702491712274</v>
       </c>
       <c r="L48" s="5">
-        <v>-5.5048218221656064</v>
+        <v>-19.032983180665241</v>
       </c>
       <c r="M48" s="5">
-        <v>-4.9838344569908983</v>
+        <v>-4.5871546446000888</v>
       </c>
       <c r="N48" s="5">
-        <v>-22.654526015046383</v>
+        <v>-60.048869476310472</v>
       </c>
       <c r="O48" s="5">
-        <v>38.525351730952373</v>
+        <v>39.861394258225417</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>169</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5">
-        <v>0.98234694417412904</v>
+        <v>19.025779724121094</v>
       </c>
       <c r="T48" s="5">
-        <v>0.69319498538970903</v>
+        <v>7.2800002098083496</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="5">
+        <v>581117632</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="5">
-        <v>585274816</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>10725475</v>
+        <v>1813669.75</v>
       </c>
       <c r="G49" s="5">
-        <v>6.8775792121887207</v>
+        <v>5.9954748153686523</v>
       </c>
       <c r="H49" s="5">
-        <v>7.8635048635976812</v>
+        <v>-1.088870480963211</v>
       </c>
       <c r="I49" s="5">
-        <v>7.8635048635976812</v>
+        <v>-3.003488380827624</v>
       </c>
       <c r="J49" s="5">
-        <v>-15.66125200180335</v>
+        <v>-0.9882722478305791</v>
       </c>
       <c r="K49" s="5">
-        <v>-6.0723488900536697</v>
+        <v>-6.5902560575869966</v>
       </c>
       <c r="L49" s="5">
-        <v>-23.51478530023352</v>
+        <v>-6.1358881461170078</v>
       </c>
       <c r="M49" s="5">
-        <v>-4.7182192413477209</v>
+        <v>-6.01843743573186</v>
       </c>
       <c r="N49" s="5">
-        <v>-61.495665201917319</v>
+        <v>-23.185459321740975</v>
       </c>
       <c r="O49" s="5">
-        <v>39.669272566741043</v>
+        <v>37.016990067303567</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>173</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="S49" s="5">
-        <v>19.080272674560547</v>
+        <v>0.97619400723811212</v>
       </c>
       <c r="T49" s="5">
-        <v>7.2699999809265137</v>
+        <v>0.6856470108032231</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A50" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C50" s="5">
-        <v>556370304</v>
+        <v>555058752</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>126</v>
@@ -4208,35 +4213,35 @@
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>14870799</v>
+        <v>15067750</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>-0.170191270985487</v>
+        <v>-1.057165756885881</v>
       </c>
       <c r="I50" s="5">
-        <v>45.594112496758534</v>
+        <v>30.979054757459899</v>
       </c>
       <c r="J50" s="5">
-        <v>90.378918681717479</v>
+        <v>88.416215263494365</v>
       </c>
       <c r="K50" s="5">
-        <v>73.342323929325786</v>
+        <v>68.835332343416724</v>
       </c>
       <c r="L50" s="5">
-        <v>113.93023030321947</v>
+        <v>122.74669054154926</v>
       </c>
       <c r="M50" s="5">
-        <v>63.516951683621016</v>
+        <v>61.788306463718136</v>
       </c>
       <c r="N50" s="5">
-        <v>182.31516669213042</v>
+        <v>154.61937955210291</v>
       </c>
       <c r="O50" s="5">
-        <v>242.77396328136587</v>
+        <v>239.15027431803466</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
@@ -4246,67 +4251,69 @@
         <v>1.84262010241304</v>
       </c>
       <c r="T50" s="5">
-        <v>1.6732925176620479</v>
+        <v>1.6556030511856079</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C51" s="5">
-        <v>516933952</v>
+        <v>495581472</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>3740939.25</v>
-      </c>
-      <c r="G51" s="5"/>
+        <v>5710231.5</v>
+      </c>
+      <c r="G51" s="5">
+        <v>9.6000003814697266</v>
+      </c>
       <c r="H51" s="5">
-        <v>-4.8573552349932214</v>
+        <v>1.874486826859068</v>
       </c>
       <c r="I51" s="5">
-        <v>-7.7877810264196379</v>
+        <v>1.15287982261203</v>
       </c>
       <c r="J51" s="5">
-        <v>-2.6950259637033902</v>
+        <v>-20.078326557035741</v>
       </c>
       <c r="K51" s="5">
-        <v>-39.388088088025356</v>
+        <v>-30.925004787798549</v>
       </c>
       <c r="L51" s="5">
-        <v>47.103209716492223</v>
+        <v>-24.705164353014851</v>
       </c>
       <c r="M51" s="5">
-        <v>-38.314845001903123</v>
+        <v>-31.037022772640842</v>
       </c>
       <c r="N51" s="5">
-        <v>167.69866271407855</v>
+        <v>-36.627425618742258</v>
       </c>
       <c r="O51" s="5">
-        <v>290.26977885504988</v>
+        <v>65.477649558859241</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5">
-        <v>1.152422315694851</v>
+        <v>23.379999160766602</v>
       </c>
       <c r="T51" s="5">
-        <v>0.67573255300521906</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4317,7 +4324,7 @@
         <v>181</v>
       </c>
       <c r="C52" s="5">
-        <v>512856928</v>
+        <v>491501664</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>126</v>
@@ -4326,118 +4333,116 @@
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>18222604</v>
+        <v>3568209</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>-4.2709303633331253</v>
+        <v>0.49242808150837802</v>
       </c>
       <c r="I52" s="5">
-        <v>-10.042929450348492</v>
+        <v>-7.1190759747567389</v>
       </c>
       <c r="J52" s="5">
-        <v>-7.8063749316392039</v>
+        <v>-9.3197733165088508</v>
       </c>
       <c r="K52" s="5">
-        <v>-11.681871006198518</v>
+        <v>-38.182347333437747</v>
       </c>
       <c r="L52" s="5">
-        <v>-32.294467586792329</v>
+        <v>50.283051144382675</v>
       </c>
       <c r="M52" s="5">
-        <v>-9.9157876746075573</v>
+        <v>-38.011089976570524</v>
       </c>
       <c r="N52" s="5">
-        <v>-13.386707374923489</v>
+        <v>166.68801594026749</v>
       </c>
       <c r="O52" s="5">
-        <v>160.27166411077772</v>
+        <v>292.19157683977272</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q52" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="R52" s="4" t="s">
         <v>128</v>
       </c>
       <c r="S52" s="5">
-        <v>1.1922868853192861</v>
+        <v>1.152422315694851</v>
       </c>
       <c r="T52" s="5">
-        <v>0.51218944787979104</v>
+        <v>0.67906004190444902</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C53" s="5">
-        <v>474038976</v>
+        <v>490630784</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>1257593.375</v>
-      </c>
-      <c r="G53" s="5">
-        <v>7.898200511932373</v>
-      </c>
+        <v>17782634</v>
+      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="5">
-        <v>2.289049430718948</v>
+        <v>-1.078187137426889</v>
       </c>
       <c r="I53" s="5">
-        <v>7.4493253147350114</v>
+        <v>-9.1485520280457528</v>
       </c>
       <c r="J53" s="5">
-        <v>-3.9612247991657519</v>
+        <v>-7.6304283136959361</v>
       </c>
       <c r="K53" s="5">
-        <v>3.496823077913191</v>
+        <v>-14.662258112784766</v>
       </c>
       <c r="L53" s="5">
-        <v>-1.4774355869367821</v>
+        <v>-25.545937937980099</v>
       </c>
       <c r="M53" s="5">
-        <v>2.5652638154235912</v>
+        <v>-10.887064064752272</v>
       </c>
       <c r="N53" s="5">
-        <v>-22.123066230032684</v>
+        <v>-16.906591939650241</v>
       </c>
       <c r="O53" s="5">
-        <v>92.148718000673171</v>
+        <v>157.46544850596837</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="S53" s="5">
-        <v>31.969999313354492</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T53" s="5">
-        <v>22.790000915527344</v>
+        <v>0.50666707754135099</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C54" s="5">
-        <v>470943776</v>
+        <v>484889952</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>23</v>
@@ -4446,242 +4451,242 @@
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>5551032</v>
+        <v>1300441.125</v>
       </c>
       <c r="G54" s="5">
-        <v>9.7799510955810547</v>
+        <v>7.8328981399536133</v>
       </c>
       <c r="H54" s="5">
-        <v>5.2315661949768444</v>
+        <v>0.83369293144492906</v>
       </c>
       <c r="I54" s="5">
-        <v>0.665111235253524</v>
+        <v>2.1333312988281339</v>
       </c>
       <c r="J54" s="5">
-        <v>-24.42430193371392</v>
+        <v>-0.56253165158725005</v>
       </c>
       <c r="K54" s="5">
-        <v>-31.603489075666701</v>
+        <v>3.606849531349487</v>
       </c>
       <c r="L54" s="5">
-        <v>-27.604477551472396</v>
+        <v>-0.532238892274706</v>
       </c>
       <c r="M54" s="5">
-        <v>-32.305939028124598</v>
+        <v>3.4203431699705971</v>
       </c>
       <c r="N54" s="5">
-        <v>-38.479895363452201</v>
+        <v>-22.042844885932023</v>
       </c>
       <c r="O54" s="5">
-        <v>62.432866866948757</v>
+        <v>93.750648280506809</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="R54" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S54" s="5">
-        <v>23.379999160766602</v>
+        <v>31.969999313354492</v>
       </c>
       <c r="T54" s="5">
-        <v>12.270000457763672</v>
+        <v>22.979999542236328</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C55" s="5">
-        <v>465787584</v>
+        <v>463901952</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1444177.5</v>
-      </c>
-      <c r="G55" s="5"/>
+        <v>1297713</v>
+      </c>
+      <c r="G55" s="5">
+        <v>6.6649575233459473</v>
+      </c>
       <c r="H55" s="5">
-        <v>-1.9815878085548082</v>
+        <v>0.47153795088790101</v>
       </c>
       <c r="I55" s="5">
-        <v>1.571705264553791</v>
+        <v>6.6267586676209911</v>
       </c>
       <c r="J55" s="5">
-        <v>-10.405204367260733</v>
+        <v>5.824775007949512</v>
       </c>
       <c r="K55" s="5">
-        <v>7.7931206454055379</v>
+        <v>-13.037283165835699</v>
       </c>
       <c r="L55" s="5">
-        <v>38.842650769152876</v>
+        <v>-19.625910030073246</v>
       </c>
       <c r="M55" s="5">
-        <v>2.5853509425177501</v>
+        <v>-7.5395605261702077</v>
       </c>
       <c r="N55" s="5">
-        <v>49.016259032918619</v>
+        <v>-33.644692645993715</v>
       </c>
       <c r="O55" s="5">
-        <v>688.5899523769981</v>
+        <v>36.930930133252751</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="S55" s="5">
-        <v>10.579760227544591</v>
+        <v>3.5895411339548722</v>
       </c>
       <c r="T55" s="5">
-        <v>8.7818937301635742</v>
+        <v>2.13612961769104</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A56" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C56" s="5">
-        <v>448717792</v>
+        <v>456257792</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>6916833</v>
-      </c>
-      <c r="G56" s="5">
-        <v>6.128504753112793</v>
-      </c>
+        <v>1565312.5</v>
+      </c>
+      <c r="G56" s="5"/>
       <c r="H56" s="5">
-        <v>-0.81681522273294704</v>
+        <v>-5.4384505357841224</v>
       </c>
       <c r="I56" s="5">
-        <v>-2.5782034251892521</v>
+        <v>-6.2247406738517146</v>
       </c>
       <c r="J56" s="5">
-        <v>-2.8078232478412239</v>
+        <v>-13.904997055362323</v>
       </c>
       <c r="K56" s="5">
-        <v>-8.6901860887960822</v>
+        <v>-1.352805185330797</v>
       </c>
       <c r="L56" s="5">
-        <v>-9.2723522132100218</v>
+        <v>30.061583000993441</v>
       </c>
       <c r="M56" s="5">
-        <v>-11.730809238662443</v>
+        <v>-2.9937026254516219</v>
       </c>
       <c r="N56" s="5">
-        <v>-30.234025548840648</v>
+        <v>43.158317901523091</v>
       </c>
       <c r="O56" s="5">
-        <v>43.109576976354532</v>
+        <v>645.70287788681139</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="4"/>
+      <c r="Q56" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="R56" s="4" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="S56" s="5">
-        <v>1016.4068908941755</v>
+        <v>10.579760227544591</v>
       </c>
       <c r="T56" s="5">
-        <v>650.30767822265625</v>
+        <v>8.3042945861816406</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C57" s="5">
-        <v>441738912</v>
+        <v>443910336</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>1273256.5</v>
+        <v>6842728</v>
       </c>
       <c r="G57" s="5">
-        <v>6.6700873374938965</v>
+        <v>6.128504753112793</v>
       </c>
       <c r="H57" s="5">
-        <v>6.8527642668117625</v>
+        <v>-0.81681522273294704</v>
       </c>
       <c r="I57" s="5">
-        <v>7.9744463199232118</v>
+        <v>-2.5782034251892521</v>
       </c>
       <c r="J57" s="5">
-        <v>2.56470647747491</v>
+        <v>-2.8078232478412239</v>
       </c>
       <c r="K57" s="5">
-        <v>-12.852299935025757</v>
+        <v>-8.6901860887960822</v>
       </c>
       <c r="L57" s="5">
-        <v>-20.661393210631505</v>
+        <v>-9.2723522132100218</v>
       </c>
       <c r="M57" s="5">
-        <v>-7.973500396673594</v>
+        <v>-12.29053209718648</v>
       </c>
       <c r="N57" s="5">
-        <v>-34.189490795832114</v>
+        <v>-30.234025548840648</v>
       </c>
       <c r="O57" s="5">
-        <v>36.288279174333702</v>
+        <v>43.109576976354532</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q57" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="Q57" s="4"/>
       <c r="R57" s="4" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="S57" s="5">
-        <v>3.5895411339548722</v>
+        <v>1016.4068908941755</v>
       </c>
       <c r="T57" s="5">
-        <v>2.126104354858398</v>
+        <v>650.30767822265625</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A58" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C58" s="5">
-        <v>385471648</v>
+        <v>382497888</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>23</v>
@@ -4690,34 +4695,34 @@
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>1567332.375</v>
+        <v>1599771.375</v>
       </c>
       <c r="G58" s="5">
-        <v>5.8309040069580078</v>
+        <v>5.8083257675170898</v>
       </c>
       <c r="H58" s="5">
-        <v>-0.77145539622869308</v>
+        <v>0.38872655006136903</v>
       </c>
       <c r="I58" s="5">
-        <v>-4.7353808895051586</v>
+        <v>-5.3162230230794467</v>
       </c>
       <c r="J58" s="5">
-        <v>-19.385812792674184</v>
+        <v>-16.557566188457983</v>
       </c>
       <c r="K58" s="5">
-        <v>-11.447570432392295</v>
+        <v>-12.441261271223624</v>
       </c>
       <c r="L58" s="5">
-        <v>-29.38017956931116</v>
+        <v>-27.948990195364985</v>
       </c>
       <c r="M58" s="5">
-        <v>-6.9449062049136696</v>
+        <v>-6.583176349147668</v>
       </c>
       <c r="N58" s="5">
-        <v>-28.72318626011927</v>
+        <v>-28.868674790890083</v>
       </c>
       <c r="O58" s="5">
-        <v>56.320482395333158</v>
+        <v>56.928141613587812</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
@@ -4732,18 +4737,18 @@
         <v>17.930000305175781</v>
       </c>
       <c r="T58" s="5">
-        <v>10.289999961853027</v>
+        <v>10.329999923706055</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C59" s="5">
-        <v>367962016</v>
+        <v>375786080</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>23</v>
@@ -4752,34 +4757,34 @@
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>5439392</v>
+        <v>5629262.5</v>
       </c>
       <c r="G59" s="5">
-        <v>9.3080215454101562</v>
+        <v>9.0530071258544922</v>
       </c>
       <c r="H59" s="5">
-        <v>2.126329940304394</v>
+        <v>2.8169074952260731</v>
       </c>
       <c r="I59" s="5">
-        <v>0.80246391755733903</v>
+        <v>1.634385292264229</v>
       </c>
       <c r="J59" s="5">
-        <v>-13.23198534303911</v>
+        <v>-7.9655406969437745</v>
       </c>
       <c r="K59" s="5">
-        <v>-6.8405871281796982</v>
+        <v>-4.1628974547544884</v>
       </c>
       <c r="L59" s="5">
-        <v>-14.506273960042648</v>
+        <v>-11.654490902098502</v>
       </c>
       <c r="M59" s="5">
-        <v>-8.6752420287319776</v>
+        <v>-6.1027080764422532</v>
       </c>
       <c r="N59" s="5">
-        <v>-18.290941910623616</v>
+        <v>-16.015178487862268</v>
       </c>
       <c r="O59" s="5">
-        <v>100.50381084084394</v>
+        <v>106.15181771663362</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>25</v>
@@ -4794,18 +4799,18 @@
         <v>23.069999694824219</v>
       </c>
       <c r="T59" s="5">
-        <v>16.329999923706055</v>
+        <v>16.790000915527344</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A60" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C60" s="5">
-        <v>347493760</v>
+        <v>333695456</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>126</v>
@@ -4814,31 +4819,31 @@
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>7608301</v>
+        <v>7479955</v>
       </c>
       <c r="G60" s="5">
-        <v>0.78726971149444602</v>
+        <v>0.80895006656646706</v>
       </c>
       <c r="H60" s="5">
-        <v>-3.907706152202028</v>
+        <v>-2.7307031788883269</v>
       </c>
       <c r="I60" s="5">
-        <v>-14.441099567739091</v>
+        <v>-12.357425101249087</v>
       </c>
       <c r="J60" s="5">
-        <v>-10.270841378797236</v>
+        <v>-16.006776261897482</v>
       </c>
       <c r="K60" s="5">
-        <v>-38.987161879989685</v>
+        <v>-38.258339762161256</v>
       </c>
       <c r="L60" s="5">
-        <v>28.582483418648373</v>
+        <v>30.132407247815006</v>
       </c>
       <c r="M60" s="5">
-        <v>-34.284442244790682</v>
+        <v>-36.07893906943638</v>
       </c>
       <c r="N60" s="5">
-        <v>3.8599031097060088</v>
+        <v>-1.0854323687305769</v>
       </c>
       <c r="O60" s="5"/>
       <c r="P60" s="4" t="s">
@@ -4852,258 +4857,260 @@
         <v>0.55299045370637101</v>
       </c>
       <c r="T60" s="5">
-        <v>0.31393954157829301</v>
+        <v>0.30536678433418302</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C61" s="5">
-        <v>276752576</v>
+        <v>283244640</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1676523.5</v>
+        <v>1011377.875</v>
       </c>
       <c r="G61" s="5">
-        <v>5.9689621925354004</v>
+        <v>7.6530694961547852</v>
       </c>
       <c r="H61" s="5">
-        <v>-1.6611552143183221</v>
+        <v>1.3982099220182231</v>
       </c>
       <c r="I61" s="5">
-        <v>-3.8580209668676808</v>
+        <v>3.595890236726174</v>
       </c>
       <c r="J61" s="5">
-        <v>-7.0342147035302176</v>
+        <v>-0.94841032699902705</v>
       </c>
       <c r="K61" s="5">
-        <v>-6.7050090575500274</v>
+        <v>-17.293538809688059</v>
       </c>
       <c r="L61" s="5">
-        <v>-2.7779806095785002E-2</v>
+        <v>-27.39896557638437</v>
       </c>
       <c r="M61" s="5">
-        <v>-9.4090169107356232</v>
+        <v>-12.175741460323831</v>
       </c>
       <c r="N61" s="5">
-        <v>-23.149813477741287</v>
+        <v>-34.667286066149394</v>
       </c>
       <c r="O61" s="5">
-        <v>47.449110329295287</v>
+        <v>17.422311589282536</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q61" s="4"/>
+      <c r="Q61" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="R61" s="4" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="S61" s="5">
-        <v>1127.0154656136885</v>
+        <v>0.72014215793247505</v>
       </c>
       <c r="T61" s="5">
-        <v>783.256103515625</v>
+        <v>0.41479575634002702</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C62" s="5">
-        <v>254048752</v>
+        <v>273787520</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>2042526.625</v>
-      </c>
-      <c r="G62" s="5"/>
+        <v>1658561.625</v>
+      </c>
+      <c r="G62" s="5">
+        <v>5.9689621925354004</v>
+      </c>
       <c r="H62" s="5">
-        <v>-5.3756476846111507</v>
+        <v>-1.6611552143183221</v>
       </c>
       <c r="I62" s="5">
-        <v>-3.8092838025492242</v>
+        <v>-3.8580209668676808</v>
       </c>
       <c r="J62" s="5">
-        <v>6.7130644598599076</v>
+        <v>-7.0342147035302176</v>
       </c>
       <c r="K62" s="5">
-        <v>-26.867314799136189</v>
+        <v>-6.7050090575500274</v>
       </c>
       <c r="L62" s="5">
-        <v>54.040518446295692</v>
+        <v>-2.7779806095785002E-2</v>
       </c>
       <c r="M62" s="5">
-        <v>-28.79507194786941</v>
+        <v>-9.9834624627326392</v>
       </c>
       <c r="N62" s="5">
-        <v>145.53278168842178</v>
+        <v>-23.149813477741287</v>
       </c>
       <c r="O62" s="5">
-        <v>32.465289254009065</v>
+        <v>47.449110329295287</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="4" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="S62" s="5">
-        <v>0.45377137396633505</v>
+        <v>1127.0154656136885</v>
       </c>
       <c r="T62" s="5">
-        <v>0.29868954420089705</v>
+        <v>783.256103515625</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C63" s="5">
-        <v>222212832</v>
+        <v>240234128</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>2118948.5</v>
-      </c>
-      <c r="G63" s="5">
-        <v>6.6950697898864746</v>
-      </c>
+        <v>2030867.5</v>
+      </c>
+      <c r="G63" s="5"/>
       <c r="H63" s="5">
-        <v>3.9215677995163123</v>
+        <v>-3.395364145809487</v>
       </c>
       <c r="I63" s="5">
-        <v>1.796783931189849</v>
+        <v>-9.6683018000306546</v>
       </c>
       <c r="J63" s="5">
-        <v>-13.68868717418027</v>
+        <v>-6.1278932487264237</v>
       </c>
       <c r="K63" s="5">
-        <v>-9.7675654170726656</v>
+        <v>-32.856838253472489</v>
       </c>
       <c r="L63" s="5">
-        <v>-5.6040025239325395</v>
+        <v>50.640941528855791</v>
       </c>
       <c r="M63" s="5">
-        <v>-12.557771261890128</v>
+        <v>-31.212738545000885</v>
       </c>
       <c r="N63" s="5">
-        <v>-7.9889446404204261</v>
+        <v>135.04925388846081</v>
       </c>
       <c r="O63" s="5">
-        <v>60.293088579260811</v>
+        <v>27.967610317035607</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Q63" s="4"/>
       <c r="R63" s="4" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="S63" s="5">
-        <v>20.789899826049805</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T63" s="5">
-        <v>16.430000305175781</v>
+        <v>0.288547933101654</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C64" s="5">
-        <v>218372928</v>
+        <v>230927072</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>1064685.75</v>
+        <v>2283101.25</v>
       </c>
       <c r="G64" s="5">
-        <v>5.827672004699707</v>
+        <v>6.5868263244628906</v>
       </c>
       <c r="H64" s="5">
-        <v>-0.88982546742765212</v>
+        <v>1.643338117763848</v>
       </c>
       <c r="I64" s="5">
-        <v>-1.196363357365904</v>
+        <v>2.5168804442564863</v>
       </c>
       <c r="J64" s="5">
-        <v>-2.1516039912467528</v>
+        <v>-9.556528344796277</v>
       </c>
       <c r="K64" s="5">
-        <v>-7.0877413481512441</v>
+        <v>-5.7880519811429938</v>
       </c>
       <c r="L64" s="5">
-        <v>1.9544068064412112</v>
+        <v>-2.696037709743226</v>
       </c>
       <c r="M64" s="5">
-        <v>-8.2265224616921646</v>
+        <v>-11.120799786014501</v>
       </c>
       <c r="N64" s="5">
-        <v>-10.132983080526369</v>
+        <v>-5.1758775575007849</v>
       </c>
       <c r="O64" s="5">
-        <v>80.646943159911118</v>
+        <v>62.927246004024795</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q64" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="R64" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S64" s="5">
-        <v>1090.5527244217953</v>
+        <v>20.789899826049805</v>
       </c>
       <c r="T64" s="5">
-        <v>916.9642333984375</v>
+        <v>16.700000762939453</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C65" s="5">
-        <v>209357840</v>
+        <v>216033328</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>45</v>
@@ -5112,118 +5119,116 @@
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>1589135.25</v>
+        <v>1053279</v>
       </c>
       <c r="G65" s="5">
-        <v>5.8957595825195312</v>
+        <v>5.827672004699707</v>
       </c>
       <c r="H65" s="5">
-        <v>1.8717428391226592</v>
+        <v>-0.88982546742765212</v>
       </c>
       <c r="I65" s="5">
-        <v>0.46752555692291003</v>
+        <v>-1.196363357365904</v>
       </c>
       <c r="J65" s="5">
-        <v>3.8621779252090004E-2</v>
+        <v>-2.1516039912467528</v>
       </c>
       <c r="K65" s="5">
-        <v>-1.8194591188669511</v>
+        <v>-7.0877413481512441</v>
       </c>
       <c r="L65" s="5">
-        <v>6.4095205651811824</v>
+        <v>1.9544068064412112</v>
       </c>
       <c r="M65" s="5">
-        <v>-4.7590866819939848</v>
+        <v>-8.8084663170892483</v>
       </c>
       <c r="N65" s="5">
-        <v>-3.3693369727259999</v>
-      </c>
-      <c r="O65" s="5"/>
+        <v>-10.132983080526369</v>
+      </c>
+      <c r="O65" s="5">
+        <v>80.646943159911118</v>
+      </c>
       <c r="P65" s="4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S65" s="5">
-        <v>960.01974333662383</v>
+        <v>1090.5527244217953</v>
       </c>
       <c r="T65" s="5">
-        <v>859.986328125</v>
+        <v>916.9642333984375</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A66" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C66" s="5">
-        <v>208828064</v>
+        <v>207114832</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="5">
-        <v>4469679.5</v>
+        <v>1572109.625</v>
       </c>
       <c r="G66" s="5">
-        <v>2.9661016464233398</v>
+        <v>5.8957595825195312</v>
       </c>
       <c r="H66" s="5">
-        <v>-4.3412354416591299</v>
+        <v>1.8717428391226592</v>
       </c>
       <c r="I66" s="5">
-        <v>-14.709032357908303</v>
+        <v>0.46752555692291003</v>
       </c>
       <c r="J66" s="5">
-        <v>-3.8967849243215169</v>
+        <v>3.8621779252090004E-2</v>
       </c>
       <c r="K66" s="5">
-        <v>-27.050343582237566</v>
+        <v>-1.8194591188669511</v>
       </c>
       <c r="L66" s="5">
-        <v>31.304771924858699</v>
+        <v>6.4095205651811824</v>
       </c>
       <c r="M66" s="5">
-        <v>-30.71497818751866</v>
+        <v>-5.3630178587839801</v>
       </c>
       <c r="N66" s="5">
-        <v>38.356174703213085</v>
-      </c>
-      <c r="O66" s="5">
-        <v>120.42998240948731</v>
-      </c>
+        <v>-3.3693369727259999</v>
+      </c>
+      <c r="O66" s="5"/>
       <c r="P66" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q66" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="Q66" s="4"/>
       <c r="R66" s="4" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="S66" s="5">
-        <v>4.6771184674018205</v>
+        <v>960.01974333662383</v>
       </c>
       <c r="T66" s="5">
-        <v>3.102585077285767</v>
+        <v>859.986328125</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A67" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C67" s="5">
-        <v>178299616</v>
+        <v>199631168</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>126</v>
@@ -5232,56 +5237,60 @@
         <v>24</v>
       </c>
       <c r="F67" s="5">
-        <v>6969893.5</v>
-      </c>
-      <c r="G67" s="5"/>
+        <v>4463121</v>
+      </c>
+      <c r="G67" s="5">
+        <v>2.96861743927002</v>
+      </c>
       <c r="H67" s="5">
-        <v>-3.7467497368985141</v>
+        <v>-0.13673353560781401</v>
       </c>
       <c r="I67" s="5">
-        <v>-12.581230642607199</v>
+        <v>-9.9857883886320664</v>
       </c>
       <c r="J67" s="5">
-        <v>-9.6795821135704507</v>
+        <v>-5.8577720964465012</v>
       </c>
       <c r="K67" s="5">
-        <v>-38.118605886918203</v>
+        <v>-27.993432626103697</v>
       </c>
       <c r="L67" s="5">
-        <v>54.30427935658961</v>
+        <v>32.715258579669481</v>
       </c>
       <c r="M67" s="5">
-        <v>-42.71760452758695</v>
+        <v>-30.809714047489511</v>
       </c>
       <c r="N67" s="5">
-        <v>97.907230487597758</v>
+        <v>37.092184903882199</v>
       </c>
       <c r="O67" s="5">
-        <v>99.492181368554228</v>
+        <v>120.12858070099917</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q67" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="R67" s="4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="S67" s="5">
-        <v>0.22635182608908702</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T67" s="5">
-        <v>0.12305168062448502</v>
+        <v>3.0983428955078129</v>
       </c>
     </row>
     <row r="68" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A68" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C68" s="5">
-        <v>124368848</v>
+        <v>171506480</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>126</v>
@@ -5290,56 +5299,56 @@
         <v>24</v>
       </c>
       <c r="F68" s="5">
-        <v>1613797.5</v>
+        <v>6914993.5</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5">
-        <v>7.6006108809073334</v>
+        <v>-1.3334161764583461</v>
       </c>
       <c r="I68" s="5">
-        <v>6.4715853865118023</v>
+        <v>-10.724406795225782</v>
       </c>
       <c r="J68" s="5">
-        <v>18.538566485928598</v>
+        <v>-18.762767981323535</v>
       </c>
       <c r="K68" s="5">
-        <v>4.1402787113544282</v>
+        <v>-38.762973506426668</v>
       </c>
       <c r="L68" s="5">
-        <v>75.887618404288787</v>
+        <v>50.323908287398524</v>
       </c>
       <c r="M68" s="5">
-        <v>3.301449433841674</v>
+        <v>-43.481417255078945</v>
       </c>
       <c r="N68" s="5">
-        <v>204.82143211946826</v>
+        <v>91.488222474913613</v>
       </c>
       <c r="O68" s="5">
-        <v>114.38888469806759</v>
+        <v>96.832120351416307</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="S68" s="5">
-        <v>0.21302626225358301</v>
+        <v>0.22635182608908702</v>
       </c>
       <c r="T68" s="5">
-        <v>0.19982752203941301</v>
+        <v>0.12141088396310801</v>
       </c>
     </row>
     <row r="69" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A69" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C69" s="5">
-        <v>103186176</v>
+        <v>133733776</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>126</v>
@@ -5348,58 +5357,56 @@
         <v>24</v>
       </c>
       <c r="F69" s="5">
-        <v>1091145.375</v>
+        <v>1908895.375</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5">
-        <v>-4.1454218454181628</v>
+        <v>0.21098755658912602</v>
       </c>
       <c r="I69" s="5">
-        <v>-6.8916771680465843</v>
+        <v>8.541893468383277</v>
       </c>
       <c r="J69" s="5">
-        <v>-2.02443923440021</v>
+        <v>19.572172776235131</v>
       </c>
       <c r="K69" s="5">
-        <v>-35.775574663405507</v>
+        <v>-0.6103914279490531</v>
       </c>
       <c r="L69" s="5">
-        <v>7.8053024052234576</v>
+        <v>75.572507312094444</v>
       </c>
       <c r="M69" s="5">
-        <v>-36.39745235368035</v>
+        <v>3.519402637923275</v>
       </c>
       <c r="N69" s="5">
-        <v>-13.04535003756383</v>
+        <v>206.06324126062586</v>
       </c>
       <c r="O69" s="5">
-        <v>-14.808815311760659</v>
+        <v>114.8412185674907</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Q69" s="4"/>
       <c r="R69" s="4" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="S69" s="5">
-        <v>0.50722271559797205</v>
+        <v>0.21302626225358301</v>
       </c>
       <c r="T69" s="5">
-        <v>0.29500854015350303</v>
+        <v>0.20024912059307101</v>
       </c>
     </row>
     <row r="70" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A70" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C70" s="5">
-        <v>103092240</v>
+        <v>101423312</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>126</v>
@@ -5408,45 +5415,45 @@
         <v>24</v>
       </c>
       <c r="F70" s="5">
-        <v>2325551.5</v>
+        <v>2377656.5</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5">
-        <v>-1.5542277537780369</v>
+        <v>2.598892269086051</v>
       </c>
       <c r="I70" s="5">
-        <v>15.162517271940846</v>
+        <v>15.520430687339459</v>
       </c>
       <c r="J70" s="5">
-        <v>33.128438878042488</v>
+        <v>38.472856433758551</v>
       </c>
       <c r="K70" s="5">
-        <v>64.404230248408155</v>
+        <v>65.052479012789945</v>
       </c>
       <c r="L70" s="5">
-        <v>173.95326089999054</v>
+        <v>184.85182697542629</v>
       </c>
       <c r="M70" s="5">
-        <v>58.517380696915033</v>
+        <v>62.637076649004861</v>
       </c>
       <c r="N70" s="5">
-        <v>558.78866231750897</v>
+        <v>555.3882884717525</v>
       </c>
       <c r="O70" s="5">
-        <v>829.37699983130346</v>
+        <v>853.53050683058291</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q70" s="4"/>
       <c r="R70" s="4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="S70" s="5">
         <v>2.7146606660452282</v>
       </c>
       <c r="T70" s="5">
-        <v>2.5378093719482422</v>
+        <v>2.6037642955780029</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\22.03.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\23.03.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -120,36 +120,36 @@
     <t>AUD</t>
   </si>
   <si>
+    <t>LAND LN Equity</t>
+  </si>
+  <si>
+    <t>LAND SECURITIES</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>04/06/2023</t>
+  </si>
+  <si>
+    <t>GBp</t>
+  </si>
+  <si>
+    <t>GPT AU Equity</t>
+  </si>
+  <si>
+    <t>GPT GROUP</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
     <t>MGR AU Equity</t>
   </si>
   <si>
     <t>MIRVAC GROUP</t>
   </si>
   <si>
-    <t>LAND LN Equity</t>
-  </si>
-  <si>
-    <t>LAND SECURITIES</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>04/06/2023</t>
-  </si>
-  <si>
-    <t>GBp</t>
-  </si>
-  <si>
-    <t>GPT AU Equity</t>
-  </si>
-  <si>
-    <t>GPT GROUP</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
     <t>3462 JP Equity</t>
   </si>
   <si>
@@ -315,7 +315,7 @@
     <t>CHARTER HLW REIT</t>
   </si>
   <si>
-    <t>02/14/2023</t>
+    <t>05/15/2023</t>
   </si>
   <si>
     <t>3295 JP Equity</t>
@@ -324,15 +324,15 @@
     <t>HULIC REIT INC</t>
   </si>
   <si>
+    <t>ABP AU Equity</t>
+  </si>
+  <si>
+    <t>ABACUS PROPERTY</t>
+  </si>
+  <si>
     <t>GOZ AU Equity</t>
   </si>
   <si>
-    <t>ABP AU Equity</t>
-  </si>
-  <si>
-    <t>ABACUS PROPERTY</t>
-  </si>
-  <si>
     <t>8956 JP Equity</t>
   </si>
   <si>
@@ -393,6 +393,15 @@
     <t>CNY</t>
   </si>
   <si>
+    <t>AAT US Equity</t>
+  </si>
+  <si>
+    <t>AMERICAN ASSETS</t>
+  </si>
+  <si>
+    <t>03/23/2023</t>
+  </si>
+  <si>
     <t>ZRGYO TI Equity</t>
   </si>
   <si>
@@ -408,36 +417,27 @@
     <t>TRY</t>
   </si>
   <si>
-    <t>AAT US Equity</t>
-  </si>
-  <si>
-    <t>AMERICAN ASSETS</t>
-  </si>
-  <si>
-    <t>03/23/2023</t>
-  </si>
-  <si>
     <t>3296 JP Equity</t>
   </si>
   <si>
     <t>NIPPON REIT INVE</t>
   </si>
   <si>
+    <t>ESRT US Equity</t>
+  </si>
+  <si>
+    <t>EMPIRE STATE REA</t>
+  </si>
+  <si>
+    <t>03/31/2023</t>
+  </si>
+  <si>
     <t>AHH US Equity</t>
   </si>
   <si>
     <t>ARMADA HOFFLER P</t>
   </si>
   <si>
-    <t>ESRT US Equity</t>
-  </si>
-  <si>
-    <t>EMPIRE STATE REA</t>
-  </si>
-  <si>
-    <t>03/31/2023</t>
-  </si>
-  <si>
     <t>RIT1 IT Equity</t>
   </si>
   <si>
@@ -495,6 +495,12 @@
     <t>TWD</t>
   </si>
   <si>
+    <t>8977 JP Equity</t>
+  </si>
+  <si>
+    <t>HANKYU HANSHIN R</t>
+  </si>
+  <si>
     <t>BCPT LN Equity</t>
   </si>
   <si>
@@ -507,175 +513,169 @@
     <t>Income</t>
   </si>
   <si>
-    <t>8977 JP Equity</t>
-  </si>
-  <si>
-    <t>HANKYU HANSHIN R</t>
+    <t>AX-U CN Equity</t>
+  </si>
+  <si>
+    <t>ARTIS REAL ESTAT</t>
+  </si>
+  <si>
+    <t>STAR US Equity</t>
+  </si>
+  <si>
+    <t>ISTAR INC</t>
+  </si>
+  <si>
+    <t>09/15/2022</t>
+  </si>
+  <si>
+    <t>ARG NZ Equity</t>
+  </si>
+  <si>
+    <t>ARGOSY PROPERTY</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>03/29/2023</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>DGGYO TI Equity</t>
+  </si>
+  <si>
+    <t>DOGUS GAYRIMENKU</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
+    <t>GOOD US Equity</t>
+  </si>
+  <si>
+    <t>GLADSTONE COMMER</t>
+  </si>
+  <si>
+    <t>OZKGY TI Equity</t>
+  </si>
+  <si>
+    <t>OZAK GAYRIMENKUL</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>OLP US Equity</t>
+  </si>
+  <si>
+    <t>ONE LIBERTY PROP</t>
+  </si>
+  <si>
+    <t>ISGYO TI Equity</t>
+  </si>
+  <si>
+    <t>IS GAYRIMENKUL Y</t>
+  </si>
+  <si>
+    <t>SLARL IT Equity</t>
+  </si>
+  <si>
+    <t>SELLA CAPITAL RE</t>
+  </si>
+  <si>
+    <t>03/21/2023</t>
+  </si>
+  <si>
+    <t>3492 JP Equity</t>
+  </si>
+  <si>
+    <t>TAKARA LEBEN REA</t>
+  </si>
+  <si>
+    <t>SRVGY TI Equity</t>
+  </si>
+  <si>
+    <t>SERVET GAYRIMENK</t>
+  </si>
+  <si>
+    <t>11/25/2019</t>
+  </si>
+  <si>
+    <t>CTO US Equity</t>
+  </si>
+  <si>
+    <t>CTO REALTY GROWT</t>
+  </si>
+  <si>
+    <t>NXDT US Equity</t>
+  </si>
+  <si>
+    <t>NEXPOINT DIVERSI</t>
+  </si>
+  <si>
+    <t>PSGYO TI Equity</t>
+  </si>
+  <si>
+    <t>PASIFIK GAYRIMEN</t>
+  </si>
+  <si>
+    <t>MNRT IT Equity</t>
+  </si>
+  <si>
+    <t>MENIVIM</t>
+  </si>
+  <si>
+    <t>04/03/2023</t>
+  </si>
+  <si>
+    <t>2971 JP Equity</t>
+  </si>
+  <si>
+    <t>ESCON JAPAN REIT</t>
+  </si>
+  <si>
+    <t>PINE US Equity</t>
+  </si>
+  <si>
+    <t>ALPINE INCOME</t>
+  </si>
+  <si>
+    <t>AKSGY TI Equity</t>
+  </si>
+  <si>
+    <t>AKIS GAYRIMENKUL</t>
+  </si>
+  <si>
+    <t>3470 JP Equity</t>
+  </si>
+  <si>
+    <t>MARIMO REGIONAL</t>
+  </si>
+  <si>
+    <t>2989 JP Equity</t>
+  </si>
+  <si>
+    <t>TOKAIDO REIT INC</t>
+  </si>
+  <si>
+    <t>ALGYO TI Equity</t>
+  </si>
+  <si>
+    <t>ALARKO GAYRIMENK</t>
+  </si>
+  <si>
+    <t>04/27/2023</t>
+  </si>
+  <si>
+    <t>KLGYO TI Equity</t>
+  </si>
+  <si>
+    <t>KILER GAYRIMENKU</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>AX-U CN Equity</t>
-  </si>
-  <si>
-    <t>ARTIS REAL ESTAT</t>
-  </si>
-  <si>
-    <t>STAR US Equity</t>
-  </si>
-  <si>
-    <t>ISTAR INC</t>
-  </si>
-  <si>
-    <t>09/15/2022</t>
-  </si>
-  <si>
-    <t>ARG NZ Equity</t>
-  </si>
-  <si>
-    <t>ARGOSY PROPERTY</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>03/29/2023</t>
-  </si>
-  <si>
-    <t>NZD</t>
-  </si>
-  <si>
-    <t>DGGYO TI Equity</t>
-  </si>
-  <si>
-    <t>DOGUS GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>Omitted</t>
-  </si>
-  <si>
-    <t>GOOD US Equity</t>
-  </si>
-  <si>
-    <t>GLADSTONE COMMER</t>
-  </si>
-  <si>
-    <t>OZKGY TI Equity</t>
-  </si>
-  <si>
-    <t>OZAK GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>06/04/2013</t>
-  </si>
-  <si>
-    <t>ISGYO TI Equity</t>
-  </si>
-  <si>
-    <t>IS GAYRIMENKUL Y</t>
-  </si>
-  <si>
-    <t>OLP US Equity</t>
-  </si>
-  <si>
-    <t>ONE LIBERTY PROP</t>
-  </si>
-  <si>
-    <t>SLARL IT Equity</t>
-  </si>
-  <si>
-    <t>SELLA CAPITAL RE</t>
-  </si>
-  <si>
-    <t>03/21/2023</t>
-  </si>
-  <si>
-    <t>SRVGY TI Equity</t>
-  </si>
-  <si>
-    <t>SERVET GAYRIMENK</t>
-  </si>
-  <si>
-    <t>11/25/2019</t>
-  </si>
-  <si>
-    <t>3492 JP Equity</t>
-  </si>
-  <si>
-    <t>TAKARA LEBEN REA</t>
-  </si>
-  <si>
-    <t>NXDT US Equity</t>
-  </si>
-  <si>
-    <t>NEXPOINT DIVERSI</t>
-  </si>
-  <si>
-    <t>CTO US Equity</t>
-  </si>
-  <si>
-    <t>CTO REALTY GROWT</t>
-  </si>
-  <si>
-    <t>PSGYO TI Equity</t>
-  </si>
-  <si>
-    <t>PASIFIK GAYRIMEN</t>
-  </si>
-  <si>
-    <t>MNRT IT Equity</t>
-  </si>
-  <si>
-    <t>MENIVIM</t>
-  </si>
-  <si>
-    <t>04/03/2023</t>
-  </si>
-  <si>
-    <t>2971 JP Equity</t>
-  </si>
-  <si>
-    <t>ESCON JAPAN REIT</t>
-  </si>
-  <si>
-    <t>AKSGY TI Equity</t>
-  </si>
-  <si>
-    <t>AKIS GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>PINE US Equity</t>
-  </si>
-  <si>
-    <t>ALPINE INCOME</t>
-  </si>
-  <si>
-    <t>3470 JP Equity</t>
-  </si>
-  <si>
-    <t>MARIMO REGIONAL</t>
-  </si>
-  <si>
-    <t>2989 JP Equity</t>
-  </si>
-  <si>
-    <t>TOKAIDO REIT INC</t>
-  </si>
-  <si>
-    <t>ALGYO TI Equity</t>
-  </si>
-  <si>
-    <t>ALARKO GAYRIMENK</t>
-  </si>
-  <si>
-    <t>04/27/2023</t>
-  </si>
-  <si>
-    <t>KLGYO TI Equity</t>
-  </si>
-  <si>
-    <t>KILER GAYRIMENKU</t>
   </si>
   <si>
     <t>PEKGY TI Equity</t>
@@ -1264,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>16618073088</v>
+        <v>16380070912</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1273,34 +1273,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>73159392</v>
+        <v>74445680</v>
       </c>
       <c r="G2" s="5">
-        <v>5.4879779815673828</v>
+        <v>5.6604776382446289</v>
       </c>
       <c r="H2" s="5">
-        <v>-1.4321988098338181</v>
+        <v>-3.047441454915889</v>
       </c>
       <c r="I2" s="5">
-        <v>-2.0529028356268131</v>
+        <v>-4.701720287621991</v>
       </c>
       <c r="J2" s="5">
-        <v>-5.836057523364846</v>
+        <v>-8.1831478275039675</v>
       </c>
       <c r="K2" s="5">
-        <v>-0.92337344619754003</v>
+        <v>-3.003927020159991</v>
       </c>
       <c r="L2" s="5">
-        <v>-0.72987888297474401</v>
+        <v>-2.00495209284971</v>
       </c>
       <c r="M2" s="5">
-        <v>-0.48625064029802506</v>
+        <v>-3.5188738916266731</v>
       </c>
       <c r="N2" s="5">
-        <v>2.5904997697782983</v>
+        <v>-0.73437543786660808</v>
       </c>
       <c r="O2" s="5">
-        <v>87.353030074815535</v>
+        <v>81.643556169274589</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1315,7 +1315,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>77.769996643066406</v>
+        <v>75.400001525878906</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1326,7 +1326,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6132894720</v>
+        <v>6165061632</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1335,34 +1335,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>28288218</v>
+        <v>29129900</v>
       </c>
       <c r="G3" s="5">
-        <v>6.8482489585876465</v>
+        <v>6.8393783569335938</v>
       </c>
       <c r="H3" s="5">
-        <v>-0.10005361191700601</v>
+        <v>0.285407481497435</v>
       </c>
       <c r="I3" s="5">
-        <v>1.8771586576332271</v>
+        <v>2.0459287136387002E-2</v>
       </c>
       <c r="J3" s="5">
-        <v>-0.70876920348992301</v>
+        <v>-1.127228313622364</v>
       </c>
       <c r="K3" s="5">
-        <v>5.3122559338409481</v>
+        <v>5.6359978176645065</v>
       </c>
       <c r="L3" s="5">
-        <v>19.075241782628805</v>
+        <v>19.558880854745485</v>
       </c>
       <c r="M3" s="5">
-        <v>3.540901750985026</v>
+        <v>3.8364152309922521</v>
       </c>
       <c r="N3" s="5">
-        <v>-11.864040463794634</v>
+        <v>-10.55757033009721</v>
       </c>
       <c r="O3" s="5">
-        <v>146.34798711920115</v>
+        <v>147.05108270495774</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1377,7 +1377,7 @@
         <v>3.3020850141715812</v>
       </c>
       <c r="T3" s="5">
-        <v>2.562944889068604</v>
+        <v>2.570259809494019</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1388,131 +1388,131 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5555783168</v>
+        <v>5588888064</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>24812570</v>
+        <v>13872839</v>
       </c>
       <c r="G4" s="5">
-        <v>4.8470587730407715</v>
+        <v>6.7073168754577637</v>
       </c>
       <c r="H4" s="5">
-        <v>-0.87849402950660505</v>
+        <v>-3.4025423526206522</v>
       </c>
       <c r="I4" s="5">
-        <v>-3.8839840499799272</v>
+        <v>-3.0779571340097012</v>
       </c>
       <c r="J4" s="5">
-        <v>-7.41765606153173</v>
+        <v>-11.105344070727041</v>
       </c>
       <c r="K4" s="5">
-        <v>-1.0266976795702429</v>
+        <v>-1.1883576671652851</v>
       </c>
       <c r="L4" s="5">
-        <v>6.5465813374726345</v>
+        <v>15.81727269726998</v>
       </c>
       <c r="M4" s="5">
-        <v>-3.2923856606166808</v>
+        <v>-2.5440777157573309</v>
       </c>
       <c r="N4" s="5">
-        <v>-20.855804369917095</v>
+        <v>-25.782510801828217</v>
       </c>
       <c r="O4" s="5">
-        <v>37.305473570979416</v>
+        <v>15.723576084962755</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="S4" s="5">
-        <v>1.9528599562626601</v>
+        <v>10.679378389371825</v>
       </c>
       <c r="T4" s="5">
-        <v>1.4046269655227661</v>
+        <v>7.2306289672851562</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5552071680</v>
+        <v>5461119488</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>13760768</v>
+        <v>23278556</v>
       </c>
       <c r="G5" s="5">
-        <v>6.4558196067810059</v>
+        <v>5.8754405975341797</v>
       </c>
       <c r="H5" s="5">
-        <v>-0.39992513765873006</v>
+        <v>-0.88070630445135112</v>
       </c>
       <c r="I5" s="5">
-        <v>-2.5176157975129621</v>
+        <v>-5.6036386812836625</v>
       </c>
       <c r="J5" s="5">
-        <v>-8.9706483944356314</v>
+        <v>-10.378559269302723</v>
       </c>
       <c r="K5" s="5">
-        <v>1.5232337132620621</v>
+        <v>0.97880861701342703</v>
       </c>
       <c r="L5" s="5">
-        <v>13.394623847317533</v>
+        <v>9.0410226069911115</v>
       </c>
       <c r="M5" s="5">
-        <v>0.88870313750601904</v>
+        <v>-0.93157335129993002</v>
       </c>
       <c r="N5" s="5">
-        <v>-21.25552147030718</v>
+        <v>-18.326262247414761</v>
       </c>
       <c r="O5" s="5">
-        <v>19.799815547321799</v>
+        <v>75.129503153148633</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S5" s="5">
-        <v>10.679378389371825</v>
+        <v>4.000457090394316</v>
       </c>
       <c r="T5" s="5">
-        <v>7.4853200912475586</v>
+        <v>2.8372998237609863</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5">
-        <v>5496538624</v>
+        <v>5452578816</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1521,37 +1521,37 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>22963372</v>
+        <v>26615642</v>
       </c>
       <c r="G6" s="5">
-        <v>5.8207216262817383</v>
+        <v>4.9638552665710449</v>
       </c>
       <c r="H6" s="5">
-        <v>-0.64743627761119105</v>
+        <v>-2.0910218272188419</v>
       </c>
       <c r="I6" s="5">
-        <v>-4.2479871417838586</v>
+        <v>-6.6444632460077369</v>
       </c>
       <c r="J6" s="5">
-        <v>-9.9413375927669083</v>
+        <v>-9.6135559684351275</v>
       </c>
       <c r="K6" s="5">
-        <v>2.018550099498762</v>
+        <v>-3.8868083264419928</v>
       </c>
       <c r="L6" s="5">
-        <v>9.8775814429629563</v>
+        <v>4.4442806704243498</v>
       </c>
       <c r="M6" s="5">
-        <v>-5.1319016663720005E-2</v>
+        <v>-5.3145629850358089</v>
       </c>
       <c r="N6" s="5">
-        <v>-18.484057086388972</v>
+        <v>-21.831631495914461</v>
       </c>
       <c r="O6" s="5">
-        <v>76.685584232541331</v>
+        <v>34.434386148644045</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>31</v>
@@ -1560,10 +1560,10 @@
         <v>32</v>
       </c>
       <c r="S6" s="5">
-        <v>4.000457090394316</v>
+        <v>1.9528599562626601</v>
       </c>
       <c r="T6" s="5">
-        <v>2.862510204315186</v>
+        <v>1.375255942344666</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1574,7 +1574,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5197605888</v>
+        <v>5301857280</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1583,34 +1583,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>14123244</v>
+        <v>14574364</v>
       </c>
       <c r="G7" s="5">
-        <v>4.6570839881896973</v>
+        <v>4.6160106658935547</v>
       </c>
       <c r="H7" s="5">
-        <v>-0.47558217462416702</v>
+        <v>0.85934990281273405</v>
       </c>
       <c r="I7" s="5">
-        <v>-1.0573019308817271</v>
+        <v>-0.7373036604502391</v>
       </c>
       <c r="J7" s="5">
-        <v>-0.280623090456389</v>
+        <v>0.64032313534543306</v>
       </c>
       <c r="K7" s="5">
-        <v>-6.0152973443728497</v>
+        <v>-7.8859049569464323</v>
       </c>
       <c r="L7" s="5">
-        <v>-3.1577027754412619</v>
+        <v>-3.3808243906277351</v>
       </c>
       <c r="M7" s="5">
-        <v>-9.4078002811135661</v>
+        <v>-8.6292963008734009</v>
       </c>
       <c r="N7" s="5">
-        <v>-11.951505959822228</v>
+        <v>-12.704122628895531</v>
       </c>
       <c r="O7" s="5">
-        <v>77.135962340615947</v>
+        <v>77.525292511060059</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>46</v>
@@ -1623,7 +1623,7 @@
         <v>1366.6940114848237</v>
       </c>
       <c r="T7" s="5">
-        <v>1109.9293212890625</v>
+        <v>1112.368896484375</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1634,7 +1634,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>4828104704</v>
+        <v>4865656832</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1643,34 +1643,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>9367364</v>
+        <v>9787975</v>
       </c>
       <c r="G8" s="5">
-        <v>2.6428570747375488</v>
+        <v>2.601925373077393</v>
       </c>
       <c r="H8" s="5">
-        <v>0.79144070020613611</v>
+        <v>2.4066574379756123</v>
       </c>
       <c r="I8" s="5">
-        <v>-5.9794648322855304</v>
+        <v>-7.9501230450640011E-3</v>
       </c>
       <c r="J8" s="5">
-        <v>-9.9252368970329066</v>
+        <v>-8.5843500871348617</v>
       </c>
       <c r="K8" s="5">
-        <v>7.5106934783829349</v>
+        <v>10.003406606615449</v>
       </c>
       <c r="L8" s="5">
-        <v>19.272173901558332</v>
+        <v>22.173506834054081</v>
       </c>
       <c r="M8" s="5">
-        <v>11.704802080917421</v>
+        <v>14.393154008773767</v>
       </c>
       <c r="N8" s="5">
-        <v>23.887915140574158</v>
+        <v>29.049099822195458</v>
       </c>
       <c r="O8" s="5">
-        <v>118.15048652984972</v>
+        <v>123.40062143990033</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1685,7 +1685,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.259471535682678</v>
+        <v>1.289782643318176</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1696,7 +1696,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4670107136</v>
+        <v>4776626688</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1705,34 +1705,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>10293282</v>
+        <v>10751491</v>
       </c>
       <c r="G9" s="5">
-        <v>4.1979012489318848</v>
+        <v>4.1496849060058594</v>
       </c>
       <c r="H9" s="5">
-        <v>-0.73707796233518608</v>
+        <v>1.131385304146781</v>
       </c>
       <c r="I9" s="5">
-        <v>-1.80367922678849</v>
+        <v>-1.3110383392537339</v>
       </c>
       <c r="J9" s="5">
-        <v>0.60571675529328406</v>
+        <v>0.45585282434976704</v>
       </c>
       <c r="K9" s="5">
-        <v>-3.176523800298614</v>
+        <v>-5.5584404059067394</v>
       </c>
       <c r="L9" s="5">
-        <v>-6.0363809172214733</v>
+        <v>-6.2428729404920063</v>
       </c>
       <c r="M9" s="5">
-        <v>-8.2567703643671599</v>
+        <v>-7.218800946719961</v>
       </c>
       <c r="N9" s="5">
-        <v>-21.445110543566827</v>
+        <v>-21.19558555855965</v>
       </c>
       <c r="O9" s="5">
-        <v>39.032430027274501</v>
+        <v>39.713830908727132</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1745,7 +1745,7 @@
         <v>2802.4439918533603</v>
       </c>
       <c r="T9" s="5">
-        <v>2026.8935546875</v>
+        <v>2036.827392578125</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1756,43 +1756,43 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4529909248</v>
+        <v>4543748608</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>13433066</v>
+        <v>13308164</v>
       </c>
       <c r="G10" s="5">
-        <v>5.8159942626953134</v>
+        <v>6.1866669654846191</v>
       </c>
       <c r="H10" s="5">
-        <v>-0.75375040857765807</v>
+        <v>-5.6525087415665194</v>
       </c>
       <c r="I10" s="5">
-        <v>-2.6728691906736213</v>
+        <v>-6.3796903036876458</v>
       </c>
       <c r="J10" s="5">
-        <v>-8.6349196880659669</v>
+        <v>-12.918235815005874</v>
       </c>
       <c r="K10" s="5">
-        <v>2.6021094386265098</v>
+        <v>-2.4635866557935042</v>
       </c>
       <c r="L10" s="5">
-        <v>11.162090781183952</v>
+        <v>10.740751857784447</v>
       </c>
       <c r="M10" s="5">
-        <v>1.8380390506542501</v>
+        <v>-3.918365008923919</v>
       </c>
       <c r="N10" s="5">
-        <v>-24.280158031075526</v>
+        <v>-29.999563128994676</v>
       </c>
       <c r="O10" s="5">
-        <v>28.40823666421408</v>
+        <v>21.14994986187795</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1801,13 +1801,13 @@
         <v>58</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S10" s="5">
         <v>7.1818816476984253</v>
       </c>
       <c r="T10" s="5">
-        <v>4.8677763938903809</v>
+        <v>4.5926251411437988</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1818,7 +1818,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4166441472</v>
+        <v>4169128960</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1827,34 +1827,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>8313467.5</v>
+        <v>8604279</v>
       </c>
       <c r="G11" s="5">
-        <v>1.985294103622437</v>
+        <v>2.065009593963623</v>
       </c>
       <c r="H11" s="5">
-        <v>-0.46688815575470805</v>
+        <v>-3.583422700422279</v>
       </c>
       <c r="I11" s="5">
-        <v>-3.0956913903532719</v>
+        <v>-3.2928301486816252</v>
       </c>
       <c r="J11" s="5">
-        <v>-8.7109431112330942</v>
+        <v>-10.719674137781753</v>
       </c>
       <c r="K11" s="5">
-        <v>-6.4317524595400632</v>
+        <v>-9.1352767824298571</v>
       </c>
       <c r="L11" s="5">
-        <v>6.9144638454711425</v>
+        <v>9.5100290307220661</v>
       </c>
       <c r="M11" s="5">
-        <v>-6.5484019539670086</v>
+        <v>-9.8971677322559302</v>
       </c>
       <c r="N11" s="5">
-        <v>-11.877151233183492</v>
+        <v>-17.085775768216838</v>
       </c>
       <c r="O11" s="5">
-        <v>34.133221048922337</v>
+        <v>29.326660757047662</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1869,7 +1869,7 @@
         <v>12.193224623203276</v>
       </c>
       <c r="T11" s="5">
-        <v>8.7834234237670898</v>
+        <v>8.4686775207519531</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1880,7 +1880,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3808628480</v>
+        <v>3734823936</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1889,34 +1889,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>26555492</v>
+        <v>25933774</v>
       </c>
       <c r="G12" s="5">
-        <v>4.5286126136779794</v>
+        <v>4.7332186698913574</v>
       </c>
       <c r="H12" s="5">
-        <v>-1.937826133894482</v>
+        <v>-4.3227711191149769</v>
       </c>
       <c r="I12" s="5">
-        <v>-0.77613819551414209</v>
+        <v>-4.2044536197050286</v>
       </c>
       <c r="J12" s="5">
-        <v>-5.3390449728429541</v>
+        <v>-7.8143569412814973</v>
       </c>
       <c r="K12" s="5">
-        <v>5.5219884637180083</v>
+        <v>1.39587233282974</v>
       </c>
       <c r="L12" s="5">
-        <v>13.912386536699062</v>
+        <v>11.173051063066453</v>
       </c>
       <c r="M12" s="5">
-        <v>3.493828828986234</v>
+        <v>-0.97997251369946703</v>
       </c>
       <c r="N12" s="5">
-        <v>2.7525017315086719</v>
+        <v>-2.553360528444415</v>
       </c>
       <c r="O12" s="5">
-        <v>120.58466483529662</v>
+        <v>111.04929465059988</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1931,7 +1931,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.290000915527344</v>
+        <v>23.239999771118164</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1942,7 +1942,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3653655040</v>
+        <v>3676348672</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>68</v>
@@ -1951,37 +1951,37 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8398132</v>
+        <v>8536429</v>
       </c>
       <c r="G13" s="5">
-        <v>9.7654495239257812</v>
+        <v>10.079143524169922</v>
       </c>
       <c r="H13" s="5">
-        <v>8.6775156933339009E-2</v>
+        <v>-2.8332900461299331</v>
       </c>
       <c r="I13" s="5">
-        <v>-8.6147378659624287</v>
+        <v>-5.2039231457550734</v>
       </c>
       <c r="J13" s="5">
-        <v>4.9046800017237935</v>
+        <v>3.5015070141442228</v>
       </c>
       <c r="K13" s="5">
-        <v>18.274862289534255</v>
+        <v>14.866604761315072</v>
       </c>
       <c r="L13" s="5">
-        <v>19.132388391011791</v>
+        <v>22.518778556707609</v>
       </c>
       <c r="M13" s="5">
-        <v>15.780218166721616</v>
+        <v>12.499828770016386</v>
       </c>
       <c r="N13" s="5">
-        <v>-14.250721212479201</v>
+        <v>-18.0994657522068</v>
       </c>
       <c r="O13" s="5">
-        <v>-23.98951669879137</v>
+        <v>-26.143114156179781</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
@@ -1991,7 +1991,7 @@
         <v>68.2096266746521</v>
       </c>
       <c r="T13" s="5">
-        <v>47.727577209472656</v>
+        <v>46.375320434570313</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2002,7 +2002,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="5">
-        <v>3601349888</v>
+        <v>3578991872</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -2011,34 +2011,34 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>17083462</v>
+        <v>17272618</v>
       </c>
       <c r="G14" s="5">
-        <v>3.6141729354858398</v>
+        <v>3.6851024627685551</v>
       </c>
       <c r="H14" s="5">
-        <v>0.88995219892433808</v>
+        <v>-0.85719678000091304</v>
       </c>
       <c r="I14" s="5">
-        <v>-5.5382388946574217</v>
+        <v>-5.6330547852908142</v>
       </c>
       <c r="J14" s="5">
-        <v>-18.525089822352705</v>
+        <v>-17.38791149670098</v>
       </c>
       <c r="K14" s="5">
-        <v>-7.7248371328192178</v>
+        <v>-7.4151723722580609</v>
       </c>
       <c r="L14" s="5">
-        <v>-5.1763902853538601</v>
+        <v>-5.8760154808641607</v>
       </c>
       <c r="M14" s="5">
-        <v>-7.0206083962901404</v>
+        <v>-7.8176247471815854</v>
       </c>
       <c r="N14" s="5">
-        <v>-33.265436668075246</v>
+        <v>-33.860634298083838</v>
       </c>
       <c r="O14" s="5">
-        <v>98.251423808424576</v>
+        <v>96.552018987232785</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>30</v>
@@ -2053,7 +2053,7 @@
         <v>12.790835624888677</v>
       </c>
       <c r="T14" s="5">
-        <v>7.595637321472168</v>
+        <v>7.5305275917053223</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2064,7 +2064,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="5">
-        <v>3258967808</v>
+        <v>3328107520</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -2073,34 +2073,34 @@
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7777620.5</v>
+        <v>8096724</v>
       </c>
       <c r="G15" s="5">
-        <v>4.5394549369812012</v>
+        <v>4.4943180084228525</v>
       </c>
       <c r="H15" s="5">
-        <v>0.7756213100405861</v>
+        <v>0.97381799730831309</v>
       </c>
       <c r="I15" s="5">
-        <v>-3.9880901925785421</v>
+        <v>-2.2311313194897209</v>
       </c>
       <c r="J15" s="5">
-        <v>-5.7892164507887038</v>
+        <v>-4.2984547301940124</v>
       </c>
       <c r="K15" s="5">
-        <v>-2.933429583382297</v>
+        <v>-4.7507640940086642</v>
       </c>
       <c r="L15" s="5">
-        <v>-0.20364612633782</v>
+        <v>0.42707855311432402</v>
       </c>
       <c r="M15" s="5">
-        <v>-8.4570932939016288</v>
+        <v>-7.5656319931384886</v>
       </c>
       <c r="N15" s="5">
-        <v>-0.80843621069114402</v>
+        <v>-1.468992446816952</v>
       </c>
       <c r="O15" s="5">
-        <v>70.891248305976262</v>
+        <v>71.461228649583489</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
@@ -2113,7 +2113,7 @@
         <v>1195.2420016406891</v>
       </c>
       <c r="T15" s="5">
-        <v>1059.029052734375</v>
+        <v>1062.561279296875</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2124,7 +2124,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="5">
-        <v>3157718784</v>
+        <v>3144678144</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -2133,31 +2133,31 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>16932222</v>
+        <v>17476984</v>
       </c>
       <c r="G16" s="5">
-        <v>6.5165882110595703</v>
+        <v>6.6991477012634277</v>
       </c>
       <c r="H16" s="5">
-        <v>-0.41298878479054701</v>
+        <v>-2.725113195158269</v>
       </c>
       <c r="I16" s="5">
-        <v>-0.47169768882414603</v>
+        <v>-3.468548763368684</v>
       </c>
       <c r="J16" s="5">
-        <v>-5.698326701123257</v>
+        <v>-7.1791996575613855</v>
       </c>
       <c r="K16" s="5">
-        <v>2.600921555340574</v>
+        <v>-0.49246285058142103</v>
       </c>
       <c r="L16" s="5">
-        <v>-4.6991599078304302</v>
+        <v>-5.3336943100098289</v>
       </c>
       <c r="M16" s="5">
-        <v>4.1332517836828897</v>
+        <v>1.295502798778347</v>
       </c>
       <c r="N16" s="5">
-        <v>-17.121809381812593</v>
+        <v>-19.417620497152544</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="4" t="s">
@@ -2173,7 +2173,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T16" s="5">
-        <v>16.879999160766602</v>
+        <v>16.420000076293945</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2184,7 +2184,7 @@
         <v>76</v>
       </c>
       <c r="C17" s="5">
-        <v>3064966912</v>
+        <v>3085035520</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>77</v>
@@ -2193,34 +2193,34 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>10307221</v>
+        <v>10698578</v>
       </c>
       <c r="G17" s="5">
-        <v>5.6056337356567383</v>
+        <v>5.5664339065551758</v>
       </c>
       <c r="H17" s="5">
-        <v>2.2427662016722003E-2</v>
+        <v>0.33751166184246001</v>
       </c>
       <c r="I17" s="5">
-        <v>1.2437056209537061</v>
+        <v>2.114154120784018</v>
       </c>
       <c r="J17" s="5">
-        <v>2.2269965410031789</v>
+        <v>3.3693246045801479</v>
       </c>
       <c r="K17" s="5">
-        <v>6.2466161415305255</v>
+        <v>6.7471329842706318</v>
       </c>
       <c r="L17" s="5">
-        <v>-3.7771591377495533</v>
+        <v>-2.6774585747783459</v>
       </c>
       <c r="M17" s="5">
-        <v>4.4547849681648266</v>
+        <v>4.8073320487848292</v>
       </c>
       <c r="N17" s="5">
-        <v>-10.148796683360306</v>
+        <v>-10.379361444322644</v>
       </c>
       <c r="O17" s="5">
-        <v>53.184542141494397</v>
+        <v>53.701557835361903</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>78</v>
@@ -2235,7 +2235,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T17" s="5">
-        <v>1.061444163322449</v>
+        <v>1.065026640892029</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2246,7 +2246,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="5">
-        <v>2495612160</v>
+        <v>2493977088</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>82</v>
@@ -2255,34 +2255,34 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9413815</v>
+        <v>9381686</v>
       </c>
       <c r="G18" s="5">
-        <v>4.8115477561950684</v>
+        <v>4.9140048027038574</v>
       </c>
       <c r="H18" s="5">
-        <v>-0.38606904119165003</v>
+        <v>-2.1491572372584922</v>
       </c>
       <c r="I18" s="5">
-        <v>-3.1174376464524478</v>
+        <v>-3.4682921243726179</v>
       </c>
       <c r="J18" s="5">
-        <v>-5.6073024176948696</v>
+        <v>-7.5608018006515625</v>
       </c>
       <c r="K18" s="5">
-        <v>2.985622332474569</v>
+        <v>1.102574721001526</v>
       </c>
       <c r="L18" s="5">
-        <v>6.2881839973877529</v>
+        <v>7.5967430578033124</v>
       </c>
       <c r="M18" s="5">
-        <v>2.2640902714887718</v>
+        <v>6.6274174302516003E-2</v>
       </c>
       <c r="N18" s="5">
-        <v>-9.1752147889933582</v>
+        <v>-11.514835711004379</v>
       </c>
       <c r="O18" s="5">
-        <v>117.30056207878432</v>
+        <v>112.63043132226476</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>25</v>
@@ -2297,7 +2297,7 @@
         <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>9.0836248397827148</v>
+        <v>8.8884038925170898</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2308,7 +2308,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="5">
-        <v>2351943680</v>
+        <v>2396674816</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>86</v>
@@ -2317,34 +2317,34 @@
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>9755308</v>
+        <v>9940841</v>
       </c>
       <c r="G19" s="5">
-        <v>10.314465522766113</v>
+        <v>10.43755054473877</v>
       </c>
       <c r="H19" s="5">
-        <v>-3.0937796831415731</v>
+        <v>0.11386299340954101</v>
       </c>
       <c r="I19" s="5">
-        <v>-3.7979353235796931</v>
+        <v>0.18705066042628002</v>
       </c>
       <c r="J19" s="5">
-        <v>-9.6914808234787273</v>
+        <v>-8.4575020134824985</v>
       </c>
       <c r="K19" s="5">
-        <v>-15.925937873170293</v>
+        <v>-18.121179769844275</v>
       </c>
       <c r="L19" s="5">
-        <v>-5.9354386636290002E-3</v>
+        <v>1.289712091776773</v>
       </c>
       <c r="M19" s="5">
-        <v>-19.777659274847537</v>
+        <v>-19.686315716314684</v>
       </c>
       <c r="N19" s="5">
-        <v>-21.526485356296586</v>
+        <v>-23.096827637717876</v>
       </c>
       <c r="O19" s="5">
-        <v>23.560799211169225</v>
+        <v>23.220143630695599</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>30</v>
@@ -2359,7 +2359,7 @@
         <v>1.0297254546268939</v>
       </c>
       <c r="T19" s="5">
-        <v>0.68724066019058205</v>
+        <v>0.68534600734710704</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2370,7 +2370,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="5">
-        <v>2267765760</v>
+        <v>2336300032</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -2379,34 +2379,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>5596131.5</v>
+        <v>5928518.5</v>
       </c>
       <c r="G20" s="5">
-        <v>4.9008746147155762</v>
+        <v>4.8097281455993652</v>
       </c>
       <c r="H20" s="5">
-        <v>-0.67168736810747609</v>
+        <v>1.864288716171236</v>
       </c>
       <c r="I20" s="5">
-        <v>-2.5171421684103019</v>
+        <v>-0.5880248294846121</v>
       </c>
       <c r="J20" s="5">
-        <v>-0.62468039796035302</v>
+        <v>0.96071221955829111</v>
       </c>
       <c r="K20" s="5">
-        <v>-8.4938972392684668</v>
+        <v>-9.1781849566924922</v>
       </c>
       <c r="L20" s="5">
-        <v>-9.4125303355511285</v>
+        <v>-9.3155074610742119</v>
       </c>
       <c r="M20" s="5">
-        <v>-9.0563910395591201</v>
+        <v>-7.3609395996307221</v>
       </c>
       <c r="N20" s="5">
-        <v>-15.538408717399111</v>
+        <v>-14.978976764040342</v>
       </c>
       <c r="O20" s="5">
-        <v>39.784168830501358</v>
+        <v>41.487240604302315</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2419,7 +2419,7 @@
         <v>674.54175152749485</v>
       </c>
       <c r="T20" s="5">
-        <v>521.15777587890625</v>
+        <v>527.50738525390625</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2430,7 +2430,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="5">
-        <v>2225446912</v>
+        <v>2277956096</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>45</v>
@@ -2439,34 +2439,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>6517894</v>
+        <v>6857096.5</v>
       </c>
       <c r="G21" s="5">
-        <v>5.123967170715332</v>
+        <v>5.0612244606018066</v>
       </c>
       <c r="H21" s="5">
-        <v>-1.021473739676082</v>
+        <v>1.209112217730768</v>
       </c>
       <c r="I21" s="5">
-        <v>-2.1905505828134002</v>
+        <v>-0.5397236025817761</v>
       </c>
       <c r="J21" s="5">
-        <v>-3.719715980617611</v>
+        <v>-3.315749664761825</v>
       </c>
       <c r="K21" s="5">
-        <v>-8.6606357647071146</v>
+        <v>-10.658166185090522</v>
       </c>
       <c r="L21" s="5">
-        <v>-8.3590345525604075</v>
+        <v>-8.841412466738829</v>
       </c>
       <c r="M21" s="5">
-        <v>-13.075246121780227</v>
+        <v>-12.024228302406282</v>
       </c>
       <c r="N21" s="5">
-        <v>-14.347709919264295</v>
+        <v>-15.506342884688728</v>
       </c>
       <c r="O21" s="5">
-        <v>41.639211117429298</v>
+        <v>42.442781573489107</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2479,7 +2479,7 @@
         <v>3531.5682281059062</v>
       </c>
       <c r="T21" s="5">
-        <v>2757.72998046875</v>
+        <v>2773.37548828125</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2490,43 +2490,43 @@
         <v>94</v>
       </c>
       <c r="C22" s="5">
-        <v>2080761216</v>
+        <v>2087614080</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>8032012.5</v>
+        <v>8058697</v>
       </c>
       <c r="G22" s="5">
-        <v>6.2815341949462891</v>
+        <v>6.4043211936950684</v>
       </c>
       <c r="H22" s="5">
-        <v>-0.73017939686510502</v>
+        <v>-1.563600084440242</v>
       </c>
       <c r="I22" s="5">
-        <v>-2.9522664102633711</v>
+        <v>-2.623361399472357</v>
       </c>
       <c r="J22" s="5">
-        <v>-13.892202898046635</v>
+        <v>-13.515163524526198</v>
       </c>
       <c r="K22" s="5">
-        <v>-11.229229067193502</v>
+        <v>-11.650504553727304</v>
       </c>
       <c r="L22" s="5">
-        <v>-21.073771782677465</v>
+        <v>-16.515803236377803</v>
       </c>
       <c r="M22" s="5">
-        <v>-10.026342869237926</v>
+        <v>-11.433171048108504</v>
       </c>
       <c r="N22" s="5">
-        <v>-33.599711009673761</v>
+        <v>-35.889711070255025</v>
       </c>
       <c r="O22" s="5">
-        <v>16.109442985963128</v>
+        <v>14.293955637391509</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
@@ -2535,13 +2535,13 @@
         <v>95</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S22" s="5">
         <v>1.9808639392</v>
       </c>
       <c r="T22" s="5">
-        <v>1.209317207336426</v>
+        <v>1.19040834903717</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2552,7 +2552,7 @@
         <v>97</v>
       </c>
       <c r="C23" s="5">
-        <v>2069616896</v>
+        <v>2065923328</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2561,34 +2561,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5714207</v>
+        <v>5724386.5</v>
       </c>
       <c r="G23" s="5">
-        <v>6.5192084312438965</v>
+        <v>6.5959954261779794</v>
       </c>
       <c r="H23" s="5">
-        <v>-0.18046150578590001</v>
+        <v>-0.41588283834035306</v>
       </c>
       <c r="I23" s="5">
-        <v>-2.0660399361646209</v>
+        <v>-2.5986257724876389</v>
       </c>
       <c r="J23" s="5">
-        <v>-8.7715134024427428</v>
+        <v>-8.188996882664501</v>
       </c>
       <c r="K23" s="5">
-        <v>-3.3545887810256692</v>
+        <v>-4.0784295079676847</v>
       </c>
       <c r="L23" s="5">
-        <v>4.1823600532007399</v>
+        <v>3.8740092558871231</v>
       </c>
       <c r="M23" s="5">
-        <v>-5.460904716094217</v>
+        <v>-5.8540765889022017</v>
       </c>
       <c r="N23" s="5">
-        <v>-22.240604901888052</v>
+        <v>-23.2700404630802</v>
       </c>
       <c r="O23" s="5">
-        <v>51.956925150698652</v>
+        <v>51.324962377327225</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
@@ -2603,7 +2603,7 @@
         <v>4.1295041516920517</v>
       </c>
       <c r="T23" s="5">
-        <v>2.8558530807495122</v>
+        <v>2.8439760208129883</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2614,7 +2614,7 @@
         <v>100</v>
       </c>
       <c r="C24" s="5">
-        <v>1569941120</v>
+        <v>1609276160</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -2623,34 +2623,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3824363.25</v>
+        <v>3913356.25</v>
       </c>
       <c r="G24" s="5">
-        <v>4.8166089057922363</v>
+        <v>4.7508530616760254</v>
       </c>
       <c r="H24" s="5">
-        <v>-0.48455896547711103</v>
+        <v>1.353482252812888</v>
       </c>
       <c r="I24" s="5">
-        <v>-2.726846160494611</v>
+        <v>-0.81118503833878008</v>
       </c>
       <c r="J24" s="5">
-        <v>-2.0538732637798258</v>
+        <v>-0.79689997695123704</v>
       </c>
       <c r="K24" s="5">
-        <v>-8.121945031956546</v>
+        <v>-9.2547374024831814</v>
       </c>
       <c r="L24" s="5">
-        <v>-6.0317702632167292</v>
+        <v>-5.9618394845803895</v>
       </c>
       <c r="M24" s="5">
-        <v>-10.811939864131103</v>
+        <v>-9.6047952985640279</v>
       </c>
       <c r="N24" s="5">
-        <v>-14.181143272386054</v>
+        <v>-14.091753199038404</v>
       </c>
       <c r="O24" s="5">
-        <v>64.421963685898518</v>
+        <v>65.590659758508124</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2663,7 +2663,7 @@
         <v>1395.4060705496308</v>
       </c>
       <c r="T24" s="5">
-        <v>1097.7740478515625</v>
+        <v>1105.576904296875</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2671,10 +2671,10 @@
         <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C25" s="5">
-        <v>1543593856</v>
+        <v>1528637056</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2683,34 +2683,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1625231.25</v>
+        <v>3016658</v>
       </c>
       <c r="G25" s="5">
-        <v>6.9867548942565918</v>
+        <v>7.1709232330322266</v>
       </c>
       <c r="H25" s="5">
-        <v>-1.2056274036874481</v>
+        <v>-0.10633202664095401</v>
       </c>
       <c r="I25" s="5">
-        <v>-1.2210146176202641</v>
+        <v>-4.1999751292634224</v>
       </c>
       <c r="J25" s="5">
-        <v>-9.6142537622464488</v>
+        <v>-10.890684500630565</v>
       </c>
       <c r="K25" s="5">
-        <v>0.24994972358716203</v>
+        <v>-3.571374031641084</v>
       </c>
       <c r="L25" s="5">
-        <v>-6.0148220158781847</v>
+        <v>-2.6322868218343003E-2</v>
       </c>
       <c r="M25" s="5">
-        <v>-1.065323890602399</v>
+        <v>-5.0751299294377823</v>
       </c>
       <c r="N25" s="5">
-        <v>-33.67785928922202</v>
+        <v>-26.494952800014037</v>
       </c>
       <c r="O25" s="5">
-        <v>45.764909683273537</v>
+        <v>33.962938141068719</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2722,21 +2722,21 @@
         <v>32</v>
       </c>
       <c r="S25" s="5">
-        <v>3.362812957848845</v>
+        <v>2.5733491470937611</v>
       </c>
       <c r="T25" s="5">
-        <v>2.0104141235351558</v>
+        <v>1.7023799419403081</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C26" s="5">
-        <v>1526624512</v>
+        <v>1525999744</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2745,34 +2745,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>2937753.75</v>
+        <v>1692990.5</v>
       </c>
       <c r="G26" s="5">
-        <v>7.1428570747375488</v>
+        <v>7.104377269744873</v>
       </c>
       <c r="H26" s="5">
-        <v>0.29685868861706305</v>
+        <v>-1.374945374053127</v>
       </c>
       <c r="I26" s="5">
-        <v>-4.7066479406177812</v>
+        <v>-3.798993873890244</v>
       </c>
       <c r="J26" s="5">
-        <v>-11.023815657934566</v>
+        <v>-9.4700302654539321</v>
       </c>
       <c r="K26" s="5">
-        <v>-3.6502486072448548</v>
+        <v>-0.57930806133222901</v>
       </c>
       <c r="L26" s="5">
-        <v>-4.0268621177053002E-2</v>
+        <v>-7.1954539832959634</v>
       </c>
       <c r="M26" s="5">
-        <v>-4.9740869502579166</v>
+        <v>-2.4256216431030042</v>
       </c>
       <c r="N26" s="5">
-        <v>-25.879460452486136</v>
+        <v>-35.506617359064016</v>
       </c>
       <c r="O26" s="5">
-        <v>34.105535274563877</v>
+        <v>43.760721800590652</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="S26" s="5">
-        <v>2.5733491470937611</v>
+        <v>3.362812957848845</v>
       </c>
       <c r="T26" s="5">
-        <v>1.704192042350769</v>
+        <v>1.9827719926834111</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2798,7 +2798,7 @@
         <v>105</v>
       </c>
       <c r="C27" s="5">
-        <v>1368428928</v>
+        <v>1392118912</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>45</v>
@@ -2807,34 +2807,34 @@
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3061846.75</v>
+        <v>3163283.5</v>
       </c>
       <c r="G27" s="5">
-        <v>4.7604327201843262</v>
+        <v>4.7311825752258301</v>
       </c>
       <c r="H27" s="5">
-        <v>0.109773087196707</v>
+        <v>0.58786838473166003</v>
       </c>
       <c r="I27" s="5">
-        <v>-1.5610968672451491</v>
+        <v>-1.186252988082759</v>
       </c>
       <c r="J27" s="5">
-        <v>-0.32795404223038305</v>
+        <v>-0.382900536028696</v>
       </c>
       <c r="K27" s="5">
-        <v>-4.1353397873857496</v>
+        <v>-6.7441429893897347</v>
       </c>
       <c r="L27" s="5">
-        <v>-5.7890561442618509</v>
+        <v>-6.5268200012088551</v>
       </c>
       <c r="M27" s="5">
-        <v>-6.7925481048196961</v>
+        <v>-6.2446109629139652</v>
       </c>
       <c r="N27" s="5">
-        <v>-19.685635115520526</v>
+        <v>-20.585047879540163</v>
       </c>
       <c r="O27" s="5">
-        <v>67.063744087192674</v>
+        <v>66.980265151152224</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>25</v>
@@ -2847,7 +2847,7 @@
         <v>1342.904019688269</v>
       </c>
       <c r="T27" s="5">
-        <v>983.05859375</v>
+        <v>982.5673828125</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2858,7 +2858,7 @@
         <v>107</v>
       </c>
       <c r="C28" s="5">
-        <v>1356914432</v>
+        <v>1382721152</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>86</v>
@@ -2867,37 +2867,37 @@
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3310276</v>
+        <v>3373233.25</v>
       </c>
       <c r="G28" s="5">
         <v>12.035549163818359</v>
       </c>
       <c r="H28" s="5">
-        <v>-1.559304221232205</v>
+        <v>1.308539162781974</v>
       </c>
       <c r="I28" s="5">
-        <v>-1.954915901745669</v>
+        <v>0.30460189918466402</v>
       </c>
       <c r="J28" s="5">
-        <v>-10.047748019461778</v>
+        <v>-6.5684410761973506</v>
       </c>
       <c r="K28" s="5">
-        <v>-18.984276397931055</v>
+        <v>-20.381478148512855</v>
       </c>
       <c r="L28" s="5">
-        <v>-4.1071093966571386</v>
+        <v>-1.1264803727196739</v>
       </c>
       <c r="M28" s="5">
-        <v>-22.607215273260238</v>
+        <v>-21.594500375943305</v>
       </c>
       <c r="N28" s="5">
-        <v>-26.935707374619223</v>
+        <v>-28.102177908431258</v>
       </c>
       <c r="O28" s="5">
-        <v>93.851551547095241</v>
+        <v>95.623991937556198</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>108</v>
@@ -2909,7 +2909,7 @@
         <v>0.32112818480585403</v>
       </c>
       <c r="T28" s="5">
-        <v>0.19288122653961201</v>
+        <v>0.19464480876922602</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2920,7 +2920,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="5">
-        <v>1315858176</v>
+        <v>1340107776</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>45</v>
@@ -2929,34 +2929,34 @@
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>3205725</v>
+        <v>3334862.5</v>
       </c>
       <c r="G29" s="5">
-        <v>3.8116590976715088</v>
+        <v>3.784084558486938</v>
       </c>
       <c r="H29" s="5">
-        <v>0.11738839311012901</v>
+        <v>0.698296574021806</v>
       </c>
       <c r="I29" s="5">
-        <v>-4.799189116455171</v>
+        <v>-4.0253679395490396</v>
       </c>
       <c r="J29" s="5">
-        <v>-4.193060487791433</v>
+        <v>-3.8293912352860842</v>
       </c>
       <c r="K29" s="5">
-        <v>-9.9489428452177684</v>
+        <v>-10.857980628633712</v>
       </c>
       <c r="L29" s="5">
-        <v>0.48802744379437002</v>
+        <v>-1.021421701463654</v>
       </c>
       <c r="M29" s="5">
-        <v>-13.249796853609697</v>
+        <v>-12.644023157081508</v>
       </c>
       <c r="N29" s="5">
-        <v>-8.8163912457703049</v>
+        <v>-10.26323441845407</v>
       </c>
       <c r="O29" s="5">
-        <v>87.602369942957608</v>
+        <v>87.714480444513441</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
@@ -2969,7 +2969,7 @@
         <v>1648.0721903199344</v>
       </c>
       <c r="T29" s="5">
-        <v>1355.3140869140625</v>
+        <v>1356.1240234375</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2980,7 +2980,7 @@
         <v>112</v>
       </c>
       <c r="C30" s="5">
-        <v>1305961984</v>
+        <v>1324836352</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>23</v>
@@ -2989,34 +2989,34 @@
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>5936073</v>
+        <v>6097504</v>
       </c>
       <c r="G30" s="5">
-        <v>4.8219180107116699</v>
+        <v>4.946599006652832</v>
       </c>
       <c r="H30" s="5">
-        <v>1.445248650304332</v>
+        <v>-2.520542928617298</v>
       </c>
       <c r="I30" s="5">
-        <v>1.451411926668533</v>
+        <v>-0.99698439976181308</v>
       </c>
       <c r="J30" s="5">
-        <v>-0.46173574983191501</v>
+        <v>-3.0750808557706399</v>
       </c>
       <c r="K30" s="5">
-        <v>-1.8184948771619911</v>
+        <v>-2.7610727524529981</v>
       </c>
       <c r="L30" s="5">
-        <v>8.684645421855631</v>
+        <v>8.3387316363322093</v>
       </c>
       <c r="M30" s="5">
-        <v>-1.3651815211457201</v>
+        <v>-3.85131446346898</v>
       </c>
       <c r="N30" s="5">
-        <v>-18.122782248282434</v>
+        <v>-19.671163731895813</v>
       </c>
       <c r="O30" s="5">
-        <v>127.42917896768979</v>
+        <v>121.69672887960728</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
@@ -3031,7 +3031,7 @@
         <v>23.909999847412109</v>
       </c>
       <c r="T30" s="5">
-        <v>18.25</v>
+        <v>17.790000915527344</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3042,7 +3042,7 @@
         <v>115</v>
       </c>
       <c r="C31" s="5">
-        <v>1300555904</v>
+        <v>1293290240</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>23</v>
@@ -3051,34 +3051,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>10696868</v>
+        <v>10884178</v>
       </c>
       <c r="G31" s="5">
-        <v>12.841092109680176</v>
+        <v>13.490725517272949</v>
       </c>
       <c r="H31" s="5">
-        <v>-0.55865679422181203</v>
+        <v>-4.8154123566034768</v>
       </c>
       <c r="I31" s="5">
-        <v>-6.1039969229451323</v>
+        <v>-8.9792793574152601</v>
       </c>
       <c r="J31" s="5">
-        <v>-11.063527233493641</v>
+        <v>-14.92109028922124</v>
       </c>
       <c r="K31" s="5">
-        <v>-1.125205568876086</v>
+        <v>-4.7109355868224618</v>
       </c>
       <c r="L31" s="5">
-        <v>3.9583439590489271</v>
+        <v>1.485497438934003</v>
       </c>
       <c r="M31" s="5">
-        <v>2.0211742285137109</v>
+        <v>-2.8915660016380911</v>
       </c>
       <c r="N31" s="5">
-        <v>-5.5432001406594207</v>
+        <v>-11.22373026474952</v>
       </c>
       <c r="O31" s="5">
-        <v>38.915869355942775</v>
+        <v>32.226497417693565</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3093,7 +3093,7 @@
         <v>16.010000228881836</v>
       </c>
       <c r="T31" s="5">
-        <v>12.460000038146973</v>
+        <v>11.859999656677246</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3104,7 +3104,7 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1254567168</v>
+        <v>1286285568</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>45</v>
@@ -3113,34 +3113,34 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>2252874</v>
+        <v>2343360.75</v>
       </c>
       <c r="G32" s="5">
-        <v>4.2196917533874512</v>
+        <v>4.1611623764038086</v>
       </c>
       <c r="H32" s="5">
-        <v>-0.39201649219673401</v>
+        <v>1.3759563875772369</v>
       </c>
       <c r="I32" s="5">
-        <v>-3.6619436835236501</v>
+        <v>-1.9245284340198681</v>
       </c>
       <c r="J32" s="5">
-        <v>-1.2578644175382681</v>
+        <v>0.48818424258594306</v>
       </c>
       <c r="K32" s="5">
-        <v>0.85892447701123609</v>
+        <v>4.9154984455746002E-2</v>
       </c>
       <c r="L32" s="5">
-        <v>6.7053517508478544</v>
+        <v>6.0822383163668281</v>
       </c>
       <c r="M32" s="5">
-        <v>-2.6667727843027622</v>
+        <v>-1.3275100271933131</v>
       </c>
       <c r="N32" s="5">
-        <v>0.97458711664975006</v>
+        <v>0.39317254700266302</v>
       </c>
       <c r="O32" s="5">
-        <v>115.34990363926032</v>
+        <v>116.92868191832311</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
@@ -3153,7 +3153,7 @@
         <v>1243.9918533604887</v>
       </c>
       <c r="T32" s="5">
-        <v>1134.2398681640625</v>
+        <v>1142.5552978515625</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3164,7 +3164,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1146136960</v>
+        <v>1164337408</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3173,37 +3173,37 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1529053.125</v>
+        <v>1557267</v>
       </c>
       <c r="G33" s="5">
-        <v>6.7688140869140634</v>
+        <v>6.6241621971130371</v>
       </c>
       <c r="H33" s="5">
-        <v>-1.092988294070685</v>
+        <v>1.57373291725118</v>
       </c>
       <c r="I33" s="5">
-        <v>1.104890657578528</v>
+        <v>0.54680962496569407</v>
       </c>
       <c r="J33" s="5">
-        <v>-24.520125060330468</v>
+        <v>-22.694730759797967</v>
       </c>
       <c r="K33" s="5">
-        <v>-1.679397702908636</v>
+        <v>-0.65114178105156706</v>
       </c>
       <c r="L33" s="5">
-        <v>-6.8856220642258492</v>
+        <v>-2.032566330593955</v>
       </c>
       <c r="M33" s="5">
-        <v>-5.1085681022259744</v>
+        <v>-3.615230402799718</v>
       </c>
       <c r="N33" s="5">
-        <v>-39.915092401016715</v>
+        <v>-39.682709280034835</v>
       </c>
       <c r="O33" s="5">
-        <v>-36.926657583750433</v>
+        <v>-35.934051632135365</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>122</v>
@@ -3215,7 +3215,7 @@
         <v>0.44271498196098902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.23960947990417503</v>
+        <v>0.24338030815124501</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3226,118 +3226,118 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1114645632</v>
+        <v>1103243008</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>1308317.875</v>
+        <v>19253564</v>
       </c>
       <c r="G34" s="5">
-        <v>7.1920640766621011E-2</v>
+        <v>7.7510275840759277</v>
       </c>
       <c r="H34" s="5">
-        <v>-2.484398148662859</v>
+        <v>-6.2740747653368123</v>
       </c>
       <c r="I34" s="5">
-        <v>-2.5004796658022803</v>
+        <v>-9.5111532263785659</v>
       </c>
       <c r="J34" s="5">
-        <v>-18.252016912026335</v>
+        <v>-32.868011192392842</v>
       </c>
       <c r="K34" s="5">
-        <v>-23.032722905364089</v>
+        <v>-34.768689438505703</v>
       </c>
       <c r="L34" s="5">
-        <v>-8.8554967451868194</v>
+        <v>-33.264417423375114</v>
       </c>
       <c r="M34" s="5">
-        <v>-24.16880386525715</v>
+        <v>-34.793304570780379</v>
       </c>
       <c r="N34" s="5">
-        <v>27.400113133738046</v>
-      </c>
-      <c r="O34" s="5"/>
+        <v>-51.027946232361174</v>
+      </c>
+      <c r="O34" s="5">
+        <v>-15.168756088386681</v>
+      </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5">
-        <v>0.33632467559269802</v>
+        <v>39.099998474121094</v>
       </c>
       <c r="T34" s="5">
-        <v>0.23178441822528803</v>
+        <v>17.030000686645508</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1087085184</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1065598016</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>18688410</v>
+        <v>1053725.75</v>
       </c>
       <c r="G35" s="5">
-        <v>7.2647223472595215</v>
+        <v>7.1595944464207001E-2</v>
       </c>
       <c r="H35" s="5">
-        <v>3.5327684682979088</v>
+        <v>0.38281278930512003</v>
       </c>
       <c r="I35" s="5">
-        <v>-4.1666616367386</v>
+        <v>-1.8140833230167019</v>
       </c>
       <c r="J35" s="5">
-        <v>-27.643273157037651</v>
+        <v>-12.51959981308346</v>
       </c>
       <c r="K35" s="5">
-        <v>-30.138334167157655</v>
+        <v>-23.520226512242679</v>
       </c>
       <c r="L35" s="5">
-        <v>-29.894171347410214</v>
+        <v>-5.1754155752492759</v>
       </c>
       <c r="M35" s="5">
-        <v>-30.42832571035121</v>
+        <v>-23.8785123481703</v>
       </c>
       <c r="N35" s="5">
-        <v>-47.548429389709746</v>
-      </c>
-      <c r="O35" s="5">
-        <v>-9.4900971111035801</v>
-      </c>
+        <v>26.961174795596875</v>
+      </c>
+      <c r="O35" s="5"/>
       <c r="P35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R35" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R35" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="S35" s="5">
-        <v>39.099998474121094</v>
+        <v>0.33632467559269802</v>
       </c>
       <c r="T35" s="5">
-        <v>18.170000076293945</v>
+        <v>0.23267172276973702</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3348,7 +3348,7 @@
         <v>133</v>
       </c>
       <c r="C36" s="5">
-        <v>1033678016</v>
+        <v>1070853312</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>45</v>
@@ -3357,34 +3357,34 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>3420613.25</v>
+        <v>3574141</v>
       </c>
       <c r="G36" s="5">
-        <v>5.2577996253967294</v>
+        <v>5.1314101219177246</v>
       </c>
       <c r="H36" s="5">
-        <v>-0.63707819994305304</v>
+        <v>2.4321277287965293</v>
       </c>
       <c r="I36" s="5">
-        <v>-3.8734416008151751</v>
+        <v>-1.1761976561389331</v>
       </c>
       <c r="J36" s="5">
-        <v>-5.1793180404155814</v>
+        <v>-2.2340146165156121</v>
       </c>
       <c r="K36" s="5">
-        <v>-10.444718840911705</v>
+        <v>-10.060096779445027</v>
       </c>
       <c r="L36" s="5">
-        <v>-11.282693820373979</v>
+        <v>-10.24692744698652</v>
       </c>
       <c r="M36" s="5">
-        <v>-13.339860391270975</v>
+        <v>-11.232175106033292</v>
       </c>
       <c r="N36" s="5">
-        <v>-22.064146012417709</v>
+        <v>-21.371260397007351</v>
       </c>
       <c r="O36" s="5">
-        <v>34.892591178892431</v>
+        <v>37.297181674966453</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
@@ -3397,7 +3397,7 @@
         <v>3199.3437243642329</v>
       </c>
       <c r="T36" s="5">
-        <v>2313.302490234375</v>
+        <v>2354.539306640625</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3408,7 +3408,7 @@
         <v>135</v>
       </c>
       <c r="C37" s="5">
-        <v>1028985984</v>
+        <v>1057582976</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3417,60 +3417,60 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>4605908</v>
+        <v>11970923</v>
       </c>
       <c r="G37" s="5">
-        <v>6.4570941925048828</v>
+        <v>2.2435898780822749</v>
       </c>
       <c r="H37" s="5">
-        <v>1.03005015590325</v>
+        <v>-4.5871589064942704</v>
       </c>
       <c r="I37" s="5">
-        <v>-2.5662207607636933</v>
+        <v>-5.5975847945939243</v>
       </c>
       <c r="J37" s="5">
-        <v>-9.4615349402794475</v>
+        <v>-17.567140413230497</v>
       </c>
       <c r="K37" s="5">
-        <v>3.2323566564859569</v>
+        <v>-7.6120655438826512</v>
       </c>
       <c r="L37" s="5">
-        <v>1.7193839179930892</v>
+        <v>-11.188445659283664</v>
       </c>
       <c r="M37" s="5">
-        <v>2.347830067510182</v>
+        <v>-6.9266927119450479</v>
       </c>
       <c r="N37" s="5">
-        <v>-16.465841816596892</v>
+        <v>-35.469002878843028</v>
       </c>
       <c r="O37" s="5">
-        <v>67.237993879600083</v>
+        <v>-17.625334495681766</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <v>14.930000305175781</v>
+        <v>10.055000305175781</v>
       </c>
       <c r="T37" s="5">
-        <v>11.770000457763672</v>
+        <v>6.2399997711181641</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A38" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="5">
-        <v>1010687104</v>
+        <v>1039584960</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>23</v>
@@ -3479,49 +3479,49 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>11698469</v>
+        <v>4767617</v>
       </c>
       <c r="G38" s="5">
-        <v>2.140672922134399</v>
+        <v>6.8100357055664063</v>
       </c>
       <c r="H38" s="5">
-        <v>4.6399993896484304</v>
+        <v>-5.1826727835783242</v>
       </c>
       <c r="I38" s="5">
-        <v>-0.75872821816594904</v>
+        <v>-6.6889647841406834</v>
       </c>
       <c r="J38" s="5">
-        <v>-13.943264338189042</v>
+        <v>-14.482761039839687</v>
       </c>
       <c r="K38" s="5">
-        <v>-4.713996246466035</v>
+        <v>-1.9486335232869021</v>
       </c>
       <c r="L38" s="5">
-        <v>-7.8274070738771915</v>
+        <v>-0.8204065003648231</v>
       </c>
       <c r="M38" s="5">
-        <v>-2.4520114678882821</v>
+        <v>-2.9565230659816528</v>
       </c>
       <c r="N38" s="5">
-        <v>-31.81387739420477</v>
+        <v>-19.557572104676758</v>
       </c>
       <c r="O38" s="5">
-        <v>-13.665011375575665</v>
+        <v>58.570595886999641</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S38" s="5">
-        <v>10.055000305175781</v>
+        <v>14.930000305175781</v>
       </c>
       <c r="T38" s="5">
-        <v>6.5399999618530273</v>
+        <v>11.159999847412109</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3532,7 +3532,7 @@
         <v>140</v>
       </c>
       <c r="C39" s="5">
-        <v>869125504</v>
+        <v>876153472</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>141</v>
@@ -3541,34 +3541,34 @@
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>1939350.125</v>
+        <v>1882909.625</v>
       </c>
       <c r="G39" s="5">
-        <v>4.8750762939453134</v>
+        <v>4.941321849822998</v>
       </c>
       <c r="H39" s="5">
-        <v>0.45548326613855705</v>
+        <v>-0.50709271936435507</v>
       </c>
       <c r="I39" s="5">
-        <v>0.67793879241466704</v>
+        <v>0.41998570951937703</v>
       </c>
       <c r="J39" s="5">
-        <v>4.9421533923569072</v>
+        <v>5.5142957800389469</v>
       </c>
       <c r="K39" s="5">
-        <v>-13.353011704285557</v>
+        <v>-10.384317237333796</v>
       </c>
       <c r="L39" s="5">
-        <v>-19.743207577794998</v>
+        <v>-18.357061947978792</v>
       </c>
       <c r="M39" s="5">
-        <v>-9.3494637560141864</v>
+        <v>-9.8091460253721845</v>
       </c>
       <c r="N39" s="5">
-        <v>-30.308269751937122</v>
+        <v>-30.844358869467548</v>
       </c>
       <c r="O39" s="5">
-        <v>10.452989272573966</v>
+        <v>9.8928902056524493</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>25</v>
@@ -3581,7 +3581,7 @@
         <v>6.9999688890271594</v>
       </c>
       <c r="T39" s="5">
-        <v>4.4929361343383789</v>
+        <v>4.4701528549194336</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3592,7 +3592,7 @@
         <v>144</v>
       </c>
       <c r="C40" s="5">
-        <v>853927040</v>
+        <v>858405888</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>29</v>
@@ -3601,34 +3601,34 @@
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>1911984.25</v>
+        <v>1886348.375</v>
       </c>
       <c r="G40" s="5">
         <v>7.0735526084899902</v>
       </c>
       <c r="H40" s="5">
-        <v>0.37620734705747805</v>
+        <v>0.285407481497435</v>
       </c>
       <c r="I40" s="5">
-        <v>0.38765488728771402</v>
+        <v>-1.1037159983767311</v>
       </c>
       <c r="J40" s="5">
-        <v>-16.133933456504369</v>
+        <v>-13.50671591966066</v>
       </c>
       <c r="K40" s="5">
-        <v>-4.42456694717559</v>
+        <v>-4.7272748690125539</v>
       </c>
       <c r="L40" s="5">
-        <v>-6.9936739813909909</v>
+        <v>-6.6159170896709192</v>
       </c>
       <c r="M40" s="5">
-        <v>-8.3877693492159118</v>
+        <v>-8.1263011889718744</v>
       </c>
       <c r="N40" s="5">
-        <v>-45.674990321562369</v>
+        <v>-46.484148680018933</v>
       </c>
       <c r="O40" s="5">
-        <v>27.790617314420896</v>
+        <v>28.155341296888015</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>30</v>
@@ -3643,7 +3643,7 @@
         <v>2.1937991371437611</v>
       </c>
       <c r="T40" s="5">
-        <v>1.0651201009750371</v>
+        <v>1.068159937858582</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3654,43 +3654,43 @@
         <v>147</v>
       </c>
       <c r="C41" s="5">
-        <v>824245632</v>
+        <v>814259904</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>1259817.25</v>
+        <v>1287494.25</v>
       </c>
       <c r="G41" s="5">
-        <v>6.5686278343200684</v>
+        <v>6.6074953079223633</v>
       </c>
       <c r="H41" s="5">
-        <v>-2.2547511629679939</v>
+        <v>-0.229784959410606</v>
       </c>
       <c r="I41" s="5">
-        <v>-3.6864523044466631</v>
+        <v>-3.0070996020131862</v>
       </c>
       <c r="J41" s="5">
-        <v>-7.205453717717214</v>
+        <v>-5.8123624401639322</v>
       </c>
       <c r="K41" s="5">
-        <v>-10.170691899272722</v>
+        <v>-8.2888467475712329</v>
       </c>
       <c r="L41" s="5">
-        <v>-14.142408637423031</v>
+        <v>-10.712638412787223</v>
       </c>
       <c r="M41" s="5">
-        <v>-10.539466945071219</v>
+        <v>-10.745033794640001</v>
       </c>
       <c r="N41" s="5">
-        <v>-37.020102328874515</v>
+        <v>-39.682617084268166</v>
       </c>
       <c r="O41" s="5">
-        <v>12.751191781389037</v>
+        <v>12.492106501119205</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>30</v>
@@ -3699,13 +3699,13 @@
         <v>31</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S41" s="5">
         <v>1.243469103672894</v>
       </c>
       <c r="T41" s="5">
-        <v>0.62235295772552501</v>
+        <v>0.62092292308807406</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3716,54 +3716,54 @@
         <v>149</v>
       </c>
       <c r="C42" s="5">
-        <v>806489728</v>
+        <v>806167808</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>3191946.25</v>
+        <v>2997327.5</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5">
-        <v>-5.2033161240173001E-2</v>
+        <v>1.3618291737656611</v>
       </c>
       <c r="I42" s="5">
-        <v>-5.3460292857388403</v>
+        <v>0.64232772849659403</v>
       </c>
       <c r="J42" s="5">
-        <v>-10.135695559553049</v>
+        <v>-4.723819996792356</v>
       </c>
       <c r="K42" s="5">
-        <v>-20.715683601359625</v>
+        <v>-17.604332791128996</v>
       </c>
       <c r="L42" s="5">
-        <v>67.616833058962484</v>
+        <v>70.814153781931637</v>
       </c>
       <c r="M42" s="5">
-        <v>-21.77304174636301</v>
+        <v>-20.707724207115497</v>
       </c>
       <c r="N42" s="5">
-        <v>96.726455831255279</v>
+        <v>97.478259243565503</v>
       </c>
       <c r="O42" s="5">
-        <v>198.79046392719522</v>
+        <v>202.85947963338549</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>150</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S42" s="5">
         <v>1.13709763756269</v>
       </c>
       <c r="T42" s="5">
-        <v>0.80677801370620705</v>
+        <v>0.81776499748230003</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3774,7 +3774,7 @@
         <v>152</v>
       </c>
       <c r="C43" s="5">
-        <v>765543808</v>
+        <v>787204928</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>45</v>
@@ -3783,34 +3783,34 @@
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>2098318.5</v>
+        <v>2144452.25</v>
       </c>
       <c r="G43" s="5">
-        <v>5.7310605049133301</v>
+        <v>5.6350092887878418</v>
       </c>
       <c r="H43" s="5">
-        <v>-0.22503636007751301</v>
+        <v>1.6738479370978832</v>
       </c>
       <c r="I43" s="5">
-        <v>-1.798266694776562</v>
+        <v>-0.70195820233551809</v>
       </c>
       <c r="J43" s="5">
-        <v>-0.46776889812796302</v>
+        <v>0.37447228493323603</v>
       </c>
       <c r="K43" s="5">
-        <v>1.4387053710988471</v>
+        <v>1.5463313881740599</v>
       </c>
       <c r="L43" s="5">
-        <v>0.16048535793076202</v>
+        <v>0.14801926630854101</v>
       </c>
       <c r="M43" s="5">
-        <v>-2.7852447750998821</v>
+        <v>-1.1580176002131239</v>
       </c>
       <c r="N43" s="5">
-        <v>-14.48182241396646</v>
+        <v>-14.289867654709919</v>
       </c>
       <c r="O43" s="5">
-        <v>71.966424572533498</v>
+        <v>73.736173944312313</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>25</v>
@@ -3823,7 +3823,7 @@
         <v>516.49694501018325</v>
       </c>
       <c r="T43" s="5">
-        <v>401.12435913085937</v>
+        <v>405.25244140625</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3834,7 +3834,7 @@
         <v>154</v>
       </c>
       <c r="C44" s="5">
-        <v>755778496</v>
+        <v>754345600</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>155</v>
@@ -3843,34 +3843,34 @@
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>4084731.75</v>
+        <v>4082887</v>
       </c>
       <c r="G44" s="5">
-        <v>1.023377060890198</v>
+        <v>1.0248842239379881</v>
       </c>
       <c r="H44" s="5">
-        <v>0.50552122338016803</v>
+        <v>-0.18959958857500703</v>
       </c>
       <c r="I44" s="5">
-        <v>-5.7577340422110008E-3</v>
+        <v>-8.4356349012926005E-2</v>
       </c>
       <c r="J44" s="5">
-        <v>-0.66804430737877907</v>
+        <v>-0.550102298489619</v>
       </c>
       <c r="K44" s="5">
-        <v>0.82648512487997206</v>
+        <v>1.6608053096757391</v>
       </c>
       <c r="L44" s="5">
-        <v>5.3219170228959278</v>
+        <v>5.0861203011406184</v>
       </c>
       <c r="M44" s="5">
-        <v>0.90277787039108004</v>
+        <v>0.71146661868806105</v>
       </c>
       <c r="N44" s="5">
-        <v>0.128225662029258</v>
+        <v>1.0586617336705E-2</v>
       </c>
       <c r="O44" s="5">
-        <v>17.417713467011751</v>
+        <v>17.195089965364119</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>25</v>
@@ -3885,7 +3885,7 @@
         <v>0.72089303474705002</v>
       </c>
       <c r="T44" s="5">
-        <v>0.66883051395416304</v>
+        <v>0.66756248474121105</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3896,129 +3896,129 @@
         <v>159</v>
       </c>
       <c r="C45" s="5">
-        <v>715957952</v>
+        <v>731845312</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1673785.125</v>
+        <v>1420518.75</v>
       </c>
       <c r="G45" s="5">
-        <v>5.8181819915771484</v>
+        <v>4.2028985023498544</v>
       </c>
       <c r="H45" s="5">
-        <v>-1.721091578578515</v>
+        <v>1.3654279303434209</v>
       </c>
       <c r="I45" s="5">
-        <v>-2.8864410838246419</v>
+        <v>-0.60087974711799907</v>
       </c>
       <c r="J45" s="5">
-        <v>-0.34620296606732204</v>
+        <v>-0.9022664181828951</v>
       </c>
       <c r="K45" s="5">
-        <v>-4.0685147492395712</v>
+        <v>-9.7017382299732233</v>
       </c>
       <c r="L45" s="5">
-        <v>-1.340089476144624</v>
+        <v>-4.5546496907016625</v>
       </c>
       <c r="M45" s="5">
-        <v>-4.6228879588716687</v>
+        <v>-10.532554796339355</v>
       </c>
       <c r="N45" s="5">
-        <v>-30.642512620164975</v>
+        <v>-13.676258412078035</v>
       </c>
       <c r="O45" s="5">
-        <v>126.32525168469164</v>
+        <v>43.49649826848767</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S45" s="5">
-        <v>1.5543399132000002</v>
+        <v>1279.0224032586557</v>
       </c>
       <c r="T45" s="5">
-        <v>1.0067474842071531</v>
+        <v>1041.4307861328125</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A46" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="5">
+        <v>711145600</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="E46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1666897.75</v>
+      </c>
+      <c r="G46" s="5">
+        <v>5.9113302230834961</v>
+      </c>
+      <c r="H46" s="5">
+        <v>-1.220873162277947</v>
+      </c>
+      <c r="I46" s="5">
+        <v>-2.4894627908529139</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.194182272853927</v>
+      </c>
+      <c r="K46" s="5">
+        <v>-3.103591299054786</v>
+      </c>
+      <c r="L46" s="5">
+        <v>3.2273458226842688</v>
+      </c>
+      <c r="M46" s="5">
+        <v>-5.7873215227375656</v>
+      </c>
+      <c r="N46" s="5">
+        <v>-32.228161031815006</v>
+      </c>
+      <c r="O46" s="5">
+        <v>123.56210742741523</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="5">
-        <v>713872960</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1387254.75</v>
-      </c>
-      <c r="G46" s="5">
-        <v>4.2615723609924316</v>
-      </c>
-      <c r="H46" s="5">
-        <v>-0.89602266143947706</v>
-      </c>
-      <c r="I46" s="5">
-        <v>-2.6836490637989212</v>
-      </c>
-      <c r="J46" s="5">
-        <v>-2.733960188067408</v>
-      </c>
-      <c r="K46" s="5">
-        <v>-7.9958988102378559</v>
-      </c>
-      <c r="L46" s="5">
-        <v>-5.0732607386907658</v>
-      </c>
-      <c r="M46" s="5">
-        <v>-11.737712718836313</v>
-      </c>
-      <c r="N46" s="5">
-        <v>-12.530564333086414</v>
-      </c>
-      <c r="O46" s="5">
-        <v>42.466945702837847</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q46" s="4"/>
+      <c r="Q46" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="R46" s="4" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="S46" s="5">
-        <v>1279.0224032586557</v>
+        <v>1.5543399132000002</v>
       </c>
       <c r="T46" s="5">
-        <v>1033.9588623046875</v>
+        <v>0.99445635080337502</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="C47" s="5">
-        <v>663784832</v>
+        <v>663349888</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>82</v>
@@ -4027,34 +4027,34 @@
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>7865253.5</v>
+        <v>7847693</v>
       </c>
       <c r="G47" s="5">
-        <v>7.6238884925842294</v>
+        <v>7.8740158081054687</v>
       </c>
       <c r="H47" s="5">
-        <v>-0.38606904119165003</v>
+        <v>-3.240056361058719</v>
       </c>
       <c r="I47" s="5">
-        <v>-4.7964081169124313</v>
+        <v>-5.4596519550078266</v>
       </c>
       <c r="J47" s="5">
-        <v>-17.266612677962524</v>
+        <v>-19.195847933048139</v>
       </c>
       <c r="K47" s="5">
-        <v>-11.116736324718168</v>
+        <v>-12.895681346383281</v>
       </c>
       <c r="L47" s="5">
-        <v>-21.937624652146393</v>
+        <v>-21.69008921495691</v>
       </c>
       <c r="M47" s="5">
-        <v>-12.979857309687281</v>
+        <v>-15.799358978327128</v>
       </c>
       <c r="N47" s="5">
-        <v>-41.596539751546402</v>
+        <v>-44.199205515436169</v>
       </c>
       <c r="O47" s="5">
-        <v>59.229687775625564</v>
+        <v>54.070556148157479</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>25</v>
@@ -4069,18 +4069,18 @@
         <v>11.008880893576956</v>
       </c>
       <c r="T47" s="5">
-        <v>5.7328085899353027</v>
+        <v>5.5470623970031738</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="C48" s="5">
-        <v>631297920</v>
+        <v>632166272</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>23</v>
@@ -4089,180 +4089,180 @@
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>11059702</v>
+        <v>10863866</v>
       </c>
       <c r="G48" s="5">
-        <v>6.8681316375732422</v>
+        <v>7.2992701530456543</v>
       </c>
       <c r="H48" s="5">
-        <v>0.13755473050993702</v>
+        <v>-5.9065974283412981</v>
       </c>
       <c r="I48" s="5">
-        <v>6.9016192507774798</v>
+        <v>-0.86830599282881105</v>
       </c>
       <c r="J48" s="5">
-        <v>-4.7120374734096142</v>
+        <v>-12.179490549637951</v>
       </c>
       <c r="K48" s="5">
-        <v>-5.5771702491712274</v>
+        <v>-10.574411996276933</v>
       </c>
       <c r="L48" s="5">
-        <v>-19.032983180665241</v>
+        <v>-21.011459737510773</v>
       </c>
       <c r="M48" s="5">
-        <v>-4.5871546446000888</v>
+        <v>-10.222807314669403</v>
       </c>
       <c r="N48" s="5">
-        <v>-60.048869476310472</v>
+        <v>-63.288224583644173</v>
       </c>
       <c r="O48" s="5">
-        <v>39.861394258225417</v>
+        <v>31.600344741726772</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S48" s="5">
-        <v>19.025779724121094</v>
+        <v>18.901226043701172</v>
       </c>
       <c r="T48" s="5">
-        <v>7.2800002098083496</v>
+        <v>6.8499999046325684</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="5">
+        <v>581098112</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="5">
-        <v>581117632</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>1813669.75</v>
+        <v>1780876.5</v>
       </c>
       <c r="G49" s="5">
-        <v>5.9954748153686523</v>
+        <v>6.0227270126342773</v>
       </c>
       <c r="H49" s="5">
-        <v>-1.088870480963211</v>
+        <v>-0.58002976759492508</v>
       </c>
       <c r="I49" s="5">
-        <v>-3.003488380827624</v>
+        <v>-1.089910455700682</v>
       </c>
       <c r="J49" s="5">
-        <v>-0.9882722478305791</v>
+        <v>-1.394660118836843</v>
       </c>
       <c r="K49" s="5">
-        <v>-6.5902560575869966</v>
+        <v>-4.9022675050846338</v>
       </c>
       <c r="L49" s="5">
-        <v>-6.1358881461170078</v>
+        <v>-6.2493221177422065</v>
       </c>
       <c r="M49" s="5">
-        <v>-6.01843743573186</v>
+        <v>-6.563558474655462</v>
       </c>
       <c r="N49" s="5">
-        <v>-23.185459321740975</v>
+        <v>-24.969383379108844</v>
       </c>
       <c r="O49" s="5">
-        <v>37.016990067303567</v>
+        <v>36.222250738250629</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="R49" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="S49" s="5">
         <v>0.97619400723811212</v>
       </c>
       <c r="T49" s="5">
-        <v>0.6856470108032231</v>
+        <v>0.68167001008987405</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="C50" s="5">
-        <v>555058752</v>
+        <v>549257408</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>15067750</v>
+        <v>15207184</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>-1.057165756885881</v>
+        <v>9.890853802559274</v>
       </c>
       <c r="I50" s="5">
-        <v>30.979054757459899</v>
+        <v>31.066126087321912</v>
       </c>
       <c r="J50" s="5">
-        <v>88.416215263494365</v>
+        <v>106.86191693653532</v>
       </c>
       <c r="K50" s="5">
-        <v>68.835332343416724</v>
+        <v>79.819645851865403</v>
       </c>
       <c r="L50" s="5">
-        <v>122.74669054154926</v>
+        <v>142.13547325249317</v>
       </c>
       <c r="M50" s="5">
-        <v>61.788306463718136</v>
+        <v>77.790551325681051</v>
       </c>
       <c r="N50" s="5">
-        <v>154.61937955210291</v>
+        <v>156.91391342976431</v>
       </c>
       <c r="O50" s="5">
-        <v>239.15027431803466</v>
+        <v>272.69513212181022</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S50" s="5">
         <v>1.84262010241304</v>
       </c>
       <c r="T50" s="5">
-        <v>1.6556030511856079</v>
+        <v>1.8193563222885132</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="C51" s="5">
-        <v>495581472</v>
+        <v>504871104</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>23</v>
@@ -4271,40 +4271,40 @@
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>5710231.5</v>
+        <v>5659277.5</v>
       </c>
       <c r="G51" s="5">
-        <v>9.6000003814697266</v>
+        <v>10.008340835571289</v>
       </c>
       <c r="H51" s="5">
-        <v>1.874486826859068</v>
+        <v>-4.0800018310546911</v>
       </c>
       <c r="I51" s="5">
-        <v>1.15287982261203</v>
+        <v>-1.7120382256231141</v>
       </c>
       <c r="J51" s="5">
-        <v>-20.078326557035741</v>
+        <v>-22.503725359845873</v>
       </c>
       <c r="K51" s="5">
-        <v>-30.925004787798549</v>
+        <v>-34.170961832703782</v>
       </c>
       <c r="L51" s="5">
-        <v>-24.705164353014851</v>
+        <v>-26.460191288272949</v>
       </c>
       <c r="M51" s="5">
-        <v>-31.037022772640842</v>
+        <v>-33.850713506266914</v>
       </c>
       <c r="N51" s="5">
-        <v>-36.627425618742258</v>
+        <v>-39.481433338400443</v>
       </c>
       <c r="O51" s="5">
-        <v>65.477649558859241</v>
+        <v>58.726158426871542</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>0</v>
@@ -4313,198 +4313,198 @@
         <v>23.379999160766602</v>
       </c>
       <c r="T51" s="5">
-        <v>12.5</v>
+        <v>11.989999771118164</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="C52" s="5">
-        <v>491501664</v>
+        <v>493981824</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>3568209</v>
+        <v>3418407.5</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>0.49242808150837802</v>
+        <v>0.625722984749566</v>
       </c>
       <c r="I52" s="5">
-        <v>-7.1190759747567389</v>
+        <v>-0.9478288501716281</v>
       </c>
       <c r="J52" s="5">
-        <v>-9.3197733165088508</v>
+        <v>-5.1692575317135887</v>
       </c>
       <c r="K52" s="5">
-        <v>-38.182347333437747</v>
+        <v>-35.891525557468562</v>
       </c>
       <c r="L52" s="5">
-        <v>50.283051144382675</v>
+        <v>52.082714998589722</v>
       </c>
       <c r="M52" s="5">
-        <v>-38.011089976570524</v>
+        <v>-37.62321111855821</v>
       </c>
       <c r="N52" s="5">
-        <v>166.68801594026749</v>
+        <v>168.7416653708643</v>
       </c>
       <c r="O52" s="5">
-        <v>292.19157683977272</v>
+        <v>294.64560968031094</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S52" s="5">
         <v>1.152422315694851</v>
       </c>
       <c r="T52" s="5">
-        <v>0.67906004190444902</v>
+        <v>0.68330907821655307</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="C53" s="5">
-        <v>490630784</v>
+        <v>488932480</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>17782634</v>
-      </c>
-      <c r="G53" s="5"/>
+        <v>1292996.375</v>
+      </c>
+      <c r="G53" s="5">
+        <v>8.11907958984375</v>
+      </c>
       <c r="H53" s="5">
-        <v>-1.078187137426889</v>
+        <v>-3.5248019237495432</v>
       </c>
       <c r="I53" s="5">
-        <v>-9.1485520280457528</v>
+        <v>-2.2917604474409492</v>
       </c>
       <c r="J53" s="5">
-        <v>-7.6304283136959361</v>
+        <v>-3.2300295768083691</v>
       </c>
       <c r="K53" s="5">
-        <v>-14.662258112784766</v>
+        <v>9.0295521932826001E-2</v>
       </c>
       <c r="L53" s="5">
-        <v>-25.545937937980099</v>
+        <v>-2.0856860441588299</v>
       </c>
       <c r="M53" s="5">
-        <v>-10.887064064752272</v>
+        <v>-0.22501907563290402</v>
       </c>
       <c r="N53" s="5">
-        <v>-16.906591939650241</v>
+        <v>-23.757779701266823</v>
       </c>
       <c r="O53" s="5">
-        <v>157.46544850596837</v>
+        <v>86.921321702638295</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q53" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="R53" s="4" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="S53" s="5">
-        <v>1.1922868853192861</v>
+        <v>31.969999313354492</v>
       </c>
       <c r="T53" s="5">
-        <v>0.50666707754135099</v>
+        <v>22.170000076293945</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="C54" s="5">
-        <v>484889952</v>
+        <v>485399680</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>1300441.125</v>
-      </c>
-      <c r="G54" s="5">
-        <v>7.8328981399536133</v>
-      </c>
+        <v>17215656</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="5">
-        <v>0.83369293144492906</v>
+        <v>1.5881988858015061</v>
       </c>
       <c r="I54" s="5">
-        <v>2.1333312988281339</v>
+        <v>-3.3208225421881288</v>
       </c>
       <c r="J54" s="5">
-        <v>-0.56253165158725005</v>
+        <v>-3.9083367847655088</v>
       </c>
       <c r="K54" s="5">
-        <v>3.606849531349487</v>
+        <v>-11.674035117274062</v>
       </c>
       <c r="L54" s="5">
-        <v>-0.532238892274706</v>
+        <v>-15.942571855420173</v>
       </c>
       <c r="M54" s="5">
-        <v>3.4203431699705971</v>
+        <v>-9.4717734091236512</v>
       </c>
       <c r="N54" s="5">
-        <v>-22.042844885932023</v>
+        <v>-16.409995406091493</v>
       </c>
       <c r="O54" s="5">
-        <v>93.750648280506809</v>
+        <v>161.55451189046408</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Q54" s="4"/>
       <c r="R54" s="4" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="S54" s="5">
-        <v>31.969999313354492</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T54" s="5">
-        <v>22.979999542236328</v>
+        <v>0.51471400260925304</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="C55" s="5">
-        <v>463901952</v>
+        <v>467727904</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>141</v>
@@ -4513,40 +4513,40 @@
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1297713</v>
+        <v>1302055.75</v>
       </c>
       <c r="G55" s="5">
-        <v>6.6649575233459473</v>
+        <v>6.7532467842102051</v>
       </c>
       <c r="H55" s="5">
-        <v>0.47153795088790101</v>
+        <v>-0.47352416594788105</v>
       </c>
       <c r="I55" s="5">
-        <v>6.6267586676209911</v>
+        <v>6.2654324694611851</v>
       </c>
       <c r="J55" s="5">
-        <v>5.824775007949512</v>
+        <v>8.1564823387288765</v>
       </c>
       <c r="K55" s="5">
-        <v>-13.037283165835699</v>
+        <v>-11.233119405044988</v>
       </c>
       <c r="L55" s="5">
-        <v>-19.625910030073246</v>
+        <v>-17.351567339124962</v>
       </c>
       <c r="M55" s="5">
-        <v>-7.5395605261702077</v>
+        <v>-7.9773830510204045</v>
       </c>
       <c r="N55" s="5">
-        <v>-33.644692645993715</v>
+        <v>-34.103458212394955</v>
       </c>
       <c r="O55" s="5">
-        <v>36.930930133252751</v>
+        <v>36.282529088414584</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R55" s="4" t="s">
         <v>142</v>
@@ -4555,138 +4555,138 @@
         <v>3.5895411339548722</v>
       </c>
       <c r="T55" s="5">
-        <v>2.13612961769104</v>
+        <v>2.1260147094726558</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="C56" s="5">
-        <v>456257792</v>
+        <v>458258272</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>1565312.5</v>
-      </c>
-      <c r="G56" s="5"/>
+        <v>7038630</v>
+      </c>
+      <c r="G56" s="5">
+        <v>6.0022883415222168</v>
+      </c>
       <c r="H56" s="5">
-        <v>-5.4384505357841224</v>
+        <v>2.0719860144373441</v>
       </c>
       <c r="I56" s="5">
-        <v>-6.2247406738517146</v>
+        <v>-0.95240410015679011</v>
       </c>
       <c r="J56" s="5">
-        <v>-13.904997055362323</v>
+        <v>-0.94884506363986909</v>
       </c>
       <c r="K56" s="5">
-        <v>-1.352805185330797</v>
+        <v>-8.9738751321876702</v>
       </c>
       <c r="L56" s="5">
-        <v>30.061583000993441</v>
+        <v>-9.4576580560752017</v>
       </c>
       <c r="M56" s="5">
-        <v>-2.9937026254516219</v>
+        <v>-10.473204188902784</v>
       </c>
       <c r="N56" s="5">
-        <v>43.158317901523091</v>
+        <v>-30.096976803731891</v>
       </c>
       <c r="O56" s="5">
-        <v>645.70287788681139</v>
+        <v>45.148514063260102</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="Q56" s="4"/>
       <c r="R56" s="4" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="S56" s="5">
-        <v>10.579760227544591</v>
+        <v>1016.4068908941755</v>
       </c>
       <c r="T56" s="5">
-        <v>8.3042945861816406</v>
+        <v>659.5728759765625</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C57" s="5">
-        <v>443910336</v>
+        <v>431496736</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>6842728</v>
-      </c>
-      <c r="G57" s="5">
-        <v>6.128504753112793</v>
-      </c>
+        <v>1518461.5</v>
+      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="5">
-        <v>-0.81681522273294704</v>
+        <v>3.7876637219751208</v>
       </c>
       <c r="I57" s="5">
-        <v>-2.5782034251892521</v>
+        <v>-1.81819572366958</v>
       </c>
       <c r="J57" s="5">
-        <v>-2.8078232478412239</v>
+        <v>-11.877328757782879</v>
       </c>
       <c r="K57" s="5">
-        <v>-8.6901860887960822</v>
+        <v>4.1528886891492478</v>
       </c>
       <c r="L57" s="5">
-        <v>-9.2723522132100218</v>
+        <v>35.099109965607809</v>
       </c>
       <c r="M57" s="5">
-        <v>-12.29053209718648</v>
+        <v>0.68056970823544605</v>
       </c>
       <c r="N57" s="5">
-        <v>-30.234025548840648</v>
+        <v>54.060488554288888</v>
       </c>
       <c r="O57" s="5">
-        <v>43.109576976354532</v>
+        <v>673.94759526625467</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q57" s="4"/>
+      <c r="Q57" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="R57" s="4" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="S57" s="5">
-        <v>1016.4068908941755</v>
+        <v>10.579760227544591</v>
       </c>
       <c r="T57" s="5">
-        <v>650.30767822265625</v>
+        <v>8.6188335418701172</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A58" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="C58" s="5">
-        <v>382497888</v>
+        <v>386371616</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>23</v>
@@ -4695,60 +4695,60 @@
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>1599771.375</v>
+        <v>5776146</v>
       </c>
       <c r="G58" s="5">
-        <v>5.8083257675170898</v>
+        <v>9.464508056640625</v>
       </c>
       <c r="H58" s="5">
-        <v>0.38872655006136903</v>
+        <v>-4.347834483498203</v>
       </c>
       <c r="I58" s="5">
-        <v>-5.3162230230794467</v>
+        <v>-3.136311581160967</v>
       </c>
       <c r="J58" s="5">
-        <v>-16.557566188457983</v>
+        <v>-12.155461931945212</v>
       </c>
       <c r="K58" s="5">
-        <v>-12.441261271223624</v>
+        <v>-9.5917087861900114</v>
       </c>
       <c r="L58" s="5">
-        <v>-27.948990195364985</v>
+        <v>-14.28470065995181</v>
       </c>
       <c r="M58" s="5">
-        <v>-6.583176349147668</v>
+        <v>-10.185206913765665</v>
       </c>
       <c r="N58" s="5">
-        <v>-28.868674790890083</v>
+        <v>-18.878510813642258</v>
       </c>
       <c r="O58" s="5">
-        <v>56.928141613587812</v>
+        <v>97.188677897591489</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R58" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S58" s="5">
-        <v>17.930000305175781</v>
+        <v>23.069999694824219</v>
       </c>
       <c r="T58" s="5">
-        <v>10.329999923706055</v>
+        <v>16.059999465942383</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="C59" s="5">
-        <v>375786080</v>
+        <v>383984768</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>23</v>
@@ -4757,93 +4757,93 @@
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>5629262.5</v>
+        <v>1659229.5</v>
       </c>
       <c r="G59" s="5">
-        <v>9.0530071258544922</v>
+        <v>5.9701495170593262</v>
       </c>
       <c r="H59" s="5">
-        <v>2.8169074952260731</v>
+        <v>-2.710549225935877</v>
       </c>
       <c r="I59" s="5">
-        <v>1.634385292264229</v>
+        <v>-6.2500005560134566</v>
       </c>
       <c r="J59" s="5">
-        <v>-7.9655406969437745</v>
+        <v>-18.624796073365481</v>
       </c>
       <c r="K59" s="5">
-        <v>-4.1628974547544884</v>
+        <v>-13.732637039895524</v>
       </c>
       <c r="L59" s="5">
-        <v>-11.654490902098502</v>
+        <v>-28.886756924475556</v>
       </c>
       <c r="M59" s="5">
-        <v>-6.1027080764422532</v>
+        <v>-9.1152853395097271</v>
       </c>
       <c r="N59" s="5">
-        <v>-16.015178487862268</v>
+        <v>-31.69314033955899</v>
       </c>
       <c r="O59" s="5">
-        <v>106.15181771663362</v>
+        <v>52.674527085805153</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R59" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S59" s="5">
-        <v>23.069999694824219</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="T59" s="5">
-        <v>16.790000915527344</v>
+        <v>10.050000190734863</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A60" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="C60" s="5">
-        <v>333695456</v>
+        <v>324622592</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>7479955</v>
+        <v>7319973</v>
       </c>
       <c r="G60" s="5">
-        <v>0.80895006656646706</v>
+        <v>0.81314873695373502</v>
       </c>
       <c r="H60" s="5">
-        <v>-2.7307031788883269</v>
+        <v>-0.58636545018294606</v>
       </c>
       <c r="I60" s="5">
-        <v>-12.357425101249087</v>
+        <v>-6.1103984543555594</v>
       </c>
       <c r="J60" s="5">
-        <v>-16.006776261897482</v>
+        <v>-12.921140402671671</v>
       </c>
       <c r="K60" s="5">
-        <v>-38.258339762161256</v>
+        <v>-41.868109786048599</v>
       </c>
       <c r="L60" s="5">
-        <v>30.132407247815006</v>
+        <v>28.876532479604535</v>
       </c>
       <c r="M60" s="5">
-        <v>-36.07893906943638</v>
+        <v>-36.453750086123591</v>
       </c>
       <c r="N60" s="5">
-        <v>-1.0854323687305769</v>
+        <v>-2.4529802091254442</v>
       </c>
       <c r="O60" s="5"/>
       <c r="P60" s="4" t="s">
@@ -4851,24 +4851,24 @@
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S60" s="5">
         <v>0.55299045370637101</v>
       </c>
       <c r="T60" s="5">
-        <v>0.30536678433418302</v>
+        <v>0.30357623100280801</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="C61" s="5">
-        <v>283244640</v>
+        <v>288214656</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>141</v>
@@ -4877,40 +4877,40 @@
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1011377.875</v>
+        <v>1014073</v>
       </c>
       <c r="G61" s="5">
-        <v>7.6530694961547852</v>
+        <v>7.573089599609375</v>
       </c>
       <c r="H61" s="5">
-        <v>1.3982099220182231</v>
+        <v>1.909912578003059</v>
       </c>
       <c r="I61" s="5">
-        <v>3.595890236726174</v>
+        <v>7.5341024431188295</v>
       </c>
       <c r="J61" s="5">
-        <v>-0.94841032699902705</v>
+        <v>3.2174532622075258</v>
       </c>
       <c r="K61" s="5">
-        <v>-17.293538809688059</v>
+        <v>-15.011813899965109</v>
       </c>
       <c r="L61" s="5">
-        <v>-27.39896557638437</v>
+        <v>-21.645888164707394</v>
       </c>
       <c r="M61" s="5">
-        <v>-12.175741460323831</v>
+        <v>-10.498374899936625</v>
       </c>
       <c r="N61" s="5">
-        <v>-34.667286066149394</v>
+        <v>-34.167399960411601</v>
       </c>
       <c r="O61" s="5">
-        <v>17.422311589282536</v>
+        <v>19.664975087708193</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R61" s="4" t="s">
         <v>142</v>
@@ -4919,18 +4919,18 @@
         <v>0.72014215793247505</v>
       </c>
       <c r="T61" s="5">
-        <v>0.41479575634002702</v>
+        <v>0.42271798849105802</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="C62" s="5">
-        <v>273787520</v>
+        <v>284065216</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>45</v>
@@ -4939,34 +4939,34 @@
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>1658561.625</v>
+        <v>1733388.125</v>
       </c>
       <c r="G62" s="5">
-        <v>5.9689621925354004</v>
+        <v>5.8166351318359384</v>
       </c>
       <c r="H62" s="5">
-        <v>-1.6611552143183221</v>
+        <v>2.5878432105897353</v>
       </c>
       <c r="I62" s="5">
-        <v>-3.8580209668676808</v>
+        <v>-1.1803226806851861</v>
       </c>
       <c r="J62" s="5">
-        <v>-7.0342147035302176</v>
+        <v>-4.2878117647503036</v>
       </c>
       <c r="K62" s="5">
-        <v>-6.7050090575500274</v>
+        <v>-5.7186373075589492</v>
       </c>
       <c r="L62" s="5">
-        <v>-2.7779806095785002E-2</v>
+        <v>1.201130929495364</v>
       </c>
       <c r="M62" s="5">
-        <v>-9.9834624627326392</v>
+        <v>-7.6539756076665082</v>
       </c>
       <c r="N62" s="5">
-        <v>-23.149813477741287</v>
+        <v>-22.176102662534291</v>
       </c>
       <c r="O62" s="5">
-        <v>47.449110329295287</v>
+        <v>50.305678057164151</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>25</v>
@@ -4979,138 +4979,138 @@
         <v>1127.0154656136885</v>
       </c>
       <c r="T62" s="5">
-        <v>783.256103515625</v>
+        <v>798.4302978515625</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="C63" s="5">
-        <v>240234128</v>
+        <v>234721968</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>2030867.5</v>
-      </c>
-      <c r="G63" s="5"/>
+        <v>2315091.25</v>
+      </c>
+      <c r="G63" s="5">
+        <v>6.8195915222167969</v>
+      </c>
       <c r="H63" s="5">
-        <v>-3.395364145809487</v>
+        <v>-3.4131830906127592</v>
       </c>
       <c r="I63" s="5">
-        <v>-9.6683018000306546</v>
+        <v>0.31094053045881404</v>
       </c>
       <c r="J63" s="5">
-        <v>-6.1278932487264237</v>
+        <v>-12.783074846618426</v>
       </c>
       <c r="K63" s="5">
-        <v>-32.856838253472489</v>
+        <v>-11.463034187609145</v>
       </c>
       <c r="L63" s="5">
-        <v>50.640941528855791</v>
+        <v>-4.2848030104550521</v>
       </c>
       <c r="M63" s="5">
-        <v>-31.212738545000885</v>
+        <v>-14.154409618790121</v>
       </c>
       <c r="N63" s="5">
-        <v>135.04925388846081</v>
+        <v>-8.656754689639822</v>
       </c>
       <c r="O63" s="5">
-        <v>27.967610317035607</v>
+        <v>57.36624079341437</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q63" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="R63" s="4" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="S63" s="5">
-        <v>0.45377137396633505</v>
+        <v>20.789899826049805</v>
       </c>
       <c r="T63" s="5">
-        <v>0.288547933101654</v>
+        <v>16.129999160766602</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="C64" s="5">
-        <v>230927072</v>
+        <v>232105424</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>2283101.25</v>
-      </c>
-      <c r="G64" s="5">
-        <v>6.5868263244628906</v>
-      </c>
+        <v>2020289.625</v>
+      </c>
+      <c r="G64" s="5"/>
       <c r="H64" s="5">
-        <v>1.643338117763848</v>
+        <v>0.47568498708558904</v>
       </c>
       <c r="I64" s="5">
-        <v>2.5168804442564863</v>
+        <v>-3.0721103691653928</v>
       </c>
       <c r="J64" s="5">
-        <v>-9.556528344796277</v>
+        <v>-3.4912304247286641</v>
       </c>
       <c r="K64" s="5">
-        <v>-5.7880519811429938</v>
+        <v>-30.78128704107894</v>
       </c>
       <c r="L64" s="5">
-        <v>-2.696037709743226</v>
+        <v>51.482238212944999</v>
       </c>
       <c r="M64" s="5">
-        <v>-11.120799786014501</v>
+        <v>-30.885527869232156</v>
       </c>
       <c r="N64" s="5">
-        <v>-5.1758775575007849</v>
+        <v>132.36268712010562</v>
       </c>
       <c r="O64" s="5">
-        <v>62.927246004024795</v>
+        <v>28.57633302764593</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q64" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="Q64" s="4"/>
       <c r="R64" s="4" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="S64" s="5">
-        <v>20.789899826049805</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T64" s="5">
-        <v>16.700000762939453</v>
+        <v>0.28992053866386402</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="C65" s="5">
-        <v>216033328</v>
+        <v>224032768</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>45</v>
@@ -5119,34 +5119,34 @@
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>1053279</v>
+        <v>1076612.875</v>
       </c>
       <c r="G65" s="5">
-        <v>5.827672004699707</v>
+        <v>5.6817445755004883</v>
       </c>
       <c r="H65" s="5">
-        <v>-0.88982546742765212</v>
+        <v>2.5373930439215542</v>
       </c>
       <c r="I65" s="5">
-        <v>-1.196363357365904</v>
+        <v>1.22516791593299</v>
       </c>
       <c r="J65" s="5">
-        <v>-2.1516039912467528</v>
+        <v>-0.48741493338256803</v>
       </c>
       <c r="K65" s="5">
-        <v>-7.0877413481512441</v>
+        <v>-5.6444749475331406</v>
       </c>
       <c r="L65" s="5">
-        <v>1.9544068064412112</v>
+        <v>3.0590951589554378</v>
       </c>
       <c r="M65" s="5">
-        <v>-8.8084663170892483</v>
+        <v>-6.494578684773689</v>
       </c>
       <c r="N65" s="5">
-        <v>-10.132983080526369</v>
+        <v>-9.0705584960377514</v>
       </c>
       <c r="O65" s="5">
-        <v>80.646943159911118</v>
+        <v>84.056101856055761</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>55</v>
@@ -5159,18 +5159,18 @@
         <v>1090.5527244217953</v>
       </c>
       <c r="T65" s="5">
-        <v>916.9642333984375</v>
+        <v>934.26910400390625</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A66" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="C66" s="5">
-        <v>207114832</v>
+        <v>214400416</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>45</v>
@@ -5179,31 +5179,31 @@
         <v>24</v>
       </c>
       <c r="F66" s="5">
-        <v>1572109.625</v>
+        <v>1655370.625</v>
       </c>
       <c r="G66" s="5">
-        <v>5.8957595825195312</v>
+        <v>5.7584123611450204</v>
       </c>
       <c r="H66" s="5">
-        <v>1.8717428391226592</v>
+        <v>2.354256063332683</v>
       </c>
       <c r="I66" s="5">
-        <v>0.46752555692291003</v>
+        <v>2.9843472105218538</v>
       </c>
       <c r="J66" s="5">
-        <v>3.8621779252090004E-2</v>
+        <v>1.6828918491688549</v>
       </c>
       <c r="K66" s="5">
-        <v>-1.8194591188669511</v>
+        <v>-0.79987621013891708</v>
       </c>
       <c r="L66" s="5">
-        <v>6.4095205651811824</v>
+        <v>6.0429898010222693</v>
       </c>
       <c r="M66" s="5">
-        <v>-5.3630178587839801</v>
+        <v>-3.1350209685693242</v>
       </c>
       <c r="N66" s="5">
-        <v>-3.3693369727259999</v>
+        <v>-2.2788711121549898</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="4" t="s">
@@ -5217,127 +5217,127 @@
         <v>960.01974333662383</v>
       </c>
       <c r="T66" s="5">
-        <v>859.986328125</v>
+        <v>874.65093994140625</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A67" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="C67" s="5">
-        <v>199631168</v>
+        <v>199382368</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="5">
-        <v>4463121</v>
+        <v>4338113.5</v>
       </c>
       <c r="G67" s="5">
-        <v>2.96861743927002</v>
+        <v>2.904564380645752</v>
       </c>
       <c r="H67" s="5">
-        <v>-0.13673353560781401</v>
+        <v>2.1333229202096899</v>
       </c>
       <c r="I67" s="5">
-        <v>-9.9857883886320664</v>
+        <v>-2.921200967216631</v>
       </c>
       <c r="J67" s="5">
-        <v>-5.8577720964465012</v>
+        <v>-1.7654534896129559</v>
       </c>
       <c r="K67" s="5">
-        <v>-27.993432626103697</v>
+        <v>-27.418850101908411</v>
       </c>
       <c r="L67" s="5">
-        <v>32.715258579669481</v>
+        <v>32.076868888024677</v>
       </c>
       <c r="M67" s="5">
-        <v>-30.809714047489511</v>
+        <v>-29.333661818705991</v>
       </c>
       <c r="N67" s="5">
-        <v>37.092184903882199</v>
+        <v>38.841175113211925</v>
       </c>
       <c r="O67" s="5">
-        <v>120.12858070099917</v>
+        <v>124.82463416702583</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S67" s="5">
         <v>4.6771184674018205</v>
       </c>
       <c r="T67" s="5">
-        <v>3.0983428955078129</v>
+        <v>3.1644406318664551</v>
       </c>
     </row>
     <row r="68" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A68" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="C68" s="5">
-        <v>171506480</v>
+        <v>169240096</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F68" s="5">
-        <v>6914993.5</v>
+        <v>6587089</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5">
-        <v>-1.3334161764583461</v>
+        <v>0.79480835209795309</v>
       </c>
       <c r="I68" s="5">
-        <v>-10.724406795225782</v>
+        <v>-4.7589721349918008</v>
       </c>
       <c r="J68" s="5">
-        <v>-18.762767981323535</v>
+        <v>-18.955820733995075</v>
       </c>
       <c r="K68" s="5">
-        <v>-38.762973506426668</v>
+        <v>-37.402896608465518</v>
       </c>
       <c r="L68" s="5">
-        <v>50.323908287398524</v>
+        <v>51.643548418530557</v>
       </c>
       <c r="M68" s="5">
-        <v>-43.481417255078945</v>
+        <v>-43.032202838934921</v>
       </c>
       <c r="N68" s="5">
-        <v>91.488222474913613</v>
+        <v>89.009542721754897</v>
       </c>
       <c r="O68" s="5">
-        <v>96.832120351416307</v>
+        <v>98.396558483580847</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="S68" s="5">
         <v>0.22635182608908702</v>
       </c>
       <c r="T68" s="5">
-        <v>0.12141088396310801</v>
+        <v>0.12237587571144101</v>
       </c>
     </row>
     <row r="69" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5348,54 +5348,54 @@
         <v>220</v>
       </c>
       <c r="C69" s="5">
-        <v>133733776</v>
+        <v>134032184</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F69" s="5">
-        <v>1908895.375</v>
+        <v>1997454.25</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5">
-        <v>0.21098755658912602</v>
+        <v>2.8147282776306293</v>
       </c>
       <c r="I69" s="5">
-        <v>8.541893468383277</v>
+        <v>13.324804335877927</v>
       </c>
       <c r="J69" s="5">
-        <v>19.572172776235131</v>
+        <v>21.435833454910846</v>
       </c>
       <c r="K69" s="5">
-        <v>-0.6103914279490531</v>
+        <v>4.1719775750939547</v>
       </c>
       <c r="L69" s="5">
-        <v>75.572507312094444</v>
+        <v>76.442024918024657</v>
       </c>
       <c r="M69" s="5">
-        <v>3.519402637923275</v>
+        <v>6.4331925368071863</v>
       </c>
       <c r="N69" s="5">
-        <v>206.06324126062586</v>
+        <v>214.71205319527479</v>
       </c>
       <c r="O69" s="5">
-        <v>114.8412185674907</v>
+        <v>120.88841509851606</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="Q69" s="4"/>
       <c r="R69" s="4" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="S69" s="5">
         <v>0.21302626225358301</v>
       </c>
       <c r="T69" s="5">
-        <v>0.20024912059307101</v>
+        <v>0.20588560402393302</v>
       </c>
     </row>
     <row r="70" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5406,54 +5406,54 @@
         <v>222</v>
       </c>
       <c r="C70" s="5">
-        <v>101423312</v>
+        <v>104071808</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F70" s="5">
-        <v>2377656.5</v>
+        <v>2393982</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5">
-        <v>2.598892269086051</v>
+        <v>9.8338243302217965</v>
       </c>
       <c r="I70" s="5">
-        <v>15.520430687339459</v>
+        <v>18.470789669002841</v>
       </c>
       <c r="J70" s="5">
-        <v>38.472856433758551</v>
+        <v>51.876724674081665</v>
       </c>
       <c r="K70" s="5">
-        <v>65.052479012789945</v>
+        <v>79.173114699242106</v>
       </c>
       <c r="L70" s="5">
-        <v>184.85182697542629</v>
+        <v>209.42679609725076</v>
       </c>
       <c r="M70" s="5">
-        <v>62.637076649004861</v>
+        <v>78.630521062476163</v>
       </c>
       <c r="N70" s="5">
-        <v>555.3882884717525</v>
+        <v>632.34947951964386</v>
       </c>
       <c r="O70" s="5">
-        <v>853.53050683058291</v>
+        <v>947.29902180737611</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q70" s="4"/>
       <c r="R70" s="4" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="S70" s="5">
-        <v>2.7146606660452282</v>
+        <v>2.8598140077280343</v>
       </c>
       <c r="T70" s="5">
-        <v>2.6037642955780029</v>
+        <v>2.859813928604126</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\23.03.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\24.03.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="220">
   <si>
     <t>USD</t>
   </si>
@@ -120,6 +120,21 @@
     <t>AUD</t>
   </si>
   <si>
+    <t>MGR AU Equity</t>
+  </si>
+  <si>
+    <t>MIRVAC GROUP</t>
+  </si>
+  <si>
+    <t>GPT AU Equity</t>
+  </si>
+  <si>
+    <t>GPT GROUP</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
     <t>LAND LN Equity</t>
   </si>
   <si>
@@ -135,21 +150,6 @@
     <t>GBp</t>
   </si>
   <si>
-    <t>GPT AU Equity</t>
-  </si>
-  <si>
-    <t>GPT GROUP</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>MGR AU Equity</t>
-  </si>
-  <si>
-    <t>MIRVAC GROUP</t>
-  </si>
-  <si>
     <t>3462 JP Equity</t>
   </si>
   <si>
@@ -240,27 +240,27 @@
     <t>UNITED URBAN</t>
   </si>
   <si>
+    <t>SUN SP Equity</t>
+  </si>
+  <si>
+    <t>SUNTEC REIT</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
     <t>BNL US Equity</t>
   </si>
   <si>
     <t>BROADSTONE NET</t>
   </si>
   <si>
-    <t>SUN SP Equity</t>
-  </si>
-  <si>
-    <t>SUNTEC REIT</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>HR-U CN Equity</t>
   </si>
   <si>
@@ -324,15 +324,15 @@
     <t>HULIC REIT INC</t>
   </si>
   <si>
+    <t>GOZ AU Equity</t>
+  </si>
+  <si>
     <t>ABP AU Equity</t>
   </si>
   <si>
     <t>ABACUS PROPERTY</t>
   </si>
   <si>
-    <t>GOZ AU Equity</t>
-  </si>
-  <si>
     <t>8956 JP Equity</t>
   </si>
   <si>
@@ -363,6 +363,12 @@
     <t>04/04/2023</t>
   </si>
   <si>
+    <t>8966 JP Equity</t>
+  </si>
+  <si>
+    <t>HEIWA REAL ESTAT</t>
+  </si>
+  <si>
     <t>GNL US Equity</t>
   </si>
   <si>
@@ -372,12 +378,6 @@
     <t>01/17/2023</t>
   </si>
   <si>
-    <t>8966 JP Equity</t>
-  </si>
-  <si>
-    <t>HEIWA REAL ESTAT</t>
-  </si>
-  <si>
     <t>405 HK Equity</t>
   </si>
   <si>
@@ -393,6 +393,12 @@
     <t>CNY</t>
   </si>
   <si>
+    <t>3296 JP Equity</t>
+  </si>
+  <si>
+    <t>NIPPON REIT INVE</t>
+  </si>
+  <si>
     <t>AAT US Equity</t>
   </si>
   <si>
@@ -402,78 +408,63 @@
     <t>03/23/2023</t>
   </si>
   <si>
-    <t>ZRGYO TI Equity</t>
-  </si>
-  <si>
-    <t>ZIRAAT GAYRIMENK</t>
+    <t>ESRT US Equity</t>
+  </si>
+  <si>
+    <t>EMPIRE STATE REA</t>
+  </si>
+  <si>
+    <t>03/31/2023</t>
+  </si>
+  <si>
+    <t>AHH US Equity</t>
+  </si>
+  <si>
+    <t>ARMADA HOFFLER P</t>
+  </si>
+  <si>
+    <t>RIT1 IT Equity</t>
+  </si>
+  <si>
+    <t>REIT 1 LTD</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ILs</t>
+  </si>
+  <si>
+    <t>CNI AU Equity</t>
+  </si>
+  <si>
+    <t>CENTURIA CAPITAL</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>TRGYO TI Equity</t>
+  </si>
+  <si>
+    <t>TORUNLAR GAYRIME</t>
   </si>
   <si>
     <t>Turkey</t>
   </si>
   <si>
-    <t>06/30/2022</t>
+    <t>Discontinued</t>
   </si>
   <si>
     <t>TRY</t>
   </si>
   <si>
-    <t>3296 JP Equity</t>
-  </si>
-  <si>
-    <t>NIPPON REIT INVE</t>
-  </si>
-  <si>
-    <t>ESRT US Equity</t>
-  </si>
-  <si>
-    <t>EMPIRE STATE REA</t>
-  </si>
-  <si>
-    <t>03/31/2023</t>
-  </si>
-  <si>
-    <t>AHH US Equity</t>
-  </si>
-  <si>
-    <t>ARMADA HOFFLER P</t>
-  </si>
-  <si>
-    <t>RIT1 IT Equity</t>
-  </si>
-  <si>
-    <t>REIT 1 LTD</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>ILs</t>
-  </si>
-  <si>
-    <t>CNI AU Equity</t>
-  </si>
-  <si>
-    <t>CENTURIA CAPITAL</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
     <t>UKCM LN Equity</t>
   </si>
   <si>
     <t>UK COMMERCIAL PR</t>
   </si>
   <si>
-    <t>TRGYO TI Equity</t>
-  </si>
-  <si>
-    <t>TORUNLAR GAYRIME</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
     <t>3468 JP Equity</t>
   </si>
   <si>
@@ -519,6 +510,15 @@
     <t>ARTIS REAL ESTAT</t>
   </si>
   <si>
+    <t>DGGYO TI Equity</t>
+  </si>
+  <si>
+    <t>DOGUS GAYRIMENKU</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
     <t>STAR US Equity</t>
   </si>
   <si>
@@ -543,13 +543,19 @@
     <t>NZD</t>
   </si>
   <si>
-    <t>DGGYO TI Equity</t>
-  </si>
-  <si>
-    <t>DOGUS GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>Omitted</t>
+    <t>OZKGY TI Equity</t>
+  </si>
+  <si>
+    <t>OZAK GAYRIMENKUL</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>ISGYO TI Equity</t>
+  </si>
+  <si>
+    <t>IS GAYRIMENKUL Y</t>
   </si>
   <si>
     <t>GOOD US Equity</t>
@@ -558,25 +564,16 @@
     <t>GLADSTONE COMMER</t>
   </si>
   <si>
-    <t>OZKGY TI Equity</t>
-  </si>
-  <si>
-    <t>OZAK GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>06/04/2013</t>
-  </si>
-  <si>
     <t>OLP US Equity</t>
   </si>
   <si>
     <t>ONE LIBERTY PROP</t>
   </si>
   <si>
-    <t>ISGYO TI Equity</t>
-  </si>
-  <si>
-    <t>IS GAYRIMENKUL Y</t>
+    <t>3492 JP Equity</t>
+  </si>
+  <si>
+    <t>TAKARA LEBEN REA</t>
   </si>
   <si>
     <t>SLARL IT Equity</t>
@@ -588,12 +585,6 @@
     <t>03/21/2023</t>
   </si>
   <si>
-    <t>3492 JP Equity</t>
-  </si>
-  <si>
-    <t>TAKARA LEBEN REA</t>
-  </si>
-  <si>
     <t>SRVGY TI Equity</t>
   </si>
   <si>
@@ -603,18 +594,18 @@
     <t>11/25/2019</t>
   </si>
   <si>
+    <t>NXDT US Equity</t>
+  </si>
+  <si>
+    <t>NEXPOINT DIVERSI</t>
+  </si>
+  <si>
     <t>CTO US Equity</t>
   </si>
   <si>
     <t>CTO REALTY GROWT</t>
   </si>
   <si>
-    <t>NXDT US Equity</t>
-  </si>
-  <si>
-    <t>NEXPOINT DIVERSI</t>
-  </si>
-  <si>
     <t>PSGYO TI Equity</t>
   </si>
   <si>
@@ -636,22 +627,22 @@
     <t>ESCON JAPAN REIT</t>
   </si>
   <si>
+    <t>AKSGY TI Equity</t>
+  </si>
+  <si>
+    <t>AKIS GAYRIMENKUL</t>
+  </si>
+  <si>
+    <t>3470 JP Equity</t>
+  </si>
+  <si>
+    <t>MARIMO REGIONAL</t>
+  </si>
+  <si>
     <t>PINE US Equity</t>
   </si>
   <si>
     <t>ALPINE INCOME</t>
-  </si>
-  <si>
-    <t>AKSGY TI Equity</t>
-  </si>
-  <si>
-    <t>AKIS GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>3470 JP Equity</t>
-  </si>
-  <si>
-    <t>MARIMO REGIONAL</t>
   </si>
   <si>
     <t>2989 JP Equity</t>
@@ -1162,13 +1153,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72:XFD72"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1264,7 +1255,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>16380070912</v>
+        <v>15880896512</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1273,34 +1264,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>74445680</v>
+        <v>73994768</v>
       </c>
       <c r="G2" s="5">
-        <v>5.6604776382446289</v>
+        <v>5.6747775077819824</v>
       </c>
       <c r="H2" s="5">
-        <v>-3.047441454915889</v>
+        <v>-0.251992622760144</v>
       </c>
       <c r="I2" s="5">
-        <v>-4.701720287621991</v>
+        <v>-4.312976406436686</v>
       </c>
       <c r="J2" s="5">
-        <v>-8.1831478275039675</v>
+        <v>-9.5490105781117389</v>
       </c>
       <c r="K2" s="5">
-        <v>-3.003927020159991</v>
+        <v>-4.4130145511881551</v>
       </c>
       <c r="L2" s="5">
-        <v>-2.00495209284971</v>
+        <v>-1.3550031095725279</v>
       </c>
       <c r="M2" s="5">
-        <v>-3.5188738916266731</v>
+        <v>-3.76199921177568</v>
       </c>
       <c r="N2" s="5">
-        <v>-0.73437543786660808</v>
+        <v>-0.50053918661348007</v>
       </c>
       <c r="O2" s="5">
-        <v>81.643556169274589</v>
+        <v>103.90635253376459</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1315,7 +1306,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>75.400001525878906</v>
+        <v>75.209999084472656</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1326,7 +1317,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6165061632</v>
+        <v>6121548800</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1335,34 +1326,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>29129900</v>
+        <v>30719484</v>
       </c>
       <c r="G3" s="5">
-        <v>6.8393783569335938</v>
+        <v>6.8839635848999023</v>
       </c>
       <c r="H3" s="5">
-        <v>0.285407481497435</v>
+        <v>0.15859051690227902</v>
       </c>
       <c r="I3" s="5">
-        <v>2.0459287136387002E-2</v>
+        <v>0.656134524372609</v>
       </c>
       <c r="J3" s="5">
-        <v>-1.127228313622364</v>
+        <v>1.147729302392819</v>
       </c>
       <c r="K3" s="5">
-        <v>5.6359978176645065</v>
+        <v>5.5282672287035428</v>
       </c>
       <c r="L3" s="5">
-        <v>19.558880854745485</v>
+        <v>23.501572158692419</v>
       </c>
       <c r="M3" s="5">
-        <v>3.8364152309922521</v>
+        <v>4.0010899386398568</v>
       </c>
       <c r="N3" s="5">
-        <v>-10.55757033009721</v>
+        <v>-12.469208445779712</v>
       </c>
       <c r="O3" s="5">
-        <v>147.05108270495774</v>
+        <v>196.832606647245</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1377,7 +1368,7 @@
         <v>3.3020850141715812</v>
       </c>
       <c r="T3" s="5">
-        <v>2.570259809494019</v>
+        <v>2.574336051940918</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1388,69 +1379,69 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5588888064</v>
+        <v>5454544384</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>13872839</v>
+        <v>27791718</v>
       </c>
       <c r="G4" s="5">
-        <v>6.7073168754577637</v>
+        <v>4.9878931045532227</v>
       </c>
       <c r="H4" s="5">
-        <v>-3.4025423526206522</v>
+        <v>0.90689239775474406</v>
       </c>
       <c r="I4" s="5">
-        <v>-3.0779571340097012</v>
+        <v>-5.9005459432166729</v>
       </c>
       <c r="J4" s="5">
-        <v>-11.105344070727041</v>
+        <v>-7.0597509563967602</v>
       </c>
       <c r="K4" s="5">
-        <v>-1.1883576671652851</v>
+        <v>-3.3412939620254383</v>
       </c>
       <c r="L4" s="5">
-        <v>15.81727269726998</v>
+        <v>10.328361261511443</v>
       </c>
       <c r="M4" s="5">
-        <v>-2.5440777157573309</v>
+        <v>-4.4558679549662301</v>
       </c>
       <c r="N4" s="5">
-        <v>-25.782510801828217</v>
+        <v>-21.94242300595759</v>
       </c>
       <c r="O4" s="5">
-        <v>15.723576084962755</v>
+        <v>54.59006528829169</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S4" s="5">
-        <v>10.679378389371825</v>
+        <v>1.9528599562626601</v>
       </c>
       <c r="T4" s="5">
-        <v>7.2306289672851562</v>
+        <v>1.3877279758453369</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
-        <v>5461119488</v>
+        <v>5385527296</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1459,37 +1450,37 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>23278556</v>
+        <v>23140636</v>
       </c>
       <c r="G5" s="5">
-        <v>5.8754405975341797</v>
+        <v>5.9382424354553223</v>
       </c>
       <c r="H5" s="5">
-        <v>-0.88070630445135112</v>
+        <v>-0.52570311421567006</v>
       </c>
       <c r="I5" s="5">
-        <v>-5.6036386812836625</v>
+        <v>-5.7947105692771954</v>
       </c>
       <c r="J5" s="5">
-        <v>-10.378559269302723</v>
+        <v>-9.0040477673137715</v>
       </c>
       <c r="K5" s="5">
-        <v>0.97880861701342703</v>
+        <v>-0.344860209912556</v>
       </c>
       <c r="L5" s="5">
-        <v>9.0410226069911115</v>
+        <v>14.158467152686626</v>
       </c>
       <c r="M5" s="5">
-        <v>-0.93157335129993002</v>
+        <v>-1.4523791553966101</v>
       </c>
       <c r="N5" s="5">
-        <v>-18.326262247414761</v>
+        <v>-18.947583507106458</v>
       </c>
       <c r="O5" s="5">
-        <v>75.129503153148633</v>
+        <v>90.481956057884091</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>31</v>
@@ -1501,69 +1492,69 @@
         <v>4.000457090394316</v>
       </c>
       <c r="T5" s="5">
-        <v>2.8372998237609863</v>
+        <v>2.822384119033813</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5">
-        <v>5452578816</v>
+        <v>5376700928</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>26615642</v>
+        <v>14114279</v>
       </c>
       <c r="G6" s="5">
-        <v>4.9638552665710449</v>
+        <v>6.7831449508666992</v>
       </c>
       <c r="H6" s="5">
-        <v>-2.0910218272188419</v>
+        <v>-0.68997344989010201</v>
       </c>
       <c r="I6" s="5">
-        <v>-6.6444632460077369</v>
+        <v>-3.677255001289681</v>
       </c>
       <c r="J6" s="5">
-        <v>-9.6135559684351275</v>
+        <v>-11.889747613855539</v>
       </c>
       <c r="K6" s="5">
-        <v>-3.8868083264419928</v>
+        <v>-2.352297525466462</v>
       </c>
       <c r="L6" s="5">
-        <v>4.4442806704243498</v>
+        <v>26.403554685290477</v>
       </c>
       <c r="M6" s="5">
-        <v>-5.3145629850358089</v>
+        <v>-3.2164977048641412</v>
       </c>
       <c r="N6" s="5">
-        <v>-21.831631495914461</v>
+        <v>-24.45912654829192</v>
       </c>
       <c r="O6" s="5">
-        <v>34.434386148644045</v>
+        <v>22.679610643272486</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S6" s="5">
-        <v>1.9528599562626601</v>
+        <v>10.679378389371825</v>
       </c>
       <c r="T6" s="5">
-        <v>1.375255942344666</v>
+        <v>7.1807394027709961</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1574,7 +1565,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5301857280</v>
+        <v>5282409472</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1583,34 +1574,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>14574364</v>
+        <v>14567448</v>
       </c>
       <c r="G7" s="5">
-        <v>4.6160106658935547</v>
+        <v>4.6475410461425781</v>
       </c>
       <c r="H7" s="5">
-        <v>0.85934990281273405</v>
+        <v>0.57390748816137405</v>
       </c>
       <c r="I7" s="5">
-        <v>-0.7373036604502391</v>
+        <v>0.63505684317071209</v>
       </c>
       <c r="J7" s="5">
-        <v>0.64032313534543306</v>
+        <v>1.2704914775223841</v>
       </c>
       <c r="K7" s="5">
-        <v>-7.8859049569464323</v>
+        <v>-5.5767279104348644</v>
       </c>
       <c r="L7" s="5">
-        <v>-3.3808243906277351</v>
+        <v>-2.2597652789645872</v>
       </c>
       <c r="M7" s="5">
-        <v>-8.6292963008734009</v>
+        <v>-8.1049129903583825</v>
       </c>
       <c r="N7" s="5">
-        <v>-12.704122628895531</v>
+        <v>-11.079023228584051</v>
       </c>
       <c r="O7" s="5">
-        <v>77.525292511060059</v>
+        <v>53.312859934704314</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>46</v>
@@ -1623,7 +1614,7 @@
         <v>1366.6940114848237</v>
       </c>
       <c r="T7" s="5">
-        <v>1112.368896484375</v>
+        <v>1118.7528076171875</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1634,7 +1625,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>4865656832</v>
+        <v>4936868864</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1643,34 +1634,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>9787975</v>
+        <v>9873535</v>
       </c>
       <c r="G8" s="5">
-        <v>2.601925373077393</v>
+        <v>2.5675339698791499</v>
       </c>
       <c r="H8" s="5">
-        <v>2.4066574379756123</v>
+        <v>1.230163100305504</v>
       </c>
       <c r="I8" s="5">
-        <v>-7.9501230450640011E-3</v>
+        <v>0.54937405196975309</v>
       </c>
       <c r="J8" s="5">
-        <v>-8.5843500871348617</v>
+        <v>-7.3871129494443304</v>
       </c>
       <c r="K8" s="5">
-        <v>10.003406606615449</v>
+        <v>10.206751863549869</v>
       </c>
       <c r="L8" s="5">
-        <v>22.173506834054081</v>
+        <v>28.510278696262613</v>
       </c>
       <c r="M8" s="5">
-        <v>14.393154008773767</v>
+        <v>15.800376378665359</v>
       </c>
       <c r="N8" s="5">
-        <v>29.049099822195458</v>
+        <v>31.980942235177558</v>
       </c>
       <c r="O8" s="5">
-        <v>123.40062143990033</v>
+        <v>168.69054585526456</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1685,7 +1676,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.289782643318176</v>
+        <v>1.3056491613388062</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1696,7 +1687,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4776626688</v>
+        <v>4722375168</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1705,34 +1696,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>10751491</v>
+        <v>10796014</v>
       </c>
       <c r="G9" s="5">
-        <v>4.1496849060058594</v>
+        <v>4.2105264663696289</v>
       </c>
       <c r="H9" s="5">
-        <v>1.131385304146781</v>
+        <v>-0.20231146227944802</v>
       </c>
       <c r="I9" s="5">
-        <v>-1.3110383392537339</v>
+        <v>-0.14262995779350501</v>
       </c>
       <c r="J9" s="5">
-        <v>0.45585282434976704</v>
+        <v>0.30470361350873904</v>
       </c>
       <c r="K9" s="5">
-        <v>-5.5584404059067394</v>
+        <v>-4.1241995224635346</v>
       </c>
       <c r="L9" s="5">
-        <v>-6.2428729404920063</v>
+        <v>-5.8870254581955939</v>
       </c>
       <c r="M9" s="5">
-        <v>-7.218800946719961</v>
+        <v>-7.4065079472450552</v>
       </c>
       <c r="N9" s="5">
-        <v>-21.19558555855965</v>
+        <v>-20.948302059421351</v>
       </c>
       <c r="O9" s="5">
-        <v>39.713830908727132</v>
+        <v>14.494399322499184</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1745,7 +1736,7 @@
         <v>2802.4439918533603</v>
       </c>
       <c r="T9" s="5">
-        <v>2036.827392578125</v>
+        <v>2032.7066650390625</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1756,43 +1747,43 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4543748608</v>
+        <v>4269425152</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>13308164</v>
+        <v>14030056</v>
       </c>
       <c r="G10" s="5">
-        <v>6.1866669654846191</v>
+        <v>6.3077764511108398</v>
       </c>
       <c r="H10" s="5">
-        <v>-5.6525087415665194</v>
+        <v>-1.495555557959682</v>
       </c>
       <c r="I10" s="5">
-        <v>-6.3796903036876458</v>
+        <v>-6.5531302850862616</v>
       </c>
       <c r="J10" s="5">
-        <v>-12.918235815005874</v>
+        <v>-14.077846696142815</v>
       </c>
       <c r="K10" s="5">
-        <v>-2.4635866557935042</v>
+        <v>-4.7609145570482791</v>
       </c>
       <c r="L10" s="5">
-        <v>10.740751857784447</v>
+        <v>18.003696501579313</v>
       </c>
       <c r="M10" s="5">
-        <v>-3.918365008923919</v>
+        <v>-5.3553192412114985</v>
       </c>
       <c r="N10" s="5">
-        <v>-29.999563128994676</v>
+        <v>-29.243173646663557</v>
       </c>
       <c r="O10" s="5">
-        <v>21.14994986187795</v>
+        <v>28.611252290494281</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1801,13 +1792,13 @@
         <v>58</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S10" s="5">
         <v>7.1818816476984253</v>
       </c>
       <c r="T10" s="5">
-        <v>4.5926251411437988</v>
+        <v>4.5239396095275879</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1818,7 +1809,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4169128960</v>
+        <v>3992709632</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1827,34 +1818,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>8604279</v>
+        <v>8774139</v>
       </c>
       <c r="G11" s="5">
-        <v>2.065009593963623</v>
+        <v>2.076923131942749</v>
       </c>
       <c r="H11" s="5">
-        <v>-3.583422700422279</v>
+        <v>0.10796509700195001</v>
       </c>
       <c r="I11" s="5">
-        <v>-3.2928301486816252</v>
+        <v>-3.0407773865485321</v>
       </c>
       <c r="J11" s="5">
-        <v>-10.719674137781753</v>
+        <v>-11.937583075554025</v>
       </c>
       <c r="K11" s="5">
-        <v>-9.1352767824298571</v>
+        <v>-9.6533166292792849</v>
       </c>
       <c r="L11" s="5">
-        <v>9.5100290307220661</v>
+        <v>12.60179402923891</v>
       </c>
       <c r="M11" s="5">
-        <v>-9.8971677322559302</v>
+        <v>-9.7998881219965472</v>
       </c>
       <c r="N11" s="5">
-        <v>-17.085775768216838</v>
+        <v>-13.778402280438296</v>
       </c>
       <c r="O11" s="5">
-        <v>29.326660757047662</v>
+        <v>42.056961102856945</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1869,7 +1860,7 @@
         <v>12.193224623203276</v>
       </c>
       <c r="T11" s="5">
-        <v>8.4686775207519531</v>
+        <v>8.4778203964233398</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1880,7 +1871,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3734823936</v>
+        <v>3573376256</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1889,34 +1880,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>25933774</v>
+        <v>25646154</v>
       </c>
       <c r="G12" s="5">
-        <v>4.7332186698913574</v>
+        <v>4.7598443031311044</v>
       </c>
       <c r="H12" s="5">
-        <v>-4.3227711191149769</v>
+        <v>-0.5593767730073701</v>
       </c>
       <c r="I12" s="5">
-        <v>-4.2044536197050286</v>
+        <v>-4.9753252452966468</v>
       </c>
       <c r="J12" s="5">
-        <v>-7.8143569412814973</v>
+        <v>-10.42635157463463</v>
       </c>
       <c r="K12" s="5">
-        <v>1.39587233282974</v>
+        <v>-0.331736837464081</v>
       </c>
       <c r="L12" s="5">
-        <v>11.173051063066453</v>
+        <v>14.060729170657726</v>
       </c>
       <c r="M12" s="5">
-        <v>-0.97997251369946703</v>
+        <v>-1.533867548083345</v>
       </c>
       <c r="N12" s="5">
-        <v>-2.553360528444415</v>
+        <v>-1.364548569039381</v>
       </c>
       <c r="O12" s="5">
-        <v>111.04929465059988</v>
+        <v>105.97324827142924</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1931,7 +1922,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>23.239999771118164</v>
+        <v>23.110000610351563</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1942,7 +1933,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3676348672</v>
+        <v>3548174080</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>68</v>
@@ -1951,37 +1942,37 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8536429</v>
+        <v>8661072</v>
       </c>
       <c r="G13" s="5">
-        <v>10.079143524169922</v>
+        <v>9.9586019515991211</v>
       </c>
       <c r="H13" s="5">
-        <v>-2.8332900461299331</v>
+        <v>1.9042328562675741</v>
       </c>
       <c r="I13" s="5">
-        <v>-5.2039231457550734</v>
+        <v>-2.8373695294267591</v>
       </c>
       <c r="J13" s="5">
-        <v>3.5015070141442228</v>
+        <v>2.5057338917844119</v>
       </c>
       <c r="K13" s="5">
-        <v>14.866604761315072</v>
+        <v>16.423634638995232</v>
       </c>
       <c r="L13" s="5">
-        <v>22.518778556707609</v>
+        <v>31.669502678500173</v>
       </c>
       <c r="M13" s="5">
-        <v>12.499828770016386</v>
+        <v>14.642087472699794</v>
       </c>
       <c r="N13" s="5">
-        <v>-18.0994657522068</v>
+        <v>-13.810769445444837</v>
       </c>
       <c r="O13" s="5">
-        <v>-26.143114156179781</v>
+        <v>-15.832138897226855</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
@@ -1991,7 +1982,7 @@
         <v>68.2096266746521</v>
       </c>
       <c r="T13" s="5">
-        <v>46.375320434570313</v>
+        <v>47.258411407470703</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2002,7 +1993,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="5">
-        <v>3578991872</v>
+        <v>3493495040</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -2011,34 +2002,34 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>17272618</v>
+        <v>17396282</v>
       </c>
       <c r="G14" s="5">
-        <v>3.6851024627685551</v>
+        <v>3.7486386299133301</v>
       </c>
       <c r="H14" s="5">
-        <v>-0.85719678000091304</v>
+        <v>-1.539108782760723</v>
       </c>
       <c r="I14" s="5">
-        <v>-5.6330547852908142</v>
+        <v>-6.90942325539039</v>
       </c>
       <c r="J14" s="5">
-        <v>-17.38791149670098</v>
+        <v>-17.797248522771447</v>
       </c>
       <c r="K14" s="5">
-        <v>-7.4151723722580609</v>
+        <v>-7.9287734665519194</v>
       </c>
       <c r="L14" s="5">
-        <v>-5.8760154808641607</v>
+        <v>-2.0945724240448831</v>
       </c>
       <c r="M14" s="5">
-        <v>-7.8176247471815854</v>
+        <v>-9.2364117808551693</v>
       </c>
       <c r="N14" s="5">
-        <v>-33.860634298083838</v>
+        <v>-35.37712770374273</v>
       </c>
       <c r="O14" s="5">
-        <v>96.552018987232785</v>
+        <v>163.93199049454608</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>30</v>
@@ -2053,7 +2044,7 @@
         <v>12.790835624888677</v>
       </c>
       <c r="T14" s="5">
-        <v>7.5305275917053223</v>
+        <v>7.4146246910095215</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2064,7 +2055,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="5">
-        <v>3328107520</v>
+        <v>3305353472</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -2073,34 +2064,34 @@
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>8096724</v>
+        <v>8142440</v>
       </c>
       <c r="G15" s="5">
-        <v>4.4943180084228525</v>
+        <v>4.5394549369812012</v>
       </c>
       <c r="H15" s="5">
-        <v>0.97381799730831309</v>
+        <v>0.254032312791308</v>
       </c>
       <c r="I15" s="5">
-        <v>-2.2311313194897209</v>
+        <v>-4.6480275111000008E-3</v>
       </c>
       <c r="J15" s="5">
-        <v>-4.2984547301940124</v>
+        <v>-4.005495513168345</v>
       </c>
       <c r="K15" s="5">
-        <v>-4.7507640940086642</v>
+        <v>-3.2455043724636701</v>
       </c>
       <c r="L15" s="5">
-        <v>0.42707855311432402</v>
+        <v>1.269206007329293</v>
       </c>
       <c r="M15" s="5">
-        <v>-7.5656319931384886</v>
+        <v>-7.3308188302766197</v>
       </c>
       <c r="N15" s="5">
-        <v>-1.468992446816952</v>
+        <v>-0.50141283720139807</v>
       </c>
       <c r="O15" s="5">
-        <v>71.461228649583489</v>
+        <v>63.249715678887817</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
@@ -2113,7 +2104,7 @@
         <v>1195.2420016406891</v>
       </c>
       <c r="T15" s="5">
-        <v>1062.561279296875</v>
+        <v>1065.2606201171875</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2124,118 +2115,118 @@
         <v>74</v>
       </c>
       <c r="C16" s="5">
-        <v>3144678144</v>
+        <v>3087126528</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>17476984</v>
+        <v>10837281</v>
       </c>
       <c r="G16" s="5">
-        <v>6.6991477012634277</v>
+        <v>5.5664339065551758</v>
       </c>
       <c r="H16" s="5">
-        <v>-2.725113195158269</v>
+        <v>0.59603947381701206</v>
       </c>
       <c r="I16" s="5">
-        <v>-3.468548763368684</v>
+        <v>0.9639509727016331</v>
       </c>
       <c r="J16" s="5">
-        <v>-7.1791996575613855</v>
+        <v>3.576494236329486</v>
       </c>
       <c r="K16" s="5">
-        <v>-0.49246285058142103</v>
+        <v>6.2902851326474885</v>
       </c>
       <c r="L16" s="5">
-        <v>-5.3336943100098289</v>
+        <v>-0.77321931648769404</v>
       </c>
       <c r="M16" s="5">
-        <v>1.295502798778347</v>
+        <v>5.4320251192500502</v>
       </c>
       <c r="N16" s="5">
-        <v>-19.417620497152544</v>
-      </c>
-      <c r="O16" s="5"/>
+        <v>-9.2881284606012535</v>
+      </c>
+      <c r="O16" s="5">
+        <v>66.377646480742541</v>
+      </c>
       <c r="P16" s="4" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="S16" s="5">
-        <v>22.799999237060547</v>
+        <v>1.350664450152578</v>
       </c>
       <c r="T16" s="5">
-        <v>16.420000076293945</v>
+        <v>1.071374654769897</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5">
-        <v>3085035520</v>
+        <v>3058981888</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>10698578</v>
+        <v>17718060</v>
       </c>
       <c r="G17" s="5">
-        <v>5.5664339065551758</v>
+        <v>6.7443289756774902</v>
       </c>
       <c r="H17" s="5">
-        <v>0.33751166184246001</v>
+        <v>-0.66991845213432211</v>
       </c>
       <c r="I17" s="5">
-        <v>2.114154120784018</v>
+        <v>-3.3767756111566789</v>
       </c>
       <c r="J17" s="5">
-        <v>3.3693246045801479</v>
+        <v>-8.5249605399198014</v>
       </c>
       <c r="K17" s="5">
-        <v>6.7471329842706318</v>
+        <v>-1.100140662006621</v>
       </c>
       <c r="L17" s="5">
-        <v>-2.6774585747783459</v>
+        <v>-2.3219608949134329</v>
       </c>
       <c r="M17" s="5">
-        <v>4.8073320487848292</v>
+        <v>0.61690553434710105</v>
       </c>
       <c r="N17" s="5">
-        <v>-10.379361444322644</v>
-      </c>
-      <c r="O17" s="5">
-        <v>53.701557835361903</v>
-      </c>
+        <v>-18.563772134971124</v>
+      </c>
+      <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
-        <v>1.350664450152578</v>
+        <v>22.799999237060547</v>
       </c>
       <c r="T17" s="5">
-        <v>1.065026640892029</v>
+        <v>16.309999465942383</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2246,7 +2237,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="5">
-        <v>2493977088</v>
+        <v>2450898176</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>82</v>
@@ -2255,34 +2246,34 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9381686</v>
+        <v>9188658</v>
       </c>
       <c r="G18" s="5">
-        <v>4.9140048027038574</v>
+        <v>4.9751243591308594</v>
       </c>
       <c r="H18" s="5">
-        <v>-2.1491572372584922</v>
+        <v>-0.86767504647336002</v>
       </c>
       <c r="I18" s="5">
-        <v>-3.4682921243726179</v>
+        <v>-5.579661081722243</v>
       </c>
       <c r="J18" s="5">
-        <v>-7.5608018006515625</v>
+        <v>-8.5594817688591114</v>
       </c>
       <c r="K18" s="5">
-        <v>1.102574721001526</v>
+        <v>-1.08239223144535</v>
       </c>
       <c r="L18" s="5">
-        <v>7.5967430578033124</v>
+        <v>11.455445690848265</v>
       </c>
       <c r="M18" s="5">
-        <v>6.6274174302516003E-2</v>
+        <v>-0.80197591664353807</v>
       </c>
       <c r="N18" s="5">
-        <v>-11.514835711004379</v>
+        <v>-12.143071122950166</v>
       </c>
       <c r="O18" s="5">
-        <v>112.63043132226476</v>
+        <v>154.62979589314401</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>25</v>
@@ -2297,7 +2288,7 @@
         <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>8.8884038925170898</v>
+        <v>8.8112812042236328</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2308,7 +2299,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="5">
-        <v>2396674816</v>
+        <v>2380899584</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>86</v>
@@ -2317,34 +2308,34 @@
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>9940841</v>
+        <v>10209242</v>
       </c>
       <c r="G19" s="5">
-        <v>10.43755054473877</v>
+        <v>10.266040802001953</v>
       </c>
       <c r="H19" s="5">
-        <v>0.11386299340954101</v>
+        <v>3.1777181309009528</v>
       </c>
       <c r="I19" s="5">
-        <v>0.18705066042628002</v>
+        <v>0.38661262887635905</v>
       </c>
       <c r="J19" s="5">
-        <v>-8.4575020134824985</v>
+        <v>-5.9318488591032388</v>
       </c>
       <c r="K19" s="5">
-        <v>-18.121179769844275</v>
+        <v>-18.73480163975707</v>
       </c>
       <c r="L19" s="5">
-        <v>1.289712091776773</v>
+        <v>9.3132147022943368</v>
       </c>
       <c r="M19" s="5">
-        <v>-19.686315716314684</v>
+        <v>-17.134173209237467</v>
       </c>
       <c r="N19" s="5">
-        <v>-23.096827637717876</v>
+        <v>-20.577580193259138</v>
       </c>
       <c r="O19" s="5">
-        <v>23.220143630695599</v>
+        <v>54.916227425088678</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>30</v>
@@ -2359,7 +2350,7 @@
         <v>1.0297254546268939</v>
       </c>
       <c r="T19" s="5">
-        <v>0.68534600734710704</v>
+        <v>0.70712429285049405</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2370,7 +2361,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="5">
-        <v>2336300032</v>
+        <v>2336924672</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -2379,34 +2370,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>5928518.5</v>
+        <v>6016897.5</v>
       </c>
       <c r="G20" s="5">
-        <v>4.8097281455993652</v>
+        <v>4.8235292434692383</v>
       </c>
       <c r="H20" s="5">
-        <v>1.864288716171236</v>
+        <v>0.97115700744647704</v>
       </c>
       <c r="I20" s="5">
-        <v>-0.5880248294846121</v>
+        <v>2.1473322875352969</v>
       </c>
       <c r="J20" s="5">
-        <v>0.96071221955829111</v>
+        <v>1.9941610172586222</v>
       </c>
       <c r="K20" s="5">
-        <v>-9.1781849566924922</v>
+        <v>-5.3797947171887355</v>
       </c>
       <c r="L20" s="5">
-        <v>-9.3155074610742119</v>
+        <v>-7.9009636176706426</v>
       </c>
       <c r="M20" s="5">
-        <v>-7.3609395996307221</v>
+        <v>-6.4612688729199679</v>
       </c>
       <c r="N20" s="5">
-        <v>-14.978976764040342</v>
+        <v>-13.755361566660874</v>
       </c>
       <c r="O20" s="5">
-        <v>41.487240604302315</v>
+        <v>34.25267915548995</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2419,7 +2410,7 @@
         <v>674.54175152749485</v>
       </c>
       <c r="T20" s="5">
-        <v>527.50738525390625</v>
+        <v>532.63031005859375</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2430,7 +2421,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="5">
-        <v>2277956096</v>
+        <v>2272667136</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>45</v>
@@ -2439,34 +2430,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>6857096.5</v>
+        <v>6930745</v>
       </c>
       <c r="G21" s="5">
-        <v>5.0612244606018066</v>
+        <v>5.0889191627502441</v>
       </c>
       <c r="H21" s="5">
-        <v>1.209112217730768</v>
+        <v>0.70980806944811503</v>
       </c>
       <c r="I21" s="5">
-        <v>-0.5397236025817761</v>
+        <v>1.178455152016666</v>
       </c>
       <c r="J21" s="5">
-        <v>-3.315749664761825</v>
+        <v>-2.578889902677139</v>
       </c>
       <c r="K21" s="5">
-        <v>-10.658166185090522</v>
+        <v>-8.2467278869926215</v>
       </c>
       <c r="L21" s="5">
-        <v>-8.841412466738829</v>
+        <v>-7.6591044726414204</v>
       </c>
       <c r="M21" s="5">
-        <v>-12.024228302406282</v>
+        <v>-11.399769175737518</v>
       </c>
       <c r="N21" s="5">
-        <v>-15.506342884688728</v>
+        <v>-13.052408903196433</v>
       </c>
       <c r="O21" s="5">
-        <v>42.442781573489107</v>
+        <v>38.92265794312344</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2479,7 +2470,7 @@
         <v>3531.5682281059062</v>
       </c>
       <c r="T21" s="5">
-        <v>2773.37548828125</v>
+        <v>2793.061279296875</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2490,43 +2481,43 @@
         <v>94</v>
       </c>
       <c r="C22" s="5">
-        <v>2087614080</v>
+        <v>2046589312</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>8058697</v>
+        <v>7888500.5</v>
       </c>
       <c r="G22" s="5">
-        <v>6.4043211936950684</v>
+        <v>6.3911705017089844</v>
       </c>
       <c r="H22" s="5">
-        <v>-1.563600084440242</v>
+        <v>0.63941313780384601</v>
       </c>
       <c r="I22" s="5">
-        <v>-2.623361399472357</v>
+        <v>-1.629374134208184</v>
       </c>
       <c r="J22" s="5">
-        <v>-13.515163524526198</v>
+        <v>-12.418140628434493</v>
       </c>
       <c r="K22" s="5">
-        <v>-11.650504553727304</v>
+        <v>-11.477493043662534</v>
       </c>
       <c r="L22" s="5">
-        <v>-16.515803236377803</v>
+        <v>-10.285489175302265</v>
       </c>
       <c r="M22" s="5">
-        <v>-11.433171048108504</v>
+        <v>-10.866863108053849</v>
       </c>
       <c r="N22" s="5">
-        <v>-35.889711070255025</v>
+        <v>-35.088692041829326</v>
       </c>
       <c r="O22" s="5">
-        <v>14.293955637391509</v>
+        <v>17.767631171862973</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
@@ -2535,13 +2526,13 @@
         <v>95</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S22" s="5">
         <v>1.9808639392</v>
       </c>
       <c r="T22" s="5">
-        <v>1.19040834903717</v>
+        <v>1.1980199813842769</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2552,7 +2543,7 @@
         <v>97</v>
       </c>
       <c r="C23" s="5">
-        <v>2065923328</v>
+        <v>2042200192</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2561,34 +2552,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5724386.5</v>
+        <v>5647894</v>
       </c>
       <c r="G23" s="5">
         <v>6.5959954261779794</v>
       </c>
       <c r="H23" s="5">
-        <v>-0.41588283834035306</v>
+        <v>-0.28776398458894004</v>
       </c>
       <c r="I23" s="5">
-        <v>-2.5986257724876389</v>
+        <v>-3.200849221640345</v>
       </c>
       <c r="J23" s="5">
-        <v>-8.188996882664501</v>
+        <v>-7.967607801168608</v>
       </c>
       <c r="K23" s="5">
-        <v>-4.0784295079676847</v>
+        <v>-5.1093725971208208</v>
       </c>
       <c r="L23" s="5">
-        <v>3.8740092558871231</v>
+        <v>9.328407134978022</v>
       </c>
       <c r="M23" s="5">
-        <v>-5.8540765889022017</v>
+        <v>-6.1249946494380314</v>
       </c>
       <c r="N23" s="5">
-        <v>-23.2700404630802</v>
+        <v>-23.40363547367923</v>
       </c>
       <c r="O23" s="5">
-        <v>51.324962377327225</v>
+        <v>67.739845213944648</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
@@ -2603,7 +2594,7 @@
         <v>4.1295041516920517</v>
       </c>
       <c r="T23" s="5">
-        <v>2.8439760208129883</v>
+        <v>2.835792064666748</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2614,7 +2605,7 @@
         <v>100</v>
       </c>
       <c r="C24" s="5">
-        <v>1609276160</v>
+        <v>1605509632</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -2623,34 +2614,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3913356.25</v>
+        <v>3892987.25</v>
       </c>
       <c r="G24" s="5">
-        <v>4.7508530616760254</v>
+        <v>4.7769389152526864</v>
       </c>
       <c r="H24" s="5">
-        <v>1.353482252812888</v>
+        <v>0.70792725149206903</v>
       </c>
       <c r="I24" s="5">
-        <v>-0.81118503833878008</v>
+        <v>0.90078857148401204</v>
       </c>
       <c r="J24" s="5">
-        <v>-0.79689997695123704</v>
+        <v>-4.2710102603638E-2</v>
       </c>
       <c r="K24" s="5">
-        <v>-9.2547374024831814</v>
+        <v>-7.0986294326337624</v>
       </c>
       <c r="L24" s="5">
-        <v>-5.9618394845803895</v>
+        <v>-4.7439630241249979</v>
       </c>
       <c r="M24" s="5">
-        <v>-9.6047952985640279</v>
+        <v>-8.9648630104405278</v>
       </c>
       <c r="N24" s="5">
-        <v>-14.091753199038404</v>
+        <v>-12.983474568742215</v>
       </c>
       <c r="O24" s="5">
-        <v>65.590659758508124</v>
+        <v>56.160671333196156</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2663,7 +2654,7 @@
         <v>1395.4060705496308</v>
       </c>
       <c r="T24" s="5">
-        <v>1105.576904296875</v>
+        <v>1113.4036865234375</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2671,10 +2662,10 @@
         <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5">
-        <v>1528637056</v>
+        <v>1524290304</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2683,34 +2674,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>3016658</v>
+        <v>1709730.125</v>
       </c>
       <c r="G25" s="5">
-        <v>7.1709232330322266</v>
+        <v>7.0686769485473633</v>
       </c>
       <c r="H25" s="5">
-        <v>-0.10633202664095401</v>
+        <v>0.75753213612355108</v>
       </c>
       <c r="I25" s="5">
-        <v>-4.1999751292634224</v>
+        <v>-4.2240746571092664</v>
       </c>
       <c r="J25" s="5">
-        <v>-10.890684500630565</v>
+        <v>-8.5851855743311223</v>
       </c>
       <c r="K25" s="5">
-        <v>-3.571374031641084</v>
+        <v>-1.2538968321874839</v>
       </c>
       <c r="L25" s="5">
-        <v>-2.6322868218343003E-2</v>
+        <v>1.0644676255022081</v>
       </c>
       <c r="M25" s="5">
-        <v>-5.0751299294377823</v>
+        <v>-1.686464370426721</v>
       </c>
       <c r="N25" s="5">
-        <v>-26.494952800014037</v>
+        <v>-34.990808194612178</v>
       </c>
       <c r="O25" s="5">
-        <v>33.962938141068719</v>
+        <v>66.570078940940476</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2722,21 +2713,21 @@
         <v>32</v>
       </c>
       <c r="S25" s="5">
-        <v>2.5733491470937611</v>
+        <v>3.362812957848845</v>
       </c>
       <c r="T25" s="5">
-        <v>1.7023799419403081</v>
+        <v>1.99779212474823</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="C26" s="5">
-        <v>1525999744</v>
+        <v>1509864960</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2745,34 +2736,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>1692990.5</v>
+        <v>3083334.25</v>
       </c>
       <c r="G26" s="5">
-        <v>7.104377269744873</v>
+        <v>7.2277226448059082</v>
       </c>
       <c r="H26" s="5">
-        <v>-1.374945374053127</v>
+        <v>-0.36818262044247002</v>
       </c>
       <c r="I26" s="5">
-        <v>-3.798993873890244</v>
+        <v>-3.651628381298488</v>
       </c>
       <c r="J26" s="5">
-        <v>-9.4700302654539321</v>
+        <v>-11.380844131261458</v>
       </c>
       <c r="K26" s="5">
-        <v>-0.57930806133222901</v>
+        <v>-4.6847013594875087</v>
       </c>
       <c r="L26" s="5">
-        <v>-7.1954539832959634</v>
+        <v>4.7469861846842321</v>
       </c>
       <c r="M26" s="5">
-        <v>-2.4256216431030042</v>
+        <v>-5.4246268035151974</v>
       </c>
       <c r="N26" s="5">
-        <v>-35.506617359064016</v>
+        <v>-27.452273818135385</v>
       </c>
       <c r="O26" s="5">
-        <v>43.760721800590652</v>
+        <v>81.354024959464425</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2784,10 +2775,10 @@
         <v>32</v>
       </c>
       <c r="S26" s="5">
-        <v>3.362812957848845</v>
+        <v>2.5733491470937611</v>
       </c>
       <c r="T26" s="5">
-        <v>1.9827719926834111</v>
+        <v>1.6961120367050171</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2798,7 +2789,7 @@
         <v>105</v>
       </c>
       <c r="C27" s="5">
-        <v>1392118912</v>
+        <v>1393268992</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>45</v>
@@ -2807,34 +2798,34 @@
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3163283.5</v>
+        <v>3188913</v>
       </c>
       <c r="G27" s="5">
-        <v>4.7311825752258301</v>
+        <v>4.7421092987060547</v>
       </c>
       <c r="H27" s="5">
-        <v>0.58786838473166003</v>
+        <v>1.027567712754474</v>
       </c>
       <c r="I27" s="5">
-        <v>-1.186252988082759</v>
+        <v>0.75124118565552711</v>
       </c>
       <c r="J27" s="5">
-        <v>-0.382900536028696</v>
+        <v>0.693018745973495</v>
       </c>
       <c r="K27" s="5">
-        <v>-6.7441429893897347</v>
+        <v>-4.0689587025390495</v>
       </c>
       <c r="L27" s="5">
-        <v>-6.5268200012088551</v>
+        <v>-5.0157404547472968</v>
       </c>
       <c r="M27" s="5">
-        <v>-6.2446109629139652</v>
+        <v>-5.2812108562015236</v>
       </c>
       <c r="N27" s="5">
-        <v>-20.585047879540163</v>
+        <v>-19.396840933704219</v>
       </c>
       <c r="O27" s="5">
-        <v>66.980265151152224</v>
+        <v>55.476321094191896</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>25</v>
@@ -2847,7 +2838,7 @@
         <v>1342.904019688269</v>
       </c>
       <c r="T27" s="5">
-        <v>982.5673828125</v>
+        <v>992.6639404296875</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2858,7 +2849,7 @@
         <v>107</v>
       </c>
       <c r="C28" s="5">
-        <v>1382721152</v>
+        <v>1390011520</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>86</v>
@@ -2867,37 +2858,37 @@
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3373233.25</v>
+        <v>3430040.5</v>
       </c>
       <c r="G28" s="5">
-        <v>12.035549163818359</v>
+        <v>11.739593505859375</v>
       </c>
       <c r="H28" s="5">
-        <v>1.308539162781974</v>
+        <v>4.0406871703829728</v>
       </c>
       <c r="I28" s="5">
-        <v>0.30460189918466402</v>
+        <v>2.0361579068156388</v>
       </c>
       <c r="J28" s="5">
-        <v>-6.5684410761973506</v>
+        <v>-3.9966867229567553</v>
       </c>
       <c r="K28" s="5">
-        <v>-20.381478148512855</v>
+        <v>-18.54403826332457</v>
       </c>
       <c r="L28" s="5">
-        <v>-1.1264803727196739</v>
+        <v>7.91092984897106</v>
       </c>
       <c r="M28" s="5">
-        <v>-21.594500375943305</v>
+        <v>-18.426379411759374</v>
       </c>
       <c r="N28" s="5">
-        <v>-28.102177908431258</v>
+        <v>-24.863573004689108</v>
       </c>
       <c r="O28" s="5">
-        <v>95.623991937556198</v>
+        <v>179.03452520135036</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>108</v>
@@ -2909,7 +2900,7 @@
         <v>0.32112818480585403</v>
       </c>
       <c r="T28" s="5">
-        <v>0.19464480876922602</v>
+        <v>0.20250977575779003</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2920,7 +2911,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="5">
-        <v>1340107776</v>
+        <v>1326358144</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>45</v>
@@ -2929,34 +2920,34 @@
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>3334862.5</v>
+        <v>3377562.5</v>
       </c>
       <c r="G29" s="5">
-        <v>3.784084558486938</v>
+        <v>3.835307359695435</v>
       </c>
       <c r="H29" s="5">
-        <v>0.698296574021806</v>
+        <v>-9.1511437787983013E-2</v>
       </c>
       <c r="I29" s="5">
-        <v>-4.0253679395490396</v>
+        <v>-1.9451975388196761</v>
       </c>
       <c r="J29" s="5">
-        <v>-3.8293912352860842</v>
+        <v>-3.8674803077444091</v>
       </c>
       <c r="K29" s="5">
-        <v>-10.857980628633712</v>
+        <v>-9.8710892989520183</v>
       </c>
       <c r="L29" s="5">
-        <v>-1.021421701463654</v>
+        <v>-0.53544893835703</v>
       </c>
       <c r="M29" s="5">
-        <v>-12.644023157081508</v>
+        <v>-12.723963867484201</v>
       </c>
       <c r="N29" s="5">
-        <v>-10.26323441845407</v>
+        <v>-9.9705081990468454</v>
       </c>
       <c r="O29" s="5">
-        <v>87.714480444513441</v>
+        <v>61.460070400683044</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
@@ -2969,7 +2960,7 @@
         <v>1648.0721903199344</v>
       </c>
       <c r="T29" s="5">
-        <v>1356.1240234375</v>
+        <v>1354.883056640625</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2980,7 +2971,7 @@
         <v>112</v>
       </c>
       <c r="C30" s="5">
-        <v>1324836352</v>
+        <v>1291443200</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>23</v>
@@ -2989,34 +2980,34 @@
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>6097504</v>
+        <v>6172132.5</v>
       </c>
       <c r="G30" s="5">
-        <v>4.946599006652832</v>
+        <v>5.0429797172546387</v>
       </c>
       <c r="H30" s="5">
-        <v>-2.520542928617298</v>
+        <v>-1.9111868189457759</v>
       </c>
       <c r="I30" s="5">
-        <v>-0.99698439976181308</v>
+        <v>-2.513960140674953</v>
       </c>
       <c r="J30" s="5">
-        <v>-3.0750808557706399</v>
+        <v>-6.5866210383305424</v>
       </c>
       <c r="K30" s="5">
-        <v>-2.7610727524529981</v>
+        <v>-5.4364579620936553</v>
       </c>
       <c r="L30" s="5">
-        <v>8.3387316363322093</v>
+        <v>9.8605204766661245</v>
       </c>
       <c r="M30" s="5">
-        <v>-3.85131446346898</v>
+        <v>-5.6888954680327846</v>
       </c>
       <c r="N30" s="5">
-        <v>-19.671163731895813</v>
+        <v>-18.866341972146738</v>
       </c>
       <c r="O30" s="5">
-        <v>121.69672887960728</v>
+        <v>118.69666119695492</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
@@ -3031,7 +3022,7 @@
         <v>23.909999847412109</v>
       </c>
       <c r="T30" s="5">
-        <v>17.790000915527344</v>
+        <v>17.450000762939453</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3042,118 +3033,118 @@
         <v>115</v>
       </c>
       <c r="C31" s="5">
-        <v>1293290240</v>
+        <v>1277537280</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>10884178</v>
+        <v>2360203.75</v>
       </c>
       <c r="G31" s="5">
-        <v>13.490725517272949</v>
+        <v>4.2028017044067383</v>
       </c>
       <c r="H31" s="5">
-        <v>-4.8154123566034768</v>
+        <v>0.25764247564048504</v>
       </c>
       <c r="I31" s="5">
-        <v>-8.9792793574152601</v>
+        <v>0.47168707284475103</v>
       </c>
       <c r="J31" s="5">
-        <v>-14.92109028922124</v>
+        <v>0.79942587297758805</v>
       </c>
       <c r="K31" s="5">
-        <v>-4.7109355868224618</v>
+        <v>2.5009486677030512</v>
       </c>
       <c r="L31" s="5">
-        <v>1.485497438934003</v>
+        <v>6.9756389682694042</v>
       </c>
       <c r="M31" s="5">
-        <v>-2.8915660016380911</v>
+        <v>-1.073287781251264</v>
       </c>
       <c r="N31" s="5">
-        <v>-11.22373026474952</v>
+        <v>0.86009385003273908</v>
       </c>
       <c r="O31" s="5">
-        <v>32.226497417693565</v>
+        <v>103.27517991890245</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="Q31" s="4"/>
       <c r="R31" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S31" s="5">
-        <v>16.010000228881836</v>
+        <v>1243.9918533604887</v>
       </c>
       <c r="T31" s="5">
-        <v>11.859999656677246</v>
+        <v>1145.4990234375</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="C32" s="5">
-        <v>1286285568</v>
+        <v>1231012992</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>2343360.75</v>
+        <v>11223789</v>
       </c>
       <c r="G32" s="5">
-        <v>4.1611623764038086</v>
+        <v>13.559322357177734</v>
       </c>
       <c r="H32" s="5">
-        <v>1.3759563875772369</v>
+        <v>-0.505897703872216</v>
       </c>
       <c r="I32" s="5">
-        <v>-1.9245284340198681</v>
+        <v>-7.0133917973033917</v>
       </c>
       <c r="J32" s="5">
-        <v>0.48818424258594306</v>
+        <v>-17.884479577532232</v>
       </c>
       <c r="K32" s="5">
-        <v>4.9154984455746002E-2</v>
+        <v>-5.9273636694571419</v>
       </c>
       <c r="L32" s="5">
-        <v>6.0822383163668281</v>
+        <v>3.7953181867675272</v>
       </c>
       <c r="M32" s="5">
-        <v>-1.3275100271933131</v>
+        <v>-3.3828353395020661</v>
       </c>
       <c r="N32" s="5">
-        <v>0.39317254700266302</v>
+        <v>-10.845703628254766</v>
       </c>
       <c r="O32" s="5">
-        <v>116.92868191832311</v>
+        <v>39.369507478052434</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="4"/>
+      <c r="Q32" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="R32" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5">
-        <v>1243.9918533604887</v>
+        <v>16.010000228881836</v>
       </c>
       <c r="T32" s="5">
-        <v>1142.5552978515625</v>
+        <v>11.800000190734863</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3164,7 +3155,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1164337408</v>
+        <v>1176184576</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3173,37 +3164,37 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1557267</v>
+        <v>1558300</v>
       </c>
       <c r="G33" s="5">
-        <v>6.6241621971130371</v>
+        <v>6.6471266746520996</v>
       </c>
       <c r="H33" s="5">
-        <v>1.57373291725118</v>
+        <v>1.0213829155409251</v>
       </c>
       <c r="I33" s="5">
-        <v>0.54680962496569407</v>
+        <v>2.1164001140624671</v>
       </c>
       <c r="J33" s="5">
-        <v>-22.694730759797967</v>
+        <v>-20.929852568780284</v>
       </c>
       <c r="K33" s="5">
-        <v>-0.65114178105156706</v>
+        <v>0.98627836463853813</v>
       </c>
       <c r="L33" s="5">
-        <v>-2.032566330593955</v>
+        <v>0.52211449047858705</v>
       </c>
       <c r="M33" s="5">
-        <v>-3.615230402799718</v>
+        <v>-2.6307728329504232</v>
       </c>
       <c r="N33" s="5">
-        <v>-39.682709280034835</v>
+        <v>-38.899635622526652</v>
       </c>
       <c r="O33" s="5">
-        <v>-35.934051632135365</v>
+        <v>-26.849230409687753</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>122</v>
@@ -3215,7 +3206,7 @@
         <v>0.44271498196098902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.24338030815124501</v>
+        <v>0.24586613476276403</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3226,189 +3217,191 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1103243008</v>
+        <v>1063884032</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>19253564</v>
+        <v>3534113.5</v>
       </c>
       <c r="G34" s="5">
-        <v>7.7510275840759277</v>
+        <v>5.1812295913696289</v>
       </c>
       <c r="H34" s="5">
-        <v>-6.2740747653368123</v>
+        <v>0.28722534854215304</v>
       </c>
       <c r="I34" s="5">
-        <v>-9.5111532263785659</v>
+        <v>1.003282165914898</v>
       </c>
       <c r="J34" s="5">
-        <v>-32.868011192392842</v>
+        <v>-1.902267428091009</v>
       </c>
       <c r="K34" s="5">
-        <v>-34.768689438505703</v>
+        <v>-8.0501861991050809</v>
       </c>
       <c r="L34" s="5">
-        <v>-33.264417423375114</v>
+        <v>-9.4643409995699201</v>
       </c>
       <c r="M34" s="5">
-        <v>-34.793304570780379</v>
+        <v>-10.977211411588305</v>
       </c>
       <c r="N34" s="5">
-        <v>-51.027946232361174</v>
+        <v>-19.820231791758825</v>
       </c>
       <c r="O34" s="5">
-        <v>-15.168756088386681</v>
+        <v>33.198689658865518</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q34" s="4"/>
       <c r="R34" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S34" s="5">
-        <v>39.099998474121094</v>
+        <v>3199.3437243642329</v>
       </c>
       <c r="T34" s="5">
-        <v>17.030000686645508</v>
+        <v>2361.30224609375</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="C35" s="5">
-        <v>1087085184</v>
+        <v>1034024704</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>1053725.75</v>
+        <v>19369950</v>
       </c>
       <c r="G35" s="5">
-        <v>7.1595944464207001E-2</v>
+        <v>8.009709358215332</v>
       </c>
       <c r="H35" s="5">
-        <v>0.38281278930512003</v>
+        <v>-3.22960142239147</v>
       </c>
       <c r="I35" s="5">
-        <v>-1.8140833230167019</v>
+        <v>-11.493024707539035</v>
       </c>
       <c r="J35" s="5">
-        <v>-12.51959981308346</v>
+        <v>-35.212293928574056</v>
       </c>
       <c r="K35" s="5">
-        <v>-23.520226512242679</v>
+        <v>-36.970578275681909</v>
       </c>
       <c r="L35" s="5">
-        <v>-5.1754155752492759</v>
+        <v>-33.542667485974206</v>
       </c>
       <c r="M35" s="5">
-        <v>-23.8785123481703</v>
+        <v>-36.899220933856938</v>
       </c>
       <c r="N35" s="5">
-        <v>26.961174795596875</v>
-      </c>
-      <c r="O35" s="5"/>
+        <v>-52.004340362740479</v>
+      </c>
+      <c r="O35" s="5">
+        <v>-16.382051805143661</v>
+      </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="S35" s="5">
-        <v>0.33632467559269802</v>
+        <v>39.099998474121094</v>
       </c>
       <c r="T35" s="5">
-        <v>0.23267172276973702</v>
+        <v>16.479999542236328</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A36" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>1070853312</v>
+        <v>1009070016</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>3574141</v>
+        <v>12236750</v>
       </c>
       <c r="G36" s="5">
-        <v>5.1314101219177246</v>
+        <v>2.4054982662200932</v>
       </c>
       <c r="H36" s="5">
-        <v>2.4321277287965293</v>
+        <v>-6.7307630586904033</v>
       </c>
       <c r="I36" s="5">
-        <v>-1.1761976561389331</v>
+        <v>-12.217193496200185</v>
       </c>
       <c r="J36" s="5">
-        <v>-2.2340146165156121</v>
+        <v>-23.417397668845275</v>
       </c>
       <c r="K36" s="5">
-        <v>-10.060096779445027</v>
+        <v>-14.335126161962663</v>
       </c>
       <c r="L36" s="5">
-        <v>-10.24692744698652</v>
+        <v>-13.891598765331059</v>
       </c>
       <c r="M36" s="5">
-        <v>-11.232175106033292</v>
+        <v>-13.191236496390857</v>
       </c>
       <c r="N36" s="5">
-        <v>-21.371260397007351</v>
+        <v>-38.184047815772296</v>
       </c>
       <c r="O36" s="5">
-        <v>37.297181674966453</v>
+        <v>-19.211552061162241</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="4"/>
+      <c r="Q36" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="R36" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>3199.3437243642329</v>
+        <v>10.055000305175781</v>
       </c>
       <c r="T36" s="5">
-        <v>2354.539306640625</v>
+        <v>5.820000171661377</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A37" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" s="5">
-        <v>1057582976</v>
+        <v>985706752</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3417,233 +3410,229 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>11970923</v>
+        <v>4839984.5</v>
       </c>
       <c r="G37" s="5">
-        <v>2.2435898780822749</v>
+        <v>6.9597067832946777</v>
       </c>
       <c r="H37" s="5">
-        <v>-4.5871589064942704</v>
+        <v>-2.1505356128998292</v>
       </c>
       <c r="I37" s="5">
-        <v>-5.5975847945939243</v>
+        <v>-8.1581180741810968</v>
       </c>
       <c r="J37" s="5">
-        <v>-17.567140413230497</v>
+        <v>-16.704802728716174</v>
       </c>
       <c r="K37" s="5">
-        <v>-7.6120655438826512</v>
+        <v>-5.042131026260166</v>
       </c>
       <c r="L37" s="5">
-        <v>-11.188445659283664</v>
+        <v>5.2567038265061004E-2</v>
       </c>
       <c r="M37" s="5">
-        <v>-6.9266927119450479</v>
+        <v>-5.0434775974439567</v>
       </c>
       <c r="N37" s="5">
-        <v>-35.469002878843028</v>
+        <v>-19.594183566497524</v>
       </c>
       <c r="O37" s="5">
-        <v>-17.625334495681766</v>
+        <v>45.907778949100077</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <v>10.055000305175781</v>
+        <v>14.930000305175781</v>
       </c>
       <c r="T37" s="5">
-        <v>6.2399997711181641</v>
+        <v>10.920000076293945</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A38" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>1039584960</v>
+        <v>867283904</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>4767617</v>
+        <v>1853091.25</v>
       </c>
       <c r="G38" s="5">
-        <v>6.8100357055664063</v>
+        <v>4.7365303039550781</v>
       </c>
       <c r="H38" s="5">
-        <v>-5.1826727835783242</v>
+        <v>5.8373746288029604</v>
       </c>
       <c r="I38" s="5">
-        <v>-6.6889647841406834</v>
+        <v>10.783142899298248</v>
       </c>
       <c r="J38" s="5">
-        <v>-14.482761039839687</v>
+        <v>10.909022101154475</v>
       </c>
       <c r="K38" s="5">
-        <v>-1.9486335232869021</v>
+        <v>-5.0799136877358597</v>
       </c>
       <c r="L38" s="5">
-        <v>-0.8204065003648231</v>
+        <v>-12.872016867287739</v>
       </c>
       <c r="M38" s="5">
-        <v>-2.9565230659816528</v>
+        <v>-4.5443679979565443</v>
       </c>
       <c r="N38" s="5">
-        <v>-19.557572104676758</v>
+        <v>-26.698866702660773</v>
       </c>
       <c r="O38" s="5">
-        <v>58.570595886999641</v>
+        <v>29.719877505893955</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q38" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q38" s="4"/>
       <c r="R38" s="4" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="S38" s="5">
-        <v>14.930000305175781</v>
+        <v>6.9999688890271594</v>
       </c>
       <c r="T38" s="5">
-        <v>11.159999847412109</v>
+        <v>4.7310924530029297</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="5">
+        <v>819850112</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1924016.625</v>
+      </c>
+      <c r="G39" s="5">
+        <v>7.3139157295227051</v>
+      </c>
+      <c r="H39" s="5">
+        <v>-3.66012252863035</v>
+      </c>
+      <c r="I39" s="5">
+        <v>-3.1815482149451069</v>
+      </c>
+      <c r="J39" s="5">
+        <v>-16.230485215737144</v>
+      </c>
+      <c r="K39" s="5">
+        <v>-10.985137602223583</v>
+      </c>
+      <c r="L39" s="5">
+        <v>-2.2905519528490959</v>
+      </c>
+      <c r="M39" s="5">
+        <v>-11.488991137040305</v>
+      </c>
+      <c r="N39" s="5">
+        <v>-48.95206622575251</v>
+      </c>
+      <c r="O39" s="5">
+        <v>44.863043486530053</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="5">
-        <v>876153472</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1882909.625</v>
-      </c>
-      <c r="G39" s="5">
-        <v>4.941321849822998</v>
-      </c>
-      <c r="H39" s="5">
-        <v>-0.50709271936435507</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0.41998570951937703</v>
-      </c>
-      <c r="J39" s="5">
-        <v>5.5142957800389469</v>
-      </c>
-      <c r="K39" s="5">
-        <v>-10.384317237333796</v>
-      </c>
-      <c r="L39" s="5">
-        <v>-18.357061947978792</v>
-      </c>
-      <c r="M39" s="5">
-        <v>-9.8091460253721845</v>
-      </c>
-      <c r="N39" s="5">
-        <v>-30.844358869467548</v>
-      </c>
-      <c r="O39" s="5">
-        <v>9.8928902056524493</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="4"/>
       <c r="R39" s="4" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="S39" s="5">
-        <v>6.9999688890271594</v>
+        <v>2.1937991371437611</v>
       </c>
       <c r="T39" s="5">
-        <v>4.4701528549194336</v>
+        <v>1.0290640592575071</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="5">
+        <v>817962624</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="E40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2920385</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5">
+        <v>0.26425647304393302</v>
+      </c>
+      <c r="I40" s="5">
+        <v>-0.13670202629001402</v>
+      </c>
+      <c r="J40" s="5">
+        <v>-4.4664847018785814</v>
+      </c>
+      <c r="K40" s="5">
+        <v>-16.613039718606281</v>
+      </c>
+      <c r="L40" s="5">
+        <v>76.120491326926583</v>
+      </c>
+      <c r="M40" s="5">
+        <v>-20.498189235708963</v>
+      </c>
+      <c r="N40" s="5">
+        <v>105.72247238460717</v>
+      </c>
+      <c r="O40" s="5">
+        <v>222.17690016928432</v>
+      </c>
+      <c r="P40" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="5">
-        <v>858405888</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1886348.375</v>
-      </c>
-      <c r="G40" s="5">
-        <v>7.0735526084899902</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.285407481497435</v>
-      </c>
-      <c r="I40" s="5">
-        <v>-1.1037159983767311</v>
-      </c>
-      <c r="J40" s="5">
-        <v>-13.50671591966066</v>
-      </c>
-      <c r="K40" s="5">
-        <v>-4.7272748690125539</v>
-      </c>
-      <c r="L40" s="5">
-        <v>-6.6159170896709192</v>
-      </c>
-      <c r="M40" s="5">
-        <v>-8.1263011889718744</v>
-      </c>
-      <c r="N40" s="5">
-        <v>-46.484148680018933</v>
-      </c>
-      <c r="O40" s="5">
-        <v>28.155341296888015</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="S40" s="5">
-        <v>2.1937991371437611</v>
+        <v>1.13709763756269</v>
       </c>
       <c r="T40" s="5">
-        <v>1.068159937858582</v>
+        <v>0.81992596387863204</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3654,43 +3643,43 @@
         <v>147</v>
       </c>
       <c r="C41" s="5">
-        <v>814259904</v>
+        <v>809074880</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>1287494.25</v>
+        <v>1351934.25</v>
       </c>
       <c r="G41" s="5">
-        <v>6.6074953079223633</v>
+        <v>6.5686278343200684</v>
       </c>
       <c r="H41" s="5">
-        <v>-0.229784959410606</v>
+        <v>1.0270317850360919</v>
       </c>
       <c r="I41" s="5">
-        <v>-3.0070996020131862</v>
+        <v>0.42109029133443604</v>
       </c>
       <c r="J41" s="5">
-        <v>-5.8123624401639322</v>
+        <v>-4.0745770945339821</v>
       </c>
       <c r="K41" s="5">
-        <v>-8.2888467475712329</v>
+        <v>-8.552170216287692</v>
       </c>
       <c r="L41" s="5">
-        <v>-10.712638412787223</v>
+        <v>-4.3425963470836164</v>
       </c>
       <c r="M41" s="5">
-        <v>-10.745033794640001</v>
+        <v>-9.8283569219877247</v>
       </c>
       <c r="N41" s="5">
-        <v>-39.682617084268166</v>
+        <v>-38.566902549782668</v>
       </c>
       <c r="O41" s="5">
-        <v>12.492106501119205</v>
+        <v>13.920791391678122</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>30</v>
@@ -3699,13 +3688,13 @@
         <v>31</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S41" s="5">
         <v>1.243469103672894</v>
       </c>
       <c r="T41" s="5">
-        <v>0.62092292308807406</v>
+        <v>0.627299964427948</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3716,360 +3705,360 @@
         <v>149</v>
       </c>
       <c r="C42" s="5">
-        <v>806167808</v>
+        <v>788204224</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>2997327.5</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>2145585.5</v>
+      </c>
+      <c r="G42" s="5">
+        <v>5.6455225944519043</v>
+      </c>
       <c r="H42" s="5">
-        <v>1.3618291737656611</v>
+        <v>1.0723199694298471</v>
       </c>
       <c r="I42" s="5">
-        <v>0.64232772849659403</v>
+        <v>2.5299065657657489</v>
       </c>
       <c r="J42" s="5">
-        <v>-4.723819996792356</v>
+        <v>1.5035147873671879</v>
       </c>
       <c r="K42" s="5">
-        <v>-17.604332791128996</v>
+        <v>4.7434017409513807</v>
       </c>
       <c r="L42" s="5">
-        <v>70.814153781931637</v>
+        <v>1.812083506749196</v>
       </c>
       <c r="M42" s="5">
-        <v>-20.707724207115497</v>
+        <v>-9.8115284759881002E-2</v>
       </c>
       <c r="N42" s="5">
-        <v>97.478259243565503</v>
+        <v>-12.022390005213691</v>
       </c>
       <c r="O42" s="5">
-        <v>202.85947963338549</v>
+        <v>70.774928184215639</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="S42" s="5">
-        <v>1.13709763756269</v>
+        <v>516.49694501018325</v>
       </c>
       <c r="T42" s="5">
-        <v>0.81776499748230003</v>
+        <v>409.59805297851562</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="5">
+        <v>758869056</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="5">
-        <v>787204928</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>2144452.25</v>
+        <v>4103052.5</v>
       </c>
       <c r="G43" s="5">
-        <v>5.6350092887878418</v>
+        <v>1.0243813991546631</v>
       </c>
       <c r="H43" s="5">
-        <v>1.6738479370978832</v>
+        <v>0.599658518591073</v>
       </c>
       <c r="I43" s="5">
-        <v>-0.70195820233551809</v>
+        <v>0.72166602871242003</v>
       </c>
       <c r="J43" s="5">
-        <v>0.37447228493323603</v>
+        <v>0.41397866346724005</v>
       </c>
       <c r="K43" s="5">
-        <v>1.5463313881740599</v>
+        <v>0.51149692533867308</v>
       </c>
       <c r="L43" s="5">
-        <v>0.14801926630854101</v>
+        <v>6.6095595728554279</v>
       </c>
       <c r="M43" s="5">
-        <v>-1.1580176002131239</v>
+        <v>1.3153915074650251</v>
       </c>
       <c r="N43" s="5">
-        <v>-14.289867654709919</v>
+        <v>0.72665223660008904</v>
       </c>
       <c r="O43" s="5">
-        <v>73.736173944312313</v>
+        <v>17.374909909034074</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="4"/>
+      <c r="Q43" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="R43" s="4" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="S43" s="5">
-        <v>516.49694501018325</v>
+        <v>0.72089303474705002</v>
       </c>
       <c r="T43" s="5">
-        <v>405.25244140625</v>
+        <v>0.67156553268432606</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A44" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C44" s="5">
-        <v>754345600</v>
+        <v>722437760</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>4082887</v>
+        <v>1428939.75</v>
       </c>
       <c r="G44" s="5">
-        <v>1.0248842239379881</v>
+        <v>4.2709865570068359</v>
       </c>
       <c r="H44" s="5">
-        <v>-0.18959958857500703</v>
+        <v>-0.353416276732055</v>
       </c>
       <c r="I44" s="5">
-        <v>-8.4356349012926005E-2</v>
+        <v>0.30085122666154701</v>
       </c>
       <c r="J44" s="5">
-        <v>-0.550102298489619</v>
+        <v>-1.201191399731893</v>
       </c>
       <c r="K44" s="5">
-        <v>1.6608053096757391</v>
+        <v>-8.5568592537598072</v>
       </c>
       <c r="L44" s="5">
-        <v>5.0861203011406184</v>
+        <v>-4.3374580796720075</v>
       </c>
       <c r="M44" s="5">
-        <v>0.71146661868806105</v>
+        <v>-10.84874731006542</v>
       </c>
       <c r="N44" s="5">
-        <v>1.0586617336705E-2</v>
+        <v>-12.592562135031892</v>
       </c>
       <c r="O44" s="5">
-        <v>17.195089965364119</v>
+        <v>35.46892751116593</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q44" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="S44" s="5">
-        <v>0.72089303474705002</v>
+        <v>1279.0224032586557</v>
       </c>
       <c r="T44" s="5">
-        <v>0.66756248474121105</v>
+        <v>1037.750244140625</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A45" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="5">
+        <v>699597888</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="5">
-        <v>731845312</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1420518.75</v>
+        <v>1624797.125</v>
       </c>
       <c r="G45" s="5">
-        <v>4.2028985023498544</v>
+        <v>5.8895707130432129</v>
       </c>
       <c r="H45" s="5">
-        <v>1.3654279303434209</v>
+        <v>0.80381740998889406</v>
       </c>
       <c r="I45" s="5">
-        <v>-0.60087974711799907</v>
+        <v>-0.23367809522836203</v>
       </c>
       <c r="J45" s="5">
-        <v>-0.9022664181828951</v>
+        <v>-1.0057996895696311</v>
       </c>
       <c r="K45" s="5">
-        <v>-9.7017382299732233</v>
+        <v>-2.5840375989661162</v>
       </c>
       <c r="L45" s="5">
-        <v>-4.5546496907016625</v>
+        <v>10.329761913272417</v>
       </c>
       <c r="M45" s="5">
-        <v>-10.532554796339355</v>
+        <v>-5.0300236107204688</v>
       </c>
       <c r="N45" s="5">
-        <v>-13.676258412078035</v>
+        <v>-30.621362933389552</v>
       </c>
       <c r="O45" s="5">
-        <v>43.49649826848767</v>
+        <v>122.88135376073157</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="R45" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S45" s="5">
-        <v>1279.0224032586557</v>
+        <v>1.5543399132000002</v>
       </c>
       <c r="T45" s="5">
-        <v>1041.4307861328125</v>
+        <v>1.0024499893188481</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A46" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C46" s="5">
-        <v>711145600</v>
+        <v>644624128</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>1666897.75</v>
+        <v>7978118.5</v>
       </c>
       <c r="G46" s="5">
-        <v>5.9113302230834961</v>
+        <v>7.9681272506713867</v>
       </c>
       <c r="H46" s="5">
-        <v>-1.220873162277947</v>
+        <v>-0.82010191347996508</v>
       </c>
       <c r="I46" s="5">
-        <v>-2.4894627908529139</v>
+        <v>-7.4508970329683404</v>
       </c>
       <c r="J46" s="5">
-        <v>0.194182272853927</v>
+        <v>-18.173739711989899</v>
       </c>
       <c r="K46" s="5">
-        <v>-3.103591299054786</v>
+        <v>-15.128984470527485</v>
       </c>
       <c r="L46" s="5">
-        <v>3.2273458226842688</v>
+        <v>-19.721986565411488</v>
       </c>
       <c r="M46" s="5">
-        <v>-5.7873215227375656</v>
+        <v>-16.489890046508272</v>
       </c>
       <c r="N46" s="5">
-        <v>-32.228161031815006</v>
+        <v>-44.444701789149086</v>
       </c>
       <c r="O46" s="5">
-        <v>123.56210742741523</v>
+        <v>76.109966383351519</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="S46" s="5">
-        <v>1.5543399132000002</v>
+        <v>11.008880893576956</v>
       </c>
       <c r="T46" s="5">
-        <v>0.99445635080337502</v>
+        <v>5.5015711784362793</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="5">
+        <v>604186496</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="5">
+        <v>15349712</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5">
+        <v>9.9260943512639255</v>
+      </c>
+      <c r="I47" s="5">
+        <v>31.122152834386398</v>
+      </c>
+      <c r="J47" s="5">
+        <v>128.09551577306499</v>
+      </c>
+      <c r="K47" s="5">
+        <v>96.962675783236136</v>
+      </c>
+      <c r="L47" s="5">
+        <v>164.8621123777713</v>
+      </c>
+      <c r="M47" s="5">
+        <v>95.438209197900477</v>
+      </c>
+      <c r="N47" s="5">
+        <v>188.69017657542253</v>
+      </c>
+      <c r="O47" s="5">
+        <v>333.12391710421883</v>
+      </c>
+      <c r="P47" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="5">
-        <v>663349888</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="5">
-        <v>7847693</v>
-      </c>
-      <c r="G47" s="5">
-        <v>7.8740158081054687</v>
-      </c>
-      <c r="H47" s="5">
-        <v>-3.240056361058719</v>
-      </c>
-      <c r="I47" s="5">
-        <v>-5.4596519550078266</v>
-      </c>
-      <c r="J47" s="5">
-        <v>-19.195847933048139</v>
-      </c>
-      <c r="K47" s="5">
-        <v>-12.895681346383281</v>
-      </c>
-      <c r="L47" s="5">
-        <v>-21.69008921495691</v>
-      </c>
-      <c r="M47" s="5">
-        <v>-15.799358978327128</v>
-      </c>
-      <c r="N47" s="5">
-        <v>-44.199205515436169</v>
-      </c>
-      <c r="O47" s="5">
-        <v>54.070556148157479</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q47" s="4"/>
       <c r="R47" s="4" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="S47" s="5">
-        <v>11.008880893576956</v>
+        <v>1.9999474278428959</v>
       </c>
       <c r="T47" s="5">
-        <v>5.5470623970031738</v>
+        <v>1.9999474287033081</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4080,7 +4069,7 @@
         <v>167</v>
       </c>
       <c r="C48" s="5">
-        <v>632166272</v>
+        <v>594826816</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>23</v>
@@ -4089,34 +4078,34 @@
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>10863866</v>
+        <v>11376680</v>
       </c>
       <c r="G48" s="5">
         <v>7.2992701530456543</v>
       </c>
       <c r="H48" s="5">
-        <v>-5.9065974283412981</v>
+        <v>0</v>
       </c>
       <c r="I48" s="5">
-        <v>-0.86830599282881105</v>
+        <v>-2.6988644637783281</v>
       </c>
       <c r="J48" s="5">
-        <v>-12.179490549637951</v>
+        <v>-13.181241818148081</v>
       </c>
       <c r="K48" s="5">
-        <v>-10.574411996276933</v>
+        <v>-10.222807314669403</v>
       </c>
       <c r="L48" s="5">
-        <v>-21.011459737510773</v>
+        <v>-17.221790882365383</v>
       </c>
       <c r="M48" s="5">
         <v>-10.222807314669403</v>
       </c>
       <c r="N48" s="5">
-        <v>-63.288224583644173</v>
+        <v>-62.876760224887043</v>
       </c>
       <c r="O48" s="5">
-        <v>31.600344741726772</v>
+        <v>33.459101734351606</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>25</v>
@@ -4142,7 +4131,7 @@
         <v>170</v>
       </c>
       <c r="C49" s="5">
-        <v>581098112</v>
+        <v>570898496</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>171</v>
@@ -4151,34 +4140,34 @@
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>1780876.5</v>
+        <v>1726622</v>
       </c>
       <c r="G49" s="5">
-        <v>6.0227270126342773</v>
+        <v>6.1059904098510742</v>
       </c>
       <c r="H49" s="5">
-        <v>-0.58002976759492508</v>
+        <v>-0.64576900869373099</v>
       </c>
       <c r="I49" s="5">
-        <v>-1.089910455700682</v>
+        <v>-1.0137320851703491</v>
       </c>
       <c r="J49" s="5">
-        <v>-1.394660118836843</v>
+        <v>-1.5736250517002559</v>
       </c>
       <c r="K49" s="5">
-        <v>-4.9022675050846338</v>
+        <v>-6.2372874831071563</v>
       </c>
       <c r="L49" s="5">
-        <v>-6.2493221177422065</v>
+        <v>-4.703108562159974</v>
       </c>
       <c r="M49" s="5">
-        <v>-6.563558474655462</v>
+        <v>-7.1669420568523767</v>
       </c>
       <c r="N49" s="5">
-        <v>-24.969383379108844</v>
+        <v>-26.393078854717977</v>
       </c>
       <c r="O49" s="5">
-        <v>36.222250738250629</v>
+        <v>80.240884840762178</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>30</v>
@@ -4190,10 +4179,10 @@
         <v>173</v>
       </c>
       <c r="S49" s="5">
-        <v>0.97619400723811212</v>
+        <v>0.97453997864368302</v>
       </c>
       <c r="T49" s="5">
-        <v>0.68167001008987405</v>
+        <v>0.67726802825927701</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4204,54 +4193,56 @@
         <v>175</v>
       </c>
       <c r="C50" s="5">
-        <v>549257408</v>
+        <v>497569248</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>15207184</v>
+        <v>3322769.75</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>9.890853802559274</v>
+        <v>0.32741025200739804</v>
       </c>
       <c r="I50" s="5">
-        <v>31.066126087321912</v>
+        <v>-2.722569661881868</v>
       </c>
       <c r="J50" s="5">
-        <v>106.86191693653532</v>
+        <v>-9.0656279799795296</v>
       </c>
       <c r="K50" s="5">
-        <v>79.819645851865403</v>
+        <v>-35.314891661222859</v>
       </c>
       <c r="L50" s="5">
-        <v>142.13547325249317</v>
+        <v>54.654552514115352</v>
       </c>
       <c r="M50" s="5">
-        <v>77.790551325681051</v>
+        <v>-37.418983116887361</v>
       </c>
       <c r="N50" s="5">
-        <v>156.91391342976431</v>
+        <v>171.17875175763638</v>
       </c>
       <c r="O50" s="5">
-        <v>272.69513212181022</v>
+        <v>326.40332749383589</v>
       </c>
       <c r="P50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="S50" s="5">
-        <v>1.84262010241304</v>
+        <v>1.152422315694851</v>
       </c>
       <c r="T50" s="5">
-        <v>1.8193563222885132</v>
+        <v>0.68554633855819702</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4262,58 +4253,54 @@
         <v>178</v>
       </c>
       <c r="C51" s="5">
-        <v>504871104</v>
+        <v>493601280</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>5659277.5</v>
-      </c>
-      <c r="G51" s="5">
-        <v>10.008340835571289</v>
-      </c>
+        <v>16992998</v>
+      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="5">
-        <v>-4.0800018310546911</v>
+        <v>2.2889104318168711</v>
       </c>
       <c r="I51" s="5">
-        <v>-1.7120382256231141</v>
+        <v>-2.690037504262921</v>
       </c>
       <c r="J51" s="5">
-        <v>-22.503725359845873</v>
+        <v>-2.3790796841230533</v>
       </c>
       <c r="K51" s="5">
-        <v>-34.170961832703782</v>
+        <v>-7.6413403228990706</v>
       </c>
       <c r="L51" s="5">
-        <v>-26.460191288272949</v>
+        <v>-4.1351385216037544</v>
       </c>
       <c r="M51" s="5">
-        <v>-33.850713506266914</v>
+        <v>-7.3996633869462647</v>
       </c>
       <c r="N51" s="5">
-        <v>-39.481433338400443</v>
+        <v>-15.089047927208599</v>
       </c>
       <c r="O51" s="5">
-        <v>58.726158426871542</v>
+        <v>195.28739456627423</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Q51" s="4"/>
       <c r="R51" s="4" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="S51" s="5">
-        <v>23.379999160766602</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T51" s="5">
-        <v>11.989999771118164</v>
+        <v>0.52649533748626709</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4324,67 +4311,69 @@
         <v>180</v>
       </c>
       <c r="C52" s="5">
-        <v>493981824</v>
+        <v>484272352</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>3418407.5</v>
-      </c>
-      <c r="G52" s="5"/>
+        <v>5629563.5</v>
+      </c>
+      <c r="G52" s="5">
+        <v>10.152284622192383</v>
+      </c>
       <c r="H52" s="5">
-        <v>0.625722984749566</v>
+        <v>-1.4178488702180529</v>
       </c>
       <c r="I52" s="5">
-        <v>-0.9478288501716281</v>
+        <v>-1.9900556918895029</v>
       </c>
       <c r="J52" s="5">
-        <v>-5.1692575317135887</v>
+        <v>-19.689961057221904</v>
       </c>
       <c r="K52" s="5">
-        <v>-35.891525557468562</v>
+        <v>-35.451539887480756</v>
       </c>
       <c r="L52" s="5">
-        <v>52.082714998589722</v>
+        <v>-26.156313656845409</v>
       </c>
       <c r="M52" s="5">
-        <v>-37.62321111855821</v>
+        <v>-34.788610417475617</v>
       </c>
       <c r="N52" s="5">
-        <v>168.7416653708643</v>
+        <v>-40.560868749108593</v>
       </c>
       <c r="O52" s="5">
-        <v>294.64560968031094</v>
+        <v>56.969270205371899</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="S52" s="5">
-        <v>1.152422315694851</v>
+        <v>23.379999160766602</v>
       </c>
       <c r="T52" s="5">
-        <v>0.68330907821655307</v>
+        <v>11.819999694824219</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="C53" s="5">
-        <v>488932480</v>
+        <v>471698560</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>23</v>
@@ -4393,34 +4382,34 @@
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>1292996.375</v>
+        <v>1276993</v>
       </c>
       <c r="G53" s="5">
-        <v>8.11907958984375</v>
+        <v>8.1892633438110352</v>
       </c>
       <c r="H53" s="5">
-        <v>-3.5248019237495432</v>
+        <v>-0.85701638883070008</v>
       </c>
       <c r="I53" s="5">
-        <v>-2.2917604474409492</v>
+        <v>-2.527714918444135</v>
       </c>
       <c r="J53" s="5">
-        <v>-3.2300295768083691</v>
+        <v>-4.9718964991616543</v>
       </c>
       <c r="K53" s="5">
-        <v>9.0295521932826001E-2</v>
+        <v>-2.2241993335479382</v>
       </c>
       <c r="L53" s="5">
-        <v>-2.0856860441588299</v>
+        <v>-2.5530519455480571</v>
       </c>
       <c r="M53" s="5">
-        <v>-0.22501907563290402</v>
+        <v>-1.0801070141074229</v>
       </c>
       <c r="N53" s="5">
-        <v>-23.757779701266823</v>
+        <v>-21.710699196960348</v>
       </c>
       <c r="O53" s="5">
-        <v>86.921321702638295</v>
+        <v>134.54241754019111</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>25</v>
@@ -4435,187 +4424,189 @@
         <v>31.969999313354492</v>
       </c>
       <c r="T53" s="5">
-        <v>22.170000076293945</v>
+        <v>21.979999542236328</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="C54" s="5">
-        <v>485399680</v>
+        <v>463903776</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>17215656</v>
-      </c>
-      <c r="G54" s="5"/>
+        <v>6873953</v>
+      </c>
+      <c r="G54" s="5">
+        <v>5.9478459358215332</v>
+      </c>
       <c r="H54" s="5">
-        <v>1.5881988858015061</v>
+        <v>2.1877608448054309</v>
       </c>
       <c r="I54" s="5">
-        <v>-3.3208225421881288</v>
+        <v>2.7297002025155281</v>
       </c>
       <c r="J54" s="5">
-        <v>-3.9083367847655088</v>
+        <v>1.270743442814992</v>
       </c>
       <c r="K54" s="5">
-        <v>-11.674035117274062</v>
+        <v>-4.5191249181914301</v>
       </c>
       <c r="L54" s="5">
-        <v>-15.942571855420173</v>
+        <v>-6.937367596146049</v>
       </c>
       <c r="M54" s="5">
-        <v>-9.4717734091236512</v>
+        <v>-8.5145720045386888</v>
       </c>
       <c r="N54" s="5">
-        <v>-16.409995406091493</v>
+        <v>-27.821863980098737</v>
       </c>
       <c r="O54" s="5">
-        <v>161.55451189046408</v>
+        <v>36.21221261863419</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="S54" s="5">
-        <v>1.1922868853192861</v>
+        <v>1016.4068908941755</v>
       </c>
       <c r="T54" s="5">
-        <v>0.51471400260925304</v>
+        <v>674.00274658203125</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C55" s="5">
-        <v>467727904</v>
+        <v>463106944</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1302055.75</v>
+        <v>1187426.875</v>
       </c>
       <c r="G55" s="5">
-        <v>6.7532467842102051</v>
+        <v>6.6132521629333496</v>
       </c>
       <c r="H55" s="5">
-        <v>-0.47352416594788105</v>
+        <v>3.598579661417189</v>
       </c>
       <c r="I55" s="5">
-        <v>6.2654324694611851</v>
+        <v>10.566556216442734</v>
       </c>
       <c r="J55" s="5">
-        <v>8.1564823387288765</v>
+        <v>11.52043698686307</v>
       </c>
       <c r="K55" s="5">
-        <v>-11.233119405044988</v>
+        <v>-7.9677991512413948</v>
       </c>
       <c r="L55" s="5">
-        <v>-17.351567339124962</v>
+        <v>-13.664700318966016</v>
       </c>
       <c r="M55" s="5">
-        <v>-7.9773830510204045</v>
+        <v>-4.6658758735905863</v>
       </c>
       <c r="N55" s="5">
-        <v>-34.103458212394955</v>
+        <v>-32.733536395660522</v>
       </c>
       <c r="O55" s="5">
-        <v>36.282529088414584</v>
+        <v>67.437975863303819</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="S55" s="5">
         <v>3.5895411339548722</v>
       </c>
       <c r="T55" s="5">
-        <v>2.1260147094726558</v>
+        <v>2.2025210857391362</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A56" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="C56" s="5">
-        <v>458258272</v>
+        <v>448287616</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>7038630</v>
-      </c>
-      <c r="G56" s="5">
-        <v>6.0022883415222168</v>
-      </c>
+        <v>1525370.375</v>
+      </c>
+      <c r="G56" s="5"/>
       <c r="H56" s="5">
-        <v>2.0719860144373441</v>
+        <v>-2.1274313221992469</v>
       </c>
       <c r="I56" s="5">
-        <v>-0.95240410015679011</v>
+        <v>-6.2720226138115232</v>
       </c>
       <c r="J56" s="5">
-        <v>-0.94884506363986909</v>
+        <v>-12.370422920907442</v>
       </c>
       <c r="K56" s="5">
-        <v>-8.9738751321876702</v>
+        <v>1.674129509763556</v>
       </c>
       <c r="L56" s="5">
-        <v>-9.4576580560752017</v>
+        <v>31.596254838753168</v>
       </c>
       <c r="M56" s="5">
-        <v>-10.473204188902784</v>
+        <v>-1.461340267106193</v>
       </c>
       <c r="N56" s="5">
-        <v>-30.096976803731891</v>
+        <v>54.878009964996807</v>
       </c>
       <c r="O56" s="5">
-        <v>45.148514063260102</v>
+        <v>656.19640701224546</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="4"/>
+      <c r="Q56" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="R56" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="S56" s="5">
-        <v>1016.4068908941755</v>
+        <v>10.579760227544591</v>
       </c>
       <c r="T56" s="5">
-        <v>659.5728759765625</v>
+        <v>8.4354743957519531</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4626,67 +4617,69 @@
         <v>192</v>
       </c>
       <c r="C57" s="5">
-        <v>431496736</v>
+        <v>373576672</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>1518461.5</v>
-      </c>
-      <c r="G57" s="5"/>
+        <v>1691601.625</v>
+      </c>
+      <c r="G57" s="5">
+        <v>6.1412487030029297</v>
+      </c>
       <c r="H57" s="5">
-        <v>3.7876637219751208</v>
+        <v>-2.7860669418625861</v>
       </c>
       <c r="I57" s="5">
-        <v>-1.81819572366958</v>
+        <v>-8.4348604694937777</v>
       </c>
       <c r="J57" s="5">
-        <v>-11.877328757782879</v>
+        <v>-22.319007002110403</v>
       </c>
       <c r="K57" s="5">
-        <v>4.1528886891492478</v>
+        <v>-15.993834544084839</v>
       </c>
       <c r="L57" s="5">
-        <v>35.099109965607809</v>
+        <v>-26.29311324797332</v>
       </c>
       <c r="M57" s="5">
-        <v>0.68056970823544605</v>
+        <v>-11.647394329871785</v>
       </c>
       <c r="N57" s="5">
-        <v>54.060488554288888</v>
+        <v>-34.985770227489141</v>
       </c>
       <c r="O57" s="5">
-        <v>673.94759526625467</v>
+        <v>65.650190614524689</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="S57" s="5">
-        <v>10.579760227544591</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="T57" s="5">
-        <v>8.6188335418701172</v>
+        <v>9.7700004577636719</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A58" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="C58" s="5">
-        <v>386371616</v>
+        <v>369572864</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>23</v>
@@ -4695,40 +4688,40 @@
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>5776146</v>
+        <v>5869401</v>
       </c>
       <c r="G58" s="5">
-        <v>9.464508056640625</v>
+        <v>9.4001235961914062</v>
       </c>
       <c r="H58" s="5">
-        <v>-4.347834483498203</v>
+        <v>0.68493533007167906</v>
       </c>
       <c r="I58" s="5">
-        <v>-3.136311581160967</v>
+        <v>-1.8214890684135949</v>
       </c>
       <c r="J58" s="5">
-        <v>-12.155461931945212</v>
+        <v>-12.490206712430263</v>
       </c>
       <c r="K58" s="5">
-        <v>-9.5917087861900114</v>
+        <v>-8.721157526565948</v>
       </c>
       <c r="L58" s="5">
-        <v>-14.28470065995181</v>
+        <v>-13.119585305829984</v>
       </c>
       <c r="M58" s="5">
-        <v>-10.185206913765665</v>
+        <v>-9.5700336642872692</v>
       </c>
       <c r="N58" s="5">
-        <v>-18.878510813642258</v>
+        <v>-16.820181592337569</v>
       </c>
       <c r="O58" s="5">
-        <v>97.188677897591489</v>
+        <v>98.953548842522835</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R58" s="4" t="s">
         <v>0</v>
@@ -4737,127 +4730,127 @@
         <v>23.069999694824219</v>
       </c>
       <c r="T58" s="5">
-        <v>16.059999465942383</v>
+        <v>16.170000076293945</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="C59" s="5">
-        <v>383984768</v>
+        <v>323041376</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>1659229.5</v>
+        <v>7296386</v>
       </c>
       <c r="G59" s="5">
-        <v>5.9701495170593262</v>
+        <v>0.80756008625030506</v>
       </c>
       <c r="H59" s="5">
-        <v>-2.710549225935877</v>
+        <v>0.63495542033262808</v>
       </c>
       <c r="I59" s="5">
-        <v>-6.2500005560134566</v>
+        <v>-6.8282105561194744</v>
       </c>
       <c r="J59" s="5">
-        <v>-18.624796073365481</v>
+        <v>-12.496114047100493</v>
       </c>
       <c r="K59" s="5">
-        <v>-13.732637039895524</v>
+        <v>-39.983762894341815</v>
       </c>
       <c r="L59" s="5">
-        <v>-28.886756924475556</v>
+        <v>28.987065743655794</v>
       </c>
       <c r="M59" s="5">
-        <v>-9.1152853395097271</v>
+        <v>-36.050259727877318</v>
       </c>
       <c r="N59" s="5">
-        <v>-31.69314033955899</v>
-      </c>
-      <c r="O59" s="5">
-        <v>52.674527085805153</v>
-      </c>
+        <v>-3.1749988120842181</v>
+      </c>
+      <c r="O59" s="5"/>
       <c r="P59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q59" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="Q59" s="4"/>
       <c r="R59" s="4" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="S59" s="5">
-        <v>17.930000305175781</v>
+        <v>0.55299045370637101</v>
       </c>
       <c r="T59" s="5">
-        <v>10.050000190734863</v>
+        <v>0.30550381541252103</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A60" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="C60" s="5">
-        <v>324622592</v>
+        <v>292201120</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>7319973</v>
+        <v>1013205.125</v>
       </c>
       <c r="G60" s="5">
-        <v>0.81314873695373502</v>
+        <v>7.3289508819580078</v>
       </c>
       <c r="H60" s="5">
-        <v>-0.58636545018294606</v>
+        <v>4.8304669477365234</v>
       </c>
       <c r="I60" s="5">
-        <v>-6.1103984543555594</v>
+        <v>14.360619832289112</v>
       </c>
       <c r="J60" s="5">
-        <v>-12.921140402671671</v>
+        <v>8.7961883122889883</v>
       </c>
       <c r="K60" s="5">
-        <v>-41.868109786048599</v>
+        <v>-10.837727548104571</v>
       </c>
       <c r="L60" s="5">
-        <v>28.876532479604535</v>
+        <v>-17.177317994209918</v>
       </c>
       <c r="M60" s="5">
-        <v>-36.453750086123591</v>
+        <v>-6.1750284817910011</v>
       </c>
       <c r="N60" s="5">
-        <v>-2.4529802091254442</v>
-      </c>
-      <c r="O60" s="5"/>
+        <v>-31.384458327954778</v>
+      </c>
+      <c r="O60" s="5">
+        <v>49.06498761919962</v>
+      </c>
       <c r="P60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="4"/>
+      <c r="Q60" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="R60" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="S60" s="5">
-        <v>0.55299045370637101</v>
+        <v>0.72014215793247505</v>
       </c>
       <c r="T60" s="5">
-        <v>0.30357623100280801</v>
+        <v>0.44313725829124506</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4868,249 +4861,247 @@
         <v>201</v>
       </c>
       <c r="C61" s="5">
-        <v>288214656</v>
+        <v>285495104</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1014073</v>
+        <v>1767765.5</v>
       </c>
       <c r="G61" s="5">
-        <v>7.573089599609375</v>
+        <v>5.8056602478027344</v>
       </c>
       <c r="H61" s="5">
-        <v>1.909912578003059</v>
+        <v>1.452307178072632</v>
       </c>
       <c r="I61" s="5">
-        <v>7.5341024431188295</v>
+        <v>2.1473322875352969</v>
       </c>
       <c r="J61" s="5">
-        <v>3.2174532622075258</v>
+        <v>-2.847329023829781</v>
       </c>
       <c r="K61" s="5">
-        <v>-15.011813899965109</v>
+        <v>-2.758045808054288</v>
       </c>
       <c r="L61" s="5">
-        <v>-21.645888164707394</v>
+        <v>3.2694871363518669</v>
       </c>
       <c r="M61" s="5">
-        <v>-10.498374899936625</v>
+        <v>-6.3128276667519412</v>
       </c>
       <c r="N61" s="5">
-        <v>-34.167399960411601</v>
+        <v>-20.525300084330269</v>
       </c>
       <c r="O61" s="5">
-        <v>19.664975087708193</v>
+        <v>44.516333285569942</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q61" s="4" t="s">
-        <v>202</v>
-      </c>
+      <c r="Q61" s="4"/>
       <c r="R61" s="4" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="S61" s="5">
-        <v>0.72014215793247505</v>
+        <v>1127.0154656136885</v>
       </c>
       <c r="T61" s="5">
-        <v>0.42271798849105802</v>
+        <v>810.0260009765625</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="C62" s="5">
-        <v>284065216</v>
+        <v>233442416</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>1733388.125</v>
-      </c>
-      <c r="G62" s="5">
-        <v>5.8166351318359384</v>
-      </c>
+        <v>1998302.25</v>
+      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="5">
-        <v>2.5878432105897353</v>
+        <v>-5.6693077805703006E-2</v>
       </c>
       <c r="I62" s="5">
-        <v>-1.1803226806851861</v>
+        <v>-3.7518145766252231</v>
       </c>
       <c r="J62" s="5">
-        <v>-4.2878117647503036</v>
+        <v>-7.3006210059388454</v>
       </c>
       <c r="K62" s="5">
-        <v>-5.7186373075589492</v>
+        <v>-30.41978601490807</v>
       </c>
       <c r="L62" s="5">
-        <v>1.201130929495364</v>
+        <v>48.992952811374593</v>
       </c>
       <c r="M62" s="5">
-        <v>-7.6539756076665082</v>
+        <v>-30.924710990692251</v>
       </c>
       <c r="N62" s="5">
-        <v>-22.176102662534291</v>
+        <v>133.90724100524457</v>
       </c>
       <c r="O62" s="5">
-        <v>50.305678057164151</v>
+        <v>36.570291618757182</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="S62" s="5">
-        <v>1127.0154656136885</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T62" s="5">
-        <v>798.4302978515625</v>
+        <v>0.289756178855896</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="C63" s="5">
-        <v>234721968</v>
+        <v>226914032</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>2315091.25</v>
+        <v>1106696.5</v>
       </c>
       <c r="G63" s="5">
-        <v>6.8195915222167969</v>
+        <v>5.6272001266479492</v>
       </c>
       <c r="H63" s="5">
-        <v>-3.4131830906127592</v>
+        <v>2.2424149137387328</v>
       </c>
       <c r="I63" s="5">
-        <v>0.31094053045881404</v>
+        <v>5.0034254600486161</v>
       </c>
       <c r="J63" s="5">
-        <v>-12.783074846618426</v>
+        <v>1.7969294664174522</v>
       </c>
       <c r="K63" s="5">
-        <v>-11.463034187609145</v>
+        <v>-1.4982170894925591</v>
       </c>
       <c r="L63" s="5">
-        <v>-4.2848030104550521</v>
+        <v>5.9844499665870909</v>
       </c>
       <c r="M63" s="5">
-        <v>-14.154409618790121</v>
+        <v>-4.3977991720468124</v>
       </c>
       <c r="N63" s="5">
-        <v>-8.656754689639822</v>
+        <v>-5.9075670772950728</v>
       </c>
       <c r="O63" s="5">
-        <v>57.36624079341437</v>
+        <v>69.011650908043265</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="Q63" s="4"/>
       <c r="R63" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S63" s="5">
-        <v>20.789899826049805</v>
+        <v>1090.5527244217953</v>
       </c>
       <c r="T63" s="5">
-        <v>16.129999160766602</v>
+        <v>955.21929931640625</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="C64" s="5">
-        <v>232105424</v>
+        <v>226710512</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>2020289.625</v>
-      </c>
-      <c r="G64" s="5"/>
+        <v>2308950</v>
+      </c>
+      <c r="G64" s="5">
+        <v>6.9138908386230469</v>
+      </c>
       <c r="H64" s="5">
-        <v>0.47568498708558904</v>
+        <v>-1.3639139789269339</v>
       </c>
       <c r="I64" s="5">
-        <v>-3.0721103691653928</v>
+        <v>-2.0320192632818812</v>
       </c>
       <c r="J64" s="5">
-        <v>-3.4912304247286641</v>
+        <v>-14.155478679145961</v>
       </c>
       <c r="K64" s="5">
-        <v>-30.78128704107894</v>
+        <v>-13.419406482224005</v>
       </c>
       <c r="L64" s="5">
-        <v>51.482238212944999</v>
+        <v>-5.0982776453412759</v>
       </c>
       <c r="M64" s="5">
-        <v>-30.885527869232156</v>
+        <v>-15.325269626291792</v>
       </c>
       <c r="N64" s="5">
-        <v>132.36268712010562</v>
+        <v>-9.2244552028863058</v>
       </c>
       <c r="O64" s="5">
-        <v>28.57633302764593</v>
+        <v>60.645329773289887</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q64" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="R64" s="4" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="S64" s="5">
-        <v>0.45377137396633505</v>
+        <v>20.789899826049805</v>
       </c>
       <c r="T64" s="5">
-        <v>0.28992053866386402</v>
+        <v>15.909999847412109</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="C65" s="5">
-        <v>224032768</v>
+        <v>216928752</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>45</v>
@@ -5119,105 +5110,107 @@
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>1076612.875</v>
+        <v>1683553</v>
       </c>
       <c r="G65" s="5">
-        <v>5.6817445755004883</v>
+        <v>5.7091531753540039</v>
       </c>
       <c r="H65" s="5">
-        <v>2.5373930439215542</v>
+        <v>2.134579600545838</v>
       </c>
       <c r="I65" s="5">
-        <v>1.22516791593299</v>
+        <v>6.3314616599543738</v>
       </c>
       <c r="J65" s="5">
-        <v>-0.48741493338256803</v>
+        <v>3.9073493294192301</v>
       </c>
       <c r="K65" s="5">
-        <v>-5.6444749475331406</v>
+        <v>3.675371068007705</v>
       </c>
       <c r="L65" s="5">
-        <v>3.0590951589554378</v>
+        <v>8.9380246077630723</v>
       </c>
       <c r="M65" s="5">
-        <v>-6.494578684773689</v>
+        <v>-1.067360886091395</v>
       </c>
       <c r="N65" s="5">
-        <v>-9.0705584960377514</v>
-      </c>
-      <c r="O65" s="5">
-        <v>84.056101856055761</v>
-      </c>
+        <v>0.63258464502415901</v>
+      </c>
+      <c r="O65" s="5"/>
       <c r="P65" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S65" s="5">
-        <v>1090.5527244217953</v>
+        <v>960.01974333662383</v>
       </c>
       <c r="T65" s="5">
-        <v>934.26910400390625</v>
+        <v>893.32110595703125</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="C66" s="5">
-        <v>214400416</v>
+        <v>203839232</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="5">
-        <v>1655370.625</v>
+        <v>4324081.5</v>
       </c>
       <c r="G66" s="5">
-        <v>5.7584123611450204</v>
+        <v>2.7689874172210693</v>
       </c>
       <c r="H66" s="5">
-        <v>2.354256063332683</v>
+        <v>4.8367979042883258</v>
       </c>
       <c r="I66" s="5">
-        <v>2.9843472105218538</v>
+        <v>-0.10650184692587701</v>
       </c>
       <c r="J66" s="5">
-        <v>1.6828918491688549</v>
+        <v>1.1617167786496909</v>
       </c>
       <c r="K66" s="5">
-        <v>-0.79987621013891708</v>
+        <v>-23.055458727419619</v>
       </c>
       <c r="L66" s="5">
-        <v>6.0429898010222693</v>
+        <v>42.022873846936726</v>
       </c>
       <c r="M66" s="5">
-        <v>-3.1350209685693242</v>
+        <v>-25.915673854515852</v>
       </c>
       <c r="N66" s="5">
-        <v>-2.2788711121549898</v>
-      </c>
-      <c r="O66" s="5"/>
+        <v>47.402486274464131</v>
+      </c>
+      <c r="O66" s="5">
+        <v>148.74284265716847</v>
+      </c>
       <c r="P66" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q66" s="4"/>
+      <c r="Q66" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="R66" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="S66" s="5">
-        <v>960.01974333662383</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T66" s="5">
-        <v>874.65093994140625</v>
+        <v>3.3174982070922852</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5228,58 +5221,54 @@
         <v>214</v>
       </c>
       <c r="C67" s="5">
-        <v>199382368</v>
+        <v>170755616</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="5">
-        <v>4338113.5</v>
-      </c>
-      <c r="G67" s="5">
-        <v>2.904564380645752</v>
-      </c>
+        <v>6308263.5</v>
+      </c>
+      <c r="G67" s="5"/>
       <c r="H67" s="5">
-        <v>2.1333229202096899</v>
+        <v>3.374843840156982</v>
       </c>
       <c r="I67" s="5">
-        <v>-2.921200967216631</v>
+        <v>-2.2917058225274789</v>
       </c>
       <c r="J67" s="5">
-        <v>-1.7654534896129559</v>
+        <v>-14.719683930727733</v>
       </c>
       <c r="K67" s="5">
-        <v>-27.418850101908411</v>
+        <v>-35.248404395275656</v>
       </c>
       <c r="L67" s="5">
-        <v>32.076868888024677</v>
+        <v>58.419771773058528</v>
       </c>
       <c r="M67" s="5">
-        <v>-29.333661818705991</v>
+        <v>-41.109628645571597</v>
       </c>
       <c r="N67" s="5">
-        <v>38.841175113211925</v>
+        <v>99.899462589648195</v>
       </c>
       <c r="O67" s="5">
-        <v>124.82463416702583</v>
+        <v>112.22529157390059</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q67" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="Q67" s="4"/>
       <c r="R67" s="4" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="S67" s="5">
-        <v>4.6771184674018205</v>
+        <v>0.22635182608908702</v>
       </c>
       <c r="T67" s="5">
-        <v>3.1644406318664551</v>
+        <v>0.12650586664676702</v>
       </c>
     </row>
     <row r="68" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5290,170 +5279,112 @@
         <v>217</v>
       </c>
       <c r="C68" s="5">
-        <v>169240096</v>
+        <v>137942448</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F68" s="5">
-        <v>6587089</v>
+        <v>2211099.25</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5">
-        <v>0.79480835209795309</v>
+        <v>-0.31165024531504304</v>
       </c>
       <c r="I68" s="5">
-        <v>-4.7589721349918008</v>
+        <v>11.101299507281581</v>
       </c>
       <c r="J68" s="5">
-        <v>-18.955820733995075</v>
+        <v>21.825837322248319</v>
       </c>
       <c r="K68" s="5">
-        <v>-37.402896608465518</v>
+        <v>2.8002629199785689</v>
       </c>
       <c r="L68" s="5">
-        <v>51.643548418530557</v>
+        <v>70.189771553668152</v>
       </c>
       <c r="M68" s="5">
-        <v>-43.032202838934921</v>
+        <v>6.1014932311695969</v>
       </c>
       <c r="N68" s="5">
-        <v>89.009542721754897</v>
+        <v>220.90433811735682</v>
       </c>
       <c r="O68" s="5">
-        <v>98.396558483580847</v>
+        <v>124.10224327258294</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S68" s="5">
-        <v>0.22635182608908702</v>
+        <v>0.21302626225358301</v>
       </c>
       <c r="T68" s="5">
-        <v>0.12237587571144101</v>
+        <v>0.20524396002292603</v>
       </c>
     </row>
     <row r="69" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A69" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="C69" s="5">
-        <v>134032184</v>
+        <v>114420192</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F69" s="5">
-        <v>1997454.25</v>
+        <v>2524789.25</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5">
-        <v>2.8147282776306293</v>
+        <v>6.3675781678572907</v>
       </c>
       <c r="I69" s="5">
-        <v>13.324804335877927</v>
+        <v>18.387312215024387</v>
       </c>
       <c r="J69" s="5">
-        <v>21.435833454910846</v>
+        <v>66.234387844578535</v>
       </c>
       <c r="K69" s="5">
-        <v>4.1719775750939547</v>
+        <v>90.577709881378567</v>
       </c>
       <c r="L69" s="5">
-        <v>76.442024918024657</v>
+        <v>230.16975691742365</v>
       </c>
       <c r="M69" s="5">
-        <v>6.4331925368071863</v>
+        <v>90.00495912278015</v>
       </c>
       <c r="N69" s="5">
-        <v>214.71205319527479</v>
+        <v>681.71422118864371</v>
       </c>
       <c r="O69" s="5">
-        <v>120.88841509851606</v>
+        <v>1074.1790970237853</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="Q69" s="4"/>
       <c r="R69" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S69" s="5">
-        <v>0.21302626225358301</v>
+        <v>3.0734101066670449</v>
       </c>
       <c r="T69" s="5">
-        <v>0.20588560402393302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" s="2" customFormat="1" ht="12.75">
-      <c r="A70" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="5">
-        <v>104071808</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="5">
-        <v>2393982</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5">
-        <v>9.8338243302217965</v>
-      </c>
-      <c r="I70" s="5">
-        <v>18.470789669002841</v>
-      </c>
-      <c r="J70" s="5">
-        <v>51.876724674081665</v>
-      </c>
-      <c r="K70" s="5">
-        <v>79.173114699242106</v>
-      </c>
-      <c r="L70" s="5">
-        <v>209.42679609725076</v>
-      </c>
-      <c r="M70" s="5">
-        <v>78.630521062476163</v>
-      </c>
-      <c r="N70" s="5">
-        <v>632.34947951964386</v>
-      </c>
-      <c r="O70" s="5">
-        <v>947.29902180737611</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="S70" s="5">
-        <v>2.8598140077280343</v>
-      </c>
-      <c r="T70" s="5">
-        <v>2.859813928604126</v>
+        <v>3.0419149398803711</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\24.03.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\25.03.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="217">
   <si>
     <t>USD</t>
   </si>
@@ -135,6 +135,21 @@
     <t>Final</t>
   </si>
   <si>
+    <t>3462 JP Equity</t>
+  </si>
+  <si>
+    <t>NOMURA REAL ESTA</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
     <t>LAND LN Equity</t>
   </si>
   <si>
@@ -150,21 +165,6 @@
     <t>GBp</t>
   </si>
   <si>
-    <t>3462 JP Equity</t>
-  </si>
-  <si>
-    <t>NOMURA REAL ESTA</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
     <t>FUNO11 MM Equity</t>
   </si>
   <si>
@@ -213,21 +213,21 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>ICAD FP Equity</t>
+  </si>
+  <si>
+    <t>ICADE</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>EPRT US Equity</t>
   </si>
   <si>
     <t>ESSENTIAL PROPER</t>
   </si>
   <si>
-    <t>ICAD FP Equity</t>
-  </si>
-  <si>
-    <t>ICADE</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>CHC AU Equity</t>
   </si>
   <si>
@@ -261,6 +261,21 @@
     <t>BROADSTONE NET</t>
   </si>
   <si>
+    <t>GRT SJ Equity</t>
+  </si>
+  <si>
+    <t>GROWTHPOINT PROP</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>04/17/2023</t>
+  </si>
+  <si>
+    <t>ZAr</t>
+  </si>
+  <si>
     <t>HR-U CN Equity</t>
   </si>
   <si>
@@ -273,21 +288,6 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>GRT SJ Equity</t>
-  </si>
-  <si>
-    <t>GROWTHPOINT PROP</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>04/17/2023</t>
-  </si>
-  <si>
-    <t>ZAr</t>
-  </si>
-  <si>
     <t>3309 JP Equity</t>
   </si>
   <si>
@@ -333,27 +333,33 @@
     <t>ABACUS PROPERTY</t>
   </si>
   <si>
+    <t>RDF SJ Equity</t>
+  </si>
+  <si>
+    <t>REDEFINE PROPERT</t>
+  </si>
+  <si>
+    <t>11/28/2022</t>
+  </si>
+  <si>
     <t>8956 JP Equity</t>
   </si>
   <si>
     <t>NTT UD REIT INVE</t>
   </si>
   <si>
-    <t>RDF SJ Equity</t>
-  </si>
-  <si>
-    <t>REDEFINE PROPERT</t>
-  </si>
-  <si>
-    <t>11/28/2022</t>
-  </si>
-  <si>
     <t>8957 JP Equity</t>
   </si>
   <si>
     <t>TOKYU REIT INC</t>
   </si>
   <si>
+    <t>8966 JP Equity</t>
+  </si>
+  <si>
+    <t>HEIWA REAL ESTAT</t>
+  </si>
+  <si>
     <t>ALEX US Equity</t>
   </si>
   <si>
@@ -363,12 +369,6 @@
     <t>04/04/2023</t>
   </si>
   <si>
-    <t>8966 JP Equity</t>
-  </si>
-  <si>
-    <t>HEIWA REAL ESTAT</t>
-  </si>
-  <si>
     <t>GNL US Equity</t>
   </si>
   <si>
@@ -408,6 +408,12 @@
     <t>03/23/2023</t>
   </si>
   <si>
+    <t>AHH US Equity</t>
+  </si>
+  <si>
+    <t>ARMADA HOFFLER P</t>
+  </si>
+  <si>
     <t>ESRT US Equity</t>
   </si>
   <si>
@@ -417,12 +423,6 @@
     <t>03/31/2023</t>
   </si>
   <si>
-    <t>AHH US Equity</t>
-  </si>
-  <si>
-    <t>ARMADA HOFFLER P</t>
-  </si>
-  <si>
     <t>RIT1 IT Equity</t>
   </si>
   <si>
@@ -504,21 +504,21 @@
     <t>Income</t>
   </si>
   <si>
+    <t>DGGYO TI Equity</t>
+  </si>
+  <si>
+    <t>DOGUS GAYRIMENKU</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
     <t>AX-U CN Equity</t>
   </si>
   <si>
     <t>ARTIS REAL ESTAT</t>
   </si>
   <si>
-    <t>DGGYO TI Equity</t>
-  </si>
-  <si>
-    <t>DOGUS GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>Omitted</t>
-  </si>
-  <si>
     <t>STAR US Equity</t>
   </si>
   <si>
@@ -543,6 +543,12 @@
     <t>NZD</t>
   </si>
   <si>
+    <t>ISGYO TI Equity</t>
+  </si>
+  <si>
+    <t>IS GAYRIMENKUL Y</t>
+  </si>
+  <si>
     <t>OZKGY TI Equity</t>
   </si>
   <si>
@@ -552,18 +558,21 @@
     <t>06/04/2013</t>
   </si>
   <si>
-    <t>ISGYO TI Equity</t>
-  </si>
-  <si>
-    <t>IS GAYRIMENKUL Y</t>
-  </si>
-  <si>
     <t>GOOD US Equity</t>
   </si>
   <si>
     <t>GLADSTONE COMMER</t>
   </si>
   <si>
+    <t>SLARL IT Equity</t>
+  </si>
+  <si>
+    <t>SELLA CAPITAL RE</t>
+  </si>
+  <si>
+    <t>03/21/2023</t>
+  </si>
+  <si>
     <t>OLP US Equity</t>
   </si>
   <si>
@@ -576,15 +585,6 @@
     <t>TAKARA LEBEN REA</t>
   </si>
   <si>
-    <t>SLARL IT Equity</t>
-  </si>
-  <si>
-    <t>SELLA CAPITAL RE</t>
-  </si>
-  <si>
-    <t>03/21/2023</t>
-  </si>
-  <si>
     <t>SRVGY TI Equity</t>
   </si>
   <si>
@@ -594,31 +594,22 @@
     <t>11/25/2019</t>
   </si>
   <si>
+    <t>CTO US Equity</t>
+  </si>
+  <si>
+    <t>CTO REALTY GROWT</t>
+  </si>
+  <si>
     <t>NXDT US Equity</t>
   </si>
   <si>
     <t>NEXPOINT DIVERSI</t>
   </si>
   <si>
-    <t>CTO US Equity</t>
-  </si>
-  <si>
-    <t>CTO REALTY GROWT</t>
-  </si>
-  <si>
     <t>PSGYO TI Equity</t>
   </si>
   <si>
     <t>PASIFIK GAYRIMEN</t>
-  </si>
-  <si>
-    <t>MNRT IT Equity</t>
-  </si>
-  <si>
-    <t>MENIVIM</t>
-  </si>
-  <si>
-    <t>04/03/2023</t>
   </si>
   <si>
     <t>2971 JP Equity</t>
@@ -1153,13 +1144,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A71" sqref="A71:XFD71"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1255,7 +1246,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>15880896512</v>
+        <v>15840878592</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1264,34 +1255,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>73994768</v>
+        <v>73725688</v>
       </c>
       <c r="G2" s="5">
-        <v>5.6747775077819824</v>
+        <v>5.5242037773132324</v>
       </c>
       <c r="H2" s="5">
-        <v>-0.251992622760144</v>
+        <v>2.7257054603275992</v>
       </c>
       <c r="I2" s="5">
-        <v>-4.312976406436686</v>
+        <v>-0.50225290661257704</v>
       </c>
       <c r="J2" s="5">
-        <v>-9.5490105781117389</v>
+        <v>-5.8264245806367239</v>
       </c>
       <c r="K2" s="5">
-        <v>-4.4130145511881551</v>
+        <v>-1.807594869447338</v>
       </c>
       <c r="L2" s="5">
-        <v>-1.3550031095725279</v>
+        <v>1.333768957009851</v>
       </c>
       <c r="M2" s="5">
-        <v>-3.76199921177568</v>
+        <v>-1.138834769380936</v>
       </c>
       <c r="N2" s="5">
-        <v>-0.50053918661348007</v>
+        <v>1.676310897110223</v>
       </c>
       <c r="O2" s="5">
-        <v>103.90635253376459</v>
+        <v>74.527002066154679</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1306,7 +1297,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>75.209999084472656</v>
+        <v>77.260002136230469</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1317,7 +1308,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6121548800</v>
+        <v>6107161088</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1326,34 +1317,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>30719484</v>
+        <v>29896698</v>
       </c>
       <c r="G3" s="5">
-        <v>6.8839635848999023</v>
+        <v>6.8482489585876465</v>
       </c>
       <c r="H3" s="5">
-        <v>0.15859051690227902</v>
+        <v>-0.62195078884493804</v>
       </c>
       <c r="I3" s="5">
-        <v>0.656134524372609</v>
+        <v>-2.459292597517448</v>
       </c>
       <c r="J3" s="5">
-        <v>1.147729302392819</v>
+        <v>-0.91753904017293209</v>
       </c>
       <c r="K3" s="5">
-        <v>5.5282672287035428</v>
+        <v>4.8719333382202255</v>
       </c>
       <c r="L3" s="5">
-        <v>23.501572158692419</v>
+        <v>22.733453156415528</v>
       </c>
       <c r="M3" s="5">
-        <v>4.0010899386398568</v>
+        <v>3.354254339359164</v>
       </c>
       <c r="N3" s="5">
-        <v>-12.469208445779712</v>
+        <v>-11.63709472399821</v>
       </c>
       <c r="O3" s="5">
-        <v>196.832606647245</v>
+        <v>161.70396031067193</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1368,7 +1359,7 @@
         <v>3.3020850141715812</v>
       </c>
       <c r="T3" s="5">
-        <v>2.574336051940918</v>
+        <v>2.558324813842773</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1379,7 +1370,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5454544384</v>
+        <v>5480030720</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
@@ -1388,34 +1379,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>27791718</v>
+        <v>27663470</v>
       </c>
       <c r="G4" s="5">
-        <v>4.9878931045532227</v>
+        <v>4.9400477409362793</v>
       </c>
       <c r="H4" s="5">
-        <v>0.90689239775474406</v>
+        <v>7.7604196731595007E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>-5.9005459432166729</v>
+        <v>-4.1494853708147215</v>
       </c>
       <c r="J4" s="5">
-        <v>-7.0597509563967602</v>
+        <v>-8.2024625747520332</v>
       </c>
       <c r="K4" s="5">
-        <v>-3.3412939620254383</v>
+        <v>-3.266282749633509</v>
       </c>
       <c r="L4" s="5">
-        <v>10.328361261511443</v>
+        <v>10.413980700035562</v>
       </c>
       <c r="M4" s="5">
-        <v>-4.4558679549662301</v>
+        <v>-4.3817216987685033</v>
       </c>
       <c r="N4" s="5">
-        <v>-21.94242300595759</v>
+        <v>-21.650450074432115</v>
       </c>
       <c r="O4" s="5">
-        <v>54.59006528829169</v>
+        <v>46.670353749647298</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1430,7 +1421,7 @@
         <v>1.9528599562626601</v>
       </c>
       <c r="T4" s="5">
-        <v>1.3877279758453369</v>
+        <v>1.3888049125671391</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1441,7 +1432,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5">
-        <v>5385527296</v>
+        <v>5333455872</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1450,34 +1441,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>23140636</v>
+        <v>23218138</v>
       </c>
       <c r="G5" s="5">
-        <v>5.9382424354553223</v>
+        <v>5.9737157821655273</v>
       </c>
       <c r="H5" s="5">
-        <v>-0.52570311421567006</v>
+        <v>-1.3509534007760671</v>
       </c>
       <c r="I5" s="5">
-        <v>-5.7947105692771954</v>
+        <v>-4.8016380999318713</v>
       </c>
       <c r="J5" s="5">
-        <v>-9.0040477673137715</v>
+        <v>-10.372899928253442</v>
       </c>
       <c r="K5" s="5">
-        <v>-0.344860209912556</v>
+        <v>-1.691154709954878</v>
       </c>
       <c r="L5" s="5">
-        <v>14.158467152686626</v>
+        <v>12.61623945841357</v>
       </c>
       <c r="M5" s="5">
-        <v>-1.4523791553966101</v>
+        <v>-2.7837115905806842</v>
       </c>
       <c r="N5" s="5">
-        <v>-18.947583507106458</v>
+        <v>-20.451145803884952</v>
       </c>
       <c r="O5" s="5">
-        <v>90.481956057884091</v>
+        <v>56.183983664905625</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>37</v>
@@ -1492,7 +1483,7 @@
         <v>4.000457090394316</v>
       </c>
       <c r="T5" s="5">
-        <v>2.822384119033813</v>
+        <v>2.7842550277709961</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1503,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5">
-        <v>5376700928</v>
+        <v>5328500736</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
@@ -1512,49 +1503,47 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>14114279</v>
+        <v>14413870</v>
       </c>
       <c r="G6" s="5">
-        <v>6.7831449508666992</v>
+        <v>4.6066350936889648</v>
       </c>
       <c r="H6" s="5">
-        <v>-0.68997344989010201</v>
+        <v>1.0114803682305109</v>
       </c>
       <c r="I6" s="5">
-        <v>-3.677255001289681</v>
+        <v>1.3302703166520491</v>
       </c>
       <c r="J6" s="5">
-        <v>-11.889747613855539</v>
+        <v>2.9978843959702179</v>
       </c>
       <c r="K6" s="5">
-        <v>-2.352297525466462</v>
+        <v>-4.6216550502080285</v>
       </c>
       <c r="L6" s="5">
-        <v>26.403554685290477</v>
+        <v>-1.2711419928988941</v>
       </c>
       <c r="M6" s="5">
-        <v>-3.2164977048641412</v>
+        <v>-7.1754122258875004</v>
       </c>
       <c r="N6" s="5">
-        <v>-24.45912654829192</v>
+        <v>-10.895331787828544</v>
       </c>
       <c r="O6" s="5">
-        <v>22.679610643272486</v>
+        <v>33.441047473844421</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="S6" s="5">
-        <v>10.679378389371825</v>
+        <v>1366.6940114848237</v>
       </c>
       <c r="T6" s="5">
-        <v>7.1807394027709961</v>
+        <v>1130.06884765625</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1565,7 +1554,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5282409472</v>
+        <v>5294083584</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1574,47 +1563,49 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>14567448</v>
+        <v>14289399</v>
       </c>
       <c r="G7" s="5">
-        <v>4.6475410461425781</v>
+        <v>6.9013595581054687</v>
       </c>
       <c r="H7" s="5">
-        <v>0.57390748816137405</v>
+        <v>-2.2802586658381969</v>
       </c>
       <c r="I7" s="5">
-        <v>0.63505684317071209</v>
+        <v>-4.3719724303566077</v>
       </c>
       <c r="J7" s="5">
-        <v>1.2704914775223841</v>
+        <v>-12.694213275201028</v>
       </c>
       <c r="K7" s="5">
-        <v>-5.5767279104348644</v>
+        <v>-4.5789177231339124</v>
       </c>
       <c r="L7" s="5">
-        <v>-2.2597652789645872</v>
+        <v>23.521226675651619</v>
       </c>
       <c r="M7" s="5">
-        <v>-8.1049129903583825</v>
+        <v>-5.4234119030506793</v>
       </c>
       <c r="N7" s="5">
-        <v>-11.079023228584051</v>
+        <v>-26.245015927988124</v>
       </c>
       <c r="O7" s="5">
-        <v>53.312859934704314</v>
+        <v>11.20310863813625</v>
       </c>
       <c r="P7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S7" s="5">
-        <v>1366.6940114848237</v>
+        <v>10.679378389371825</v>
       </c>
       <c r="T7" s="5">
-        <v>1118.7528076171875</v>
+        <v>7.0170001983642578</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1625,7 +1616,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>4936868864</v>
+        <v>5018803712</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1634,34 +1625,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>9873535</v>
+        <v>9987423</v>
       </c>
       <c r="G8" s="5">
-        <v>2.5675339698791499</v>
+        <v>2.521703720092773</v>
       </c>
       <c r="H8" s="5">
-        <v>1.230163100305504</v>
+        <v>2.1391228394151751</v>
       </c>
       <c r="I8" s="5">
-        <v>0.54937405196975309</v>
+        <v>6.9305527635614039</v>
       </c>
       <c r="J8" s="5">
-        <v>-7.3871129494443304</v>
+        <v>-5.2991469490765937</v>
       </c>
       <c r="K8" s="5">
-        <v>10.206751863549869</v>
+        <v>12.564209663240678</v>
       </c>
       <c r="L8" s="5">
-        <v>28.510278696262613</v>
+        <v>31.259271418850474</v>
       </c>
       <c r="M8" s="5">
-        <v>15.800376378665359</v>
+        <v>18.277488677910124</v>
       </c>
       <c r="N8" s="5">
-        <v>31.980942235177558</v>
+        <v>31.151674113675455</v>
       </c>
       <c r="O8" s="5">
-        <v>168.69054585526456</v>
+        <v>146.77327297998781</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1676,7 +1667,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.3056491613388062</v>
+        <v>1.3335785865783691</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1687,56 +1678,56 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4722375168</v>
+        <v>4757153792</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>10796014</v>
+        <v>10637097</v>
       </c>
       <c r="G9" s="5">
-        <v>4.2105264663696289</v>
+        <v>4.1791043281555176</v>
       </c>
       <c r="H9" s="5">
-        <v>-0.20231146227944802</v>
+        <v>0.87521532021315207</v>
       </c>
       <c r="I9" s="5">
-        <v>-0.14262995779350501</v>
+        <v>0.41886313482755205</v>
       </c>
       <c r="J9" s="5">
-        <v>0.30470361350873904</v>
+        <v>1.5029871062512972</v>
       </c>
       <c r="K9" s="5">
-        <v>-4.1241995224635346</v>
+        <v>-3.285079828307147</v>
       </c>
       <c r="L9" s="5">
-        <v>-5.8870254581955939</v>
+        <v>-5.0633342866974189</v>
       </c>
       <c r="M9" s="5">
-        <v>-7.4065079472450552</v>
+        <v>-6.5961155192790111</v>
       </c>
       <c r="N9" s="5">
-        <v>-20.948302059421351</v>
+        <v>-19.818638388592202</v>
       </c>
       <c r="O9" s="5">
-        <v>14.494399322499184</v>
+        <v>5.5314205374319645</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S9" s="5">
         <v>2802.4439918533603</v>
       </c>
       <c r="T9" s="5">
-        <v>2032.7066650390625</v>
+        <v>2050.497314453125</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1747,43 +1738,43 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4269425152</v>
+        <v>4169721856</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>14030056</v>
+        <v>14652161</v>
       </c>
       <c r="G10" s="5">
-        <v>6.3077764511108398</v>
+        <v>6.337066650390625</v>
       </c>
       <c r="H10" s="5">
-        <v>-1.495555557959682</v>
+        <v>-1.0367655042861299</v>
       </c>
       <c r="I10" s="5">
-        <v>-6.5531302850862616</v>
+        <v>-6.1262115527578214</v>
       </c>
       <c r="J10" s="5">
-        <v>-14.077846696142815</v>
+        <v>-14.278839654742859</v>
       </c>
       <c r="K10" s="5">
-        <v>-4.7609145570482791</v>
+        <v>-5.7483205415183924</v>
       </c>
       <c r="L10" s="5">
-        <v>18.003696501579313</v>
+        <v>16.780274882468447</v>
       </c>
       <c r="M10" s="5">
-        <v>-5.3553192412114985</v>
+        <v>-6.3365626429603417</v>
       </c>
       <c r="N10" s="5">
-        <v>-29.243173646663557</v>
+        <v>-30.190698381257221</v>
       </c>
       <c r="O10" s="5">
-        <v>28.611252290494281</v>
+        <v>14.594224493515107</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1792,13 +1783,13 @@
         <v>58</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S10" s="5">
         <v>7.1818816476984253</v>
       </c>
       <c r="T10" s="5">
-        <v>4.5239396095275879</v>
+        <v>4.4770369529724121</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1809,7 +1800,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>3992709632</v>
+        <v>3943425024</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1818,34 +1809,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>8774139</v>
+        <v>8933346</v>
       </c>
       <c r="G11" s="5">
-        <v>2.076923131942749</v>
+        <v>2.108002662658691</v>
       </c>
       <c r="H11" s="5">
-        <v>0.10796509700195001</v>
+        <v>-2.4442977958714081</v>
       </c>
       <c r="I11" s="5">
-        <v>-3.0407773865485321</v>
+        <v>-4.5091291935555056</v>
       </c>
       <c r="J11" s="5">
-        <v>-11.937583075554025</v>
+        <v>-12.676407931573387</v>
       </c>
       <c r="K11" s="5">
-        <v>-9.6533166292792849</v>
+        <v>-11.861658619552728</v>
       </c>
       <c r="L11" s="5">
-        <v>12.60179402923891</v>
+        <v>9.8494708596705607</v>
       </c>
       <c r="M11" s="5">
-        <v>-9.7998881219965472</v>
+        <v>-12.004647468504137</v>
       </c>
       <c r="N11" s="5">
-        <v>-13.778402280438296</v>
+        <v>-16.333093711812086</v>
       </c>
       <c r="O11" s="5">
-        <v>42.056961102856945</v>
+        <v>27.480008859633553</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1860,7 +1851,7 @@
         <v>12.193224623203276</v>
       </c>
       <c r="T11" s="5">
-        <v>8.4778203964233398</v>
+        <v>8.2705965042114258</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1871,118 +1862,118 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3573376256</v>
+        <v>3567256576</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>25646154</v>
+        <v>8570586</v>
       </c>
       <c r="G12" s="5">
-        <v>4.7598443031311044</v>
+        <v>10.135767936706543</v>
       </c>
       <c r="H12" s="5">
-        <v>-0.5593767730073701</v>
+        <v>-2.715168817414038</v>
       </c>
       <c r="I12" s="5">
-        <v>-4.9753252452966468</v>
+        <v>-3.242955655528323</v>
       </c>
       <c r="J12" s="5">
-        <v>-10.42635157463463</v>
+        <v>-1.984378951836951</v>
       </c>
       <c r="K12" s="5">
-        <v>-0.331736837464081</v>
+        <v>13.262536415177184</v>
       </c>
       <c r="L12" s="5">
-        <v>14.060729170657726</v>
+        <v>28.094453399729382</v>
       </c>
       <c r="M12" s="5">
-        <v>-1.533867548083345</v>
+        <v>11.529361262008543</v>
       </c>
       <c r="N12" s="5">
-        <v>-1.364548569039381</v>
+        <v>-15.751114431058733</v>
       </c>
       <c r="O12" s="5">
-        <v>105.97324827142924</v>
+        <v>-22.914168760508524</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="S12" s="5">
-        <v>26.75</v>
+        <v>68.2096266746521</v>
       </c>
       <c r="T12" s="5">
-        <v>23.110000610351563</v>
+        <v>45.975265502929687</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5">
-        <v>3548174080</v>
+        <v>3553387520</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8661072</v>
+        <v>25091226</v>
       </c>
       <c r="G13" s="5">
-        <v>9.9586019515991211</v>
+        <v>4.6374368667602539</v>
       </c>
       <c r="H13" s="5">
-        <v>1.9042328562675741</v>
+        <v>2.6395442963757181</v>
       </c>
       <c r="I13" s="5">
-        <v>-2.8373695294267591</v>
+        <v>-2.3466512173265448</v>
       </c>
       <c r="J13" s="5">
-        <v>2.5057338917844119</v>
+        <v>-8.1687983607582666</v>
       </c>
       <c r="K13" s="5">
-        <v>16.423634638995232</v>
+        <v>2.299051118139372</v>
       </c>
       <c r="L13" s="5">
-        <v>31.669502678500173</v>
+        <v>17.071412641886408</v>
       </c>
       <c r="M13" s="5">
-        <v>14.642087472699794</v>
+        <v>1.065189634912977</v>
       </c>
       <c r="N13" s="5">
-        <v>-13.810769445444837</v>
+        <v>1.1978278628594461</v>
       </c>
       <c r="O13" s="5">
-        <v>-15.832138897226855</v>
+        <v>95.391804914116605</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="R13" s="4" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5">
-        <v>68.2096266746521</v>
+        <v>26.75</v>
       </c>
       <c r="T13" s="5">
-        <v>47.258411407470703</v>
+        <v>23.719999313354492</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1993,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="5">
-        <v>3493495040</v>
+        <v>3397654784</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -2002,34 +1993,34 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>17396282</v>
+        <v>17281906</v>
       </c>
       <c r="G14" s="5">
-        <v>3.7486386299133301</v>
+        <v>3.8338747024536133</v>
       </c>
       <c r="H14" s="5">
-        <v>-1.539108782760723</v>
+        <v>-3.1205798930669659</v>
       </c>
       <c r="I14" s="5">
-        <v>-6.90942325539039</v>
+        <v>-9.0189006572377721</v>
       </c>
       <c r="J14" s="5">
-        <v>-17.797248522771447</v>
+        <v>-21.042170103878167</v>
       </c>
       <c r="K14" s="5">
-        <v>-7.9287734665519194</v>
+        <v>-10.801929649054841</v>
       </c>
       <c r="L14" s="5">
-        <v>-2.0945724240448831</v>
+        <v>-5.1497895112013854</v>
       </c>
       <c r="M14" s="5">
-        <v>-9.2364117808551693</v>
+        <v>-12.068762065047899</v>
       </c>
       <c r="N14" s="5">
-        <v>-35.37712770374273</v>
+        <v>-36.822703168196071</v>
       </c>
       <c r="O14" s="5">
-        <v>163.93199049454608</v>
+        <v>137.14461418974554</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>30</v>
@@ -2044,7 +2035,7 @@
         <v>12.790835624888677</v>
       </c>
       <c r="T14" s="5">
-        <v>7.4146246910095215</v>
+        <v>7.1832451820373544</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2055,56 +2046,56 @@
         <v>72</v>
       </c>
       <c r="C15" s="5">
-        <v>3305353472</v>
+        <v>3278769152</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>8142440</v>
+        <v>7970140.5</v>
       </c>
       <c r="G15" s="5">
-        <v>4.5394549369812012</v>
+        <v>4.5755605697631836</v>
       </c>
       <c r="H15" s="5">
-        <v>0.254032312791308</v>
+        <v>-0.66764689401975807</v>
       </c>
       <c r="I15" s="5">
-        <v>-4.6480275111000008E-3</v>
+        <v>0.69181442444112806</v>
       </c>
       <c r="J15" s="5">
-        <v>-4.005495513168345</v>
+        <v>-3.7437672279363232</v>
       </c>
       <c r="K15" s="5">
-        <v>-3.2455043724636701</v>
+        <v>-3.8914827573453992</v>
       </c>
       <c r="L15" s="5">
-        <v>1.269206007329293</v>
+        <v>0.59308529882289307</v>
       </c>
       <c r="M15" s="5">
-        <v>-7.3308188302766197</v>
+        <v>-7.9495217400698204</v>
       </c>
       <c r="N15" s="5">
-        <v>-0.50141283720139807</v>
+        <v>-0.96793734740648907</v>
       </c>
       <c r="O15" s="5">
-        <v>63.249715678887817</v>
+        <v>37.76201628610054</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S15" s="5">
         <v>1195.2420016406891</v>
       </c>
       <c r="T15" s="5">
-        <v>1065.2606201171875</v>
+        <v>1058.1484375</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2115,7 +2106,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="5">
-        <v>3087126528</v>
+        <v>3077623296</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>75</v>
@@ -2124,34 +2115,34 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>10837281</v>
+        <v>10906151</v>
       </c>
       <c r="G16" s="5">
-        <v>5.5664339065551758</v>
+        <v>5.6056337356567383</v>
       </c>
       <c r="H16" s="5">
-        <v>0.59603947381701206</v>
+        <v>-0.48802249414372506</v>
       </c>
       <c r="I16" s="5">
-        <v>0.9639509727016331</v>
+        <v>-0.73736038763675404</v>
       </c>
       <c r="J16" s="5">
-        <v>3.576494236329486</v>
+        <v>2.085377198017802</v>
       </c>
       <c r="K16" s="5">
-        <v>6.2902851326474885</v>
+        <v>5.7715646321106604</v>
       </c>
       <c r="L16" s="5">
-        <v>-0.77321931648769404</v>
+        <v>-1.2574683264378941</v>
       </c>
       <c r="M16" s="5">
-        <v>5.4320251192500502</v>
+        <v>4.9174931206368511</v>
       </c>
       <c r="N16" s="5">
-        <v>-9.2881284606012535</v>
+        <v>-11.786477656243621</v>
       </c>
       <c r="O16" s="5">
-        <v>66.377646480742541</v>
+        <v>56.083791413258453</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>76</v>
@@ -2166,7 +2157,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T16" s="5">
-        <v>1.071374654769897</v>
+        <v>1.0661460161209111</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2177,7 +2168,7 @@
         <v>79</v>
       </c>
       <c r="C17" s="5">
-        <v>3058981888</v>
+        <v>3038489344</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>23</v>
@@ -2186,31 +2177,31 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>17718060</v>
+        <v>17825638</v>
       </c>
       <c r="G17" s="5">
-        <v>6.7443289756774902</v>
+        <v>6.5476193428039551</v>
       </c>
       <c r="H17" s="5">
-        <v>-0.66991845213432211</v>
+        <v>3.004290540544496</v>
       </c>
       <c r="I17" s="5">
-        <v>-3.3767756111566789</v>
+        <v>0.71941804370070406</v>
       </c>
       <c r="J17" s="5">
-        <v>-8.5249605399198014</v>
+        <v>-4.6538113684251545</v>
       </c>
       <c r="K17" s="5">
-        <v>-1.100140662006621</v>
+        <v>1.871098456696529</v>
       </c>
       <c r="L17" s="5">
-        <v>-2.3219608949134329</v>
+        <v>0.61257119411002303</v>
       </c>
       <c r="M17" s="5">
-        <v>0.61690553434710105</v>
+        <v>3.6397297095040799</v>
       </c>
       <c r="N17" s="5">
-        <v>-18.563772134971124</v>
+        <v>-16.038166246382691</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
@@ -2226,7 +2217,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T17" s="5">
-        <v>16.309999465942383</v>
+        <v>16.799999237060547</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2237,7 +2228,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="5">
-        <v>2450898176</v>
+        <v>2413360896</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>82</v>
@@ -2246,111 +2237,111 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9188658</v>
+        <v>10529984</v>
       </c>
       <c r="G18" s="5">
-        <v>4.9751243591308594</v>
+        <v>10.17054271697998</v>
       </c>
       <c r="H18" s="5">
-        <v>-0.86767504647336002</v>
+        <v>0.41338067396712302</v>
       </c>
       <c r="I18" s="5">
-        <v>-5.579661081722243</v>
+        <v>0.12214946176702901</v>
       </c>
       <c r="J18" s="5">
-        <v>-8.5594817688591114</v>
+        <v>-4.0216879430739478</v>
       </c>
       <c r="K18" s="5">
-        <v>-1.08239223144535</v>
+        <v>-18.398867015074771</v>
       </c>
       <c r="L18" s="5">
-        <v>11.455445690848265</v>
+        <v>9.765094405965824</v>
       </c>
       <c r="M18" s="5">
-        <v>-0.80197591664353807</v>
+        <v>-16.791621895961384</v>
       </c>
       <c r="N18" s="5">
-        <v>-12.143071122950166</v>
+        <v>-21.882383352832193</v>
       </c>
       <c r="O18" s="5">
-        <v>154.62979589314401</v>
+        <v>56.655565634059734</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S18" s="5">
-        <v>11.425618100945441</v>
+        <v>1.0297254546268939</v>
       </c>
       <c r="T18" s="5">
-        <v>8.8112812042236328</v>
+        <v>0.71004742383956909</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
-        <v>2380899584</v>
+        <v>2411275520</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>10209242</v>
+        <v>9369467</v>
       </c>
       <c r="G19" s="5">
-        <v>10.266040802001953</v>
+        <v>4.9220676422119141</v>
       </c>
       <c r="H19" s="5">
-        <v>3.1777181309009528</v>
+        <v>0.68070903376364911</v>
       </c>
       <c r="I19" s="5">
-        <v>0.38661262887635905</v>
+        <v>-3.408873428362968</v>
       </c>
       <c r="J19" s="5">
-        <v>-5.9318488591032388</v>
+        <v>-7.2237340019926322</v>
       </c>
       <c r="K19" s="5">
-        <v>-18.73480163975707</v>
+        <v>-0.40905113938191101</v>
       </c>
       <c r="L19" s="5">
-        <v>9.3132147022943368</v>
+        <v>12.214132978287417</v>
       </c>
       <c r="M19" s="5">
-        <v>-17.134173209237467</v>
+        <v>-0.12672600539307402</v>
       </c>
       <c r="N19" s="5">
-        <v>-20.577580193259138</v>
+        <v>-11.087573710863763</v>
       </c>
       <c r="O19" s="5">
-        <v>54.916227425088678</v>
+        <v>137.48011073798168</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>88</v>
       </c>
       <c r="S19" s="5">
-        <v>1.0297254546268939</v>
+        <v>11.425618100945441</v>
       </c>
       <c r="T19" s="5">
-        <v>0.70712429285049405</v>
+        <v>8.8712606430053711</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2361,56 +2352,56 @@
         <v>90</v>
       </c>
       <c r="C20" s="5">
-        <v>2336924672</v>
+        <v>2333214464</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>6016897.5</v>
+        <v>5953102</v>
       </c>
       <c r="G20" s="5">
-        <v>4.8235292434692383</v>
+        <v>4.8304595947265634</v>
       </c>
       <c r="H20" s="5">
-        <v>0.97115700744647704</v>
+        <v>-2.1232448644615001E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>2.1473322875352969</v>
+        <v>1.493319666140303</v>
       </c>
       <c r="J20" s="5">
-        <v>1.9941610172586222</v>
+        <v>1.200517842035786</v>
       </c>
       <c r="K20" s="5">
-        <v>-5.3797947171887355</v>
+        <v>-5.3998849036828389</v>
       </c>
       <c r="L20" s="5">
-        <v>-7.9009636176706426</v>
+        <v>-7.920518498272699</v>
       </c>
       <c r="M20" s="5">
-        <v>-6.4612688729199679</v>
+        <v>-6.4811294359693461</v>
       </c>
       <c r="N20" s="5">
-        <v>-13.755361566660874</v>
+        <v>-13.120144646969035</v>
       </c>
       <c r="O20" s="5">
-        <v>34.25267915548995</v>
+        <v>16.255035855924582</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S20" s="5">
         <v>674.54175152749485</v>
       </c>
       <c r="T20" s="5">
-        <v>532.63031005859375</v>
+        <v>532.5172119140625</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2421,56 +2412,56 @@
         <v>92</v>
       </c>
       <c r="C21" s="5">
-        <v>2272667136</v>
+        <v>2275428096</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>6930745</v>
+        <v>6936813</v>
       </c>
       <c r="G21" s="5">
-        <v>5.0889191627502441</v>
+        <v>5.0819673538208008</v>
       </c>
       <c r="H21" s="5">
-        <v>0.70980806944811503</v>
+        <v>0.259381574153905</v>
       </c>
       <c r="I21" s="5">
-        <v>1.178455152016666</v>
+        <v>0.50663189296169509</v>
       </c>
       <c r="J21" s="5">
-        <v>-2.578889902677139</v>
+        <v>-2.5250642055444468</v>
       </c>
       <c r="K21" s="5">
-        <v>-8.2467278869926215</v>
+        <v>-8.0087368054482013</v>
       </c>
       <c r="L21" s="5">
-        <v>-7.6591044726414204</v>
+        <v>-7.4195892042347564</v>
       </c>
       <c r="M21" s="5">
-        <v>-11.399769175737518</v>
+        <v>-11.169956502321565</v>
       </c>
       <c r="N21" s="5">
-        <v>-13.052408903196433</v>
+        <v>-13.431963363778943</v>
       </c>
       <c r="O21" s="5">
-        <v>38.92265794312344</v>
+        <v>24.577683218998491</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S21" s="5">
         <v>3531.5682281059062</v>
       </c>
       <c r="T21" s="5">
-        <v>2793.061279296875</v>
+        <v>2800.30615234375</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2481,43 +2472,43 @@
         <v>94</v>
       </c>
       <c r="C22" s="5">
-        <v>2046589312</v>
+        <v>2042116992</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>7888500.5</v>
+        <v>7869926.5</v>
       </c>
       <c r="G22" s="5">
-        <v>6.3911705017089844</v>
+        <v>6.5183248519897461</v>
       </c>
       <c r="H22" s="5">
-        <v>0.63941313780384601</v>
+        <v>-2.516690787536124</v>
       </c>
       <c r="I22" s="5">
-        <v>-1.629374134208184</v>
+        <v>-2.991042617029394</v>
       </c>
       <c r="J22" s="5">
-        <v>-12.418140628434493</v>
+        <v>-13.177266007391975</v>
       </c>
       <c r="K22" s="5">
-        <v>-11.477493043662534</v>
+        <v>-13.705330821128713</v>
       </c>
       <c r="L22" s="5">
-        <v>-10.285489175302265</v>
+        <v>-12.54332600431054</v>
       </c>
       <c r="M22" s="5">
-        <v>-10.866863108053849</v>
+        <v>-13.110068552855425</v>
       </c>
       <c r="N22" s="5">
-        <v>-35.088692041829326</v>
+        <v>-36.197329112498281</v>
       </c>
       <c r="O22" s="5">
-        <v>17.767631171862973</v>
+        <v>1.0660921147345179</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
@@ -2526,13 +2517,13 @@
         <v>95</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S22" s="5">
         <v>1.9808639392</v>
       </c>
       <c r="T22" s="5">
-        <v>1.1980199813842769</v>
+        <v>1.167869567871094</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2543,7 +2534,7 @@
         <v>97</v>
       </c>
       <c r="C23" s="5">
-        <v>2042200192</v>
+        <v>2027304448</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2552,34 +2543,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5647894</v>
+        <v>5592468</v>
       </c>
       <c r="G23" s="5">
-        <v>6.5959954261779794</v>
+        <v>6.6350712776184082</v>
       </c>
       <c r="H23" s="5">
-        <v>-0.28776398458894004</v>
+        <v>-1.114406777456189</v>
       </c>
       <c r="I23" s="5">
-        <v>-3.200849221640345</v>
+        <v>-4.1200329931788566</v>
       </c>
       <c r="J23" s="5">
-        <v>-7.967607801168608</v>
+        <v>-9.5353781493048739</v>
       </c>
       <c r="K23" s="5">
-        <v>-5.1093725971208208</v>
+        <v>-6.1668401800692108</v>
       </c>
       <c r="L23" s="5">
-        <v>9.328407134978022</v>
+        <v>8.1100439561809345</v>
       </c>
       <c r="M23" s="5">
-        <v>-6.1249946494380314</v>
+        <v>-7.1711440714020576</v>
       </c>
       <c r="N23" s="5">
-        <v>-23.40363547367923</v>
+        <v>-24.48126034420558</v>
       </c>
       <c r="O23" s="5">
-        <v>67.739845213944648</v>
+        <v>53.162686414006188</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
@@ -2594,7 +2585,7 @@
         <v>4.1295041516920517</v>
       </c>
       <c r="T23" s="5">
-        <v>2.835792064666748</v>
+        <v>2.804189920425415</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2605,56 +2596,56 @@
         <v>100</v>
       </c>
       <c r="C24" s="5">
-        <v>1605509632</v>
+        <v>1610772736</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3892987.25</v>
+        <v>3638236.75</v>
       </c>
       <c r="G24" s="5">
-        <v>4.7769389152526864</v>
+        <v>4.7606019973754883</v>
       </c>
       <c r="H24" s="5">
-        <v>0.70792725149206903</v>
+        <v>0.46600619835361906</v>
       </c>
       <c r="I24" s="5">
-        <v>0.90078857148401204</v>
+        <v>1.4026427244462791</v>
       </c>
       <c r="J24" s="5">
-        <v>-4.2710102603638E-2</v>
+        <v>1.11811450562882</v>
       </c>
       <c r="K24" s="5">
-        <v>-7.0986294326337624</v>
+        <v>-6.6657032874343658</v>
       </c>
       <c r="L24" s="5">
-        <v>-4.7439630241249979</v>
+        <v>-4.300063987511404</v>
       </c>
       <c r="M24" s="5">
-        <v>-8.9648630104405278</v>
+        <v>-8.5406336293894611</v>
       </c>
       <c r="N24" s="5">
-        <v>-12.983474568742215</v>
+        <v>-12.446451546622095</v>
       </c>
       <c r="O24" s="5">
-        <v>56.160671333196156</v>
+        <v>34.977819323747795</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S24" s="5">
         <v>1395.4060705496308</v>
       </c>
       <c r="T24" s="5">
-        <v>1113.4036865234375</v>
+        <v>1118.5921630859375</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2662,10 +2653,10 @@
         <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C25" s="5">
-        <v>1524290304</v>
+        <v>1521847680</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2674,34 +2665,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1709730.125</v>
+        <v>1688037.875</v>
       </c>
       <c r="G25" s="5">
-        <v>7.0686769485473633</v>
+        <v>7.0568561553955078</v>
       </c>
       <c r="H25" s="5">
-        <v>0.75753213612355108</v>
+        <v>-0.54745847475049503</v>
       </c>
       <c r="I25" s="5">
-        <v>-4.2240746571092664</v>
+        <v>-3.8338049135434593</v>
       </c>
       <c r="J25" s="5">
-        <v>-8.5851855743311223</v>
+        <v>-8.2338323764774124</v>
       </c>
       <c r="K25" s="5">
-        <v>-1.2538968321874839</v>
+        <v>-1.7944907424655381</v>
       </c>
       <c r="L25" s="5">
-        <v>1.0644676255022081</v>
+        <v>0.51118163252492599</v>
       </c>
       <c r="M25" s="5">
-        <v>-1.686464370426721</v>
+        <v>-2.224690153057673</v>
       </c>
       <c r="N25" s="5">
-        <v>-34.990808194612178</v>
+        <v>-35.267487882562243</v>
       </c>
       <c r="O25" s="5">
-        <v>66.570078940940476</v>
+        <v>72.063143105759679</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2716,7 +2707,7 @@
         <v>3.362812957848845</v>
       </c>
       <c r="T25" s="5">
-        <v>1.99779212474823</v>
+        <v>1.986855030059814</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2727,7 +2718,7 @@
         <v>103</v>
       </c>
       <c r="C26" s="5">
-        <v>1509864960</v>
+        <v>1502403840</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2736,34 +2727,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>3083334.25</v>
+        <v>2958821.25</v>
       </c>
       <c r="G26" s="5">
-        <v>7.2277226448059082</v>
+        <v>7.2134389877319336</v>
       </c>
       <c r="H26" s="5">
-        <v>-0.36818262044247002</v>
+        <v>-0.88007535221773503</v>
       </c>
       <c r="I26" s="5">
-        <v>-3.651628381298488</v>
+        <v>-2.8589547425778683</v>
       </c>
       <c r="J26" s="5">
-        <v>-11.380844131261458</v>
+        <v>-11.651053911171072</v>
       </c>
       <c r="K26" s="5">
-        <v>-4.6847013594875087</v>
+        <v>-5.5235478097153905</v>
       </c>
       <c r="L26" s="5">
-        <v>4.7469861846842321</v>
+        <v>3.8251337770819132</v>
       </c>
       <c r="M26" s="5">
-        <v>-5.4246268035151974</v>
+        <v>-6.2569613522853951</v>
       </c>
       <c r="N26" s="5">
-        <v>-27.452273818135385</v>
+        <v>-27.734659760881144</v>
       </c>
       <c r="O26" s="5">
-        <v>81.354024959464425</v>
+        <v>62.275197543189577</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2778,7 +2769,7 @@
         <v>2.5733491470937611</v>
       </c>
       <c r="T26" s="5">
-        <v>1.6961120367050171</v>
+        <v>1.6811850070953369</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2789,118 +2780,118 @@
         <v>105</v>
       </c>
       <c r="C27" s="5">
-        <v>1393268992</v>
+        <v>1420747520</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3188913</v>
+        <v>3419822</v>
       </c>
       <c r="G27" s="5">
-        <v>4.7421092987060547</v>
+        <v>11.902191162109375</v>
       </c>
       <c r="H27" s="5">
-        <v>1.027567712754474</v>
+        <v>-1.879704153471162</v>
       </c>
       <c r="I27" s="5">
-        <v>0.75124118565552711</v>
+        <v>1.4120521754400479</v>
       </c>
       <c r="J27" s="5">
-        <v>0.693018745973495</v>
+        <v>-2.376317107129577</v>
       </c>
       <c r="K27" s="5">
-        <v>-4.0689587025390495</v>
+        <v>-20.075169359338741</v>
       </c>
       <c r="L27" s="5">
-        <v>-5.0157404547472968</v>
+        <v>5.8825236185505947</v>
       </c>
       <c r="M27" s="5">
-        <v>-5.2812108562015236</v>
+        <v>-19.959722146093341</v>
       </c>
       <c r="N27" s="5">
-        <v>-19.396840933704219</v>
+        <v>-27.384984746682427</v>
       </c>
       <c r="O27" s="5">
-        <v>55.476321094191896</v>
+        <v>178.08320789848818</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="R27" s="4" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="S27" s="5">
-        <v>1342.904019688269</v>
+        <v>0.32112818480585403</v>
       </c>
       <c r="T27" s="5">
-        <v>992.6639404296875</v>
+        <v>0.19870319962501501</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A28" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="5">
-        <v>1390011520</v>
+        <v>1395200512</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3430040.5</v>
+        <v>3177380</v>
       </c>
       <c r="G28" s="5">
-        <v>11.739593505859375</v>
+        <v>4.7348194122314453</v>
       </c>
       <c r="H28" s="5">
-        <v>4.0406871703829728</v>
+        <v>0.27656827009547902</v>
       </c>
       <c r="I28" s="5">
-        <v>2.0361579068156388</v>
+        <v>1.3675087489192881</v>
       </c>
       <c r="J28" s="5">
-        <v>-3.9966867229567553</v>
+        <v>0.83414967015544805</v>
       </c>
       <c r="K28" s="5">
-        <v>-18.54403826332457</v>
+        <v>-3.8036438811380862</v>
       </c>
       <c r="L28" s="5">
-        <v>7.91092984897106</v>
+        <v>-4.7530441312599869</v>
       </c>
       <c r="M28" s="5">
-        <v>-18.426379411759374</v>
+        <v>-5.0192487396111263</v>
       </c>
       <c r="N28" s="5">
-        <v>-24.863573004689108</v>
+        <v>-19.792394829369808</v>
       </c>
       <c r="O28" s="5">
-        <v>179.03452520135036</v>
+        <v>36.109195248252355</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="S28" s="5">
-        <v>0.32112818480585403</v>
+        <v>1342.904019688269</v>
       </c>
       <c r="T28" s="5">
-        <v>0.20250977575779003</v>
+        <v>995.40936279296875</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2911,56 +2902,56 @@
         <v>110</v>
       </c>
       <c r="C29" s="5">
-        <v>1326358144</v>
+        <v>1327651072</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>3377562.5</v>
+        <v>3311354.75</v>
       </c>
       <c r="G29" s="5">
-        <v>3.835307359695435</v>
+        <v>3.8309860229492192</v>
       </c>
       <c r="H29" s="5">
-        <v>-9.1511437787983013E-2</v>
+        <v>0.23535645259034102</v>
       </c>
       <c r="I29" s="5">
-        <v>-1.9451975388196761</v>
+        <v>0.32110235889930605</v>
       </c>
       <c r="J29" s="5">
-        <v>-3.8674803077444091</v>
+        <v>-3.7856137103113419</v>
       </c>
       <c r="K29" s="5">
-        <v>-9.8710892989520183</v>
+        <v>-9.658965091967719</v>
       </c>
       <c r="L29" s="5">
-        <v>-0.53544893835703</v>
+        <v>-0.301352699393442</v>
       </c>
       <c r="M29" s="5">
-        <v>-12.723963867484201</v>
+        <v>-12.51855408488125</v>
       </c>
       <c r="N29" s="5">
-        <v>-9.9705081990468454</v>
+        <v>-9.933238417123702</v>
       </c>
       <c r="O29" s="5">
-        <v>61.460070400683044</v>
+        <v>40.723054863865094</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S29" s="5">
         <v>1648.0721903199344</v>
       </c>
       <c r="T29" s="5">
-        <v>1354.883056640625</v>
+        <v>1358.0718994140625</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2971,118 +2962,118 @@
         <v>112</v>
       </c>
       <c r="C30" s="5">
-        <v>1291443200</v>
+        <v>1284158848</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>6172132.5</v>
+        <v>2368296.25</v>
       </c>
       <c r="G30" s="5">
-        <v>5.0429797172546387</v>
+        <v>4.1804909706115723</v>
       </c>
       <c r="H30" s="5">
-        <v>-1.9111868189457759</v>
+        <v>0.65675764860972907</v>
       </c>
       <c r="I30" s="5">
-        <v>-2.513960140674953</v>
+        <v>1.2574226264953301</v>
       </c>
       <c r="J30" s="5">
-        <v>-6.5866210383305424</v>
+        <v>1.307065596571144</v>
       </c>
       <c r="K30" s="5">
-        <v>-5.4364579620936553</v>
+        <v>3.1741314879757181</v>
       </c>
       <c r="L30" s="5">
-        <v>9.8605204766661245</v>
+        <v>7.6782096593426274</v>
       </c>
       <c r="M30" s="5">
-        <v>-5.6888954680327846</v>
+        <v>-0.42357903223651006</v>
       </c>
       <c r="N30" s="5">
-        <v>-18.866341972146738</v>
+        <v>0.37938079831405502</v>
       </c>
       <c r="O30" s="5">
-        <v>118.69666119695492</v>
+        <v>69.245218103067202</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="S30" s="5">
-        <v>23.909999847412109</v>
+        <v>1243.9918533604887</v>
       </c>
       <c r="T30" s="5">
-        <v>17.450000762939453</v>
+        <v>1153.022216796875</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="C31" s="5">
-        <v>1277537280</v>
+        <v>1266761344</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>2360203.75</v>
+        <v>6335728.5</v>
       </c>
       <c r="G31" s="5">
-        <v>4.2028017044067383</v>
+        <v>4.9689445495605469</v>
       </c>
       <c r="H31" s="5">
-        <v>0.25764247564048504</v>
+        <v>1.489961662840678</v>
       </c>
       <c r="I31" s="5">
-        <v>0.47168707284475103</v>
+        <v>0.28312139010506804</v>
       </c>
       <c r="J31" s="5">
-        <v>0.79942587297758805</v>
+        <v>-3.6147104675233739</v>
       </c>
       <c r="K31" s="5">
-        <v>2.5009486677030512</v>
+        <v>-4.0274974387046303</v>
       </c>
       <c r="L31" s="5">
-        <v>6.9756389682694042</v>
+        <v>11.497400114365664</v>
       </c>
       <c r="M31" s="5">
-        <v>-1.073287781251264</v>
+        <v>-4.2836961667048756</v>
       </c>
       <c r="N31" s="5">
-        <v>0.86009385003273908</v>
+        <v>-18.129259297435308</v>
       </c>
       <c r="O31" s="5">
-        <v>103.27517991890245</v>
+        <v>83.881800144984211</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="4"/>
+      <c r="Q31" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="R31" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5">
-        <v>1243.9918533604887</v>
+        <v>23.909999847412109</v>
       </c>
       <c r="T31" s="5">
-        <v>1145.4990234375</v>
+        <v>17.709999084472656</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3093,7 +3084,7 @@
         <v>117</v>
       </c>
       <c r="C32" s="5">
-        <v>1231012992</v>
+        <v>1224785280</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>23</v>
@@ -3102,34 +3093,34 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>11223789</v>
+        <v>11309142</v>
       </c>
       <c r="G32" s="5">
-        <v>13.559322357177734</v>
+        <v>13.157895088195801</v>
       </c>
       <c r="H32" s="5">
-        <v>-0.505897703872216</v>
+        <v>3.050844498798488</v>
       </c>
       <c r="I32" s="5">
-        <v>-7.0133917973033917</v>
+        <v>-0.89650045841653803</v>
       </c>
       <c r="J32" s="5">
-        <v>-17.884479577532232</v>
+        <v>-14.486641216126539</v>
       </c>
       <c r="K32" s="5">
-        <v>-5.9273636694571419</v>
+        <v>-3.0573538190920679</v>
       </c>
       <c r="L32" s="5">
-        <v>3.7953181867675272</v>
+        <v>6.9619519416789233</v>
       </c>
       <c r="M32" s="5">
-        <v>-3.3828353395020661</v>
+        <v>-0.43519588656217906</v>
       </c>
       <c r="N32" s="5">
-        <v>-10.845703628254766</v>
+        <v>-8.6147579033780897</v>
       </c>
       <c r="O32" s="5">
-        <v>39.369507478052434</v>
+        <v>29.37065718391727</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
@@ -3144,7 +3135,7 @@
         <v>16.010000228881836</v>
       </c>
       <c r="T32" s="5">
-        <v>11.800000190734863</v>
+        <v>12.159999847412109</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3155,7 +3146,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1176184576</v>
+        <v>1170120192</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3164,34 +3155,34 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1558300</v>
+        <v>1511647.125</v>
       </c>
       <c r="G33" s="5">
-        <v>6.6471266746520996</v>
+        <v>6.6722135543823242</v>
       </c>
       <c r="H33" s="5">
-        <v>1.0213829155409251</v>
+        <v>-0.51434073391041202</v>
       </c>
       <c r="I33" s="5">
-        <v>2.1164001140624671</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5">
-        <v>-20.929852568780284</v>
+        <v>-19.672446166577807</v>
       </c>
       <c r="K33" s="5">
-        <v>0.98627836463853813</v>
+        <v>0.46686479934905406</v>
       </c>
       <c r="L33" s="5">
-        <v>0.52211449047858705</v>
+        <v>5.0883090660040001E-3</v>
       </c>
       <c r="M33" s="5">
-        <v>-2.6307728329504232</v>
+        <v>-3.1315824305643281</v>
       </c>
       <c r="N33" s="5">
-        <v>-38.899635622526652</v>
+        <v>-39.404827309480936</v>
       </c>
       <c r="O33" s="5">
-        <v>-26.849230409687753</v>
+        <v>-30.882954822782182</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>37</v>
@@ -3206,7 +3197,7 @@
         <v>0.44271498196098902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.24586613476276403</v>
+        <v>0.24460156261920901</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3217,56 +3208,56 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1063884032</v>
+        <v>1060278848</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>3534113.5</v>
+        <v>3488344.75</v>
       </c>
       <c r="G34" s="5">
-        <v>5.1812295913696289</v>
+        <v>5.198051929473877</v>
       </c>
       <c r="H34" s="5">
-        <v>0.28722534854215304</v>
+        <v>-0.20160555530089902</v>
       </c>
       <c r="I34" s="5">
-        <v>1.003282165914898</v>
+        <v>1.220166913464382</v>
       </c>
       <c r="J34" s="5">
-        <v>-1.902267428091009</v>
+        <v>-2.2644057328933043</v>
       </c>
       <c r="K34" s="5">
-        <v>-8.0501861991050809</v>
+        <v>-8.2355621318165095</v>
       </c>
       <c r="L34" s="5">
-        <v>-9.4643409995699201</v>
+        <v>-9.6468659176430549</v>
       </c>
       <c r="M34" s="5">
-        <v>-10.977211411588305</v>
+        <v>-11.156686298866314</v>
       </c>
       <c r="N34" s="5">
-        <v>-19.820231791758825</v>
+        <v>-20.024293100493608</v>
       </c>
       <c r="O34" s="5">
-        <v>33.198689658865518</v>
+        <v>15.819050008100621</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S34" s="5">
         <v>3199.3437243642329</v>
       </c>
       <c r="T34" s="5">
-        <v>2361.30224609375</v>
+        <v>2356.541748046875</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3277,7 +3268,7 @@
         <v>127</v>
       </c>
       <c r="C35" s="5">
-        <v>1034024704</v>
+        <v>1000629952</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>23</v>
@@ -3286,34 +3277,34 @@
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>19369950</v>
+        <v>19690696</v>
       </c>
       <c r="G35" s="5">
-        <v>8.009709358215332</v>
+        <v>7.7238154411315918</v>
       </c>
       <c r="H35" s="5">
-        <v>-3.22960142239147</v>
+        <v>3.7014601170843653</v>
       </c>
       <c r="I35" s="5">
-        <v>-11.493024707539035</v>
+        <v>-1.781606165164773</v>
       </c>
       <c r="J35" s="5">
-        <v>-35.212293928574056</v>
+        <v>-31.917338375254054</v>
       </c>
       <c r="K35" s="5">
-        <v>-36.970578275681909</v>
+        <v>-34.63756936852738</v>
       </c>
       <c r="L35" s="5">
-        <v>-33.542667485974206</v>
+        <v>-31.082775828089403</v>
       </c>
       <c r="M35" s="5">
-        <v>-36.899220933856938</v>
+        <v>-34.563570763154125</v>
       </c>
       <c r="N35" s="5">
-        <v>-52.004340362740479</v>
+        <v>-50.283012471192436</v>
       </c>
       <c r="O35" s="5">
-        <v>-16.382051805143661</v>
+        <v>-19.898525949689937</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
@@ -3328,7 +3319,7 @@
         <v>39.099998474121094</v>
       </c>
       <c r="T35" s="5">
-        <v>16.479999542236328</v>
+        <v>17.090000152587891</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3339,7 +3330,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>1009070016</v>
+        <v>964508736</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3348,60 +3339,60 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>12236750</v>
+        <v>4918195.5</v>
       </c>
       <c r="G36" s="5">
-        <v>2.4054982662200932</v>
+        <v>6.7435665130615234</v>
       </c>
       <c r="H36" s="5">
-        <v>-6.7307630586904033</v>
+        <v>3.2051316760476571</v>
       </c>
       <c r="I36" s="5">
-        <v>-12.217193496200185</v>
+        <v>-2.2549807565391822</v>
       </c>
       <c r="J36" s="5">
-        <v>-23.417397668845275</v>
+        <v>-12.499997223386139</v>
       </c>
       <c r="K36" s="5">
-        <v>-14.335126161962663</v>
+        <v>-1.9986062888829981</v>
       </c>
       <c r="L36" s="5">
-        <v>-13.891598765331059</v>
+        <v>3.259383557107332</v>
       </c>
       <c r="M36" s="5">
-        <v>-13.191236496390857</v>
+        <v>-1.9999960194463262</v>
       </c>
       <c r="N36" s="5">
-        <v>-38.184047815772296</v>
+        <v>-17.189468882244242</v>
       </c>
       <c r="O36" s="5">
-        <v>-19.211552061162241</v>
+        <v>48.204873329623645</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>10.055000305175781</v>
+        <v>14.930000305175781</v>
       </c>
       <c r="T36" s="5">
-        <v>5.820000171661377</v>
+        <v>11.270000457763672</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="C37" s="5">
-        <v>985706752</v>
+        <v>941151808</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3410,49 +3401,49 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>4839984.5</v>
+        <v>12607714</v>
       </c>
       <c r="G37" s="5">
-        <v>6.9597067832946777</v>
+        <v>2.3372287750244141</v>
       </c>
       <c r="H37" s="5">
-        <v>-2.1505356128998292</v>
+        <v>2.9209552309731102</v>
       </c>
       <c r="I37" s="5">
-        <v>-8.1581180741810968</v>
+        <v>-1.1551183551541391</v>
       </c>
       <c r="J37" s="5">
-        <v>-16.704802728716174</v>
+        <v>-20.029044835896425</v>
       </c>
       <c r="K37" s="5">
-        <v>-5.042131026260166</v>
+        <v>-11.832893548484002</v>
       </c>
       <c r="L37" s="5">
-        <v>5.2567038265061004E-2</v>
+        <v>-11.376410915159685</v>
       </c>
       <c r="M37" s="5">
-        <v>-5.0434775974439567</v>
+        <v>-10.655591377889106</v>
       </c>
       <c r="N37" s="5">
-        <v>-19.594183566497524</v>
+        <v>-37.098432260316194</v>
       </c>
       <c r="O37" s="5">
-        <v>45.907778949100077</v>
+        <v>-23.889697334987623</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <v>14.930000305175781</v>
+        <v>10.055000305175781</v>
       </c>
       <c r="T37" s="5">
-        <v>10.920000076293945</v>
+        <v>5.9899997711181641</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3463,7 +3454,7 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>867283904</v>
+        <v>911361856</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>136</v>
@@ -3472,7 +3463,7 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1853091.25</v>
+        <v>1790711.5</v>
       </c>
       <c r="G38" s="5">
         <v>4.7365303039550781</v>
@@ -3493,7 +3484,7 @@
         <v>-12.872016867287739</v>
       </c>
       <c r="M38" s="5">
-        <v>-4.5443679979565443</v>
+        <v>-4.9649744194719574</v>
       </c>
       <c r="N38" s="5">
         <v>-26.698866702660773</v>
@@ -3523,7 +3514,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="5">
-        <v>819850112</v>
+        <v>826427968</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>29</v>
@@ -3532,34 +3523,34 @@
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>1924016.625</v>
+        <v>1941088.75</v>
       </c>
       <c r="G39" s="5">
-        <v>7.3139157295227051</v>
+        <v>7.266880989074707</v>
       </c>
       <c r="H39" s="5">
-        <v>-3.66012252863035</v>
+        <v>0.41138826048607902</v>
       </c>
       <c r="I39" s="5">
-        <v>-3.1815482149451069</v>
+        <v>-4.0251844966372463</v>
       </c>
       <c r="J39" s="5">
-        <v>-16.230485215737144</v>
+        <v>-14.149142426717653</v>
       </c>
       <c r="K39" s="5">
-        <v>-10.985137602223583</v>
+        <v>-10.61894090823129</v>
       </c>
       <c r="L39" s="5">
-        <v>-2.2905519528490959</v>
+        <v>-1.8885867541973631</v>
       </c>
       <c r="M39" s="5">
-        <v>-11.488991137040305</v>
+        <v>-11.124867237340297</v>
       </c>
       <c r="N39" s="5">
-        <v>-48.95206622575251</v>
+        <v>-48.253898722391874</v>
       </c>
       <c r="O39" s="5">
-        <v>44.863043486530053</v>
+        <v>28.941937524512483</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>30</v>
@@ -3574,7 +3565,7 @@
         <v>2.1937991371437611</v>
       </c>
       <c r="T39" s="5">
-        <v>1.0290640592575071</v>
+        <v>1.0332974195480351</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3585,7 +3576,7 @@
         <v>142</v>
       </c>
       <c r="C40" s="5">
-        <v>817962624</v>
+        <v>819194944</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>143</v>
@@ -3594,32 +3585,32 @@
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>2920385</v>
+        <v>2864387.75</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5">
-        <v>0.26425647304393302</v>
+        <v>-0.21708155074478003</v>
       </c>
       <c r="I40" s="5">
-        <v>-0.13670202629001402</v>
+        <v>-3.7074994535208132</v>
       </c>
       <c r="J40" s="5">
-        <v>-4.4664847018785814</v>
+        <v>-2.836149663491105</v>
       </c>
       <c r="K40" s="5">
-        <v>-16.613039718606281</v>
+        <v>-16.794057425104072</v>
       </c>
       <c r="L40" s="5">
-        <v>76.120491326926583</v>
+        <v>75.738166233174724</v>
       </c>
       <c r="M40" s="5">
-        <v>-20.498189235708963</v>
+        <v>-20.670772999386266</v>
       </c>
       <c r="N40" s="5">
-        <v>105.72247238460717</v>
+        <v>103.17431521654008</v>
       </c>
       <c r="O40" s="5">
-        <v>222.17690016928432</v>
+        <v>196.40330484144138</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>144</v>
@@ -3632,7 +3623,7 @@
         <v>1.13709763756269</v>
       </c>
       <c r="T40" s="5">
-        <v>0.81992596387863204</v>
+        <v>0.8181461095809941</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3643,43 +3634,43 @@
         <v>147</v>
       </c>
       <c r="C41" s="5">
-        <v>809074880</v>
+        <v>810416256</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>1351934.25</v>
+        <v>1343927.625</v>
       </c>
       <c r="G41" s="5">
-        <v>6.5686278343200684</v>
+        <v>6.5815324783325204</v>
       </c>
       <c r="H41" s="5">
-        <v>1.0270317850360919</v>
+        <v>-0.77217435385452704</v>
       </c>
       <c r="I41" s="5">
-        <v>0.42109029133443604</v>
+        <v>-0.42143577736273302</v>
       </c>
       <c r="J41" s="5">
-        <v>-4.0745770945339821</v>
+        <v>-4.7425539640792884</v>
       </c>
       <c r="K41" s="5">
-        <v>-8.552170216287692</v>
+        <v>-9.2583069050340647</v>
       </c>
       <c r="L41" s="5">
-        <v>-4.3425963470836164</v>
+        <v>-5.0812382856545426</v>
       </c>
       <c r="M41" s="5">
-        <v>-9.8283569219877247</v>
+        <v>-10.524639224285382</v>
       </c>
       <c r="N41" s="5">
-        <v>-38.566902549782668</v>
+        <v>-38.052987447189565</v>
       </c>
       <c r="O41" s="5">
-        <v>13.920791391678122</v>
+        <v>-0.15661559591608801</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>30</v>
@@ -3688,13 +3679,13 @@
         <v>31</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S41" s="5">
         <v>1.243469103672894</v>
       </c>
       <c r="T41" s="5">
-        <v>0.627299964427948</v>
+        <v>0.6224561333656311</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3705,56 +3696,56 @@
         <v>149</v>
       </c>
       <c r="C42" s="5">
-        <v>788204224</v>
+        <v>796905472</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>2145585.5</v>
+        <v>2172592.5</v>
       </c>
       <c r="G42" s="5">
-        <v>5.6455225944519043</v>
+        <v>5.5830259323120117</v>
       </c>
       <c r="H42" s="5">
-        <v>1.0723199694298471</v>
+        <v>1.2431885104266631</v>
       </c>
       <c r="I42" s="5">
-        <v>2.5299065657657489</v>
+        <v>3.149284116177165</v>
       </c>
       <c r="J42" s="5">
-        <v>1.5035147873671879</v>
+        <v>2.1380262701130581</v>
       </c>
       <c r="K42" s="5">
-        <v>4.7434017409513807</v>
+        <v>6.0455596768249409</v>
       </c>
       <c r="L42" s="5">
-        <v>1.812083506749196</v>
+        <v>3.0777996311311062</v>
       </c>
       <c r="M42" s="5">
-        <v>-9.8115284759881002E-2</v>
+        <v>1.1438534677196801</v>
       </c>
       <c r="N42" s="5">
-        <v>-12.022390005213691</v>
+        <v>-11.659676780498419</v>
       </c>
       <c r="O42" s="5">
-        <v>70.774928184215639</v>
+        <v>49.696751441336232</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S42" s="5">
         <v>516.49694501018325</v>
       </c>
       <c r="T42" s="5">
-        <v>409.59805297851562</v>
+        <v>414.69012451171875</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3765,7 +3756,7 @@
         <v>151</v>
       </c>
       <c r="C43" s="5">
-        <v>758869056</v>
+        <v>758451776</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>152</v>
@@ -3774,34 +3765,34 @@
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>4103052.5</v>
+        <v>3859610</v>
       </c>
       <c r="G43" s="5">
-        <v>1.0243813991546631</v>
+        <v>1.0258914232254031</v>
       </c>
       <c r="H43" s="5">
-        <v>0.599658518591073</v>
+        <v>-5.4981417734701006E-2</v>
       </c>
       <c r="I43" s="5">
-        <v>0.72166602871242003</v>
+        <v>0.32151609639343703</v>
       </c>
       <c r="J43" s="5">
-        <v>0.41397866346724005</v>
+        <v>-0.59476210872635404</v>
       </c>
       <c r="K43" s="5">
-        <v>0.51149692533867308</v>
+        <v>0.45623427934276006</v>
       </c>
       <c r="L43" s="5">
-        <v>6.6095595728554279</v>
+        <v>6.5509441255615419</v>
       </c>
       <c r="M43" s="5">
-        <v>1.3153915074650251</v>
+        <v>1.2596868688307781</v>
       </c>
       <c r="N43" s="5">
-        <v>0.72665223660008904</v>
+        <v>0.82278912947217908</v>
       </c>
       <c r="O43" s="5">
-        <v>17.374909909034074</v>
+        <v>14.733107582881955</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>25</v>
@@ -3816,7 +3807,7 @@
         <v>0.72089303474705002</v>
       </c>
       <c r="T43" s="5">
-        <v>0.67156553268432606</v>
+        <v>0.67119628190994307</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3827,56 +3818,56 @@
         <v>156</v>
       </c>
       <c r="C44" s="5">
-        <v>722437760</v>
+        <v>723922880</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>1428939.75</v>
+        <v>1382505.375</v>
       </c>
       <c r="G44" s="5">
-        <v>4.2709865570068359</v>
+        <v>4.2615723609924316</v>
       </c>
       <c r="H44" s="5">
-        <v>-0.353416276732055</v>
+        <v>0.34359874462961404</v>
       </c>
       <c r="I44" s="5">
-        <v>0.30085122666154701</v>
+        <v>-0.19084923440545501</v>
       </c>
       <c r="J44" s="5">
-        <v>-1.201191399731893</v>
+        <v>-0.98427686911603007</v>
       </c>
       <c r="K44" s="5">
-        <v>-8.5568592537598072</v>
+        <v>-8.2426617701058191</v>
       </c>
       <c r="L44" s="5">
-        <v>-4.3374580796720075</v>
+        <v>-4.0087627865529774</v>
       </c>
       <c r="M44" s="5">
-        <v>-10.84874731006542</v>
+        <v>-10.54242472500122</v>
       </c>
       <c r="N44" s="5">
-        <v>-12.592562135031892</v>
+        <v>-12.74357424035747</v>
       </c>
       <c r="O44" s="5">
-        <v>35.46892751116593</v>
+        <v>20.812789900634332</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S44" s="5">
         <v>1279.0224032586557</v>
       </c>
       <c r="T44" s="5">
-        <v>1037.750244140625</v>
+        <v>1041.3160400390625</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3887,7 +3878,7 @@
         <v>158</v>
       </c>
       <c r="C45" s="5">
-        <v>699597888</v>
+        <v>699209472</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>159</v>
@@ -3896,49 +3887,49 @@
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1624797.125</v>
+        <v>1574125.5</v>
       </c>
       <c r="G45" s="5">
-        <v>5.8895707130432129</v>
+        <v>5.970149040222168</v>
       </c>
       <c r="H45" s="5">
-        <v>0.80381740998889406</v>
+        <v>-1.9191312680715831</v>
       </c>
       <c r="I45" s="5">
-        <v>-0.23367809522836203</v>
+        <v>-3.132863195973834</v>
       </c>
       <c r="J45" s="5">
-        <v>-1.0057996895696311</v>
+        <v>-4.8316149476862247</v>
       </c>
       <c r="K45" s="5">
-        <v>-2.5840375989661162</v>
+        <v>-4.4535777934972103</v>
       </c>
       <c r="L45" s="5">
-        <v>10.329761913272417</v>
+        <v>8.2123889544058581</v>
       </c>
       <c r="M45" s="5">
-        <v>-5.0300236107204688</v>
+        <v>-6.8526221228873307</v>
       </c>
       <c r="N45" s="5">
-        <v>-30.621362933389552</v>
+        <v>-31.761678773073278</v>
       </c>
       <c r="O45" s="5">
-        <v>122.88135376073157</v>
+        <v>83.037444424512202</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>160</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S45" s="5">
         <v>1.5543399132000002</v>
       </c>
       <c r="T45" s="5">
-        <v>1.0024499893188481</v>
+        <v>0.98321163654327404</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3949,116 +3940,116 @@
         <v>162</v>
       </c>
       <c r="C46" s="5">
-        <v>644624128</v>
+        <v>663406144</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>7978118.5</v>
-      </c>
-      <c r="G46" s="5">
-        <v>7.9681272506713867</v>
-      </c>
+        <v>15593189</v>
+      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="5">
-        <v>-0.82010191347996508</v>
+        <v>9.8757113855752579</v>
       </c>
       <c r="I46" s="5">
-        <v>-7.4508970329683404</v>
+        <v>31.101792949281549</v>
       </c>
       <c r="J46" s="5">
-        <v>-18.173739711989899</v>
+        <v>134.0359293439426</v>
       </c>
       <c r="K46" s="5">
-        <v>-15.128984470527485</v>
+        <v>116.4141411808949</v>
       </c>
       <c r="L46" s="5">
-        <v>-19.721986565411488</v>
+        <v>191.01913016593804</v>
       </c>
       <c r="M46" s="5">
-        <v>-16.489890046508272</v>
+        <v>114.73912267542197</v>
       </c>
       <c r="N46" s="5">
-        <v>-44.444701789149086</v>
+        <v>225.78609969969315</v>
       </c>
       <c r="O46" s="5">
-        <v>76.109966383351519</v>
+        <v>325.54769572121796</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Q46" s="4"/>
       <c r="R46" s="4" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="S46" s="5">
-        <v>11.008880893576956</v>
+        <v>2.197456484902526</v>
       </c>
       <c r="T46" s="5">
-        <v>5.5015711784362793</v>
+        <v>2.1974565982818599</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A47" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" s="5">
-        <v>604186496</v>
+        <v>634507072</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>15349712</v>
-      </c>
-      <c r="G47" s="5"/>
+        <v>7972509.5</v>
+      </c>
+      <c r="G47" s="5">
+        <v>7.8947372436523437</v>
+      </c>
       <c r="H47" s="5">
-        <v>9.9260943512639255</v>
+        <v>0.53296611767939006</v>
       </c>
       <c r="I47" s="5">
-        <v>31.122152834386398</v>
+        <v>-3.4627034867043101</v>
       </c>
       <c r="J47" s="5">
-        <v>128.09551577306499</v>
+        <v>-17.953030485236908</v>
       </c>
       <c r="K47" s="5">
-        <v>96.962675783236136</v>
+        <v>-14.676650714024985</v>
       </c>
       <c r="L47" s="5">
-        <v>164.8621123777713</v>
+        <v>-19.29413195385904</v>
       </c>
       <c r="M47" s="5">
-        <v>95.438209197900477</v>
+        <v>-16.044809455619358</v>
       </c>
       <c r="N47" s="5">
-        <v>188.69017657542253</v>
+        <v>-43.818926423773007</v>
       </c>
       <c r="O47" s="5">
-        <v>333.12391710421883</v>
+        <v>62.686667994508348</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q47" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="R47" s="4" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="S47" s="5">
-        <v>1.9999474278428959</v>
+        <v>11.008880893576956</v>
       </c>
       <c r="T47" s="5">
-        <v>1.9999474287033081</v>
+        <v>5.5308928489685059</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4078,34 +4069,34 @@
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>11376680</v>
+        <v>11661151</v>
       </c>
       <c r="G48" s="5">
-        <v>7.2992701530456543</v>
+        <v>6.8775792121887207</v>
       </c>
       <c r="H48" s="5">
-        <v>0</v>
+        <v>6.1313880604568327</v>
       </c>
       <c r="I48" s="5">
-        <v>-2.6988644637783281</v>
+        <v>7.8635048635976812</v>
       </c>
       <c r="J48" s="5">
-        <v>-13.181241818148081</v>
+        <v>-6.1935486332062695</v>
       </c>
       <c r="K48" s="5">
-        <v>-10.222807314669403</v>
+        <v>-4.7182192413477209</v>
       </c>
       <c r="L48" s="5">
-        <v>-17.221790882365383</v>
+        <v>-12.146337651866745</v>
       </c>
       <c r="M48" s="5">
-        <v>-10.222807314669403</v>
+        <v>-4.7182192413477209</v>
       </c>
       <c r="N48" s="5">
-        <v>-62.876760224887043</v>
+        <v>-60.170715054279746</v>
       </c>
       <c r="O48" s="5">
-        <v>33.459101734351606</v>
+        <v>28.402730749669303</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>25</v>
@@ -4120,7 +4111,7 @@
         <v>18.901226043701172</v>
       </c>
       <c r="T48" s="5">
-        <v>6.8499999046325684</v>
+        <v>7.2699999809265137</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4131,7 +4122,7 @@
         <v>170</v>
       </c>
       <c r="C49" s="5">
-        <v>570898496</v>
+        <v>559362304</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>171</v>
@@ -4140,34 +4131,34 @@
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>1726622</v>
+        <v>1635209.25</v>
       </c>
       <c r="G49" s="5">
-        <v>6.1059904098510742</v>
+        <v>6.1915884017944336</v>
       </c>
       <c r="H49" s="5">
-        <v>-0.64576900869373099</v>
+        <v>-2.4581829490227141</v>
       </c>
       <c r="I49" s="5">
-        <v>-1.0137320851703491</v>
+        <v>-8.024824515633588</v>
       </c>
       <c r="J49" s="5">
-        <v>-1.5736250517002559</v>
+        <v>-1.9850246001342111</v>
       </c>
       <c r="K49" s="5">
-        <v>-6.2372874831071563</v>
+        <v>-8.542146494738601</v>
       </c>
       <c r="L49" s="5">
-        <v>-4.703108562159974</v>
+        <v>-7.0456804984336374</v>
       </c>
       <c r="M49" s="5">
-        <v>-7.1669420568523767</v>
+        <v>-9.4489484582672141</v>
       </c>
       <c r="N49" s="5">
-        <v>-26.393078854717977</v>
+        <v>-28.263257198512626</v>
       </c>
       <c r="O49" s="5">
-        <v>80.240884840762178</v>
+        <v>57.522600770271872</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>30</v>
@@ -4182,7 +4173,7 @@
         <v>0.97453997864368302</v>
       </c>
       <c r="T49" s="5">
-        <v>0.67726802825927701</v>
+        <v>0.660619556903839</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4193,7 +4184,7 @@
         <v>175</v>
       </c>
       <c r="C50" s="5">
-        <v>497569248</v>
+        <v>504327360</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>143</v>
@@ -4202,58 +4193,56 @@
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>3322769.75</v>
+        <v>16818516</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>0.32741025200739804</v>
+        <v>1.1061850573858669</v>
       </c>
       <c r="I50" s="5">
-        <v>-2.722569661881868</v>
+        <v>-0.50862295863752804</v>
       </c>
       <c r="J50" s="5">
-        <v>-9.0656279799795296</v>
+        <v>-4.7224064037413971</v>
       </c>
       <c r="K50" s="5">
-        <v>-35.314891661222859</v>
+        <v>-6.6196826303491108</v>
       </c>
       <c r="L50" s="5">
-        <v>54.654552514115352</v>
+        <v>-3.0746957486460609</v>
       </c>
       <c r="M50" s="5">
-        <v>-37.418983116887361</v>
+        <v>-6.3753323002436417</v>
       </c>
       <c r="N50" s="5">
-        <v>171.17875175763638</v>
+        <v>-16.132263679451253</v>
       </c>
       <c r="O50" s="5">
-        <v>326.40332749383589</v>
+        <v>174.62144052740035</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
         <v>145</v>
       </c>
       <c r="S50" s="5">
-        <v>1.152422315694851</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T50" s="5">
-        <v>0.68554633855819702</v>
+        <v>0.53231936693191506</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="C51" s="5">
-        <v>493601280</v>
+        <v>498632768</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>143</v>
@@ -4262,45 +4251,47 @@
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>16992998</v>
+        <v>3250945.5</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5">
-        <v>2.2889104318168711</v>
+        <v>-0.93067806492785909</v>
       </c>
       <c r="I51" s="5">
-        <v>-2.690037504262921</v>
+        <v>-4.373917232771074</v>
       </c>
       <c r="J51" s="5">
-        <v>-2.3790796841230533</v>
+        <v>-12.459430031489681</v>
       </c>
       <c r="K51" s="5">
-        <v>-7.6413403228990706</v>
+        <v>-35.916901775806686</v>
       </c>
       <c r="L51" s="5">
-        <v>-4.1351385216037544</v>
+        <v>53.215216517454131</v>
       </c>
       <c r="M51" s="5">
-        <v>-7.3996633869462647</v>
+        <v>-38.001410913827293</v>
       </c>
       <c r="N51" s="5">
-        <v>-15.089047927208599</v>
+        <v>167.43810170796937</v>
       </c>
       <c r="O51" s="5">
-        <v>195.28739456627423</v>
+        <v>299.97611660576393</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q51" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="R51" s="4" t="s">
         <v>145</v>
       </c>
       <c r="S51" s="5">
-        <v>1.1922868853192861</v>
+        <v>1.152422315694851</v>
       </c>
       <c r="T51" s="5">
-        <v>0.52649533748626709</v>
+        <v>0.6791661381721501</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4311,7 +4302,7 @@
         <v>180</v>
       </c>
       <c r="C52" s="5">
-        <v>484272352</v>
+        <v>477406112</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>23</v>
@@ -4320,40 +4311,40 @@
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>5629563.5</v>
+        <v>5399791</v>
       </c>
       <c r="G52" s="5">
-        <v>10.152284622192383</v>
+        <v>9.8441352844238281</v>
       </c>
       <c r="H52" s="5">
-        <v>-1.4178488702180529</v>
+        <v>3.1302867606764821</v>
       </c>
       <c r="I52" s="5">
-        <v>-1.9900556918895029</v>
+        <v>4.5454523148113379</v>
       </c>
       <c r="J52" s="5">
-        <v>-19.689961057221904</v>
+        <v>-14.467099505745473</v>
       </c>
       <c r="K52" s="5">
-        <v>-35.451539887480756</v>
+        <v>-33.430987986358041</v>
       </c>
       <c r="L52" s="5">
-        <v>-26.156313656845409</v>
+        <v>-23.844794519650168</v>
       </c>
       <c r="M52" s="5">
-        <v>-34.788610417475617</v>
+        <v>-32.747306922920693</v>
       </c>
       <c r="N52" s="5">
-        <v>-40.560868749108593</v>
+        <v>-38.671812701502283</v>
       </c>
       <c r="O52" s="5">
-        <v>56.969270205371899</v>
+        <v>43.47681043186806</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R52" s="4" t="s">
         <v>0</v>
@@ -4362,7 +4353,7 @@
         <v>23.379999160766602</v>
       </c>
       <c r="T52" s="5">
-        <v>11.819999694824219</v>
+        <v>12.189999580383301</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4373,180 +4364,180 @@
         <v>182</v>
       </c>
       <c r="C53" s="5">
-        <v>471698560</v>
+        <v>476349408</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>1276993</v>
+        <v>1198788.875</v>
       </c>
       <c r="G53" s="5">
-        <v>8.1892633438110352</v>
+        <v>6.6132521629333496</v>
       </c>
       <c r="H53" s="5">
-        <v>-0.85701638883070008</v>
+        <v>3.598579661417189</v>
       </c>
       <c r="I53" s="5">
-        <v>-2.527714918444135</v>
+        <v>10.566556216442734</v>
       </c>
       <c r="J53" s="5">
-        <v>-4.9718964991616543</v>
+        <v>11.52043698686307</v>
       </c>
       <c r="K53" s="5">
-        <v>-2.2241993335479382</v>
+        <v>-7.9677991512413948</v>
       </c>
       <c r="L53" s="5">
-        <v>-2.5530519455480571</v>
+        <v>-13.664700318966016</v>
       </c>
       <c r="M53" s="5">
-        <v>-1.0801070141074229</v>
+        <v>-5.0859468946096156</v>
       </c>
       <c r="N53" s="5">
-        <v>-21.710699196960348</v>
+        <v>-32.733536395660522</v>
       </c>
       <c r="O53" s="5">
-        <v>134.54241754019111</v>
+        <v>67.437975863303819</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="S53" s="5">
-        <v>31.969999313354492</v>
+        <v>3.5895411339548722</v>
       </c>
       <c r="T53" s="5">
-        <v>21.979999542236328</v>
+        <v>2.2025210857391362</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C54" s="5">
-        <v>463903776</v>
+        <v>467656032</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>6873953</v>
+        <v>1320687.875</v>
       </c>
       <c r="G54" s="5">
-        <v>5.9478459358215332</v>
+        <v>8.0862531661987305</v>
       </c>
       <c r="H54" s="5">
-        <v>2.1877608448054309</v>
+        <v>3.3212063844163091</v>
       </c>
       <c r="I54" s="5">
-        <v>2.7297002025155281</v>
+        <v>1.9299761783631459</v>
       </c>
       <c r="J54" s="5">
-        <v>1.270743442814992</v>
+        <v>-0.56917775552424199</v>
       </c>
       <c r="K54" s="5">
-        <v>-4.5191249181914301</v>
+        <v>1.0231332667500761</v>
       </c>
       <c r="L54" s="5">
-        <v>-6.937367596146049</v>
+        <v>0.68335771914447307</v>
       </c>
       <c r="M54" s="5">
-        <v>-8.5145720045386888</v>
+        <v>2.2052239982345072</v>
       </c>
       <c r="N54" s="5">
-        <v>-27.821863980098737</v>
+        <v>-20.551191485251085</v>
       </c>
       <c r="O54" s="5">
-        <v>36.21221261863419</v>
+        <v>127.01448065407645</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q54" s="4"/>
+      <c r="Q54" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="R54" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S54" s="5">
-        <v>1016.4068908941755</v>
+        <v>31.969999313354492</v>
       </c>
       <c r="T54" s="5">
-        <v>674.00274658203125</v>
+        <v>22.260000228881836</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C55" s="5">
-        <v>463106944</v>
+        <v>461203360</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1187426.875</v>
+        <v>6322429.5</v>
       </c>
       <c r="G55" s="5">
-        <v>6.6132521629333496</v>
+        <v>5.9817562103271484</v>
       </c>
       <c r="H55" s="5">
-        <v>3.598579661417189</v>
+        <v>-0.44517218190526203</v>
       </c>
       <c r="I55" s="5">
-        <v>10.566556216442734</v>
+        <v>2.339467782931659</v>
       </c>
       <c r="J55" s="5">
-        <v>11.52043698686307</v>
+        <v>1.3880540868087541</v>
       </c>
       <c r="K55" s="5">
-        <v>-7.9677991512413948</v>
+        <v>-4.9441792130953575</v>
       </c>
       <c r="L55" s="5">
-        <v>-13.664700318966016</v>
+        <v>-7.3516565473567663</v>
       </c>
       <c r="M55" s="5">
-        <v>-4.6658758735905863</v>
+        <v>-8.921839680471443</v>
       </c>
       <c r="N55" s="5">
-        <v>-32.733536395660522</v>
+        <v>-27.954847544646434</v>
       </c>
       <c r="O55" s="5">
-        <v>67.437975863303819</v>
+        <v>17.898642938092735</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="4" t="s">
-        <v>187</v>
-      </c>
+      <c r="Q55" s="4"/>
       <c r="R55" s="4" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="S55" s="5">
-        <v>3.5895411339548722</v>
+        <v>1016.4068908941755</v>
       </c>
       <c r="T55" s="5">
-        <v>2.2025210857391362</v>
+        <v>671.0023193359375</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4557,7 +4548,7 @@
         <v>189</v>
       </c>
       <c r="C56" s="5">
-        <v>448287616</v>
+        <v>438253568</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>143</v>
@@ -4566,32 +4557,32 @@
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>1525370.375</v>
+        <v>1489621.625</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5">
-        <v>-2.1274313221992469</v>
+        <v>-2.38953014046227</v>
       </c>
       <c r="I56" s="5">
-        <v>-6.2720226138115232</v>
+        <v>-8.0979140701853964</v>
       </c>
       <c r="J56" s="5">
-        <v>-12.370422920907442</v>
+        <v>-15.728542893235954</v>
       </c>
       <c r="K56" s="5">
-        <v>1.674129509763556</v>
+        <v>-0.75540445992489103</v>
       </c>
       <c r="L56" s="5">
-        <v>31.596254838753168</v>
+        <v>28.451722665661606</v>
       </c>
       <c r="M56" s="5">
-        <v>-1.461340267106193</v>
+        <v>-3.815951241431248</v>
       </c>
       <c r="N56" s="5">
-        <v>54.878009964996807</v>
+        <v>52.305164143064388</v>
       </c>
       <c r="O56" s="5">
-        <v>656.19640701224546</v>
+        <v>595.91073505125803</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
@@ -4606,7 +4597,7 @@
         <v>10.579760227544591</v>
       </c>
       <c r="T56" s="5">
-        <v>8.4354743957519531</v>
+        <v>8.2339057922363281</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4617,7 +4608,7 @@
         <v>192</v>
       </c>
       <c r="C57" s="5">
-        <v>373576672</v>
+        <v>372104160</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>23</v>
@@ -4626,49 +4617,49 @@
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>1691601.625</v>
+        <v>5985362</v>
       </c>
       <c r="G57" s="5">
-        <v>6.1412487030029297</v>
+        <v>9.1898422241210937</v>
       </c>
       <c r="H57" s="5">
-        <v>-2.7860669418625861</v>
+        <v>2.2881931817417822</v>
       </c>
       <c r="I57" s="5">
-        <v>-8.4348604694937777</v>
+        <v>3.43965698737918</v>
       </c>
       <c r="J57" s="5">
-        <v>-22.319007002110403</v>
+        <v>-4.2533956236049386</v>
       </c>
       <c r="K57" s="5">
-        <v>-15.993834544084839</v>
+        <v>-6.632521276716008</v>
       </c>
       <c r="L57" s="5">
-        <v>-26.29311324797332</v>
+        <v>-11.131593580528998</v>
       </c>
       <c r="M57" s="5">
-        <v>-11.647394329871785</v>
+        <v>-7.5008213403421014</v>
       </c>
       <c r="N57" s="5">
-        <v>-34.985770227489141</v>
+        <v>-15.718905049542965</v>
       </c>
       <c r="O57" s="5">
-        <v>65.650190614524689</v>
+        <v>85.154718109944042</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R57" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S57" s="5">
-        <v>17.930000305175781</v>
+        <v>23.069999694824219</v>
       </c>
       <c r="T57" s="5">
-        <v>9.7700004577636719</v>
+        <v>16.540000915527344</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4679,7 +4670,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="5">
-        <v>369572864</v>
+        <v>363168544</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>23</v>
@@ -4688,49 +4679,49 @@
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>5869401</v>
+        <v>1749935.125</v>
       </c>
       <c r="G58" s="5">
-        <v>9.4001235961914062</v>
+        <v>6.0362176895141602</v>
       </c>
       <c r="H58" s="5">
-        <v>0.68493533007167906</v>
+        <v>1.7400114089507479</v>
       </c>
       <c r="I58" s="5">
-        <v>-1.8214890684135949</v>
+        <v>-4.1465796520845259</v>
       </c>
       <c r="J58" s="5">
-        <v>-12.490206712430263</v>
+        <v>-20.405504969403431</v>
       </c>
       <c r="K58" s="5">
-        <v>-8.721157526565948</v>
+        <v>-14.532117680929868</v>
       </c>
       <c r="L58" s="5">
-        <v>-13.119585305829984</v>
+        <v>-25.010605009305642</v>
       </c>
       <c r="M58" s="5">
-        <v>-9.5700336642872692</v>
+        <v>-10.110048911106285</v>
       </c>
       <c r="N58" s="5">
-        <v>-16.820181592337569</v>
+        <v>-33.537421481422726</v>
       </c>
       <c r="O58" s="5">
-        <v>98.953548842522835</v>
+        <v>58.20961970686993</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R58" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S58" s="5">
-        <v>23.069999694824219</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="T58" s="5">
-        <v>16.170000076293945</v>
+        <v>9.9399995803833008</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4741,7 +4732,7 @@
         <v>196</v>
       </c>
       <c r="C59" s="5">
-        <v>323041376</v>
+        <v>324724256</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>143</v>
@@ -4750,31 +4741,31 @@
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>7296386</v>
+        <v>7204482</v>
       </c>
       <c r="G59" s="5">
-        <v>0.80756008625030506</v>
+        <v>0.78726971149444602</v>
       </c>
       <c r="H59" s="5">
-        <v>0.63495542033262808</v>
+        <v>2.485857171487615</v>
       </c>
       <c r="I59" s="5">
-        <v>-6.8282105561194744</v>
+        <v>-4.1652343530813489</v>
       </c>
       <c r="J59" s="5">
-        <v>-12.496114047100493</v>
+        <v>-12.020340330199609</v>
       </c>
       <c r="K59" s="5">
-        <v>-39.983762894341815</v>
+        <v>-38.491844960193802</v>
       </c>
       <c r="L59" s="5">
-        <v>28.987065743655794</v>
+        <v>32.193499967735903</v>
       </c>
       <c r="M59" s="5">
-        <v>-36.050259727877318</v>
+        <v>-34.460560523175054</v>
       </c>
       <c r="N59" s="5">
-        <v>-3.1749988120842181</v>
+        <v>-3.702671478936304</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="4" t="s">
@@ -4788,7 +4779,7 @@
         <v>0.55299045370637101</v>
       </c>
       <c r="T59" s="5">
-        <v>0.30550381541252103</v>
+        <v>0.31309819221496604</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4799,356 +4790,356 @@
         <v>198</v>
       </c>
       <c r="C60" s="5">
-        <v>292201120</v>
+        <v>287067200</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>1013205.125</v>
+        <v>1750888.125</v>
       </c>
       <c r="G60" s="5">
-        <v>7.3289508819580078</v>
+        <v>5.7729830741882324</v>
       </c>
       <c r="H60" s="5">
-        <v>4.8304669477365234</v>
+        <v>0.68914585799195704</v>
       </c>
       <c r="I60" s="5">
-        <v>14.360619832289112</v>
+        <v>2.4006981550264821</v>
       </c>
       <c r="J60" s="5">
-        <v>8.7961883122889883</v>
+        <v>-1.6005798575158821</v>
       </c>
       <c r="K60" s="5">
-        <v>-10.837727548104571</v>
+        <v>-2.087906908510051</v>
       </c>
       <c r="L60" s="5">
-        <v>-17.177317994209918</v>
+        <v>3.9811645295215752</v>
       </c>
       <c r="M60" s="5">
-        <v>-6.1750284817910011</v>
+        <v>-5.6671863991475728</v>
       </c>
       <c r="N60" s="5">
-        <v>-31.384458327954778</v>
+        <v>-19.64829709220577</v>
       </c>
       <c r="O60" s="5">
-        <v>49.06498761919962</v>
+        <v>25.423937226776761</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="4" t="s">
-        <v>199</v>
-      </c>
+      <c r="Q60" s="4"/>
       <c r="R60" s="4" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="S60" s="5">
-        <v>0.72014215793247505</v>
+        <v>1127.0154656136885</v>
       </c>
       <c r="T60" s="5">
-        <v>0.44313725829124506</v>
+        <v>815.6082763671875</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="C61" s="5">
-        <v>285495104</v>
+        <v>233045744</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1767765.5</v>
-      </c>
-      <c r="G61" s="5">
-        <v>5.8056602478027344</v>
-      </c>
+        <v>1925350.875</v>
+      </c>
+      <c r="G61" s="5"/>
       <c r="H61" s="5">
-        <v>1.452307178072632</v>
+        <v>-1.35614633516673</v>
       </c>
       <c r="I61" s="5">
-        <v>2.1473322875352969</v>
+        <v>-9.4505933462694323</v>
       </c>
       <c r="J61" s="5">
-        <v>-2.847329023829781</v>
+        <v>-10.493127786366596</v>
       </c>
       <c r="K61" s="5">
-        <v>-2.758045808054288</v>
+        <v>-31.363395536868065</v>
       </c>
       <c r="L61" s="5">
-        <v>3.2694871363518669</v>
+        <v>46.972390342166428</v>
       </c>
       <c r="M61" s="5">
-        <v>-6.3128276667519412</v>
+        <v>-31.861472991097806</v>
       </c>
       <c r="N61" s="5">
-        <v>-20.525300084330269</v>
+        <v>124.20908057776705</v>
       </c>
       <c r="O61" s="5">
-        <v>44.516333285569942</v>
+        <v>24.701318382000647</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="Q61" s="4"/>
       <c r="R61" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="S61" s="5">
-        <v>1127.0154656136885</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T61" s="5">
-        <v>810.0260009765625</v>
+        <v>0.28582665324211104</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="C62" s="5">
-        <v>233442416</v>
+        <v>228875840</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>1998302.25</v>
-      </c>
-      <c r="G62" s="5"/>
+        <v>1072682.375</v>
+      </c>
+      <c r="G62" s="5">
+        <v>5.5781126022338867</v>
+      </c>
       <c r="H62" s="5">
-        <v>-5.6693077805703006E-2</v>
+        <v>1.003492459694955</v>
       </c>
       <c r="I62" s="5">
-        <v>-3.7518145766252231</v>
+        <v>4.2810351136832958</v>
       </c>
       <c r="J62" s="5">
-        <v>-7.3006210059388454</v>
+        <v>3.7412326353716718</v>
       </c>
       <c r="K62" s="5">
-        <v>-30.41978601490807</v>
+        <v>-0.50975912532051904</v>
       </c>
       <c r="L62" s="5">
-        <v>48.992952811374593</v>
+        <v>7.0479959304509787</v>
       </c>
       <c r="M62" s="5">
-        <v>-30.924710990692251</v>
+        <v>-3.4384382954358639</v>
       </c>
       <c r="N62" s="5">
-        <v>133.90724100524457</v>
+        <v>-4.6578957856696412</v>
       </c>
       <c r="O62" s="5">
-        <v>36.570291618757182</v>
+        <v>50.925702546880693</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="4" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="S62" s="5">
-        <v>0.45377137396633505</v>
+        <v>1090.5527244217953</v>
       </c>
       <c r="T62" s="5">
-        <v>0.289756178855896</v>
+        <v>964.80487060546875</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="C63" s="5">
-        <v>226914032</v>
+        <v>223618352</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>1106696.5</v>
+        <v>2324226.5</v>
       </c>
       <c r="G63" s="5">
-        <v>5.6272001266479492</v>
+        <v>6.7278285026550293</v>
       </c>
       <c r="H63" s="5">
-        <v>2.2424149137387328</v>
+        <v>2.7655596371937601</v>
       </c>
       <c r="I63" s="5">
-        <v>5.0034254600486161</v>
+        <v>3.4155594403590732</v>
       </c>
       <c r="J63" s="5">
-        <v>1.7969294664174522</v>
+        <v>-10.400759179807363</v>
       </c>
       <c r="K63" s="5">
-        <v>-1.4982170894925591</v>
+        <v>-11.024968534253599</v>
       </c>
       <c r="L63" s="5">
-        <v>5.9844499665870909</v>
+        <v>-2.4737139168991451</v>
       </c>
       <c r="M63" s="5">
-        <v>-4.3977991720468124</v>
+        <v>-12.983539460173876</v>
       </c>
       <c r="N63" s="5">
-        <v>-5.9075670772950728</v>
+        <v>-6.9640919823863552</v>
       </c>
       <c r="O63" s="5">
-        <v>69.011650908043265</v>
+        <v>52.119652688204198</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q63" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="R63" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S63" s="5">
-        <v>1090.5527244217953</v>
+        <v>20.789899826049805</v>
       </c>
       <c r="T63" s="5">
-        <v>955.21929931640625</v>
+        <v>16.350000381469727</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="C64" s="5">
-        <v>226710512</v>
+        <v>216338944</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>2308950</v>
+        <v>1731910.125</v>
       </c>
       <c r="G64" s="5">
-        <v>6.9138908386230469</v>
+        <v>5.7238421440124512</v>
       </c>
       <c r="H64" s="5">
-        <v>-1.3639139789269339</v>
+        <v>-0.134528545714452</v>
       </c>
       <c r="I64" s="5">
-        <v>-2.0320192632818812</v>
+        <v>5.678133905969629</v>
       </c>
       <c r="J64" s="5">
-        <v>-14.155478679145961</v>
+        <v>4.0424638116934863</v>
       </c>
       <c r="K64" s="5">
-        <v>-13.419406482224005</v>
+        <v>3.5358980990458639</v>
       </c>
       <c r="L64" s="5">
-        <v>-5.0982776453412759</v>
+        <v>8.7914718675282</v>
       </c>
       <c r="M64" s="5">
-        <v>-15.325269626291792</v>
+        <v>-1.2004535267282621</v>
       </c>
       <c r="N64" s="5">
-        <v>-9.2244552028863058</v>
-      </c>
-      <c r="O64" s="5">
-        <v>60.645329773289887</v>
-      </c>
+        <v>0.27693330107856401</v>
+      </c>
+      <c r="O64" s="5"/>
       <c r="P64" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q64" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q64" s="4"/>
       <c r="R64" s="4" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="S64" s="5">
-        <v>20.789899826049805</v>
+        <v>960.01974333662383</v>
       </c>
       <c r="T64" s="5">
-        <v>15.909999847412109</v>
+        <v>892.119384765625</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="C65" s="5">
-        <v>216928752</v>
+        <v>213456400</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>1683553</v>
+        <v>4433485.5</v>
       </c>
       <c r="G65" s="5">
-        <v>5.7091531753540039</v>
+        <v>2.653525590896606</v>
       </c>
       <c r="H65" s="5">
-        <v>2.134579600545838</v>
+        <v>4.2582223348589521</v>
       </c>
       <c r="I65" s="5">
-        <v>6.3314616599543738</v>
+        <v>6.6404723974793134</v>
       </c>
       <c r="J65" s="5">
-        <v>3.9073493294192301</v>
+        <v>2.049769262367596</v>
       </c>
       <c r="K65" s="5">
-        <v>3.675371068007705</v>
+        <v>-19.778989085495834</v>
       </c>
       <c r="L65" s="5">
-        <v>8.9380246077630723</v>
+        <v>48.070523581695525</v>
       </c>
       <c r="M65" s="5">
-        <v>-1.067360886091395</v>
+        <v>-22.760998531959096</v>
       </c>
       <c r="N65" s="5">
-        <v>0.63258464502415901</v>
-      </c>
-      <c r="O65" s="5"/>
+        <v>50.205671185814097</v>
+      </c>
+      <c r="O65" s="5">
+        <v>138.95919254961666</v>
+      </c>
       <c r="P65" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q65" s="4"/>
+      <c r="Q65" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="R65" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="S65" s="5">
-        <v>960.01974333662383</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T65" s="5">
-        <v>893.32110595703125</v>
+        <v>3.458764791488647</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5159,7 +5150,7 @@
         <v>211</v>
       </c>
       <c r="C66" s="5">
-        <v>203839232</v>
+        <v>176318336</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>143</v>
@@ -5168,49 +5159,45 @@
         <v>24</v>
       </c>
       <c r="F66" s="5">
-        <v>4324081.5</v>
-      </c>
-      <c r="G66" s="5">
-        <v>2.7689874172210693</v>
-      </c>
+        <v>6417116</v>
+      </c>
+      <c r="G66" s="5"/>
       <c r="H66" s="5">
-        <v>4.8367979042883258</v>
+        <v>9.8604695619634484</v>
       </c>
       <c r="I66" s="5">
-        <v>-0.10650184692587701</v>
+        <v>8.7126234334799157</v>
       </c>
       <c r="J66" s="5">
-        <v>1.1617167786496909</v>
+        <v>-8.8764552117208915</v>
       </c>
       <c r="K66" s="5">
-        <v>-23.055458727419619</v>
+        <v>-28.863593019786148</v>
       </c>
       <c r="L66" s="5">
-        <v>42.022873846936726</v>
+        <v>74.040705148872917</v>
       </c>
       <c r="M66" s="5">
-        <v>-25.915673854515852</v>
+        <v>-35.30276150324093</v>
       </c>
       <c r="N66" s="5">
-        <v>47.402486274464131</v>
+        <v>121.55494577298809</v>
       </c>
       <c r="O66" s="5">
-        <v>148.74284265716847</v>
+        <v>109.15099389022859</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q66" s="4" t="s">
         <v>212</v>
       </c>
+      <c r="Q66" s="4"/>
       <c r="R66" s="4" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="S66" s="5">
-        <v>4.6771184674018205</v>
+        <v>0.22635182608908702</v>
       </c>
       <c r="T66" s="5">
-        <v>3.3174982070922852</v>
+        <v>0.13897994160652202</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5221,7 +5208,7 @@
         <v>214</v>
       </c>
       <c r="C67" s="5">
-        <v>170755616</v>
+        <v>137356752</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>143</v>
@@ -5230,56 +5217,56 @@
         <v>24</v>
       </c>
       <c r="F67" s="5">
-        <v>6308263.5</v>
+        <v>2234761</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5">
-        <v>3.374843840156982</v>
+        <v>2.721630304370648</v>
       </c>
       <c r="I67" s="5">
-        <v>-2.2917058225274789</v>
+        <v>13.52505508551336</v>
       </c>
       <c r="J67" s="5">
-        <v>-14.719683930727733</v>
+        <v>24.409426340740392</v>
       </c>
       <c r="K67" s="5">
-        <v>-35.248404395275656</v>
+        <v>5.5981060285814177</v>
       </c>
       <c r="L67" s="5">
-        <v>58.419771773058528</v>
+        <v>74.821707951211962</v>
       </c>
       <c r="M67" s="5">
-        <v>-41.109628645571597</v>
+        <v>8.9891836243388923</v>
       </c>
       <c r="N67" s="5">
-        <v>99.899462589648195</v>
+        <v>225.59171046091313</v>
       </c>
       <c r="O67" s="5">
-        <v>112.22529157390059</v>
+        <v>123.43390905064133</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q67" s="4"/>
       <c r="R67" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S67" s="5">
-        <v>0.22635182608908702</v>
+        <v>0.21302626225358301</v>
       </c>
       <c r="T67" s="5">
-        <v>0.12650586664676702</v>
+        <v>0.21082994341850303</v>
       </c>
     </row>
     <row r="68" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A68" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="C68" s="5">
-        <v>137942448</v>
+        <v>121568120</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>143</v>
@@ -5288,103 +5275,45 @@
         <v>24</v>
       </c>
       <c r="F68" s="5">
-        <v>2211099.25</v>
+        <v>2711644.5</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5">
-        <v>-0.31165024531504304</v>
+        <v>-4.2269693019653882</v>
       </c>
       <c r="I68" s="5">
-        <v>11.101299507281581</v>
+        <v>13.012985880570715</v>
       </c>
       <c r="J68" s="5">
-        <v>21.825837322248319</v>
+        <v>59.548978214114626</v>
       </c>
       <c r="K68" s="5">
-        <v>2.8002629199785689</v>
+        <v>82.522048588304031</v>
       </c>
       <c r="L68" s="5">
-        <v>70.189771553668152</v>
+        <v>216.21358264815044</v>
       </c>
       <c r="M68" s="5">
-        <v>6.1014932311695969</v>
+        <v>81.973507828448348</v>
       </c>
       <c r="N68" s="5">
-        <v>220.90433811735682</v>
+        <v>652.47260577028578</v>
       </c>
       <c r="O68" s="5">
-        <v>124.10224327258294</v>
+        <v>932.26472050188909</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S68" s="5">
-        <v>0.21302626225358301</v>
+        <v>3.136226523511763</v>
       </c>
       <c r="T68" s="5">
-        <v>0.20524396002292603</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" s="2" customFormat="1" ht="12.75">
-      <c r="A69" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C69" s="5">
-        <v>114420192</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="5">
-        <v>2524789.25</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5">
-        <v>6.3675781678572907</v>
-      </c>
-      <c r="I69" s="5">
-        <v>18.387312215024387</v>
-      </c>
-      <c r="J69" s="5">
-        <v>66.234387844578535</v>
-      </c>
-      <c r="K69" s="5">
-        <v>90.577709881378567</v>
-      </c>
-      <c r="L69" s="5">
-        <v>230.16975691742365</v>
-      </c>
-      <c r="M69" s="5">
-        <v>90.00495912278015</v>
-      </c>
-      <c r="N69" s="5">
-        <v>681.71422118864371</v>
-      </c>
-      <c r="O69" s="5">
-        <v>1074.1790970237853</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="S69" s="5">
-        <v>3.0734101066670449</v>
-      </c>
-      <c r="T69" s="5">
-        <v>3.0419149398803711</v>
+        <v>2.9133341312408452</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\25.03.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\28.03.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="220">
   <si>
     <t>USD</t>
   </si>
@@ -213,6 +213,12 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>EPRT US Equity</t>
+  </si>
+  <si>
+    <t>ESSENTIAL PROPER</t>
+  </si>
+  <si>
     <t>ICAD FP Equity</t>
   </si>
   <si>
@@ -222,12 +228,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>EPRT US Equity</t>
-  </si>
-  <si>
-    <t>ESSENTIAL PROPER</t>
-  </si>
-  <si>
     <t>CHC AU Equity</t>
   </si>
   <si>
@@ -240,6 +240,12 @@
     <t>UNITED URBAN</t>
   </si>
   <si>
+    <t>BNL US Equity</t>
+  </si>
+  <si>
+    <t>BROADSTONE NET</t>
+  </si>
+  <si>
     <t>SUN SP Equity</t>
   </si>
   <si>
@@ -255,10 +261,16 @@
     <t>SGD</t>
   </si>
   <si>
-    <t>BNL US Equity</t>
-  </si>
-  <si>
-    <t>BROADSTONE NET</t>
+    <t>HR-U CN Equity</t>
+  </si>
+  <si>
+    <t>H&amp;R REAL-REIT UT</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAD</t>
   </si>
   <si>
     <t>GRT SJ Equity</t>
@@ -276,18 +288,6 @@
     <t>ZAr</t>
   </si>
   <si>
-    <t>HR-U CN Equity</t>
-  </si>
-  <si>
-    <t>H&amp;R REAL-REIT UT</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
     <t>3309 JP Equity</t>
   </si>
   <si>
@@ -300,6 +300,15 @@
     <t>ACTIVIA PROPERTI</t>
   </si>
   <si>
+    <t>CLW AU Equity</t>
+  </si>
+  <si>
+    <t>CHARTER HLW REIT</t>
+  </si>
+  <si>
+    <t>05/15/2023</t>
+  </si>
+  <si>
     <t>LXI LN Equity</t>
   </si>
   <si>
@@ -309,15 +318,6 @@
     <t>03/10/2023</t>
   </si>
   <si>
-    <t>CLW AU Equity</t>
-  </si>
-  <si>
-    <t>CHARTER HLW REIT</t>
-  </si>
-  <si>
-    <t>05/15/2023</t>
-  </si>
-  <si>
     <t>3295 JP Equity</t>
   </si>
   <si>
@@ -354,21 +354,21 @@
     <t>TOKYU REIT INC</t>
   </si>
   <si>
+    <t>ALEX US Equity</t>
+  </si>
+  <si>
+    <t>ALEXANDER &amp; BALD</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
     <t>8966 JP Equity</t>
   </si>
   <si>
     <t>HEIWA REAL ESTAT</t>
   </si>
   <si>
-    <t>ALEX US Equity</t>
-  </si>
-  <si>
-    <t>ALEXANDER &amp; BALD</t>
-  </si>
-  <si>
-    <t>04/04/2023</t>
-  </si>
-  <si>
     <t>GNL US Equity</t>
   </si>
   <si>
@@ -435,6 +435,12 @@
     <t>ILs</t>
   </si>
   <si>
+    <t>UKCM LN Equity</t>
+  </si>
+  <si>
+    <t>UK COMMERCIAL PR</t>
+  </si>
+  <si>
     <t>CNI AU Equity</t>
   </si>
   <si>
@@ -459,12 +465,6 @@
     <t>TRY</t>
   </si>
   <si>
-    <t>UKCM LN Equity</t>
-  </si>
-  <si>
-    <t>UK COMMERCIAL PR</t>
-  </si>
-  <si>
     <t>3468 JP Equity</t>
   </si>
   <si>
@@ -486,6 +486,15 @@
     <t>TWD</t>
   </si>
   <si>
+    <t>DGGYO TI Equity</t>
+  </si>
+  <si>
+    <t>DOGUS GAYRIMENKU</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
     <t>8977 JP Equity</t>
   </si>
   <si>
@@ -504,15 +513,6 @@
     <t>Income</t>
   </si>
   <si>
-    <t>DGGYO TI Equity</t>
-  </si>
-  <si>
-    <t>DOGUS GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>Omitted</t>
-  </si>
-  <si>
     <t>AX-U CN Equity</t>
   </si>
   <si>
@@ -522,7 +522,7 @@
     <t>STAR US Equity</t>
   </si>
   <si>
-    <t>ISTAR INC</t>
+    <t>SAFEHOLD INC</t>
   </si>
   <si>
     <t>09/15/2022</t>
@@ -564,6 +564,18 @@
     <t>GLADSTONE COMMER</t>
   </si>
   <si>
+    <t>OLP US Equity</t>
+  </si>
+  <si>
+    <t>ONE LIBERTY PROP</t>
+  </si>
+  <si>
+    <t>3492 JP Equity</t>
+  </si>
+  <si>
+    <t>TAKARA LEBEN REA</t>
+  </si>
+  <si>
     <t>SLARL IT Equity</t>
   </si>
   <si>
@@ -573,18 +585,6 @@
     <t>03/21/2023</t>
   </si>
   <si>
-    <t>OLP US Equity</t>
-  </si>
-  <si>
-    <t>ONE LIBERTY PROP</t>
-  </si>
-  <si>
-    <t>3492 JP Equity</t>
-  </si>
-  <si>
-    <t>TAKARA LEBEN REA</t>
-  </si>
-  <si>
     <t>SRVGY TI Equity</t>
   </si>
   <si>
@@ -618,22 +618,31 @@
     <t>ESCON JAPAN REIT</t>
   </si>
   <si>
+    <t>PINE US Equity</t>
+  </si>
+  <si>
+    <t>ALPINE INCOME</t>
+  </si>
+  <si>
+    <t>3470 JP Equity</t>
+  </si>
+  <si>
+    <t>MARIMO REGIONAL</t>
+  </si>
+  <si>
     <t>AKSGY TI Equity</t>
   </si>
   <si>
     <t>AKIS GAYRIMENKUL</t>
   </si>
   <si>
-    <t>3470 JP Equity</t>
-  </si>
-  <si>
-    <t>MARIMO REGIONAL</t>
-  </si>
-  <si>
-    <t>PINE US Equity</t>
-  </si>
-  <si>
-    <t>ALPINE INCOME</t>
+    <t>ALGYO TI Equity</t>
+  </si>
+  <si>
+    <t>ALARKO GAYRIMENK</t>
+  </si>
+  <si>
+    <t>04/27/2023</t>
   </si>
   <si>
     <t>2989 JP Equity</t>
@@ -642,15 +651,6 @@
     <t>TOKAIDO REIT INC</t>
   </si>
   <si>
-    <t>ALGYO TI Equity</t>
-  </si>
-  <si>
-    <t>ALARKO GAYRIMENK</t>
-  </si>
-  <si>
-    <t>04/27/2023</t>
-  </si>
-  <si>
     <t>KLGYO TI Equity</t>
   </si>
   <si>
@@ -670,6 +670,15 @@
   </si>
   <si>
     <t>YAPI KREDI KORAY</t>
+  </si>
+  <si>
+    <t>NUGYO TI Equity</t>
+  </si>
+  <si>
+    <t>NUROL GAYRIMENKU</t>
+  </si>
+  <si>
+    <t>05/22/2009</t>
   </si>
 </sst>
 </file>
@@ -691,41 +700,34 @@
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1144,13 +1146,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70:XFD70"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1246,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>15840878592</v>
+        <v>16272653312</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1255,34 +1257,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>73725688</v>
+        <v>74262848</v>
       </c>
       <c r="G2" s="5">
-        <v>5.5242037773132324</v>
+        <v>5.5213451385498047</v>
       </c>
       <c r="H2" s="5">
-        <v>2.7257054603275992</v>
+        <v>5.1774416802131004E-2</v>
       </c>
       <c r="I2" s="5">
-        <v>-0.50225290661257704</v>
+        <v>-2.0278814235463631</v>
       </c>
       <c r="J2" s="5">
-        <v>-5.8264245806367239</v>
+        <v>-5.3971314185865324</v>
       </c>
       <c r="K2" s="5">
-        <v>-1.807594869447338</v>
+        <v>-1.6704406099851801</v>
       </c>
       <c r="L2" s="5">
-        <v>1.333768957009851</v>
+        <v>10.023200520803632</v>
       </c>
       <c r="M2" s="5">
-        <v>-1.138834769380936</v>
+        <v>-1.0876499776389941</v>
       </c>
       <c r="N2" s="5">
-        <v>1.676310897110223</v>
+        <v>8.192760420926401E-2</v>
       </c>
       <c r="O2" s="5">
-        <v>74.527002066154679</v>
+        <v>52.334410628908714</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1297,7 +1299,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>77.260002136230469</v>
+        <v>77.300003051757812</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1308,7 +1310,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6107161088</v>
+        <v>6229405184</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1317,34 +1319,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>29896698</v>
+        <v>30055860</v>
       </c>
       <c r="G3" s="5">
-        <v>6.8482489585876465</v>
+        <v>6.7090215682983398</v>
       </c>
       <c r="H3" s="5">
-        <v>-0.62195078884493804</v>
+        <v>1.527883464555591</v>
       </c>
       <c r="I3" s="5">
-        <v>-2.459292597517448</v>
+        <v>1.243465611043981</v>
       </c>
       <c r="J3" s="5">
-        <v>-0.91753904017293209</v>
+        <v>2.5688746434274319</v>
       </c>
       <c r="K3" s="5">
-        <v>4.8719333382202255</v>
+        <v>6.1423140155026026</v>
       </c>
       <c r="L3" s="5">
-        <v>22.733453156415528</v>
+        <v>30.855889113365098</v>
       </c>
       <c r="M3" s="5">
-        <v>3.354254339359164</v>
+        <v>4.9333869013249654</v>
       </c>
       <c r="N3" s="5">
-        <v>-11.63709472399821</v>
+        <v>-11.686287574117117</v>
       </c>
       <c r="O3" s="5">
-        <v>161.70396031067193</v>
+        <v>138.02676324104181</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1359,7 +1361,7 @@
         <v>3.3020850141715812</v>
       </c>
       <c r="T3" s="5">
-        <v>2.558324813842773</v>
+        <v>2.597413063049316</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1370,7 +1372,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5480030720</v>
+        <v>5503946240</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
@@ -1379,34 +1381,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>27663470</v>
+        <v>27757404</v>
       </c>
       <c r="G4" s="5">
-        <v>4.9400477409362793</v>
+        <v>4.9164676666259775</v>
       </c>
       <c r="H4" s="5">
-        <v>7.7604196731595007E-2</v>
+        <v>-3.0093842557621004E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>-4.1494853708147215</v>
+        <v>-2.0245141430792368</v>
       </c>
       <c r="J4" s="5">
-        <v>-8.2024625747520332</v>
+        <v>-6.2977012103682011</v>
       </c>
       <c r="K4" s="5">
-        <v>-3.266282749633509</v>
+        <v>-3.5968763954099199</v>
       </c>
       <c r="L4" s="5">
-        <v>10.413980700035562</v>
+        <v>15.619376881024017</v>
       </c>
       <c r="M4" s="5">
-        <v>-4.3817216987685033</v>
+        <v>-4.4104969128967895</v>
       </c>
       <c r="N4" s="5">
-        <v>-21.650450074432115</v>
+        <v>-23.01985573056653</v>
       </c>
       <c r="O4" s="5">
-        <v>46.670353749647298</v>
+        <v>29.17021462648006</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1421,7 +1423,7 @@
         <v>1.9528599562626601</v>
       </c>
       <c r="T4" s="5">
-        <v>1.3888049125671391</v>
+        <v>1.3883869647979741</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1432,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5">
-        <v>5333455872</v>
+        <v>5420655104</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1441,34 +1443,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>23218138</v>
+        <v>23128968</v>
       </c>
       <c r="G5" s="5">
-        <v>5.9737157821655273</v>
+        <v>5.8892817497253418</v>
       </c>
       <c r="H5" s="5">
-        <v>-1.3509534007760671</v>
+        <v>1.1628576223567719</v>
       </c>
       <c r="I5" s="5">
-        <v>-4.8016380999318713</v>
+        <v>-2.2397876929855731</v>
       </c>
       <c r="J5" s="5">
-        <v>-10.372899928253442</v>
+        <v>-9.0851811017780388</v>
       </c>
       <c r="K5" s="5">
-        <v>-1.691154709954878</v>
+        <v>-0.85801085240074804</v>
       </c>
       <c r="L5" s="5">
-        <v>12.61623945841357</v>
+        <v>20.653498289999007</v>
       </c>
       <c r="M5" s="5">
-        <v>-2.7837115905806842</v>
+        <v>-1.6532245706394111</v>
       </c>
       <c r="N5" s="5">
-        <v>-20.451145803884952</v>
+        <v>-20.597584222749777</v>
       </c>
       <c r="O5" s="5">
-        <v>56.183983664905625</v>
+        <v>62.212722788085138</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>37</v>
@@ -1483,7 +1485,7 @@
         <v>4.000457090394316</v>
       </c>
       <c r="T5" s="5">
-        <v>2.7842550277709961</v>
+        <v>2.8166320323944092</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1494,7 +1496,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5">
-        <v>5328500736</v>
+        <v>5300813824</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
@@ -1503,34 +1505,34 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>14413870</v>
+        <v>13066899</v>
       </c>
       <c r="G6" s="5">
-        <v>4.6066350936889648</v>
+        <v>4.6285715103149414</v>
       </c>
       <c r="H6" s="5">
-        <v>1.0114803682305109</v>
+        <v>-1.154579743586037</v>
       </c>
       <c r="I6" s="5">
-        <v>1.3302703166520491</v>
+        <v>0.63895246008365303</v>
       </c>
       <c r="J6" s="5">
-        <v>2.9978843959702179</v>
+        <v>0.93958562327585105</v>
       </c>
       <c r="K6" s="5">
-        <v>-4.6216550502080285</v>
+        <v>-6.4528803108202304</v>
       </c>
       <c r="L6" s="5">
-        <v>-1.2711419928988941</v>
+        <v>2.684629915775028</v>
       </c>
       <c r="M6" s="5">
-        <v>-7.1754122258875004</v>
+        <v>-8.2471461133946544</v>
       </c>
       <c r="N6" s="5">
-        <v>-10.895331787828544</v>
+        <v>-11.021997384086212</v>
       </c>
       <c r="O6" s="5">
-        <v>33.441047473844421</v>
+        <v>5.0230239608073601</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>41</v>
@@ -1543,7 +1545,7 @@
         <v>1366.6940114848237</v>
       </c>
       <c r="T6" s="5">
-        <v>1130.06884765625</v>
+        <v>1117.021240234375</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1554,7 +1556,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5294083584</v>
+        <v>5256976384</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1563,34 +1565,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>14289399</v>
+        <v>14489113</v>
       </c>
       <c r="G7" s="5">
-        <v>6.9013595581054687</v>
+        <v>6.8773880004882812</v>
       </c>
       <c r="H7" s="5">
-        <v>-2.2802586658381969</v>
+        <v>0.79165784181483001</v>
       </c>
       <c r="I7" s="5">
-        <v>-4.3719724303566077</v>
+        <v>-5.8922572706648353</v>
       </c>
       <c r="J7" s="5">
-        <v>-12.694213275201028</v>
+        <v>-14.778313021839329</v>
       </c>
       <c r="K7" s="5">
-        <v>-4.5789177231339124</v>
+        <v>-3.5112993717840051</v>
       </c>
       <c r="L7" s="5">
-        <v>23.521226675651619</v>
+        <v>40.28689008676298</v>
       </c>
       <c r="M7" s="5">
-        <v>-5.4234119030506793</v>
+        <v>-4.6746889268602709</v>
       </c>
       <c r="N7" s="5">
-        <v>-26.245015927988124</v>
+        <v>-27.537856891063051</v>
       </c>
       <c r="O7" s="5">
-        <v>11.20310863813625</v>
+        <v>12.811770440442704</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>30</v>
@@ -1605,7 +1607,7 @@
         <v>10.679378389371825</v>
       </c>
       <c r="T7" s="5">
-        <v>7.0170001983642578</v>
+        <v>7.0725507736206046</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1616,7 +1618,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5018803712</v>
+        <v>5144220672</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1625,34 +1627,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>9987423</v>
+        <v>10203960</v>
       </c>
       <c r="G8" s="5">
-        <v>2.521703720092773</v>
+        <v>2.4923815727233891</v>
       </c>
       <c r="H8" s="5">
-        <v>2.1391228394151751</v>
+        <v>1.8536963070847849</v>
       </c>
       <c r="I8" s="5">
-        <v>6.9305527635614039</v>
+        <v>8.7002889944433051</v>
       </c>
       <c r="J8" s="5">
-        <v>-5.2991469490765937</v>
+        <v>-5.3251737737068039</v>
       </c>
       <c r="K8" s="5">
-        <v>12.564209663240678</v>
+        <v>15.604801892390508</v>
       </c>
       <c r="L8" s="5">
-        <v>31.259271418850474</v>
+        <v>40.894748478360519</v>
       </c>
       <c r="M8" s="5">
-        <v>18.277488677910124</v>
+        <v>20.469994117645186</v>
       </c>
       <c r="N8" s="5">
-        <v>31.151674113675455</v>
+        <v>32.319725875425242</v>
       </c>
       <c r="O8" s="5">
-        <v>146.77327297998781</v>
+        <v>107.95119551541057</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1667,7 +1669,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.3335785865783691</v>
+        <v>1.3582990169525151</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1678,7 +1680,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4757153792</v>
+        <v>4788681216</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>40</v>
@@ -1687,34 +1689,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>10637097</v>
+        <v>10040685</v>
       </c>
       <c r="G9" s="5">
-        <v>4.1791043281555176</v>
+        <v>4.1496849060058594</v>
       </c>
       <c r="H9" s="5">
-        <v>0.87521532021315207</v>
+        <v>2.0219503207053003E-2</v>
       </c>
       <c r="I9" s="5">
-        <v>0.41886313482755205</v>
+        <v>1.1849795152800711</v>
       </c>
       <c r="J9" s="5">
-        <v>1.5029871062512972</v>
+        <v>0.46517006484923001</v>
       </c>
       <c r="K9" s="5">
-        <v>-3.285079828307147</v>
+        <v>-4.483188693020967</v>
       </c>
       <c r="L9" s="5">
-        <v>-5.0633342866974189</v>
+        <v>-0.49390834666560601</v>
       </c>
       <c r="M9" s="5">
-        <v>-6.5961155192790111</v>
+        <v>-6.5772297178609218</v>
       </c>
       <c r="N9" s="5">
-        <v>-19.818638388592202</v>
+        <v>-18.934301735454461</v>
       </c>
       <c r="O9" s="5">
-        <v>5.5314205374319645</v>
+        <v>-1.7832204351748151</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1727,7 +1729,7 @@
         <v>2802.4439918533603</v>
       </c>
       <c r="T9" s="5">
-        <v>2050.497314453125</v>
+        <v>2050.911865234375</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1738,7 +1740,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4169721856</v>
+        <v>4176335872</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>45</v>
@@ -1747,34 +1749,34 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>14652161</v>
+        <v>15077216</v>
       </c>
       <c r="G10" s="5">
-        <v>6.337066650390625</v>
+        <v>6.3405303955078134</v>
       </c>
       <c r="H10" s="5">
-        <v>-1.0367655042861299</v>
+        <v>0.38669078302160403</v>
       </c>
       <c r="I10" s="5">
-        <v>-6.1262115527578214</v>
+        <v>-8.3673374194116796</v>
       </c>
       <c r="J10" s="5">
-        <v>-14.278839654742859</v>
+        <v>-16.491885345507086</v>
       </c>
       <c r="K10" s="5">
-        <v>-5.7483205415183924</v>
+        <v>-5.0767133458683444</v>
       </c>
       <c r="L10" s="5">
-        <v>16.780274882468447</v>
+        <v>29.487079006118933</v>
       </c>
       <c r="M10" s="5">
-        <v>-6.3365626429603417</v>
+        <v>-5.9743747636394673</v>
       </c>
       <c r="N10" s="5">
-        <v>-30.190698381257221</v>
+        <v>-31.983947683829928</v>
       </c>
       <c r="O10" s="5">
-        <v>14.594224493515107</v>
+        <v>17.21983341562121</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1789,7 +1791,7 @@
         <v>7.1818816476984253</v>
       </c>
       <c r="T10" s="5">
-        <v>4.4770369529724121</v>
+        <v>4.494349479675293</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1800,7 +1802,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>3943425024</v>
+        <v>3929821440</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1809,34 +1811,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>8933346</v>
+        <v>9115047</v>
       </c>
       <c r="G11" s="5">
-        <v>2.108002662658691</v>
+        <v>2.0943760871887211</v>
       </c>
       <c r="H11" s="5">
-        <v>-2.4442977958714081</v>
+        <v>0.92184082940434109</v>
       </c>
       <c r="I11" s="5">
-        <v>-4.5091291935555056</v>
+        <v>-5.414241918859009</v>
       </c>
       <c r="J11" s="5">
-        <v>-12.676407931573387</v>
+        <v>-12.515181347659365</v>
       </c>
       <c r="K11" s="5">
-        <v>-11.861658619552728</v>
+        <v>-10.634982695511997</v>
       </c>
       <c r="L11" s="5">
-        <v>9.8494708596705607</v>
+        <v>19.064856845937285</v>
       </c>
       <c r="M11" s="5">
-        <v>-12.004647468504137</v>
+        <v>-11.193470380890524</v>
       </c>
       <c r="N11" s="5">
-        <v>-16.333093711812086</v>
+        <v>-19.464429963654407</v>
       </c>
       <c r="O11" s="5">
-        <v>27.480008859633553</v>
+        <v>29.779235209980225</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1851,7 +1853,7 @@
         <v>12.193224623203276</v>
       </c>
       <c r="T11" s="5">
-        <v>8.2705965042114258</v>
+        <v>8.3468389511108398</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1862,118 +1864,118 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3567256576</v>
+        <v>3647180800</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>8570586</v>
+        <v>24677300</v>
       </c>
       <c r="G12" s="5">
-        <v>10.135767936706543</v>
+        <v>4.6199078559875488</v>
       </c>
       <c r="H12" s="5">
-        <v>-2.715168817414038</v>
+        <v>0.379427298453683</v>
       </c>
       <c r="I12" s="5">
-        <v>-3.242955655528323</v>
+        <v>-3.875659968025535</v>
       </c>
       <c r="J12" s="5">
-        <v>-1.984378951836951</v>
+        <v>-8.3525793476867616</v>
       </c>
       <c r="K12" s="5">
-        <v>13.262536415177184</v>
+        <v>2.9945172379908902</v>
       </c>
       <c r="L12" s="5">
-        <v>28.094453399729382</v>
+        <v>21.97452148392842</v>
       </c>
       <c r="M12" s="5">
-        <v>11.529361262008543</v>
+        <v>1.4486585536218182</v>
       </c>
       <c r="N12" s="5">
-        <v>-15.751114431058733</v>
+        <v>0.39824574666753604</v>
       </c>
       <c r="O12" s="5">
-        <v>-22.914168760508524</v>
+        <v>88.196374467954229</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="R12" s="4" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5">
-        <v>68.2096266746521</v>
+        <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>45.975265502929687</v>
+        <v>23.809999465942383</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="5">
+        <v>3522164224</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5">
-        <v>3553387520</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>25091226</v>
+        <v>8507988</v>
       </c>
       <c r="G13" s="5">
-        <v>4.6374368667602539</v>
+        <v>10.3687744140625</v>
       </c>
       <c r="H13" s="5">
-        <v>2.6395442963757181</v>
+        <v>-1.9837861434361392</v>
       </c>
       <c r="I13" s="5">
-        <v>-2.3466512173265448</v>
+        <v>-5.5005087619458992</v>
       </c>
       <c r="J13" s="5">
-        <v>-8.1687983607582666</v>
+        <v>-8.0183085776734266</v>
       </c>
       <c r="K13" s="5">
-        <v>2.299051118139372</v>
+        <v>11.172097056781659</v>
       </c>
       <c r="L13" s="5">
-        <v>17.071412641886408</v>
+        <v>36.210870970396925</v>
       </c>
       <c r="M13" s="5">
-        <v>1.065189634912977</v>
+        <v>9.3168572474299651</v>
       </c>
       <c r="N13" s="5">
-        <v>1.1978278628594461</v>
+        <v>-20.255745464388131</v>
       </c>
       <c r="O13" s="5">
-        <v>95.391804914116605</v>
+        <v>-29.918132285383081</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="S13" s="5">
-        <v>26.75</v>
+        <v>68.2096266746521</v>
       </c>
       <c r="T13" s="5">
-        <v>23.719999313354492</v>
+        <v>45.063213348388672</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1984,7 +1986,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="5">
-        <v>3397654784</v>
+        <v>3431423488</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -1993,34 +1995,34 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>17281906</v>
+        <v>18265470</v>
       </c>
       <c r="G14" s="5">
-        <v>3.8338747024536133</v>
+        <v>3.802116870880127</v>
       </c>
       <c r="H14" s="5">
-        <v>-3.1205798930669659</v>
+        <v>0.52477579175542699</v>
       </c>
       <c r="I14" s="5">
-        <v>-9.0189006572377721</v>
+        <v>-4.0869908435684499</v>
       </c>
       <c r="J14" s="5">
-        <v>-21.042170103878167</v>
+        <v>-18.591373126747413</v>
       </c>
       <c r="K14" s="5">
-        <v>-10.801929649054841</v>
+        <v>-10.613379719448957</v>
       </c>
       <c r="L14" s="5">
-        <v>-5.1497895112013854</v>
+        <v>0.67419914509205803</v>
       </c>
       <c r="M14" s="5">
-        <v>-12.068762065047899</v>
+        <v>-11.607320214974404</v>
       </c>
       <c r="N14" s="5">
-        <v>-36.822703168196071</v>
+        <v>-37.765619293588252</v>
       </c>
       <c r="O14" s="5">
-        <v>137.14461418974554</v>
+        <v>100.68043085921153</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>30</v>
@@ -2035,7 +2037,7 @@
         <v>12.790835624888677</v>
       </c>
       <c r="T14" s="5">
-        <v>7.1832451820373544</v>
+        <v>7.2209410667419434</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2046,7 +2048,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="5">
-        <v>3278769152</v>
+        <v>3298592000</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>40</v>
@@ -2055,34 +2057,34 @@
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7970140.5</v>
+        <v>7692533</v>
       </c>
       <c r="G15" s="5">
-        <v>4.5755605697631836</v>
+        <v>4.5459771156311044</v>
       </c>
       <c r="H15" s="5">
-        <v>-0.66764689401975807</v>
+        <v>-3.757850651841E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>0.69181442444112806</v>
+        <v>-0.12070911998864901</v>
       </c>
       <c r="J15" s="5">
-        <v>-3.7437672279363232</v>
+        <v>-5.2338837702679992</v>
       </c>
       <c r="K15" s="5">
-        <v>-3.8914827573453992</v>
+        <v>-6.4286616888725945</v>
       </c>
       <c r="L15" s="5">
-        <v>0.59308529882289307</v>
+        <v>4.4173837604161381</v>
       </c>
       <c r="M15" s="5">
-        <v>-7.9495217400698204</v>
+        <v>-7.9841129350429636</v>
       </c>
       <c r="N15" s="5">
-        <v>-0.96793734740648907</v>
+        <v>-0.36233087888800602</v>
       </c>
       <c r="O15" s="5">
-        <v>37.76201628610054</v>
+        <v>22.25306313206794</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
@@ -2095,7 +2097,7 @@
         <v>1195.2420016406891</v>
       </c>
       <c r="T15" s="5">
-        <v>1058.1484375</v>
+        <v>1057.750732421875</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2106,118 +2108,118 @@
         <v>74</v>
       </c>
       <c r="C16" s="5">
-        <v>3077623296</v>
+        <v>3129774336</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>10906151</v>
+        <v>17723892</v>
       </c>
       <c r="G16" s="5">
-        <v>5.6056337356567383</v>
+        <v>6.5632457733154297</v>
       </c>
       <c r="H16" s="5">
-        <v>-0.48802249414372506</v>
+        <v>-0.23808934520945801</v>
       </c>
       <c r="I16" s="5">
-        <v>-0.73736038763675404</v>
+        <v>-1.1209470531296171</v>
       </c>
       <c r="J16" s="5">
-        <v>2.085377198017802</v>
+        <v>-6.0011200190841834</v>
       </c>
       <c r="K16" s="5">
-        <v>5.7715646321106604</v>
+        <v>1.6891942717491391</v>
       </c>
       <c r="L16" s="5">
-        <v>-1.2574683264378941</v>
+        <v>12.189263516998716</v>
       </c>
       <c r="M16" s="5">
-        <v>4.9174931206368511</v>
+        <v>3.3929745556618762</v>
       </c>
       <c r="N16" s="5">
-        <v>-11.786477656243621</v>
-      </c>
-      <c r="O16" s="5">
-        <v>56.083791413258453</v>
-      </c>
+        <v>-17.938826182087009</v>
+      </c>
+      <c r="O16" s="5"/>
       <c r="P16" s="4" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
-        <v>1.350664450152578</v>
+        <v>22.799999237060547</v>
       </c>
       <c r="T16" s="5">
-        <v>1.0661460161209111</v>
+        <v>16.760000228881836</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3084107008</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10512758</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5.6056337356567383</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1.5020101293595002E-2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.48059161811593304</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1.12638284414377</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5.6385536944452586</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.77846415831321902</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4.9332518343782716</v>
+      </c>
+      <c r="N17" s="5">
+        <v>-12.283840323307826</v>
+      </c>
+      <c r="O17" s="5">
+        <v>35.336465916754925</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="5">
-        <v>3038489344</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5">
-        <v>17825638</v>
-      </c>
-      <c r="G17" s="5">
-        <v>6.5476193428039551</v>
-      </c>
-      <c r="H17" s="5">
-        <v>3.004290540544496</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.71941804370070406</v>
-      </c>
-      <c r="J17" s="5">
-        <v>-4.6538113684251545</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1.871098456696529</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0.61257119411002303</v>
-      </c>
-      <c r="M17" s="5">
-        <v>3.6397297095040799</v>
-      </c>
-      <c r="N17" s="5">
-        <v>-16.038166246382691</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="S17" s="5">
-        <v>22.799999237060547</v>
+        <v>1.350664450152578</v>
       </c>
       <c r="T17" s="5">
-        <v>16.799999237060547</v>
+        <v>1.0663062334060669</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2228,7 +2230,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="5">
-        <v>2413360896</v>
+        <v>2450464256</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>82</v>
@@ -2237,111 +2239,111 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>10529984</v>
+        <v>9325314</v>
       </c>
       <c r="G18" s="5">
-        <v>10.17054271697998</v>
+        <v>4.9140048027038574</v>
       </c>
       <c r="H18" s="5">
-        <v>0.41338067396712302</v>
+        <v>0.70641189905120705</v>
       </c>
       <c r="I18" s="5">
-        <v>0.12214946176702901</v>
+        <v>-2.0276943282347299</v>
       </c>
       <c r="J18" s="5">
-        <v>-4.0216879430739478</v>
+        <v>-7.9405199589952851</v>
       </c>
       <c r="K18" s="5">
-        <v>-18.398867015074771</v>
+        <v>-0.35521480509468401</v>
       </c>
       <c r="L18" s="5">
-        <v>9.765094405965824</v>
+        <v>20.355128861063054</v>
       </c>
       <c r="M18" s="5">
-        <v>-16.791621895961384</v>
+        <v>0.57879068607682405</v>
       </c>
       <c r="N18" s="5">
-        <v>-21.882383352832193</v>
+        <v>-11.076738037895218</v>
       </c>
       <c r="O18" s="5">
-        <v>56.655565634059734</v>
+        <v>123.64124550401314</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="S18" s="5">
-        <v>1.0297254546268939</v>
+        <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>0.71004742383956909</v>
+        <v>8.9339284896850586</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="5">
+        <v>2421096192</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="5">
-        <v>2411275520</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10475226</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10.162665367126465</v>
+      </c>
+      <c r="H19" s="5">
+        <v>-0.83834439716913312</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2.4524336072543562</v>
+      </c>
+      <c r="J19" s="5">
+        <v>-4.2805424444027018</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-17.648555629523631</v>
+      </c>
+      <c r="L19" s="5">
+        <v>11.460845587659851</v>
+      </c>
+      <c r="M19" s="5">
+        <v>-17.489194671771902</v>
+      </c>
+      <c r="N19" s="5">
+        <v>-24.077188717781471</v>
+      </c>
+      <c r="O19" s="5">
+        <v>45.41751035492392</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="5">
-        <v>9369467</v>
-      </c>
-      <c r="G19" s="5">
-        <v>4.9220676422119141</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.68070903376364911</v>
-      </c>
-      <c r="I19" s="5">
-        <v>-3.408873428362968</v>
-      </c>
-      <c r="J19" s="5">
-        <v>-7.2237340019926322</v>
-      </c>
-      <c r="K19" s="5">
-        <v>-0.40905113938191101</v>
-      </c>
-      <c r="L19" s="5">
-        <v>12.214132978287417</v>
-      </c>
-      <c r="M19" s="5">
-        <v>-0.12672600539307402</v>
-      </c>
-      <c r="N19" s="5">
-        <v>-11.087573710863763</v>
-      </c>
-      <c r="O19" s="5">
-        <v>137.48011073798168</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>88</v>
       </c>
       <c r="S19" s="5">
-        <v>11.425618100945441</v>
+        <v>1.0297254546268939</v>
       </c>
       <c r="T19" s="5">
-        <v>8.8712606430053711</v>
+        <v>0.70409482717514005</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2352,7 +2354,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="5">
-        <v>2333214464</v>
+        <v>2332143872</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>40</v>
@@ -2361,34 +2363,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>5953102</v>
+        <v>5693686.5</v>
       </c>
       <c r="G20" s="5">
         <v>4.8304595947265634</v>
       </c>
       <c r="H20" s="5">
-        <v>-2.1232448644615001E-2</v>
+        <v>-0.6838872661745431</v>
       </c>
       <c r="I20" s="5">
-        <v>1.493319666140303</v>
+        <v>1.4808538533059861</v>
       </c>
       <c r="J20" s="5">
-        <v>1.200517842035786</v>
+        <v>-0.10783864827139701</v>
       </c>
       <c r="K20" s="5">
-        <v>-5.3998849036828389</v>
+        <v>-5.4891904206885833</v>
       </c>
       <c r="L20" s="5">
-        <v>-7.920518498272699</v>
+        <v>-4.1088268640223191</v>
       </c>
       <c r="M20" s="5">
-        <v>-6.4811294359693461</v>
+        <v>-7.1206930832270139</v>
       </c>
       <c r="N20" s="5">
-        <v>-13.120144646969035</v>
+        <v>-13.85541033555362</v>
       </c>
       <c r="O20" s="5">
-        <v>16.255035855924582</v>
+        <v>0.31722854840374703</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2401,7 +2403,7 @@
         <v>674.54175152749485</v>
       </c>
       <c r="T20" s="5">
-        <v>532.5172119140625</v>
+        <v>528.8753662109375</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2412,7 +2414,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="5">
-        <v>2275428096</v>
+        <v>2280598016</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>40</v>
@@ -2421,34 +2423,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>6936813</v>
+        <v>6800619</v>
       </c>
       <c r="G21" s="5">
-        <v>5.0819673538208008</v>
+        <v>5.068120002746582</v>
       </c>
       <c r="H21" s="5">
-        <v>0.259381574153905</v>
+        <v>-0.41253176690180204</v>
       </c>
       <c r="I21" s="5">
-        <v>0.50663189296169509</v>
+        <v>1.124975174218767</v>
       </c>
       <c r="J21" s="5">
-        <v>-2.5250642055444468</v>
+        <v>-3.1192633606143989</v>
       </c>
       <c r="K21" s="5">
-        <v>-8.0087368054482013</v>
+        <v>-9.0913928699190016</v>
       </c>
       <c r="L21" s="5">
-        <v>-7.4195892042347564</v>
+        <v>-4.0412827599872534</v>
       </c>
       <c r="M21" s="5">
-        <v>-11.169956502321565</v>
+        <v>-11.536408650302166</v>
       </c>
       <c r="N21" s="5">
-        <v>-13.431963363778943</v>
+        <v>-13.195324520648255</v>
       </c>
       <c r="O21" s="5">
-        <v>24.577683218998491</v>
+        <v>3.2617479060820691</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2461,7 +2463,7 @@
         <v>3531.5682281059062</v>
       </c>
       <c r="T21" s="5">
-        <v>2800.30615234375</v>
+        <v>2788.75390625</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2472,58 +2474,58 @@
         <v>94</v>
       </c>
       <c r="C22" s="5">
-        <v>2042116992</v>
+        <v>2040976896</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>7869926.5</v>
+        <v>5585572</v>
       </c>
       <c r="G22" s="5">
-        <v>6.5183248519897461</v>
+        <v>6.6037740707397461</v>
       </c>
       <c r="H22" s="5">
-        <v>-2.516690787536124</v>
+        <v>0.20680710354992202</v>
       </c>
       <c r="I22" s="5">
-        <v>-2.991042617029394</v>
+        <v>-1.7835261457057721</v>
       </c>
       <c r="J22" s="5">
-        <v>-13.177266007391975</v>
+        <v>-7.8980522416262522</v>
       </c>
       <c r="K22" s="5">
-        <v>-13.705330821128713</v>
+        <v>-6.26592235085025</v>
       </c>
       <c r="L22" s="5">
-        <v>-12.54332600431054</v>
+        <v>14.786467294958761</v>
       </c>
       <c r="M22" s="5">
-        <v>-13.110068552855425</v>
+        <v>-6.9791674031975841</v>
       </c>
       <c r="N22" s="5">
-        <v>-36.197329112498281</v>
+        <v>-24.425772022971127</v>
       </c>
       <c r="O22" s="5">
-        <v>1.0660921147345179</v>
+        <v>31.129884696872125</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>95</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="S22" s="5">
-        <v>1.9808639392</v>
+        <v>4.1295041516920517</v>
       </c>
       <c r="T22" s="5">
-        <v>1.167869567871094</v>
+        <v>2.809989213943481</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2534,58 +2536,58 @@
         <v>97</v>
       </c>
       <c r="C23" s="5">
-        <v>2027304448</v>
+        <v>2013760000</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5592468</v>
+        <v>7943697.5</v>
       </c>
       <c r="G23" s="5">
-        <v>6.6350712776184082</v>
+        <v>6.5251574516296387</v>
       </c>
       <c r="H23" s="5">
-        <v>-1.114406777456189</v>
+        <v>0.33639243126135604</v>
       </c>
       <c r="I23" s="5">
-        <v>-4.1200329931788566</v>
+        <v>-3.8100275871567062</v>
       </c>
       <c r="J23" s="5">
-        <v>-9.5353781493048739</v>
+        <v>-14.310329513100296</v>
       </c>
       <c r="K23" s="5">
-        <v>-6.1668401800692108</v>
+        <v>-13.133968422755126</v>
       </c>
       <c r="L23" s="5">
-        <v>8.1100439561809345</v>
+        <v>-2.493623977960346</v>
       </c>
       <c r="M23" s="5">
-        <v>-7.1711440714020576</v>
+        <v>-12.817777399939034</v>
       </c>
       <c r="N23" s="5">
-        <v>-24.48126034420558</v>
+        <v>-37.131186733034163</v>
       </c>
       <c r="O23" s="5">
-        <v>53.162686414006188</v>
+        <v>4.5755893377090961</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>98</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="S23" s="5">
-        <v>4.1295041516920517</v>
+        <v>1.9808639392</v>
       </c>
       <c r="T23" s="5">
-        <v>2.804189920425415</v>
+        <v>1.17179811000824</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2596,7 +2598,7 @@
         <v>100</v>
       </c>
       <c r="C24" s="5">
-        <v>1610772736</v>
+        <v>1614438656</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>40</v>
@@ -2605,34 +2607,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3638236.75</v>
+        <v>3256145</v>
       </c>
       <c r="G24" s="5">
-        <v>4.7606019973754883</v>
+        <v>4.747612476348877</v>
       </c>
       <c r="H24" s="5">
-        <v>0.46600619835361906</v>
+        <v>-0.41216055554848002</v>
       </c>
       <c r="I24" s="5">
-        <v>1.4026427244462791</v>
+        <v>1.4764140911758261</v>
       </c>
       <c r="J24" s="5">
-        <v>1.11811450562882</v>
+        <v>-0.19602989023913603</v>
       </c>
       <c r="K24" s="5">
-        <v>-6.6657032874343658</v>
+        <v>-7.5319149592380619</v>
       </c>
       <c r="L24" s="5">
-        <v>-4.300063987511404</v>
+        <v>0.92989017138087604</v>
       </c>
       <c r="M24" s="5">
-        <v>-8.5406336293894611</v>
+        <v>-8.9175930619237</v>
       </c>
       <c r="N24" s="5">
-        <v>-12.446451546622095</v>
+        <v>-12.521602820110523</v>
       </c>
       <c r="O24" s="5">
-        <v>34.977819323747795</v>
+        <v>12.602973234951452</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2645,7 +2647,7 @@
         <v>1395.4060705496308</v>
       </c>
       <c r="T24" s="5">
-        <v>1118.5921630859375</v>
+        <v>1113.9818115234375</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2653,10 +2655,10 @@
         <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5">
-        <v>1521847680</v>
+        <v>1538713216</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2665,34 +2667,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1688037.875</v>
+        <v>1683675.625</v>
       </c>
       <c r="G25" s="5">
-        <v>7.0568561553955078</v>
+        <v>6.9867548942565918</v>
       </c>
       <c r="H25" s="5">
-        <v>-0.54745847475049503</v>
+        <v>0.63860054205677808</v>
       </c>
       <c r="I25" s="5">
-        <v>-3.8338049135434593</v>
+        <v>-1.739841339837866</v>
       </c>
       <c r="J25" s="5">
-        <v>-8.2338323764774124</v>
+        <v>-7.2223908038423161</v>
       </c>
       <c r="K25" s="5">
-        <v>-1.7944907424655381</v>
+        <v>-1.4754668929929491</v>
       </c>
       <c r="L25" s="5">
-        <v>0.51118163252492599</v>
+        <v>6.3948267817571569</v>
       </c>
       <c r="M25" s="5">
-        <v>-2.224690153057673</v>
+        <v>-1.6002964943774072</v>
       </c>
       <c r="N25" s="5">
-        <v>-35.267487882562243</v>
+        <v>-35.968803651860327</v>
       </c>
       <c r="O25" s="5">
-        <v>72.063143105759679</v>
+        <v>51.541933080586254</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2707,7 +2709,7 @@
         <v>3.362812957848845</v>
       </c>
       <c r="T25" s="5">
-        <v>1.986855030059814</v>
+        <v>1.9995430707931521</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2718,7 +2720,7 @@
         <v>103</v>
       </c>
       <c r="C26" s="5">
-        <v>1502403840</v>
+        <v>1526853376</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2727,34 +2729,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>2958821.25</v>
+        <v>2941689.25</v>
       </c>
       <c r="G26" s="5">
-        <v>7.2134389877319336</v>
+        <v>7.1150097846984863</v>
       </c>
       <c r="H26" s="5">
-        <v>-0.88007535221773503</v>
+        <v>1.1553189473539229</v>
       </c>
       <c r="I26" s="5">
-        <v>-2.8589547425778683</v>
+        <v>8.5930363368014004E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>-11.651053911171072</v>
+        <v>-10.45991031403638</v>
       </c>
       <c r="K26" s="5">
-        <v>-5.5235478097153905</v>
+        <v>-4.7299826319808229</v>
       </c>
       <c r="L26" s="5">
-        <v>3.8251337770819132</v>
+        <v>11.739024955917321</v>
       </c>
       <c r="M26" s="5">
-        <v>-6.2569613522853951</v>
+        <v>-5.1739302649630332</v>
       </c>
       <c r="N26" s="5">
-        <v>-27.734659760881144</v>
+        <v>-27.650785982300608</v>
       </c>
       <c r="O26" s="5">
-        <v>62.275197543189577</v>
+        <v>43.211371149261439</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2769,7 +2771,7 @@
         <v>2.5733491470937611</v>
       </c>
       <c r="T26" s="5">
-        <v>1.6811850070953369</v>
+        <v>1.700608015060425</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2780,43 +2782,43 @@
         <v>105</v>
       </c>
       <c r="C27" s="5">
-        <v>1420747520</v>
+        <v>1392752384</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3419822</v>
+        <v>3451147.25</v>
       </c>
       <c r="G27" s="5">
-        <v>11.902191162109375</v>
+        <v>11.935253143310547</v>
       </c>
       <c r="H27" s="5">
-        <v>-1.879704153471162</v>
+        <v>-1.189627611667698</v>
       </c>
       <c r="I27" s="5">
-        <v>1.4120521754400479</v>
+        <v>1.7928871880394051</v>
       </c>
       <c r="J27" s="5">
-        <v>-2.376317107129577</v>
+        <v>-4.8932031658438069</v>
       </c>
       <c r="K27" s="5">
-        <v>-20.075169359338741</v>
+        <v>-19.626010916498672</v>
       </c>
       <c r="L27" s="5">
-        <v>5.8825236185505947</v>
+        <v>6.0236099155596579</v>
       </c>
       <c r="M27" s="5">
-        <v>-19.959722146093341</v>
+        <v>-20.911903391898967</v>
       </c>
       <c r="N27" s="5">
-        <v>-27.384984746682427</v>
+        <v>-29.024915066067681</v>
       </c>
       <c r="O27" s="5">
-        <v>178.08320789848818</v>
+        <v>84.112307686620767</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>37</v>
@@ -2825,13 +2827,13 @@
         <v>106</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S27" s="5">
         <v>0.32112818480585403</v>
       </c>
       <c r="T27" s="5">
-        <v>0.19870319962501501</v>
+        <v>0.19633936882019001</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2842,7 +2844,7 @@
         <v>108</v>
       </c>
       <c r="C28" s="5">
-        <v>1395200512</v>
+        <v>1389200768</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>40</v>
@@ -2851,34 +2853,34 @@
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3177380</v>
+        <v>3050599</v>
       </c>
       <c r="G28" s="5">
-        <v>4.7348194122314453</v>
+        <v>4.7530865669250488</v>
       </c>
       <c r="H28" s="5">
-        <v>0.27656827009547902</v>
+        <v>-1.0655787063506561</v>
       </c>
       <c r="I28" s="5">
-        <v>1.3675087489192881</v>
+        <v>0.17739034647623603</v>
       </c>
       <c r="J28" s="5">
-        <v>0.83414967015544805</v>
+        <v>-1.098529903666934</v>
       </c>
       <c r="K28" s="5">
-        <v>-3.8036438811380862</v>
+        <v>-4.1128540252455048</v>
       </c>
       <c r="L28" s="5">
-        <v>-4.7530441312599869</v>
+        <v>-2.717741058294465</v>
       </c>
       <c r="M28" s="5">
-        <v>-5.0192487396111263</v>
+        <v>-6.0313434001737161</v>
       </c>
       <c r="N28" s="5">
-        <v>-19.792394829369808</v>
+        <v>-20.274786098961528</v>
       </c>
       <c r="O28" s="5">
-        <v>36.109195248252355</v>
+        <v>15.356399158049982</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
@@ -2891,7 +2893,7 @@
         <v>1342.904019688269</v>
       </c>
       <c r="T28" s="5">
-        <v>995.40936279296875</v>
+        <v>984.80242919921875</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2902,7 +2904,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="5">
-        <v>1327651072</v>
+        <v>1326294272</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>40</v>
@@ -2911,34 +2913,34 @@
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>3311354.75</v>
+        <v>3201964.25</v>
       </c>
       <c r="G29" s="5">
-        <v>3.8309860229492192</v>
+        <v>3.833145380020142</v>
       </c>
       <c r="H29" s="5">
-        <v>0.23535645259034102</v>
+        <v>-0.7398400057428981</v>
       </c>
       <c r="I29" s="5">
-        <v>0.32110235889930605</v>
+        <v>-0.537870286378062</v>
       </c>
       <c r="J29" s="5">
-        <v>-3.7856137103113419</v>
+        <v>-5.1297420879934936</v>
       </c>
       <c r="K29" s="5">
-        <v>-9.658965091967719</v>
+        <v>-10.617417353949721</v>
       </c>
       <c r="L29" s="5">
-        <v>-0.301352699393442</v>
+        <v>1.619506236269852</v>
       </c>
       <c r="M29" s="5">
-        <v>-12.51855408488125</v>
+        <v>-13.165776819363629</v>
       </c>
       <c r="N29" s="5">
-        <v>-9.933238417123702</v>
+        <v>-10.278732591052176</v>
       </c>
       <c r="O29" s="5">
-        <v>40.723054863865094</v>
+        <v>23.618245002526738</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
@@ -2951,7 +2953,7 @@
         <v>1648.0721903199344</v>
       </c>
       <c r="T29" s="5">
-        <v>1358.0718994140625</v>
+        <v>1348.0242919921875</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2962,118 +2964,118 @@
         <v>112</v>
       </c>
       <c r="C30" s="5">
-        <v>1284158848</v>
+        <v>1285635712</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>2368296.25</v>
+        <v>6422661</v>
       </c>
       <c r="G30" s="5">
-        <v>4.1804909706115723</v>
+        <v>4.9521665573120117</v>
       </c>
       <c r="H30" s="5">
-        <v>0.65675764860972907</v>
+        <v>0.33879941497920701</v>
       </c>
       <c r="I30" s="5">
-        <v>1.2574226264953301</v>
+        <v>-1.222897810747547</v>
       </c>
       <c r="J30" s="5">
-        <v>1.307065596571144</v>
+        <v>-3.7023431614860551</v>
       </c>
       <c r="K30" s="5">
-        <v>3.1741314879757181</v>
+        <v>-3.805340773726706</v>
       </c>
       <c r="L30" s="5">
-        <v>7.6782096593426274</v>
+        <v>13.550137284955976</v>
       </c>
       <c r="M30" s="5">
-        <v>-0.42357903223651006</v>
+        <v>-3.9594098892779543</v>
       </c>
       <c r="N30" s="5">
-        <v>0.37938079831405502</v>
+        <v>-18.427095875807009</v>
       </c>
       <c r="O30" s="5">
-        <v>69.245218103067202</v>
+        <v>60.327248969775106</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="R30" s="4" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5">
-        <v>1243.9918533604887</v>
+        <v>23.909999847412109</v>
       </c>
       <c r="T30" s="5">
-        <v>1153.022216796875</v>
+        <v>17.770000457763672</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A31" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C31" s="5">
-        <v>1266761344</v>
+        <v>1275904000</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>6335728.5</v>
+        <v>2272597.75</v>
       </c>
       <c r="G31" s="5">
-        <v>4.9689445495605469</v>
+        <v>4.2056074142456055</v>
       </c>
       <c r="H31" s="5">
-        <v>1.489961662840678</v>
+        <v>-1.277016008446896</v>
       </c>
       <c r="I31" s="5">
-        <v>0.28312139010506804</v>
+        <v>0.35776813209260605</v>
       </c>
       <c r="J31" s="5">
-        <v>-3.6147104675233739</v>
+        <v>-0.82315911301460409</v>
       </c>
       <c r="K31" s="5">
-        <v>-4.0274974387046303</v>
+        <v>1.1660343527661881</v>
       </c>
       <c r="L31" s="5">
-        <v>11.497400114365664</v>
+        <v>10.627510229200876</v>
       </c>
       <c r="M31" s="5">
-        <v>-4.2836961667048756</v>
+        <v>-1.6951858686333201</v>
       </c>
       <c r="N31" s="5">
-        <v>-18.129259297435308</v>
+        <v>0.168728771726601</v>
       </c>
       <c r="O31" s="5">
-        <v>83.881800144984211</v>
+        <v>44.700559300097353</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="Q31" s="4"/>
       <c r="R31" s="4" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="S31" s="5">
-        <v>23.909999847412109</v>
+        <v>1243.9918533604887</v>
       </c>
       <c r="T31" s="5">
-        <v>17.709999084472656</v>
+        <v>1138.2978515625</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3084,7 +3086,7 @@
         <v>117</v>
       </c>
       <c r="C32" s="5">
-        <v>1224785280</v>
+        <v>1262151680</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>23</v>
@@ -3093,34 +3095,34 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>11309142</v>
+        <v>11425689</v>
       </c>
       <c r="G32" s="5">
-        <v>13.157895088195801</v>
+        <v>12.955465316772461</v>
       </c>
       <c r="H32" s="5">
-        <v>3.050844498798488</v>
+        <v>1.562504411528032</v>
       </c>
       <c r="I32" s="5">
-        <v>-0.89650045841653803</v>
+        <v>-1.4365471295886612</v>
       </c>
       <c r="J32" s="5">
-        <v>-14.486641216126539</v>
+        <v>-13.45480038334097</v>
       </c>
       <c r="K32" s="5">
-        <v>-3.0573538190920679</v>
+        <v>-0.92869825488759405</v>
       </c>
       <c r="L32" s="5">
-        <v>6.9619519416789233</v>
+        <v>20.527382932930017</v>
       </c>
       <c r="M32" s="5">
-        <v>-0.43519588656217906</v>
+        <v>1.1205085700395361</v>
       </c>
       <c r="N32" s="5">
-        <v>-8.6147579033780897</v>
+        <v>-8.6456174895352724</v>
       </c>
       <c r="O32" s="5">
-        <v>29.37065718391727</v>
+        <v>23.449214943574283</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
@@ -3135,7 +3137,7 @@
         <v>16.010000228881836</v>
       </c>
       <c r="T32" s="5">
-        <v>12.159999847412109</v>
+        <v>12.350000381469727</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3146,7 +3148,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1170120192</v>
+        <v>1188357888</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3155,34 +3157,34 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1511647.125</v>
+        <v>1523751</v>
       </c>
       <c r="G33" s="5">
-        <v>6.6722135543823242</v>
+        <v>6.5252208709716797</v>
       </c>
       <c r="H33" s="5">
-        <v>-0.51434073391041202</v>
+        <v>1.5573372024296981</v>
       </c>
       <c r="I33" s="5">
-        <v>0</v>
+        <v>2.5400656227692049</v>
       </c>
       <c r="J33" s="5">
-        <v>-19.672446166577807</v>
+        <v>-17.770769692631205</v>
       </c>
       <c r="K33" s="5">
-        <v>0.46686479934905406</v>
+        <v>1.977870570418871</v>
       </c>
       <c r="L33" s="5">
-        <v>5.0883090660040001E-3</v>
+        <v>12.068967643447493</v>
       </c>
       <c r="M33" s="5">
-        <v>-3.1315824305643281</v>
+        <v>-1.623014526350564</v>
       </c>
       <c r="N33" s="5">
-        <v>-39.404827309480936</v>
+        <v>-38.603722554712981</v>
       </c>
       <c r="O33" s="5">
-        <v>-30.882954822782182</v>
+        <v>-35.705884760394412</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>37</v>
@@ -3197,7 +3199,7 @@
         <v>0.44271498196098902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.24460156261920901</v>
+        <v>0.24841082096099901</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3208,7 +3210,7 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1060278848</v>
+        <v>1054630912</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>40</v>
@@ -3217,34 +3219,34 @@
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>3488344.75</v>
+        <v>3401193</v>
       </c>
       <c r="G34" s="5">
-        <v>5.198051929473877</v>
+        <v>5.2234911918640137</v>
       </c>
       <c r="H34" s="5">
-        <v>-0.20160555530089902</v>
+        <v>-1.167569633384735</v>
       </c>
       <c r="I34" s="5">
-        <v>1.220166913464382</v>
+        <v>0.67975978305430107</v>
       </c>
       <c r="J34" s="5">
-        <v>-2.2644057328933043</v>
+        <v>-4.0342083809198348</v>
       </c>
       <c r="K34" s="5">
-        <v>-8.2355621318165095</v>
+        <v>-9.7939901494166435</v>
       </c>
       <c r="L34" s="5">
-        <v>-9.6468659176430549</v>
+        <v>-6.3810803880090861</v>
       </c>
       <c r="M34" s="5">
-        <v>-11.156686298866314</v>
+        <v>-12.193993850933483</v>
       </c>
       <c r="N34" s="5">
-        <v>-20.024293100493608</v>
+        <v>-20.136563866200131</v>
       </c>
       <c r="O34" s="5">
-        <v>15.819050008100621</v>
+        <v>-1.3820028847996271</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
@@ -3257,7 +3259,7 @@
         <v>3199.3437243642329</v>
       </c>
       <c r="T34" s="5">
-        <v>2356.541748046875</v>
+        <v>2329.02734375</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3268,7 +3270,7 @@
         <v>127</v>
       </c>
       <c r="C35" s="5">
-        <v>1000629952</v>
+        <v>1037667776</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>23</v>
@@ -3277,34 +3279,34 @@
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>19690696</v>
+        <v>19838120</v>
       </c>
       <c r="G35" s="5">
-        <v>7.7238154411315918</v>
+        <v>7.6433119773864746</v>
       </c>
       <c r="H35" s="5">
-        <v>3.7014601170843653</v>
+        <v>1.053249289459623</v>
       </c>
       <c r="I35" s="5">
-        <v>-1.781606165164773</v>
+        <v>-1.595434709225507</v>
       </c>
       <c r="J35" s="5">
-        <v>-31.917338375254054</v>
+        <v>-31.146197869851999</v>
       </c>
       <c r="K35" s="5">
-        <v>-34.63756936852738</v>
+        <v>-34.271217303675414</v>
       </c>
       <c r="L35" s="5">
-        <v>-31.082775828089403</v>
+        <v>-26.730864172355584</v>
       </c>
       <c r="M35" s="5">
-        <v>-34.563570763154125</v>
+        <v>-33.874362037169305</v>
       </c>
       <c r="N35" s="5">
-        <v>-50.283012471192436</v>
+        <v>-50.903058628373763</v>
       </c>
       <c r="O35" s="5">
-        <v>-19.898525949689937</v>
+        <v>-21.743188092147225</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
@@ -3319,7 +3321,7 @@
         <v>39.099998474121094</v>
       </c>
       <c r="T35" s="5">
-        <v>17.090000152587891</v>
+        <v>17.270000457763672</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3330,7 +3332,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>964508736</v>
+        <v>995422464</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3339,34 +3341,34 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>4918195.5</v>
+        <v>4946105</v>
       </c>
       <c r="G36" s="5">
-        <v>6.7435665130615234</v>
+        <v>6.6725196838378906</v>
       </c>
       <c r="H36" s="5">
-        <v>3.2051316760476571</v>
+        <v>1.0647726768850061</v>
       </c>
       <c r="I36" s="5">
-        <v>-2.2549807565391822</v>
+        <v>-2.2317535083346218</v>
       </c>
       <c r="J36" s="5">
-        <v>-12.499997223386139</v>
+        <v>-11.705421084187261</v>
       </c>
       <c r="K36" s="5">
-        <v>-1.9986062888829981</v>
+        <v>-0.87031705646133406</v>
       </c>
       <c r="L36" s="5">
-        <v>3.259383557107332</v>
+        <v>12.739499723278858</v>
       </c>
       <c r="M36" s="5">
-        <v>-1.9999960194463262</v>
+        <v>-0.95651875371518502</v>
       </c>
       <c r="N36" s="5">
-        <v>-17.189468882244242</v>
+        <v>-17.394641394803244</v>
       </c>
       <c r="O36" s="5">
-        <v>48.204873329623645</v>
+        <v>29.541995272907641</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
@@ -3381,7 +3383,7 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T36" s="5">
-        <v>11.270000457763672</v>
+        <v>11.390000343322754</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3392,7 +3394,7 @@
         <v>132</v>
       </c>
       <c r="C37" s="5">
-        <v>941151808</v>
+        <v>968642560</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3401,34 +3403,34 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>12607714</v>
+        <v>13805451</v>
       </c>
       <c r="G37" s="5">
-        <v>2.3372287750244141</v>
+        <v>2.298850536346436</v>
       </c>
       <c r="H37" s="5">
-        <v>2.9209552309731102</v>
+        <v>1.669455514036855</v>
       </c>
       <c r="I37" s="5">
-        <v>-1.1551183551541391</v>
+        <v>-2.5599975585937518</v>
       </c>
       <c r="J37" s="5">
-        <v>-20.029044835896425</v>
+        <v>-16.815969263024478</v>
       </c>
       <c r="K37" s="5">
-        <v>-11.832893548484002</v>
+        <v>-9.8329237864357992</v>
       </c>
       <c r="L37" s="5">
-        <v>-11.376410915159685</v>
+        <v>-3.9930841887264812</v>
       </c>
       <c r="M37" s="5">
-        <v>-10.655591377889106</v>
+        <v>-9.1640262216636685</v>
       </c>
       <c r="N37" s="5">
-        <v>-37.098432260316194</v>
+        <v>-37.211071954647593</v>
       </c>
       <c r="O37" s="5">
-        <v>-23.889697334987623</v>
+        <v>-26.696413617845227</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
@@ -3443,7 +3445,7 @@
         <v>10.055000305175781</v>
       </c>
       <c r="T37" s="5">
-        <v>5.9899997711181641</v>
+        <v>6.0900001525878906</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3454,7 +3456,7 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>911361856</v>
+        <v>888899008</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>136</v>
@@ -3463,34 +3465,34 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1790711.5</v>
+        <v>1738873.625</v>
       </c>
       <c r="G38" s="5">
-        <v>4.7365303039550781</v>
+        <v>4.8721070289611816</v>
       </c>
       <c r="H38" s="5">
-        <v>5.8373746288029604</v>
+        <v>-2.7800007469865</v>
       </c>
       <c r="I38" s="5">
-        <v>10.783142899298248</v>
+        <v>2.386472151459107</v>
       </c>
       <c r="J38" s="5">
-        <v>10.909022101154475</v>
+        <v>13.258907995632875</v>
       </c>
       <c r="K38" s="5">
-        <v>-5.0799136877358597</v>
+        <v>-8.3983337526997275</v>
       </c>
       <c r="L38" s="5">
-        <v>-12.872016867287739</v>
+        <v>-15.456157788534796</v>
       </c>
       <c r="M38" s="5">
-        <v>-4.9649744194719574</v>
+        <v>-7.6069488405094434</v>
       </c>
       <c r="N38" s="5">
-        <v>-26.698866702660773</v>
+        <v>-29.73440559820607</v>
       </c>
       <c r="O38" s="5">
-        <v>29.719877505893955</v>
+        <v>5.374066132612354</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>25</v>
@@ -3503,7 +3505,7 @@
         <v>6.9999688890271594</v>
       </c>
       <c r="T38" s="5">
-        <v>4.7310924530029297</v>
+        <v>4.5793008804321289</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3514,178 +3516,178 @@
         <v>139</v>
       </c>
       <c r="C39" s="5">
-        <v>826427968</v>
+        <v>823915904</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>1941088.75</v>
+        <v>1361558.25</v>
       </c>
       <c r="G39" s="5">
-        <v>7.266880989074707</v>
+        <v>6.504854679107666</v>
       </c>
       <c r="H39" s="5">
-        <v>0.41138826048607902</v>
+        <v>1.625549210348187</v>
       </c>
       <c r="I39" s="5">
-        <v>-4.0251844966372463</v>
+        <v>-0.64938981023632303</v>
       </c>
       <c r="J39" s="5">
-        <v>-14.149142426717653</v>
+        <v>-5.8229289723315985</v>
       </c>
       <c r="K39" s="5">
-        <v>-10.61894090823129</v>
+        <v>-7.4839003606362979</v>
       </c>
       <c r="L39" s="5">
-        <v>-1.8885867541973631</v>
+        <v>8.0330639574888387</v>
       </c>
       <c r="M39" s="5">
-        <v>-11.124867237340297</v>
+        <v>-9.0701732037395626</v>
       </c>
       <c r="N39" s="5">
-        <v>-48.253898722391874</v>
+        <v>-38.358875940470227</v>
       </c>
       <c r="O39" s="5">
-        <v>28.941937524512483</v>
+        <v>-14.713301304930027</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="S39" s="5">
-        <v>2.1937991371437611</v>
+        <v>1.243469103672894</v>
       </c>
       <c r="T39" s="5">
-        <v>1.0332974195480351</v>
+        <v>0.63257443904876709</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="5">
+        <v>819359040</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1928893.125</v>
+      </c>
+      <c r="G40" s="5">
+        <v>7.3139157295227051</v>
+      </c>
+      <c r="H40" s="5">
+        <v>-1.315879234079387</v>
+      </c>
+      <c r="I40" s="5">
+        <v>-3.9040990541856391</v>
+      </c>
+      <c r="J40" s="5">
+        <v>-10.939299997301099</v>
+      </c>
+      <c r="K40" s="5">
+        <v>-12.070072121070318</v>
+      </c>
+      <c r="L40" s="5">
+        <v>2.9106124551810053</v>
+      </c>
+      <c r="M40" s="5">
+        <v>-12.294356653624616</v>
+      </c>
+      <c r="N40" s="5">
+        <v>-49.713523573492481</v>
+      </c>
+      <c r="O40" s="5">
+        <v>19.160974290206045</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="5">
-        <v>819194944</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="5">
-        <v>2864387.75</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5">
-        <v>-0.21708155074478003</v>
-      </c>
-      <c r="I40" s="5">
-        <v>-3.7074994535208132</v>
-      </c>
-      <c r="J40" s="5">
-        <v>-2.836149663491105</v>
-      </c>
-      <c r="K40" s="5">
-        <v>-16.794057425104072</v>
-      </c>
-      <c r="L40" s="5">
-        <v>75.738166233174724</v>
-      </c>
-      <c r="M40" s="5">
-        <v>-20.670772999386266</v>
-      </c>
-      <c r="N40" s="5">
-        <v>103.17431521654008</v>
-      </c>
-      <c r="O40" s="5">
-        <v>196.40330484144138</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="S40" s="5">
-        <v>1.13709763756269</v>
+        <v>2.1937991371437611</v>
       </c>
       <c r="T40" s="5">
-        <v>0.8181461095809941</v>
+        <v>1.0197005271911621</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="5">
+        <v>817233152</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2626308</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5">
+        <v>-2.6077716714902781</v>
+      </c>
+      <c r="I41" s="5">
+        <v>-1.2868421142208319</v>
+      </c>
+      <c r="J41" s="5">
+        <v>-4.4525333530180511</v>
+      </c>
+      <c r="K41" s="5">
+        <v>-17.654241145740457</v>
+      </c>
+      <c r="L41" s="5">
+        <v>74.375189984661773</v>
+      </c>
+      <c r="M41" s="5">
+        <v>-22.73949810832049</v>
+      </c>
+      <c r="N41" s="5">
+        <v>95.029266447856429</v>
+      </c>
+      <c r="O41" s="5">
+        <v>186.29097816697566</v>
+      </c>
+      <c r="P41" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="5">
-        <v>810416256</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1343927.625</v>
-      </c>
-      <c r="G41" s="5">
-        <v>6.5815324783325204</v>
-      </c>
-      <c r="H41" s="5">
-        <v>-0.77217435385452704</v>
-      </c>
-      <c r="I41" s="5">
-        <v>-0.42143577736273302</v>
-      </c>
-      <c r="J41" s="5">
-        <v>-4.7425539640792884</v>
-      </c>
-      <c r="K41" s="5">
-        <v>-9.2583069050340647</v>
-      </c>
-      <c r="L41" s="5">
-        <v>-5.0812382856545426</v>
-      </c>
-      <c r="M41" s="5">
-        <v>-10.524639224285382</v>
-      </c>
-      <c r="N41" s="5">
-        <v>-38.052987447189565</v>
-      </c>
-      <c r="O41" s="5">
-        <v>-0.15661559591608801</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="S41" s="5">
-        <v>1.243469103672894</v>
+        <v>1.13709763756269</v>
       </c>
       <c r="T41" s="5">
-        <v>0.6224561333656311</v>
+        <v>0.79681068658828702</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3696,7 +3698,7 @@
         <v>149</v>
       </c>
       <c r="C42" s="5">
-        <v>796905472</v>
+        <v>800948672</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>40</v>
@@ -3705,34 +3707,34 @@
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>2172592.5</v>
+        <v>2063443.25</v>
       </c>
       <c r="G42" s="5">
-        <v>5.5830259323120117</v>
+        <v>5.5522937774658203</v>
       </c>
       <c r="H42" s="5">
-        <v>1.2431885104266631</v>
+        <v>-0.13416708499101002</v>
       </c>
       <c r="I42" s="5">
-        <v>3.149284116177165</v>
+        <v>3.243226527493448</v>
       </c>
       <c r="J42" s="5">
-        <v>2.1380262701130581</v>
+        <v>2.7262874567002719</v>
       </c>
       <c r="K42" s="5">
-        <v>6.0455596768249409</v>
+        <v>4.242130897821772</v>
       </c>
       <c r="L42" s="5">
-        <v>3.0777996311311062</v>
+        <v>8.3196687230545852</v>
       </c>
       <c r="M42" s="5">
-        <v>1.1438534677196801</v>
+        <v>1.00815170787445</v>
       </c>
       <c r="N42" s="5">
-        <v>-11.659676780498419</v>
+        <v>-10.742201119693362</v>
       </c>
       <c r="O42" s="5">
-        <v>49.696751441336232</v>
+        <v>19.081648815964371</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>25</v>
@@ -3745,7 +3747,7 @@
         <v>516.49694501018325</v>
       </c>
       <c r="T42" s="5">
-        <v>414.69012451171875</v>
+        <v>414.13372802734375</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3756,7 +3758,7 @@
         <v>151</v>
       </c>
       <c r="C43" s="5">
-        <v>758451776</v>
+        <v>762090432</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>152</v>
@@ -3765,34 +3767,34 @@
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>3859610</v>
+        <v>3838553.75</v>
       </c>
       <c r="G43" s="5">
-        <v>1.0258914232254031</v>
+        <v>1.0193794965744021</v>
       </c>
       <c r="H43" s="5">
-        <v>-5.4981417734701006E-2</v>
+        <v>0.47973729295447404</v>
       </c>
       <c r="I43" s="5">
-        <v>0.32151609639343703</v>
+        <v>1.344893013847859</v>
       </c>
       <c r="J43" s="5">
-        <v>-0.59476210872635404</v>
+        <v>-0.11787811141180701</v>
       </c>
       <c r="K43" s="5">
-        <v>0.45623427934276006</v>
+        <v>1.630147028159223</v>
       </c>
       <c r="L43" s="5">
-        <v>6.5509441255615419</v>
+        <v>6.4047751250965623</v>
       </c>
       <c r="M43" s="5">
-        <v>1.2596868688307781</v>
+        <v>1.7454673494694761</v>
       </c>
       <c r="N43" s="5">
-        <v>0.82278912947217908</v>
+        <v>1.5612025253081141</v>
       </c>
       <c r="O43" s="5">
-        <v>14.733107582881955</v>
+        <v>14.643493073686841</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>25</v>
@@ -3807,7 +3809,7 @@
         <v>0.72089303474705002</v>
       </c>
       <c r="T43" s="5">
-        <v>0.67119628190994307</v>
+        <v>0.674416303634644</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3818,176 +3820,176 @@
         <v>156</v>
       </c>
       <c r="C44" s="5">
-        <v>723922880</v>
+        <v>728758528</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>1382505.375</v>
-      </c>
-      <c r="G44" s="5">
-        <v>4.2615723609924316</v>
-      </c>
+        <v>15720382</v>
+      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="5">
-        <v>0.34359874462961404</v>
+        <v>9.8545742551946702</v>
       </c>
       <c r="I44" s="5">
-        <v>-0.19084923440545501</v>
+        <v>44.266846064287549</v>
       </c>
       <c r="J44" s="5">
-        <v>-0.98427686911603007</v>
+        <v>161.8690905649915</v>
       </c>
       <c r="K44" s="5">
-        <v>-8.2426617701058191</v>
+        <v>141.59824705844244</v>
       </c>
       <c r="L44" s="5">
-        <v>-4.0087627865529774</v>
+        <v>218.85749493091805</v>
       </c>
       <c r="M44" s="5">
-        <v>-10.54242472500122</v>
+        <v>135.90074897442497</v>
       </c>
       <c r="N44" s="5">
-        <v>-12.74357424035747</v>
+        <v>263.51256959239339</v>
       </c>
       <c r="O44" s="5">
-        <v>20.812789900634332</v>
+        <v>343.58404031587088</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="S44" s="5">
-        <v>1279.0224032586557</v>
+        <v>2.4140063614437253</v>
       </c>
       <c r="T44" s="5">
-        <v>1041.3160400390625</v>
+        <v>2.4140064716339111</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A45" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C45" s="5">
-        <v>699209472</v>
+        <v>720932416</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1574125.5</v>
+        <v>1306890.875</v>
       </c>
       <c r="G45" s="5">
-        <v>5.970149040222168</v>
+        <v>4.2772860527038574</v>
       </c>
       <c r="H45" s="5">
-        <v>-1.9191312680715831</v>
+        <v>-1.048751750868981</v>
       </c>
       <c r="I45" s="5">
-        <v>-3.132863195973834</v>
+        <v>-0.34466506624725202</v>
       </c>
       <c r="J45" s="5">
-        <v>-4.8316149476862247</v>
+        <v>-2.9604370938929652</v>
       </c>
       <c r="K45" s="5">
-        <v>-4.4535777934972103</v>
+        <v>-9.9230862023885429</v>
       </c>
       <c r="L45" s="5">
-        <v>8.2123889544058581</v>
+        <v>-1.1252762773863449</v>
       </c>
       <c r="M45" s="5">
-        <v>-6.8526221228873307</v>
+        <v>-11.480612611982711</v>
       </c>
       <c r="N45" s="5">
-        <v>-31.761678773073278</v>
+        <v>-12.881625070456359</v>
       </c>
       <c r="O45" s="5">
-        <v>83.037444424512202</v>
+        <v>10.926065322422929</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S45" s="5">
-        <v>1.5543399132000002</v>
+        <v>1279.0224032586557</v>
       </c>
       <c r="T45" s="5">
-        <v>0.98321163654327404</v>
+        <v>1030.3951416015625</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A46" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="5">
+        <v>690998848</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="5">
-        <v>663406144</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>15593189</v>
-      </c>
-      <c r="G46" s="5"/>
+        <v>1499808.25</v>
+      </c>
+      <c r="G46" s="5">
+        <v>6</v>
+      </c>
       <c r="H46" s="5">
-        <v>9.8757113855752579</v>
+        <v>-5.8145936266907006E-2</v>
       </c>
       <c r="I46" s="5">
-        <v>31.101792949281549</v>
+        <v>-4.0744734292985747</v>
       </c>
       <c r="J46" s="5">
-        <v>134.0359293439426</v>
+        <v>-6.8501358610299823</v>
       </c>
       <c r="K46" s="5">
-        <v>116.4141411808949</v>
+        <v>-4.1991499725400727</v>
       </c>
       <c r="L46" s="5">
-        <v>191.01913016593804</v>
+        <v>23.958637399681805</v>
       </c>
       <c r="M46" s="5">
-        <v>114.73912267542197</v>
+        <v>-6.906783537862049</v>
       </c>
       <c r="N46" s="5">
-        <v>225.78609969969315</v>
+        <v>-32.278722717161898</v>
       </c>
       <c r="O46" s="5">
-        <v>325.54769572121796</v>
+        <v>53.599384682617</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="Q46" s="4"/>
+      <c r="Q46" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="R46" s="4" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="S46" s="5">
-        <v>2.197456484902526</v>
+        <v>1.5543399132000002</v>
       </c>
       <c r="T46" s="5">
-        <v>2.1974565982818599</v>
+        <v>0.98263990879058805</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3998,43 +4000,43 @@
         <v>165</v>
       </c>
       <c r="C47" s="5">
-        <v>634507072</v>
+        <v>643873024</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>7972509.5</v>
+        <v>8044172</v>
       </c>
       <c r="G47" s="5">
-        <v>7.8947372436523437</v>
+        <v>7.8534035682678223</v>
       </c>
       <c r="H47" s="5">
-        <v>0.53296611767939006</v>
+        <v>1.070615889157889</v>
       </c>
       <c r="I47" s="5">
-        <v>-3.4627034867043101</v>
+        <v>-2.8656694783561591</v>
       </c>
       <c r="J47" s="5">
-        <v>-17.953030485236908</v>
+        <v>-16.357942322646799</v>
       </c>
       <c r="K47" s="5">
-        <v>-14.676650714024985</v>
+        <v>-14.321789016952657</v>
       </c>
       <c r="L47" s="5">
-        <v>-19.29413195385904</v>
+        <v>-14.293083025254738</v>
       </c>
       <c r="M47" s="5">
-        <v>-16.044809455619358</v>
+        <v>-15.145971845878448</v>
       </c>
       <c r="N47" s="5">
-        <v>-43.818926423773007</v>
+        <v>-43.651044590621481</v>
       </c>
       <c r="O47" s="5">
-        <v>62.686667994508348</v>
+        <v>25.954208407479772</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>25</v>
@@ -4043,13 +4045,13 @@
         <v>26</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="S47" s="5">
         <v>11.008880893576956</v>
       </c>
       <c r="T47" s="5">
-        <v>5.5308928489685059</v>
+        <v>5.5901074409484863</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4060,7 +4062,7 @@
         <v>167</v>
       </c>
       <c r="C48" s="5">
-        <v>594826816</v>
+        <v>631297920</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>23</v>
@@ -4069,34 +4071,34 @@
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>11661151</v>
+        <v>11912246</v>
       </c>
       <c r="G48" s="5">
-        <v>6.8775792121887207</v>
+        <v>6.8965516090393066</v>
       </c>
       <c r="H48" s="5">
-        <v>6.1313880604568327</v>
+        <v>-0.27510290204931803</v>
       </c>
       <c r="I48" s="5">
-        <v>7.8635048635976812</v>
+        <v>-0.27510290204931803</v>
       </c>
       <c r="J48" s="5">
-        <v>-6.1935486332062695</v>
+        <v>-5.8441535118438299</v>
       </c>
       <c r="K48" s="5">
-        <v>-4.7182192413477209</v>
+        <v>-3.462053541382482</v>
       </c>
       <c r="L48" s="5">
-        <v>-12.146337651866745</v>
+        <v>-1.5522960562907921</v>
       </c>
       <c r="M48" s="5">
-        <v>-4.7182192413477209</v>
+        <v>-4.9803421853390368</v>
       </c>
       <c r="N48" s="5">
-        <v>-60.170715054279746</v>
+        <v>-59.324422224338647</v>
       </c>
       <c r="O48" s="5">
-        <v>28.402730749669303</v>
+        <v>-6.1851285398729638</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>25</v>
@@ -4111,7 +4113,7 @@
         <v>18.901226043701172</v>
       </c>
       <c r="T48" s="5">
-        <v>7.2699999809265137</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4122,7 +4124,7 @@
         <v>170</v>
       </c>
       <c r="C49" s="5">
-        <v>559362304</v>
+        <v>578769664</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>171</v>
@@ -4131,34 +4133,34 @@
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>1635209.25</v>
+        <v>1558234</v>
       </c>
       <c r="G49" s="5">
-        <v>6.1915884017944336</v>
+        <v>5.968468189239502</v>
       </c>
       <c r="H49" s="5">
-        <v>-2.4581829490227141</v>
+        <v>3.1198734395744281</v>
       </c>
       <c r="I49" s="5">
-        <v>-8.024824515633588</v>
+        <v>-1.7260597558297341</v>
       </c>
       <c r="J49" s="5">
-        <v>-1.9850246001342111</v>
+        <v>5.6800828667058004E-2</v>
       </c>
       <c r="K49" s="5">
-        <v>-8.542146494738601</v>
+        <v>-5.4030741709451213</v>
       </c>
       <c r="L49" s="5">
-        <v>-7.0456804984336374</v>
+        <v>3.7518846650209441</v>
       </c>
       <c r="M49" s="5">
-        <v>-9.4489484582672141</v>
+        <v>-6.6238702519613391</v>
       </c>
       <c r="N49" s="5">
-        <v>-28.263257198512626</v>
+        <v>-24.270065272833797</v>
       </c>
       <c r="O49" s="5">
-        <v>57.522600770271872</v>
+        <v>53.071471542472494</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>30</v>
@@ -4170,10 +4172,10 @@
         <v>173</v>
       </c>
       <c r="S49" s="5">
-        <v>0.97453997864368302</v>
+        <v>0.9711990051350391</v>
       </c>
       <c r="T49" s="5">
-        <v>0.660619556903839</v>
+        <v>0.681230008602142</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4184,54 +4186,54 @@
         <v>175</v>
       </c>
       <c r="C50" s="5">
-        <v>504327360</v>
+        <v>509791744</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>16818516</v>
+        <v>15768881</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>1.1061850573858669</v>
+        <v>-0.40577004313712101</v>
       </c>
       <c r="I50" s="5">
-        <v>-0.50862295863752804</v>
+        <v>3.5084444191346491</v>
       </c>
       <c r="J50" s="5">
-        <v>-4.7224064037413971</v>
+        <v>-5.540607902075001</v>
       </c>
       <c r="K50" s="5">
-        <v>-6.6196826303491108</v>
+        <v>-2.7765677095835661</v>
       </c>
       <c r="L50" s="5">
-        <v>-3.0746957486460609</v>
+        <v>19.704039400647755</v>
       </c>
       <c r="M50" s="5">
-        <v>-6.3753323002436417</v>
+        <v>-6.7552331547559241</v>
       </c>
       <c r="N50" s="5">
-        <v>-16.132263679451253</v>
+        <v>-16.698710407596671</v>
       </c>
       <c r="O50" s="5">
-        <v>174.62144052740035</v>
+        <v>181.79065890886386</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S50" s="5">
         <v>1.1922868853192861</v>
       </c>
       <c r="T50" s="5">
-        <v>0.53231936693191506</v>
+        <v>0.53015935420990001</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4242,41 +4244,41 @@
         <v>177</v>
       </c>
       <c r="C51" s="5">
-        <v>498632768</v>
+        <v>493118496</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>3250945.5</v>
+        <v>3098843.25</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5">
-        <v>-0.93067806492785909</v>
+        <v>-0.26479847999754103</v>
       </c>
       <c r="I51" s="5">
-        <v>-4.373917232771074</v>
+        <v>0.24197518278155103</v>
       </c>
       <c r="J51" s="5">
-        <v>-12.459430031489681</v>
+        <v>-12.85489648133491</v>
       </c>
       <c r="K51" s="5">
-        <v>-35.916901775806686</v>
+        <v>-34.890205498206292</v>
       </c>
       <c r="L51" s="5">
-        <v>53.215216517454131</v>
+        <v>58.556341487424255</v>
       </c>
       <c r="M51" s="5">
-        <v>-38.001410913827293</v>
+        <v>-38.165582235347394</v>
       </c>
       <c r="N51" s="5">
-        <v>167.43810170796937</v>
+        <v>159.95144027236012</v>
       </c>
       <c r="O51" s="5">
-        <v>299.97611660576393</v>
+        <v>312.9310743043211</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
@@ -4285,13 +4287,13 @@
         <v>178</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S51" s="5">
         <v>1.152422315694851</v>
       </c>
       <c r="T51" s="5">
-        <v>0.6791661381721501</v>
+        <v>0.67736768722534202</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4302,7 +4304,7 @@
         <v>180</v>
       </c>
       <c r="C52" s="5">
-        <v>477406112</v>
+        <v>492350304</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>23</v>
@@ -4311,34 +4313,34 @@
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>5399791</v>
+        <v>5202902</v>
       </c>
       <c r="G52" s="5">
-        <v>9.8441352844238281</v>
+        <v>9.8603124618530273</v>
       </c>
       <c r="H52" s="5">
-        <v>3.1302867606764821</v>
+        <v>-0.16406484641344801</v>
       </c>
       <c r="I52" s="5">
-        <v>4.5454523148113379</v>
+        <v>-0.81499900357748811</v>
       </c>
       <c r="J52" s="5">
-        <v>-14.467099505745473</v>
+        <v>-13.157028320870879</v>
       </c>
       <c r="K52" s="5">
-        <v>-33.430987986358041</v>
+        <v>-33.540204333677167</v>
       </c>
       <c r="L52" s="5">
-        <v>-23.844794519650168</v>
+        <v>-16.461806284965729</v>
       </c>
       <c r="M52" s="5">
-        <v>-32.747306922920693</v>
+        <v>-32.85764495052652</v>
       </c>
       <c r="N52" s="5">
-        <v>-38.671812701502283</v>
+        <v>-38.658572519733447</v>
       </c>
       <c r="O52" s="5">
-        <v>43.47681043186806</v>
+        <v>3.850016564837611</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
@@ -4353,7 +4355,7 @@
         <v>23.379999160766602</v>
       </c>
       <c r="T52" s="5">
-        <v>12.189999580383301</v>
+        <v>12.170000076293945</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4364,180 +4366,180 @@
         <v>182</v>
       </c>
       <c r="C53" s="5">
-        <v>476349408</v>
+        <v>473613440</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>1198788.875</v>
+        <v>1338540.25</v>
       </c>
       <c r="G53" s="5">
-        <v>6.6132521629333496</v>
+        <v>8.1484832763671875</v>
       </c>
       <c r="H53" s="5">
-        <v>3.598579661417189</v>
+        <v>-0.76370204198549207</v>
       </c>
       <c r="I53" s="5">
-        <v>10.566556216442734</v>
+        <v>-1.1120528992944909</v>
       </c>
       <c r="J53" s="5">
-        <v>11.52043698686307</v>
+        <v>-1.3717153028414359</v>
       </c>
       <c r="K53" s="5">
-        <v>-7.9677991512413948</v>
+        <v>0.60965958617162908</v>
       </c>
       <c r="L53" s="5">
-        <v>-13.664700318966016</v>
+        <v>10.396833037677734</v>
       </c>
       <c r="M53" s="5">
-        <v>-5.0859468946096156</v>
+        <v>1.4246806155441272</v>
       </c>
       <c r="N53" s="5">
-        <v>-32.733536395660522</v>
+        <v>-21.546070892573898</v>
       </c>
       <c r="O53" s="5">
-        <v>67.437975863303819</v>
+        <v>106.68882419954522</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="S53" s="5">
-        <v>3.5895411339548722</v>
+        <v>31.969999313354492</v>
       </c>
       <c r="T53" s="5">
-        <v>2.2025210857391362</v>
+        <v>22.090000152587891</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="C54" s="5">
-        <v>467656032</v>
+        <v>466773856</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>1320687.875</v>
+        <v>5952160</v>
       </c>
       <c r="G54" s="5">
-        <v>8.0862531661987305</v>
+        <v>5.9076576232910156</v>
       </c>
       <c r="H54" s="5">
-        <v>3.3212063844163091</v>
+        <v>0.56181084109121504</v>
       </c>
       <c r="I54" s="5">
-        <v>1.9299761783631459</v>
+        <v>3.7619655375690009</v>
       </c>
       <c r="J54" s="5">
-        <v>-0.56917775552424199</v>
+        <v>1.2009413785532441</v>
       </c>
       <c r="K54" s="5">
-        <v>1.0231332667500761</v>
+        <v>-5.1496001265443407</v>
       </c>
       <c r="L54" s="5">
-        <v>0.68335771914447307</v>
+        <v>-2.672116303676797</v>
       </c>
       <c r="M54" s="5">
-        <v>2.2052239982345072</v>
+        <v>-8.410152701929885</v>
       </c>
       <c r="N54" s="5">
-        <v>-20.551191485251085</v>
+        <v>-26.819039274774791</v>
       </c>
       <c r="O54" s="5">
-        <v>127.01448065407645</v>
+        <v>8.5444906238431262</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q54" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="Q54" s="4"/>
       <c r="R54" s="4" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="S54" s="5">
-        <v>31.969999313354492</v>
+        <v>1016.4068908941755</v>
       </c>
       <c r="T54" s="5">
-        <v>22.260000228881836</v>
+        <v>674.77203369140625</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C55" s="5">
-        <v>461203360</v>
+        <v>456452256</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>6322429.5</v>
+        <v>1179471.25</v>
       </c>
       <c r="G55" s="5">
-        <v>5.9817562103271484</v>
+        <v>6.8583488464355469</v>
       </c>
       <c r="H55" s="5">
-        <v>-0.44517218190526203</v>
+        <v>-3.57100769629578</v>
       </c>
       <c r="I55" s="5">
-        <v>2.339467782931659</v>
+        <v>-0.54531536172614004</v>
       </c>
       <c r="J55" s="5">
-        <v>1.3880540868087541</v>
+        <v>10.576231020546945</v>
       </c>
       <c r="K55" s="5">
-        <v>-4.9441792130953575</v>
+        <v>-7.2954579159192567</v>
       </c>
       <c r="L55" s="5">
-        <v>-7.3516565473567663</v>
+        <v>-16.90694321249341</v>
       </c>
       <c r="M55" s="5">
-        <v>-8.921839680471443</v>
+        <v>-8.4753350358693798</v>
       </c>
       <c r="N55" s="5">
-        <v>-27.954847544646434</v>
+        <v>-35.223916426639981</v>
       </c>
       <c r="O55" s="5">
-        <v>17.898642938092735</v>
+        <v>38.230188420304124</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="4"/>
+      <c r="Q55" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="R55" s="4" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="S55" s="5">
-        <v>1016.4068908941755</v>
+        <v>3.5895411339548722</v>
       </c>
       <c r="T55" s="5">
-        <v>671.0023193359375</v>
+        <v>2.1145105361938481</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4548,41 +4550,41 @@
         <v>189</v>
       </c>
       <c r="C56" s="5">
-        <v>438253568</v>
+        <v>427685344</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>1489621.625</v>
+        <v>1454368.625</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5">
-        <v>-2.38953014046227</v>
+        <v>-0.11053285559121701</v>
       </c>
       <c r="I56" s="5">
-        <v>-8.0979140701853964</v>
+        <v>-6.3436125137511512</v>
       </c>
       <c r="J56" s="5">
-        <v>-15.728542893235954</v>
+        <v>-13.702608825053897</v>
       </c>
       <c r="K56" s="5">
-        <v>-0.75540445992489103</v>
+        <v>9.5925285941822008E-2</v>
       </c>
       <c r="L56" s="5">
-        <v>28.451722665661606</v>
+        <v>32.833110824715476</v>
       </c>
       <c r="M56" s="5">
-        <v>-3.815951241431248</v>
+        <v>-3.922266217147341</v>
       </c>
       <c r="N56" s="5">
-        <v>52.305164143064388</v>
+        <v>49.503959224579532</v>
       </c>
       <c r="O56" s="5">
-        <v>595.91073505125803</v>
+        <v>440.86923409422718</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
@@ -4591,13 +4593,13 @@
         <v>190</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S56" s="5">
         <v>10.579760227544591</v>
       </c>
       <c r="T56" s="5">
-        <v>8.2339057922363281</v>
+        <v>8.2248039245605469</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4608,7 +4610,7 @@
         <v>192</v>
       </c>
       <c r="C57" s="5">
-        <v>372104160</v>
+        <v>380618624</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>23</v>
@@ -4617,34 +4619,34 @@
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>5985362</v>
+        <v>5487004</v>
       </c>
       <c r="G57" s="5">
-        <v>9.1898422241210937</v>
+        <v>9.1732044219970703</v>
       </c>
       <c r="H57" s="5">
-        <v>2.2881931817417822</v>
+        <v>0.18137108607239003</v>
       </c>
       <c r="I57" s="5">
-        <v>3.43965698737918</v>
+        <v>1.4696862966285811</v>
       </c>
       <c r="J57" s="5">
-        <v>-4.2533956236049386</v>
+        <v>-5.5768187771383264</v>
       </c>
       <c r="K57" s="5">
-        <v>-6.632521276716008</v>
+        <v>-7.484879351629159</v>
       </c>
       <c r="L57" s="5">
-        <v>-11.131593580528998</v>
+        <v>-7.1931154484496158</v>
       </c>
       <c r="M57" s="5">
-        <v>-7.5008213403421014</v>
+        <v>-7.3330545753990446</v>
       </c>
       <c r="N57" s="5">
-        <v>-15.718905049542965</v>
+        <v>-16.484514581283484</v>
       </c>
       <c r="O57" s="5">
-        <v>85.154718109944042</v>
+        <v>92.954109873063828</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>25</v>
@@ -4659,7 +4661,7 @@
         <v>23.069999694824219</v>
       </c>
       <c r="T57" s="5">
-        <v>16.540000915527344</v>
+        <v>16.569999694824219</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4670,7 +4672,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="5">
-        <v>363168544</v>
+        <v>369487776</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>23</v>
@@ -4679,34 +4681,34 @@
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>1749935.125</v>
+        <v>1787628.875</v>
       </c>
       <c r="G58" s="5">
-        <v>6.0362176895141602</v>
+        <v>6.0544905662536621</v>
       </c>
       <c r="H58" s="5">
-        <v>1.7400114089507479</v>
+        <v>-0.30180819152544303</v>
       </c>
       <c r="I58" s="5">
-        <v>-4.1465796520845259</v>
+        <v>-3.6929068595690011</v>
       </c>
       <c r="J58" s="5">
-        <v>-20.405504969403431</v>
+        <v>-19.112312769821504</v>
       </c>
       <c r="K58" s="5">
-        <v>-14.532117680929868</v>
+        <v>-11.952223642321957</v>
       </c>
       <c r="L58" s="5">
-        <v>-25.010605009305642</v>
+        <v>-18.722796500932336</v>
       </c>
       <c r="M58" s="5">
-        <v>-10.110048911106285</v>
+        <v>-10.381344146850779</v>
       </c>
       <c r="N58" s="5">
-        <v>-33.537421481422726</v>
+        <v>-34.13793894622863</v>
       </c>
       <c r="O58" s="5">
-        <v>58.20961970686993</v>
+        <v>48.07104095213348</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
@@ -4721,7 +4723,7 @@
         <v>17.930000305175781</v>
       </c>
       <c r="T58" s="5">
-        <v>9.9399995803833008</v>
+        <v>9.9099998474121094</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4732,40 +4734,40 @@
         <v>196</v>
       </c>
       <c r="C59" s="5">
-        <v>324724256</v>
+        <v>332721760</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>7204482</v>
+        <v>7106119</v>
       </c>
       <c r="G59" s="5">
-        <v>0.78726971149444602</v>
+        <v>0.75684374570846602</v>
       </c>
       <c r="H59" s="5">
-        <v>2.485857171487615</v>
+        <v>3.905128404928448</v>
       </c>
       <c r="I59" s="5">
-        <v>-4.1652343530813489</v>
+        <v>3.6266617380525501</v>
       </c>
       <c r="J59" s="5">
-        <v>-12.020340330199609</v>
+        <v>-7.1879980415591067</v>
       </c>
       <c r="K59" s="5">
-        <v>-38.491844960193802</v>
+        <v>-31.471813896675794</v>
       </c>
       <c r="L59" s="5">
-        <v>32.193499967735903</v>
+        <v>33.985395260867456</v>
       </c>
       <c r="M59" s="5">
-        <v>-34.460560523175054</v>
+        <v>-31.901161255734678</v>
       </c>
       <c r="N59" s="5">
-        <v>-3.702671478936304</v>
+        <v>1.342360817198385</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="4" t="s">
@@ -4773,13 +4775,13 @@
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S59" s="5">
         <v>0.55299045370637101</v>
       </c>
       <c r="T59" s="5">
-        <v>0.31309819221496604</v>
+        <v>0.32532507181167603</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4790,7 +4792,7 @@
         <v>198</v>
       </c>
       <c r="C60" s="5">
-        <v>287067200</v>
+        <v>287204640</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>40</v>
@@ -4799,34 +4801,34 @@
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>1750888.125</v>
+        <v>1688101</v>
       </c>
       <c r="G60" s="5">
-        <v>5.7729830741882324</v>
+        <v>5.7675724029541016</v>
       </c>
       <c r="H60" s="5">
-        <v>0.68914585799195704</v>
+        <v>-0.59072018105839108</v>
       </c>
       <c r="I60" s="5">
-        <v>2.4006981550264821</v>
+        <v>3.515347152320536</v>
       </c>
       <c r="J60" s="5">
-        <v>-1.6005798575158821</v>
+        <v>-2.7194554496249408</v>
       </c>
       <c r="K60" s="5">
-        <v>-2.087906908510051</v>
+        <v>-3.5532281582505432</v>
       </c>
       <c r="L60" s="5">
-        <v>3.9811645295215752</v>
+        <v>7.4730124752412594</v>
       </c>
       <c r="M60" s="5">
-        <v>-5.6671863991475728</v>
+        <v>-6.2244293664479926</v>
       </c>
       <c r="N60" s="5">
-        <v>-19.64829709220577</v>
+        <v>-20.372691491728911</v>
       </c>
       <c r="O60" s="5">
-        <v>25.423937226776761</v>
+        <v>21.358403225663224</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>25</v>
@@ -4839,7 +4841,7 @@
         <v>1127.0154656136885</v>
       </c>
       <c r="T60" s="5">
-        <v>815.6082763671875</v>
+        <v>810.790283203125</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4850,54 +4852,58 @@
         <v>200</v>
       </c>
       <c r="C61" s="5">
-        <v>233045744</v>
+        <v>229802656</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1925350.875</v>
-      </c>
-      <c r="G61" s="5"/>
+        <v>2365008.75</v>
+      </c>
+      <c r="G61" s="5">
+        <v>6.6265058517456055</v>
+      </c>
       <c r="H61" s="5">
-        <v>-1.35614633516673</v>
+        <v>1.5290519520925421</v>
       </c>
       <c r="I61" s="5">
-        <v>-9.4505933462694323</v>
+        <v>1.034693080561855</v>
       </c>
       <c r="J61" s="5">
-        <v>-10.493127786366596</v>
+        <v>-7.8873969866903648</v>
       </c>
       <c r="K61" s="5">
-        <v>-31.363395536868065</v>
+        <v>-10.2417193958526</v>
       </c>
       <c r="L61" s="5">
-        <v>46.972390342166428</v>
+        <v>6.8770375966515251</v>
       </c>
       <c r="M61" s="5">
-        <v>-31.861472991097806</v>
+        <v>-11.653012571647835</v>
       </c>
       <c r="N61" s="5">
-        <v>124.20908057776705</v>
+        <v>-4.2060622003750048</v>
       </c>
       <c r="O61" s="5">
-        <v>24.701318382000647</v>
+        <v>58.683853930019382</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q61" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="R61" s="4" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="S61" s="5">
-        <v>0.45377137396633505</v>
+        <v>20.789899826049805</v>
       </c>
       <c r="T61" s="5">
-        <v>0.28582665324211104</v>
+        <v>16.600000381469727</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4908,7 +4914,7 @@
         <v>202</v>
       </c>
       <c r="C62" s="5">
-        <v>228875840</v>
+        <v>229496512</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>40</v>
@@ -4917,34 +4923,34 @@
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>1072682.375</v>
+        <v>1038925.4375</v>
       </c>
       <c r="G62" s="5">
-        <v>5.5781126022338867</v>
+        <v>5.5604743957519531</v>
       </c>
       <c r="H62" s="5">
-        <v>1.003492459694955</v>
+        <v>-0.36884805052402903</v>
       </c>
       <c r="I62" s="5">
-        <v>4.2810351136832958</v>
+        <v>4.8291934088511512</v>
       </c>
       <c r="J62" s="5">
-        <v>3.7412326353716718</v>
+        <v>3.8908777404492279</v>
       </c>
       <c r="K62" s="5">
-        <v>-0.50975912532051904</v>
+        <v>-1.4628374847467711</v>
       </c>
       <c r="L62" s="5">
-        <v>7.0479959304509787</v>
+        <v>8.3571644597047356</v>
       </c>
       <c r="M62" s="5">
-        <v>-3.4384382954358639</v>
+        <v>-3.7946037333387079</v>
       </c>
       <c r="N62" s="5">
-        <v>-4.6578957856696412</v>
+        <v>-4.3612182915583766</v>
       </c>
       <c r="O62" s="5">
-        <v>50.925702546880693</v>
+        <v>42.171507716050918</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>55</v>
@@ -4957,7 +4963,7 @@
         <v>1090.5527244217953</v>
       </c>
       <c r="T62" s="5">
-        <v>964.80487060546875</v>
+        <v>961.2462158203125</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4968,58 +4974,54 @@
         <v>204</v>
       </c>
       <c r="C63" s="5">
-        <v>223618352</v>
+        <v>226038304</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>2324226.5</v>
-      </c>
-      <c r="G63" s="5">
-        <v>6.7278285026550293</v>
-      </c>
+        <v>1906805</v>
+      </c>
+      <c r="G63" s="5"/>
       <c r="H63" s="5">
-        <v>2.7655596371937601</v>
+        <v>-1.760077803946436</v>
       </c>
       <c r="I63" s="5">
-        <v>3.4155594403590732</v>
+        <v>-5.9907259929047774</v>
       </c>
       <c r="J63" s="5">
-        <v>-10.400759179807363</v>
+        <v>-11.169725479201331</v>
       </c>
       <c r="K63" s="5">
-        <v>-11.024968534253599</v>
+        <v>-28.636263118741379</v>
       </c>
       <c r="L63" s="5">
-        <v>-2.4737139168991451</v>
+        <v>47.514366038930355</v>
       </c>
       <c r="M63" s="5">
-        <v>-12.983539460173876</v>
+        <v>-33.060764080917536</v>
       </c>
       <c r="N63" s="5">
-        <v>-6.9640919823863552</v>
+        <v>114.68724849696335</v>
       </c>
       <c r="O63" s="5">
-        <v>52.119652688204198</v>
+        <v>22.686902296976562</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Q63" s="4"/>
       <c r="R63" s="4" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="S63" s="5">
-        <v>20.789899826049805</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T63" s="5">
-        <v>16.350000381469727</v>
+        <v>0.28079587221145602</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5030,116 +5032,116 @@
         <v>206</v>
       </c>
       <c r="C64" s="5">
-        <v>216338944</v>
+        <v>222495920</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>1731910.125</v>
+        <v>4510643.5</v>
       </c>
       <c r="G64" s="5">
-        <v>5.7238421440124512</v>
+        <v>2.6119403839111328</v>
       </c>
       <c r="H64" s="5">
-        <v>-0.134528545714452</v>
+        <v>1.4798272686466161</v>
       </c>
       <c r="I64" s="5">
-        <v>5.678133905969629</v>
+        <v>13.129798076609989</v>
       </c>
       <c r="J64" s="5">
-        <v>4.0424638116934863</v>
+        <v>0.59117882450021608</v>
       </c>
       <c r="K64" s="5">
-        <v>3.5358980990458639</v>
+        <v>-19.243991363009716</v>
       </c>
       <c r="L64" s="5">
-        <v>8.7914718675282</v>
+        <v>51.650280947779947</v>
       </c>
       <c r="M64" s="5">
-        <v>-1.2004535267282621</v>
+        <v>-21.617994726204671</v>
       </c>
       <c r="N64" s="5">
-        <v>0.27693330107856401</v>
-      </c>
-      <c r="O64" s="5"/>
+        <v>53.534313113331031</v>
+      </c>
+      <c r="O64" s="5">
+        <v>147.30355287880178</v>
+      </c>
       <c r="P64" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q64" s="4"/>
+      <c r="Q64" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="R64" s="4" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="S64" s="5">
-        <v>960.01974333662383</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T64" s="5">
-        <v>892.119384765625</v>
+        <v>3.5099482536315918</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C65" s="5">
-        <v>213456400</v>
+        <v>217537856</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>4433485.5</v>
+        <v>1706274.375</v>
       </c>
       <c r="G65" s="5">
-        <v>2.653525590896606</v>
+        <v>5.6896843910217294</v>
       </c>
       <c r="H65" s="5">
-        <v>4.2582223348589521</v>
+        <v>-8.764988269531801E-2</v>
       </c>
       <c r="I65" s="5">
-        <v>6.6404723974793134</v>
+        <v>3.6455293714849013</v>
       </c>
       <c r="J65" s="5">
-        <v>2.049769262367596</v>
+        <v>4.0122739518776429</v>
       </c>
       <c r="K65" s="5">
-        <v>-19.778989085495834</v>
+        <v>2.095346007167787</v>
       </c>
       <c r="L65" s="5">
-        <v>48.070523581695525</v>
+        <v>11.506578127751798</v>
       </c>
       <c r="M65" s="5">
-        <v>-22.760998531959096</v>
+        <v>-1.2870512133155931</v>
       </c>
       <c r="N65" s="5">
-        <v>50.205671185814097</v>
-      </c>
-      <c r="O65" s="5">
-        <v>138.95919254961666</v>
-      </c>
+        <v>0.72898401831933402</v>
+      </c>
+      <c r="O65" s="5"/>
       <c r="P65" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q65" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="Q65" s="4"/>
       <c r="R65" s="4" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="S65" s="5">
-        <v>4.6771184674018205</v>
+        <v>960.01974333662383</v>
       </c>
       <c r="T65" s="5">
-        <v>3.458764791488647</v>
+        <v>891.33740234375</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5150,41 +5152,41 @@
         <v>211</v>
       </c>
       <c r="C66" s="5">
-        <v>176318336</v>
+        <v>193660688</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="5">
-        <v>6417116</v>
+        <v>6695074</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5">
-        <v>9.8604695619634484</v>
+        <v>5.1666413180933013</v>
       </c>
       <c r="I66" s="5">
-        <v>8.7126234334799157</v>
+        <v>18.779796465330634</v>
       </c>
       <c r="J66" s="5">
-        <v>-8.8764552117208915</v>
+        <v>-3.143254652572391</v>
       </c>
       <c r="K66" s="5">
-        <v>-28.863593019786148</v>
+        <v>-31.8210348654139</v>
       </c>
       <c r="L66" s="5">
-        <v>74.040705148872917</v>
+        <v>85.124333520608104</v>
       </c>
       <c r="M66" s="5">
-        <v>-35.30276150324093</v>
+        <v>-31.960087247402001</v>
       </c>
       <c r="N66" s="5">
-        <v>121.55494577298809</v>
+        <v>130.63198507515074</v>
       </c>
       <c r="O66" s="5">
-        <v>109.15099389022859</v>
+        <v>122.79461692482596</v>
       </c>
       <c r="P66" s="4" t="s">
         <v>212</v>
@@ -5197,7 +5199,7 @@
         <v>0.22635182608908702</v>
       </c>
       <c r="T66" s="5">
-        <v>0.13897994160652202</v>
+        <v>0.146160528063774</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5208,41 +5210,41 @@
         <v>214</v>
       </c>
       <c r="C67" s="5">
-        <v>137356752</v>
+        <v>141063440</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="5">
-        <v>2234761</v>
+        <v>2331760.5</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5">
-        <v>2.721630304370648</v>
+        <v>0.88339124745684405</v>
       </c>
       <c r="I67" s="5">
-        <v>13.52505508551336</v>
+        <v>6.4379881751500223</v>
       </c>
       <c r="J67" s="5">
-        <v>24.409426340740392</v>
+        <v>23.598495995717528</v>
       </c>
       <c r="K67" s="5">
-        <v>5.5981060285814177</v>
+        <v>13.996417786170579</v>
       </c>
       <c r="L67" s="5">
-        <v>74.821707951211962</v>
+        <v>70.265334569704848</v>
       </c>
       <c r="M67" s="5">
-        <v>8.9891836243388923</v>
+        <v>9.9519845331509806</v>
       </c>
       <c r="N67" s="5">
-        <v>225.59171046091313</v>
+        <v>232.08221704684635</v>
       </c>
       <c r="O67" s="5">
-        <v>123.43390905064133</v>
+        <v>143.87111014275976</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>212</v>
@@ -5252,10 +5254,10 @@
         <v>212</v>
       </c>
       <c r="S67" s="5">
-        <v>0.21302626225358301</v>
+        <v>0.21426401897404201</v>
       </c>
       <c r="T67" s="5">
-        <v>0.21082994341850303</v>
+        <v>0.21269239485263802</v>
       </c>
     </row>
     <row r="68" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5266,44 +5268,44 @@
         <v>216</v>
       </c>
       <c r="C68" s="5">
-        <v>121568120</v>
+        <v>116403344</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F68" s="5">
-        <v>2711644.5</v>
+        <v>2778870.25</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5">
-        <v>-4.2269693019653882</v>
+        <v>-2.5380869524012528</v>
       </c>
       <c r="I68" s="5">
-        <v>13.012985880570715</v>
+        <v>11.883543110348139</v>
       </c>
       <c r="J68" s="5">
-        <v>59.548978214114626</v>
+        <v>53.390477598042182</v>
       </c>
       <c r="K68" s="5">
-        <v>82.522048588304031</v>
+        <v>77.868927088292892</v>
       </c>
       <c r="L68" s="5">
-        <v>216.21358264815044</v>
+        <v>194.81363393148436</v>
       </c>
       <c r="M68" s="5">
-        <v>81.973507828448348</v>
+        <v>77.354861969427617</v>
       </c>
       <c r="N68" s="5">
-        <v>652.47260577028578</v>
+        <v>633.72042638617893</v>
       </c>
       <c r="O68" s="5">
-        <v>932.26472050188909</v>
+        <v>761.38027826008317</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4" t="s">
@@ -5313,7 +5315,67 @@
         <v>3.136226523511763</v>
       </c>
       <c r="T68" s="5">
-        <v>2.9133341312408452</v>
+        <v>2.8393909931182861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="2" customFormat="1" ht="12.75">
+      <c r="A69" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="5">
+        <v>100312072</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1028511.1875</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5">
+        <v>-1.684975451888882</v>
+      </c>
+      <c r="I69" s="5">
+        <v>-0.20066302275558701</v>
+      </c>
+      <c r="J69" s="5">
+        <v>-5.1124571793070173</v>
+      </c>
+      <c r="K69" s="5">
+        <v>-36.626578332150359</v>
+      </c>
+      <c r="L69" s="5">
+        <v>10.883520438437388</v>
+      </c>
+      <c r="M69" s="5">
+        <v>-36.525079148336999</v>
+      </c>
+      <c r="N69" s="5">
+        <v>-19.279796879700317</v>
+      </c>
+      <c r="O69" s="5">
+        <v>-24.561324305398259</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S69" s="5">
+        <v>0.50722271559797205</v>
+      </c>
+      <c r="T69" s="5">
+        <v>0.29441654682159402</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\28.03.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\29.03.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="213">
   <si>
     <t>USD</t>
   </si>
@@ -219,6 +219,12 @@
     <t>ESSENTIAL PROPER</t>
   </si>
   <si>
+    <t>CHC AU Equity</t>
+  </si>
+  <si>
+    <t>CHARTER HALL GRO</t>
+  </si>
+  <si>
     <t>ICAD FP Equity</t>
   </si>
   <si>
@@ -228,12 +234,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>CHC AU Equity</t>
-  </si>
-  <si>
-    <t>CHARTER HALL GRO</t>
-  </si>
-  <si>
     <t>8960 JP Equity</t>
   </si>
   <si>
@@ -324,15 +324,15 @@
     <t>HULIC REIT INC</t>
   </si>
   <si>
+    <t>ABP AU Equity</t>
+  </si>
+  <si>
+    <t>ABACUS PROPERTY</t>
+  </si>
+  <si>
     <t>GOZ AU Equity</t>
   </si>
   <si>
-    <t>ABP AU Equity</t>
-  </si>
-  <si>
-    <t>ABACUS PROPERTY</t>
-  </si>
-  <si>
     <t>RDF SJ Equity</t>
   </si>
   <si>
@@ -435,19 +435,40 @@
     <t>ILs</t>
   </si>
   <si>
+    <t>CNI AU Equity</t>
+  </si>
+  <si>
+    <t>CENTURIA CAPITAL</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
     <t>UKCM LN Equity</t>
   </si>
   <si>
     <t>UK COMMERCIAL PR</t>
   </si>
   <si>
-    <t>CNI AU Equity</t>
-  </si>
-  <si>
-    <t>CENTURIA CAPITAL</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
+    <t>3468 JP Equity</t>
+  </si>
+  <si>
+    <t>STAR ASIA INVEST</t>
+  </si>
+  <si>
+    <t>DGGYO TI Equity</t>
+  </si>
+  <si>
+    <t>DOGUS GAYRIMENKU</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
+    <t>TRY</t>
   </si>
   <si>
     <t>TRGYO TI Equity</t>
@@ -456,21 +477,9 @@
     <t>TORUNLAR GAYRIME</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>Discontinued</t>
   </si>
   <si>
-    <t>TRY</t>
-  </si>
-  <si>
-    <t>3468 JP Equity</t>
-  </si>
-  <si>
-    <t>STAR ASIA INVEST</t>
-  </si>
-  <si>
     <t>01003T TT Equity</t>
   </si>
   <si>
@@ -486,15 +495,6 @@
     <t>TWD</t>
   </si>
   <si>
-    <t>DGGYO TI Equity</t>
-  </si>
-  <si>
-    <t>DOGUS GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>Omitted</t>
-  </si>
-  <si>
     <t>8977 JP Equity</t>
   </si>
   <si>
@@ -522,27 +522,12 @@
     <t>STAR US Equity</t>
   </si>
   <si>
-    <t>SAFEHOLD INC</t>
+    <t>ISTAR INC</t>
   </si>
   <si>
     <t>09/15/2022</t>
   </si>
   <si>
-    <t>ARG NZ Equity</t>
-  </si>
-  <si>
-    <t>ARGOSY PROPERTY</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>03/29/2023</t>
-  </si>
-  <si>
-    <t>NZD</t>
-  </si>
-  <si>
     <t>ISGYO TI Equity</t>
   </si>
   <si>
@@ -612,6 +597,15 @@
     <t>PASIFIK GAYRIMEN</t>
   </si>
   <si>
+    <t>MNRT IT Equity</t>
+  </si>
+  <si>
+    <t>MENIVIM</t>
+  </si>
+  <si>
+    <t>04/03/2023</t>
+  </si>
+  <si>
     <t>2971 JP Equity</t>
   </si>
   <si>
@@ -624,10 +618,13 @@
     <t>ALPINE INCOME</t>
   </si>
   <si>
-    <t>3470 JP Equity</t>
-  </si>
-  <si>
-    <t>MARIMO REGIONAL</t>
+    <t>ALGYO TI Equity</t>
+  </si>
+  <si>
+    <t>ALARKO GAYRIMENK</t>
+  </si>
+  <si>
+    <t>04/27/2023</t>
   </si>
   <si>
     <t>AKSGY TI Equity</t>
@@ -636,15 +633,6 @@
     <t>AKIS GAYRIMENKUL</t>
   </si>
   <si>
-    <t>ALGYO TI Equity</t>
-  </si>
-  <si>
-    <t>ALARKO GAYRIMENK</t>
-  </si>
-  <si>
-    <t>04/27/2023</t>
-  </si>
-  <si>
     <t>2989 JP Equity</t>
   </si>
   <si>
@@ -670,15 +658,6 @@
   </si>
   <si>
     <t>YAPI KREDI KORAY</t>
-  </si>
-  <si>
-    <t>NUGYO TI Equity</t>
-  </si>
-  <si>
-    <t>NUROL GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>05/22/2009</t>
   </si>
 </sst>
 </file>
@@ -700,34 +679,41 @@
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1146,13 +1132,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A71" sqref="A71:XFD71"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1248,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>16272653312</v>
+        <v>16281078784</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1257,34 +1243,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>74262848</v>
+        <v>78081512</v>
       </c>
       <c r="G2" s="5">
-        <v>5.5213451385498047</v>
+        <v>5.5464591979980469</v>
       </c>
       <c r="H2" s="5">
-        <v>5.1774416802131004E-2</v>
+        <v>-0.45278924928536801</v>
       </c>
       <c r="I2" s="5">
-        <v>-2.0278814235463631</v>
+        <v>-1.054390806505612</v>
       </c>
       <c r="J2" s="5">
-        <v>-5.3971314185865324</v>
+        <v>-5.187292414863065</v>
       </c>
       <c r="K2" s="5">
-        <v>-1.6704406099851801</v>
+        <v>-0.7454432016564041</v>
       </c>
       <c r="L2" s="5">
-        <v>10.023200520803632</v>
+        <v>8.5046609930628403</v>
       </c>
       <c r="M2" s="5">
-        <v>-1.0876499776389941</v>
+        <v>-1.535514464755761</v>
       </c>
       <c r="N2" s="5">
-        <v>8.192760420926401E-2</v>
+        <v>-0.7243507384802621</v>
       </c>
       <c r="O2" s="5">
-        <v>52.334410628908714</v>
+        <v>51.644656794618804</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1299,7 +1285,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>77.300003051757812</v>
+        <v>76.949996948242187</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1310,7 +1296,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6229405184</v>
+        <v>6264989184</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1319,34 +1305,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>30055860</v>
+        <v>28809168</v>
       </c>
       <c r="G3" s="5">
-        <v>6.7090215682983398</v>
+        <v>6.7605633735656738</v>
       </c>
       <c r="H3" s="5">
-        <v>1.527883464555591</v>
+        <v>1.25181657011848</v>
       </c>
       <c r="I3" s="5">
-        <v>1.243465611043981</v>
+        <v>2.6135166194179993</v>
       </c>
       <c r="J3" s="5">
-        <v>2.5688746434274319</v>
+        <v>1.433221805280205</v>
       </c>
       <c r="K3" s="5">
-        <v>6.1423140155026026</v>
+        <v>7.3916945549547863</v>
       </c>
       <c r="L3" s="5">
-        <v>30.855889113365098</v>
+        <v>31.053858940621538</v>
       </c>
       <c r="M3" s="5">
-        <v>4.9333869013249654</v>
+        <v>6.2469604261422784</v>
       </c>
       <c r="N3" s="5">
-        <v>-11.686287574117117</v>
+        <v>-10.53127863241844</v>
       </c>
       <c r="O3" s="5">
-        <v>138.02676324104181</v>
+        <v>141.00642170460981</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1361,7 +1347,7 @@
         <v>3.3020850141715812</v>
       </c>
       <c r="T3" s="5">
-        <v>2.597413063049316</v>
+        <v>2.6299281120300293</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1372,7 +1358,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5503946240</v>
+        <v>5547681792</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
@@ -1381,34 +1367,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>27757404</v>
+        <v>27015948</v>
       </c>
       <c r="G4" s="5">
         <v>4.9164676666259775</v>
       </c>
       <c r="H4" s="5">
-        <v>-3.0093842557621004E-2</v>
+        <v>1.4767435203410839</v>
       </c>
       <c r="I4" s="5">
-        <v>-2.0245141430792368</v>
+        <v>0.30349269050824501</v>
       </c>
       <c r="J4" s="5">
-        <v>-6.2977012103682011</v>
+        <v>-8.0781448168012364</v>
       </c>
       <c r="K4" s="5">
-        <v>-3.5968763954099199</v>
+        <v>-2.5061361128715149</v>
       </c>
       <c r="L4" s="5">
-        <v>15.619376881024017</v>
+        <v>16.601053679193669</v>
       </c>
       <c r="M4" s="5">
-        <v>-4.4104969128967895</v>
+        <v>-2.998885119931749</v>
       </c>
       <c r="N4" s="5">
-        <v>-23.01985573056653</v>
+        <v>-20.067774813832862</v>
       </c>
       <c r="O4" s="5">
-        <v>29.17021462648006</v>
+        <v>31.077727401187282</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1423,7 +1409,7 @@
         <v>1.9528599562626601</v>
       </c>
       <c r="T4" s="5">
-        <v>1.3883869647979741</v>
+        <v>1.4088898897171021</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1434,7 +1420,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5">
-        <v>5420655104</v>
+        <v>5450535936</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1443,34 +1429,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>23128968</v>
+        <v>21648258</v>
       </c>
       <c r="G5" s="5">
         <v>5.8892817497253418</v>
       </c>
       <c r="H5" s="5">
-        <v>1.1628576223567719</v>
+        <v>1.231719103072537</v>
       </c>
       <c r="I5" s="5">
-        <v>-2.2397876929855731</v>
+        <v>-0.39075006284627906</v>
       </c>
       <c r="J5" s="5">
-        <v>-9.0851811017780388</v>
+        <v>-10.341105700222853</v>
       </c>
       <c r="K5" s="5">
-        <v>-0.85801085240074804</v>
+        <v>0.25262727364396803</v>
       </c>
       <c r="L5" s="5">
-        <v>20.653498289999007</v>
+        <v>20.112176501073332</v>
       </c>
       <c r="M5" s="5">
-        <v>-1.6532245706394111</v>
+        <v>-0.44186855042013301</v>
       </c>
       <c r="N5" s="5">
-        <v>-20.597584222749777</v>
+        <v>-19.864411561316764</v>
       </c>
       <c r="O5" s="5">
-        <v>62.212722788085138</v>
+        <v>64.210727882280054</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>37</v>
@@ -1485,7 +1471,7 @@
         <v>4.000457090394316</v>
       </c>
       <c r="T5" s="5">
-        <v>2.8166320323944092</v>
+        <v>2.8513250350952148</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1496,7 +1482,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5">
-        <v>5300813824</v>
+        <v>5334912000</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
@@ -1505,34 +1491,34 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>13066899</v>
+        <v>12680507</v>
       </c>
       <c r="G6" s="5">
-        <v>4.6285715103149414</v>
+        <v>4.5818181037902832</v>
       </c>
       <c r="H6" s="5">
-        <v>-1.154579743586037</v>
+        <v>1.5140926627997819</v>
       </c>
       <c r="I6" s="5">
-        <v>0.63895246008365303</v>
+        <v>2.8146765441592558</v>
       </c>
       <c r="J6" s="5">
-        <v>0.93958562327585105</v>
+        <v>1.9864757830705182</v>
       </c>
       <c r="K6" s="5">
-        <v>-6.4528803108202304</v>
+        <v>-5.4740637415739872</v>
       </c>
       <c r="L6" s="5">
-        <v>2.684629915775028</v>
+        <v>6.3168384894073171</v>
       </c>
       <c r="M6" s="5">
-        <v>-8.2471461133946544</v>
+        <v>-6.8579228847881595</v>
       </c>
       <c r="N6" s="5">
-        <v>-11.021997384086212</v>
+        <v>-10.230787731565261</v>
       </c>
       <c r="O6" s="5">
-        <v>5.0230239608073601</v>
+        <v>6.6131698608483891</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>41</v>
@@ -1542,10 +1528,10 @@
         <v>42</v>
       </c>
       <c r="S6" s="5">
-        <v>1366.6940114848237</v>
+        <v>1362.9327902240325</v>
       </c>
       <c r="T6" s="5">
-        <v>1117.021240234375</v>
+        <v>1133.93408203125</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1556,7 +1542,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5256976384</v>
+        <v>5280458752</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1565,34 +1551,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>14489113</v>
+        <v>14667555</v>
       </c>
       <c r="G7" s="5">
-        <v>6.8773880004882812</v>
+        <v>6.8607068061828613</v>
       </c>
       <c r="H7" s="5">
-        <v>0.79165784181483001</v>
+        <v>0.74097879902248509</v>
       </c>
       <c r="I7" s="5">
-        <v>-5.8922572706648353</v>
+        <v>-4.8142671757730904</v>
       </c>
       <c r="J7" s="5">
-        <v>-14.778313021839329</v>
+        <v>-14.387986667490271</v>
       </c>
       <c r="K7" s="5">
-        <v>-3.5112993717840051</v>
+        <v>-3.8163938479601871</v>
       </c>
       <c r="L7" s="5">
-        <v>40.28689008676298</v>
+        <v>29.898749952854153</v>
       </c>
       <c r="M7" s="5">
-        <v>-4.6746889268602709</v>
+        <v>-3.9683485817060831</v>
       </c>
       <c r="N7" s="5">
-        <v>-27.537856891063051</v>
+        <v>-27.41526641906291</v>
       </c>
       <c r="O7" s="5">
-        <v>12.811770440442704</v>
+        <v>13.647681742208295</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>30</v>
@@ -1607,7 +1593,7 @@
         <v>10.679378389371825</v>
       </c>
       <c r="T7" s="5">
-        <v>7.0725507736206046</v>
+        <v>7.1249570846557617</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1618,7 +1604,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5144220672</v>
+        <v>5242113024</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1627,34 +1613,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>10203960</v>
+        <v>10503269</v>
       </c>
       <c r="G8" s="5">
-        <v>2.4923815727233891</v>
+        <v>2.4893872737884521</v>
       </c>
       <c r="H8" s="5">
-        <v>1.8536963070847849</v>
+        <v>0.83918487883087911</v>
       </c>
       <c r="I8" s="5">
-        <v>8.7002889944433051</v>
+        <v>8.7517795374721494</v>
       </c>
       <c r="J8" s="5">
-        <v>-5.3251737737068039</v>
+        <v>-2.998434336242894</v>
       </c>
       <c r="K8" s="5">
-        <v>15.604801892390508</v>
+        <v>18.094372817071445</v>
       </c>
       <c r="L8" s="5">
-        <v>40.894748478360519</v>
+        <v>42.142624102212253</v>
       </c>
       <c r="M8" s="5">
-        <v>20.469994117645186</v>
+        <v>21.48096009180891</v>
       </c>
       <c r="N8" s="5">
-        <v>32.319725875425242</v>
+        <v>33.386397352767403</v>
       </c>
       <c r="O8" s="5">
-        <v>107.95119551541057</v>
+        <v>109.69629050352397</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1669,7 +1655,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.3582990169525151</v>
+        <v>1.369697690010071</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1680,7 +1666,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4788681216</v>
+        <v>4788480000</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>40</v>
@@ -1689,34 +1675,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>10040685</v>
+        <v>9883520</v>
       </c>
       <c r="G9" s="5">
-        <v>4.1496849060058594</v>
+        <v>4.1343669891357422</v>
       </c>
       <c r="H9" s="5">
-        <v>2.0219503207053003E-2</v>
+        <v>0.86101604524462205</v>
       </c>
       <c r="I9" s="5">
-        <v>1.1849795152800711</v>
+        <v>2.7074757433465551</v>
       </c>
       <c r="J9" s="5">
-        <v>0.46517006484923001</v>
+        <v>-5.9564463927675004E-2</v>
       </c>
       <c r="K9" s="5">
-        <v>-4.483188693020967</v>
+        <v>-5.1417258867904607</v>
       </c>
       <c r="L9" s="5">
-        <v>-0.49390834666560601</v>
+        <v>1.6156116828999201</v>
       </c>
       <c r="M9" s="5">
-        <v>-6.5772297178609218</v>
+        <v>-5.7728446758196661</v>
       </c>
       <c r="N9" s="5">
-        <v>-18.934301735454461</v>
+        <v>-18.384382281312163</v>
       </c>
       <c r="O9" s="5">
-        <v>-1.7832204351748151</v>
+        <v>-0.93755820399911105</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1729,7 +1715,7 @@
         <v>2802.4439918533603</v>
       </c>
       <c r="T9" s="5">
-        <v>2050.911865234375</v>
+        <v>2068.570556640625</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1740,7 +1726,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4176335872</v>
+        <v>4158510848</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>45</v>
@@ -1749,34 +1735,34 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>15077216</v>
+        <v>15204512</v>
       </c>
       <c r="G10" s="5">
-        <v>6.3405303955078134</v>
+        <v>6.3806381225585937</v>
       </c>
       <c r="H10" s="5">
-        <v>0.38669078302160403</v>
+        <v>-0.13507838209123602</v>
       </c>
       <c r="I10" s="5">
-        <v>-8.3673374194116796</v>
+        <v>-7.7961262624716143</v>
       </c>
       <c r="J10" s="5">
-        <v>-16.491885345507086</v>
+        <v>-16.961697971374466</v>
       </c>
       <c r="K10" s="5">
-        <v>-5.0767133458683444</v>
+        <v>-5.8947446666788856</v>
       </c>
       <c r="L10" s="5">
-        <v>29.487079006118933</v>
+        <v>20.207682044572817</v>
       </c>
       <c r="M10" s="5">
-        <v>-5.9743747636394673</v>
+        <v>-6.1013830569599197</v>
       </c>
       <c r="N10" s="5">
-        <v>-31.983947683829928</v>
+        <v>-32.300866436967347</v>
       </c>
       <c r="O10" s="5">
-        <v>17.21983341562121</v>
+        <v>17.061494761153352</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1791,7 +1777,7 @@
         <v>7.1818816476984253</v>
       </c>
       <c r="T10" s="5">
-        <v>4.494349479675293</v>
+        <v>4.4882783889770508</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1802,7 +1788,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>3929821440</v>
+        <v>3880302080</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1811,34 +1797,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9115047</v>
+        <v>9245712</v>
       </c>
       <c r="G11" s="5">
-        <v>2.0943760871887211</v>
+        <v>2.1273801326751709</v>
       </c>
       <c r="H11" s="5">
-        <v>0.92184082940434109</v>
+        <v>-1.086109442186256</v>
       </c>
       <c r="I11" s="5">
-        <v>-5.414241918859009</v>
+        <v>-6.0026844352424904</v>
       </c>
       <c r="J11" s="5">
-        <v>-12.515181347659365</v>
+        <v>-13.409950757267231</v>
       </c>
       <c r="K11" s="5">
-        <v>-10.634982695511997</v>
+        <v>-11.731806093813969</v>
       </c>
       <c r="L11" s="5">
-        <v>19.064856845937285</v>
+        <v>11.044829655733723</v>
       </c>
       <c r="M11" s="5">
-        <v>-11.193470380890524</v>
+        <v>-12.158006484361605</v>
       </c>
       <c r="N11" s="5">
-        <v>-19.464429963654407</v>
+        <v>-20.917792781717026</v>
       </c>
       <c r="O11" s="5">
-        <v>29.779235209980225</v>
+        <v>28.369690682367519</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1853,7 +1839,7 @@
         <v>12.193224623203276</v>
       </c>
       <c r="T11" s="5">
-        <v>8.3468389511108398</v>
+        <v>8.2561826705932617</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1864,7 +1850,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3647180800</v>
+        <v>3661019136</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1873,34 +1859,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>24677300</v>
+        <v>24396550</v>
       </c>
       <c r="G12" s="5">
-        <v>4.6199078559875488</v>
+        <v>4.5909852981567383</v>
       </c>
       <c r="H12" s="5">
-        <v>0.379427298453683</v>
+        <v>0.62998581224174</v>
       </c>
       <c r="I12" s="5">
-        <v>-3.875659968025535</v>
+        <v>-1.3585912664323301</v>
       </c>
       <c r="J12" s="5">
-        <v>-8.3525793476867616</v>
+        <v>-6.9875820202479622</v>
       </c>
       <c r="K12" s="5">
-        <v>2.9945172379908902</v>
+        <v>5.1721643566969178</v>
       </c>
       <c r="L12" s="5">
-        <v>21.97452148392842</v>
+        <v>20.694218938360432</v>
       </c>
       <c r="M12" s="5">
-        <v>1.4486585536218182</v>
+        <v>2.087770709219217</v>
       </c>
       <c r="N12" s="5">
-        <v>0.39824574666753604</v>
+        <v>0.10569241681812601</v>
       </c>
       <c r="O12" s="5">
-        <v>88.196374467954229</v>
+        <v>89.381984926255683</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1915,7 +1901,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>23.809999465942383</v>
+        <v>23.959999084472656</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1926,118 +1912,118 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3522164224</v>
+        <v>3537221888</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8507988</v>
+        <v>18620244</v>
       </c>
       <c r="G13" s="5">
-        <v>10.3687744140625</v>
+        <v>3.7082583904266362</v>
       </c>
       <c r="H13" s="5">
-        <v>-1.9837861434361392</v>
+        <v>3.7808328699632021</v>
       </c>
       <c r="I13" s="5">
-        <v>-5.5005087619458992</v>
+        <v>-1.338718510910353</v>
       </c>
       <c r="J13" s="5">
-        <v>-8.0183085776734266</v>
+        <v>-16.612593590863291</v>
       </c>
       <c r="K13" s="5">
-        <v>11.172097056781659</v>
+        <v>-6.9392539408565934</v>
       </c>
       <c r="L13" s="5">
-        <v>36.210870970396925</v>
+        <v>1.7667674790739381</v>
       </c>
       <c r="M13" s="5">
-        <v>9.3168572474299651</v>
+        <v>-8.2653407230208309</v>
       </c>
       <c r="N13" s="5">
-        <v>-20.255745464388131</v>
+        <v>-34.194173688327176</v>
       </c>
       <c r="O13" s="5">
-        <v>-29.918132285383081</v>
+        <v>108.26782255272036</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R13" s="4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="S13" s="5">
-        <v>68.2096266746521</v>
+        <v>12.790835624888677</v>
       </c>
       <c r="T13" s="5">
-        <v>45.063213348388672</v>
+        <v>7.493952751159668</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="5">
+        <v>3453201664</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="5">
-        <v>3431423488</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>18265470</v>
+        <v>8320577</v>
       </c>
       <c r="G14" s="5">
-        <v>3.802116870880127</v>
+        <v>10.638820648193359</v>
       </c>
       <c r="H14" s="5">
-        <v>0.52477579175542699</v>
+        <v>-2.0776877539700922</v>
       </c>
       <c r="I14" s="5">
-        <v>-4.0869908435684499</v>
+        <v>-7.5441418349797562</v>
       </c>
       <c r="J14" s="5">
-        <v>-18.591373126747413</v>
+        <v>-12.224394426912955</v>
       </c>
       <c r="K14" s="5">
-        <v>-10.613379719448957</v>
+        <v>7.978765918921904</v>
       </c>
       <c r="L14" s="5">
-        <v>0.67419914509205803</v>
+        <v>26.140391093817449</v>
       </c>
       <c r="M14" s="5">
-        <v>-11.607320214974404</v>
+        <v>7.0455942913751457</v>
       </c>
       <c r="N14" s="5">
-        <v>-37.765619293588252</v>
+        <v>-22.209738118991464</v>
       </c>
       <c r="O14" s="5">
-        <v>100.68043085921153</v>
+        <v>-31.374214668643198</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="S14" s="5">
-        <v>12.790835624888677</v>
+        <v>68.2096266746521</v>
       </c>
       <c r="T14" s="5">
-        <v>7.2209410667419434</v>
+        <v>44.126941680908203</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2048,7 +2034,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="5">
-        <v>3298592000</v>
+        <v>3338215424</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>40</v>
@@ -2057,34 +2043,34 @@
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7692533</v>
+        <v>7592726</v>
       </c>
       <c r="G15" s="5">
-        <v>4.5459771156311044</v>
+        <v>4.4752473831176758</v>
       </c>
       <c r="H15" s="5">
-        <v>-3.757850651841E-2</v>
+        <v>2.076881229460481</v>
       </c>
       <c r="I15" s="5">
-        <v>-0.12070911998864901</v>
+        <v>2.6042881215104563</v>
       </c>
       <c r="J15" s="5">
-        <v>-5.2338837702679992</v>
+        <v>-2.5022369513104441</v>
       </c>
       <c r="K15" s="5">
-        <v>-6.4286616888725945</v>
+        <v>-3.9279220591931669</v>
       </c>
       <c r="L15" s="5">
-        <v>4.4173837604161381</v>
+        <v>8.0940095425544136</v>
       </c>
       <c r="M15" s="5">
-        <v>-7.9841129350429636</v>
+        <v>-6.0730522484693132</v>
       </c>
       <c r="N15" s="5">
-        <v>-0.36233087888800602</v>
+        <v>-0.23768170968350202</v>
       </c>
       <c r="O15" s="5">
-        <v>22.25306313206794</v>
+        <v>24.792114052698345</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
@@ -2094,10 +2080,10 @@
         <v>42</v>
       </c>
       <c r="S15" s="5">
-        <v>1195.2420016406891</v>
+        <v>1187.971105527638</v>
       </c>
       <c r="T15" s="5">
-        <v>1057.750732421875</v>
+        <v>1079.718994140625</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2108,7 +2094,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="5">
-        <v>3129774336</v>
+        <v>3137531392</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -2117,31 +2103,31 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>17723892</v>
+        <v>17611402</v>
       </c>
       <c r="G16" s="5">
         <v>6.5632457733154297</v>
       </c>
       <c r="H16" s="5">
-        <v>-0.23808934520945801</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>-1.1209470531296171</v>
+        <v>-0.71089418158072304</v>
       </c>
       <c r="J16" s="5">
-        <v>-6.0011200190841834</v>
+        <v>-5.5774634992572629</v>
       </c>
       <c r="K16" s="5">
-        <v>1.6891942717491391</v>
+        <v>3.5425858794772003</v>
       </c>
       <c r="L16" s="5">
-        <v>12.189263516998716</v>
+        <v>7.52920823826293</v>
       </c>
       <c r="M16" s="5">
         <v>3.3929745556618762</v>
       </c>
       <c r="N16" s="5">
-        <v>-17.938826182087009</v>
+        <v>-18.428175753403398</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="4" t="s">
@@ -2168,7 +2154,7 @@
         <v>76</v>
       </c>
       <c r="C17" s="5">
-        <v>3084107008</v>
+        <v>3087824128</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>77</v>
@@ -2177,34 +2163,34 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>10512758</v>
+        <v>11212896</v>
       </c>
       <c r="G17" s="5">
         <v>5.6056337356567383</v>
       </c>
       <c r="H17" s="5">
-        <v>1.5020101293595002E-2</v>
+        <v>0.31638282647443705</v>
       </c>
       <c r="I17" s="5">
-        <v>0.48059161811593304</v>
+        <v>0.77589327719700407</v>
       </c>
       <c r="J17" s="5">
-        <v>1.12638284414377</v>
+        <v>1.4312587987467931</v>
       </c>
       <c r="K17" s="5">
-        <v>5.6385536944452586</v>
+        <v>5.3508731588488123</v>
       </c>
       <c r="L17" s="5">
-        <v>0.77846415831321902</v>
+        <v>3.5097821997657208</v>
       </c>
       <c r="M17" s="5">
-        <v>4.9332518343782716</v>
+        <v>5.2652426224434112</v>
       </c>
       <c r="N17" s="5">
-        <v>-12.283840323307826</v>
+        <v>-11.798915377066589</v>
       </c>
       <c r="O17" s="5">
-        <v>35.336465916754925</v>
+        <v>35.764647252872962</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>78</v>
@@ -2219,7 +2205,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T17" s="5">
-        <v>1.0663062334060669</v>
+        <v>1.069679856300354</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2230,7 +2216,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="5">
-        <v>2450464256</v>
+        <v>2465670144</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>82</v>
@@ -2239,34 +2225,34 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9325314</v>
+        <v>9392646</v>
       </c>
       <c r="G18" s="5">
-        <v>4.9140048027038574</v>
+        <v>4.9586777687072754</v>
       </c>
       <c r="H18" s="5">
-        <v>0.70641189905120705</v>
+        <v>-0.44928264772286003</v>
       </c>
       <c r="I18" s="5">
-        <v>-2.0276943282347299</v>
+        <v>-2.0898661823326452</v>
       </c>
       <c r="J18" s="5">
-        <v>-7.9405199589952851</v>
+        <v>-7.6226243651824728</v>
       </c>
       <c r="K18" s="5">
-        <v>-0.35521480509468401</v>
+        <v>2.0813634737809168</v>
       </c>
       <c r="L18" s="5">
-        <v>20.355128861063054</v>
+        <v>16.352206598537357</v>
       </c>
       <c r="M18" s="5">
-        <v>0.57879068607682405</v>
+        <v>0.12690763223479601</v>
       </c>
       <c r="N18" s="5">
-        <v>-11.076738037895218</v>
+        <v>-10.793839559293373</v>
       </c>
       <c r="O18" s="5">
-        <v>123.64124550401314</v>
+        <v>122.63646419481233</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>25</v>
@@ -2281,7 +2267,7 @@
         <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>8.9339284896850586</v>
+        <v>8.8937892913818359</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2292,7 +2278,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="5">
-        <v>2421096192</v>
+        <v>2438661632</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>86</v>
@@ -2301,34 +2287,34 @@
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>10475226</v>
+        <v>10647350</v>
       </c>
       <c r="G19" s="5">
-        <v>10.162665367126465</v>
+        <v>10.084550857543945</v>
       </c>
       <c r="H19" s="5">
-        <v>-0.83834439716913312</v>
+        <v>1.7305378968064391</v>
       </c>
       <c r="I19" s="5">
-        <v>2.4524336072543562</v>
+        <v>4.6319870985216172</v>
       </c>
       <c r="J19" s="5">
-        <v>-4.2805424444027018</v>
+        <v>-2.2933999076833689</v>
       </c>
       <c r="K19" s="5">
-        <v>-17.648555629523631</v>
+        <v>-16.851249332951724</v>
       </c>
       <c r="L19" s="5">
-        <v>11.460845587659851</v>
+        <v>13.703520212783715</v>
       </c>
       <c r="M19" s="5">
-        <v>-17.489194671771902</v>
+        <v>-16.061770802326425</v>
       </c>
       <c r="N19" s="5">
-        <v>-24.077188717781471</v>
+        <v>-21.97479034012234</v>
       </c>
       <c r="O19" s="5">
-        <v>45.41751035492392</v>
+        <v>47.933210262229743</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>30</v>
@@ -2343,7 +2329,7 @@
         <v>1.0297254546268939</v>
       </c>
       <c r="T19" s="5">
-        <v>0.70409482717514005</v>
+        <v>0.7162755727767941</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2354,7 +2340,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="5">
-        <v>2332143872</v>
+        <v>2340128768</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>40</v>
@@ -2363,34 +2349,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>5693686.5</v>
+        <v>5589826</v>
       </c>
       <c r="G20" s="5">
-        <v>4.8304595947265634</v>
+        <v>4.7960057258605957</v>
       </c>
       <c r="H20" s="5">
-        <v>-0.6838872661745431</v>
+        <v>1.2105993519827549</v>
       </c>
       <c r="I20" s="5">
-        <v>1.4808538533059861</v>
+        <v>3.364826048770198</v>
       </c>
       <c r="J20" s="5">
-        <v>-0.10783864827139701</v>
+        <v>0.82676462371096304</v>
       </c>
       <c r="K20" s="5">
-        <v>-5.4891904206885833</v>
+        <v>-4.2352077625172786</v>
       </c>
       <c r="L20" s="5">
-        <v>-4.1088268640223191</v>
+        <v>-1.6629053541849852</v>
       </c>
       <c r="M20" s="5">
-        <v>-7.1206930832270139</v>
+        <v>-5.9962967955664919</v>
       </c>
       <c r="N20" s="5">
-        <v>-13.85541033555362</v>
+        <v>-12.995425896151369</v>
       </c>
       <c r="O20" s="5">
-        <v>0.31722854840374703</v>
+        <v>1.5316682671377762</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2403,7 +2389,7 @@
         <v>674.54175152749485</v>
       </c>
       <c r="T20" s="5">
-        <v>528.8753662109375</v>
+        <v>535.2779541015625</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2414,7 +2400,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="5">
-        <v>2280598016</v>
+        <v>2296847616</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>40</v>
@@ -2423,34 +2409,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>6800619</v>
+        <v>6732227.5</v>
       </c>
       <c r="G21" s="5">
-        <v>5.068120002746582</v>
+        <v>5.0134773254394531</v>
       </c>
       <c r="H21" s="5">
-        <v>-0.41253176690180204</v>
+        <v>1.5839424499511261</v>
       </c>
       <c r="I21" s="5">
-        <v>1.124975174218767</v>
+        <v>3.3822929792084011</v>
       </c>
       <c r="J21" s="5">
-        <v>-3.1192633606143989</v>
+        <v>-1.977149673492562</v>
       </c>
       <c r="K21" s="5">
-        <v>-9.0913928699190016</v>
+        <v>-7.6252690910933776</v>
       </c>
       <c r="L21" s="5">
-        <v>-4.0412827599872534</v>
+        <v>-0.49544992874291904</v>
       </c>
       <c r="M21" s="5">
-        <v>-11.536408650302166</v>
+        <v>-10.135196274163006</v>
       </c>
       <c r="N21" s="5">
-        <v>-13.195324520648255</v>
+        <v>-12.377530605594455</v>
       </c>
       <c r="O21" s="5">
-        <v>3.2617479060820691</v>
+        <v>4.8973545657280182</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2463,7 +2449,7 @@
         <v>3531.5682281059062</v>
       </c>
       <c r="T21" s="5">
-        <v>2788.75390625</v>
+        <v>2832.926025390625</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2474,7 +2460,7 @@
         <v>94</v>
       </c>
       <c r="C22" s="5">
-        <v>2040976896</v>
+        <v>2057079296</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
@@ -2483,34 +2469,34 @@
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>5585572</v>
+        <v>5384102.5</v>
       </c>
       <c r="G22" s="5">
-        <v>6.6037740707397461</v>
+        <v>6.5804934501647949</v>
       </c>
       <c r="H22" s="5">
-        <v>0.20680710354992202</v>
+        <v>1.4710316528414811</v>
       </c>
       <c r="I22" s="5">
-        <v>-1.7835261457057721</v>
+        <v>-0.158555352595213</v>
       </c>
       <c r="J22" s="5">
-        <v>-7.8980522416262522</v>
+        <v>-8.1970860158317667</v>
       </c>
       <c r="K22" s="5">
-        <v>-6.26592235085025</v>
+        <v>-5.0005495677296841</v>
       </c>
       <c r="L22" s="5">
-        <v>14.786467294958761</v>
+        <v>14.267827232399345</v>
       </c>
       <c r="M22" s="5">
-        <v>-6.9791674031975841</v>
+        <v>-5.6108015119619381</v>
       </c>
       <c r="N22" s="5">
-        <v>-24.425772022971127</v>
+        <v>-22.942976029275542</v>
       </c>
       <c r="O22" s="5">
-        <v>31.129884696872125</v>
+        <v>33.058846807097652</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>25</v>
@@ -2525,7 +2511,7 @@
         <v>4.1295041516920517</v>
       </c>
       <c r="T22" s="5">
-        <v>2.809989213943481</v>
+        <v>2.8513250350952148</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2536,7 +2522,7 @@
         <v>97</v>
       </c>
       <c r="C23" s="5">
-        <v>2013760000</v>
+        <v>1990352000</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>45</v>
@@ -2545,34 +2531,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>7943697.5</v>
+        <v>8125987.5</v>
       </c>
       <c r="G23" s="5">
-        <v>6.5251574516296387</v>
+        <v>6.6153030395507813</v>
       </c>
       <c r="H23" s="5">
-        <v>0.33639243126135604</v>
+        <v>-0.87282703098547909</v>
       </c>
       <c r="I23" s="5">
-        <v>-3.8100275871567062</v>
+        <v>-3.9482495755458262</v>
       </c>
       <c r="J23" s="5">
-        <v>-14.310329513100296</v>
+        <v>-15.19650642754462</v>
       </c>
       <c r="K23" s="5">
-        <v>-13.133968422755126</v>
+        <v>-13.498546062608208</v>
       </c>
       <c r="L23" s="5">
-        <v>-2.493623977960346</v>
+        <v>-9.3237099678090463</v>
       </c>
       <c r="M23" s="5">
-        <v>-12.817777399939034</v>
+        <v>-13.578727405006298</v>
       </c>
       <c r="N23" s="5">
-        <v>-37.131186733034163</v>
+        <v>-37.095361866016532</v>
       </c>
       <c r="O23" s="5">
-        <v>4.5755893377090961</v>
+        <v>3.6628253261572041</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>30</v>
@@ -2587,7 +2573,7 @@
         <v>1.9808639392</v>
       </c>
       <c r="T23" s="5">
-        <v>1.17179811000824</v>
+        <v>1.1615704298019409</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2598,7 +2584,7 @@
         <v>100</v>
       </c>
       <c r="C24" s="5">
-        <v>1614438656</v>
+        <v>1621577088</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>40</v>
@@ -2607,34 +2593,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3256145</v>
+        <v>3141176.75</v>
       </c>
       <c r="G24" s="5">
-        <v>4.747612476348877</v>
+        <v>4.7090663909912109</v>
       </c>
       <c r="H24" s="5">
-        <v>-0.41216055554848002</v>
+        <v>1.311251930289048</v>
       </c>
       <c r="I24" s="5">
-        <v>1.4764140911758261</v>
+        <v>3.4630942938229659</v>
       </c>
       <c r="J24" s="5">
-        <v>-0.19602989023913603</v>
+        <v>0.50731442209688304</v>
       </c>
       <c r="K24" s="5">
-        <v>-7.5319149592380619</v>
+        <v>-6.3475839199099493</v>
       </c>
       <c r="L24" s="5">
-        <v>0.92989017138087604</v>
+        <v>3.7330532094625113</v>
       </c>
       <c r="M24" s="5">
-        <v>-8.9175930619237</v>
+        <v>-7.7232732427944377</v>
       </c>
       <c r="N24" s="5">
-        <v>-12.521602820110523</v>
+        <v>-11.195565003776553</v>
       </c>
       <c r="O24" s="5">
-        <v>12.602973234951452</v>
+        <v>14.079481895057633</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2644,10 +2630,10 @@
         <v>42</v>
       </c>
       <c r="S24" s="5">
-        <v>1395.4060705496308</v>
+        <v>1391.4460285132382</v>
       </c>
       <c r="T24" s="5">
-        <v>1113.9818115234375</v>
+        <v>1128.5888671875</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2655,10 +2641,10 @@
         <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C25" s="5">
-        <v>1538713216</v>
+        <v>1543623680</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2667,34 +2653,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1683675.625</v>
+        <v>2942682.75</v>
       </c>
       <c r="G25" s="5">
-        <v>6.9867548942565918</v>
+        <v>7.073643684387207</v>
       </c>
       <c r="H25" s="5">
-        <v>0.63860054205677808</v>
+        <v>1.782532521928037</v>
       </c>
       <c r="I25" s="5">
-        <v>-1.739841339837866</v>
+        <v>1.5684797648909401</v>
       </c>
       <c r="J25" s="5">
-        <v>-7.2223908038423161</v>
+        <v>-9.7334746242568322</v>
       </c>
       <c r="K25" s="5">
-        <v>-1.4754668929929491</v>
+        <v>-2.6511506567743259</v>
       </c>
       <c r="L25" s="5">
-        <v>6.3948267817571569</v>
+        <v>10.785440899051979</v>
       </c>
       <c r="M25" s="5">
-        <v>-1.6002964943774072</v>
+        <v>-3.4836247326698428</v>
       </c>
       <c r="N25" s="5">
-        <v>-35.968803651860327</v>
+        <v>-25.701383288879487</v>
       </c>
       <c r="O25" s="5">
-        <v>51.541933080586254</v>
+        <v>45.764160415096079</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2706,21 +2692,21 @@
         <v>32</v>
       </c>
       <c r="S25" s="5">
-        <v>3.362812957848845</v>
+        <v>2.5733491470937611</v>
       </c>
       <c r="T25" s="5">
-        <v>1.9995430707931521</v>
+        <v>1.730921864509583</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C26" s="5">
-        <v>1526853376</v>
+        <v>1538426752</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2729,34 +2715,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>2941689.25</v>
+        <v>1675764.875</v>
       </c>
       <c r="G26" s="5">
-        <v>7.1150097846984863</v>
+        <v>6.9983415603637704</v>
       </c>
       <c r="H26" s="5">
-        <v>1.1553189473539229</v>
+        <v>0.65799504088821503</v>
       </c>
       <c r="I26" s="5">
-        <v>8.5930363368014004E-2</v>
+        <v>0.11370388014038101</v>
       </c>
       <c r="J26" s="5">
-        <v>-10.45991031403638</v>
+        <v>-7.1372423191382257</v>
       </c>
       <c r="K26" s="5">
-        <v>-4.7299826319808229</v>
+        <v>0.11892945344493801</v>
       </c>
       <c r="L26" s="5">
-        <v>11.739024955917321</v>
+        <v>5.5987900470167107</v>
       </c>
       <c r="M26" s="5">
-        <v>-5.1739302649630332</v>
+        <v>-0.9528313250616981</v>
       </c>
       <c r="N26" s="5">
-        <v>-27.650785982300608</v>
+        <v>-34.470739219803804</v>
       </c>
       <c r="O26" s="5">
-        <v>43.211371149261439</v>
+        <v>52.539071485122648</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2768,10 +2754,10 @@
         <v>32</v>
       </c>
       <c r="S26" s="5">
-        <v>2.5733491470937611</v>
+        <v>3.362812957848845</v>
       </c>
       <c r="T26" s="5">
-        <v>1.700608015060425</v>
+        <v>2.0126998424530029</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2782,7 +2768,7 @@
         <v>105</v>
       </c>
       <c r="C27" s="5">
-        <v>1392752384</v>
+        <v>1397887488</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>86</v>
@@ -2791,34 +2777,34 @@
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3451147.25</v>
+        <v>3471409.5</v>
       </c>
       <c r="G27" s="5">
-        <v>11.935253143310547</v>
+        <v>11.771756172180176</v>
       </c>
       <c r="H27" s="5">
-        <v>-1.189627611667698</v>
+        <v>2.35066063507483</v>
       </c>
       <c r="I27" s="5">
-        <v>1.7928871880394051</v>
+        <v>4.5921128761147179</v>
       </c>
       <c r="J27" s="5">
-        <v>-4.8932031658438069</v>
+        <v>-3.5559643180500533</v>
       </c>
       <c r="K27" s="5">
-        <v>-19.626010916498672</v>
+        <v>-18.766778687452334</v>
       </c>
       <c r="L27" s="5">
-        <v>6.0236099155596579</v>
+        <v>8.2935333641813713</v>
       </c>
       <c r="M27" s="5">
-        <v>-20.911903391898967</v>
+        <v>-19.053251240639881</v>
       </c>
       <c r="N27" s="5">
-        <v>-29.024915066067681</v>
+        <v>-27.105222297163213</v>
       </c>
       <c r="O27" s="5">
-        <v>84.112307686620767</v>
+        <v>88.439137531201467</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>37</v>
@@ -2833,7 +2819,7 @@
         <v>0.32112818480585403</v>
       </c>
       <c r="T27" s="5">
-        <v>0.19633936882019001</v>
+        <v>0.20095355808734902</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2844,7 +2830,7 @@
         <v>108</v>
       </c>
       <c r="C28" s="5">
-        <v>1389200768</v>
+        <v>1389353984</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>40</v>
@@ -2853,34 +2839,34 @@
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3050599</v>
+        <v>2971531</v>
       </c>
       <c r="G28" s="5">
-        <v>4.7530865669250488</v>
+        <v>4.7348194122314453</v>
       </c>
       <c r="H28" s="5">
-        <v>-1.0655787063506561</v>
+        <v>0.87638566468424306</v>
       </c>
       <c r="I28" s="5">
-        <v>0.17739034647623603</v>
+        <v>1.7002208602005191</v>
       </c>
       <c r="J28" s="5">
-        <v>-1.098529903666934</v>
+        <v>-0.72248036380490011</v>
       </c>
       <c r="K28" s="5">
-        <v>-4.1128540252455048</v>
+        <v>-4.1704866256341511</v>
       </c>
       <c r="L28" s="5">
-        <v>-2.717741058294465</v>
+        <v>4.1001651010180006E-3</v>
       </c>
       <c r="M28" s="5">
-        <v>-6.0313434001737161</v>
+        <v>-5.2078155644364799</v>
       </c>
       <c r="N28" s="5">
-        <v>-20.274786098961528</v>
+        <v>-19.837412681457213</v>
       </c>
       <c r="O28" s="5">
-        <v>15.356399158049982</v>
+        <v>16.367366103567061</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
@@ -2890,10 +2876,10 @@
         <v>42</v>
       </c>
       <c r="S28" s="5">
-        <v>1342.904019688269</v>
+        <v>1336.788417242514</v>
       </c>
       <c r="T28" s="5">
-        <v>984.80242919921875</v>
+        <v>993.43310546875</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2904,7 +2890,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="5">
-        <v>1326294272</v>
+        <v>1328046336</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>40</v>
@@ -2913,34 +2899,34 @@
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>3201964.25</v>
+        <v>3218937.5</v>
       </c>
       <c r="G29" s="5">
-        <v>3.833145380020142</v>
+        <v>3.8137969970703129</v>
       </c>
       <c r="H29" s="5">
-        <v>-0.7398400057428981</v>
+        <v>0.99850516063484407</v>
       </c>
       <c r="I29" s="5">
-        <v>-0.537870286378062</v>
+        <v>1.0963250798352591</v>
       </c>
       <c r="J29" s="5">
-        <v>-5.1297420879934936</v>
+        <v>-5.3235035643913857</v>
       </c>
       <c r="K29" s="5">
-        <v>-10.617417353949721</v>
+        <v>-10.650313665813659</v>
       </c>
       <c r="L29" s="5">
-        <v>1.619506236269852</v>
+        <v>3.1032182276941271</v>
       </c>
       <c r="M29" s="5">
-        <v>-13.165776819363629</v>
+        <v>-12.298732619707797</v>
       </c>
       <c r="N29" s="5">
-        <v>-10.278732591052176</v>
+        <v>-9.600676375380635</v>
       </c>
       <c r="O29" s="5">
-        <v>23.618245002526738</v>
+        <v>24.852579558363196</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
@@ -2950,10 +2936,10 @@
         <v>42</v>
       </c>
       <c r="S29" s="5">
-        <v>1648.0721903199344</v>
+        <v>1637.0516617308324</v>
       </c>
       <c r="T29" s="5">
-        <v>1348.0242919921875</v>
+        <v>1361.484375</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2964,7 +2950,7 @@
         <v>112</v>
       </c>
       <c r="C30" s="5">
-        <v>1285635712</v>
+        <v>1289991296</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>23</v>
@@ -2973,34 +2959,34 @@
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>6422661</v>
+        <v>6434695.5</v>
       </c>
       <c r="G30" s="5">
-        <v>4.9521665573120117</v>
+        <v>4.9107141494750977</v>
       </c>
       <c r="H30" s="5">
-        <v>0.33879941497920701</v>
+        <v>0.84411713374346109</v>
       </c>
       <c r="I30" s="5">
-        <v>-1.222897810747547</v>
+        <v>-1.8082187600331761</v>
       </c>
       <c r="J30" s="5">
-        <v>-3.7023431614860551</v>
+        <v>-2.837466194355454</v>
       </c>
       <c r="K30" s="5">
-        <v>-3.805340773726706</v>
+        <v>-1.411702041591123</v>
       </c>
       <c r="L30" s="5">
-        <v>13.550137284955976</v>
+        <v>9.521083987285861</v>
       </c>
       <c r="M30" s="5">
-        <v>-3.9594098892779543</v>
+        <v>-3.1487148128050308</v>
       </c>
       <c r="N30" s="5">
-        <v>-18.427095875807009</v>
+        <v>-17.267833916112707</v>
       </c>
       <c r="O30" s="5">
-        <v>60.327248969775106</v>
+        <v>61.680598748388519</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
@@ -3015,7 +3001,7 @@
         <v>23.909999847412109</v>
       </c>
       <c r="T30" s="5">
-        <v>17.770000457763672</v>
+        <v>17.920000076293945</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3026,7 +3012,7 @@
         <v>115</v>
       </c>
       <c r="C31" s="5">
-        <v>1275904000</v>
+        <v>1283868928</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>40</v>
@@ -3035,34 +3021,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>2272597.75</v>
+        <v>2230894.5</v>
       </c>
       <c r="G31" s="5">
-        <v>4.2056074142456055</v>
+        <v>4.1639127731323242</v>
       </c>
       <c r="H31" s="5">
-        <v>-1.277016008446896</v>
+        <v>1.494926403446839</v>
       </c>
       <c r="I31" s="5">
-        <v>0.35776813209260605</v>
+        <v>2.508055684384924</v>
       </c>
       <c r="J31" s="5">
-        <v>-0.82315911301460409</v>
+        <v>-0.12522330528865802</v>
       </c>
       <c r="K31" s="5">
-        <v>1.1660343527661881</v>
+        <v>2.526528609435053</v>
       </c>
       <c r="L31" s="5">
-        <v>10.627510229200876</v>
+        <v>13.687204343268444</v>
       </c>
       <c r="M31" s="5">
-        <v>-1.6951858686333201</v>
+        <v>-0.22560124632417003</v>
       </c>
       <c r="N31" s="5">
-        <v>0.168728771726601</v>
+        <v>1.553055390515468</v>
       </c>
       <c r="O31" s="5">
-        <v>44.700559300097353</v>
+        <v>46.86372616700978</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3075,7 +3061,7 @@
         <v>1243.9918533604887</v>
       </c>
       <c r="T31" s="5">
-        <v>1138.2978515625</v>
+        <v>1155.3145751953125</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3086,7 +3072,7 @@
         <v>117</v>
       </c>
       <c r="C32" s="5">
-        <v>1262151680</v>
+        <v>1281872768</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>23</v>
@@ -3095,34 +3081,34 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>11425689</v>
+        <v>11368414</v>
       </c>
       <c r="G32" s="5">
-        <v>12.955465316772461</v>
+        <v>12.965964317321777</v>
       </c>
       <c r="H32" s="5">
-        <v>1.562504411528032</v>
+        <v>-8.0973510712112007E-2</v>
       </c>
       <c r="I32" s="5">
-        <v>-1.4365471295886612</v>
+        <v>-0.96308094054330406</v>
       </c>
       <c r="J32" s="5">
-        <v>-13.45480038334097</v>
+        <v>-12.606230505650684</v>
       </c>
       <c r="K32" s="5">
-        <v>-0.92869825488759405</v>
+        <v>0.87811498336996008</v>
       </c>
       <c r="L32" s="5">
-        <v>20.527382932930017</v>
+        <v>17.639077537943471</v>
       </c>
       <c r="M32" s="5">
-        <v>1.1205085700395361</v>
+        <v>1.038627744200427</v>
       </c>
       <c r="N32" s="5">
-        <v>-8.6456174895352724</v>
+        <v>-8.7195903402433661</v>
       </c>
       <c r="O32" s="5">
-        <v>23.449214943574283</v>
+        <v>23.349253780287917</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
@@ -3137,7 +3123,7 @@
         <v>16.010000228881836</v>
       </c>
       <c r="T32" s="5">
-        <v>12.350000381469727</v>
+        <v>12.340000152587891</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3148,7 +3134,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1188357888</v>
+        <v>1200592000</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3157,34 +3143,34 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1523751</v>
+        <v>1480200.5</v>
       </c>
       <c r="G33" s="5">
-        <v>6.5252208709716797</v>
+        <v>6.4915909767150879</v>
       </c>
       <c r="H33" s="5">
-        <v>1.5573372024296981</v>
+        <v>1.02564002243335</v>
       </c>
       <c r="I33" s="5">
-        <v>2.5400656227692049</v>
+        <v>4.7365154280720967</v>
       </c>
       <c r="J33" s="5">
-        <v>-17.770769692631205</v>
+        <v>-16.883980570940913</v>
       </c>
       <c r="K33" s="5">
-        <v>1.977870570418871</v>
+        <v>-0.18120634147641401</v>
       </c>
       <c r="L33" s="5">
-        <v>12.068967643447493</v>
+        <v>20.117359517115354</v>
       </c>
       <c r="M33" s="5">
-        <v>-1.623014526350564</v>
+        <v>-0.61402079046937208</v>
       </c>
       <c r="N33" s="5">
-        <v>-38.603722554712981</v>
+        <v>-37.410663081536754</v>
       </c>
       <c r="O33" s="5">
-        <v>-35.705884760394412</v>
+        <v>-35.046458582427597</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>37</v>
@@ -3199,7 +3185,7 @@
         <v>0.44271498196098902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.24841082096099901</v>
+        <v>0.250958621501923</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3210,7 +3196,7 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1054630912</v>
+        <v>1060977792</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>40</v>
@@ -3219,34 +3205,34 @@
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>3401193</v>
+        <v>3368400</v>
       </c>
       <c r="G34" s="5">
-        <v>5.2234911918640137</v>
+        <v>5.1728596687316895</v>
       </c>
       <c r="H34" s="5">
-        <v>-1.167569633384735</v>
+        <v>1.4722739484693601</v>
       </c>
       <c r="I34" s="5">
-        <v>0.67975978305430107</v>
+        <v>2.8139944212782759</v>
       </c>
       <c r="J34" s="5">
-        <v>-4.0342083809198348</v>
+        <v>-3.6149896869817399</v>
       </c>
       <c r="K34" s="5">
-        <v>-9.7939901494166435</v>
+        <v>-8.6398018742866576</v>
       </c>
       <c r="L34" s="5">
-        <v>-6.3810803880090861</v>
+        <v>-3.6999971665265701</v>
       </c>
       <c r="M34" s="5">
-        <v>-12.193993850933483</v>
+        <v>-10.901248897209371</v>
       </c>
       <c r="N34" s="5">
-        <v>-20.136563866200131</v>
+        <v>-18.750539148756353</v>
       </c>
       <c r="O34" s="5">
-        <v>-1.3820028847996271</v>
+        <v>6.9924195229731007E-2</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
@@ -3256,10 +3242,10 @@
         <v>42</v>
       </c>
       <c r="S34" s="5">
-        <v>3199.3437243642329</v>
+        <v>3179.4998354721947</v>
       </c>
       <c r="T34" s="5">
-        <v>2329.02734375</v>
+        <v>2363.317138671875</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3270,7 +3256,7 @@
         <v>127</v>
       </c>
       <c r="C35" s="5">
-        <v>1037667776</v>
+        <v>1048596992</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>23</v>
@@ -3279,34 +3265,34 @@
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>19838120</v>
+        <v>19962594</v>
       </c>
       <c r="G35" s="5">
-        <v>7.6433119773864746</v>
+        <v>7.5256557464599609</v>
       </c>
       <c r="H35" s="5">
-        <v>1.053249289459623</v>
+        <v>1.5634073573072449</v>
       </c>
       <c r="I35" s="5">
-        <v>-1.595434709225507</v>
+        <v>-3.4672490815701669</v>
       </c>
       <c r="J35" s="5">
-        <v>-31.146197869851999</v>
+        <v>-29.459951277109965</v>
       </c>
       <c r="K35" s="5">
-        <v>-34.271217303675414</v>
+        <v>-31.785149017283864</v>
       </c>
       <c r="L35" s="5">
-        <v>-26.730864172355584</v>
+        <v>-29.572384078141155</v>
       </c>
       <c r="M35" s="5">
-        <v>-33.874362037169305</v>
+        <v>-32.840548948192058</v>
       </c>
       <c r="N35" s="5">
-        <v>-50.903058628373763</v>
+        <v>-50.404277954428302</v>
       </c>
       <c r="O35" s="5">
-        <v>-21.743188092147225</v>
+        <v>-20.519715337185762</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
@@ -3321,7 +3307,7 @@
         <v>39.099998474121094</v>
       </c>
       <c r="T35" s="5">
-        <v>17.270000457763672</v>
+        <v>17.540000915527344</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3332,7 +3318,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>995422464</v>
+        <v>1006021504</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3341,34 +3327,34 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>4946105</v>
+        <v>5079909.5</v>
       </c>
       <c r="G36" s="5">
-        <v>6.6725196838378906</v>
+        <v>6.6608238220214844</v>
       </c>
       <c r="H36" s="5">
-        <v>1.0647726768850061</v>
+        <v>1.8437206803262329</v>
       </c>
       <c r="I36" s="5">
-        <v>-2.2317535083346218</v>
+        <v>-1.4443567332705021</v>
       </c>
       <c r="J36" s="5">
-        <v>-11.705421084187261</v>
+        <v>-9.5163788618558787</v>
       </c>
       <c r="K36" s="5">
-        <v>-0.87031705646133406</v>
+        <v>2.7457899073194851</v>
       </c>
       <c r="L36" s="5">
-        <v>12.739499723278858</v>
+        <v>10.101012146009779</v>
       </c>
       <c r="M36" s="5">
-        <v>-0.95651875371518502</v>
+        <v>0.86956433764389107</v>
       </c>
       <c r="N36" s="5">
-        <v>-17.394641394803244</v>
+        <v>-15.698765989523022</v>
       </c>
       <c r="O36" s="5">
-        <v>29.541995272907641</v>
+        <v>31.930384039009276</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
@@ -3383,7 +3369,7 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T36" s="5">
-        <v>11.390000343322754</v>
+        <v>11.409999847412109</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3394,7 +3380,7 @@
         <v>132</v>
       </c>
       <c r="C37" s="5">
-        <v>968642560</v>
+        <v>984813504</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3403,34 +3389,34 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>13805451</v>
+        <v>13808159</v>
       </c>
       <c r="G37" s="5">
-        <v>2.298850536346436</v>
+        <v>2.3140494823455811</v>
       </c>
       <c r="H37" s="5">
-        <v>1.669455514036855</v>
+        <v>-0.65681380707404102</v>
       </c>
       <c r="I37" s="5">
-        <v>-2.5599975585937518</v>
+        <v>-7.4923512840408097</v>
       </c>
       <c r="J37" s="5">
-        <v>-16.815969263024478</v>
+        <v>-16.568830975829641</v>
       </c>
       <c r="K37" s="5">
-        <v>-9.8329237864357992</v>
+        <v>-7.0010331369798946</v>
       </c>
       <c r="L37" s="5">
-        <v>-3.9930841887264812</v>
+        <v>-9.0234681114950259</v>
       </c>
       <c r="M37" s="5">
-        <v>-9.1640262216636685</v>
+        <v>-9.7606494392299403</v>
       </c>
       <c r="N37" s="5">
-        <v>-37.211071954647593</v>
+        <v>-37.370430508103446</v>
       </c>
       <c r="O37" s="5">
-        <v>-26.696413617845227</v>
+        <v>-27.177881694283666</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
@@ -3442,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <v>10.055000305175781</v>
+        <v>10.050000190734863</v>
       </c>
       <c r="T37" s="5">
-        <v>6.0900001525878906</v>
+        <v>6.0500001907348633</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3456,7 +3442,7 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>888899008</v>
+        <v>864172096</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>136</v>
@@ -3465,34 +3451,34 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1738873.625</v>
+        <v>1764371.625</v>
       </c>
       <c r="G38" s="5">
-        <v>4.8721070289611816</v>
+        <v>5.0568900108337402</v>
       </c>
       <c r="H38" s="5">
-        <v>-2.7800007469865</v>
+        <v>-2.6330812216401993</v>
       </c>
       <c r="I38" s="5">
-        <v>2.386472151459107</v>
+        <v>-0.76146175552493911</v>
       </c>
       <c r="J38" s="5">
-        <v>13.258907995632875</v>
+        <v>7.5578747678694445</v>
       </c>
       <c r="K38" s="5">
-        <v>-8.3983337526997275</v>
+        <v>-8.0514874626399173</v>
       </c>
       <c r="L38" s="5">
-        <v>-15.456157788534796</v>
+        <v>-13.986196238307102</v>
       </c>
       <c r="M38" s="5">
-        <v>-7.6069488405094434</v>
+        <v>-10.039732920690414</v>
       </c>
       <c r="N38" s="5">
-        <v>-29.73440559820607</v>
+        <v>-27.92307046198842</v>
       </c>
       <c r="O38" s="5">
-        <v>5.374066132612354</v>
+        <v>2.5994813847958209</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>25</v>
@@ -3505,7 +3491,7 @@
         <v>6.9999688890271594</v>
       </c>
       <c r="T38" s="5">
-        <v>4.5793008804321289</v>
+        <v>4.4587244987487793</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3516,120 +3502,120 @@
         <v>139</v>
       </c>
       <c r="C39" s="5">
-        <v>823915904</v>
+        <v>821937152</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>1361558.25</v>
+        <v>1852487.625</v>
       </c>
       <c r="G39" s="5">
-        <v>6.504854679107666</v>
+        <v>7.3495931625366211</v>
       </c>
       <c r="H39" s="5">
-        <v>1.625549210348187</v>
+        <v>0.99352137104136207</v>
       </c>
       <c r="I39" s="5">
-        <v>-0.64938981023632303</v>
+        <v>-3.3131089294431089</v>
       </c>
       <c r="J39" s="5">
-        <v>-5.8229289723315985</v>
+        <v>-12.090816373877599</v>
       </c>
       <c r="K39" s="5">
-        <v>-7.4839003606362979</v>
+        <v>-10.492956554515242</v>
       </c>
       <c r="L39" s="5">
-        <v>8.0330639574888387</v>
+        <v>6.1411534166615933</v>
       </c>
       <c r="M39" s="5">
-        <v>-9.0701732037395626</v>
+        <v>-11.422982343369059</v>
       </c>
       <c r="N39" s="5">
-        <v>-38.358875940470227</v>
+        <v>-48.88672809991732</v>
       </c>
       <c r="O39" s="5">
-        <v>-14.713301304930027</v>
+        <v>20.344864035720335</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="S39" s="5">
-        <v>1.243469103672894</v>
+        <v>2.1937991371437611</v>
       </c>
       <c r="T39" s="5">
-        <v>0.63257443904876709</v>
+        <v>1.0298314094543459</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A40" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C40" s="5">
-        <v>819359040</v>
+        <v>801542592</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>1928893.125</v>
+        <v>1388142.875</v>
       </c>
       <c r="G40" s="5">
-        <v>7.3139157295227051</v>
+        <v>6.7000002861022949</v>
       </c>
       <c r="H40" s="5">
-        <v>-1.315879234079387</v>
+        <v>-2.4304591702100531</v>
       </c>
       <c r="I40" s="5">
-        <v>-3.9040990541856391</v>
+        <v>-0.82798363389963203</v>
       </c>
       <c r="J40" s="5">
-        <v>-10.939299997301099</v>
+        <v>-10.196716313450228</v>
       </c>
       <c r="K40" s="5">
-        <v>-12.070072121070318</v>
+        <v>-10.422242531304448</v>
       </c>
       <c r="L40" s="5">
-        <v>2.9106124551810053</v>
+        <v>1.1066237132880461</v>
       </c>
       <c r="M40" s="5">
-        <v>-12.294356653624616</v>
+        <v>-11.280185517565389</v>
       </c>
       <c r="N40" s="5">
-        <v>-49.713523573492481</v>
+        <v>-40.509114894459344</v>
       </c>
       <c r="O40" s="5">
-        <v>19.160974290206045</v>
+        <v>-16.786159694333769</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="S40" s="5">
-        <v>2.1937991371437611</v>
+        <v>1.243469103672894</v>
       </c>
       <c r="T40" s="5">
-        <v>1.0197005271911621</v>
+        <v>0.61720001697540305</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3640,114 +3626,114 @@
         <v>144</v>
       </c>
       <c r="C41" s="5">
-        <v>817233152</v>
+        <v>800886720</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>2626308</v>
-      </c>
-      <c r="G41" s="5"/>
+        <v>2050600.5</v>
+      </c>
+      <c r="G41" s="5">
+        <v>5.5319929122924805</v>
+      </c>
       <c r="H41" s="5">
-        <v>-2.6077716714902781</v>
+        <v>0.85746365085803711</v>
       </c>
       <c r="I41" s="5">
-        <v>-1.2868421142208319</v>
+        <v>4.793001491896387</v>
       </c>
       <c r="J41" s="5">
-        <v>-4.4525333530180511</v>
+        <v>3.3256295836847638</v>
       </c>
       <c r="K41" s="5">
-        <v>-17.654241145740457</v>
+        <v>4.1505947170660704</v>
       </c>
       <c r="L41" s="5">
-        <v>74.375189984661773</v>
+        <v>11.943648334952449</v>
       </c>
       <c r="M41" s="5">
-        <v>-22.73949810832049</v>
+        <v>1.8742598931730252</v>
       </c>
       <c r="N41" s="5">
-        <v>95.029266447856429</v>
+        <v>-10.517243704669299</v>
       </c>
       <c r="O41" s="5">
-        <v>186.29097816697566</v>
+        <v>20.10273066940367</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="S41" s="5">
-        <v>1.13709763756269</v>
+        <v>516.49694501018325</v>
       </c>
       <c r="T41" s="5">
-        <v>0.79681068658828702</v>
+        <v>417.68478393554687</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="5">
+        <v>800181952</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="5">
+        <v>15882076</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5">
+        <v>7.7576106601611627</v>
+      </c>
+      <c r="I42" s="5">
+        <v>57.11952005707586</v>
+      </c>
+      <c r="J42" s="5">
+        <v>169.71844892823262</v>
+      </c>
+      <c r="K42" s="5">
+        <v>167.53689061415997</v>
+      </c>
+      <c r="L42" s="5">
+        <v>253.07930344021452</v>
+      </c>
+      <c r="M42" s="5">
+        <v>154.20101062426497</v>
+      </c>
+      <c r="N42" s="5">
+        <v>297.662662892897</v>
+      </c>
+      <c r="O42" s="5">
+        <v>377.99556311418849</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="5">
-        <v>800948672</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="5">
-        <v>2063443.25</v>
-      </c>
-      <c r="G42" s="5">
-        <v>5.5522937774658203</v>
-      </c>
-      <c r="H42" s="5">
-        <v>-0.13416708499101002</v>
-      </c>
-      <c r="I42" s="5">
-        <v>3.243226527493448</v>
-      </c>
-      <c r="J42" s="5">
-        <v>2.7262874567002719</v>
-      </c>
-      <c r="K42" s="5">
-        <v>4.242130897821772</v>
-      </c>
-      <c r="L42" s="5">
-        <v>8.3196687230545852</v>
-      </c>
-      <c r="M42" s="5">
-        <v>1.00815170787445</v>
-      </c>
-      <c r="N42" s="5">
-        <v>-10.742201119693362</v>
-      </c>
-      <c r="O42" s="5">
-        <v>19.081648815964371</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="S42" s="5">
-        <v>516.49694501018325</v>
+        <v>2.6499318041969322</v>
       </c>
       <c r="T42" s="5">
-        <v>414.13372802734375</v>
+        <v>2.6012756824493408</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3758,116 +3744,116 @@
         <v>151</v>
       </c>
       <c r="C43" s="5">
-        <v>762090432</v>
+        <v>795531264</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2587852.5</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5">
+        <v>-3.4799753613482749</v>
+      </c>
+      <c r="I43" s="5">
+        <v>-4.6724337407967784</v>
+      </c>
+      <c r="J43" s="5">
+        <v>-6.1928735883075898</v>
+      </c>
+      <c r="K43" s="5">
+        <v>-18.5747666640662</v>
+      </c>
+      <c r="L43" s="5">
+        <v>73.432179450897465</v>
+      </c>
+      <c r="M43" s="5">
+        <v>-25.428144538204943</v>
+      </c>
+      <c r="N43" s="5">
+        <v>88.191550552630346</v>
+      </c>
+      <c r="O43" s="5">
+        <v>176.32812266500193</v>
+      </c>
+      <c r="P43" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="5">
-        <v>3838553.75</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1.0193794965744021</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0.47973729295447404</v>
-      </c>
-      <c r="I43" s="5">
-        <v>1.344893013847859</v>
-      </c>
-      <c r="J43" s="5">
-        <v>-0.11787811141180701</v>
-      </c>
-      <c r="K43" s="5">
-        <v>1.630147028159223</v>
-      </c>
-      <c r="L43" s="5">
-        <v>6.4047751250965623</v>
-      </c>
-      <c r="M43" s="5">
-        <v>1.7454673494694761</v>
-      </c>
-      <c r="N43" s="5">
-        <v>1.5612025253081141</v>
-      </c>
-      <c r="O43" s="5">
-        <v>14.643493073686841</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="Q43" s="4"/>
       <c r="R43" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="S43" s="5">
-        <v>0.72089303474705002</v>
+        <v>1.13709763756269</v>
       </c>
       <c r="T43" s="5">
-        <v>0.674416303634644</v>
+        <v>0.76908183097839411</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="5">
+        <v>762044544</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="E44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3838709.25</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1.019877552986145</v>
+      </c>
+      <c r="H44" s="5">
+        <v>-6.0206927993470003E-3</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.82907895571178203</v>
+      </c>
+      <c r="J44" s="5">
+        <v>-0.12389170713219501</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1.8750810871124961</v>
+      </c>
+      <c r="L44" s="5">
+        <v>4.9328570339720157</v>
+      </c>
+      <c r="M44" s="5">
+        <v>1.7393415674430872</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1.944723026634509</v>
+      </c>
+      <c r="O44" s="5">
+        <v>14.636590741154421</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="5">
-        <v>728758528</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="5">
-        <v>15720382</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5">
-        <v>9.8545742551946702</v>
-      </c>
-      <c r="I44" s="5">
-        <v>44.266846064287549</v>
-      </c>
-      <c r="J44" s="5">
-        <v>161.8690905649915</v>
-      </c>
-      <c r="K44" s="5">
-        <v>141.59824705844244</v>
-      </c>
-      <c r="L44" s="5">
-        <v>218.85749493091805</v>
-      </c>
-      <c r="M44" s="5">
-        <v>135.90074897442497</v>
-      </c>
-      <c r="N44" s="5">
-        <v>263.51256959239339</v>
-      </c>
-      <c r="O44" s="5">
-        <v>343.58404031587088</v>
-      </c>
-      <c r="P44" s="4" t="s">
+      <c r="R44" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="S44" s="5">
-        <v>2.4140063614437253</v>
+        <v>0.72089303474705002</v>
       </c>
       <c r="T44" s="5">
-        <v>2.4140064716339111</v>
+        <v>0.67437565326690707</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3878,7 +3864,7 @@
         <v>159</v>
       </c>
       <c r="C45" s="5">
-        <v>720932416</v>
+        <v>729364096</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>40</v>
@@ -3887,34 +3873,34 @@
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1306890.875</v>
+        <v>1277106.75</v>
       </c>
       <c r="G45" s="5">
-        <v>4.2772860527038574</v>
+        <v>4.2120552062988281</v>
       </c>
       <c r="H45" s="5">
-        <v>-1.048751750868981</v>
+        <v>2.0449386823558462</v>
       </c>
       <c r="I45" s="5">
-        <v>-0.34466506624725202</v>
+        <v>2.342186413490754</v>
       </c>
       <c r="J45" s="5">
-        <v>-2.9604370938929652</v>
+        <v>-0.62657683236210204</v>
       </c>
       <c r="K45" s="5">
-        <v>-9.9230862023885429</v>
+        <v>-7.7871116115537209</v>
       </c>
       <c r="L45" s="5">
-        <v>-1.1252762773863449</v>
+        <v>2.816895572224642</v>
       </c>
       <c r="M45" s="5">
-        <v>-11.480612611982711</v>
+        <v>-9.6704454179007193</v>
       </c>
       <c r="N45" s="5">
-        <v>-12.881625070456359</v>
+        <v>-11.159112664451953</v>
       </c>
       <c r="O45" s="5">
-        <v>10.926065322422929</v>
+        <v>13.194435341016476</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>25</v>
@@ -3927,7 +3913,7 @@
         <v>1279.0224032586557</v>
       </c>
       <c r="T45" s="5">
-        <v>1030.3951416015625</v>
+        <v>1051.466064453125</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3938,7 +3924,7 @@
         <v>161</v>
       </c>
       <c r="C46" s="5">
-        <v>690998848</v>
+        <v>678553920</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>162</v>
@@ -3947,34 +3933,34 @@
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>1499808.25</v>
+        <v>1495355.5</v>
       </c>
       <c r="G46" s="5">
-        <v>6</v>
+        <v>6.1224489212036133</v>
       </c>
       <c r="H46" s="5">
-        <v>-5.8145936266907006E-2</v>
+        <v>-1.513303569588986</v>
       </c>
       <c r="I46" s="5">
-        <v>-4.0744734292985747</v>
+        <v>-3.8716611016328173</v>
       </c>
       <c r="J46" s="5">
-        <v>-6.8501358610299823</v>
+        <v>-8.1526754648052702</v>
       </c>
       <c r="K46" s="5">
-        <v>-4.1991499725400727</v>
+        <v>-7.3812239780138178</v>
       </c>
       <c r="L46" s="5">
-        <v>23.958637399681805</v>
+        <v>16.496212667473074</v>
       </c>
       <c r="M46" s="5">
-        <v>-6.906783537862049</v>
+        <v>-8.3155665056287908</v>
       </c>
       <c r="N46" s="5">
-        <v>-32.278722717161898</v>
+        <v>-33.345154409145586</v>
       </c>
       <c r="O46" s="5">
-        <v>53.599384682617</v>
+        <v>51.27495971134821</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>163</v>
@@ -3989,7 +3975,7 @@
         <v>1.5543399132000002</v>
       </c>
       <c r="T46" s="5">
-        <v>0.98263990879058805</v>
+        <v>0.96776962280273404</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4000,7 +3986,7 @@
         <v>165</v>
       </c>
       <c r="C47" s="5">
-        <v>643873024</v>
+        <v>650211520</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>82</v>
@@ -4009,34 +3995,34 @@
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>8044172</v>
+        <v>8047285.5</v>
       </c>
       <c r="G47" s="5">
-        <v>7.8534035682678223</v>
+        <v>7.9893474578857422</v>
       </c>
       <c r="H47" s="5">
-        <v>1.070615889157889</v>
+        <v>-1.2535993402474801</v>
       </c>
       <c r="I47" s="5">
-        <v>-2.8656694783561591</v>
+        <v>-3.7116051220451469</v>
       </c>
       <c r="J47" s="5">
-        <v>-16.357942322646799</v>
+        <v>-17.308860587525366</v>
       </c>
       <c r="K47" s="5">
-        <v>-14.321789016952657</v>
+        <v>-13.286975905576748</v>
       </c>
       <c r="L47" s="5">
-        <v>-14.293083025254738</v>
+        <v>-17.794407962868021</v>
       </c>
       <c r="M47" s="5">
-        <v>-15.145971845878448</v>
+        <v>-16.209701382991927</v>
       </c>
       <c r="N47" s="5">
-        <v>-43.651044590621481</v>
+        <v>-43.758582035628145</v>
       </c>
       <c r="O47" s="5">
-        <v>25.954208407479772</v>
+        <v>24.375247281869662</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>25</v>
@@ -4051,7 +4037,7 @@
         <v>11.008880893576956</v>
       </c>
       <c r="T47" s="5">
-        <v>5.5901074409484863</v>
+        <v>5.5200295448303223</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4062,7 +4048,7 @@
         <v>167</v>
       </c>
       <c r="C48" s="5">
-        <v>631297920</v>
+        <v>629561216</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>23</v>
@@ -4071,34 +4057,34 @@
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>11912246</v>
+        <v>12029127</v>
       </c>
       <c r="G48" s="5">
-        <v>6.8965516090393066</v>
+        <v>6.9252080917358398</v>
       </c>
       <c r="H48" s="5">
-        <v>-0.27510290204931803</v>
+        <v>-0.41379599735654704</v>
       </c>
       <c r="I48" s="5">
-        <v>-0.27510290204931803</v>
+        <v>-0.82418156438870405</v>
       </c>
       <c r="J48" s="5">
-        <v>-5.8441535118438299</v>
+        <v>-6.2337666358889932</v>
       </c>
       <c r="K48" s="5">
-        <v>-3.462053541382482</v>
+        <v>-4.1168713277444757</v>
       </c>
       <c r="L48" s="5">
-        <v>-1.5522960562907921</v>
+        <v>-3.690388004395984</v>
       </c>
       <c r="M48" s="5">
-        <v>-4.9803421853390368</v>
+        <v>-5.3735297260779973</v>
       </c>
       <c r="N48" s="5">
-        <v>-59.324422224338647</v>
+        <v>-58.856217376810527</v>
       </c>
       <c r="O48" s="5">
-        <v>-6.1851285398729638</v>
+        <v>-6.5733307229001507</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>25</v>
@@ -4110,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="S48" s="5">
-        <v>18.901226043701172</v>
+        <v>18.722175598144531</v>
       </c>
       <c r="T48" s="5">
-        <v>7.25</v>
+        <v>7.2199997901916504</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4124,187 +4110,187 @@
         <v>170</v>
       </c>
       <c r="C49" s="5">
-        <v>578769664</v>
+        <v>507474112</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>1558234</v>
-      </c>
-      <c r="G49" s="5">
-        <v>5.968468189239502</v>
-      </c>
+        <v>15147991</v>
+      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="5">
-        <v>3.1198734395744281</v>
+        <v>-6.2497557620462825</v>
       </c>
       <c r="I49" s="5">
-        <v>-1.7260597558297341</v>
+        <v>-1.9029103473294779</v>
       </c>
       <c r="J49" s="5">
-        <v>5.6800828667058004E-2</v>
+        <v>-9.5901614233258048</v>
       </c>
       <c r="K49" s="5">
-        <v>-5.4030741709451213</v>
+        <v>-5.162842166958292</v>
       </c>
       <c r="L49" s="5">
-        <v>3.7518846650209441</v>
+        <v>24.687451513351832</v>
       </c>
       <c r="M49" s="5">
-        <v>-6.6238702519613391</v>
+        <v>-12.582803343473191</v>
       </c>
       <c r="N49" s="5">
-        <v>-24.270065272833797</v>
+        <v>-23.066850653483506</v>
       </c>
       <c r="O49" s="5">
-        <v>53.071471542472494</v>
+        <v>164.17943096679898</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>172</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="Q49" s="4"/>
       <c r="R49" s="4" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="S49" s="5">
-        <v>0.9711990051350391</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T49" s="5">
-        <v>0.681230008602142</v>
+        <v>0.49702569842338606</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A50" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C50" s="5">
-        <v>509791744</v>
+        <v>492712576</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>15768881</v>
+        <v>2955424</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>-0.40577004313712101</v>
+        <v>-5.4087540685910006E-2</v>
       </c>
       <c r="I50" s="5">
-        <v>3.5084444191346491</v>
+        <v>-0.30317838234643602</v>
       </c>
       <c r="J50" s="5">
-        <v>-5.540607902075001</v>
+        <v>-12.085744284192845</v>
       </c>
       <c r="K50" s="5">
-        <v>-2.7765677095835661</v>
+        <v>-34.16945065259651</v>
       </c>
       <c r="L50" s="5">
-        <v>19.704039400647755</v>
+        <v>63.629277592032786</v>
       </c>
       <c r="M50" s="5">
-        <v>-6.7552331547559241</v>
+        <v>-38.199026951213753</v>
       </c>
       <c r="N50" s="5">
-        <v>-16.698710407596671</v>
+        <v>153.18996659194966</v>
       </c>
       <c r="O50" s="5">
-        <v>181.79065890886386</v>
+        <v>312.70773004150192</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q50" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="R50" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S50" s="5">
-        <v>1.1922868853192861</v>
+        <v>1.152422315694851</v>
       </c>
       <c r="T50" s="5">
-        <v>0.53015935420990001</v>
+        <v>0.67700129747390703</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C51" s="5">
-        <v>493118496</v>
+        <v>491542496</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>3098843.25</v>
-      </c>
-      <c r="G51" s="5"/>
+        <v>5056370.5</v>
+      </c>
+      <c r="G51" s="5">
+        <v>9.9585065841674805</v>
+      </c>
       <c r="H51" s="5">
-        <v>-0.26479847999754103</v>
+        <v>-0.98603027778800811</v>
       </c>
       <c r="I51" s="5">
-        <v>0.24197518278155103</v>
+        <v>-3.5999984741210911</v>
       </c>
       <c r="J51" s="5">
-        <v>-12.85489648133491</v>
+        <v>-11.184816000781639</v>
       </c>
       <c r="K51" s="5">
-        <v>-34.890205498206292</v>
+        <v>-33.122034305591505</v>
       </c>
       <c r="L51" s="5">
-        <v>58.556341487424255</v>
+        <v>-21.028728829348598</v>
       </c>
       <c r="M51" s="5">
-        <v>-38.165582235347394</v>
+        <v>-33.519688900534248</v>
       </c>
       <c r="N51" s="5">
-        <v>159.95144027236012</v>
+        <v>-39.06511971319182</v>
       </c>
       <c r="O51" s="5">
-        <v>312.9310743043211</v>
+        <v>2.826023958020452</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5">
-        <v>1.152422315694851</v>
+        <v>23.379999160766602</v>
       </c>
       <c r="T51" s="5">
-        <v>0.67736768722534202</v>
+        <v>12.050000190734863</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A52" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C52" s="5">
-        <v>492350304</v>
+        <v>469996448</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>23</v>
@@ -4313,304 +4299,304 @@
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>5202902</v>
+        <v>1340966.25</v>
       </c>
       <c r="G52" s="5">
-        <v>9.8603124618530273</v>
+        <v>8.1521739959716797</v>
       </c>
       <c r="H52" s="5">
-        <v>-0.16406484641344801</v>
+        <v>-4.5270388468799001E-2</v>
       </c>
       <c r="I52" s="5">
-        <v>-0.81499900357748811</v>
+        <v>-1.9740540652224301</v>
       </c>
       <c r="J52" s="5">
-        <v>-13.157028320870879</v>
+        <v>-0.54586768846967004</v>
       </c>
       <c r="K52" s="5">
-        <v>-33.540204333677167</v>
+        <v>3.18992335819126</v>
       </c>
       <c r="L52" s="5">
-        <v>-16.461806284965729</v>
+        <v>6.0694527430103404</v>
       </c>
       <c r="M52" s="5">
-        <v>-32.85764495052652</v>
+        <v>1.3787652686262359</v>
       </c>
       <c r="N52" s="5">
-        <v>-38.658572519733447</v>
+        <v>-20.644008801338</v>
       </c>
       <c r="O52" s="5">
-        <v>3.850016564837611</v>
+        <v>106.5952553659085</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="R52" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S52" s="5">
-        <v>23.379999160766602</v>
+        <v>31.969999313354492</v>
       </c>
       <c r="T52" s="5">
-        <v>12.170000076293945</v>
+        <v>22.079999923706055</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C53" s="5">
-        <v>473613440</v>
+        <v>469220704</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>1338540.25</v>
+        <v>5600499</v>
       </c>
       <c r="G53" s="5">
-        <v>8.1484832763671875</v>
+        <v>5.8549108505249023</v>
       </c>
       <c r="H53" s="5">
-        <v>-0.76370204198549207</v>
+        <v>1.3940013710884052</v>
       </c>
       <c r="I53" s="5">
-        <v>-1.1120528992944909</v>
+        <v>5.8798020848602528</v>
       </c>
       <c r="J53" s="5">
-        <v>-1.3717153028414359</v>
+        <v>2.785690440886079</v>
       </c>
       <c r="K53" s="5">
-        <v>0.60965958617162908</v>
+        <v>-3.9197229631568353</v>
       </c>
       <c r="L53" s="5">
-        <v>10.396833037677734</v>
+        <v>0.91078349038760109</v>
       </c>
       <c r="M53" s="5">
-        <v>1.4246806155441272</v>
+        <v>-7.1333889748170236</v>
       </c>
       <c r="N53" s="5">
-        <v>-21.546070892573898</v>
+        <v>-25.508816108908562</v>
       </c>
       <c r="O53" s="5">
-        <v>106.68882419954522</v>
+        <v>10.057602311380421</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q53" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="S53" s="5">
-        <v>31.969999313354492</v>
+        <v>1014.3139190523198</v>
       </c>
       <c r="T53" s="5">
-        <v>22.090000152587891</v>
+        <v>684.1783447265625</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C54" s="5">
-        <v>466773856</v>
+        <v>465000800</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>5952160</v>
+        <v>1158206.75</v>
       </c>
       <c r="G54" s="5">
-        <v>5.9076576232910156</v>
+        <v>7.0270271301269531</v>
       </c>
       <c r="H54" s="5">
-        <v>0.56181084109121504</v>
+        <v>-1.366139175491399</v>
       </c>
       <c r="I54" s="5">
-        <v>3.7619655375690009</v>
+        <v>-2.364393707678802</v>
       </c>
       <c r="J54" s="5">
-        <v>1.2009413785532441</v>
+        <v>4.5701268863136413</v>
       </c>
       <c r="K54" s="5">
-        <v>-5.1496001265443407</v>
+        <v>-7.6058074340971338</v>
       </c>
       <c r="L54" s="5">
-        <v>-2.672116303676797</v>
+        <v>-14.468627575866954</v>
       </c>
       <c r="M54" s="5">
-        <v>-8.410152701929885</v>
+        <v>-9.7256893391816099</v>
       </c>
       <c r="N54" s="5">
-        <v>-26.819039274774791</v>
+        <v>-33.164594276863703</v>
       </c>
       <c r="O54" s="5">
-        <v>8.5444906238431262</v>
+        <v>36.341771663938772</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q54" s="4"/>
+      <c r="Q54" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="R54" s="4" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="S54" s="5">
-        <v>1016.4068908941755</v>
+        <v>3.5895411339548722</v>
       </c>
       <c r="T54" s="5">
-        <v>674.77203369140625</v>
+        <v>2.0856232643127441</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C55" s="5">
-        <v>456452256</v>
+        <v>415580064</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1179471.25</v>
-      </c>
-      <c r="G55" s="5">
-        <v>6.8583488464355469</v>
-      </c>
+        <v>1440942.875</v>
+      </c>
+      <c r="G55" s="5"/>
       <c r="H55" s="5">
-        <v>-3.57100769629578</v>
+        <v>-2.8029641770481279</v>
       </c>
       <c r="I55" s="5">
-        <v>-0.54531536172614004</v>
+        <v>-3.7333535551465573</v>
       </c>
       <c r="J55" s="5">
-        <v>10.576231020546945</v>
+        <v>-11.832392269247505</v>
       </c>
       <c r="K55" s="5">
-        <v>-7.2954579159192567</v>
+        <v>-2.1321955200768068</v>
       </c>
       <c r="L55" s="5">
-        <v>-16.90694321249341</v>
+        <v>30.978626280312938</v>
       </c>
       <c r="M55" s="5">
-        <v>-8.4753350358693798</v>
+        <v>-6.6152906772003686</v>
       </c>
       <c r="N55" s="5">
-        <v>-35.223916426639981</v>
+        <v>47.259355032828587</v>
       </c>
       <c r="O55" s="5">
-        <v>38.230188420304124</v>
+        <v>425.70886321789141</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="S55" s="5">
-        <v>3.5895411339548722</v>
+        <v>10.579760227544591</v>
       </c>
       <c r="T55" s="5">
-        <v>2.1145105361938481</v>
+        <v>7.9942660331726074</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A56" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" s="5">
-        <v>427685344</v>
+        <v>381308960</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>1454368.625</v>
-      </c>
-      <c r="G56" s="5"/>
+        <v>5338324</v>
+      </c>
+      <c r="G56" s="5">
+        <v>9.1787443161010742</v>
+      </c>
       <c r="H56" s="5">
-        <v>-0.11053285559121701</v>
+        <v>-6.0351412589099006E-2</v>
       </c>
       <c r="I56" s="5">
-        <v>-6.3436125137511512</v>
+        <v>-1.3698715726230599</v>
       </c>
       <c r="J56" s="5">
-        <v>-13.702608825053897</v>
+        <v>-3.701395442108868</v>
       </c>
       <c r="K56" s="5">
-        <v>9.5925285941822008E-2</v>
+        <v>-5.6863812001265774</v>
       </c>
       <c r="L56" s="5">
-        <v>32.833110824715476</v>
+        <v>-10.563364104550377</v>
       </c>
       <c r="M56" s="5">
-        <v>-3.922266217147341</v>
+        <v>-7.3889803859659597</v>
       </c>
       <c r="N56" s="5">
-        <v>49.503959224579532</v>
+        <v>-16.935077648333863</v>
       </c>
       <c r="O56" s="5">
-        <v>440.86923409422718</v>
+        <v>92.837659342106704</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="S56" s="5">
-        <v>10.579760227544591</v>
+        <v>23.069999694824219</v>
       </c>
       <c r="T56" s="5">
-        <v>8.2248039245605469</v>
+        <v>16.559999465942383</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C57" s="5">
-        <v>380618624</v>
+        <v>368372608</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>23</v>
@@ -4619,34 +4605,34 @@
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>5487004</v>
+        <v>1793542.5</v>
       </c>
       <c r="G57" s="5">
-        <v>9.1732044219970703</v>
+        <v>6.1664958000183114</v>
       </c>
       <c r="H57" s="5">
-        <v>0.18137108607239003</v>
+        <v>-1.8163502315571289</v>
       </c>
       <c r="I57" s="5">
-        <v>1.4696862966285811</v>
+        <v>-5.8083290019470439</v>
       </c>
       <c r="J57" s="5">
-        <v>-5.5768187771383264</v>
+        <v>-19.215593494328186</v>
       </c>
       <c r="K57" s="5">
-        <v>-7.484879351629159</v>
+        <v>-9.089625982936445</v>
       </c>
       <c r="L57" s="5">
-        <v>-7.1931154484496158</v>
+        <v>-22.731459087405714</v>
       </c>
       <c r="M57" s="5">
-        <v>-7.3330545753990446</v>
+        <v>-12.009132809957846</v>
       </c>
       <c r="N57" s="5">
-        <v>-16.484514581283484</v>
+        <v>-35.169472327938145</v>
       </c>
       <c r="O57" s="5">
-        <v>92.954109873063828</v>
+        <v>45.381552256930348</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>25</v>
@@ -4658,141 +4644,141 @@
         <v>0</v>
       </c>
       <c r="S57" s="5">
-        <v>23.069999694824219</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="T57" s="5">
-        <v>16.569999694824219</v>
+        <v>9.7299995422363281</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A58" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C58" s="5">
-        <v>369487776</v>
+        <v>345545408</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>1787628.875</v>
+        <v>7014890</v>
       </c>
       <c r="G58" s="5">
-        <v>6.0544905662536621</v>
+        <v>0.75320512056350708</v>
       </c>
       <c r="H58" s="5">
-        <v>-0.30180819152544303</v>
+        <v>0.35113319546575805</v>
       </c>
       <c r="I58" s="5">
-        <v>-3.6929068595690011</v>
+        <v>6.909921984958145</v>
       </c>
       <c r="J58" s="5">
-        <v>-19.112312769821504</v>
+        <v>-7.0262207651818684</v>
       </c>
       <c r="K58" s="5">
-        <v>-11.952223642321957</v>
+        <v>-28.693730190191836</v>
       </c>
       <c r="L58" s="5">
-        <v>-18.722796500932336</v>
+        <v>29.983169842519608</v>
       </c>
       <c r="M58" s="5">
-        <v>-10.381344146850779</v>
+        <v>-31.662043627176885</v>
       </c>
       <c r="N58" s="5">
-        <v>-34.13793894622863</v>
-      </c>
-      <c r="O58" s="5">
-        <v>48.07104095213348</v>
-      </c>
+        <v>4.9124643849378202</v>
+      </c>
+      <c r="O58" s="5"/>
       <c r="P58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q58" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q58" s="4"/>
       <c r="R58" s="4" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="S58" s="5">
-        <v>17.930000305175781</v>
+        <v>0.55299045370637101</v>
       </c>
       <c r="T58" s="5">
-        <v>9.9099998474121094</v>
+        <v>0.326467394828796</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C59" s="5">
-        <v>332721760</v>
+        <v>311196320</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>7106119</v>
+        <v>1007235.75</v>
       </c>
       <c r="G59" s="5">
-        <v>0.75684374570846602</v>
+        <v>7.2510323524475098</v>
       </c>
       <c r="H59" s="5">
-        <v>3.905128404928448</v>
+        <v>2.7954789322909512</v>
       </c>
       <c r="I59" s="5">
-        <v>3.6266617380525501</v>
+        <v>10.710862116986974</v>
       </c>
       <c r="J59" s="5">
-        <v>-7.1879980415591067</v>
+        <v>16.967417527711625</v>
       </c>
       <c r="K59" s="5">
-        <v>-31.471813896675794</v>
+        <v>-1.2682478270525039</v>
       </c>
       <c r="L59" s="5">
-        <v>33.985395260867456</v>
+        <v>-8.0906804229897045</v>
       </c>
       <c r="M59" s="5">
-        <v>-31.901161255734678</v>
+        <v>-2.7690038183106562</v>
       </c>
       <c r="N59" s="5">
-        <v>1.342360817198385</v>
-      </c>
-      <c r="O59" s="5"/>
+        <v>-28.89474525382958</v>
+      </c>
+      <c r="O59" s="5">
+        <v>33.279054962916298</v>
+      </c>
       <c r="P59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q59" s="4"/>
+      <c r="Q59" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="R59" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="S59" s="5">
-        <v>0.55299045370637101</v>
+        <v>0.72014215793247505</v>
       </c>
       <c r="T59" s="5">
-        <v>0.32532507181167603</v>
+        <v>0.45066371560096702</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A60" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C60" s="5">
-        <v>287204640</v>
+        <v>289082240</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>40</v>
@@ -4801,34 +4787,34 @@
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>1688101</v>
+        <v>1663566.625</v>
       </c>
       <c r="G60" s="5">
-        <v>5.7675724029541016</v>
+        <v>5.7087197303771973</v>
       </c>
       <c r="H60" s="5">
-        <v>-0.59072018105839108</v>
+        <v>1.5246637439892741</v>
       </c>
       <c r="I60" s="5">
-        <v>3.515347152320536</v>
+        <v>5.7642688381624119</v>
       </c>
       <c r="J60" s="5">
-        <v>-2.7194554496249408</v>
+        <v>-0.36338095742538501</v>
       </c>
       <c r="K60" s="5">
-        <v>-3.5532281582505432</v>
+        <v>-0.81560538018031803</v>
       </c>
       <c r="L60" s="5">
-        <v>7.4730124752412594</v>
+        <v>11.191052921388799</v>
       </c>
       <c r="M60" s="5">
-        <v>-6.2244293664479926</v>
+        <v>-4.7946672402791606</v>
       </c>
       <c r="N60" s="5">
-        <v>-20.372691491728911</v>
+        <v>-19.023629186374315</v>
       </c>
       <c r="O60" s="5">
-        <v>21.358403225663224</v>
+        <v>23.208710799929232</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>25</v>
@@ -4841,18 +4827,18 @@
         <v>1127.0154656136885</v>
       </c>
       <c r="T60" s="5">
-        <v>810.790283203125</v>
+        <v>823.152099609375</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C61" s="5">
-        <v>229802656</v>
+        <v>233316448</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>23</v>
@@ -4861,34 +4847,34 @@
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>2365008.75</v>
+        <v>2413113.75</v>
       </c>
       <c r="G61" s="5">
-        <v>6.6265058517456055</v>
+        <v>6.7278285026550293</v>
       </c>
       <c r="H61" s="5">
-        <v>1.5290519520925421</v>
+        <v>-1.506024061776956</v>
       </c>
       <c r="I61" s="5">
-        <v>1.034693080561855</v>
+        <v>-2.09581057173629</v>
       </c>
       <c r="J61" s="5">
-        <v>-7.8873969866903648</v>
+        <v>-8.9262701022090987</v>
       </c>
       <c r="K61" s="5">
-        <v>-10.2417193958526</v>
+        <v>-10.303939377451121</v>
       </c>
       <c r="L61" s="5">
-        <v>6.8770375966515251</v>
+        <v>3.077055071150459</v>
       </c>
       <c r="M61" s="5">
-        <v>-11.653012571647835</v>
+        <v>-12.983539460173876</v>
       </c>
       <c r="N61" s="5">
-        <v>-4.2060622003750048</v>
+        <v>-6.7140033755345936</v>
       </c>
       <c r="O61" s="5">
-        <v>58.683853930019382</v>
+        <v>56.29403690767829</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>25</v>
@@ -4903,479 +4889,359 @@
         <v>20.789899826049805</v>
       </c>
       <c r="T61" s="5">
-        <v>16.600000381469727</v>
+        <v>16.350000381469727</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="5">
+        <v>225677728</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="5">
+        <v>4375793.5</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2.727981328964233</v>
+      </c>
+      <c r="H62" s="5">
+        <v>-4.3794629721668255</v>
+      </c>
+      <c r="I62" s="5">
+        <v>8.3234349218181958</v>
+      </c>
+      <c r="J62" s="5">
+        <v>-2.8806869487866482</v>
+      </c>
+      <c r="K62" s="5">
+        <v>-21.026675398394502</v>
+      </c>
+      <c r="L62" s="5">
+        <v>47.805115783357863</v>
+      </c>
+      <c r="M62" s="5">
+        <v>-25.05070562401238</v>
+      </c>
+      <c r="N62" s="5">
+        <v>41.263877079724828</v>
+      </c>
+      <c r="O62" s="5">
+        <v>136.47298535162165</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" s="5">
-        <v>229496512</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="5">
-        <v>1038925.4375</v>
-      </c>
-      <c r="G62" s="5">
-        <v>5.5604743957519531</v>
-      </c>
-      <c r="H62" s="5">
-        <v>-0.36884805052402903</v>
-      </c>
-      <c r="I62" s="5">
-        <v>4.8291934088511512</v>
-      </c>
-      <c r="J62" s="5">
-        <v>3.8908777404492279</v>
-      </c>
-      <c r="K62" s="5">
-        <v>-1.4628374847467711</v>
-      </c>
-      <c r="L62" s="5">
-        <v>8.3571644597047356</v>
-      </c>
-      <c r="M62" s="5">
-        <v>-3.7946037333387079</v>
-      </c>
-      <c r="N62" s="5">
-        <v>-4.3612182915583766</v>
-      </c>
-      <c r="O62" s="5">
-        <v>42.171507716050918</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q62" s="4"/>
       <c r="R62" s="4" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="S62" s="5">
-        <v>1090.5527244217953</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T62" s="5">
-        <v>961.2462158203125</v>
+        <v>3.3562314510345459</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="C63" s="5">
-        <v>226038304</v>
+        <v>225256672</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>1906805</v>
+        <v>1917516.375</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5">
-        <v>-1.760077803946436</v>
+        <v>-0.31764632333077802</v>
       </c>
       <c r="I63" s="5">
-        <v>-5.9907259929047774</v>
+        <v>-2.995693554434375</v>
       </c>
       <c r="J63" s="5">
-        <v>-11.169725479201331</v>
+        <v>-11.325865429185022</v>
       </c>
       <c r="K63" s="5">
-        <v>-28.636263118741379</v>
+        <v>-24.396047382040376</v>
       </c>
       <c r="L63" s="5">
-        <v>47.514366038930355</v>
+        <v>53.772756641143182</v>
       </c>
       <c r="M63" s="5">
-        <v>-33.060764080917536</v>
+        <v>-33.273394102680221</v>
       </c>
       <c r="N63" s="5">
-        <v>114.68724849696335</v>
+        <v>115.05616083603579</v>
       </c>
       <c r="O63" s="5">
-        <v>22.686902296976562</v>
+        <v>22.29719186262178</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q63" s="4"/>
       <c r="R63" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S63" s="5">
         <v>0.45377137396633505</v>
       </c>
       <c r="T63" s="5">
-        <v>0.28079587221145602</v>
+        <v>0.27990394830703702</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="C64" s="5">
-        <v>222495920</v>
+        <v>217834288</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>4510643.5</v>
+        <v>1608657.25</v>
       </c>
       <c r="G64" s="5">
-        <v>2.6119403839111328</v>
+        <v>5.6607294082641602</v>
       </c>
       <c r="H64" s="5">
-        <v>1.4798272686466161</v>
+        <v>1.0027064717525791</v>
       </c>
       <c r="I64" s="5">
-        <v>13.129798076609989</v>
+        <v>5.3528416236384269</v>
       </c>
       <c r="J64" s="5">
-        <v>0.59117882450021608</v>
+        <v>4.5011384338211844</v>
       </c>
       <c r="K64" s="5">
-        <v>-19.243991363009716</v>
+        <v>1.0333175378538511</v>
       </c>
       <c r="L64" s="5">
-        <v>51.650280947779947</v>
+        <v>14.470584408791765</v>
       </c>
       <c r="M64" s="5">
-        <v>-21.617994726204671</v>
+        <v>-0.29725008737370201</v>
       </c>
       <c r="N64" s="5">
-        <v>53.534313113331031</v>
-      </c>
-      <c r="O64" s="5">
-        <v>147.30355287880178</v>
-      </c>
+        <v>1.3075032755681</v>
+      </c>
+      <c r="O64" s="5"/>
       <c r="P64" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q64" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="Q64" s="4"/>
       <c r="R64" s="4" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="S64" s="5">
-        <v>4.6771184674018205</v>
+        <v>960.01974333662383</v>
       </c>
       <c r="T64" s="5">
-        <v>3.5099482536315918</v>
+        <v>900.27490234375</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="5">
+        <v>203566544</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="5">
+        <v>7172703.5</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5">
+        <v>-7.6483187942410504</v>
+      </c>
+      <c r="I65" s="5">
+        <v>11.177599058961674</v>
+      </c>
+      <c r="J65" s="5">
+        <v>-11.811636924896174</v>
+      </c>
+      <c r="K65" s="5">
+        <v>-34.202039948867593</v>
+      </c>
+      <c r="L65" s="5">
+        <v>74.758852078467797</v>
+      </c>
+      <c r="M65" s="5">
+        <v>-37.163996682044178</v>
+      </c>
+      <c r="N65" s="5">
+        <v>108.49895434613863</v>
+      </c>
+      <c r="O65" s="5">
+        <v>105.75457436600715</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C65" s="5">
-        <v>217537856</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1706274.375</v>
-      </c>
-      <c r="G65" s="5">
-        <v>5.6896843910217294</v>
-      </c>
-      <c r="H65" s="5">
-        <v>-8.764988269531801E-2</v>
-      </c>
-      <c r="I65" s="5">
-        <v>3.6455293714849013</v>
-      </c>
-      <c r="J65" s="5">
-        <v>4.0122739518776429</v>
-      </c>
-      <c r="K65" s="5">
-        <v>2.095346007167787</v>
-      </c>
-      <c r="L65" s="5">
-        <v>11.506578127751798</v>
-      </c>
-      <c r="M65" s="5">
-        <v>-1.2870512133155931</v>
-      </c>
-      <c r="N65" s="5">
-        <v>0.72898401831933402</v>
-      </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="S65" s="5">
-        <v>960.01974333662383</v>
+        <v>0.22635182608908702</v>
       </c>
       <c r="T65" s="5">
-        <v>891.33740234375</v>
+        <v>0.13498170673847201</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A66" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="C66" s="5">
-        <v>193660688</v>
+        <v>142239792</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="5">
-        <v>6695074</v>
+        <v>2421426.5</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5">
-        <v>5.1666413180933013</v>
+        <v>2.3284974966928829</v>
       </c>
       <c r="I66" s="5">
-        <v>18.779796465330634</v>
+        <v>8.6870778554433379</v>
       </c>
       <c r="J66" s="5">
-        <v>-3.143254652572391</v>
+        <v>30.04560131307883</v>
       </c>
       <c r="K66" s="5">
-        <v>-31.8210348654139</v>
+        <v>16.398992477925578</v>
       </c>
       <c r="L66" s="5">
-        <v>85.124333520608104</v>
+        <v>84.838450659000159</v>
       </c>
       <c r="M66" s="5">
-        <v>-31.960087247402001</v>
+        <v>12.512213740569544</v>
       </c>
       <c r="N66" s="5">
-        <v>130.63198507515074</v>
+        <v>236.18435810633804</v>
       </c>
       <c r="O66" s="5">
-        <v>122.79461692482596</v>
+        <v>149.54964283759108</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="S66" s="5">
-        <v>0.22635182608908702</v>
+        <v>0.217644927325013</v>
       </c>
       <c r="T66" s="5">
-        <v>0.146160528063774</v>
+        <v>0.21764492988586401</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A67" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C67" s="5">
-        <v>141063440</v>
+        <v>113393272</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="5">
-        <v>2331760.5</v>
+        <v>2862350.5</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5">
-        <v>0.88339124745684405</v>
+        <v>-5.1063292840978214</v>
       </c>
       <c r="I67" s="5">
-        <v>6.4379881751500223</v>
+        <v>3.4810402299131789</v>
       </c>
       <c r="J67" s="5">
-        <v>23.598495995717528</v>
+        <v>43.307303011955071</v>
       </c>
       <c r="K67" s="5">
-        <v>13.996417786170579</v>
+        <v>73.913454606445754</v>
       </c>
       <c r="L67" s="5">
-        <v>70.265334569704848</v>
+        <v>185.05239357323893</v>
       </c>
       <c r="M67" s="5">
-        <v>9.9519845331509806</v>
+        <v>68.298538715911448</v>
       </c>
       <c r="N67" s="5">
-        <v>232.08221704684635</v>
+        <v>599.72361207913468</v>
       </c>
       <c r="O67" s="5">
-        <v>143.87111014275976</v>
+        <v>717.3953648638452</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="Q67" s="4"/>
       <c r="R67" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="S67" s="5">
-        <v>0.21426401897404201</v>
+        <v>3.136226523511763</v>
       </c>
       <c r="T67" s="5">
-        <v>0.21269239485263802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" s="2" customFormat="1" ht="12.75">
-      <c r="A68" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C68" s="5">
-        <v>116403344</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="5">
-        <v>2778870.25</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5">
-        <v>-2.5380869524012528</v>
-      </c>
-      <c r="I68" s="5">
-        <v>11.883543110348139</v>
-      </c>
-      <c r="J68" s="5">
-        <v>53.390477598042182</v>
-      </c>
-      <c r="K68" s="5">
-        <v>77.868927088292892</v>
-      </c>
-      <c r="L68" s="5">
-        <v>194.81363393148436</v>
-      </c>
-      <c r="M68" s="5">
-        <v>77.354861969427617</v>
-      </c>
-      <c r="N68" s="5">
-        <v>633.72042638617893</v>
-      </c>
-      <c r="O68" s="5">
-        <v>761.38027826008317</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S68" s="5">
-        <v>3.136226523511763</v>
-      </c>
-      <c r="T68" s="5">
-        <v>2.8393909931182861</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" s="2" customFormat="1" ht="12.75">
-      <c r="A69" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C69" s="5">
-        <v>100312072</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="5">
-        <v>1028511.1875</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5">
-        <v>-1.684975451888882</v>
-      </c>
-      <c r="I69" s="5">
-        <v>-0.20066302275558701</v>
-      </c>
-      <c r="J69" s="5">
-        <v>-5.1124571793070173</v>
-      </c>
-      <c r="K69" s="5">
-        <v>-36.626578332150359</v>
-      </c>
-      <c r="L69" s="5">
-        <v>10.883520438437388</v>
-      </c>
-      <c r="M69" s="5">
-        <v>-36.525079148336999</v>
-      </c>
-      <c r="N69" s="5">
-        <v>-19.279796879700317</v>
-      </c>
-      <c r="O69" s="5">
-        <v>-24.561324305398259</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="R69" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="S69" s="5">
-        <v>0.50722271559797205</v>
-      </c>
-      <c r="T69" s="5">
-        <v>0.29441654682159402</v>
+        <v>2.6944024562835689</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\29.03.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\31.03.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="208">
   <si>
     <t>USD</t>
   </si>
@@ -120,6 +120,21 @@
     <t>AUD</t>
   </si>
   <si>
+    <t>LAND LN Equity</t>
+  </si>
+  <si>
+    <t>LAND SECURITIES</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>04/06/2023</t>
+  </si>
+  <si>
+    <t>GBp</t>
+  </si>
+  <si>
     <t>MGR AU Equity</t>
   </si>
   <si>
@@ -150,21 +165,6 @@
     <t>JPY</t>
   </si>
   <si>
-    <t>LAND LN Equity</t>
-  </si>
-  <si>
-    <t>LAND SECURITIES</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>04/06/2023</t>
-  </si>
-  <si>
-    <t>GBp</t>
-  </si>
-  <si>
     <t>FUNO11 MM Equity</t>
   </si>
   <si>
@@ -261,6 +261,21 @@
     <t>SGD</t>
   </si>
   <si>
+    <t>GRT SJ Equity</t>
+  </si>
+  <si>
+    <t>GROWTHPOINT PROP</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>04/17/2023</t>
+  </si>
+  <si>
+    <t>ZAr</t>
+  </si>
+  <si>
     <t>HR-U CN Equity</t>
   </si>
   <si>
@@ -273,21 +288,6 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>GRT SJ Equity</t>
-  </si>
-  <si>
-    <t>GROWTHPOINT PROP</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>04/17/2023</t>
-  </si>
-  <si>
-    <t>ZAr</t>
-  </si>
-  <si>
     <t>3309 JP Equity</t>
   </si>
   <si>
@@ -300,6 +300,15 @@
     <t>ACTIVIA PROPERTI</t>
   </si>
   <si>
+    <t>LXI LN Equity</t>
+  </si>
+  <si>
+    <t>LXI REIT PLC</t>
+  </si>
+  <si>
+    <t>03/10/2023</t>
+  </si>
+  <si>
     <t>CLW AU Equity</t>
   </si>
   <si>
@@ -309,15 +318,6 @@
     <t>05/15/2023</t>
   </si>
   <si>
-    <t>LXI LN Equity</t>
-  </si>
-  <si>
-    <t>LXI REIT PLC</t>
-  </si>
-  <si>
-    <t>03/10/2023</t>
-  </si>
-  <si>
     <t>3295 JP Equity</t>
   </si>
   <si>
@@ -363,21 +363,21 @@
     <t>04/04/2023</t>
   </si>
   <si>
+    <t>GNL US Equity</t>
+  </si>
+  <si>
+    <t>GLOBAL NET LEASE</t>
+  </si>
+  <si>
+    <t>01/17/2023</t>
+  </si>
+  <si>
     <t>8966 JP Equity</t>
   </si>
   <si>
     <t>HEIWA REAL ESTAT</t>
   </si>
   <si>
-    <t>GNL US Equity</t>
-  </si>
-  <si>
-    <t>GLOBAL NET LEASE</t>
-  </si>
-  <si>
-    <t>01/17/2023</t>
-  </si>
-  <si>
     <t>405 HK Equity</t>
   </si>
   <si>
@@ -393,19 +393,28 @@
     <t>CNY</t>
   </si>
   <si>
+    <t>AAT US Equity</t>
+  </si>
+  <si>
+    <t>AMERICAN ASSETS</t>
+  </si>
+  <si>
+    <t>03/23/2023</t>
+  </si>
+  <si>
     <t>3296 JP Equity</t>
   </si>
   <si>
     <t>NIPPON REIT INVE</t>
   </si>
   <si>
-    <t>AAT US Equity</t>
-  </si>
-  <si>
-    <t>AMERICAN ASSETS</t>
-  </si>
-  <si>
-    <t>03/23/2023</t>
+    <t>ESRT US Equity</t>
+  </si>
+  <si>
+    <t>EMPIRE STATE REA</t>
+  </si>
+  <si>
+    <t>03/31/2023</t>
   </si>
   <si>
     <t>AHH US Equity</t>
@@ -414,13 +423,19 @@
     <t>ARMADA HOFFLER P</t>
   </si>
   <si>
-    <t>ESRT US Equity</t>
-  </si>
-  <si>
-    <t>EMPIRE STATE REA</t>
-  </si>
-  <si>
-    <t>03/31/2023</t>
+    <t>DGGYO TI Equity</t>
+  </si>
+  <si>
+    <t>DOGUS GAYRIMENKU</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
+    <t>TRY</t>
   </si>
   <si>
     <t>RIT1 IT Equity</t>
@@ -435,6 +450,12 @@
     <t>ILs</t>
   </si>
   <si>
+    <t>UKCM LN Equity</t>
+  </si>
+  <si>
+    <t>UK COMMERCIAL PR</t>
+  </si>
+  <si>
     <t>CNI AU Equity</t>
   </si>
   <si>
@@ -444,31 +465,25 @@
     <t>02/09/2023</t>
   </si>
   <si>
-    <t>UKCM LN Equity</t>
-  </si>
-  <si>
-    <t>UK COMMERCIAL PR</t>
-  </si>
-  <si>
     <t>3468 JP Equity</t>
   </si>
   <si>
     <t>STAR ASIA INVEST</t>
   </si>
   <si>
-    <t>DGGYO TI Equity</t>
-  </si>
-  <si>
-    <t>DOGUS GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Omitted</t>
-  </si>
-  <si>
-    <t>TRY</t>
+    <t>01003T TT Equity</t>
+  </si>
+  <si>
+    <t>SHIN KONG NO 1</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>04/20/2023</t>
+  </si>
+  <si>
+    <t>TWD</t>
   </si>
   <si>
     <t>TRGYO TI Equity</t>
@@ -480,21 +495,6 @@
     <t>Discontinued</t>
   </si>
   <si>
-    <t>01003T TT Equity</t>
-  </si>
-  <si>
-    <t>SHIN KONG NO 1</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>04/20/2023</t>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
     <t>8977 JP Equity</t>
   </si>
   <si>
@@ -513,19 +513,40 @@
     <t>Income</t>
   </si>
   <si>
+    <t>STAR US Equity</t>
+  </si>
+  <si>
+    <t>ISTAR INC</t>
+  </si>
+  <si>
+    <t>09/15/2022</t>
+  </si>
+  <si>
     <t>AX-U CN Equity</t>
   </si>
   <si>
     <t>ARTIS REAL ESTAT</t>
   </si>
   <si>
-    <t>STAR US Equity</t>
-  </si>
-  <si>
-    <t>ISTAR INC</t>
-  </si>
-  <si>
-    <t>09/15/2022</t>
+    <t>GOOD US Equity</t>
+  </si>
+  <si>
+    <t>GLADSTONE COMMER</t>
+  </si>
+  <si>
+    <t>OZKGY TI Equity</t>
+  </si>
+  <si>
+    <t>OZAK GAYRIMENKUL</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>OLP US Equity</t>
+  </si>
+  <si>
+    <t>ONE LIBERTY PROP</t>
   </si>
   <si>
     <t>ISGYO TI Equity</t>
@@ -534,27 +555,6 @@
     <t>IS GAYRIMENKUL Y</t>
   </si>
   <si>
-    <t>OZKGY TI Equity</t>
-  </si>
-  <si>
-    <t>OZAK GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>06/04/2013</t>
-  </si>
-  <si>
-    <t>GOOD US Equity</t>
-  </si>
-  <si>
-    <t>GLADSTONE COMMER</t>
-  </si>
-  <si>
-    <t>OLP US Equity</t>
-  </si>
-  <si>
-    <t>ONE LIBERTY PROP</t>
-  </si>
-  <si>
     <t>3492 JP Equity</t>
   </si>
   <si>
@@ -597,15 +597,6 @@
     <t>PASIFIK GAYRIMEN</t>
   </si>
   <si>
-    <t>MNRT IT Equity</t>
-  </si>
-  <si>
-    <t>MENIVIM</t>
-  </si>
-  <si>
-    <t>04/03/2023</t>
-  </si>
-  <si>
     <t>2971 JP Equity</t>
   </si>
   <si>
@@ -618,6 +609,12 @@
     <t>ALPINE INCOME</t>
   </si>
   <si>
+    <t>AKSGY TI Equity</t>
+  </si>
+  <si>
+    <t>AKIS GAYRIMENKUL</t>
+  </si>
+  <si>
     <t>ALGYO TI Equity</t>
   </si>
   <si>
@@ -627,12 +624,6 @@
     <t>04/27/2023</t>
   </si>
   <si>
-    <t>AKSGY TI Equity</t>
-  </si>
-  <si>
-    <t>AKIS GAYRIMENKUL</t>
-  </si>
-  <si>
     <t>2989 JP Equity</t>
   </si>
   <si>
@@ -652,12 +643,6 @@
   </si>
   <si>
     <t>PEKER GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>KGYO TI Equity</t>
-  </si>
-  <si>
-    <t>YAPI KREDI KORAY</t>
   </si>
 </sst>
 </file>
@@ -1132,13 +1117,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD69"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1234,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>16281078784</v>
+        <v>16472743936</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1243,34 +1228,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>78081512</v>
+        <v>74040144</v>
       </c>
       <c r="G2" s="5">
-        <v>5.5464591979980469</v>
+        <v>5.5356683731079102</v>
       </c>
       <c r="H2" s="5">
-        <v>-0.45278924928536801</v>
+        <v>-5.4978583176490008E-2</v>
       </c>
       <c r="I2" s="5">
-        <v>-1.054390806505612</v>
+        <v>3.931654503863991</v>
       </c>
       <c r="J2" s="5">
-        <v>-5.187292414863065</v>
+        <v>-3.6877817165343769</v>
       </c>
       <c r="K2" s="5">
-        <v>-0.7454432016564041</v>
+        <v>2.1745038874821002E-2</v>
       </c>
       <c r="L2" s="5">
-        <v>8.5046609930628403</v>
+        <v>13.50679828788186</v>
       </c>
       <c r="M2" s="5">
-        <v>-1.535514464755761</v>
+        <v>2.1745038874821002E-2</v>
       </c>
       <c r="N2" s="5">
-        <v>-0.7243507384802621</v>
+        <v>-0.94243209725032306</v>
       </c>
       <c r="O2" s="5">
-        <v>51.644656794618804</v>
+        <v>54.017463129253393</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1285,7 +1270,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>76.949996948242187</v>
+        <v>77.099998474121094</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1296,7 +1281,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6264989184</v>
+        <v>6267674624</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1305,34 +1290,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>28809168</v>
+        <v>29394714</v>
       </c>
       <c r="G3" s="5">
-        <v>6.7605633735656738</v>
+        <v>6.7346935272216797</v>
       </c>
       <c r="H3" s="5">
-        <v>1.25181657011848</v>
+        <v>0.40424780574330704</v>
       </c>
       <c r="I3" s="5">
-        <v>2.6135166194179993</v>
+        <v>1.8532939308771872</v>
       </c>
       <c r="J3" s="5">
-        <v>1.433221805280205</v>
+        <v>1.129224091723779</v>
       </c>
       <c r="K3" s="5">
-        <v>7.3916945549547863</v>
+        <v>5.9285358265187993</v>
       </c>
       <c r="L3" s="5">
-        <v>31.053858940621538</v>
+        <v>28.724872312795657</v>
       </c>
       <c r="M3" s="5">
-        <v>6.2469604261422784</v>
+        <v>5.9285358265187993</v>
       </c>
       <c r="N3" s="5">
-        <v>-10.53127863241844</v>
+        <v>-12.92204882984046</v>
       </c>
       <c r="O3" s="5">
-        <v>141.00642170460981</v>
+        <v>121.05712035200939</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1347,7 +1332,7 @@
         <v>3.3020850141715812</v>
       </c>
       <c r="T3" s="5">
-        <v>2.6299281120300293</v>
+        <v>2.6220459938049321</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1358,69 +1343,69 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5547681792</v>
+        <v>5729465344</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>27015948</v>
+        <v>14375894</v>
       </c>
       <c r="G4" s="5">
-        <v>4.9164676666259775</v>
+        <v>6.3522615432739258</v>
       </c>
       <c r="H4" s="5">
-        <v>1.4767435203410839</v>
+        <v>5.1457888857384892</v>
       </c>
       <c r="I4" s="5">
-        <v>0.30349269050824501</v>
+        <v>7.5297668979717134</v>
       </c>
       <c r="J4" s="5">
-        <v>-8.0781448168012364</v>
+        <v>-7.2208581374770269</v>
       </c>
       <c r="K4" s="5">
-        <v>-2.5061361128715149</v>
+        <v>4.0710744136526866</v>
       </c>
       <c r="L4" s="5">
-        <v>16.601053679193669</v>
+        <v>36.633914584326966</v>
       </c>
       <c r="M4" s="5">
-        <v>-2.998885119931749</v>
+        <v>4.0710744136526866</v>
       </c>
       <c r="N4" s="5">
-        <v>-20.067774813832862</v>
+        <v>-22.788786833028674</v>
       </c>
       <c r="O4" s="5">
-        <v>31.077727401187282</v>
+        <v>29.738043184738515</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="S4" s="5">
-        <v>1.9528599562626601</v>
+        <v>10.40274915754685</v>
       </c>
       <c r="T4" s="5">
-        <v>1.4088898897171021</v>
+        <v>7.7214326858520508</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5450535936</v>
+        <v>5484765696</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1429,37 +1414,37 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>21648258</v>
+        <v>27217288</v>
       </c>
       <c r="G5" s="5">
-        <v>5.8892817497253418</v>
+        <v>4.9758458137512207</v>
       </c>
       <c r="H5" s="5">
-        <v>1.231719103072537</v>
+        <v>-7.8464481447049012E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>-0.39075006284627906</v>
+        <v>2.9828994066738002E-2</v>
       </c>
       <c r="J5" s="5">
-        <v>-10.341105700222853</v>
+        <v>-9.4318282865693099</v>
       </c>
       <c r="K5" s="5">
-        <v>0.25262727364396803</v>
+        <v>-4.427368101487394</v>
       </c>
       <c r="L5" s="5">
-        <v>20.112176501073332</v>
+        <v>13.692042644260471</v>
       </c>
       <c r="M5" s="5">
-        <v>-0.44186855042013301</v>
+        <v>-4.427368101487394</v>
       </c>
       <c r="N5" s="5">
-        <v>-19.864411561316764</v>
+        <v>-23.337660638730163</v>
       </c>
       <c r="O5" s="5">
-        <v>64.210727882280054</v>
+        <v>26.225164555145099</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>31</v>
@@ -1468,70 +1453,72 @@
         <v>32</v>
       </c>
       <c r="S5" s="5">
-        <v>4.000457090394316</v>
+        <v>1.9528599562626601</v>
       </c>
       <c r="T5" s="5">
-        <v>2.8513250350952148</v>
+        <v>1.388141989707947</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5334912000</v>
+        <v>5415366656</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>12680507</v>
+        <v>21539958</v>
       </c>
       <c r="G6" s="5">
-        <v>4.5818181037902832</v>
+        <v>5.9311981201171884</v>
       </c>
       <c r="H6" s="5">
-        <v>1.5140926627997819</v>
+        <v>0.16632893555201803</v>
       </c>
       <c r="I6" s="5">
-        <v>2.8146765441592558</v>
+        <v>2.9828994066738002E-2</v>
       </c>
       <c r="J6" s="5">
-        <v>1.9864757830705182</v>
+        <v>-11.22466659619924</v>
       </c>
       <c r="K6" s="5">
-        <v>-5.4740637415739872</v>
+        <v>-1.422983391421961</v>
       </c>
       <c r="L6" s="5">
-        <v>6.3168384894073171</v>
+        <v>17.965565559684805</v>
       </c>
       <c r="M6" s="5">
-        <v>-6.8579228847881595</v>
+        <v>-1.422983391421961</v>
       </c>
       <c r="N6" s="5">
-        <v>-10.230787731565261</v>
+        <v>-22.879546860972521</v>
       </c>
       <c r="O6" s="5">
-        <v>6.6131698608483891</v>
+        <v>51.084517688907162</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R6" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="S6" s="5">
-        <v>1362.9327902240325</v>
+        <v>4.000457090394316</v>
       </c>
       <c r="T6" s="5">
-        <v>1133.93408203125</v>
+        <v>2.8232259750366211</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1542,7 +1529,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5280458752</v>
+        <v>5297977344</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1551,49 +1538,47 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>14667555</v>
+        <v>12163966</v>
       </c>
       <c r="G7" s="5">
-        <v>6.8607068061828613</v>
+        <v>4.5359997749328613</v>
       </c>
       <c r="H7" s="5">
-        <v>0.74097879902248509</v>
+        <v>0.80119863951271209</v>
       </c>
       <c r="I7" s="5">
-        <v>-4.8142671757730904</v>
+        <v>1.2749203013105341</v>
       </c>
       <c r="J7" s="5">
-        <v>-14.387986667490271</v>
+        <v>1.9039150220549361</v>
       </c>
       <c r="K7" s="5">
-        <v>-3.8163938479601871</v>
+        <v>-6.9333238701654754</v>
       </c>
       <c r="L7" s="5">
-        <v>29.898749952854153</v>
+        <v>4.930323763463651</v>
       </c>
       <c r="M7" s="5">
-        <v>-3.9683485817060831</v>
+        <v>-6.9333238701654754</v>
       </c>
       <c r="N7" s="5">
-        <v>-27.41526641906291</v>
+        <v>-10.288964101074427</v>
       </c>
       <c r="O7" s="5">
-        <v>13.647681742208295</v>
+        <v>-2.544027406166105</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S7" s="5">
-        <v>10.679378389371825</v>
+        <v>1362.9327902240325</v>
       </c>
       <c r="T7" s="5">
-        <v>7.1249570846557617</v>
+        <v>1133.01611328125</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1604,7 +1589,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5242113024</v>
+        <v>5266500608</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1613,34 +1598,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>10503269</v>
+        <v>10324321</v>
       </c>
       <c r="G8" s="5">
-        <v>2.4893872737884521</v>
+        <v>2.4873948097228999</v>
       </c>
       <c r="H8" s="5">
-        <v>0.83918487883087911</v>
+        <v>0.34410647215856704</v>
       </c>
       <c r="I8" s="5">
-        <v>8.7517795374721494</v>
+        <v>5.6898563583821948</v>
       </c>
       <c r="J8" s="5">
-        <v>-2.998434336242894</v>
+        <v>-2.2731710156095541</v>
       </c>
       <c r="K8" s="5">
-        <v>18.094372817071445</v>
+        <v>22.389251457077375</v>
       </c>
       <c r="L8" s="5">
-        <v>42.142624102212253</v>
+        <v>43.210714712349564</v>
       </c>
       <c r="M8" s="5">
-        <v>21.48096009180891</v>
+        <v>22.389251457077375</v>
       </c>
       <c r="N8" s="5">
-        <v>33.386397352767403</v>
+        <v>32.545452641005298</v>
       </c>
       <c r="O8" s="5">
-        <v>109.69629050352397</v>
+        <v>132.21839207899001</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1655,7 +1640,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.369697690010071</v>
+        <v>1.3799387216567991</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1666,56 +1651,56 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4788480000</v>
+        <v>4754696704</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>9883520</v>
+        <v>8966261</v>
       </c>
       <c r="G9" s="5">
-        <v>4.1343669891357422</v>
+        <v>4.0935673713684082</v>
       </c>
       <c r="H9" s="5">
-        <v>0.86101604524462205</v>
+        <v>0.45339941401265604</v>
       </c>
       <c r="I9" s="5">
-        <v>2.7074757433465551</v>
+        <v>1.668445705909916</v>
       </c>
       <c r="J9" s="5">
-        <v>-5.9564463927675004E-2</v>
+        <v>-0.15373927059957301</v>
       </c>
       <c r="K9" s="5">
-        <v>-5.1417258867904607</v>
+        <v>-5.8616358051388318</v>
       </c>
       <c r="L9" s="5">
-        <v>1.6156116828999201</v>
+        <v>1.3641599211042801</v>
       </c>
       <c r="M9" s="5">
-        <v>-5.7728446758196661</v>
+        <v>-5.8616358051388318</v>
       </c>
       <c r="N9" s="5">
-        <v>-18.384382281312163</v>
+        <v>-19.452439833541835</v>
       </c>
       <c r="O9" s="5">
-        <v>-0.93755820399911105</v>
+        <v>-3.9289277095818309</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S9" s="5">
         <v>2802.4439918533603</v>
       </c>
       <c r="T9" s="5">
-        <v>2068.570556640625</v>
+        <v>2066.621337890625</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1726,43 +1711,43 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4158510848</v>
+        <v>4463822848</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>15204512</v>
+        <v>15592892</v>
       </c>
       <c r="G10" s="5">
-        <v>6.3806381225585937</v>
+        <v>5.9716863632202148</v>
       </c>
       <c r="H10" s="5">
-        <v>-0.13507838209123602</v>
+        <v>4.4988732980640664</v>
       </c>
       <c r="I10" s="5">
-        <v>-7.7961262624716143</v>
+        <v>6.3666015531838926</v>
       </c>
       <c r="J10" s="5">
-        <v>-16.961697971374466</v>
+        <v>-10.973200890795399</v>
       </c>
       <c r="K10" s="5">
-        <v>-5.8947446666788856</v>
+        <v>0.670330473983483</v>
       </c>
       <c r="L10" s="5">
-        <v>20.207682044572817</v>
+        <v>26.801848987321407</v>
       </c>
       <c r="M10" s="5">
-        <v>-6.1013830569599197</v>
+        <v>0.670330473983483</v>
       </c>
       <c r="N10" s="5">
-        <v>-32.300866436967347</v>
+        <v>-28.494025690438495</v>
       </c>
       <c r="O10" s="5">
-        <v>17.061494761153352</v>
+        <v>32.264275363173333</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1771,13 +1756,13 @@
         <v>58</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S10" s="5">
-        <v>7.1818816476984253</v>
+        <v>7.0465491486094116</v>
       </c>
       <c r="T10" s="5">
-        <v>4.4882783889770508</v>
+        <v>4.8119606971740723</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1788,7 +1773,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>3880302080</v>
+        <v>4122844672</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1797,34 +1782,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9245712</v>
+        <v>9409222</v>
       </c>
       <c r="G11" s="5">
-        <v>2.1273801326751709</v>
+        <v>2.013673067092896</v>
       </c>
       <c r="H11" s="5">
-        <v>-1.086109442186256</v>
+        <v>3.4764936661949801</v>
       </c>
       <c r="I11" s="5">
-        <v>-6.0026844352424904</v>
+        <v>3.4826450611361142</v>
       </c>
       <c r="J11" s="5">
-        <v>-13.409950757267231</v>
+        <v>-7.9888623363385092</v>
       </c>
       <c r="K11" s="5">
-        <v>-11.731806093813969</v>
+        <v>-6.6585383805380154</v>
       </c>
       <c r="L11" s="5">
-        <v>11.044829655733723</v>
+        <v>15.900809854266718</v>
       </c>
       <c r="M11" s="5">
-        <v>-12.158006484361605</v>
+        <v>-6.6585383805380154</v>
       </c>
       <c r="N11" s="5">
-        <v>-20.917792781717026</v>
+        <v>-17.463787403349961</v>
       </c>
       <c r="O11" s="5">
-        <v>28.369690682367519</v>
+        <v>42.883151425400555</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1839,7 +1824,7 @@
         <v>12.193224623203276</v>
       </c>
       <c r="T11" s="5">
-        <v>8.2561826705932617</v>
+        <v>8.7730722427368164</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1850,7 +1835,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3661019136</v>
+        <v>3717910272</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1859,34 +1844,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>24396550</v>
+        <v>22413822</v>
       </c>
       <c r="G12" s="5">
-        <v>4.5909852981567383</v>
+        <v>4.5323443412780762</v>
       </c>
       <c r="H12" s="5">
-        <v>0.62998581224174</v>
+        <v>1.5095112988980031</v>
       </c>
       <c r="I12" s="5">
-        <v>-1.3585912664323301</v>
+        <v>6.2094331927776913</v>
       </c>
       <c r="J12" s="5">
-        <v>-6.9875820202479622</v>
+        <v>-4.7166154111812126</v>
       </c>
       <c r="K12" s="5">
-        <v>5.1721643566969178</v>
+        <v>4.5803240752536389</v>
       </c>
       <c r="L12" s="5">
-        <v>20.694218938360432</v>
+        <v>27.681613713967824</v>
       </c>
       <c r="M12" s="5">
-        <v>2.087770709219217</v>
+        <v>4.5803240752536389</v>
       </c>
       <c r="N12" s="5">
-        <v>0.10569241681812601</v>
+        <v>0.11862879682766901</v>
       </c>
       <c r="O12" s="5">
-        <v>89.381984926255683</v>
+        <v>105.26892841849312</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1901,7 +1886,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>23.959999084472656</v>
+        <v>24.270000457763672</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1912,7 +1897,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3537221888</v>
+        <v>3493793792</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
@@ -1921,34 +1906,34 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>18620244</v>
+        <v>18624394</v>
       </c>
       <c r="G13" s="5">
-        <v>3.7082583904266362</v>
+        <v>3.752043485641479</v>
       </c>
       <c r="H13" s="5">
-        <v>3.7808328699632021</v>
+        <v>-0.50029838675204108</v>
       </c>
       <c r="I13" s="5">
-        <v>-1.338718510910353</v>
+        <v>-0.51283208062774499</v>
       </c>
       <c r="J13" s="5">
-        <v>-16.612593590863291</v>
+        <v>-17.918414097190329</v>
       </c>
       <c r="K13" s="5">
-        <v>-6.9392539408565934</v>
+        <v>-9.701876578771806</v>
       </c>
       <c r="L13" s="5">
-        <v>1.7667674790739381</v>
+        <v>1.658568747944611</v>
       </c>
       <c r="M13" s="5">
-        <v>-8.2653407230208309</v>
+        <v>-9.701876578771806</v>
       </c>
       <c r="N13" s="5">
-        <v>-34.194173688327176</v>
+        <v>-37.899864606524517</v>
       </c>
       <c r="O13" s="5">
-        <v>108.26782255272036</v>
+        <v>98.634299613147775</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>30</v>
@@ -1963,7 +1948,7 @@
         <v>12.790835624888677</v>
       </c>
       <c r="T13" s="5">
-        <v>7.493952751159668</v>
+        <v>7.3765997886657715</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1974,7 +1959,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="5">
-        <v>3453201664</v>
+        <v>3416388096</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>70</v>
@@ -1983,37 +1968,37 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>8320577</v>
+        <v>8222977.5</v>
       </c>
       <c r="G14" s="5">
-        <v>10.638820648193359</v>
+        <v>10.231569290161133</v>
       </c>
       <c r="H14" s="5">
-        <v>-2.0776877539700922</v>
+        <v>3.751076360038974</v>
       </c>
       <c r="I14" s="5">
-        <v>-7.5441418349797562</v>
+        <v>-2.345512138303163</v>
       </c>
       <c r="J14" s="5">
-        <v>-12.224394426912955</v>
+        <v>-8.2002858464609645</v>
       </c>
       <c r="K14" s="5">
-        <v>7.978765918921904</v>
+        <v>11.953143395423504</v>
       </c>
       <c r="L14" s="5">
-        <v>26.140391093817449</v>
+        <v>29.026293097044121</v>
       </c>
       <c r="M14" s="5">
-        <v>7.0455942913751457</v>
+        <v>11.953143395423504</v>
       </c>
       <c r="N14" s="5">
-        <v>-22.209738118991464</v>
+        <v>-22.897047086424351</v>
       </c>
       <c r="O14" s="5">
-        <v>-31.374214668643198</v>
+        <v>-28.514319639395779</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
@@ -2023,7 +2008,7 @@
         <v>68.2096266746521</v>
       </c>
       <c r="T14" s="5">
-        <v>44.126941680908203</v>
+        <v>46.149959564208984</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2034,56 +2019,56 @@
         <v>72</v>
       </c>
       <c r="C15" s="5">
-        <v>3338215424</v>
+        <v>3339979520</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7592726</v>
+        <v>7065282.5</v>
       </c>
       <c r="G15" s="5">
-        <v>4.4752473831176758</v>
+        <v>4.3974981307983398</v>
       </c>
       <c r="H15" s="5">
-        <v>2.076881229460481</v>
+        <v>1.5370473895811592</v>
       </c>
       <c r="I15" s="5">
-        <v>2.6042881215104563</v>
+        <v>2.0351360588664269</v>
       </c>
       <c r="J15" s="5">
-        <v>-2.5022369513104441</v>
+        <v>-1.8501782303754539</v>
       </c>
       <c r="K15" s="5">
-        <v>-3.9279220591931669</v>
+        <v>-5.4448749088353292</v>
       </c>
       <c r="L15" s="5">
-        <v>8.0940095425544136</v>
+        <v>7.3682084848090135</v>
       </c>
       <c r="M15" s="5">
-        <v>-6.0730522484693132</v>
+        <v>-5.4448749088353292</v>
       </c>
       <c r="N15" s="5">
-        <v>-0.23768170968350202</v>
+        <v>-1.4285717685431631</v>
       </c>
       <c r="O15" s="5">
-        <v>24.792114052698345</v>
+        <v>27.780474150965073</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S15" s="5">
         <v>1187.971105527638</v>
       </c>
       <c r="T15" s="5">
-        <v>1079.718994140625</v>
+        <v>1086.9400634765625</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2094,7 +2079,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="5">
-        <v>3137531392</v>
+        <v>3163739904</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -2103,31 +2088,31 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>17611402</v>
+        <v>17424312</v>
       </c>
       <c r="G16" s="5">
-        <v>6.5632457733154297</v>
+        <v>6.5554227828979492</v>
       </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>0.91716777947319406</v>
       </c>
       <c r="I16" s="5">
-        <v>-0.71089418158072304</v>
+        <v>4.5677559318294758</v>
       </c>
       <c r="J16" s="5">
-        <v>-5.5774634992572629</v>
+        <v>-3.9154845803166189</v>
       </c>
       <c r="K16" s="5">
-        <v>3.5425858794772003</v>
+        <v>5.2128386994348297</v>
       </c>
       <c r="L16" s="5">
-        <v>7.52920823826293</v>
+        <v>11.674769993884105</v>
       </c>
       <c r="M16" s="5">
-        <v>3.3929745556618762</v>
+        <v>5.2128386994348297</v>
       </c>
       <c r="N16" s="5">
-        <v>-18.428175753403398</v>
+        <v>-18.689477284855826</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="4" t="s">
@@ -2143,7 +2128,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T16" s="5">
-        <v>16.760000228881836</v>
+        <v>16.780000686645508</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2154,7 +2139,7 @@
         <v>76</v>
       </c>
       <c r="C17" s="5">
-        <v>3087824128</v>
+        <v>3087358976</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>77</v>
@@ -2163,34 +2148,34 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>11212896</v>
+        <v>11409005</v>
       </c>
       <c r="G17" s="5">
         <v>5.6056337356567383</v>
       </c>
       <c r="H17" s="5">
-        <v>0.31638282647443705</v>
+        <v>0.13556562510326201</v>
       </c>
       <c r="I17" s="5">
-        <v>0.77589327719700407</v>
+        <v>-0.18074409783107601</v>
       </c>
       <c r="J17" s="5">
-        <v>1.4312587987467931</v>
+        <v>1.4083452388873101</v>
       </c>
       <c r="K17" s="5">
-        <v>5.3508731588488123</v>
+        <v>5.241462956623244</v>
       </c>
       <c r="L17" s="5">
-        <v>3.5097821997657208</v>
+        <v>3.421566066680803</v>
       </c>
       <c r="M17" s="5">
-        <v>5.2652426224434112</v>
+        <v>5.241462956623244</v>
       </c>
       <c r="N17" s="5">
-        <v>-11.798915377066589</v>
+        <v>-12.835330641970987</v>
       </c>
       <c r="O17" s="5">
-        <v>35.764647252872962</v>
+        <v>45.269489048545175</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>78</v>
@@ -2205,7 +2190,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T17" s="5">
-        <v>1.069679856300354</v>
+        <v>1.069438099861145</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2216,7 +2201,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="5">
-        <v>2465670144</v>
+        <v>2506317568</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>82</v>
@@ -2225,111 +2210,111 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9392646</v>
+        <v>10424587</v>
       </c>
       <c r="G18" s="5">
-        <v>4.9586777687072754</v>
+        <v>10.092308044433594</v>
       </c>
       <c r="H18" s="5">
-        <v>-0.44928264772286003</v>
+        <v>1.420873522327581</v>
       </c>
       <c r="I18" s="5">
-        <v>-2.0898661823326452</v>
+        <v>3.094463532664848</v>
       </c>
       <c r="J18" s="5">
-        <v>-7.6226243651824728</v>
+        <v>-0.55684160430973206</v>
       </c>
       <c r="K18" s="5">
-        <v>2.0813634737809168</v>
+        <v>-14.569920418156102</v>
       </c>
       <c r="L18" s="5">
-        <v>16.352206598537357</v>
+        <v>17.6043964647397</v>
       </c>
       <c r="M18" s="5">
-        <v>0.12690763223479601</v>
+        <v>-14.569920418156102</v>
       </c>
       <c r="N18" s="5">
-        <v>-10.793839559293373</v>
+        <v>-21.173427392661146</v>
       </c>
       <c r="O18" s="5">
-        <v>122.63646419481233</v>
+        <v>51.667483989183836</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S18" s="5">
-        <v>11.425618100945441</v>
+        <v>1.014260916919097</v>
       </c>
       <c r="T18" s="5">
-        <v>8.8937892913818359</v>
+        <v>0.72900605201721203</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
-        <v>2438661632</v>
+        <v>2489675008</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>10647350</v>
+        <v>9335041</v>
       </c>
       <c r="G19" s="5">
-        <v>10.084550857543945</v>
+        <v>4.8426151275634775</v>
       </c>
       <c r="H19" s="5">
-        <v>1.7305378968064391</v>
+        <v>1.805690341397526</v>
       </c>
       <c r="I19" s="5">
-        <v>4.6319870985216172</v>
+        <v>4.3555618185934231</v>
       </c>
       <c r="J19" s="5">
-        <v>-2.2933999076833689</v>
+        <v>-4.4933827289121764</v>
       </c>
       <c r="K19" s="5">
-        <v>-16.851249332951724</v>
+        <v>3.5186538586367</v>
       </c>
       <c r="L19" s="5">
-        <v>13.703520212783715</v>
+        <v>23.903753826294437</v>
       </c>
       <c r="M19" s="5">
-        <v>-16.061770802326425</v>
+        <v>3.5186538586367</v>
       </c>
       <c r="N19" s="5">
-        <v>-21.97479034012234</v>
+        <v>-8.9562675100463895</v>
       </c>
       <c r="O19" s="5">
-        <v>47.933210262229743</v>
+        <v>129.06177490002904</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>88</v>
       </c>
       <c r="S19" s="5">
-        <v>1.0297254546268939</v>
+        <v>11.425618100945441</v>
       </c>
       <c r="T19" s="5">
-        <v>0.7162755727767941</v>
+        <v>9.1581048965454102</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2340,56 +2325,56 @@
         <v>90</v>
       </c>
       <c r="C20" s="5">
-        <v>2340128768</v>
+        <v>2366328576</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>5589826</v>
+        <v>5638396.5</v>
       </c>
       <c r="G20" s="5">
-        <v>4.7960057258605957</v>
+        <v>5.1456308364868164</v>
       </c>
       <c r="H20" s="5">
-        <v>1.2105993519827549</v>
+        <v>2.7618751547284992</v>
       </c>
       <c r="I20" s="5">
-        <v>3.364826048770198</v>
+        <v>2.2478569818522591</v>
       </c>
       <c r="J20" s="5">
-        <v>0.82676462371096304</v>
+        <v>2.5832744555353</v>
       </c>
       <c r="K20" s="5">
-        <v>-4.2352077625172786</v>
+        <v>-4.3586519745438927</v>
       </c>
       <c r="L20" s="5">
-        <v>-1.6629053541849852</v>
+        <v>-0.83931519702688007</v>
       </c>
       <c r="M20" s="5">
-        <v>-5.9962967955664919</v>
+        <v>-4.3586519745438927</v>
       </c>
       <c r="N20" s="5">
-        <v>-12.995425896151369</v>
+        <v>-12.775717683698185</v>
       </c>
       <c r="O20" s="5">
-        <v>1.5316682671377762</v>
+        <v>-0.61405014422594206</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S20" s="5">
         <v>674.54175152749485</v>
       </c>
       <c r="T20" s="5">
-        <v>535.2779541015625</v>
+        <v>544.60308837890625</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2400,56 +2385,56 @@
         <v>92</v>
       </c>
       <c r="C21" s="5">
-        <v>2296847616</v>
+        <v>2306829568</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>6732227.5</v>
+        <v>6708577</v>
       </c>
       <c r="G21" s="5">
-        <v>5.0134773254394531</v>
+        <v>4.9076519012451172</v>
       </c>
       <c r="H21" s="5">
-        <v>1.5839424499511261</v>
+        <v>0.86170613192315704</v>
       </c>
       <c r="I21" s="5">
-        <v>3.3822929792084011</v>
+        <v>2.4952068923008719</v>
       </c>
       <c r="J21" s="5">
-        <v>-1.977149673492562</v>
+        <v>-0.94506746841304112</v>
       </c>
       <c r="K21" s="5">
-        <v>-7.6252690910933776</v>
+        <v>-9.1890101096160244</v>
       </c>
       <c r="L21" s="5">
-        <v>-0.49544992874291904</v>
+        <v>6.5964451695533E-2</v>
       </c>
       <c r="M21" s="5">
-        <v>-10.135196274163006</v>
+        <v>-9.1890101096160244</v>
       </c>
       <c r="N21" s="5">
-        <v>-12.377530605594455</v>
+        <v>-12.426266062262536</v>
       </c>
       <c r="O21" s="5">
-        <v>4.8973545657280182</v>
+        <v>6.3920106934626695</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S21" s="5">
         <v>3531.5682281059062</v>
       </c>
       <c r="T21" s="5">
-        <v>2832.926025390625</v>
+        <v>2862.75390625</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2460,58 +2445,58 @@
         <v>94</v>
       </c>
       <c r="C22" s="5">
-        <v>2057079296</v>
+        <v>2080294912</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>5384102.5</v>
+        <v>8108051.5</v>
       </c>
       <c r="G22" s="5">
-        <v>6.5804934501647949</v>
+        <v>6.3585290908813477</v>
       </c>
       <c r="H22" s="5">
-        <v>1.4710316528414811</v>
+        <v>2.9387937252113532</v>
       </c>
       <c r="I22" s="5">
-        <v>-0.158555352595213</v>
+        <v>1.2161248311082671</v>
       </c>
       <c r="J22" s="5">
-        <v>-8.1970860158317667</v>
+        <v>-11.471728747372667</v>
       </c>
       <c r="K22" s="5">
-        <v>-5.0005495677296841</v>
+        <v>-9.7828928975651657</v>
       </c>
       <c r="L22" s="5">
-        <v>14.267827232399345</v>
+        <v>-9.7196128023989807</v>
       </c>
       <c r="M22" s="5">
-        <v>-5.6108015119619381</v>
+        <v>-9.7828928975651657</v>
       </c>
       <c r="N22" s="5">
-        <v>-22.942976029275542</v>
+        <v>-34.778021039590577</v>
       </c>
       <c r="O22" s="5">
-        <v>33.058846807097652</v>
+        <v>6.8062171136615612</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>95</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="S22" s="5">
-        <v>4.1295041516920517</v>
+        <v>1.9808639392</v>
       </c>
       <c r="T22" s="5">
-        <v>2.8513250350952148</v>
+        <v>1.212589383125305</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2522,58 +2507,58 @@
         <v>97</v>
       </c>
       <c r="C23" s="5">
-        <v>1990352000</v>
+        <v>2014678144</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>8125987.5</v>
+        <v>5292651.5</v>
       </c>
       <c r="G23" s="5">
-        <v>6.6153030395507813</v>
+        <v>6.7388687133789062</v>
       </c>
       <c r="H23" s="5">
-        <v>-0.87282703098547909</v>
+        <v>-6.9353670447425006E-2</v>
       </c>
       <c r="I23" s="5">
-        <v>-3.9482495755458262</v>
+        <v>-0.20664068857911802</v>
       </c>
       <c r="J23" s="5">
-        <v>-15.19650642754462</v>
+        <v>-8.8858606824309341</v>
       </c>
       <c r="K23" s="5">
-        <v>-13.498546062608208</v>
+        <v>-6.3189826351903511</v>
       </c>
       <c r="L23" s="5">
-        <v>-9.3237099678090463</v>
+        <v>12.592098137219843</v>
       </c>
       <c r="M23" s="5">
-        <v>-13.578727405006298</v>
+        <v>-6.3189826351903511</v>
       </c>
       <c r="N23" s="5">
-        <v>-37.095361866016532</v>
+        <v>-24.973595842371786</v>
       </c>
       <c r="O23" s="5">
-        <v>3.6628253261572041</v>
+        <v>29.574459947624621</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>98</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="S23" s="5">
-        <v>1.9808639392</v>
+        <v>4.1295041516920517</v>
       </c>
       <c r="T23" s="5">
-        <v>1.1615704298019409</v>
+        <v>2.7829899787902832</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2584,56 +2569,56 @@
         <v>100</v>
       </c>
       <c r="C24" s="5">
-        <v>1621577088</v>
+        <v>1616898944</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3141176.75</v>
+        <v>2948487.25</v>
       </c>
       <c r="G24" s="5">
-        <v>4.7090663909912109</v>
+        <v>4.6430954933166504</v>
       </c>
       <c r="H24" s="5">
-        <v>1.311251930289048</v>
+        <v>1.141003892300207</v>
       </c>
       <c r="I24" s="5">
-        <v>3.4630942938229659</v>
+        <v>1.6936437878548589</v>
       </c>
       <c r="J24" s="5">
-        <v>0.50731442209688304</v>
+        <v>0.83431371071962501</v>
       </c>
       <c r="K24" s="5">
-        <v>-6.3475839199099493</v>
+        <v>-7.4230520680516721</v>
       </c>
       <c r="L24" s="5">
-        <v>3.7330532094625113</v>
+        <v>1.2763278731540371</v>
       </c>
       <c r="M24" s="5">
-        <v>-7.7232732427944377</v>
+        <v>-7.4230520680516721</v>
       </c>
       <c r="N24" s="5">
-        <v>-11.195565003776553</v>
+        <v>-12.363679031522889</v>
       </c>
       <c r="O24" s="5">
-        <v>14.079481895057633</v>
+        <v>14.729582006885966</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S24" s="5">
         <v>1391.4460285132382</v>
       </c>
       <c r="T24" s="5">
-        <v>1128.5888671875</v>
+        <v>1132.2607421875</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2644,7 +2629,7 @@
         <v>102</v>
       </c>
       <c r="C25" s="5">
-        <v>1543623680</v>
+        <v>1554236032</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2653,34 +2638,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>2942682.75</v>
+        <v>3032026.5</v>
       </c>
       <c r="G25" s="5">
-        <v>7.073643684387207</v>
+        <v>7.0192313194274902</v>
       </c>
       <c r="H25" s="5">
-        <v>1.782532521928037</v>
+        <v>0.79341119730094212</v>
       </c>
       <c r="I25" s="5">
-        <v>1.5684797648909401</v>
+        <v>2.402075667490378</v>
       </c>
       <c r="J25" s="5">
-        <v>-9.7334746242568322</v>
+        <v>-9.4241234436177592</v>
       </c>
       <c r="K25" s="5">
-        <v>-2.6511506567743259</v>
+        <v>-3.152854776524217</v>
       </c>
       <c r="L25" s="5">
-        <v>10.785440899051979</v>
+        <v>12.165076259169183</v>
       </c>
       <c r="M25" s="5">
-        <v>-3.4836247326698428</v>
+        <v>-3.152854776524217</v>
       </c>
       <c r="N25" s="5">
-        <v>-25.701383288879487</v>
+        <v>-25.664980213401268</v>
       </c>
       <c r="O25" s="5">
-        <v>45.764160415096079</v>
+        <v>51.83278314806212</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2695,7 +2680,7 @@
         <v>2.5733491470937611</v>
       </c>
       <c r="T25" s="5">
-        <v>1.730921864509583</v>
+        <v>1.7368539571762081</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2703,10 +2688,10 @@
         <v>103</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" s="5">
-        <v>1538426752</v>
+        <v>1548165888</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2715,34 +2700,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>1675764.875</v>
+        <v>1656114.625</v>
       </c>
       <c r="G26" s="5">
         <v>6.9983415603637704</v>
       </c>
       <c r="H26" s="5">
-        <v>0.65799504088821503</v>
+        <v>1.4150278534965421</v>
       </c>
       <c r="I26" s="5">
-        <v>0.11370388014038101</v>
+        <v>1.036839728542716</v>
       </c>
       <c r="J26" s="5">
-        <v>-7.1372423191382257</v>
+        <v>-6.8693617004368495</v>
       </c>
       <c r="K26" s="5">
-        <v>0.11892945344493801</v>
+        <v>-0.667110574484298</v>
       </c>
       <c r="L26" s="5">
-        <v>5.5987900470167107</v>
+        <v>5.8890351719007139</v>
       </c>
       <c r="M26" s="5">
-        <v>-0.9528313250616981</v>
+        <v>-0.667110574484298</v>
       </c>
       <c r="N26" s="5">
-        <v>-34.470739219803804</v>
+        <v>-34.623682746937433</v>
       </c>
       <c r="O26" s="5">
-        <v>52.539071485122648</v>
+        <v>59.00776643410812</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2757,7 +2742,7 @@
         <v>3.362812957848845</v>
       </c>
       <c r="T26" s="5">
-        <v>2.0126998424530029</v>
+        <v>2.0185060501098628</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2768,58 +2753,58 @@
         <v>105</v>
       </c>
       <c r="C27" s="5">
-        <v>1397887488</v>
+        <v>1444316544</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3471409.5</v>
+        <v>3449627.25</v>
       </c>
       <c r="G27" s="5">
-        <v>11.771756172180176</v>
+        <v>11.644149780273437</v>
       </c>
       <c r="H27" s="5">
-        <v>2.35066063507483</v>
+        <v>2.6900772040463932</v>
       </c>
       <c r="I27" s="5">
-        <v>4.5921128761147179</v>
+        <v>2.1805239631382149</v>
       </c>
       <c r="J27" s="5">
-        <v>-3.5559643180500533</v>
+        <v>-0.6898062784433171</v>
       </c>
       <c r="K27" s="5">
-        <v>-18.766778687452334</v>
+        <v>-16.647647067233351</v>
       </c>
       <c r="L27" s="5">
-        <v>8.2935333641813713</v>
+        <v>10.301849840983589</v>
       </c>
       <c r="M27" s="5">
-        <v>-19.053251240639881</v>
+        <v>-16.647647067233351</v>
       </c>
       <c r="N27" s="5">
-        <v>-27.105222297163213</v>
+        <v>-28.078033299228732</v>
       </c>
       <c r="O27" s="5">
-        <v>88.439137531201467</v>
+        <v>95.710234863722761</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>106</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S27" s="5">
-        <v>0.32112818480585403</v>
+        <v>0.31711016131256003</v>
       </c>
       <c r="T27" s="5">
-        <v>0.20095355808734902</v>
+        <v>0.20692555606365201</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2830,56 +2815,56 @@
         <v>108</v>
       </c>
       <c r="C28" s="5">
-        <v>1389353984</v>
+        <v>1394285696</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>2971531</v>
+        <v>2921248</v>
       </c>
       <c r="G28" s="5">
-        <v>4.7348194122314453</v>
+        <v>4.6385540962219238</v>
       </c>
       <c r="H28" s="5">
-        <v>0.87638566468424306</v>
+        <v>0.575062617167998</v>
       </c>
       <c r="I28" s="5">
-        <v>1.7002208602005191</v>
+        <v>1.051008391298702</v>
       </c>
       <c r="J28" s="5">
-        <v>-0.72248036380490011</v>
+        <v>0.24325862910292703</v>
       </c>
       <c r="K28" s="5">
-        <v>-4.1704866256341511</v>
+        <v>-4.2857084341636709</v>
       </c>
       <c r="L28" s="5">
-        <v>4.1001651010180006E-3</v>
+        <v>0.16074023578747101</v>
       </c>
       <c r="M28" s="5">
-        <v>-5.2078155644364799</v>
+        <v>-4.2857084341636709</v>
       </c>
       <c r="N28" s="5">
-        <v>-19.837412681457213</v>
+        <v>-19.740548678313719</v>
       </c>
       <c r="O28" s="5">
-        <v>16.367366103567061</v>
+        <v>12.425901829209041</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S28" s="5">
-        <v>1336.788417242514</v>
+        <v>1333.6048879837067</v>
       </c>
       <c r="T28" s="5">
-        <v>993.43310546875</v>
+        <v>1003.096923828125</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2890,56 +2875,56 @@
         <v>110</v>
       </c>
       <c r="C29" s="5">
-        <v>1328046336</v>
+        <v>1318844672</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>3218937.5</v>
+        <v>2919408.75</v>
       </c>
       <c r="G29" s="5">
-        <v>3.8137969970703129</v>
+        <v>3.7756800651550293</v>
       </c>
       <c r="H29" s="5">
-        <v>0.99850516063484407</v>
+        <v>0.81212346215857611</v>
       </c>
       <c r="I29" s="5">
-        <v>1.0963250798352591</v>
+        <v>0.40531545829465304</v>
       </c>
       <c r="J29" s="5">
-        <v>-5.3235035643913857</v>
+        <v>-5.4006772686026157</v>
       </c>
       <c r="K29" s="5">
-        <v>-10.650313665813659</v>
+        <v>-12.370220601652282</v>
       </c>
       <c r="L29" s="5">
-        <v>3.1032182276941271</v>
+        <v>1.9077782980758462</v>
       </c>
       <c r="M29" s="5">
-        <v>-12.298732619707797</v>
+        <v>-12.370220601652282</v>
       </c>
       <c r="N29" s="5">
-        <v>-9.600676375380635</v>
+        <v>-11.367484719040444</v>
       </c>
       <c r="O29" s="5">
-        <v>24.852579558363196</v>
+        <v>24.091213966703108</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S29" s="5">
-        <v>1637.0516617308324</v>
+        <v>1629.3279022403258</v>
       </c>
       <c r="T29" s="5">
-        <v>1361.484375</v>
+        <v>1360.3746337890625</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2950,7 +2935,7 @@
         <v>112</v>
       </c>
       <c r="C30" s="5">
-        <v>1289991296</v>
+        <v>1303058176</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>23</v>
@@ -2959,34 +2944,34 @@
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>6434695.5</v>
+        <v>6192994</v>
       </c>
       <c r="G30" s="5">
-        <v>4.9107141494750977</v>
+        <v>4.7722339630126953</v>
       </c>
       <c r="H30" s="5">
-        <v>0.84411713374346109</v>
+        <v>2.7298036227934031</v>
       </c>
       <c r="I30" s="5">
-        <v>-1.8082187600331761</v>
+        <v>5.673350875839156</v>
       </c>
       <c r="J30" s="5">
-        <v>-2.837466194355454</v>
+        <v>-1.8015198746835E-2</v>
       </c>
       <c r="K30" s="5">
-        <v>-1.411702041591123</v>
+        <v>-0.33829559305483803</v>
       </c>
       <c r="L30" s="5">
-        <v>9.521083987285861</v>
+        <v>13.922672245825506</v>
       </c>
       <c r="M30" s="5">
-        <v>-3.1487148128050308</v>
+        <v>-0.33829559305483803</v>
       </c>
       <c r="N30" s="5">
-        <v>-17.267833916112707</v>
+        <v>-17.622705080492331</v>
       </c>
       <c r="O30" s="5">
-        <v>61.680598748388519</v>
+        <v>66.64520945943093</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
@@ -3001,7 +2986,7 @@
         <v>23.909999847412109</v>
       </c>
       <c r="T30" s="5">
-        <v>17.920000076293945</v>
+        <v>18.440000534057617</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3012,118 +2997,118 @@
         <v>115</v>
       </c>
       <c r="C31" s="5">
-        <v>1283868928</v>
+        <v>1300555904</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>2230894.5</v>
+        <v>10983611</v>
       </c>
       <c r="G31" s="5">
-        <v>4.1639127731323242</v>
+        <v>12.698412895202637</v>
       </c>
       <c r="H31" s="5">
-        <v>1.494926403446839</v>
+        <v>0.558664405349796</v>
       </c>
       <c r="I31" s="5">
-        <v>2.508055684384924</v>
+        <v>6.7796625237600328</v>
       </c>
       <c r="J31" s="5">
-        <v>-0.12522330528865802</v>
+        <v>-10.764869096379392</v>
       </c>
       <c r="K31" s="5">
-        <v>2.526528609435053</v>
+        <v>3.1674823645052359</v>
       </c>
       <c r="L31" s="5">
-        <v>13.687204343268444</v>
+        <v>26.54654631068918</v>
       </c>
       <c r="M31" s="5">
-        <v>-0.22560124632417003</v>
+        <v>3.1674823645052359</v>
       </c>
       <c r="N31" s="5">
-        <v>1.553055390515468</v>
+        <v>-9.0594293194499294</v>
       </c>
       <c r="O31" s="5">
-        <v>46.86372616700978</v>
+        <v>26.965391511903047</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="4"/>
+      <c r="Q31" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="R31" s="4" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5">
-        <v>1243.9918533604887</v>
+        <v>16.010000228881836</v>
       </c>
       <c r="T31" s="5">
-        <v>1155.3145751953125</v>
+        <v>12.600000381469727</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A32" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1281872768</v>
+        <v>1271407616</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>11368414</v>
+        <v>2115904.5</v>
       </c>
       <c r="G32" s="5">
-        <v>12.965964317321777</v>
+        <v>4.1338582038879395</v>
       </c>
       <c r="H32" s="5">
-        <v>-8.0973510712112007E-2</v>
+        <v>-0.39184568411110304</v>
       </c>
       <c r="I32" s="5">
-        <v>-0.96308094054330406</v>
+        <v>0.49282658722917805</v>
       </c>
       <c r="J32" s="5">
-        <v>-12.606230505650684</v>
+        <v>-0.48573502849407202</v>
       </c>
       <c r="K32" s="5">
-        <v>0.87811498336996008</v>
+        <v>-0.58575064156558609</v>
       </c>
       <c r="L32" s="5">
-        <v>17.639077537943471</v>
+        <v>11.946165534367005</v>
       </c>
       <c r="M32" s="5">
-        <v>1.038627744200427</v>
+        <v>-0.58575064156558609</v>
       </c>
       <c r="N32" s="5">
-        <v>-8.7195903402433661</v>
+        <v>-0.316416902776118</v>
       </c>
       <c r="O32" s="5">
-        <v>23.349253780287917</v>
+        <v>43.084926400262887</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="Q32" s="4"/>
       <c r="R32" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S32" s="5">
-        <v>16.010000228881836</v>
+        <v>1243.9918533604887</v>
       </c>
       <c r="T32" s="5">
-        <v>12.340000152587891</v>
+        <v>1151.144287109375</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3134,7 +3119,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1200592000</v>
+        <v>1237727104</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3143,37 +3128,37 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1480200.5</v>
+        <v>1472715.625</v>
       </c>
       <c r="G33" s="5">
-        <v>6.4915909767150879</v>
+        <v>6.3970575332641602</v>
       </c>
       <c r="H33" s="5">
-        <v>1.02564002243335</v>
+        <v>-0.98522074918165903</v>
       </c>
       <c r="I33" s="5">
-        <v>4.7365154280720967</v>
+        <v>4.1437522219636369</v>
       </c>
       <c r="J33" s="5">
-        <v>-16.883980570940913</v>
+        <v>-15.196347292639256</v>
       </c>
       <c r="K33" s="5">
-        <v>-0.18120634147641401</v>
+        <v>1.4039666812930121</v>
       </c>
       <c r="L33" s="5">
-        <v>20.117359517115354</v>
+        <v>18.236797761293609</v>
       </c>
       <c r="M33" s="5">
-        <v>-0.61402079046937208</v>
+        <v>1.4039666812930121</v>
       </c>
       <c r="N33" s="5">
-        <v>-37.410663081536754</v>
+        <v>-36.34745961303463</v>
       </c>
       <c r="O33" s="5">
-        <v>-35.046458582427597</v>
+        <v>-31.873522646435415</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>122</v>
@@ -3185,7 +3170,7 @@
         <v>0.44271498196098902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.250958621501923</v>
+        <v>0.25605422258377103</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3196,118 +3181,118 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1060977792</v>
+        <v>1092921088</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>3368400</v>
+        <v>20031662</v>
       </c>
       <c r="G34" s="5">
-        <v>5.1728596687316895</v>
+        <v>7.3008852005004883</v>
       </c>
       <c r="H34" s="5">
-        <v>1.4722739484693601</v>
+        <v>0.44444402058918503</v>
       </c>
       <c r="I34" s="5">
-        <v>2.8139944212782759</v>
+        <v>9.708740448500075</v>
       </c>
       <c r="J34" s="5">
-        <v>-3.6149896869817399</v>
+        <v>-27.288254905445697</v>
       </c>
       <c r="K34" s="5">
-        <v>-8.6398018742866576</v>
+        <v>-30.77293007334363</v>
       </c>
       <c r="L34" s="5">
-        <v>-3.6999971665265701</v>
+        <v>-27.82753120090744</v>
       </c>
       <c r="M34" s="5">
-        <v>-10.901248897209371</v>
+        <v>-30.77293007334363</v>
       </c>
       <c r="N34" s="5">
-        <v>-18.750539148756353</v>
+        <v>-50.697979107124745</v>
       </c>
       <c r="O34" s="5">
-        <v>6.9924195229731007E-2</v>
+        <v>-18.006362531061846</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="4"/>
+      <c r="Q34" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="R34" s="4" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5">
-        <v>3179.4998354721947</v>
+        <v>38.759998321533203</v>
       </c>
       <c r="T34" s="5">
-        <v>2363.317138671875</v>
+        <v>18.079999923706055</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A35" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" s="5">
-        <v>1048596992</v>
+        <v>1076798848</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>19962594</v>
+        <v>3160997.75</v>
       </c>
       <c r="G35" s="5">
-        <v>7.5256557464599609</v>
+        <v>5.0109543800354004</v>
       </c>
       <c r="H35" s="5">
-        <v>1.5634073573072449</v>
+        <v>1.3061616061150971</v>
       </c>
       <c r="I35" s="5">
-        <v>-3.4672490815701669</v>
+        <v>2.203109862130304</v>
       </c>
       <c r="J35" s="5">
-        <v>-29.459951277109965</v>
+        <v>-1.575506941310711</v>
       </c>
       <c r="K35" s="5">
-        <v>-31.785149017283864</v>
+        <v>-9.0159415766535851</v>
       </c>
       <c r="L35" s="5">
-        <v>-29.572384078141155</v>
+        <v>-2.928082533365028</v>
       </c>
       <c r="M35" s="5">
-        <v>-32.840548948192058</v>
+        <v>-9.0159415766535851</v>
       </c>
       <c r="N35" s="5">
-        <v>-50.404277954428302</v>
+        <v>-19.007885264584612</v>
       </c>
       <c r="O35" s="5">
-        <v>-20.519715337185762</v>
+        <v>2.9636972984348202</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S35" s="5">
-        <v>39.099998474121094</v>
+        <v>3169.0427698574335</v>
       </c>
       <c r="T35" s="5">
-        <v>17.540000915527344</v>
+        <v>2413.32421875</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3318,7 +3303,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>1006021504</v>
+        <v>1020389696</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3327,60 +3312,60 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>5079909.5</v>
+        <v>13686974</v>
       </c>
       <c r="G36" s="5">
-        <v>6.6608238220214844</v>
+        <v>2.1840875148773189</v>
       </c>
       <c r="H36" s="5">
-        <v>1.8437206803262329</v>
+        <v>1.584784556884133</v>
       </c>
       <c r="I36" s="5">
-        <v>-1.4443567332705021</v>
+        <v>10.137451174375322</v>
       </c>
       <c r="J36" s="5">
-        <v>-9.5163788618558787</v>
+        <v>-11.604336553022954</v>
       </c>
       <c r="K36" s="5">
-        <v>2.7457899073194851</v>
+        <v>-4.3910404811335351</v>
       </c>
       <c r="L36" s="5">
-        <v>10.101012146009779</v>
+        <v>-1.2590210375984621</v>
       </c>
       <c r="M36" s="5">
-        <v>0.86956433764389107</v>
+        <v>-4.3910404811335351</v>
       </c>
       <c r="N36" s="5">
-        <v>-15.698765989523022</v>
+        <v>-33.91182116492233</v>
       </c>
       <c r="O36" s="5">
-        <v>31.930384039009276</v>
+        <v>-24.318419298466853</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>14.930000305175781</v>
+        <v>9.9399995803833008</v>
       </c>
       <c r="T36" s="5">
-        <v>11.409999847412109</v>
+        <v>6.4099998474121094</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A37" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C37" s="5">
-        <v>984813504</v>
+        <v>1018387008</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3389,49 +3374,49 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>13808159</v>
+        <v>5285498.5</v>
       </c>
       <c r="G37" s="5">
-        <v>2.3140494823455811</v>
+        <v>6.5800862312316895</v>
       </c>
       <c r="H37" s="5">
-        <v>-0.65681380707404102</v>
+        <v>0.17346451194164603</v>
       </c>
       <c r="I37" s="5">
-        <v>-7.4923512840408097</v>
+        <v>7.5305028012323749</v>
       </c>
       <c r="J37" s="5">
-        <v>-16.568830975829641</v>
+        <v>-8.406147644166662</v>
       </c>
       <c r="K37" s="5">
-        <v>-7.0010331369798946</v>
+        <v>2.1072307554300229</v>
       </c>
       <c r="L37" s="5">
-        <v>-9.0234681114950259</v>
+        <v>14.995222083847493</v>
       </c>
       <c r="M37" s="5">
-        <v>-9.7606494392299403</v>
+        <v>2.1072307554300229</v>
       </c>
       <c r="N37" s="5">
-        <v>-37.370430508103446</v>
+        <v>-15.919474938823019</v>
       </c>
       <c r="O37" s="5">
-        <v>-27.177881694283666</v>
+        <v>30.799616210484615</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <v>10.050000190734863</v>
+        <v>14.930000305175781</v>
       </c>
       <c r="T37" s="5">
-        <v>6.0500001907348633</v>
+        <v>11.550000190734863</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3442,7 +3427,7 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>864172096</v>
+        <v>917674688</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>136</v>
@@ -3451,156 +3436,152 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1764371.625</v>
-      </c>
-      <c r="G38" s="5">
-        <v>5.0568900108337402</v>
-      </c>
+        <v>16614088</v>
+      </c>
+      <c r="G38" s="5"/>
       <c r="H38" s="5">
-        <v>-2.6330812216401993</v>
+        <v>-10.125820777331896</v>
       </c>
       <c r="I38" s="5">
-        <v>-0.76146175552493911</v>
+        <v>24.417718385965713</v>
       </c>
       <c r="J38" s="5">
-        <v>7.5578747678694445</v>
+        <v>158.00319734002636</v>
       </c>
       <c r="K38" s="5">
-        <v>-8.0514874626399173</v>
+        <v>143.15976073841838</v>
       </c>
       <c r="L38" s="5">
-        <v>-13.986196238307102</v>
+        <v>242.71046201350029</v>
       </c>
       <c r="M38" s="5">
-        <v>-10.039732920690414</v>
+        <v>143.15976073841838</v>
       </c>
       <c r="N38" s="5">
-        <v>-27.92307046198842</v>
+        <v>264.68609296061322</v>
       </c>
       <c r="O38" s="5">
-        <v>2.5994813847958209</v>
+        <v>358.55609720844194</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S38" s="5">
-        <v>6.9999688890271594</v>
+        <v>2.9003953340212778</v>
       </c>
       <c r="T38" s="5">
-        <v>4.4587244987487793</v>
+        <v>2.4882888793945313</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A39" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" s="5">
-        <v>821937152</v>
+        <v>844111168</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>1852487.625</v>
+        <v>1490076.25</v>
       </c>
       <c r="G39" s="5">
-        <v>7.3495931625366211</v>
+        <v>5.0955414772033691</v>
       </c>
       <c r="H39" s="5">
-        <v>0.99352137104136207</v>
+        <v>1.5111221096064</v>
       </c>
       <c r="I39" s="5">
-        <v>-3.3131089294431089</v>
+        <v>-7.7715326824254198</v>
       </c>
       <c r="J39" s="5">
-        <v>-12.090816373877599</v>
+        <v>5.2587056251617081</v>
       </c>
       <c r="K39" s="5">
-        <v>-10.492956554515242</v>
+        <v>-11.962733636211087</v>
       </c>
       <c r="L39" s="5">
-        <v>6.1411534166615933</v>
+        <v>-12.70138221999586</v>
       </c>
       <c r="M39" s="5">
-        <v>-11.422982343369059</v>
+        <v>-11.962733636211087</v>
       </c>
       <c r="N39" s="5">
-        <v>-48.88672809991732</v>
+        <v>-33.806572330821069</v>
       </c>
       <c r="O39" s="5">
-        <v>20.344864035720335</v>
+        <v>1.29188892687282</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q39" s="4"/>
       <c r="R39" s="4" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="S39" s="5">
-        <v>2.1937991371437611</v>
+        <v>6.9999688890271594</v>
       </c>
       <c r="T39" s="5">
-        <v>1.0298314094543459</v>
+        <v>4.3634138107299805</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A40" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C40" s="5">
-        <v>801542592</v>
+        <v>835845248</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>1388142.875</v>
+        <v>1400954.375</v>
       </c>
       <c r="G40" s="5">
-        <v>6.7000002861022949</v>
+        <v>6.4547204971313477</v>
       </c>
       <c r="H40" s="5">
-        <v>-2.4304591702100531</v>
+        <v>2.0012991529935849</v>
       </c>
       <c r="I40" s="5">
-        <v>-0.82798363389963203</v>
+        <v>2.4762360697153429</v>
       </c>
       <c r="J40" s="5">
-        <v>-10.196716313450228</v>
+        <v>-6.4670265684447887</v>
       </c>
       <c r="K40" s="5">
-        <v>-10.422242531304448</v>
+        <v>-7.5954941714350133</v>
       </c>
       <c r="L40" s="5">
-        <v>1.1066237132880461</v>
+        <v>-1.329346940098342</v>
       </c>
       <c r="M40" s="5">
-        <v>-11.280185517565389</v>
+        <v>-7.5954941714350133</v>
       </c>
       <c r="N40" s="5">
-        <v>-40.509114894459344</v>
+        <v>-39.495919404882507</v>
       </c>
       <c r="O40" s="5">
-        <v>-16.786159694333769</v>
+        <v>-15.709862110845684</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>30</v>
@@ -3609,131 +3590,135 @@
         <v>31</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S40" s="5">
         <v>1.243469103672894</v>
       </c>
       <c r="T40" s="5">
-        <v>0.61720001697540305</v>
+        <v>0.642833411693573</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A41" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C41" s="5">
-        <v>800886720</v>
+        <v>816336640</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>2050600.5</v>
+        <v>1794244.875</v>
       </c>
       <c r="G41" s="5">
-        <v>5.5319929122924805</v>
+        <v>7.4220027923583984</v>
       </c>
       <c r="H41" s="5">
-        <v>0.85746365085803711</v>
+        <v>1.4049536433270891</v>
       </c>
       <c r="I41" s="5">
-        <v>4.793001491896387</v>
+        <v>-0.94766028059126706</v>
       </c>
       <c r="J41" s="5">
-        <v>3.3256295836847638</v>
+        <v>-12.988787081984343</v>
       </c>
       <c r="K41" s="5">
-        <v>4.1505947170660704</v>
+        <v>-12.327774811985194</v>
       </c>
       <c r="L41" s="5">
-        <v>11.943648334952449</v>
+        <v>6.776073904140123</v>
       </c>
       <c r="M41" s="5">
-        <v>1.8742598931730252</v>
+        <v>-12.327774811985194</v>
       </c>
       <c r="N41" s="5">
-        <v>-10.517243704669299</v>
+        <v>-49.37992840731151</v>
       </c>
       <c r="O41" s="5">
-        <v>20.10273066940367</v>
+        <v>19.405438773611049</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q41" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R41" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="S41" s="5">
-        <v>516.49694501018325</v>
+        <v>2.1937991371437611</v>
       </c>
       <c r="T41" s="5">
-        <v>417.68478393554687</v>
+        <v>1.0193120241165161</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A42" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C42" s="5">
-        <v>800181952</v>
+        <v>787388672</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>15882076</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>1969955.5</v>
+      </c>
+      <c r="G42" s="5">
+        <v>5.5319929122924805</v>
+      </c>
       <c r="H42" s="5">
-        <v>7.7576106601611627</v>
+        <v>-0.350134323857132</v>
       </c>
       <c r="I42" s="5">
-        <v>57.11952005707586</v>
+        <v>0.87284375205458609</v>
       </c>
       <c r="J42" s="5">
-        <v>169.71844892823262</v>
+        <v>2.2095648946772521</v>
       </c>
       <c r="K42" s="5">
-        <v>167.53689061415997</v>
+        <v>0.7738720741618631</v>
       </c>
       <c r="L42" s="5">
-        <v>253.07930344021452</v>
+        <v>9.7294326532488373</v>
       </c>
       <c r="M42" s="5">
-        <v>154.20101062426497</v>
+        <v>0.7738720741618631</v>
       </c>
       <c r="N42" s="5">
-        <v>297.662662892897</v>
+        <v>-13.415609318986554</v>
       </c>
       <c r="O42" s="5">
-        <v>377.99556311418849</v>
+        <v>18.573814826113043</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="S42" s="5">
-        <v>2.6499318041969322</v>
+        <v>516.49694501018325</v>
       </c>
       <c r="T42" s="5">
-        <v>2.6012756824493408</v>
+        <v>413.17318725585937</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3744,116 +3729,116 @@
         <v>151</v>
       </c>
       <c r="C43" s="5">
-        <v>795531264</v>
+        <v>779182400</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>2587852.5</v>
-      </c>
-      <c r="G43" s="5"/>
+        <v>2563931.5</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.99413770437240612</v>
+      </c>
       <c r="H43" s="5">
-        <v>-3.4799753613482749</v>
+        <v>2.5891583020217319</v>
       </c>
       <c r="I43" s="5">
-        <v>-4.6724337407967784</v>
+        <v>2.676794640235403</v>
       </c>
       <c r="J43" s="5">
-        <v>-6.1928735883075898</v>
+        <v>2.1222602377619642</v>
       </c>
       <c r="K43" s="5">
-        <v>-18.5747666640662</v>
+        <v>4.0273964770703774</v>
       </c>
       <c r="L43" s="5">
-        <v>73.432179450897465</v>
+        <v>6.8673284868775664</v>
       </c>
       <c r="M43" s="5">
-        <v>-25.428144538204943</v>
+        <v>4.0273964770703774</v>
       </c>
       <c r="N43" s="5">
-        <v>88.191550552630346</v>
+        <v>3.1082206076312509</v>
       </c>
       <c r="O43" s="5">
-        <v>176.32812266500193</v>
+        <v>17.346561266367864</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q43" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="R43" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="S43" s="5">
-        <v>1.13709763756269</v>
+        <v>0.72089303474705002</v>
       </c>
       <c r="T43" s="5">
-        <v>0.76908183097839411</v>
+        <v>0.689541935920715</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A44" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C44" s="5">
-        <v>762044544</v>
+        <v>766623232</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>3838709.25</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1.019877552986145</v>
-      </c>
+        <v>2602033.75</v>
+      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="5">
-        <v>-6.0206927993470003E-3</v>
+        <v>-3.604341526356869</v>
       </c>
       <c r="I44" s="5">
-        <v>0.82907895571178203</v>
+        <v>-9.7202887439597259</v>
       </c>
       <c r="J44" s="5">
-        <v>-0.12389170713219501</v>
+        <v>-9.7124090945592378</v>
       </c>
       <c r="K44" s="5">
-        <v>1.8750810871124961</v>
+        <v>-28.225994798674503</v>
       </c>
       <c r="L44" s="5">
-        <v>4.9328570339720157</v>
+        <v>71.191070925173889</v>
       </c>
       <c r="M44" s="5">
-        <v>1.7393415674430872</v>
+        <v>-28.225994798674503</v>
       </c>
       <c r="N44" s="5">
-        <v>1.944723026634509</v>
+        <v>74.981253212671191</v>
       </c>
       <c r="O44" s="5">
-        <v>14.636590741154421</v>
+        <v>176.70181737450284</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="S44" s="5">
-        <v>0.72089303474705002</v>
+        <v>1.13709763756269</v>
       </c>
       <c r="T44" s="5">
-        <v>0.67437565326690707</v>
+        <v>0.74022680521011408</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3864,56 +3849,56 @@
         <v>159</v>
       </c>
       <c r="C45" s="5">
-        <v>729364096</v>
+        <v>727486400</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1277106.75</v>
+        <v>1225123.125</v>
       </c>
       <c r="G45" s="5">
-        <v>4.2120552062988281</v>
+        <v>4.1517539024353027</v>
       </c>
       <c r="H45" s="5">
-        <v>2.0449386823558462</v>
+        <v>0.700977591656748</v>
       </c>
       <c r="I45" s="5">
-        <v>2.342186413490754</v>
+        <v>1.683003043496667</v>
       </c>
       <c r="J45" s="5">
-        <v>-0.62657683236210204</v>
+        <v>-0.27220987168905503</v>
       </c>
       <c r="K45" s="5">
-        <v>-7.7871116115537209</v>
+        <v>-9.3483290139784181</v>
       </c>
       <c r="L45" s="5">
-        <v>2.816895572224642</v>
+        <v>2.6539751013207713</v>
       </c>
       <c r="M45" s="5">
-        <v>-9.6704454179007193</v>
+        <v>-9.3483290139784181</v>
       </c>
       <c r="N45" s="5">
-        <v>-11.159112664451953</v>
+        <v>-11.926068443954474</v>
       </c>
       <c r="O45" s="5">
-        <v>13.194435341016476</v>
+        <v>13.703785467359729</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S45" s="5">
         <v>1279.0224032586557</v>
       </c>
       <c r="T45" s="5">
-        <v>1051.466064453125</v>
+        <v>1055.2156982421875</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3924,7 +3909,7 @@
         <v>161</v>
       </c>
       <c r="C46" s="5">
-        <v>678553920</v>
+        <v>712991104</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>162</v>
@@ -3933,49 +3918,49 @@
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>1495355.5</v>
+        <v>1468985.25</v>
       </c>
       <c r="G46" s="5">
-        <v>6.1224489212036133</v>
+        <v>5.8536586761474609</v>
       </c>
       <c r="H46" s="5">
-        <v>-1.513303569588986</v>
+        <v>3.9205990800369683</v>
       </c>
       <c r="I46" s="5">
-        <v>-3.8716611016328173</v>
+        <v>1.31697498584078</v>
       </c>
       <c r="J46" s="5">
-        <v>-8.1526754648052702</v>
+        <v>-3.608342371413142</v>
       </c>
       <c r="K46" s="5">
-        <v>-7.3812239780138178</v>
+        <v>-3.7792927776147733</v>
       </c>
       <c r="L46" s="5">
-        <v>16.496212667473074</v>
+        <v>17.073805516016115</v>
       </c>
       <c r="M46" s="5">
-        <v>-8.3155665056287908</v>
+        <v>-3.7792927776147733</v>
       </c>
       <c r="N46" s="5">
-        <v>-33.345154409145586</v>
+        <v>-30.453950203068349</v>
       </c>
       <c r="O46" s="5">
-        <v>51.27495971134821</v>
+        <v>36.498370874634453</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>163</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S46" s="5">
         <v>1.5543399132000002</v>
       </c>
       <c r="T46" s="5">
-        <v>0.96776962280273404</v>
+        <v>1.015651941299438</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3986,120 +3971,120 @@
         <v>165</v>
       </c>
       <c r="C47" s="5">
-        <v>650211520</v>
+        <v>649533504</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>8047285.5</v>
+        <v>12499785</v>
       </c>
       <c r="G47" s="5">
-        <v>7.9893474578857422</v>
+        <v>6.5530800819396973</v>
       </c>
       <c r="H47" s="5">
-        <v>-1.2535993402474801</v>
+        <v>2.0053488634350409</v>
       </c>
       <c r="I47" s="5">
-        <v>-3.7116051220451469</v>
+        <v>11.386864535295027</v>
       </c>
       <c r="J47" s="5">
-        <v>-17.308860587525366</v>
+        <v>-0.90908696828785307</v>
       </c>
       <c r="K47" s="5">
-        <v>-13.286975905576748</v>
+        <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>-17.794407962868021</v>
+        <v>5.8454741686100995</v>
       </c>
       <c r="M47" s="5">
-        <v>-16.209701382991927</v>
+        <v>0</v>
       </c>
       <c r="N47" s="5">
-        <v>-43.758582035628145</v>
+        <v>-58.004574618530711</v>
       </c>
       <c r="O47" s="5">
-        <v>24.375247281869662</v>
+        <v>-4.3196489001160909</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="S47" s="5">
-        <v>11.008880893576956</v>
+        <v>18.500312805175781</v>
       </c>
       <c r="T47" s="5">
-        <v>5.5200295448303223</v>
+        <v>7.630000114440918</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A48" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C48" s="5">
-        <v>629561216</v>
+        <v>648729024</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>12029127</v>
+        <v>7689405</v>
       </c>
       <c r="G48" s="5">
-        <v>6.9252080917358398</v>
+        <v>7.9575600624084473</v>
       </c>
       <c r="H48" s="5">
-        <v>-0.41379599735654704</v>
+        <v>0.46498078638903506</v>
       </c>
       <c r="I48" s="5">
-        <v>-0.82418156438870405</v>
+        <v>1.973971716161294</v>
       </c>
       <c r="J48" s="5">
-        <v>-6.2337666358889932</v>
+        <v>-15.958535984022948</v>
       </c>
       <c r="K48" s="5">
-        <v>-4.1168713277444757</v>
+        <v>-14.841422412337801</v>
       </c>
       <c r="L48" s="5">
-        <v>-3.690388004395984</v>
+        <v>-15.557661899645513</v>
       </c>
       <c r="M48" s="5">
-        <v>-5.3735297260779973</v>
+        <v>-14.841422412337801</v>
       </c>
       <c r="N48" s="5">
-        <v>-58.856217376810527</v>
+        <v>-43.345330644033076</v>
       </c>
       <c r="O48" s="5">
-        <v>-6.5733307229001507</v>
+        <v>26.654085175923647</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="S48" s="5">
-        <v>18.722175598144531</v>
+        <v>11.008880893576956</v>
       </c>
       <c r="T48" s="5">
-        <v>7.2199997901916504</v>
+        <v>5.5732131004333496</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4110,54 +4095,58 @@
         <v>170</v>
       </c>
       <c r="C49" s="5">
-        <v>507474112</v>
+        <v>497600960</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>15147991</v>
-      </c>
-      <c r="G49" s="5"/>
+        <v>4430380</v>
+      </c>
+      <c r="G49" s="5">
+        <v>9.7087383270263672</v>
+      </c>
       <c r="H49" s="5">
-        <v>-6.2497557620462825</v>
+        <v>0.32467502308324303</v>
       </c>
       <c r="I49" s="5">
-        <v>-1.9029103473294779</v>
+        <v>4.5685277140022684</v>
       </c>
       <c r="J49" s="5">
-        <v>-9.5901614233258048</v>
+        <v>-8.899948019741954</v>
       </c>
       <c r="K49" s="5">
-        <v>-5.162842166958292</v>
+        <v>-31.809410011712004</v>
       </c>
       <c r="L49" s="5">
-        <v>24.687451513351832</v>
+        <v>-16.854450497972618</v>
       </c>
       <c r="M49" s="5">
-        <v>-12.582803343473191</v>
+        <v>-31.809410011712004</v>
       </c>
       <c r="N49" s="5">
-        <v>-23.066850653483506</v>
+        <v>-39.033045894284292</v>
       </c>
       <c r="O49" s="5">
-        <v>164.17943096679898</v>
+        <v>5.1162118840762938</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q49" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="R49" s="4" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5">
-        <v>1.1922868853192861</v>
+        <v>23.379999160766602</v>
       </c>
       <c r="T49" s="5">
-        <v>0.49702569842338606</v>
+        <v>12.359999656677246</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4168,41 +4157,41 @@
         <v>172</v>
       </c>
       <c r="C50" s="5">
-        <v>492712576</v>
+        <v>484447424</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>2955424</v>
+        <v>2732702.25</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>-5.4087540685910006E-2</v>
+        <v>-1.8323429589803042</v>
       </c>
       <c r="I50" s="5">
-        <v>-0.30317838234643602</v>
+        <v>-2.9051273571998442</v>
       </c>
       <c r="J50" s="5">
-        <v>-12.085744284192845</v>
+        <v>-13.562359611766661</v>
       </c>
       <c r="K50" s="5">
-        <v>-34.16945065259651</v>
+        <v>-39.237041358772515</v>
       </c>
       <c r="L50" s="5">
-        <v>63.629277592032786</v>
+        <v>53.174350035254704</v>
       </c>
       <c r="M50" s="5">
-        <v>-38.199026951213753</v>
+        <v>-39.237041358772515</v>
       </c>
       <c r="N50" s="5">
-        <v>153.18996659194966</v>
+        <v>137.65028247481615</v>
       </c>
       <c r="O50" s="5">
-        <v>312.70773004150192</v>
+        <v>301.75978723418081</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>25</v>
@@ -4211,13 +4200,13 @@
         <v>173</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="S50" s="5">
         <v>1.152422315694851</v>
       </c>
       <c r="T50" s="5">
-        <v>0.67700129747390703</v>
+        <v>0.6656303405761721</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4228,7 +4217,7 @@
         <v>175</v>
       </c>
       <c r="C51" s="5">
-        <v>491542496</v>
+        <v>475741088</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>23</v>
@@ -4237,49 +4226,49 @@
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>5056370.5</v>
+        <v>1292326.5</v>
       </c>
       <c r="G51" s="5">
-        <v>9.9585065841674805</v>
+        <v>7.9858026504516602</v>
       </c>
       <c r="H51" s="5">
-        <v>-0.98603027778800811</v>
+        <v>0.80501028739887703</v>
       </c>
       <c r="I51" s="5">
-        <v>-3.5999984741210911</v>
+        <v>4.6208473743181377</v>
       </c>
       <c r="J51" s="5">
-        <v>-11.184816000781639</v>
+        <v>1.526097875937404</v>
       </c>
       <c r="K51" s="5">
-        <v>-33.122034305591505</v>
+        <v>3.490827439564792</v>
       </c>
       <c r="L51" s="5">
-        <v>-21.028728829348598</v>
+        <v>11.627542317566286</v>
       </c>
       <c r="M51" s="5">
-        <v>-33.519688900534248</v>
+        <v>3.490827439564792</v>
       </c>
       <c r="N51" s="5">
-        <v>-39.06511971319182</v>
+        <v>-21.544277787828435</v>
       </c>
       <c r="O51" s="5">
-        <v>2.826023958020452</v>
+        <v>103.19455637552055</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S51" s="5">
-        <v>23.379999160766602</v>
+        <v>31.969999313354492</v>
       </c>
       <c r="T51" s="5">
-        <v>12.050000190734863</v>
+        <v>22.540000915527344</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4290,58 +4279,54 @@
         <v>177</v>
       </c>
       <c r="C52" s="5">
-        <v>469996448</v>
+        <v>475500000</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>1340966.25</v>
-      </c>
-      <c r="G52" s="5">
-        <v>8.1521739959716797</v>
-      </c>
+        <v>13938844</v>
+      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>-4.5270388468799001E-2</v>
+        <v>-0.66483177780787306</v>
       </c>
       <c r="I52" s="5">
-        <v>-1.9740540652224301</v>
+        <v>-6.2699126342591116</v>
       </c>
       <c r="J52" s="5">
-        <v>-0.54586768846967004</v>
+        <v>-10.234303311311454</v>
       </c>
       <c r="K52" s="5">
-        <v>3.18992335819126</v>
+        <v>-13.205623591614589</v>
       </c>
       <c r="L52" s="5">
-        <v>6.0694527430103404</v>
+        <v>49.372613182298217</v>
       </c>
       <c r="M52" s="5">
-        <v>1.3787652686262359</v>
+        <v>-13.205623591614589</v>
       </c>
       <c r="N52" s="5">
-        <v>-20.644008801338</v>
+        <v>-33.340477120933343</v>
       </c>
       <c r="O52" s="5">
-        <v>106.5952553659085</v>
+        <v>163.95404051673097</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Q52" s="4"/>
       <c r="R52" s="4" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="S52" s="5">
-        <v>31.969999313354492</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T52" s="5">
-        <v>22.079999923706055</v>
+        <v>0.49348455667495705</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4352,56 +4337,56 @@
         <v>179</v>
       </c>
       <c r="C53" s="5">
-        <v>469220704</v>
+        <v>465550688</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>5600499</v>
+        <v>4788622.5</v>
       </c>
       <c r="G53" s="5">
-        <v>5.8549108505249023</v>
+        <v>5.8353724479675293</v>
       </c>
       <c r="H53" s="5">
-        <v>1.3940013710884052</v>
+        <v>0.86960348427815903</v>
       </c>
       <c r="I53" s="5">
-        <v>5.8798020848602528</v>
+        <v>0.74948488713957306</v>
       </c>
       <c r="J53" s="5">
-        <v>2.785690440886079</v>
+        <v>2.0158890879715008</v>
       </c>
       <c r="K53" s="5">
-        <v>-3.9197229631568353</v>
+        <v>-7.8289025477777496</v>
       </c>
       <c r="L53" s="5">
-        <v>0.91078349038760109</v>
+        <v>-1.3588954246800951</v>
       </c>
       <c r="M53" s="5">
-        <v>-7.1333889748170236</v>
+        <v>-7.8289025477777496</v>
       </c>
       <c r="N53" s="5">
-        <v>-25.508816108908562</v>
+        <v>-28.338912785288418</v>
       </c>
       <c r="O53" s="5">
-        <v>10.057602311380421</v>
+        <v>7.6601314595180048</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S53" s="5">
-        <v>1014.3139190523198</v>
+        <v>1014.2566191446027</v>
       </c>
       <c r="T53" s="5">
-        <v>684.1783447265625</v>
+        <v>679.0543212890625</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4412,43 +4397,43 @@
         <v>181</v>
       </c>
       <c r="C54" s="5">
-        <v>465000800</v>
+        <v>433523584</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>1158206.75</v>
+        <v>1030280.6875</v>
       </c>
       <c r="G54" s="5">
-        <v>7.0270271301269531</v>
+        <v>7.1743931770324707</v>
       </c>
       <c r="H54" s="5">
-        <v>-1.366139175491399</v>
+        <v>0.27672968383896102</v>
       </c>
       <c r="I54" s="5">
-        <v>-2.364393707678802</v>
+        <v>-8.5413267354192524</v>
       </c>
       <c r="J54" s="5">
-        <v>4.5701268863136413</v>
+        <v>0.99892053196144504</v>
       </c>
       <c r="K54" s="5">
-        <v>-7.6058074340971338</v>
+        <v>-12.808674905577377</v>
       </c>
       <c r="L54" s="5">
-        <v>-14.468627575866954</v>
+        <v>-13.850739349551155</v>
       </c>
       <c r="M54" s="5">
-        <v>-9.7256893391816099</v>
+        <v>-12.808674905577377</v>
       </c>
       <c r="N54" s="5">
-        <v>-33.164594276863703</v>
+        <v>-37.208700887961299</v>
       </c>
       <c r="O54" s="5">
-        <v>36.341771663938772</v>
+        <v>28.991872285812015</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>25</v>
@@ -4457,13 +4442,13 @@
         <v>182</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="S54" s="5">
         <v>3.5895411339548722</v>
       </c>
       <c r="T54" s="5">
-        <v>2.0856232643127441</v>
+        <v>2.0143964290618901</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4474,41 +4459,41 @@
         <v>184</v>
       </c>
       <c r="C55" s="5">
-        <v>415580064</v>
+        <v>425491520</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1440942.875</v>
+        <v>1397101</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5">
-        <v>-2.8029641770481279</v>
+        <v>-2.0745975976037219</v>
       </c>
       <c r="I55" s="5">
-        <v>-3.7333535551465573</v>
+        <v>-2.972271721205288</v>
       </c>
       <c r="J55" s="5">
-        <v>-11.832392269247505</v>
+        <v>-9.7315884801647101</v>
       </c>
       <c r="K55" s="5">
-        <v>-2.1321955200768068</v>
+        <v>-4.3901769848016965</v>
       </c>
       <c r="L55" s="5">
-        <v>30.978626280312938</v>
+        <v>37.835630185216807</v>
       </c>
       <c r="M55" s="5">
-        <v>-6.6152906772003686</v>
+        <v>-4.3901769848016965</v>
       </c>
       <c r="N55" s="5">
-        <v>47.259355032828587</v>
+        <v>45.40180381032355</v>
       </c>
       <c r="O55" s="5">
-        <v>425.70886321789141</v>
+        <v>443.36489082989959</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
@@ -4517,13 +4502,13 @@
         <v>185</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="S55" s="5">
         <v>10.579760227544591</v>
       </c>
       <c r="T55" s="5">
-        <v>7.9942660331726074</v>
+        <v>8.184748649597168</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4534,7 +4519,7 @@
         <v>187</v>
       </c>
       <c r="C56" s="5">
-        <v>381308960</v>
+        <v>384300544</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>23</v>
@@ -4543,40 +4528,40 @@
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>5338324</v>
+        <v>5165212</v>
       </c>
       <c r="G56" s="5">
-        <v>9.1787443161010742</v>
+        <v>9.0476198196411133</v>
       </c>
       <c r="H56" s="5">
-        <v>-6.0351412589099006E-2</v>
+        <v>0.59879323085427805</v>
       </c>
       <c r="I56" s="5">
-        <v>-1.3698715726230599</v>
+        <v>3.8960986876568571</v>
       </c>
       <c r="J56" s="5">
-        <v>-3.701395442108868</v>
+        <v>-2.3057647779639701</v>
       </c>
       <c r="K56" s="5">
-        <v>-5.6863812001265774</v>
+        <v>-6.0467929326330268</v>
       </c>
       <c r="L56" s="5">
-        <v>-10.563364104550377</v>
+        <v>-6.5074384539148262</v>
       </c>
       <c r="M56" s="5">
-        <v>-7.3889803859659597</v>
+        <v>-6.0467929326330268</v>
       </c>
       <c r="N56" s="5">
-        <v>-16.935077648333863</v>
+        <v>-15.809362172644349</v>
       </c>
       <c r="O56" s="5">
-        <v>92.837659342106704</v>
+        <v>86.956090766705557</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R56" s="4" t="s">
         <v>0</v>
@@ -4585,7 +4570,7 @@
         <v>23.069999694824219</v>
       </c>
       <c r="T56" s="5">
-        <v>16.559999465942383</v>
+        <v>16.799999237060547</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4596,7 +4581,7 @@
         <v>189</v>
       </c>
       <c r="C57" s="5">
-        <v>368372608</v>
+        <v>372089792</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>23</v>
@@ -4605,40 +4590,40 @@
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>1793542.5</v>
+        <v>1784407.625</v>
       </c>
       <c r="G57" s="5">
-        <v>6.1664958000183114</v>
+        <v>5.9230012893676758</v>
       </c>
       <c r="H57" s="5">
-        <v>-1.8163502315571289</v>
+        <v>1.1988000281243361</v>
       </c>
       <c r="I57" s="5">
-        <v>-5.8083290019470439</v>
+        <v>3.6847455456481049</v>
       </c>
       <c r="J57" s="5">
-        <v>-19.215593494328186</v>
+        <v>-15.894544126626986</v>
       </c>
       <c r="K57" s="5">
-        <v>-9.089625982936445</v>
+        <v>-8.3918256279777115</v>
       </c>
       <c r="L57" s="5">
-        <v>-22.731459087405714</v>
+        <v>-17.18326056447841</v>
       </c>
       <c r="M57" s="5">
-        <v>-12.009132809957846</v>
+        <v>-8.3918256279777115</v>
       </c>
       <c r="N57" s="5">
-        <v>-35.169472327938145</v>
+        <v>-33.437016365091445</v>
       </c>
       <c r="O57" s="5">
-        <v>45.381552256930348</v>
+        <v>50.045297906394111</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R57" s="4" t="s">
         <v>0</v>
@@ -4647,7 +4632,7 @@
         <v>17.930000305175781</v>
       </c>
       <c r="T57" s="5">
-        <v>9.7299995422363281</v>
+        <v>10.130000114440918</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4658,40 +4643,40 @@
         <v>191</v>
       </c>
       <c r="C58" s="5">
-        <v>345545408</v>
+        <v>340657952</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>7014890</v>
+        <v>6894071</v>
       </c>
       <c r="G58" s="5">
-        <v>0.75320512056350708</v>
+        <v>0.76797384023666404</v>
       </c>
       <c r="H58" s="5">
-        <v>0.35113319546575805</v>
+        <v>-0.46507967419809904</v>
       </c>
       <c r="I58" s="5">
-        <v>6.909921984958145</v>
+        <v>4.5002240789720371</v>
       </c>
       <c r="J58" s="5">
-        <v>-7.0262207651818684</v>
+        <v>-9.0810306094737605</v>
       </c>
       <c r="K58" s="5">
-        <v>-28.693730190191836</v>
+        <v>-33.172378117711176</v>
       </c>
       <c r="L58" s="5">
-        <v>29.983169842519608</v>
+        <v>23.208710999566449</v>
       </c>
       <c r="M58" s="5">
-        <v>-31.662043627176885</v>
+        <v>-33.172378117711176</v>
       </c>
       <c r="N58" s="5">
-        <v>4.9124643849378202</v>
+        <v>11.695754367603284</v>
       </c>
       <c r="O58" s="5"/>
       <c r="P58" s="4" t="s">
@@ -4699,13 +4684,13 @@
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="S58" s="5">
         <v>0.55299045370637101</v>
       </c>
       <c r="T58" s="5">
-        <v>0.326467394828796</v>
+        <v>0.31925216317176802</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4716,358 +4701,354 @@
         <v>193</v>
       </c>
       <c r="C59" s="5">
-        <v>311196320</v>
+        <v>288164736</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>1007235.75</v>
+        <v>1512197.375</v>
       </c>
       <c r="G59" s="5">
-        <v>7.2510323524475098</v>
+        <v>5.6303749084472656</v>
       </c>
       <c r="H59" s="5">
-        <v>2.7954789322909512</v>
+        <v>1.0282803065585711</v>
       </c>
       <c r="I59" s="5">
-        <v>10.710862116986974</v>
+        <v>1.921551113196629</v>
       </c>
       <c r="J59" s="5">
-        <v>16.967417527711625</v>
+        <v>-6.8164902049828002E-2</v>
       </c>
       <c r="K59" s="5">
-        <v>-1.2682478270525039</v>
+        <v>-4.5125807638599644</v>
       </c>
       <c r="L59" s="5">
-        <v>-8.0906804229897045</v>
+        <v>9.7437361491274679</v>
       </c>
       <c r="M59" s="5">
-        <v>-2.7690038183106562</v>
+        <v>-4.5125807638599644</v>
       </c>
       <c r="N59" s="5">
-        <v>-28.89474525382958</v>
+        <v>-19.711503389876771</v>
       </c>
       <c r="O59" s="5">
-        <v>33.279054962916298</v>
+        <v>19.478979406420315</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q59" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="Q59" s="4"/>
       <c r="R59" s="4" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="S59" s="5">
-        <v>0.72014215793247505</v>
+        <v>1122.6069246435843</v>
       </c>
       <c r="T59" s="5">
-        <v>0.45066371560096702</v>
+        <v>825.591064453125</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A60" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="C60" s="5">
-        <v>289082240</v>
+        <v>229521552</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>1663566.625</v>
+        <v>2433832</v>
       </c>
       <c r="G60" s="5">
-        <v>5.7087197303771973</v>
+        <v>6.6747574806213379</v>
       </c>
       <c r="H60" s="5">
-        <v>1.5246637439892741</v>
+        <v>0.91855247538930007</v>
       </c>
       <c r="I60" s="5">
-        <v>5.7642688381624119</v>
+        <v>3.5826505360836651</v>
       </c>
       <c r="J60" s="5">
-        <v>-0.36338095742538501</v>
+        <v>-8.2021411616363888</v>
       </c>
       <c r="K60" s="5">
-        <v>-0.81560538018031803</v>
+        <v>-12.291669944630746</v>
       </c>
       <c r="L60" s="5">
-        <v>11.191052921388799</v>
+        <v>4.6652809846180032</v>
       </c>
       <c r="M60" s="5">
-        <v>-4.7946672402791606</v>
+        <v>-12.291669944630746</v>
       </c>
       <c r="N60" s="5">
-        <v>-19.023629186374315</v>
+        <v>-8.2415750783294435</v>
       </c>
       <c r="O60" s="5">
-        <v>23.208710799929232</v>
+        <v>62.251051360078272</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="4"/>
+      <c r="Q60" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="R60" s="4" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="S60" s="5">
-        <v>1127.0154656136885</v>
+        <v>20.789899826049805</v>
       </c>
       <c r="T60" s="5">
-        <v>823.152099609375</v>
+        <v>16.479999542236328</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="C61" s="5">
-        <v>233316448</v>
+        <v>218724912</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>2413113.75</v>
-      </c>
-      <c r="G61" s="5">
-        <v>6.7278285026550293</v>
-      </c>
+        <v>1931069.625</v>
+      </c>
+      <c r="G61" s="5"/>
       <c r="H61" s="5">
-        <v>-1.506024061776956</v>
+        <v>-0.71151608524762111</v>
       </c>
       <c r="I61" s="5">
-        <v>-2.09581057173629</v>
+        <v>-6.2033223977584262</v>
       </c>
       <c r="J61" s="5">
-        <v>-8.9262701022090987</v>
+        <v>-13.899020918103622</v>
       </c>
       <c r="K61" s="5">
-        <v>-10.303939377451121</v>
+        <v>-35.209673865122994</v>
       </c>
       <c r="L61" s="5">
-        <v>3.077055071150459</v>
+        <v>51.645981437805766</v>
       </c>
       <c r="M61" s="5">
-        <v>-12.983539460173876</v>
+        <v>-35.209673865122994</v>
       </c>
       <c r="N61" s="5">
-        <v>-6.7140033755345936</v>
+        <v>95.25779621160919</v>
       </c>
       <c r="O61" s="5">
-        <v>56.29403690767829</v>
+        <v>18.510850906961718</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="Q61" s="4"/>
       <c r="R61" s="4" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="S61" s="5">
-        <v>20.789899826049805</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T61" s="5">
-        <v>16.350000381469727</v>
+        <v>0.27178165316581704</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="C62" s="5">
-        <v>225677728</v>
+        <v>216457888</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>4375793.5</v>
+        <v>4271616</v>
       </c>
       <c r="G62" s="5">
-        <v>2.727981328964233</v>
+        <v>2.6964559555053711</v>
       </c>
       <c r="H62" s="5">
-        <v>-4.3794629721668255</v>
+        <v>0.55744421315497805</v>
       </c>
       <c r="I62" s="5">
-        <v>8.3234349218181958</v>
+        <v>2.0508035299052101</v>
       </c>
       <c r="J62" s="5">
-        <v>-2.8806869487866482</v>
+        <v>-2.0327726222606368</v>
       </c>
       <c r="K62" s="5">
-        <v>-21.026675398394502</v>
+        <v>-24.39634987881778</v>
       </c>
       <c r="L62" s="5">
-        <v>47.805115783357863</v>
+        <v>46.258519899761176</v>
       </c>
       <c r="M62" s="5">
-        <v>-25.05070562401238</v>
+        <v>-24.39634987881778</v>
       </c>
       <c r="N62" s="5">
-        <v>41.263877079724828</v>
+        <v>40.305470358404527</v>
       </c>
       <c r="O62" s="5">
-        <v>136.47298535162165</v>
+        <v>140.70488914392206</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="S62" s="5">
         <v>4.6771184674018205</v>
       </c>
       <c r="T62" s="5">
-        <v>3.3562314510345459</v>
+        <v>3.3855335712432861</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="C63" s="5">
-        <v>225256672</v>
+        <v>213436336</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>1917516.375</v>
-      </c>
-      <c r="G63" s="5"/>
+        <v>1435926.25</v>
+      </c>
+      <c r="G63" s="5">
+        <v>5.679999828338623</v>
+      </c>
       <c r="H63" s="5">
-        <v>-0.31764632333077802</v>
+        <v>0.111190434539865</v>
       </c>
       <c r="I63" s="5">
-        <v>-2.995693554434375</v>
+        <v>-0.64835021253812908</v>
       </c>
       <c r="J63" s="5">
-        <v>-11.325865429185022</v>
+        <v>3.0216645173110961</v>
       </c>
       <c r="K63" s="5">
-        <v>-24.396047382040376</v>
+        <v>-1.7087908620560091</v>
       </c>
       <c r="L63" s="5">
-        <v>53.772756641143182</v>
+        <v>10.488495531902542</v>
       </c>
       <c r="M63" s="5">
-        <v>-33.273394102680221</v>
+        <v>-1.7087908620560091</v>
       </c>
       <c r="N63" s="5">
-        <v>115.05616083603579</v>
-      </c>
-      <c r="O63" s="5">
-        <v>22.29719186262178</v>
-      </c>
+        <v>-1.2552090538836991</v>
+      </c>
+      <c r="O63" s="5"/>
       <c r="P63" s="4" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="Q63" s="4"/>
       <c r="R63" s="4" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="S63" s="5">
-        <v>0.45377137396633505</v>
+        <v>960</v>
       </c>
       <c r="T63" s="5">
-        <v>0.27990394830703702</v>
+        <v>887.529296875</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="C64" s="5">
+        <v>186242496</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="5">
+        <v>7383731</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5">
+        <v>-0.91995952761529909</v>
+      </c>
+      <c r="I64" s="5">
+        <v>4.73828470343578</v>
+      </c>
+      <c r="J64" s="5">
+        <v>-13.432977993903961</v>
+      </c>
+      <c r="K64" s="5">
+        <v>-38.319235187888182</v>
+      </c>
+      <c r="L64" s="5">
+        <v>74.078791230585892</v>
+      </c>
+      <c r="M64" s="5">
+        <v>-38.319235187888182</v>
+      </c>
+      <c r="N64" s="5">
+        <v>98.156554435484594</v>
+      </c>
+      <c r="O64" s="5">
+        <v>102.39051716432925</v>
+      </c>
+      <c r="P64" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C64" s="5">
-        <v>217834288</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="5">
-        <v>1608657.25</v>
-      </c>
-      <c r="G64" s="5">
-        <v>5.6607294082641602</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1.0027064717525791</v>
-      </c>
-      <c r="I64" s="5">
-        <v>5.3528416236384269</v>
-      </c>
-      <c r="J64" s="5">
-        <v>4.5011384338211844</v>
-      </c>
-      <c r="K64" s="5">
-        <v>1.0333175378538511</v>
-      </c>
-      <c r="L64" s="5">
-        <v>14.470584408791765</v>
-      </c>
-      <c r="M64" s="5">
-        <v>-0.29725008737370201</v>
-      </c>
-      <c r="N64" s="5">
-        <v>1.3075032755681</v>
-      </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="Q64" s="4"/>
       <c r="R64" s="4" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="S64" s="5">
-        <v>960.01974333662383</v>
+        <v>0.22635182608908702</v>
       </c>
       <c r="T64" s="5">
-        <v>900.27490234375</v>
+        <v>0.13250008225441001</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5078,170 +5059,54 @@
         <v>207</v>
       </c>
       <c r="C65" s="5">
-        <v>203566544</v>
+        <v>148463808</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>7172703.5</v>
+        <v>2870770.25</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5">
-        <v>-7.6483187942410504</v>
+        <v>1.269987218679836</v>
       </c>
       <c r="I65" s="5">
-        <v>11.177599058961674</v>
+        <v>9.5441784443963016</v>
       </c>
       <c r="J65" s="5">
-        <v>-11.811636924896174</v>
+        <v>34.340449159895314</v>
       </c>
       <c r="K65" s="5">
-        <v>-34.202039948867593</v>
+        <v>16.228009077321492</v>
       </c>
       <c r="L65" s="5">
-        <v>74.758852078467797</v>
+        <v>81.084255549397398</v>
       </c>
       <c r="M65" s="5">
-        <v>-37.163996682044178</v>
+        <v>16.228009077321492</v>
       </c>
       <c r="N65" s="5">
-        <v>108.49895434613863</v>
+        <v>236.2420279940728</v>
       </c>
       <c r="O65" s="5">
-        <v>105.75457436600715</v>
+        <v>140.12386170913365</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S65" s="5">
-        <v>0.22635182608908702</v>
+        <v>0.22587611366347402</v>
       </c>
       <c r="T65" s="5">
-        <v>0.13498170673847201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
-      <c r="A66" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="5">
-        <v>142239792</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="5">
-        <v>2421426.5</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5">
-        <v>2.3284974966928829</v>
-      </c>
-      <c r="I66" s="5">
-        <v>8.6870778554433379</v>
-      </c>
-      <c r="J66" s="5">
-        <v>30.04560131307883</v>
-      </c>
-      <c r="K66" s="5">
-        <v>16.398992477925578</v>
-      </c>
-      <c r="L66" s="5">
-        <v>84.838450659000159</v>
-      </c>
-      <c r="M66" s="5">
-        <v>12.512213740569544</v>
-      </c>
-      <c r="N66" s="5">
-        <v>236.18435810633804</v>
-      </c>
-      <c r="O66" s="5">
-        <v>149.54964283759108</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="S66" s="5">
-        <v>0.217644927325013</v>
-      </c>
-      <c r="T66" s="5">
-        <v>0.21764492988586401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" s="2" customFormat="1" ht="12.75">
-      <c r="A67" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="5">
-        <v>113393272</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="5">
-        <v>2862350.5</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5">
-        <v>-5.1063292840978214</v>
-      </c>
-      <c r="I67" s="5">
-        <v>3.4810402299131789</v>
-      </c>
-      <c r="J67" s="5">
-        <v>43.307303011955071</v>
-      </c>
-      <c r="K67" s="5">
-        <v>73.913454606445754</v>
-      </c>
-      <c r="L67" s="5">
-        <v>185.05239357323893</v>
-      </c>
-      <c r="M67" s="5">
-        <v>68.298538715911448</v>
-      </c>
-      <c r="N67" s="5">
-        <v>599.72361207913468</v>
-      </c>
-      <c r="O67" s="5">
-        <v>717.3953648638452</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="S67" s="5">
-        <v>3.136226523511763</v>
-      </c>
-      <c r="T67" s="5">
-        <v>2.6944024562835689</v>
+        <v>0.22483280301094102</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\31.03.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\01.04.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="210">
   <si>
     <t>USD</t>
   </si>
@@ -150,6 +150,21 @@
     <t>Final</t>
   </si>
   <si>
+    <t>FUNO11 MM Equity</t>
+  </si>
+  <si>
+    <t>TRUST FIBRA UNO</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>03/15/2023</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
     <t>3462 JP Equity</t>
   </si>
   <si>
@@ -165,21 +180,6 @@
     <t>JPY</t>
   </si>
   <si>
-    <t>FUNO11 MM Equity</t>
-  </si>
-  <si>
-    <t>TRUST FIBRA UNO</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>03/15/2023</t>
-  </si>
-  <si>
-    <t>MXN</t>
-  </si>
-  <si>
     <t>8984 JP Equity</t>
   </si>
   <si>
@@ -219,21 +219,21 @@
     <t>ESSENTIAL PROPER</t>
   </si>
   <si>
+    <t>ICAD FP Equity</t>
+  </si>
+  <si>
+    <t>ICADE</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>CHC AU Equity</t>
   </si>
   <si>
     <t>CHARTER HALL GRO</t>
   </si>
   <si>
-    <t>ICAD FP Equity</t>
-  </si>
-  <si>
-    <t>ICADE</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>8960 JP Equity</t>
   </si>
   <si>
@@ -261,6 +261,18 @@
     <t>SGD</t>
   </si>
   <si>
+    <t>HR-U CN Equity</t>
+  </si>
+  <si>
+    <t>H&amp;R REAL-REIT UT</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
     <t>GRT SJ Equity</t>
   </si>
   <si>
@@ -276,18 +288,6 @@
     <t>ZAr</t>
   </si>
   <si>
-    <t>HR-U CN Equity</t>
-  </si>
-  <si>
-    <t>H&amp;R REAL-REIT UT</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
     <t>3309 JP Equity</t>
   </si>
   <si>
@@ -324,15 +324,15 @@
     <t>HULIC REIT INC</t>
   </si>
   <si>
+    <t>GOZ AU Equity</t>
+  </si>
+  <si>
     <t>ABP AU Equity</t>
   </si>
   <si>
     <t>ABACUS PROPERTY</t>
   </si>
   <si>
-    <t>GOZ AU Equity</t>
-  </si>
-  <si>
     <t>RDF SJ Equity</t>
   </si>
   <si>
@@ -348,21 +348,21 @@
     <t>NTT UD REIT INVE</t>
   </si>
   <si>
+    <t>ALEX US Equity</t>
+  </si>
+  <si>
+    <t>ALEXANDER &amp; BALD</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
     <t>8957 JP Equity</t>
   </si>
   <si>
     <t>TOKYU REIT INC</t>
   </si>
   <si>
-    <t>ALEX US Equity</t>
-  </si>
-  <si>
-    <t>ALEXANDER &amp; BALD</t>
-  </si>
-  <si>
-    <t>04/04/2023</t>
-  </si>
-  <si>
     <t>GNL US Equity</t>
   </si>
   <si>
@@ -423,6 +423,24 @@
     <t>ARMADA HOFFLER P</t>
   </si>
   <si>
+    <t>RIT1 IT Equity</t>
+  </si>
+  <si>
+    <t>REIT 1 LTD</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ILs</t>
+  </si>
+  <si>
+    <t>UKCM LN Equity</t>
+  </si>
+  <si>
+    <t>UK COMMERCIAL PR</t>
+  </si>
+  <si>
     <t>DGGYO TI Equity</t>
   </si>
   <si>
@@ -438,24 +456,6 @@
     <t>TRY</t>
   </si>
   <si>
-    <t>RIT1 IT Equity</t>
-  </si>
-  <si>
-    <t>REIT 1 LTD</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>ILs</t>
-  </si>
-  <si>
-    <t>UKCM LN Equity</t>
-  </si>
-  <si>
-    <t>UK COMMERCIAL PR</t>
-  </si>
-  <si>
     <t>CNI AU Equity</t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>STAR US Equity</t>
   </si>
   <si>
-    <t>ISTAR INC</t>
+    <t>SAFEHOLD INC</t>
   </si>
   <si>
     <t>09/15/2022</t>
@@ -561,15 +561,6 @@
     <t>TAKARA LEBEN REA</t>
   </si>
   <si>
-    <t>SLARL IT Equity</t>
-  </si>
-  <si>
-    <t>SELLA CAPITAL RE</t>
-  </si>
-  <si>
-    <t>03/21/2023</t>
-  </si>
-  <si>
     <t>SRVGY TI Equity</t>
   </si>
   <si>
@@ -591,6 +582,15 @@
     <t>NEXPOINT DIVERSI</t>
   </si>
   <si>
+    <t>ATT SJ Equity</t>
+  </si>
+  <si>
+    <t>ATTACQ LTD</t>
+  </si>
+  <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
     <t>PSGYO TI Equity</t>
   </si>
   <si>
@@ -643,6 +643,12 @@
   </si>
   <si>
     <t>PEKER GAYRIMENKU</t>
+  </si>
+  <si>
+    <t>KGYO TI Equity</t>
+  </si>
+  <si>
+    <t>YAPI KREDI KORAY</t>
   </si>
 </sst>
 </file>
@@ -1117,13 +1123,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD67"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1219,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>16472743936</v>
+        <v>16238953472</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1228,34 +1234,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>74040144</v>
+        <v>76077480</v>
       </c>
       <c r="G2" s="5">
-        <v>5.5356683731079102</v>
+        <v>5.5106525421142578</v>
       </c>
       <c r="H2" s="5">
-        <v>-5.4978583176490008E-2</v>
+        <v>0.45395393132021705</v>
       </c>
       <c r="I2" s="5">
-        <v>3.931654503863991</v>
+        <v>1.63323586018651</v>
       </c>
       <c r="J2" s="5">
-        <v>-3.6877817165343769</v>
+        <v>-3.2505686152948798</v>
       </c>
       <c r="K2" s="5">
-        <v>2.1745038874821002E-2</v>
+        <v>0.47579768265386702</v>
       </c>
       <c r="L2" s="5">
-        <v>13.50679828788186</v>
+        <v>14.022066861025406</v>
       </c>
       <c r="M2" s="5">
-        <v>2.1745038874821002E-2</v>
+        <v>0.47579768265386702</v>
       </c>
       <c r="N2" s="5">
-        <v>-0.94243209725032306</v>
+        <v>1.230528891387195</v>
       </c>
       <c r="O2" s="5">
-        <v>54.017463129253393</v>
+        <v>57.993162803666046</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1270,7 +1276,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>77.099998474121094</v>
+        <v>77.449996948242187</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1281,7 +1287,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6267674624</v>
+        <v>6364681728</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1290,34 +1296,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>29394714</v>
+        <v>31140680</v>
       </c>
       <c r="G3" s="5">
-        <v>6.7346935272216797</v>
+        <v>6.6331658363342294</v>
       </c>
       <c r="H3" s="5">
-        <v>0.40424780574330704</v>
+        <v>1.6840271445920152</v>
       </c>
       <c r="I3" s="5">
-        <v>1.8532939308771872</v>
+        <v>4.2167076838823814</v>
       </c>
       <c r="J3" s="5">
-        <v>1.129224091723779</v>
+        <v>2.83226767654372</v>
       </c>
       <c r="K3" s="5">
-        <v>5.9285358265187993</v>
+        <v>7.7124011237062584</v>
       </c>
       <c r="L3" s="5">
-        <v>28.724872312795657</v>
+        <v>30.892634104384562</v>
       </c>
       <c r="M3" s="5">
-        <v>5.9285358265187993</v>
+        <v>7.7124011237062584</v>
       </c>
       <c r="N3" s="5">
-        <v>-12.92204882984046</v>
+        <v>-10.595623140269794</v>
       </c>
       <c r="O3" s="5">
-        <v>121.05712035200939</v>
+        <v>107.31900162611522</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1332,7 +1338,7 @@
         <v>3.3020850141715812</v>
       </c>
       <c r="T3" s="5">
-        <v>2.6220459938049321</v>
+        <v>2.666202068328857</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1343,7 +1349,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5729465344</v>
+        <v>5708200448</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -1352,34 +1358,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>14375894</v>
+        <v>14614889</v>
       </c>
       <c r="G4" s="5">
-        <v>6.3522615432739258</v>
+        <v>6.374758243560791</v>
       </c>
       <c r="H4" s="5">
-        <v>5.1457888857384892</v>
+        <v>-0.65861925510517505</v>
       </c>
       <c r="I4" s="5">
-        <v>7.5297668979717134</v>
+        <v>9.3142017055956483</v>
       </c>
       <c r="J4" s="5">
-        <v>-7.2208581374770269</v>
+        <v>-7.8319194305049518</v>
       </c>
       <c r="K4" s="5">
-        <v>4.0710744136526866</v>
+        <v>3.385642278569545</v>
       </c>
       <c r="L4" s="5">
-        <v>36.633914584326966</v>
+        <v>35.734017313870623</v>
       </c>
       <c r="M4" s="5">
-        <v>4.0710744136526866</v>
+        <v>3.385642278569545</v>
       </c>
       <c r="N4" s="5">
-        <v>-22.788786833028674</v>
+        <v>-21.236526113750674</v>
       </c>
       <c r="O4" s="5">
-        <v>29.738043184738515</v>
+        <v>26.502806317480299</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1394,7 +1400,7 @@
         <v>10.40274915754685</v>
       </c>
       <c r="T4" s="5">
-        <v>7.7214326858520508</v>
+        <v>7.6705775260925293</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1405,7 +1411,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5484765696</v>
+        <v>5498129920</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1414,34 +1420,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>27217288</v>
+        <v>28479470</v>
       </c>
       <c r="G5" s="5">
-        <v>4.9758458137512207</v>
+        <v>4.9638552665710449</v>
       </c>
       <c r="H5" s="5">
-        <v>-7.8464481447049012E-2</v>
+        <v>0.37820339479783804</v>
       </c>
       <c r="I5" s="5">
-        <v>2.9828994066738002E-2</v>
+        <v>0.33028469161933105</v>
       </c>
       <c r="J5" s="5">
-        <v>-9.4318282865693099</v>
+        <v>-9.0892963865427667</v>
       </c>
       <c r="K5" s="5">
-        <v>-4.427368101487394</v>
+        <v>-4.0659091631495734</v>
       </c>
       <c r="L5" s="5">
-        <v>13.692042644260471</v>
+        <v>14.122029809156068</v>
       </c>
       <c r="M5" s="5">
-        <v>-4.427368101487394</v>
+        <v>-4.0659091631495734</v>
       </c>
       <c r="N5" s="5">
-        <v>-23.337660638730163</v>
+        <v>-21.602919816037591</v>
       </c>
       <c r="O5" s="5">
-        <v>26.225164555145099</v>
+        <v>22.478399339437981</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>30</v>
@@ -1456,7 +1462,7 @@
         <v>1.9528599562626601</v>
       </c>
       <c r="T5" s="5">
-        <v>1.388141989707947</v>
+        <v>1.393391966819763</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1467,7 +1473,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5415366656</v>
+        <v>5440960512</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1476,34 +1482,34 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>21539958</v>
+        <v>20826010</v>
       </c>
       <c r="G6" s="5">
-        <v>5.9311981201171884</v>
+        <v>5.8823533058166504</v>
       </c>
       <c r="H6" s="5">
-        <v>0.16632893555201803</v>
+        <v>0.60745522539360508</v>
       </c>
       <c r="I6" s="5">
-        <v>2.9828994066738002E-2</v>
+        <v>2.0156493007963849</v>
       </c>
       <c r="J6" s="5">
-        <v>-11.22466659619924</v>
+        <v>-10.685396194577256</v>
       </c>
       <c r="K6" s="5">
-        <v>-1.422983391421961</v>
+        <v>-0.82417215299603908</v>
       </c>
       <c r="L6" s="5">
-        <v>17.965565559684805</v>
+        <v>18.682153551842219</v>
       </c>
       <c r="M6" s="5">
-        <v>-1.422983391421961</v>
+        <v>-0.82417215299603908</v>
       </c>
       <c r="N6" s="5">
-        <v>-22.879546860972521</v>
+        <v>-22.504425280654893</v>
       </c>
       <c r="O6" s="5">
-        <v>51.084517688907162</v>
+        <v>50.585769276337757</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>42</v>
@@ -1518,7 +1524,7 @@
         <v>4.000457090394316</v>
       </c>
       <c r="T6" s="5">
-        <v>2.8232259750366211</v>
+        <v>2.8403759002685551</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1529,7 +1535,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5297977344</v>
+        <v>5311888384</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1538,47 +1544,49 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>12163966</v>
+        <v>10570886</v>
       </c>
       <c r="G7" s="5">
-        <v>4.5359997749328613</v>
+        <v>2.4696066379547119</v>
       </c>
       <c r="H7" s="5">
-        <v>0.80119863951271209</v>
+        <v>1.1817926682857749</v>
       </c>
       <c r="I7" s="5">
-        <v>1.2749203013105341</v>
+        <v>4.6992458512478352</v>
       </c>
       <c r="J7" s="5">
-        <v>1.9039150220549361</v>
+        <v>-1.118242515723844</v>
       </c>
       <c r="K7" s="5">
-        <v>-6.9333238701654754</v>
+        <v>23.83563865756695</v>
       </c>
       <c r="L7" s="5">
-        <v>4.930323763463651</v>
+        <v>44.90316843901978</v>
       </c>
       <c r="M7" s="5">
-        <v>-6.9333238701654754</v>
+        <v>23.83563865756695</v>
       </c>
       <c r="N7" s="5">
-        <v>-10.288964101074427</v>
+        <v>33.703110984036265</v>
       </c>
       <c r="O7" s="5">
-        <v>-2.544027406166105</v>
+        <v>127.29341216696426</v>
       </c>
       <c r="P7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S7" s="5">
-        <v>1362.9327902240325</v>
+        <v>1.48004759388159</v>
       </c>
       <c r="T7" s="5">
-        <v>1133.01611328125</v>
+        <v>1.396246671676636</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1589,7 +1597,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5266500608</v>
+        <v>5273836032</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1598,49 +1606,47 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>10324321</v>
+        <v>12227733</v>
       </c>
       <c r="G8" s="5">
-        <v>2.4873948097228999</v>
+        <v>4.5818181037902832</v>
       </c>
       <c r="H8" s="5">
-        <v>0.34410647215856704</v>
+        <v>-1.283349064077244</v>
       </c>
       <c r="I8" s="5">
-        <v>5.6898563583821948</v>
+        <v>-1.0258940914182999</v>
       </c>
       <c r="J8" s="5">
-        <v>-2.2731710156095541</v>
+        <v>0.59613208236133408</v>
       </c>
       <c r="K8" s="5">
-        <v>22.389251457077375</v>
+        <v>-8.1276941872455151</v>
       </c>
       <c r="L8" s="5">
-        <v>43.210714712349564</v>
+        <v>3.58370143551201</v>
       </c>
       <c r="M8" s="5">
-        <v>22.389251457077375</v>
+        <v>-8.1276941872455151</v>
       </c>
       <c r="N8" s="5">
-        <v>32.545452641005298</v>
+        <v>-12.125549870738372</v>
       </c>
       <c r="O8" s="5">
-        <v>132.21839207899001</v>
+        <v>2.8612824308727001E-2</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
         <v>52</v>
       </c>
       <c r="S8" s="5">
-        <v>1.48004759388159</v>
+        <v>1362.9327902240325</v>
       </c>
       <c r="T8" s="5">
-        <v>1.3799387216567991</v>
+        <v>1118.4755859375</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1651,56 +1657,56 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4754696704</v>
+        <v>4744143872</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>8966261</v>
+        <v>9187754</v>
       </c>
       <c r="G9" s="5">
-        <v>4.0935673713684082</v>
+        <v>4.1252303123474121</v>
       </c>
       <c r="H9" s="5">
-        <v>0.45339941401265604</v>
+        <v>-1.051558239178974</v>
       </c>
       <c r="I9" s="5">
-        <v>1.668445705909916</v>
+        <v>-0.27347900164892402</v>
       </c>
       <c r="J9" s="5">
-        <v>-0.15373927059957301</v>
+        <v>-1.203680851811695</v>
       </c>
       <c r="K9" s="5">
-        <v>-5.8616358051388318</v>
+        <v>-6.8515555300581958</v>
       </c>
       <c r="L9" s="5">
-        <v>1.3641599211042801</v>
+        <v>0.29825674587935502</v>
       </c>
       <c r="M9" s="5">
-        <v>-5.8616358051388318</v>
+        <v>-6.8515555300581958</v>
       </c>
       <c r="N9" s="5">
-        <v>-19.452439833541835</v>
+        <v>-21.369833889564237</v>
       </c>
       <c r="O9" s="5">
-        <v>-3.9289277095818309</v>
+        <v>-6.4219021046904352</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S9" s="5">
         <v>2802.4439918533603</v>
       </c>
       <c r="T9" s="5">
-        <v>2066.621337890625</v>
+        <v>2044.8896484375</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1711,7 +1717,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4463822848</v>
+        <v>4447255552</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -1720,34 +1726,34 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>15592892</v>
+        <v>15759231</v>
       </c>
       <c r="G10" s="5">
-        <v>5.9716863632202148</v>
+        <v>5.9824657440185547</v>
       </c>
       <c r="H10" s="5">
-        <v>4.4988732980640664</v>
+        <v>-0.48642710562980501</v>
       </c>
       <c r="I10" s="5">
-        <v>6.3666015531838926</v>
+        <v>6.9581103641841224</v>
       </c>
       <c r="J10" s="5">
-        <v>-10.973200890795399</v>
+        <v>-11.40625137293716</v>
       </c>
       <c r="K10" s="5">
-        <v>0.670330473983483</v>
+        <v>0.18064269923092602</v>
       </c>
       <c r="L10" s="5">
-        <v>26.801848987321407</v>
+        <v>26.185050423407308</v>
       </c>
       <c r="M10" s="5">
-        <v>0.670330473983483</v>
+        <v>0.18064269923092602</v>
       </c>
       <c r="N10" s="5">
-        <v>-28.494025690438495</v>
+        <v>-27.606874939527149</v>
       </c>
       <c r="O10" s="5">
-        <v>32.264275363173333</v>
+        <v>27.201492703037424</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1762,7 +1768,7 @@
         <v>7.0465491486094116</v>
       </c>
       <c r="T10" s="5">
-        <v>4.8119606971740723</v>
+        <v>4.7885541915893555</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1773,7 +1779,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4122844672</v>
+        <v>4107727360</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1782,34 +1788,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9409222</v>
+        <v>9252012</v>
       </c>
       <c r="G11" s="5">
-        <v>2.013673067092896</v>
+        <v>2.009925365447998</v>
       </c>
       <c r="H11" s="5">
-        <v>3.4764936661949801</v>
+        <v>-0.144283976161175</v>
       </c>
       <c r="I11" s="5">
-        <v>3.4826450611361142</v>
+        <v>5.9223949513348417</v>
       </c>
       <c r="J11" s="5">
-        <v>-7.9888623363385092</v>
+        <v>-8.1216196642707743</v>
       </c>
       <c r="K11" s="5">
-        <v>-6.6585383805380154</v>
+        <v>-6.7932151527695384</v>
       </c>
       <c r="L11" s="5">
-        <v>15.900809854266718</v>
+        <v>15.733583557405971</v>
       </c>
       <c r="M11" s="5">
-        <v>-6.6585383805380154</v>
+        <v>-6.7932151527695384</v>
       </c>
       <c r="N11" s="5">
-        <v>-17.463787403349961</v>
+        <v>-15.65327949476465</v>
       </c>
       <c r="O11" s="5">
-        <v>42.883151425400555</v>
+        <v>40.393713496552493</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1824,7 +1830,7 @@
         <v>12.193224623203276</v>
       </c>
       <c r="T11" s="5">
-        <v>8.7730722427368164</v>
+        <v>8.7604141235351562</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1835,7 +1841,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3717910272</v>
+        <v>3731748608</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1844,34 +1850,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>22413822</v>
+        <v>22271700</v>
       </c>
       <c r="G12" s="5">
-        <v>4.5323443412780762</v>
+        <v>4.4265594482421884</v>
       </c>
       <c r="H12" s="5">
-        <v>1.5095112988980031</v>
+        <v>2.3897812639740672</v>
       </c>
       <c r="I12" s="5">
-        <v>6.2094331927776913</v>
+        <v>5.95098163112322</v>
       </c>
       <c r="J12" s="5">
-        <v>-4.7166154111812126</v>
+        <v>-2.4395509385972791</v>
       </c>
       <c r="K12" s="5">
-        <v>4.5803240752536389</v>
+        <v>7.0795650658074027</v>
       </c>
       <c r="L12" s="5">
-        <v>27.681613713967824</v>
+        <v>30.732924996043963</v>
       </c>
       <c r="M12" s="5">
-        <v>4.5803240752536389</v>
+        <v>7.0795650658074027</v>
       </c>
       <c r="N12" s="5">
-        <v>0.11862879682766901</v>
+        <v>3.2000550672482531</v>
       </c>
       <c r="O12" s="5">
-        <v>105.26892841849312</v>
+        <v>118.05995856904019</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1886,7 +1892,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.270000457763672</v>
+        <v>24.850000381469727</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1897,118 +1903,118 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3493793792</v>
+        <v>3506606592</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>18624394</v>
+        <v>8500856</v>
       </c>
       <c r="G13" s="5">
-        <v>3.752043485641479</v>
+        <v>9.9907712936401367</v>
       </c>
       <c r="H13" s="5">
-        <v>-0.50029838675204108</v>
+        <v>2.0721284422855479</v>
       </c>
       <c r="I13" s="5">
-        <v>-0.51283208062774499</v>
+        <v>2.459975587324426</v>
       </c>
       <c r="J13" s="5">
-        <v>-17.918414097190329</v>
+        <v>-6.2980778595486449</v>
       </c>
       <c r="K13" s="5">
-        <v>-9.701876578771806</v>
+        <v>14.272956321752805</v>
       </c>
       <c r="L13" s="5">
-        <v>1.658568747944611</v>
+        <v>31.699883614334688</v>
       </c>
       <c r="M13" s="5">
-        <v>-9.701876578771806</v>
+        <v>14.272956321752805</v>
       </c>
       <c r="N13" s="5">
-        <v>-37.899864606524517</v>
+        <v>-20.087802887562255</v>
       </c>
       <c r="O13" s="5">
-        <v>98.634299613147775</v>
+        <v>-26.046853323450204</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="S13" s="5">
-        <v>12.790835624888677</v>
+        <v>68.2096266746521</v>
       </c>
       <c r="T13" s="5">
-        <v>7.3765997886657715</v>
+        <v>47.106246948242188</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5">
-        <v>3416388096</v>
+        <v>3485468928</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>8222977.5</v>
+        <v>20374992</v>
       </c>
       <c r="G14" s="5">
-        <v>10.231569290161133</v>
+        <v>3.7486386299133301</v>
       </c>
       <c r="H14" s="5">
-        <v>3.751076360038974</v>
+        <v>-0.10438367899317001</v>
       </c>
       <c r="I14" s="5">
-        <v>-2.345512138303163</v>
+        <v>2.5845524711802792</v>
       </c>
       <c r="J14" s="5">
-        <v>-8.2002858464609645</v>
+        <v>-18.004093876331616</v>
       </c>
       <c r="K14" s="5">
-        <v>11.953143395423504</v>
+        <v>-9.7961330820606758</v>
       </c>
       <c r="L14" s="5">
-        <v>29.026293097044121</v>
+        <v>1.55245379387372</v>
       </c>
       <c r="M14" s="5">
-        <v>11.953143395423504</v>
+        <v>-9.7961330820606758</v>
       </c>
       <c r="N14" s="5">
-        <v>-22.897047086424351</v>
+        <v>-38.326609097605235</v>
       </c>
       <c r="O14" s="5">
-        <v>-28.514319639395779</v>
+        <v>92.26175192191684</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R14" s="4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="S14" s="5">
-        <v>68.2096266746521</v>
+        <v>12.790835624888677</v>
       </c>
       <c r="T14" s="5">
-        <v>46.149959564208984</v>
+        <v>7.3688998222351074</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2019,56 +2025,56 @@
         <v>72</v>
       </c>
       <c r="C15" s="5">
-        <v>3339979520</v>
+        <v>3337338880</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7065282.5</v>
+        <v>7292911.5</v>
       </c>
       <c r="G15" s="5">
-        <v>4.3974981307983398</v>
+        <v>4.4251747131347656</v>
       </c>
       <c r="H15" s="5">
-        <v>1.5370473895811592</v>
+        <v>-0.90985544228278104</v>
       </c>
       <c r="I15" s="5">
-        <v>2.0351360588664269</v>
+        <v>1.7863371388381339</v>
       </c>
       <c r="J15" s="5">
-        <v>-1.8501782303754539</v>
+        <v>-2.7431997253372309</v>
       </c>
       <c r="K15" s="5">
-        <v>-5.4448749088353292</v>
+        <v>-6.3051898604345684</v>
       </c>
       <c r="L15" s="5">
-        <v>7.3682084848090135</v>
+        <v>6.3913129966284732</v>
       </c>
       <c r="M15" s="5">
-        <v>-5.4448749088353292</v>
+        <v>-6.3051898604345684</v>
       </c>
       <c r="N15" s="5">
-        <v>-1.4285717685431631</v>
+        <v>-3.0132156985786529</v>
       </c>
       <c r="O15" s="5">
-        <v>27.780474150965073</v>
+        <v>24.230112119502767</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S15" s="5">
         <v>1187.971105527638</v>
       </c>
       <c r="T15" s="5">
-        <v>1086.9400634765625</v>
+        <v>1077.050537109375</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2079,7 +2085,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="5">
-        <v>3163739904</v>
+        <v>3141275392</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -2088,31 +2094,31 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>17424312</v>
+        <v>17215042</v>
       </c>
       <c r="G16" s="5">
-        <v>6.5554227828979492</v>
+        <v>6.4667844772338867</v>
       </c>
       <c r="H16" s="5">
-        <v>0.91716777947319406</v>
+        <v>1.3706765960944001</v>
       </c>
       <c r="I16" s="5">
-        <v>4.5677559318294758</v>
+        <v>2.9093418370496731</v>
       </c>
       <c r="J16" s="5">
-        <v>-3.9154845803166189</v>
+        <v>-2.5984766149883098</v>
       </c>
       <c r="K16" s="5">
-        <v>5.2128386994348297</v>
+        <v>6.6549664555745291</v>
       </c>
       <c r="L16" s="5">
-        <v>11.674769993884105</v>
+        <v>13.205469929932523</v>
       </c>
       <c r="M16" s="5">
-        <v>5.2128386994348297</v>
+        <v>6.6549664555745291</v>
       </c>
       <c r="N16" s="5">
-        <v>-18.689477284855826</v>
+        <v>-16.7802405515598</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="4" t="s">
@@ -2128,7 +2134,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T16" s="5">
-        <v>16.780000686645508</v>
+        <v>17.010000228881836</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2139,7 +2145,7 @@
         <v>76</v>
       </c>
       <c r="C17" s="5">
-        <v>3087358976</v>
+        <v>3104658176</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>77</v>
@@ -2148,34 +2154,34 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>11409005</v>
+        <v>11541273</v>
       </c>
       <c r="G17" s="5">
-        <v>5.6056337356567383</v>
+        <v>5.5664339065551758</v>
       </c>
       <c r="H17" s="5">
-        <v>0.13556562510326201</v>
+        <v>0.56788921412787008</v>
       </c>
       <c r="I17" s="5">
-        <v>-0.18074409783107601</v>
+        <v>0.87842811098024509</v>
       </c>
       <c r="J17" s="5">
-        <v>1.4083452388873101</v>
+        <v>1.984232293724508</v>
       </c>
       <c r="K17" s="5">
-        <v>5.241462956623244</v>
+        <v>5.8391178735442972</v>
       </c>
       <c r="L17" s="5">
-        <v>3.421566066680803</v>
+        <v>4.0088859854556116</v>
       </c>
       <c r="M17" s="5">
-        <v>5.241462956623244</v>
+        <v>5.8391178735442972</v>
       </c>
       <c r="N17" s="5">
-        <v>-12.835330641970987</v>
+        <v>-11.735147385749812</v>
       </c>
       <c r="O17" s="5">
-        <v>45.269489048545175</v>
+        <v>44.885006309729405</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>78</v>
@@ -2190,7 +2196,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T17" s="5">
-        <v>1.069438099861145</v>
+        <v>1.0755113363265991</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2201,7 +2207,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="5">
-        <v>2506317568</v>
+        <v>2517190912</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>82</v>
@@ -2210,111 +2216,111 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>10424587</v>
+        <v>9177757</v>
       </c>
       <c r="G18" s="5">
-        <v>10.092308044433594</v>
+        <v>4.7619047164916992</v>
       </c>
       <c r="H18" s="5">
-        <v>1.420873522327581</v>
+        <v>1.7400433572087199</v>
       </c>
       <c r="I18" s="5">
-        <v>3.094463532664848</v>
+        <v>5.4535628879326836</v>
       </c>
       <c r="J18" s="5">
-        <v>-0.55684160430973206</v>
+        <v>-2.8315261793918411</v>
       </c>
       <c r="K18" s="5">
-        <v>-14.569920418156102</v>
+        <v>5.3199233185758246</v>
       </c>
       <c r="L18" s="5">
-        <v>17.6043964647397</v>
+        <v>26.05973286408112</v>
       </c>
       <c r="M18" s="5">
-        <v>-14.569920418156102</v>
+        <v>5.3199233185758246</v>
       </c>
       <c r="N18" s="5">
-        <v>-21.173427392661146</v>
+        <v>-6.4228570576676303</v>
       </c>
       <c r="O18" s="5">
-        <v>51.667483989183836</v>
+        <v>123.92829880451109</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="S18" s="5">
-        <v>1.014260916919097</v>
+        <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>0.72900605201721203</v>
+        <v>9.3174591064453125</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="5">
+        <v>2514970112</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="5">
-        <v>2489675008</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10297230</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10.045942306518555</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1.0201029227460801</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3.7173855409805778</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.45758096095571704</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-13.698445679437409</v>
+      </c>
+      <c r="L19" s="5">
+        <v>18.804082350354399</v>
+      </c>
+      <c r="M19" s="5">
+        <v>-13.698445679437409</v>
+      </c>
+      <c r="N19" s="5">
+        <v>-19.672911998946585</v>
+      </c>
+      <c r="O19" s="5">
+        <v>37.382388824496068</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="5">
-        <v>9335041</v>
-      </c>
-      <c r="G19" s="5">
-        <v>4.8426151275634775</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1.805690341397526</v>
-      </c>
-      <c r="I19" s="5">
-        <v>4.3555618185934231</v>
-      </c>
-      <c r="J19" s="5">
-        <v>-4.4933827289121764</v>
-      </c>
-      <c r="K19" s="5">
-        <v>3.5186538586367</v>
-      </c>
-      <c r="L19" s="5">
-        <v>23.903753826294437</v>
-      </c>
-      <c r="M19" s="5">
-        <v>3.5186538586367</v>
-      </c>
-      <c r="N19" s="5">
-        <v>-8.9562675100463895</v>
-      </c>
-      <c r="O19" s="5">
-        <v>129.06177490002904</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>88</v>
       </c>
       <c r="S19" s="5">
-        <v>11.425618100945441</v>
+        <v>1.014260916919097</v>
       </c>
       <c r="T19" s="5">
-        <v>9.1581048965454102</v>
+        <v>0.73644262552261408</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2325,56 +2331,56 @@
         <v>90</v>
       </c>
       <c r="C20" s="5">
-        <v>2366328576</v>
+        <v>2372739072</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>5638396.5</v>
+        <v>5818590</v>
       </c>
       <c r="G20" s="5">
-        <v>5.1456308364868164</v>
+        <v>5.1599445343017578</v>
       </c>
       <c r="H20" s="5">
-        <v>2.7618751547284992</v>
+        <v>-0.56280975787211807</v>
       </c>
       <c r="I20" s="5">
-        <v>2.2478569818522591</v>
+        <v>1.693988189360218</v>
       </c>
       <c r="J20" s="5">
-        <v>2.5832744555353</v>
+        <v>2.00592577695482</v>
       </c>
       <c r="K20" s="5">
-        <v>-4.3586519745438927</v>
+        <v>-4.8969308137916014</v>
       </c>
       <c r="L20" s="5">
-        <v>-0.83931519702688007</v>
+        <v>-1.397401207070825</v>
       </c>
       <c r="M20" s="5">
-        <v>-4.3586519745438927</v>
+        <v>-4.8969308137916014</v>
       </c>
       <c r="N20" s="5">
-        <v>-12.775717683698185</v>
+        <v>-14.794651670641679</v>
       </c>
       <c r="O20" s="5">
-        <v>-0.61405014422594206</v>
+        <v>-3.8600011085646151</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S20" s="5">
         <v>674.54175152749485</v>
       </c>
       <c r="T20" s="5">
-        <v>544.60308837890625</v>
+        <v>541.53802490234375</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2385,56 +2391,56 @@
         <v>92</v>
       </c>
       <c r="C21" s="5">
-        <v>2306829568</v>
+        <v>2313392896</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>6708577</v>
+        <v>6833018</v>
       </c>
       <c r="G21" s="5">
-        <v>4.9076519012451172</v>
+        <v>4.9206347465515137</v>
       </c>
       <c r="H21" s="5">
-        <v>0.86170613192315704</v>
+        <v>-0.54930824397324607</v>
       </c>
       <c r="I21" s="5">
-        <v>2.4952068923008719</v>
+        <v>1.668482959644924</v>
       </c>
       <c r="J21" s="5">
-        <v>-0.94506746841304112</v>
+        <v>-1.489184378871178</v>
       </c>
       <c r="K21" s="5">
-        <v>-9.1890101096160244</v>
+        <v>-9.6878423635176176</v>
       </c>
       <c r="L21" s="5">
-        <v>6.5964451695533E-2</v>
+        <v>-0.48370614044897003</v>
       </c>
       <c r="M21" s="5">
-        <v>-9.1890101096160244</v>
+        <v>-9.6878423635176176</v>
       </c>
       <c r="N21" s="5">
-        <v>-12.426266062262536</v>
+        <v>-14.686490389432528</v>
       </c>
       <c r="O21" s="5">
-        <v>6.3920106934626695</v>
+        <v>0.53237298649770903</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S21" s="5">
         <v>3531.5682281059062</v>
       </c>
       <c r="T21" s="5">
-        <v>2862.75390625</v>
+        <v>2847.02880859375</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2445,7 +2451,7 @@
         <v>94</v>
       </c>
       <c r="C22" s="5">
-        <v>2080294912</v>
+        <v>2072573824</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>35</v>
@@ -2454,34 +2460,34 @@
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>8108051.5</v>
+        <v>8089009</v>
       </c>
       <c r="G22" s="5">
-        <v>6.3585290908813477</v>
+        <v>6.3262195587158203</v>
       </c>
       <c r="H22" s="5">
-        <v>2.9387937252113532</v>
+        <v>0.20236175472774201</v>
       </c>
       <c r="I22" s="5">
-        <v>1.2161248311082671</v>
+        <v>4.0392949077446838</v>
       </c>
       <c r="J22" s="5">
-        <v>-11.471728747372667</v>
+        <v>-11.292581384235723</v>
       </c>
       <c r="K22" s="5">
-        <v>-9.7828928975651657</v>
+        <v>-9.6003279765680674</v>
       </c>
       <c r="L22" s="5">
-        <v>-9.7196128023989807</v>
+        <v>-9.5369198266909265</v>
       </c>
       <c r="M22" s="5">
-        <v>-9.7828928975651657</v>
+        <v>-9.6003279765680674</v>
       </c>
       <c r="N22" s="5">
-        <v>-34.778021039590577</v>
+        <v>-34.267764910903729</v>
       </c>
       <c r="O22" s="5">
-        <v>6.8062171136615612</v>
+        <v>4.1755865695072716</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
@@ -2496,7 +2502,7 @@
         <v>1.9808639392</v>
       </c>
       <c r="T22" s="5">
-        <v>1.212589383125305</v>
+        <v>1.215043187141418</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2507,7 +2513,7 @@
         <v>97</v>
       </c>
       <c r="C23" s="5">
-        <v>2014678144</v>
+        <v>2029250048</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2516,34 +2522,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5292651.5</v>
+        <v>5356546</v>
       </c>
       <c r="G23" s="5">
-        <v>6.7388687133789062</v>
+        <v>6.722689151763916</v>
       </c>
       <c r="H23" s="5">
-        <v>-6.9353670447425006E-2</v>
+        <v>0.85846469457322405</v>
       </c>
       <c r="I23" s="5">
-        <v>-0.20664068857911802</v>
+        <v>1.784340243067351</v>
       </c>
       <c r="J23" s="5">
-        <v>-8.8858606824309341</v>
+        <v>-8.1036779646253336</v>
       </c>
       <c r="K23" s="5">
-        <v>-6.3189826351903511</v>
+        <v>-5.5147641755964427</v>
       </c>
       <c r="L23" s="5">
-        <v>12.592098137219843</v>
+        <v>13.55866154860712</v>
       </c>
       <c r="M23" s="5">
-        <v>-6.3189826351903511</v>
+        <v>-5.5147641755964427</v>
       </c>
       <c r="N23" s="5">
-        <v>-24.973595842371786</v>
+        <v>-24.6980895801141</v>
       </c>
       <c r="O23" s="5">
-        <v>29.574459947624621</v>
+        <v>26.902488298045402</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
@@ -2558,7 +2564,7 @@
         <v>4.1295041516920517</v>
       </c>
       <c r="T23" s="5">
-        <v>2.7829899787902832</v>
+        <v>2.8068809509277339</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2569,56 +2575,56 @@
         <v>100</v>
       </c>
       <c r="C24" s="5">
-        <v>1616898944</v>
+        <v>1622535296</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>2948487.25</v>
+        <v>3011902.5</v>
       </c>
       <c r="G24" s="5">
-        <v>4.6430954933166504</v>
+        <v>4.6524062156677246</v>
       </c>
       <c r="H24" s="5">
-        <v>1.141003892300207</v>
+        <v>-0.48577179389597303</v>
       </c>
       <c r="I24" s="5">
-        <v>1.6936437878548589</v>
+        <v>0.73023560859615311</v>
       </c>
       <c r="J24" s="5">
-        <v>0.83431371071962501</v>
+        <v>0.34448905614437003</v>
       </c>
       <c r="K24" s="5">
-        <v>-7.4230520680516721</v>
+        <v>-7.8727647687548474</v>
       </c>
       <c r="L24" s="5">
-        <v>1.2763278731540371</v>
+        <v>0.78435603845263802</v>
       </c>
       <c r="M24" s="5">
-        <v>-7.4230520680516721</v>
+        <v>-7.8727647687548474</v>
       </c>
       <c r="N24" s="5">
-        <v>-12.363679031522889</v>
+        <v>-14.024461240118546</v>
       </c>
       <c r="O24" s="5">
-        <v>14.729582006885966</v>
+        <v>11.302253272911788</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S24" s="5">
         <v>1391.4460285132382</v>
       </c>
       <c r="T24" s="5">
-        <v>1132.2607421875</v>
+        <v>1126.7606201171875</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2626,10 +2632,10 @@
         <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5">
-        <v>1554236032</v>
+        <v>1559870592</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2638,34 +2644,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>3032026.5</v>
+        <v>1721434.375</v>
       </c>
       <c r="G25" s="5">
-        <v>7.0192313194274902</v>
+        <v>6.9636964797973633</v>
       </c>
       <c r="H25" s="5">
-        <v>0.79341119730094212</v>
+        <v>0.89125274661774312</v>
       </c>
       <c r="I25" s="5">
-        <v>2.402075667490378</v>
+        <v>2.4984698976634689</v>
       </c>
       <c r="J25" s="5">
-        <v>-9.4241234436177592</v>
+        <v>-6.0393323286493601</v>
       </c>
       <c r="K25" s="5">
-        <v>-3.152854776524217</v>
+        <v>0.21819653081536203</v>
       </c>
       <c r="L25" s="5">
-        <v>12.165076259169183</v>
+        <v>6.8327741062373049</v>
       </c>
       <c r="M25" s="5">
-        <v>-3.152854776524217</v>
+        <v>0.21819653081536203</v>
       </c>
       <c r="N25" s="5">
-        <v>-25.664980213401268</v>
+        <v>-34.015669829751275</v>
       </c>
       <c r="O25" s="5">
-        <v>51.83278314806212</v>
+        <v>56.910350545973685</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2677,21 +2683,21 @@
         <v>32</v>
       </c>
       <c r="S25" s="5">
-        <v>2.5733491470937611</v>
+        <v>3.362812957848845</v>
       </c>
       <c r="T25" s="5">
-        <v>1.7368539571762081</v>
+        <v>2.0364959239959721</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="C26" s="5">
-        <v>1548165888</v>
+        <v>1556519168</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2700,34 +2706,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>1656114.625</v>
+        <v>3116482.75</v>
       </c>
       <c r="G26" s="5">
-        <v>6.9983415603637704</v>
+        <v>6.9656491279602051</v>
       </c>
       <c r="H26" s="5">
-        <v>1.4150278534965421</v>
+        <v>0.281313326271659</v>
       </c>
       <c r="I26" s="5">
-        <v>1.036839728542716</v>
+        <v>3.601921326742485</v>
       </c>
       <c r="J26" s="5">
-        <v>-6.8693617004368495</v>
+        <v>-9.1693214324772949</v>
       </c>
       <c r="K26" s="5">
-        <v>-0.667110574484298</v>
+        <v>-2.8804108508969199</v>
       </c>
       <c r="L26" s="5">
-        <v>5.8890351719007139</v>
+        <v>12.48061156610898</v>
       </c>
       <c r="M26" s="5">
-        <v>-0.667110574484298</v>
+        <v>-2.8804108508969199</v>
       </c>
       <c r="N26" s="5">
-        <v>-34.623682746937433</v>
+        <v>-24.80535300978184</v>
       </c>
       <c r="O26" s="5">
-        <v>59.00776643410812</v>
+        <v>47.891320202539966</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2739,10 +2745,10 @@
         <v>32</v>
       </c>
       <c r="S26" s="5">
-        <v>3.362812957848845</v>
+        <v>2.5733491470937611</v>
       </c>
       <c r="T26" s="5">
-        <v>2.0185060501098628</v>
+        <v>1.7417399883270259</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2753,43 +2759,43 @@
         <v>105</v>
       </c>
       <c r="C27" s="5">
-        <v>1444316544</v>
+        <v>1467439744</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3449627.25</v>
+        <v>3403566</v>
       </c>
       <c r="G27" s="5">
-        <v>11.644149780273437</v>
+        <v>11.804096221923828</v>
       </c>
       <c r="H27" s="5">
-        <v>2.6900772040463932</v>
+        <v>-0.80654908750639209</v>
       </c>
       <c r="I27" s="5">
-        <v>2.1805239631382149</v>
+        <v>3.2980862981059729</v>
       </c>
       <c r="J27" s="5">
-        <v>-0.6898062784433171</v>
+        <v>-1.490791739705366</v>
       </c>
       <c r="K27" s="5">
-        <v>-16.647647067233351</v>
+        <v>-17.319924709227685</v>
       </c>
       <c r="L27" s="5">
-        <v>10.301849840983589</v>
+        <v>9.4122112775884439</v>
       </c>
       <c r="M27" s="5">
-        <v>-16.647647067233351</v>
+        <v>-17.319924709227685</v>
       </c>
       <c r="N27" s="5">
-        <v>-28.078033299228732</v>
+        <v>-27.93629314225057</v>
       </c>
       <c r="O27" s="5">
-        <v>95.710234863722761</v>
+        <v>94.901765316374551</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>42</v>
@@ -2798,13 +2804,13 @@
         <v>106</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S27" s="5">
         <v>0.31711016131256003</v>
       </c>
       <c r="T27" s="5">
-        <v>0.20692555606365201</v>
+        <v>0.20525659620761902</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2815,56 +2821,56 @@
         <v>108</v>
       </c>
       <c r="C28" s="5">
-        <v>1394285696</v>
+        <v>1424121216</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>2921248</v>
+        <v>3108116.5</v>
       </c>
       <c r="G28" s="5">
-        <v>4.6385540962219238</v>
+        <v>4.56634521484375</v>
       </c>
       <c r="H28" s="5">
-        <v>0.575062617167998</v>
+        <v>1.29058819563086</v>
       </c>
       <c r="I28" s="5">
-        <v>1.051008391298702</v>
+        <v>2.0728596350331419</v>
       </c>
       <c r="J28" s="5">
-        <v>0.24325862910292703</v>
+        <v>1.536986291885833</v>
       </c>
       <c r="K28" s="5">
-        <v>-4.2857084341636709</v>
+        <v>-3.0504310856832921</v>
       </c>
       <c r="L28" s="5">
-        <v>0.16074023578747101</v>
+        <v>1.453402925927016</v>
       </c>
       <c r="M28" s="5">
-        <v>-4.2857084341636709</v>
+        <v>-3.0504310856832921</v>
       </c>
       <c r="N28" s="5">
-        <v>-19.740548678313719</v>
+        <v>-19.786950708194162</v>
       </c>
       <c r="O28" s="5">
-        <v>12.425901829209041</v>
+        <v>5.9087244662559657</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S28" s="5">
         <v>1333.6048879837067</v>
       </c>
       <c r="T28" s="5">
-        <v>1003.096923828125</v>
+        <v>1016.0427856445312</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2875,118 +2881,118 @@
         <v>110</v>
       </c>
       <c r="C29" s="5">
-        <v>1318844672</v>
+        <v>1338629120</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>2919408.75</v>
+        <v>6198317.5</v>
       </c>
       <c r="G29" s="5">
-        <v>3.7756800651550293</v>
+        <v>4.6536226272583008</v>
       </c>
       <c r="H29" s="5">
-        <v>0.81212346215857611</v>
+        <v>2.5488031439393488</v>
       </c>
       <c r="I29" s="5">
-        <v>0.40531545829465304</v>
+        <v>6.7758375210282162</v>
       </c>
       <c r="J29" s="5">
-        <v>-5.4006772686026157</v>
+        <v>2.530328773240464</v>
       </c>
       <c r="K29" s="5">
-        <v>-12.370220601652282</v>
+        <v>2.2018850621729151</v>
       </c>
       <c r="L29" s="5">
-        <v>1.9077782980758462</v>
+        <v>16.826336897686822</v>
       </c>
       <c r="M29" s="5">
-        <v>-12.370220601652282</v>
+        <v>2.2018850621729151</v>
       </c>
       <c r="N29" s="5">
-        <v>-11.367484719040444</v>
+        <v>-14.466657970366326</v>
       </c>
       <c r="O29" s="5">
-        <v>24.091213966703108</v>
+        <v>85.666784179826024</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="4"/>
+      <c r="Q29" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="R29" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S29" s="5">
-        <v>1629.3279022403258</v>
+        <v>23.909999847412109</v>
       </c>
       <c r="T29" s="5">
-        <v>1360.3746337890625</v>
+        <v>18.909999847412109</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A30" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" s="5">
-        <v>1303058176</v>
+        <v>1332722688</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>6192994</v>
+        <v>2977749.25</v>
       </c>
       <c r="G30" s="5">
-        <v>4.7722339630126953</v>
+        <v>3.7569060325622559</v>
       </c>
       <c r="H30" s="5">
-        <v>2.7298036227934031</v>
+        <v>0.21208093933233801</v>
       </c>
       <c r="I30" s="5">
-        <v>5.673350875839156</v>
+        <v>0.38200047909140405</v>
       </c>
       <c r="J30" s="5">
-        <v>-1.8015198746835E-2</v>
+        <v>-5.2000501363518303</v>
       </c>
       <c r="K30" s="5">
-        <v>-0.33829559305483803</v>
+        <v>-12.184374542369403</v>
       </c>
       <c r="L30" s="5">
-        <v>13.922672245825506</v>
+        <v>2.1239052715431139</v>
       </c>
       <c r="M30" s="5">
-        <v>-0.33829559305483803</v>
+        <v>-12.184374542369403</v>
       </c>
       <c r="N30" s="5">
-        <v>-17.622705080492331</v>
+        <v>-12.68169062508424</v>
       </c>
       <c r="O30" s="5">
-        <v>66.64520945943093</v>
+        <v>18.231511711977454</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S30" s="5">
-        <v>23.909999847412109</v>
+        <v>1629.3279022403258</v>
       </c>
       <c r="T30" s="5">
-        <v>18.440000534057617</v>
+        <v>1363.259765625</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2997,7 +3003,7 @@
         <v>115</v>
       </c>
       <c r="C31" s="5">
-        <v>1300555904</v>
+        <v>1307821568</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>23</v>
@@ -3006,34 +3012,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>10983611</v>
+        <v>10799354</v>
       </c>
       <c r="G31" s="5">
-        <v>12.698412895202637</v>
+        <v>12.441679954528809</v>
       </c>
       <c r="H31" s="5">
-        <v>0.558664405349796</v>
+        <v>2.063486248697965</v>
       </c>
       <c r="I31" s="5">
-        <v>6.7796625237600328</v>
+        <v>5.7565774510606627</v>
       </c>
       <c r="J31" s="5">
-        <v>-10.764869096379392</v>
+        <v>-8.9235144411755503</v>
       </c>
       <c r="K31" s="5">
-        <v>3.1674823645052359</v>
+        <v>5.29632917622469</v>
       </c>
       <c r="L31" s="5">
-        <v>26.54654631068918</v>
+        <v>29.157816892012466</v>
       </c>
       <c r="M31" s="5">
-        <v>3.1674823645052359</v>
+        <v>5.29632917622469</v>
       </c>
       <c r="N31" s="5">
-        <v>-9.0594293194499294</v>
+        <v>-7.6549299989631887</v>
       </c>
       <c r="O31" s="5">
-        <v>26.965391511903047</v>
+        <v>32.00836023406697</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3048,7 +3054,7 @@
         <v>16.010000228881836</v>
       </c>
       <c r="T31" s="5">
-        <v>12.600000381469727</v>
+        <v>12.859999656677246</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3059,56 +3065,56 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1271407616</v>
+        <v>1279236864</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>2115904.5</v>
+        <v>2200367</v>
       </c>
       <c r="G32" s="5">
-        <v>4.1338582038879395</v>
+        <v>4.1311473846435547</v>
       </c>
       <c r="H32" s="5">
-        <v>-0.39184568411110304</v>
+        <v>-0.22078218054415502</v>
       </c>
       <c r="I32" s="5">
-        <v>0.49282658722917805</v>
+        <v>-0.38328406777925506</v>
       </c>
       <c r="J32" s="5">
-        <v>-0.48573502849407202</v>
+        <v>-0.70544479265065607</v>
       </c>
       <c r="K32" s="5">
-        <v>-0.58575064156558609</v>
+        <v>-0.80523958907075011</v>
       </c>
       <c r="L32" s="5">
-        <v>11.946165534367005</v>
+        <v>11.699008349064655</v>
       </c>
       <c r="M32" s="5">
-        <v>-0.58575064156558609</v>
+        <v>-0.80523958907075011</v>
       </c>
       <c r="N32" s="5">
-        <v>-0.316416902776118</v>
+        <v>-2.9989273111276082</v>
       </c>
       <c r="O32" s="5">
-        <v>43.084926400262887</v>
+        <v>39.472382913765223</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S32" s="5">
         <v>1243.9918533604887</v>
       </c>
       <c r="T32" s="5">
-        <v>1151.144287109375</v>
+        <v>1148.6029052734375</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3119,7 +3125,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1237727104</v>
+        <v>1231522304</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3128,34 +3134,34 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1472715.625</v>
+        <v>1459245.125</v>
       </c>
       <c r="G33" s="5">
-        <v>6.3970575332641602</v>
+        <v>6.4322400093078613</v>
       </c>
       <c r="H33" s="5">
-        <v>-0.98522074918165903</v>
+        <v>-0.49751196570663203</v>
       </c>
       <c r="I33" s="5">
-        <v>4.1437522219636369</v>
+        <v>4.1613689425939793</v>
       </c>
       <c r="J33" s="5">
-        <v>-15.196347292639256</v>
+        <v>-15.618255612214671</v>
       </c>
       <c r="K33" s="5">
-        <v>1.4039666812930121</v>
+        <v>0.89946981335242704</v>
       </c>
       <c r="L33" s="5">
-        <v>18.236797761293609</v>
+        <v>17.648555544562839</v>
       </c>
       <c r="M33" s="5">
-        <v>1.4039666812930121</v>
+        <v>0.89946981335242704</v>
       </c>
       <c r="N33" s="5">
-        <v>-36.34745961303463</v>
+        <v>-36.432370316791072</v>
       </c>
       <c r="O33" s="5">
-        <v>-31.873522646435415</v>
+        <v>-36.133757489048271</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>42</v>
@@ -3170,7 +3176,7 @@
         <v>0.44271498196098902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.25605422258377103</v>
+        <v>0.25478032231330899</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3181,7 +3187,7 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1092921088</v>
+        <v>1097778432</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>23</v>
@@ -3190,34 +3196,34 @@
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>20031662</v>
+        <v>19838912</v>
       </c>
       <c r="G34" s="5">
-        <v>7.3008852005004883</v>
+        <v>7.1005921363830566</v>
       </c>
       <c r="H34" s="5">
-        <v>0.44444402058918503</v>
+        <v>2.8207977380195541</v>
       </c>
       <c r="I34" s="5">
-        <v>9.708740448500075</v>
+        <v>8.7770625313473793</v>
       </c>
       <c r="J34" s="5">
-        <v>-27.288254905445697</v>
+        <v>-25.237203644543971</v>
       </c>
       <c r="K34" s="5">
-        <v>-30.77293007334363</v>
+        <v>-28.82017445075531</v>
       </c>
       <c r="L34" s="5">
-        <v>-27.82753120090744</v>
+        <v>-25.79169183354978</v>
       </c>
       <c r="M34" s="5">
-        <v>-30.77293007334363</v>
+        <v>-28.82017445075531</v>
       </c>
       <c r="N34" s="5">
-        <v>-50.697979107124745</v>
+        <v>-48.531291704564708</v>
       </c>
       <c r="O34" s="5">
-        <v>-18.006362531061846</v>
+        <v>-16.806334062057527</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
@@ -3232,7 +3238,7 @@
         <v>38.759998321533203</v>
       </c>
       <c r="T34" s="5">
-        <v>18.079999923706055</v>
+        <v>18.590000152587891</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3243,56 +3249,56 @@
         <v>128</v>
       </c>
       <c r="C35" s="5">
-        <v>1076798848</v>
+        <v>1084413568</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>3160997.75</v>
+        <v>3200639.25</v>
       </c>
       <c r="G35" s="5">
-        <v>5.0109543800354004</v>
+        <v>5.0031251907348633</v>
       </c>
       <c r="H35" s="5">
-        <v>1.3061616061150971</v>
+        <v>-0.130164557957413</v>
       </c>
       <c r="I35" s="5">
-        <v>2.203109862130304</v>
+        <v>2.2762722826360049</v>
       </c>
       <c r="J35" s="5">
-        <v>-1.575506941310711</v>
+        <v>-1.703620747622381</v>
       </c>
       <c r="K35" s="5">
-        <v>-9.0159415766535851</v>
+        <v>-9.1343705741120491</v>
       </c>
       <c r="L35" s="5">
-        <v>-2.928082533365028</v>
+        <v>-3.0544357656362542</v>
       </c>
       <c r="M35" s="5">
-        <v>-9.0159415766535851</v>
+        <v>-9.1343705741120491</v>
       </c>
       <c r="N35" s="5">
-        <v>-19.007885264584612</v>
+        <v>-19.760121544192909</v>
       </c>
       <c r="O35" s="5">
-        <v>2.9636972984348202</v>
+        <v>-4.6027412158425101</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S35" s="5">
         <v>3169.0427698574335</v>
       </c>
       <c r="T35" s="5">
-        <v>2413.32421875</v>
+        <v>2410.18310546875</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3303,7 +3309,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>1020389696</v>
+        <v>1036560704</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3312,34 +3318,34 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>13686974</v>
+        <v>13865464</v>
       </c>
       <c r="G36" s="5">
-        <v>2.1840875148773189</v>
+        <v>2.1571650505065918</v>
       </c>
       <c r="H36" s="5">
-        <v>1.584784556884133</v>
+        <v>1.2480487614731079</v>
       </c>
       <c r="I36" s="5">
-        <v>10.137451174375322</v>
+        <v>8.3472457279687653</v>
       </c>
       <c r="J36" s="5">
-        <v>-11.604336553022954</v>
+        <v>-10.501115570177022</v>
       </c>
       <c r="K36" s="5">
-        <v>-4.3910404811335351</v>
+        <v>-3.1977940460010008</v>
       </c>
       <c r="L36" s="5">
-        <v>-1.2590210375984621</v>
+        <v>-2.6685472591792003E-2</v>
       </c>
       <c r="M36" s="5">
-        <v>-4.3910404811335351</v>
+        <v>-3.1977940460010008</v>
       </c>
       <c r="N36" s="5">
-        <v>-33.91182116492233</v>
+        <v>-32.541894554240749</v>
       </c>
       <c r="O36" s="5">
-        <v>-24.318419298466853</v>
+        <v>-23.887000023375482</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
@@ -3354,7 +3360,7 @@
         <v>9.9399995803833008</v>
       </c>
       <c r="T36" s="5">
-        <v>6.4099998474121094</v>
+        <v>6.4899997711181641</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3365,7 +3371,7 @@
         <v>133</v>
       </c>
       <c r="C37" s="5">
-        <v>1018387008</v>
+        <v>1020153472</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3374,34 +3380,34 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>5285498.5</v>
+        <v>5194084</v>
       </c>
       <c r="G37" s="5">
-        <v>6.5800862312316895</v>
+        <v>6.4352240562438965</v>
       </c>
       <c r="H37" s="5">
-        <v>0.17346451194164603</v>
+        <v>2.2510841955691201</v>
       </c>
       <c r="I37" s="5">
-        <v>7.5305028012323749</v>
+        <v>6.5364778916524591</v>
       </c>
       <c r="J37" s="5">
-        <v>-8.406147644166662</v>
+        <v>-6.3442929096715783</v>
       </c>
       <c r="K37" s="5">
-        <v>2.1072307554300229</v>
+        <v>4.4057504894987831</v>
       </c>
       <c r="L37" s="5">
-        <v>14.995222083847493</v>
+        <v>17.583861353836603</v>
       </c>
       <c r="M37" s="5">
-        <v>2.1072307554300229</v>
+        <v>4.4057504894987831</v>
       </c>
       <c r="N37" s="5">
-        <v>-15.919474938823019</v>
+        <v>-13.732327352958063</v>
       </c>
       <c r="O37" s="5">
-        <v>30.799616210484615</v>
+        <v>27.494310276629786</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
@@ -3416,7 +3422,7 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T37" s="5">
-        <v>11.550000190734863</v>
+        <v>11.810000419616699</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3427,7 +3433,7 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>917674688</v>
+        <v>847427840</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>136</v>
@@ -3436,167 +3442,167 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>16614088</v>
-      </c>
-      <c r="G38" s="5"/>
+        <v>1466190</v>
+      </c>
+      <c r="G38" s="5">
+        <v>5.0955414772033691</v>
+      </c>
       <c r="H38" s="5">
-        <v>-10.125820777331896</v>
+        <v>1.5111221096064</v>
       </c>
       <c r="I38" s="5">
-        <v>24.417718385965713</v>
+        <v>-7.7715326824254198</v>
       </c>
       <c r="J38" s="5">
-        <v>158.00319734002636</v>
+        <v>5.2587056251617081</v>
       </c>
       <c r="K38" s="5">
-        <v>143.15976073841838</v>
+        <v>-11.962733636211087</v>
       </c>
       <c r="L38" s="5">
-        <v>242.71046201350029</v>
+        <v>-12.70138221999586</v>
       </c>
       <c r="M38" s="5">
-        <v>143.15976073841838</v>
+        <v>-11.72721806504965</v>
       </c>
       <c r="N38" s="5">
-        <v>264.68609296061322</v>
+        <v>-33.806572330821069</v>
       </c>
       <c r="O38" s="5">
-        <v>358.55609720844194</v>
+        <v>1.29188892687282</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S38" s="5">
-        <v>2.9003953340212778</v>
+        <v>6.9999688890271594</v>
       </c>
       <c r="T38" s="5">
-        <v>2.4882888793945313</v>
+        <v>4.3634138107299805</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="C39" s="5">
-        <v>844111168</v>
+        <v>832743040</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>1490076.25</v>
+        <v>1379855.25</v>
       </c>
       <c r="G39" s="5">
-        <v>5.0955414772033691</v>
+        <v>6.5175094604492187</v>
       </c>
       <c r="H39" s="5">
-        <v>1.5111221096064</v>
+        <v>-1.2672320371346801</v>
       </c>
       <c r="I39" s="5">
-        <v>-7.7715326824254198</v>
+        <v>1.9649717374618401</v>
       </c>
       <c r="J39" s="5">
-        <v>5.2587056251617081</v>
+        <v>-7.6523063730541292</v>
       </c>
       <c r="K39" s="5">
-        <v>-11.962733636211087</v>
+        <v>-8.7664736730505677</v>
       </c>
       <c r="L39" s="5">
-        <v>-12.70138221999586</v>
+        <v>-2.5797330669234291</v>
       </c>
       <c r="M39" s="5">
-        <v>-11.962733636211087</v>
+        <v>-8.7664736730505677</v>
       </c>
       <c r="N39" s="5">
-        <v>-33.806572330821069</v>
+        <v>-41.051134554045142</v>
       </c>
       <c r="O39" s="5">
-        <v>1.29188892687282</v>
+        <v>-21.064697219219497</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R39" s="4" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="S39" s="5">
-        <v>6.9999688890271594</v>
+        <v>1.243469103672894</v>
       </c>
       <c r="T39" s="5">
-        <v>4.3634138107299805</v>
+        <v>0.63468724489212003</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="5">
+        <v>825373504</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="5">
+        <v>17375010</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5">
+        <v>-10.06114739905799</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1.8416932971440541</v>
+      </c>
+      <c r="J40" s="5">
+        <v>132.04390567442221</v>
+      </c>
+      <c r="K40" s="5">
+        <v>118.69395870408117</v>
+      </c>
+      <c r="L40" s="5">
+        <v>208.22825042858901</v>
+      </c>
+      <c r="M40" s="5">
+        <v>118.69395870408117</v>
+      </c>
+      <c r="N40" s="5">
+        <v>225.89809314252847</v>
+      </c>
+      <c r="O40" s="5">
+        <v>279.83196103162987</v>
+      </c>
+      <c r="P40" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="5">
-        <v>835845248</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1400954.375</v>
-      </c>
-      <c r="G40" s="5">
-        <v>6.4547204971313477</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2.0012991529935849</v>
-      </c>
-      <c r="I40" s="5">
-        <v>2.4762360697153429</v>
-      </c>
-      <c r="J40" s="5">
-        <v>-6.4670265684447887</v>
-      </c>
-      <c r="K40" s="5">
-        <v>-7.5954941714350133</v>
-      </c>
-      <c r="L40" s="5">
-        <v>-1.329346940098342</v>
-      </c>
-      <c r="M40" s="5">
-        <v>-7.5954941714350133</v>
-      </c>
-      <c r="N40" s="5">
-        <v>-39.495919404882507</v>
-      </c>
-      <c r="O40" s="5">
-        <v>-15.709862110845684</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S40" s="5">
-        <v>1.243469103672894</v>
+        <v>2.9003802040762392</v>
       </c>
       <c r="T40" s="5">
-        <v>0.642833411693573</v>
+        <v>2.2379269599914551</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3607,7 +3613,7 @@
         <v>146</v>
       </c>
       <c r="C41" s="5">
-        <v>816336640</v>
+        <v>809033664</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>29</v>
@@ -3616,34 +3622,34 @@
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>1794244.875</v>
+        <v>1832168.75</v>
       </c>
       <c r="G41" s="5">
-        <v>7.4220027923583984</v>
+        <v>7.5207982063293457</v>
       </c>
       <c r="H41" s="5">
-        <v>1.4049536433270891</v>
+        <v>-0.76159106258952802</v>
       </c>
       <c r="I41" s="5">
-        <v>-0.94766028059126706</v>
+        <v>-2.104763557479727</v>
       </c>
       <c r="J41" s="5">
-        <v>-12.988787081984343</v>
+        <v>-13.651456703018683</v>
       </c>
       <c r="K41" s="5">
-        <v>-12.327774811985194</v>
+        <v>-12.995478643390479</v>
       </c>
       <c r="L41" s="5">
-        <v>6.776073904140123</v>
+        <v>5.9628768683021924</v>
       </c>
       <c r="M41" s="5">
-        <v>-12.327774811985194</v>
+        <v>-12.995478643390479</v>
       </c>
       <c r="N41" s="5">
-        <v>-49.37992840731151</v>
+        <v>-50.156090301460708</v>
       </c>
       <c r="O41" s="5">
-        <v>19.405438773611049</v>
+        <v>14.340351188153356</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>30</v>
@@ -3658,7 +3664,7 @@
         <v>2.1937991371437611</v>
       </c>
       <c r="T41" s="5">
-        <v>1.0193120241165161</v>
+        <v>1.0115489959716799</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3669,56 +3675,56 @@
         <v>149</v>
       </c>
       <c r="C42" s="5">
-        <v>787388672</v>
+        <v>793165248</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>1969955.5</v>
+        <v>1989015.375</v>
       </c>
       <c r="G42" s="5">
-        <v>5.5319929122924805</v>
+        <v>5.5218977928161621</v>
       </c>
       <c r="H42" s="5">
-        <v>-0.350134323857132</v>
+        <v>-0.103919057327073</v>
       </c>
       <c r="I42" s="5">
-        <v>0.87284375205458609</v>
+        <v>-0.46933613380745204</v>
       </c>
       <c r="J42" s="5">
-        <v>2.2095648946772521</v>
+        <v>2.1033496783406052</v>
       </c>
       <c r="K42" s="5">
-        <v>0.7738720741618631</v>
+        <v>0.66914881627040401</v>
       </c>
       <c r="L42" s="5">
-        <v>9.7294326532488373</v>
+        <v>9.6154028612252418</v>
       </c>
       <c r="M42" s="5">
-        <v>0.7738720741618631</v>
+        <v>0.66914881627040401</v>
       </c>
       <c r="N42" s="5">
-        <v>-13.415609318986554</v>
+        <v>-14.857990865310821</v>
       </c>
       <c r="O42" s="5">
-        <v>18.573814826113043</v>
+        <v>23.842758544285168</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S42" s="5">
         <v>516.49694501018325</v>
       </c>
       <c r="T42" s="5">
-        <v>413.17318725585937</v>
+        <v>412.74383544921875</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3729,7 +3735,7 @@
         <v>151</v>
       </c>
       <c r="C43" s="5">
-        <v>779182400</v>
+        <v>779847104</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>152</v>
@@ -3738,34 +3744,34 @@
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>2563931.5</v>
+        <v>2621099.25</v>
       </c>
       <c r="G43" s="5">
-        <v>0.99413770437240612</v>
+        <v>0.99224770069122303</v>
       </c>
       <c r="H43" s="5">
-        <v>2.5891583020217319</v>
+        <v>8.5313229605211011E-2</v>
       </c>
       <c r="I43" s="5">
-        <v>2.676794640235403</v>
+        <v>2.8209239315035721</v>
       </c>
       <c r="J43" s="5">
-        <v>2.1222602377619642</v>
+        <v>2.209384036116635</v>
       </c>
       <c r="K43" s="5">
-        <v>4.0273964770703774</v>
+        <v>4.1161456086791892</v>
       </c>
       <c r="L43" s="5">
-        <v>6.8673284868775664</v>
+        <v>6.9585004562025432</v>
       </c>
       <c r="M43" s="5">
-        <v>4.0273964770703774</v>
+        <v>4.1161456086791892</v>
       </c>
       <c r="N43" s="5">
-        <v>3.1082206076312509</v>
+        <v>3.19644250677884</v>
       </c>
       <c r="O43" s="5">
-        <v>17.346561266367864</v>
+        <v>17.442794891394087</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>25</v>
@@ -3780,7 +3786,7 @@
         <v>0.72089303474705002</v>
       </c>
       <c r="T43" s="5">
-        <v>0.689541935920715</v>
+        <v>0.6901302337646481</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3791,54 +3797,54 @@
         <v>156</v>
       </c>
       <c r="C44" s="5">
-        <v>766623232</v>
+        <v>739547840</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>2602033.75</v>
+        <v>2500101.5</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5">
-        <v>-3.604341526356869</v>
+        <v>-2.6963003148836151</v>
       </c>
       <c r="I44" s="5">
-        <v>-9.7202887439597259</v>
+        <v>-11.963848592263204</v>
       </c>
       <c r="J44" s="5">
-        <v>-9.7124090945592378</v>
+        <v>-12.14729168453651</v>
       </c>
       <c r="K44" s="5">
-        <v>-28.225994798674503</v>
+        <v>-30.161601607152477</v>
       </c>
       <c r="L44" s="5">
-        <v>71.191070925173889</v>
+        <v>66.574377158343623</v>
       </c>
       <c r="M44" s="5">
-        <v>-28.225994798674503</v>
+        <v>-30.161601607152477</v>
       </c>
       <c r="N44" s="5">
-        <v>74.981253212671191</v>
+        <v>73.608526857191237</v>
       </c>
       <c r="O44" s="5">
-        <v>176.70181737450284</v>
+        <v>155.66670741415459</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>157</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S44" s="5">
         <v>1.13709763756269</v>
       </c>
       <c r="T44" s="5">
-        <v>0.74022680521011408</v>
+        <v>0.72026431560516402</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3849,56 +3855,56 @@
         <v>159</v>
       </c>
       <c r="C45" s="5">
-        <v>727486400</v>
+        <v>726250176</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1225123.125</v>
+        <v>1248130.875</v>
       </c>
       <c r="G45" s="5">
-        <v>4.1517539024353027</v>
+        <v>4.1816868782043457</v>
       </c>
       <c r="H45" s="5">
-        <v>0.700977591656748</v>
+        <v>-0.9999820335604761</v>
       </c>
       <c r="I45" s="5">
-        <v>1.683003043496667</v>
+        <v>0.32148790882846601</v>
       </c>
       <c r="J45" s="5">
-        <v>-0.27220987168905503</v>
+        <v>-1.2694698554390651</v>
       </c>
       <c r="K45" s="5">
-        <v>-9.3483290139784181</v>
+        <v>-10.254829436960989</v>
       </c>
       <c r="L45" s="5">
-        <v>2.6539751013207713</v>
+        <v>1.62745379357192</v>
       </c>
       <c r="M45" s="5">
-        <v>-9.3483290139784181</v>
+        <v>-10.254829436960989</v>
       </c>
       <c r="N45" s="5">
-        <v>-11.926068443954474</v>
+        <v>-14.291325434542401</v>
       </c>
       <c r="O45" s="5">
-        <v>13.703785467359729</v>
+        <v>9.0620671169914466</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S45" s="5">
         <v>1279.0224032586557</v>
       </c>
       <c r="T45" s="5">
-        <v>1055.2156982421875</v>
+        <v>1044.6636962890625</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3909,7 +3915,7 @@
         <v>161</v>
       </c>
       <c r="C46" s="5">
-        <v>712991104</v>
+        <v>710344832</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>162</v>
@@ -3918,34 +3924,34 @@
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>1468985.25</v>
+        <v>1418876.125</v>
       </c>
       <c r="G46" s="5">
-        <v>5.8536586761474609</v>
+        <v>5.8252425193786621</v>
       </c>
       <c r="H46" s="5">
-        <v>3.9205990800369683</v>
+        <v>0.17951358486023603</v>
       </c>
       <c r="I46" s="5">
-        <v>1.31697498584078</v>
+        <v>3.4848630848930422</v>
       </c>
       <c r="J46" s="5">
-        <v>-3.608342371413142</v>
+        <v>-3.4353062512978649</v>
       </c>
       <c r="K46" s="5">
-        <v>-3.7792927776147733</v>
+        <v>-3.606563536702001</v>
       </c>
       <c r="L46" s="5">
-        <v>17.073805516016115</v>
+        <v>17.283968901230207</v>
       </c>
       <c r="M46" s="5">
-        <v>-3.7792927776147733</v>
+        <v>-3.606563536702001</v>
       </c>
       <c r="N46" s="5">
-        <v>-30.453950203068349</v>
+        <v>-29.457042545203628</v>
       </c>
       <c r="O46" s="5">
-        <v>36.498370874634453</v>
+        <v>25.252195870599415</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>163</v>
@@ -3960,7 +3966,7 @@
         <v>1.5543399132000002</v>
       </c>
       <c r="T46" s="5">
-        <v>1.015651941299438</v>
+        <v>1.0174752473831179</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3971,7 +3977,7 @@
         <v>165</v>
       </c>
       <c r="C47" s="5">
-        <v>649533504</v>
+        <v>662558912</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>23</v>
@@ -3980,34 +3986,34 @@
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>12499785</v>
+        <v>12943038</v>
       </c>
       <c r="G47" s="5">
         <v>6.5530800819396973</v>
       </c>
       <c r="H47" s="5">
-        <v>2.0053488634350409</v>
+        <v>2.005352672792537</v>
       </c>
       <c r="I47" s="5">
-        <v>11.386864535295027</v>
+        <v>11.38686557457611</v>
       </c>
       <c r="J47" s="5">
-        <v>-0.90908696828785307</v>
+        <v>-0.90908102273824509</v>
       </c>
       <c r="K47" s="5">
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>5.8454741686100995</v>
+        <v>5.8454738020852437</v>
       </c>
       <c r="M47" s="5">
         <v>0</v>
       </c>
       <c r="N47" s="5">
-        <v>-58.004574618530711</v>
+        <v>-58.004570181799075</v>
       </c>
       <c r="O47" s="5">
-        <v>-4.3196489001160909</v>
+        <v>-4.3196477229687886</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>25</v>
@@ -4019,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S47" s="5">
-        <v>18.500312805175781</v>
+        <v>67.423248291015625</v>
       </c>
       <c r="T47" s="5">
-        <v>7.630000114440918</v>
+        <v>27.807064056396484</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4033,43 +4039,43 @@
         <v>168</v>
       </c>
       <c r="C48" s="5">
-        <v>648729024</v>
+        <v>645592000</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>7689405</v>
+        <v>7323350</v>
       </c>
       <c r="G48" s="5">
-        <v>7.9575600624084473</v>
+        <v>7.8843626976013184</v>
       </c>
       <c r="H48" s="5">
-        <v>0.46498078638903506</v>
+        <v>0.97317193258625911</v>
       </c>
       <c r="I48" s="5">
-        <v>1.973971716161294</v>
+        <v>2.4204868733549878</v>
       </c>
       <c r="J48" s="5">
-        <v>-15.958535984022948</v>
+        <v>-15.140668044484883</v>
       </c>
       <c r="K48" s="5">
-        <v>-14.841422412337801</v>
+        <v>-14.012683037064988</v>
       </c>
       <c r="L48" s="5">
-        <v>-15.557661899645513</v>
+        <v>-14.735892766033276</v>
       </c>
       <c r="M48" s="5">
-        <v>-14.841422412337801</v>
+        <v>-14.012683037064988</v>
       </c>
       <c r="N48" s="5">
-        <v>-43.345330644033076</v>
+        <v>-42.471448779743511</v>
       </c>
       <c r="O48" s="5">
-        <v>26.654085175923647</v>
+        <v>22.89264707178944</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>25</v>
@@ -4078,13 +4084,13 @@
         <v>26</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="S48" s="5">
         <v>11.008880893576956</v>
       </c>
       <c r="T48" s="5">
-        <v>5.5732131004333496</v>
+        <v>5.6274495124816895</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4095,7 +4101,7 @@
         <v>170</v>
       </c>
       <c r="C49" s="5">
-        <v>497600960</v>
+        <v>499216544</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>23</v>
@@ -4104,34 +4110,34 @@
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>4430380</v>
+        <v>4337672.5</v>
       </c>
       <c r="G49" s="5">
-        <v>9.7087383270263672</v>
+        <v>9.5011873245239258</v>
       </c>
       <c r="H49" s="5">
-        <v>0.32467502308324303</v>
+        <v>2.1844697836848952</v>
       </c>
       <c r="I49" s="5">
-        <v>4.5685277140022684</v>
+        <v>3.609520502081764</v>
       </c>
       <c r="J49" s="5">
-        <v>-8.899948019741954</v>
+        <v>-6.9098949113119765</v>
       </c>
       <c r="K49" s="5">
-        <v>-31.809410011712004</v>
+        <v>-30.319807178101389</v>
       </c>
       <c r="L49" s="5">
-        <v>-16.854450497972618</v>
+        <v>-15.03816109262206</v>
       </c>
       <c r="M49" s="5">
-        <v>-31.809410011712004</v>
+        <v>-30.319807178101389</v>
       </c>
       <c r="N49" s="5">
-        <v>-39.033045894284292</v>
+        <v>-37.814414023541609</v>
       </c>
       <c r="O49" s="5">
-        <v>5.1162118840762938</v>
+        <v>11.077641031791741</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>25</v>
@@ -4146,7 +4152,7 @@
         <v>23.379999160766602</v>
       </c>
       <c r="T49" s="5">
-        <v>12.359999656677246</v>
+        <v>12.630000114440918</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4157,41 +4163,41 @@
         <v>172</v>
       </c>
       <c r="C50" s="5">
-        <v>484447424</v>
+        <v>484134368</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>2732702.25</v>
+        <v>2631977.75</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>-1.8323429589803042</v>
+        <v>-4.3193238426958764</v>
       </c>
       <c r="I50" s="5">
-        <v>-2.9051273571998442</v>
+        <v>-6.2267263601523792</v>
       </c>
       <c r="J50" s="5">
-        <v>-13.562359611766661</v>
+        <v>-17.296312371434198</v>
       </c>
       <c r="K50" s="5">
-        <v>-39.237041358772515</v>
+        <v>-41.861893403378559</v>
       </c>
       <c r="L50" s="5">
-        <v>53.174350035254704</v>
+        <v>46.557489782527583</v>
       </c>
       <c r="M50" s="5">
-        <v>-39.237041358772515</v>
+        <v>-41.861893403378559</v>
       </c>
       <c r="N50" s="5">
-        <v>137.65028247481615</v>
+        <v>121.53334649096684</v>
       </c>
       <c r="O50" s="5">
-        <v>301.75978723418081</v>
+        <v>260.93117621627687</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>25</v>
@@ -4200,13 +4206,13 @@
         <v>173</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S50" s="5">
         <v>1.152422315694851</v>
       </c>
       <c r="T50" s="5">
-        <v>0.6656303405761721</v>
+        <v>0.63687628507614102</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4217,7 +4223,7 @@
         <v>175</v>
       </c>
       <c r="C51" s="5">
-        <v>475741088</v>
+        <v>479570848</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>23</v>
@@ -4226,40 +4232,40 @@
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>1292326.5</v>
+        <v>1337147.625</v>
       </c>
       <c r="G51" s="5">
-        <v>7.9858026504516602</v>
+        <v>7.849977970123291</v>
       </c>
       <c r="H51" s="5">
-        <v>0.80501028739887703</v>
+        <v>1.730254542180498</v>
       </c>
       <c r="I51" s="5">
-        <v>4.6208473743181377</v>
+        <v>3.009883510354316</v>
       </c>
       <c r="J51" s="5">
-        <v>1.526097875937404</v>
+        <v>3.2827577959344101</v>
       </c>
       <c r="K51" s="5">
-        <v>3.490827439564792</v>
+        <v>5.2814821820780464</v>
       </c>
       <c r="L51" s="5">
-        <v>11.627542317566286</v>
+        <v>13.558982938840414</v>
       </c>
       <c r="M51" s="5">
-        <v>3.490827439564792</v>
+        <v>5.2814821820780464</v>
       </c>
       <c r="N51" s="5">
-        <v>-21.544277787828435</v>
+        <v>-19.409145035026942</v>
       </c>
       <c r="O51" s="5">
-        <v>103.19455637552055</v>
+        <v>107.15550873954673</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>0</v>
@@ -4268,7 +4274,7 @@
         <v>31.969999313354492</v>
       </c>
       <c r="T51" s="5">
-        <v>22.540000915527344</v>
+        <v>22.930000305175781</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4279,54 +4285,54 @@
         <v>177</v>
       </c>
       <c r="C52" s="5">
-        <v>475500000</v>
+        <v>472694304</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>13938844</v>
+        <v>13078553</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>-0.66483177780787306</v>
+        <v>-4.1044599633497816</v>
       </c>
       <c r="I52" s="5">
-        <v>-6.2699126342591116</v>
+        <v>-11.10088385651653</v>
       </c>
       <c r="J52" s="5">
-        <v>-10.234303311311454</v>
+        <v>-13.919149147799592</v>
       </c>
       <c r="K52" s="5">
-        <v>-13.205623591614589</v>
+        <v>-16.768497922643142</v>
       </c>
       <c r="L52" s="5">
-        <v>49.372613182298217</v>
+        <v>43.240927337102718</v>
       </c>
       <c r="M52" s="5">
-        <v>-13.205623591614589</v>
+        <v>-16.768497922643142</v>
       </c>
       <c r="N52" s="5">
-        <v>-33.340477120933343</v>
+        <v>-38.143345400591279</v>
       </c>
       <c r="O52" s="5">
-        <v>163.95404051673097</v>
+        <v>146.01479342395302</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>157</v>
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S52" s="5">
         <v>1.1922868853192861</v>
       </c>
       <c r="T52" s="5">
-        <v>0.49348455667495705</v>
+        <v>0.47322723269462602</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4337,56 +4343,56 @@
         <v>179</v>
       </c>
       <c r="C53" s="5">
-        <v>465550688</v>
+        <v>466548288</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>4788622.5</v>
+        <v>4027680.75</v>
       </c>
       <c r="G53" s="5">
-        <v>5.8353724479675293</v>
+        <v>5.8549108505249023</v>
       </c>
       <c r="H53" s="5">
-        <v>0.86960348427815903</v>
+        <v>-0.61896019304639205</v>
       </c>
       <c r="I53" s="5">
-        <v>0.74948488713957306</v>
+        <v>0.57361142137433208</v>
       </c>
       <c r="J53" s="5">
-        <v>2.0158890879715008</v>
+        <v>1.384451343934612</v>
       </c>
       <c r="K53" s="5">
-        <v>-7.8289025477777496</v>
+        <v>-8.3994049505009993</v>
       </c>
       <c r="L53" s="5">
-        <v>-1.3588954246800951</v>
+        <v>-1.969444595982583</v>
       </c>
       <c r="M53" s="5">
-        <v>-7.8289025477777496</v>
+        <v>-8.3994049505009993</v>
       </c>
       <c r="N53" s="5">
-        <v>-28.338912785288418</v>
+        <v>-29.442642135733976</v>
       </c>
       <c r="O53" s="5">
-        <v>7.6601314595180048</v>
+        <v>8.0655906795582553</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S53" s="5">
         <v>1014.2566191446027</v>
       </c>
       <c r="T53" s="5">
-        <v>679.0543212890625</v>
+        <v>674.85125732421875</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4397,43 +4403,41 @@
         <v>181</v>
       </c>
       <c r="C54" s="5">
-        <v>433523584</v>
+        <v>425216544</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>1030280.6875</v>
-      </c>
-      <c r="G54" s="5">
-        <v>7.1743931770324707</v>
-      </c>
+        <v>1395813.875</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="5">
-        <v>0.27672968383896102</v>
+        <v>2.2011570393030588</v>
       </c>
       <c r="I54" s="5">
-        <v>-8.5413267354192524</v>
+        <v>1.590479113740328</v>
       </c>
       <c r="J54" s="5">
-        <v>0.99892053196144504</v>
+        <v>-7.745119927141153</v>
       </c>
       <c r="K54" s="5">
-        <v>-12.808674905577377</v>
+        <v>-2.2861640351763972</v>
       </c>
       <c r="L54" s="5">
-        <v>-13.850739349551155</v>
+        <v>40.868874486729197</v>
       </c>
       <c r="M54" s="5">
-        <v>-12.808674905577377</v>
+        <v>-2.2861640351763972</v>
       </c>
       <c r="N54" s="5">
-        <v>-37.208700887961299</v>
+        <v>48.294486984561736</v>
       </c>
       <c r="O54" s="5">
-        <v>28.991872285812015</v>
+        <v>421.01262655996948</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>25</v>
@@ -4442,13 +4446,13 @@
         <v>182</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="S54" s="5">
-        <v>3.5895411339548722</v>
+        <v>10.579760227544591</v>
       </c>
       <c r="T54" s="5">
-        <v>2.0143964290618901</v>
+        <v>8.3648643493652344</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4459,67 +4463,69 @@
         <v>184</v>
       </c>
       <c r="C55" s="5">
-        <v>425491520</v>
+        <v>386601728</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1397101</v>
-      </c>
-      <c r="G55" s="5"/>
+        <v>5181222</v>
+      </c>
+      <c r="G55" s="5">
+        <v>8.8064889907836914</v>
+      </c>
       <c r="H55" s="5">
-        <v>-2.0745975976037219</v>
+        <v>2.7381012661389592</v>
       </c>
       <c r="I55" s="5">
-        <v>-2.972271721205288</v>
+        <v>4.3530790417222631</v>
       </c>
       <c r="J55" s="5">
-        <v>-9.7315884801647101</v>
+        <v>0.36920231359536304</v>
       </c>
       <c r="K55" s="5">
-        <v>-4.3901769848016965</v>
+        <v>-3.4742589803433033</v>
       </c>
       <c r="L55" s="5">
-        <v>37.835630185216807</v>
+        <v>-3.9475174424757342</v>
       </c>
       <c r="M55" s="5">
-        <v>-4.3901769848016965</v>
+        <v>-3.4742589803433033</v>
       </c>
       <c r="N55" s="5">
-        <v>45.40180381032355</v>
+        <v>-15.590891491071869</v>
       </c>
       <c r="O55" s="5">
-        <v>443.36489082989959</v>
+        <v>79.617581668119939</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="S55" s="5">
-        <v>10.579760227544591</v>
+        <v>23.069999694824219</v>
       </c>
       <c r="T55" s="5">
-        <v>8.184748649597168</v>
+        <v>17.260000228881836</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C56" s="5">
-        <v>384300544</v>
+        <v>376550400</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>23</v>
@@ -4528,34 +4534,34 @@
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>5165212</v>
+        <v>1808166.625</v>
       </c>
       <c r="G56" s="5">
-        <v>9.0476198196411133</v>
+        <v>5.7803468704223633</v>
       </c>
       <c r="H56" s="5">
-        <v>0.59879323085427805</v>
+        <v>2.4679170501055609</v>
       </c>
       <c r="I56" s="5">
-        <v>3.8960986876568571</v>
+        <v>4.4265649158171216</v>
       </c>
       <c r="J56" s="5">
-        <v>-2.3057647779639701</v>
+        <v>-13.818891241059006</v>
       </c>
       <c r="K56" s="5">
-        <v>-6.0467929326330268</v>
+        <v>-6.1310118733601371</v>
       </c>
       <c r="L56" s="5">
-        <v>-6.5074384539148262</v>
+        <v>-15.139412131607678</v>
       </c>
       <c r="M56" s="5">
-        <v>-6.0467929326330268</v>
+        <v>-6.1310118733601371</v>
       </c>
       <c r="N56" s="5">
-        <v>-15.809362172644349</v>
+        <v>-31.363162346502737</v>
       </c>
       <c r="O56" s="5">
-        <v>86.956090766705557</v>
+        <v>50.211701910295844</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
@@ -4567,72 +4573,72 @@
         <v>0</v>
       </c>
       <c r="S56" s="5">
-        <v>23.069999694824219</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="T56" s="5">
-        <v>16.799999237060547</v>
+        <v>10.380000114440918</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="5">
+        <v>369124192</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1007617.5</v>
+      </c>
+      <c r="G57" s="5">
+        <v>3.3218786716461182</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.78689612986826407</v>
+      </c>
+      <c r="I57" s="5">
+        <v>3.394212637702454</v>
+      </c>
+      <c r="J57" s="5">
+        <v>4.0959790166058774</v>
+      </c>
+      <c r="K57" s="5">
+        <v>11.838884700736664</v>
+      </c>
+      <c r="L57" s="5">
+        <v>41.226610791364784</v>
+      </c>
+      <c r="M57" s="5">
+        <v>11.838884700736664</v>
+      </c>
+      <c r="N57" s="5">
+        <v>4.3942335168683622</v>
+      </c>
+      <c r="O57" s="5">
+        <v>101.8374390051362</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q57" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="5">
-        <v>372089792</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="5">
-        <v>1784407.625</v>
-      </c>
-      <c r="G57" s="5">
-        <v>5.9230012893676758</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1.1988000281243361</v>
-      </c>
-      <c r="I57" s="5">
-        <v>3.6847455456481049</v>
-      </c>
-      <c r="J57" s="5">
-        <v>-15.894544126626986</v>
-      </c>
-      <c r="K57" s="5">
-        <v>-8.3918256279777115</v>
-      </c>
-      <c r="L57" s="5">
-        <v>-17.18326056447841</v>
-      </c>
-      <c r="M57" s="5">
-        <v>-8.3918256279777115</v>
-      </c>
-      <c r="N57" s="5">
-        <v>-33.437016365091445</v>
-      </c>
-      <c r="O57" s="5">
-        <v>50.045297906394111</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="R57" s="4" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="S57" s="5">
-        <v>17.930000305175781</v>
+        <v>0.538598416929716</v>
       </c>
       <c r="T57" s="5">
-        <v>10.130000114440918</v>
+        <v>0.49227750301361106</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4643,40 +4649,40 @@
         <v>191</v>
       </c>
       <c r="C58" s="5">
-        <v>340657952</v>
+        <v>339328832</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>6894071</v>
+        <v>6512614</v>
       </c>
       <c r="G58" s="5">
-        <v>0.76797384023666404</v>
+        <v>0.77049177885055509</v>
       </c>
       <c r="H58" s="5">
-        <v>-0.46507967419809904</v>
+        <v>-0.41770825901190606</v>
       </c>
       <c r="I58" s="5">
-        <v>4.5002240789720371</v>
+        <v>1.5390595191923979</v>
       </c>
       <c r="J58" s="5">
-        <v>-9.0810306094737605</v>
+        <v>-9.4612786483923692</v>
       </c>
       <c r="K58" s="5">
-        <v>-33.172378117711176</v>
+        <v>-33.451869541081649</v>
       </c>
       <c r="L58" s="5">
-        <v>23.208710999566449</v>
+        <v>22.693418414868983</v>
       </c>
       <c r="M58" s="5">
-        <v>-33.172378117711176</v>
+        <v>-33.451869541081649</v>
       </c>
       <c r="N58" s="5">
-        <v>11.695754367603284</v>
+        <v>15.687115915314598</v>
       </c>
       <c r="O58" s="5"/>
       <c r="P58" s="4" t="s">
@@ -4684,13 +4690,13 @@
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S58" s="5">
         <v>0.55299045370637101</v>
       </c>
       <c r="T58" s="5">
-        <v>0.31925216317176802</v>
+        <v>0.31791695952415505</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4701,56 +4707,56 @@
         <v>193</v>
       </c>
       <c r="C59" s="5">
-        <v>288164736</v>
+        <v>287893472</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>1512197.375</v>
+        <v>1501413.125</v>
       </c>
       <c r="G59" s="5">
-        <v>5.6303749084472656</v>
+        <v>5.6666665077209473</v>
       </c>
       <c r="H59" s="5">
-        <v>1.0282803065585711</v>
+        <v>-0.92481732567014607</v>
       </c>
       <c r="I59" s="5">
-        <v>1.921551113196629</v>
+        <v>0.287833499279877</v>
       </c>
       <c r="J59" s="5">
-        <v>-6.8164902049828002E-2</v>
+        <v>-0.99235182689578805</v>
       </c>
       <c r="K59" s="5">
-        <v>-4.5125807638599644</v>
+        <v>-5.3956649607910689</v>
       </c>
       <c r="L59" s="5">
-        <v>9.7437361491274679</v>
+        <v>8.7288070633826145</v>
       </c>
       <c r="M59" s="5">
-        <v>-4.5125807638599644</v>
+        <v>-5.3956649607910689</v>
       </c>
       <c r="N59" s="5">
-        <v>-19.711503389876771</v>
+        <v>-21.317011602472459</v>
       </c>
       <c r="O59" s="5">
-        <v>19.478979406420315</v>
+        <v>11.752975322068316</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S59" s="5">
         <v>1122.6069246435843</v>
       </c>
       <c r="T59" s="5">
-        <v>825.591064453125</v>
+        <v>817.95587158203125</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4761,7 +4767,7 @@
         <v>195</v>
       </c>
       <c r="C60" s="5">
-        <v>229521552</v>
+        <v>231629824</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>23</v>
@@ -4770,34 +4776,34 @@
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>2433832</v>
+        <v>2441792.5</v>
       </c>
       <c r="G60" s="5">
-        <v>6.6747574806213379</v>
+        <v>6.5359477996826172</v>
       </c>
       <c r="H60" s="5">
-        <v>0.91855247538930007</v>
+        <v>2.1237887815027889</v>
       </c>
       <c r="I60" s="5">
-        <v>3.5826505360836651</v>
+        <v>2.935776948239921</v>
       </c>
       <c r="J60" s="5">
-        <v>-8.2021411616363888</v>
+        <v>-6.2525485339674614</v>
       </c>
       <c r="K60" s="5">
-        <v>-12.291669944630746</v>
+        <v>-10.428930270471371</v>
       </c>
       <c r="L60" s="5">
-        <v>4.6652809846180032</v>
+        <v>6.8881504802976954</v>
       </c>
       <c r="M60" s="5">
-        <v>-12.291669944630746</v>
+        <v>-10.428930270471371</v>
       </c>
       <c r="N60" s="5">
-        <v>-8.2415750783294435</v>
+        <v>-4.9968620358448179</v>
       </c>
       <c r="O60" s="5">
-        <v>62.251051360078272</v>
+        <v>61.928018305836609</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>25</v>
@@ -4812,7 +4818,7 @@
         <v>20.789899826049805</v>
       </c>
       <c r="T60" s="5">
-        <v>16.479999542236328</v>
+        <v>16.829999923706055</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4823,54 +4829,54 @@
         <v>197</v>
       </c>
       <c r="C61" s="5">
-        <v>218724912</v>
+        <v>218583552</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1931069.625</v>
+        <v>1922638.625</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5">
-        <v>-0.71151608524762111</v>
+        <v>-0.85826256663863509</v>
       </c>
       <c r="I61" s="5">
-        <v>-6.2033223977584262</v>
+        <v>-5.730395158972124</v>
       </c>
       <c r="J61" s="5">
-        <v>-13.899020918103622</v>
+        <v>-14.638438396366571</v>
       </c>
       <c r="K61" s="5">
-        <v>-35.209673865122994</v>
+        <v>-35.76607984421085</v>
       </c>
       <c r="L61" s="5">
-        <v>51.645981437805766</v>
+        <v>50.343676976473219</v>
       </c>
       <c r="M61" s="5">
-        <v>-35.209673865122994</v>
+        <v>-35.76607984421085</v>
       </c>
       <c r="N61" s="5">
-        <v>95.25779621160919</v>
+        <v>83.963808653459097</v>
       </c>
       <c r="O61" s="5">
-        <v>18.510850906961718</v>
+        <v>13.303381106396239</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q61" s="4"/>
       <c r="R61" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S61" s="5">
         <v>0.45377137396633505</v>
       </c>
       <c r="T61" s="5">
-        <v>0.27178165316581704</v>
+        <v>0.26944765448570301</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4881,43 +4887,43 @@
         <v>199</v>
       </c>
       <c r="C62" s="5">
-        <v>216457888</v>
+        <v>217828368</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>4271616</v>
+        <v>4192781</v>
       </c>
       <c r="G62" s="5">
-        <v>2.6964559555053711</v>
+        <v>2.7365128993988042</v>
       </c>
       <c r="H62" s="5">
-        <v>0.55744421315497805</v>
+        <v>-1.5536657227840589</v>
       </c>
       <c r="I62" s="5">
-        <v>2.0508035299052101</v>
+        <v>-3.638534031397112</v>
       </c>
       <c r="J62" s="5">
-        <v>-2.0327726222606368</v>
+        <v>-3.5553586369879149</v>
       </c>
       <c r="K62" s="5">
-        <v>-24.39634987881778</v>
+        <v>-25.57136588588509</v>
       </c>
       <c r="L62" s="5">
-        <v>46.258519899761176</v>
+        <v>43.985400787433534</v>
       </c>
       <c r="M62" s="5">
-        <v>-24.39634987881778</v>
+        <v>-25.57136588588509</v>
       </c>
       <c r="N62" s="5">
-        <v>40.305470358404527</v>
+        <v>39.16996667329866</v>
       </c>
       <c r="O62" s="5">
-        <v>140.70488914392206</v>
+        <v>117.38994547278013</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>25</v>
@@ -4926,13 +4932,13 @@
         <v>200</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S62" s="5">
         <v>4.6771184674018205</v>
       </c>
       <c r="T62" s="5">
-        <v>3.3855335712432861</v>
+        <v>3.3329164981842041</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4943,40 +4949,40 @@
         <v>202</v>
       </c>
       <c r="C63" s="5">
-        <v>213436336</v>
+        <v>214244560</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>1435926.25</v>
+        <v>1382574.375</v>
       </c>
       <c r="G63" s="5">
-        <v>5.679999828338623</v>
+        <v>5.6896843910217294</v>
       </c>
       <c r="H63" s="5">
-        <v>0.111190434539865</v>
+        <v>-0.45593677383418701</v>
       </c>
       <c r="I63" s="5">
-        <v>-0.64835021253812908</v>
+        <v>-0.96810475085799008</v>
       </c>
       <c r="J63" s="5">
-        <v>3.0216645173110961</v>
+        <v>2.5519508637605881</v>
       </c>
       <c r="K63" s="5">
-        <v>-1.7087908620560091</v>
+        <v>-2.156936629962158</v>
       </c>
       <c r="L63" s="5">
-        <v>10.488495531902542</v>
+        <v>9.9847378499164705</v>
       </c>
       <c r="M63" s="5">
-        <v>-1.7087908620560091</v>
+        <v>-2.156936629962158</v>
       </c>
       <c r="N63" s="5">
-        <v>-1.2552090538836991</v>
+        <v>-2.2339635543987879</v>
       </c>
       <c r="O63" s="5"/>
       <c r="P63" s="4" t="s">
@@ -4984,13 +4990,13 @@
       </c>
       <c r="Q63" s="4"/>
       <c r="R63" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S63" s="5">
         <v>960</v>
       </c>
       <c r="T63" s="5">
-        <v>887.529296875</v>
+        <v>883.48272705078125</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5001,41 +5007,41 @@
         <v>204</v>
       </c>
       <c r="C64" s="5">
-        <v>186242496</v>
+        <v>184668064</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>7383731</v>
+        <v>6963874</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5">
-        <v>-0.91995952761529909</v>
+        <v>-3.6312811880482299</v>
       </c>
       <c r="I64" s="5">
-        <v>4.73828470343578</v>
+        <v>-8.1248994407624675</v>
       </c>
       <c r="J64" s="5">
-        <v>-13.432977993903961</v>
+        <v>-16.576904878781416</v>
       </c>
       <c r="K64" s="5">
-        <v>-38.319235187888182</v>
+        <v>-40.559347072052866</v>
       </c>
       <c r="L64" s="5">
-        <v>74.078791230585892</v>
+        <v>67.756626286546734</v>
       </c>
       <c r="M64" s="5">
-        <v>-38.319235187888182</v>
+        <v>-40.559347072052866</v>
       </c>
       <c r="N64" s="5">
-        <v>98.156554435484594</v>
+        <v>85.577382610091973</v>
       </c>
       <c r="O64" s="5">
-        <v>102.39051716432925</v>
+        <v>78.433721320358913</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>205</v>
@@ -5048,7 +5054,7 @@
         <v>0.22635182608908702</v>
       </c>
       <c r="T64" s="5">
-        <v>0.13250008225441001</v>
+        <v>0.12768796086311301</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5059,41 +5065,41 @@
         <v>207</v>
       </c>
       <c r="C65" s="5">
-        <v>148463808</v>
+        <v>150462464</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>2870770.25</v>
+        <v>2986618.25</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5">
-        <v>1.269987218679836</v>
+        <v>-1.018436132532796</v>
       </c>
       <c r="I65" s="5">
-        <v>9.5441784443963016</v>
+        <v>5.5551546193941759</v>
       </c>
       <c r="J65" s="5">
-        <v>34.340449159895314</v>
+        <v>32.971584280072207</v>
       </c>
       <c r="K65" s="5">
-        <v>16.228009077321492</v>
+        <v>15.043701293086365</v>
       </c>
       <c r="L65" s="5">
-        <v>81.084255549397398</v>
+        <v>79.239093654669375</v>
       </c>
       <c r="M65" s="5">
-        <v>16.228009077321492</v>
+        <v>15.043701293086365</v>
       </c>
       <c r="N65" s="5">
-        <v>236.2420279940728</v>
+        <v>233.33591657512488</v>
       </c>
       <c r="O65" s="5">
-        <v>140.12386170913365</v>
+        <v>117.31718310625054</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>205</v>
@@ -5103,10 +5109,68 @@
         <v>205</v>
       </c>
       <c r="S65" s="5">
-        <v>0.22587611366347402</v>
+        <v>0.22587493537817402</v>
       </c>
       <c r="T65" s="5">
-        <v>0.22483280301094102</v>
+        <v>0.22254186868667603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
+      <c r="A66" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="5">
+        <v>105694360</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2963329.75</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5">
+        <v>2.2734973263106579</v>
+      </c>
+      <c r="I66" s="5">
+        <v>-7.1544832985457667</v>
+      </c>
+      <c r="J66" s="5">
+        <v>43.865639998535144</v>
+      </c>
+      <c r="K66" s="5">
+        <v>68.954243603084109</v>
+      </c>
+      <c r="L66" s="5">
+        <v>159.085787931331</v>
+      </c>
+      <c r="M66" s="5">
+        <v>68.954243603084109</v>
+      </c>
+      <c r="N66" s="5">
+        <v>558.46146718024579</v>
+      </c>
+      <c r="O66" s="5">
+        <v>690.20182043778698</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="S66" s="5">
+        <v>3.136226523511763</v>
+      </c>
+      <c r="T66" s="5">
+        <v>2.7049002647399902</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\01.04.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\05.04.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="212">
   <si>
     <t>USD</t>
   </si>
@@ -150,6 +150,21 @@
     <t>Final</t>
   </si>
   <si>
+    <t>3462 JP Equity</t>
+  </si>
+  <si>
+    <t>NOMURA REAL ESTA</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
     <t>FUNO11 MM Equity</t>
   </si>
   <si>
@@ -165,21 +180,6 @@
     <t>MXN</t>
   </si>
   <si>
-    <t>3462 JP Equity</t>
-  </si>
-  <si>
-    <t>NOMURA REAL ESTA</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
     <t>8984 JP Equity</t>
   </si>
   <si>
@@ -228,6 +228,9 @@
     <t>France</t>
   </si>
   <si>
+    <t>07/06/2023</t>
+  </si>
+  <si>
     <t>CHC AU Equity</t>
   </si>
   <si>
@@ -240,27 +243,27 @@
     <t>UNITED URBAN</t>
   </si>
   <si>
+    <t>SUN SP Equity</t>
+  </si>
+  <si>
+    <t>SUNTEC REIT</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
     <t>BNL US Equity</t>
   </si>
   <si>
     <t>BROADSTONE NET</t>
   </si>
   <si>
-    <t>SUN SP Equity</t>
-  </si>
-  <si>
-    <t>SUNTEC REIT</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>HR-U CN Equity</t>
   </si>
   <si>
@@ -348,6 +351,12 @@
     <t>NTT UD REIT INVE</t>
   </si>
   <si>
+    <t>8957 JP Equity</t>
+  </si>
+  <si>
+    <t>TOKYU REIT INC</t>
+  </si>
+  <si>
     <t>ALEX US Equity</t>
   </si>
   <si>
@@ -357,10 +366,10 @@
     <t>04/04/2023</t>
   </si>
   <si>
-    <t>8957 JP Equity</t>
-  </si>
-  <si>
-    <t>TOKYU REIT INC</t>
+    <t>8966 JP Equity</t>
+  </si>
+  <si>
+    <t>HEIWA REAL ESTAT</t>
   </si>
   <si>
     <t>GNL US Equity</t>
@@ -372,12 +381,6 @@
     <t>01/17/2023</t>
   </si>
   <si>
-    <t>8966 JP Equity</t>
-  </si>
-  <si>
-    <t>HEIWA REAL ESTAT</t>
-  </si>
-  <si>
     <t>405 HK Equity</t>
   </si>
   <si>
@@ -393,6 +396,12 @@
     <t>CNY</t>
   </si>
   <si>
+    <t>3296 JP Equity</t>
+  </si>
+  <si>
+    <t>NIPPON REIT INVE</t>
+  </si>
+  <si>
     <t>AAT US Equity</t>
   </si>
   <si>
@@ -402,12 +411,6 @@
     <t>03/23/2023</t>
   </si>
   <si>
-    <t>3296 JP Equity</t>
-  </si>
-  <si>
-    <t>NIPPON REIT INVE</t>
-  </si>
-  <si>
     <t>ESRT US Equity</t>
   </si>
   <si>
@@ -423,6 +426,21 @@
     <t>ARMADA HOFFLER P</t>
   </si>
   <si>
+    <t>CNI AU Equity</t>
+  </si>
+  <si>
+    <t>CENTURIA CAPITAL</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>UKCM LN Equity</t>
+  </si>
+  <si>
+    <t>UK COMMERCIAL PR</t>
+  </si>
+  <si>
     <t>RIT1 IT Equity</t>
   </si>
   <si>
@@ -435,10 +453,58 @@
     <t>ILs</t>
   </si>
   <si>
-    <t>UKCM LN Equity</t>
-  </si>
-  <si>
-    <t>UK COMMERCIAL PR</t>
+    <t>3468 JP Equity</t>
+  </si>
+  <si>
+    <t>STAR ASIA INVEST</t>
+  </si>
+  <si>
+    <t>01003T TT Equity</t>
+  </si>
+  <si>
+    <t>SHIN KONG NO 1</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>04/20/2023</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>8977 JP Equity</t>
+  </si>
+  <si>
+    <t>HANKYU HANSHIN R</t>
+  </si>
+  <si>
+    <t>BCPT LN Equity</t>
+  </si>
+  <si>
+    <t>BAL COMM PROP TR</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>TRGYO TI Equity</t>
+  </si>
+  <si>
+    <t>TORUNLAR GAYRIME</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>TRY</t>
   </si>
   <si>
     <t>DGGYO TI Equity</t>
@@ -447,93 +513,42 @@
     <t>DOGUS GAYRIMENKU</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>Omitted</t>
   </si>
   <si>
-    <t>TRY</t>
-  </si>
-  <si>
-    <t>CNI AU Equity</t>
-  </si>
-  <si>
-    <t>CENTURIA CAPITAL</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
-    <t>3468 JP Equity</t>
-  </si>
-  <si>
-    <t>STAR ASIA INVEST</t>
-  </si>
-  <si>
-    <t>01003T TT Equity</t>
-  </si>
-  <si>
-    <t>SHIN KONG NO 1</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>04/20/2023</t>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
-    <t>TRGYO TI Equity</t>
-  </si>
-  <si>
-    <t>TORUNLAR GAYRIME</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>8977 JP Equity</t>
-  </si>
-  <si>
-    <t>HANKYU HANSHIN R</t>
-  </si>
-  <si>
-    <t>BCPT LN Equity</t>
-  </si>
-  <si>
-    <t>BAL COMM PROP TR</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>STAR US Equity</t>
-  </si>
-  <si>
-    <t>SAFEHOLD INC</t>
-  </si>
-  <si>
-    <t>09/15/2022</t>
-  </si>
-  <si>
     <t>AX-U CN Equity</t>
   </si>
   <si>
     <t>ARTIS REAL ESTAT</t>
   </si>
   <si>
+    <t>MLI LN Equity</t>
+  </si>
+  <si>
+    <t>INDUSTRIALS REIT</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
     <t>GOOD US Equity</t>
   </si>
   <si>
     <t>GLADSTONE COMMER</t>
   </si>
   <si>
+    <t>OLP US Equity</t>
+  </si>
+  <si>
+    <t>ONE LIBERTY PROP</t>
+  </si>
+  <si>
+    <t>3492 JP Equity</t>
+  </si>
+  <si>
+    <t>TAKARA LEBEN REA</t>
+  </si>
+  <si>
     <t>OZKGY TI Equity</t>
   </si>
   <si>
@@ -543,24 +558,12 @@
     <t>06/04/2013</t>
   </si>
   <si>
-    <t>OLP US Equity</t>
-  </si>
-  <si>
-    <t>ONE LIBERTY PROP</t>
-  </si>
-  <si>
     <t>ISGYO TI Equity</t>
   </si>
   <si>
     <t>IS GAYRIMENKUL Y</t>
   </si>
   <si>
-    <t>3492 JP Equity</t>
-  </si>
-  <si>
-    <t>TAKARA LEBEN REA</t>
-  </si>
-  <si>
     <t>SRVGY TI Equity</t>
   </si>
   <si>
@@ -582,15 +585,6 @@
     <t>NEXPOINT DIVERSI</t>
   </si>
   <si>
-    <t>ATT SJ Equity</t>
-  </si>
-  <si>
-    <t>ATTACQ LTD</t>
-  </si>
-  <si>
-    <t>04/11/2023</t>
-  </si>
-  <si>
     <t>PSGYO TI Equity</t>
   </si>
   <si>
@@ -603,12 +597,30 @@
     <t>ESCON JAPAN REIT</t>
   </si>
   <si>
+    <t>ALKHABEE AB Equity</t>
+  </si>
+  <si>
+    <t>ALKHABEER REIT</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
     <t>PINE US Equity</t>
   </si>
   <si>
     <t>ALPINE INCOME</t>
   </si>
   <si>
+    <t>2989 JP Equity</t>
+  </si>
+  <si>
+    <t>TOKAIDO REIT INC</t>
+  </si>
+  <si>
     <t>AKSGY TI Equity</t>
   </si>
   <si>
@@ -622,12 +634,6 @@
   </si>
   <si>
     <t>04/27/2023</t>
-  </si>
-  <si>
-    <t>2989 JP Equity</t>
-  </si>
-  <si>
-    <t>TOKAIDO REIT INC</t>
   </si>
   <si>
     <t>KLGYO TI Equity</t>
@@ -1134,7 +1140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
@@ -1225,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>16238953472</v>
+        <v>16064138240</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1234,34 +1240,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>76077480</v>
+        <v>87482448</v>
       </c>
       <c r="G2" s="5">
-        <v>5.5106525421142578</v>
+        <v>5.6529803276062012</v>
       </c>
       <c r="H2" s="5">
-        <v>0.45395393132021705</v>
+        <v>-1.0095669030508621</v>
       </c>
       <c r="I2" s="5">
-        <v>1.63323586018651</v>
+        <v>-0.52650127448731199</v>
       </c>
       <c r="J2" s="5">
-        <v>-3.2505686152948798</v>
+        <v>-7.0831962873600274</v>
       </c>
       <c r="K2" s="5">
-        <v>0.47579768265386702</v>
+        <v>-3.2669511199738039</v>
       </c>
       <c r="L2" s="5">
-        <v>14.022066861025406</v>
+        <v>5.3552339351658604</v>
       </c>
       <c r="M2" s="5">
-        <v>0.47579768265386702</v>
+        <v>-2.0539312595474808</v>
       </c>
       <c r="N2" s="5">
-        <v>1.230528891387195</v>
+        <v>-1.5252931173934341</v>
       </c>
       <c r="O2" s="5">
-        <v>57.993162803666046</v>
+        <v>77.978682526583441</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1276,7 +1282,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>77.449996948242187</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1287,7 +1293,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6364681728</v>
+        <v>6693999616</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1296,34 +1302,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>31140680</v>
+        <v>34435964</v>
       </c>
       <c r="G3" s="5">
-        <v>6.6331658363342294</v>
+        <v>6.3768119812011719</v>
       </c>
       <c r="H3" s="5">
-        <v>1.6840271445920152</v>
+        <v>0.99621290284979103</v>
       </c>
       <c r="I3" s="5">
-        <v>4.2167076838823814</v>
+        <v>6.3249651043823407</v>
       </c>
       <c r="J3" s="5">
-        <v>2.83226767654372</v>
+        <v>10.897965443962732</v>
       </c>
       <c r="K3" s="5">
-        <v>7.7124011237062584</v>
+        <v>12.537957849967562</v>
       </c>
       <c r="L3" s="5">
-        <v>30.892634104384562</v>
+        <v>30.828179475574615</v>
       </c>
       <c r="M3" s="5">
-        <v>7.7124011237062584</v>
+        <v>12.967043597562711</v>
       </c>
       <c r="N3" s="5">
-        <v>-10.595623140269794</v>
+        <v>-8.0730137223739344</v>
       </c>
       <c r="O3" s="5">
-        <v>107.31900162611522</v>
+        <v>134.12139976225959</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1335,10 +1341,10 @@
         <v>32</v>
       </c>
       <c r="S3" s="5">
-        <v>3.3020850141715812</v>
+        <v>3.2121000521789389</v>
       </c>
       <c r="T3" s="5">
-        <v>2.666202068328857</v>
+        <v>2.7962701320648193</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1349,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5708200448</v>
+        <v>5830362112</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -1358,34 +1364,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>14614889</v>
+        <v>14162865</v>
       </c>
       <c r="G4" s="5">
-        <v>6.374758243560791</v>
+        <v>6.2937064170837402</v>
       </c>
       <c r="H4" s="5">
-        <v>-0.65861925510517505</v>
+        <v>0.526820796387795</v>
       </c>
       <c r="I4" s="5">
-        <v>9.3142017055956483</v>
+        <v>10.333646183944323</v>
       </c>
       <c r="J4" s="5">
-        <v>-7.8319194305049518</v>
+        <v>-1.0346855334767759</v>
       </c>
       <c r="K4" s="5">
-        <v>3.385642278569545</v>
+        <v>0.54096231716835907</v>
       </c>
       <c r="L4" s="5">
-        <v>35.734017313870623</v>
+        <v>33.069686853551893</v>
       </c>
       <c r="M4" s="5">
-        <v>3.385642278569545</v>
+        <v>5.9552225004591675</v>
       </c>
       <c r="N4" s="5">
-        <v>-21.236526113750674</v>
+        <v>-17.530664188635072</v>
       </c>
       <c r="O4" s="5">
-        <v>26.502806317480299</v>
+        <v>42.240571626759824</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1397,10 +1403,10 @@
         <v>37</v>
       </c>
       <c r="S4" s="5">
-        <v>10.40274915754685</v>
+        <v>10.285581202101721</v>
       </c>
       <c r="T4" s="5">
-        <v>7.6705775260925293</v>
+        <v>7.8612246513366699</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1411,7 +1417,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5498129920</v>
+        <v>5785692672</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1420,34 +1426,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>28479470</v>
+        <v>31273134</v>
       </c>
       <c r="G5" s="5">
-        <v>4.9638552665710449</v>
+        <v>4.7247705459594727</v>
       </c>
       <c r="H5" s="5">
-        <v>0.37820339479783804</v>
+        <v>1.634475221058707</v>
       </c>
       <c r="I5" s="5">
-        <v>0.33028469161933105</v>
+        <v>3.7800060648340179</v>
       </c>
       <c r="J5" s="5">
-        <v>-9.0892963865427667</v>
+        <v>-0.78266716766424205</v>
       </c>
       <c r="K5" s="5">
-        <v>-4.0659091631495734</v>
+        <v>-1.5631830152619259</v>
       </c>
       <c r="L5" s="5">
-        <v>14.122029809156068</v>
+        <v>12.917016535056103</v>
       </c>
       <c r="M5" s="5">
-        <v>-4.0659091631495734</v>
+        <v>0.66776290549144202</v>
       </c>
       <c r="N5" s="5">
-        <v>-21.602919816037591</v>
+        <v>-20.450962101129221</v>
       </c>
       <c r="O5" s="5">
-        <v>22.478399339437981</v>
+        <v>37.297769992183639</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>30</v>
@@ -1459,10 +1465,10 @@
         <v>32</v>
       </c>
       <c r="S5" s="5">
-        <v>1.9528599562626601</v>
+        <v>1.8905319792629252</v>
       </c>
       <c r="T5" s="5">
-        <v>1.393391966819763</v>
+        <v>1.462146043777466</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1473,7 +1479,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5440960512</v>
+        <v>5552785920</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1482,34 +1488,34 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>20826010</v>
+        <v>22646664</v>
       </c>
       <c r="G6" s="5">
-        <v>5.8823533058166504</v>
+        <v>5.8479533195495614</v>
       </c>
       <c r="H6" s="5">
-        <v>0.60745522539360508</v>
+        <v>-1.3968789581434879</v>
       </c>
       <c r="I6" s="5">
-        <v>2.0156493007963849</v>
+        <v>1.377499701133811</v>
       </c>
       <c r="J6" s="5">
-        <v>-10.685396194577256</v>
+        <v>-6.6367151196595087</v>
       </c>
       <c r="K6" s="5">
-        <v>-0.82417215299603908</v>
+        <v>-0.86997220178474111</v>
       </c>
       <c r="L6" s="5">
-        <v>18.682153551842219</v>
+        <v>13.234122135111637</v>
       </c>
       <c r="M6" s="5">
-        <v>-0.82417215299603908</v>
+        <v>0.92954441275223709</v>
       </c>
       <c r="N6" s="5">
-        <v>-22.504425280654893</v>
+        <v>-22.63971890238907</v>
       </c>
       <c r="O6" s="5">
-        <v>50.585769276337757</v>
+        <v>61.208985881983892</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>42</v>
@@ -1521,10 +1527,10 @@
         <v>32</v>
       </c>
       <c r="S6" s="5">
-        <v>4.000457090394316</v>
+        <v>3.876929933753682</v>
       </c>
       <c r="T6" s="5">
-        <v>2.8403759002685551</v>
+        <v>2.8906018733978271</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1535,7 +1541,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5311888384</v>
+        <v>5498138112</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1544,49 +1550,47 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>10570886</v>
+        <v>13376911</v>
       </c>
       <c r="G7" s="5">
-        <v>2.4696066379547119</v>
+        <v>4.4383563995361328</v>
       </c>
       <c r="H7" s="5">
-        <v>1.1817926682857749</v>
+        <v>0.76966719305944209</v>
       </c>
       <c r="I7" s="5">
-        <v>4.6992458512478352</v>
+        <v>2.714669980061668</v>
       </c>
       <c r="J7" s="5">
-        <v>-1.118242515723844</v>
+        <v>6.0398477670258854</v>
       </c>
       <c r="K7" s="5">
-        <v>23.83563865756695</v>
+        <v>-2.0632353872101161</v>
       </c>
       <c r="L7" s="5">
-        <v>44.90316843901978</v>
+        <v>6.04014751366726</v>
       </c>
       <c r="M7" s="5">
-        <v>23.83563865756695</v>
+        <v>-4.3294228785356159</v>
       </c>
       <c r="N7" s="5">
-        <v>33.703110984036265</v>
+        <v>-8.840876927306196</v>
       </c>
       <c r="O7" s="5">
-        <v>127.29341216696426</v>
+        <v>24.543895703199325</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S7" s="5">
-        <v>1.48004759388159</v>
+        <v>1313.4164510311298</v>
       </c>
       <c r="T7" s="5">
-        <v>1.396246671676636</v>
+        <v>1164.716552734375</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1597,7 +1601,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5273836032</v>
+        <v>5302999552</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1606,47 +1610,49 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>12227733</v>
+        <v>10925076</v>
       </c>
       <c r="G8" s="5">
-        <v>4.5818181037902832</v>
+        <v>2.4578883647918701</v>
       </c>
       <c r="H8" s="5">
-        <v>-1.283349064077244</v>
+        <v>0.67808883295161804</v>
       </c>
       <c r="I8" s="5">
-        <v>-1.0258940914182999</v>
+        <v>1.8048009828632861</v>
       </c>
       <c r="J8" s="5">
-        <v>0.59613208236133408</v>
+        <v>-3.2655466271678368</v>
       </c>
       <c r="K8" s="5">
-        <v>-8.1276941872455151</v>
+        <v>18.32267722120411</v>
       </c>
       <c r="L8" s="5">
-        <v>3.58370143551201</v>
+        <v>42.404430150646633</v>
       </c>
       <c r="M8" s="5">
-        <v>-8.1276941872455151</v>
+        <v>23.673449653537659</v>
       </c>
       <c r="N8" s="5">
-        <v>-12.125549870738372</v>
+        <v>33.717941360729057</v>
       </c>
       <c r="O8" s="5">
-        <v>2.8612824308727001E-2</v>
+        <v>141.23447185233724</v>
       </c>
       <c r="P8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
         <v>52</v>
       </c>
       <c r="S8" s="5">
-        <v>1362.9327902240325</v>
+        <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1118.4755859375</v>
+        <v>1.394418001174927</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1657,56 +1663,56 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4744143872</v>
+        <v>4967521280</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>9187754</v>
+        <v>9824585</v>
       </c>
       <c r="G9" s="5">
-        <v>4.1252303123474121</v>
+        <v>3.978685617446899</v>
       </c>
       <c r="H9" s="5">
-        <v>-1.051558239178974</v>
+        <v>1.1773331307184389</v>
       </c>
       <c r="I9" s="5">
-        <v>-0.27347900164892402</v>
+        <v>3.3918170980167028</v>
       </c>
       <c r="J9" s="5">
-        <v>-1.203680851811695</v>
+        <v>5.0533743835418532</v>
       </c>
       <c r="K9" s="5">
-        <v>-6.8515555300581958</v>
+        <v>-0.276003817262371</v>
       </c>
       <c r="L9" s="5">
-        <v>0.29825674587935502</v>
+        <v>3.1748167984714692</v>
       </c>
       <c r="M9" s="5">
-        <v>-6.8515555300581958</v>
+        <v>-2.5768319105593629</v>
       </c>
       <c r="N9" s="5">
-        <v>-21.369833889564237</v>
+        <v>-18.080210489724102</v>
       </c>
       <c r="O9" s="5">
-        <v>-6.4219021046904352</v>
+        <v>3.1322232160508001</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S9" s="5">
-        <v>2802.4439918533603</v>
+        <v>2663.0083925112976</v>
       </c>
       <c r="T9" s="5">
-        <v>2044.8896484375</v>
+        <v>2138.732666015625</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1717,7 +1723,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4447255552</v>
+        <v>4500636672</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -1726,34 +1732,34 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>15759231</v>
+        <v>16129004</v>
       </c>
       <c r="G10" s="5">
-        <v>5.9824657440185547</v>
+        <v>5.9716863632202148</v>
       </c>
       <c r="H10" s="5">
-        <v>-0.48642710562980501</v>
+        <v>0.36908568025475502</v>
       </c>
       <c r="I10" s="5">
-        <v>6.9581103641841224</v>
+        <v>8.1465628303842195</v>
       </c>
       <c r="J10" s="5">
-        <v>-11.40625137293716</v>
+        <v>-8.9942701006014207</v>
       </c>
       <c r="K10" s="5">
-        <v>0.18064269923092602</v>
+        <v>-2.54827182948224</v>
       </c>
       <c r="L10" s="5">
-        <v>26.185050423407308</v>
+        <v>22.946357443694442</v>
       </c>
       <c r="M10" s="5">
-        <v>0.18064269923092602</v>
+        <v>1.5481267691666472</v>
       </c>
       <c r="N10" s="5">
-        <v>-27.606874939527149</v>
+        <v>-24.922274120694631</v>
       </c>
       <c r="O10" s="5">
-        <v>27.201492703037424</v>
+        <v>39.762006617513435</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1768,7 +1774,7 @@
         <v>7.0465491486094116</v>
       </c>
       <c r="T10" s="5">
-        <v>4.7885541915893555</v>
+        <v>4.8539190292358398</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1779,7 +1785,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4107727360</v>
+        <v>4106452992</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1788,34 +1794,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9252012</v>
+        <v>9438832</v>
       </c>
       <c r="G11" s="5">
-        <v>2.009925365447998</v>
+        <v>2.0313479900360112</v>
       </c>
       <c r="H11" s="5">
-        <v>-0.144283976161175</v>
+        <v>-0.59830721878653104</v>
       </c>
       <c r="I11" s="5">
-        <v>5.9223949513348417</v>
+        <v>5.7320878026022148</v>
       </c>
       <c r="J11" s="5">
-        <v>-8.1216196642707743</v>
+        <v>-7.3738607912114169</v>
       </c>
       <c r="K11" s="5">
-        <v>-6.7932151527695384</v>
+        <v>-8.5060536344598212</v>
       </c>
       <c r="L11" s="5">
-        <v>15.733583557405971</v>
+        <v>9.5691315054932105</v>
       </c>
       <c r="M11" s="5">
-        <v>-6.7932151527695384</v>
+        <v>-7.1228262884890707</v>
       </c>
       <c r="N11" s="5">
-        <v>-15.65327949476465</v>
+        <v>-16.589949122876902</v>
       </c>
       <c r="O11" s="5">
-        <v>40.393713496552493</v>
+        <v>37.674362468921039</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1827,10 +1833,10 @@
         <v>63</v>
       </c>
       <c r="S11" s="5">
-        <v>12.193224623203276</v>
+        <v>11.852492330932618</v>
       </c>
       <c r="T11" s="5">
-        <v>8.7604141235351562</v>
+        <v>8.7294349670410156</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1841,7 +1847,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3731748608</v>
+        <v>3796327680</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1850,34 +1856,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>22271700</v>
+        <v>21934444</v>
       </c>
       <c r="G12" s="5">
-        <v>4.4265594482421884</v>
+        <v>4.4953007698059082</v>
       </c>
       <c r="H12" s="5">
-        <v>2.3897812639740672</v>
+        <v>-0.89105393254104204</v>
       </c>
       <c r="I12" s="5">
-        <v>5.95098163112322</v>
+        <v>3.2857541829503178</v>
       </c>
       <c r="J12" s="5">
-        <v>-2.4395509385972791</v>
+        <v>-5.5087252134285443</v>
       </c>
       <c r="K12" s="5">
-        <v>7.0795650658074027</v>
+        <v>6.4398491212734674</v>
       </c>
       <c r="L12" s="5">
-        <v>30.732924996043963</v>
+        <v>24.756959139028755</v>
       </c>
       <c r="M12" s="5">
-        <v>7.0795650658074027</v>
+        <v>5.4421264954376491</v>
       </c>
       <c r="N12" s="5">
-        <v>3.2000550672482531</v>
+        <v>0.50957817215429002</v>
       </c>
       <c r="O12" s="5">
-        <v>118.05995856904019</v>
+        <v>177.6548813336444</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1892,7 +1898,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.850000381469727</v>
+        <v>24.469999313354492</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1903,7 +1909,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3506606592</v>
+        <v>3618177792</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>68</v>
@@ -1912,58 +1918,60 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8500856</v>
+        <v>8429949</v>
       </c>
       <c r="G13" s="5">
-        <v>9.9907712936401367</v>
+        <v>10.013875961303711</v>
       </c>
       <c r="H13" s="5">
-        <v>2.0721284422855479</v>
+        <v>0.38417552523335502</v>
       </c>
       <c r="I13" s="5">
-        <v>2.459975587324426</v>
+        <v>7.2598785298083168</v>
       </c>
       <c r="J13" s="5">
-        <v>-6.2980778595486449</v>
+        <v>-6.8067832444693046</v>
       </c>
       <c r="K13" s="5">
-        <v>14.272956321752805</v>
+        <v>8.7537314885876896</v>
       </c>
       <c r="L13" s="5">
-        <v>31.699883614334688</v>
+        <v>27.534038887060053</v>
       </c>
       <c r="M13" s="5">
-        <v>14.272956321752805</v>
+        <v>14.816974408440409</v>
       </c>
       <c r="N13" s="5">
-        <v>-20.087802887562255</v>
+        <v>-21.481294446933596</v>
       </c>
       <c r="O13" s="5">
-        <v>-26.046853323450204</v>
+        <v>-22.106153652862272</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="R13" s="4" t="s">
         <v>63</v>
       </c>
       <c r="S13" s="5">
-        <v>68.2096266746521</v>
+        <v>67.437240827178954</v>
       </c>
       <c r="T13" s="5">
-        <v>47.106246948242188</v>
+        <v>47.33050537109375</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5">
-        <v>3485468928</v>
+        <v>3518842112</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -1972,34 +1980,34 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>20374992</v>
+        <v>21161422</v>
       </c>
       <c r="G14" s="5">
-        <v>3.7486386299133301</v>
+        <v>3.7469387054443359</v>
       </c>
       <c r="H14" s="5">
-        <v>-0.10438367899317001</v>
+        <v>-3.0840234729028859</v>
       </c>
       <c r="I14" s="5">
-        <v>2.5845524711802792</v>
+        <v>-1.0063426811184</v>
       </c>
       <c r="J14" s="5">
-        <v>-18.004093876331616</v>
+        <v>-14.53139707498754</v>
       </c>
       <c r="K14" s="5">
-        <v>-9.7961330820606758</v>
+        <v>-11.527397752459944</v>
       </c>
       <c r="L14" s="5">
-        <v>1.55245379387372</v>
+        <v>-5.3231173242096474</v>
       </c>
       <c r="M14" s="5">
-        <v>-9.7961330820606758</v>
+        <v>-9.1885057527036125</v>
       </c>
       <c r="N14" s="5">
-        <v>-38.326609097605235</v>
+        <v>-38.902599834953563</v>
       </c>
       <c r="O14" s="5">
-        <v>92.26175192191684</v>
+        <v>91.574132857856767</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>30</v>
@@ -2011,239 +2019,239 @@
         <v>32</v>
       </c>
       <c r="S14" s="5">
-        <v>12.790835624888677</v>
+        <v>12.540779622767003</v>
       </c>
       <c r="T14" s="5">
-        <v>7.3688998222351074</v>
+        <v>7.4185380935668954</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="5">
-        <v>3337338880</v>
+        <v>3466971648</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7292911.5</v>
+        <v>7843956</v>
       </c>
       <c r="G15" s="5">
-        <v>4.4251747131347656</v>
+        <v>4.3018355369567871</v>
       </c>
       <c r="H15" s="5">
-        <v>-0.90985544228278104</v>
+        <v>0.77521584596838011</v>
       </c>
       <c r="I15" s="5">
-        <v>1.7863371388381339</v>
+        <v>3.5094586323402899</v>
       </c>
       <c r="J15" s="5">
-        <v>-2.7431997253372309</v>
+        <v>2.298634706976066</v>
       </c>
       <c r="K15" s="5">
-        <v>-6.3051898604345684</v>
+        <v>-1.1085599352286259</v>
       </c>
       <c r="L15" s="5">
-        <v>6.3913129966284732</v>
+        <v>7.7890362532790691</v>
       </c>
       <c r="M15" s="5">
-        <v>-6.3051898604345684</v>
+        <v>-2.7767248725094733</v>
       </c>
       <c r="N15" s="5">
-        <v>-3.0132156985786529</v>
+        <v>0.41119484707443604</v>
       </c>
       <c r="O15" s="5">
-        <v>24.230112119502767</v>
+        <v>42.191166416134607</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S15" s="5">
         <v>1187.971105527638</v>
       </c>
       <c r="T15" s="5">
-        <v>1077.050537109375</v>
+        <v>1117.611328125</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5">
-        <v>3141275392</v>
+        <v>3158532352</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>17215042</v>
+        <v>12182840</v>
       </c>
       <c r="G16" s="5">
-        <v>6.4667844772338867</v>
+        <v>5.4896550178527832</v>
       </c>
       <c r="H16" s="5">
-        <v>1.3706765960944001</v>
+        <v>0.11311064156438501</v>
       </c>
       <c r="I16" s="5">
-        <v>2.9093418370496731</v>
+        <v>2.2127816935715532</v>
       </c>
       <c r="J16" s="5">
-        <v>-2.5984766149883098</v>
+        <v>5.0865024024414396</v>
       </c>
       <c r="K16" s="5">
-        <v>6.6549664555745291</v>
+        <v>8.5822512966487796</v>
       </c>
       <c r="L16" s="5">
-        <v>13.205469929932523</v>
+        <v>5.6436617605021944</v>
       </c>
       <c r="M16" s="5">
-        <v>6.6549664555745291</v>
+        <v>7.5945326408865199</v>
       </c>
       <c r="N16" s="5">
-        <v>-16.7802405515598</v>
-      </c>
-      <c r="O16" s="5"/>
+        <v>-12.114406662426713</v>
+      </c>
+      <c r="O16" s="5">
+        <v>63.450738748978218</v>
+      </c>
       <c r="P16" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="S16" s="5">
-        <v>22.799999237060547</v>
+        <v>1.350664450152578</v>
       </c>
       <c r="T16" s="5">
-        <v>17.010000228881836</v>
+        <v>1.0933494567871089</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5">
-        <v>3104658176</v>
+        <v>3143147520</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>11541273</v>
+        <v>16841992</v>
       </c>
       <c r="G17" s="5">
-        <v>5.5664339065551758</v>
+        <v>6.5398340225219727</v>
       </c>
       <c r="H17" s="5">
-        <v>0.56788921412787008</v>
+        <v>0.17867050423523401</v>
       </c>
       <c r="I17" s="5">
-        <v>0.87842811098024509</v>
+        <v>2.0027108113904069</v>
       </c>
       <c r="J17" s="5">
-        <v>1.984232293724508</v>
+        <v>-5.8090609546215255</v>
       </c>
       <c r="K17" s="5">
-        <v>5.8391178735442972</v>
+        <v>2.0027108113904069</v>
       </c>
       <c r="L17" s="5">
-        <v>4.0088859854556116</v>
+        <v>5.4240990693331437</v>
       </c>
       <c r="M17" s="5">
-        <v>5.8391178735442972</v>
+        <v>5.4636378069100378</v>
       </c>
       <c r="N17" s="5">
-        <v>-11.735147385749812</v>
-      </c>
-      <c r="O17" s="5">
-        <v>44.885006309729405</v>
-      </c>
+        <v>-18.791092414997244</v>
+      </c>
+      <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
-        <v>1.350664450152578</v>
+        <v>22.799999237060547</v>
       </c>
       <c r="T17" s="5">
-        <v>1.0755113363265991</v>
+        <v>16.819999694824219</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A18" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5">
-        <v>2517190912</v>
+        <v>2564434176</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9177757</v>
+        <v>9667318</v>
       </c>
       <c r="G18" s="5">
-        <v>4.7619047164916992</v>
+        <v>4.838709831237793</v>
       </c>
       <c r="H18" s="5">
-        <v>1.7400433572087199</v>
+        <v>-1.508669733425771</v>
       </c>
       <c r="I18" s="5">
-        <v>5.4535628879326836</v>
+        <v>4.0322364181772041</v>
       </c>
       <c r="J18" s="5">
-        <v>-2.8315261793918411</v>
+        <v>-3.9585987702479559</v>
       </c>
       <c r="K18" s="5">
-        <v>5.3199233185758246</v>
+        <v>2.7304098121310849</v>
       </c>
       <c r="L18" s="5">
-        <v>26.05973286408112</v>
+        <v>15.994276369202677</v>
       </c>
       <c r="M18" s="5">
-        <v>5.3199233185758246</v>
+        <v>4.1642563105551034</v>
       </c>
       <c r="N18" s="5">
-        <v>-6.4228570576676303</v>
+        <v>-5.1581788153186263</v>
       </c>
       <c r="O18" s="5">
-        <v>123.92829880451109</v>
+        <v>143.72591214202188</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>25</v>
@@ -2252,206 +2260,206 @@
         <v>26</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S18" s="5">
         <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>9.3174591064453125</v>
+        <v>9.2152194976806641</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
-        <v>2514970112</v>
+        <v>2525016320</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>10297230</v>
+        <v>9892396</v>
       </c>
       <c r="G19" s="5">
-        <v>10.045942306518555</v>
+        <v>9.8572502136230469</v>
       </c>
       <c r="H19" s="5">
-        <v>1.0201029227460801</v>
+        <v>0.39320199637833403</v>
       </c>
       <c r="I19" s="5">
-        <v>3.7173855409805778</v>
+        <v>3.7348577889771972</v>
       </c>
       <c r="J19" s="5">
-        <v>0.45758096095571704</v>
+        <v>1.686129369536471</v>
       </c>
       <c r="K19" s="5">
-        <v>-13.698445679437409</v>
+        <v>-15.525222634010937</v>
       </c>
       <c r="L19" s="5">
-        <v>18.804082350354399</v>
+        <v>15.864443444495002</v>
       </c>
       <c r="M19" s="5">
-        <v>-13.698445679437409</v>
+        <v>-12.926797311207583</v>
       </c>
       <c r="N19" s="5">
-        <v>-19.672911998946585</v>
+        <v>-19.013338785844059</v>
       </c>
       <c r="O19" s="5">
-        <v>37.382388824496068</v>
+        <v>59.990341942170303</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S19" s="5">
-        <v>1.014260916919097</v>
+        <v>0.9969585943729391</v>
       </c>
       <c r="T19" s="5">
-        <v>0.73644262552261408</v>
+        <v>0.74302744865417503</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A20" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="5">
-        <v>2372739072</v>
+        <v>2509512448</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>5818590</v>
+        <v>6811607.5</v>
       </c>
       <c r="G20" s="5">
-        <v>5.1599445343017578</v>
+        <v>4.9269590377807617</v>
       </c>
       <c r="H20" s="5">
-        <v>-0.56280975787211807</v>
+        <v>1.446538872033676</v>
       </c>
       <c r="I20" s="5">
-        <v>1.693988189360218</v>
+        <v>6.8793323349039648</v>
       </c>
       <c r="J20" s="5">
-        <v>2.00592577695482</v>
+        <v>9.5200185933035364</v>
       </c>
       <c r="K20" s="5">
-        <v>-4.8969308137916014</v>
+        <v>1.244397510228201</v>
       </c>
       <c r="L20" s="5">
-        <v>-1.397401207070825</v>
+        <v>1.8087876954981712</v>
       </c>
       <c r="M20" s="5">
-        <v>-4.8969308137916014</v>
+        <v>0.47053035498325602</v>
       </c>
       <c r="N20" s="5">
-        <v>-14.794651670641679</v>
+        <v>-10.545655402313937</v>
       </c>
       <c r="O20" s="5">
-        <v>-3.8600011085646151</v>
+        <v>16.936624428110768</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S20" s="5">
-        <v>674.54175152749485</v>
+        <v>658.48934796643005</v>
       </c>
       <c r="T20" s="5">
-        <v>541.53802490234375</v>
+        <v>572.10150146484375</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A21" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="5">
-        <v>2313392896</v>
+        <v>2469151232</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>6833018</v>
+        <v>7769749.5</v>
       </c>
       <c r="G21" s="5">
-        <v>4.9206347465515137</v>
+        <v>4.6558198928833008</v>
       </c>
       <c r="H21" s="5">
-        <v>-0.54930824397324607</v>
+        <v>1.0174896150572099</v>
       </c>
       <c r="I21" s="5">
-        <v>1.668482959644924</v>
+        <v>7.1419750672912619</v>
       </c>
       <c r="J21" s="5">
-        <v>-1.489184378871178</v>
+        <v>8.1487624417708062</v>
       </c>
       <c r="K21" s="5">
-        <v>-9.6878423635176176</v>
+        <v>-2.4672044196650589</v>
       </c>
       <c r="L21" s="5">
-        <v>-0.48370614044897003</v>
+        <v>2.9378062622107182</v>
       </c>
       <c r="M21" s="5">
-        <v>-9.6878423635176176</v>
+        <v>-3.7170743977935068</v>
       </c>
       <c r="N21" s="5">
-        <v>-14.686490389432528</v>
+        <v>-9.0141757824117708</v>
       </c>
       <c r="O21" s="5">
-        <v>0.53237298649770903</v>
+        <v>30.01319648752483</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S21" s="5">
-        <v>3531.5682281059062</v>
+        <v>3421.5622982569403</v>
       </c>
       <c r="T21" s="5">
-        <v>2847.02880859375</v>
+        <v>3035.2529296875</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="5">
-        <v>2072573824</v>
+        <v>2141334528</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>35</v>
@@ -2460,40 +2468,40 @@
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>8089009</v>
+        <v>8181382</v>
       </c>
       <c r="G22" s="5">
-        <v>6.3262195587158203</v>
+        <v>6.2281146049499512</v>
       </c>
       <c r="H22" s="5">
-        <v>0.20236175472774201</v>
+        <v>1.544411806776802</v>
       </c>
       <c r="I22" s="5">
-        <v>4.0392949077446838</v>
+        <v>7.5074964666769217</v>
       </c>
       <c r="J22" s="5">
-        <v>-11.292581384235723</v>
+        <v>-4.9561652905759654</v>
       </c>
       <c r="K22" s="5">
-        <v>-9.6003279765680674</v>
+        <v>-9.4185046718186509</v>
       </c>
       <c r="L22" s="5">
-        <v>-9.5369198266909265</v>
+        <v>-10.09834860456148</v>
       </c>
       <c r="M22" s="5">
-        <v>-9.6003279765680674</v>
+        <v>-7.0906534184799197</v>
       </c>
       <c r="N22" s="5">
-        <v>-34.267764910903729</v>
+        <v>-32.078907372703199</v>
       </c>
       <c r="O22" s="5">
-        <v>4.1755865695072716</v>
+        <v>11.854953672460745</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>37</v>
@@ -2502,18 +2510,18 @@
         <v>1.9808639392</v>
       </c>
       <c r="T22" s="5">
-        <v>1.215043187141418</v>
+        <v>1.2487752437591551</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" s="5">
-        <v>2029250048</v>
+        <v>2076129280</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2522,120 +2530,120 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5356546</v>
+        <v>5724619</v>
       </c>
       <c r="G23" s="5">
-        <v>6.722689151763916</v>
+        <v>6.5804934501647949</v>
       </c>
       <c r="H23" s="5">
-        <v>0.85846469457322405</v>
+        <v>-0.47315564449118602</v>
       </c>
       <c r="I23" s="5">
-        <v>1.784340243067351</v>
+        <v>2.1262910206006458</v>
       </c>
       <c r="J23" s="5">
-        <v>-8.1036779646253336</v>
+        <v>-4.0618660111824134</v>
       </c>
       <c r="K23" s="5">
-        <v>-5.5147641755964427</v>
+        <v>-4.1862402622891643</v>
       </c>
       <c r="L23" s="5">
-        <v>13.55866154860712</v>
+        <v>9.8803600905664979</v>
       </c>
       <c r="M23" s="5">
-        <v>-5.5147641755964427</v>
+        <v>-3.6038084746263239</v>
       </c>
       <c r="N23" s="5">
-        <v>-24.6980895801141</v>
+        <v>-24.754934149964914</v>
       </c>
       <c r="O23" s="5">
-        <v>26.902488298045402</v>
+        <v>38.308102825845268</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="S23" s="5">
-        <v>4.1295041516920517</v>
+        <v>4.0748118558568018</v>
       </c>
       <c r="T23" s="5">
-        <v>2.8068809509277339</v>
+        <v>2.863649845123291</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" s="5">
-        <v>1622535296</v>
+        <v>1674724352</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3011902.5</v>
+        <v>3315928</v>
       </c>
       <c r="G24" s="5">
-        <v>4.6524062156677246</v>
+        <v>4.551994800567627</v>
       </c>
       <c r="H24" s="5">
-        <v>-0.48577179389597303</v>
+        <v>-0.27491401626280604</v>
       </c>
       <c r="I24" s="5">
-        <v>0.73023560859615311</v>
+        <v>2.9318610961546421</v>
       </c>
       <c r="J24" s="5">
-        <v>0.34448905614437003</v>
+        <v>4.920986783354131</v>
       </c>
       <c r="K24" s="5">
-        <v>-7.8727647687548474</v>
+        <v>-2.834238361803743</v>
       </c>
       <c r="L24" s="5">
-        <v>0.78435603845263802</v>
+        <v>0.75528869830248102</v>
       </c>
       <c r="M24" s="5">
-        <v>-7.8727647687548474</v>
+        <v>-5.0178477901949954</v>
       </c>
       <c r="N24" s="5">
-        <v>-14.024461240118546</v>
+        <v>-11.659019414160078</v>
       </c>
       <c r="O24" s="5">
-        <v>11.302253272911788</v>
+        <v>31.948128210468063</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S24" s="5">
-        <v>1391.4460285132382</v>
+        <v>1356.5203357004521</v>
       </c>
       <c r="T24" s="5">
-        <v>1126.7606201171875</v>
+        <v>1161.6776123046875</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="5">
-        <v>1559870592</v>
+        <v>1614780544</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2644,34 +2652,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1721434.375</v>
+        <v>1806171.25</v>
       </c>
       <c r="G25" s="5">
-        <v>6.9636964797973633</v>
+        <v>6.7628207206726074</v>
       </c>
       <c r="H25" s="5">
-        <v>0.89125274661774312</v>
+        <v>1.239571231348946</v>
       </c>
       <c r="I25" s="5">
-        <v>2.4984698976634689</v>
+        <v>4.449542244208704</v>
       </c>
       <c r="J25" s="5">
-        <v>-6.0393323286493601</v>
+        <v>-4.948220898338E-3</v>
       </c>
       <c r="K25" s="5">
-        <v>0.21819653081536203</v>
+        <v>2.7166744975252621</v>
       </c>
       <c r="L25" s="5">
-        <v>6.8327741062373049</v>
+        <v>4.4950533607097665</v>
       </c>
       <c r="M25" s="5">
-        <v>0.21819653081536203</v>
+        <v>3.4543142868223242</v>
       </c>
       <c r="N25" s="5">
-        <v>-34.015669829751275</v>
+        <v>-32.893920137388108</v>
       </c>
       <c r="O25" s="5">
-        <v>56.910350545973685</v>
+        <v>55.502077489134606</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2683,21 +2691,21 @@
         <v>32</v>
       </c>
       <c r="S25" s="5">
-        <v>3.362812957848845</v>
+        <v>3.313469849078821</v>
       </c>
       <c r="T25" s="5">
-        <v>2.0364959239959721</v>
+        <v>2.1022558212280269</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="5">
-        <v>1556519168</v>
+        <v>1600187904</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2706,34 +2714,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>3116482.75</v>
+        <v>3039453.5</v>
       </c>
       <c r="G26" s="5">
-        <v>6.9656491279602051</v>
+        <v>6.8738231658935547</v>
       </c>
       <c r="H26" s="5">
-        <v>0.281313326271659</v>
+        <v>-0.33123363461093902</v>
       </c>
       <c r="I26" s="5">
-        <v>3.601921326742485</v>
+        <v>3.1571687708558338</v>
       </c>
       <c r="J26" s="5">
-        <v>-9.1693214324772949</v>
+        <v>-4.6434720679691344</v>
       </c>
       <c r="K26" s="5">
-        <v>-2.8804108508969199</v>
+        <v>-5.4565179342647006E-2</v>
       </c>
       <c r="L26" s="5">
-        <v>12.48061156610898</v>
+        <v>10.173599902992603</v>
       </c>
       <c r="M26" s="5">
-        <v>-2.8804108508969199</v>
+        <v>-0.43643987396768702</v>
       </c>
       <c r="N26" s="5">
-        <v>-24.80535300978184</v>
+        <v>-24.503389923012552</v>
       </c>
       <c r="O26" s="5">
-        <v>47.891320202539966</v>
+        <v>56.218856943718485</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2745,194 +2753,192 @@
         <v>32</v>
       </c>
       <c r="S26" s="5">
-        <v>2.5733491470937611</v>
+        <v>2.5316400642105892</v>
       </c>
       <c r="T26" s="5">
-        <v>1.7417399883270259</v>
+        <v>1.7855700254440312</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A27" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="5">
-        <v>1467439744</v>
+        <v>1459949056</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3403566</v>
+        <v>3283374.5</v>
       </c>
       <c r="G27" s="5">
-        <v>11.804096221923828</v>
+        <v>11.307082176208496</v>
       </c>
       <c r="H27" s="5">
-        <v>-0.80654908750639209</v>
+        <v>1.9015366607697091</v>
       </c>
       <c r="I27" s="5">
-        <v>3.2980862981059729</v>
+        <v>5.5637207449637183</v>
       </c>
       <c r="J27" s="5">
-        <v>-1.490791739705366</v>
+        <v>2.4590525358522353</v>
       </c>
       <c r="K27" s="5">
-        <v>-17.319924709227685</v>
+        <v>-12.529882724476771</v>
       </c>
       <c r="L27" s="5">
-        <v>9.4122112775884439</v>
+        <v>7.0969650108317683</v>
       </c>
       <c r="M27" s="5">
-        <v>-17.319924709227685</v>
+        <v>-14.549600187541699</v>
       </c>
       <c r="N27" s="5">
-        <v>-27.93629314225057</v>
+        <v>-23.406246983066659</v>
       </c>
       <c r="O27" s="5">
-        <v>94.901765316374551</v>
+        <v>136.08483909945494</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S27" s="5">
         <v>0.31711016131256003</v>
       </c>
       <c r="T27" s="5">
-        <v>0.20525659620761902</v>
+        <v>0.21213406324386602</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A28" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" s="5">
-        <v>1424121216</v>
+        <v>1455261056</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3108116.5</v>
+        <v>3460726</v>
       </c>
       <c r="G28" s="5">
-        <v>4.56634521484375</v>
+        <v>4.5128207206726074</v>
       </c>
       <c r="H28" s="5">
-        <v>1.29058819563086</v>
+        <v>5.1815649336118007E-2</v>
       </c>
       <c r="I28" s="5">
-        <v>2.0728596350331419</v>
+        <v>4.393180375743122</v>
       </c>
       <c r="J28" s="5">
-        <v>1.536986291885833</v>
+        <v>5.4193193321609989</v>
       </c>
       <c r="K28" s="5">
-        <v>-3.0504310856832921</v>
+        <v>0.78041046809307302</v>
       </c>
       <c r="L28" s="5">
-        <v>1.453402925927016</v>
+        <v>2.9938291020018992</v>
       </c>
       <c r="M28" s="5">
-        <v>-3.0504310856832921</v>
+        <v>-1.043423920075071</v>
       </c>
       <c r="N28" s="5">
-        <v>-19.786950708194162</v>
+        <v>-17.376215518206383</v>
       </c>
       <c r="O28" s="5">
-        <v>5.9087244662559657</v>
+        <v>34.436368961809464</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S28" s="5">
-        <v>1333.6048879837067</v>
+        <v>1302.4531956100711</v>
       </c>
       <c r="T28" s="5">
-        <v>1016.0427856445312</v>
+        <v>1037.076416015625</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A29" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" s="5">
-        <v>1338629120</v>
+        <v>1375644544</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>6198317.5</v>
+        <v>3171826.25</v>
       </c>
       <c r="G29" s="5">
-        <v>4.6536226272583008</v>
+        <v>3.675675630569458</v>
       </c>
       <c r="H29" s="5">
-        <v>2.5488031439393488</v>
+        <v>0.204881510346788</v>
       </c>
       <c r="I29" s="5">
-        <v>6.7758375210282162</v>
+        <v>3.2374239356056429</v>
       </c>
       <c r="J29" s="5">
-        <v>2.530328773240464</v>
+        <v>0.16280876959999802</v>
       </c>
       <c r="K29" s="5">
-        <v>2.2018850621729151</v>
+        <v>-7.4586121638796303</v>
       </c>
       <c r="L29" s="5">
-        <v>16.826336897686822</v>
+        <v>2.1379878537616248</v>
       </c>
       <c r="M29" s="5">
-        <v>2.2018850621729151</v>
+        <v>-9.4594707977087022</v>
       </c>
       <c r="N29" s="5">
-        <v>-14.466657970366326</v>
+        <v>-8.0208451002769188</v>
       </c>
       <c r="O29" s="5">
-        <v>85.666784179826024</v>
+        <v>48.54655579994818</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="Q29" s="4"/>
       <c r="R29" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S29" s="5">
-        <v>23.909999847412109</v>
+        <v>1627.7828606282403</v>
       </c>
       <c r="T29" s="5">
-        <v>18.909999847412109</v>
+        <v>1405.5615234375</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2943,118 +2949,118 @@
         <v>113</v>
       </c>
       <c r="C30" s="5">
-        <v>1332722688</v>
+        <v>1372022272</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>2977749.25</v>
+        <v>6151973.5</v>
       </c>
       <c r="G30" s="5">
-        <v>3.7569060325622559</v>
+        <v>4.6858358383178711</v>
       </c>
       <c r="H30" s="5">
-        <v>0.21208093933233801</v>
+        <v>-0.63491499633213699</v>
       </c>
       <c r="I30" s="5">
-        <v>0.38200047909140405</v>
+        <v>4.7991105284047597</v>
       </c>
       <c r="J30" s="5">
-        <v>-5.2000501363518303</v>
+        <v>-1.7528887026282751</v>
       </c>
       <c r="K30" s="5">
-        <v>-12.184374542369403</v>
+        <v>-1.6003278746848699</v>
       </c>
       <c r="L30" s="5">
-        <v>2.1239052715431139</v>
+        <v>9.2370558391966284</v>
       </c>
       <c r="M30" s="5">
-        <v>-12.184374542369403</v>
+        <v>1.499285411508966</v>
       </c>
       <c r="N30" s="5">
-        <v>-12.68169062508424</v>
+        <v>-15.23741949446662</v>
       </c>
       <c r="O30" s="5">
-        <v>18.231511711977454</v>
+        <v>118.92702261371335</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="R30" s="4" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5">
-        <v>1629.3279022403258</v>
+        <v>23.389999389648438</v>
       </c>
       <c r="T30" s="5">
-        <v>1363.259765625</v>
+        <v>18.780000686645508</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A31" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C31" s="5">
-        <v>1307821568</v>
+        <v>1356268800</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>10799354</v>
+        <v>2542676.25</v>
       </c>
       <c r="G31" s="5">
-        <v>12.441679954528809</v>
+        <v>3.9350407123565669</v>
       </c>
       <c r="H31" s="5">
-        <v>2.063486248697965</v>
+        <v>2.953200042761472</v>
       </c>
       <c r="I31" s="5">
-        <v>5.7565774510606627</v>
+        <v>5.2856488202686513</v>
       </c>
       <c r="J31" s="5">
-        <v>-8.9235144411755503</v>
+        <v>6.4020199279675838</v>
       </c>
       <c r="K31" s="5">
-        <v>5.29632917622469</v>
+        <v>7.2729424108777918</v>
       </c>
       <c r="L31" s="5">
-        <v>29.157816892012466</v>
+        <v>16.888042803140422</v>
       </c>
       <c r="M31" s="5">
-        <v>5.29632917622469</v>
+        <v>5.0481230843296476</v>
       </c>
       <c r="N31" s="5">
-        <v>-7.6549299989631887</v>
+        <v>2.9744471913594421</v>
       </c>
       <c r="O31" s="5">
-        <v>32.00836023406697</v>
+        <v>76.026159380404806</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="Q31" s="4"/>
       <c r="R31" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S31" s="5">
-        <v>16.010000228881836</v>
+        <v>1221.7559715945772</v>
       </c>
       <c r="T31" s="5">
-        <v>12.859999656677246</v>
+        <v>1216.3804931640625</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3065,180 +3071,180 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1279236864</v>
+        <v>1331694464</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>2200367</v>
+        <v>11021843</v>
       </c>
       <c r="G32" s="5">
-        <v>4.1311473846435547</v>
+        <v>12.688343048095703</v>
       </c>
       <c r="H32" s="5">
-        <v>-0.22078218054415502</v>
+        <v>-1.7147331904680101</v>
       </c>
       <c r="I32" s="5">
-        <v>-0.38328406777925506</v>
+        <v>2.1880024372020079</v>
       </c>
       <c r="J32" s="5">
-        <v>-0.70544479265065607</v>
+        <v>-12.793916850547959</v>
       </c>
       <c r="K32" s="5">
-        <v>-0.80523958907075011</v>
+        <v>-1.0034759664773301</v>
       </c>
       <c r="L32" s="5">
-        <v>11.699008349064655</v>
+        <v>18.522859935432699</v>
       </c>
       <c r="M32" s="5">
-        <v>-0.80523958907075011</v>
+        <v>3.249355381759012</v>
       </c>
       <c r="N32" s="5">
-        <v>-2.9989273111276082</v>
+        <v>-10.24893731286226</v>
       </c>
       <c r="O32" s="5">
-        <v>39.472382913765223</v>
+        <v>57.330987386908873</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="4"/>
+      <c r="Q32" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="R32" s="4" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5">
-        <v>1243.9918533604887</v>
+        <v>15.840000152587891</v>
       </c>
       <c r="T32" s="5">
-        <v>1148.6029052734375</v>
+        <v>12.609999656677246</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A33" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" s="5">
-        <v>1231522304</v>
+        <v>1250011008</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1459245.125</v>
+        <v>1420984</v>
       </c>
       <c r="G33" s="5">
-        <v>6.4322400093078613</v>
+        <v>6.3324542045593262</v>
       </c>
       <c r="H33" s="5">
-        <v>-0.49751196570663203</v>
+        <v>-0.48765808459646504</v>
       </c>
       <c r="I33" s="5">
-        <v>4.1613689425939793</v>
+        <v>3.0469961644436161</v>
       </c>
       <c r="J33" s="5">
-        <v>-15.618255612214671</v>
+        <v>-18.473897043580912</v>
       </c>
       <c r="K33" s="5">
-        <v>0.89946981335242704</v>
+        <v>-1.8530018757797579</v>
       </c>
       <c r="L33" s="5">
-        <v>17.648555544562839</v>
+        <v>22.290716550629639</v>
       </c>
       <c r="M33" s="5">
-        <v>0.89946981335242704</v>
+        <v>2.414266184039771</v>
       </c>
       <c r="N33" s="5">
-        <v>-36.432370316791072</v>
+        <v>-37.145121224785008</v>
       </c>
       <c r="O33" s="5">
-        <v>-36.133757489048271</v>
+        <v>-34.650860661690984</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S33" s="5">
         <v>0.44271498196098902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.25478032231330899</v>
+        <v>0.25860530138015703</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A34" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C34" s="5">
-        <v>1097778432</v>
+        <v>1120803840</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>19838912</v>
+        <v>3345599.25</v>
       </c>
       <c r="G34" s="5">
-        <v>7.1005921363830566</v>
+        <v>4.8885498046875</v>
       </c>
       <c r="H34" s="5">
-        <v>2.8207977380195541</v>
+        <v>0.79208095650626908</v>
       </c>
       <c r="I34" s="5">
-        <v>8.7770625313473793</v>
+        <v>5.2852238611152069</v>
       </c>
       <c r="J34" s="5">
-        <v>-25.237203644543971</v>
+        <v>4.6899886471515773</v>
       </c>
       <c r="K34" s="5">
-        <v>-28.82017445075531</v>
+        <v>-4.1238240902081502</v>
       </c>
       <c r="L34" s="5">
-        <v>-25.79169183354978</v>
+        <v>-1.4576199949954631</v>
       </c>
       <c r="M34" s="5">
-        <v>-28.82017445075531</v>
+        <v>-6.1921804439690309</v>
       </c>
       <c r="N34" s="5">
-        <v>-48.531291704564708</v>
+        <v>-16.132085496900196</v>
       </c>
       <c r="O34" s="5">
-        <v>-16.806334062057527</v>
+        <v>20.152181036543926</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q34" s="4"/>
       <c r="R34" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S34" s="5">
-        <v>38.759998321533203</v>
+        <v>3046.3202065848936</v>
       </c>
       <c r="T34" s="5">
-        <v>18.590000152587891</v>
+        <v>2488.2236328125</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3249,67 +3255,69 @@
         <v>128</v>
       </c>
       <c r="C35" s="5">
-        <v>1084413568</v>
+        <v>1111136384</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>3200639.25</v>
+        <v>19902448</v>
       </c>
       <c r="G35" s="5">
-        <v>5.0031251907348633</v>
+        <v>7.2807507514953613</v>
       </c>
       <c r="H35" s="5">
-        <v>-0.130164557957413</v>
+        <v>-0.92896220426975706</v>
       </c>
       <c r="I35" s="5">
-        <v>2.2762722826360049</v>
+        <v>3.3637298428927709</v>
       </c>
       <c r="J35" s="5">
-        <v>-1.703620747622381</v>
+        <v>-25.912581229205312</v>
       </c>
       <c r="K35" s="5">
-        <v>-9.1343705741120491</v>
+        <v>-31.765924960284963</v>
       </c>
       <c r="L35" s="5">
-        <v>-3.0544357656362542</v>
+        <v>-28.953845723784099</v>
       </c>
       <c r="M35" s="5">
-        <v>-9.1343705741120491</v>
+        <v>-30.581486450839435</v>
       </c>
       <c r="N35" s="5">
-        <v>-19.760121544192909</v>
+        <v>-49.711953206548166</v>
       </c>
       <c r="O35" s="5">
-        <v>-4.6027412158425101</v>
+        <v>-5.5690411086283698</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="4"/>
+      <c r="Q35" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="R35" s="4" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S35" s="5">
-        <v>3169.0427698574335</v>
+        <v>38.110000610351563</v>
       </c>
       <c r="T35" s="5">
-        <v>2410.18310546875</v>
+        <v>18.129999160766602</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A36" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" s="5">
-        <v>1036560704</v>
+        <v>1060855872</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3318,60 +3326,60 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>13865464</v>
+        <v>13690275</v>
       </c>
       <c r="G36" s="5">
-        <v>2.1571650505065918</v>
+        <v>2.1604938507080078</v>
       </c>
       <c r="H36" s="5">
-        <v>1.2480487614731079</v>
+        <v>-1.219511042741839</v>
       </c>
       <c r="I36" s="5">
-        <v>8.3472457279687653</v>
+        <v>7.1074349550787952</v>
       </c>
       <c r="J36" s="5">
-        <v>-10.501115570177022</v>
+        <v>-15.834417282776469</v>
       </c>
       <c r="K36" s="5">
-        <v>-3.1977940460010008</v>
+        <v>-5.0376720970305664</v>
       </c>
       <c r="L36" s="5">
-        <v>-2.6685472591792003E-2</v>
+        <v>-6.4550837891764301</v>
       </c>
       <c r="M36" s="5">
-        <v>-3.1977940460010008</v>
+        <v>-3.3469462942376742</v>
       </c>
       <c r="N36" s="5">
-        <v>-32.541894554240749</v>
+        <v>-30.596225452253002</v>
       </c>
       <c r="O36" s="5">
-        <v>-23.887000023375482</v>
+        <v>-17.363867768032183</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>9.9399995803833008</v>
+        <v>9.2600002288818359</v>
       </c>
       <c r="T36" s="5">
-        <v>6.4899997711181641</v>
+        <v>6.4800000190734863</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A37" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" s="5">
-        <v>1020153472</v>
+        <v>1047534208</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3380,34 +3388,34 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>5194084</v>
+        <v>5320103.5</v>
       </c>
       <c r="G37" s="5">
-        <v>6.4352240562438965</v>
+        <v>6.5012831687927246</v>
       </c>
       <c r="H37" s="5">
-        <v>2.2510841955691201</v>
+        <v>-1.4333902294696439</v>
       </c>
       <c r="I37" s="5">
-        <v>6.5364778916524591</v>
+        <v>2.453985422573846</v>
       </c>
       <c r="J37" s="5">
-        <v>-6.3442929096715783</v>
+        <v>-7.9421949959096239</v>
       </c>
       <c r="K37" s="5">
-        <v>4.4057504894987831</v>
+        <v>0.29250285323236802</v>
       </c>
       <c r="L37" s="5">
-        <v>17.583861353836603</v>
+        <v>9.8289879967966556</v>
       </c>
       <c r="M37" s="5">
-        <v>4.4057504894987831</v>
+        <v>3.344888742303409</v>
       </c>
       <c r="N37" s="5">
-        <v>-13.732327352958063</v>
+        <v>-15.705861504266128</v>
       </c>
       <c r="O37" s="5">
-        <v>27.494310276629786</v>
+        <v>46.297694793067976</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
@@ -3422,67 +3430,69 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T37" s="5">
-        <v>11.810000419616699</v>
+        <v>11.689999580383301</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A38" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" s="5">
-        <v>847427840</v>
+        <v>832250944</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1466190</v>
+        <v>1998588.5</v>
       </c>
       <c r="G38" s="5">
-        <v>5.0955414772033691</v>
+        <v>7.3257694244384766</v>
       </c>
       <c r="H38" s="5">
-        <v>1.5111221096064</v>
+        <v>0.93114934749809508</v>
       </c>
       <c r="I38" s="5">
-        <v>-7.7715326824254198</v>
+        <v>0.75939643536122603</v>
       </c>
       <c r="J38" s="5">
-        <v>5.2587056251617081</v>
+        <v>-9.9713740722332069</v>
       </c>
       <c r="K38" s="5">
-        <v>-11.962733636211087</v>
+        <v>-10.300183864635848</v>
       </c>
       <c r="L38" s="5">
-        <v>-12.70138221999586</v>
+        <v>2.992996268924597</v>
       </c>
       <c r="M38" s="5">
-        <v>-11.72721806504965</v>
+        <v>-10.750331628735321</v>
       </c>
       <c r="N38" s="5">
-        <v>-33.806572330821069</v>
+        <v>-48.270154547331735</v>
       </c>
       <c r="O38" s="5">
-        <v>1.29188892687282</v>
+        <v>40.729165694704903</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q38" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="R38" s="4" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="S38" s="5">
-        <v>6.9999688890271594</v>
+        <v>2.1541519055421761</v>
       </c>
       <c r="T38" s="5">
-        <v>4.3634138107299805</v>
+        <v>1.0376520156860349</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3493,7 +3503,7 @@
         <v>139</v>
       </c>
       <c r="C39" s="5">
-        <v>832743040</v>
+        <v>829734080</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>35</v>
@@ -3502,34 +3512,34 @@
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>1379855.25</v>
+        <v>1473367.875</v>
       </c>
       <c r="G39" s="5">
-        <v>6.5175094604492187</v>
+        <v>6.5557732582092294</v>
       </c>
       <c r="H39" s="5">
-        <v>-1.2672320371346801</v>
+        <v>-0.96186683944816709</v>
       </c>
       <c r="I39" s="5">
-        <v>1.9649717374618401</v>
+        <v>3.4418937068247062</v>
       </c>
       <c r="J39" s="5">
-        <v>-7.6523063730541292</v>
+        <v>-2.1007066769432652</v>
       </c>
       <c r="K39" s="5">
-        <v>-8.7664736730505677</v>
+        <v>-12.763244244715267</v>
       </c>
       <c r="L39" s="5">
-        <v>-2.5797330669234291</v>
+        <v>-5.8761803442714982</v>
       </c>
       <c r="M39" s="5">
-        <v>-8.7664736730505677</v>
+        <v>-8.2265438061879141</v>
       </c>
       <c r="N39" s="5">
-        <v>-41.051134554045142</v>
+        <v>-42.051598449215014</v>
       </c>
       <c r="O39" s="5">
-        <v>-21.064697219219497</v>
+        <v>-1.1707059152082371</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>30</v>
@@ -3544,7 +3554,7 @@
         <v>1.243469103672894</v>
       </c>
       <c r="T39" s="5">
-        <v>0.63468724489212003</v>
+        <v>0.63844335079193104</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3555,7 +3565,7 @@
         <v>141</v>
       </c>
       <c r="C40" s="5">
-        <v>825373504</v>
+        <v>827544512</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>142</v>
@@ -3564,471 +3574,469 @@
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>17375010</v>
-      </c>
-      <c r="G40" s="5"/>
+        <v>1356675.625</v>
+      </c>
+      <c r="G40" s="5">
+        <v>5.211726188659668</v>
+      </c>
       <c r="H40" s="5">
-        <v>-10.06114739905799</v>
+        <v>-0.149572238395101</v>
       </c>
       <c r="I40" s="5">
-        <v>1.8416932971440541</v>
+        <v>-3.9990882968436781</v>
       </c>
       <c r="J40" s="5">
-        <v>132.04390567442221</v>
+        <v>3.1608438718486949</v>
       </c>
       <c r="K40" s="5">
-        <v>118.69395870408117</v>
+        <v>-13.555219792185369</v>
       </c>
       <c r="L40" s="5">
-        <v>208.22825042858901</v>
+        <v>-18.014154015048135</v>
       </c>
       <c r="M40" s="5">
-        <v>118.69395870408117</v>
+        <v>-13.637323433268399</v>
       </c>
       <c r="N40" s="5">
-        <v>225.89809314252847</v>
+        <v>-36.000065534208758</v>
       </c>
       <c r="O40" s="5">
-        <v>279.83196103162987</v>
+        <v>8.7846830275713614</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S40" s="5">
-        <v>2.9003802040762392</v>
+        <v>6.9785442273754601</v>
       </c>
       <c r="T40" s="5">
-        <v>2.2379269599914551</v>
+        <v>4.2804160118103027</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A41" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="C41" s="5">
-        <v>809033664</v>
+        <v>824395328</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>1832168.75</v>
+        <v>2240806.75</v>
       </c>
       <c r="G41" s="5">
-        <v>7.5207982063293457</v>
+        <v>5.3652482032775879</v>
       </c>
       <c r="H41" s="5">
-        <v>-0.76159106258952802</v>
+        <v>1.3570442019985811</v>
       </c>
       <c r="I41" s="5">
-        <v>-2.104763557479727</v>
+        <v>2.5908319173202798</v>
       </c>
       <c r="J41" s="5">
-        <v>-13.651456703018683</v>
+        <v>7.8077475335603719</v>
       </c>
       <c r="K41" s="5">
-        <v>-12.995478643390479</v>
+        <v>6.3200216117893282</v>
       </c>
       <c r="L41" s="5">
-        <v>5.9628768683021924</v>
+        <v>12.412554669447706</v>
       </c>
       <c r="M41" s="5">
-        <v>-12.995478643390479</v>
+        <v>4.5136507340191701</v>
       </c>
       <c r="N41" s="5">
-        <v>-50.156090301460708</v>
+        <v>-11.454076668377644</v>
       </c>
       <c r="O41" s="5">
-        <v>14.340351188153356</v>
+        <v>50.754008062462084</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q41" s="4"/>
       <c r="R41" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="S41" s="5">
-        <v>2.1937991371437611</v>
+        <v>502.74370561652682</v>
       </c>
       <c r="T41" s="5">
-        <v>1.0115489959716799</v>
+        <v>428.50631713867187</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="5">
+        <v>779847104</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="5">
-        <v>793165248</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>1989015.375</v>
+        <v>2621099.25</v>
       </c>
       <c r="G42" s="5">
-        <v>5.5218977928161621</v>
+        <v>0.99224770069122303</v>
       </c>
       <c r="H42" s="5">
-        <v>-0.103919057327073</v>
+        <v>8.5313229605211011E-2</v>
       </c>
       <c r="I42" s="5">
-        <v>-0.46933613380745204</v>
+        <v>2.8209239315035721</v>
       </c>
       <c r="J42" s="5">
-        <v>2.1033496783406052</v>
+        <v>2.209384036116635</v>
       </c>
       <c r="K42" s="5">
-        <v>0.66914881627040401</v>
+        <v>4.1161456086791892</v>
       </c>
       <c r="L42" s="5">
-        <v>9.6154028612252418</v>
+        <v>6.9585004562025432</v>
       </c>
       <c r="M42" s="5">
-        <v>0.66914881627040401</v>
+        <v>4.1161456086791892</v>
       </c>
       <c r="N42" s="5">
-        <v>-14.857990865310821</v>
+        <v>3.19644250677884</v>
       </c>
       <c r="O42" s="5">
-        <v>23.842758544285168</v>
+        <v>17.442794891394087</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="4"/>
+      <c r="Q42" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="R42" s="4" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="S42" s="5">
-        <v>516.49694501018325</v>
+        <v>0.72089303474705002</v>
       </c>
       <c r="T42" s="5">
-        <v>412.74383544921875</v>
+        <v>0.6901302337646481</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A43" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" s="5">
-        <v>779847104</v>
+        <v>766216448</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>2621099.25</v>
+        <v>1478400.125</v>
       </c>
       <c r="G43" s="5">
-        <v>0.99224770069122303</v>
+        <v>4.0027604103088379</v>
       </c>
       <c r="H43" s="5">
-        <v>8.5313229605211011E-2</v>
+        <v>2.3331590733728151</v>
       </c>
       <c r="I43" s="5">
-        <v>2.8209239315035721</v>
+        <v>4.7010938958726767</v>
       </c>
       <c r="J43" s="5">
-        <v>2.209384036116635</v>
+        <v>5.6720877988248652</v>
       </c>
       <c r="K43" s="5">
-        <v>4.1161456086791892</v>
+        <v>-3.0406428661891249</v>
       </c>
       <c r="L43" s="5">
-        <v>6.9585004562025432</v>
+        <v>5.1412035842369086</v>
       </c>
       <c r="M43" s="5">
-        <v>4.1161456086791892</v>
+        <v>-5.4239682412726591</v>
       </c>
       <c r="N43" s="5">
-        <v>3.19644250677884</v>
+        <v>-8.9707700782015962</v>
       </c>
       <c r="O43" s="5">
-        <v>17.442794891394087</v>
+        <v>30.809059415377106</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="Q43" s="4"/>
       <c r="R43" s="4" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="S43" s="5">
-        <v>0.72089303474705002</v>
+        <v>1244.3511943189155</v>
       </c>
       <c r="T43" s="5">
-        <v>0.6901302337646481</v>
+        <v>1100.896484375</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="5">
+        <v>740775296</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="E44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1551855.625</v>
+      </c>
+      <c r="G44" s="5">
+        <v>5.6804733276367188</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1.624302167177438</v>
+      </c>
+      <c r="I44" s="5">
+        <v>9.0903204639899204</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1.2946957749593311</v>
+      </c>
+      <c r="K44" s="5">
+        <v>-3.7403081940151961</v>
+      </c>
+      <c r="L44" s="5">
+        <v>19.433720058324777</v>
+      </c>
+      <c r="M44" s="5">
+        <v>1.8842314603273E-2</v>
+      </c>
+      <c r="N44" s="5">
+        <v>-26.608388846666962</v>
+      </c>
+      <c r="O44" s="5">
+        <v>42.906170182922729</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="5">
-        <v>739547840</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="5">
-        <v>2500101.5</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5">
-        <v>-2.6963003148836151</v>
-      </c>
-      <c r="I44" s="5">
-        <v>-11.963848592263204</v>
-      </c>
-      <c r="J44" s="5">
-        <v>-12.14729168453651</v>
-      </c>
-      <c r="K44" s="5">
-        <v>-30.161601607152477</v>
-      </c>
-      <c r="L44" s="5">
-        <v>66.574377158343623</v>
-      </c>
-      <c r="M44" s="5">
-        <v>-30.161601607152477</v>
-      </c>
-      <c r="N44" s="5">
-        <v>73.608526857191237</v>
-      </c>
-      <c r="O44" s="5">
-        <v>155.66670741415459</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q44" s="4"/>
+      <c r="Q44" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="R44" s="4" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="S44" s="5">
-        <v>1.13709763756269</v>
+        <v>1.5543399132000002</v>
       </c>
       <c r="T44" s="5">
-        <v>0.72026431560516402</v>
+        <v>1.0557429790496831</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A45" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="5">
+        <v>715489920</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="5">
-        <v>726250176</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1248130.875</v>
-      </c>
-      <c r="G45" s="5">
-        <v>4.1816868782043457</v>
-      </c>
+        <v>2374914.5</v>
+      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="5">
-        <v>-0.9999820335604761</v>
+        <v>2.2929183255858021</v>
       </c>
       <c r="I45" s="5">
-        <v>0.32148790882846601</v>
+        <v>-4.755361908168787</v>
       </c>
       <c r="J45" s="5">
-        <v>-1.2694698554390651</v>
+        <v>-16.11259876032204</v>
       </c>
       <c r="K45" s="5">
-        <v>-10.254829436960989</v>
+        <v>-26.583381282561881</v>
       </c>
       <c r="L45" s="5">
-        <v>1.62745379357192</v>
+        <v>62.749368702886542</v>
       </c>
       <c r="M45" s="5">
-        <v>-10.254829436960989</v>
+        <v>-28.974306147049834</v>
       </c>
       <c r="N45" s="5">
-        <v>-14.291325434542401</v>
+        <v>77.751949100932634</v>
       </c>
       <c r="O45" s="5">
-        <v>9.0620671169914466</v>
+        <v>145.85342697006016</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="S45" s="5">
-        <v>1279.0224032586557</v>
+        <v>1.13709763756269</v>
       </c>
       <c r="T45" s="5">
-        <v>1044.6636962890625</v>
+        <v>0.73250925540924106</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A46" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="5">
+        <v>667899264</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="5">
+        <v>17319418</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5">
+        <v>3.3579192839139571</v>
+      </c>
+      <c r="I46" s="5">
+        <v>-20.001089339192625</v>
+      </c>
+      <c r="J46" s="5">
+        <v>105.87549088386341</v>
+      </c>
+      <c r="K46" s="5">
+        <v>117.7698538723134</v>
+      </c>
+      <c r="L46" s="5">
+        <v>183.37956536730414</v>
+      </c>
+      <c r="M46" s="5">
+        <v>103.35803938817519</v>
+      </c>
+      <c r="N46" s="5">
+        <v>206.9369410410562</v>
+      </c>
+      <c r="O46" s="5">
+        <v>268.47216950346439</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="5">
-        <v>710344832</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1418876.125</v>
-      </c>
-      <c r="G46" s="5">
-        <v>5.8252425193786621</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0.17951358486023603</v>
-      </c>
-      <c r="I46" s="5">
-        <v>3.4848630848930422</v>
-      </c>
-      <c r="J46" s="5">
-        <v>-3.4353062512978649</v>
-      </c>
-      <c r="K46" s="5">
-        <v>-3.606563536702001</v>
-      </c>
-      <c r="L46" s="5">
-        <v>17.283968901230207</v>
-      </c>
-      <c r="M46" s="5">
-        <v>-3.606563536702001</v>
-      </c>
-      <c r="N46" s="5">
-        <v>-29.457042545203628</v>
-      </c>
-      <c r="O46" s="5">
-        <v>25.252195870599415</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="S46" s="5">
-        <v>1.5543399132000002</v>
+        <v>2.9003802040762392</v>
       </c>
       <c r="T46" s="5">
-        <v>1.0174752473831179</v>
+        <v>2.0809922218322749</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A47" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C47" s="5">
-        <v>662558912</v>
+        <v>652248448</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>12943038</v>
+        <v>7184624.5</v>
       </c>
       <c r="G47" s="5">
-        <v>6.5530800819396973</v>
+        <v>7.9681272506713867</v>
       </c>
       <c r="H47" s="5">
-        <v>2.005352672792537</v>
+        <v>-0.89586565426431608</v>
       </c>
       <c r="I47" s="5">
-        <v>11.38686557457611</v>
+        <v>2.0488290012550041</v>
       </c>
       <c r="J47" s="5">
-        <v>-0.90908102273824509</v>
+        <v>-12.657649525742542</v>
       </c>
       <c r="K47" s="5">
-        <v>0</v>
+        <v>-17.688115927719551</v>
       </c>
       <c r="L47" s="5">
-        <v>5.8454738020852437</v>
+        <v>-19.562662141629485</v>
       </c>
       <c r="M47" s="5">
-        <v>0</v>
+        <v>-14.492975956914211</v>
       </c>
       <c r="N47" s="5">
-        <v>-58.004570181799075</v>
+        <v>-42.680182243729156</v>
       </c>
       <c r="O47" s="5">
-        <v>-4.3196477229687886</v>
+        <v>34.103390625669626</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="S47" s="5">
-        <v>67.423248291015625</v>
+        <v>11.008880893576956</v>
       </c>
       <c r="T47" s="5">
-        <v>27.807064056396484</v>
+        <v>5.5960168838500977</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4039,69 +4047,69 @@
         <v>168</v>
       </c>
       <c r="C48" s="5">
-        <v>645592000</v>
+        <v>604659584</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>7323350</v>
+        <v>1189861.25</v>
       </c>
       <c r="G48" s="5">
-        <v>7.8843626976013184</v>
+        <v>4.2923078536987305</v>
       </c>
       <c r="H48" s="5">
-        <v>0.97317193258625911</v>
+        <v>0.47329910030942102</v>
       </c>
       <c r="I48" s="5">
-        <v>2.4204868733549878</v>
+        <v>40.576615562712483</v>
       </c>
       <c r="J48" s="5">
-        <v>-15.140668044484883</v>
+        <v>36.329604052266639</v>
       </c>
       <c r="K48" s="5">
-        <v>-14.012683037064988</v>
+        <v>35.497834822662156</v>
       </c>
       <c r="L48" s="5">
-        <v>-14.735892766033276</v>
+        <v>34.796004190887999</v>
       </c>
       <c r="M48" s="5">
-        <v>-14.012683037064988</v>
+        <v>32.032782801235136</v>
       </c>
       <c r="N48" s="5">
-        <v>-42.471448779743511</v>
+        <v>-16.437056426524677</v>
       </c>
       <c r="O48" s="5">
-        <v>22.89264707178944</v>
+        <v>101.58330857056895</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="S48" s="5">
-        <v>11.008880893576956</v>
+        <v>2.6187999199999998</v>
       </c>
       <c r="T48" s="5">
-        <v>5.6274495124816895</v>
+        <v>2.0302748680114751</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A49" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C49" s="5">
-        <v>499216544</v>
+        <v>502043808</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>23</v>
@@ -4110,40 +4118,40 @@
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>4337672.5</v>
+        <v>4162105</v>
       </c>
       <c r="G49" s="5">
-        <v>9.5011873245239258</v>
+        <v>9.7165994644165039</v>
       </c>
       <c r="H49" s="5">
-        <v>2.1844697836848952</v>
+        <v>-0.64360355383694701</v>
       </c>
       <c r="I49" s="5">
-        <v>3.609520502081764</v>
+        <v>2.4896280994711528</v>
       </c>
       <c r="J49" s="5">
-        <v>-6.9098949113119765</v>
+        <v>-9.5685932362026058</v>
       </c>
       <c r="K49" s="5">
-        <v>-30.319807178101389</v>
+        <v>-34.55320566592075</v>
       </c>
       <c r="L49" s="5">
-        <v>-15.03816109262206</v>
+        <v>-21.192567028296803</v>
       </c>
       <c r="M49" s="5">
-        <v>-30.319807178101389</v>
+        <v>-31.864576394786106</v>
       </c>
       <c r="N49" s="5">
-        <v>-37.814414023541609</v>
+        <v>-40.197877532382719</v>
       </c>
       <c r="O49" s="5">
-        <v>11.077641031791741</v>
+        <v>26.497394771295578</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>0</v>
@@ -4152,67 +4160,69 @@
         <v>23.379999160766602</v>
       </c>
       <c r="T49" s="5">
-        <v>12.630000114440918</v>
+        <v>12.350000381469727</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A50" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C50" s="5">
-        <v>484134368</v>
+        <v>488294176</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>2631977.75</v>
-      </c>
-      <c r="G50" s="5"/>
+        <v>1461456.625</v>
+      </c>
+      <c r="G50" s="5">
+        <v>8.0681304931640625</v>
+      </c>
       <c r="H50" s="5">
-        <v>-4.3193238426958764</v>
+        <v>-2.7886765826629971</v>
       </c>
       <c r="I50" s="5">
-        <v>-6.2267263601523792</v>
+        <v>1.0416645970609431</v>
       </c>
       <c r="J50" s="5">
-        <v>-17.296312371434198</v>
+        <v>-0.43302811707719402</v>
       </c>
       <c r="K50" s="5">
-        <v>-41.861893403378559</v>
+        <v>0.40145595379266202</v>
       </c>
       <c r="L50" s="5">
-        <v>46.557489782527583</v>
+        <v>6.0003679289226666</v>
       </c>
       <c r="M50" s="5">
-        <v>-41.861893403378559</v>
+        <v>2.4347919753670229</v>
       </c>
       <c r="N50" s="5">
-        <v>121.53334649096684</v>
+        <v>-22.294862413417761</v>
       </c>
       <c r="O50" s="5">
-        <v>260.93117621627687</v>
+        <v>119.8630111881057</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="S50" s="5">
-        <v>1.152422315694851</v>
+        <v>31.969999313354492</v>
       </c>
       <c r="T50" s="5">
-        <v>0.63687628507614102</v>
+        <v>22.309999465942383</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4223,58 +4233,56 @@
         <v>175</v>
       </c>
       <c r="C51" s="5">
-        <v>479570848</v>
+        <v>480101056</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>1337147.625</v>
+        <v>4070653.75</v>
       </c>
       <c r="G51" s="5">
-        <v>7.849977970123291</v>
+        <v>5.7458925247192383</v>
       </c>
       <c r="H51" s="5">
-        <v>1.730254542180498</v>
+        <v>0.19921104046851701</v>
       </c>
       <c r="I51" s="5">
-        <v>3.009883510354316</v>
+        <v>1.3863624751868859</v>
       </c>
       <c r="J51" s="5">
-        <v>3.2827577959344101</v>
+        <v>5.3733776645098708</v>
       </c>
       <c r="K51" s="5">
-        <v>5.2814821820780464</v>
+        <v>-4.6432218495844557</v>
       </c>
       <c r="L51" s="5">
-        <v>13.558982938840414</v>
+        <v>-2.0598013063741432</v>
       </c>
       <c r="M51" s="5">
-        <v>5.2814821820780464</v>
+        <v>-5.8459211275861183</v>
       </c>
       <c r="N51" s="5">
-        <v>-19.409145035026942</v>
+        <v>-27.414416830634103</v>
       </c>
       <c r="O51" s="5">
-        <v>107.15550873954673</v>
+        <v>29.984964628679723</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="Q51" s="4"/>
       <c r="R51" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S51" s="5">
-        <v>31.969999313354492</v>
+        <v>992.0411608650212</v>
       </c>
       <c r="T51" s="5">
-        <v>22.930000305175781</v>
+        <v>693.66357421875</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4285,185 +4293,185 @@
         <v>177</v>
       </c>
       <c r="C52" s="5">
-        <v>472694304</v>
+        <v>465947872</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>13078553</v>
+        <v>2511752.5</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>-4.1044599633497816</v>
+        <v>3.427085767577553</v>
       </c>
       <c r="I52" s="5">
-        <v>-11.10088385651653</v>
+        <v>-5.4794873369622534</v>
       </c>
       <c r="J52" s="5">
-        <v>-13.919149147799592</v>
+        <v>-13.569814902370247</v>
       </c>
       <c r="K52" s="5">
-        <v>-16.768497922643142</v>
+        <v>-32.202977238565808</v>
       </c>
       <c r="L52" s="5">
-        <v>43.240927337102718</v>
+        <v>47.101357746420348</v>
       </c>
       <c r="M52" s="5">
-        <v>-16.768497922643142</v>
+        <v>-41.585403443541445</v>
       </c>
       <c r="N52" s="5">
-        <v>-38.143345400591279</v>
+        <v>119.85971824456433</v>
       </c>
       <c r="O52" s="5">
-        <v>146.01479342395302</v>
+        <v>270.55175650840374</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q52" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="R52" s="4" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="S52" s="5">
-        <v>1.1922868853192861</v>
+        <v>1.152422315694851</v>
       </c>
       <c r="T52" s="5">
-        <v>0.47322723269462602</v>
+        <v>0.63990509510040305</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C53" s="5">
-        <v>466548288</v>
+        <v>449501344</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>4027680.75</v>
-      </c>
-      <c r="G53" s="5">
-        <v>5.8549108505249023</v>
-      </c>
+        <v>11582170</v>
+      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="5">
-        <v>-0.61896019304639205</v>
+        <v>1.1150137844986969</v>
       </c>
       <c r="I53" s="5">
-        <v>0.57361142137433208</v>
+        <v>-4.5388987408326535</v>
       </c>
       <c r="J53" s="5">
-        <v>1.384451343934612</v>
+        <v>-16.755194405713635</v>
       </c>
       <c r="K53" s="5">
-        <v>-8.3994049505009993</v>
+        <v>-17.431867561850211</v>
       </c>
       <c r="L53" s="5">
-        <v>-1.969444595982583</v>
+        <v>45.187440548200144</v>
       </c>
       <c r="M53" s="5">
-        <v>-8.3994049505009993</v>
+        <v>-16.550581381787488</v>
       </c>
       <c r="N53" s="5">
-        <v>-29.442642135733976</v>
+        <v>-40.212786438097496</v>
       </c>
       <c r="O53" s="5">
-        <v>8.0655906795582553</v>
+        <v>142.48816868298749</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="S53" s="5">
-        <v>1014.2566191446027</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T53" s="5">
-        <v>674.85125732421875</v>
+        <v>0.47446620464325001</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C54" s="5">
-        <v>425216544</v>
+        <v>407772064</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>1395813.875</v>
+        <v>1165405.625</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5">
-        <v>2.2011570393030588</v>
+        <v>3.8940056474887412</v>
       </c>
       <c r="I54" s="5">
-        <v>1.590479113740328</v>
+        <v>-1.9279861908788609</v>
       </c>
       <c r="J54" s="5">
-        <v>-7.745119927141153</v>
+        <v>-21.822449006535404</v>
       </c>
       <c r="K54" s="5">
-        <v>-2.2861640351763972</v>
+        <v>-12.845662085143417</v>
       </c>
       <c r="L54" s="5">
-        <v>40.868874486729197</v>
+        <v>38.955220595198938</v>
       </c>
       <c r="M54" s="5">
-        <v>-2.2861640351763972</v>
+        <v>-8.4157349773363084</v>
       </c>
       <c r="N54" s="5">
-        <v>48.294486984561736</v>
+        <v>31.988070780477894</v>
       </c>
       <c r="O54" s="5">
-        <v>421.01262655996948</v>
+        <v>418.03269318109943</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="S54" s="5">
         <v>10.579760227544591</v>
       </c>
       <c r="T54" s="5">
-        <v>8.3648643493652344</v>
+        <v>7.8401379585266113</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C55" s="5">
-        <v>386601728</v>
+        <v>391894496</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>23</v>
@@ -4472,40 +4480,40 @@
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>5181222</v>
+        <v>5150804</v>
       </c>
       <c r="G55" s="5">
-        <v>8.8064889907836914</v>
+        <v>9.0963497161865234</v>
       </c>
       <c r="H55" s="5">
-        <v>2.7381012661389592</v>
+        <v>-1.8790463257220451</v>
       </c>
       <c r="I55" s="5">
-        <v>4.3530790417222631</v>
+        <v>0.90579482709987102</v>
       </c>
       <c r="J55" s="5">
-        <v>0.36920231359536304</v>
+        <v>-2.551977791130466</v>
       </c>
       <c r="K55" s="5">
-        <v>-3.4742589803433033</v>
+        <v>-9.0381249970798443</v>
       </c>
       <c r="L55" s="5">
-        <v>-3.9475174424757342</v>
+        <v>-7.1569222884695138</v>
       </c>
       <c r="M55" s="5">
-        <v>-3.4742589803433033</v>
+        <v>-6.5501145609775824</v>
       </c>
       <c r="N55" s="5">
-        <v>-15.590891491071869</v>
+        <v>-17.772304181725808</v>
       </c>
       <c r="O55" s="5">
-        <v>79.617581668119939</v>
+        <v>83.146208583662812</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R55" s="4" t="s">
         <v>0</v>
@@ -4514,18 +4522,18 @@
         <v>23.069999694824219</v>
       </c>
       <c r="T55" s="5">
-        <v>17.260000228881836</v>
+        <v>16.709999084472656</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A56" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C56" s="5">
-        <v>376550400</v>
+        <v>387330240</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>23</v>
@@ -4534,40 +4542,40 @@
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>1808166.625</v>
+        <v>1841854.5</v>
       </c>
       <c r="G56" s="5">
-        <v>5.7803468704223633</v>
+        <v>5.7416272163391113</v>
       </c>
       <c r="H56" s="5">
-        <v>2.4679170501055609</v>
+        <v>0.28790530471725101</v>
       </c>
       <c r="I56" s="5">
-        <v>4.4265649158171216</v>
+        <v>7.3997975426761897</v>
       </c>
       <c r="J56" s="5">
-        <v>-13.818891241059006</v>
+        <v>-14.429120162857402</v>
       </c>
       <c r="K56" s="5">
-        <v>-6.1310118733601371</v>
+        <v>-7.073017129757309</v>
       </c>
       <c r="L56" s="5">
-        <v>-15.139412131607678</v>
+        <v>-18.403161819870839</v>
       </c>
       <c r="M56" s="5">
-        <v>-6.1310118733601371</v>
+        <v>-5.4979867818496402</v>
       </c>
       <c r="N56" s="5">
-        <v>-31.363162346502737</v>
+        <v>-31.762965518486851</v>
       </c>
       <c r="O56" s="5">
-        <v>50.211701910295844</v>
+        <v>57.916055287529119</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R56" s="4" t="s">
         <v>0</v>
@@ -4576,69 +4584,65 @@
         <v>17.930000305175781</v>
       </c>
       <c r="T56" s="5">
-        <v>10.380000114440918</v>
+        <v>10.449999809265137</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C57" s="5">
-        <v>369124192</v>
+        <v>337688416</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>1007617.5</v>
+        <v>6024914</v>
       </c>
       <c r="G57" s="5">
-        <v>3.3218786716461182</v>
+        <v>0.76923072338104204</v>
       </c>
       <c r="H57" s="5">
-        <v>0.78689612986826407</v>
+        <v>5.9195342116025007E-2</v>
       </c>
       <c r="I57" s="5">
-        <v>3.394212637702454</v>
+        <v>-2.632984416382067</v>
       </c>
       <c r="J57" s="5">
-        <v>4.0959790166058774</v>
+        <v>-7.5927820519365419</v>
       </c>
       <c r="K57" s="5">
-        <v>11.838884700736664</v>
+        <v>-27.786129685018722</v>
       </c>
       <c r="L57" s="5">
-        <v>41.226610791364784</v>
+        <v>15.769450400399233</v>
       </c>
       <c r="M57" s="5">
-        <v>11.838884700736664</v>
+        <v>-33.46137136894729</v>
       </c>
       <c r="N57" s="5">
-        <v>4.3942335168683622</v>
-      </c>
-      <c r="O57" s="5">
-        <v>101.8374390051362</v>
-      </c>
+        <v>18.30994637648018</v>
+      </c>
+      <c r="O57" s="5"/>
       <c r="P57" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>189</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q57" s="4"/>
       <c r="R57" s="4" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="S57" s="5">
-        <v>0.538598416929716</v>
+        <v>0.55299045370637101</v>
       </c>
       <c r="T57" s="5">
-        <v>0.49227750301361106</v>
+        <v>0.31787157058715804</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4649,54 +4653,56 @@
         <v>191</v>
       </c>
       <c r="C58" s="5">
-        <v>339328832</v>
+        <v>297165408</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>6512614</v>
+        <v>1502030.875</v>
       </c>
       <c r="G58" s="5">
-        <v>0.77049177885055509</v>
+        <v>5.5441441535949707</v>
       </c>
       <c r="H58" s="5">
-        <v>-0.41770825901190606</v>
+        <v>0.36693792249289403</v>
       </c>
       <c r="I58" s="5">
-        <v>1.5390595191923979</v>
+        <v>2.4521299873014208</v>
       </c>
       <c r="J58" s="5">
-        <v>-9.4612786483923692</v>
+        <v>3.411332297262692</v>
       </c>
       <c r="K58" s="5">
-        <v>-33.451869541081649</v>
+        <v>-0.89501865750856202</v>
       </c>
       <c r="L58" s="5">
-        <v>22.693418414868983</v>
+        <v>9.9834436159215389</v>
       </c>
       <c r="M58" s="5">
-        <v>-33.451869541081649</v>
+        <v>-2.4601087261679528</v>
       </c>
       <c r="N58" s="5">
-        <v>15.687115915314598</v>
-      </c>
-      <c r="O58" s="5"/>
+        <v>-18.321396952246005</v>
+      </c>
+      <c r="O58" s="5">
+        <v>33.735975934039317</v>
+      </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="S58" s="5">
-        <v>0.55299045370637101</v>
+        <v>1095.8683021304068</v>
       </c>
       <c r="T58" s="5">
-        <v>0.31791695952415505</v>
+        <v>843.33685302734375</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4707,67 +4713,67 @@
         <v>193</v>
       </c>
       <c r="C59" s="5">
-        <v>287893472</v>
+        <v>252298368</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>1501413.125</v>
+        <v>1001040.25</v>
       </c>
       <c r="G59" s="5">
-        <v>5.6666665077209473</v>
+        <v>6.2968511581420898</v>
       </c>
       <c r="H59" s="5">
-        <v>-0.92481732567014607</v>
+        <v>-0.59346907908354207</v>
       </c>
       <c r="I59" s="5">
-        <v>0.287833499279877</v>
+        <v>-1.3910851450483002E-2</v>
       </c>
       <c r="J59" s="5">
-        <v>-0.99235182689578805</v>
+        <v>-4.9198847223379749</v>
       </c>
       <c r="K59" s="5">
-        <v>-5.3956649607910689</v>
+        <v>-11.201523564466553</v>
       </c>
       <c r="L59" s="5">
-        <v>8.7288070633826145</v>
+        <v>-10.376330070708406</v>
       </c>
       <c r="M59" s="5">
-        <v>-5.3956649607910689</v>
+        <v>-10.722292347691464</v>
       </c>
       <c r="N59" s="5">
-        <v>-21.317011602472459</v>
+        <v>-20.314137812149479</v>
       </c>
       <c r="O59" s="5">
-        <v>11.752975322068316</v>
+        <v>-15.396429172030402</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="S59" s="5">
-        <v>1122.6069246435843</v>
+        <v>2.388505328325373</v>
       </c>
       <c r="T59" s="5">
-        <v>817.95587158203125</v>
+        <v>1.778429508209229</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A60" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C60" s="5">
-        <v>231629824</v>
+        <v>232473136</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>23</v>
@@ -4776,40 +4782,40 @@
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>2441792.5</v>
+        <v>2529099.75</v>
       </c>
       <c r="G60" s="5">
-        <v>6.5359477996826172</v>
+        <v>6.7733993530273437</v>
       </c>
       <c r="H60" s="5">
-        <v>2.1237887815027889</v>
+        <v>-1.813791582850188</v>
       </c>
       <c r="I60" s="5">
-        <v>2.935776948239921</v>
+        <v>-0.67278659195770807</v>
       </c>
       <c r="J60" s="5">
-        <v>-6.2525485339674614</v>
+        <v>-9.737062525767449</v>
       </c>
       <c r="K60" s="5">
-        <v>-10.428930270471371</v>
+        <v>-13.568974539482003</v>
       </c>
       <c r="L60" s="5">
-        <v>6.8881504802976954</v>
+        <v>1.7607932584126069</v>
       </c>
       <c r="M60" s="5">
-        <v>-10.428930270471371</v>
+        <v>-13.568974539482003</v>
       </c>
       <c r="N60" s="5">
-        <v>-4.9968620358448179</v>
+        <v>-9.7672328162507256</v>
       </c>
       <c r="O60" s="5">
-        <v>61.928018305836609</v>
+        <v>68.134151291445505</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R60" s="4" t="s">
         <v>0</v>
@@ -4818,359 +4824,359 @@
         <v>20.789899826049805</v>
       </c>
       <c r="T60" s="5">
-        <v>16.829999923706055</v>
+        <v>16.239999771118164</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C61" s="5">
-        <v>218583552</v>
+        <v>215809696</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1922638.625</v>
-      </c>
-      <c r="G61" s="5"/>
+        <v>1446970.625</v>
+      </c>
+      <c r="G61" s="5">
+        <v>5.7042737007141113</v>
+      </c>
       <c r="H61" s="5">
-        <v>-0.85826256663863509</v>
+        <v>-1.219216524540867</v>
       </c>
       <c r="I61" s="5">
-        <v>-5.730395158972124</v>
+        <v>-1.2609758859746911</v>
       </c>
       <c r="J61" s="5">
-        <v>-14.638438396366571</v>
+        <v>6.5063897779906288</v>
       </c>
       <c r="K61" s="5">
-        <v>-35.76607984421085</v>
+        <v>0.68087062273307608</v>
       </c>
       <c r="L61" s="5">
-        <v>50.343676976473219</v>
+        <v>10.194903188641868</v>
       </c>
       <c r="M61" s="5">
-        <v>-35.76607984421085</v>
+        <v>-1.5544777214255729</v>
       </c>
       <c r="N61" s="5">
-        <v>83.963808653459097</v>
-      </c>
-      <c r="O61" s="5">
-        <v>13.303381106396239</v>
-      </c>
+        <v>-1.941408458075855</v>
+      </c>
+      <c r="O61" s="5"/>
       <c r="P61" s="4" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="Q61" s="4"/>
       <c r="R61" s="4" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="S61" s="5">
-        <v>0.45377137396633505</v>
+        <v>953.26524295883621</v>
       </c>
       <c r="T61" s="5">
-        <v>0.26944765448570301</v>
+        <v>888.92266845703125</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C62" s="5">
-        <v>217828368</v>
+        <v>212794528</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>4192781</v>
-      </c>
-      <c r="G62" s="5">
-        <v>2.7365128993988042</v>
-      </c>
+        <v>1915170.5</v>
+      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="5">
-        <v>-1.5536657227840589</v>
+        <v>1.9013589740115799</v>
       </c>
       <c r="I62" s="5">
-        <v>-3.638534031397112</v>
+        <v>-5.5797504199526449</v>
       </c>
       <c r="J62" s="5">
-        <v>-3.5553586369879149</v>
+        <v>-14.779493287938051</v>
       </c>
       <c r="K62" s="5">
-        <v>-25.57136588588509</v>
+        <v>-33.601506390052819</v>
       </c>
       <c r="L62" s="5">
-        <v>43.985400787433534</v>
+        <v>43.535891089765322</v>
       </c>
       <c r="M62" s="5">
-        <v>-25.57136588588509</v>
+        <v>-36.996572175456066</v>
       </c>
       <c r="N62" s="5">
-        <v>39.16996667329866</v>
+        <v>76.654764329760212</v>
       </c>
       <c r="O62" s="5">
-        <v>117.38994547278013</v>
+        <v>8.4705304070213483</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>200</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Q62" s="4"/>
       <c r="R62" s="4" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="S62" s="5">
-        <v>4.6771184674018205</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T62" s="5">
-        <v>3.3329164981842041</v>
+        <v>0.26428601145744302</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C63" s="5">
-        <v>214244560</v>
+        <v>211118976</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>1382574.375</v>
+        <v>3993788.25</v>
       </c>
       <c r="G63" s="5">
-        <v>5.6896843910217294</v>
+        <v>2.734375</v>
       </c>
       <c r="H63" s="5">
-        <v>-0.45593677383418701</v>
+        <v>1.4810703173319779</v>
       </c>
       <c r="I63" s="5">
-        <v>-0.96810475085799008</v>
+        <v>-0.79386834357166902</v>
       </c>
       <c r="J63" s="5">
-        <v>2.5519508637605881</v>
+        <v>-0.60734276622633809</v>
       </c>
       <c r="K63" s="5">
-        <v>-2.156936629962158</v>
+        <v>-20.706313578352344</v>
       </c>
       <c r="L63" s="5">
-        <v>9.9847378499164705</v>
+        <v>34.386695539412045</v>
       </c>
       <c r="M63" s="5">
-        <v>-2.156936629962158</v>
+        <v>-25.645704345793696</v>
       </c>
       <c r="N63" s="5">
-        <v>-2.2339635543987879</v>
-      </c>
-      <c r="O63" s="5"/>
+        <v>37.704167942693736</v>
+      </c>
+      <c r="O63" s="5">
+        <v>93.4830267526455</v>
+      </c>
       <c r="P63" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q63" s="4"/>
+      <c r="Q63" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="R63" s="4" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="S63" s="5">
-        <v>960</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T63" s="5">
-        <v>883.48272705078125</v>
+        <v>3.329587459564209</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C64" s="5">
-        <v>184668064</v>
+        <v>174215296</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>6963874</v>
+        <v>6584097.5</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5">
-        <v>-3.6312811880482299</v>
+        <v>4.0577339834751314</v>
       </c>
       <c r="I64" s="5">
-        <v>-8.1248994407624675</v>
+        <v>-3.644717700303846</v>
       </c>
       <c r="J64" s="5">
-        <v>-16.576904878781416</v>
+        <v>-8.6379676865097732</v>
       </c>
       <c r="K64" s="5">
-        <v>-40.559347072052866</v>
+        <v>-34.995699172931836</v>
       </c>
       <c r="L64" s="5">
-        <v>67.756626286546734</v>
+        <v>65.46649263304576</v>
       </c>
       <c r="M64" s="5">
-        <v>-40.559347072052866</v>
+        <v>-39.454191617137212</v>
       </c>
       <c r="N64" s="5">
-        <v>85.577382610091973</v>
+        <v>87.509892240429778</v>
       </c>
       <c r="O64" s="5">
-        <v>78.433721320358913</v>
+        <v>92.889946514110605</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q64" s="4"/>
       <c r="R64" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S64" s="5">
         <v>0.22635182608908702</v>
       </c>
       <c r="T64" s="5">
-        <v>0.12768796086311301</v>
+        <v>0.13006201386451702</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C65" s="5">
-        <v>150462464</v>
+        <v>142906416</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>2986618.25</v>
+        <v>3148143</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5">
-        <v>-1.018436132532796</v>
+        <v>1.113670203234074</v>
       </c>
       <c r="I65" s="5">
-        <v>5.5551546193941759</v>
+        <v>-0.80038090148824004</v>
       </c>
       <c r="J65" s="5">
-        <v>32.971584280072207</v>
+        <v>28.291832887268463</v>
       </c>
       <c r="K65" s="5">
-        <v>15.043701293086365</v>
+        <v>18.666208727928655</v>
       </c>
       <c r="L65" s="5">
-        <v>79.239093654669375</v>
+        <v>75.119920488789305</v>
       </c>
       <c r="M65" s="5">
-        <v>15.043701293086365</v>
+        <v>11.611687469948384</v>
       </c>
       <c r="N65" s="5">
-        <v>233.33591657512488</v>
+        <v>223.9711680829526</v>
       </c>
       <c r="O65" s="5">
-        <v>117.31718310625054</v>
+        <v>148.57235745707501</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S65" s="5">
         <v>0.22587493537817402</v>
       </c>
       <c r="T65" s="5">
-        <v>0.22254186868667603</v>
+        <v>0.21590295433998102</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A66" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C66" s="5">
-        <v>105694360</v>
+        <v>113125472</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="5">
-        <v>2963329.75</v>
+        <v>2941502.25</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5">
-        <v>2.2734973263106579</v>
+        <v>-3.5967717930197369</v>
       </c>
       <c r="I66" s="5">
-        <v>-7.1544832985457667</v>
+        <v>1.272955030402922</v>
       </c>
       <c r="J66" s="5">
-        <v>43.865639998535144</v>
+        <v>56.246245840319673</v>
       </c>
       <c r="K66" s="5">
-        <v>68.954243603084109</v>
+        <v>79.194578763264545</v>
       </c>
       <c r="L66" s="5">
-        <v>159.085787931331</v>
+        <v>158.06371722022951</v>
       </c>
       <c r="M66" s="5">
-        <v>68.954243603084109</v>
+        <v>70.440903430590268</v>
       </c>
       <c r="N66" s="5">
-        <v>558.46146718024579</v>
+        <v>536.92643679966432</v>
       </c>
       <c r="O66" s="5">
-        <v>690.20182043778698</v>
+        <v>780.78295150453914</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S66" s="5">
         <v>3.136226523511763</v>
       </c>
       <c r="T66" s="5">
-        <v>2.7049002647399902</v>
+        <v>2.728701114654541</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\05.04.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\06.04.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="209">
   <si>
     <t>USD</t>
   </si>
@@ -351,21 +351,21 @@
     <t>NTT UD REIT INVE</t>
   </si>
   <si>
+    <t>ALEX US Equity</t>
+  </si>
+  <si>
+    <t>ALEXANDER &amp; BALD</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
     <t>8957 JP Equity</t>
   </si>
   <si>
     <t>TOKYU REIT INC</t>
   </si>
   <si>
-    <t>ALEX US Equity</t>
-  </si>
-  <si>
-    <t>ALEXANDER &amp; BALD</t>
-  </si>
-  <si>
-    <t>04/04/2023</t>
-  </si>
-  <si>
     <t>8966 JP Equity</t>
   </si>
   <si>
@@ -378,9 +378,6 @@
     <t>GLOBAL NET LEASE</t>
   </si>
   <si>
-    <t>01/17/2023</t>
-  </si>
-  <si>
     <t>405 HK Equity</t>
   </si>
   <si>
@@ -426,6 +423,21 @@
     <t>ARMADA HOFFLER P</t>
   </si>
   <si>
+    <t>RIT1 IT Equity</t>
+  </si>
+  <si>
+    <t>REIT 1 LTD</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>04/20/2023</t>
+  </si>
+  <si>
+    <t>ILs</t>
+  </si>
+  <si>
     <t>CNI AU Equity</t>
   </si>
   <si>
@@ -441,18 +453,6 @@
     <t>UK COMMERCIAL PR</t>
   </si>
   <si>
-    <t>RIT1 IT Equity</t>
-  </si>
-  <si>
-    <t>REIT 1 LTD</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>ILs</t>
-  </si>
-  <si>
     <t>3468 JP Equity</t>
   </si>
   <si>
@@ -468,9 +468,6 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>04/20/2023</t>
-  </si>
-  <si>
     <t>TWD</t>
   </si>
   <si>
@@ -573,18 +570,18 @@
     <t>11/25/2019</t>
   </si>
   <si>
+    <t>NXDT US Equity</t>
+  </si>
+  <si>
+    <t>NEXPOINT DIVERSI</t>
+  </si>
+  <si>
     <t>CTO US Equity</t>
   </si>
   <si>
     <t>CTO REALTY GROWT</t>
   </si>
   <si>
-    <t>NXDT US Equity</t>
-  </si>
-  <si>
-    <t>NEXPOINT DIVERSI</t>
-  </si>
-  <si>
     <t>PSGYO TI Equity</t>
   </si>
   <si>
@@ -597,43 +594,37 @@
     <t>ESCON JAPAN REIT</t>
   </si>
   <si>
-    <t>ALKHABEE AB Equity</t>
-  </si>
-  <si>
-    <t>ALKHABEER REIT</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
     <t>PINE US Equity</t>
   </si>
   <si>
     <t>ALPINE INCOME</t>
   </si>
   <si>
+    <t>3470 JP Equity</t>
+  </si>
+  <si>
+    <t>MARIMO REGIONAL</t>
+  </si>
+  <si>
     <t>2989 JP Equity</t>
   </si>
   <si>
     <t>TOKAIDO REIT INC</t>
   </si>
   <si>
+    <t>ALGYO TI Equity</t>
+  </si>
+  <si>
+    <t>ALARKO GAYRIMENK</t>
+  </si>
+  <si>
+    <t>04/27/2023</t>
+  </si>
+  <si>
     <t>AKSGY TI Equity</t>
   </si>
   <si>
     <t>AKIS GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>ALGYO TI Equity</t>
-  </si>
-  <si>
-    <t>ALARKO GAYRIMENK</t>
-  </si>
-  <si>
-    <t>04/27/2023</t>
   </si>
   <si>
     <t>KLGYO TI Equity</t>
@@ -1140,7 +1131,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
@@ -1231,7 +1222,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>16064138240</v>
+        <v>15901959168</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1240,34 +1231,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>87482448</v>
+        <v>90149968</v>
       </c>
       <c r="G2" s="5">
-        <v>5.6529803276062012</v>
+        <v>5.7311668395996094</v>
       </c>
       <c r="H2" s="5">
-        <v>-1.0095669030508621</v>
+        <v>-1.3642367937706901</v>
       </c>
       <c r="I2" s="5">
-        <v>-0.52650127448731199</v>
+        <v>-3.4642540309221199</v>
       </c>
       <c r="J2" s="5">
-        <v>-7.0831962873600274</v>
+        <v>-8.3508015112035654</v>
       </c>
       <c r="K2" s="5">
-        <v>-3.2669511199738039</v>
+        <v>-3.3282892553413661</v>
       </c>
       <c r="L2" s="5">
-        <v>5.3552339351658604</v>
+        <v>4.0451026563823822</v>
       </c>
       <c r="M2" s="5">
-        <v>-2.0539312595474808</v>
+        <v>-3.3901475673566721</v>
       </c>
       <c r="N2" s="5">
-        <v>-1.5252931173934341</v>
+        <v>-1.777486671541773</v>
       </c>
       <c r="O2" s="5">
-        <v>77.978682526583441</v>
+        <v>75.550631854487449</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1282,7 +1273,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>75.5</v>
+        <v>74.470001220703125</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1293,7 +1284,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6693999616</v>
+        <v>6617373184</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1302,34 +1293,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>34435964</v>
+        <v>35793776</v>
       </c>
       <c r="G3" s="5">
-        <v>6.3768119812011719</v>
+        <v>6.3691196441650391</v>
       </c>
       <c r="H3" s="5">
-        <v>0.99621290284979103</v>
+        <v>-0.91024847966514311</v>
       </c>
       <c r="I3" s="5">
-        <v>6.3249651043823407</v>
+        <v>6.1010349252410778</v>
       </c>
       <c r="J3" s="5">
-        <v>10.897965443962732</v>
+        <v>9.8885183995294881</v>
       </c>
       <c r="K3" s="5">
-        <v>12.537957849967562</v>
+        <v>13.166858979636142</v>
       </c>
       <c r="L3" s="5">
-        <v>30.828179475574615</v>
+        <v>31.297816913621233</v>
       </c>
       <c r="M3" s="5">
-        <v>12.967043597562711</v>
+        <v>11.988815759290162</v>
       </c>
       <c r="N3" s="5">
-        <v>-8.0730137223739344</v>
+        <v>-8.2504068847851109</v>
       </c>
       <c r="O3" s="5">
-        <v>134.12139976225959</v>
+        <v>131.99031328035284</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1341,10 +1332,10 @@
         <v>32</v>
       </c>
       <c r="S3" s="5">
-        <v>3.2121000521789389</v>
+        <v>3.195990152521694</v>
       </c>
       <c r="T3" s="5">
-        <v>2.7962701320648193</v>
+        <v>2.7708170413970952</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1355,7 +1346,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5830362112</v>
+        <v>5698096640</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -1364,34 +1355,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>14162865</v>
+        <v>14282048</v>
       </c>
       <c r="G4" s="5">
-        <v>6.2937064170837402</v>
+        <v>6.4181523323059082</v>
       </c>
       <c r="H4" s="5">
-        <v>0.526820796387795</v>
+        <v>-2.2686141698670892</v>
       </c>
       <c r="I4" s="5">
-        <v>10.333646183944323</v>
+        <v>4.620856349055158</v>
       </c>
       <c r="J4" s="5">
-        <v>-1.0346855334767759</v>
+        <v>-3.279826680717846</v>
       </c>
       <c r="K4" s="5">
-        <v>0.54096231716835907</v>
+        <v>-0.42781661752590006</v>
       </c>
       <c r="L4" s="5">
-        <v>33.069686853551893</v>
+        <v>37.16772787557521</v>
       </c>
       <c r="M4" s="5">
-        <v>5.9552225004591675</v>
+        <v>3.5681434169145598</v>
       </c>
       <c r="N4" s="5">
-        <v>-17.530664188635072</v>
+        <v>-20.703849232544826</v>
       </c>
       <c r="O4" s="5">
-        <v>42.240571626759824</v>
+        <v>39.013681863535197</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1403,10 +1394,10 @@
         <v>37</v>
       </c>
       <c r="S4" s="5">
-        <v>10.285581202101721</v>
+        <v>10.26630500135658</v>
       </c>
       <c r="T4" s="5">
-        <v>7.8612246513366699</v>
+        <v>7.6828837394714364</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1417,7 +1408,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5785692672</v>
+        <v>5667707392</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1426,34 +1417,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>31273134</v>
+        <v>31240888</v>
       </c>
       <c r="G5" s="5">
-        <v>4.7247705459594727</v>
+        <v>4.8018646240234384</v>
       </c>
       <c r="H5" s="5">
-        <v>1.634475221058707</v>
+        <v>-1.806932383156679</v>
       </c>
       <c r="I5" s="5">
-        <v>3.7800060648340179</v>
+        <v>3.3467441103394391</v>
       </c>
       <c r="J5" s="5">
-        <v>-0.78266716766424205</v>
+        <v>-2.5754572843160521</v>
       </c>
       <c r="K5" s="5">
-        <v>-1.5631830152619259</v>
+        <v>-1.908837273944719</v>
       </c>
       <c r="L5" s="5">
-        <v>12.917016535056103</v>
+        <v>12.07300105820539</v>
       </c>
       <c r="M5" s="5">
-        <v>0.66776290549144202</v>
+        <v>-1.1070356822942</v>
       </c>
       <c r="N5" s="5">
-        <v>-20.450962101129221</v>
+        <v>-20.231993133443893</v>
       </c>
       <c r="O5" s="5">
-        <v>37.297769992183639</v>
+        <v>34.816892124842916</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>30</v>
@@ -1465,10 +1456,10 @@
         <v>32</v>
       </c>
       <c r="S5" s="5">
-        <v>1.8905319792629252</v>
+        <v>1.8674999475</v>
       </c>
       <c r="T5" s="5">
-        <v>1.462146043777466</v>
+        <v>1.435726046562195</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1479,7 +1470,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5552785920</v>
+        <v>5567234560</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1488,34 +1479,34 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>22646664</v>
+        <v>22969900</v>
       </c>
       <c r="G6" s="5">
-        <v>5.8479533195495614</v>
+        <v>5.7870368957519531</v>
       </c>
       <c r="H6" s="5">
-        <v>-1.3968789581434879</v>
+        <v>0.49799161192505303</v>
       </c>
       <c r="I6" s="5">
-        <v>1.377499701133811</v>
+        <v>3.0675096628174581</v>
       </c>
       <c r="J6" s="5">
-        <v>-6.6367151196595087</v>
+        <v>-6.1717737923377092</v>
       </c>
       <c r="K6" s="5">
-        <v>-0.86997220178474111</v>
+        <v>0.62825354758910801</v>
       </c>
       <c r="L6" s="5">
-        <v>13.234122135111637</v>
+        <v>14.75156742225856</v>
       </c>
       <c r="M6" s="5">
-        <v>0.92954441275223709</v>
+        <v>1.4775200544067111</v>
       </c>
       <c r="N6" s="5">
-        <v>-22.63971890238907</v>
+        <v>-21.124160270082935</v>
       </c>
       <c r="O6" s="5">
-        <v>61.208985881983892</v>
+        <v>62.011793109345618</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>42</v>
@@ -1527,10 +1518,10 @@
         <v>32</v>
       </c>
       <c r="S6" s="5">
-        <v>3.876929933753682</v>
+        <v>3.871919847578821</v>
       </c>
       <c r="T6" s="5">
-        <v>2.8906018733978271</v>
+        <v>2.9049968719482422</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1541,7 +1532,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5498138112</v>
+        <v>5472582656</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1550,34 +1541,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>13376911</v>
+        <v>13870822</v>
       </c>
       <c r="G7" s="5">
-        <v>4.4383563995361328</v>
+        <v>4.4733729362487793</v>
       </c>
       <c r="H7" s="5">
-        <v>0.76966719305944209</v>
+        <v>-0.45757609036561903</v>
       </c>
       <c r="I7" s="5">
-        <v>2.714669980061668</v>
+        <v>3.1473556557539029</v>
       </c>
       <c r="J7" s="5">
-        <v>6.0398477670258854</v>
+        <v>5.5546347773838933</v>
       </c>
       <c r="K7" s="5">
-        <v>-2.0632353872101161</v>
+        <v>-1.075441262997934</v>
       </c>
       <c r="L7" s="5">
-        <v>6.04014751366726</v>
+        <v>6.7265549133912916</v>
       </c>
       <c r="M7" s="5">
-        <v>-4.3294228785356159</v>
+        <v>-4.6654530027912324</v>
       </c>
       <c r="N7" s="5">
-        <v>-8.840876927306196</v>
+        <v>-9.1927578396992402</v>
       </c>
       <c r="O7" s="5">
-        <v>24.543895703199325</v>
+        <v>23.974012614451603</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>46</v>
@@ -1590,7 +1581,7 @@
         <v>1313.4164510311298</v>
       </c>
       <c r="T7" s="5">
-        <v>1164.716552734375</v>
+        <v>1159.38720703125</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1601,7 +1592,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5302999552</v>
+        <v>5285641216</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1610,34 +1601,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>10925076</v>
+        <v>10785541</v>
       </c>
       <c r="G8" s="5">
-        <v>2.4578883647918701</v>
+        <v>2.4647104740142822</v>
       </c>
       <c r="H8" s="5">
-        <v>0.67808883295161804</v>
+        <v>-1.349971020286256</v>
       </c>
       <c r="I8" s="5">
-        <v>1.8048009828632861</v>
+        <v>2.8160774916808001E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>-3.2655466271678368</v>
+        <v>-4.5714337143333843</v>
       </c>
       <c r="K8" s="5">
-        <v>18.32267722120411</v>
+        <v>15.956232266269632</v>
       </c>
       <c r="L8" s="5">
-        <v>42.404430150646633</v>
+        <v>43.493618403892739</v>
       </c>
       <c r="M8" s="5">
-        <v>23.673449653537659</v>
+        <v>22.085138297937146</v>
       </c>
       <c r="N8" s="5">
-        <v>33.717941360729057</v>
+        <v>32.35114104910997</v>
       </c>
       <c r="O8" s="5">
-        <v>141.23447185233724</v>
+        <v>137.97787639139011</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1652,7 +1643,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.394418001174927</v>
+        <v>1.375593781471252</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1663,7 +1654,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4967521280</v>
+        <v>4992292864</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1672,34 +1663,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>9824585</v>
+        <v>10234393</v>
       </c>
       <c r="G9" s="5">
-        <v>3.978685617446899</v>
+        <v>3.9716312885284419</v>
       </c>
       <c r="H9" s="5">
-        <v>1.1773331307184389</v>
+        <v>0.50597055241632405</v>
       </c>
       <c r="I9" s="5">
-        <v>3.3918170980167028</v>
+        <v>4.4845557907617462</v>
       </c>
       <c r="J9" s="5">
-        <v>5.0533743835418532</v>
+        <v>5.5849135222422408</v>
       </c>
       <c r="K9" s="5">
-        <v>-0.276003817262371</v>
+        <v>1.1415204349168431</v>
       </c>
       <c r="L9" s="5">
-        <v>3.1748167984714692</v>
+        <v>5.1045343671816568</v>
       </c>
       <c r="M9" s="5">
-        <v>-2.5768319105593629</v>
+        <v>-1.979297295279181</v>
       </c>
       <c r="N9" s="5">
-        <v>-18.080210489724102</v>
+        <v>-17.843552365206115</v>
       </c>
       <c r="O9" s="5">
-        <v>3.1322232160508001</v>
+        <v>3.654041895576277</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1709,10 +1700,10 @@
         <v>47</v>
       </c>
       <c r="S9" s="5">
-        <v>2663.0083925112976</v>
+        <v>2640.8875311520219</v>
       </c>
       <c r="T9" s="5">
-        <v>2138.732666015625</v>
+        <v>2149.55419921875</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1723,7 +1714,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4500636672</v>
+        <v>4413926400</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -1732,34 +1723,34 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>16129004</v>
+        <v>16320879</v>
       </c>
       <c r="G10" s="5">
-        <v>5.9716863632202148</v>
+        <v>6.0685329437255859</v>
       </c>
       <c r="H10" s="5">
-        <v>0.36908568025475502</v>
+        <v>-1.926680207483833</v>
       </c>
       <c r="I10" s="5">
-        <v>8.1465628303842195</v>
+        <v>3.3791380030913749</v>
       </c>
       <c r="J10" s="5">
-        <v>-8.9942701006014207</v>
+        <v>-10.747659486249328</v>
       </c>
       <c r="K10" s="5">
-        <v>-2.54827182948224</v>
+        <v>-2.3691373378484371</v>
       </c>
       <c r="L10" s="5">
-        <v>22.946357443694442</v>
+        <v>27.283859173448242</v>
       </c>
       <c r="M10" s="5">
-        <v>1.5481267691666472</v>
+        <v>-0.39238095993439104</v>
       </c>
       <c r="N10" s="5">
-        <v>-24.922274120694631</v>
+        <v>-27.952858584035177</v>
       </c>
       <c r="O10" s="5">
-        <v>39.762006617513435</v>
+        <v>37.069239698431545</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1774,7 +1765,7 @@
         <v>7.0465491486094116</v>
       </c>
       <c r="T10" s="5">
-        <v>4.8539190292358398</v>
+        <v>4.760399341583252</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1785,7 +1776,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4106452992</v>
+        <v>4000570368</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1794,34 +1785,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9438832</v>
+        <v>9133867</v>
       </c>
       <c r="G11" s="5">
-        <v>2.0313479900360112</v>
+        <v>2.0729365348815918</v>
       </c>
       <c r="H11" s="5">
-        <v>-0.59830721878653104</v>
+        <v>-2.4449368164686009</v>
       </c>
       <c r="I11" s="5">
-        <v>5.7320878026022148</v>
+        <v>0.44444250568447302</v>
       </c>
       <c r="J11" s="5">
-        <v>-7.3738607912114169</v>
+        <v>-9.6385113704005487</v>
       </c>
       <c r="K11" s="5">
-        <v>-8.5060536344598212</v>
+        <v>-8.925960785909826</v>
       </c>
       <c r="L11" s="5">
-        <v>9.5691315054932105</v>
+        <v>11.884318846303877</v>
       </c>
       <c r="M11" s="5">
-        <v>-7.1228262884890707</v>
+        <v>-9.3936145026573001</v>
       </c>
       <c r="N11" s="5">
-        <v>-16.589949122876902</v>
+        <v>-18.174483369409078</v>
       </c>
       <c r="O11" s="5">
-        <v>37.674362468921039</v>
+        <v>34.308311294079964</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1836,7 +1827,7 @@
         <v>11.852492330932618</v>
       </c>
       <c r="T11" s="5">
-        <v>8.7294349670410156</v>
+        <v>8.5160055160522461</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1847,7 +1838,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3796327680</v>
+        <v>3762500608</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1856,34 +1847,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>21934444</v>
+        <v>21997268</v>
       </c>
       <c r="G12" s="5">
-        <v>4.4953007698059082</v>
+        <v>4.5624222755432129</v>
       </c>
       <c r="H12" s="5">
-        <v>-0.89105393254104204</v>
+        <v>-1.471183952205757</v>
       </c>
       <c r="I12" s="5">
-        <v>3.2857541829503178</v>
+        <v>0.8403103919196081</v>
       </c>
       <c r="J12" s="5">
-        <v>-5.5087252134285443</v>
+        <v>-6.8988656843232192</v>
       </c>
       <c r="K12" s="5">
-        <v>6.4398491212734674</v>
+        <v>6.1985587740278847</v>
       </c>
       <c r="L12" s="5">
-        <v>24.756959139028755</v>
+        <v>23.971644365714752</v>
       </c>
       <c r="M12" s="5">
-        <v>5.4421264954376491</v>
+        <v>3.8908788515722659</v>
       </c>
       <c r="N12" s="5">
-        <v>0.50957817215429002</v>
+        <v>-0.85282242266701003</v>
       </c>
       <c r="O12" s="5">
-        <v>177.6548813336444</v>
+        <v>173.5700672769479</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1898,7 +1889,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.469999313354492</v>
+        <v>24.110000610351563</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1909,7 +1900,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3618177792</v>
+        <v>3592067072</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>68</v>
@@ -1918,34 +1909,34 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8429949</v>
+        <v>8196595.5</v>
       </c>
       <c r="G13" s="5">
-        <v>10.013875961303711</v>
+        <v>10.358852386474609</v>
       </c>
       <c r="H13" s="5">
-        <v>0.38417552523335502</v>
+        <v>-3.762997566244997</v>
       </c>
       <c r="I13" s="5">
-        <v>7.2598785298083168</v>
+        <v>2.40107232383775</v>
       </c>
       <c r="J13" s="5">
-        <v>-6.8067832444693046</v>
+        <v>-10.313641722885347</v>
       </c>
       <c r="K13" s="5">
-        <v>8.7537314885876896</v>
+        <v>5.4758485209792873</v>
       </c>
       <c r="L13" s="5">
-        <v>27.534038887060053</v>
+        <v>29.663413356725044</v>
       </c>
       <c r="M13" s="5">
-        <v>14.816974408440409</v>
+        <v>10.496414455814662</v>
       </c>
       <c r="N13" s="5">
-        <v>-21.481294446933596</v>
+        <v>-21.269484951099471</v>
       </c>
       <c r="O13" s="5">
-        <v>-22.106153652862272</v>
+        <v>-25.037297195159681</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>42</v>
@@ -1960,7 +1951,7 @@
         <v>67.437240827178954</v>
       </c>
       <c r="T13" s="5">
-        <v>47.33050537109375</v>
+        <v>45.549457550048828</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1971,7 +1962,7 @@
         <v>71</v>
       </c>
       <c r="C14" s="5">
-        <v>3518842112</v>
+        <v>3495407360</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -1980,34 +1971,34 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>21161422</v>
+        <v>20501126</v>
       </c>
       <c r="G14" s="5">
-        <v>3.7469387054443359</v>
+        <v>3.7486386299133301</v>
       </c>
       <c r="H14" s="5">
-        <v>-3.0840234729028859</v>
+        <v>-0.43039543232741301</v>
       </c>
       <c r="I14" s="5">
-        <v>-1.0063426811184</v>
+        <v>-0.36529079071756504</v>
       </c>
       <c r="J14" s="5">
-        <v>-14.53139707498754</v>
+        <v>-14.899250038050837</v>
       </c>
       <c r="K14" s="5">
-        <v>-11.527397752459944</v>
+        <v>-10.01448966576649</v>
       </c>
       <c r="L14" s="5">
-        <v>-5.3231173242096474</v>
+        <v>-7.666631392825451</v>
       </c>
       <c r="M14" s="5">
-        <v>-9.1885057527036125</v>
+        <v>-9.5389230551556352</v>
       </c>
       <c r="N14" s="5">
-        <v>-38.902599834953563</v>
+        <v>-39.718829183962391</v>
       </c>
       <c r="O14" s="5">
-        <v>91.574132857856767</v>
+        <v>90.749606540515714</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>30</v>
@@ -2019,10 +2010,10 @@
         <v>32</v>
       </c>
       <c r="S14" s="5">
-        <v>12.540779622767003</v>
+        <v>12.443280092553131</v>
       </c>
       <c r="T14" s="5">
-        <v>7.4185380935668954</v>
+        <v>7.3866090774536133</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2033,7 +2024,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5">
-        <v>3466971648</v>
+        <v>3435522816</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -2042,34 +2033,34 @@
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7843956</v>
+        <v>8020487.5</v>
       </c>
       <c r="G15" s="5">
-        <v>4.3018355369567871</v>
+        <v>4.3551273345947266</v>
       </c>
       <c r="H15" s="5">
-        <v>0.77521584596838011</v>
+        <v>-0.89989966211038208</v>
       </c>
       <c r="I15" s="5">
-        <v>3.5094586323402899</v>
+        <v>3.4626976700860901</v>
       </c>
       <c r="J15" s="5">
-        <v>2.298634706976066</v>
+        <v>1.3780496389044661</v>
       </c>
       <c r="K15" s="5">
-        <v>-1.1085599352286259</v>
+        <v>-1.2171629519530101</v>
       </c>
       <c r="L15" s="5">
-        <v>7.7890362532790691</v>
+        <v>8.3400995404694598</v>
       </c>
       <c r="M15" s="5">
-        <v>-2.7767248725094733</v>
+        <v>-3.548709510084946</v>
       </c>
       <c r="N15" s="5">
-        <v>0.41119484707443604</v>
+        <v>-0.57944302349349808</v>
       </c>
       <c r="O15" s="5">
-        <v>42.191166416134607</v>
+        <v>40.911588590004989</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
@@ -2082,7 +2073,7 @@
         <v>1187.971105527638</v>
       </c>
       <c r="T15" s="5">
-        <v>1117.611328125</v>
+        <v>1107.553955078125</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2093,7 +2084,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="5">
-        <v>3158532352</v>
+        <v>3150923776</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>76</v>
@@ -2102,34 +2093,34 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>12182840</v>
+        <v>11406920</v>
       </c>
       <c r="G16" s="5">
-        <v>5.4896550178527832</v>
+        <v>5.5277776718139648</v>
       </c>
       <c r="H16" s="5">
-        <v>0.11311064156438501</v>
+        <v>-0.23320645917547203</v>
       </c>
       <c r="I16" s="5">
-        <v>2.2127816935715532</v>
+        <v>2.135729839066824</v>
       </c>
       <c r="J16" s="5">
-        <v>5.0865024024414396</v>
+        <v>4.8414338911173527</v>
       </c>
       <c r="K16" s="5">
-        <v>8.5822512966487796</v>
+        <v>7.8647027996392449</v>
       </c>
       <c r="L16" s="5">
-        <v>5.6436617605021944</v>
+        <v>4.8847849797178933</v>
       </c>
       <c r="M16" s="5">
-        <v>7.5945326408865199</v>
+        <v>7.416342333652759</v>
       </c>
       <c r="N16" s="5">
-        <v>-12.114406662426713</v>
+        <v>-12.209506022184913</v>
       </c>
       <c r="O16" s="5">
-        <v>63.450738748978218</v>
+        <v>63.069561068645584</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>77</v>
@@ -2144,7 +2135,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T16" s="5">
-        <v>1.0933494567871089</v>
+        <v>1.0907996892929079</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2155,7 +2146,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="5">
-        <v>3143147520</v>
+        <v>3148763648</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>23</v>
@@ -2164,31 +2155,31 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>16841992</v>
+        <v>16802434</v>
       </c>
       <c r="G17" s="5">
-        <v>6.5398340225219727</v>
+        <v>6.5907726287841797</v>
       </c>
       <c r="H17" s="5">
-        <v>0.17867050423523401</v>
+        <v>-0.7728844418861901</v>
       </c>
       <c r="I17" s="5">
-        <v>2.0027108113904069</v>
+        <v>0.37589482791016104</v>
       </c>
       <c r="J17" s="5">
-        <v>-5.8090609546215255</v>
+        <v>-6.5370480681697707</v>
       </c>
       <c r="K17" s="5">
-        <v>2.0027108113904069</v>
+        <v>3.184457181130651</v>
       </c>
       <c r="L17" s="5">
-        <v>5.4240990693331437</v>
+        <v>6.8777725603255355</v>
       </c>
       <c r="M17" s="5">
-        <v>5.4636378069100378</v>
+        <v>4.6485257584532258</v>
       </c>
       <c r="N17" s="5">
-        <v>-18.791092414997244</v>
+        <v>-18.420715533125765</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
@@ -2204,7 +2195,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T17" s="5">
-        <v>16.819999694824219</v>
+        <v>16.690000534057617</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2215,7 +2206,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="5">
-        <v>2564434176</v>
+        <v>2528196352</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>83</v>
@@ -2224,34 +2215,34 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9667318</v>
+        <v>9764429</v>
       </c>
       <c r="G18" s="5">
-        <v>4.838709831237793</v>
+        <v>4.8780488967895508</v>
       </c>
       <c r="H18" s="5">
-        <v>-1.508669733425771</v>
+        <v>-0.94631654366258411</v>
       </c>
       <c r="I18" s="5">
-        <v>4.0322364181772041</v>
+        <v>1.471197320318818</v>
       </c>
       <c r="J18" s="5">
-        <v>-3.9585987702479559</v>
+        <v>-4.8674544388504604</v>
       </c>
       <c r="K18" s="5">
-        <v>2.7304098121310849</v>
+        <v>4.509127648622191</v>
       </c>
       <c r="L18" s="5">
-        <v>15.994276369202677</v>
+        <v>17.545063307401886</v>
       </c>
       <c r="M18" s="5">
-        <v>4.1642563105551034</v>
+        <v>3.2858413036089829</v>
       </c>
       <c r="N18" s="5">
-        <v>-5.1581788153186263</v>
+        <v>-6.639803831481494</v>
       </c>
       <c r="O18" s="5">
-        <v>143.72591214202188</v>
+        <v>141.41949351422934</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>25</v>
@@ -2266,7 +2257,7 @@
         <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>9.2152194976806641</v>
+        <v>9.1280145645141602</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2277,7 +2268,7 @@
         <v>86</v>
       </c>
       <c r="C19" s="5">
-        <v>2525016320</v>
+        <v>2525679360</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>87</v>
@@ -2286,34 +2277,34 @@
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>9892396</v>
+        <v>9519359</v>
       </c>
       <c r="G19" s="5">
-        <v>9.8572502136230469</v>
+        <v>9.8277158737182617</v>
       </c>
       <c r="H19" s="5">
-        <v>0.39320199637833403</v>
+        <v>-0.48774977286847304</v>
       </c>
       <c r="I19" s="5">
-        <v>3.7348577889771972</v>
+        <v>2.8673617208976321</v>
       </c>
       <c r="J19" s="5">
-        <v>1.686129369536471</v>
+        <v>1.190155504497814</v>
       </c>
       <c r="K19" s="5">
-        <v>-15.525222634010937</v>
+        <v>-13.032611616167166</v>
       </c>
       <c r="L19" s="5">
-        <v>15.864443444495002</v>
+        <v>16.834819764790289</v>
       </c>
       <c r="M19" s="5">
-        <v>-12.926797311207583</v>
+        <v>-13.469878324282746</v>
       </c>
       <c r="N19" s="5">
-        <v>-19.013338785844059</v>
+        <v>-19.502858804645463</v>
       </c>
       <c r="O19" s="5">
-        <v>59.990341942170303</v>
+        <v>59.209989412735872</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>30</v>
@@ -2325,10 +2316,10 @@
         <v>89</v>
       </c>
       <c r="S19" s="5">
-        <v>0.9969585943729391</v>
+        <v>0.99056022140322508</v>
       </c>
       <c r="T19" s="5">
-        <v>0.74302744865417503</v>
+        <v>0.73940324783325206</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2339,7 +2330,7 @@
         <v>91</v>
       </c>
       <c r="C20" s="5">
-        <v>2509512448</v>
+        <v>2477434624</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -2348,34 +2339,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>6811607.5</v>
+        <v>7242114</v>
       </c>
       <c r="G20" s="5">
-        <v>4.9269590377807617</v>
+        <v>5.0067477226257324</v>
       </c>
       <c r="H20" s="5">
-        <v>1.446538872033676</v>
+        <v>-1.2710804230625981</v>
       </c>
       <c r="I20" s="5">
-        <v>6.8793323349039648</v>
+        <v>6.5784527253839764</v>
       </c>
       <c r="J20" s="5">
-        <v>9.5200185933035364</v>
+        <v>8.1279310776295244</v>
       </c>
       <c r="K20" s="5">
-        <v>1.244397510228201</v>
+        <v>0.8894741999898591</v>
       </c>
       <c r="L20" s="5">
-        <v>1.8087876954981712</v>
+        <v>2.9916654385725661</v>
       </c>
       <c r="M20" s="5">
-        <v>0.47053035498325602</v>
+        <v>-0.70056422317628109</v>
       </c>
       <c r="N20" s="5">
-        <v>-10.545655402313937</v>
+        <v>-11.186617808967858</v>
       </c>
       <c r="O20" s="5">
-        <v>16.936624428110768</v>
+        <v>15.450265887614822</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2385,10 +2376,10 @@
         <v>47</v>
       </c>
       <c r="S20" s="5">
-        <v>658.48934796643005</v>
+        <v>652.78559369724246</v>
       </c>
       <c r="T20" s="5">
-        <v>572.10150146484375</v>
+        <v>564.82965087890625</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2399,7 +2390,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="5">
-        <v>2469151232</v>
+        <v>2452262912</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>45</v>
@@ -2408,34 +2399,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>7769749.5</v>
+        <v>8064409.5</v>
       </c>
       <c r="G21" s="5">
-        <v>4.6558198928833008</v>
+        <v>4.7029075622558594</v>
       </c>
       <c r="H21" s="5">
-        <v>1.0174896150572099</v>
+        <v>-0.67676487449023204</v>
       </c>
       <c r="I21" s="5">
-        <v>7.1419750672912619</v>
+        <v>6.2155336232442071</v>
       </c>
       <c r="J21" s="5">
-        <v>8.1487624417708062</v>
+        <v>7.4168496053690145</v>
       </c>
       <c r="K21" s="5">
-        <v>-2.4672044196650589</v>
+        <v>-1.541593446893408</v>
       </c>
       <c r="L21" s="5">
-        <v>2.9378062622107182</v>
+        <v>3.5631730210452521</v>
       </c>
       <c r="M21" s="5">
-        <v>-3.7170743977935068</v>
+        <v>-4.2665221400914222</v>
       </c>
       <c r="N21" s="5">
-        <v>-9.0141757824117708</v>
+        <v>-9.1176787037319134</v>
       </c>
       <c r="O21" s="5">
-        <v>30.01319648752483</v>
+        <v>29.133312841495297</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2445,10 +2436,10 @@
         <v>47</v>
       </c>
       <c r="S21" s="5">
-        <v>3421.5622982569403</v>
+        <v>3404.6145188519977</v>
       </c>
       <c r="T21" s="5">
-        <v>3035.2529296875</v>
+        <v>3014.71142578125</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2459,7 +2450,7 @@
         <v>95</v>
       </c>
       <c r="C22" s="5">
-        <v>2141334528</v>
+        <v>2078621952</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>35</v>
@@ -2468,34 +2459,34 @@
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>8181382</v>
+        <v>8123106.5</v>
       </c>
       <c r="G22" s="5">
-        <v>6.2281146049499512</v>
+        <v>6.3944530487060547</v>
       </c>
       <c r="H22" s="5">
-        <v>1.544411806776802</v>
+        <v>-2.9287148693523219</v>
       </c>
       <c r="I22" s="5">
-        <v>7.5074964666769217</v>
+        <v>2.905920750736191</v>
       </c>
       <c r="J22" s="5">
-        <v>-4.9561652905759654</v>
+        <v>-7.7397282101135065</v>
       </c>
       <c r="K22" s="5">
-        <v>-9.4185046718186509</v>
+        <v>-11.050856338833093</v>
       </c>
       <c r="L22" s="5">
-        <v>-10.09834860456148</v>
+        <v>-8.5272175495352815</v>
       </c>
       <c r="M22" s="5">
-        <v>-7.0906534184799197</v>
+        <v>-9.7972140308256854</v>
       </c>
       <c r="N22" s="5">
-        <v>-32.078907372703199</v>
+        <v>-34.680452972000467</v>
       </c>
       <c r="O22" s="5">
-        <v>11.854953672460745</v>
+        <v>8.5790410121482363</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
@@ -2510,7 +2501,7 @@
         <v>1.9808639392</v>
       </c>
       <c r="T22" s="5">
-        <v>1.2487752437591551</v>
+        <v>1.212202191352844</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2521,7 +2512,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="5">
-        <v>2076129280</v>
+        <v>2038040320</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2530,34 +2521,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5724619</v>
+        <v>5781782.5</v>
       </c>
       <c r="G23" s="5">
-        <v>6.5804934501647949</v>
+        <v>6.6587395668029794</v>
       </c>
       <c r="H23" s="5">
-        <v>-0.47315564449118602</v>
+        <v>-1.601807013451773</v>
       </c>
       <c r="I23" s="5">
-        <v>2.1262910206006458</v>
+        <v>1.1798652650510939</v>
       </c>
       <c r="J23" s="5">
-        <v>-4.0618660111824134</v>
+        <v>-5.5986097699900483</v>
       </c>
       <c r="K23" s="5">
-        <v>-4.1862402622891643</v>
+        <v>-4.7522827025458181</v>
       </c>
       <c r="L23" s="5">
-        <v>9.8803600905664979</v>
+        <v>8.7434503473134093</v>
       </c>
       <c r="M23" s="5">
-        <v>-3.6038084746263239</v>
+        <v>-5.1054766990367373</v>
       </c>
       <c r="N23" s="5">
-        <v>-24.754934149964914</v>
+        <v>-26.184263386896856</v>
       </c>
       <c r="O23" s="5">
-        <v>38.308102825845268</v>
+        <v>36.092673934608797</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
@@ -2569,10 +2560,10 @@
         <v>32</v>
       </c>
       <c r="S23" s="5">
-        <v>4.0748118558568018</v>
+        <v>4.050624031726354</v>
       </c>
       <c r="T23" s="5">
-        <v>2.863649845123291</v>
+        <v>2.8177797794342041</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2583,7 +2574,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="5">
-        <v>1674724352</v>
+        <v>1663609344</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -2592,34 +2583,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3315928</v>
+        <v>3406439.25</v>
       </c>
       <c r="G24" s="5">
-        <v>4.551994800567627</v>
+        <v>4.5970935821533203</v>
       </c>
       <c r="H24" s="5">
-        <v>-0.27491401626280604</v>
+        <v>-0.65648039625197907</v>
       </c>
       <c r="I24" s="5">
-        <v>2.9318610961546421</v>
+        <v>3.0874862258578828</v>
       </c>
       <c r="J24" s="5">
-        <v>4.920986783354131</v>
+        <v>4.2322010735672766</v>
       </c>
       <c r="K24" s="5">
-        <v>-2.834238361803743</v>
+        <v>-2.4810690485785769</v>
       </c>
       <c r="L24" s="5">
-        <v>0.75528869830248102</v>
+        <v>1.1684312988951011</v>
       </c>
       <c r="M24" s="5">
-        <v>-5.0178477901949954</v>
+        <v>-5.5405853282621038</v>
       </c>
       <c r="N24" s="5">
-        <v>-11.659019414160078</v>
+        <v>-11.847279152719924</v>
       </c>
       <c r="O24" s="5">
-        <v>31.948128210468063</v>
+        <v>31.081914615544925</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2629,10 +2620,10 @@
         <v>47</v>
       </c>
       <c r="S24" s="5">
-        <v>1356.5203357004521</v>
+        <v>1344.9634214969049</v>
       </c>
       <c r="T24" s="5">
-        <v>1161.6776123046875</v>
+        <v>1154.0513916015625</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2643,7 +2634,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="5">
-        <v>1614780544</v>
+        <v>1598885376</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2652,34 +2643,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1806171.25</v>
+        <v>1796690.875</v>
       </c>
       <c r="G25" s="5">
-        <v>6.7628207206726074</v>
+        <v>6.7845664024353027</v>
       </c>
       <c r="H25" s="5">
-        <v>1.239571231348946</v>
+        <v>-0.74952848765717006</v>
       </c>
       <c r="I25" s="5">
-        <v>4.449542244208704</v>
+        <v>4.8311695067525751</v>
       </c>
       <c r="J25" s="5">
-        <v>-4.948220898338E-3</v>
+        <v>-0.75443962023024103</v>
       </c>
       <c r="K25" s="5">
-        <v>2.7166744975252621</v>
+        <v>1.09153545322902</v>
       </c>
       <c r="L25" s="5">
-        <v>4.4950533607097665</v>
+        <v>4.1314947042279782</v>
       </c>
       <c r="M25" s="5">
-        <v>3.4543142868223242</v>
+        <v>2.724807176106459</v>
       </c>
       <c r="N25" s="5">
-        <v>-32.893920137388108</v>
+        <v>-33.089179836703138</v>
       </c>
       <c r="O25" s="5">
-        <v>55.502077489134606</v>
+        <v>54.336545119454804</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2694,7 +2685,7 @@
         <v>3.313469849078821</v>
       </c>
       <c r="T25" s="5">
-        <v>2.1022558212280269</v>
+        <v>2.0864989757537842</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2705,7 +2696,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="5">
-        <v>1600187904</v>
+        <v>1577534464</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2714,34 +2705,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>3039453.5</v>
+        <v>2991097.25</v>
       </c>
       <c r="G26" s="5">
-        <v>6.8738231658935547</v>
+        <v>6.9391632080078134</v>
       </c>
       <c r="H26" s="5">
-        <v>-0.33123363461093902</v>
+        <v>-1.1818634023456731</v>
       </c>
       <c r="I26" s="5">
-        <v>3.1571687708558338</v>
+        <v>2.3958599306436401</v>
       </c>
       <c r="J26" s="5">
-        <v>-4.6434720679691344</v>
+        <v>-5.7704559733453342</v>
       </c>
       <c r="K26" s="5">
-        <v>-5.4565179342647006E-2</v>
+        <v>-0.53372889491838404</v>
       </c>
       <c r="L26" s="5">
-        <v>10.173599902992603</v>
+        <v>9.3949322837404647</v>
       </c>
       <c r="M26" s="5">
-        <v>-0.43643987396768702</v>
+        <v>-1.569151874622388</v>
       </c>
       <c r="N26" s="5">
-        <v>-24.503389923012552</v>
+        <v>-25.675682721343396</v>
       </c>
       <c r="O26" s="5">
-        <v>56.218856943718485</v>
+        <v>54.372563445937949</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2756,7 +2747,7 @@
         <v>2.5316400642105892</v>
       </c>
       <c r="T26" s="5">
-        <v>1.7855700254440312</v>
+        <v>1.7644670009613042</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2767,7 +2758,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="5">
-        <v>1459949056</v>
+        <v>1482272768</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>87</v>
@@ -2776,34 +2767,34 @@
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3283374.5</v>
+        <v>3329320</v>
       </c>
       <c r="G27" s="5">
-        <v>11.307082176208496</v>
+        <v>11.160236358642578</v>
       </c>
       <c r="H27" s="5">
-        <v>1.9015366607697091</v>
+        <v>0.51953468389540602</v>
       </c>
       <c r="I27" s="5">
-        <v>5.5637207449637183</v>
+        <v>5.8218098811438246</v>
       </c>
       <c r="J27" s="5">
-        <v>2.4590525358522353</v>
+        <v>2.991362850566603</v>
       </c>
       <c r="K27" s="5">
-        <v>-12.529882724476771</v>
+        <v>-9.9074549326708006</v>
       </c>
       <c r="L27" s="5">
-        <v>7.0969650108317683</v>
+        <v>11.027342107525872</v>
       </c>
       <c r="M27" s="5">
-        <v>-14.549600187541699</v>
+        <v>-14.223007034027034</v>
       </c>
       <c r="N27" s="5">
-        <v>-23.406246983066659</v>
+        <v>-22.971334102835293</v>
       </c>
       <c r="O27" s="5">
-        <v>136.08483909945494</v>
+        <v>137.3113817219953</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>42</v>
@@ -2818,7 +2809,7 @@
         <v>0.31711016131256003</v>
       </c>
       <c r="T27" s="5">
-        <v>0.21213406324386602</v>
+        <v>0.21323615312576302</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2829,7 +2820,7 @@
         <v>109</v>
       </c>
       <c r="C28" s="5">
-        <v>1455261056</v>
+        <v>1436395136</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>45</v>
@@ -2838,34 +2829,34 @@
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3460726</v>
+        <v>3590699</v>
       </c>
       <c r="G28" s="5">
-        <v>4.5128207206726074</v>
+        <v>4.5867462158203134</v>
       </c>
       <c r="H28" s="5">
-        <v>5.1815649336118007E-2</v>
+        <v>-1.2892358501325529</v>
       </c>
       <c r="I28" s="5">
-        <v>4.393180375743122</v>
+        <v>2.6414305943573302</v>
       </c>
       <c r="J28" s="5">
-        <v>5.4193193321609989</v>
+        <v>4.060215674365053</v>
       </c>
       <c r="K28" s="5">
-        <v>0.78041046809307302</v>
+        <v>-0.43150937031487502</v>
       </c>
       <c r="L28" s="5">
-        <v>2.9938291020018992</v>
+        <v>3.0069274112614952</v>
       </c>
       <c r="M28" s="5">
-        <v>-1.043423920075071</v>
+        <v>-2.2148568771235939</v>
       </c>
       <c r="N28" s="5">
-        <v>-17.376215518206383</v>
+        <v>-17.985057181478403</v>
       </c>
       <c r="O28" s="5">
-        <v>34.436368961809464</v>
+        <v>32.703167097537332</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
@@ -2875,10 +2866,10 @@
         <v>47</v>
       </c>
       <c r="S28" s="5">
-        <v>1302.4531956100711</v>
+        <v>1291.1005707854329</v>
       </c>
       <c r="T28" s="5">
-        <v>1037.076416015625</v>
+        <v>1023.7060546875</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2889,118 +2880,118 @@
         <v>111</v>
       </c>
       <c r="C29" s="5">
-        <v>1375644544</v>
+        <v>1363311104</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>3171826.25</v>
+        <v>6194724</v>
       </c>
       <c r="G29" s="5">
-        <v>3.675675630569458</v>
+        <v>4.7084002494812012</v>
       </c>
       <c r="H29" s="5">
-        <v>0.204881510346788</v>
+        <v>-0.47923402181709901</v>
       </c>
       <c r="I29" s="5">
-        <v>3.2374239356056429</v>
+        <v>4.1225612237633324</v>
       </c>
       <c r="J29" s="5">
-        <v>0.16280876959999802</v>
+        <v>-2.2237222854177841</v>
       </c>
       <c r="K29" s="5">
-        <v>-7.4586121638796303</v>
+        <v>1.391804361414684</v>
       </c>
       <c r="L29" s="5">
-        <v>2.1379878537616248</v>
+        <v>9.2096879442346449</v>
       </c>
       <c r="M29" s="5">
-        <v>-9.4594707977087022</v>
+        <v>1.012866303915771</v>
       </c>
       <c r="N29" s="5">
-        <v>-8.0208451002769188</v>
+        <v>-13.560754819507736</v>
       </c>
       <c r="O29" s="5">
-        <v>48.54655579994818</v>
+        <v>117.87784983839727</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="4"/>
+      <c r="Q29" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="R29" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S29" s="5">
-        <v>1627.7828606282403</v>
+        <v>23.389999389648438</v>
       </c>
       <c r="T29" s="5">
-        <v>1405.5615234375</v>
+        <v>18.690000534057617</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A30" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="5">
-        <v>1372022272</v>
+        <v>1355436288</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>6151973.5</v>
+        <v>3221580.75</v>
       </c>
       <c r="G30" s="5">
-        <v>4.6858358383178711</v>
+        <v>3.742432594299316</v>
       </c>
       <c r="H30" s="5">
-        <v>-0.63491499633213699</v>
+        <v>-1.461861987755531</v>
       </c>
       <c r="I30" s="5">
-        <v>4.7991105284047597</v>
+        <v>2.6380575601610001</v>
       </c>
       <c r="J30" s="5">
-        <v>-1.7528887026282751</v>
+        <v>-1.301433257671059</v>
       </c>
       <c r="K30" s="5">
-        <v>-1.6003278746848699</v>
+        <v>-7.4739854855802026</v>
       </c>
       <c r="L30" s="5">
-        <v>9.2370558391966284</v>
+        <v>1.8121672998320899</v>
       </c>
       <c r="M30" s="5">
-        <v>1.499285411508966</v>
+        <v>-10.687739454251755</v>
       </c>
       <c r="N30" s="5">
-        <v>-15.23741949446662</v>
+        <v>-9.4404013375758318</v>
       </c>
       <c r="O30" s="5">
-        <v>118.92702261371335</v>
+        <v>46.375010166588694</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S30" s="5">
-        <v>23.389999389648438</v>
+        <v>1627.7828606282403</v>
       </c>
       <c r="T30" s="5">
-        <v>18.780000686645508</v>
+        <v>1385.01416015625</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3011,7 +3002,7 @@
         <v>116</v>
       </c>
       <c r="C31" s="5">
-        <v>1356268800</v>
+        <v>1331720448</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>45</v>
@@ -3020,34 +3011,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>2542676.25</v>
+        <v>2611923.75</v>
       </c>
       <c r="G31" s="5">
-        <v>3.9350407123565669</v>
+        <v>4.020421028137207</v>
       </c>
       <c r="H31" s="5">
-        <v>2.953200042761472</v>
+        <v>-1.802864957270411</v>
       </c>
       <c r="I31" s="5">
-        <v>5.2856488202686513</v>
+        <v>3.355447012980028</v>
       </c>
       <c r="J31" s="5">
-        <v>6.4020199279675838</v>
+        <v>4.483735196858385</v>
       </c>
       <c r="K31" s="5">
-        <v>7.2729424108777918</v>
+        <v>6.6045317457650299</v>
       </c>
       <c r="L31" s="5">
-        <v>16.888042803140422</v>
+        <v>16.105162141280815</v>
       </c>
       <c r="M31" s="5">
-        <v>5.0481230843296476</v>
+        <v>3.2644451797869229</v>
       </c>
       <c r="N31" s="5">
-        <v>2.9744471913594421</v>
+        <v>1.9450480514885182</v>
       </c>
       <c r="O31" s="5">
-        <v>76.026159380404806</v>
+        <v>72.852645437306521</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3057,10 +3048,10 @@
         <v>47</v>
       </c>
       <c r="S31" s="5">
-        <v>1221.7559715945772</v>
+        <v>1220.179304057134</v>
       </c>
       <c r="T31" s="5">
-        <v>1216.3804931640625</v>
+        <v>1194.4508056640625</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3071,7 +3062,7 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1331694464</v>
+        <v>1308859520</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>23</v>
@@ -3080,40 +3071,40 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>11021843</v>
+        <v>10784706</v>
       </c>
       <c r="G32" s="5">
-        <v>12.688343048095703</v>
+        <v>12.789768218994141</v>
       </c>
       <c r="H32" s="5">
-        <v>-1.7147331904680101</v>
+        <v>-0.79301689546406007</v>
       </c>
       <c r="I32" s="5">
-        <v>2.1880024372020079</v>
+        <v>-0.15961296500852701</v>
       </c>
       <c r="J32" s="5">
-        <v>-12.793916850547959</v>
+        <v>-13.485475823795545</v>
       </c>
       <c r="K32" s="5">
-        <v>-1.0034759664773301</v>
+        <v>-0.26706076236777704</v>
       </c>
       <c r="L32" s="5">
-        <v>18.522859935432699</v>
+        <v>19.366108750060064</v>
       </c>
       <c r="M32" s="5">
-        <v>3.249355381759012</v>
+        <v>2.4305705491239231</v>
       </c>
       <c r="N32" s="5">
-        <v>-10.24893731286226</v>
+        <v>-9.4196121936908845</v>
       </c>
       <c r="O32" s="5">
-        <v>57.330987386908873</v>
+        <v>56.083326075130245</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>0</v>
@@ -3122,30 +3113,30 @@
         <v>15.840000152587891</v>
       </c>
       <c r="T32" s="5">
-        <v>12.609999656677246</v>
+        <v>12.510000228881836</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="5">
+        <v>1249995136</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="5">
-        <v>1250011008</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1420984</v>
+        <v>1420965.875</v>
       </c>
       <c r="G33" s="5">
-        <v>6.3324542045593262</v>
+        <v>6.3016757965087891</v>
       </c>
       <c r="H33" s="5">
         <v>-0.48765808459646504</v>
@@ -3163,7 +3154,7 @@
         <v>22.290716550629639</v>
       </c>
       <c r="M33" s="5">
-        <v>2.414266184039771</v>
+        <v>2.4129604171742041</v>
       </c>
       <c r="N33" s="5">
         <v>-37.145121224785008</v>
@@ -3175,10 +3166,10 @@
         <v>42</v>
       </c>
       <c r="Q33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R33" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="S33" s="5">
         <v>0.44271498196098902</v>
@@ -3189,13 +3180,13 @@
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C34" s="5">
-        <v>1120803840</v>
+        <v>1105512832</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>45</v>
@@ -3204,34 +3195,34 @@
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>3345599.25</v>
+        <v>3403269.25</v>
       </c>
       <c r="G34" s="5">
-        <v>4.8885498046875</v>
+        <v>4.9720497131347656</v>
       </c>
       <c r="H34" s="5">
-        <v>0.79208095650626908</v>
+        <v>-1.3571253447818401</v>
       </c>
       <c r="I34" s="5">
-        <v>5.2852238611152069</v>
+        <v>3.03275606704192</v>
       </c>
       <c r="J34" s="5">
-        <v>4.6899886471515773</v>
+        <v>3.269214277771848</v>
       </c>
       <c r="K34" s="5">
-        <v>-4.1238240902081502</v>
+        <v>-4.3695402272574402</v>
       </c>
       <c r="L34" s="5">
-        <v>-1.4576199949954631</v>
+        <v>-1.6535189338145351</v>
       </c>
       <c r="M34" s="5">
-        <v>-6.1921804439690309</v>
+        <v>-7.3664168901741665</v>
       </c>
       <c r="N34" s="5">
-        <v>-16.132085496900196</v>
+        <v>-16.704135236864424</v>
       </c>
       <c r="O34" s="5">
-        <v>20.152181036543926</v>
+        <v>18.521565335388821</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
@@ -3241,21 +3232,21 @@
         <v>47</v>
       </c>
       <c r="S34" s="5">
-        <v>3046.3202065848936</v>
+        <v>3014.7117935525362</v>
       </c>
       <c r="T34" s="5">
-        <v>2488.2236328125</v>
+        <v>2454.455322265625</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="C35" s="5">
-        <v>1111136384</v>
+        <v>1100814336</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>23</v>
@@ -3264,40 +3255,40 @@
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>19902448</v>
+        <v>19254148</v>
       </c>
       <c r="G35" s="5">
-        <v>7.2807507514953613</v>
+        <v>7.1544713973999023</v>
       </c>
       <c r="H35" s="5">
-        <v>-0.92896220426975706</v>
+        <v>1.7650392552986731</v>
       </c>
       <c r="I35" s="5">
-        <v>3.3637298428927709</v>
+        <v>2.5000042385525223</v>
       </c>
       <c r="J35" s="5">
-        <v>-25.912581229205312</v>
+        <v>-24.604909204663262</v>
       </c>
       <c r="K35" s="5">
-        <v>-31.765924960284963</v>
+        <v>-29.088632153942051</v>
       </c>
       <c r="L35" s="5">
-        <v>-28.953845723784099</v>
+        <v>-25.187049507290638</v>
       </c>
       <c r="M35" s="5">
-        <v>-30.581486450839435</v>
+        <v>-29.356222436251912</v>
       </c>
       <c r="N35" s="5">
-        <v>-49.711953206548166</v>
+        <v>-47.477254710321979</v>
       </c>
       <c r="O35" s="5">
-        <v>-5.5690411086283698</v>
+        <v>-3.9022976150406952</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>0</v>
@@ -3306,18 +3297,18 @@
         <v>38.110000610351563</v>
       </c>
       <c r="T35" s="5">
-        <v>18.129999160766602</v>
+        <v>18.450000762939453</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="C36" s="5">
-        <v>1060855872</v>
+        <v>1047918656</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3326,60 +3317,60 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>13690275</v>
+        <v>13421259</v>
       </c>
       <c r="G36" s="5">
-        <v>2.1604938507080078</v>
+        <v>2.1739130020141602</v>
       </c>
       <c r="H36" s="5">
-        <v>-1.219511042741839</v>
+        <v>-0.61728336011249707</v>
       </c>
       <c r="I36" s="5">
-        <v>7.1074349550787952</v>
+        <v>2.0602237023738201</v>
       </c>
       <c r="J36" s="5">
-        <v>-15.834417282776469</v>
+        <v>-16.353957419831609</v>
       </c>
       <c r="K36" s="5">
-        <v>-5.0376720970305664</v>
+        <v>-2.6435614815737529</v>
       </c>
       <c r="L36" s="5">
-        <v>-6.4550837891764301</v>
+        <v>-2.578981111703893</v>
       </c>
       <c r="M36" s="5">
-        <v>-3.3469462942376742</v>
+        <v>-3.943569511803946</v>
       </c>
       <c r="N36" s="5">
-        <v>-30.596225452253002</v>
+        <v>-29.166470863429339</v>
       </c>
       <c r="O36" s="5">
-        <v>-17.363867768032183</v>
+        <v>-17.873966861740687</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>9.2600002288818359</v>
+        <v>9.1800003051757813</v>
       </c>
       <c r="T36" s="5">
-        <v>6.4800000190734863</v>
+        <v>6.440000057220459</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C37" s="5">
-        <v>1047534208</v>
+        <v>1032518976</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3388,34 +3379,34 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>5320103.5</v>
+        <v>5258769</v>
       </c>
       <c r="G37" s="5">
-        <v>6.5012831687927246</v>
+        <v>6.4625849723815918</v>
       </c>
       <c r="H37" s="5">
-        <v>-1.4333902294696439</v>
+        <v>0.59880796416795801</v>
       </c>
       <c r="I37" s="5">
-        <v>2.453985422573846</v>
+        <v>1.9948005311130721</v>
       </c>
       <c r="J37" s="5">
-        <v>-7.9421949959096239</v>
+        <v>-7.3909455279069221</v>
       </c>
       <c r="K37" s="5">
-        <v>0.29250285323236802</v>
+        <v>4.6920177270643348</v>
       </c>
       <c r="L37" s="5">
-        <v>9.8289879967966556</v>
+        <v>14.117668616001723</v>
       </c>
       <c r="M37" s="5">
-        <v>3.344888742303409</v>
+        <v>3.9637261666528372</v>
       </c>
       <c r="N37" s="5">
-        <v>-15.705861504266128</v>
+        <v>-13.505127088238943</v>
       </c>
       <c r="O37" s="5">
-        <v>46.297694793067976</v>
+        <v>47.17373704088299</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
@@ -3430,191 +3421,193 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T37" s="5">
-        <v>11.689999580383301</v>
+        <v>11.760000228881836</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A38" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="5">
+        <v>830921088</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="5">
-        <v>832250944</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1998588.5</v>
+        <v>1455819.5</v>
       </c>
       <c r="G38" s="5">
-        <v>7.3257694244384766</v>
+        <v>5.211726188659668</v>
       </c>
       <c r="H38" s="5">
-        <v>0.93114934749809508</v>
+        <v>-0.149572238395101</v>
       </c>
       <c r="I38" s="5">
-        <v>0.75939643536122603</v>
+        <v>-3.9990882968436781</v>
       </c>
       <c r="J38" s="5">
-        <v>-9.9713740722332069</v>
+        <v>3.1608438718486949</v>
       </c>
       <c r="K38" s="5">
-        <v>-10.300183864635848</v>
+        <v>-13.555219792185369</v>
       </c>
       <c r="L38" s="5">
-        <v>2.992996268924597</v>
+        <v>-18.014154015048135</v>
       </c>
       <c r="M38" s="5">
-        <v>-10.750331628735321</v>
+        <v>-13.446653184500745</v>
       </c>
       <c r="N38" s="5">
-        <v>-48.270154547331735</v>
+        <v>-36.000065534208758</v>
       </c>
       <c r="O38" s="5">
-        <v>40.729165694704903</v>
+        <v>8.7846830275713614</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>137</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="S38" s="5">
-        <v>2.1541519055421761</v>
+        <v>6.9785442273754601</v>
       </c>
       <c r="T38" s="5">
-        <v>1.0376520156860349</v>
+        <v>4.2804160118103027</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A39" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" s="5">
-        <v>829734080</v>
+        <v>829392448</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>1473367.875</v>
+        <v>2010518.125</v>
       </c>
       <c r="G39" s="5">
-        <v>6.5557732582092294</v>
+        <v>7.2903227806091309</v>
       </c>
       <c r="H39" s="5">
-        <v>-0.96186683944816709</v>
+        <v>-0.107117795713407</v>
       </c>
       <c r="I39" s="5">
-        <v>3.4418937068247062</v>
+        <v>3.1189059017316501</v>
       </c>
       <c r="J39" s="5">
-        <v>-2.1007066769432652</v>
+        <v>-10.067810751838103</v>
       </c>
       <c r="K39" s="5">
-        <v>-12.763244244715267</v>
+        <v>-12.684440101461414</v>
       </c>
       <c r="L39" s="5">
-        <v>-5.8761803442714982</v>
+        <v>0.17817092011824801</v>
       </c>
       <c r="M39" s="5">
-        <v>-8.2265438061879141</v>
+        <v>-10.806069031245503</v>
       </c>
       <c r="N39" s="5">
-        <v>-42.051598449215014</v>
+        <v>-49.211138124119834</v>
       </c>
       <c r="O39" s="5">
-        <v>-1.1707059152082371</v>
+        <v>40.578419714486856</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S39" s="5">
-        <v>1.243469103672894</v>
+        <v>2.1326849542928938</v>
       </c>
       <c r="T39" s="5">
-        <v>0.63844335079193104</v>
+        <v>1.0365405082702641</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A40" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C40" s="5">
-        <v>827544512</v>
+        <v>815617280</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>1356675.625</v>
+        <v>1530657.5</v>
       </c>
       <c r="G40" s="5">
-        <v>5.211726188659668</v>
+        <v>6.6468253135681152</v>
       </c>
       <c r="H40" s="5">
-        <v>-0.149572238395101</v>
+        <v>-1.701412367000021</v>
       </c>
       <c r="I40" s="5">
-        <v>-3.9990882968436781</v>
+        <v>-0.41889986568500703</v>
       </c>
       <c r="J40" s="5">
-        <v>3.1608438718486949</v>
+        <v>-3.7663773607473749</v>
       </c>
       <c r="K40" s="5">
-        <v>-13.555219792185369</v>
+        <v>-12.247681984943659</v>
       </c>
       <c r="L40" s="5">
-        <v>-18.014154015048135</v>
+        <v>0.62990378350324905</v>
       </c>
       <c r="M40" s="5">
-        <v>-13.637323433268399</v>
+        <v>-9.7734956936208377</v>
       </c>
       <c r="N40" s="5">
-        <v>-36.000065534208758</v>
+        <v>-43.142892773502183</v>
       </c>
       <c r="O40" s="5">
-        <v>8.7846830275713614</v>
+        <v>-2.8521997469856952</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q40" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R40" s="4" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="S40" s="5">
-        <v>6.9785442273754601</v>
+        <v>1.243469103672894</v>
       </c>
       <c r="T40" s="5">
-        <v>4.2804160118103027</v>
+        <v>0.62758082151413008</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3625,7 +3618,7 @@
         <v>145</v>
       </c>
       <c r="C41" s="5">
-        <v>824395328</v>
+        <v>815306432</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>45</v>
@@ -3634,34 +3627,34 @@
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>2240806.75</v>
+        <v>2325238.5</v>
       </c>
       <c r="G41" s="5">
-        <v>5.3652482032775879</v>
+        <v>5.442446231842041</v>
       </c>
       <c r="H41" s="5">
-        <v>1.3570442019985811</v>
+        <v>-1.0953204375981569</v>
       </c>
       <c r="I41" s="5">
-        <v>2.5908319173202798</v>
+        <v>2.2159407676736191</v>
       </c>
       <c r="J41" s="5">
-        <v>7.8077475335603719</v>
+        <v>6.6269072415110486</v>
       </c>
       <c r="K41" s="5">
-        <v>6.3200216117893282</v>
+        <v>5.9037009333733792</v>
       </c>
       <c r="L41" s="5">
-        <v>12.412554669447706</v>
+        <v>12.177758577778697</v>
       </c>
       <c r="M41" s="5">
-        <v>4.5136507340191701</v>
+        <v>3.4793185528075199</v>
       </c>
       <c r="N41" s="5">
-        <v>-11.454076668377644</v>
+        <v>-11.824630398554381</v>
       </c>
       <c r="O41" s="5">
-        <v>50.754008062462084</v>
+        <v>49.102768601655541</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>25</v>
@@ -3671,10 +3664,10 @@
         <v>47</v>
       </c>
       <c r="S41" s="5">
-        <v>502.74370561652682</v>
+        <v>497.62842672240532</v>
       </c>
       <c r="T41" s="5">
-        <v>428.50631713867187</v>
+        <v>423.81280517578125</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3696,9 +3689,7 @@
       <c r="F42" s="5">
         <v>2621099.25</v>
       </c>
-      <c r="G42" s="5">
-        <v>0.99224770069122303</v>
-      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="5">
         <v>8.5313229605211011E-2</v>
       </c>
@@ -3727,10 +3718,10 @@
         <v>25</v>
       </c>
       <c r="Q42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="R42" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="S42" s="5">
         <v>0.72089303474705002</v>
@@ -3741,13 +3732,13 @@
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="C43" s="5">
-        <v>766216448</v>
+        <v>765489152</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>45</v>
@@ -3756,34 +3747,34 @@
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>1478400.125</v>
+        <v>1570939.5</v>
       </c>
       <c r="G43" s="5">
-        <v>4.0027604103088379</v>
+        <v>4.0194039344787598</v>
       </c>
       <c r="H43" s="5">
-        <v>2.3331590733728151</v>
+        <v>-8.7667417345794002E-2</v>
       </c>
       <c r="I43" s="5">
-        <v>4.7010938958726767</v>
+        <v>4.9682746626263707</v>
       </c>
       <c r="J43" s="5">
-        <v>5.6720877988248652</v>
+        <v>5.5794478085962496</v>
       </c>
       <c r="K43" s="5">
-        <v>-3.0406428661891249</v>
+        <v>-1.302453770401546</v>
       </c>
       <c r="L43" s="5">
-        <v>5.1412035842369086</v>
+        <v>6.464757781033792</v>
       </c>
       <c r="M43" s="5">
-        <v>-5.4239682412726591</v>
+        <v>-5.4059352437657138</v>
       </c>
       <c r="N43" s="5">
-        <v>-8.9707700782015962</v>
+        <v>-8.9588586891271476</v>
       </c>
       <c r="O43" s="5">
-        <v>30.809059415377106</v>
+        <v>30.694382491333315</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>25</v>
@@ -3793,63 +3784,63 @@
         <v>47</v>
       </c>
       <c r="S43" s="5">
-        <v>1244.3511943189155</v>
+        <v>1221.9631803199613</v>
       </c>
       <c r="T43" s="5">
-        <v>1100.896484375</v>
+        <v>1099.931396484375</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="5">
+        <v>739159104</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="5">
-        <v>740775296</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1589096.625</v>
+      </c>
+      <c r="G44" s="5">
+        <v>5.6737589836120614</v>
+      </c>
+      <c r="H44" s="5">
+        <v>-0.21821662597510902</v>
+      </c>
+      <c r="I44" s="5">
+        <v>7.7869497804116117</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1.073653907547478</v>
+      </c>
+      <c r="K44" s="5">
+        <v>-1.3842693888581949</v>
+      </c>
+      <c r="L44" s="5">
+        <v>27.656690810344074</v>
+      </c>
+      <c r="M44" s="5">
+        <v>-0.183381926576098</v>
+      </c>
+      <c r="N44" s="5">
+        <v>-27.041536999469763</v>
+      </c>
+      <c r="O44" s="5">
+        <v>42.594325160039318</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1551855.625</v>
-      </c>
-      <c r="G44" s="5">
-        <v>5.6804733276367188</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1.624302167177438</v>
-      </c>
-      <c r="I44" s="5">
-        <v>9.0903204639899204</v>
-      </c>
-      <c r="J44" s="5">
-        <v>1.2946957749593311</v>
-      </c>
-      <c r="K44" s="5">
-        <v>-3.7403081940151961</v>
-      </c>
-      <c r="L44" s="5">
-        <v>19.433720058324777</v>
-      </c>
-      <c r="M44" s="5">
-        <v>1.8842314603273E-2</v>
-      </c>
-      <c r="N44" s="5">
-        <v>-26.608388846666962</v>
-      </c>
-      <c r="O44" s="5">
-        <v>42.906170182922729</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="Q44" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R44" s="4" t="s">
         <v>37</v>
@@ -3858,134 +3849,134 @@
         <v>1.5543399132000002</v>
       </c>
       <c r="T44" s="5">
-        <v>1.0557429790496831</v>
+        <v>1.053439140319824</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="5">
+        <v>731356416</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="5">
-        <v>715489920</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>2374914.5</v>
+        <v>2322401</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5">
-        <v>2.2929183255858021</v>
+        <v>-0.93379887139466411</v>
       </c>
       <c r="I45" s="5">
-        <v>-4.755361908168787</v>
+        <v>-5.5001134625523367</v>
       </c>
       <c r="J45" s="5">
-        <v>-16.11259876032204</v>
+        <v>-16.895938366340467</v>
       </c>
       <c r="K45" s="5">
-        <v>-26.583381282561881</v>
+        <v>-19.172097592188543</v>
       </c>
       <c r="L45" s="5">
-        <v>62.749368702886542</v>
+        <v>58.246950962110013</v>
       </c>
       <c r="M45" s="5">
-        <v>-28.974306147049834</v>
+        <v>-29.640101665389462</v>
       </c>
       <c r="N45" s="5">
-        <v>77.751949100932634</v>
+        <v>80.479528607856025</v>
       </c>
       <c r="O45" s="5">
-        <v>145.85342697006016</v>
+        <v>143.55765044372859</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S45" s="5">
         <v>1.13709763756269</v>
       </c>
       <c r="T45" s="5">
-        <v>0.73250925540924106</v>
+        <v>0.725669085979462</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="C46" s="5">
-        <v>667899264</v>
+        <v>689818240</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>17319418</v>
+        <v>17406986</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5">
-        <v>3.3579192839139571</v>
+        <v>-10.138377243829023</v>
       </c>
       <c r="I46" s="5">
-        <v>-20.001089339192625</v>
+        <v>-32.45723538196772</v>
       </c>
       <c r="J46" s="5">
-        <v>105.87549088386341</v>
+        <v>85.003056965472496</v>
       </c>
       <c r="K46" s="5">
-        <v>117.7698538723134</v>
+        <v>110.2862901222244</v>
       </c>
       <c r="L46" s="5">
-        <v>183.37956536730414</v>
+        <v>158.12852175059984</v>
       </c>
       <c r="M46" s="5">
-        <v>103.35803938817519</v>
+        <v>82.734189711933496</v>
       </c>
       <c r="N46" s="5">
-        <v>206.9369410410562</v>
+        <v>182.10183997455883</v>
       </c>
       <c r="O46" s="5">
-        <v>268.47216950346439</v>
+        <v>231.115070920682</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S46" s="5">
         <v>2.9003802040762392</v>
       </c>
       <c r="T46" s="5">
-        <v>2.0809922218322749</v>
+        <v>1.870013356208801</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="C47" s="5">
-        <v>652248448</v>
+        <v>647032384</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>83</v>
@@ -3994,34 +3985,34 @@
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>7184624.5</v>
+        <v>7015513</v>
       </c>
       <c r="G47" s="5">
-        <v>7.9681272506713867</v>
+        <v>8.0753707885742187</v>
       </c>
       <c r="H47" s="5">
-        <v>-0.89586565426431608</v>
+        <v>-1.46716033633012</v>
       </c>
       <c r="I47" s="5">
-        <v>2.0488290012550041</v>
+        <v>-0.60395648769325805</v>
       </c>
       <c r="J47" s="5">
-        <v>-12.657649525742542</v>
+        <v>-13.939101848719293</v>
       </c>
       <c r="K47" s="5">
-        <v>-17.688115927719551</v>
+        <v>-16.911631492937364</v>
       </c>
       <c r="L47" s="5">
-        <v>-19.562662141629485</v>
+        <v>-16.854398327459762</v>
       </c>
       <c r="M47" s="5">
-        <v>-14.492975956914211</v>
+        <v>-15.659876124129957</v>
       </c>
       <c r="N47" s="5">
-        <v>-42.680182243729156</v>
+        <v>-43.522480990654657</v>
       </c>
       <c r="O47" s="5">
-        <v>34.103390625669626</v>
+        <v>32.135878868735944</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>25</v>
@@ -4036,18 +4027,18 @@
         <v>11.008880893576956</v>
       </c>
       <c r="T47" s="5">
-        <v>5.5960168838500977</v>
+        <v>5.5139145851135254</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="C48" s="5">
-        <v>604659584</v>
+        <v>600778752</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>35</v>
@@ -4056,40 +4047,40 @@
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>1189861.25</v>
+        <v>1280069.125</v>
       </c>
       <c r="G48" s="5">
-        <v>4.2923078536987305</v>
+        <v>4.2791409492492676</v>
       </c>
       <c r="H48" s="5">
-        <v>0.47329910030942102</v>
+        <v>-2.9502230198297001E-2</v>
       </c>
       <c r="I48" s="5">
-        <v>40.576615562712483</v>
+        <v>40.934747066880917</v>
       </c>
       <c r="J48" s="5">
-        <v>36.329604052266639</v>
+        <v>36.289383778650716</v>
       </c>
       <c r="K48" s="5">
-        <v>35.497834822662156</v>
+        <v>35.146739571478335</v>
       </c>
       <c r="L48" s="5">
-        <v>34.796004190887999</v>
+        <v>40.888006359754471</v>
       </c>
       <c r="M48" s="5">
-        <v>32.032782801235136</v>
+        <v>32.015035706011538</v>
       </c>
       <c r="N48" s="5">
-        <v>-16.437056426524677</v>
+        <v>-16.980663159336395</v>
       </c>
       <c r="O48" s="5">
-        <v>101.58330857056895</v>
+        <v>101.52383699883312</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>37</v>
@@ -4098,18 +4089,18 @@
         <v>2.6187999199999998</v>
       </c>
       <c r="T48" s="5">
-        <v>2.0302748680114751</v>
+        <v>2.029675960540771</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="C49" s="5">
-        <v>502043808</v>
+        <v>498812640</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>23</v>
@@ -4118,40 +4109,40 @@
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>4162105</v>
+        <v>4046554.25</v>
       </c>
       <c r="G49" s="5">
-        <v>9.7165994644165039</v>
+        <v>9.7481718063354492</v>
       </c>
       <c r="H49" s="5">
-        <v>-0.64360355383694701</v>
+        <v>-0.32388632078946805</v>
       </c>
       <c r="I49" s="5">
-        <v>2.4896280994711528</v>
+        <v>-8.1162950123447999E-2</v>
       </c>
       <c r="J49" s="5">
-        <v>-9.5685932362026058</v>
+        <v>-9.8614881924080304</v>
       </c>
       <c r="K49" s="5">
-        <v>-34.55320566592075</v>
+        <v>-32.703659994853183</v>
       </c>
       <c r="L49" s="5">
-        <v>-21.192567028296803</v>
+        <v>-19.527102837648556</v>
       </c>
       <c r="M49" s="5">
-        <v>-31.864576394786106</v>
+        <v>-32.085257711455348</v>
       </c>
       <c r="N49" s="5">
-        <v>-40.197877532382719</v>
+        <v>-39.854316464298137</v>
       </c>
       <c r="O49" s="5">
-        <v>26.497394771295578</v>
+        <v>26.087687013476302</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>0</v>
@@ -4160,18 +4151,18 @@
         <v>23.379999160766602</v>
       </c>
       <c r="T49" s="5">
-        <v>12.350000381469727</v>
+        <v>12.310000419616699</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="C50" s="5">
-        <v>488294176</v>
+        <v>474677280</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>23</v>
@@ -4180,40 +4171,40 @@
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>1461456.625</v>
+        <v>1506940.75</v>
       </c>
       <c r="G50" s="5">
-        <v>8.0681304931640625</v>
+        <v>8.1227436065673828</v>
       </c>
       <c r="H50" s="5">
-        <v>-2.7886765826629971</v>
+        <v>-0.67234254648574909</v>
       </c>
       <c r="I50" s="5">
-        <v>1.0416645970609431</v>
+        <v>-0.89445777048352504</v>
       </c>
       <c r="J50" s="5">
-        <v>-0.43302811707719402</v>
+        <v>-1.1024592312935839</v>
       </c>
       <c r="K50" s="5">
-        <v>0.40145595379266202</v>
+        <v>2.3448575246389769</v>
       </c>
       <c r="L50" s="5">
-        <v>6.0003679289226666</v>
+        <v>7.9987346783557456</v>
       </c>
       <c r="M50" s="5">
-        <v>2.4347919753670229</v>
+        <v>1.7460792865124701</v>
       </c>
       <c r="N50" s="5">
-        <v>-22.294862413417761</v>
+        <v>-21.912527167610165</v>
       </c>
       <c r="O50" s="5">
-        <v>119.8630111881057</v>
+        <v>118.3847786199034</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R50" s="4" t="s">
         <v>0</v>
@@ -4222,18 +4213,18 @@
         <v>31.969999313354492</v>
       </c>
       <c r="T50" s="5">
-        <v>22.309999465942383</v>
+        <v>22.159999847412109</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="C51" s="5">
-        <v>480101056</v>
+        <v>474254240</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>45</v>
@@ -4242,34 +4233,34 @@
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>4070653.75</v>
+        <v>4017146.25</v>
       </c>
       <c r="G51" s="5">
-        <v>5.7458925247192383</v>
+        <v>5.8353724479675293</v>
       </c>
       <c r="H51" s="5">
-        <v>0.19921104046851701</v>
+        <v>-1.2106638983626179</v>
       </c>
       <c r="I51" s="5">
-        <v>1.3863624751868859</v>
+        <v>1.792260975807469</v>
       </c>
       <c r="J51" s="5">
-        <v>5.3733776645098708</v>
+        <v>4.0976602226403536</v>
       </c>
       <c r="K51" s="5">
-        <v>-4.6432218495844557</v>
+        <v>-4.0439621692621266</v>
       </c>
       <c r="L51" s="5">
-        <v>-2.0598013063741432</v>
+        <v>-1.9648059674605149</v>
       </c>
       <c r="M51" s="5">
-        <v>-5.8459211275861183</v>
+        <v>-6.8864451226040675</v>
       </c>
       <c r="N51" s="5">
-        <v>-27.414416830634103</v>
+        <v>-27.802474174599002</v>
       </c>
       <c r="O51" s="5">
-        <v>29.984964628679723</v>
+        <v>28.411283588620883</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
@@ -4282,196 +4273,196 @@
         <v>992.0411608650212</v>
       </c>
       <c r="T51" s="5">
-        <v>693.66357421875</v>
+        <v>685.265625</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A52" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="C52" s="5">
-        <v>465947872</v>
+        <v>469277312</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>2511752.5</v>
+        <v>2430275.75</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>3.427085767577553</v>
+        <v>0.73917862685277702</v>
       </c>
       <c r="I52" s="5">
-        <v>-5.4794873369622534</v>
+        <v>-4.9287288291482101</v>
       </c>
       <c r="J52" s="5">
-        <v>-13.569814902370247</v>
+        <v>-12.930941446979272</v>
       </c>
       <c r="K52" s="5">
-        <v>-32.202977238565808</v>
+        <v>-24.051220157409436</v>
       </c>
       <c r="L52" s="5">
-        <v>47.101357746420348</v>
+        <v>36.41302137648492</v>
       </c>
       <c r="M52" s="5">
-        <v>-41.585403443541445</v>
+        <v>-41.155754895264472</v>
       </c>
       <c r="N52" s="5">
-        <v>119.85971824456433</v>
+        <v>128.15590181040776</v>
       </c>
       <c r="O52" s="5">
-        <v>270.55175650840374</v>
+        <v>273.29079589394138</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S52" s="5">
         <v>1.152422315694851</v>
       </c>
       <c r="T52" s="5">
-        <v>0.63990509510040305</v>
+        <v>0.64463514089584406</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C53" s="5">
-        <v>449501344</v>
+        <v>454178528</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>11582170</v>
+        <v>10472377</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5">
-        <v>1.1150137844986969</v>
+        <v>-1.4675176712875551</v>
       </c>
       <c r="I53" s="5">
-        <v>-4.5388987408326535</v>
+        <v>-5.8946782702493215</v>
       </c>
       <c r="J53" s="5">
-        <v>-16.755194405713635</v>
+        <v>-17.976826638238762</v>
       </c>
       <c r="K53" s="5">
-        <v>-17.431867561850211</v>
+        <v>-11.817126589871519</v>
       </c>
       <c r="L53" s="5">
-        <v>45.187440548200144</v>
+        <v>48.479058514964144</v>
       </c>
       <c r="M53" s="5">
-        <v>-16.550581381787488</v>
+        <v>-17.77820605353585</v>
       </c>
       <c r="N53" s="5">
-        <v>-40.212786438097496</v>
+        <v>-43.57962979989739</v>
       </c>
       <c r="O53" s="5">
-        <v>142.48816868298749</v>
+        <v>138.92961195678305</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S53" s="5">
         <v>1.1922868853192861</v>
       </c>
       <c r="T53" s="5">
-        <v>0.47446620464325001</v>
+        <v>0.46750333905220004</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="C54" s="5">
-        <v>407772064</v>
+        <v>436216704</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>1165405.625</v>
+        <v>1132967.625</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5">
-        <v>3.8940056474887412</v>
+        <v>7.0017869867344817</v>
       </c>
       <c r="I54" s="5">
-        <v>-1.9279861908788609</v>
+        <v>0.370189886813788</v>
       </c>
       <c r="J54" s="5">
-        <v>-21.822449006535404</v>
+        <v>-16.348623414527296</v>
       </c>
       <c r="K54" s="5">
-        <v>-12.845662085143417</v>
+        <v>-7.6550921223762387</v>
       </c>
       <c r="L54" s="5">
-        <v>38.955220595198938</v>
+        <v>47.04329163692298</v>
       </c>
       <c r="M54" s="5">
-        <v>-8.4157349773363084</v>
+        <v>-2.0067630071911919</v>
       </c>
       <c r="N54" s="5">
-        <v>31.988070780477894</v>
+        <v>41.810250816143068</v>
       </c>
       <c r="O54" s="5">
-        <v>418.03269318109943</v>
+        <v>454.30423887928384</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S54" s="5">
         <v>10.579760227544591</v>
       </c>
       <c r="T54" s="5">
-        <v>7.8401379585266113</v>
+        <v>8.3890876770019531</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="C55" s="5">
-        <v>391894496</v>
+        <v>388445376</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>23</v>
@@ -4480,60 +4471,60 @@
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>5150804</v>
+        <v>1817668.25</v>
       </c>
       <c r="G55" s="5">
-        <v>9.0963497161865234</v>
+        <v>5.736137866973877</v>
       </c>
       <c r="H55" s="5">
-        <v>-1.8790463257220451</v>
+        <v>9.5695971907772001E-2</v>
       </c>
       <c r="I55" s="5">
-        <v>0.90579482709987102</v>
+        <v>4.4955024872702198</v>
       </c>
       <c r="J55" s="5">
-        <v>-2.551977791130466</v>
+        <v>-14.347232277727217</v>
       </c>
       <c r="K55" s="5">
-        <v>-9.0381249970798443</v>
+        <v>-3.4261040228612432</v>
       </c>
       <c r="L55" s="5">
-        <v>-7.1569222884695138</v>
+        <v>-15.694539521188311</v>
       </c>
       <c r="M55" s="5">
-        <v>-6.5501145609775824</v>
+        <v>-5.4075521618281215</v>
       </c>
       <c r="N55" s="5">
-        <v>-17.772304181725808</v>
+        <v>-31.825327071202313</v>
       </c>
       <c r="O55" s="5">
-        <v>83.146208583662812</v>
+        <v>58.067174591434913</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R55" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S55" s="5">
-        <v>23.069999694824219</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="T55" s="5">
-        <v>16.709999084472656</v>
+        <v>10.460000038146973</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C56" s="5">
-        <v>387330240</v>
+        <v>384530656</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>23</v>
@@ -4542,93 +4533,93 @@
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>1841854.5</v>
+        <v>5209471</v>
       </c>
       <c r="G56" s="5">
-        <v>5.7416272163391113</v>
+        <v>9.1236495971679687</v>
       </c>
       <c r="H56" s="5">
-        <v>0.28790530471725101</v>
+        <v>-0.29921747336902904</v>
       </c>
       <c r="I56" s="5">
-        <v>7.3997975426761897</v>
+        <v>-0.23952642934073101</v>
       </c>
       <c r="J56" s="5">
-        <v>-14.429120162857402</v>
+        <v>-2.8435593010319389</v>
       </c>
       <c r="K56" s="5">
-        <v>-7.073017129757309</v>
+        <v>-6.6254026846175664</v>
       </c>
       <c r="L56" s="5">
-        <v>-18.403161819870839</v>
+        <v>-5.6246475634104893</v>
       </c>
       <c r="M56" s="5">
-        <v>-5.4979867818496402</v>
+        <v>-6.8297329470544792</v>
       </c>
       <c r="N56" s="5">
-        <v>-31.762965518486851</v>
+        <v>-17.918708055520259</v>
       </c>
       <c r="O56" s="5">
-        <v>57.916055287529119</v>
+        <v>82.598203125767625</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R56" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S56" s="5">
-        <v>17.930000305175781</v>
+        <v>23.069999694824219</v>
       </c>
       <c r="T56" s="5">
-        <v>10.449999809265137</v>
+        <v>16.659999847412109</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="C57" s="5">
-        <v>337688416</v>
+        <v>337639392</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>6024914</v>
+        <v>6103210</v>
       </c>
       <c r="G57" s="5">
-        <v>0.76923072338104204</v>
+        <v>0.76797384023666404</v>
       </c>
       <c r="H57" s="5">
-        <v>5.9195342116025007E-2</v>
+        <v>9.6579317081069999E-3</v>
       </c>
       <c r="I57" s="5">
-        <v>-2.632984416382067</v>
+        <v>-0.88594282380229905</v>
       </c>
       <c r="J57" s="5">
-        <v>-7.5927820519365419</v>
+        <v>-7.583857425933771</v>
       </c>
       <c r="K57" s="5">
-        <v>-27.786129685018722</v>
+        <v>-23.994228516287286</v>
       </c>
       <c r="L57" s="5">
-        <v>15.769450400399233</v>
+        <v>8.97595309679431</v>
       </c>
       <c r="M57" s="5">
-        <v>-33.46137136894729</v>
+        <v>-33.457364703003321</v>
       </c>
       <c r="N57" s="5">
-        <v>18.30994637648018</v>
+        <v>21.59621575625501</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="4" t="s">
@@ -4636,24 +4627,24 @@
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S57" s="5">
         <v>0.55299045370637101</v>
       </c>
       <c r="T57" s="5">
-        <v>0.31787157058715804</v>
+        <v>0.31790226697921803</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A58" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="C58" s="5">
-        <v>297165408</v>
+        <v>295432064</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>45</v>
@@ -4662,34 +4653,34 @@
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>1502030.875</v>
+        <v>1479229.625</v>
       </c>
       <c r="G58" s="5">
-        <v>5.5441441535949707</v>
+        <v>5.5945453643798828</v>
       </c>
       <c r="H58" s="5">
-        <v>0.36693792249289403</v>
+        <v>-0.57608529309400902</v>
       </c>
       <c r="I58" s="5">
-        <v>2.4521299873014208</v>
+        <v>2.6053322434271831</v>
       </c>
       <c r="J58" s="5">
-        <v>3.411332297262692</v>
+        <v>2.8155948205055958</v>
       </c>
       <c r="K58" s="5">
-        <v>-0.89501865750856202</v>
+        <v>-0.69290394801460009</v>
       </c>
       <c r="L58" s="5">
-        <v>9.9834436159215389</v>
+        <v>9.8391068043555805</v>
       </c>
       <c r="M58" s="5">
-        <v>-2.4601087261679528</v>
+        <v>-2.9184218010038681</v>
       </c>
       <c r="N58" s="5">
-        <v>-18.321396952246005</v>
+        <v>-18.116227195967227</v>
       </c>
       <c r="O58" s="5">
-        <v>33.735975934039317</v>
+        <v>32.965542645107583</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
@@ -4699,143 +4690,143 @@
         <v>47</v>
       </c>
       <c r="S58" s="5">
-        <v>1095.8683021304068</v>
+        <v>1093.3354771283864</v>
       </c>
       <c r="T58" s="5">
-        <v>843.33685302734375</v>
+        <v>838.478515625</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="C59" s="5">
-        <v>252298368</v>
+        <v>228256576</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>1001040.25</v>
+        <v>2404804.25</v>
       </c>
       <c r="G59" s="5">
-        <v>6.2968511581420898</v>
+        <v>6.8407959938049316</v>
       </c>
       <c r="H59" s="5">
-        <v>-0.59346907908354207</v>
+        <v>-0.98522074918165903</v>
       </c>
       <c r="I59" s="5">
-        <v>-1.3910851450483002E-2</v>
+        <v>-1.5309246856583192</v>
       </c>
       <c r="J59" s="5">
-        <v>-4.9198847223379749</v>
+        <v>-10.626351714584459</v>
       </c>
       <c r="K59" s="5">
-        <v>-11.201523564466553</v>
+        <v>-13.969615196850782</v>
       </c>
       <c r="L59" s="5">
-        <v>-10.376330070708406</v>
+        <v>4.7070375545810386</v>
       </c>
       <c r="M59" s="5">
-        <v>-10.722292347691464</v>
+        <v>-14.420510936049503</v>
       </c>
       <c r="N59" s="5">
-        <v>-20.314137812149479</v>
+        <v>-10.562570282828709</v>
       </c>
       <c r="O59" s="5">
-        <v>-15.396429172030402</v>
+        <v>66.477658746461714</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q59" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="R59" s="4" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="S59" s="5">
-        <v>2.388505328325373</v>
+        <v>20.789899826049805</v>
       </c>
       <c r="T59" s="5">
-        <v>1.778429508209229</v>
+        <v>16.079999923706055</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A60" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C60" s="5">
-        <v>232473136</v>
+        <v>228083552</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>2529099.75</v>
+        <v>1007047.5625</v>
       </c>
       <c r="G60" s="5">
-        <v>6.7733993530273437</v>
+        <v>5.5825395584106454</v>
       </c>
       <c r="H60" s="5">
-        <v>-1.813791582850188</v>
+        <v>-0.93025996788349608</v>
       </c>
       <c r="I60" s="5">
-        <v>-0.67278659195770807</v>
+        <v>0.15899584860104002</v>
       </c>
       <c r="J60" s="5">
-        <v>-9.737062525767449</v>
+        <v>5.0002854442928957</v>
       </c>
       <c r="K60" s="5">
-        <v>-13.568974539482003</v>
+        <v>1.248815073094933</v>
       </c>
       <c r="L60" s="5">
-        <v>1.7607932584126069</v>
+        <v>6.5999137575390776</v>
       </c>
       <c r="M60" s="5">
-        <v>-13.568974539482003</v>
+        <v>-3.7727003102334011</v>
       </c>
       <c r="N60" s="5">
-        <v>-9.7672328162507256</v>
+        <v>-5.3892121481168953</v>
       </c>
       <c r="O60" s="5">
-        <v>68.134151291445505</v>
+        <v>52.701176405774234</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="Q60" s="4"/>
       <c r="R60" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S60" s="5">
-        <v>20.789899826049805</v>
+        <v>1090.5527244217953</v>
       </c>
       <c r="T60" s="5">
-        <v>16.239999771118164</v>
+        <v>960.4390869140625</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C61" s="5">
-        <v>215809696</v>
+        <v>215761152</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>45</v>
@@ -4844,31 +4835,31 @@
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1446970.625</v>
+        <v>1439572.875</v>
       </c>
       <c r="G61" s="5">
-        <v>5.7042737007141113</v>
+        <v>5.7238421440124512</v>
       </c>
       <c r="H61" s="5">
-        <v>-1.219216524540867</v>
+        <v>-1.5232440901203001E-2</v>
       </c>
       <c r="I61" s="5">
-        <v>-1.2609758859746911</v>
+        <v>0.25308755186017601</v>
       </c>
       <c r="J61" s="5">
-        <v>6.5063897779906288</v>
+        <v>6.4901662551116956</v>
       </c>
       <c r="K61" s="5">
-        <v>0.68087062273307608</v>
+        <v>1.2814769241460631</v>
       </c>
       <c r="L61" s="5">
-        <v>10.194903188641868</v>
+        <v>10.947026876453126</v>
       </c>
       <c r="M61" s="5">
-        <v>-1.5544777214255729</v>
+        <v>-1.4643217515378781</v>
       </c>
       <c r="N61" s="5">
-        <v>-1.941408458075855</v>
+        <v>-2.204063256534472</v>
       </c>
       <c r="O61" s="5"/>
       <c r="P61" s="4" t="s">
@@ -4882,301 +4873,301 @@
         <v>953.26524295883621</v>
       </c>
       <c r="T61" s="5">
-        <v>888.92266845703125</v>
+        <v>888.7872314453125</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C62" s="5">
-        <v>212794528</v>
+        <v>214087968</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>1915170.5</v>
-      </c>
-      <c r="G62" s="5"/>
+        <v>3918042.5</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2.775574922561646</v>
+      </c>
       <c r="H62" s="5">
-        <v>1.9013589740115799</v>
+        <v>-1.6358464198332872</v>
       </c>
       <c r="I62" s="5">
-        <v>-5.5797504199526449</v>
+        <v>-2.7220552788653212</v>
       </c>
       <c r="J62" s="5">
-        <v>-14.779493287938051</v>
+        <v>-2.233253991162198</v>
       </c>
       <c r="K62" s="5">
-        <v>-33.601506390052819</v>
+        <v>-14.030608474327821</v>
       </c>
       <c r="L62" s="5">
-        <v>43.535891089765322</v>
+        <v>27.515563434605927</v>
       </c>
       <c r="M62" s="5">
-        <v>-36.996572175456066</v>
+        <v>-26.864685738244344</v>
       </c>
       <c r="N62" s="5">
-        <v>76.654764329760212</v>
+        <v>36.427741744183791</v>
       </c>
       <c r="O62" s="5">
-        <v>8.4705304070213483</v>
+        <v>90.317941586527269</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q62" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="R62" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S62" s="5">
-        <v>0.45377137396633505</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T62" s="5">
-        <v>0.26428601145744302</v>
+        <v>3.2751204967498779</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C63" s="5">
-        <v>211118976</v>
+        <v>210742848</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>3993788.25</v>
-      </c>
-      <c r="G63" s="5">
-        <v>2.734375</v>
-      </c>
+        <v>1635427.5</v>
+      </c>
+      <c r="G63" s="5"/>
       <c r="H63" s="5">
-        <v>1.4810703173319779</v>
+        <v>-0.93994268043150508</v>
       </c>
       <c r="I63" s="5">
-        <v>-0.79386834357166902</v>
+        <v>-4.3573794726333936</v>
       </c>
       <c r="J63" s="5">
-        <v>-0.60734276622633809</v>
+        <v>-15.580517203004707</v>
       </c>
       <c r="K63" s="5">
-        <v>-20.706313578352344</v>
+        <v>-28.994949120513812</v>
       </c>
       <c r="L63" s="5">
-        <v>34.386695539412045</v>
+        <v>39.775109602807326</v>
       </c>
       <c r="M63" s="5">
-        <v>-25.645704345793696</v>
+        <v>-37.591037566578002</v>
       </c>
       <c r="N63" s="5">
-        <v>37.704167942693736</v>
+        <v>68.324876281363885</v>
       </c>
       <c r="O63" s="5">
-        <v>93.4830267526455</v>
+        <v>7.4509695960353062</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Q63" s="4"/>
       <c r="R63" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S63" s="5">
-        <v>4.6771184674018205</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T63" s="5">
-        <v>3.329587459564209</v>
+        <v>0.261801868677139</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C64" s="5">
-        <v>174215296</v>
+        <v>181150960</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>6584097.5</v>
+        <v>6591026.5</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5">
-        <v>4.0577339834751314</v>
+        <v>-1.751290929720239</v>
       </c>
       <c r="I64" s="5">
-        <v>-3.644717700303846</v>
+        <v>-4.4463326357335644</v>
       </c>
       <c r="J64" s="5">
-        <v>-8.6379676865097732</v>
+        <v>-10.237982671624001</v>
       </c>
       <c r="K64" s="5">
-        <v>-34.995699172931836</v>
+        <v>-29.044966749733913</v>
       </c>
       <c r="L64" s="5">
-        <v>65.46649263304576</v>
+        <v>54.167545621851865</v>
       </c>
       <c r="M64" s="5">
-        <v>-39.454191617137212</v>
+        <v>-40.51668776953565</v>
       </c>
       <c r="N64" s="5">
-        <v>87.509892240429778</v>
+        <v>79.183939378588036</v>
       </c>
       <c r="O64" s="5">
-        <v>92.889946514110605</v>
+        <v>89.511882376466772</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q64" s="4"/>
       <c r="R64" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S64" s="5">
         <v>0.22635182608908702</v>
       </c>
       <c r="T64" s="5">
-        <v>0.13006201386451702</v>
+        <v>0.12778423726558702</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C65" s="5">
-        <v>142906416</v>
+        <v>144391472</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>3148143</v>
+        <v>3281318.25</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5">
-        <v>1.113670203234074</v>
+        <v>1.0492074332130401</v>
       </c>
       <c r="I65" s="5">
-        <v>-0.80038090148824004</v>
+        <v>-1.731903783086874</v>
       </c>
       <c r="J65" s="5">
-        <v>28.291832887268463</v>
+        <v>29.637880334126933</v>
       </c>
       <c r="K65" s="5">
-        <v>18.666208727928655</v>
+        <v>29.167961903962958</v>
       </c>
       <c r="L65" s="5">
-        <v>75.119920488789305</v>
+        <v>80.958840626775455</v>
       </c>
       <c r="M65" s="5">
-        <v>11.611687469948384</v>
+        <v>12.778624792378634</v>
       </c>
       <c r="N65" s="5">
-        <v>223.9711680829526</v>
+        <v>227.7754576305029</v>
       </c>
       <c r="O65" s="5">
-        <v>148.57235745707501</v>
+        <v>151.18039710842757</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S65" s="5">
         <v>0.22587493537817402</v>
       </c>
       <c r="T65" s="5">
-        <v>0.21590295433998102</v>
+        <v>0.21816821396350902</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A66" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C66" s="5">
-        <v>113125472</v>
+        <v>108976256</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="5">
-        <v>2941502.25</v>
+        <v>2822492.75</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5">
-        <v>-3.5967717930197369</v>
+        <v>-1.010394760086375</v>
       </c>
       <c r="I66" s="5">
-        <v>1.272955030402922</v>
+        <v>10.581138894318931</v>
       </c>
       <c r="J66" s="5">
-        <v>56.246245840319673</v>
+        <v>54.667541959517422</v>
       </c>
       <c r="K66" s="5">
-        <v>79.194578763264545</v>
+        <v>85.154692095917454</v>
       </c>
       <c r="L66" s="5">
-        <v>158.06371722022951</v>
+        <v>156.57424504179448</v>
       </c>
       <c r="M66" s="5">
-        <v>70.440903430590268</v>
+        <v>68.712642830206534</v>
       </c>
       <c r="N66" s="5">
-        <v>536.92643679966432</v>
+        <v>549.83810756478726</v>
       </c>
       <c r="O66" s="5">
-        <v>780.78295150453914</v>
+        <v>771.88356671480312</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S66" s="5">
         <v>3.136226523511763</v>
       </c>
       <c r="T66" s="5">
-        <v>2.728701114654541</v>
+        <v>2.7011303901672363</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\06.04.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\08.04.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="208">
   <si>
     <t>USD</t>
   </si>
@@ -231,18 +231,18 @@
     <t>07/06/2023</t>
   </si>
   <si>
+    <t>8960 JP Equity</t>
+  </si>
+  <si>
+    <t>UNITED URBAN</t>
+  </si>
+  <si>
     <t>CHC AU Equity</t>
   </si>
   <si>
     <t>CHARTER HALL GRO</t>
   </si>
   <si>
-    <t>8960 JP Equity</t>
-  </si>
-  <si>
-    <t>UNITED URBAN</t>
-  </si>
-  <si>
     <t>SUN SP Equity</t>
   </si>
   <si>
@@ -264,6 +264,21 @@
     <t>BROADSTONE NET</t>
   </si>
   <si>
+    <t>GRT SJ Equity</t>
+  </si>
+  <si>
+    <t>GROWTHPOINT PROP</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>04/17/2023</t>
+  </si>
+  <si>
+    <t>ZAr</t>
+  </si>
+  <si>
     <t>HR-U CN Equity</t>
   </si>
   <si>
@@ -276,21 +291,6 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>GRT SJ Equity</t>
-  </si>
-  <si>
-    <t>GROWTHPOINT PROP</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>04/17/2023</t>
-  </si>
-  <si>
-    <t>ZAr</t>
-  </si>
-  <si>
     <t>3309 JP Equity</t>
   </si>
   <si>
@@ -393,19 +393,25 @@
     <t>CNY</t>
   </si>
   <si>
+    <t>AAT US Equity</t>
+  </si>
+  <si>
+    <t>AMERICAN ASSETS</t>
+  </si>
+  <si>
+    <t>03/23/2023</t>
+  </si>
+  <si>
     <t>3296 JP Equity</t>
   </si>
   <si>
     <t>NIPPON REIT INVE</t>
   </si>
   <si>
-    <t>AAT US Equity</t>
-  </si>
-  <si>
-    <t>AMERICAN ASSETS</t>
-  </si>
-  <si>
-    <t>03/23/2023</t>
+    <t>AHH US Equity</t>
+  </si>
+  <si>
+    <t>ARMADA HOFFLER P</t>
   </si>
   <si>
     <t>ESRT US Equity</t>
@@ -417,10 +423,10 @@
     <t>03/31/2023</t>
   </si>
   <si>
-    <t>AHH US Equity</t>
-  </si>
-  <si>
-    <t>ARMADA HOFFLER P</t>
+    <t>UKCM LN Equity</t>
+  </si>
+  <si>
+    <t>UK COMMERCIAL PR</t>
   </si>
   <si>
     <t>RIT1 IT Equity</t>
@@ -447,12 +453,6 @@
     <t>02/09/2023</t>
   </si>
   <si>
-    <t>UKCM LN Equity</t>
-  </si>
-  <si>
-    <t>UK COMMERCIAL PR</t>
-  </si>
-  <si>
     <t>3468 JP Equity</t>
   </si>
   <si>
@@ -471,24 +471,27 @@
     <t>TWD</t>
   </si>
   <si>
+    <t>BCPT LN Equity</t>
+  </si>
+  <si>
+    <t>BAL COMM PROP TR</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>04/28/2023</t>
+  </si>
+  <si>
     <t>8977 JP Equity</t>
   </si>
   <si>
     <t>HANKYU HANSHIN R</t>
   </si>
   <si>
-    <t>BCPT LN Equity</t>
-  </si>
-  <si>
-    <t>BAL COMM PROP TR</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
     <t>TRGYO TI Equity</t>
   </si>
   <si>
@@ -504,6 +507,21 @@
     <t>TRY</t>
   </si>
   <si>
+    <t>AX-U CN Equity</t>
+  </si>
+  <si>
+    <t>ARTIS REAL ESTAT</t>
+  </si>
+  <si>
+    <t>MLI LN Equity</t>
+  </si>
+  <si>
+    <t>INDUSTRIALS REIT</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
     <t>DGGYO TI Equity</t>
   </si>
   <si>
@@ -513,21 +531,6 @@
     <t>Omitted</t>
   </si>
   <si>
-    <t>AX-U CN Equity</t>
-  </si>
-  <si>
-    <t>ARTIS REAL ESTAT</t>
-  </si>
-  <si>
-    <t>MLI LN Equity</t>
-  </si>
-  <si>
-    <t>INDUSTRIALS REIT</t>
-  </si>
-  <si>
-    <t>02/10/2023</t>
-  </si>
-  <si>
     <t>GOOD US Equity</t>
   </si>
   <si>
@@ -555,21 +558,21 @@
     <t>06/04/2013</t>
   </si>
   <si>
+    <t>SRVGY TI Equity</t>
+  </si>
+  <si>
+    <t>SERVET GAYRIMENK</t>
+  </si>
+  <si>
+    <t>11/25/2019</t>
+  </si>
+  <si>
     <t>ISGYO TI Equity</t>
   </si>
   <si>
     <t>IS GAYRIMENKUL Y</t>
   </si>
   <si>
-    <t>SRVGY TI Equity</t>
-  </si>
-  <si>
-    <t>SERVET GAYRIMENK</t>
-  </si>
-  <si>
-    <t>11/25/2019</t>
-  </si>
-  <si>
     <t>NXDT US Equity</t>
   </si>
   <si>
@@ -598,12 +601,6 @@
   </si>
   <si>
     <t>ALPINE INCOME</t>
-  </si>
-  <si>
-    <t>3470 JP Equity</t>
-  </si>
-  <si>
-    <t>MARIMO REGIONAL</t>
   </si>
   <si>
     <t>2989 JP Equity</t>
@@ -1120,13 +1117,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68:XFD68"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1222,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>15901959168</v>
+        <v>15554433024</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1231,34 +1228,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>90149968</v>
+        <v>95125600</v>
       </c>
       <c r="G2" s="5">
-        <v>5.7311668395996094</v>
+        <v>5.7792825698852539</v>
       </c>
       <c r="H2" s="5">
-        <v>-1.3642367937706901</v>
+        <v>-0.83255369466768103</v>
       </c>
       <c r="I2" s="5">
-        <v>-3.4642540309221199</v>
+        <v>-4.2153048823870947</v>
       </c>
       <c r="J2" s="5">
-        <v>-8.3508015112035654</v>
+        <v>-8.3461642070936648</v>
       </c>
       <c r="K2" s="5">
-        <v>-3.3282892553413661</v>
+        <v>-7.1181958739293449</v>
       </c>
       <c r="L2" s="5">
-        <v>4.0451026563823822</v>
+        <v>5.7525926937521232</v>
       </c>
       <c r="M2" s="5">
-        <v>-3.3901475673566721</v>
+        <v>-4.1944764631976383</v>
       </c>
       <c r="N2" s="5">
-        <v>-1.777486671541773</v>
+        <v>-4.8403051349465986</v>
       </c>
       <c r="O2" s="5">
-        <v>75.550631854487449</v>
+        <v>55.855313633381229</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1273,7 +1270,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>74.470001220703125</v>
+        <v>73.849998474121094</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1284,7 +1281,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6617373184</v>
+        <v>6522326528</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1293,34 +1290,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>35793776</v>
+        <v>36152408</v>
       </c>
       <c r="G3" s="5">
-        <v>6.3691196441650391</v>
+        <v>6.4390244483947754</v>
       </c>
       <c r="H3" s="5">
-        <v>-0.91024847966514311</v>
+        <v>-1.1851035082606991</v>
       </c>
       <c r="I3" s="5">
-        <v>6.1010349252410778</v>
+        <v>4.4215061905417796</v>
       </c>
       <c r="J3" s="5">
-        <v>9.8885183995294881</v>
+        <v>7.2479431015943776</v>
       </c>
       <c r="K3" s="5">
-        <v>13.166858979636142</v>
+        <v>10.415374364390772</v>
       </c>
       <c r="L3" s="5">
-        <v>31.297816913621233</v>
+        <v>30.386662895557937</v>
       </c>
       <c r="M3" s="5">
-        <v>11.988815759290162</v>
+        <v>10.380282262656216</v>
       </c>
       <c r="N3" s="5">
-        <v>-8.2504068847851109</v>
+        <v>-8.8410475234849795</v>
       </c>
       <c r="O3" s="5">
-        <v>131.99031328035284</v>
+        <v>116.53333137723769</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1335,7 +1332,7 @@
         <v>3.195990152521694</v>
       </c>
       <c r="T3" s="5">
-        <v>2.7708170413970952</v>
+        <v>2.7379798889160161</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1346,7 +1343,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5698096640</v>
+        <v>5876845056</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -1355,34 +1352,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>14282048</v>
+        <v>14119148</v>
       </c>
       <c r="G4" s="5">
-        <v>6.4181523323059082</v>
+        <v>6.204951286315918</v>
       </c>
       <c r="H4" s="5">
-        <v>-2.2686141698670892</v>
+        <v>3.5273558353871248</v>
       </c>
       <c r="I4" s="5">
-        <v>4.620856349055158</v>
+        <v>3.0105032054273511</v>
       </c>
       <c r="J4" s="5">
-        <v>-3.279826680717846</v>
+        <v>-3.3693708949144252</v>
       </c>
       <c r="K4" s="5">
-        <v>-0.42781661752590006</v>
+        <v>1.226951417790656</v>
       </c>
       <c r="L4" s="5">
-        <v>37.16772787557521</v>
+        <v>43.373079864054986</v>
       </c>
       <c r="M4" s="5">
-        <v>3.5681434169145598</v>
+        <v>6.8170518308820824</v>
       </c>
       <c r="N4" s="5">
-        <v>-20.703849232544826</v>
+        <v>-16.982882885586559</v>
       </c>
       <c r="O4" s="5">
-        <v>39.013681863535197</v>
+        <v>35.017140366148425</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1397,7 +1394,7 @@
         <v>10.26630500135658</v>
       </c>
       <c r="T4" s="5">
-        <v>7.6828837394714364</v>
+        <v>7.9538865089416504</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1408,7 +1405,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5667707392</v>
+        <v>5679766016</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1417,34 +1414,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>31240888</v>
+        <v>31933844</v>
       </c>
       <c r="G5" s="5">
-        <v>4.8018646240234384</v>
+        <v>4.7685184478759766</v>
       </c>
       <c r="H5" s="5">
-        <v>-1.806932383156679</v>
+        <v>0.46819755754206005</v>
       </c>
       <c r="I5" s="5">
-        <v>3.3467441103394391</v>
+        <v>3.9121451679297921</v>
       </c>
       <c r="J5" s="5">
-        <v>-2.5754572843160521</v>
+        <v>-3.9730285059531019</v>
       </c>
       <c r="K5" s="5">
-        <v>-1.908837273944719</v>
+        <v>-2.3284272067101042</v>
       </c>
       <c r="L5" s="5">
-        <v>12.07300105820539</v>
+        <v>13.49315993424025</v>
       </c>
       <c r="M5" s="5">
-        <v>-1.1070356822942</v>
+        <v>-0.89662745082611506</v>
       </c>
       <c r="N5" s="5">
-        <v>-20.231993133443893</v>
+        <v>-19.230750746634719</v>
       </c>
       <c r="O5" s="5">
-        <v>34.816892124842916</v>
+        <v>26.310843118576031</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>30</v>
@@ -1456,10 +1453,10 @@
         <v>32</v>
       </c>
       <c r="S5" s="5">
-        <v>1.8674999475</v>
+        <v>1.8575399869454101</v>
       </c>
       <c r="T5" s="5">
-        <v>1.435726046562195</v>
+        <v>1.4424480199813841</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1470,7 +1467,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5567234560</v>
+        <v>5412533248</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1479,34 +1476,34 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>22969900</v>
+        <v>23011176</v>
       </c>
       <c r="G6" s="5">
-        <v>5.7870368957519531</v>
+        <v>5.8962264060974121</v>
       </c>
       <c r="H6" s="5">
-        <v>0.49799161192505303</v>
+        <v>-2.530984018257965</v>
       </c>
       <c r="I6" s="5">
-        <v>3.0675096628174581</v>
+        <v>0.292072728223158</v>
       </c>
       <c r="J6" s="5">
-        <v>-6.1717737923377092</v>
+        <v>-9.7963188210403622</v>
       </c>
       <c r="K6" s="5">
-        <v>0.62825354758910801</v>
+        <v>-2.780609964882808</v>
       </c>
       <c r="L6" s="5">
-        <v>14.75156742225856</v>
+        <v>13.017140223696355</v>
       </c>
       <c r="M6" s="5">
-        <v>1.4775200544067111</v>
+        <v>-1.3423299140231439</v>
       </c>
       <c r="N6" s="5">
-        <v>-21.124160270082935</v>
+        <v>-22.518276591118923</v>
       </c>
       <c r="O6" s="5">
-        <v>62.011793109345618</v>
+        <v>45.842007776015414</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>42</v>
@@ -1521,7 +1518,7 @@
         <v>3.871919847578821</v>
       </c>
       <c r="T6" s="5">
-        <v>2.9049968719482422</v>
+        <v>2.8314719200134282</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1532,7 +1529,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5472582656</v>
+        <v>5369127424</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1541,34 +1538,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>13870822</v>
+        <v>13258934</v>
       </c>
       <c r="G7" s="5">
-        <v>4.4733729362487793</v>
+        <v>4.520930290222168</v>
       </c>
       <c r="H7" s="5">
-        <v>-0.45757609036561903</v>
+        <v>-0.88469995580053906</v>
       </c>
       <c r="I7" s="5">
-        <v>3.1473556557539029</v>
+        <v>1.80687781274731</v>
       </c>
       <c r="J7" s="5">
-        <v>5.5546347773838933</v>
+        <v>4.3108628356158576</v>
       </c>
       <c r="K7" s="5">
-        <v>-1.075441262997934</v>
+        <v>-2.7591531373709621</v>
       </c>
       <c r="L7" s="5">
-        <v>6.7265549133912916</v>
+        <v>5.9888410986981278</v>
       </c>
       <c r="M7" s="5">
-        <v>-4.6654530027912324</v>
+        <v>-6.4676738774554927</v>
       </c>
       <c r="N7" s="5">
-        <v>-9.1927578396992402</v>
+        <v>-8.0594629831794116</v>
       </c>
       <c r="O7" s="5">
-        <v>23.974012614451603</v>
+        <v>11.755041074554629</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>46</v>
@@ -1581,7 +1578,7 @@
         <v>1313.4164510311298</v>
       </c>
       <c r="T7" s="5">
-        <v>1159.38720703125</v>
+        <v>1138.68505859375</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1592,7 +1589,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5285641216</v>
+        <v>5330762752</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1601,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>10785541</v>
+        <v>10961648</v>
       </c>
       <c r="G8" s="5">
         <v>2.4647104740142822</v>
@@ -1622,7 +1619,7 @@
         <v>43.493618403892739</v>
       </c>
       <c r="M8" s="5">
-        <v>22.085138297937146</v>
+        <v>23.386906494774571</v>
       </c>
       <c r="N8" s="5">
         <v>32.35114104910997</v>
@@ -1654,7 +1651,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4992292864</v>
+        <v>4846425088</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1663,34 +1660,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>10234393</v>
+        <v>10152229</v>
       </c>
       <c r="G9" s="5">
-        <v>3.9716312885284419</v>
+        <v>4.0565013885498047</v>
       </c>
       <c r="H9" s="5">
-        <v>0.50597055241632405</v>
+        <v>-1.564565601446311</v>
       </c>
       <c r="I9" s="5">
-        <v>4.4845557907617462</v>
+        <v>2.1559449145887029</v>
       </c>
       <c r="J9" s="5">
-        <v>5.5849135222422408</v>
+        <v>3.9626516895121089</v>
       </c>
       <c r="K9" s="5">
-        <v>1.1415204349168431</v>
+        <v>-1.699071319398171</v>
       </c>
       <c r="L9" s="5">
-        <v>5.1045343671816568</v>
+        <v>3.021152751803013</v>
       </c>
       <c r="M9" s="5">
-        <v>-1.979297295279181</v>
+        <v>-4.8433263784899978</v>
       </c>
       <c r="N9" s="5">
-        <v>-17.843552365206115</v>
+        <v>-17.612786061649278</v>
       </c>
       <c r="O9" s="5">
-        <v>3.654041895576277</v>
+        <v>-0.63825512180351007</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1703,7 +1700,7 @@
         <v>2640.8875311520219</v>
       </c>
       <c r="T9" s="5">
-        <v>2149.55419921875</v>
+        <v>2088.976318359375</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1714,7 +1711,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4413926400</v>
+        <v>4525500928</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -1723,34 +1720,34 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>16320879</v>
+        <v>13476435</v>
       </c>
       <c r="G10" s="5">
-        <v>6.0685329437255859</v>
+        <v>5.9018063545227051</v>
       </c>
       <c r="H10" s="5">
-        <v>-1.926680207483833</v>
+        <v>2.915845005208229</v>
       </c>
       <c r="I10" s="5">
-        <v>3.3791380030913749</v>
+        <v>1.8130723108503499</v>
       </c>
       <c r="J10" s="5">
-        <v>-10.747659486249328</v>
+        <v>-10.300497114262186</v>
       </c>
       <c r="K10" s="5">
-        <v>-2.3691373378484371</v>
+        <v>-1.1712485990194701</v>
       </c>
       <c r="L10" s="5">
-        <v>27.283859173448242</v>
+        <v>32.296069752822333</v>
       </c>
       <c r="M10" s="5">
-        <v>-0.39238095993439104</v>
+        <v>2.1254721804998988</v>
       </c>
       <c r="N10" s="5">
-        <v>-27.952858584035177</v>
+        <v>-25.464782302251486</v>
       </c>
       <c r="O10" s="5">
-        <v>37.069239698431545</v>
+        <v>31.544114603547936</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1762,10 +1759,10 @@
         <v>37</v>
       </c>
       <c r="S10" s="5">
-        <v>7.0465491486094116</v>
+        <v>6.9735852109131589</v>
       </c>
       <c r="T10" s="5">
-        <v>4.760399341583252</v>
+        <v>4.899205207824707</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1776,7 +1773,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4000570368</v>
+        <v>4100159232</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1785,34 +1782,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9133867</v>
+        <v>9574602</v>
       </c>
       <c r="G11" s="5">
-        <v>2.0729365348815918</v>
+        <v>2.0250000953674321</v>
       </c>
       <c r="H11" s="5">
-        <v>-2.4449368164686009</v>
+        <v>2.7148242193159029</v>
       </c>
       <c r="I11" s="5">
-        <v>0.44444250568447302</v>
+        <v>-0.29490862861449901</v>
       </c>
       <c r="J11" s="5">
-        <v>-9.6385113704005487</v>
+        <v>-9.6918958295882156</v>
       </c>
       <c r="K11" s="5">
-        <v>-8.925960785909826</v>
+        <v>-7.4552818475363445</v>
       </c>
       <c r="L11" s="5">
-        <v>11.884318846303877</v>
+        <v>15.625166777795819</v>
       </c>
       <c r="M11" s="5">
-        <v>-9.3936145026573001</v>
+        <v>-7.1380930422731534</v>
       </c>
       <c r="N11" s="5">
-        <v>-18.174483369409078</v>
+        <v>-12.831234177018269</v>
       </c>
       <c r="O11" s="5">
-        <v>34.308311294079964</v>
+        <v>38.347537868200376</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1827,7 +1824,7 @@
         <v>11.852492330932618</v>
       </c>
       <c r="T11" s="5">
-        <v>8.5160055160522461</v>
+        <v>8.7472000122070312</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1838,7 +1835,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3762500608</v>
+        <v>3630224640</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1847,34 +1844,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>21997268</v>
+        <v>22299538</v>
       </c>
       <c r="G12" s="5">
-        <v>4.5624222755432129</v>
+        <v>4.5267491340637207</v>
       </c>
       <c r="H12" s="5">
-        <v>-1.471183952205757</v>
+        <v>0.78804903317757402</v>
       </c>
       <c r="I12" s="5">
-        <v>0.8403103919196081</v>
+        <v>0.12360436230349801</v>
       </c>
       <c r="J12" s="5">
-        <v>-6.8988656843232192</v>
+        <v>-4.6358602366685542</v>
       </c>
       <c r="K12" s="5">
-        <v>6.1985587740278847</v>
+        <v>6.3867463881258857</v>
       </c>
       <c r="L12" s="5">
-        <v>23.971644365714752</v>
+        <v>26.089102438677749</v>
       </c>
       <c r="M12" s="5">
-        <v>3.8908788515722659</v>
+        <v>4.7095899179217859</v>
       </c>
       <c r="N12" s="5">
-        <v>-0.85282242266701003</v>
+        <v>-1.535930595811974</v>
       </c>
       <c r="O12" s="5">
-        <v>173.5700672769479</v>
+        <v>163.21662660285381</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1889,7 +1886,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.110000610351563</v>
+        <v>24.299999237060547</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1900,7 +1897,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3592067072</v>
+        <v>3611323648</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>68</v>
@@ -1909,34 +1906,34 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8196595.5</v>
+        <v>8053286.5</v>
       </c>
       <c r="G13" s="5">
-        <v>10.358852386474609</v>
+        <v>9.9723634719848633</v>
       </c>
       <c r="H13" s="5">
-        <v>-3.762997566244997</v>
+        <v>4.22829962276563</v>
       </c>
       <c r="I13" s="5">
-        <v>2.40107232383775</v>
+        <v>2.8720859803275101</v>
       </c>
       <c r="J13" s="5">
-        <v>-10.313641722885347</v>
+        <v>-8.8390614955449429</v>
       </c>
       <c r="K13" s="5">
-        <v>5.4758485209792873</v>
+        <v>7.8138637271327083</v>
       </c>
       <c r="L13" s="5">
-        <v>29.663413356725044</v>
+        <v>34.59969017436606</v>
       </c>
       <c r="M13" s="5">
-        <v>10.496414455814662</v>
+        <v>14.9157360898728</v>
       </c>
       <c r="N13" s="5">
-        <v>-21.269484951099471</v>
+        <v>-16.458733802222614</v>
       </c>
       <c r="O13" s="5">
-        <v>-25.037297195159681</v>
+        <v>-24.353602204396886</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>42</v>
@@ -1951,7 +1948,7 @@
         <v>67.437240827178954</v>
       </c>
       <c r="T13" s="5">
-        <v>45.549457550048828</v>
+        <v>47.475425720214844</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1962,58 +1959,56 @@
         <v>71</v>
       </c>
       <c r="C14" s="5">
-        <v>3495407360</v>
+        <v>3361867008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>20501126</v>
+        <v>8160125.5</v>
       </c>
       <c r="G14" s="5">
-        <v>3.7486386299133301</v>
+        <v>4.4128313064575204</v>
       </c>
       <c r="H14" s="5">
-        <v>-0.43039543232741301</v>
+        <v>-1.2500579082938781</v>
       </c>
       <c r="I14" s="5">
-        <v>-0.36529079071756504</v>
+        <v>0.73495259785203404</v>
       </c>
       <c r="J14" s="5">
-        <v>-14.899250038050837</v>
+        <v>-0.41013509826531802</v>
       </c>
       <c r="K14" s="5">
-        <v>-10.01448966576649</v>
+        <v>-3.6727793883622573</v>
       </c>
       <c r="L14" s="5">
-        <v>-7.666631392825451</v>
+        <v>7.7968576194259009</v>
       </c>
       <c r="M14" s="5">
-        <v>-9.5389230551556352</v>
+        <v>-5.6165774192612927</v>
       </c>
       <c r="N14" s="5">
-        <v>-39.718829183962391</v>
+        <v>1.032501608127689</v>
       </c>
       <c r="O14" s="5">
-        <v>90.749606540515714</v>
+        <v>29.382808343520452</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="S14" s="5">
-        <v>12.443280092553131</v>
+        <v>1187.971105527638</v>
       </c>
       <c r="T14" s="5">
-        <v>7.3866090774536133</v>
+        <v>1084.96630859375</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2024,56 +2019,58 @@
         <v>73</v>
       </c>
       <c r="C15" s="5">
-        <v>3435522816</v>
+        <v>3356936704</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>8020487.5</v>
+        <v>21385896</v>
       </c>
       <c r="G15" s="5">
-        <v>4.3551273345947266</v>
+        <v>3.8788731098175049</v>
       </c>
       <c r="H15" s="5">
-        <v>-0.89989966211038208</v>
+        <v>-3.716714511431729</v>
       </c>
       <c r="I15" s="5">
-        <v>3.4626976700860901</v>
+        <v>-3.5860711557095142</v>
       </c>
       <c r="J15" s="5">
-        <v>1.3780496389044661</v>
+        <v>-19.217303552671982</v>
       </c>
       <c r="K15" s="5">
-        <v>-1.2171629519530101</v>
+        <v>-13.717794434354669</v>
       </c>
       <c r="L15" s="5">
-        <v>8.3400995404694598</v>
+        <v>-9.2379597177329345</v>
       </c>
       <c r="M15" s="5">
-        <v>-3.548709510084946</v>
+        <v>-13.122546395849355</v>
       </c>
       <c r="N15" s="5">
-        <v>-0.57944302349349808</v>
+        <v>-40.435930106036231</v>
       </c>
       <c r="O15" s="5">
-        <v>40.911588590004989</v>
+        <v>72.890091638649452</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R15" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="S15" s="5">
-        <v>1187.971105527638</v>
+        <v>12.443280092553131</v>
       </c>
       <c r="T15" s="5">
-        <v>1107.553955078125</v>
+        <v>7.1120696067810059</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2084,7 +2081,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="5">
-        <v>3150923776</v>
+        <v>3142407680</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>76</v>
@@ -2093,34 +2090,34 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>11406920</v>
+        <v>11428493</v>
       </c>
       <c r="G16" s="5">
-        <v>5.5277776718139648</v>
+        <v>5.4896550178527832</v>
       </c>
       <c r="H16" s="5">
-        <v>-0.23320645917547203</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>2.135729839066824</v>
+        <v>1.9974563497767941</v>
       </c>
       <c r="J16" s="5">
-        <v>4.8414338911173527</v>
+        <v>4.7635263321582411</v>
       </c>
       <c r="K16" s="5">
-        <v>7.8647027996392449</v>
+        <v>7.8525970486900132</v>
       </c>
       <c r="L16" s="5">
-        <v>4.8847849797178933</v>
+        <v>5.0023603370939806</v>
       </c>
       <c r="M16" s="5">
-        <v>7.416342333652759</v>
+        <v>7.1260293200917424</v>
       </c>
       <c r="N16" s="5">
-        <v>-12.209506022184913</v>
+        <v>-12.144892973085931</v>
       </c>
       <c r="O16" s="5">
-        <v>63.069561068645584</v>
+        <v>56.48145120140056</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>77</v>
@@ -2146,7 +2143,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="5">
-        <v>3148763648</v>
+        <v>3096346624</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>23</v>
@@ -2155,31 +2152,31 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>16802434</v>
+        <v>16750878</v>
       </c>
       <c r="G17" s="5">
-        <v>6.5907726287841797</v>
+        <v>6.6505441665649414</v>
       </c>
       <c r="H17" s="5">
-        <v>-0.7728844418861901</v>
+        <v>-0.89873944715690401</v>
       </c>
       <c r="I17" s="5">
-        <v>0.37589482791016104</v>
+        <v>-1.430272713332903</v>
       </c>
       <c r="J17" s="5">
-        <v>-6.5370480681697707</v>
+        <v>-4.5368143277716992</v>
       </c>
       <c r="K17" s="5">
-        <v>3.184457181130651</v>
+        <v>-1.6896607040319029</v>
       </c>
       <c r="L17" s="5">
-        <v>6.8777725603255355</v>
+        <v>9.5835798842271771</v>
       </c>
       <c r="M17" s="5">
-        <v>4.6485257584532258</v>
+        <v>3.7080081765938471</v>
       </c>
       <c r="N17" s="5">
-        <v>-18.420715533125765</v>
+        <v>-19.961633525033417</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
@@ -2195,7 +2192,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T17" s="5">
-        <v>16.690000534057617</v>
+        <v>16.540000915527344</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2206,7 +2203,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="5">
-        <v>2528196352</v>
+        <v>2526787840</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>83</v>
@@ -2215,111 +2212,111 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9764429</v>
+        <v>9296050</v>
       </c>
       <c r="G18" s="5">
-        <v>4.8780488967895508</v>
+        <v>9.7691736221313477</v>
       </c>
       <c r="H18" s="5">
-        <v>-0.94631654366258411</v>
+        <v>-0.28714150007135303</v>
       </c>
       <c r="I18" s="5">
-        <v>1.471197320318818</v>
+        <v>1.1349865891141511</v>
       </c>
       <c r="J18" s="5">
-        <v>-4.8674544388504604</v>
+        <v>0.44036900978317001</v>
       </c>
       <c r="K18" s="5">
-        <v>4.509127648622191</v>
+        <v>-13.651212097134602</v>
       </c>
       <c r="L18" s="5">
-        <v>17.545063307401886</v>
+        <v>16.320237914622183</v>
       </c>
       <c r="M18" s="5">
-        <v>3.2858413036089829</v>
+        <v>-13.691276886906966</v>
       </c>
       <c r="N18" s="5">
-        <v>-6.639803831481494</v>
+        <v>-21.477602704347898</v>
       </c>
       <c r="O18" s="5">
-        <v>141.41949351422934</v>
+        <v>52.073394185397916</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S18" s="5">
-        <v>11.425618100945441</v>
+        <v>0.99056022140322508</v>
       </c>
       <c r="T18" s="5">
-        <v>9.1280145645141602</v>
+        <v>0.73728018999099709</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="5">
-        <v>2525679360</v>
+        <v>2511292672</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>9519359</v>
+        <v>9371273</v>
       </c>
       <c r="G19" s="5">
-        <v>9.8277158737182617</v>
+        <v>4.858299732208252</v>
       </c>
       <c r="H19" s="5">
-        <v>-0.48774977286847304</v>
+        <v>0.39905412657894601</v>
       </c>
       <c r="I19" s="5">
-        <v>2.8673617208976321</v>
+        <v>6.9182752831276006E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>1.190155504497814</v>
+        <v>-4.4105576549331005</v>
       </c>
       <c r="K19" s="5">
-        <v>-13.032611616167166</v>
+        <v>3.0944277175376289</v>
       </c>
       <c r="L19" s="5">
-        <v>16.834819764790289</v>
+        <v>20.875422509174378</v>
       </c>
       <c r="M19" s="5">
-        <v>-13.469878324282746</v>
+        <v>3.3219198823449592</v>
       </c>
       <c r="N19" s="5">
-        <v>-19.502858804645463</v>
+        <v>-5.1817512867998854</v>
       </c>
       <c r="O19" s="5">
-        <v>59.209989412735872</v>
+        <v>131.24139812099759</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>89</v>
       </c>
       <c r="S19" s="5">
-        <v>0.99056022140322508</v>
+        <v>11.425618100945441</v>
       </c>
       <c r="T19" s="5">
-        <v>0.73940324783325206</v>
+        <v>9.1644411087036133</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2330,7 +2327,7 @@
         <v>91</v>
       </c>
       <c r="C20" s="5">
-        <v>2477434624</v>
+        <v>2446496000</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -2339,34 +2336,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>7242114</v>
+        <v>7501137.5</v>
       </c>
       <c r="G20" s="5">
-        <v>5.0067477226257324</v>
+        <v>5.0271000862121582</v>
       </c>
       <c r="H20" s="5">
-        <v>-1.2710804230625981</v>
+        <v>-0.15311078459462302</v>
       </c>
       <c r="I20" s="5">
-        <v>6.5784527253839764</v>
+        <v>3.1085178300649829</v>
       </c>
       <c r="J20" s="5">
-        <v>8.1279310776295244</v>
+        <v>7.6320590130463106</v>
       </c>
       <c r="K20" s="5">
-        <v>0.8894741999898591</v>
+        <v>9.022910489993001E-2</v>
       </c>
       <c r="L20" s="5">
-        <v>2.9916654385725661</v>
+        <v>2.559264961368624</v>
       </c>
       <c r="M20" s="5">
-        <v>-0.70056422317628109</v>
+        <v>-1.9406349511992831</v>
       </c>
       <c r="N20" s="5">
-        <v>-11.186617808967858</v>
+        <v>-10.661816133877888</v>
       </c>
       <c r="O20" s="5">
-        <v>15.450265887614822</v>
+        <v>8.5761478254364967</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2379,7 +2376,7 @@
         <v>652.78559369724246</v>
       </c>
       <c r="T20" s="5">
-        <v>564.82965087890625</v>
+        <v>558.37176513671875</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2390,7 +2387,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="5">
-        <v>2452262912</v>
+        <v>2425334784</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>45</v>
@@ -2399,34 +2396,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>8064409.5</v>
+        <v>8214915.5</v>
       </c>
       <c r="G21" s="5">
-        <v>4.7029075622558594</v>
+        <v>4.7148289680480957</v>
       </c>
       <c r="H21" s="5">
-        <v>-0.67676487449023204</v>
+        <v>-0.6754717623693951</v>
       </c>
       <c r="I21" s="5">
-        <v>6.2155336232442071</v>
+        <v>4.8388576811620787</v>
       </c>
       <c r="J21" s="5">
-        <v>7.4168496053690145</v>
+        <v>6.7970369281372012</v>
       </c>
       <c r="K21" s="5">
-        <v>-1.541593446893408</v>
+        <v>-2.395812215085646</v>
       </c>
       <c r="L21" s="5">
-        <v>3.5631730210452521</v>
+        <v>2.9037173864019161</v>
       </c>
       <c r="M21" s="5">
-        <v>-4.2665221400914222</v>
+        <v>-5.317765586701495</v>
       </c>
       <c r="N21" s="5">
-        <v>-9.1176787037319134</v>
+        <v>-8.2810475710474503</v>
       </c>
       <c r="O21" s="5">
-        <v>29.133312841495297</v>
+        <v>19.24658623871791</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2439,7 +2436,7 @@
         <v>3404.6145188519977</v>
       </c>
       <c r="T21" s="5">
-        <v>3014.71142578125</v>
+        <v>2984.792236328125</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2450,7 +2447,7 @@
         <v>95</v>
       </c>
       <c r="C22" s="5">
-        <v>2078621952</v>
+        <v>2139678080</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>35</v>
@@ -2459,34 +2456,34 @@
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>8123106.5</v>
+        <v>7730389</v>
       </c>
       <c r="G22" s="5">
-        <v>6.3944530487060547</v>
+        <v>6.1940298080444336</v>
       </c>
       <c r="H22" s="5">
-        <v>-2.9287148693523219</v>
+        <v>3.3269453451434621</v>
       </c>
       <c r="I22" s="5">
-        <v>2.905920750736191</v>
+        <v>3.293948416444326</v>
       </c>
       <c r="J22" s="5">
-        <v>-7.7397282101135065</v>
+        <v>-6.2862923795058538</v>
       </c>
       <c r="K22" s="5">
-        <v>-11.050856338833093</v>
+        <v>-8.9744648731480794</v>
       </c>
       <c r="L22" s="5">
-        <v>-8.5272175495352815</v>
+        <v>-5.6454993591436908</v>
       </c>
       <c r="M22" s="5">
-        <v>-9.7972140308256854</v>
+        <v>-7.1476679301985966</v>
       </c>
       <c r="N22" s="5">
-        <v>-34.680452972000467</v>
+        <v>-32.821061563637102</v>
       </c>
       <c r="O22" s="5">
-        <v>8.5790410121482363</v>
+        <v>13.404193607460723</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
@@ -2501,7 +2498,7 @@
         <v>1.9808639392</v>
       </c>
       <c r="T22" s="5">
-        <v>1.212202191352844</v>
+        <v>1.2525315284728999</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2512,7 +2509,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="5">
-        <v>2038040320</v>
+        <v>2013830016</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2521,34 +2518,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5781782.5</v>
+        <v>5834579.5</v>
       </c>
       <c r="G23" s="5">
-        <v>6.6587395668029794</v>
+        <v>6.6985645294189453</v>
       </c>
       <c r="H23" s="5">
-        <v>-1.601807013451773</v>
+        <v>-0.93605235437820311</v>
       </c>
       <c r="I23" s="5">
-        <v>1.1798652650510939</v>
+        <v>0.30233210293864105</v>
       </c>
       <c r="J23" s="5">
-        <v>-5.5986097699900483</v>
+        <v>-6.9777700767232993</v>
       </c>
       <c r="K23" s="5">
-        <v>-4.7522827025458181</v>
+        <v>-6.2966907322031247</v>
       </c>
       <c r="L23" s="5">
-        <v>8.7434503473134093</v>
+        <v>8.5822445106577874</v>
       </c>
       <c r="M23" s="5">
-        <v>-5.1054766990367373</v>
+        <v>-6.2327440155706348</v>
       </c>
       <c r="N23" s="5">
-        <v>-26.184263386896856</v>
+        <v>-25.889152025857143</v>
       </c>
       <c r="O23" s="5">
-        <v>36.092673934608797</v>
+        <v>28.373910388207648</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
@@ -2563,7 +2560,7 @@
         <v>4.050624031726354</v>
       </c>
       <c r="T23" s="5">
-        <v>2.8177797794342041</v>
+        <v>2.791404008865356</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2574,7 +2571,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="5">
-        <v>1663609344</v>
+        <v>1646243456</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -2583,34 +2580,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3406439.25</v>
+        <v>3427372.5</v>
       </c>
       <c r="G24" s="5">
-        <v>4.5970935821533203</v>
+        <v>4.6062211990356454</v>
       </c>
       <c r="H24" s="5">
-        <v>-0.65648039625197907</v>
+        <v>-0.62100959348209106</v>
       </c>
       <c r="I24" s="5">
-        <v>3.0874862258578828</v>
+        <v>1.4611880527323651</v>
       </c>
       <c r="J24" s="5">
-        <v>4.2322010735672766</v>
+        <v>3.617032995734148</v>
       </c>
       <c r="K24" s="5">
-        <v>-2.4810690485785769</v>
+        <v>-3.383839338534167</v>
       </c>
       <c r="L24" s="5">
-        <v>1.1684312988951011</v>
+        <v>-0.13020953780410502</v>
       </c>
       <c r="M24" s="5">
-        <v>-5.5405853282621038</v>
+        <v>-6.526612614243243</v>
       </c>
       <c r="N24" s="5">
-        <v>-11.847279152719924</v>
+        <v>-11.074652422621901</v>
       </c>
       <c r="O24" s="5">
-        <v>31.081914615544925</v>
+        <v>22.871862956565892</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2623,7 +2620,7 @@
         <v>1344.9634214969049</v>
       </c>
       <c r="T24" s="5">
-        <v>1154.0513916015625</v>
+        <v>1143.224609375</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2631,10 +2628,10 @@
         <v>102</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C25" s="5">
-        <v>1598885376</v>
+        <v>1582346752</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2643,34 +2640,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1796690.875</v>
+        <v>1837425.75</v>
       </c>
       <c r="G25" s="5">
-        <v>6.7845664024353027</v>
+        <v>6.8064517974853525</v>
       </c>
       <c r="H25" s="5">
-        <v>-0.74952848765717006</v>
+        <v>-0.78211998889292611</v>
       </c>
       <c r="I25" s="5">
-        <v>4.8311695067525751</v>
+        <v>2.5600112497173639</v>
       </c>
       <c r="J25" s="5">
-        <v>-0.75443962023024103</v>
+        <v>-2.4346865493871661</v>
       </c>
       <c r="K25" s="5">
-        <v>1.09153545322902</v>
+        <v>-0.86180802002576706</v>
       </c>
       <c r="L25" s="5">
-        <v>4.1314947042279782</v>
+        <v>3.8152823191266889</v>
       </c>
       <c r="M25" s="5">
-        <v>2.724807176106459</v>
+        <v>1.6622473556104471</v>
       </c>
       <c r="N25" s="5">
-        <v>-33.089179836703138</v>
+        <v>-33.09247097705645</v>
       </c>
       <c r="O25" s="5">
-        <v>54.336545119454804</v>
+        <v>40.19161045628401</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2685,7 +2682,7 @@
         <v>3.313469849078821</v>
       </c>
       <c r="T25" s="5">
-        <v>2.0864989757537842</v>
+        <v>2.07017993927002</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2696,7 +2693,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="5">
-        <v>1577534464</v>
+        <v>1548386944</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2705,34 +2702,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>2991097.25</v>
+        <v>2936260</v>
       </c>
       <c r="G26" s="5">
-        <v>6.9391632080078134</v>
+        <v>7.019230842590332</v>
       </c>
       <c r="H26" s="5">
-        <v>-1.1818634023456731</v>
+        <v>-1.5974842325817029</v>
       </c>
       <c r="I26" s="5">
-        <v>2.3958599306436401</v>
+        <v>-3.3046786957713001E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>-5.7704559733453342</v>
+        <v>-8.2700088512887131</v>
       </c>
       <c r="K26" s="5">
-        <v>-0.53372889491838404</v>
+        <v>-2.4052458701289141</v>
       </c>
       <c r="L26" s="5">
-        <v>9.3949322837404647</v>
+        <v>8.5034334782770671</v>
       </c>
       <c r="M26" s="5">
-        <v>-1.569151874622388</v>
+        <v>-3.3878255098701242</v>
       </c>
       <c r="N26" s="5">
-        <v>-25.675682721343396</v>
+        <v>-26.727546575288642</v>
       </c>
       <c r="O26" s="5">
-        <v>54.372563445937949</v>
+        <v>43.286450210271667</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2747,7 +2744,7 @@
         <v>2.5316400642105892</v>
       </c>
       <c r="T26" s="5">
-        <v>1.7644670009613042</v>
+        <v>1.736279964447021</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2758,43 +2755,43 @@
         <v>106</v>
       </c>
       <c r="C27" s="5">
-        <v>1482272768</v>
+        <v>1481275904</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3329320</v>
+        <v>3308347</v>
       </c>
       <c r="G27" s="5">
-        <v>11.160236358642578</v>
+        <v>11.218514442443848</v>
       </c>
       <c r="H27" s="5">
-        <v>0.51953468389540602</v>
+        <v>-1.3960156747231611</v>
       </c>
       <c r="I27" s="5">
-        <v>5.8218098811438246</v>
+        <v>1.611103690762183</v>
       </c>
       <c r="J27" s="5">
-        <v>2.991362850566603</v>
+        <v>2.4744443570333452</v>
       </c>
       <c r="K27" s="5">
-        <v>-9.9074549326708006</v>
+        <v>-12.164282067918064</v>
       </c>
       <c r="L27" s="5">
-        <v>11.027342107525872</v>
+        <v>7.2635624680678754</v>
       </c>
       <c r="M27" s="5">
-        <v>-14.223007034027034</v>
+        <v>-15.393935906758482</v>
       </c>
       <c r="N27" s="5">
-        <v>-22.971334102835293</v>
+        <v>-24.398723412639576</v>
       </c>
       <c r="O27" s="5">
-        <v>137.3113817219953</v>
+        <v>131.68557294069467</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>42</v>
@@ -2803,13 +2800,13 @@
         <v>107</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S27" s="5">
         <v>0.31711016131256003</v>
       </c>
       <c r="T27" s="5">
-        <v>0.21323615312576302</v>
+        <v>0.21025934815406802</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2820,7 +2817,7 @@
         <v>109</v>
       </c>
       <c r="C28" s="5">
-        <v>1436395136</v>
+        <v>1414678912</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>45</v>
@@ -2829,34 +2826,34 @@
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3590699</v>
+        <v>3454391.5</v>
       </c>
       <c r="G28" s="5">
-        <v>4.5867462158203134</v>
+        <v>4.6176910400390634</v>
       </c>
       <c r="H28" s="5">
-        <v>-1.2892358501325529</v>
+        <v>-0.57276487976671808</v>
       </c>
       <c r="I28" s="5">
-        <v>2.6414305943573302</v>
+        <v>-0.66302004030336403</v>
       </c>
       <c r="J28" s="5">
-        <v>4.060215674365053</v>
+        <v>3.393445196615597</v>
       </c>
       <c r="K28" s="5">
-        <v>-0.43150937031487502</v>
+        <v>-1.230041687930139</v>
       </c>
       <c r="L28" s="5">
-        <v>3.0069274112614952</v>
+        <v>2.1318289024768511</v>
       </c>
       <c r="M28" s="5">
-        <v>-2.2148568771235939</v>
+        <v>-3.6932261565729263</v>
       </c>
       <c r="N28" s="5">
-        <v>-17.985057181478403</v>
+        <v>-18.162228493722242</v>
       </c>
       <c r="O28" s="5">
-        <v>32.703167097537332</v>
+        <v>20.278787184464807</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
@@ -2869,7 +2866,7 @@
         <v>1291.1005707854329</v>
       </c>
       <c r="T28" s="5">
-        <v>1023.7060546875</v>
+        <v>1009.3062133789062</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2880,7 +2877,7 @@
         <v>111</v>
       </c>
       <c r="C29" s="5">
-        <v>1363311104</v>
+        <v>1367666688</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>23</v>
@@ -2889,34 +2886,34 @@
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>6194724</v>
+        <v>6062193.5</v>
       </c>
       <c r="G29" s="5">
-        <v>4.7084002494812012</v>
+        <v>4.6709127426147461</v>
       </c>
       <c r="H29" s="5">
-        <v>-0.47923402181709901</v>
+        <v>0.80256615432909906</v>
       </c>
       <c r="I29" s="5">
-        <v>4.1225612237633324</v>
+        <v>2.1691952654312452</v>
       </c>
       <c r="J29" s="5">
-        <v>-2.2237222854177841</v>
+        <v>0.271041609861289</v>
       </c>
       <c r="K29" s="5">
-        <v>1.391804361414684</v>
+        <v>-0.668998901058238</v>
       </c>
       <c r="L29" s="5">
-        <v>9.2096879442346449</v>
+        <v>10.401058320870128</v>
       </c>
       <c r="M29" s="5">
-        <v>1.012866303915771</v>
+        <v>1.823561380388683</v>
       </c>
       <c r="N29" s="5">
-        <v>-13.560754819507736</v>
+        <v>-13.058694794182168</v>
       </c>
       <c r="O29" s="5">
-        <v>117.87784983839727</v>
+        <v>90.935610171932368</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
@@ -2931,7 +2928,7 @@
         <v>23.389999389648438</v>
       </c>
       <c r="T29" s="5">
-        <v>18.690000534057617</v>
+        <v>18.840000152587891</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2942,7 +2939,7 @@
         <v>114</v>
       </c>
       <c r="C30" s="5">
-        <v>1355436288</v>
+        <v>1317322752</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>45</v>
@@ -2951,34 +2948,34 @@
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>3221580.75</v>
+        <v>3219941.5</v>
       </c>
       <c r="G30" s="5">
-        <v>3.742432594299316</v>
+        <v>3.8180797100067139</v>
       </c>
       <c r="H30" s="5">
-        <v>-1.461861987755531</v>
+        <v>-1.255349184742949</v>
       </c>
       <c r="I30" s="5">
-        <v>2.6380575601610001</v>
+        <v>-1.155520883982708</v>
       </c>
       <c r="J30" s="5">
-        <v>-1.301433257671059</v>
+        <v>-3.998020070150909</v>
       </c>
       <c r="K30" s="5">
-        <v>-7.4739854855802026</v>
+        <v>-10.441739532589322</v>
       </c>
       <c r="L30" s="5">
-        <v>1.8121672998320899</v>
+        <v>-0.49006624343790306</v>
       </c>
       <c r="M30" s="5">
-        <v>-10.687739454251755</v>
+        <v>-13.199102433932364</v>
       </c>
       <c r="N30" s="5">
-        <v>-9.4404013375758318</v>
+        <v>-9.3557769992195343</v>
       </c>
       <c r="O30" s="5">
-        <v>46.375010166588694</v>
+        <v>28.859266833415155</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
@@ -2991,7 +2988,7 @@
         <v>1627.7828606282403</v>
       </c>
       <c r="T30" s="5">
-        <v>1385.01416015625</v>
+        <v>1347.5069580078125</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3002,7 +2999,7 @@
         <v>116</v>
       </c>
       <c r="C31" s="5">
-        <v>1331720448</v>
+        <v>1317064832</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>45</v>
@@ -3011,34 +3008,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>2611923.75</v>
+        <v>2680614</v>
       </c>
       <c r="G31" s="5">
-        <v>4.020421028137207</v>
+        <v>4.0307102203369141</v>
       </c>
       <c r="H31" s="5">
-        <v>-1.802864957270411</v>
+        <v>-0.67788184407446805</v>
       </c>
       <c r="I31" s="5">
-        <v>3.355447012980028</v>
+        <v>2.957077623949123</v>
       </c>
       <c r="J31" s="5">
-        <v>4.483735196858385</v>
+        <v>3.218265071542548</v>
       </c>
       <c r="K31" s="5">
-        <v>6.6045317457650299</v>
+        <v>5.2047463825577012</v>
       </c>
       <c r="L31" s="5">
-        <v>16.105162141280815</v>
+        <v>15.820834770042103</v>
       </c>
       <c r="M31" s="5">
-        <v>3.2644451797869229</v>
+        <v>2.128026475170786</v>
       </c>
       <c r="N31" s="5">
-        <v>1.9450480514885182</v>
+        <v>1.7404445876997741</v>
       </c>
       <c r="O31" s="5">
-        <v>72.852645437306521</v>
+        <v>58.077069016330718</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3051,7 +3048,7 @@
         <v>1220.179304057134</v>
       </c>
       <c r="T31" s="5">
-        <v>1194.4508056640625</v>
+        <v>1182.56787109375</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3062,7 +3059,7 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1308859520</v>
+        <v>1303669760</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>23</v>
@@ -3071,49 +3068,49 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>10784706</v>
+        <v>10366682</v>
       </c>
       <c r="G32" s="5">
-        <v>12.789768218994141</v>
+        <v>12.738853454589844</v>
       </c>
       <c r="H32" s="5">
-        <v>-0.79301689546406007</v>
+        <v>0.39968177314200204</v>
       </c>
       <c r="I32" s="5">
-        <v>-0.15961296500852701</v>
+        <v>-0.31746000509534905</v>
       </c>
       <c r="J32" s="5">
-        <v>-13.485475823795545</v>
+        <v>-11.797748444553147</v>
       </c>
       <c r="K32" s="5">
-        <v>-0.26706076236777704</v>
+        <v>-1.3960018037560971</v>
       </c>
       <c r="L32" s="5">
-        <v>19.366108750060064</v>
+        <v>25.087724480403708</v>
       </c>
       <c r="M32" s="5">
-        <v>2.4305705491239231</v>
+        <v>2.839966869734134</v>
       </c>
       <c r="N32" s="5">
-        <v>-9.4196121936908845</v>
+        <v>-10.037936745950994</v>
       </c>
       <c r="O32" s="5">
-        <v>56.083326075130245</v>
+        <v>38.456134021003322</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S32" s="5">
-        <v>15.840000152587891</v>
+        <v>15.390000343322754</v>
       </c>
       <c r="T32" s="5">
-        <v>12.510000228881836</v>
+        <v>12.560000419616699</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3124,7 +3121,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1249995136</v>
+        <v>1237679872</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3133,34 +3130,34 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1420965.875</v>
+        <v>1423995.625</v>
       </c>
       <c r="G33" s="5">
-        <v>6.3016757965087891</v>
+        <v>6.3656306266784668</v>
       </c>
       <c r="H33" s="5">
-        <v>-0.48765808459646504</v>
+        <v>-0.98395829308339811</v>
       </c>
       <c r="I33" s="5">
-        <v>3.0469961644436161</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5">
-        <v>-18.473897043580912</v>
+        <v>-19.28121634709332</v>
       </c>
       <c r="K33" s="5">
-        <v>-1.8530018757797579</v>
+        <v>-5.7044044309030202</v>
       </c>
       <c r="L33" s="5">
-        <v>22.290716550629639</v>
+        <v>16.184969266053905</v>
       </c>
       <c r="M33" s="5">
-        <v>2.4129604171742041</v>
+        <v>1.4039666812930121</v>
       </c>
       <c r="N33" s="5">
-        <v>-37.145121224785008</v>
+        <v>-37.372177004348615</v>
       </c>
       <c r="O33" s="5">
-        <v>-34.650860661690984</v>
+        <v>-35.810289444127939</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>42</v>
@@ -3172,10 +3169,10 @@
         <v>123</v>
       </c>
       <c r="S33" s="5">
-        <v>0.44271498196098902</v>
+        <v>0.44010716260794902</v>
       </c>
       <c r="T33" s="5">
-        <v>0.25860530138015703</v>
+        <v>0.25605422258377103</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3186,118 +3183,118 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1105512832</v>
+        <v>1126315776</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>3403269.25</v>
+        <v>14931332</v>
       </c>
       <c r="G34" s="5">
-        <v>4.9720497131347656</v>
+        <v>7.115903377532959</v>
       </c>
       <c r="H34" s="5">
-        <v>-1.3571253447818401</v>
+        <v>0.54199712729530203</v>
       </c>
       <c r="I34" s="5">
-        <v>3.03275606704192</v>
+        <v>2.5995537352754061</v>
       </c>
       <c r="J34" s="5">
-        <v>3.269214277771848</v>
+        <v>-23.049604089529353</v>
       </c>
       <c r="K34" s="5">
-        <v>-4.3695402272574402</v>
+        <v>-30.391771212757558</v>
       </c>
       <c r="L34" s="5">
-        <v>-1.6535189338145351</v>
+        <v>-23.879665035969055</v>
       </c>
       <c r="M34" s="5">
-        <v>-7.3664168901741665</v>
+        <v>-28.973335191243521</v>
       </c>
       <c r="N34" s="5">
-        <v>-16.704135236864424</v>
+        <v>-47.520142508463216</v>
       </c>
       <c r="O34" s="5">
-        <v>18.521565335388821</v>
+        <v>-12.246660754210769</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="4"/>
+      <c r="Q34" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="R34" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S34" s="5">
-        <v>3014.7117935525362</v>
+        <v>38.110000610351563</v>
       </c>
       <c r="T34" s="5">
-        <v>2454.455322265625</v>
+        <v>18.549999237060547</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A35" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" s="5">
-        <v>1100814336</v>
+        <v>1082528128</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>19254148</v>
+        <v>3313808.75</v>
       </c>
       <c r="G35" s="5">
-        <v>7.1544713973999023</v>
+        <v>5.0345911979675293</v>
       </c>
       <c r="H35" s="5">
-        <v>1.7650392552986731</v>
+        <v>-1.200424780525011</v>
       </c>
       <c r="I35" s="5">
-        <v>2.5000042385525223</v>
+        <v>-0.17387477260452103</v>
       </c>
       <c r="J35" s="5">
-        <v>-24.604909204663262</v>
+        <v>1.3181833811365169</v>
       </c>
       <c r="K35" s="5">
-        <v>-29.088632153942051</v>
+        <v>-5.1177177753550351</v>
       </c>
       <c r="L35" s="5">
-        <v>-25.187049507290638</v>
+        <v>-3.5098293577662139</v>
       </c>
       <c r="M35" s="5">
-        <v>-29.356222436251912</v>
+        <v>-9.2923629806519799</v>
       </c>
       <c r="N35" s="5">
-        <v>-47.477254710321979</v>
+        <v>-16.491223578506375</v>
       </c>
       <c r="O35" s="5">
-        <v>-3.9022976150406952</v>
+        <v>6.9650821255438977</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S35" s="5">
-        <v>38.110000610351563</v>
+        <v>3014.7117935525362</v>
       </c>
       <c r="T35" s="5">
-        <v>18.450000762939453</v>
+        <v>2405.9921875</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3308,7 +3305,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>1047918656</v>
+        <v>1063432704</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3317,60 +3314,60 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>13421259</v>
+        <v>5440582</v>
       </c>
       <c r="G36" s="5">
-        <v>2.1739130020141602</v>
+        <v>6.3122920989990234</v>
       </c>
       <c r="H36" s="5">
-        <v>-0.61728336011249707</v>
+        <v>2.3809500639594421</v>
       </c>
       <c r="I36" s="5">
-        <v>2.0602237023738201</v>
+        <v>4.2424221907046311</v>
       </c>
       <c r="J36" s="5">
-        <v>-16.353957419831609</v>
+        <v>-4.6690789756848599</v>
       </c>
       <c r="K36" s="5">
-        <v>-2.6435614815737529</v>
+        <v>5.5214646497361741</v>
       </c>
       <c r="L36" s="5">
-        <v>-2.578981111703893</v>
+        <v>17.830492193651892</v>
       </c>
       <c r="M36" s="5">
-        <v>-3.943569511803946</v>
+        <v>6.4390505713123769</v>
       </c>
       <c r="N36" s="5">
-        <v>-29.166470863429339</v>
+        <v>-11.384608063131662</v>
       </c>
       <c r="O36" s="5">
-        <v>-17.873966861740687</v>
+        <v>38.108915527897722</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>9.1800003051757813</v>
+        <v>14.930000305175781</v>
       </c>
       <c r="T36" s="5">
-        <v>6.440000057220459</v>
+        <v>12.039999961853027</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="C37" s="5">
-        <v>1032518976</v>
+        <v>1046301440</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3379,49 +3376,49 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>5258769</v>
+        <v>12656991</v>
       </c>
       <c r="G37" s="5">
-        <v>6.4625849723815918</v>
+        <v>2.1638331413269039</v>
       </c>
       <c r="H37" s="5">
-        <v>0.59880796416795801</v>
+        <v>0.46583435876768103</v>
       </c>
       <c r="I37" s="5">
-        <v>1.9948005311130721</v>
+        <v>0.93603657110483707</v>
       </c>
       <c r="J37" s="5">
-        <v>-7.3909455279069221</v>
+        <v>-17.874212187417083</v>
       </c>
       <c r="K37" s="5">
-        <v>4.6920177270643348</v>
+        <v>-4.3476149068454317</v>
       </c>
       <c r="L37" s="5">
-        <v>14.117668616001723</v>
+        <v>-0.78848908448927402</v>
       </c>
       <c r="M37" s="5">
-        <v>3.9637261666528372</v>
+        <v>-3.4961056547841318</v>
       </c>
       <c r="N37" s="5">
-        <v>-13.505127088238943</v>
+        <v>-27.269032110052404</v>
       </c>
       <c r="O37" s="5">
-        <v>47.17373704088299</v>
+        <v>-22.477674135912238</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <v>14.930000305175781</v>
+        <v>9.1800003051757813</v>
       </c>
       <c r="T37" s="5">
-        <v>11.760000228881836</v>
+        <v>6.4699997901916504</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3432,182 +3429,182 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>830921088</v>
+        <v>829395712</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1455819.5</v>
+        <v>1570373</v>
       </c>
       <c r="G38" s="5">
-        <v>5.211726188659668</v>
+        <v>6.517509937286377</v>
       </c>
       <c r="H38" s="5">
-        <v>-0.149572238395101</v>
+        <v>2.0742176893486342</v>
       </c>
       <c r="I38" s="5">
-        <v>-3.9990882968436781</v>
+        <v>-0.34771147758881904</v>
       </c>
       <c r="J38" s="5">
-        <v>3.1608438718486949</v>
+        <v>-2.917127723723123</v>
       </c>
       <c r="K38" s="5">
-        <v>-13.555219792185369</v>
+        <v>-8.9095769950985009</v>
       </c>
       <c r="L38" s="5">
-        <v>-18.014154015048135</v>
+        <v>4.4392193618162379</v>
       </c>
       <c r="M38" s="5">
-        <v>-13.446653184500745</v>
+        <v>-8.2492831935793589</v>
       </c>
       <c r="N38" s="5">
-        <v>-36.000065534208758</v>
+        <v>-41.731508020693042</v>
       </c>
       <c r="O38" s="5">
-        <v>8.7846830275713614</v>
+        <v>-5.1975631877015482</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="S38" s="5">
-        <v>6.9785442273754601</v>
+        <v>1.243469103672894</v>
       </c>
       <c r="T38" s="5">
-        <v>4.2804160118103027</v>
+        <v>0.64059817790985107</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="5">
+        <v>823031680</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1441996.75</v>
+      </c>
+      <c r="G39" s="5">
+        <v>5.211726188659668</v>
+      </c>
+      <c r="H39" s="5">
+        <v>-0.149572238395101</v>
+      </c>
+      <c r="I39" s="5">
+        <v>-3.9990882968436781</v>
+      </c>
+      <c r="J39" s="5">
+        <v>3.1608438718486949</v>
+      </c>
+      <c r="K39" s="5">
+        <v>-13.555219792185369</v>
+      </c>
+      <c r="L39" s="5">
+        <v>-18.014154015048135</v>
+      </c>
+      <c r="M39" s="5">
+        <v>-14.047182985106554</v>
+      </c>
+      <c r="N39" s="5">
+        <v>-36.000065534208758</v>
+      </c>
+      <c r="O39" s="5">
+        <v>8.7846830275713614</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="5">
-        <v>829392448</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="5">
-        <v>2010518.125</v>
-      </c>
-      <c r="G39" s="5">
-        <v>7.2903227806091309</v>
-      </c>
-      <c r="H39" s="5">
-        <v>-0.107117795713407</v>
-      </c>
-      <c r="I39" s="5">
-        <v>3.1189059017316501</v>
-      </c>
-      <c r="J39" s="5">
-        <v>-10.067810751838103</v>
-      </c>
-      <c r="K39" s="5">
-        <v>-12.684440101461414</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0.17817092011824801</v>
-      </c>
-      <c r="M39" s="5">
-        <v>-10.806069031245503</v>
-      </c>
-      <c r="N39" s="5">
-        <v>-49.211138124119834</v>
-      </c>
-      <c r="O39" s="5">
-        <v>40.578419714486856</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="S39" s="5">
-        <v>2.1326849542928938</v>
+        <v>6.9785442273754601</v>
       </c>
       <c r="T39" s="5">
-        <v>1.0365405082702641</v>
+        <v>4.2804160118103027</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="C40" s="5">
-        <v>815617280</v>
+        <v>810136576</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>1530657.5</v>
+        <v>1997580.875</v>
       </c>
       <c r="G40" s="5">
-        <v>6.6468253135681152</v>
+        <v>7.4342103004455566</v>
       </c>
       <c r="H40" s="5">
-        <v>-1.701412367000021</v>
+        <v>-2.0727073516647492</v>
       </c>
       <c r="I40" s="5">
-        <v>-0.41889986568500703</v>
+        <v>-0.41753471597266706</v>
       </c>
       <c r="J40" s="5">
-        <v>-3.7663773607473749</v>
+        <v>-14.379995237375077</v>
       </c>
       <c r="K40" s="5">
-        <v>-12.247681984943659</v>
+        <v>-13.834712464729638</v>
       </c>
       <c r="L40" s="5">
-        <v>0.62990378350324905</v>
+        <v>9.1489533246025004E-2</v>
       </c>
       <c r="M40" s="5">
-        <v>-9.7734956936208377</v>
+        <v>-12.876867776623735</v>
       </c>
       <c r="N40" s="5">
-        <v>-43.142892773502183</v>
+        <v>-49.698364314284213</v>
       </c>
       <c r="O40" s="5">
-        <v>-2.8521997469856952</v>
+        <v>35.952824467431952</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S40" s="5">
-        <v>1.243469103672894</v>
+        <v>2.1260999057708969</v>
       </c>
       <c r="T40" s="5">
-        <v>0.62758082151413008</v>
+        <v>1.0150560140609739</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3618,7 +3615,7 @@
         <v>145</v>
       </c>
       <c r="C41" s="5">
-        <v>815306432</v>
+        <v>808397568</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>45</v>
@@ -3627,34 +3624,34 @@
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>2325238.5</v>
+        <v>2353845.5</v>
       </c>
       <c r="G41" s="5">
         <v>5.442446231842041</v>
       </c>
       <c r="H41" s="5">
-        <v>-1.0953204375981569</v>
+        <v>0.11649837342342401</v>
       </c>
       <c r="I41" s="5">
-        <v>2.2159407676736191</v>
+        <v>1.920443697253615</v>
       </c>
       <c r="J41" s="5">
-        <v>6.6269072415110486</v>
+        <v>5.6384267322795667</v>
       </c>
       <c r="K41" s="5">
-        <v>5.9037009333733792</v>
+        <v>6.1563020597660278</v>
       </c>
       <c r="L41" s="5">
-        <v>12.177758577778697</v>
+        <v>11.945183210990585</v>
       </c>
       <c r="M41" s="5">
-        <v>3.4793185528075199</v>
+        <v>2.6024431397913221</v>
       </c>
       <c r="N41" s="5">
-        <v>-11.824630398554381</v>
+        <v>-11.108743691144518</v>
       </c>
       <c r="O41" s="5">
-        <v>49.102768601655541</v>
+        <v>39.539576302357091</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>25</v>
@@ -3667,7 +3664,7 @@
         <v>497.62842672240532</v>
       </c>
       <c r="T41" s="5">
-        <v>423.81280517578125</v>
+        <v>420.67034912109375</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3678,7 +3675,7 @@
         <v>147</v>
       </c>
       <c r="C42" s="5">
-        <v>779847104</v>
+        <v>789511552</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>148</v>
@@ -3687,38 +3684,40 @@
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>2621099.25</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>2630325.75</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.98151814937591608</v>
+      </c>
       <c r="H42" s="5">
-        <v>8.5313229605211011E-2</v>
+        <v>0.61955872759766906</v>
       </c>
       <c r="I42" s="5">
-        <v>2.8209239315035721</v>
+        <v>1.239266548560169</v>
       </c>
       <c r="J42" s="5">
-        <v>2.209384036116635</v>
+        <v>6.4818526473464422</v>
       </c>
       <c r="K42" s="5">
-        <v>4.1161456086791892</v>
+        <v>5.4473661073288548</v>
       </c>
       <c r="L42" s="5">
-        <v>6.9585004562025432</v>
+        <v>7.6726690641028661</v>
       </c>
       <c r="M42" s="5">
-        <v>4.1161456086791892</v>
+        <v>5.4064221728577611</v>
       </c>
       <c r="N42" s="5">
-        <v>3.19644250677884</v>
+        <v>5.0959510397836638</v>
       </c>
       <c r="O42" s="5">
-        <v>17.442794891394087</v>
+        <v>22.463525102386939</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>149</v>
@@ -3727,7 +3726,7 @@
         <v>0.72089303474705002</v>
       </c>
       <c r="T42" s="5">
-        <v>0.6901302337646481</v>
+        <v>0.69868278503418002</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3738,234 +3737,238 @@
         <v>151</v>
       </c>
       <c r="C43" s="5">
-        <v>765489152</v>
+        <v>759673344</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>1570939.5</v>
+        <v>1549357.25</v>
       </c>
       <c r="G43" s="5">
-        <v>4.0194039344787598</v>
+        <v>5.5045871734619141</v>
       </c>
       <c r="H43" s="5">
-        <v>-8.7667417345794002E-2</v>
+        <v>3.164337209230017</v>
       </c>
       <c r="I43" s="5">
-        <v>4.9682746626263707</v>
+        <v>7.0025512972319071</v>
       </c>
       <c r="J43" s="5">
-        <v>5.5794478085962496</v>
+        <v>3.5286052096427101</v>
       </c>
       <c r="K43" s="5">
-        <v>-1.302453770401546</v>
+        <v>1.5772641655597659</v>
       </c>
       <c r="L43" s="5">
-        <v>6.464757781033792</v>
+        <v>31.509684875326705</v>
       </c>
       <c r="M43" s="5">
-        <v>-5.4059352437657138</v>
+        <v>2.5868554543764688</v>
       </c>
       <c r="N43" s="5">
-        <v>-8.9588586891271476</v>
+        <v>-24.289475400042971</v>
       </c>
       <c r="O43" s="5">
-        <v>30.694382491333315</v>
+        <v>32.997849384335495</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="R43" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S43" s="5">
-        <v>1221.9631803199613</v>
+        <v>1.5543399132000002</v>
       </c>
       <c r="T43" s="5">
-        <v>1099.931396484375</v>
+        <v>1.0867735147476201</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A44" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C44" s="5">
-        <v>739159104</v>
+        <v>753742592</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>1589096.625</v>
+        <v>1650852.625</v>
       </c>
       <c r="G44" s="5">
-        <v>5.6737589836120614</v>
+        <v>4.0474529266357422</v>
       </c>
       <c r="H44" s="5">
-        <v>-0.21821662597510902</v>
+        <v>-0.35416203689433401</v>
       </c>
       <c r="I44" s="5">
-        <v>7.7869497804116117</v>
+        <v>3.7855286607321181</v>
       </c>
       <c r="J44" s="5">
-        <v>1.073653907547478</v>
+        <v>4.4228994444956538</v>
       </c>
       <c r="K44" s="5">
-        <v>-1.3842693888581949</v>
+        <v>-2.4285084028414561</v>
       </c>
       <c r="L44" s="5">
-        <v>27.656690810344074</v>
+        <v>5.8754344190148364</v>
       </c>
       <c r="M44" s="5">
-        <v>-0.183381926576098</v>
+        <v>-6.8575002836742227</v>
       </c>
       <c r="N44" s="5">
-        <v>-27.041536999469763</v>
+        <v>-7.8244556729761499</v>
       </c>
       <c r="O44" s="5">
-        <v>42.594325160039318</v>
+        <v>20.602441636638225</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S44" s="5">
-        <v>1.5543399132000002</v>
+        <v>1221.9631803199613</v>
       </c>
       <c r="T44" s="5">
-        <v>1.053439140319824</v>
+        <v>1084.209716796875</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A45" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" s="5">
-        <v>731356416</v>
+        <v>719338560</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>2322401</v>
+        <v>2109315.25</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5">
-        <v>-0.93379887139466411</v>
+        <v>1.307002345301989</v>
       </c>
       <c r="I45" s="5">
-        <v>-5.5001134625523367</v>
+        <v>1.1694339108443201</v>
       </c>
       <c r="J45" s="5">
-        <v>-16.895938366340467</v>
+        <v>-17.142470371467191</v>
       </c>
       <c r="K45" s="5">
-        <v>-19.172097592188543</v>
+        <v>-23.811509676034781</v>
       </c>
       <c r="L45" s="5">
-        <v>58.246950962110013</v>
+        <v>42.717520959408951</v>
       </c>
       <c r="M45" s="5">
-        <v>-29.640101665389462</v>
+        <v>-29.344887693555965</v>
       </c>
       <c r="N45" s="5">
-        <v>80.479528607856025</v>
+        <v>76.992981856446391</v>
       </c>
       <c r="O45" s="5">
-        <v>143.55765044372859</v>
+        <v>117.19055162932621</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S45" s="5">
         <v>1.13709763756269</v>
       </c>
       <c r="T45" s="5">
-        <v>0.725669085979462</v>
+        <v>0.72868728637695301</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A46" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C46" s="5">
-        <v>689818240</v>
+        <v>630739712</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>17406986</v>
-      </c>
-      <c r="G46" s="5"/>
+        <v>6915762.5</v>
+      </c>
+      <c r="G46" s="5">
+        <v>8.1521739959716797</v>
+      </c>
       <c r="H46" s="5">
-        <v>-10.138377243829023</v>
+        <v>-0.94947382546889403</v>
       </c>
       <c r="I46" s="5">
-        <v>-32.45723538196772</v>
+        <v>-2.0033614449822208</v>
       </c>
       <c r="J46" s="5">
-        <v>85.003056965472496</v>
+        <v>-12.798058245058774</v>
       </c>
       <c r="K46" s="5">
-        <v>110.2862901222244</v>
+        <v>-18.972609293129416</v>
       </c>
       <c r="L46" s="5">
-        <v>158.12852175059984</v>
+        <v>-15.233113987621817</v>
       </c>
       <c r="M46" s="5">
-        <v>82.734189711933496</v>
+        <v>-16.763640686272609</v>
       </c>
       <c r="N46" s="5">
-        <v>182.10183997455883</v>
+        <v>-43.983177552239724</v>
       </c>
       <c r="O46" s="5">
-        <v>231.115070920682</v>
+        <v>24.562529772368414</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q46" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="R46" s="4" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="S46" s="5">
-        <v>2.9003802040762392</v>
+        <v>11.008880893576956</v>
       </c>
       <c r="T46" s="5">
-        <v>1.870013356208801</v>
+        <v>5.4615612030029297</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3976,131 +3979,127 @@
         <v>165</v>
       </c>
       <c r="C47" s="5">
-        <v>647032384</v>
+        <v>597198912</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>7015513</v>
+        <v>1715863.625</v>
       </c>
       <c r="G47" s="5">
-        <v>8.0753707885742187</v>
+        <v>4.3055553436279297</v>
       </c>
       <c r="H47" s="5">
-        <v>-1.46716033633012</v>
+        <v>-0.52570085688000701</v>
       </c>
       <c r="I47" s="5">
-        <v>-0.60395648769325805</v>
+        <v>39.322310552247373</v>
       </c>
       <c r="J47" s="5">
-        <v>-13.939101848719293</v>
+        <v>35.223871804824739</v>
       </c>
       <c r="K47" s="5">
-        <v>-16.911631492937364</v>
+        <v>32.969559416232563</v>
       </c>
       <c r="L47" s="5">
-        <v>-16.854398327459762</v>
+        <v>39.860746924487245</v>
       </c>
       <c r="M47" s="5">
-        <v>-15.659876124129957</v>
+        <v>30.825848353275596</v>
       </c>
       <c r="N47" s="5">
-        <v>-43.522480990654657</v>
+        <v>-16.936458866608607</v>
       </c>
       <c r="O47" s="5">
-        <v>32.135878868735944</v>
+        <v>95.049482836359871</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="S47" s="5">
-        <v>11.008880893576956</v>
+        <v>2.6187999199999998</v>
       </c>
       <c r="T47" s="5">
-        <v>5.5139145851135254</v>
+        <v>2.0190060138702388</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A48" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C48" s="5">
-        <v>600778752</v>
+        <v>569043904</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>1280069.125</v>
-      </c>
-      <c r="G48" s="5">
-        <v>4.2791409492492676</v>
-      </c>
+        <v>3897432.5</v>
+      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="5">
-        <v>-2.9502230198297001E-2</v>
+        <v>1.886194841064381</v>
       </c>
       <c r="I48" s="5">
-        <v>40.934747066880917</v>
+        <v>-21.974715712498472</v>
       </c>
       <c r="J48" s="5">
-        <v>36.289383778650716</v>
+        <v>69.517088775094209</v>
       </c>
       <c r="K48" s="5">
-        <v>35.146739571478335</v>
+        <v>91.548847554272285</v>
       </c>
       <c r="L48" s="5">
-        <v>40.888006359754471</v>
+        <v>137.24519250038495</v>
       </c>
       <c r="M48" s="5">
-        <v>32.015035706011538</v>
+        <v>70.636582998450507</v>
       </c>
       <c r="N48" s="5">
-        <v>-16.980663159336395</v>
+        <v>156.93131552190761</v>
       </c>
       <c r="O48" s="5">
-        <v>101.52383699883312</v>
+        <v>192.43237636152486</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Q48" s="4"/>
       <c r="R48" s="4" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="S48" s="5">
-        <v>2.6187999199999998</v>
+        <v>2.9003802040762392</v>
       </c>
       <c r="T48" s="5">
-        <v>2.029675960540771</v>
+        <v>1.7461487054824829</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A49" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C49" s="5">
-        <v>498812640</v>
+        <v>504871104</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>23</v>
@@ -4109,40 +4108,40 @@
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>4046554.25</v>
+        <v>3951763</v>
       </c>
       <c r="G49" s="5">
-        <v>9.7481718063354492</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="H49" s="5">
-        <v>-0.32388632078946805</v>
+        <v>1.5434571397781931</v>
       </c>
       <c r="I49" s="5">
-        <v>-8.1162950123447999E-2</v>
+        <v>1.132688893297185</v>
       </c>
       <c r="J49" s="5">
-        <v>-9.8614881924080304</v>
+        <v>-6.8466490535346036</v>
       </c>
       <c r="K49" s="5">
-        <v>-32.703659994853183</v>
+        <v>-32.389242197465173</v>
       </c>
       <c r="L49" s="5">
-        <v>-19.527102837648556</v>
+        <v>-16.665368589738495</v>
       </c>
       <c r="M49" s="5">
-        <v>-32.085257711455348</v>
+        <v>-31.037022772640842</v>
       </c>
       <c r="N49" s="5">
-        <v>-39.854316464298137</v>
+        <v>-39.901005761290456</v>
       </c>
       <c r="O49" s="5">
-        <v>26.087687013476302</v>
+        <v>19.8676363966255</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>0</v>
@@ -4151,18 +4150,18 @@
         <v>23.379999160766602</v>
       </c>
       <c r="T49" s="5">
-        <v>12.310000419616699</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A50" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C50" s="5">
-        <v>474677280</v>
+        <v>476379392</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>23</v>
@@ -4171,34 +4170,34 @@
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>1506940.75</v>
+        <v>1520128.5</v>
       </c>
       <c r="G50" s="5">
-        <v>8.1227436065673828</v>
+        <v>8.0393028259277344</v>
       </c>
       <c r="H50" s="5">
-        <v>-0.67234254648574909</v>
+        <v>1.037904078610308</v>
       </c>
       <c r="I50" s="5">
-        <v>-0.89445777048352504</v>
+        <v>-0.66549032735652203</v>
       </c>
       <c r="J50" s="5">
-        <v>-1.1024592312935839</v>
+        <v>0.80594550979840007</v>
       </c>
       <c r="K50" s="5">
-        <v>2.3448575246389769</v>
+        <v>-0.51119892364900299</v>
       </c>
       <c r="L50" s="5">
-        <v>7.9987346783557456</v>
+        <v>10.937455257849461</v>
       </c>
       <c r="M50" s="5">
-        <v>1.7460792865124701</v>
+        <v>2.802105993253257</v>
       </c>
       <c r="N50" s="5">
-        <v>-21.912527167610165</v>
+        <v>-21.024907465633103</v>
       </c>
       <c r="O50" s="5">
-        <v>118.3847786199034</v>
+        <v>114.27518849323963</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>25</v>
@@ -4213,18 +4212,18 @@
         <v>31.969999313354492</v>
       </c>
       <c r="T50" s="5">
-        <v>22.159999847412109</v>
+        <v>22.389999389648438</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51" s="5">
-        <v>474254240</v>
+        <v>466573984</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>45</v>
@@ -4233,34 +4232,34 @@
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>4017146.25</v>
+        <v>3874207.5</v>
       </c>
       <c r="G51" s="5">
-        <v>5.8353724479675293</v>
+        <v>5.8811659812927246</v>
       </c>
       <c r="H51" s="5">
-        <v>-1.2106638983626179</v>
+        <v>-0.53520617664002401</v>
       </c>
       <c r="I51" s="5">
-        <v>1.792260975807469</v>
+        <v>5.5073032757980006E-3</v>
       </c>
       <c r="J51" s="5">
-        <v>4.0976602226403536</v>
+        <v>1.835969580382768</v>
       </c>
       <c r="K51" s="5">
-        <v>-4.0439621692621266</v>
+        <v>-4.8491713023868011</v>
       </c>
       <c r="L51" s="5">
-        <v>-1.9648059674605149</v>
+        <v>-2.258329972950512</v>
       </c>
       <c r="M51" s="5">
-        <v>-6.8864451226040675</v>
+        <v>-8.394360227929198</v>
       </c>
       <c r="N51" s="5">
-        <v>-27.802474174599002</v>
+        <v>-27.598336501831366</v>
       </c>
       <c r="O51" s="5">
-        <v>28.411283588620883</v>
+        <v>19.096265154824323</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
@@ -4273,196 +4272,196 @@
         <v>992.0411608650212</v>
       </c>
       <c r="T51" s="5">
-        <v>685.265625</v>
+        <v>674.888427734375</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A52" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C52" s="5">
-        <v>469277312</v>
+        <v>459400256</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>2430275.75</v>
+        <v>2134649.25</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>0.73917862685277702</v>
+        <v>-1.1319496183520019</v>
       </c>
       <c r="I52" s="5">
-        <v>-4.9287288291482101</v>
+        <v>-0.91572419691623408</v>
       </c>
       <c r="J52" s="5">
-        <v>-12.930941446979272</v>
+        <v>-13.728411744054814</v>
       </c>
       <c r="K52" s="5">
-        <v>-24.051220157409436</v>
+        <v>-29.2429772585044</v>
       </c>
       <c r="L52" s="5">
-        <v>36.41302137648492</v>
+        <v>31.344116353082097</v>
       </c>
       <c r="M52" s="5">
-        <v>-41.155754895264472</v>
+        <v>-42.394278113112783</v>
       </c>
       <c r="N52" s="5">
-        <v>128.15590181040776</v>
+        <v>110.49465577721627</v>
       </c>
       <c r="O52" s="5">
-        <v>273.29079589394138</v>
+        <v>254.32216509844397</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S52" s="5">
         <v>1.152422315694851</v>
       </c>
       <c r="T52" s="5">
-        <v>0.64463514089584406</v>
+        <v>0.63104426860809304</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C53" s="5">
-        <v>454178528</v>
+        <v>444275936</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>10472377</v>
+        <v>1085409.375</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5">
-        <v>-1.4675176712875551</v>
+        <v>-0.23531166145343002</v>
       </c>
       <c r="I53" s="5">
-        <v>-5.8946782702493215</v>
+        <v>2.1387541415262219</v>
       </c>
       <c r="J53" s="5">
-        <v>-17.976826638238762</v>
+        <v>-10.190759998749732</v>
       </c>
       <c r="K53" s="5">
-        <v>-11.817126589871519</v>
+        <v>-6.659206096318826</v>
       </c>
       <c r="L53" s="5">
-        <v>48.479058514964144</v>
+        <v>49.811747350220848</v>
       </c>
       <c r="M53" s="5">
-        <v>-17.77820605353585</v>
+        <v>-0.196305321634582</v>
       </c>
       <c r="N53" s="5">
-        <v>-43.57962979989739</v>
+        <v>44.208243539984871</v>
       </c>
       <c r="O53" s="5">
-        <v>138.92961195678305</v>
+        <v>396.19126001872235</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q53" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="R53" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S53" s="5">
-        <v>1.1922868853192861</v>
+        <v>10.579760227544591</v>
       </c>
       <c r="T53" s="5">
-        <v>0.46750333905220004</v>
+        <v>8.5437679290771484</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C54" s="5">
-        <v>436216704</v>
+        <v>442680800</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>1132967.625</v>
+        <v>9289512</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5">
-        <v>7.0017869867344817</v>
+        <v>2.8196264604554599</v>
       </c>
       <c r="I54" s="5">
-        <v>0.370189886813788</v>
+        <v>0.31365575174353605</v>
       </c>
       <c r="J54" s="5">
-        <v>-16.348623414527296</v>
+        <v>-16.290618580073378</v>
       </c>
       <c r="K54" s="5">
-        <v>-7.6550921223762387</v>
+        <v>-17.948478959891791</v>
       </c>
       <c r="L54" s="5">
-        <v>47.04329163692298</v>
+        <v>49.294763398467481</v>
       </c>
       <c r="M54" s="5">
-        <v>-2.0067630071911919</v>
+        <v>-16.507437529114966</v>
       </c>
       <c r="N54" s="5">
-        <v>41.810250816143068</v>
+        <v>-51.056248412418682</v>
       </c>
       <c r="O54" s="5">
-        <v>454.30423887928384</v>
+        <v>134.44164634589387</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="Q54" s="4"/>
       <c r="R54" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S54" s="5">
-        <v>10.579760227544591</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T54" s="5">
-        <v>8.3890876770019531</v>
+        <v>0.47471150755882302</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C55" s="5">
-        <v>388445376</v>
+        <v>405544416</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>23</v>
@@ -4471,40 +4470,40 @@
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1817668.25</v>
+        <v>1796609</v>
       </c>
       <c r="G55" s="5">
-        <v>5.736137866973877</v>
+        <v>5.4995417594909668</v>
       </c>
       <c r="H55" s="5">
-        <v>9.5695971907772001E-2</v>
+        <v>4.3021014113194589</v>
       </c>
       <c r="I55" s="5">
-        <v>4.4955024872702198</v>
+        <v>7.6998985603095482</v>
       </c>
       <c r="J55" s="5">
-        <v>-14.347232277727217</v>
+        <v>-8.2157732011037261</v>
       </c>
       <c r="K55" s="5">
-        <v>-3.4261040228612432</v>
+        <v>-1.863358193264431</v>
       </c>
       <c r="L55" s="5">
-        <v>-15.694539521188311</v>
+        <v>-9.8002423889575585</v>
       </c>
       <c r="M55" s="5">
-        <v>-5.4075521618281215</v>
+        <v>-1.3380891283805041</v>
       </c>
       <c r="N55" s="5">
-        <v>-31.825327071202313</v>
+        <v>-28.670177219003577</v>
       </c>
       <c r="O55" s="5">
-        <v>58.067174591434913</v>
+        <v>63.216644954314162</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R55" s="4" t="s">
         <v>0</v>
@@ -4513,18 +4512,18 @@
         <v>17.930000305175781</v>
       </c>
       <c r="T55" s="5">
-        <v>10.460000038146973</v>
+        <v>10.909999847412109</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A56" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C56" s="5">
-        <v>384530656</v>
+        <v>387292096</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>23</v>
@@ -4533,40 +4532,40 @@
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>5209471</v>
+        <v>4920069</v>
       </c>
       <c r="G56" s="5">
-        <v>9.1236495971679687</v>
+        <v>9.0314912796020508</v>
       </c>
       <c r="H56" s="5">
-        <v>-0.29921747336902904</v>
+        <v>1.020408630558012</v>
       </c>
       <c r="I56" s="5">
-        <v>-0.23952642934073101</v>
+        <v>0.17857552385673903</v>
       </c>
       <c r="J56" s="5">
-        <v>-2.8435593010319389</v>
+        <v>-4.308580875265589</v>
       </c>
       <c r="K56" s="5">
-        <v>-6.6254026846175664</v>
+        <v>-4.7851885694751406</v>
       </c>
       <c r="L56" s="5">
-        <v>-5.6246475634104893</v>
+        <v>-1.6155040398472149</v>
       </c>
       <c r="M56" s="5">
-        <v>-6.8297329470544792</v>
+        <v>-5.8790155009322724</v>
       </c>
       <c r="N56" s="5">
-        <v>-17.918708055520259</v>
+        <v>-16.67610663926903</v>
       </c>
       <c r="O56" s="5">
-        <v>82.598203125767625</v>
+        <v>80.436830616178185</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R56" s="4" t="s">
         <v>0</v>
@@ -4575,51 +4574,51 @@
         <v>23.069999694824219</v>
       </c>
       <c r="T56" s="5">
-        <v>16.659999847412109</v>
+        <v>16.829999923706055</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C57" s="5">
-        <v>337639392</v>
+        <v>337053536</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>6103210</v>
+        <v>5187829</v>
       </c>
       <c r="G57" s="5">
-        <v>0.76797384023666404</v>
+        <v>0.77049177885055509</v>
       </c>
       <c r="H57" s="5">
-        <v>9.6579317081069999E-3</v>
+        <v>7.2735447476770009E-3</v>
       </c>
       <c r="I57" s="5">
-        <v>-0.88594282380229905</v>
+        <v>-0.34486298045617303</v>
       </c>
       <c r="J57" s="5">
-        <v>-7.583857425933771</v>
+        <v>-9.3107137220703748</v>
       </c>
       <c r="K57" s="5">
-        <v>-23.994228516287286</v>
+        <v>-29.416440995199199</v>
       </c>
       <c r="L57" s="5">
-        <v>8.97595309679431</v>
+        <v>7.0663435448617529</v>
       </c>
       <c r="M57" s="5">
-        <v>-33.457364703003321</v>
+        <v>-33.681369407220132</v>
       </c>
       <c r="N57" s="5">
-        <v>21.59621575625501</v>
+        <v>19.112997598407567</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="4" t="s">
@@ -4627,24 +4626,24 @@
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S57" s="5">
         <v>0.55299045370637101</v>
       </c>
       <c r="T57" s="5">
-        <v>0.31790226697921803</v>
+        <v>0.31682056188583402</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A58" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C58" s="5">
-        <v>295432064</v>
+        <v>288934112</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>45</v>
@@ -4653,34 +4652,34 @@
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>1479229.625</v>
+        <v>1376361.625</v>
       </c>
       <c r="G58" s="5">
-        <v>5.5945453643798828</v>
+        <v>5.6718893051147461</v>
       </c>
       <c r="H58" s="5">
-        <v>-0.57608529309400902</v>
+        <v>-1.062008184859931</v>
       </c>
       <c r="I58" s="5">
-        <v>2.6053322434271831</v>
+        <v>0.36146344832375105</v>
       </c>
       <c r="J58" s="5">
-        <v>2.8155948205055958</v>
+        <v>1.8586371496070342</v>
       </c>
       <c r="K58" s="5">
-        <v>-0.69290394801460009</v>
+        <v>-2.6950214100537111</v>
       </c>
       <c r="L58" s="5">
-        <v>9.8391068043555805</v>
+        <v>8.1115042240781818</v>
       </c>
       <c r="M58" s="5">
-        <v>-2.9184218010038681</v>
+        <v>-5.053704869094588</v>
       </c>
       <c r="N58" s="5">
-        <v>-18.116227195967227</v>
+        <v>-19.202678541380003</v>
       </c>
       <c r="O58" s="5">
-        <v>32.965542645107583</v>
+        <v>23.829159628554741</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
@@ -4693,18 +4692,18 @@
         <v>1093.3354771283864</v>
       </c>
       <c r="T58" s="5">
-        <v>838.478515625</v>
+        <v>820.9124755859375</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C59" s="5">
-        <v>228256576</v>
+        <v>227272720</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>23</v>
@@ -4713,40 +4712,40 @@
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>2404804.25</v>
+        <v>2327334</v>
       </c>
       <c r="G59" s="5">
-        <v>6.8407959938049316</v>
+        <v>6.8027210235595703</v>
       </c>
       <c r="H59" s="5">
-        <v>-0.98522074918165903</v>
+        <v>0.55970244412257808</v>
       </c>
       <c r="I59" s="5">
-        <v>-1.5309246856583192</v>
+        <v>-1.881064772774355</v>
       </c>
       <c r="J59" s="5">
-        <v>-10.626351714584459</v>
+        <v>-9.3821365251022364</v>
       </c>
       <c r="K59" s="5">
-        <v>-13.969615196850782</v>
+        <v>-13.760727728230648</v>
       </c>
       <c r="L59" s="5">
-        <v>4.7070375545810386</v>
+        <v>7.1902512765113844</v>
       </c>
       <c r="M59" s="5">
-        <v>-14.420510936049503</v>
+        <v>-13.94152044409096</v>
       </c>
       <c r="N59" s="5">
-        <v>-10.562570282828709</v>
+        <v>-9.6832989992091996</v>
       </c>
       <c r="O59" s="5">
-        <v>66.477658746461714</v>
+        <v>78.320681560348063</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R59" s="4" t="s">
         <v>0</v>
@@ -4755,18 +4754,18 @@
         <v>20.789899826049805</v>
       </c>
       <c r="T59" s="5">
-        <v>16.079999923706055</v>
+        <v>16.170000076293945</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A60" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C60" s="5">
-        <v>228083552</v>
+        <v>211731104</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>45</v>
@@ -4775,399 +4774,339 @@
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>1007047.5625</v>
+        <v>1436462.125</v>
       </c>
       <c r="G60" s="5">
-        <v>5.5825395584106454</v>
+        <v>5.7833623886108398</v>
       </c>
       <c r="H60" s="5">
-        <v>-0.93025996788349608</v>
+        <v>-1.024072470735593</v>
       </c>
       <c r="I60" s="5">
-        <v>0.15899584860104002</v>
+        <v>-1.1731690393052221</v>
       </c>
       <c r="J60" s="5">
-        <v>5.0002854442928957</v>
+        <v>3.4588055136139051</v>
       </c>
       <c r="K60" s="5">
-        <v>1.248815073094933</v>
+        <v>-1.764646212364029</v>
       </c>
       <c r="L60" s="5">
-        <v>6.5999137575390776</v>
+        <v>9.2907348821547266</v>
       </c>
       <c r="M60" s="5">
-        <v>-3.7727003102334011</v>
+        <v>-3.3048011565272262</v>
       </c>
       <c r="N60" s="5">
-        <v>-5.3892121481168953</v>
-      </c>
-      <c r="O60" s="5">
-        <v>52.701176405774234</v>
-      </c>
+        <v>-2.6004532090371013</v>
+      </c>
+      <c r="O60" s="5"/>
       <c r="P60" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S60" s="5">
-        <v>1090.5527244217953</v>
+        <v>953.26524295883621</v>
       </c>
       <c r="T60" s="5">
-        <v>960.4390869140625</v>
+        <v>873.11798095703125</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C61" s="5">
-        <v>215761152</v>
+        <v>210889280</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1439572.875</v>
+        <v>3785964</v>
       </c>
       <c r="G61" s="5">
-        <v>5.7238421440124512</v>
+        <v>2.83171534538269</v>
       </c>
       <c r="H61" s="5">
-        <v>-1.5232440901203001E-2</v>
+        <v>-1.97542421010739</v>
       </c>
       <c r="I61" s="5">
-        <v>0.25308755186017601</v>
+        <v>-3.6952725832322559</v>
       </c>
       <c r="J61" s="5">
-        <v>6.4901662551116956</v>
+        <v>-6.7815958923870934</v>
       </c>
       <c r="K61" s="5">
-        <v>1.2814769241460631</v>
+        <v>-18.39989598031454</v>
       </c>
       <c r="L61" s="5">
-        <v>10.947026876453126</v>
+        <v>23.261919601936643</v>
       </c>
       <c r="M61" s="5">
-        <v>-1.4643217515378781</v>
+        <v>-28.321706796378223</v>
       </c>
       <c r="N61" s="5">
-        <v>-2.204063256534472</v>
-      </c>
-      <c r="O61" s="5"/>
+        <v>28.590526388191595</v>
+      </c>
+      <c r="O61" s="5">
+        <v>79.183513727770944</v>
+      </c>
       <c r="P61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q61" s="4"/>
+      <c r="Q61" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="R61" s="4" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="S61" s="5">
-        <v>953.26524295883621</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T61" s="5">
-        <v>888.7872314453125</v>
+        <v>3.2097558975219731</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C62" s="5">
-        <v>214087968</v>
+        <v>210722048</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>3918042.5</v>
-      </c>
-      <c r="G62" s="5">
-        <v>2.775574922561646</v>
-      </c>
+        <v>1445652</v>
+      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="5">
-        <v>-1.6358464198332872</v>
+        <v>-0.78018456290850402</v>
       </c>
       <c r="I62" s="5">
-        <v>-2.7220552788653212</v>
+        <v>-2.8507003162367983</v>
       </c>
       <c r="J62" s="5">
-        <v>-2.233253991162198</v>
+        <v>-17.175852992655315</v>
       </c>
       <c r="K62" s="5">
-        <v>-14.030608474327821</v>
+        <v>-31.115698486463295</v>
       </c>
       <c r="L62" s="5">
-        <v>27.515563434605927</v>
+        <v>29.398285425864358</v>
       </c>
       <c r="M62" s="5">
-        <v>-26.864685738244344</v>
+        <v>-37.597196409223208</v>
       </c>
       <c r="N62" s="5">
-        <v>36.427741744183791</v>
+        <v>63.533087428569914</v>
       </c>
       <c r="O62" s="5">
-        <v>90.317941586527269</v>
+        <v>1.3229886996872779</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Q62" s="4"/>
       <c r="R62" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S62" s="5">
-        <v>4.6771184674018205</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T62" s="5">
-        <v>3.2751204967498779</v>
+        <v>0.26176649332046503</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C63" s="5">
-        <v>210742848</v>
+        <v>176785888</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>1635427.5</v>
+        <v>5934219</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5">
-        <v>-0.93994268043150508</v>
+        <v>0.41713901944076004</v>
       </c>
       <c r="I63" s="5">
-        <v>-4.3573794726333936</v>
+        <v>-0.34486298045617303</v>
       </c>
       <c r="J63" s="5">
-        <v>-15.580517203004707</v>
+        <v>-6.31703986807024</v>
       </c>
       <c r="K63" s="5">
-        <v>-28.994949120513812</v>
+        <v>-28.830975895670917</v>
       </c>
       <c r="L63" s="5">
-        <v>39.775109602807326</v>
+        <v>54.582562614365671</v>
       </c>
       <c r="M63" s="5">
-        <v>-37.591037566578002</v>
+        <v>-40.764335879342795</v>
       </c>
       <c r="N63" s="5">
-        <v>68.324876281363885</v>
+        <v>78.675044970032488</v>
       </c>
       <c r="O63" s="5">
-        <v>7.4509695960353062</v>
+        <v>76.47877276856137</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="Q63" s="4"/>
       <c r="R63" s="4" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="S63" s="5">
-        <v>0.45377137396633505</v>
+        <v>0.22635182608908702</v>
       </c>
       <c r="T63" s="5">
-        <v>0.261801868677139</v>
+        <v>0.12724761664867401</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C64" s="5">
-        <v>181150960</v>
+        <v>148204080</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>6591026.5</v>
+        <v>3225933.75</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5">
-        <v>-1.751290929720239</v>
+        <v>3.0591300283258072</v>
       </c>
       <c r="I64" s="5">
-        <v>-4.4463326357335644</v>
+        <v>2.4557471111450679</v>
       </c>
       <c r="J64" s="5">
-        <v>-10.237982671624001</v>
+        <v>34.816220047766947</v>
       </c>
       <c r="K64" s="5">
-        <v>-29.044966749733913</v>
+        <v>29.064330610444333</v>
       </c>
       <c r="L64" s="5">
-        <v>54.167545621851865</v>
+        <v>85.060982872612271</v>
       </c>
       <c r="M64" s="5">
-        <v>-40.51668776953565</v>
+        <v>17.868883664145695</v>
       </c>
       <c r="N64" s="5">
-        <v>79.183939378588036</v>
+        <v>223.23491817840301</v>
       </c>
       <c r="O64" s="5">
-        <v>89.511882376466772</v>
+        <v>144.46909949685397</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q64" s="4"/>
       <c r="R64" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S64" s="5">
-        <v>0.22635182608908702</v>
+        <v>0.22800693195554103</v>
       </c>
       <c r="T64" s="5">
-        <v>0.12778423726558702</v>
+        <v>0.22800692915916401</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C65" s="5">
-        <v>144391472</v>
+        <v>107615120</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>3281318.25</v>
+        <v>2443686.75</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5">
-        <v>1.0492074332130401</v>
+        <v>-0.57191769474686005</v>
       </c>
       <c r="I65" s="5">
-        <v>-1.731903783086874</v>
+        <v>-1.1129208937032951</v>
       </c>
       <c r="J65" s="5">
-        <v>29.637880334126933</v>
+        <v>57.761297230432085</v>
       </c>
       <c r="K65" s="5">
-        <v>29.167961903962958</v>
+        <v>78.222122806627681</v>
       </c>
       <c r="L65" s="5">
-        <v>80.958840626775455</v>
+        <v>157.99502805509991</v>
       </c>
       <c r="M65" s="5">
-        <v>12.778624792378634</v>
+        <v>67.073916525227048</v>
       </c>
       <c r="N65" s="5">
-        <v>227.7754576305029</v>
+        <v>558.36617485740044</v>
       </c>
       <c r="O65" s="5">
-        <v>151.18039710842757</v>
+        <v>726.36558466454971</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S65" s="5">
-        <v>0.22587493537817402</v>
+        <v>3.136226523511763</v>
       </c>
       <c r="T65" s="5">
-        <v>0.21816821396350902</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" s="2" customFormat="1" ht="12.75">
-      <c r="A66" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" s="5">
-        <v>108976256</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="5">
-        <v>2822492.75</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5">
-        <v>-1.010394760086375</v>
-      </c>
-      <c r="I66" s="5">
-        <v>10.581138894318931</v>
-      </c>
-      <c r="J66" s="5">
-        <v>54.667541959517422</v>
-      </c>
-      <c r="K66" s="5">
-        <v>85.154692095917454</v>
-      </c>
-      <c r="L66" s="5">
-        <v>156.57424504179448</v>
-      </c>
-      <c r="M66" s="5">
-        <v>68.712642830206534</v>
-      </c>
-      <c r="N66" s="5">
-        <v>549.83810756478726</v>
-      </c>
-      <c r="O66" s="5">
-        <v>771.88356671480312</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="S66" s="5">
-        <v>3.136226523511763</v>
-      </c>
-      <c r="T66" s="5">
-        <v>2.7011303901672363</v>
+        <v>2.674796581268311</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\08.04.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\11.04.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -231,18 +231,18 @@
     <t>07/06/2023</t>
   </si>
   <si>
+    <t>CHC AU Equity</t>
+  </si>
+  <si>
+    <t>CHARTER HALL GRO</t>
+  </si>
+  <si>
     <t>8960 JP Equity</t>
   </si>
   <si>
     <t>UNITED URBAN</t>
   </si>
   <si>
-    <t>CHC AU Equity</t>
-  </si>
-  <si>
-    <t>CHARTER HALL GRO</t>
-  </si>
-  <si>
     <t>SUN SP Equity</t>
   </si>
   <si>
@@ -264,6 +264,18 @@
     <t>BROADSTONE NET</t>
   </si>
   <si>
+    <t>HR-U CN Equity</t>
+  </si>
+  <si>
+    <t>H&amp;R REAL-REIT UT</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
     <t>GRT SJ Equity</t>
   </si>
   <si>
@@ -279,18 +291,6 @@
     <t>ZAr</t>
   </si>
   <si>
-    <t>HR-U CN Equity</t>
-  </si>
-  <si>
-    <t>H&amp;R REAL-REIT UT</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
     <t>3309 JP Equity</t>
   </si>
   <si>
@@ -360,24 +360,24 @@
     <t>04/04/2023</t>
   </si>
   <si>
+    <t>GNL US Equity</t>
+  </si>
+  <si>
+    <t>GLOBAL NET LEASE</t>
+  </si>
+  <si>
+    <t>8966 JP Equity</t>
+  </si>
+  <si>
+    <t>HEIWA REAL ESTAT</t>
+  </si>
+  <si>
     <t>8957 JP Equity</t>
   </si>
   <si>
     <t>TOKYU REIT INC</t>
   </si>
   <si>
-    <t>8966 JP Equity</t>
-  </si>
-  <si>
-    <t>HEIWA REAL ESTAT</t>
-  </si>
-  <si>
-    <t>GNL US Equity</t>
-  </si>
-  <si>
-    <t>GLOBAL NET LEASE</t>
-  </si>
-  <si>
     <t>405 HK Equity</t>
   </si>
   <si>
@@ -543,21 +543,21 @@
     <t>ONE LIBERTY PROP</t>
   </si>
   <si>
+    <t>OZKGY TI Equity</t>
+  </si>
+  <si>
+    <t>OZAK GAYRIMENKUL</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
     <t>3492 JP Equity</t>
   </si>
   <si>
     <t>TAKARA LEBEN REA</t>
   </si>
   <si>
-    <t>OZKGY TI Equity</t>
-  </si>
-  <si>
-    <t>OZAK GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>06/04/2013</t>
-  </si>
-  <si>
     <t>SRVGY TI Equity</t>
   </si>
   <si>
@@ -603,6 +603,12 @@
     <t>ALPINE INCOME</t>
   </si>
   <si>
+    <t>AKSGY TI Equity</t>
+  </si>
+  <si>
+    <t>AKIS GAYRIMENKUL</t>
+  </si>
+  <si>
     <t>2989 JP Equity</t>
   </si>
   <si>
@@ -616,12 +622,6 @@
   </si>
   <si>
     <t>04/27/2023</t>
-  </si>
-  <si>
-    <t>AKSGY TI Equity</t>
-  </si>
-  <si>
-    <t>AKIS GAYRIMENKUL</t>
   </si>
   <si>
     <t>KLGYO TI Equity</t>
@@ -1231,31 +1231,31 @@
         <v>95125600</v>
       </c>
       <c r="G2" s="5">
-        <v>5.7792825698852539</v>
+        <v>5.7204127311706543</v>
       </c>
       <c r="H2" s="5">
-        <v>-0.83255369466768103</v>
+        <v>1.0291159809526551</v>
       </c>
       <c r="I2" s="5">
-        <v>-4.2153048823870947</v>
+        <v>-2.1764731949358911</v>
       </c>
       <c r="J2" s="5">
-        <v>-8.3461642070936648</v>
+        <v>-3.4062751811561602</v>
       </c>
       <c r="K2" s="5">
-        <v>-7.1181958739293449</v>
+        <v>-5.8704117721061211</v>
       </c>
       <c r="L2" s="5">
-        <v>5.7525926937521232</v>
+        <v>8.4734523900241943</v>
       </c>
       <c r="M2" s="5">
-        <v>-4.1944764631976383</v>
+        <v>-3.208526509845044</v>
       </c>
       <c r="N2" s="5">
-        <v>-4.8403051349465986</v>
+        <v>-4.6632268817185407</v>
       </c>
       <c r="O2" s="5">
-        <v>55.855313633381229</v>
+        <v>26.28231153370151</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1270,7 +1270,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>73.849998474121094</v>
+        <v>74.610000610351563</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1281,7 +1281,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6522326528</v>
+        <v>6514496512</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1290,7 +1290,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>36152408</v>
+        <v>36109004</v>
       </c>
       <c r="G3" s="5">
         <v>6.4390244483947754</v>
@@ -1311,7 +1311,7 @@
         <v>30.386662895557937</v>
       </c>
       <c r="M3" s="5">
-        <v>10.380282262656216</v>
+        <v>9.8833687647138735</v>
       </c>
       <c r="N3" s="5">
         <v>-8.8410475234849795</v>
@@ -1329,7 +1329,7 @@
         <v>32</v>
       </c>
       <c r="S3" s="5">
-        <v>3.195990152521694</v>
+        <v>3.1322401024773479</v>
       </c>
       <c r="T3" s="5">
         <v>2.7379798889160161</v>
@@ -1343,7 +1343,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5876845056</v>
+        <v>5867380224</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -1352,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>14119148</v>
+        <v>14096409</v>
       </c>
       <c r="G4" s="5">
         <v>6.204951286315918</v>
@@ -1373,7 +1373,7 @@
         <v>43.373079864054986</v>
       </c>
       <c r="M4" s="5">
-        <v>6.8170518308820824</v>
+        <v>6.447173938538886</v>
       </c>
       <c r="N4" s="5">
         <v>-16.982882885586559</v>
@@ -1405,7 +1405,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5679766016</v>
+        <v>5672947712</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1414,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>31933844</v>
+        <v>31895506</v>
       </c>
       <c r="G5" s="5">
         <v>4.7685184478759766</v>
@@ -1435,7 +1435,7 @@
         <v>13.49315993424025</v>
       </c>
       <c r="M5" s="5">
-        <v>-0.89662745082611506</v>
+        <v>-1.342774194626861</v>
       </c>
       <c r="N5" s="5">
         <v>-19.230750746634719</v>
@@ -1453,7 +1453,7 @@
         <v>32</v>
       </c>
       <c r="S5" s="5">
-        <v>1.8575399869454101</v>
+        <v>1.839162016363177</v>
       </c>
       <c r="T5" s="5">
         <v>1.4424480199813841</v>
@@ -1467,7 +1467,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5412533248</v>
+        <v>5406035456</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1476,7 +1476,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>23011176</v>
+        <v>22983552</v>
       </c>
       <c r="G6" s="5">
         <v>5.8962264060974121</v>
@@ -1497,7 +1497,7 @@
         <v>13.017140223696355</v>
       </c>
       <c r="M6" s="5">
-        <v>-1.3423299140231439</v>
+        <v>-1.7864701801678431</v>
       </c>
       <c r="N6" s="5">
         <v>-22.518276591118923</v>
@@ -1529,7 +1529,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5369127424</v>
+        <v>5373850112</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1538,34 +1538,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>13258934</v>
+        <v>12532945</v>
       </c>
       <c r="G7" s="5">
-        <v>4.520930290222168</v>
+        <v>4.476315975189209</v>
       </c>
       <c r="H7" s="5">
-        <v>-0.88469995580053906</v>
+        <v>-0.15907942405990502</v>
       </c>
       <c r="I7" s="5">
-        <v>1.80687781274731</v>
+        <v>-1.63927018717358</v>
       </c>
       <c r="J7" s="5">
-        <v>4.3108628356158576</v>
+        <v>2.53169037391956</v>
       </c>
       <c r="K7" s="5">
-        <v>-2.7591531373709621</v>
+        <v>-2.593907796485762</v>
       </c>
       <c r="L7" s="5">
-        <v>5.9888410986981278</v>
+        <v>6.1844568178315074</v>
       </c>
       <c r="M7" s="5">
-        <v>-6.4676738774554927</v>
+        <v>-6.616464563161073</v>
       </c>
       <c r="N7" s="5">
-        <v>-8.0594629831794116</v>
+        <v>-5.9158712336892734</v>
       </c>
       <c r="O7" s="5">
-        <v>11.755041074554629</v>
+        <v>2.3804865776666522</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>46</v>
@@ -1578,7 +1578,7 @@
         <v>1313.4164510311298</v>
       </c>
       <c r="T7" s="5">
-        <v>1138.68505859375</v>
+        <v>1136.8736572265625</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1589,7 +1589,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5330762752</v>
+        <v>5320285696</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1598,34 +1598,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>10961648</v>
+        <v>10940104</v>
       </c>
       <c r="G8" s="5">
-        <v>2.4647104740142822</v>
+        <v>2.4491724967956539</v>
       </c>
       <c r="H8" s="5">
-        <v>-1.349971020286256</v>
+        <v>0.43663353369369806</v>
       </c>
       <c r="I8" s="5">
-        <v>2.8160774916808001E-2</v>
+        <v>0.88340018222850003</v>
       </c>
       <c r="J8" s="5">
-        <v>-4.5714337143333843</v>
+        <v>0.83901641715340403</v>
       </c>
       <c r="K8" s="5">
-        <v>15.956232266269632</v>
+        <v>14.119057354661191</v>
       </c>
       <c r="L8" s="5">
-        <v>43.493618403892739</v>
+        <v>42.963554465333353</v>
       </c>
       <c r="M8" s="5">
-        <v>23.386906494774571</v>
+        <v>23.925655104718047</v>
       </c>
       <c r="N8" s="5">
-        <v>32.35114104910997</v>
+        <v>40.036958978040118</v>
       </c>
       <c r="O8" s="5">
-        <v>137.97787639139011</v>
+        <v>98.522739246381306</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1640,7 +1640,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.375593781471252</v>
+        <v>1.3972616195678711</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1651,7 +1651,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4846425088</v>
+        <v>4816735232</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1660,34 +1660,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>10152229</v>
+        <v>9825710</v>
       </c>
       <c r="G9" s="5">
-        <v>4.0565013885498047</v>
+        <v>4.0447816848754883</v>
       </c>
       <c r="H9" s="5">
-        <v>-1.564565601446311</v>
+        <v>-0.85791733602883502</v>
       </c>
       <c r="I9" s="5">
-        <v>2.1559449145887029</v>
+        <v>-2.024323786659366</v>
       </c>
       <c r="J9" s="5">
-        <v>3.9626516895121089</v>
+        <v>0.92364958223150107</v>
       </c>
       <c r="K9" s="5">
-        <v>-1.699071319398171</v>
+        <v>-2.2980738964626379</v>
       </c>
       <c r="L9" s="5">
-        <v>3.021152751803013</v>
+        <v>2.48886236110526</v>
       </c>
       <c r="M9" s="5">
-        <v>-4.8433263784899978</v>
+        <v>-5.659691977877312</v>
       </c>
       <c r="N9" s="5">
-        <v>-17.612786061649278</v>
+        <v>-16.862206482264686</v>
       </c>
       <c r="O9" s="5">
-        <v>-0.63825512180351007</v>
+        <v>0.677487972063884</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1697,10 +1697,10 @@
         <v>47</v>
       </c>
       <c r="S9" s="5">
-        <v>2640.8875311520219</v>
+        <v>2592.7102358453108</v>
       </c>
       <c r="T9" s="5">
-        <v>2088.976318359375</v>
+        <v>2071.0546875</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1711,7 +1711,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4525500928</v>
+        <v>4518212096</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -1720,7 +1720,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>13476435</v>
+        <v>13454732</v>
       </c>
       <c r="G10" s="5">
         <v>5.9018063545227051</v>
@@ -1741,7 +1741,7 @@
         <v>32.296069752822333</v>
       </c>
       <c r="M10" s="5">
-        <v>2.1254721804998988</v>
+        <v>1.771839930243813</v>
       </c>
       <c r="N10" s="5">
         <v>-25.464782302251486</v>
@@ -1773,7 +1773,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4100159232</v>
+        <v>4087757056</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1782,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9574602</v>
+        <v>9545641</v>
       </c>
       <c r="G11" s="5">
         <v>2.0250000953674321</v>
@@ -1803,7 +1803,7 @@
         <v>15.625166777795819</v>
       </c>
       <c r="M11" s="5">
-        <v>-7.1380930422731534</v>
+        <v>-7.6658105054255632</v>
       </c>
       <c r="N11" s="5">
         <v>-12.831234177018269</v>
@@ -1847,31 +1847,31 @@
         <v>22299538</v>
       </c>
       <c r="G12" s="5">
-        <v>4.5267491340637207</v>
+        <v>4.4879641532897949</v>
       </c>
       <c r="H12" s="5">
-        <v>0.78804903317757402</v>
+        <v>0.8642016395663531</v>
       </c>
       <c r="I12" s="5">
-        <v>0.12360436230349801</v>
+        <v>-0.729041317465695</v>
       </c>
       <c r="J12" s="5">
-        <v>-4.6358602366685542</v>
+        <v>3.1103123880908079</v>
       </c>
       <c r="K12" s="5">
-        <v>6.3867463881258857</v>
+        <v>7.3061423946933601</v>
       </c>
       <c r="L12" s="5">
-        <v>26.089102438677749</v>
+        <v>30.081173825199457</v>
       </c>
       <c r="M12" s="5">
-        <v>4.7095899179217859</v>
+        <v>5.6144919107756763</v>
       </c>
       <c r="N12" s="5">
-        <v>-1.535930595811974</v>
+        <v>0.95013470048319604</v>
       </c>
       <c r="O12" s="5">
-        <v>163.21662660285381</v>
+        <v>118.08217229906637</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1886,7 +1886,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.299999237060547</v>
+        <v>24.510000228881836</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1897,7 +1897,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3611323648</v>
+        <v>3600400128</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>68</v>
@@ -1906,7 +1906,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8053286.5</v>
+        <v>8028927</v>
       </c>
       <c r="G13" s="5">
         <v>9.9723634719848633</v>
@@ -1927,7 +1927,7 @@
         <v>34.59969017436606</v>
       </c>
       <c r="M13" s="5">
-        <v>14.9157360898728</v>
+        <v>14.262690694700741</v>
       </c>
       <c r="N13" s="5">
         <v>-16.458733802222614</v>
@@ -1959,56 +1959,58 @@
         <v>71</v>
       </c>
       <c r="C14" s="5">
-        <v>3361867008</v>
+        <v>3352906752</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>8160125.5</v>
+        <v>21360222</v>
       </c>
       <c r="G14" s="5">
-        <v>4.4128313064575204</v>
+        <v>3.8788731098175049</v>
       </c>
       <c r="H14" s="5">
-        <v>-1.2500579082938781</v>
+        <v>-3.716714511431729</v>
       </c>
       <c r="I14" s="5">
-        <v>0.73495259785203404</v>
+        <v>-3.5860711557095142</v>
       </c>
       <c r="J14" s="5">
-        <v>-0.41013509826531802</v>
+        <v>-19.217303552671982</v>
       </c>
       <c r="K14" s="5">
-        <v>-3.6727793883622573</v>
+        <v>-13.717794434354669</v>
       </c>
       <c r="L14" s="5">
-        <v>7.7968576194259009</v>
+        <v>-9.2379597177329345</v>
       </c>
       <c r="M14" s="5">
-        <v>-5.6165774192612927</v>
+        <v>-13.513654105286378</v>
       </c>
       <c r="N14" s="5">
-        <v>1.032501608127689</v>
+        <v>-40.435930106036231</v>
       </c>
       <c r="O14" s="5">
-        <v>29.382808343520452</v>
+        <v>72.890091638649452</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R14" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="S14" s="5">
-        <v>1187.971105527638</v>
+        <v>11.935938479216244</v>
       </c>
       <c r="T14" s="5">
-        <v>1084.96630859375</v>
+        <v>7.1120696067810059</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2019,58 +2021,56 @@
         <v>73</v>
       </c>
       <c r="C15" s="5">
-        <v>3356936704</v>
+        <v>3329295104</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>21385896</v>
+        <v>7903140.5</v>
       </c>
       <c r="G15" s="5">
-        <v>3.8788731098175049</v>
+        <v>4.4159107208251953</v>
       </c>
       <c r="H15" s="5">
-        <v>-3.716714511431729</v>
+        <v>-1.213288659844636</v>
       </c>
       <c r="I15" s="5">
-        <v>-3.5860711557095142</v>
+        <v>-3.3553673134491868</v>
       </c>
       <c r="J15" s="5">
-        <v>-19.217303552671982</v>
+        <v>-1.958810793893095</v>
       </c>
       <c r="K15" s="5">
-        <v>-13.717794434354669</v>
+        <v>-5.6571118096936379</v>
       </c>
       <c r="L15" s="5">
-        <v>-9.2379597177329345</v>
+        <v>6.8554944462947187</v>
       </c>
       <c r="M15" s="5">
-        <v>-13.122546395849355</v>
+        <v>-6.7617207822066483</v>
       </c>
       <c r="N15" s="5">
-        <v>-40.435930106036231</v>
+        <v>0.83955451066763909</v>
       </c>
       <c r="O15" s="5">
-        <v>72.890091638649452</v>
+        <v>21.697775575950583</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="S15" s="5">
-        <v>12.443280092553131</v>
+        <v>1187.971105527638</v>
       </c>
       <c r="T15" s="5">
-        <v>7.1120696067810059</v>
+        <v>1071.802490234375</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2081,7 +2081,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="5">
-        <v>3142407680</v>
+        <v>3121204480</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>76</v>
@@ -2090,34 +2090,34 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>11428493</v>
+        <v>11208099</v>
       </c>
       <c r="G16" s="5">
-        <v>5.4896550178527832</v>
+        <v>5.5277776718139648</v>
       </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>-0.80880633102605703</v>
       </c>
       <c r="I16" s="5">
-        <v>1.9974563497767941</v>
+        <v>-1.129011388847156</v>
       </c>
       <c r="J16" s="5">
-        <v>4.7635263321582411</v>
+        <v>4.0371977095228004</v>
       </c>
       <c r="K16" s="5">
-        <v>7.8525970486900132</v>
+        <v>8.883955680944311</v>
       </c>
       <c r="L16" s="5">
-        <v>5.0023603370939806</v>
+        <v>6.0188978117629244</v>
       </c>
       <c r="M16" s="5">
-        <v>7.1260293200917424</v>
+        <v>6.2595872127739982</v>
       </c>
       <c r="N16" s="5">
-        <v>-12.144892973085931</v>
+        <v>-11.810072519799897</v>
       </c>
       <c r="O16" s="5">
-        <v>56.48145120140056</v>
+        <v>39.89109010358689</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>77</v>
@@ -2132,7 +2132,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T16" s="5">
-        <v>1.0907996892929079</v>
+        <v>1.079784035682678</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2155,28 +2155,28 @@
         <v>16750878</v>
       </c>
       <c r="G17" s="5">
-        <v>6.6505441665649414</v>
+        <v>6.6545672416687012</v>
       </c>
       <c r="H17" s="5">
-        <v>-0.89873944715690401</v>
+        <v>-6.0460872601575004E-2</v>
       </c>
       <c r="I17" s="5">
-        <v>-1.430272713332903</v>
+        <v>-1.548542076858306</v>
       </c>
       <c r="J17" s="5">
-        <v>-4.5368143277716992</v>
+        <v>3.7733331106150292</v>
       </c>
       <c r="K17" s="5">
-        <v>-1.6896607040319029</v>
+        <v>-3.108971761063839</v>
       </c>
       <c r="L17" s="5">
-        <v>9.5835798842271771</v>
+        <v>12.919378527068925</v>
       </c>
       <c r="M17" s="5">
-        <v>3.7080081765938471</v>
+        <v>3.6453054098925852</v>
       </c>
       <c r="N17" s="5">
-        <v>-19.961633525033417</v>
+        <v>-18.830449723283959</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
@@ -2192,7 +2192,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T17" s="5">
-        <v>16.540000915527344</v>
+        <v>16.530000686645508</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2203,7 +2203,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="5">
-        <v>2526787840</v>
+        <v>2508322304</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>83</v>
@@ -2212,111 +2212,111 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9296050</v>
+        <v>9360189</v>
       </c>
       <c r="G18" s="5">
-        <v>9.7691736221313477</v>
+        <v>4.8780488967895508</v>
       </c>
       <c r="H18" s="5">
-        <v>-0.28714150007135303</v>
+        <v>-0.52265808649378809</v>
       </c>
       <c r="I18" s="5">
-        <v>1.1349865891141511</v>
+        <v>-2.8157415133301829</v>
       </c>
       <c r="J18" s="5">
-        <v>0.44036900978317001</v>
+        <v>-1.122056581850672</v>
       </c>
       <c r="K18" s="5">
-        <v>-13.651212097134602</v>
+        <v>0.24665836599373503</v>
       </c>
       <c r="L18" s="5">
-        <v>16.320237914622183</v>
+        <v>21.178735730518781</v>
       </c>
       <c r="M18" s="5">
-        <v>-13.691276886906966</v>
+        <v>2.781899512959241</v>
       </c>
       <c r="N18" s="5">
-        <v>-21.477602704347898</v>
+        <v>-6.0749673811894001</v>
       </c>
       <c r="O18" s="5">
-        <v>52.073394185397916</v>
+        <v>88.396043707379818</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="S18" s="5">
-        <v>0.99056022140322508</v>
+        <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>0.73728018999099709</v>
+        <v>9.0929250717163086</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="5">
+        <v>2494044160</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="5">
-        <v>2511292672</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5">
+        <v>9175586</v>
+      </c>
+      <c r="G19" s="5">
+        <v>9.7691736221313477</v>
+      </c>
+      <c r="H19" s="5">
+        <v>-0.28714150007135303</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1.1349865891141511</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.44036900978317001</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-13.651212097134602</v>
+      </c>
+      <c r="L19" s="5">
+        <v>16.320237914622183</v>
+      </c>
+      <c r="M19" s="5">
+        <v>-14.95932193519922</v>
+      </c>
+      <c r="N19" s="5">
+        <v>-21.477602704347898</v>
+      </c>
+      <c r="O19" s="5">
+        <v>52.073394185397916</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="5">
-        <v>9371273</v>
-      </c>
-      <c r="G19" s="5">
-        <v>4.858299732208252</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.39905412657894601</v>
-      </c>
-      <c r="I19" s="5">
-        <v>6.9182752831276006E-2</v>
-      </c>
-      <c r="J19" s="5">
-        <v>-4.4105576549331005</v>
-      </c>
-      <c r="K19" s="5">
-        <v>3.0944277175376289</v>
-      </c>
-      <c r="L19" s="5">
-        <v>20.875422509174378</v>
-      </c>
-      <c r="M19" s="5">
-        <v>3.3219198823449592</v>
-      </c>
-      <c r="N19" s="5">
-        <v>-5.1817512867998854</v>
-      </c>
-      <c r="O19" s="5">
-        <v>131.24139812099759</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>89</v>
       </c>
       <c r="S19" s="5">
-        <v>11.425618100945441</v>
+        <v>0.99056022140322508</v>
       </c>
       <c r="T19" s="5">
-        <v>9.1644411087036133</v>
+        <v>0.73728018999099709</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2327,7 +2327,7 @@
         <v>91</v>
       </c>
       <c r="C20" s="5">
-        <v>2446496000</v>
+        <v>2440909568</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -2336,34 +2336,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>7501137.5</v>
+        <v>7343503</v>
       </c>
       <c r="G20" s="5">
-        <v>5.0271000862121582</v>
+        <v>4.9932703971862793</v>
       </c>
       <c r="H20" s="5">
-        <v>-0.15311078459462302</v>
+        <v>-0.47459795158959506</v>
       </c>
       <c r="I20" s="5">
-        <v>3.1085178300649829</v>
+        <v>-1.4579580901026179</v>
       </c>
       <c r="J20" s="5">
-        <v>7.6320590130463106</v>
+        <v>5.1656588612936094</v>
       </c>
       <c r="K20" s="5">
-        <v>9.022910489993001E-2</v>
+        <v>-0.98116365686444806</v>
       </c>
       <c r="L20" s="5">
-        <v>2.559264961368624</v>
+        <v>2.423843709459383</v>
       </c>
       <c r="M20" s="5">
-        <v>-1.9406349511992831</v>
+        <v>-2.406022689062659</v>
       </c>
       <c r="N20" s="5">
-        <v>-10.661816133877888</v>
+        <v>-9.6315494259055949</v>
       </c>
       <c r="O20" s="5">
-        <v>8.5761478254364967</v>
+        <v>6.5762471529139999E-2</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2373,10 +2373,10 @@
         <v>47</v>
       </c>
       <c r="S20" s="5">
-        <v>652.78559369724246</v>
+        <v>641.71974522292999</v>
       </c>
       <c r="T20" s="5">
-        <v>558.37176513671875</v>
+        <v>555.72174072265625</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2387,7 +2387,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="5">
-        <v>2425334784</v>
+        <v>2412651520</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>45</v>
@@ -2396,34 +2396,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>8214915.5</v>
+        <v>7995884.5</v>
       </c>
       <c r="G21" s="5">
-        <v>4.7148289680480957</v>
+        <v>4.6969695091247559</v>
       </c>
       <c r="H21" s="5">
-        <v>-0.6754717623693951</v>
+        <v>-0.76847467672474001</v>
       </c>
       <c r="I21" s="5">
-        <v>4.8388576811620787</v>
+        <v>-1.425301130651357</v>
       </c>
       <c r="J21" s="5">
-        <v>6.7970369281372012</v>
+        <v>5.8568490607632686</v>
       </c>
       <c r="K21" s="5">
-        <v>-2.395812215085646</v>
+        <v>-3.5500377235935803</v>
       </c>
       <c r="L21" s="5">
-        <v>2.9037173864019161</v>
+        <v>2.4643903743184699</v>
       </c>
       <c r="M21" s="5">
-        <v>-5.317765586701495</v>
+        <v>-6.0453745815248432</v>
       </c>
       <c r="N21" s="5">
-        <v>-8.2810475710474503</v>
+        <v>-6.8731630000866577</v>
       </c>
       <c r="O21" s="5">
-        <v>19.24658623871791</v>
+        <v>9.8823138870248286</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2433,10 +2433,10 @@
         <v>47</v>
       </c>
       <c r="S21" s="5">
-        <v>3404.6145188519977</v>
+        <v>3351.9108280254777</v>
       </c>
       <c r="T21" s="5">
-        <v>2984.792236328125</v>
+        <v>2961.85498046875</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2447,7 +2447,7 @@
         <v>95</v>
       </c>
       <c r="C22" s="5">
-        <v>2139678080</v>
+        <v>2136231936</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>35</v>
@@ -2456,7 +2456,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>7730389</v>
+        <v>7717939.5</v>
       </c>
       <c r="G22" s="5">
         <v>6.1940298080444336</v>
@@ -2477,7 +2477,7 @@
         <v>-5.6454993591436908</v>
       </c>
       <c r="M22" s="5">
-        <v>-7.1476679301985966</v>
+        <v>-7.4691898622914472</v>
       </c>
       <c r="N22" s="5">
         <v>-32.821061563637102</v>
@@ -2509,7 +2509,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="5">
-        <v>2013830016</v>
+        <v>2011412480</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2518,7 +2518,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5834579.5</v>
+        <v>5827575</v>
       </c>
       <c r="G23" s="5">
         <v>6.6985645294189453</v>
@@ -2539,7 +2539,7 @@
         <v>8.5822445106577874</v>
       </c>
       <c r="M23" s="5">
-        <v>-6.2327440155706348</v>
+        <v>-6.6548684585286839</v>
       </c>
       <c r="N23" s="5">
         <v>-25.889152025857143</v>
@@ -2571,7 +2571,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="5">
-        <v>1646243456</v>
+        <v>1632510976</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -2580,34 +2580,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3427372.5</v>
+        <v>3333534</v>
       </c>
       <c r="G24" s="5">
-        <v>4.6062211990356454</v>
+        <v>4.6031746864318848</v>
       </c>
       <c r="H24" s="5">
-        <v>-0.62100959348209106</v>
+        <v>-1.0789276769539891</v>
       </c>
       <c r="I24" s="5">
-        <v>1.4611880527323651</v>
+        <v>-2.9178892181681571</v>
       </c>
       <c r="J24" s="5">
-        <v>3.617032995734148</v>
+        <v>0.84455496228419402</v>
       </c>
       <c r="K24" s="5">
-        <v>-3.383839338534167</v>
+        <v>-4.1140493150595319</v>
       </c>
       <c r="L24" s="5">
-        <v>-0.13020953780410502</v>
+        <v>-0.86769971676761104</v>
       </c>
       <c r="M24" s="5">
-        <v>-6.526612614243243</v>
+        <v>-7.5351228613345977</v>
       </c>
       <c r="N24" s="5">
-        <v>-11.074652422621901</v>
+        <v>-10.736027880022192</v>
       </c>
       <c r="O24" s="5">
-        <v>22.871862956565892</v>
+        <v>19.682343740172126</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2617,10 +2617,10 @@
         <v>47</v>
       </c>
       <c r="S24" s="5">
-        <v>1344.9634214969049</v>
+        <v>1330.8014874594508</v>
       </c>
       <c r="T24" s="5">
-        <v>1143.224609375</v>
+        <v>1130.8900146484375</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2628,10 +2628,10 @@
         <v>102</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C25" s="5">
-        <v>1582346752</v>
+        <v>1580447104</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2640,7 +2640,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1837425.75</v>
+        <v>1835220</v>
       </c>
       <c r="G25" s="5">
         <v>6.8064517974853525</v>
@@ -2661,7 +2661,7 @@
         <v>3.8152823191266889</v>
       </c>
       <c r="M25" s="5">
-        <v>1.6622473556104471</v>
+        <v>1.2045809870651509</v>
       </c>
       <c r="N25" s="5">
         <v>-33.09247097705645</v>
@@ -2693,7 +2693,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="5">
-        <v>1548386944</v>
+        <v>1546528128</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2702,7 +2702,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>2936260</v>
+        <v>2932735</v>
       </c>
       <c r="G26" s="5">
         <v>7.019230842590332</v>
@@ -2723,7 +2723,7 @@
         <v>8.5034334782770671</v>
       </c>
       <c r="M26" s="5">
-        <v>-3.3878255098701242</v>
+        <v>-3.8227572982801883</v>
       </c>
       <c r="N26" s="5">
         <v>-26.727546575288642</v>
@@ -2755,16 +2755,16 @@
         <v>106</v>
       </c>
       <c r="C27" s="5">
-        <v>1481275904</v>
+        <v>1462080512</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3308347</v>
+        <v>3265475.25</v>
       </c>
       <c r="G27" s="5">
         <v>11.218514442443848</v>
@@ -2785,7 +2785,7 @@
         <v>7.2635624680678754</v>
       </c>
       <c r="M27" s="5">
-        <v>-15.393935906758482</v>
+        <v>-16.63696554222598</v>
       </c>
       <c r="N27" s="5">
         <v>-24.398723412639576</v>
@@ -2800,7 +2800,7 @@
         <v>107</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S27" s="5">
         <v>0.31711016131256003</v>
@@ -2817,7 +2817,7 @@
         <v>109</v>
       </c>
       <c r="C28" s="5">
-        <v>1414678912</v>
+        <v>1399848320</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>45</v>
@@ -2826,34 +2826,34 @@
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3454391.5</v>
+        <v>3357963</v>
       </c>
       <c r="G28" s="5">
-        <v>4.6176910400390634</v>
+        <v>4.6246247291564941</v>
       </c>
       <c r="H28" s="5">
-        <v>-0.57276487976671808</v>
+        <v>-1.2925610344018401</v>
       </c>
       <c r="I28" s="5">
-        <v>-0.66302004030336403</v>
+        <v>-3.885915675691709</v>
       </c>
       <c r="J28" s="5">
-        <v>3.393445196615597</v>
+        <v>0.77785882804988205</v>
       </c>
       <c r="K28" s="5">
-        <v>-1.230041687930139</v>
+        <v>-3.007676173773111</v>
       </c>
       <c r="L28" s="5">
-        <v>2.1318289024768511</v>
+        <v>1.1586960277416569</v>
       </c>
       <c r="M28" s="5">
-        <v>-3.6932261565729263</v>
+        <v>-4.9380499887625717</v>
       </c>
       <c r="N28" s="5">
-        <v>-18.162228493722242</v>
+        <v>-17.625755410072586</v>
       </c>
       <c r="O28" s="5">
-        <v>20.278787184464807</v>
+        <v>16.658950229357615</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
@@ -2863,10 +2863,10 @@
         <v>47</v>
       </c>
       <c r="S28" s="5">
-        <v>1291.1005707854329</v>
+        <v>1268.312101910828</v>
       </c>
       <c r="T28" s="5">
-        <v>1009.3062133789062</v>
+        <v>996.26025390625</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2889,31 +2889,31 @@
         <v>6062193.5</v>
       </c>
       <c r="G29" s="5">
-        <v>4.6709127426147461</v>
+        <v>4.6610169410705566</v>
       </c>
       <c r="H29" s="5">
-        <v>0.80256615432909906</v>
+        <v>0.21230895888935103</v>
       </c>
       <c r="I29" s="5">
-        <v>2.1691952654312452</v>
+        <v>-0.10582252998598801</v>
       </c>
       <c r="J29" s="5">
-        <v>0.271041609861289</v>
+        <v>5.0689575746124982</v>
       </c>
       <c r="K29" s="5">
-        <v>-0.668998901058238</v>
+        <v>1.068449243070746</v>
       </c>
       <c r="L29" s="5">
-        <v>10.401058320870128</v>
+        <v>13.625591111392721</v>
       </c>
       <c r="M29" s="5">
-        <v>1.823561380388683</v>
+        <v>2.0397419234594589</v>
       </c>
       <c r="N29" s="5">
-        <v>-13.058694794182168</v>
+        <v>-10.390431489518182</v>
       </c>
       <c r="O29" s="5">
-        <v>90.935610171932368</v>
+        <v>63.383869498989554</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
@@ -2928,7 +2928,7 @@
         <v>23.389999389648438</v>
       </c>
       <c r="T29" s="5">
-        <v>18.840000152587891</v>
+        <v>18.879999160766602</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2939,56 +2939,58 @@
         <v>114</v>
       </c>
       <c r="C30" s="5">
-        <v>1317322752</v>
+        <v>1303669760</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>3219941.5</v>
+        <v>10366682</v>
       </c>
       <c r="G30" s="5">
-        <v>3.8180797100067139</v>
+        <v>12.749004364013672</v>
       </c>
       <c r="H30" s="5">
-        <v>-1.255349184742949</v>
+        <v>-7.9619654042506011E-2</v>
       </c>
       <c r="I30" s="5">
-        <v>-1.155520883982708</v>
+        <v>-2.182382966767094</v>
       </c>
       <c r="J30" s="5">
-        <v>-3.998020070150909</v>
+        <v>-3.7576669674202483</v>
       </c>
       <c r="K30" s="5">
-        <v>-10.441739532589322</v>
+        <v>-4.1077157209120641</v>
       </c>
       <c r="L30" s="5">
-        <v>-0.49006624343790306</v>
+        <v>28.088983083017439</v>
       </c>
       <c r="M30" s="5">
-        <v>-13.199102433932364</v>
+        <v>2.758086043895025</v>
       </c>
       <c r="N30" s="5">
-        <v>-9.3557769992195343</v>
+        <v>-8.3663721565182758</v>
       </c>
       <c r="O30" s="5">
-        <v>28.859266833415155</v>
+        <v>21.724832149581474</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="R30" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5">
-        <v>1627.7828606282403</v>
+        <v>15.390000343322754</v>
       </c>
       <c r="T30" s="5">
-        <v>1347.5069580078125</v>
+        <v>12.550000190734863</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2999,7 +3001,7 @@
         <v>116</v>
       </c>
       <c r="C31" s="5">
-        <v>1317064832</v>
+        <v>1301874304</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>45</v>
@@ -3008,34 +3010,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>2680614</v>
+        <v>2599895.25</v>
       </c>
       <c r="G31" s="5">
-        <v>4.0307102203369141</v>
+        <v>4.0410518646240234</v>
       </c>
       <c r="H31" s="5">
-        <v>-0.67788184407446805</v>
+        <v>-1.397341169678179</v>
       </c>
       <c r="I31" s="5">
-        <v>2.957077623949123</v>
+        <v>-1.3072799821680301</v>
       </c>
       <c r="J31" s="5">
-        <v>3.218265071542548</v>
+        <v>-0.30921198418162305</v>
       </c>
       <c r="K31" s="5">
-        <v>5.2047463825577012</v>
+        <v>2.6382154142970071</v>
       </c>
       <c r="L31" s="5">
-        <v>15.820834770042103</v>
+        <v>14.595495332112641</v>
       </c>
       <c r="M31" s="5">
-        <v>2.128026475170786</v>
+        <v>0.70094951545338602</v>
       </c>
       <c r="N31" s="5">
-        <v>1.7404445876997741</v>
+        <v>2.1300369714593259</v>
       </c>
       <c r="O31" s="5">
-        <v>58.077069016330718</v>
+        <v>52.220146337566753</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3048,7 +3050,7 @@
         <v>1220.179304057134</v>
       </c>
       <c r="T31" s="5">
-        <v>1182.56787109375</v>
+        <v>1166.0433349609375</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3059,58 +3061,56 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1303669760</v>
+        <v>1301072128</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>10366682</v>
+        <v>3141693.5</v>
       </c>
       <c r="G32" s="5">
-        <v>12.738853454589844</v>
+        <v>3.8309860229492192</v>
       </c>
       <c r="H32" s="5">
-        <v>0.39968177314200204</v>
+        <v>-1.477385855243962</v>
       </c>
       <c r="I32" s="5">
-        <v>-0.31746000509534905</v>
+        <v>-5.3531873956853993</v>
       </c>
       <c r="J32" s="5">
-        <v>-11.797748444553147</v>
+        <v>-6.2961239288692914</v>
       </c>
       <c r="K32" s="5">
-        <v>-1.3960018037560971</v>
+        <v>-12.217497369139419</v>
       </c>
       <c r="L32" s="5">
-        <v>25.087724480403708</v>
+        <v>-1.622769253925471</v>
       </c>
       <c r="M32" s="5">
-        <v>2.839966869734134</v>
+        <v>-14.481486616798245</v>
       </c>
       <c r="N32" s="5">
-        <v>-10.037936745950994</v>
+        <v>-8.7393184379768396</v>
       </c>
       <c r="O32" s="5">
-        <v>38.456134021003322</v>
+        <v>26.50499059722511</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="Q32" s="4"/>
       <c r="R32" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S32" s="5">
-        <v>15.390000343322754</v>
+        <v>1627.7828606282403</v>
       </c>
       <c r="T32" s="5">
-        <v>12.560000419616699</v>
+        <v>1327.59912109375</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3121,7 +3121,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1237679872</v>
+        <v>1237742848</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3130,10 +3130,10 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1423995.625</v>
+        <v>1424068.125</v>
       </c>
       <c r="G33" s="5">
-        <v>6.3656306266784668</v>
+        <v>6.3663558959960938</v>
       </c>
       <c r="H33" s="5">
         <v>-0.98395829308339811</v>
@@ -3151,7 +3151,7 @@
         <v>16.184969266053905</v>
       </c>
       <c r="M33" s="5">
-        <v>1.4039666812930121</v>
+        <v>1.4026737791135611</v>
       </c>
       <c r="N33" s="5">
         <v>-37.372177004348615</v>
@@ -3195,31 +3195,31 @@
         <v>14931332</v>
       </c>
       <c r="G34" s="5">
-        <v>7.115903377532959</v>
+        <v>7.2447867393493652</v>
       </c>
       <c r="H34" s="5">
-        <v>0.54199712729530203</v>
+        <v>-1.7789754031189211</v>
       </c>
       <c r="I34" s="5">
-        <v>2.5995537352754061</v>
+        <v>-0.43715807126396605</v>
       </c>
       <c r="J34" s="5">
-        <v>-23.049604089529353</v>
+        <v>-7.9333073751452936</v>
       </c>
       <c r="K34" s="5">
-        <v>-30.391771212757558</v>
+        <v>-30.577444321123814</v>
       </c>
       <c r="L34" s="5">
-        <v>-23.879665035969055</v>
+        <v>-24.963917584888918</v>
       </c>
       <c r="M34" s="5">
-        <v>-28.973335191243521</v>
+        <v>-30.236882087847018</v>
       </c>
       <c r="N34" s="5">
-        <v>-47.520142508463216</v>
+        <v>-46.595834391816467</v>
       </c>
       <c r="O34" s="5">
-        <v>-12.246660754210769</v>
+        <v>-31.110304044832372</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
@@ -3234,7 +3234,7 @@
         <v>38.110000610351563</v>
       </c>
       <c r="T34" s="5">
-        <v>18.549999237060547</v>
+        <v>18.219999313354492</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3245,7 +3245,7 @@
         <v>128</v>
       </c>
       <c r="C35" s="5">
-        <v>1082528128</v>
+        <v>1069414528</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>45</v>
@@ -3254,34 +3254,34 @@
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>3313808.75</v>
+        <v>3218950.5</v>
       </c>
       <c r="G35" s="5">
-        <v>5.0345911979675293</v>
+        <v>5.0504732131958008</v>
       </c>
       <c r="H35" s="5">
-        <v>-1.200424780525011</v>
+        <v>-1.4552184852441701</v>
       </c>
       <c r="I35" s="5">
-        <v>-0.17387477260452103</v>
+        <v>-3.9571907334025269</v>
       </c>
       <c r="J35" s="5">
-        <v>1.3181833811365169</v>
+        <v>-1.5513674930914929</v>
       </c>
       <c r="K35" s="5">
-        <v>-5.1177177753550351</v>
+        <v>-7.5317850712280698</v>
       </c>
       <c r="L35" s="5">
-        <v>-3.5098293577662139</v>
+        <v>-4.5866960151347724</v>
       </c>
       <c r="M35" s="5">
-        <v>-9.2923629806519799</v>
+        <v>-10.612357282085705</v>
       </c>
       <c r="N35" s="5">
-        <v>-16.491223578506375</v>
+        <v>-16.389672807427136</v>
       </c>
       <c r="O35" s="5">
-        <v>6.9650821255438977</v>
+        <v>8.0424075691135855</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
@@ -3291,10 +3291,10 @@
         <v>47</v>
       </c>
       <c r="S35" s="5">
-        <v>3014.7117935525362</v>
+        <v>2987.0638965111721</v>
       </c>
       <c r="T35" s="5">
-        <v>2405.9921875</v>
+        <v>2370.979736328125</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3317,31 +3317,31 @@
         <v>5440582</v>
       </c>
       <c r="G36" s="5">
-        <v>6.3122920989990234</v>
+        <v>6.2966032028198242</v>
       </c>
       <c r="H36" s="5">
-        <v>2.3809500639594421</v>
+        <v>0.24916721815815301</v>
       </c>
       <c r="I36" s="5">
-        <v>4.2424221907046311</v>
+        <v>1.7706580457508061</v>
       </c>
       <c r="J36" s="5">
-        <v>-4.6690789756848599</v>
+        <v>2.772115273430753</v>
       </c>
       <c r="K36" s="5">
-        <v>5.5214646497361741</v>
+        <v>5.9671001029503179</v>
       </c>
       <c r="L36" s="5">
-        <v>17.830492193651892</v>
+        <v>18.573228968479548</v>
       </c>
       <c r="M36" s="5">
-        <v>6.4390505713123769</v>
+        <v>6.7042617926548642</v>
       </c>
       <c r="N36" s="5">
-        <v>-11.384608063131662</v>
+        <v>-9.4133434663443705</v>
       </c>
       <c r="O36" s="5">
-        <v>38.108915527897722</v>
+        <v>21.131359682263895</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
@@ -3356,7 +3356,7 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T36" s="5">
-        <v>12.039999961853027</v>
+        <v>12.069999694824219</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3379,31 +3379,31 @@
         <v>12656991</v>
       </c>
       <c r="G37" s="5">
-        <v>2.1638331413269039</v>
+        <v>2.2082018852233891</v>
       </c>
       <c r="H37" s="5">
-        <v>0.46583435876768103</v>
+        <v>-2.0092680343025031</v>
       </c>
       <c r="I37" s="5">
-        <v>0.93603657110483707</v>
+        <v>-3.3536553675400542</v>
       </c>
       <c r="J37" s="5">
-        <v>-17.874212187417083</v>
+        <v>-16.792789078531957</v>
       </c>
       <c r="K37" s="5">
-        <v>-4.3476149068454317</v>
+        <v>-7.8949069257350342</v>
       </c>
       <c r="L37" s="5">
-        <v>-0.78848908448927402</v>
+        <v>0.41805535719667802</v>
       </c>
       <c r="M37" s="5">
-        <v>-3.4961056547841318</v>
+        <v>-5.4351275557196104</v>
       </c>
       <c r="N37" s="5">
-        <v>-27.269032110052404</v>
+        <v>-26.878186993765695</v>
       </c>
       <c r="O37" s="5">
-        <v>-22.477674135912238</v>
+        <v>-30.747355643098619</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
@@ -3418,7 +3418,7 @@
         <v>9.1800003051757813</v>
       </c>
       <c r="T37" s="5">
-        <v>6.4699997901916504</v>
+        <v>6.3400001525878906</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3429,7 +3429,7 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>829395712</v>
+        <v>828059904</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>35</v>
@@ -3438,7 +3438,7 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1570373</v>
+        <v>1567843.875</v>
       </c>
       <c r="G38" s="5">
         <v>6.517509937286377</v>
@@ -3459,7 +3459,7 @@
         <v>4.4392193618162379</v>
       </c>
       <c r="M38" s="5">
-        <v>-8.2492831935793589</v>
+        <v>-8.5669905368513373</v>
       </c>
       <c r="N38" s="5">
         <v>-41.731508020693042</v>
@@ -3491,7 +3491,7 @@
         <v>137</v>
       </c>
       <c r="C39" s="5">
-        <v>823031680</v>
+        <v>827683392</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>138</v>
@@ -3500,34 +3500,34 @@
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>1441996.75</v>
+        <v>1335062.875</v>
       </c>
       <c r="G39" s="5">
-        <v>5.211726188659668</v>
+        <v>5.161290168762207</v>
       </c>
       <c r="H39" s="5">
-        <v>-0.149572238395101</v>
+        <v>0.29523931903232503</v>
       </c>
       <c r="I39" s="5">
-        <v>-3.9990882968436781</v>
+        <v>-0.330043217915577</v>
       </c>
       <c r="J39" s="5">
-        <v>3.1608438718486949</v>
+        <v>-5.0160628521520927</v>
       </c>
       <c r="K39" s="5">
-        <v>-13.555219792185369</v>
+        <v>-15.830639100130783</v>
       </c>
       <c r="L39" s="5">
-        <v>-18.014154015048135</v>
+        <v>-15.846185389173261</v>
       </c>
       <c r="M39" s="5">
-        <v>-14.047182985106554</v>
+        <v>-13.793416473462672</v>
       </c>
       <c r="N39" s="5">
-        <v>-36.000065534208758</v>
+        <v>-34.190255784563796</v>
       </c>
       <c r="O39" s="5">
-        <v>8.7846830275713614</v>
+        <v>5.9836127003023654</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>25</v>
@@ -3539,10 +3539,10 @@
         <v>140</v>
       </c>
       <c r="S39" s="5">
-        <v>6.9785442273754601</v>
+        <v>6.9296474607858372</v>
       </c>
       <c r="T39" s="5">
-        <v>4.2804160118103027</v>
+        <v>4.2726798057556152</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3553,7 +3553,7 @@
         <v>142</v>
       </c>
       <c r="C40" s="5">
-        <v>810136576</v>
+        <v>809164032</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>29</v>
@@ -3562,7 +3562,7 @@
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>1997580.875</v>
+        <v>1995182.75</v>
       </c>
       <c r="G40" s="5">
         <v>7.4342103004455566</v>
@@ -3583,7 +3583,7 @@
         <v>9.1489533246025004E-2</v>
       </c>
       <c r="M40" s="5">
-        <v>-12.876867776623735</v>
+        <v>-13.26908148995518</v>
       </c>
       <c r="N40" s="5">
         <v>-49.698364314284213</v>
@@ -3601,7 +3601,7 @@
         <v>32</v>
       </c>
       <c r="S40" s="5">
-        <v>2.1260999057708969</v>
+        <v>2.096480441422877</v>
       </c>
       <c r="T40" s="5">
         <v>1.0150560140609739</v>
@@ -3615,7 +3615,7 @@
         <v>145</v>
       </c>
       <c r="C41" s="5">
-        <v>808397568</v>
+        <v>802564928</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>45</v>
@@ -3624,34 +3624,34 @@
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>2353845.5</v>
+        <v>2298641.75</v>
       </c>
       <c r="G41" s="5">
-        <v>5.442446231842041</v>
+        <v>5.4326748847961426</v>
       </c>
       <c r="H41" s="5">
-        <v>0.11649837342342401</v>
+        <v>-0.96655373792841104</v>
       </c>
       <c r="I41" s="5">
-        <v>1.920443697253615</v>
+        <v>-1.4581949244659831</v>
       </c>
       <c r="J41" s="5">
-        <v>5.6384267322795667</v>
+        <v>2.2463886470378558</v>
       </c>
       <c r="K41" s="5">
-        <v>6.1563020597660278</v>
+        <v>4.4333627380697349</v>
       </c>
       <c r="L41" s="5">
-        <v>11.945183210990585</v>
+        <v>11.244752280101288</v>
       </c>
       <c r="M41" s="5">
-        <v>2.6024431397913221</v>
+        <v>1.6107353904178061</v>
       </c>
       <c r="N41" s="5">
-        <v>-11.108743691144518</v>
+        <v>-10.032682382485735</v>
       </c>
       <c r="O41" s="5">
-        <v>39.539576302357091</v>
+        <v>38.124681008502748</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>25</v>
@@ -3661,10 +3661,10 @@
         <v>47</v>
       </c>
       <c r="S41" s="5">
-        <v>497.62842672240532</v>
+        <v>493.63057324840764</v>
       </c>
       <c r="T41" s="5">
-        <v>420.67034912109375</v>
+        <v>416.60433959960937</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3675,7 +3675,7 @@
         <v>147</v>
       </c>
       <c r="C42" s="5">
-        <v>789511552</v>
+        <v>785351104</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>148</v>
@@ -3684,34 +3684,34 @@
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>2630325.75</v>
+        <v>1363558.75</v>
       </c>
       <c r="G42" s="5">
-        <v>0.98151814937591608</v>
+        <v>0.98662060499191306</v>
       </c>
       <c r="H42" s="5">
-        <v>0.61955872759766906</v>
+        <v>-0.52695617176543608</v>
       </c>
       <c r="I42" s="5">
-        <v>1.239266548560169</v>
+        <v>0.7057799852324691</v>
       </c>
       <c r="J42" s="5">
-        <v>6.4818526473464422</v>
+        <v>4.8278987322374567</v>
       </c>
       <c r="K42" s="5">
-        <v>5.4473661073288548</v>
+        <v>4.3455900138143821</v>
       </c>
       <c r="L42" s="5">
-        <v>7.6726690641028661</v>
+        <v>7.1052812891650108</v>
       </c>
       <c r="M42" s="5">
-        <v>5.4064221728577611</v>
+        <v>4.850976525780748</v>
       </c>
       <c r="N42" s="5">
-        <v>5.0959510397836638</v>
+        <v>4.8667875062105903</v>
       </c>
       <c r="O42" s="5">
-        <v>22.463525102386939</v>
+        <v>21.910450301647909</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>25</v>
@@ -3726,7 +3726,7 @@
         <v>0.72089303474705002</v>
       </c>
       <c r="T42" s="5">
-        <v>0.69868278503418002</v>
+        <v>0.69500100612640403</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3737,7 +3737,7 @@
         <v>151</v>
       </c>
       <c r="C43" s="5">
-        <v>759673344</v>
+        <v>758449792</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>152</v>
@@ -3746,7 +3746,7 @@
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>1549357.25</v>
+        <v>1546862</v>
       </c>
       <c r="G43" s="5">
         <v>5.5045871734619141</v>
@@ -3767,7 +3767,7 @@
         <v>31.509684875326705</v>
       </c>
       <c r="M43" s="5">
-        <v>2.5868554543764688</v>
+        <v>2.231625561515771</v>
       </c>
       <c r="N43" s="5">
         <v>-24.289475400042971</v>
@@ -3799,7 +3799,7 @@
         <v>156</v>
       </c>
       <c r="C44" s="5">
-        <v>753742592</v>
+        <v>749045824</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>45</v>
@@ -3808,34 +3808,34 @@
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>1650852.625</v>
+        <v>1604236.375</v>
       </c>
       <c r="G44" s="5">
-        <v>4.0474529266357422</v>
+        <v>4.036186695098877</v>
       </c>
       <c r="H44" s="5">
-        <v>-0.35416203689433401</v>
+        <v>-0.86841126649236411</v>
       </c>
       <c r="I44" s="5">
-        <v>3.7855286607321181</v>
+        <v>-9.3153950822100012E-2</v>
       </c>
       <c r="J44" s="5">
-        <v>4.4228994444956538</v>
+        <v>1.5552476408889682</v>
       </c>
       <c r="K44" s="5">
-        <v>-2.4285084028414561</v>
+        <v>-3.4656519487922921</v>
       </c>
       <c r="L44" s="5">
-        <v>5.8754344190148364</v>
+        <v>5.3172477708186117</v>
       </c>
       <c r="M44" s="5">
-        <v>-6.8575002836742227</v>
+        <v>-7.6663602451034105</v>
       </c>
       <c r="N44" s="5">
-        <v>-7.8244556729761499</v>
+        <v>-6.5524137351497096</v>
       </c>
       <c r="O44" s="5">
-        <v>20.602441636638225</v>
+        <v>18.610274628484834</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>25</v>
@@ -3845,10 +3845,10 @@
         <v>47</v>
       </c>
       <c r="S44" s="5">
-        <v>1221.9631803199613</v>
+        <v>1210.1910828025477</v>
       </c>
       <c r="T44" s="5">
-        <v>1084.209716796875</v>
+        <v>1074.7943115234375</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3859,7 +3859,7 @@
         <v>158</v>
       </c>
       <c r="C45" s="5">
-        <v>719338560</v>
+        <v>728206976</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>159</v>
@@ -3868,32 +3868,32 @@
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>2109315.25</v>
+        <v>1935614.875</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5">
-        <v>1.307002345301989</v>
+        <v>1.999185957115257</v>
       </c>
       <c r="I45" s="5">
-        <v>1.1694339108443201</v>
+        <v>3.793553432465302</v>
       </c>
       <c r="J45" s="5">
-        <v>-17.142470371467191</v>
+        <v>-20.816602467246703</v>
       </c>
       <c r="K45" s="5">
-        <v>-23.811509676034781</v>
+        <v>-15.78116017630915</v>
       </c>
       <c r="L45" s="5">
-        <v>42.717520959408951</v>
+        <v>42.66044998606926</v>
       </c>
       <c r="M45" s="5">
-        <v>-29.344887693555965</v>
+        <v>-27.932360610341522</v>
       </c>
       <c r="N45" s="5">
-        <v>76.992981856446391</v>
+        <v>74.122259262740656</v>
       </c>
       <c r="O45" s="5">
-        <v>117.19055162932621</v>
+        <v>118.20080360089071</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>160</v>
@@ -3906,7 +3906,7 @@
         <v>1.13709763756269</v>
       </c>
       <c r="T45" s="5">
-        <v>0.72868728637695301</v>
+        <v>0.74325513839721702</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3917,43 +3917,43 @@
         <v>163</v>
       </c>
       <c r="C46" s="5">
-        <v>630739712</v>
+        <v>629993600</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>6915762.5</v>
+        <v>6907582.5</v>
       </c>
       <c r="G46" s="5">
-        <v>8.1521739959716797</v>
+        <v>8.0862531661987305</v>
       </c>
       <c r="H46" s="5">
-        <v>-0.94947382546889403</v>
+        <v>0.69597527291154204</v>
       </c>
       <c r="I46" s="5">
-        <v>-2.0033614449822208</v>
+        <v>-2.8561817261283822</v>
       </c>
       <c r="J46" s="5">
-        <v>-12.798058245058774</v>
+        <v>-9.4073408112951835</v>
       </c>
       <c r="K46" s="5">
-        <v>-18.972609293129416</v>
+        <v>-19.878998673506999</v>
       </c>
       <c r="L46" s="5">
-        <v>-15.233113987621817</v>
+        <v>-13.876054072121791</v>
       </c>
       <c r="M46" s="5">
-        <v>-16.763640686272609</v>
+        <v>-16.184336207377271</v>
       </c>
       <c r="N46" s="5">
-        <v>-43.983177552239724</v>
+        <v>-44.660653785487312</v>
       </c>
       <c r="O46" s="5">
-        <v>24.562529772368414</v>
+        <v>5.407974668522364</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>25</v>
@@ -3962,13 +3962,13 @@
         <v>26</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="S46" s="5">
         <v>11.008880893576956</v>
       </c>
       <c r="T46" s="5">
-        <v>5.4615612030029297</v>
+        <v>5.485325813293457</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3979,7 +3979,7 @@
         <v>165</v>
       </c>
       <c r="C47" s="5">
-        <v>597198912</v>
+        <v>596237056</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>35</v>
@@ -3988,7 +3988,7 @@
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>1715863.625</v>
+        <v>1713100.25</v>
       </c>
       <c r="G47" s="5">
         <v>4.3055553436279297</v>
@@ -4009,7 +4009,7 @@
         <v>39.860746924487245</v>
       </c>
       <c r="M47" s="5">
-        <v>30.825848353275596</v>
+        <v>30.372834642229417</v>
       </c>
       <c r="N47" s="5">
         <v>-16.936458866608607</v>
@@ -4041,7 +4041,7 @@
         <v>168</v>
       </c>
       <c r="C48" s="5">
-        <v>569043904</v>
+        <v>579352832</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>159</v>
@@ -4050,32 +4050,32 @@
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>3897432.5</v>
+        <v>3831857.75</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5">
-        <v>1.886194841064381</v>
+        <v>-0.36367964061727603</v>
       </c>
       <c r="I48" s="5">
-        <v>-21.974715712498472</v>
+        <v>-13.588361943123351</v>
       </c>
       <c r="J48" s="5">
-        <v>69.517088775094209</v>
+        <v>43.946300674420755</v>
       </c>
       <c r="K48" s="5">
-        <v>91.548847554272285</v>
+        <v>110.47524913754697</v>
       </c>
       <c r="L48" s="5">
-        <v>137.24519250038495</v>
+        <v>123.85808647476617</v>
       </c>
       <c r="M48" s="5">
-        <v>70.636582998450507</v>
+        <v>70.01601248664015</v>
       </c>
       <c r="N48" s="5">
-        <v>156.93131552190761</v>
+        <v>158.06718877871378</v>
       </c>
       <c r="O48" s="5">
-        <v>192.43237636152486</v>
+        <v>155.38027906627133</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>169</v>
@@ -4088,7 +4088,7 @@
         <v>2.9003802040762392</v>
       </c>
       <c r="T48" s="5">
-        <v>1.7461487054824829</v>
+        <v>1.739798426628113</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4111,31 +4111,31 @@
         <v>3951763</v>
       </c>
       <c r="G49" s="5">
-        <v>9.6000003814697266</v>
+        <v>9.6463031768798828</v>
       </c>
       <c r="H49" s="5">
-        <v>1.5434571397781931</v>
+        <v>-0.48000335693358903</v>
       </c>
       <c r="I49" s="5">
-        <v>1.132688893297185</v>
+        <v>8.0444689959958002E-2</v>
       </c>
       <c r="J49" s="5">
-        <v>-6.8466490535346036</v>
+        <v>0.42554433128125801</v>
       </c>
       <c r="K49" s="5">
-        <v>-32.389242197465173</v>
+        <v>-34.686672617039434</v>
       </c>
       <c r="L49" s="5">
-        <v>-16.665368589738495</v>
+        <v>-15.663364523758627</v>
       </c>
       <c r="M49" s="5">
-        <v>-31.037022772640842</v>
+        <v>-31.368047378373511</v>
       </c>
       <c r="N49" s="5">
-        <v>-39.901005761290456</v>
+        <v>-39.869499751351697</v>
       </c>
       <c r="O49" s="5">
-        <v>19.8676363966255</v>
+        <v>5.8678686838583793</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>25</v>
@@ -4150,7 +4150,7 @@
         <v>23.379999160766602</v>
       </c>
       <c r="T49" s="5">
-        <v>12.5</v>
+        <v>12.439999580383301</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4173,31 +4173,31 @@
         <v>1520128.5</v>
       </c>
       <c r="G50" s="5">
-        <v>8.0393028259277344</v>
+        <v>8.0142478942871094</v>
       </c>
       <c r="H50" s="5">
-        <v>1.037904078610308</v>
+        <v>0.31263821675930903</v>
       </c>
       <c r="I50" s="5">
-        <v>-0.66549032735652203</v>
+        <v>-2.1350834953263731</v>
       </c>
       <c r="J50" s="5">
-        <v>0.80594550979840007</v>
+        <v>10.642410511768841</v>
       </c>
       <c r="K50" s="5">
-        <v>-0.51119892364900299</v>
+        <v>-0.54669509177095499</v>
       </c>
       <c r="L50" s="5">
-        <v>10.937455257849461</v>
+        <v>11.870001930446183</v>
       </c>
       <c r="M50" s="5">
-        <v>2.802105993253257</v>
+        <v>3.1235046642215769</v>
       </c>
       <c r="N50" s="5">
-        <v>-21.024907465633103</v>
+        <v>-20.336581182993019</v>
       </c>
       <c r="O50" s="5">
-        <v>114.27518849323963</v>
+        <v>71.200965488173935</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>25</v>
@@ -4212,7 +4212,7 @@
         <v>31.969999313354492</v>
       </c>
       <c r="T50" s="5">
-        <v>22.389999389648438</v>
+        <v>22.459999084472656</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4223,116 +4223,116 @@
         <v>175</v>
       </c>
       <c r="C51" s="5">
-        <v>466573984</v>
+        <v>476100992</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>3874207.5</v>
-      </c>
-      <c r="G51" s="5">
-        <v>5.8811659812927246</v>
-      </c>
+        <v>2055969.875</v>
+      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="5">
-        <v>-0.53520617664002401</v>
+        <v>3.6348095744090703</v>
       </c>
       <c r="I51" s="5">
-        <v>5.5073032757980006E-3</v>
+        <v>5.7022382025063711</v>
       </c>
       <c r="J51" s="5">
-        <v>1.835969580382768</v>
+        <v>-10.327456648564304</v>
       </c>
       <c r="K51" s="5">
-        <v>-4.8491713023868011</v>
+        <v>-20.576355110370137</v>
       </c>
       <c r="L51" s="5">
-        <v>-2.258329972950512</v>
+        <v>32.506496357596504</v>
       </c>
       <c r="M51" s="5">
-        <v>-8.394360227929198</v>
+        <v>-40.300419818560741</v>
       </c>
       <c r="N51" s="5">
-        <v>-27.598336501831366</v>
+        <v>108.69433899678928</v>
       </c>
       <c r="O51" s="5">
-        <v>19.096265154824323</v>
+        <v>266.31171871943025</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="4"/>
+      <c r="Q51" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="R51" s="4" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="S51" s="5">
-        <v>992.0411608650212</v>
+        <v>1.152422315694851</v>
       </c>
       <c r="T51" s="5">
-        <v>674.888427734375</v>
+        <v>0.65398150682449308</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A52" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C52" s="5">
-        <v>459400256</v>
+        <v>461857600</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>2134649.25</v>
-      </c>
-      <c r="G52" s="5"/>
+        <v>3733027.5</v>
+      </c>
+      <c r="G52" s="5">
+        <v>5.8877663612365723</v>
+      </c>
       <c r="H52" s="5">
-        <v>-1.1319496183520019</v>
+        <v>-1.255176384448198</v>
       </c>
       <c r="I52" s="5">
-        <v>-0.91572419691623408</v>
+        <v>-3.7364854552871201</v>
       </c>
       <c r="J52" s="5">
-        <v>-13.728411744054814</v>
+        <v>-0.67138029226500007</v>
       </c>
       <c r="K52" s="5">
-        <v>-29.2429772585044</v>
+        <v>-7.6001338673764689</v>
       </c>
       <c r="L52" s="5">
-        <v>31.344116353082097</v>
+        <v>-3.1529663700823769</v>
       </c>
       <c r="M52" s="5">
-        <v>-42.394278113112783</v>
+        <v>-9.5441725851709176</v>
       </c>
       <c r="N52" s="5">
-        <v>110.49465577721627</v>
+        <v>-27.464936221736625</v>
       </c>
       <c r="O52" s="5">
-        <v>254.32216509844397</v>
+        <v>11.474298658433169</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q52" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q52" s="4"/>
       <c r="R52" s="4" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="S52" s="5">
-        <v>1.152422315694851</v>
+        <v>974.52229299363057</v>
       </c>
       <c r="T52" s="5">
-        <v>0.63104426860809304</v>
+        <v>666.4173583984375</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4343,7 +4343,7 @@
         <v>180</v>
       </c>
       <c r="C53" s="5">
-        <v>444275936</v>
+        <v>456128512</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>159</v>
@@ -4352,32 +4352,32 @@
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>1085409.375</v>
+        <v>1086535.875</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5">
-        <v>-0.23531166145343002</v>
+        <v>2.6673050204511162</v>
       </c>
       <c r="I53" s="5">
-        <v>2.1387541415262219</v>
+        <v>16.238074557398207</v>
       </c>
       <c r="J53" s="5">
-        <v>-10.190759998749732</v>
+        <v>-3.5707670129203621</v>
       </c>
       <c r="K53" s="5">
-        <v>-6.659206096318826</v>
+        <v>-4.801666126057869</v>
       </c>
       <c r="L53" s="5">
-        <v>49.811747350220848</v>
+        <v>56.858155029989696</v>
       </c>
       <c r="M53" s="5">
-        <v>-0.196305321634582</v>
+        <v>2.4657636371171692</v>
       </c>
       <c r="N53" s="5">
-        <v>44.208243539984871</v>
+        <v>45.29840786466319</v>
       </c>
       <c r="O53" s="5">
-        <v>396.19126001872235</v>
+        <v>453.89698636623723</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>25</v>
@@ -4392,7 +4392,7 @@
         <v>10.579760227544591</v>
       </c>
       <c r="T53" s="5">
-        <v>8.5437679290771484</v>
+        <v>8.7716569900512695</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4403,7 +4403,7 @@
         <v>183</v>
       </c>
       <c r="C54" s="5">
-        <v>442680800</v>
+        <v>454829632</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>159</v>
@@ -4412,32 +4412,32 @@
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>9289512</v>
+        <v>8371257.5</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5">
-        <v>2.8196264604554599</v>
+        <v>2.3389555953575951</v>
       </c>
       <c r="I54" s="5">
-        <v>0.31365575174353605</v>
+        <v>3.5335488665632302</v>
       </c>
       <c r="J54" s="5">
-        <v>-16.290618580073378</v>
+        <v>-17.077403117085911</v>
       </c>
       <c r="K54" s="5">
-        <v>-17.948478959891791</v>
+        <v>-11.613712112056529</v>
       </c>
       <c r="L54" s="5">
-        <v>49.294763398467481</v>
+        <v>53.509214743889075</v>
       </c>
       <c r="M54" s="5">
-        <v>-16.507437529114966</v>
+        <v>-14.554583567494783</v>
       </c>
       <c r="N54" s="5">
-        <v>-51.056248412418682</v>
+        <v>-53.166946167260207</v>
       </c>
       <c r="O54" s="5">
-        <v>134.44164634589387</v>
+        <v>124.26215692328944</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>160</v>
@@ -4450,7 +4450,7 @@
         <v>1.1922868853192861</v>
       </c>
       <c r="T54" s="5">
-        <v>0.47471150755882302</v>
+        <v>0.48581480979919406</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4473,31 +4473,31 @@
         <v>1796609</v>
       </c>
       <c r="G55" s="5">
-        <v>5.4995417594909668</v>
+        <v>5.499542236328125</v>
       </c>
       <c r="H55" s="5">
-        <v>4.3021014113194589</v>
+        <v>0</v>
       </c>
       <c r="I55" s="5">
-        <v>7.6998985603095482</v>
+        <v>4.7024929705417051</v>
       </c>
       <c r="J55" s="5">
-        <v>-8.2157732011037261</v>
+        <v>-2.2104357692784742</v>
       </c>
       <c r="K55" s="5">
-        <v>-1.863358193264431</v>
+        <v>-0.9847804300303411</v>
       </c>
       <c r="L55" s="5">
-        <v>-9.8002423889575585</v>
+        <v>-4.2447338204479319</v>
       </c>
       <c r="M55" s="5">
         <v>-1.3380891283805041</v>
       </c>
       <c r="N55" s="5">
-        <v>-28.670177219003577</v>
+        <v>-28.10852429461923</v>
       </c>
       <c r="O55" s="5">
-        <v>63.216644954314162</v>
+        <v>39.029949503045373</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
@@ -4535,31 +4535,31 @@
         <v>4920069</v>
       </c>
       <c r="G56" s="5">
-        <v>9.0314912796020508</v>
+        <v>9.1236495971679687</v>
       </c>
       <c r="H56" s="5">
-        <v>1.020408630558012</v>
+        <v>-1.010101468001134</v>
       </c>
       <c r="I56" s="5">
-        <v>0.17857552385673903</v>
+        <v>-2.1726413641518172</v>
       </c>
       <c r="J56" s="5">
-        <v>-4.308580875265589</v>
+        <v>2.397045966045686</v>
       </c>
       <c r="K56" s="5">
-        <v>-4.7851885694751406</v>
+        <v>-8.0371202202062619</v>
       </c>
       <c r="L56" s="5">
-        <v>-1.6155040398472149</v>
+        <v>-0.54663474462767203</v>
       </c>
       <c r="M56" s="5">
-        <v>-5.8790155009322724</v>
+        <v>-6.8297329470544792</v>
       </c>
       <c r="N56" s="5">
-        <v>-16.67610663926903</v>
+        <v>-15.978671646142717</v>
       </c>
       <c r="O56" s="5">
-        <v>80.436830616178185</v>
+        <v>95.546832385016884</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
@@ -4574,7 +4574,7 @@
         <v>23.069999694824219</v>
       </c>
       <c r="T56" s="5">
-        <v>16.829999923706055</v>
+        <v>16.659999847412109</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4585,7 +4585,7 @@
         <v>189</v>
       </c>
       <c r="C57" s="5">
-        <v>337053536</v>
+        <v>336831328</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>159</v>
@@ -4594,31 +4594,31 @@
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>5187829</v>
+        <v>5321079.5</v>
       </c>
       <c r="G57" s="5">
-        <v>0.77049177885055509</v>
+        <v>0.76923072338104204</v>
       </c>
       <c r="H57" s="5">
-        <v>7.2735447476770009E-3</v>
+        <v>9.7389472988496012E-2</v>
       </c>
       <c r="I57" s="5">
-        <v>-0.34486298045617303</v>
+        <v>-0.17450750467304901</v>
       </c>
       <c r="J57" s="5">
-        <v>-9.3107137220703748</v>
+        <v>-15.417071422100781</v>
       </c>
       <c r="K57" s="5">
-        <v>-29.416440995199199</v>
+        <v>-28.001336917711782</v>
       </c>
       <c r="L57" s="5">
-        <v>7.0663435448617529</v>
+        <v>-0.13227587170553401</v>
       </c>
       <c r="M57" s="5">
-        <v>-33.681369407220132</v>
+        <v>-33.616782042392636</v>
       </c>
       <c r="N57" s="5">
-        <v>19.112997598407567</v>
+        <v>21.508536183389726</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="4" t="s">
@@ -4632,7 +4632,7 @@
         <v>0.55299045370637101</v>
       </c>
       <c r="T57" s="5">
-        <v>0.31682056188583402</v>
+        <v>0.31712913513183605</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4643,7 +4643,7 @@
         <v>191</v>
       </c>
       <c r="C58" s="5">
-        <v>288934112</v>
+        <v>286334432</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>45</v>
@@ -4652,34 +4652,34 @@
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>1376361.625</v>
+        <v>1321215.875</v>
       </c>
       <c r="G58" s="5">
         <v>5.6718893051147461</v>
       </c>
       <c r="H58" s="5">
-        <v>-1.062008184859931</v>
+        <v>-1.1443516665856299</v>
       </c>
       <c r="I58" s="5">
-        <v>0.36146344832375105</v>
+        <v>-3.4198403333632328</v>
       </c>
       <c r="J58" s="5">
-        <v>1.8586371496070342</v>
+        <v>-0.68666954728963103</v>
       </c>
       <c r="K58" s="5">
-        <v>-2.6950214100537111</v>
+        <v>-5.2805014363909937</v>
       </c>
       <c r="L58" s="5">
-        <v>8.1115042240781818</v>
+        <v>7.2421786610971761</v>
       </c>
       <c r="M58" s="5">
-        <v>-5.053704869094588</v>
+        <v>-6.1402243797864191</v>
       </c>
       <c r="N58" s="5">
-        <v>-19.202678541380003</v>
+        <v>-18.440969174558774</v>
       </c>
       <c r="O58" s="5">
-        <v>23.829159628554741</v>
+        <v>20.358243427507404</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
@@ -4689,10 +4689,10 @@
         <v>47</v>
       </c>
       <c r="S58" s="5">
-        <v>1093.3354771283864</v>
+        <v>1066.8789808917197</v>
       </c>
       <c r="T58" s="5">
-        <v>820.9124755859375</v>
+        <v>811.518310546875</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4715,31 +4715,31 @@
         <v>2327334</v>
       </c>
       <c r="G59" s="5">
-        <v>6.8027210235595703</v>
+        <v>6.7484664916992188</v>
       </c>
       <c r="H59" s="5">
-        <v>0.55970244412257808</v>
+        <v>0.80395275295754909</v>
       </c>
       <c r="I59" s="5">
-        <v>-1.881064772774355</v>
+        <v>-1.4510378789730831</v>
       </c>
       <c r="J59" s="5">
-        <v>-9.3821365251022364</v>
+        <v>-1.0922348918424469</v>
       </c>
       <c r="K59" s="5">
-        <v>-13.760727728230648</v>
+        <v>-14.105005470772925</v>
       </c>
       <c r="L59" s="5">
-        <v>7.1902512765113844</v>
+        <v>6.8827678102530987</v>
       </c>
       <c r="M59" s="5">
-        <v>-13.94152044409096</v>
+        <v>-13.24965092854783</v>
       </c>
       <c r="N59" s="5">
-        <v>-9.6832989992091996</v>
+        <v>-6.6983164110482551</v>
       </c>
       <c r="O59" s="5">
-        <v>78.320681560348063</v>
+        <v>79.087286855771026</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>25</v>
@@ -4754,7 +4754,7 @@
         <v>20.789899826049805</v>
       </c>
       <c r="T59" s="5">
-        <v>16.170000076293945</v>
+        <v>16.299999237060547</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4765,54 +4765,54 @@
         <v>195</v>
       </c>
       <c r="C60" s="5">
-        <v>211731104</v>
+        <v>215597024</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>1436462.125</v>
-      </c>
-      <c r="G60" s="5">
-        <v>5.7833623886108398</v>
-      </c>
+        <v>1371028.625</v>
+      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="5">
-        <v>-1.024072470735593</v>
+        <v>2.3129284423220042</v>
       </c>
       <c r="I60" s="5">
-        <v>-1.1731690393052221</v>
+        <v>3.264349675232459</v>
       </c>
       <c r="J60" s="5">
-        <v>3.4588055136139051</v>
+        <v>-14.642075983203418</v>
       </c>
       <c r="K60" s="5">
-        <v>-1.764646212364029</v>
+        <v>-23.92587485964286</v>
       </c>
       <c r="L60" s="5">
-        <v>9.2907348821547266</v>
+        <v>32.342031456648357</v>
       </c>
       <c r="M60" s="5">
-        <v>-3.3048011565272262</v>
+        <v>-36.1538642161658</v>
       </c>
       <c r="N60" s="5">
-        <v>-2.6004532090371013</v>
-      </c>
-      <c r="O60" s="5"/>
+        <v>72.610043150271991</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0.78897661794235008</v>
+      </c>
       <c r="P60" s="4" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="S60" s="5">
-        <v>953.26524295883621</v>
+        <v>0.45377137396633505</v>
       </c>
       <c r="T60" s="5">
-        <v>873.11798095703125</v>
+        <v>0.267820984125137</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4823,69 +4823,65 @@
         <v>197</v>
       </c>
       <c r="C61" s="5">
-        <v>210889280</v>
+        <v>210917008</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>3785964</v>
+        <v>1383943.875</v>
       </c>
       <c r="G61" s="5">
-        <v>2.83171534538269</v>
+        <v>5.753448486328125</v>
       </c>
       <c r="H61" s="5">
-        <v>-1.97542421010739</v>
+        <v>-0.63037082603061301</v>
       </c>
       <c r="I61" s="5">
-        <v>-3.6952725832322559</v>
+        <v>-3.5871149116990413</v>
       </c>
       <c r="J61" s="5">
-        <v>-6.7815958923870934</v>
+        <v>2.366301436548035</v>
       </c>
       <c r="K61" s="5">
-        <v>-18.39989598031454</v>
+        <v>-3.0342282042728148</v>
       </c>
       <c r="L61" s="5">
-        <v>23.261919601936643</v>
+        <v>8.9755939804239802</v>
       </c>
       <c r="M61" s="5">
-        <v>-28.321706796378223</v>
+        <v>-3.9143394802087732</v>
       </c>
       <c r="N61" s="5">
-        <v>28.590526388191595</v>
-      </c>
-      <c r="O61" s="5">
-        <v>79.183513727770944</v>
-      </c>
+        <v>-1.2422163059643829</v>
+      </c>
+      <c r="O61" s="5"/>
       <c r="P61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q61" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="Q61" s="4"/>
       <c r="R61" s="4" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="S61" s="5">
-        <v>4.6771184674018205</v>
+        <v>953.26524295883621</v>
       </c>
       <c r="T61" s="5">
-        <v>3.2097558975219731</v>
+        <v>867.61407470703125</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="C62" s="5">
-        <v>210722048</v>
+        <v>206572016</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>159</v>
@@ -4894,45 +4890,49 @@
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>1445652</v>
-      </c>
-      <c r="G62" s="5"/>
+        <v>3605344.75</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2.7777776718139648</v>
+      </c>
       <c r="H62" s="5">
-        <v>-0.78018456290850402</v>
+        <v>1.8740189497282731</v>
       </c>
       <c r="I62" s="5">
-        <v>-2.8507003162367983</v>
+        <v>-0.33789175203493604</v>
       </c>
       <c r="J62" s="5">
-        <v>-17.175852992655315</v>
+        <v>-9.4104247294577661</v>
       </c>
       <c r="K62" s="5">
-        <v>-31.115698486463295</v>
+        <v>-8.2980155474919322</v>
       </c>
       <c r="L62" s="5">
-        <v>29.398285425864358</v>
+        <v>22.488365151405798</v>
       </c>
       <c r="M62" s="5">
-        <v>-37.597196409223208</v>
+        <v>-26.978441998900561</v>
       </c>
       <c r="N62" s="5">
-        <v>63.533087428569914</v>
+        <v>29.986839225001717</v>
       </c>
       <c r="O62" s="5">
-        <v>1.3229886996872779</v>
+        <v>83.573041507756102</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q62" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="R62" s="4" t="s">
         <v>161</v>
       </c>
       <c r="S62" s="5">
-        <v>0.45377137396633505</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T62" s="5">
-        <v>0.26176649332046503</v>
+        <v>3.2699074745178223</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4943,7 +4943,7 @@
         <v>202</v>
       </c>
       <c r="C63" s="5">
-        <v>176785888</v>
+        <v>177393408</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>159</v>
@@ -4952,32 +4952,32 @@
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>5934219</v>
+        <v>5445866.5</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5">
-        <v>0.41713901944076004</v>
+        <v>1.5651269544700201</v>
       </c>
       <c r="I63" s="5">
-        <v>-0.34486298045617303</v>
+        <v>3.3994335945610521</v>
       </c>
       <c r="J63" s="5">
-        <v>-6.31703986807024</v>
+        <v>-10.226572668286648</v>
       </c>
       <c r="K63" s="5">
-        <v>-28.830975895670917</v>
+        <v>-18.572363731650366</v>
       </c>
       <c r="L63" s="5">
-        <v>54.582562614365671</v>
+        <v>51.021287058366418</v>
       </c>
       <c r="M63" s="5">
-        <v>-40.764335879342795</v>
+        <v>-39.837222533531062</v>
       </c>
       <c r="N63" s="5">
-        <v>78.675044970032488</v>
+        <v>71.841562057782511</v>
       </c>
       <c r="O63" s="5">
-        <v>76.47877276856137</v>
+        <v>64.709953614548255</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>203</v>
@@ -4990,7 +4990,7 @@
         <v>0.22635182608908702</v>
       </c>
       <c r="T63" s="5">
-        <v>0.12724761664867401</v>
+        <v>0.129239201545715</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5001,7 +5001,7 @@
         <v>205</v>
       </c>
       <c r="C64" s="5">
-        <v>148204080</v>
+        <v>157841088</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>159</v>
@@ -5010,32 +5010,32 @@
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>3225933.75</v>
+        <v>3210840.5</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5">
-        <v>3.0591300283258072</v>
+        <v>3.348148826823794</v>
       </c>
       <c r="I64" s="5">
-        <v>2.4557471111450679</v>
+        <v>10.357555650846418</v>
       </c>
       <c r="J64" s="5">
-        <v>34.816220047766947</v>
+        <v>28.406707415806977</v>
       </c>
       <c r="K64" s="5">
-        <v>29.064330610444333</v>
+        <v>40.901278153631118</v>
       </c>
       <c r="L64" s="5">
-        <v>85.060982872612271</v>
+        <v>87.100935759566937</v>
       </c>
       <c r="M64" s="5">
-        <v>17.868883664145695</v>
+        <v>21.815309309737117</v>
       </c>
       <c r="N64" s="5">
-        <v>223.23491817840301</v>
+        <v>234.4062404097746</v>
       </c>
       <c r="O64" s="5">
-        <v>144.46909949685397</v>
+        <v>107.19598517783035</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>203</v>
@@ -5045,10 +5045,10 @@
         <v>203</v>
       </c>
       <c r="S64" s="5">
-        <v>0.22800693195554103</v>
+        <v>0.23615999661252401</v>
       </c>
       <c r="T64" s="5">
-        <v>0.22800692915916401</v>
+        <v>0.23564095795154602</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5059,7 +5059,7 @@
         <v>207</v>
       </c>
       <c r="C65" s="5">
-        <v>107615120</v>
+        <v>106921344</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>159</v>
@@ -5068,32 +5068,32 @@
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>2443686.75</v>
+        <v>2361097.25</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5">
-        <v>-0.57191769474686005</v>
+        <v>-2.2009400547163049</v>
       </c>
       <c r="I65" s="5">
-        <v>-1.1129208937032951</v>
+        <v>-7.5810386607195639</v>
       </c>
       <c r="J65" s="5">
-        <v>57.761297230432085</v>
+        <v>30.54434396935617</v>
       </c>
       <c r="K65" s="5">
-        <v>78.222122806627681</v>
+        <v>72.942192889648183</v>
       </c>
       <c r="L65" s="5">
-        <v>157.99502805509991</v>
+        <v>155.80728035970597</v>
       </c>
       <c r="M65" s="5">
-        <v>67.073916525227048</v>
+        <v>63.396719775440062</v>
       </c>
       <c r="N65" s="5">
-        <v>558.36617485740044</v>
+        <v>537.10318612144204</v>
       </c>
       <c r="O65" s="5">
-        <v>726.36558466454971</v>
+        <v>620.5638042104157</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>169</v>
@@ -5106,7 +5106,7 @@
         <v>3.136226523511763</v>
       </c>
       <c r="T65" s="5">
-        <v>2.674796581268311</v>
+        <v>2.6159260272979741</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\11.04.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\12.04.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -264,6 +264,21 @@
     <t>BROADSTONE NET</t>
   </si>
   <si>
+    <t>GRT SJ Equity</t>
+  </si>
+  <si>
+    <t>GROWTHPOINT PROP</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>04/17/2023</t>
+  </si>
+  <si>
+    <t>ZAr</t>
+  </si>
+  <si>
     <t>HR-U CN Equity</t>
   </si>
   <si>
@@ -276,21 +291,6 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>GRT SJ Equity</t>
-  </si>
-  <si>
-    <t>GROWTHPOINT PROP</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>04/17/2023</t>
-  </si>
-  <si>
-    <t>ZAr</t>
-  </si>
-  <si>
     <t>3309 JP Equity</t>
   </si>
   <si>
@@ -366,18 +366,18 @@
     <t>GLOBAL NET LEASE</t>
   </si>
   <si>
+    <t>8957 JP Equity</t>
+  </si>
+  <si>
+    <t>TOKYU REIT INC</t>
+  </si>
+  <si>
     <t>8966 JP Equity</t>
   </si>
   <si>
     <t>HEIWA REAL ESTAT</t>
   </si>
   <si>
-    <t>8957 JP Equity</t>
-  </si>
-  <si>
-    <t>TOKYU REIT INC</t>
-  </si>
-  <si>
     <t>405 HK Equity</t>
   </si>
   <si>
@@ -429,6 +429,15 @@
     <t>UK COMMERCIAL PR</t>
   </si>
   <si>
+    <t>CNI AU Equity</t>
+  </si>
+  <si>
+    <t>CENTURIA CAPITAL</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
     <t>RIT1 IT Equity</t>
   </si>
   <si>
@@ -444,15 +453,6 @@
     <t>ILs</t>
   </si>
   <si>
-    <t>CNI AU Equity</t>
-  </si>
-  <si>
-    <t>CENTURIA CAPITAL</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
     <t>3468 JP Equity</t>
   </si>
   <si>
@@ -537,19 +537,34 @@
     <t>GLADSTONE COMMER</t>
   </si>
   <si>
+    <t>OZKGY TI Equity</t>
+  </si>
+  <si>
+    <t>OZAK GAYRIMENKUL</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
     <t>OLP US Equity</t>
   </si>
   <si>
     <t>ONE LIBERTY PROP</t>
   </si>
   <si>
-    <t>OZKGY TI Equity</t>
-  </si>
-  <si>
-    <t>OZAK GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>06/04/2013</t>
+    <t>SRVGY TI Equity</t>
+  </si>
+  <si>
+    <t>SERVET GAYRIMENK</t>
+  </si>
+  <si>
+    <t>11/25/2019</t>
+  </si>
+  <si>
+    <t>ISGYO TI Equity</t>
+  </si>
+  <si>
+    <t>IS GAYRIMENKUL Y</t>
   </si>
   <si>
     <t>3492 JP Equity</t>
@@ -558,21 +573,6 @@
     <t>TAKARA LEBEN REA</t>
   </si>
   <si>
-    <t>SRVGY TI Equity</t>
-  </si>
-  <si>
-    <t>SERVET GAYRIMENK</t>
-  </si>
-  <si>
-    <t>11/25/2019</t>
-  </si>
-  <si>
-    <t>ISGYO TI Equity</t>
-  </si>
-  <si>
-    <t>IS GAYRIMENKUL Y</t>
-  </si>
-  <si>
     <t>NXDT US Equity</t>
   </si>
   <si>
@@ -609,19 +609,19 @@
     <t>AKIS GAYRIMENKUL</t>
   </si>
   <si>
+    <t>ALGYO TI Equity</t>
+  </si>
+  <si>
+    <t>ALARKO GAYRIMENK</t>
+  </si>
+  <si>
+    <t>04/27/2023</t>
+  </si>
+  <si>
     <t>2989 JP Equity</t>
   </si>
   <si>
     <t>TOKAIDO REIT INC</t>
-  </si>
-  <si>
-    <t>ALGYO TI Equity</t>
-  </si>
-  <si>
-    <t>ALARKO GAYRIMENK</t>
-  </si>
-  <si>
-    <t>04/27/2023</t>
   </si>
   <si>
     <t>KLGYO TI Equity</t>
@@ -664,41 +664,34 @@
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1219,7 +1212,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>15554433024</v>
+        <v>15958379520</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1228,34 +1221,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>95125600</v>
+        <v>93737784</v>
       </c>
       <c r="G2" s="5">
-        <v>5.7204127311706543</v>
+        <v>5.7918305397033691</v>
       </c>
       <c r="H2" s="5">
-        <v>1.0291159809526551</v>
+        <v>-1.233076211525552</v>
       </c>
       <c r="I2" s="5">
-        <v>-2.1764731949358911</v>
+        <v>-2.39734775972682</v>
       </c>
       <c r="J2" s="5">
-        <v>-3.4062751811561602</v>
+        <v>-4.5973494237237738</v>
       </c>
       <c r="K2" s="5">
-        <v>-5.8704117721061211</v>
+        <v>-9.7271560177683902</v>
       </c>
       <c r="L2" s="5">
-        <v>8.4734523900241943</v>
+        <v>5.8775916107317805</v>
       </c>
       <c r="M2" s="5">
-        <v>-3.208526509845044</v>
+        <v>-4.4020391442372127</v>
       </c>
       <c r="N2" s="5">
-        <v>-4.6632268817185407</v>
+        <v>-4.7560933760851469</v>
       </c>
       <c r="O2" s="5">
-        <v>26.28231153370151</v>
+        <v>24.725154390814865</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1270,7 +1263,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>74.610000610351563</v>
+        <v>73.69000244140625</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1281,7 +1274,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6514496512</v>
+        <v>6756889600</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1290,34 +1283,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>36109004</v>
+        <v>37547908</v>
       </c>
       <c r="G3" s="5">
-        <v>6.4390244483947754</v>
+        <v>6.2411346435546884</v>
       </c>
       <c r="H3" s="5">
-        <v>-1.1851035082606991</v>
+        <v>3.8616649371900462</v>
       </c>
       <c r="I3" s="5">
-        <v>4.4215061905417796</v>
+        <v>1.02654070922894</v>
       </c>
       <c r="J3" s="5">
-        <v>7.2479431015943776</v>
+        <v>13.864365437257797</v>
       </c>
       <c r="K3" s="5">
-        <v>10.415374364390772</v>
+        <v>10.154021541359715</v>
       </c>
       <c r="L3" s="5">
-        <v>30.386662895557937</v>
+        <v>42.160236228082958</v>
       </c>
       <c r="M3" s="5">
-        <v>9.8833687647138735</v>
+        <v>14.126696288104078</v>
       </c>
       <c r="N3" s="5">
-        <v>-8.8410475234849795</v>
+        <v>-3.3703180335602272</v>
       </c>
       <c r="O3" s="5">
-        <v>116.53333137723769</v>
+        <v>76.86467969979951</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1329,10 +1322,10 @@
         <v>32</v>
       </c>
       <c r="S3" s="5">
-        <v>3.1322401024773479</v>
+        <v>3.1170868956152522</v>
       </c>
       <c r="T3" s="5">
-        <v>2.7379798889160161</v>
+        <v>2.8249747753143311</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1343,7 +1336,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5867380224</v>
+        <v>5888002560</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -1352,34 +1345,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>14096409</v>
+        <v>14128245</v>
       </c>
       <c r="G4" s="5">
-        <v>6.204951286315918</v>
+        <v>6.1971831321716309</v>
       </c>
       <c r="H4" s="5">
-        <v>3.5273558353871248</v>
+        <v>0.40044839591064602</v>
       </c>
       <c r="I4" s="5">
-        <v>3.0105032054273511</v>
+        <v>0.86660894757202311</v>
       </c>
       <c r="J4" s="5">
-        <v>-3.3693708949144252</v>
+        <v>4.3969211590459079</v>
       </c>
       <c r="K4" s="5">
-        <v>1.226951417790656</v>
+        <v>-1.7997938793488431</v>
       </c>
       <c r="L4" s="5">
-        <v>43.373079864054986</v>
+        <v>45.952588271562874</v>
       </c>
       <c r="M4" s="5">
-        <v>6.447173938538886</v>
+        <v>6.8734399390679934</v>
       </c>
       <c r="N4" s="5">
-        <v>-16.982882885586559</v>
+        <v>-17.866754571170361</v>
       </c>
       <c r="O4" s="5">
-        <v>35.017140366148425</v>
+        <v>6.8457682892352665</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1391,10 +1384,10 @@
         <v>37</v>
       </c>
       <c r="S4" s="5">
-        <v>10.26630500135658</v>
+        <v>10.096910914142688</v>
       </c>
       <c r="T4" s="5">
-        <v>7.9538865089416504</v>
+        <v>7.9293508529663086</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1405,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5672947712</v>
+        <v>5781474304</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1414,34 +1407,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>31895506</v>
+        <v>33197570</v>
       </c>
       <c r="G5" s="5">
-        <v>4.7685184478759766</v>
+        <v>4.6606335639953613</v>
       </c>
       <c r="H5" s="5">
-        <v>0.46819755754206005</v>
+        <v>2.0514356232390618</v>
       </c>
       <c r="I5" s="5">
-        <v>3.9121451679297921</v>
+        <v>1.326380418829E-2</v>
       </c>
       <c r="J5" s="5">
-        <v>-3.9730285059531019</v>
+        <v>1.3949321606277001E-2</v>
       </c>
       <c r="K5" s="5">
-        <v>-2.3284272067101042</v>
+        <v>-2.6982718660449989</v>
       </c>
       <c r="L5" s="5">
-        <v>13.49315993424025</v>
+        <v>23.225793195411981</v>
       </c>
       <c r="M5" s="5">
-        <v>-1.342774194626861</v>
+        <v>0.68111528044396707</v>
       </c>
       <c r="N5" s="5">
-        <v>-19.230750746634719</v>
+        <v>-15.154817618866446</v>
       </c>
       <c r="O5" s="5">
-        <v>26.310843118576031</v>
+        <v>12.258664835595944</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>30</v>
@@ -1456,7 +1449,7 @@
         <v>1.839162016363177</v>
       </c>
       <c r="T5" s="5">
-        <v>1.4424480199813841</v>
+        <v>1.4623399972915649</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1467,7 +1460,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5406035456</v>
+        <v>5460315136</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1476,34 +1469,34 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>22983552</v>
+        <v>22988754</v>
       </c>
       <c r="G6" s="5">
-        <v>5.8962264060974121</v>
+        <v>5.8754405975341797</v>
       </c>
       <c r="H6" s="5">
-        <v>-2.530984018257965</v>
+        <v>1.141212078384934</v>
       </c>
       <c r="I6" s="5">
-        <v>0.292072728223158</v>
+        <v>-1.580498492576587</v>
       </c>
       <c r="J6" s="5">
-        <v>-9.7963188210403622</v>
+        <v>-6.3168989311296446</v>
       </c>
       <c r="K6" s="5">
-        <v>-2.780609964882808</v>
+        <v>-4.9157870873794867</v>
       </c>
       <c r="L6" s="5">
-        <v>13.017140223696355</v>
+        <v>20.4163076680111</v>
       </c>
       <c r="M6" s="5">
-        <v>-1.7864701801678431</v>
+        <v>-0.66564551525571902</v>
       </c>
       <c r="N6" s="5">
-        <v>-22.518276591118923</v>
+        <v>-20.489932554375422</v>
       </c>
       <c r="O6" s="5">
-        <v>45.842007776015414</v>
+        <v>29.605990409366932</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>42</v>
@@ -1518,7 +1511,7 @@
         <v>3.871919847578821</v>
       </c>
       <c r="T6" s="5">
-        <v>2.8314719200134282</v>
+        <v>2.8449161052703862</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1529,7 +1522,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5373850112</v>
+        <v>5410480640</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1538,34 +1531,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>12532945</v>
+        <v>12575457</v>
       </c>
       <c r="G7" s="5">
-        <v>4.476315975189209</v>
+        <v>4.4383563995361328</v>
       </c>
       <c r="H7" s="5">
-        <v>-0.15907942405990502</v>
+        <v>0.83263941950733111</v>
       </c>
       <c r="I7" s="5">
-        <v>-1.63927018717358</v>
+        <v>-1.577803335849304</v>
       </c>
       <c r="J7" s="5">
-        <v>2.53169037391956</v>
+        <v>3.3854096454599909</v>
       </c>
       <c r="K7" s="5">
-        <v>-2.593907796485762</v>
+        <v>-2.502237135351737</v>
       </c>
       <c r="L7" s="5">
-        <v>6.1844568178315074</v>
+        <v>8.4860743847448017</v>
       </c>
       <c r="M7" s="5">
-        <v>-6.616464563161073</v>
+        <v>-5.8389164357843581</v>
       </c>
       <c r="N7" s="5">
-        <v>-5.9158712336892734</v>
+        <v>-7.1250543162713846</v>
       </c>
       <c r="O7" s="5">
-        <v>2.3804865776666522</v>
+        <v>3.2329468667957162</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>46</v>
@@ -1578,7 +1571,7 @@
         <v>1313.4164510311298</v>
       </c>
       <c r="T7" s="5">
-        <v>1136.8736572265625</v>
+        <v>1146.339599609375</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1589,7 +1582,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5320285696</v>
+        <v>5351416320</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1598,34 +1591,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>10940104</v>
+        <v>10669782</v>
       </c>
       <c r="G8" s="5">
-        <v>2.4491724967956539</v>
+        <v>2.4893872737884521</v>
       </c>
       <c r="H8" s="5">
-        <v>0.43663353369369806</v>
+        <v>-1.66363053187305</v>
       </c>
       <c r="I8" s="5">
-        <v>0.88340018222850003</v>
+        <v>-1.463094616536087</v>
       </c>
       <c r="J8" s="5">
-        <v>0.83901641715340403</v>
+        <v>-0.83857224800284502</v>
       </c>
       <c r="K8" s="5">
-        <v>14.119057354661191</v>
+        <v>8.9859036446755738</v>
       </c>
       <c r="L8" s="5">
-        <v>42.963554465333353</v>
+        <v>37.681703269867597</v>
       </c>
       <c r="M8" s="5">
-        <v>23.925655104718047</v>
+        <v>21.863990069572271</v>
       </c>
       <c r="N8" s="5">
-        <v>40.036958978040118</v>
+        <v>38.189390927277799</v>
       </c>
       <c r="O8" s="5">
-        <v>98.522739246381306</v>
+        <v>95.220054343567796</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1640,7 +1633,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.3972616195678711</v>
+        <v>1.3740164041519169</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1651,7 +1644,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4816735232</v>
+        <v>4806706688</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1660,34 +1653,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>9825710</v>
+        <v>9750373</v>
       </c>
       <c r="G9" s="5">
-        <v>4.0447816848754883</v>
+        <v>4.0462427139282227</v>
       </c>
       <c r="H9" s="5">
-        <v>-0.85791733602883502</v>
+        <v>-5.8537906267175005E-2</v>
       </c>
       <c r="I9" s="5">
-        <v>-2.024323786659366</v>
+        <v>-3.2210869035988909</v>
       </c>
       <c r="J9" s="5">
-        <v>0.92364958223150107</v>
+        <v>0.8645709908376541</v>
       </c>
       <c r="K9" s="5">
-        <v>-2.2980738964626379</v>
+        <v>-2.2510375406421201</v>
       </c>
       <c r="L9" s="5">
-        <v>2.48886236110526</v>
+        <v>2.4929818898168139</v>
       </c>
       <c r="M9" s="5">
-        <v>-5.659691977877312</v>
+        <v>-5.714916818959459</v>
       </c>
       <c r="N9" s="5">
-        <v>-16.862206482264686</v>
+        <v>-16.422701376728465</v>
       </c>
       <c r="O9" s="5">
-        <v>0.677487972063884</v>
+        <v>0.61855347852264309</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1700,7 +1693,7 @@
         <v>2592.7102358453108</v>
       </c>
       <c r="T9" s="5">
-        <v>2071.0546875</v>
+        <v>2069.84228515625</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1711,7 +1704,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4518212096</v>
+        <v>4489249280</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -1720,34 +1713,34 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>13454732</v>
+        <v>13485118</v>
       </c>
       <c r="G10" s="5">
-        <v>5.9018063545227051</v>
+        <v>5.9532976150512704</v>
       </c>
       <c r="H10" s="5">
-        <v>2.915845005208229</v>
+        <v>-0.592541341755359</v>
       </c>
       <c r="I10" s="5">
-        <v>1.8130723108503499</v>
+        <v>-0.37354412813235305</v>
       </c>
       <c r="J10" s="5">
-        <v>-10.300497114262186</v>
+        <v>-2.1290231556168711</v>
       </c>
       <c r="K10" s="5">
-        <v>-1.1712485990194701</v>
+        <v>-5.0774593023956811</v>
       </c>
       <c r="L10" s="5">
-        <v>32.296069752822333</v>
+        <v>34.261782012898735</v>
       </c>
       <c r="M10" s="5">
-        <v>1.771839930243813</v>
+        <v>1.168799704392032</v>
       </c>
       <c r="N10" s="5">
-        <v>-25.464782302251486</v>
+        <v>-26.640214775394753</v>
       </c>
       <c r="O10" s="5">
-        <v>31.544114603547936</v>
+        <v>4.5909451337393214</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1759,10 +1752,10 @@
         <v>37</v>
       </c>
       <c r="S10" s="5">
-        <v>6.9735852109131589</v>
+        <v>6.8642308397426879</v>
       </c>
       <c r="T10" s="5">
-        <v>4.899205207824707</v>
+        <v>4.835787296295166</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1773,7 +1766,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4087757056</v>
+        <v>4068007936</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1782,34 +1775,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9545641</v>
+        <v>9583378</v>
       </c>
       <c r="G11" s="5">
-        <v>2.0250000953674321</v>
+        <v>2.0428752899169922</v>
       </c>
       <c r="H11" s="5">
-        <v>2.7148242193159029</v>
+        <v>-0.40898199555122705</v>
       </c>
       <c r="I11" s="5">
-        <v>-0.29490862861449901</v>
+        <v>-0.99121709987322104</v>
       </c>
       <c r="J11" s="5">
-        <v>-9.6918958295882156</v>
+        <v>-3.3875629781297318</v>
       </c>
       <c r="K11" s="5">
-        <v>-7.4552818475363445</v>
+        <v>-12.011406183159611</v>
       </c>
       <c r="L11" s="5">
-        <v>15.625166777795819</v>
+        <v>16.312748830010459</v>
       </c>
       <c r="M11" s="5">
-        <v>-7.6658105054255632</v>
+        <v>-8.043440716196514</v>
       </c>
       <c r="N11" s="5">
-        <v>-12.831234177018269</v>
+        <v>-15.344063124827056</v>
       </c>
       <c r="O11" s="5">
-        <v>38.347537868200376</v>
+        <v>14.600900025676221</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1824,7 +1817,7 @@
         <v>11.852492330932618</v>
       </c>
       <c r="T11" s="5">
-        <v>8.7472000122070312</v>
+        <v>8.6429071426391602</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1835,7 +1828,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3630224640</v>
+        <v>3661596928</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1844,34 +1837,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>22299538</v>
+        <v>22234290</v>
       </c>
       <c r="G12" s="5">
-        <v>4.4879641532897949</v>
+        <v>4.4588570594787598</v>
       </c>
       <c r="H12" s="5">
-        <v>0.8642016395663531</v>
+        <v>0.65279414899217503</v>
       </c>
       <c r="I12" s="5">
-        <v>-0.729041317465695</v>
+        <v>0.81733048039074307</v>
       </c>
       <c r="J12" s="5">
-        <v>3.1103123880908079</v>
+        <v>3.7834104743678099</v>
       </c>
       <c r="K12" s="5">
-        <v>7.3061423946933601</v>
+        <v>3.9130905644181979</v>
       </c>
       <c r="L12" s="5">
-        <v>30.081173825199457</v>
+        <v>29.056093996672573</v>
       </c>
       <c r="M12" s="5">
-        <v>5.6144919107756763</v>
+        <v>6.3039371344570272</v>
       </c>
       <c r="N12" s="5">
-        <v>0.95013470048319604</v>
+        <v>2.8999158689464899</v>
       </c>
       <c r="O12" s="5">
-        <v>118.08217229906637</v>
+        <v>119.50579995982969</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1886,7 +1879,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.510000228881836</v>
+        <v>24.670000076293945</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1897,7 +1890,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3600400128</v>
+        <v>3614633728</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>68</v>
@@ -1906,34 +1899,34 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8028927</v>
+        <v>8060668</v>
       </c>
       <c r="G13" s="5">
-        <v>9.9723634719848633</v>
+        <v>10.079143524169922</v>
       </c>
       <c r="H13" s="5">
-        <v>4.22829962276563</v>
+        <v>-0.59426440746112008</v>
       </c>
       <c r="I13" s="5">
-        <v>2.8720859803275101</v>
+        <v>-1.074149725595819</v>
       </c>
       <c r="J13" s="5">
-        <v>-8.8390614955449429</v>
+        <v>-6.6252733205404706</v>
       </c>
       <c r="K13" s="5">
-        <v>7.8138637271327083</v>
+        <v>2.8283636033584081</v>
       </c>
       <c r="L13" s="5">
-        <v>34.59969017436606</v>
+        <v>39.106318139772632</v>
       </c>
       <c r="M13" s="5">
-        <v>14.262690694700741</v>
+        <v>13.583668192894738</v>
       </c>
       <c r="N13" s="5">
-        <v>-16.458733802222614</v>
+        <v>-21.501783689705722</v>
       </c>
       <c r="O13" s="5">
-        <v>-24.353602204396886</v>
+        <v>-31.207879061913403</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>42</v>
@@ -1945,10 +1938,10 @@
         <v>63</v>
       </c>
       <c r="S13" s="5">
-        <v>67.437240827178954</v>
+        <v>67.232799999999997</v>
       </c>
       <c r="T13" s="5">
-        <v>47.475425720214844</v>
+        <v>46.822101593017578</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1959,7 +1952,7 @@
         <v>71</v>
       </c>
       <c r="C14" s="5">
-        <v>3352906752</v>
+        <v>3405324544</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -1968,34 +1961,34 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>21360222</v>
+        <v>21426530</v>
       </c>
       <c r="G14" s="5">
-        <v>3.8788731098175049</v>
+        <v>3.82146143913269</v>
       </c>
       <c r="H14" s="5">
-        <v>-3.716714511431729</v>
+        <v>1.70125574542459</v>
       </c>
       <c r="I14" s="5">
-        <v>-3.5860711557095142</v>
+        <v>-3.1425475901428972</v>
       </c>
       <c r="J14" s="5">
-        <v>-19.217303552671982</v>
+        <v>-12.201684610997077</v>
       </c>
       <c r="K14" s="5">
-        <v>-13.717794434354669</v>
+        <v>-16.0137278375576</v>
       </c>
       <c r="L14" s="5">
-        <v>-9.2379597177329345</v>
+        <v>-2.15521675848025</v>
       </c>
       <c r="M14" s="5">
-        <v>-13.513654105286378</v>
+        <v>-12.04230017674478</v>
       </c>
       <c r="N14" s="5">
-        <v>-40.435930106036231</v>
+        <v>-38.896906799228233</v>
       </c>
       <c r="O14" s="5">
-        <v>72.890091638649452</v>
+        <v>56.857896888360401</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>30</v>
@@ -2010,7 +2003,7 @@
         <v>11.935938479216244</v>
       </c>
       <c r="T14" s="5">
-        <v>7.1120696067810059</v>
+        <v>7.1854071617126456</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2021,7 +2014,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5">
-        <v>3329295104</v>
+        <v>3311966976</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -2030,34 +2023,34 @@
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7903140.5</v>
+        <v>7905191.5</v>
       </c>
       <c r="G15" s="5">
-        <v>4.4159107208251953</v>
+        <v>4.4313726425170898</v>
       </c>
       <c r="H15" s="5">
-        <v>-1.213288659844636</v>
+        <v>-0.37127197086027602</v>
       </c>
       <c r="I15" s="5">
-        <v>-3.3553673134491868</v>
+        <v>-4.4548627896620063</v>
       </c>
       <c r="J15" s="5">
-        <v>-1.958810793893095</v>
+        <v>-2.3228102493134672</v>
       </c>
       <c r="K15" s="5">
-        <v>-5.6571118096936379</v>
+        <v>-6.1208349071747659</v>
       </c>
       <c r="L15" s="5">
-        <v>6.8554944462947187</v>
+        <v>7.4651507686965823</v>
       </c>
       <c r="M15" s="5">
-        <v>-6.7617207822066483</v>
+        <v>-7.1078883790547609</v>
       </c>
       <c r="N15" s="5">
-        <v>0.83955451066763909</v>
+        <v>6.2689161598950008E-2</v>
       </c>
       <c r="O15" s="5">
-        <v>21.697775575950583</v>
+        <v>21.245945846076641</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
@@ -2070,7 +2063,7 @@
         <v>1187.971105527638</v>
       </c>
       <c r="T15" s="5">
-        <v>1071.802490234375</v>
+        <v>1067.8232421875</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2081,7 +2074,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="5">
-        <v>3121204480</v>
+        <v>3141228544</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>76</v>
@@ -2090,34 +2083,34 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>11208099</v>
+        <v>11036800</v>
       </c>
       <c r="G16" s="5">
         <v>5.5277776718139648</v>
       </c>
       <c r="H16" s="5">
-        <v>-0.80880633102605703</v>
+        <v>0.72465113681805504</v>
       </c>
       <c r="I16" s="5">
-        <v>-1.129011388847156</v>
+        <v>-0.52505839054343106</v>
       </c>
       <c r="J16" s="5">
-        <v>4.0371977095228004</v>
+        <v>4.7911044454385099</v>
       </c>
       <c r="K16" s="5">
-        <v>8.883955680944311</v>
+        <v>8.060144775620671</v>
       </c>
       <c r="L16" s="5">
-        <v>6.0188978117629244</v>
+        <v>7.1627716774355754</v>
       </c>
       <c r="M16" s="5">
-        <v>6.2595872127739982</v>
+        <v>7.0295985194895438</v>
       </c>
       <c r="N16" s="5">
-        <v>-11.810072519799897</v>
+        <v>-12.002431366656008</v>
       </c>
       <c r="O16" s="5">
-        <v>39.89109010358689</v>
+        <v>40.904812478329688</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>77</v>
@@ -2132,7 +2125,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T16" s="5">
-        <v>1.079784035682678</v>
+        <v>1.087608814239502</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2143,7 +2136,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="5">
-        <v>3096346624</v>
+        <v>3094474496</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>23</v>
@@ -2152,31 +2145,31 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>16750878</v>
+        <v>17069884</v>
       </c>
       <c r="G17" s="5">
-        <v>6.6545672416687012</v>
+        <v>6.7278285026550293</v>
       </c>
       <c r="H17" s="5">
-        <v>-6.0460872601575004E-2</v>
+        <v>-1.088931020560713</v>
       </c>
       <c r="I17" s="5">
-        <v>-1.548542076858306</v>
+        <v>-2.794288477300733</v>
       </c>
       <c r="J17" s="5">
-        <v>3.7733331106150292</v>
+        <v>2.6433130953037449</v>
       </c>
       <c r="K17" s="5">
-        <v>-3.108971761063839</v>
+        <v>-6.1132611032362014</v>
       </c>
       <c r="L17" s="5">
-        <v>12.919378527068925</v>
+        <v>8.4638153395391704</v>
       </c>
       <c r="M17" s="5">
-        <v>3.6453054098925852</v>
+        <v>2.516679527929377</v>
       </c>
       <c r="N17" s="5">
-        <v>-18.830449723283959</v>
+        <v>-19.528908393294731</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
@@ -2192,7 +2185,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T17" s="5">
-        <v>16.530000686645508</v>
+        <v>16.350000381469727</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2203,7 +2196,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="5">
-        <v>2508322304</v>
+        <v>2508627968</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>83</v>
@@ -2212,111 +2205,111 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9360189</v>
+        <v>9229240</v>
       </c>
       <c r="G18" s="5">
-        <v>4.8780488967895508</v>
+        <v>9.6328935623168945</v>
       </c>
       <c r="H18" s="5">
-        <v>-0.52265808649378809</v>
+        <v>2.1266086338407759</v>
       </c>
       <c r="I18" s="5">
-        <v>-2.8157415133301829</v>
+        <v>-0.25730329776613203</v>
       </c>
       <c r="J18" s="5">
-        <v>-1.122056581850672</v>
+        <v>2.59309595613384</v>
       </c>
       <c r="K18" s="5">
-        <v>0.24665836599373503</v>
+        <v>-14.973974326478846</v>
       </c>
       <c r="L18" s="5">
-        <v>21.178735730518781</v>
+        <v>13.059557760092112</v>
       </c>
       <c r="M18" s="5">
-        <v>2.781899512959241</v>
+        <v>-13.150839533196434</v>
       </c>
       <c r="N18" s="5">
-        <v>-6.0749673811894001</v>
+        <v>-20.606792021527021</v>
       </c>
       <c r="O18" s="5">
-        <v>88.396043707379818</v>
+        <v>19.953042249387476</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S18" s="5">
-        <v>11.425618100945441</v>
+        <v>0.98068187284810104</v>
       </c>
       <c r="T18" s="5">
-        <v>9.0929250717163086</v>
+        <v>0.74111557006835904</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="5">
-        <v>2494044160</v>
+        <v>2505947904</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>9175586</v>
+        <v>9046964</v>
       </c>
       <c r="G19" s="5">
-        <v>9.7691736221313477</v>
+        <v>4.8820180892944336</v>
       </c>
       <c r="H19" s="5">
-        <v>-0.28714150007135303</v>
+        <v>0.22989892583165103</v>
       </c>
       <c r="I19" s="5">
-        <v>1.1349865891141511</v>
+        <v>-1.100245281115741</v>
       </c>
       <c r="J19" s="5">
-        <v>0.44036900978317001</v>
+        <v>-0.8947372520479171</v>
       </c>
       <c r="K19" s="5">
-        <v>-13.651212097134602</v>
+        <v>-1.768548491933275</v>
       </c>
       <c r="L19" s="5">
-        <v>16.320237914622183</v>
+        <v>22.416646888830204</v>
       </c>
       <c r="M19" s="5">
-        <v>-14.95932193519922</v>
+        <v>3.0181939958888959</v>
       </c>
       <c r="N19" s="5">
-        <v>-21.477602704347898</v>
+        <v>-5.2477042681143624</v>
       </c>
       <c r="O19" s="5">
-        <v>52.073394185397916</v>
+        <v>88.829164188172399</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>89</v>
       </c>
       <c r="S19" s="5">
-        <v>0.99056022140322508</v>
+        <v>11.425618100945441</v>
       </c>
       <c r="T19" s="5">
-        <v>0.73728018999099709</v>
+        <v>9.11383056640625</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2327,7 +2320,7 @@
         <v>91</v>
       </c>
       <c r="C20" s="5">
-        <v>2440909568</v>
+        <v>2446546176</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -2336,34 +2329,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>7343503</v>
+        <v>7322562</v>
       </c>
       <c r="G20" s="5">
-        <v>4.9932703971862793</v>
+        <v>4.9731903076171884</v>
       </c>
       <c r="H20" s="5">
-        <v>-0.47459795158959506</v>
+        <v>0.38124604643798904</v>
       </c>
       <c r="I20" s="5">
-        <v>-1.4579580901026179</v>
+        <v>-2.4927507151973121</v>
       </c>
       <c r="J20" s="5">
-        <v>5.1656588612936094</v>
+        <v>5.5665987779127457</v>
       </c>
       <c r="K20" s="5">
-        <v>-0.98116365686444806</v>
+        <v>-0.66091501480926007</v>
       </c>
       <c r="L20" s="5">
-        <v>2.423843709459383</v>
+        <v>2.928048451774679</v>
       </c>
       <c r="M20" s="5">
-        <v>-2.406022689062659</v>
+        <v>-2.0339495090031301</v>
       </c>
       <c r="N20" s="5">
-        <v>-9.6315494259055949</v>
+        <v>-9.3776018024264829</v>
       </c>
       <c r="O20" s="5">
-        <v>6.5762471529139999E-2</v>
+        <v>0.44725923478987606</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2373,10 +2366,10 @@
         <v>47</v>
       </c>
       <c r="S20" s="5">
-        <v>641.71974522292999</v>
+        <v>638.13700287312872</v>
       </c>
       <c r="T20" s="5">
-        <v>555.72174072265625</v>
+        <v>557.8404541015625</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2387,7 +2380,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="5">
-        <v>2412651520</v>
+        <v>2381128960</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>45</v>
@@ -2396,34 +2389,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>7995884.5</v>
+        <v>8046581</v>
       </c>
       <c r="G21" s="5">
-        <v>4.6969695091247559</v>
+        <v>4.7509579658508301</v>
       </c>
       <c r="H21" s="5">
-        <v>-0.76847467672474001</v>
+        <v>-1.158540615284587</v>
       </c>
       <c r="I21" s="5">
-        <v>-1.425301130651357</v>
+        <v>-3.548710903591989</v>
       </c>
       <c r="J21" s="5">
-        <v>5.8568490607632686</v>
+        <v>4.6304544703338113</v>
       </c>
       <c r="K21" s="5">
-        <v>-3.5500377235935803</v>
+        <v>-3.7543779623786082</v>
       </c>
       <c r="L21" s="5">
-        <v>2.4643903743184699</v>
+        <v>1.8480893381034091</v>
       </c>
       <c r="M21" s="5">
-        <v>-6.0453745815248432</v>
+        <v>-7.1338770769363791</v>
       </c>
       <c r="N21" s="5">
-        <v>-6.8731630000866577</v>
+        <v>-8.451671438390207</v>
       </c>
       <c r="O21" s="5">
-        <v>9.8823138870248286</v>
+        <v>8.6092826516291474</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2433,10 +2426,10 @@
         <v>47</v>
       </c>
       <c r="S21" s="5">
-        <v>3351.9108280254777</v>
+        <v>3351.0680536806162</v>
       </c>
       <c r="T21" s="5">
-        <v>2961.85498046875</v>
+        <v>2927.54052734375</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2447,7 +2440,7 @@
         <v>95</v>
       </c>
       <c r="C22" s="5">
-        <v>2136231936</v>
+        <v>2151708416</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>35</v>
@@ -2456,34 +2449,34 @@
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>7717939.5</v>
+        <v>7735370</v>
       </c>
       <c r="G22" s="5">
-        <v>6.1940298080444336</v>
+        <v>6.1633663177490234</v>
       </c>
       <c r="H22" s="5">
-        <v>3.3269453451434621</v>
+        <v>0.77363272180599507</v>
       </c>
       <c r="I22" s="5">
-        <v>3.293948416444326</v>
+        <v>0.363055164606085</v>
       </c>
       <c r="J22" s="5">
-        <v>-6.2862923795058538</v>
+        <v>0.89592577648105509</v>
       </c>
       <c r="K22" s="5">
-        <v>-8.9744648731480794</v>
+        <v>-10.887334960292316</v>
       </c>
       <c r="L22" s="5">
-        <v>-5.6454993591436908</v>
+        <v>-1.556953067074984</v>
       </c>
       <c r="M22" s="5">
-        <v>-7.4691898622914472</v>
+        <v>-6.7533412373139594</v>
       </c>
       <c r="N22" s="5">
-        <v>-32.821061563637102</v>
+        <v>-32.785018403604774</v>
       </c>
       <c r="O22" s="5">
-        <v>13.404193607460723</v>
+        <v>6.1649145449596654</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
@@ -2495,10 +2488,10 @@
         <v>37</v>
       </c>
       <c r="S22" s="5">
-        <v>1.9808639392</v>
+        <v>1.9770638784000001</v>
       </c>
       <c r="T22" s="5">
-        <v>1.2525315284728999</v>
+        <v>1.253309011459351</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2509,7 +2502,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="5">
-        <v>2011412480</v>
+        <v>2027065984</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2518,34 +2511,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5827575</v>
+        <v>5881166.5</v>
       </c>
       <c r="G23" s="5">
-        <v>6.6985645294189453</v>
+        <v>6.6508312225341797</v>
       </c>
       <c r="H23" s="5">
-        <v>-0.93605235437820311</v>
+        <v>0.91507158168424607</v>
       </c>
       <c r="I23" s="5">
-        <v>0.30233210293864105</v>
+        <v>-2.2790166058607291</v>
       </c>
       <c r="J23" s="5">
-        <v>-6.9777700767232993</v>
+        <v>-3.1290279363005209</v>
       </c>
       <c r="K23" s="5">
-        <v>-6.2966907322031247</v>
+        <v>-8.8823266457894512</v>
       </c>
       <c r="L23" s="5">
-        <v>8.5822445106577874</v>
+        <v>13.555230919193839</v>
       </c>
       <c r="M23" s="5">
-        <v>-6.6548684585286839</v>
+        <v>-5.8006936869069108</v>
       </c>
       <c r="N23" s="5">
-        <v>-25.889152025857143</v>
+        <v>-24.136567862056012</v>
       </c>
       <c r="O23" s="5">
-        <v>28.373910388207648</v>
+        <v>14.305831031087157</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
@@ -2560,7 +2553,7 @@
         <v>4.050624031726354</v>
       </c>
       <c r="T23" s="5">
-        <v>2.791404008865356</v>
+        <v>2.798386812210083</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2571,7 +2564,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="5">
-        <v>1632510976</v>
+        <v>1632934144</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -2580,34 +2573,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3333534</v>
+        <v>3369409.5</v>
       </c>
       <c r="G24" s="5">
-        <v>4.6031746864318848</v>
+        <v>4.5940594673156738</v>
       </c>
       <c r="H24" s="5">
-        <v>-1.0789276769539891</v>
+        <v>0.175936303976298</v>
       </c>
       <c r="I24" s="5">
-        <v>-2.9178892181681571</v>
+        <v>-2.478987608771543</v>
       </c>
       <c r="J24" s="5">
-        <v>0.84455496228419402</v>
+        <v>1.021977145046193</v>
       </c>
       <c r="K24" s="5">
-        <v>-4.1140493150595319</v>
+        <v>-3.4392337159561581</v>
       </c>
       <c r="L24" s="5">
-        <v>-0.86769971676761104</v>
+        <v>-0.30204319343455405</v>
       </c>
       <c r="M24" s="5">
-        <v>-7.5351228613345977</v>
+        <v>-7.3724435740205934</v>
       </c>
       <c r="N24" s="5">
-        <v>-10.736027880022192</v>
+        <v>-10.533864523611868</v>
       </c>
       <c r="O24" s="5">
-        <v>19.682343740172126</v>
+        <v>19.892908432260793</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2620,7 +2613,7 @@
         <v>1330.8014874594508</v>
       </c>
       <c r="T24" s="5">
-        <v>1130.8900146484375</v>
+        <v>1132.879638671875</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2628,10 +2621,10 @@
         <v>102</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C25" s="5">
-        <v>1580447104</v>
+        <v>1573541376</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2640,34 +2633,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1835220</v>
+        <v>1892656.25</v>
       </c>
       <c r="G25" s="5">
-        <v>6.8064517974853525</v>
+        <v>6.7954912185668954</v>
       </c>
       <c r="H25" s="5">
-        <v>-0.78211998889292611</v>
+        <v>0.19595678528445701</v>
       </c>
       <c r="I25" s="5">
-        <v>2.5600112497173639</v>
+        <v>-1.982919775203229</v>
       </c>
       <c r="J25" s="5">
-        <v>-2.4346865493871661</v>
+        <v>-0.175470886945917</v>
       </c>
       <c r="K25" s="5">
-        <v>-0.86180802002576706</v>
+        <v>-4.200890369539934</v>
       </c>
       <c r="L25" s="5">
-        <v>3.8152823191266889</v>
+        <v>10.144787393047118</v>
       </c>
       <c r="M25" s="5">
-        <v>1.2045809870651509</v>
+        <v>1.402898230528016</v>
       </c>
       <c r="N25" s="5">
-        <v>-33.09247097705645</v>
+        <v>-31.756370131227762</v>
       </c>
       <c r="O25" s="5">
-        <v>40.19161045628401</v>
+        <v>25.661260424679821</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2682,7 +2675,7 @@
         <v>3.313469849078821</v>
       </c>
       <c r="T25" s="5">
-        <v>2.07017993927002</v>
+        <v>2.0605697631835942</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2693,7 +2686,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="5">
-        <v>1546528128</v>
+        <v>1547457536</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2702,34 +2695,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>2932735</v>
+        <v>2811874.75</v>
       </c>
       <c r="G26" s="5">
-        <v>7.019230842590332</v>
+        <v>7.0192313194274902</v>
       </c>
       <c r="H26" s="5">
-        <v>-1.5974842325817029</v>
+        <v>0.19595678528445701</v>
       </c>
       <c r="I26" s="5">
-        <v>-3.3046786957713001E-2</v>
+        <v>-3.211869470407636</v>
       </c>
       <c r="J26" s="5">
-        <v>-8.2700088512887131</v>
+        <v>-2.892849448764367</v>
       </c>
       <c r="K26" s="5">
-        <v>-2.4052458701289141</v>
+        <v>-4.6826554146141781</v>
       </c>
       <c r="L26" s="5">
-        <v>8.5034334782770671</v>
+        <v>13.809806478777853</v>
       </c>
       <c r="M26" s="5">
-        <v>-3.8227572982801883</v>
+        <v>-3.63429146530666</v>
       </c>
       <c r="N26" s="5">
-        <v>-26.727546575288642</v>
+        <v>-25.281718134056753</v>
       </c>
       <c r="O26" s="5">
-        <v>43.286450210271667</v>
+        <v>33.072826612023796</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2744,7 +2737,7 @@
         <v>2.5316400642105892</v>
       </c>
       <c r="T26" s="5">
-        <v>1.736279964447021</v>
+        <v>1.728219866752625</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2755,43 +2748,43 @@
         <v>106</v>
       </c>
       <c r="C27" s="5">
-        <v>1462080512</v>
+        <v>1470630144</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3265475.25</v>
+        <v>3284570</v>
       </c>
       <c r="G27" s="5">
-        <v>11.218514442443848</v>
+        <v>11.160236358642578</v>
       </c>
       <c r="H27" s="5">
-        <v>-1.3960156747231611</v>
+        <v>1.2277936132368381</v>
       </c>
       <c r="I27" s="5">
-        <v>1.611103690762183</v>
+        <v>-1.244978776162742</v>
       </c>
       <c r="J27" s="5">
-        <v>2.4744443570333452</v>
+        <v>4.798167527536279</v>
       </c>
       <c r="K27" s="5">
-        <v>-12.164282067918064</v>
+        <v>-15.707495473074939</v>
       </c>
       <c r="L27" s="5">
-        <v>7.2635624680678754</v>
+        <v>4.2596220530884521</v>
       </c>
       <c r="M27" s="5">
-        <v>-16.63696554222598</v>
+        <v>-15.613439529353013</v>
       </c>
       <c r="N27" s="5">
-        <v>-24.398723412639576</v>
+        <v>-26.160916588910521</v>
       </c>
       <c r="O27" s="5">
-        <v>131.68557294069467</v>
+        <v>78.683364284458122</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>42</v>
@@ -2800,13 +2793,13 @@
         <v>107</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S27" s="5">
-        <v>0.31711016131256003</v>
+        <v>0.312691136752548</v>
       </c>
       <c r="T27" s="5">
-        <v>0.21025934815406802</v>
+        <v>0.20949302613735202</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2817,7 +2810,7 @@
         <v>109</v>
       </c>
       <c r="C28" s="5">
-        <v>1399848320</v>
+        <v>1387996288</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>45</v>
@@ -2826,34 +2819,34 @@
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3357963</v>
+        <v>3382491.75</v>
       </c>
       <c r="G28" s="5">
-        <v>4.6246247291564941</v>
+        <v>4.6560845375061044</v>
       </c>
       <c r="H28" s="5">
-        <v>-1.2925610344018401</v>
+        <v>-0.69795599559812105</v>
       </c>
       <c r="I28" s="5">
-        <v>-3.885915675691709</v>
+        <v>-4.606178617823165</v>
       </c>
       <c r="J28" s="5">
-        <v>0.77785882804988205</v>
+        <v>7.4473720124102E-2</v>
       </c>
       <c r="K28" s="5">
-        <v>-3.007676173773111</v>
+        <v>-3.0523210377010002</v>
       </c>
       <c r="L28" s="5">
-        <v>1.1586960277416569</v>
+        <v>1.1444475731081649</v>
       </c>
       <c r="M28" s="5">
-        <v>-4.9380499887625717</v>
+        <v>-5.6015405683984998</v>
       </c>
       <c r="N28" s="5">
-        <v>-17.625755410072586</v>
+        <v>-18.191823341198944</v>
       </c>
       <c r="O28" s="5">
-        <v>16.658950229357615</v>
+        <v>15.844722091829988</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
@@ -2863,10 +2856,10 @@
         <v>47</v>
       </c>
       <c r="S28" s="5">
-        <v>1268.312101910828</v>
+        <v>1265.7825776224886</v>
       </c>
       <c r="T28" s="5">
-        <v>996.26025390625</v>
+        <v>989.30682373046875</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2877,7 +2870,7 @@
         <v>111</v>
       </c>
       <c r="C29" s="5">
-        <v>1367666688</v>
+        <v>1370570496</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>23</v>
@@ -2886,34 +2879,34 @@
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>6062193.5</v>
+        <v>5982030</v>
       </c>
       <c r="G29" s="5">
-        <v>4.6610169410705566</v>
+        <v>4.585721492767334</v>
       </c>
       <c r="H29" s="5">
-        <v>0.21230895888935103</v>
+        <v>1.6419564993160221</v>
       </c>
       <c r="I29" s="5">
-        <v>-0.10582252998598801</v>
+        <v>2.1831726965998439</v>
       </c>
       <c r="J29" s="5">
-        <v>5.0689575746124982</v>
+        <v>6.7941441522724189</v>
       </c>
       <c r="K29" s="5">
-        <v>1.068449243070746</v>
+        <v>-0.22672662994164303</v>
       </c>
       <c r="L29" s="5">
-        <v>13.625591111392721</v>
+        <v>13.55642766599372</v>
       </c>
       <c r="M29" s="5">
-        <v>2.0397419234594589</v>
+        <v>3.715190097856969</v>
       </c>
       <c r="N29" s="5">
-        <v>-10.390431489518182</v>
+        <v>-8.0453037248047643</v>
       </c>
       <c r="O29" s="5">
-        <v>63.383869498989554</v>
+        <v>66.066561563062209</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
@@ -2928,7 +2921,7 @@
         <v>23.389999389648438</v>
       </c>
       <c r="T29" s="5">
-        <v>18.879999160766602</v>
+        <v>19.190000534057617</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2939,7 +2932,7 @@
         <v>114</v>
       </c>
       <c r="C30" s="5">
-        <v>1303669760</v>
+        <v>1302631808</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>23</v>
@@ -2948,40 +2941,40 @@
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>10366682</v>
+        <v>10564832</v>
       </c>
       <c r="G30" s="5">
-        <v>12.749004364013672</v>
+        <v>12.800000190734863</v>
       </c>
       <c r="H30" s="5">
-        <v>-7.9619654042506011E-2</v>
+        <v>-0.39840788824669904</v>
       </c>
       <c r="I30" s="5">
-        <v>-2.182382966767094</v>
+        <v>-0.87232085386298508</v>
       </c>
       <c r="J30" s="5">
-        <v>-3.7576669674202483</v>
+        <v>-4.1411040140546973</v>
       </c>
       <c r="K30" s="5">
-        <v>-4.1077157209120641</v>
+        <v>-7.9081630681465684</v>
       </c>
       <c r="L30" s="5">
-        <v>28.088983083017439</v>
+        <v>24.490167497364101</v>
       </c>
       <c r="M30" s="5">
-        <v>2.758086043895025</v>
+        <v>2.3486897232848141</v>
       </c>
       <c r="N30" s="5">
-        <v>-8.3663721565182758</v>
+        <v>-8.6708484053979795</v>
       </c>
       <c r="O30" s="5">
-        <v>21.724832149581474</v>
+        <v>21.239870816342489</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>0</v>
@@ -2990,7 +2983,7 @@
         <v>15.390000343322754</v>
       </c>
       <c r="T30" s="5">
-        <v>12.550000190734863</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3001,7 +2994,7 @@
         <v>116</v>
       </c>
       <c r="C31" s="5">
-        <v>1301874304</v>
+        <v>1294441984</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>45</v>
@@ -3010,34 +3003,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>2599895.25</v>
+        <v>3188250</v>
       </c>
       <c r="G31" s="5">
-        <v>4.0410518646240234</v>
+        <v>3.8439795970916748</v>
       </c>
       <c r="H31" s="5">
-        <v>-1.397341169678179</v>
+        <v>-0.36038422964275202</v>
       </c>
       <c r="I31" s="5">
-        <v>-1.3072799821680301</v>
+        <v>-5.887099514117522</v>
       </c>
       <c r="J31" s="5">
-        <v>-0.30921198418162305</v>
+        <v>-6.6338179207936285</v>
       </c>
       <c r="K31" s="5">
-        <v>2.6382154142970071</v>
+        <v>-12.861191072544308</v>
       </c>
       <c r="L31" s="5">
-        <v>14.595495332112641</v>
+        <v>-1.916307757822677</v>
       </c>
       <c r="M31" s="5">
-        <v>0.70094951545338602</v>
+        <v>-14.789681852456226</v>
       </c>
       <c r="N31" s="5">
-        <v>2.1300369714593259</v>
+        <v>-8.8778877257979403</v>
       </c>
       <c r="O31" s="5">
-        <v>52.220146337566753</v>
+        <v>26.049086561401658</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3047,10 +3040,10 @@
         <v>47</v>
       </c>
       <c r="S31" s="5">
-        <v>1220.179304057134</v>
+        <v>1627.7828606282403</v>
       </c>
       <c r="T31" s="5">
-        <v>1166.0433349609375</v>
+        <v>1322.8145751953125</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3061,7 +3054,7 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1301072128</v>
+        <v>1292963968</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>45</v>
@@ -3070,34 +3063,34 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>3141693.5</v>
+        <v>2666859.25</v>
       </c>
       <c r="G32" s="5">
-        <v>3.8309860229492192</v>
+        <v>4.0618953704833984</v>
       </c>
       <c r="H32" s="5">
-        <v>-1.477385855243962</v>
+        <v>-0.535466232398918</v>
       </c>
       <c r="I32" s="5">
-        <v>-5.3531873956853993</v>
+        <v>-4.6515758737678103</v>
       </c>
       <c r="J32" s="5">
-        <v>-6.2961239288692914</v>
+        <v>-0.84302249081872305</v>
       </c>
       <c r="K32" s="5">
-        <v>-12.217497369139419</v>
+        <v>2.1008978865363348</v>
       </c>
       <c r="L32" s="5">
-        <v>-1.622769253925471</v>
+        <v>15.817051491470501</v>
       </c>
       <c r="M32" s="5">
-        <v>-14.481486616798245</v>
+        <v>0.16172993509304701</v>
       </c>
       <c r="N32" s="5">
-        <v>-8.7393184379768396</v>
+        <v>0.65898560797579309</v>
       </c>
       <c r="O32" s="5">
-        <v>26.50499059722511</v>
+        <v>51.405058855020869</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
@@ -3107,10 +3100,10 @@
         <v>47</v>
       </c>
       <c r="S32" s="5">
-        <v>1627.7828606282403</v>
+        <v>1220.179304057134</v>
       </c>
       <c r="T32" s="5">
-        <v>1327.59912109375</v>
+        <v>1159.799560546875</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3121,7 +3114,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1237742848</v>
+        <v>1213064832</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3130,34 +3123,34 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1424068.125</v>
+        <v>1400183.25</v>
       </c>
       <c r="G33" s="5">
-        <v>6.3663558959960938</v>
+        <v>6.4913601875305176</v>
       </c>
       <c r="H33" s="5">
-        <v>-0.98395829308339811</v>
+        <v>0.27240407303976705</v>
       </c>
       <c r="I33" s="5">
-        <v>0</v>
+        <v>-0.71803486224535407</v>
       </c>
       <c r="J33" s="5">
-        <v>-19.28121634709332</v>
+        <v>-0.23542831388819702</v>
       </c>
       <c r="K33" s="5">
-        <v>-5.7044044309030202</v>
+        <v>-13.908824539721298</v>
       </c>
       <c r="L33" s="5">
-        <v>16.184969266053905</v>
+        <v>26.759446078774296</v>
       </c>
       <c r="M33" s="5">
-        <v>1.4026737791135611</v>
+        <v>1.6788981523988782</v>
       </c>
       <c r="N33" s="5">
-        <v>-37.372177004348615</v>
+        <v>-35.907519100810781</v>
       </c>
       <c r="O33" s="5">
-        <v>-35.810289444127939</v>
+        <v>-39.136503892869754</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>42</v>
@@ -3169,10 +3162,10 @@
         <v>123</v>
       </c>
       <c r="S33" s="5">
-        <v>0.44010716260794902</v>
+        <v>0.41317044677711001</v>
       </c>
       <c r="T33" s="5">
-        <v>0.25605422258377103</v>
+        <v>0.25095540285110501</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3183,7 +3176,7 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1126315776</v>
+        <v>1106278912</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>23</v>
@@ -3192,34 +3185,34 @@
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>14931332</v>
+        <v>14059016</v>
       </c>
       <c r="G34" s="5">
-        <v>7.2447867393493652</v>
+        <v>7.2727274894714364</v>
       </c>
       <c r="H34" s="5">
-        <v>-1.7789754031189211</v>
+        <v>-0.38419153382136501</v>
       </c>
       <c r="I34" s="5">
-        <v>-0.43715807126396605</v>
+        <v>0.110316926031384</v>
       </c>
       <c r="J34" s="5">
-        <v>-7.9333073751452936</v>
+        <v>-8.2870198136793185</v>
       </c>
       <c r="K34" s="5">
-        <v>-30.577444321123814</v>
+        <v>-32.14369909704412</v>
       </c>
       <c r="L34" s="5">
-        <v>-24.963917584888918</v>
+        <v>-26.345346138660418</v>
       </c>
       <c r="M34" s="5">
-        <v>-30.236882087847018</v>
+        <v>-30.50490608059533</v>
       </c>
       <c r="N34" s="5">
-        <v>-46.595834391816467</v>
+        <v>-46.154077284450267</v>
       </c>
       <c r="O34" s="5">
-        <v>-31.110304044832372</v>
+        <v>-31.3749724243674</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
@@ -3234,7 +3227,7 @@
         <v>38.110000610351563</v>
       </c>
       <c r="T34" s="5">
-        <v>18.219999313354492</v>
+        <v>18.149999618530273</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3245,7 +3238,7 @@
         <v>128</v>
       </c>
       <c r="C35" s="5">
-        <v>1069414528</v>
+        <v>1069257216</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>45</v>
@@ -3254,34 +3247,34 @@
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>3218950.5</v>
+        <v>3159867.25</v>
       </c>
       <c r="G35" s="5">
-        <v>5.0504732131958008</v>
+        <v>5.0425195693969727</v>
       </c>
       <c r="H35" s="5">
-        <v>-1.4552184852441701</v>
+        <v>0.13526143837516702</v>
       </c>
       <c r="I35" s="5">
-        <v>-3.9571907334025269</v>
+        <v>-4.5830612492584795</v>
       </c>
       <c r="J35" s="5">
-        <v>-1.5513674930914929</v>
+        <v>-1.418204456701966</v>
       </c>
       <c r="K35" s="5">
-        <v>-7.5317850712280698</v>
+        <v>-7.3472712386463357</v>
       </c>
       <c r="L35" s="5">
-        <v>-4.5866960151347724</v>
+        <v>-3.020313400896546</v>
       </c>
       <c r="M35" s="5">
-        <v>-10.612357282085705</v>
+        <v>-10.491450270815806</v>
       </c>
       <c r="N35" s="5">
-        <v>-16.389672807427136</v>
+        <v>-16.314360099148406</v>
       </c>
       <c r="O35" s="5">
-        <v>8.0424075691135855</v>
+        <v>8.1885472836467308</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
@@ -3294,7 +3287,7 @@
         <v>2987.0638965111721</v>
       </c>
       <c r="T35" s="5">
-        <v>2370.979736328125</v>
+        <v>2374.186767578125</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3305,7 +3298,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>1063432704</v>
+        <v>1066082496</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3314,34 +3307,34 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>5440582</v>
+        <v>5354196</v>
       </c>
       <c r="G36" s="5">
-        <v>6.2966032028198242</v>
+        <v>6.3333330154418954</v>
       </c>
       <c r="H36" s="5">
-        <v>0.24916721815815301</v>
+        <v>-0.57994777625582905</v>
       </c>
       <c r="I36" s="5">
-        <v>1.7706580457508061</v>
+        <v>2.651842863509613</v>
       </c>
       <c r="J36" s="5">
-        <v>2.772115273430753</v>
+        <v>2.176090676291409</v>
       </c>
       <c r="K36" s="5">
-        <v>5.9671001029503179</v>
+        <v>2.9521024327810119</v>
       </c>
       <c r="L36" s="5">
-        <v>18.573228968479548</v>
+        <v>16.88560615638368</v>
       </c>
       <c r="M36" s="5">
-        <v>6.7042617926548642</v>
+        <v>6.08543279921816</v>
       </c>
       <c r="N36" s="5">
-        <v>-9.4133434663443705</v>
+        <v>-9.6206843449260226</v>
       </c>
       <c r="O36" s="5">
-        <v>21.131359682263895</v>
+        <v>20.428861055438151</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
@@ -3356,7 +3349,7 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T36" s="5">
-        <v>12.069999694824219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3367,7 +3360,7 @@
         <v>132</v>
       </c>
       <c r="C37" s="5">
-        <v>1046301440</v>
+        <v>1025278400</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3376,34 +3369,34 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>12656991</v>
+        <v>12714716</v>
       </c>
       <c r="G37" s="5">
-        <v>2.2082018852233891</v>
+        <v>2.2187004089355469</v>
       </c>
       <c r="H37" s="5">
-        <v>-2.0092680343025031</v>
+        <v>-0.47318941776529605</v>
       </c>
       <c r="I37" s="5">
-        <v>-3.3536553675400542</v>
+        <v>-2.623457959777165</v>
       </c>
       <c r="J37" s="5">
-        <v>-16.792789078531957</v>
+        <v>-17.186516795429995</v>
       </c>
       <c r="K37" s="5">
-        <v>-7.8949069257350342</v>
+        <v>-11.895652136860313</v>
       </c>
       <c r="L37" s="5">
-        <v>0.41805535719667802</v>
+        <v>-2.2031187920955042</v>
       </c>
       <c r="M37" s="5">
-        <v>-5.4351275557196104</v>
+        <v>-5.8825985250491994</v>
       </c>
       <c r="N37" s="5">
-        <v>-26.878186993765695</v>
+        <v>-27.551648559089603</v>
       </c>
       <c r="O37" s="5">
-        <v>-30.747355643098619</v>
+        <v>-31.075051827718113</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
@@ -3418,7 +3411,7 @@
         <v>9.1800003051757813</v>
       </c>
       <c r="T37" s="5">
-        <v>6.3400001525878906</v>
+        <v>6.309999942779541</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3429,7 +3422,7 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>828059904</v>
+        <v>852535168</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>35</v>
@@ -3438,34 +3431,34 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1567843.875</v>
+        <v>1571384.875</v>
       </c>
       <c r="G38" s="5">
-        <v>6.517509937286377</v>
+        <v>6.3446969985961914</v>
       </c>
       <c r="H38" s="5">
-        <v>2.0742176893486342</v>
+        <v>3.0059677685197128</v>
       </c>
       <c r="I38" s="5">
-        <v>-0.34771147758881904</v>
+        <v>2.6238524334324609</v>
       </c>
       <c r="J38" s="5">
-        <v>-2.917127723723123</v>
+        <v>4.880232978301513</v>
       </c>
       <c r="K38" s="5">
-        <v>-8.9095769950985009</v>
+        <v>-6.3180873270144762</v>
       </c>
       <c r="L38" s="5">
-        <v>4.4392193618162379</v>
+        <v>10.546095620524486</v>
       </c>
       <c r="M38" s="5">
-        <v>-8.5669905368513373</v>
+        <v>-5.8185437426015119</v>
       </c>
       <c r="N38" s="5">
-        <v>-41.731508020693042</v>
+        <v>-41.33467481331077</v>
       </c>
       <c r="O38" s="5">
-        <v>-5.1975631877015482</v>
+        <v>-13.514471167497399</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>30</v>
@@ -3480,7 +3473,7 @@
         <v>1.243469103672894</v>
       </c>
       <c r="T38" s="5">
-        <v>0.64059817790985107</v>
+        <v>0.65519517660141002</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3491,120 +3484,120 @@
         <v>137</v>
       </c>
       <c r="C39" s="5">
-        <v>827683392</v>
+        <v>828293504</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2012587.625</v>
+      </c>
+      <c r="G39" s="5">
+        <v>7.2435898780822754</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2.5030983557379649</v>
+      </c>
+      <c r="I39" s="5">
+        <v>-0.38968174607858502</v>
+      </c>
+      <c r="J39" s="5">
+        <v>-5.3159974112582331</v>
+      </c>
+      <c r="K39" s="5">
+        <v>-16.937010926270226</v>
+      </c>
+      <c r="L39" s="5">
+        <v>11.418491846822509</v>
+      </c>
+      <c r="M39" s="5">
+        <v>-11.098121294813822</v>
+      </c>
+      <c r="N39" s="5">
+        <v>-47.063110109423725</v>
+      </c>
+      <c r="O39" s="5">
+        <v>16.821948887658024</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1335062.875</v>
-      </c>
-      <c r="G39" s="5">
-        <v>5.161290168762207</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0.29523931903232503</v>
-      </c>
-      <c r="I39" s="5">
-        <v>-0.330043217915577</v>
-      </c>
-      <c r="J39" s="5">
-        <v>-5.0160628521520927</v>
-      </c>
-      <c r="K39" s="5">
-        <v>-15.830639100130783</v>
-      </c>
-      <c r="L39" s="5">
-        <v>-15.846185389173261</v>
-      </c>
-      <c r="M39" s="5">
-        <v>-13.793416473462672</v>
-      </c>
-      <c r="N39" s="5">
-        <v>-34.190255784563796</v>
-      </c>
-      <c r="O39" s="5">
-        <v>5.9836127003023654</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="R39" s="4" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="S39" s="5">
-        <v>6.9296474607858372</v>
+        <v>2.096480441422877</v>
       </c>
       <c r="T39" s="5">
-        <v>4.2726798057556152</v>
+        <v>1.0336084365844731</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="5">
+        <v>820266048</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="E40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1264394.25</v>
+      </c>
+      <c r="G40" s="5">
+        <v>5.161290168762207</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.29523931903232503</v>
+      </c>
+      <c r="I40" s="5">
+        <v>-0.330043217915577</v>
+      </c>
+      <c r="J40" s="5">
+        <v>-5.0160628521520927</v>
+      </c>
+      <c r="K40" s="5">
+        <v>-15.830639100130783</v>
+      </c>
+      <c r="L40" s="5">
+        <v>-15.846185389173261</v>
+      </c>
+      <c r="M40" s="5">
+        <v>-14.708005094376087</v>
+      </c>
+      <c r="N40" s="5">
+        <v>-34.190255784563796</v>
+      </c>
+      <c r="O40" s="5">
+        <v>5.9836127003023654</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="5">
-        <v>809164032</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1995182.75</v>
-      </c>
-      <c r="G40" s="5">
-        <v>7.4342103004455566</v>
-      </c>
-      <c r="H40" s="5">
-        <v>-2.0727073516647492</v>
-      </c>
-      <c r="I40" s="5">
-        <v>-0.41753471597266706</v>
-      </c>
-      <c r="J40" s="5">
-        <v>-14.379995237375077</v>
-      </c>
-      <c r="K40" s="5">
-        <v>-13.834712464729638</v>
-      </c>
-      <c r="L40" s="5">
-        <v>9.1489533246025004E-2</v>
-      </c>
-      <c r="M40" s="5">
-        <v>-13.26908148995518</v>
-      </c>
-      <c r="N40" s="5">
-        <v>-49.698364314284213</v>
-      </c>
-      <c r="O40" s="5">
-        <v>35.952824467431952</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="S40" s="5">
-        <v>2.096480441422877</v>
+        <v>6.9296474607858372</v>
       </c>
       <c r="T40" s="5">
-        <v>1.0150560140609739</v>
+        <v>4.2726798057556152</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3615,7 +3608,7 @@
         <v>145</v>
       </c>
       <c r="C41" s="5">
-        <v>802564928</v>
+        <v>799744768</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>45</v>
@@ -3624,34 +3617,34 @@
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>2298641.75</v>
+        <v>2322285.25</v>
       </c>
       <c r="G41" s="5">
-        <v>5.4326748847961426</v>
+        <v>5.442446231842041</v>
       </c>
       <c r="H41" s="5">
-        <v>-0.96655373792841104</v>
+        <v>-0.20192482768204301</v>
       </c>
       <c r="I41" s="5">
-        <v>-1.4581949244659831</v>
+        <v>-2.9738628630003761</v>
       </c>
       <c r="J41" s="5">
-        <v>2.2463886470378558</v>
+        <v>2.039927802951214</v>
       </c>
       <c r="K41" s="5">
-        <v>4.4333627380697349</v>
+        <v>4.8300385074650842</v>
       </c>
       <c r="L41" s="5">
-        <v>11.244752280101288</v>
+        <v>11.264460737364757</v>
       </c>
       <c r="M41" s="5">
-        <v>1.6107353904178061</v>
+        <v>1.4055580880742551</v>
       </c>
       <c r="N41" s="5">
-        <v>-10.032682382485735</v>
+        <v>-10.72953691193732</v>
       </c>
       <c r="O41" s="5">
-        <v>38.124681008502748</v>
+        <v>37.84577298438996</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>25</v>
@@ -3661,10 +3654,10 @@
         <v>47</v>
       </c>
       <c r="S41" s="5">
-        <v>493.63057324840764</v>
+        <v>491.54292067021362</v>
       </c>
       <c r="T41" s="5">
-        <v>416.60433959960937</v>
+        <v>415.76309204101562</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3675,7 +3668,7 @@
         <v>147</v>
       </c>
       <c r="C42" s="5">
-        <v>785351104</v>
+        <v>783821504</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>148</v>
@@ -3684,40 +3677,40 @@
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>1363558.75</v>
+        <v>1356871.125</v>
       </c>
       <c r="G42" s="5">
-        <v>0.98662060499191306</v>
+        <v>0.98708713054657005</v>
       </c>
       <c r="H42" s="5">
-        <v>-0.52695617176543608</v>
+        <v>-0.19478399143969502</v>
       </c>
       <c r="I42" s="5">
-        <v>0.7057799852324691</v>
+        <v>0.50962124736675407</v>
       </c>
       <c r="J42" s="5">
-        <v>4.8278987322374567</v>
+        <v>4.6237107669444333</v>
       </c>
       <c r="K42" s="5">
-        <v>4.3455900138143821</v>
+        <v>4.0529302348089713</v>
       </c>
       <c r="L42" s="5">
-        <v>7.1052812891650108</v>
+        <v>6.9074189734072533</v>
       </c>
       <c r="M42" s="5">
-        <v>4.850976525780748</v>
+        <v>4.6467436086403469</v>
       </c>
       <c r="N42" s="5">
-        <v>4.8667875062105903</v>
+        <v>5.2687528570882991</v>
       </c>
       <c r="O42" s="5">
-        <v>21.910450301647909</v>
+        <v>21.67298826056825</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>149</v>
@@ -3726,7 +3719,7 @@
         <v>0.72089303474705002</v>
       </c>
       <c r="T42" s="5">
-        <v>0.69500100612640403</v>
+        <v>0.69364726543426503</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3737,7 +3730,7 @@
         <v>151</v>
       </c>
       <c r="C43" s="5">
-        <v>758449792</v>
+        <v>757547520</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>152</v>
@@ -3746,34 +3739,34 @@
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>1546862</v>
+        <v>1550355.5</v>
       </c>
       <c r="G43" s="5">
-        <v>5.5045871734619141</v>
+        <v>5.523590087890625</v>
       </c>
       <c r="H43" s="5">
-        <v>3.164337209230017</v>
+        <v>-7.0223345775511009E-2</v>
       </c>
       <c r="I43" s="5">
-        <v>7.0025512972319071</v>
+        <v>2.1405894424054268</v>
       </c>
       <c r="J43" s="5">
-        <v>3.5286052096427101</v>
+        <v>5.576595012808605</v>
       </c>
       <c r="K43" s="5">
-        <v>1.5772641655597659</v>
+        <v>1.393133145355852</v>
       </c>
       <c r="L43" s="5">
-        <v>31.509684875326705</v>
+        <v>37.868044006151472</v>
       </c>
       <c r="M43" s="5">
-        <v>2.231625561515771</v>
+        <v>2.1598350936058002</v>
       </c>
       <c r="N43" s="5">
-        <v>-24.289475400042971</v>
+        <v>-25.740987605985822</v>
       </c>
       <c r="O43" s="5">
-        <v>32.997849384335495</v>
+        <v>22.500269577148345</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>153</v>
@@ -3788,7 +3781,7 @@
         <v>1.5543399132000002</v>
       </c>
       <c r="T43" s="5">
-        <v>1.0867735147476201</v>
+        <v>1.078342080116272</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3799,7 +3792,7 @@
         <v>156</v>
       </c>
       <c r="C44" s="5">
-        <v>749045824</v>
+        <v>744634176</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>45</v>
@@ -3808,34 +3801,34 @@
         <v>24</v>
       </c>
       <c r="F44" s="5">
-        <v>1604236.375</v>
+        <v>1640741.25</v>
       </c>
       <c r="G44" s="5">
-        <v>4.036186695098877</v>
+        <v>4.0531096458435059</v>
       </c>
       <c r="H44" s="5">
-        <v>-0.86841126649236411</v>
+        <v>-0.43987475984895702</v>
       </c>
       <c r="I44" s="5">
-        <v>-9.3153950822100012E-2</v>
+        <v>-2.8004393192548989</v>
       </c>
       <c r="J44" s="5">
-        <v>1.5552476408889682</v>
+        <v>1.108531739214591</v>
       </c>
       <c r="K44" s="5">
-        <v>-3.4656519487922921</v>
+        <v>-3.8826304569699488</v>
       </c>
       <c r="L44" s="5">
-        <v>5.3172477708186117</v>
+        <v>5.5450232061226901</v>
       </c>
       <c r="M44" s="5">
-        <v>-7.6663602451034105</v>
+        <v>-8.0725126212350613</v>
       </c>
       <c r="N44" s="5">
-        <v>-6.5524137351497096</v>
+        <v>-7.4934720172445619</v>
       </c>
       <c r="O44" s="5">
-        <v>18.610274628484834</v>
+        <v>18.088537967806584</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>25</v>
@@ -3845,10 +3838,10 @@
         <v>47</v>
       </c>
       <c r="S44" s="5">
-        <v>1210.1910828025477</v>
+        <v>1204.6374970221552</v>
       </c>
       <c r="T44" s="5">
-        <v>1074.7943115234375</v>
+        <v>1070.0665283203125</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3859,7 +3852,7 @@
         <v>158</v>
       </c>
       <c r="C45" s="5">
-        <v>728206976</v>
+        <v>741972736</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>159</v>
@@ -3868,32 +3861,32 @@
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1935614.875</v>
+        <v>1765437.5</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5">
-        <v>1.999185957115257</v>
+        <v>-0.25458970494405303</v>
       </c>
       <c r="I45" s="5">
-        <v>3.793553432465302</v>
+        <v>1.208673509059111</v>
       </c>
       <c r="J45" s="5">
-        <v>-20.816602467246703</v>
+        <v>-21.018195245390014</v>
       </c>
       <c r="K45" s="5">
-        <v>-15.78116017630915</v>
+        <v>-16.826523093980093</v>
       </c>
       <c r="L45" s="5">
-        <v>42.66044998606926</v>
+        <v>46.569817497898569</v>
       </c>
       <c r="M45" s="5">
-        <v>-27.932360610341522</v>
+        <v>-28.115837400823796</v>
       </c>
       <c r="N45" s="5">
-        <v>74.122259262740656</v>
+        <v>57.125078605354453</v>
       </c>
       <c r="O45" s="5">
-        <v>118.20080360089071</v>
+        <v>117.64528681881762</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>160</v>
@@ -3906,7 +3899,7 @@
         <v>1.13709763756269</v>
       </c>
       <c r="T45" s="5">
-        <v>0.74325513839721702</v>
+        <v>0.74136286973953203</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3917,43 +3910,43 @@
         <v>163</v>
       </c>
       <c r="C46" s="5">
-        <v>629993600</v>
+        <v>637107584</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="5">
-        <v>6907582.5</v>
+        <v>6808630.5</v>
       </c>
       <c r="G46" s="5">
-        <v>8.0862531661987305</v>
+        <v>8.1081085205078125</v>
       </c>
       <c r="H46" s="5">
-        <v>0.69597527291154204</v>
+        <v>4.1073800297942005E-2</v>
       </c>
       <c r="I46" s="5">
-        <v>-2.8561817261283822</v>
+        <v>-1.9377752771089001</v>
       </c>
       <c r="J46" s="5">
-        <v>-9.4073408112951835</v>
+        <v>-9.3701309633754111</v>
       </c>
       <c r="K46" s="5">
-        <v>-19.878998673506999</v>
+        <v>-21.452477374553101</v>
       </c>
       <c r="L46" s="5">
-        <v>-13.876054072121791</v>
+        <v>-12.821021005506971</v>
       </c>
       <c r="M46" s="5">
-        <v>-16.184336207377271</v>
+        <v>-16.149909929012686</v>
       </c>
       <c r="N46" s="5">
-        <v>-44.660653785487312</v>
+        <v>-43.520678297902769</v>
       </c>
       <c r="O46" s="5">
-        <v>5.407974668522364</v>
+        <v>5.4512697295358237</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>25</v>
@@ -3962,13 +3955,13 @@
         <v>26</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="S46" s="5">
         <v>11.008880893576956</v>
       </c>
       <c r="T46" s="5">
-        <v>5.485325813293457</v>
+        <v>5.4875788688659668</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3979,7 +3972,7 @@
         <v>165</v>
       </c>
       <c r="C47" s="5">
-        <v>596237056</v>
+        <v>597583616</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>35</v>
@@ -3988,34 +3981,34 @@
         <v>24</v>
       </c>
       <c r="F47" s="5">
-        <v>1713100.25</v>
+        <v>1716969.25</v>
       </c>
       <c r="G47" s="5">
         <v>4.3055553436279297</v>
       </c>
       <c r="H47" s="5">
-        <v>-0.52570085688000701</v>
+        <v>0.27475335189606204</v>
       </c>
       <c r="I47" s="5">
-        <v>39.322310552247373</v>
+        <v>-0.98592516058981805</v>
       </c>
       <c r="J47" s="5">
-        <v>35.223871804824739</v>
+        <v>39.487917271333764</v>
       </c>
       <c r="K47" s="5">
-        <v>32.969559416232563</v>
+        <v>30.98481527343435</v>
       </c>
       <c r="L47" s="5">
-        <v>39.860746924487245</v>
+        <v>43.8989533257202</v>
       </c>
       <c r="M47" s="5">
-        <v>30.372834642229417</v>
+        <v>30.731038375370858</v>
       </c>
       <c r="N47" s="5">
-        <v>-16.936458866608607</v>
+        <v>-18.64142127929227</v>
       </c>
       <c r="O47" s="5">
-        <v>95.049482836359871</v>
+        <v>85.722938988728032</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>30</v>
@@ -4030,7 +4023,7 @@
         <v>2.6187999199999998</v>
       </c>
       <c r="T47" s="5">
-        <v>2.0190060138702388</v>
+        <v>2.0102579593658452</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4041,7 +4034,7 @@
         <v>168</v>
       </c>
       <c r="C48" s="5">
-        <v>579352832</v>
+        <v>576629952</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>159</v>
@@ -4050,32 +4043,32 @@
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>3831857.75</v>
+        <v>3848575.5</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5">
-        <v>-0.36367964061727603</v>
+        <v>-3.0949491653603278</v>
       </c>
       <c r="I48" s="5">
-        <v>-13.588361943123351</v>
+        <v>-18.983235763441364</v>
       </c>
       <c r="J48" s="5">
-        <v>43.946300674420755</v>
+        <v>39.491235843130703</v>
       </c>
       <c r="K48" s="5">
-        <v>110.47524913754697</v>
+        <v>121.42097609275986</v>
       </c>
       <c r="L48" s="5">
-        <v>123.85808647476617</v>
+        <v>115.19168953573953</v>
       </c>
       <c r="M48" s="5">
-        <v>70.01601248664015</v>
+        <v>64.754103327205968</v>
       </c>
       <c r="N48" s="5">
-        <v>158.06718877871378</v>
+        <v>152.4202576159343</v>
       </c>
       <c r="O48" s="5">
-        <v>155.38027906627133</v>
+        <v>147.47638925081486</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>169</v>
@@ -4088,7 +4081,7 @@
         <v>2.9003802040762392</v>
       </c>
       <c r="T48" s="5">
-        <v>1.739798426628113</v>
+        <v>1.6859525442123411</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4099,7 +4092,7 @@
         <v>171</v>
       </c>
       <c r="C49" s="5">
-        <v>504871104</v>
+        <v>502447712</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>23</v>
@@ -4108,34 +4101,34 @@
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>3951763</v>
+        <v>3801877.75</v>
       </c>
       <c r="G49" s="5">
-        <v>9.6463031768798828</v>
+        <v>9.6308183670043945</v>
       </c>
       <c r="H49" s="5">
-        <v>-0.48000335693358903</v>
+        <v>0.160775389375512</v>
       </c>
       <c r="I49" s="5">
-        <v>8.0444689959958002E-2</v>
+        <v>0.89068545165629209</v>
       </c>
       <c r="J49" s="5">
-        <v>0.42554433128125801</v>
+        <v>0.58700389121235708</v>
       </c>
       <c r="K49" s="5">
-        <v>-34.686672617039434</v>
+        <v>-24.12097637104571</v>
       </c>
       <c r="L49" s="5">
-        <v>-15.663364523758627</v>
+        <v>-15.801495990773596</v>
       </c>
       <c r="M49" s="5">
-        <v>-31.368047378373511</v>
+        <v>-31.257704089310078</v>
       </c>
       <c r="N49" s="5">
-        <v>-39.869499751351697</v>
+        <v>-39.203622676207139</v>
       </c>
       <c r="O49" s="5">
-        <v>5.8678686838583793</v>
+        <v>6.0380781619583823</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>25</v>
@@ -4150,7 +4143,7 @@
         <v>23.379999160766602</v>
       </c>
       <c r="T49" s="5">
-        <v>12.439999580383301</v>
+        <v>12.460000038146973</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4161,118 +4154,118 @@
         <v>173</v>
       </c>
       <c r="C50" s="5">
-        <v>476379392</v>
+        <v>490365248</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>1520128.5</v>
-      </c>
-      <c r="G50" s="5">
-        <v>8.0142478942871094</v>
-      </c>
+        <v>2032165.125</v>
+      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>0.31263821675930903</v>
+        <v>3.0558573369281472</v>
       </c>
       <c r="I50" s="5">
-        <v>-2.1350834953263731</v>
+        <v>5.3228436201991247</v>
       </c>
       <c r="J50" s="5">
-        <v>10.642410511768841</v>
+        <v>-7.5871916533493895</v>
       </c>
       <c r="K50" s="5">
-        <v>-0.54669509177095499</v>
+        <v>-10.674025899635497</v>
       </c>
       <c r="L50" s="5">
-        <v>11.870001930446183</v>
+        <v>33.814710637863584</v>
       </c>
       <c r="M50" s="5">
-        <v>3.1235046642215769</v>
+        <v>-38.476085817470931</v>
       </c>
       <c r="N50" s="5">
-        <v>-20.336581182993019</v>
+        <v>107.9596449353028</v>
       </c>
       <c r="O50" s="5">
-        <v>71.200965488173935</v>
+        <v>277.50568225194553</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="S50" s="5">
-        <v>31.969999313354492</v>
+        <v>1.152422315694851</v>
       </c>
       <c r="T50" s="5">
-        <v>22.459999084472656</v>
+        <v>0.67396622896194502</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C51" s="5">
-        <v>476100992</v>
+        <v>477868736</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>2055969.875</v>
-      </c>
-      <c r="G51" s="5"/>
+        <v>1507376.5</v>
+      </c>
+      <c r="G51" s="5">
+        <v>8.0142478942871094</v>
+      </c>
       <c r="H51" s="5">
-        <v>3.6348095744090703</v>
+        <v>0</v>
       </c>
       <c r="I51" s="5">
-        <v>5.7022382025063711</v>
+        <v>0.6723425464857381</v>
       </c>
       <c r="J51" s="5">
-        <v>-10.327456648564304</v>
+        <v>10.642410511768841</v>
       </c>
       <c r="K51" s="5">
-        <v>-20.576355110370137</v>
+        <v>-2.6591303698016429</v>
       </c>
       <c r="L51" s="5">
-        <v>32.506496357596504</v>
+        <v>9.872312886425938</v>
       </c>
       <c r="M51" s="5">
-        <v>-40.300419818560741</v>
+        <v>3.1235046642215769</v>
       </c>
       <c r="N51" s="5">
-        <v>108.69433899678928</v>
+        <v>-19.969351112986299</v>
       </c>
       <c r="O51" s="5">
-        <v>266.31171871943025</v>
+        <v>71.200965488173935</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5">
-        <v>1.152422315694851</v>
+        <v>31.969999313354492</v>
       </c>
       <c r="T51" s="5">
-        <v>0.65398150682449308</v>
+        <v>22.459999084472656</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4283,67 +4276,67 @@
         <v>178</v>
       </c>
       <c r="C52" s="5">
-        <v>461857600</v>
+        <v>467463584</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>3733027.5</v>
-      </c>
-      <c r="G52" s="5">
-        <v>5.8877663612365723</v>
-      </c>
+        <v>1084511</v>
+      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>-1.255176384448198</v>
+        <v>2.5445682954075011</v>
       </c>
       <c r="I52" s="5">
-        <v>-3.7364854552871201</v>
+        <v>14.728305071043346</v>
       </c>
       <c r="J52" s="5">
-        <v>-0.67138029226500007</v>
+        <v>-1.1170593228264969</v>
       </c>
       <c r="K52" s="5">
-        <v>-7.6001338673764689</v>
+        <v>1.033983201412281</v>
       </c>
       <c r="L52" s="5">
-        <v>-3.1529663700823769</v>
+        <v>61.978038120693157</v>
       </c>
       <c r="M52" s="5">
-        <v>-9.5441725851709176</v>
+        <v>5.0730749722744486</v>
       </c>
       <c r="N52" s="5">
-        <v>-27.464936221736625</v>
+        <v>53.084548133749699</v>
       </c>
       <c r="O52" s="5">
-        <v>11.474298658433169</v>
+        <v>467.99127347053007</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q52" s="4"/>
+      <c r="Q52" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="R52" s="4" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="S52" s="5">
-        <v>974.52229299363057</v>
+        <v>10.579760227544591</v>
       </c>
       <c r="T52" s="5">
-        <v>666.4173583984375</v>
+        <v>8.9948568344116211</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C53" s="5">
-        <v>456128512</v>
+        <v>464971296</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>159</v>
@@ -4352,47 +4345,45 @@
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>1086535.875</v>
+        <v>7401321</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5">
-        <v>2.6673050204511162</v>
+        <v>2.232636105011343</v>
       </c>
       <c r="I53" s="5">
-        <v>16.238074557398207</v>
+        <v>4.6779032092503448</v>
       </c>
       <c r="J53" s="5">
-        <v>-3.5707670129203621</v>
+        <v>-15.226043279864953</v>
       </c>
       <c r="K53" s="5">
-        <v>-4.801666126057869</v>
+        <v>-3.9382409186271121</v>
       </c>
       <c r="L53" s="5">
-        <v>56.858155029989696</v>
+        <v>57.240259775866306</v>
       </c>
       <c r="M53" s="5">
-        <v>2.4657636371171692</v>
+        <v>-12.646898350145364</v>
       </c>
       <c r="N53" s="5">
-        <v>45.29840786466319</v>
+        <v>-55.789619779795274</v>
       </c>
       <c r="O53" s="5">
-        <v>453.89698636623723</v>
+        <v>129.26911480863606</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
         <v>161</v>
       </c>
       <c r="S53" s="5">
-        <v>10.579760227544591</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T53" s="5">
-        <v>8.7716569900512695</v>
+        <v>0.49666127562522905</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4403,54 +4394,56 @@
         <v>183</v>
       </c>
       <c r="C54" s="5">
-        <v>454829632</v>
+        <v>458475168</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>8371257.5</v>
-      </c>
-      <c r="G54" s="5"/>
+        <v>3612396.25</v>
+      </c>
+      <c r="G54" s="5">
+        <v>5.9209933280944824</v>
+      </c>
       <c r="H54" s="5">
-        <v>2.3389555953575951</v>
+        <v>-0.58347323416164709</v>
       </c>
       <c r="I54" s="5">
-        <v>3.5335488665632302</v>
+        <v>-4.4884268954682121</v>
       </c>
       <c r="J54" s="5">
-        <v>-17.077403117085911</v>
+        <v>-1.250936202121844</v>
       </c>
       <c r="K54" s="5">
-        <v>-11.613712112056529</v>
+        <v>-7.8508799595713663</v>
       </c>
       <c r="L54" s="5">
-        <v>53.509214743889075</v>
+        <v>-3.3824804597570872</v>
       </c>
       <c r="M54" s="5">
-        <v>-14.554583567494783</v>
+        <v>-10.071958126875902</v>
       </c>
       <c r="N54" s="5">
-        <v>-53.166946167260207</v>
+        <v>-27.716773614669865</v>
       </c>
       <c r="O54" s="5">
-        <v>124.26215692328944</v>
+        <v>10.823875962791796</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="S54" s="5">
-        <v>1.1922868853192861</v>
+        <v>957.57288456980325</v>
       </c>
       <c r="T54" s="5">
-        <v>0.48581480979919406</v>
+        <v>662.52899169921875</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4470,34 +4463,34 @@
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1796609</v>
+        <v>1774825.875</v>
       </c>
       <c r="G55" s="5">
-        <v>5.499542236328125</v>
+        <v>5.5096421241760254</v>
       </c>
       <c r="H55" s="5">
-        <v>0</v>
+        <v>-0.18331351392364401</v>
       </c>
       <c r="I55" s="5">
-        <v>4.7024929705417051</v>
+        <v>4.2105315032398893</v>
       </c>
       <c r="J55" s="5">
-        <v>-2.2104357692784742</v>
+        <v>-2.3896972557204239</v>
       </c>
       <c r="K55" s="5">
-        <v>-0.9847804300303411</v>
+        <v>-2.7336967257121758</v>
       </c>
       <c r="L55" s="5">
-        <v>-4.2447338204479319</v>
+        <v>-4.0920928127734406</v>
       </c>
       <c r="M55" s="5">
-        <v>-1.3380891283805041</v>
+        <v>-1.5189497441034931</v>
       </c>
       <c r="N55" s="5">
-        <v>-28.10852429461923</v>
+        <v>-28.30805268253237</v>
       </c>
       <c r="O55" s="5">
-        <v>39.029949503045373</v>
+        <v>38.775088817205059</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
@@ -4512,7 +4505,7 @@
         <v>17.930000305175781</v>
       </c>
       <c r="T55" s="5">
-        <v>10.909999847412109</v>
+        <v>10.890000343322754</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4523,7 +4516,7 @@
         <v>187</v>
       </c>
       <c r="C56" s="5">
-        <v>387292096</v>
+        <v>383380064</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>23</v>
@@ -4532,34 +4525,34 @@
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>4920069</v>
+        <v>4822412.5</v>
       </c>
       <c r="G56" s="5">
-        <v>9.1236495971679687</v>
+        <v>9.1456069946289062</v>
       </c>
       <c r="H56" s="5">
-        <v>-1.010101468001134</v>
+        <v>-0.240090087305278</v>
       </c>
       <c r="I56" s="5">
-        <v>-2.1726413641518172</v>
+        <v>-0.53858916918125799</v>
       </c>
       <c r="J56" s="5">
-        <v>2.397045966045686</v>
+        <v>2.1512008089877632</v>
       </c>
       <c r="K56" s="5">
-        <v>-8.0371202202062619</v>
+        <v>-9.1895477489579704</v>
       </c>
       <c r="L56" s="5">
-        <v>-0.54663474462767203</v>
+        <v>-1.908390372695945</v>
       </c>
       <c r="M56" s="5">
-        <v>-6.8297329470544792</v>
+        <v>-7.05342552256446</v>
       </c>
       <c r="N56" s="5">
-        <v>-15.978671646142717</v>
+        <v>-15.95824332706195</v>
       </c>
       <c r="O56" s="5">
-        <v>95.546832385016884</v>
+        <v>95.077343824420993</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>25</v>
@@ -4574,7 +4567,7 @@
         <v>23.069999694824219</v>
       </c>
       <c r="T56" s="5">
-        <v>16.659999847412109</v>
+        <v>16.620000839233398</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4585,7 +4578,7 @@
         <v>189</v>
       </c>
       <c r="C57" s="5">
-        <v>336831328</v>
+        <v>336799680</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>159</v>
@@ -4594,31 +4587,31 @@
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>5321079.5</v>
+        <v>5112648</v>
       </c>
       <c r="G57" s="5">
-        <v>0.76923072338104204</v>
+        <v>0.7667210102081301</v>
       </c>
       <c r="H57" s="5">
-        <v>9.7389472988496012E-2</v>
+        <v>0.21186610401557901</v>
       </c>
       <c r="I57" s="5">
-        <v>-0.17450750467304901</v>
+        <v>-2.2193327608666002E-2</v>
       </c>
       <c r="J57" s="5">
-        <v>-15.417071422100781</v>
+        <v>-15.23786886666052</v>
       </c>
       <c r="K57" s="5">
-        <v>-28.001336917711782</v>
+        <v>-24.735259971931988</v>
       </c>
       <c r="L57" s="5">
-        <v>-0.13227587170553401</v>
+        <v>-6.4018064041599931</v>
       </c>
       <c r="M57" s="5">
-        <v>-33.616782042392636</v>
+        <v>-33.476138504785688</v>
       </c>
       <c r="N57" s="5">
-        <v>21.508536183389726</v>
+        <v>22.365740005866531</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="4" t="s">
@@ -4632,7 +4625,7 @@
         <v>0.55299045370637101</v>
       </c>
       <c r="T57" s="5">
-        <v>0.31712913513183605</v>
+        <v>0.31780099868774403</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4643,7 +4636,7 @@
         <v>191</v>
       </c>
       <c r="C58" s="5">
-        <v>286334432</v>
+        <v>284524224</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>45</v>
@@ -4652,34 +4645,34 @@
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>1321215.875</v>
+        <v>1224026.5</v>
       </c>
       <c r="G58" s="5">
-        <v>5.6718893051147461</v>
+        <v>5.698148250579834</v>
       </c>
       <c r="H58" s="5">
-        <v>-1.1443516665856299</v>
+        <v>-0.48315800706231204</v>
       </c>
       <c r="I58" s="5">
-        <v>-3.4198403333632328</v>
+        <v>-4.2378627051506754</v>
       </c>
       <c r="J58" s="5">
-        <v>-0.68666954728963103</v>
+        <v>-1.166509855452158</v>
       </c>
       <c r="K58" s="5">
-        <v>-5.2805014363909937</v>
+        <v>-6.1724854821330499</v>
       </c>
       <c r="L58" s="5">
-        <v>7.2421786610971761</v>
+        <v>8.1725167961148806</v>
       </c>
       <c r="M58" s="5">
-        <v>-6.1402243797864191</v>
+        <v>-6.5937154011062038</v>
       </c>
       <c r="N58" s="5">
-        <v>-18.440969174558774</v>
+        <v>-19.135506304474514</v>
       </c>
       <c r="O58" s="5">
-        <v>20.358243427507404</v>
+        <v>19.776722937227873</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
@@ -4689,10 +4682,10 @@
         <v>47</v>
       </c>
       <c r="S58" s="5">
-        <v>1066.8789808917197</v>
+        <v>1064.0832208369729</v>
       </c>
       <c r="T58" s="5">
-        <v>811.518310546875</v>
+        <v>807.597412109375</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4703,7 +4696,7 @@
         <v>193</v>
       </c>
       <c r="C59" s="5">
-        <v>227272720</v>
+        <v>229099888</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>23</v>
@@ -4712,34 +4705,34 @@
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>2327334</v>
+        <v>2273732.25</v>
       </c>
       <c r="G59" s="5">
-        <v>6.7484664916992188</v>
+        <v>6.7114095687866211</v>
       </c>
       <c r="H59" s="5">
-        <v>0.80395275295754909</v>
+        <v>0.55214820122973007</v>
       </c>
       <c r="I59" s="5">
-        <v>-1.4510378789730831</v>
+        <v>0.92364298426308411</v>
       </c>
       <c r="J59" s="5">
-        <v>-1.0922348918424469</v>
+        <v>-0.54611744592122402</v>
       </c>
       <c r="K59" s="5">
-        <v>-14.105005470772925</v>
+        <v>-15.17147039652057</v>
       </c>
       <c r="L59" s="5">
-        <v>6.8827678102530987</v>
+        <v>6.7256399100745767</v>
       </c>
       <c r="M59" s="5">
-        <v>-13.24965092854783</v>
+        <v>-12.770660436589287</v>
       </c>
       <c r="N59" s="5">
-        <v>-6.6983164110482551</v>
+        <v>-5.0565191854095364</v>
       </c>
       <c r="O59" s="5">
-        <v>79.087286855771026</v>
+        <v>80.076114088776279</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>25</v>
@@ -4754,7 +4747,7 @@
         <v>20.789899826049805</v>
       </c>
       <c r="T59" s="5">
-        <v>16.299999237060547</v>
+        <v>16.389999389648437</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4765,7 +4758,7 @@
         <v>195</v>
       </c>
       <c r="C60" s="5">
-        <v>215597024</v>
+        <v>213555504</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>159</v>
@@ -4774,32 +4767,32 @@
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>1371028.625</v>
+        <v>1279614.625</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5">
-        <v>2.3129284423220042</v>
+        <v>-0.88939001492346303</v>
       </c>
       <c r="I60" s="5">
-        <v>3.264349675232459</v>
+        <v>0.43627277468114606</v>
       </c>
       <c r="J60" s="5">
-        <v>-14.642075983203418</v>
+        <v>-15.401240836354768</v>
       </c>
       <c r="K60" s="5">
-        <v>-23.92587485964286</v>
+        <v>-19.59509626825313</v>
       </c>
       <c r="L60" s="5">
-        <v>32.342031456648357</v>
+        <v>29.134693402136904</v>
       </c>
       <c r="M60" s="5">
-        <v>-36.1538642161658</v>
+        <v>-36.72170537274171</v>
       </c>
       <c r="N60" s="5">
-        <v>72.610043150271991</v>
+        <v>67.323420106345495</v>
       </c>
       <c r="O60" s="5">
-        <v>0.78897661794235008</v>
+        <v>-0.10743047624118801</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>169</v>
@@ -4812,7 +4805,7 @@
         <v>0.45377137396633505</v>
       </c>
       <c r="T60" s="5">
-        <v>0.267820984125137</v>
+        <v>0.265439003705978</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4823,116 +4816,116 @@
         <v>197</v>
       </c>
       <c r="C61" s="5">
-        <v>210917008</v>
+        <v>210218720</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>1383943.875</v>
+        <v>3156154.75</v>
       </c>
       <c r="G61" s="5">
-        <v>5.753448486328125</v>
+        <v>2.6595742702484131</v>
       </c>
       <c r="H61" s="5">
-        <v>-0.63037082603061301</v>
+        <v>4.3242451164769324</v>
       </c>
       <c r="I61" s="5">
-        <v>-3.5871149116990413</v>
+        <v>2.454321551532046</v>
       </c>
       <c r="J61" s="5">
-        <v>2.366301436548035</v>
+        <v>-5.4931094447841504</v>
       </c>
       <c r="K61" s="5">
-        <v>-3.0342282042728148</v>
+        <v>1.1308287351165851</v>
       </c>
       <c r="L61" s="5">
-        <v>8.9755939804239802</v>
+        <v>29.432540872193556</v>
       </c>
       <c r="M61" s="5">
-        <v>-3.9143394802087732</v>
+        <v>-23.820810843062645</v>
       </c>
       <c r="N61" s="5">
-        <v>-1.2422163059643829</v>
-      </c>
-      <c r="O61" s="5"/>
+        <v>30.441258564072115</v>
+      </c>
+      <c r="O61" s="5">
+        <v>91.511189790323442</v>
+      </c>
       <c r="P61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q61" s="4"/>
+      <c r="Q61" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="R61" s="4" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="S61" s="5">
-        <v>953.26524295883621</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T61" s="5">
-        <v>867.61407470703125</v>
+        <v>3.4113061428070068</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C62" s="5">
-        <v>206572016</v>
+        <v>209101792</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="5">
-        <v>3605344.75</v>
+        <v>1341743.625</v>
       </c>
       <c r="G62" s="5">
-        <v>2.7777776718139648</v>
+        <v>5.7934026718139648</v>
       </c>
       <c r="H62" s="5">
-        <v>1.8740189497282731</v>
+        <v>-0.7119323564713681</v>
       </c>
       <c r="I62" s="5">
-        <v>-0.33789175203493604</v>
+        <v>-3.0919909768362341</v>
       </c>
       <c r="J62" s="5">
-        <v>-9.4104247294577661</v>
+        <v>1.637522614498232</v>
       </c>
       <c r="K62" s="5">
-        <v>-8.2980155474919322</v>
+        <v>-3.5206648346667979</v>
       </c>
       <c r="L62" s="5">
-        <v>22.488365151405798</v>
+        <v>9.058564597842711</v>
       </c>
       <c r="M62" s="5">
-        <v>-26.978441998900561</v>
+        <v>-4.5984043873783964</v>
       </c>
       <c r="N62" s="5">
-        <v>29.986839225001717</v>
-      </c>
-      <c r="O62" s="5">
-        <v>83.573041507756102</v>
-      </c>
+        <v>-2.4200638663434688</v>
+      </c>
+      <c r="O62" s="5"/>
       <c r="P62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q62" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="Q62" s="4"/>
       <c r="R62" s="4" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="S62" s="5">
-        <v>4.6771184674018205</v>
+        <v>953.26524295883621</v>
       </c>
       <c r="T62" s="5">
-        <v>3.2699074745178223</v>
+        <v>861.43719482421875</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -4943,7 +4936,7 @@
         <v>202</v>
       </c>
       <c r="C63" s="5">
-        <v>177393408</v>
+        <v>179977616</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>159</v>
@@ -4952,32 +4945,32 @@
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>5445866.5</v>
+        <v>5338812.5</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5">
-        <v>1.5651269544700201</v>
+        <v>-1.3185206047472091</v>
       </c>
       <c r="I63" s="5">
-        <v>3.3994335945610521</v>
+        <v>-1.942809197028383</v>
       </c>
       <c r="J63" s="5">
-        <v>-10.226572668286648</v>
+        <v>-11.410253805243054</v>
       </c>
       <c r="K63" s="5">
-        <v>-18.572363731650366</v>
+        <v>-17.973059692341121</v>
       </c>
       <c r="L63" s="5">
-        <v>51.021287058366418</v>
+        <v>49.064531753445408</v>
       </c>
       <c r="M63" s="5">
-        <v>-39.837222533531062</v>
+        <v>-40.63048115081466</v>
       </c>
       <c r="N63" s="5">
-        <v>71.841562057782511</v>
+        <v>64.313390266124927</v>
       </c>
       <c r="O63" s="5">
-        <v>64.709953614548255</v>
+        <v>62.538218938070855</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>203</v>
@@ -4990,7 +4983,7 @@
         <v>0.22635182608908702</v>
       </c>
       <c r="T63" s="5">
-        <v>0.129239201545715</v>
+        <v>0.12753514945507002</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5001,7 +4994,7 @@
         <v>205</v>
       </c>
       <c r="C64" s="5">
-        <v>157841088</v>
+        <v>157567920</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>159</v>
@@ -5010,32 +5003,32 @@
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>3210840.5</v>
+        <v>3255329</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5">
-        <v>3.348148826823794</v>
+        <v>3.845101866462719</v>
       </c>
       <c r="I64" s="5">
-        <v>10.357555650846418</v>
+        <v>13.338696788096893</v>
       </c>
       <c r="J64" s="5">
-        <v>28.406707415806977</v>
+        <v>33.344076119315488</v>
       </c>
       <c r="K64" s="5">
-        <v>40.901278153631118</v>
+        <v>51.671372256512569</v>
       </c>
       <c r="L64" s="5">
-        <v>87.100935759566937</v>
+        <v>95.174201986119925</v>
       </c>
       <c r="M64" s="5">
-        <v>21.815309309737117</v>
+        <v>26.49923204164315</v>
       </c>
       <c r="N64" s="5">
-        <v>234.4062404097746</v>
+        <v>232.78281809172023</v>
       </c>
       <c r="O64" s="5">
-        <v>107.19598517783035</v>
+        <v>115.16288187113889</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>203</v>
@@ -5045,10 +5038,10 @@
         <v>203</v>
       </c>
       <c r="S64" s="5">
-        <v>0.23615999661252401</v>
+        <v>0.24522002504424803</v>
       </c>
       <c r="T64" s="5">
-        <v>0.23564095795154602</v>
+        <v>0.24470157921314201</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -5059,7 +5052,7 @@
         <v>207</v>
       </c>
       <c r="C65" s="5">
-        <v>106921344</v>
+        <v>104456496</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>159</v>
@@ -5068,32 +5061,32 @@
         <v>24</v>
       </c>
       <c r="F65" s="5">
-        <v>2361097.25</v>
+        <v>2190094.75</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5">
-        <v>-2.2009400547163049</v>
+        <v>-0.11508909553966701</v>
       </c>
       <c r="I65" s="5">
-        <v>-7.5810386607195639</v>
+        <v>-4.2432510720799446</v>
       </c>
       <c r="J65" s="5">
-        <v>30.54434396935617</v>
+        <v>30.394101664603635</v>
       </c>
       <c r="K65" s="5">
-        <v>72.942192889648183</v>
+        <v>76.264793867484855</v>
       </c>
       <c r="L65" s="5">
-        <v>155.80728035970597</v>
+        <v>154.23393149451766</v>
       </c>
       <c r="M65" s="5">
-        <v>63.396719775440062</v>
+        <v>63.208667968509012</v>
       </c>
       <c r="N65" s="5">
-        <v>537.10318612144204</v>
+        <v>531.2038865637403</v>
       </c>
       <c r="O65" s="5">
-        <v>620.5638042104157</v>
+        <v>619.73451384536372</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>169</v>
@@ -5106,7 +5099,7 @@
         <v>3.136226523511763</v>
       </c>
       <c r="T65" s="5">
-        <v>2.6159260272979741</v>
+        <v>2.6129152774810791</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\12.04.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\13.04.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="204">
   <si>
     <t>USD</t>
   </si>
@@ -345,21 +345,21 @@
     <t>11/28/2022</t>
   </si>
   <si>
+    <t>ALEX US Equity</t>
+  </si>
+  <si>
+    <t>ALEXANDER &amp; BALD</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
     <t>8956 JP Equity</t>
   </si>
   <si>
     <t>NTT UD REIT INVE</t>
   </si>
   <si>
-    <t>ALEX US Equity</t>
-  </si>
-  <si>
-    <t>ALEXANDER &amp; BALD</t>
-  </si>
-  <si>
-    <t>04/04/2023</t>
-  </si>
-  <si>
     <t>GNL US Equity</t>
   </si>
   <si>
@@ -459,18 +459,6 @@
     <t>STAR ASIA INVEST</t>
   </si>
   <si>
-    <t>01003T TT Equity</t>
-  </si>
-  <si>
-    <t>SHIN KONG NO 1</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
     <t>BCPT LN Equity</t>
   </si>
   <si>
@@ -552,6 +540,18 @@
     <t>ONE LIBERTY PROP</t>
   </si>
   <si>
+    <t>ISGYO TI Equity</t>
+  </si>
+  <si>
+    <t>IS GAYRIMENKUL Y</t>
+  </si>
+  <si>
+    <t>3492 JP Equity</t>
+  </si>
+  <si>
+    <t>TAKARA LEBEN REA</t>
+  </si>
+  <si>
     <t>SRVGY TI Equity</t>
   </si>
   <si>
@@ -561,18 +561,6 @@
     <t>11/25/2019</t>
   </si>
   <si>
-    <t>ISGYO TI Equity</t>
-  </si>
-  <si>
-    <t>IS GAYRIMENKUL Y</t>
-  </si>
-  <si>
-    <t>3492 JP Equity</t>
-  </si>
-  <si>
-    <t>TAKARA LEBEN REA</t>
-  </si>
-  <si>
     <t>NXDT US Equity</t>
   </si>
   <si>
@@ -603,19 +591,19 @@
     <t>ALPINE INCOME</t>
   </si>
   <si>
+    <t>ALGYO TI Equity</t>
+  </si>
+  <si>
+    <t>ALARKO GAYRIMENK</t>
+  </si>
+  <si>
+    <t>04/27/2023</t>
+  </si>
+  <si>
     <t>AKSGY TI Equity</t>
   </si>
   <si>
     <t>AKIS GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>ALGYO TI Equity</t>
-  </si>
-  <si>
-    <t>ALARKO GAYRIMENK</t>
-  </si>
-  <si>
-    <t>04/27/2023</t>
   </si>
   <si>
     <t>2989 JP Equity</t>
@@ -664,34 +652,41 @@
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1110,13 +1105,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD67"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1212,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>15958379520</v>
+        <v>15761599488</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1221,34 +1216,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>93737784</v>
+        <v>92591520</v>
       </c>
       <c r="G2" s="5">
-        <v>5.7918305397033691</v>
+        <v>5.8715090751647949</v>
       </c>
       <c r="H2" s="5">
-        <v>-1.233076211525552</v>
+        <v>-1.357036187907767</v>
       </c>
       <c r="I2" s="5">
-        <v>-2.39734775972682</v>
+        <v>-2.3902225730083941</v>
       </c>
       <c r="J2" s="5">
-        <v>-4.5973494237237738</v>
+        <v>-5.8919979162670444</v>
       </c>
       <c r="K2" s="5">
-        <v>-9.7271560177683902</v>
+        <v>-11.804720836762595</v>
       </c>
       <c r="L2" s="5">
-        <v>5.8775916107317805</v>
+        <v>5.2353446985658358</v>
       </c>
       <c r="M2" s="5">
-        <v>-4.4020391442372127</v>
+        <v>-5.6993380679518086</v>
       </c>
       <c r="N2" s="5">
-        <v>-4.7560933760851469</v>
+        <v>-6.4263144930616463</v>
       </c>
       <c r="O2" s="5">
-        <v>24.725154390814865</v>
+        <v>23.032588910307659</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1263,7 +1258,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>73.69000244140625</v>
+        <v>72.69000244140625</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1274,7 +1269,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6756889600</v>
+        <v>6676532224</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1283,34 +1278,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>37547908</v>
+        <v>38881356</v>
       </c>
       <c r="G3" s="5">
-        <v>6.2411346435546884</v>
+        <v>6.3233528137207031</v>
       </c>
       <c r="H3" s="5">
-        <v>3.8616649371900462</v>
+        <v>-0.89243496454102211</v>
       </c>
       <c r="I3" s="5">
-        <v>1.02654070922894</v>
+        <v>1.044702403887054</v>
       </c>
       <c r="J3" s="5">
-        <v>13.864365437257797</v>
+        <v>12.848200027942935</v>
       </c>
       <c r="K3" s="5">
-        <v>10.154021541359715</v>
+        <v>7.3261590170576207</v>
       </c>
       <c r="L3" s="5">
-        <v>42.160236228082958</v>
+        <v>41.002087141647394</v>
       </c>
       <c r="M3" s="5">
-        <v>14.126696288104078</v>
+        <v>13.108189746553499</v>
       </c>
       <c r="N3" s="5">
-        <v>-3.3703180335602272</v>
+        <v>-3.8389935603840408</v>
       </c>
       <c r="O3" s="5">
-        <v>76.86467969979951</v>
+        <v>75.28627745823502</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1325,7 +1320,7 @@
         <v>3.1170868956152522</v>
       </c>
       <c r="T3" s="5">
-        <v>2.8249747753143311</v>
+        <v>2.7997639179229741</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1336,7 +1331,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5888002560</v>
+        <v>5946590208</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -1345,34 +1340,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>14128245</v>
+        <v>14050192</v>
       </c>
       <c r="G4" s="5">
-        <v>6.1971831321716309</v>
+        <v>6.1682243347167969</v>
       </c>
       <c r="H4" s="5">
-        <v>0.40044839591064602</v>
+        <v>1.0767163707847689</v>
       </c>
       <c r="I4" s="5">
-        <v>0.86660894757202311</v>
+        <v>4.3192577008680288</v>
       </c>
       <c r="J4" s="5">
-        <v>4.3969211590459079</v>
+        <v>5.5209798997606141</v>
       </c>
       <c r="K4" s="5">
-        <v>-1.7997938793488431</v>
+        <v>-3.980418690806387</v>
       </c>
       <c r="L4" s="5">
-        <v>45.952588271562874</v>
+        <v>52.284504801416396</v>
       </c>
       <c r="M4" s="5">
-        <v>6.8734399390679934</v>
+        <v>8.0241637629127496</v>
       </c>
       <c r="N4" s="5">
-        <v>-17.866754571170361</v>
+        <v>-13.021809981230458</v>
       </c>
       <c r="O4" s="5">
-        <v>6.8457682892352665</v>
+        <v>7.996194167896209</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1387,7 +1382,7 @@
         <v>10.096910914142688</v>
       </c>
       <c r="T4" s="5">
-        <v>7.9293508529663086</v>
+        <v>8.0147275924682617</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1398,7 +1393,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5781474304</v>
+        <v>5861188608</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1407,34 +1402,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>33197570</v>
+        <v>33591548</v>
       </c>
       <c r="G5" s="5">
-        <v>4.6606335639953613</v>
+        <v>4.6501131057739258</v>
       </c>
       <c r="H5" s="5">
-        <v>2.0514356232390618</v>
+        <v>1.6833303930295251</v>
       </c>
       <c r="I5" s="5">
-        <v>1.326380418829E-2</v>
+        <v>3.568225271964764</v>
       </c>
       <c r="J5" s="5">
-        <v>1.3949321606277001E-2</v>
+        <v>1.6975145278060431</v>
       </c>
       <c r="K5" s="5">
-        <v>-2.6982718660449989</v>
+        <v>-3.098340134363597</v>
       </c>
       <c r="L5" s="5">
-        <v>23.225793195411981</v>
+        <v>26.230757161604188</v>
       </c>
       <c r="M5" s="5">
-        <v>0.68111528044396707</v>
+        <v>2.3759110940007711</v>
       </c>
       <c r="N5" s="5">
-        <v>-15.154817618866446</v>
+        <v>-14.043633566028358</v>
       </c>
       <c r="O5" s="5">
-        <v>12.258664835595944</v>
+        <v>14.148349059582689</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>30</v>
@@ -1449,7 +1444,7 @@
         <v>1.839162016363177</v>
       </c>
       <c r="T5" s="5">
-        <v>1.4623399972915649</v>
+        <v>1.486956000328064</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1460,7 +1455,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5460315136</v>
+        <v>5472913408</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1469,34 +1464,34 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>22988754</v>
+        <v>22882012</v>
       </c>
       <c r="G6" s="5">
         <v>5.8754405975341797</v>
       </c>
       <c r="H6" s="5">
-        <v>1.141212078384934</v>
+        <v>0.53182232608626201</v>
       </c>
       <c r="I6" s="5">
-        <v>-1.580498492576587</v>
+        <v>-1.5473674620954609</v>
       </c>
       <c r="J6" s="5">
-        <v>-6.3168989311296446</v>
+        <v>-5.8186712838754318</v>
       </c>
       <c r="K6" s="5">
-        <v>-4.9157870873794867</v>
+        <v>-6.1687776456004979</v>
       </c>
       <c r="L6" s="5">
-        <v>20.4163076680111</v>
+        <v>19.77806480319493</v>
       </c>
       <c r="M6" s="5">
-        <v>-0.66564551525571902</v>
+        <v>-0.13736324063217101</v>
       </c>
       <c r="N6" s="5">
-        <v>-20.489932554375422</v>
+        <v>-20.687213522659498</v>
       </c>
       <c r="O6" s="5">
-        <v>29.605990409366932</v>
+        <v>30.295264002309175</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>42</v>
@@ -1511,7 +1506,7 @@
         <v>3.871919847578821</v>
       </c>
       <c r="T6" s="5">
-        <v>2.8449161052703862</v>
+        <v>2.8600459098815918</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1522,7 +1517,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5410480640</v>
+        <v>5379592192</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1531,34 +1526,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>12575457</v>
+        <v>12614789</v>
       </c>
       <c r="G7" s="5">
-        <v>4.4383563995361328</v>
+        <v>4.4792628288269043</v>
       </c>
       <c r="H7" s="5">
-        <v>0.83263941950733111</v>
+        <v>-0.51151076907173199</v>
       </c>
       <c r="I7" s="5">
-        <v>-1.577803335849304</v>
+        <v>-1.631131046247936</v>
       </c>
       <c r="J7" s="5">
-        <v>3.3854096454599909</v>
+        <v>2.8565821414745511</v>
       </c>
       <c r="K7" s="5">
-        <v>-2.502237135351737</v>
+        <v>-4.5099103037566923</v>
       </c>
       <c r="L7" s="5">
-        <v>8.4860743847448017</v>
+        <v>8.0607031112495129</v>
       </c>
       <c r="M7" s="5">
-        <v>-5.8389164357843581</v>
+        <v>-6.3205605184899589</v>
       </c>
       <c r="N7" s="5">
-        <v>-7.1250543162713846</v>
+        <v>-8.3666349803778406</v>
       </c>
       <c r="O7" s="5">
-        <v>3.2329468667957162</v>
+        <v>2.7048992263419391</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>46</v>
@@ -1571,7 +1566,7 @@
         <v>1313.4164510311298</v>
       </c>
       <c r="T7" s="5">
-        <v>1146.339599609375</v>
+        <v>1140.4759521484375</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1582,7 +1577,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5351416320</v>
+        <v>5299082752</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1591,34 +1586,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>10669782</v>
+        <v>10631768</v>
       </c>
       <c r="G8" s="5">
-        <v>2.4893872737884521</v>
+        <v>2.4764938354492192</v>
       </c>
       <c r="H8" s="5">
-        <v>-1.66363053187305</v>
+        <v>1.171990341016627</v>
       </c>
       <c r="I8" s="5">
-        <v>-1.463094616536087</v>
+        <v>1.0559747705652049</v>
       </c>
       <c r="J8" s="5">
-        <v>-0.83857224800284502</v>
+        <v>0.32359010726472603</v>
       </c>
       <c r="K8" s="5">
-        <v>8.9859036446755738</v>
+        <v>7.0629516293778227</v>
       </c>
       <c r="L8" s="5">
-        <v>37.681703269867597</v>
+        <v>36.540569950696032</v>
       </c>
       <c r="M8" s="5">
-        <v>21.863990069572271</v>
+        <v>23.292224262365103</v>
       </c>
       <c r="N8" s="5">
-        <v>38.189390927277799</v>
+        <v>39.446843590114014</v>
       </c>
       <c r="O8" s="5">
-        <v>95.220054343567796</v>
+        <v>97.508014524201798</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1633,7 +1628,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.3740164041519169</v>
+        <v>1.390119671821594</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1644,7 +1639,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4806706688</v>
+        <v>4774522880</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1653,34 +1648,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>9750373</v>
+        <v>9810493</v>
       </c>
       <c r="G9" s="5">
-        <v>4.0462427139282227</v>
+        <v>4.0875911712646484</v>
       </c>
       <c r="H9" s="5">
-        <v>-5.8537906267175005E-2</v>
+        <v>-0.61022807079124108</v>
       </c>
       <c r="I9" s="5">
-        <v>-3.2210869035988909</v>
+        <v>-4.2958935937884029</v>
       </c>
       <c r="J9" s="5">
-        <v>0.8645709908376541</v>
+        <v>0.24906706516838503</v>
       </c>
       <c r="K9" s="5">
-        <v>-2.2510375406421201</v>
+        <v>-4.5933122938537796</v>
       </c>
       <c r="L9" s="5">
-        <v>2.4929818898168139</v>
+        <v>2.7989591302628241</v>
       </c>
       <c r="M9" s="5">
-        <v>-5.714916818959459</v>
+        <v>-6.290270863099046</v>
       </c>
       <c r="N9" s="5">
-        <v>-16.422701376728465</v>
+        <v>-16.333118997796348</v>
       </c>
       <c r="O9" s="5">
-        <v>0.61855347852264309</v>
+        <v>4.550820772597E-3</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1690,10 +1685,10 @@
         <v>47</v>
       </c>
       <c r="S9" s="5">
-        <v>2592.7102358453108</v>
+        <v>2563.4939473059576</v>
       </c>
       <c r="T9" s="5">
-        <v>2069.84228515625</v>
+        <v>2057.21142578125</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1704,7 +1699,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4489249280</v>
+        <v>4543997952</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -1713,34 +1708,34 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>13485118</v>
+        <v>13430814</v>
       </c>
       <c r="G10" s="5">
-        <v>5.9532976150512704</v>
+        <v>5.9123344421386719</v>
       </c>
       <c r="H10" s="5">
-        <v>-0.592541341755359</v>
+        <v>1.3014186601123521</v>
       </c>
       <c r="I10" s="5">
-        <v>-0.37354412813235305</v>
+        <v>2.9056764597194862</v>
       </c>
       <c r="J10" s="5">
-        <v>-2.1290231556168711</v>
+        <v>-0.85531200012982611</v>
       </c>
       <c r="K10" s="5">
-        <v>-5.0774593023956811</v>
+        <v>-7.035897446953121</v>
       </c>
       <c r="L10" s="5">
-        <v>34.261782012898735</v>
+        <v>40.225915399753262</v>
       </c>
       <c r="M10" s="5">
-        <v>1.168799704392032</v>
+        <v>2.4854293419566802</v>
       </c>
       <c r="N10" s="5">
-        <v>-26.640214775394753</v>
+        <v>-22.620801352353347</v>
       </c>
       <c r="O10" s="5">
-        <v>4.5909451337393214</v>
+        <v>5.9521112104976792</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1755,7 +1750,7 @@
         <v>6.8642308397426879</v>
       </c>
       <c r="T10" s="5">
-        <v>4.835787296295166</v>
+        <v>4.8987212181091309</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1766,7 +1761,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4068007936</v>
+        <v>4089315328</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1775,34 +1770,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9583378</v>
+        <v>9573308</v>
       </c>
       <c r="G11" s="5">
-        <v>2.0428752899169922</v>
+        <v>2.0467467308044429</v>
       </c>
       <c r="H11" s="5">
-        <v>-0.40898199555122705</v>
+        <v>0.6991475873427081</v>
       </c>
       <c r="I11" s="5">
-        <v>-0.99121709987322104</v>
+        <v>2.1997189725168949</v>
       </c>
       <c r="J11" s="5">
-        <v>-3.3875629781297318</v>
+        <v>-2.7120994556183442</v>
       </c>
       <c r="K11" s="5">
-        <v>-12.011406183159611</v>
+        <v>-13.085100132671457</v>
       </c>
       <c r="L11" s="5">
-        <v>16.312748830010459</v>
+        <v>20.269862720733613</v>
       </c>
       <c r="M11" s="5">
-        <v>-8.043440716196514</v>
+        <v>-7.4005286505604451</v>
       </c>
       <c r="N11" s="5">
-        <v>-15.344063124827056</v>
+        <v>-13.654551499664347</v>
       </c>
       <c r="O11" s="5">
-        <v>14.600900025676221</v>
+        <v>15.402129453278768</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1817,7 +1812,7 @@
         <v>11.852492330932618</v>
       </c>
       <c r="T11" s="5">
-        <v>8.6429071426391602</v>
+        <v>8.703333854675293</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1828,7 +1823,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3661596928</v>
+        <v>3685499648</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1837,34 +1832,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>22234290</v>
+        <v>21799318</v>
       </c>
       <c r="G12" s="5">
-        <v>4.4588570594787598</v>
+        <v>4.4843049049377441</v>
       </c>
       <c r="H12" s="5">
-        <v>0.65279414899217503</v>
+        <v>-0.56748840379197107</v>
       </c>
       <c r="I12" s="5">
-        <v>0.81733048039074307</v>
+        <v>1.7420160334364221</v>
       </c>
       <c r="J12" s="5">
-        <v>3.7834104743678099</v>
+        <v>3.1944516548659601</v>
       </c>
       <c r="K12" s="5">
-        <v>3.9130905644181979</v>
+        <v>2.174410447529973</v>
       </c>
       <c r="L12" s="5">
-        <v>29.056093996672573</v>
+        <v>28.520815703605518</v>
       </c>
       <c r="M12" s="5">
-        <v>6.3039371344570272</v>
+        <v>5.7006746184446788</v>
       </c>
       <c r="N12" s="5">
-        <v>2.8999158689464899</v>
+        <v>2.6010818248730421</v>
       </c>
       <c r="O12" s="5">
-        <v>119.50579995982969</v>
+        <v>118.26012999940687</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1879,7 +1874,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.670000076293945</v>
+        <v>24.530000686645508</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1890,7 +1885,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3614633728</v>
+        <v>3601884672</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>68</v>
@@ -1899,34 +1894,34 @@
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>8060668</v>
+        <v>7843718.5</v>
       </c>
       <c r="G13" s="5">
-        <v>10.079143524169922</v>
+        <v>9.9677724838256836</v>
       </c>
       <c r="H13" s="5">
-        <v>-0.59426440746112008</v>
+        <v>2.017245796140843</v>
       </c>
       <c r="I13" s="5">
-        <v>-1.074149725595819</v>
+        <v>4.8675927950173836</v>
       </c>
       <c r="J13" s="5">
-        <v>-6.6252733205404706</v>
+        <v>-4.7416755719410837</v>
       </c>
       <c r="K13" s="5">
-        <v>2.8283636033584081</v>
+        <v>2.4820997987866411</v>
       </c>
       <c r="L13" s="5">
-        <v>39.106318139772632</v>
+        <v>51.240579063705603</v>
       </c>
       <c r="M13" s="5">
-        <v>13.583668192894738</v>
+        <v>15.874929964618456</v>
       </c>
       <c r="N13" s="5">
-        <v>-21.501783689705722</v>
+        <v>-20.11719719997178</v>
       </c>
       <c r="O13" s="5">
-        <v>-31.207879061913403</v>
+        <v>-29.820172894213727</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>42</v>
@@ -1941,7 +1936,7 @@
         <v>67.232799999999997</v>
       </c>
       <c r="T13" s="5">
-        <v>46.822101593017578</v>
+        <v>47.766620635986328</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1952,7 +1947,7 @@
         <v>71</v>
       </c>
       <c r="C14" s="5">
-        <v>3405324544</v>
+        <v>3512954624</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -1961,34 +1956,34 @@
         <v>24</v>
       </c>
       <c r="F14" s="5">
-        <v>21426530</v>
+        <v>21826314</v>
       </c>
       <c r="G14" s="5">
-        <v>3.82146143913269</v>
+        <v>3.7401537895202641</v>
       </c>
       <c r="H14" s="5">
-        <v>1.70125574542459</v>
+        <v>3.4705494147398541</v>
       </c>
       <c r="I14" s="5">
-        <v>-3.1425475901428972</v>
+        <v>0.65214037230148003</v>
       </c>
       <c r="J14" s="5">
-        <v>-12.201684610997077</v>
+        <v>-9.1546006901125807</v>
       </c>
       <c r="K14" s="5">
-        <v>-16.0137278375576</v>
+        <v>-15.53737605497969</v>
       </c>
       <c r="L14" s="5">
-        <v>-2.15521675848025</v>
+        <v>2.1715152928123649</v>
       </c>
       <c r="M14" s="5">
-        <v>-12.04230017674478</v>
+        <v>-8.9896847403101674</v>
       </c>
       <c r="N14" s="5">
-        <v>-38.896906799228233</v>
+        <v>-35.499107401091024</v>
       </c>
       <c r="O14" s="5">
-        <v>56.857896888360401</v>
+        <v>62.301727710792633</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>30</v>
@@ -2003,7 +1998,7 @@
         <v>11.935938479216244</v>
       </c>
       <c r="T14" s="5">
-        <v>7.1854071617126456</v>
+        <v>7.4347801208496094</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2014,7 +2009,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5">
-        <v>3311966976</v>
+        <v>3307118592</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -2023,34 +2018,34 @@
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7905191.5</v>
+        <v>7953612.5</v>
       </c>
       <c r="G15" s="5">
-        <v>4.4313726425170898</v>
+        <v>4.4532017707824707</v>
       </c>
       <c r="H15" s="5">
-        <v>-0.37127197086027602</v>
+        <v>-8.6749667042163012E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>-4.4548627896620063</v>
+        <v>-3.670882474945059</v>
       </c>
       <c r="J15" s="5">
-        <v>-2.3228102493134672</v>
+        <v>-2.4075448861983211</v>
       </c>
       <c r="K15" s="5">
-        <v>-6.1208349071747659</v>
+        <v>-7.4878627628809706</v>
       </c>
       <c r="L15" s="5">
-        <v>7.4651507686965823</v>
+        <v>7.6603946618867944</v>
       </c>
       <c r="M15" s="5">
-        <v>-7.1078883790547609</v>
+        <v>-7.1884719765943572</v>
       </c>
       <c r="N15" s="5">
-        <v>6.2689161598950008E-2</v>
+        <v>-0.167683775124117</v>
       </c>
       <c r="O15" s="5">
-        <v>21.245945846076641</v>
+        <v>21.140765391753046</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
@@ -2063,7 +2058,7 @@
         <v>1187.971105527638</v>
       </c>
       <c r="T15" s="5">
-        <v>1067.8232421875</v>
+        <v>1066.89697265625</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2074,7 +2069,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="5">
-        <v>3141228544</v>
+        <v>3130371328</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>76</v>
@@ -2083,34 +2078,34 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>11036800</v>
+        <v>10780078</v>
       </c>
       <c r="G16" s="5">
         <v>5.5277776718139648</v>
       </c>
       <c r="H16" s="5">
-        <v>0.72465113681805504</v>
+        <v>-0.285765783217307</v>
       </c>
       <c r="I16" s="5">
-        <v>-0.52505839054343106</v>
+        <v>-0.57746396061875105</v>
       </c>
       <c r="J16" s="5">
-        <v>4.7911044454385099</v>
+        <v>4.491647325077941</v>
       </c>
       <c r="K16" s="5">
-        <v>8.060144775620671</v>
+        <v>7.7836281978824973</v>
       </c>
       <c r="L16" s="5">
-        <v>7.1627716774355754</v>
+        <v>7.7537449531877911</v>
       </c>
       <c r="M16" s="5">
-        <v>7.0295985194895438</v>
+        <v>6.7237445490059944</v>
       </c>
       <c r="N16" s="5">
-        <v>-12.002431366656008</v>
+        <v>-12.446634299112279</v>
       </c>
       <c r="O16" s="5">
-        <v>40.904812478329688</v>
+        <v>40.502154737360115</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>77</v>
@@ -2125,7 +2120,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T16" s="5">
-        <v>1.087608814239502</v>
+        <v>1.084500670433044</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2136,7 +2131,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="5">
-        <v>3094474496</v>
+        <v>3060777984</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>23</v>
@@ -2145,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>17069884</v>
+        <v>17067834</v>
       </c>
       <c r="G17" s="5">
-        <v>6.7278285026550293</v>
+        <v>6.8153657913208008</v>
       </c>
       <c r="H17" s="5">
-        <v>-1.088931020560713</v>
+        <v>-1.2844097059428461</v>
       </c>
       <c r="I17" s="5">
-        <v>-2.794288477300733</v>
+        <v>-3.2953932103647721</v>
       </c>
       <c r="J17" s="5">
-        <v>2.6433130953037449</v>
+        <v>1.324952419406356</v>
       </c>
       <c r="K17" s="5">
-        <v>-6.1132611032362014</v>
+        <v>-6.7395644735165794</v>
       </c>
       <c r="L17" s="5">
-        <v>8.4638153395391704</v>
+        <v>5.7136539386481564</v>
       </c>
       <c r="M17" s="5">
-        <v>2.516679527929377</v>
+        <v>1.199945345862319</v>
       </c>
       <c r="N17" s="5">
-        <v>-19.528908393294731</v>
+        <v>-20.267866548397141</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
@@ -2185,7 +2180,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T17" s="5">
-        <v>16.350000381469727</v>
+        <v>16.139999389648438</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2196,7 +2191,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="5">
-        <v>2508627968</v>
+        <v>2540232448</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>83</v>
@@ -2205,34 +2200,34 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>9229240</v>
+        <v>8708579</v>
       </c>
       <c r="G18" s="5">
-        <v>9.6328935623168945</v>
+        <v>10</v>
       </c>
       <c r="H18" s="5">
-        <v>2.1266086338407759</v>
+        <v>0.90553631395580103</v>
       </c>
       <c r="I18" s="5">
-        <v>-0.25730329776613203</v>
+        <v>1.139205480116279</v>
       </c>
       <c r="J18" s="5">
-        <v>2.59309595613384</v>
+        <v>3.5221058959707059</v>
       </c>
       <c r="K18" s="5">
-        <v>-14.973974326478846</v>
+        <v>-16.14975378161888</v>
       </c>
       <c r="L18" s="5">
-        <v>13.059557760092112</v>
+        <v>15.714149860882131</v>
       </c>
       <c r="M18" s="5">
-        <v>-13.150839533196434</v>
+        <v>-12.364395057481248</v>
       </c>
       <c r="N18" s="5">
-        <v>-20.606792021527021</v>
+        <v>-19.88887049311694</v>
       </c>
       <c r="O18" s="5">
-        <v>19.953042249387476</v>
+        <v>21.039247012385975</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>30</v>
@@ -2244,10 +2239,10 @@
         <v>85</v>
       </c>
       <c r="S18" s="5">
-        <v>0.98068187284810104</v>
+        <v>0.9726962457337881</v>
       </c>
       <c r="T18" s="5">
-        <v>0.74111557006835904</v>
+        <v>0.71288853883743308</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2258,7 +2253,7 @@
         <v>87</v>
       </c>
       <c r="C19" s="5">
-        <v>2505947904</v>
+        <v>2513416448</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>88</v>
@@ -2267,34 +2262,34 @@
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>9046964</v>
+        <v>8716137</v>
       </c>
       <c r="G19" s="5">
-        <v>4.8820180892944336</v>
+        <v>4.862236499786377</v>
       </c>
       <c r="H19" s="5">
-        <v>0.22989892583165103</v>
+        <v>0.78801688259522207</v>
       </c>
       <c r="I19" s="5">
-        <v>-1.100245281115741</v>
+        <v>0.63139300301999801</v>
       </c>
       <c r="J19" s="5">
-        <v>-0.8947372520479171</v>
+        <v>-0.113771050053713</v>
       </c>
       <c r="K19" s="5">
-        <v>-1.768548491933275</v>
+        <v>-3.497271195229934</v>
       </c>
       <c r="L19" s="5">
-        <v>22.416646888830204</v>
+        <v>22.832295148993943</v>
       </c>
       <c r="M19" s="5">
-        <v>3.0181939958888959</v>
+        <v>3.8299947567211889</v>
       </c>
       <c r="N19" s="5">
-        <v>-5.2477042681143624</v>
+        <v>-4.4426742191875483</v>
       </c>
       <c r="O19" s="5">
-        <v>88.829164188172399</v>
+        <v>90.317169881238613</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>25</v>
@@ -2309,7 +2304,7 @@
         <v>11.425618100945441</v>
       </c>
       <c r="T19" s="5">
-        <v>9.11383056640625</v>
+        <v>9.1856489181518555</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2320,7 +2315,7 @@
         <v>91</v>
       </c>
       <c r="C20" s="5">
-        <v>2446546176</v>
+        <v>2448417024</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -2329,34 +2324,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>7322562</v>
+        <v>7459243.5</v>
       </c>
       <c r="G20" s="5">
-        <v>4.9731903076171884</v>
+        <v>4.9865589141845703</v>
       </c>
       <c r="H20" s="5">
-        <v>0.38124604643798904</v>
+        <v>0.13625036341611302</v>
       </c>
       <c r="I20" s="5">
-        <v>-2.4927507151973121</v>
+        <v>-1.102834220502757</v>
       </c>
       <c r="J20" s="5">
-        <v>5.5665987779127457</v>
+        <v>5.7104336523936983</v>
       </c>
       <c r="K20" s="5">
-        <v>-0.66091501480926007</v>
+        <v>-2.339396910654246</v>
       </c>
       <c r="L20" s="5">
-        <v>2.928048451774679</v>
+        <v>3.2765627002811382</v>
       </c>
       <c r="M20" s="5">
-        <v>-2.0339495090031301</v>
+        <v>-1.9004704091847291</v>
       </c>
       <c r="N20" s="5">
-        <v>-9.3776018024264829</v>
+        <v>-8.7710660445345372</v>
       </c>
       <c r="O20" s="5">
-        <v>0.44725923478987606</v>
+        <v>0.584118990538807</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2369,7 +2364,7 @@
         <v>638.13700287312872</v>
       </c>
       <c r="T20" s="5">
-        <v>557.8404541015625</v>
+        <v>558.60052490234375</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2380,7 +2375,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="5">
-        <v>2381128960</v>
+        <v>2386304000</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>45</v>
@@ -2389,34 +2384,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>8046581</v>
+        <v>7908892.5</v>
       </c>
       <c r="G21" s="5">
-        <v>4.7509579658508301</v>
+        <v>4.7570333480834961</v>
       </c>
       <c r="H21" s="5">
-        <v>-1.158540615284587</v>
+        <v>0.27720211587427501</v>
       </c>
       <c r="I21" s="5">
-        <v>-3.548710903591989</v>
+        <v>-2.6223280098027768</v>
       </c>
       <c r="J21" s="5">
-        <v>4.6304544703338113</v>
+        <v>4.9204923039744441</v>
       </c>
       <c r="K21" s="5">
-        <v>-3.7543779623786082</v>
+        <v>-6.4644286157294006</v>
       </c>
       <c r="L21" s="5">
-        <v>1.8480893381034091</v>
+        <v>2.618517967804368</v>
       </c>
       <c r="M21" s="5">
-        <v>-7.1338770769363791</v>
+        <v>-6.8764502192632424</v>
       </c>
       <c r="N21" s="5">
-        <v>-8.451671438390207</v>
+        <v>-7.8462023781972094</v>
       </c>
       <c r="O21" s="5">
-        <v>8.6092826516291474</v>
+        <v>8.910349881175339</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2426,10 +2421,10 @@
         <v>47</v>
       </c>
       <c r="S21" s="5">
-        <v>3351.0680536806162</v>
+        <v>3338.8717461824508</v>
       </c>
       <c r="T21" s="5">
-        <v>2927.54052734375</v>
+        <v>2935.65576171875</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2440,7 +2435,7 @@
         <v>95</v>
       </c>
       <c r="C22" s="5">
-        <v>2151708416</v>
+        <v>2177954816</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>35</v>
@@ -2449,34 +2444,34 @@
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>7735370</v>
+        <v>7549576.5</v>
       </c>
       <c r="G22" s="5">
-        <v>6.1633663177490234</v>
+        <v>6.1209444999694824</v>
       </c>
       <c r="H22" s="5">
-        <v>0.77363272180599507</v>
+        <v>1.3016504114575329</v>
       </c>
       <c r="I22" s="5">
-        <v>0.363055164606085</v>
+        <v>4.7368757385577442</v>
       </c>
       <c r="J22" s="5">
-        <v>0.89592577648105509</v>
+        <v>2.209238009494507</v>
       </c>
       <c r="K22" s="5">
-        <v>-10.887334960292316</v>
+        <v>-11.129206734912467</v>
       </c>
       <c r="L22" s="5">
-        <v>-1.556953067074984</v>
+        <v>0.96141716568030111</v>
       </c>
       <c r="M22" s="5">
-        <v>-6.7533412373139594</v>
+        <v>-5.5395957198590473</v>
       </c>
       <c r="N22" s="5">
-        <v>-32.785018403604774</v>
+        <v>-30.510163856252206</v>
       </c>
       <c r="O22" s="5">
-        <v>6.1649145449596654</v>
+        <v>7.5468105919576978</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
@@ -2491,7 +2486,7 @@
         <v>1.9770638784000001</v>
       </c>
       <c r="T22" s="5">
-        <v>1.253309011459351</v>
+        <v>1.269622683525085</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2502,7 +2497,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="5">
-        <v>2027065984</v>
+        <v>2046175616</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2511,34 +2506,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5881166.5</v>
+        <v>5924246.5</v>
       </c>
       <c r="G23" s="5">
-        <v>6.6508312225341797</v>
+        <v>6.6193852424621582</v>
       </c>
       <c r="H23" s="5">
-        <v>0.91507158168424607</v>
+        <v>1.2459691259497421</v>
       </c>
       <c r="I23" s="5">
-        <v>-2.2790166058607291</v>
+        <v>0.54916017647839199</v>
       </c>
       <c r="J23" s="5">
-        <v>-3.1290279363005209</v>
+        <v>-1.922045532379435</v>
       </c>
       <c r="K23" s="5">
-        <v>-8.8823266457894512</v>
+        <v>-8.8183498673001246</v>
       </c>
       <c r="L23" s="5">
-        <v>13.555230919193839</v>
+        <v>15.265463732300288</v>
       </c>
       <c r="M23" s="5">
-        <v>-5.8006936869069108</v>
+        <v>-4.6269994133869456</v>
       </c>
       <c r="N23" s="5">
-        <v>-24.136567862056012</v>
+        <v>-23.787227691883306</v>
       </c>
       <c r="O23" s="5">
-        <v>14.305831031087157</v>
+        <v>15.730046394894771</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
@@ -2553,7 +2548,7 @@
         <v>4.050624031726354</v>
       </c>
       <c r="T23" s="5">
-        <v>2.798386812210083</v>
+        <v>2.8332538604736328</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2564,7 +2559,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="5">
-        <v>1632934144</v>
+        <v>1635331200</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -2573,34 +2568,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3369409.5</v>
+        <v>3415944.75</v>
       </c>
       <c r="G24" s="5">
-        <v>4.5940594673156738</v>
+        <v>4.6031746864318848</v>
       </c>
       <c r="H24" s="5">
-        <v>0.175936303976298</v>
+        <v>0.20661119088323202</v>
       </c>
       <c r="I24" s="5">
-        <v>-2.478987608771543</v>
+        <v>-1.6317298742005941</v>
       </c>
       <c r="J24" s="5">
-        <v>1.021977145046193</v>
+        <v>1.230699855079354</v>
       </c>
       <c r="K24" s="5">
-        <v>-3.4392337159561581</v>
+        <v>-5.5830991396847001</v>
       </c>
       <c r="L24" s="5">
-        <v>-0.30204319343455405</v>
+        <v>0.19961395341279201</v>
       </c>
       <c r="M24" s="5">
-        <v>-7.3724435740205934</v>
+        <v>-7.1810646766028441</v>
       </c>
       <c r="N24" s="5">
-        <v>-10.533864523611868</v>
+        <v>-9.9458575701712899</v>
       </c>
       <c r="O24" s="5">
-        <v>19.892908432260793</v>
+        <v>20.14062059815722</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2613,7 +2608,7 @@
         <v>1330.8014874594508</v>
       </c>
       <c r="T24" s="5">
-        <v>1132.879638671875</v>
+        <v>1135.2203369140625</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2624,7 +2619,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="5">
-        <v>1573541376</v>
+        <v>1575766144</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2633,34 +2628,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1892656.25</v>
+        <v>1963484.25</v>
       </c>
       <c r="G25" s="5">
-        <v>6.7954912185668954</v>
+        <v>6.8506498336791992</v>
       </c>
       <c r="H25" s="5">
-        <v>0.19595678528445701</v>
+        <v>0.44220984456548901</v>
       </c>
       <c r="I25" s="5">
-        <v>-1.982919775203229</v>
+        <v>-0.80599124341375106</v>
       </c>
       <c r="J25" s="5">
-        <v>-0.175470886945917</v>
+        <v>0.26596300808317003</v>
       </c>
       <c r="K25" s="5">
-        <v>-4.200890369539934</v>
+        <v>-6.0985498111524086</v>
       </c>
       <c r="L25" s="5">
-        <v>10.144787393047118</v>
+        <v>11.743820306733044</v>
       </c>
       <c r="M25" s="5">
-        <v>1.402898230528016</v>
+        <v>1.8513118291781481</v>
       </c>
       <c r="N25" s="5">
-        <v>-31.756370131227762</v>
+        <v>-32.607511331430892</v>
       </c>
       <c r="O25" s="5">
-        <v>25.661260424679821</v>
+        <v>26.216946889082848</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2675,7 +2670,7 @@
         <v>3.313469849078821</v>
       </c>
       <c r="T25" s="5">
-        <v>2.0605697631835942</v>
+        <v>2.0696818828582759</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2686,7 +2681,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="5">
-        <v>1547457536</v>
+        <v>1566619264</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2695,34 +2690,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>2811874.75</v>
+        <v>2869044.75</v>
       </c>
       <c r="G26" s="5">
-        <v>7.0192313194274902</v>
+        <v>6.992337703704834</v>
       </c>
       <c r="H26" s="5">
-        <v>0.19595678528445701</v>
+        <v>1.542397337624446</v>
       </c>
       <c r="I26" s="5">
-        <v>-3.211869470407636</v>
+        <v>-0.54357280771656402</v>
       </c>
       <c r="J26" s="5">
-        <v>-2.892849448764367</v>
+        <v>-1.39507134401915</v>
       </c>
       <c r="K26" s="5">
-        <v>-4.6826554146141781</v>
+        <v>-5.7696237783151361</v>
       </c>
       <c r="L26" s="5">
-        <v>13.809806478777853</v>
+        <v>14.873951774898941</v>
       </c>
       <c r="M26" s="5">
-        <v>-3.63429146530666</v>
+        <v>-2.1479493424846119</v>
       </c>
       <c r="N26" s="5">
-        <v>-25.281718134056753</v>
+        <v>-24.491811261937624</v>
       </c>
       <c r="O26" s="5">
-        <v>33.072826612023796</v>
+        <v>35.125338346789235</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2737,7 +2732,7 @@
         <v>2.5316400642105892</v>
       </c>
       <c r="T26" s="5">
-        <v>1.728219866752625</v>
+        <v>1.7548758983612061</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2748,7 +2743,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="5">
-        <v>1470630144</v>
+        <v>1476051328</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>83</v>
@@ -2757,34 +2752,34 @@
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3284570</v>
+        <v>3376220.5</v>
       </c>
       <c r="G27" s="5">
-        <v>11.160236358642578</v>
+        <v>10.933055877685547</v>
       </c>
       <c r="H27" s="5">
-        <v>1.2277936132368381</v>
+        <v>1.9320592706249862</v>
       </c>
       <c r="I27" s="5">
-        <v>-1.244978776162742</v>
+        <v>0.142750444633366</v>
       </c>
       <c r="J27" s="5">
-        <v>4.798167527536279</v>
+        <v>6.8229302386971344</v>
       </c>
       <c r="K27" s="5">
-        <v>-15.707495473074939</v>
+        <v>-15.690265249662815</v>
       </c>
       <c r="L27" s="5">
-        <v>4.2596220530884521</v>
+        <v>8.6509129052044997</v>
       </c>
       <c r="M27" s="5">
-        <v>-15.613439529353013</v>
+        <v>-13.983041164618326</v>
       </c>
       <c r="N27" s="5">
-        <v>-26.160916588910521</v>
+        <v>-23.54186192483979</v>
       </c>
       <c r="O27" s="5">
-        <v>78.683364284458122</v>
+        <v>82.13563278918059</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>42</v>
@@ -2796,10 +2791,10 @@
         <v>85</v>
       </c>
       <c r="S27" s="5">
-        <v>0.312691136752548</v>
+        <v>0.302389078498293</v>
       </c>
       <c r="T27" s="5">
-        <v>0.20949302613735202</v>
+        <v>0.21354053914547003</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2810,118 +2805,118 @@
         <v>109</v>
       </c>
       <c r="C28" s="5">
-        <v>1387996288</v>
+        <v>1393074560</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>3382491.75</v>
+        <v>5854573.5</v>
       </c>
       <c r="G28" s="5">
-        <v>4.6560845375061044</v>
+        <v>4.6049189567565918</v>
       </c>
       <c r="H28" s="5">
-        <v>-0.69795599559812105</v>
+        <v>-0.41688338446929102</v>
       </c>
       <c r="I28" s="5">
-        <v>-4.606178617823165</v>
+        <v>2.2471913552308602</v>
       </c>
       <c r="J28" s="5">
-        <v>7.4473720124102E-2</v>
+        <v>6.3489371097154024</v>
       </c>
       <c r="K28" s="5">
-        <v>-3.0523210377010002</v>
+        <v>-2.347943147222376</v>
       </c>
       <c r="L28" s="5">
-        <v>1.1444475731081649</v>
+        <v>13.938715748653818</v>
       </c>
       <c r="M28" s="5">
-        <v>-5.6015405683984998</v>
+        <v>3.282818703168267</v>
       </c>
       <c r="N28" s="5">
-        <v>-18.191823341198944</v>
+        <v>-9.0105835544465158</v>
       </c>
       <c r="O28" s="5">
-        <v>15.844722091829988</v>
+        <v>65.374257660746338</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="4"/>
+      <c r="Q28" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="R28" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S28" s="5">
-        <v>1265.7825776224886</v>
+        <v>23.389999389648438</v>
       </c>
       <c r="T28" s="5">
-        <v>989.30682373046875</v>
+        <v>19.110000610351563</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A29" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" s="5">
-        <v>1370570496</v>
+        <v>1391739136</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>5982030</v>
+        <v>3431956.25</v>
       </c>
       <c r="G29" s="5">
-        <v>4.585721492767334</v>
+        <v>4.6596064567565918</v>
       </c>
       <c r="H29" s="5">
-        <v>1.6419564993160221</v>
+        <v>0.32954159189904103</v>
       </c>
       <c r="I29" s="5">
-        <v>2.1831726965998439</v>
+        <v>-3.0417963795476228</v>
       </c>
       <c r="J29" s="5">
-        <v>6.7941441522724189</v>
+        <v>0.40426073390598105</v>
       </c>
       <c r="K29" s="5">
-        <v>-0.22672662994164303</v>
+        <v>-4.7253636092593698</v>
       </c>
       <c r="L29" s="5">
-        <v>13.55642766599372</v>
+        <v>1.87807158586546</v>
       </c>
       <c r="M29" s="5">
-        <v>3.715190097856969</v>
+        <v>-5.290458382459418</v>
       </c>
       <c r="N29" s="5">
-        <v>-8.0453037248047643</v>
+        <v>-17.736174820467156</v>
       </c>
       <c r="O29" s="5">
-        <v>66.066561563062209</v>
+        <v>16.226478633142417</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="Q29" s="4"/>
       <c r="R29" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S29" s="5">
-        <v>23.389999389648438</v>
+        <v>1264.3405332700372</v>
       </c>
       <c r="T29" s="5">
-        <v>19.190000534057617</v>
+        <v>992.5670166015625</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2932,7 +2927,7 @@
         <v>114</v>
       </c>
       <c r="C30" s="5">
-        <v>1302631808</v>
+        <v>1297442048</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>23</v>
@@ -2941,34 +2936,34 @@
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>10564832</v>
+        <v>10881206</v>
       </c>
       <c r="G30" s="5">
-        <v>12.800000190734863</v>
+        <v>13.663536071777344</v>
       </c>
       <c r="H30" s="5">
-        <v>-0.39840788824669904</v>
+        <v>-3.1200002019841522</v>
       </c>
       <c r="I30" s="5">
-        <v>-0.87232085386298508</v>
+        <v>-3.1974467538950608</v>
       </c>
       <c r="J30" s="5">
-        <v>-4.1411040140546973</v>
+        <v>-7.1319012024846806</v>
       </c>
       <c r="K30" s="5">
-        <v>-7.9081630681465684</v>
+        <v>-11.541266454052423</v>
       </c>
       <c r="L30" s="5">
-        <v>24.490167497364101</v>
+        <v>22.314379630435766</v>
       </c>
       <c r="M30" s="5">
-        <v>2.3486897232848141</v>
+        <v>-0.84458938383227311</v>
       </c>
       <c r="N30" s="5">
-        <v>-8.6708484053979795</v>
+        <v>-10.928875849666053</v>
       </c>
       <c r="O30" s="5">
-        <v>21.239870816342489</v>
+        <v>17.45718548522639</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
@@ -2983,7 +2978,7 @@
         <v>15.390000343322754</v>
       </c>
       <c r="T30" s="5">
-        <v>12.5</v>
+        <v>11.710000038146973</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2994,7 +2989,7 @@
         <v>116</v>
       </c>
       <c r="C31" s="5">
-        <v>1294441984</v>
+        <v>1295242880</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>45</v>
@@ -3003,34 +2998,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>3188250</v>
+        <v>3185278.75</v>
       </c>
       <c r="G31" s="5">
-        <v>3.8439795970916748</v>
+        <v>3.8548753261566162</v>
       </c>
       <c r="H31" s="5">
-        <v>-0.36038422964275202</v>
+        <v>0.12164232893505701</v>
       </c>
       <c r="I31" s="5">
-        <v>-5.887099514117522</v>
+        <v>-4.3747086045475942</v>
       </c>
       <c r="J31" s="5">
-        <v>-6.6338179207936285</v>
+        <v>-6.5202451224747549</v>
       </c>
       <c r="K31" s="5">
-        <v>-12.861191072544308</v>
+        <v>-13.787282924489563</v>
       </c>
       <c r="L31" s="5">
-        <v>-1.916307757822677</v>
+        <v>-2.184567444505559</v>
       </c>
       <c r="M31" s="5">
-        <v>-14.789681852456226</v>
+        <v>-14.686030036968599</v>
       </c>
       <c r="N31" s="5">
-        <v>-8.8778877257979403</v>
+        <v>-8.5295772018200715</v>
       </c>
       <c r="O31" s="5">
-        <v>26.049086561401658</v>
+        <v>26.202415605896292</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3043,7 +3038,7 @@
         <v>1627.7828606282403</v>
       </c>
       <c r="T31" s="5">
-        <v>1322.8145751953125</v>
+        <v>1324.4237060546875</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3054,7 +3049,7 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1292963968</v>
+        <v>1288229632</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>45</v>
@@ -3063,34 +3058,34 @@
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>2666859.25</v>
+        <v>2682533.5</v>
       </c>
       <c r="G32" s="5">
-        <v>4.0618953704833984</v>
+        <v>4.0909090042114258</v>
       </c>
       <c r="H32" s="5">
-        <v>-0.535466232398918</v>
+        <v>-0.30666144327024003</v>
       </c>
       <c r="I32" s="5">
-        <v>-4.6515758737678103</v>
+        <v>-3.1987774069900392</v>
       </c>
       <c r="J32" s="5">
-        <v>-0.84302249081872305</v>
+        <v>-1.147098709151517</v>
       </c>
       <c r="K32" s="5">
-        <v>2.1008978865363348</v>
+        <v>-0.80571446127601909</v>
       </c>
       <c r="L32" s="5">
-        <v>15.817051491470501</v>
+        <v>15.391666467641297</v>
       </c>
       <c r="M32" s="5">
-        <v>0.16172993509304701</v>
+        <v>-0.14542747153034602</v>
       </c>
       <c r="N32" s="5">
-        <v>0.65898560797579309</v>
+        <v>1.278435556500201</v>
       </c>
       <c r="O32" s="5">
-        <v>51.405058855020869</v>
+        <v>50.940757916351906</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
@@ -3103,7 +3098,7 @@
         <v>1220.179304057134</v>
       </c>
       <c r="T32" s="5">
-        <v>1159.799560546875</v>
+        <v>1156.242919921875</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3114,7 +3109,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1213064832</v>
+        <v>1237932160</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3123,34 +3118,34 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1400183.25</v>
+        <v>1038646.125</v>
       </c>
       <c r="G33" s="5">
-        <v>6.4913601875305176</v>
+        <v>6.3939485549926758</v>
       </c>
       <c r="H33" s="5">
-        <v>0.27240407303976705</v>
+        <v>2.030454886909117</v>
       </c>
       <c r="I33" s="5">
-        <v>-0.71803486224535407</v>
+        <v>1.300855894231034</v>
       </c>
       <c r="J33" s="5">
-        <v>-0.23542831388819702</v>
+        <v>1.7906765128900441</v>
       </c>
       <c r="K33" s="5">
-        <v>-13.908824539721298</v>
+        <v>-8.2836806232291842</v>
       </c>
       <c r="L33" s="5">
-        <v>26.759446078774296</v>
+        <v>29.333785077099293</v>
       </c>
       <c r="M33" s="5">
-        <v>1.6788981523988782</v>
+        <v>3.743879052449905</v>
       </c>
       <c r="N33" s="5">
-        <v>-35.907519100810781</v>
+        <v>-33.595951010111811</v>
       </c>
       <c r="O33" s="5">
-        <v>-39.136503892869754</v>
+        <v>-37.900434050795305</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>42</v>
@@ -3165,7 +3160,7 @@
         <v>0.41317044677711001</v>
       </c>
       <c r="T33" s="5">
-        <v>0.25095540285110501</v>
+        <v>0.25605094432830799</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3176,7 +3171,7 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1106278912</v>
+        <v>1102028672</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>23</v>
@@ -3185,34 +3180,34 @@
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>14059016</v>
+        <v>13201941</v>
       </c>
       <c r="G34" s="5">
-        <v>7.2727274894714364</v>
+        <v>7.4618430137634277</v>
       </c>
       <c r="H34" s="5">
-        <v>-0.38419153382136501</v>
+        <v>-2.5344302707478779</v>
       </c>
       <c r="I34" s="5">
-        <v>0.110316926031384</v>
+        <v>-4.1192422626260772</v>
       </c>
       <c r="J34" s="5">
-        <v>-8.2870198136793185</v>
+        <v>-10.611421345726434</v>
       </c>
       <c r="K34" s="5">
-        <v>-32.14369909704412</v>
+        <v>-35.247280808255695</v>
       </c>
       <c r="L34" s="5">
-        <v>-26.345346138660418</v>
+        <v>-27.783913021033136</v>
       </c>
       <c r="M34" s="5">
-        <v>-30.50490608059533</v>
+        <v>-32.266210777573392</v>
       </c>
       <c r="N34" s="5">
-        <v>-46.154077284450267</v>
+        <v>-47.533597000722175</v>
       </c>
       <c r="O34" s="5">
-        <v>-31.3749724243674</v>
+        <v>-33.114225896553314</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
@@ -3227,7 +3222,7 @@
         <v>38.110000610351563</v>
       </c>
       <c r="T34" s="5">
-        <v>18.149999618530273</v>
+        <v>17.690000534057617</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3238,7 +3233,7 @@
         <v>128</v>
       </c>
       <c r="C35" s="5">
-        <v>1069257216</v>
+        <v>1067882496</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>45</v>
@@ -3247,34 +3242,34 @@
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>3159867.25</v>
+        <v>3124882</v>
       </c>
       <c r="G35" s="5">
-        <v>5.0425195693969727</v>
+        <v>5.0664558410644531</v>
       </c>
       <c r="H35" s="5">
-        <v>0.13526143837516702</v>
+        <v>-6.8922548174322001E-2</v>
       </c>
       <c r="I35" s="5">
-        <v>-4.5830612492584795</v>
+        <v>-3.3369867834437179</v>
       </c>
       <c r="J35" s="5">
-        <v>-1.418204456701966</v>
+        <v>-1.486149542226411</v>
       </c>
       <c r="K35" s="5">
-        <v>-7.3472712386463357</v>
+        <v>-8.4974535554630961</v>
       </c>
       <c r="L35" s="5">
-        <v>-3.020313400896546</v>
+        <v>-1.764716591539794</v>
       </c>
       <c r="M35" s="5">
-        <v>-10.491450270815806</v>
+        <v>-10.553141844123036</v>
       </c>
       <c r="N35" s="5">
-        <v>-16.314360099148406</v>
+        <v>-15.876256723861815</v>
       </c>
       <c r="O35" s="5">
-        <v>8.1885472836467308</v>
+        <v>8.1139809800260476</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
@@ -3287,7 +3282,7 @@
         <v>2987.0638965111721</v>
       </c>
       <c r="T35" s="5">
-        <v>2374.186767578125</v>
+        <v>2372.550537109375</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3298,7 +3293,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>1066082496</v>
+        <v>1059899712</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3307,34 +3302,34 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>5354196</v>
+        <v>5268578.5</v>
       </c>
       <c r="G36" s="5">
-        <v>6.3333330154418954</v>
+        <v>6.4080944061279297</v>
       </c>
       <c r="H36" s="5">
-        <v>-0.57994777625582905</v>
+        <v>-1.166669527689612</v>
       </c>
       <c r="I36" s="5">
-        <v>2.651842863509613</v>
+        <v>0.8503352538192791</v>
       </c>
       <c r="J36" s="5">
-        <v>2.176090676291409</v>
+        <v>0.98403336178660705</v>
       </c>
       <c r="K36" s="5">
-        <v>2.9521024327810119</v>
+        <v>-1.571486315068316</v>
       </c>
       <c r="L36" s="5">
-        <v>16.88560615638368</v>
+        <v>15.740104174470781</v>
       </c>
       <c r="M36" s="5">
-        <v>6.08543279921816</v>
+        <v>4.8477663814320282</v>
       </c>
       <c r="N36" s="5">
-        <v>-9.6206843449260226</v>
+        <v>-11.052010863917161</v>
       </c>
       <c r="O36" s="5">
-        <v>20.428861055438151</v>
+        <v>19.023854230960691</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
@@ -3349,7 +3344,7 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T36" s="5">
-        <v>12</v>
+        <v>11.859999656677246</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3360,7 +3355,7 @@
         <v>132</v>
       </c>
       <c r="C37" s="5">
-        <v>1025278400</v>
+        <v>1020426944</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3369,34 +3364,34 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>12714716</v>
+        <v>11814817</v>
       </c>
       <c r="G37" s="5">
-        <v>2.2187004089355469</v>
+        <v>2.291325569152832</v>
       </c>
       <c r="H37" s="5">
-        <v>-0.47318941776529605</v>
+        <v>-3.1695691137682891</v>
       </c>
       <c r="I37" s="5">
-        <v>-2.623457959777165</v>
+        <v>-5.1242223722663187</v>
       </c>
       <c r="J37" s="5">
-        <v>-17.186516795429995</v>
+        <v>-19.811347381117727</v>
       </c>
       <c r="K37" s="5">
-        <v>-11.895652136860313</v>
+        <v>-18.426950684384547</v>
       </c>
       <c r="L37" s="5">
-        <v>-2.2031187920955042</v>
+        <v>-5.7365940242898761</v>
       </c>
       <c r="M37" s="5">
-        <v>-5.8825985250491994</v>
+        <v>-8.865714612880538</v>
       </c>
       <c r="N37" s="5">
-        <v>-27.551648559089603</v>
+        <v>-29.847949129794994</v>
       </c>
       <c r="O37" s="5">
-        <v>-31.075051827718113</v>
+        <v>-33.259675696667557</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
@@ -3411,7 +3406,7 @@
         <v>9.1800003051757813</v>
       </c>
       <c r="T37" s="5">
-        <v>6.309999942779541</v>
+        <v>6.1100001335144043</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3422,7 +3417,7 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>852535168</v>
+        <v>860240896</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>35</v>
@@ -3431,34 +3426,34 @@
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1571384.875</v>
+        <v>1611109.375</v>
       </c>
       <c r="G38" s="5">
-        <v>6.3446969985961914</v>
+        <v>6.3207550048828134</v>
       </c>
       <c r="H38" s="5">
-        <v>3.0059677685197128</v>
+        <v>0.98547398024557709</v>
       </c>
       <c r="I38" s="5">
-        <v>2.6238524334324609</v>
+        <v>5.4289652498506591</v>
       </c>
       <c r="J38" s="5">
-        <v>4.880232978301513</v>
+        <v>5.913800384723622</v>
       </c>
       <c r="K38" s="5">
-        <v>-6.3180873270144762</v>
+        <v>-7.9581312718749579</v>
       </c>
       <c r="L38" s="5">
-        <v>10.546095620524486</v>
+        <v>11.211318530939129</v>
       </c>
       <c r="M38" s="5">
-        <v>-5.8185437426015119</v>
+        <v>-4.8904099969684705</v>
       </c>
       <c r="N38" s="5">
-        <v>-41.33467481331077</v>
+        <v>-39.964047513436029</v>
       </c>
       <c r="O38" s="5">
-        <v>-13.514471167497399</v>
+        <v>-12.662178784175303</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>30</v>
@@ -3473,7 +3468,7 @@
         <v>1.243469103672894</v>
       </c>
       <c r="T38" s="5">
-        <v>0.65519517660141002</v>
+        <v>0.6616519689559941</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3484,7 +3479,7 @@
         <v>137</v>
       </c>
       <c r="C39" s="5">
-        <v>828293504</v>
+        <v>840176128</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>29</v>
@@ -3493,34 +3488,34 @@
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>2012587.625</v>
+        <v>2090355.875</v>
       </c>
       <c r="G39" s="5">
-        <v>7.2435898780822754</v>
+        <v>7.186009407043457</v>
       </c>
       <c r="H39" s="5">
-        <v>2.5030983557379649</v>
+        <v>1.739303567167227</v>
       </c>
       <c r="I39" s="5">
-        <v>-0.38968174607858502</v>
+        <v>1.451516700986399</v>
       </c>
       <c r="J39" s="5">
-        <v>-5.3159974112582331</v>
+        <v>-3.6691551766955488</v>
       </c>
       <c r="K39" s="5">
-        <v>-16.937010926270226</v>
+        <v>-18.505394939035003</v>
       </c>
       <c r="L39" s="5">
-        <v>11.418491846822509</v>
+        <v>15.256511405353645</v>
       </c>
       <c r="M39" s="5">
-        <v>-11.098121294813822</v>
+        <v>-9.5518477472158363</v>
       </c>
       <c r="N39" s="5">
-        <v>-47.063110109423725</v>
+        <v>-46.175756788153336</v>
       </c>
       <c r="O39" s="5">
-        <v>16.821948887658024</v>
+        <v>18.853837211895332</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>30</v>
@@ -3535,7 +3530,7 @@
         <v>2.096480441422877</v>
       </c>
       <c r="T39" s="5">
-        <v>1.0336084365844731</v>
+        <v>1.0515860319137571</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3546,7 +3541,7 @@
         <v>140</v>
       </c>
       <c r="C40" s="5">
-        <v>820266048</v>
+        <v>817986496</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>141</v>
@@ -3555,7 +3550,7 @@
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>1264394.25</v>
+        <v>1260880.375</v>
       </c>
       <c r="G40" s="5">
         <v>5.161290168762207</v>
@@ -3576,7 +3571,7 @@
         <v>-15.846185389173261</v>
       </c>
       <c r="M40" s="5">
-        <v>-14.708005094376087</v>
+        <v>-14.800951536421191</v>
       </c>
       <c r="N40" s="5">
         <v>-34.190255784563796</v>
@@ -3608,7 +3603,7 @@
         <v>145</v>
       </c>
       <c r="C41" s="5">
-        <v>799744768</v>
+        <v>796734528</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>45</v>
@@ -3617,34 +3612,34 @@
         <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>2322285.25</v>
+        <v>2350818</v>
       </c>
       <c r="G41" s="5">
-        <v>5.442446231842041</v>
+        <v>5.4818840026855469</v>
       </c>
       <c r="H41" s="5">
-        <v>-0.20192482768204301</v>
+        <v>-0.31690741845592502</v>
       </c>
       <c r="I41" s="5">
-        <v>-2.9738628630003761</v>
+        <v>-2.2102346031578461</v>
       </c>
       <c r="J41" s="5">
-        <v>2.039927802951214</v>
+        <v>1.71655570195659</v>
       </c>
       <c r="K41" s="5">
-        <v>4.8300385074650842</v>
+        <v>2.0919902769416909</v>
       </c>
       <c r="L41" s="5">
-        <v>11.264460737364757</v>
+        <v>13.178089122714232</v>
       </c>
       <c r="M41" s="5">
-        <v>1.4055580880742551</v>
+        <v>1.084196351766509</v>
       </c>
       <c r="N41" s="5">
-        <v>-10.72953691193732</v>
+        <v>-9.7385967386437784</v>
       </c>
       <c r="O41" s="5">
-        <v>37.84577298438996</v>
+        <v>37.408929503774502</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>25</v>
@@ -3654,10 +3649,10 @@
         <v>47</v>
       </c>
       <c r="S41" s="5">
-        <v>491.54292067021362</v>
+        <v>487.38033072236726</v>
       </c>
       <c r="T41" s="5">
-        <v>415.76309204101562</v>
+        <v>414.44552612304687</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3668,7 +3663,7 @@
         <v>147</v>
       </c>
       <c r="C42" s="5">
-        <v>783821504</v>
+        <v>776407360</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>148</v>
@@ -3677,784 +3672,784 @@
         <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>1356871.125</v>
+        <v>1516207.375</v>
       </c>
       <c r="G42" s="5">
-        <v>0.98708713054657005</v>
+        <v>5.417607307434082</v>
       </c>
       <c r="H42" s="5">
-        <v>-0.19478399143969502</v>
+        <v>2.5724868879895002</v>
       </c>
       <c r="I42" s="5">
-        <v>0.50962124736675407</v>
+        <v>4.997264200430851</v>
       </c>
       <c r="J42" s="5">
-        <v>4.6237107669444333</v>
+        <v>8.2925390762988762</v>
       </c>
       <c r="K42" s="5">
-        <v>4.0529302348089713</v>
+        <v>1.824477097108046</v>
       </c>
       <c r="L42" s="5">
-        <v>6.9074189734072533</v>
+        <v>42.482565562164609</v>
       </c>
       <c r="M42" s="5">
-        <v>4.6467436086403469</v>
+        <v>4.7878834561805084</v>
       </c>
       <c r="N42" s="5">
-        <v>5.2687528570882991</v>
+        <v>-22.355647490929755</v>
       </c>
       <c r="O42" s="5">
-        <v>21.67298826056825</v>
+        <v>25.651572949772294</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="S42" s="5">
-        <v>0.72089303474705002</v>
+        <v>1.5543399132000002</v>
       </c>
       <c r="T42" s="5">
-        <v>0.69364726543426503</v>
+        <v>1.1060823202133181</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A43" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" s="5">
-        <v>757547520</v>
+        <v>743551744</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="5">
-        <v>1550355.5</v>
+        <v>1638551.125</v>
       </c>
       <c r="G43" s="5">
-        <v>5.523590087890625</v>
+        <v>4.0730338096618652</v>
       </c>
       <c r="H43" s="5">
-        <v>-7.0223345775511009E-2</v>
+        <v>-8.5717835806987011E-2</v>
       </c>
       <c r="I43" s="5">
-        <v>2.1405894424054268</v>
+        <v>-2.7985426718222461</v>
       </c>
       <c r="J43" s="5">
-        <v>5.576595012808605</v>
+        <v>1.0218636939915089</v>
       </c>
       <c r="K43" s="5">
-        <v>1.393133145355852</v>
+        <v>-5.387604569312721</v>
       </c>
       <c r="L43" s="5">
-        <v>37.868044006151472</v>
+        <v>6.3129770018998332</v>
       </c>
       <c r="M43" s="5">
-        <v>2.1598350936058002</v>
+        <v>-8.1513108739278746</v>
       </c>
       <c r="N43" s="5">
-        <v>-25.740987605985822</v>
+        <v>-7.0327876644391214</v>
       </c>
       <c r="O43" s="5">
-        <v>22.500269577148345</v>
+        <v>17.98731502872446</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q43" s="4"/>
       <c r="R43" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S43" s="5">
-        <v>1.5543399132000002</v>
+        <v>1200.2531845873882</v>
       </c>
       <c r="T43" s="5">
-        <v>1.078342080116272</v>
+        <v>1069.1492919921875</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="5">
+        <v>740349568</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="E44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1701501</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5">
+        <v>-0.61420479326326205</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1.535179343950666</v>
+      </c>
+      <c r="J44" s="5">
+        <v>-21.503305275998663</v>
+      </c>
+      <c r="K44" s="5">
+        <v>-22.86501369344829</v>
+      </c>
+      <c r="L44" s="5">
+        <v>48.486273244289578</v>
+      </c>
+      <c r="M44" s="5">
+        <v>-28.557353373105098</v>
+      </c>
+      <c r="N44" s="5">
+        <v>56.041051704463499</v>
+      </c>
+      <c r="O44" s="5">
+        <v>116.30849903486489</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C44" s="5">
-        <v>744634176</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1640741.25</v>
-      </c>
-      <c r="G44" s="5">
-        <v>4.0531096458435059</v>
-      </c>
-      <c r="H44" s="5">
-        <v>-0.43987475984895702</v>
-      </c>
-      <c r="I44" s="5">
-        <v>-2.8004393192548989</v>
-      </c>
-      <c r="J44" s="5">
-        <v>1.108531739214591</v>
-      </c>
-      <c r="K44" s="5">
-        <v>-3.8826304569699488</v>
-      </c>
-      <c r="L44" s="5">
-        <v>5.5450232061226901</v>
-      </c>
-      <c r="M44" s="5">
-        <v>-8.0725126212350613</v>
-      </c>
-      <c r="N44" s="5">
-        <v>-7.4934720172445619</v>
-      </c>
-      <c r="O44" s="5">
-        <v>18.088537967806584</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="S44" s="5">
-        <v>1204.6374970221552</v>
+        <v>1.13709763756269</v>
       </c>
       <c r="T44" s="5">
-        <v>1070.0665283203125</v>
+        <v>0.73680937290191706</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A45" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C45" s="5">
-        <v>741972736</v>
+        <v>637802496</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1765437.5</v>
-      </c>
-      <c r="G45" s="5"/>
+        <v>6451670.5</v>
+      </c>
+      <c r="G45" s="5">
+        <v>8.1081085205078125</v>
+      </c>
       <c r="H45" s="5">
-        <v>-0.25458970494405303</v>
+        <v>0.37963600693844402</v>
       </c>
       <c r="I45" s="5">
-        <v>1.208673509059111</v>
+        <v>-9.9799647367760008E-2</v>
       </c>
       <c r="J45" s="5">
-        <v>-21.018195245390014</v>
+        <v>-9.0260673474712227</v>
       </c>
       <c r="K45" s="5">
-        <v>-16.826523093980093</v>
+        <v>-22.032020748947033</v>
       </c>
       <c r="L45" s="5">
-        <v>46.569817497898569</v>
+        <v>-13.58342376536552</v>
       </c>
       <c r="M45" s="5">
-        <v>-28.115837400823796</v>
+        <v>-15.831584795252896</v>
       </c>
       <c r="N45" s="5">
-        <v>57.125078605354453</v>
+        <v>-43.404988435173578</v>
       </c>
       <c r="O45" s="5">
-        <v>117.64528681881762</v>
+        <v>5.8516007192029207</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q45" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="R45" s="4" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="S45" s="5">
-        <v>1.13709763756269</v>
+        <v>11.008880893576956</v>
       </c>
       <c r="T45" s="5">
-        <v>0.74136286973953203</v>
+        <v>5.5084114074707031</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A46" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="5">
+        <v>600709568</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1913356.625</v>
+      </c>
+      <c r="G46" s="5">
+        <v>4.2923078536987305</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.91490265904545809</v>
+      </c>
+      <c r="I46" s="5">
+        <v>-5.0555441839328003E-2</v>
+      </c>
+      <c r="J46" s="5">
+        <v>40.764095935496329</v>
+      </c>
+      <c r="K46" s="5">
+        <v>27.104907065406959</v>
+      </c>
+      <c r="L46" s="5">
+        <v>50.617410122206508</v>
+      </c>
+      <c r="M46" s="5">
+        <v>31.927100121664864</v>
+      </c>
+      <c r="N46" s="5">
+        <v>-17.774855080144025</v>
+      </c>
+      <c r="O46" s="5">
+        <v>87.422123095993243</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="5">
-        <v>637107584</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="5">
-        <v>6808630.5</v>
-      </c>
-      <c r="G46" s="5">
-        <v>8.1081085205078125</v>
-      </c>
-      <c r="H46" s="5">
-        <v>4.1073800297942005E-2</v>
-      </c>
-      <c r="I46" s="5">
-        <v>-1.9377752771089001</v>
-      </c>
-      <c r="J46" s="5">
-        <v>-9.3701309633754111</v>
-      </c>
-      <c r="K46" s="5">
-        <v>-21.452477374553101</v>
-      </c>
-      <c r="L46" s="5">
-        <v>-12.821021005506971</v>
-      </c>
-      <c r="M46" s="5">
-        <v>-16.149909929012686</v>
-      </c>
-      <c r="N46" s="5">
-        <v>-43.520678297902769</v>
-      </c>
-      <c r="O46" s="5">
-        <v>5.4512697295358237</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="R46" s="4" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="S46" s="5">
-        <v>11.008880893576956</v>
+        <v>2.6126000999999999</v>
       </c>
       <c r="T46" s="5">
-        <v>5.4875788688659668</v>
+        <v>2.0286498069763179</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="5">
+        <v>558984256</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3818593.5</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5">
+        <v>9.8253056991230316</v>
+      </c>
+      <c r="I47" s="5">
+        <v>-0.98452903330404906</v>
+      </c>
+      <c r="J47" s="5">
+        <v>53.196676188202964</v>
+      </c>
+      <c r="K47" s="5">
+        <v>130.90932835866846</v>
+      </c>
+      <c r="L47" s="5">
+        <v>137.26946026945046</v>
+      </c>
+      <c r="M47" s="5">
+        <v>80.941697630952973</v>
+      </c>
+      <c r="N47" s="5">
+        <v>178.82192909041584</v>
+      </c>
+      <c r="O47" s="5">
+        <v>171.79170102785903</v>
+      </c>
+      <c r="P47" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="5">
-        <v>597583616</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1716969.25</v>
-      </c>
-      <c r="G47" s="5">
-        <v>4.3055553436279297</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0.27475335189606204</v>
-      </c>
-      <c r="I47" s="5">
-        <v>-0.98592516058981805</v>
-      </c>
-      <c r="J47" s="5">
-        <v>39.487917271333764</v>
-      </c>
-      <c r="K47" s="5">
-        <v>30.98481527343435</v>
-      </c>
-      <c r="L47" s="5">
-        <v>43.8989533257202</v>
-      </c>
-      <c r="M47" s="5">
-        <v>30.731038375370858</v>
-      </c>
-      <c r="N47" s="5">
-        <v>-18.64142127929227</v>
-      </c>
-      <c r="O47" s="5">
-        <v>85.722938988728032</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="Q47" s="4"/>
       <c r="R47" s="4" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="S47" s="5">
-        <v>2.6187999199999998</v>
+        <v>2.9003802040762392</v>
       </c>
       <c r="T47" s="5">
-        <v>2.0102579593658452</v>
+        <v>1.851602435112</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="C48" s="5">
-        <v>576629952</v>
+        <v>503255520</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="5">
-        <v>3848575.5</v>
-      </c>
-      <c r="G48" s="5"/>
+        <v>3601580.25</v>
+      </c>
+      <c r="G48" s="5">
+        <v>9.7165994644165039</v>
+      </c>
       <c r="H48" s="5">
-        <v>-3.0949491653603278</v>
+        <v>-0.88282228202629709</v>
       </c>
       <c r="I48" s="5">
-        <v>-18.983235763441364</v>
+        <v>0.32493875296124602</v>
       </c>
       <c r="J48" s="5">
-        <v>39.491235843130703</v>
+        <v>-0.30100059196193102</v>
       </c>
       <c r="K48" s="5">
-        <v>121.42097609275986</v>
+        <v>-24.475412646923999</v>
       </c>
       <c r="L48" s="5">
-        <v>115.19168953573953</v>
+        <v>-16.382241717234759</v>
       </c>
       <c r="M48" s="5">
-        <v>64.754103327205968</v>
+        <v>-31.864576394786106</v>
       </c>
       <c r="N48" s="5">
-        <v>152.4202576159343</v>
+        <v>-39.467929381835852</v>
       </c>
       <c r="O48" s="5">
-        <v>147.47638925081486</v>
+        <v>5.1019503805121769</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q48" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="R48" s="4" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5">
-        <v>2.9003802040762392</v>
+        <v>23.379999160766602</v>
       </c>
       <c r="T48" s="5">
-        <v>1.6859525442123411</v>
+        <v>12.350000381469727</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A49" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C49" s="5">
-        <v>502447712</v>
+        <v>486207776</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="5">
-        <v>3801877.75</v>
-      </c>
-      <c r="G49" s="5">
-        <v>9.6308183670043945</v>
-      </c>
+        <v>2027299.375</v>
+      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="5">
-        <v>0.160775389375512</v>
+        <v>-0.89357298260756002</v>
       </c>
       <c r="I49" s="5">
-        <v>0.89068545165629209</v>
+        <v>3.6158012879323742</v>
       </c>
       <c r="J49" s="5">
-        <v>0.58700389121235708</v>
+        <v>-8.4129675412039528</v>
       </c>
       <c r="K49" s="5">
-        <v>-24.12097637104571</v>
+        <v>-13.723153200401782</v>
       </c>
       <c r="L49" s="5">
-        <v>-15.801495990773596</v>
+        <v>33.882032447265665</v>
       </c>
       <c r="M49" s="5">
-        <v>-31.257704089310078</v>
+        <v>-39.025846892448676</v>
       </c>
       <c r="N49" s="5">
-        <v>-39.203622676207139</v>
+        <v>93.57239874811178</v>
       </c>
       <c r="O49" s="5">
-        <v>6.0380781619583823</v>
+        <v>274.1323934675338</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="S49" s="5">
-        <v>23.379999160766602</v>
+        <v>1.152422315694851</v>
       </c>
       <c r="T49" s="5">
-        <v>12.460000038146973</v>
+        <v>0.667943835258484</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="C50" s="5">
-        <v>490365248</v>
+        <v>477868736</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="5">
-        <v>2032165.125</v>
-      </c>
-      <c r="G50" s="5"/>
+        <v>1473072.75</v>
+      </c>
+      <c r="G50" s="5">
+        <v>8.0464906692504883</v>
+      </c>
       <c r="H50" s="5">
-        <v>3.0558573369281472</v>
+        <v>-0.40070458106775703</v>
       </c>
       <c r="I50" s="5">
-        <v>5.3228436201991247</v>
+        <v>0.94765791185604809</v>
       </c>
       <c r="J50" s="5">
-        <v>-7.5871916533493895</v>
+        <v>10.199061304244395</v>
       </c>
       <c r="K50" s="5">
-        <v>-10.674025899635497</v>
+        <v>-3.6223615930567892</v>
       </c>
       <c r="L50" s="5">
-        <v>33.814710637863584</v>
+        <v>8.4636292939543232</v>
       </c>
       <c r="M50" s="5">
-        <v>-38.476085817470931</v>
+        <v>2.7102840568744351</v>
       </c>
       <c r="N50" s="5">
-        <v>107.9596449353028</v>
+        <v>-20.629780743100813</v>
       </c>
       <c r="O50" s="5">
-        <v>277.50568225194553</v>
+        <v>70.51495537663061</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="S50" s="5">
-        <v>1.152422315694851</v>
+        <v>31.969999313354492</v>
       </c>
       <c r="T50" s="5">
-        <v>0.67396622896194502</v>
+        <v>22.370000839233398</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C51" s="5">
-        <v>477868736</v>
+        <v>475523168</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="5">
-        <v>1507376.5</v>
-      </c>
-      <c r="G51" s="5">
-        <v>8.0142478942871094</v>
-      </c>
+        <v>7210413.5</v>
+      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="5">
-        <v>0</v>
+        <v>3.419311923961788</v>
       </c>
       <c r="I51" s="5">
-        <v>0.6723425464857381</v>
+        <v>9.8695218844508723</v>
       </c>
       <c r="J51" s="5">
-        <v>10.642410511768841</v>
+        <v>-12.327357269319183</v>
       </c>
       <c r="K51" s="5">
-        <v>-2.6591303698016429</v>
+        <v>-4.9582067803529144</v>
       </c>
       <c r="L51" s="5">
-        <v>9.872312886425938</v>
+        <v>65.691995990762337</v>
       </c>
       <c r="M51" s="5">
-        <v>3.1235046642215769</v>
+        <v>-9.6600233294814366</v>
       </c>
       <c r="N51" s="5">
-        <v>-19.969351112986299</v>
+        <v>-49.529407075150168</v>
       </c>
       <c r="O51" s="5">
-        <v>71.200965488173935</v>
+        <v>137.10854098924932</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Q51" s="4"/>
       <c r="R51" s="4" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="S51" s="5">
-        <v>31.969999313354492</v>
+        <v>1.1922868853192861</v>
       </c>
       <c r="T51" s="5">
-        <v>22.459999084472656</v>
+        <v>0.51364368200302102</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A52" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C52" s="5">
-        <v>467463584</v>
+        <v>459020704</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="5">
-        <v>1084511</v>
-      </c>
-      <c r="G52" s="5"/>
+        <v>3509339</v>
+      </c>
+      <c r="G52" s="5">
+        <v>5.9343891143798828</v>
+      </c>
       <c r="H52" s="5">
-        <v>2.5445682954075011</v>
+        <v>0.17878499729946401</v>
       </c>
       <c r="I52" s="5">
-        <v>14.728305071043346</v>
+        <v>-3.1450789693671211</v>
       </c>
       <c r="J52" s="5">
-        <v>-1.1170593228264969</v>
+        <v>-1.074387691077572</v>
       </c>
       <c r="K52" s="5">
-        <v>1.033983201412281</v>
+        <v>-9.3315031124743477</v>
       </c>
       <c r="L52" s="5">
-        <v>61.978038120693157</v>
+        <v>-1.235360919201822</v>
       </c>
       <c r="M52" s="5">
-        <v>5.0730749722744486</v>
+        <v>-9.9111802796415844</v>
       </c>
       <c r="N52" s="5">
-        <v>53.084548133749699</v>
+        <v>-27.26559193325442</v>
       </c>
       <c r="O52" s="5">
-        <v>467.99127347053007</v>
+        <v>11.022012426439032</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q52" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="Q52" s="4"/>
       <c r="R52" s="4" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="S52" s="5">
-        <v>10.579760227544591</v>
+        <v>957.57288456980325</v>
       </c>
       <c r="T52" s="5">
-        <v>8.9948568344116211</v>
+        <v>663.7135009765625</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C53" s="5">
-        <v>464971296</v>
+        <v>433440992</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5">
-        <v>7401321</v>
+        <v>1097342.625</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5">
-        <v>2.232636105011343</v>
+        <v>-7.3208864993993714</v>
       </c>
       <c r="I53" s="5">
-        <v>4.6779032092503448</v>
+        <v>-0.62859783146449499</v>
       </c>
       <c r="J53" s="5">
-        <v>-15.226043279864953</v>
+        <v>-8.3561671770707839</v>
       </c>
       <c r="K53" s="5">
-        <v>-3.9382409186271121</v>
+        <v>-4.5335000994274788</v>
       </c>
       <c r="L53" s="5">
-        <v>57.240259775866306</v>
+        <v>46.127638395828939</v>
       </c>
       <c r="M53" s="5">
-        <v>-12.646898350145364</v>
+        <v>-2.619205587874585</v>
       </c>
       <c r="N53" s="5">
-        <v>-55.789619779795274</v>
+        <v>44.983007169992263</v>
       </c>
       <c r="O53" s="5">
-        <v>129.26911480863606</v>
+        <v>426.4092770132595</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q53" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="R53" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S53" s="5">
-        <v>1.1922868853192861</v>
+        <v>10.579760227544591</v>
       </c>
       <c r="T53" s="5">
-        <v>0.49666127562522905</v>
+        <v>8.3363533020019531</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A54" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C54" s="5">
-        <v>458475168</v>
+        <v>404800992</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="5">
-        <v>3612396.25</v>
+        <v>1773815</v>
       </c>
       <c r="G54" s="5">
-        <v>5.9209933280944824</v>
+        <v>5.4298644065856934</v>
       </c>
       <c r="H54" s="5">
-        <v>-0.58347323416164709</v>
+        <v>1.469236385380035</v>
       </c>
       <c r="I54" s="5">
-        <v>-4.4884268954682121</v>
+        <v>5.6405368110534981</v>
       </c>
       <c r="J54" s="5">
-        <v>-1.250936202121844</v>
+        <v>-0.95557117192186503</v>
       </c>
       <c r="K54" s="5">
-        <v>-7.8508799595713663</v>
+        <v>-4.5019109483481419</v>
       </c>
       <c r="L54" s="5">
-        <v>-3.3824804597570872</v>
+        <v>-0.72301364672835411</v>
       </c>
       <c r="M54" s="5">
-        <v>-10.071958126875902</v>
+        <v>-7.2030321039451006E-2</v>
       </c>
       <c r="N54" s="5">
-        <v>-27.716773614669865</v>
+        <v>-27.57378769269485</v>
       </c>
       <c r="O54" s="5">
-        <v>10.823875962791796</v>
+        <v>40.814022915950908</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q54" s="4"/>
+      <c r="Q54" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="R54" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S54" s="5">
-        <v>957.57288456980325</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="T54" s="5">
-        <v>662.52899169921875</v>
+        <v>11.050000190734863</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C55" s="5">
-        <v>405544416</v>
+        <v>382459584</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>23</v>
@@ -4463,34 +4458,34 @@
         <v>24</v>
       </c>
       <c r="F55" s="5">
-        <v>1774825.875</v>
+        <v>4730253</v>
       </c>
       <c r="G55" s="5">
-        <v>5.5096421241760254</v>
+        <v>9.2121210098266602</v>
       </c>
       <c r="H55" s="5">
-        <v>-0.18331351392364401</v>
+        <v>-0.72202667372990303</v>
       </c>
       <c r="I55" s="5">
-        <v>4.2105315032398893</v>
+        <v>-0.9603832465638561</v>
       </c>
       <c r="J55" s="5">
-        <v>-2.3896972557204239</v>
+        <v>1.413641891611483</v>
       </c>
       <c r="K55" s="5">
-        <v>-2.7336967257121758</v>
+        <v>-10.940039339461084</v>
       </c>
       <c r="L55" s="5">
-        <v>-4.0920928127734406</v>
+        <v>-2.1180824008109611</v>
       </c>
       <c r="M55" s="5">
-        <v>-1.5189497441034931</v>
+        <v>-7.7245245826097708</v>
       </c>
       <c r="N55" s="5">
-        <v>-28.30805268253237</v>
+        <v>-16.578049397895345</v>
       </c>
       <c r="O55" s="5">
-        <v>38.775088817205059</v>
+        <v>93.668833367604876</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>25</v>
@@ -4502,604 +4497,542 @@
         <v>0</v>
       </c>
       <c r="S55" s="5">
-        <v>17.930000305175781</v>
+        <v>23.069999694824219</v>
       </c>
       <c r="T55" s="5">
-        <v>10.890000343322754</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A56" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C56" s="5">
-        <v>383380064</v>
+        <v>337634464</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="5">
-        <v>4822412.5</v>
+        <v>5155469.5</v>
       </c>
       <c r="G56" s="5">
-        <v>9.1456069946289062</v>
+        <v>0.7605177760124211</v>
       </c>
       <c r="H56" s="5">
-        <v>-0.240090087305278</v>
+        <v>0.68933080691053705</v>
       </c>
       <c r="I56" s="5">
-        <v>-0.53858916918125799</v>
+        <v>0.65726308412967804</v>
       </c>
       <c r="J56" s="5">
-        <v>2.1512008089877632</v>
+        <v>-14.653577384164507</v>
       </c>
       <c r="K56" s="5">
-        <v>-9.1895477489579704</v>
+        <v>-27.767254060675373</v>
       </c>
       <c r="L56" s="5">
-        <v>-1.908390372695945</v>
+        <v>-6.5146209892565698</v>
       </c>
       <c r="M56" s="5">
-        <v>-7.05342552256446</v>
+        <v>-33.017569033552682</v>
       </c>
       <c r="N56" s="5">
-        <v>-15.95824332706195</v>
-      </c>
-      <c r="O56" s="5">
-        <v>95.077343824420993</v>
-      </c>
+        <v>18.258264649439916</v>
+      </c>
+      <c r="O56" s="5"/>
       <c r="P56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q56" s="4"/>
       <c r="R56" s="4" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="S56" s="5">
-        <v>23.069999694824219</v>
+        <v>0.55299045370637101</v>
       </c>
       <c r="T56" s="5">
-        <v>16.620000839233398</v>
+        <v>0.31999170780181901</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C57" s="5">
-        <v>336799680</v>
+        <v>284978528</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="5">
-        <v>5112648</v>
+        <v>1140366.625</v>
       </c>
       <c r="G57" s="5">
-        <v>0.7667210102081301</v>
+        <v>5.7087197303771973</v>
       </c>
       <c r="H57" s="5">
-        <v>0.21186610401557901</v>
+        <v>0.21949784355694801</v>
       </c>
       <c r="I57" s="5">
-        <v>-2.2193327608666002E-2</v>
+        <v>-3.4715808524794278</v>
       </c>
       <c r="J57" s="5">
-        <v>-15.23786886666052</v>
+        <v>-0.94957247587280602</v>
       </c>
       <c r="K57" s="5">
-        <v>-24.735259971931988</v>
+        <v>-7.6819956114408843</v>
       </c>
       <c r="L57" s="5">
-        <v>-6.4018064041599931</v>
+        <v>10.6060490048415</v>
       </c>
       <c r="M57" s="5">
-        <v>-33.476138504785688</v>
+        <v>-6.3886906206649607</v>
       </c>
       <c r="N57" s="5">
-        <v>22.365740005866531</v>
-      </c>
-      <c r="O57" s="5"/>
+        <v>-17.792677174782323</v>
+      </c>
+      <c r="O57" s="5">
+        <v>20.039630261158248</v>
+      </c>
       <c r="P57" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="S57" s="5">
-        <v>0.55299045370637101</v>
+        <v>1063.3752670306194</v>
       </c>
       <c r="T57" s="5">
-        <v>0.31780099868774403</v>
+        <v>809.37005615234375</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A58" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C58" s="5">
-        <v>284524224</v>
+        <v>230510832</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="5">
-        <v>1224026.5</v>
+        <v>2132310.25</v>
       </c>
       <c r="G58" s="5">
-        <v>5.698148250579834</v>
+        <v>6.8535828590393066</v>
       </c>
       <c r="H58" s="5">
-        <v>-0.48315800706231204</v>
+        <v>-2.07443663971475</v>
       </c>
       <c r="I58" s="5">
-        <v>-4.2378627051506754</v>
+        <v>-0.18657143524782902</v>
       </c>
       <c r="J58" s="5">
-        <v>-1.166509855452158</v>
+        <v>-2.6092252252419073</v>
       </c>
       <c r="K58" s="5">
-        <v>-6.1724854821330499</v>
+        <v>-17.852306353826531</v>
       </c>
       <c r="L58" s="5">
-        <v>8.1725167961148806</v>
+        <v>4.1824021738740225</v>
       </c>
       <c r="M58" s="5">
-        <v>-6.5937154011062038</v>
+        <v>-14.580177817073869</v>
       </c>
       <c r="N58" s="5">
-        <v>-19.135506304474514</v>
+        <v>-6.9244477096237933</v>
       </c>
       <c r="O58" s="5">
-        <v>19.776722937227873</v>
+        <v>76.340549198744199</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q58" s="4"/>
+      <c r="Q58" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="R58" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S58" s="5">
-        <v>1064.0832208369729</v>
+        <v>20.789899826049805</v>
       </c>
       <c r="T58" s="5">
-        <v>807.597412109375</v>
+        <v>16.049999237060547</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C59" s="5">
-        <v>229099888</v>
+        <v>219387840</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="5">
-        <v>2273732.25</v>
+        <v>3046489.75</v>
       </c>
       <c r="G59" s="5">
-        <v>6.7114095687866211</v>
+        <v>2.6395173072814941</v>
       </c>
       <c r="H59" s="5">
-        <v>0.55214820122973007</v>
+        <v>0.63362307955583408</v>
       </c>
       <c r="I59" s="5">
-        <v>0.92364298426308411</v>
+        <v>4.8181598948600968</v>
       </c>
       <c r="J59" s="5">
-        <v>-0.54611744592122402</v>
+        <v>-4.8942919744557329</v>
       </c>
       <c r="K59" s="5">
-        <v>-15.17147039652057</v>
+        <v>-0.34978030852268505</v>
       </c>
       <c r="L59" s="5">
-        <v>6.7256399100745767</v>
+        <v>31.680595255584176</v>
       </c>
       <c r="M59" s="5">
-        <v>-12.770660436589287</v>
+        <v>-23.338121918745802</v>
       </c>
       <c r="N59" s="5">
-        <v>-5.0565191854095364</v>
+        <v>30.021566274902511</v>
       </c>
       <c r="O59" s="5">
-        <v>80.076114088776279</v>
+        <v>92.724648888766879</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="S59" s="5">
-        <v>20.789899826049805</v>
+        <v>4.6771184674018205</v>
       </c>
       <c r="T59" s="5">
-        <v>16.389999389648437</v>
+        <v>3.4329209327697749</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A60" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="C60" s="5">
-        <v>213555504</v>
+        <v>215053424</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="5">
-        <v>1279614.625</v>
+        <v>1239675</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5">
-        <v>-0.88939001492346303</v>
+        <v>0.654967189353028</v>
       </c>
       <c r="I60" s="5">
-        <v>0.43627277468114606</v>
+        <v>2.053340309943597</v>
       </c>
       <c r="J60" s="5">
-        <v>-15.401240836354768</v>
+        <v>-14.847146721233084</v>
       </c>
       <c r="K60" s="5">
-        <v>-19.59509626825313</v>
+        <v>-19.456478630218744</v>
       </c>
       <c r="L60" s="5">
-        <v>29.134693402136904</v>
+        <v>32.030479278759081</v>
       </c>
       <c r="M60" s="5">
-        <v>-36.72170537274171</v>
+        <v>-36.307253304951018</v>
       </c>
       <c r="N60" s="5">
-        <v>67.323420106345495</v>
+        <v>65.895665993625158</v>
       </c>
       <c r="O60" s="5">
-        <v>-0.10743047624118801</v>
+        <v>0.54683307874110509</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S60" s="5">
         <v>0.45377137396633505</v>
       </c>
       <c r="T60" s="5">
-        <v>0.265439003705978</v>
+        <v>0.26717755198478704</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="C61" s="5">
-        <v>210218720</v>
+        <v>209459968</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="5">
-        <v>3156154.75</v>
+        <v>1260659.75</v>
       </c>
       <c r="G61" s="5">
-        <v>2.6595742702484131</v>
+        <v>5.8034782409667969</v>
       </c>
       <c r="H61" s="5">
-        <v>4.3242451164769324</v>
+        <v>0.23111884284308101</v>
       </c>
       <c r="I61" s="5">
-        <v>2.454321551532046</v>
+        <v>-2.8532204819821332</v>
       </c>
       <c r="J61" s="5">
-        <v>-5.4931094447841504</v>
+        <v>1.872426080659229</v>
       </c>
       <c r="K61" s="5">
-        <v>1.1308287351165851</v>
+        <v>-5.6989985935512522</v>
       </c>
       <c r="L61" s="5">
-        <v>29.432540872193556</v>
+        <v>9.6038033399852729</v>
       </c>
       <c r="M61" s="5">
-        <v>-23.820810843062645</v>
+        <v>-4.3779133235446803</v>
       </c>
       <c r="N61" s="5">
-        <v>30.441258564072115</v>
-      </c>
-      <c r="O61" s="5">
-        <v>91.511189790323442</v>
-      </c>
+        <v>-2.1531960529728282</v>
+      </c>
+      <c r="O61" s="5"/>
       <c r="P61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q61" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="Q61" s="4"/>
       <c r="R61" s="4" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="S61" s="5">
-        <v>4.6771184674018205</v>
+        <v>953.26524295883621</v>
       </c>
       <c r="T61" s="5">
-        <v>3.4113061428070068</v>
+        <v>863.42816162109375</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A62" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="5">
+        <v>177668368</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="5">
+        <v>5304537.5</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5">
+        <v>0.68668546521519802</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.49041479943470206</v>
+      </c>
+      <c r="J62" s="5">
+        <v>-10.801920894452621</v>
+      </c>
+      <c r="K62" s="5">
+        <v>-18.247953446535114</v>
+      </c>
+      <c r="L62" s="5">
+        <v>42.872149604237904</v>
+      </c>
+      <c r="M62" s="5">
+        <v>-40.222799294109102</v>
+      </c>
+      <c r="N62" s="5">
+        <v>64.361476664882119</v>
+      </c>
+      <c r="O62" s="5">
+        <v>63.65434526293825</v>
+      </c>
+      <c r="P62" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="5">
-        <v>209101792</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="5">
-        <v>1341743.625</v>
-      </c>
-      <c r="G62" s="5">
-        <v>5.7934026718139648</v>
-      </c>
-      <c r="H62" s="5">
-        <v>-0.7119323564713681</v>
-      </c>
-      <c r="I62" s="5">
-        <v>-3.0919909768362341</v>
-      </c>
-      <c r="J62" s="5">
-        <v>1.637522614498232</v>
-      </c>
-      <c r="K62" s="5">
-        <v>-3.5206648346667979</v>
-      </c>
-      <c r="L62" s="5">
-        <v>9.058564597842711</v>
-      </c>
-      <c r="M62" s="5">
-        <v>-4.5984043873783964</v>
-      </c>
-      <c r="N62" s="5">
-        <v>-2.4200638663434688</v>
-      </c>
-      <c r="O62" s="5"/>
-      <c r="P62" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="4" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="S62" s="5">
-        <v>953.26524295883621</v>
+        <v>0.22635182608908702</v>
       </c>
       <c r="T62" s="5">
-        <v>861.43719482421875</v>
+        <v>0.128410920500755</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="C63" s="5">
-        <v>179977616</v>
+        <v>163685360</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="5">
-        <v>5338812.5</v>
+        <v>3101101</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5">
-        <v>-1.3185206047472091</v>
+        <v>1.355893083081505</v>
       </c>
       <c r="I63" s="5">
-        <v>-1.942809197028383</v>
+        <v>13.682681196907588</v>
       </c>
       <c r="J63" s="5">
-        <v>-11.410253805243054</v>
+        <v>35.15207922411625</v>
       </c>
       <c r="K63" s="5">
-        <v>-17.973059692341121</v>
+        <v>46.479670085345504</v>
       </c>
       <c r="L63" s="5">
-        <v>49.064531753445408</v>
+        <v>92.015640734941329</v>
       </c>
       <c r="M63" s="5">
-        <v>-40.63048115081466</v>
+        <v>28.214426379047008</v>
       </c>
       <c r="N63" s="5">
-        <v>64.313390266124927</v>
+        <v>238.22437826611434</v>
       </c>
       <c r="O63" s="5">
-        <v>62.538218938070855</v>
+        <v>118.08026050378855</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q63" s="4"/>
       <c r="R63" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="S63" s="5">
-        <v>0.22635182608908702</v>
+        <v>0.25009060859038201</v>
       </c>
       <c r="T63" s="5">
-        <v>0.12753514945507002</v>
+        <v>0.24801947176456501</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A64" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C64" s="5">
-        <v>157567920</v>
+        <v>104373760</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="5">
-        <v>3255329</v>
+        <v>2084547.5</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5">
-        <v>3.845101866462719</v>
+        <v>-3.295932889430953</v>
       </c>
       <c r="I64" s="5">
-        <v>13.338696788096893</v>
+        <v>-6.4541468553938941</v>
       </c>
       <c r="J64" s="5">
-        <v>33.344076119315488</v>
+        <v>26.096399581961926</v>
       </c>
       <c r="K64" s="5">
-        <v>51.671372256512569</v>
+        <v>70.704120163420626</v>
       </c>
       <c r="L64" s="5">
-        <v>95.174201986119925</v>
+        <v>149.73208231524202</v>
       </c>
       <c r="M64" s="5">
-        <v>26.49923204164315</v>
+        <v>57.829419802532755</v>
       </c>
       <c r="N64" s="5">
-        <v>232.78281809172023</v>
+        <v>520.7068842810985</v>
       </c>
       <c r="O64" s="5">
-        <v>115.16288187113889</v>
+        <v>596.01254728694835</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="Q64" s="4"/>
       <c r="R64" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="S64" s="5">
-        <v>0.24522002504424803</v>
+        <v>3.136226523511763</v>
       </c>
       <c r="T64" s="5">
-        <v>0.24470157921314201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" s="2" customFormat="1" ht="12.75">
-      <c r="A65" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="5">
-        <v>104456496</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="5">
-        <v>2190094.75</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5">
-        <v>-0.11508909553966701</v>
-      </c>
-      <c r="I65" s="5">
-        <v>-4.2432510720799446</v>
-      </c>
-      <c r="J65" s="5">
-        <v>30.394101664603635</v>
-      </c>
-      <c r="K65" s="5">
-        <v>76.264793867484855</v>
-      </c>
-      <c r="L65" s="5">
-        <v>154.23393149451766</v>
-      </c>
-      <c r="M65" s="5">
-        <v>63.208667968509012</v>
-      </c>
-      <c r="N65" s="5">
-        <v>531.2038865637403</v>
-      </c>
-      <c r="O65" s="5">
-        <v>619.73451384536372</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="S65" s="5">
-        <v>3.136226523511763</v>
-      </c>
-      <c r="T65" s="5">
-        <v>2.6129152774810791</v>
+        <v>2.526795387268066</v>
       </c>
     </row>
   </sheetData>

--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\13.04.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\15.04.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="205">
   <si>
     <t>USD</t>
   </si>
@@ -219,6 +219,12 @@
     <t>ESSENTIAL PROPER</t>
   </si>
   <si>
+    <t>CHC AU Equity</t>
+  </si>
+  <si>
+    <t>CHARTER HALL GRO</t>
+  </si>
+  <si>
     <t>ICAD FP Equity</t>
   </si>
   <si>
@@ -231,12 +237,6 @@
     <t>07/06/2023</t>
   </si>
   <si>
-    <t>CHC AU Equity</t>
-  </si>
-  <si>
-    <t>CHARTER HALL GRO</t>
-  </si>
-  <si>
     <t>8960 JP Equity</t>
   </si>
   <si>
@@ -264,6 +264,18 @@
     <t>BROADSTONE NET</t>
   </si>
   <si>
+    <t>HR-U CN Equity</t>
+  </si>
+  <si>
+    <t>H&amp;R REAL-REIT UT</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
     <t>GRT SJ Equity</t>
   </si>
   <si>
@@ -279,18 +291,6 @@
     <t>ZAr</t>
   </si>
   <si>
-    <t>HR-U CN Equity</t>
-  </si>
-  <si>
-    <t>H&amp;R REAL-REIT UT</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
     <t>3309 JP Equity</t>
   </si>
   <si>
@@ -345,6 +345,12 @@
     <t>11/28/2022</t>
   </si>
   <si>
+    <t>8956 JP Equity</t>
+  </si>
+  <si>
+    <t>NTT UD REIT INVE</t>
+  </si>
+  <si>
     <t>ALEX US Equity</t>
   </si>
   <si>
@@ -354,10 +360,16 @@
     <t>04/04/2023</t>
   </si>
   <si>
-    <t>8956 JP Equity</t>
-  </si>
-  <si>
-    <t>NTT UD REIT INVE</t>
+    <t>8966 JP Equity</t>
+  </si>
+  <si>
+    <t>HEIWA REAL ESTAT</t>
+  </si>
+  <si>
+    <t>8957 JP Equity</t>
+  </si>
+  <si>
+    <t>TOKYU REIT INC</t>
   </si>
   <si>
     <t>GNL US Equity</t>
@@ -366,31 +378,19 @@
     <t>GLOBAL NET LEASE</t>
   </si>
   <si>
-    <t>8957 JP Equity</t>
-  </si>
-  <si>
-    <t>TOKYU REIT INC</t>
-  </si>
-  <si>
-    <t>8966 JP Equity</t>
-  </si>
-  <si>
-    <t>HEIWA REAL ESTAT</t>
-  </si>
-  <si>
-    <t>405 HK Equity</t>
-  </si>
-  <si>
-    <t>YUEXIU REIT</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>05/25/2023</t>
-  </si>
-  <si>
-    <t>CNY</t>
+    <t>ZRGYO TI Equity</t>
+  </si>
+  <si>
+    <t>ZIRAAT GAYRIMENK</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>06/30/2022</t>
+  </si>
+  <si>
+    <t>TRY</t>
   </si>
   <si>
     <t>AAT US Equity</t>
@@ -423,19 +423,25 @@
     <t>03/31/2023</t>
   </si>
   <si>
+    <t>CNI AU Equity</t>
+  </si>
+  <si>
+    <t>CENTURIA CAPITAL</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
     <t>UKCM LN Equity</t>
   </si>
   <si>
     <t>UK COMMERCIAL PR</t>
   </si>
   <si>
-    <t>CNI AU Equity</t>
-  </si>
-  <si>
-    <t>CENTURIA CAPITAL</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
+    <t>3468 JP Equity</t>
+  </si>
+  <si>
+    <t>STAR ASIA INVEST</t>
   </si>
   <si>
     <t>RIT1 IT Equity</t>
@@ -453,12 +459,6 @@
     <t>ILs</t>
   </si>
   <si>
-    <t>3468 JP Equity</t>
-  </si>
-  <si>
-    <t>STAR ASIA INVEST</t>
-  </si>
-  <si>
     <t>BCPT LN Equity</t>
   </si>
   <si>
@@ -486,13 +486,16 @@
     <t>TORUNLAR GAYRIME</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>Discontinued</t>
   </si>
   <si>
-    <t>TRY</t>
+    <t>DGGYO TI Equity</t>
+  </si>
+  <si>
+    <t>DOGUS GAYRIMENKU</t>
+  </si>
+  <si>
+    <t>Omitted</t>
   </si>
   <si>
     <t>AX-U CN Equity</t>
@@ -510,13 +513,10 @@
     <t>02/10/2023</t>
   </si>
   <si>
-    <t>DGGYO TI Equity</t>
-  </si>
-  <si>
-    <t>DOGUS GAYRIMENKU</t>
-  </si>
-  <si>
-    <t>Omitted</t>
+    <t>ISGYO TI Equity</t>
+  </si>
+  <si>
+    <t>IS GAYRIMENKUL Y</t>
   </si>
   <si>
     <t>GOOD US Equity</t>
@@ -525,6 +525,18 @@
     <t>GLADSTONE COMMER</t>
   </si>
   <si>
+    <t>OLP US Equity</t>
+  </si>
+  <si>
+    <t>ONE LIBERTY PROP</t>
+  </si>
+  <si>
+    <t>3492 JP Equity</t>
+  </si>
+  <si>
+    <t>TAKARA LEBEN REA</t>
+  </si>
+  <si>
     <t>OZKGY TI Equity</t>
   </si>
   <si>
@@ -534,24 +546,6 @@
     <t>06/04/2013</t>
   </si>
   <si>
-    <t>OLP US Equity</t>
-  </si>
-  <si>
-    <t>ONE LIBERTY PROP</t>
-  </si>
-  <si>
-    <t>ISGYO TI Equity</t>
-  </si>
-  <si>
-    <t>IS GAYRIMENKUL Y</t>
-  </si>
-  <si>
-    <t>3492 JP Equity</t>
-  </si>
-  <si>
-    <t>TAKARA LEBEN REA</t>
-  </si>
-  <si>
     <t>SRVGY TI Equity</t>
   </si>
   <si>
@@ -579,10 +573,19 @@
     <t>PASIFIK GAYRIMEN</t>
   </si>
   <si>
-    <t>2971 JP Equity</t>
-  </si>
-  <si>
-    <t>ESCON JAPAN REIT</t>
+    <t>ALKHABEE AB Equity</t>
+  </si>
+  <si>
+    <t>ALKHABEER REIT</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>SAR</t>
   </si>
   <si>
     <t>PINE US Equity</t>
@@ -600,16 +603,16 @@
     <t>04/27/2023</t>
   </si>
   <si>
+    <t>2989 JP Equity</t>
+  </si>
+  <si>
+    <t>TOKAIDO REIT INC</t>
+  </si>
+  <si>
     <t>AKSGY TI Equity</t>
   </si>
   <si>
     <t>AKIS GAYRIMENKUL</t>
-  </si>
-  <si>
-    <t>2989 JP Equity</t>
-  </si>
-  <si>
-    <t>TOKAIDO REIT INC</t>
   </si>
   <si>
     <t>KLGYO TI Equity</t>
@@ -652,41 +655,34 @@
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1108,7 +1104,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD66"/>
@@ -1116,7 +1112,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
@@ -1207,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="5">
-        <v>15761599488</v>
+        <v>15472847872</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1216,34 +1212,34 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>92591520</v>
+        <v>93345288</v>
       </c>
       <c r="G2" s="5">
-        <v>5.8715090751647949</v>
+        <v>5.985135555267334</v>
       </c>
       <c r="H2" s="5">
-        <v>-1.357036187907767</v>
+        <v>-1.423830289520456</v>
       </c>
       <c r="I2" s="5">
-        <v>-2.3902225730083941</v>
+        <v>-3.439405508474624</v>
       </c>
       <c r="J2" s="5">
-        <v>-5.8919979162670444</v>
+        <v>-8.9460097493857091</v>
       </c>
       <c r="K2" s="5">
-        <v>-11.804720836762595</v>
+        <v>-13.042017197628519</v>
       </c>
       <c r="L2" s="5">
-        <v>5.2353446985658358</v>
+        <v>7.0376276138303773</v>
       </c>
       <c r="M2" s="5">
-        <v>-5.6993380679518086</v>
+        <v>-7.4896169171453586</v>
       </c>
       <c r="N2" s="5">
-        <v>-6.4263144930616463</v>
+        <v>-9.384071111845337</v>
       </c>
       <c r="O2" s="5">
-        <v>23.032588910307659</v>
+        <v>25.763306087234518</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
@@ -1258,7 +1254,7 @@
         <v>89.629997253417969</v>
       </c>
       <c r="T2" s="5">
-        <v>72.69000244140625</v>
+        <v>71.30999755859375</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1269,7 +1265,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="5">
-        <v>6676532224</v>
+        <v>6715495936</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1278,34 +1274,34 @@
         <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>38881356</v>
+        <v>35861920</v>
       </c>
       <c r="G3" s="5">
-        <v>6.3233528137207031</v>
+        <v>6.2782402038574219</v>
       </c>
       <c r="H3" s="5">
-        <v>-0.89243496454102211</v>
+        <v>0.133688096204998</v>
       </c>
       <c r="I3" s="5">
-        <v>1.044702403887054</v>
+        <v>2.9616652845440461</v>
       </c>
       <c r="J3" s="5">
-        <v>12.848200027942935</v>
+        <v>11.823206018746246</v>
       </c>
       <c r="K3" s="5">
-        <v>7.3261590170576207</v>
+        <v>7.4046481693062383</v>
       </c>
       <c r="L3" s="5">
-        <v>41.002087141647394</v>
+        <v>43.415520427617778</v>
       </c>
       <c r="M3" s="5">
-        <v>13.108189746553499</v>
+        <v>13.649376763411025</v>
       </c>
       <c r="N3" s="5">
-        <v>-3.8389935603840408</v>
+        <v>-2.089273079527731</v>
       </c>
       <c r="O3" s="5">
-        <v>75.28627745823502</v>
+        <v>80.817502307949113</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>30</v>
@@ -1320,7 +1316,7 @@
         <v>3.1170868956152522</v>
       </c>
       <c r="T3" s="5">
-        <v>2.7997639179229741</v>
+        <v>2.813159704208374</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1331,7 +1327,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>5946590208</v>
+        <v>5876212224</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -1340,34 +1336,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>14050192</v>
+        <v>13555104</v>
       </c>
       <c r="G4" s="5">
-        <v>6.1682243347167969</v>
+        <v>6.1167745590209961</v>
       </c>
       <c r="H4" s="5">
-        <v>1.0767163707847689</v>
+        <v>0.34325182259877801</v>
       </c>
       <c r="I4" s="5">
-        <v>4.3192577008680288</v>
+        <v>1.3353652830178531</v>
       </c>
       <c r="J4" s="5">
-        <v>5.5209798997606141</v>
+        <v>4.5888114204539754</v>
       </c>
       <c r="K4" s="5">
-        <v>-3.980418690806387</v>
+        <v>-4.7299058919320514</v>
       </c>
       <c r="L4" s="5">
-        <v>52.284504801416396</v>
+        <v>45.853978486849797</v>
       </c>
       <c r="M4" s="5">
-        <v>8.0241637629127496</v>
+        <v>8.2434496573748461</v>
       </c>
       <c r="N4" s="5">
-        <v>-13.021809981230458</v>
+        <v>-15.424425975774913</v>
       </c>
       <c r="O4" s="5">
-        <v>7.996194167896209</v>
+        <v>9.9512141605980098</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>30</v>
@@ -1382,7 +1378,7 @@
         <v>10.096910914142688</v>
       </c>
       <c r="T4" s="5">
-        <v>8.0147275924682617</v>
+        <v>8.0309972763061523</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1393,7 +1389,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>5861188608</v>
+        <v>5867320832</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1402,34 +1398,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="5">
-        <v>33591548</v>
+        <v>31718888</v>
       </c>
       <c r="G5" s="5">
         <v>4.6501131057739258</v>
       </c>
       <c r="H5" s="5">
-        <v>1.6833303930295251</v>
+        <v>-0.8501714454030701</v>
       </c>
       <c r="I5" s="5">
-        <v>3.568225271964764</v>
+        <v>3.3021464967835312</v>
       </c>
       <c r="J5" s="5">
-        <v>1.6975145278060431</v>
+        <v>1.749637511237601</v>
       </c>
       <c r="K5" s="5">
-        <v>-3.098340134363597</v>
+        <v>-3.8472632304809569</v>
       </c>
       <c r="L5" s="5">
-        <v>26.230757161604188</v>
+        <v>29.065380994356673</v>
       </c>
       <c r="M5" s="5">
         <v>2.3759110940007711</v>
       </c>
       <c r="N5" s="5">
-        <v>-14.043633566028358</v>
+        <v>-14.370279613718163</v>
       </c>
       <c r="O5" s="5">
-        <v>14.148349059582689</v>
+        <v>13.911677613766283</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>30</v>
@@ -1455,7 +1451,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>5472913408</v>
+        <v>5491469824</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1464,34 +1460,34 @@
         <v>24</v>
       </c>
       <c r="F6" s="5">
-        <v>22882012</v>
+        <v>20993388</v>
       </c>
       <c r="G6" s="5">
-        <v>5.8754405975341797</v>
+        <v>5.8411211967468262</v>
       </c>
       <c r="H6" s="5">
-        <v>0.53182232608626201</v>
+        <v>-1.296791863061453</v>
       </c>
       <c r="I6" s="5">
-        <v>-1.5473674620954609</v>
+        <v>1.458419167762504</v>
       </c>
       <c r="J6" s="5">
-        <v>-5.8186712838754318</v>
+        <v>-4.1063628499394156</v>
       </c>
       <c r="K6" s="5">
-        <v>-6.1687776456004979</v>
+        <v>-6.8928220715668402</v>
       </c>
       <c r="L6" s="5">
-        <v>19.77806480319493</v>
+        <v>21.160389947259794</v>
       </c>
       <c r="M6" s="5">
-        <v>-0.13736324063217101</v>
+        <v>9.6512456978637001E-2</v>
       </c>
       <c r="N6" s="5">
-        <v>-20.687213522659498</v>
+        <v>-19.825836638223215</v>
       </c>
       <c r="O6" s="5">
-        <v>30.295264002309175</v>
+        <v>27.314822959930908</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>42</v>
@@ -1506,7 +1502,7 @@
         <v>3.871919847578821</v>
       </c>
       <c r="T6" s="5">
-        <v>2.8600459098815918</v>
+        <v>2.8667440414428711</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1517,7 +1513,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>5379592192</v>
+        <v>5420823552</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
@@ -1526,34 +1522,34 @@
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>12614789</v>
+        <v>11746026</v>
       </c>
       <c r="G7" s="5">
-        <v>4.4792628288269043</v>
+        <v>4.4239273071289062</v>
       </c>
       <c r="H7" s="5">
-        <v>-0.51151076907173199</v>
+        <v>-7.189980918513901E-2</v>
       </c>
       <c r="I7" s="5">
-        <v>-1.631131046247936</v>
+        <v>0.96283568138402209</v>
       </c>
       <c r="J7" s="5">
-        <v>2.8565821414745511</v>
+        <v>2.4468101304021328</v>
       </c>
       <c r="K7" s="5">
-        <v>-4.5099103037566923</v>
+        <v>-4.4277817276781146</v>
       </c>
       <c r="L7" s="5">
-        <v>8.0607031112495129</v>
+        <v>11.463417788492446</v>
       </c>
       <c r="M7" s="5">
-        <v>-6.3205605184899589</v>
+        <v>-5.5671112679191666</v>
       </c>
       <c r="N7" s="5">
-        <v>-8.3666349803778406</v>
+        <v>-7.689146383095979</v>
       </c>
       <c r="O7" s="5">
-        <v>2.7048992263419391</v>
+        <v>1.342220995823284</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>46</v>
@@ -1566,7 +1562,7 @@
         <v>1313.4164510311298</v>
       </c>
       <c r="T7" s="5">
-        <v>1140.4759521484375</v>
+        <v>1149.648681640625</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1577,7 +1573,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5">
-        <v>5299082752</v>
+        <v>5309635072</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1586,34 +1582,34 @@
         <v>24</v>
       </c>
       <c r="F8" s="5">
-        <v>10631768</v>
+        <v>11219414</v>
       </c>
       <c r="G8" s="5">
-        <v>2.4764938354492192</v>
+        <v>2.4923815727233891</v>
       </c>
       <c r="H8" s="5">
-        <v>1.171990341016627</v>
+        <v>-0.63055197649444206</v>
       </c>
       <c r="I8" s="5">
-        <v>1.0559747705652049</v>
+        <v>-0.7147984056210871</v>
       </c>
       <c r="J8" s="5">
-        <v>0.32359010726472603</v>
+        <v>3.1108752463104179</v>
       </c>
       <c r="K8" s="5">
-        <v>7.0629516293778227</v>
+        <v>4.663737804861201</v>
       </c>
       <c r="L8" s="5">
-        <v>36.540569950696032</v>
+        <v>38.762094363262435</v>
       </c>
       <c r="M8" s="5">
-        <v>23.292224262365103</v>
+        <v>22.504938854404742</v>
       </c>
       <c r="N8" s="5">
-        <v>39.446843590114014</v>
+        <v>34.810370083867824</v>
       </c>
       <c r="O8" s="5">
-        <v>97.508014524201798</v>
+        <v>108.0878546466999</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>25</v>
@@ -1628,7 +1624,7 @@
         <v>1.48004759388159</v>
       </c>
       <c r="T8" s="5">
-        <v>1.390119671821594</v>
+        <v>1.381242990493774</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1639,7 +1635,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="5">
-        <v>4774522880</v>
+        <v>4834923008</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>45</v>
@@ -1648,34 +1644,34 @@
         <v>24</v>
       </c>
       <c r="F9" s="5">
-        <v>9810493</v>
+        <v>9254616</v>
       </c>
       <c r="G9" s="5">
-        <v>4.0875911712646484</v>
+        <v>4.017216682434082</v>
       </c>
       <c r="H9" s="5">
-        <v>-0.61022807079124108</v>
+        <v>0.17515709378945801</v>
       </c>
       <c r="I9" s="5">
-        <v>-4.2958935937884029</v>
+        <v>-0.23732926222842501</v>
       </c>
       <c r="J9" s="5">
-        <v>0.24906706516838503</v>
+        <v>1.0647462921729689</v>
       </c>
       <c r="K9" s="5">
-        <v>-4.5933122938537796</v>
+        <v>-3.8217133022741212</v>
       </c>
       <c r="L9" s="5">
-        <v>2.7989591302628241</v>
+        <v>7.2001773268996594</v>
       </c>
       <c r="M9" s="5">
-        <v>-6.290270863099046</v>
+        <v>-5.0691610099570461</v>
       </c>
       <c r="N9" s="5">
-        <v>-16.333118997796348</v>
+        <v>-15.568684947730071</v>
       </c>
       <c r="O9" s="5">
-        <v>4.550820772597E-3</v>
+        <v>1.783010948972708</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>55</v>
@@ -1688,7 +1684,7 @@
         <v>2563.4939473059576</v>
       </c>
       <c r="T9" s="5">
-        <v>2057.21142578125</v>
+        <v>2084.0185546875</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1699,7 +1695,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="5">
-        <v>4543997952</v>
+        <v>4472461824</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -1708,34 +1704,34 @@
         <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>13430814</v>
+        <v>13178374</v>
       </c>
       <c r="G10" s="5">
-        <v>5.9123344421386719</v>
+        <v>5.8808622360229492</v>
       </c>
       <c r="H10" s="5">
-        <v>1.3014186601123521</v>
+        <v>0.43600509122909703</v>
       </c>
       <c r="I10" s="5">
-        <v>2.9056764597194862</v>
+        <v>0.25108717556823201</v>
       </c>
       <c r="J10" s="5">
-        <v>-0.85531200012982611</v>
+        <v>-2.1531022060371718</v>
       </c>
       <c r="K10" s="5">
-        <v>-7.035897446953121</v>
+        <v>-7.32180697671917</v>
       </c>
       <c r="L10" s="5">
-        <v>40.225915399753262</v>
+        <v>35.231943324550244</v>
       </c>
       <c r="M10" s="5">
-        <v>2.4854293419566802</v>
+        <v>2.3818961441336222</v>
       </c>
       <c r="N10" s="5">
-        <v>-22.620801352353347</v>
+        <v>-24.208340005350305</v>
       </c>
       <c r="O10" s="5">
-        <v>5.9521112104976792</v>
+        <v>7.6390525799099551</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>30</v>
@@ -1750,7 +1746,7 @@
         <v>6.8642308397426879</v>
       </c>
       <c r="T10" s="5">
-        <v>4.8987212181091309</v>
+        <v>4.8937726020812988</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1761,7 +1757,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>4089315328</v>
+        <v>4099929088</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>61</v>
@@ -1770,34 +1766,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="5">
-        <v>9573308</v>
+        <v>9206452</v>
       </c>
       <c r="G11" s="5">
-        <v>2.0467467308044429</v>
+        <v>1.9901719093322749</v>
       </c>
       <c r="H11" s="5">
-        <v>0.6991475873427081</v>
+        <v>1.6675851404815312</v>
       </c>
       <c r="I11" s="5">
-        <v>2.1997189725168949</v>
+        <v>2.3841983350690881</v>
       </c>
       <c r="J11" s="5">
-        <v>-2.7120994556183442</v>
+        <v>-1.411357445975836</v>
       </c>
       <c r="K11" s="5">
-        <v>-13.085100132671457</v>
+        <v>-10.973430028998798</v>
       </c>
       <c r="L11" s="5">
-        <v>20.269862720733613</v>
+        <v>20.917640680332283</v>
       </c>
       <c r="M11" s="5">
-        <v>-7.4005286505604451</v>
+        <v>-4.9240810026736188</v>
       </c>
       <c r="N11" s="5">
-        <v>-13.654551499664347</v>
+        <v>-13.840125970700988</v>
       </c>
       <c r="O11" s="5">
-        <v>15.402129453278768</v>
+        <v>23.511283462498422</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>30</v>
@@ -1812,7 +1808,7 @@
         <v>11.852492330932618</v>
       </c>
       <c r="T11" s="5">
-        <v>8.703333854675293</v>
+        <v>8.9360923767089844</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1823,7 +1819,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5">
-        <v>3685499648</v>
+        <v>3667572736</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1832,34 +1828,34 @@
         <v>24</v>
       </c>
       <c r="F12" s="5">
-        <v>21799318</v>
+        <v>21238136</v>
       </c>
       <c r="G12" s="5">
-        <v>4.4843049049377441</v>
+        <v>4.5662102699279794</v>
       </c>
       <c r="H12" s="5">
-        <v>-0.56748840379197107</v>
+        <v>-1.8737234165703942</v>
       </c>
       <c r="I12" s="5">
-        <v>1.7420160334364221</v>
+        <v>-0.86419379039478506</v>
       </c>
       <c r="J12" s="5">
-        <v>3.1944516548659601</v>
+        <v>-0.47810326447411705</v>
       </c>
       <c r="K12" s="5">
-        <v>2.174410447529973</v>
+        <v>-0.355993792928744</v>
       </c>
       <c r="L12" s="5">
-        <v>28.520815703605518</v>
+        <v>28.518711741685699</v>
       </c>
       <c r="M12" s="5">
-        <v>5.7006746184446788</v>
+        <v>3.8046961439032629</v>
       </c>
       <c r="N12" s="5">
-        <v>2.6010818248730421</v>
+        <v>-1.244281126497671</v>
       </c>
       <c r="O12" s="5">
-        <v>118.26012999940687</v>
+        <v>132.77956922659538</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>25</v>
@@ -1874,7 +1870,7 @@
         <v>26.75</v>
       </c>
       <c r="T12" s="5">
-        <v>24.530000686645508</v>
+        <v>24.090000152587891</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -1885,120 +1881,120 @@
         <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>3601884672</v>
+        <v>3576824576</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>7843718.5</v>
+        <v>22091092</v>
       </c>
       <c r="G13" s="5">
-        <v>9.9677724838256836</v>
+        <v>3.6557519435882568</v>
       </c>
       <c r="H13" s="5">
-        <v>2.017245796140843</v>
+        <v>-1.033819409480774</v>
       </c>
       <c r="I13" s="5">
-        <v>4.8675927950173836</v>
+        <v>6.5502522813409616</v>
       </c>
       <c r="J13" s="5">
-        <v>-4.7416755719410837</v>
+        <v>-5.9560409921941124</v>
       </c>
       <c r="K13" s="5">
-        <v>2.4820997987866411</v>
+        <v>-15.912904160293817</v>
       </c>
       <c r="L13" s="5">
-        <v>51.240579063705603</v>
+        <v>6.6807239760325885</v>
       </c>
       <c r="M13" s="5">
-        <v>15.874929964618456</v>
+        <v>-7.4318540091725342</v>
       </c>
       <c r="N13" s="5">
-        <v>-20.11719719997178</v>
+        <v>-32.224806787999171</v>
       </c>
       <c r="O13" s="5">
-        <v>-29.820172894213727</v>
+        <v>73.429106393899971</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="S13" s="5">
-        <v>67.232799999999997</v>
+        <v>11.935938479216244</v>
       </c>
       <c r="T13" s="5">
-        <v>47.766620635986328</v>
+        <v>7.5620417594909668</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3563532288</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6670354.5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>9.8858451843261719</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2.139477128913692</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1.5039165803878651</v>
+      </c>
+      <c r="J14" s="5">
+        <v>-7.9329767341897561</v>
+      </c>
+      <c r="K14" s="5">
+        <v>4.5728727614404718</v>
+      </c>
+      <c r="L14" s="5">
+        <v>46.554337777804712</v>
+      </c>
+      <c r="M14" s="5">
+        <v>16.64397289840316</v>
+      </c>
+      <c r="N14" s="5">
+        <v>-19.126373208412438</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-25.908788967497841</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="5">
-        <v>3512954624</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5">
-        <v>21826314</v>
-      </c>
-      <c r="G14" s="5">
-        <v>3.7401537895202641</v>
-      </c>
-      <c r="H14" s="5">
-        <v>3.4705494147398541</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.65214037230148003</v>
-      </c>
-      <c r="J14" s="5">
-        <v>-9.1546006901125807</v>
-      </c>
-      <c r="K14" s="5">
-        <v>-15.53737605497969</v>
-      </c>
-      <c r="L14" s="5">
-        <v>2.1715152928123649</v>
-      </c>
-      <c r="M14" s="5">
-        <v>-8.9896847403101674</v>
-      </c>
-      <c r="N14" s="5">
-        <v>-35.499107401091024</v>
-      </c>
-      <c r="O14" s="5">
-        <v>62.301727710792633</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="R14" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="S14" s="5">
-        <v>11.935938479216244</v>
+        <v>67.232799999999997</v>
       </c>
       <c r="T14" s="5">
-        <v>7.4347801208496094</v>
+        <v>48.083641052246094</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2009,7 +2005,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5">
-        <v>3307118592</v>
+        <v>3339937280</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -2018,34 +2014,34 @@
         <v>24</v>
       </c>
       <c r="F15" s="5">
-        <v>7953612.5</v>
+        <v>7369741</v>
       </c>
       <c r="G15" s="5">
-        <v>4.4532017707824707</v>
+        <v>4.3883495330810547</v>
       </c>
       <c r="H15" s="5">
-        <v>-8.6749667042163012E-2</v>
+        <v>-0.70218528719386808</v>
       </c>
       <c r="I15" s="5">
-        <v>-3.670882474945059</v>
+        <v>-0.65230088157363109</v>
       </c>
       <c r="J15" s="5">
-        <v>-2.4075448861983211</v>
+        <v>-1.0609741228921441</v>
       </c>
       <c r="K15" s="5">
-        <v>-7.4878627628809706</v>
+        <v>-6.5463632716871505</v>
       </c>
       <c r="L15" s="5">
-        <v>7.6603946618867944</v>
+        <v>10.547916476847142</v>
       </c>
       <c r="M15" s="5">
-        <v>-7.1884719765943572</v>
+        <v>-6.2322413168148127</v>
       </c>
       <c r="N15" s="5">
-        <v>-0.167683775124117</v>
+        <v>0.40889322528658806</v>
       </c>
       <c r="O15" s="5">
-        <v>21.140765391753046</v>
+        <v>19.851738598643198</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>25</v>
@@ -2058,7 +2054,7 @@
         <v>1187.971105527638</v>
       </c>
       <c r="T15" s="5">
-        <v>1066.89697265625</v>
+        <v>1077.8890380859375</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2069,7 +2065,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="5">
-        <v>3130371328</v>
+        <v>3142407680</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>76</v>
@@ -2078,34 +2074,34 @@
         <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>10780078</v>
+        <v>9416460</v>
       </c>
       <c r="G16" s="5">
-        <v>5.5277776718139648</v>
+        <v>5.4896550178527832</v>
       </c>
       <c r="H16" s="5">
-        <v>-0.285765783217307</v>
+        <v>-0.79579123330076906</v>
       </c>
       <c r="I16" s="5">
-        <v>-0.57746396061875105</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
-        <v>4.491647325077941</v>
+        <v>3.8328323602462082</v>
       </c>
       <c r="K16" s="5">
-        <v>7.7836281978824973</v>
+        <v>7.1265004736635218</v>
       </c>
       <c r="L16" s="5">
-        <v>7.7537449531877911</v>
+        <v>10.393031372253802</v>
       </c>
       <c r="M16" s="5">
-        <v>6.7237445490059944</v>
+        <v>7.1260293200917424</v>
       </c>
       <c r="N16" s="5">
-        <v>-12.446634299112279</v>
+        <v>-12.471294270213718</v>
       </c>
       <c r="O16" s="5">
-        <v>40.502154737360115</v>
+        <v>35.87505164923661</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>77</v>
@@ -2120,7 +2116,7 @@
         <v>1.350664450152578</v>
       </c>
       <c r="T16" s="5">
-        <v>1.084500670433044</v>
+        <v>1.08858859539032</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2131,7 +2127,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="5">
-        <v>3060777984</v>
+        <v>3021465088</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>23</v>
@@ -2140,31 +2136,31 @@
         <v>24</v>
       </c>
       <c r="F17" s="5">
-        <v>17067834</v>
+        <v>16014435</v>
       </c>
       <c r="G17" s="5">
-        <v>6.8153657913208008</v>
+        <v>6.8922305107116699</v>
       </c>
       <c r="H17" s="5">
-        <v>-1.2844097059428461</v>
+        <v>-1.1152376599029461</v>
       </c>
       <c r="I17" s="5">
-        <v>-3.2953932103647721</v>
+        <v>-3.506655654631075</v>
       </c>
       <c r="J17" s="5">
-        <v>1.324952419406356</v>
+        <v>-4.3539968003833307</v>
       </c>
       <c r="K17" s="5">
-        <v>-6.7395644735165794</v>
+        <v>-7.3582992600852659</v>
       </c>
       <c r="L17" s="5">
-        <v>5.7136539386481564</v>
+        <v>4.5346954582648813</v>
       </c>
       <c r="M17" s="5">
-        <v>1.199945345862319</v>
+        <v>7.1325443564074012E-2</v>
       </c>
       <c r="N17" s="5">
-        <v>-20.267866548397141</v>
+        <v>-22.592532907697116</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
@@ -2180,7 +2176,7 @@
         <v>22.799999237060547</v>
       </c>
       <c r="T17" s="5">
-        <v>16.139999389648438</v>
+        <v>15.960000038146973</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2191,7 +2187,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="5">
-        <v>2540232448</v>
+        <v>2520188416</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>83</v>
@@ -2200,111 +2196,111 @@
         <v>24</v>
       </c>
       <c r="F18" s="5">
-        <v>8708579</v>
+        <v>8503975</v>
       </c>
       <c r="G18" s="5">
-        <v>10</v>
+        <v>4.9301562309265137</v>
       </c>
       <c r="H18" s="5">
-        <v>0.90553631395580103</v>
+        <v>-1.20669141010662</v>
       </c>
       <c r="I18" s="5">
-        <v>1.139205480116279</v>
+        <v>-0.54471551483027403</v>
       </c>
       <c r="J18" s="5">
-        <v>3.5221058959707059</v>
+        <v>-2.648468207770172</v>
       </c>
       <c r="K18" s="5">
-        <v>-16.14975378161888</v>
+        <v>-4.0143144150245007</v>
       </c>
       <c r="L18" s="5">
-        <v>15.714149860882131</v>
+        <v>21.881131763312212</v>
       </c>
       <c r="M18" s="5">
-        <v>-12.364395057481248</v>
+        <v>2.7591093545253242</v>
       </c>
       <c r="N18" s="5">
-        <v>-19.88887049311694</v>
+        <v>-7.8858432661823468</v>
       </c>
       <c r="O18" s="5">
-        <v>21.039247012385975</v>
+        <v>95.172071278223797</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="S18" s="5">
-        <v>0.9726962457337881</v>
+        <v>11.425618100945441</v>
       </c>
       <c r="T18" s="5">
-        <v>0.71288853883743308</v>
+        <v>9.0909090042114258</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="5">
+        <v>2461629696</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="5">
-        <v>2513416448</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5">
+        <v>8751894</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10.139103889465332</v>
+      </c>
+      <c r="H19" s="5">
+        <v>-0.54844033414613902</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1.8809022640824851</v>
+      </c>
+      <c r="J19" s="5">
+        <v>4.6479455680570991</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-14.549759763426785</v>
+      </c>
+      <c r="L19" s="5">
+        <v>13.70323141300085</v>
+      </c>
+      <c r="M19" s="5">
+        <v>-12.06789868630862</v>
+      </c>
+      <c r="N19" s="5">
+        <v>-17.691106790965883</v>
+      </c>
+      <c r="O19" s="5">
+        <v>12.058304290301592</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="5">
-        <v>8716137</v>
-      </c>
-      <c r="G19" s="5">
-        <v>4.862236499786377</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.78801688259522207</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.63139300301999801</v>
-      </c>
-      <c r="J19" s="5">
-        <v>-0.113771050053713</v>
-      </c>
-      <c r="K19" s="5">
-        <v>-3.497271195229934</v>
-      </c>
-      <c r="L19" s="5">
-        <v>22.832295148993943</v>
-      </c>
-      <c r="M19" s="5">
-        <v>3.8299947567211889</v>
-      </c>
-      <c r="N19" s="5">
-        <v>-4.4426742191875483</v>
-      </c>
-      <c r="O19" s="5">
-        <v>90.317169881238613</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>89</v>
       </c>
       <c r="S19" s="5">
-        <v>11.425618100945441</v>
+        <v>0.9726962457337881</v>
       </c>
       <c r="T19" s="5">
-        <v>9.1856489181518555</v>
+        <v>0.71530050039291404</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2315,7 +2311,7 @@
         <v>91</v>
       </c>
       <c r="C20" s="5">
-        <v>2448417024</v>
+        <v>2456354816</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -2324,34 +2320,34 @@
         <v>24</v>
       </c>
       <c r="F20" s="5">
-        <v>7459243.5</v>
+        <v>7097459</v>
       </c>
       <c r="G20" s="5">
-        <v>4.9865589141845703</v>
+        <v>4.9466667175292969</v>
       </c>
       <c r="H20" s="5">
-        <v>0.13625036341611302</v>
+        <v>-0.11422392003890301</v>
       </c>
       <c r="I20" s="5">
-        <v>-1.102834220502757</v>
+        <v>0.40298065569459601</v>
       </c>
       <c r="J20" s="5">
-        <v>5.7104336523936983</v>
+        <v>6.1075681399703319</v>
       </c>
       <c r="K20" s="5">
-        <v>-2.339396910654246</v>
+        <v>-1.7873503159158031</v>
       </c>
       <c r="L20" s="5">
-        <v>3.2765627002811382</v>
+        <v>6.8323763342055033</v>
       </c>
       <c r="M20" s="5">
-        <v>-1.9004704091847291</v>
+        <v>-1.545474678955661</v>
       </c>
       <c r="N20" s="5">
-        <v>-8.7710660445345372</v>
+        <v>-7.8214092362712604</v>
       </c>
       <c r="O20" s="5">
-        <v>0.584118990538807</v>
+        <v>1.381406738633673</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>25</v>
@@ -2364,7 +2360,7 @@
         <v>638.13700287312872</v>
       </c>
       <c r="T20" s="5">
-        <v>558.60052490234375</v>
+        <v>560.62188720703125</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2375,7 +2371,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="5">
-        <v>2386304000</v>
+        <v>2365777408</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>45</v>
@@ -2384,34 +2380,34 @@
         <v>24</v>
       </c>
       <c r="F21" s="5">
-        <v>7908892.5</v>
+        <v>7322902</v>
       </c>
       <c r="G21" s="5">
-        <v>4.7570333480834961</v>
+        <v>4.775352954864502</v>
       </c>
       <c r="H21" s="5">
-        <v>0.27720211587427501</v>
+        <v>-1.299893234736238</v>
       </c>
       <c r="I21" s="5">
-        <v>-2.6223280098027768</v>
+        <v>-2.4556410901222963</v>
       </c>
       <c r="J21" s="5">
-        <v>4.9204923039744441</v>
+        <v>3.6415626711455928</v>
       </c>
       <c r="K21" s="5">
-        <v>-6.4644286157294006</v>
+        <v>-7.3904859414790192</v>
       </c>
       <c r="L21" s="5">
-        <v>2.618517967804368</v>
+        <v>4.3041509489856189</v>
       </c>
       <c r="M21" s="5">
-        <v>-6.8764502192632424</v>
+        <v>-7.6428214400003576</v>
       </c>
       <c r="N21" s="5">
-        <v>-7.8462023781972094</v>
+        <v>-8.8659603586237363</v>
       </c>
       <c r="O21" s="5">
-        <v>8.910349881175339</v>
+        <v>8.6907851007496326</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>25</v>
@@ -2424,7 +2420,7 @@
         <v>3338.8717461824508</v>
       </c>
       <c r="T21" s="5">
-        <v>2935.65576171875</v>
+        <v>2911.49658203125</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2435,7 +2431,7 @@
         <v>95</v>
       </c>
       <c r="C22" s="5">
-        <v>2177954816</v>
+        <v>2228890624</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>35</v>
@@ -2444,34 +2440,34 @@
         <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>7549576.5</v>
+        <v>7053941</v>
       </c>
       <c r="G22" s="5">
-        <v>6.1209444999694824</v>
+        <v>5.9398856163024902</v>
       </c>
       <c r="H22" s="5">
-        <v>1.3016504114575329</v>
+        <v>1.2319933816411721</v>
       </c>
       <c r="I22" s="5">
-        <v>4.7368757385577442</v>
+        <v>4.1694491454688842</v>
       </c>
       <c r="J22" s="5">
-        <v>2.209238009494507</v>
+        <v>4.3285586785322794</v>
       </c>
       <c r="K22" s="5">
-        <v>-11.129206734912467</v>
+        <v>-8.5417222126521697</v>
       </c>
       <c r="L22" s="5">
-        <v>0.96141716568030111</v>
+        <v>1.0880383963730371</v>
       </c>
       <c r="M22" s="5">
-        <v>-5.5395957198590473</v>
+        <v>-3.276237164166329</v>
       </c>
       <c r="N22" s="5">
-        <v>-30.510163856252206</v>
+        <v>-30.171280107481824</v>
       </c>
       <c r="O22" s="5">
-        <v>7.5468105919576978</v>
+        <v>11.459550507651951</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>30</v>
@@ -2486,7 +2482,7 @@
         <v>1.9770638784000001</v>
       </c>
       <c r="T22" s="5">
-        <v>1.269622683525085</v>
+        <v>1.300044059753418</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2497,7 +2493,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="5">
-        <v>2046175616</v>
+        <v>2058001024</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2506,34 +2502,34 @@
         <v>24</v>
       </c>
       <c r="F23" s="5">
-        <v>5924246.5</v>
+        <v>5623408</v>
       </c>
       <c r="G23" s="5">
-        <v>6.6193852424621582</v>
+        <v>6.5727696418762207</v>
       </c>
       <c r="H23" s="5">
-        <v>1.2459691259497421</v>
+        <v>-0.83011047506541502</v>
       </c>
       <c r="I23" s="5">
-        <v>0.54916017647839199</v>
+        <v>2.1933886424403859</v>
       </c>
       <c r="J23" s="5">
-        <v>-1.922045532379435</v>
+        <v>-0.73505837363752002</v>
       </c>
       <c r="K23" s="5">
-        <v>-8.8183498673001246</v>
+        <v>-8.872367205075161</v>
       </c>
       <c r="L23" s="5">
-        <v>15.265463732300288</v>
+        <v>16.01392149437546</v>
       </c>
       <c r="M23" s="5">
-        <v>-4.6269994133869456</v>
+        <v>-4.176063672480157</v>
       </c>
       <c r="N23" s="5">
-        <v>-23.787227691883306</v>
+        <v>-22.484710989394753</v>
       </c>
       <c r="O23" s="5">
-        <v>15.730046394894771</v>
+        <v>18.844409032371967</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>25</v>
@@ -2548,7 +2544,7 @@
         <v>4.050624031726354</v>
       </c>
       <c r="T23" s="5">
-        <v>2.8332538604736328</v>
+        <v>2.8466498851776123</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2559,7 +2555,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="5">
-        <v>1635331200</v>
+        <v>1654417664</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -2568,34 +2564,34 @@
         <v>24</v>
       </c>
       <c r="F24" s="5">
-        <v>3415944.75</v>
+        <v>3219789</v>
       </c>
       <c r="G24" s="5">
-        <v>4.6031746864318848</v>
+        <v>4.5283017158508301</v>
       </c>
       <c r="H24" s="5">
-        <v>0.20661119088323202</v>
+        <v>0.39045747971913103</v>
       </c>
       <c r="I24" s="5">
-        <v>-1.6317298742005941</v>
+        <v>0.49653948876091603</v>
       </c>
       <c r="J24" s="5">
-        <v>1.230699855079354</v>
+        <v>2.857655682083426</v>
       </c>
       <c r="K24" s="5">
-        <v>-5.5830991396847001</v>
+        <v>-4.8888371748922577</v>
       </c>
       <c r="L24" s="5">
-        <v>0.19961395341279201</v>
+        <v>6.5991843603359523</v>
       </c>
       <c r="M24" s="5">
-        <v>-7.1810646766028441</v>
+        <v>-6.0624803343904956</v>
       </c>
       <c r="N24" s="5">
-        <v>-9.9458575701712899</v>
+        <v>-8.5799466776469107</v>
       </c>
       <c r="O24" s="5">
-        <v>20.14062059815722</v>
+        <v>19.339805898687956</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>25</v>
@@ -2608,7 +2604,7 @@
         <v>1330.8014874594508</v>
       </c>
       <c r="T24" s="5">
-        <v>1135.2203369140625</v>
+        <v>1148.901123046875</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2616,10 +2612,10 @@
         <v>102</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C25" s="5">
-        <v>1575766144</v>
+        <v>1592729344</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -2628,34 +2624,34 @@
         <v>24</v>
       </c>
       <c r="F25" s="5">
-        <v>1963484.25</v>
+        <v>1871692.75</v>
       </c>
       <c r="G25" s="5">
-        <v>6.8506498336791992</v>
+        <v>6.7412137985229492</v>
       </c>
       <c r="H25" s="5">
-        <v>0.44220984456548901</v>
+        <v>-0.65999755956018802</v>
       </c>
       <c r="I25" s="5">
-        <v>-0.80599124341375106</v>
+        <v>1.1586515902386241</v>
       </c>
       <c r="J25" s="5">
-        <v>0.26596300808317003</v>
+        <v>2.6783219259095552</v>
       </c>
       <c r="K25" s="5">
-        <v>-6.0985498111524086</v>
+        <v>-5.3638736602749209</v>
       </c>
       <c r="L25" s="5">
-        <v>11.743820306733044</v>
+        <v>12.394952362570288</v>
       </c>
       <c r="M25" s="5">
-        <v>1.8513118291781481</v>
+        <v>2.8401586012685609</v>
       </c>
       <c r="N25" s="5">
-        <v>-32.607511331430892</v>
+        <v>-31.995950605039457</v>
       </c>
       <c r="O25" s="5">
-        <v>26.216946889082848</v>
+        <v>34.418453443109918</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>30</v>
@@ -2670,7 +2666,7 @@
         <v>3.313469849078821</v>
       </c>
       <c r="T25" s="5">
-        <v>2.0696818828582759</v>
+        <v>2.0897758007049561</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2681,7 +2677,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="5">
-        <v>1566619264</v>
+        <v>1574244096</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -2690,34 +2686,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="5">
-        <v>2869044.75</v>
+        <v>2712620</v>
       </c>
       <c r="G26" s="5">
-        <v>6.992337703704834</v>
+        <v>6.9656491279602051</v>
       </c>
       <c r="H26" s="5">
-        <v>1.542397337624446</v>
+        <v>-1.6706672800467341</v>
       </c>
       <c r="I26" s="5">
-        <v>-0.54357280771656402</v>
+        <v>1.6699405120503612</v>
       </c>
       <c r="J26" s="5">
-        <v>-1.39507134401915</v>
+        <v>-1.4980156924747972</v>
       </c>
       <c r="K26" s="5">
-        <v>-5.7696237783151361</v>
+        <v>-5.9919318481569732</v>
       </c>
       <c r="L26" s="5">
-        <v>14.873951774898941</v>
+        <v>15.91070410322577</v>
       </c>
       <c r="M26" s="5">
-        <v>-2.1479493424846119</v>
+        <v>-1.77445966848665</v>
       </c>
       <c r="N26" s="5">
-        <v>-24.491811261937624</v>
+        <v>-24.015801302250118</v>
       </c>
       <c r="O26" s="5">
-        <v>35.125338346789235</v>
+        <v>38.655574648529203</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>30</v>
@@ -2732,7 +2728,7 @@
         <v>2.5316400642105892</v>
       </c>
       <c r="T26" s="5">
-        <v>1.7548758983612061</v>
+        <v>1.7615740299224849</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2743,43 +2739,43 @@
         <v>106</v>
       </c>
       <c r="C27" s="5">
-        <v>1476051328</v>
+        <v>1551584640</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <v>3376220.5</v>
+        <v>3982948</v>
       </c>
       <c r="G27" s="5">
-        <v>10.933055877685547</v>
+        <v>10.795706748962402</v>
       </c>
       <c r="H27" s="5">
-        <v>1.9320592706249862</v>
+        <v>-0.24101665666281802</v>
       </c>
       <c r="I27" s="5">
-        <v>0.142750444633366</v>
+        <v>4.746503522699963</v>
       </c>
       <c r="J27" s="5">
-        <v>6.8229302386971344</v>
+        <v>10.885571233092151</v>
       </c>
       <c r="K27" s="5">
-        <v>-15.690265249662815</v>
+        <v>-11.68198797602178</v>
       </c>
       <c r="L27" s="5">
-        <v>8.6509129052044997</v>
+        <v>9.8725007337904014</v>
       </c>
       <c r="M27" s="5">
-        <v>-13.983041164618326</v>
+        <v>-11.378106094154994</v>
       </c>
       <c r="N27" s="5">
-        <v>-23.54186192483979</v>
+        <v>-18.854726485896201</v>
       </c>
       <c r="O27" s="5">
-        <v>82.13563278918059</v>
+        <v>62.751611269482012</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>42</v>
@@ -2788,13 +2784,13 @@
         <v>107</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S27" s="5">
         <v>0.302389078498293</v>
       </c>
       <c r="T27" s="5">
-        <v>0.21354053914547003</v>
+        <v>0.22000741958618203</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2805,118 +2801,118 @@
         <v>109</v>
       </c>
       <c r="C28" s="5">
-        <v>1393074560</v>
+        <v>1389271936</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="5">
-        <v>5854573.5</v>
+        <v>3305400.75</v>
       </c>
       <c r="G28" s="5">
-        <v>4.6049189567565918</v>
+        <v>4.6455507278442383</v>
       </c>
       <c r="H28" s="5">
-        <v>-0.41688338446929102</v>
+        <v>-0.59670248692210703</v>
       </c>
       <c r="I28" s="5">
-        <v>2.2471913552308602</v>
+        <v>-1.79594999110958</v>
       </c>
       <c r="J28" s="5">
-        <v>6.3489371097154024</v>
+        <v>-3.9728718153500004E-3</v>
       </c>
       <c r="K28" s="5">
-        <v>-2.347943147222376</v>
+        <v>-6.4423250379711972</v>
       </c>
       <c r="L28" s="5">
-        <v>13.938715748653818</v>
+        <v>4.8476267629533174</v>
       </c>
       <c r="M28" s="5">
-        <v>3.282818703168267</v>
+        <v>-5.422847652851881</v>
       </c>
       <c r="N28" s="5">
-        <v>-9.0105835544465158</v>
+        <v>-17.762682944648013</v>
       </c>
       <c r="O28" s="5">
-        <v>65.374257660746338</v>
+        <v>11.96234033924004</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S28" s="5">
-        <v>23.389999389648438</v>
+        <v>1264.3405332700372</v>
       </c>
       <c r="T28" s="5">
-        <v>19.110000610351563</v>
+        <v>991.1795654296875</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="C29" s="5">
-        <v>1391739136</v>
+        <v>1385089152</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <v>3431956.25</v>
+        <v>5613389.5</v>
       </c>
       <c r="G29" s="5">
-        <v>4.6596064567565918</v>
+        <v>4.6364593505859384</v>
       </c>
       <c r="H29" s="5">
-        <v>0.32954159189904103</v>
+        <v>-0.52411101608800204</v>
       </c>
       <c r="I29" s="5">
-        <v>-3.0417963795476228</v>
+        <v>0.74309654200934705</v>
       </c>
       <c r="J29" s="5">
-        <v>0.40426073390598105</v>
+        <v>5.5094658590355117</v>
       </c>
       <c r="K29" s="5">
-        <v>-4.7253636092593698</v>
+        <v>-3.2076905590938232</v>
       </c>
       <c r="L29" s="5">
-        <v>1.87807158586546</v>
+        <v>14.36181112311823</v>
       </c>
       <c r="M29" s="5">
-        <v>-5.290458382459418</v>
+        <v>2.5802087439571242</v>
       </c>
       <c r="N29" s="5">
-        <v>-17.736174820467156</v>
+        <v>-11.517296876736694</v>
       </c>
       <c r="O29" s="5">
-        <v>16.226478633142417</v>
+        <v>70.406901634785186</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="4"/>
+      <c r="Q29" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="R29" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S29" s="5">
-        <v>1264.3405332700372</v>
+        <v>23.389999389648438</v>
       </c>
       <c r="T29" s="5">
-        <v>992.5670166015625</v>
+        <v>18.979999542236328</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2927,58 +2923,56 @@
         <v>114</v>
       </c>
       <c r="C30" s="5">
-        <v>1297442048</v>
+        <v>1296219392</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="5">
-        <v>10881206</v>
+        <v>2521009.5</v>
       </c>
       <c r="G30" s="5">
-        <v>13.663536071777344</v>
+        <v>4.0462427139282227</v>
       </c>
       <c r="H30" s="5">
-        <v>-3.1200002019841522</v>
+        <v>-0.14866282663289501</v>
       </c>
       <c r="I30" s="5">
-        <v>-3.1974467538950608</v>
+        <v>-1.5827243590391449</v>
       </c>
       <c r="J30" s="5">
-        <v>-7.1319012024846806</v>
+        <v>6.2898999098326011E-2</v>
       </c>
       <c r="K30" s="5">
-        <v>-11.541266454052423</v>
+        <v>-0.57831646656070201</v>
       </c>
       <c r="L30" s="5">
-        <v>22.314379630435766</v>
+        <v>19.161098702833137</v>
       </c>
       <c r="M30" s="5">
-        <v>-0.84458938383227311</v>
+        <v>0.51162132274229499</v>
       </c>
       <c r="N30" s="5">
-        <v>-10.928875849666053</v>
+        <v>1.214135145654982</v>
       </c>
       <c r="O30" s="5">
-        <v>17.45718548522639</v>
+        <v>49.186122315480631</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S30" s="5">
-        <v>15.390000343322754</v>
+        <v>1220.179304057134</v>
       </c>
       <c r="T30" s="5">
-        <v>11.710000038146973</v>
+        <v>1163.85107421875</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -2989,7 +2983,7 @@
         <v>116</v>
       </c>
       <c r="C31" s="5">
-        <v>1295242880</v>
+        <v>1286854144</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>45</v>
@@ -2998,34 +2992,34 @@
         <v>24</v>
       </c>
       <c r="F31" s="5">
-        <v>3185278.75</v>
+        <v>2981679.25</v>
       </c>
       <c r="G31" s="5">
-        <v>3.8548753261566162</v>
+        <v>3.8614423274993901</v>
       </c>
       <c r="H31" s="5">
-        <v>0.12164232893505701</v>
+        <v>-0.59490641120293308</v>
       </c>
       <c r="I31" s="5">
-        <v>-4.3747086045475942</v>
+        <v>-2.3129171523170511</v>
       </c>
       <c r="J31" s="5">
-        <v>-6.5202451224747549</v>
+        <v>-6.7528704824555863</v>
       </c>
       <c r="K31" s="5">
-        <v>-13.787282924489563</v>
+        <v>-14.456791823594884</v>
       </c>
       <c r="L31" s="5">
-        <v>-2.184567444505559</v>
+        <v>0.60649431179817803</v>
       </c>
       <c r="M31" s="5">
-        <v>-14.686030036968599</v>
+        <v>-15.206735282103089</v>
       </c>
       <c r="N31" s="5">
-        <v>-8.5295772018200715</v>
+        <v>-9.7338162891704822</v>
       </c>
       <c r="O31" s="5">
-        <v>26.202415605896292</v>
+        <v>21.417182051530826</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>25</v>
@@ -3038,7 +3032,7 @@
         <v>1627.7828606282403</v>
       </c>
       <c r="T31" s="5">
-        <v>1324.4237060546875</v>
+        <v>1316.3402099609375</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3049,56 +3043,58 @@
         <v>118</v>
       </c>
       <c r="C32" s="5">
-        <v>1288229632</v>
+        <v>1210253952</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="5">
-        <v>2682533.5</v>
+        <v>11326182</v>
       </c>
       <c r="G32" s="5">
-        <v>4.0909090042114258</v>
+        <v>13.913043975830078</v>
       </c>
       <c r="H32" s="5">
-        <v>-0.30666144327024003</v>
+        <v>-1.372211402280765</v>
       </c>
       <c r="I32" s="5">
-        <v>-3.1987774069900392</v>
+        <v>-5.3118943166441053</v>
       </c>
       <c r="J32" s="5">
-        <v>-1.147098709151517</v>
+        <v>-10.378099675533182</v>
       </c>
       <c r="K32" s="5">
-        <v>-0.80571446127601909</v>
+        <v>-13.695014910422243</v>
       </c>
       <c r="L32" s="5">
-        <v>15.391666467641297</v>
+        <v>16.796915899627262</v>
       </c>
       <c r="M32" s="5">
-        <v>-0.14542747153034602</v>
+        <v>-2.6227823764916502</v>
       </c>
       <c r="N32" s="5">
-        <v>1.278435556500201</v>
+        <v>-13.451868041671</v>
       </c>
       <c r="O32" s="5">
-        <v>50.940757916351906</v>
+        <v>11.225337624944466</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="4"/>
+      <c r="Q32" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="R32" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5">
-        <v>1220.179304057134</v>
+        <v>15.390000343322754</v>
       </c>
       <c r="T32" s="5">
-        <v>1156.242919921875</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3109,7 +3105,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="5">
-        <v>1237932160</v>
+        <v>1160857344</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
@@ -3118,37 +3114,35 @@
         <v>24</v>
       </c>
       <c r="F33" s="5">
-        <v>1038646.125</v>
+        <v>2060383.625</v>
       </c>
       <c r="G33" s="5">
-        <v>6.3939485549926758</v>
+        <v>6.9251090288162009E-2</v>
       </c>
       <c r="H33" s="5">
-        <v>2.030454886909117</v>
+        <v>-4.5470541843398387</v>
       </c>
       <c r="I33" s="5">
-        <v>1.300855894231034</v>
+        <v>2.54969226494195</v>
       </c>
       <c r="J33" s="5">
-        <v>1.7906765128900441</v>
+        <v>-0.52381597237330901</v>
       </c>
       <c r="K33" s="5">
-        <v>-8.2836806232291842</v>
+        <v>2.428419295724193</v>
       </c>
       <c r="L33" s="5">
-        <v>29.333785077099293</v>
+        <v>5.4291189466698864</v>
       </c>
       <c r="M33" s="5">
-        <v>3.743879052449905</v>
+        <v>-22.63143453548966</v>
       </c>
       <c r="N33" s="5">
-        <v>-33.595951010111811</v>
-      </c>
-      <c r="O33" s="5">
-        <v>-37.900434050795305</v>
-      </c>
+        <v>14.57169781760399</v>
+      </c>
+      <c r="O33" s="5"/>
       <c r="P33" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>122</v>
@@ -3157,10 +3151,10 @@
         <v>123</v>
       </c>
       <c r="S33" s="5">
-        <v>0.41317044677711001</v>
+        <v>0.33632467559269802</v>
       </c>
       <c r="T33" s="5">
-        <v>0.25605094432830799</v>
+        <v>0.23648351430892903</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3171,7 +3165,7 @@
         <v>125</v>
       </c>
       <c r="C34" s="5">
-        <v>1102028672</v>
+        <v>1075920000</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>23</v>
@@ -3180,34 +3174,34 @@
         <v>24</v>
       </c>
       <c r="F34" s="5">
-        <v>13201941</v>
+        <v>12019843</v>
       </c>
       <c r="G34" s="5">
-        <v>7.4618430137634277</v>
+        <v>7.5644698143005371</v>
       </c>
       <c r="H34" s="5">
-        <v>-2.5344302707478779</v>
+        <v>-1.5236939101434199</v>
       </c>
       <c r="I34" s="5">
-        <v>-4.1192422626260772</v>
+        <v>-5.929911155594203</v>
       </c>
       <c r="J34" s="5">
-        <v>-10.611421345726434</v>
+        <v>-7.964126552990292</v>
       </c>
       <c r="K34" s="5">
-        <v>-35.247280808255695</v>
+        <v>-35.940903466798034</v>
       </c>
       <c r="L34" s="5">
-        <v>-27.783913021033136</v>
+        <v>-28.221403326890215</v>
       </c>
       <c r="M34" s="5">
-        <v>-32.266210777573392</v>
+        <v>-33.185153311184479</v>
       </c>
       <c r="N34" s="5">
-        <v>-47.533597000722175</v>
+        <v>-49.277918715168447</v>
       </c>
       <c r="O34" s="5">
-        <v>-33.114225896553314</v>
+        <v>-33.527443574087144</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>25</v>
@@ -3222,7 +3216,7 @@
         <v>38.110000610351563</v>
       </c>
       <c r="T34" s="5">
-        <v>17.690000534057617</v>
+        <v>17.450000762939453</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3233,7 +3227,7 @@
         <v>128</v>
       </c>
       <c r="C35" s="5">
-        <v>1067882496</v>
+        <v>1071181824</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>45</v>
@@ -3242,34 +3236,34 @@
         <v>24</v>
       </c>
       <c r="F35" s="5">
-        <v>3124882</v>
+        <v>2808773.25</v>
       </c>
       <c r="G35" s="5">
-        <v>5.0664558410644531</v>
+        <v>5.0266876220703134</v>
       </c>
       <c r="H35" s="5">
-        <v>-6.8922548174322001E-2</v>
+        <v>-0.42119252941365004</v>
       </c>
       <c r="I35" s="5">
-        <v>-3.3369867834437179</v>
+        <v>-1.048126574159403</v>
       </c>
       <c r="J35" s="5">
-        <v>-1.486149542226411</v>
+        <v>-0.33381133403035401</v>
       </c>
       <c r="K35" s="5">
-        <v>-8.4974535554630961</v>
+        <v>-8.9674595374306776</v>
       </c>
       <c r="L35" s="5">
-        <v>-1.764716591539794</v>
+        <v>1.8109304457095692</v>
       </c>
       <c r="M35" s="5">
-        <v>-10.553141844123036</v>
+        <v>-10.243093829043815</v>
       </c>
       <c r="N35" s="5">
-        <v>-15.876256723861815</v>
+        <v>-15.91390650358594</v>
       </c>
       <c r="O35" s="5">
-        <v>8.1139809800260476</v>
+        <v>4.4699601622359753</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>25</v>
@@ -3282,7 +3276,7 @@
         <v>2987.0638965111721</v>
       </c>
       <c r="T35" s="5">
-        <v>2372.550537109375</v>
+        <v>2380.7744140625</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3293,7 +3287,7 @@
         <v>130</v>
       </c>
       <c r="C36" s="5">
-        <v>1059899712</v>
+        <v>1036051968</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3302,34 +3296,34 @@
         <v>24</v>
       </c>
       <c r="F36" s="5">
-        <v>5268578.5</v>
+        <v>5111006</v>
       </c>
       <c r="G36" s="5">
-        <v>6.4080944061279297</v>
+        <v>6.4680848121643066</v>
       </c>
       <c r="H36" s="5">
-        <v>-1.166669527689612</v>
+        <v>0.17050689295985402</v>
       </c>
       <c r="I36" s="5">
-        <v>0.8503352538192791</v>
+        <v>-2.4086375645502418</v>
       </c>
       <c r="J36" s="5">
-        <v>0.98403336178660705</v>
+        <v>-1.1120746910446619</v>
       </c>
       <c r="K36" s="5">
-        <v>-1.571486315068316</v>
+        <v>-2.3249184202294049</v>
       </c>
       <c r="L36" s="5">
-        <v>15.740104174470781</v>
+        <v>13.700341679605588</v>
       </c>
       <c r="M36" s="5">
-        <v>4.8477663814320282</v>
+        <v>3.8753196159011072</v>
       </c>
       <c r="N36" s="5">
-        <v>-11.052010863917161</v>
+        <v>-11.938916291507184</v>
       </c>
       <c r="O36" s="5">
-        <v>19.023854230960691</v>
+        <v>50.139199120668067</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>25</v>
@@ -3344,7 +3338,7 @@
         <v>14.930000305175781</v>
       </c>
       <c r="T36" s="5">
-        <v>11.859999656677246</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3355,7 +3349,7 @@
         <v>132</v>
       </c>
       <c r="C37" s="5">
-        <v>1020426944</v>
+        <v>997786752</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3364,34 +3358,34 @@
         <v>24</v>
       </c>
       <c r="F37" s="5">
-        <v>11814817</v>
+        <v>10819442</v>
       </c>
       <c r="G37" s="5">
-        <v>2.291325569152832</v>
+        <v>2.325581312179565</v>
       </c>
       <c r="H37" s="5">
-        <v>-3.1695691137682891</v>
+        <v>-2.4311198300264851</v>
       </c>
       <c r="I37" s="5">
-        <v>-5.1242223722663187</v>
+        <v>-6.9551750209841501</v>
       </c>
       <c r="J37" s="5">
-        <v>-19.811347381117727</v>
+        <v>-8.6494712968638972</v>
       </c>
       <c r="K37" s="5">
-        <v>-18.426950684384547</v>
+        <v>-20.158671364320892</v>
       </c>
       <c r="L37" s="5">
-        <v>-5.7365940242898761</v>
+        <v>-9.0686564377753793</v>
       </c>
       <c r="M37" s="5">
-        <v>-8.865714612880538</v>
+        <v>-10.208120408559518</v>
       </c>
       <c r="N37" s="5">
-        <v>-29.847949129794994</v>
+        <v>-30.958940742130192</v>
       </c>
       <c r="O37" s="5">
-        <v>-33.259675696667557</v>
+        <v>-31.538456199129783</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>25</v>
@@ -3406,7 +3400,7 @@
         <v>9.1800003051757813</v>
       </c>
       <c r="T37" s="5">
-        <v>6.1100001335144043</v>
+        <v>6.0199999809265137</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3417,120 +3411,120 @@
         <v>135</v>
       </c>
       <c r="C38" s="5">
-        <v>860240896</v>
+        <v>875875840</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="5">
-        <v>1611109.375</v>
+        <v>1849933</v>
       </c>
       <c r="G38" s="5">
-        <v>6.3207550048828134</v>
+        <v>6.879755973815918</v>
       </c>
       <c r="H38" s="5">
-        <v>0.98547398024557709</v>
+        <v>0.23586517310672001</v>
       </c>
       <c r="I38" s="5">
-        <v>5.4289652498506591</v>
+        <v>8.114590093964269</v>
       </c>
       <c r="J38" s="5">
-        <v>5.913800384723622</v>
+        <v>3.2154327738526778</v>
       </c>
       <c r="K38" s="5">
-        <v>-7.9581312718749579</v>
+        <v>-14.791478990057261</v>
       </c>
       <c r="L38" s="5">
-        <v>11.211318530939129</v>
+        <v>17.993752883699177</v>
       </c>
       <c r="M38" s="5">
-        <v>-4.8904099969684705</v>
+        <v>-5.8071827196742536</v>
       </c>
       <c r="N38" s="5">
-        <v>-39.964047513436029</v>
+        <v>-43.061362928874857</v>
       </c>
       <c r="O38" s="5">
-        <v>-12.662178784175303</v>
+        <v>18.044657415369048</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S38" s="5">
-        <v>1.243469103672894</v>
+        <v>2.096480441422877</v>
       </c>
       <c r="T38" s="5">
-        <v>0.6616519689559941</v>
+        <v>1.0951229333877559</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75">
       <c r="A39" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39" s="5">
-        <v>840176128</v>
+        <v>867213568</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="5">
-        <v>2090355.875</v>
+        <v>1574734.25</v>
       </c>
       <c r="G39" s="5">
-        <v>7.186009407043457</v>
+        <v>6.2267661094665527</v>
       </c>
       <c r="H39" s="5">
-        <v>1.739303567167227</v>
+        <v>-0.43450750327731502</v>
       </c>
       <c r="I39" s="5">
-        <v>1.451516700986399</v>
+        <v>4.559686316677003</v>
       </c>
       <c r="J39" s="5">
-        <v>-3.6691551766955488</v>
+        <v>3.283188385075797</v>
       </c>
       <c r="K39" s="5">
-        <v>-18.505394939035003</v>
+        <v>-5.9046770826753363</v>
       </c>
       <c r="L39" s="5">
-        <v>15.256511405353645</v>
+        <v>11.391710491399643</v>
       </c>
       <c r="M39" s="5">
-        <v>-9.5518477472158363</v>
+        <v>-4.0657383139039212</v>
       </c>
       <c r="N39" s="5">
-        <v>-46.175756788153336</v>
+        <v>-40.963715049438967</v>
       </c>
       <c r="O39" s="5">
-        <v>18.853837211895332</v>
+        <v>-12.792342521849898</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="S39" s="5">
-        <v>2.096480441422877</v>
+        <v>1.243469103672894</v>
       </c>
       <c r="T39" s="5">
-        <v>1.0515860319137571</v>
+        <v>0.66738897562027</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75">
@@ -3541,118 +3535,118 @@
         <v>140</v>
       </c>
       <c r="C40" s="5">
-        <v>817986496</v>
+        <v>804414592</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="5">
-        <v>1260880.375</v>
+        <v>2268727.25</v>
       </c>
       <c r="G40" s="5">
-        <v>5.161290168762207</v>
+        <v>5.403571605682373</v>
       </c>
       <c r="H40" s="5">
-        <v>0.29523931903232503</v>
+        <v>-0.33459541642634205</v>
       </c>
       <c r="I40" s="5">
-        <v>-0.330043217915577</v